--- a/data/02_intermediate/cleaned_Gérard_Baste_songs.xlsx
+++ b/data/02_intermediate/cleaned_Gérard_Baste_songs.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Faire péter le kepon, paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon, paye ton punk Fais péter l'punk Gérard Baste, la Nina Hagen française Je veux réveiller le punk qui est en moi Faire péter le junkie Ce soir jen ai marre dêtre funky Jveux disjoncter à lacide Gerber juste avant le concert Monter sur scène tout livide Avec un banjo Même si jtroque mes Rangos Pour des Mephistos Jkifferai toujours une guitare disto Slam, jette-toi dans les flammes Jresterai Rock n Roll dans lâme jusquà ce que jclamse Jai brûlé mes verrues Mais jamais jbrûlerai mes vieux albums des Bérus Fils jen suis trop féru, plus que d'Jean Ferrat Je préfère le rock ferreux de Pantera Adhère à la philo-sophie De livrogne notoire Qui souvent utilisa le trottoir comme dortoir Mon ossature sature Toutes ces bitures Laissent des points de suture Si jcontinue ce sera No Future Gérard Baste arrête de tfonçder Disent les mecs alors que jsuis en train dvider Mon bide dans lbidet Ils comprennent rien à lanarchie Mec, tu veux un groupe rebelle, moi jle suis archi En direct et pas en duplex Nique tes complexes Le son claque dans tes dents Serrées comme les rangs dune triplex Jmen fous Jsaute comme Donkey Kong Je ne vivrai jamais comme quiconque Car jai réveillé le punk You might also like Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk Je fais la grasse matinée Reste dans mes odeurs Jempeste mauvaises OD De la veille quelle horreur Le punk se réveille Eclate son réveil Sur le téléphone qui sonne Jmassomme Réveille le punk qui sommeille Jbondis de mon sommier Me rince le gosier Môme la bière que jachetais Ne servait quà me coiffer Crise dadolescence, punk naissant Semblant dfamille délaissant Je suis bête et méchant En rade à Marmottan Barbotant dans mon sang Après un pogo Je suis le vilain sauvage pas beau Pire quun lobo Vlà mon logo Fallait pas mlaisser dans llabo dchimie Jai tout bégo Quoi dneuf doc gros coup dDoc coquée Dans mon hip hop troqué contre du rock Sors ton perfecto défroqué Tu seras Ok Pour ne pas terminer Comme la femme des Sex Pistols Dans lfrigo toute découpée Couplet à ma bière Comme si cétait mon frère Jsuis fier y a quelle qui me nourrisse Jtépingle à nourrisse Jai bu comme Ludwig Quatre-Vingt 8,6 Double zéro de Conduite Six Suicidal Tendances Mon single de cinglé, le tube de léther Plus anti-social que Trust Je pue comme le Munster Lépave lance le pavé Dans la manifestation Prônant lauto-destruction Jai perdu ma génération Des Who jusquau Wu Tang Je vais te faire fuir Je représente ceux qui utilisent leur cervelle à la détruire Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk</t>
+          <t>Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Faire péter le kepon, paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon, paye ton punk Fais péter l'punk Gérard Baste, la Nina Hagen française Je veux réveiller le punk qui est en moi Faire péter le junkie Ce soir jen ai marre dêtre funky Jveux disjoncter à lacide Gerber juste avant le concert Monter sur scène tout livide Avec un banjo Même si jtroque mes Rangos Pour des Mephistos Jkifferai toujours une guitare disto Slam, jette-toi dans les flammes Jresterai Rock n Roll dans lâme jusquà ce que jclamse Jai brûlé mes verrues Mais jamais jbrûlerai mes vieux albums des Bérus Fils jen suis trop féru, plus que d'Jean Ferrat Je préfère le rock ferreux de Pantera Adhère à la philo-sophie De livrogne notoire Qui souvent utilisa le trottoir comme dortoir Mon ossature sature Toutes ces bitures Laissent des points de suture Si jcontinue ce sera No Future Gérard Baste arrête de tfonçder Disent les mecs alors que jsuis en train dvider Mon bide dans lbidet Ils comprennent rien à lanarchie Mec, tu veux un groupe rebelle, moi jle suis archi En direct et pas en duplex Nique tes complexes Le son claque dans tes dents Serrées comme les rangs dune triplex Jmen fous Jsaute comme Donkey Kong Je ne vivrai jamais comme quiconque Car jai réveillé le punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk Je fais la grasse matinée Reste dans mes odeurs Jempeste mauvaises OD De la veille quelle horreur Le punk se réveille Eclate son réveil Sur le téléphone qui sonne Jmassomme Réveille le punk qui sommeille Jbondis de mon sommier Me rince le gosier Môme la bière que jachetais Ne servait quà me coiffer Crise dadolescence, punk naissant Semblant dfamille délaissant Je suis bête et méchant En rade à Marmottan Barbotant dans mon sang Après un pogo Je suis le vilain sauvage pas beau Pire quun lobo Vlà mon logo Fallait pas mlaisser dans llabo dchimie Jai tout bégo Quoi dneuf doc gros coup dDoc coquée Dans mon hip hop troqué contre du rock Sors ton perfecto défroqué Tu seras Ok Pour ne pas terminer Comme la femme des Sex Pistols Dans lfrigo toute découpée Couplet à ma bière Comme si cétait mon frère Jsuis fier y a quelle qui me nourrisse Jtépingle à nourrisse Jai bu comme Ludwig Quatre-Vingt 8,6 Double zéro de Conduite Six Suicidal Tendances Mon single de cinglé, le tube de léther Plus anti-social que Trust Je pue comme le Munster Lépave lance le pavé Dans la manifestation Prônant lauto-destruction Jai perdu ma génération Des Who jusquau Wu Tang Je vais te faire fuir Je représente ceux qui utilisent leur cervelle à la détruire Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hey yo j'suis trop chaud Quand j'débarque allume le ventilo Gérard Baste, 1m73, 110 kilos J'ai un très gros stylo Une sténodactylo Laisse moi 5 minutes pour défoncer ton Dunlopillo Ma spécialité c'est les petites sauteries J'dévalise le rayon mexicain du monoprix J'suis pas venu pour animer l'atelier poterie Mais pour rocker la scène avec mes gars qu'en ont trop pris En train d'me pogner devant un vieux clip à Lorie J'suis pas pervers, c'est juste pour brûler les calories Et si tu m'suis, c'est que parfois tu cries Mon héros ! J'suis pas gros, j'ai juste des ancêtres maoris J'ai gobé l'x et depuis j'ai les os solides Pour mieux retomber sur mes pattes et conduire les gros bolides Super-Baste en slibard! Au dessus d'Métropolis Tu veux atteindre mon standard? Va falloir te mettre aux saucisses They told me... I was great You might also like Yippee ya yeah Yippee ya ya yo Dis moi qui est le plus beau? Qui est le plus gros? Yippee ya yo Yippee ya ya yeah J'suis le genre de modèle qu'ils feraient bien de respecter Yippee ya yeah Yippee ya ya yo C'est pour tous les gars comme moi qu'en prennent toujours trop Yippee ya yo Yippee ya ya yeah Et si tu veux du fat on va t'en faire bouffer J'veux être plus dur que Seth Gueko Plus cool qu'Orelsan Plus sexy qu'Nekfeu Plus compréhensible que Vald Mieux écrit que Lino Plus intello que Fuzati Mais j'suis rouge comme Redman Et presque aussi gros que B.I.G Appelle moi Kid Cubi, the real slip shady, Puffido du diddy, Boula-Wan Kenobi Appelle moi Bide Doherty ou Joe Bedaine, Fatboy slip, Ambré 3000 ou Sacha Distelle Ouais j'suis grassouillet Pour l'apéro j'ai fini trois poulets Pour le dessert j'ai fait léger J'ai pris un cassoulet Mon anatomie c'est devenu une vraie charcuterie C'est plus un foie que j'ai, c'est une une aubergine farcie J'aurais bien dû me douter qu'il m'arriverait des tuiles Vu que ce qui coule dans mes veines C'est de l'alcool et de l'huile Je rentre plus dans mes polos Je fais le poids d'un épaulard T'as gagné le gros lot T'es tombée sur un gros lard They told me... I was great Yippee ya yeah Yippee ya ya yo Dis moi qui est le plus beau? Qui est le plus gros? Yippee ya yo Yippee ya ya yeah J'suis le genre de modèle qu'ils feraient bien de respecter Yippee ya yeah Yippee ya ya yo C'est pour tous les gars comme moi qu'en prennent toujours trop Yippee ya yo Yippee ya ya yeah Et si tu veux du fat on va t'en faire bouffer And all I wanna do Is boogaloo Trouve moi sur ton canapé en train De mâchouiller un vieux chewing-gum Que du vrai, j'ai jamais triché C'est ma vie, c'est pas un sitcom T'as intérêt à bien bosser Si tu veux égaler ce prototype d'homme Que t'aies les fesses en pastèques, que tu sois gras du steak Ou que t'aies les seins en toutes petites pommes</t>
+          <t>Hey yo j'suis trop chaud Quand j'débarque allume le ventilo Gérard Baste, 1m73, 110 kilos J'ai un très gros stylo Une sténodactylo Laisse moi 5 minutes pour défoncer ton Dunlopillo Ma spécialité c'est les petites sauteries J'dévalise le rayon mexicain du monoprix J'suis pas venu pour animer l'atelier poterie Mais pour rocker la scène avec mes gars qu'en ont trop pris En train d'me pogner devant un vieux clip à Lorie J'suis pas pervers, c'est juste pour brûler les calories Et si tu m'suis, c'est que parfois tu cries Mon héros ! J'suis pas gros, j'ai juste des ancêtres maoris J'ai gobé l'x et depuis j'ai les os solides Pour mieux retomber sur mes pattes et conduire les gros bolides Super-Baste en slibard! Au dessus d'Métropolis Tu veux atteindre mon standard? Va falloir te mettre aux saucisses They told me... I was great Yippee ya yeah Yippee ya ya yo Dis moi qui est le plus beau? Qui est le plus gros? Yippee ya yo Yippee ya ya yeah J'suis le genre de modèle qu'ils feraient bien de respecter Yippee ya yeah Yippee ya ya yo C'est pour tous les gars comme moi qu'en prennent toujours trop Yippee ya yo Yippee ya ya yeah Et si tu veux du fat on va t'en faire bouffer J'veux être plus dur que Seth Gueko Plus cool qu'Orelsan Plus sexy qu'Nekfeu Plus compréhensible que Vald Mieux écrit que Lino Plus intello que Fuzati Mais j'suis rouge comme Redman Et presque aussi gros que B.I.G Appelle moi Kid Cubi, the real slip shady, Puffido du diddy, Boula-Wan Kenobi Appelle moi Bide Doherty ou Joe Bedaine, Fatboy slip, Ambré 3000 ou Sacha Distelle Ouais j'suis grassouillet Pour l'apéro j'ai fini trois poulets Pour le dessert j'ai fait léger J'ai pris un cassoulet Mon anatomie c'est devenu une vraie charcuterie C'est plus un foie que j'ai, c'est une une aubergine farcie J'aurais bien dû me douter qu'il m'arriverait des tuiles Vu que ce qui coule dans mes veines C'est de l'alcool et de l'huile Je rentre plus dans mes polos Je fais le poids d'un épaulard T'as gagné le gros lot T'es tombée sur un gros lard They told me... I was great Yippee ya yeah Yippee ya ya yo Dis moi qui est le plus beau? Qui est le plus gros? Yippee ya yo Yippee ya ya yeah J'suis le genre de modèle qu'ils feraient bien de respecter Yippee ya yeah Yippee ya ya yo C'est pour tous les gars comme moi qu'en prennent toujours trop Yippee ya yo Yippee ya ya yeah Et si tu veux du fat on va t'en faire bouffer And all I wanna do Is boogaloo Trouve moi sur ton canapé en train De mâchouiller un vieux chewing-gum Que du vrai, j'ai jamais triché C'est ma vie, c'est pas un sitcom T'as intérêt à bien bosser Si tu veux égaler ce prototype d'homme Que t'aies les fesses en pastèques, que tu sois gras du steak Ou que t'aies les seins en toutes petites pommes</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ATTENTION ECRITURE NON FINIE !! Audiolingus mais comment traduire ça putain,je crois que je l'ai au bout de la langue !! Yoshi meet soap Worldwide connexion ! Come on ! Original cyanure tu,connais déjà J'entre dans la danse sur la pointe des pieds,tu connais Et je tapprends l'hospitalité ,tu connais Ce n'est pas un SOAP opéra tu connais yosh',tu connais gérard Caresse auditive,pas de paresse auditrice,on dis qu'ya des badass qui embarrasse la scène avec plus de caractères que sur twitter Suite a tu t'échappes en sueur on se dandine a,e,i,o c'est la danse des mots bienvenue dans le monde de mon dino Carresse auditive ugh ! Sois pas émotif ugh ! J'ai juste le niveau au micro,prends un égotrip ugh ! Tout le monde le doigt en l'air ugh ! Toucher rectal ugh ! Le game en pleins fantasme J'lui mets doucement Rime envoûtantes Flow déroutant,dégoutant Plus d'1 KO dans le bagout que rocancourt ah ! Fait du boucan Si t'est trop con,trop sourd Oui le son est lourd,hum.. trop bon,trop courtYou might also like1</t>
+          <t>ATTENTION ECRITURE NON FINIE !! Audiolingus mais comment traduire ça putain,je crois que je l'ai au bout de la langue !! Yoshi meet soap Worldwide connexion ! Come on ! Original cyanure tu,connais déjà J'entre dans la danse sur la pointe des pieds,tu connais Et je tapprends l'hospitalité ,tu connais Ce n'est pas un SOAP opéra tu connais yosh',tu connais gérard Caresse auditive,pas de paresse auditrice,on dis qu'ya des badass qui embarrasse la scène avec plus de caractères que sur twitter Suite a tu t'échappes en sueur on se dandine a,e,i,o c'est la danse des mots bienvenue dans le monde de mon dino Carresse auditive ugh ! Sois pas émotif ugh ! J'ai juste le niveau au micro,prends un égotrip ugh ! Tout le monde le doigt en l'air ugh ! Toucher rectal ugh ! Le game en pleins fantasme J'lui mets doucement Rime envoûtantes Flow déroutant,dégoutant Plus d'1 KO dans le bagout que rocancourt ah ! Fait du boucan Si t'est trop con,trop sourd Oui le son est lourd,hum.. trop bon,trop court1</t>
         </is>
       </c>
     </row>
@@ -529,11 +529,7 @@
           <t>1, 2, 3, 4</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -548,7 +544,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Et ben, c'est pas facile tous les jours 'M'ont prit la tête toute la semaine avec leurs cours de merde Profs de merde, bahut d'merde Les parents, ils m'ont saoulé, ils m'ont sur-saoulé J'en ai rien à foutre, t'façon c'week-end c'est décidé, je fume 25 grammes de shit Rien à foutre ! Et les d'voirs, qu'ils aillent se faire enculer Non mais attends, tu crois qu'on va s'laisser faire ? Non mais hey, oh ! LOL Les parents sont partis d'puis à peine 5 minutes Que j'pète déjà un 3 feuilles d'vant un bon film de uc' Et j'épluche le carnet d'adresses pour prévenir les soss' De s'pointés avec des meufs, de la tise et d'la dope Pendant qu'j'éclate le pack, j'fais chauffer l'eau des pâtes Et j'fais péter la chaîne hi-fi avec des disques de rap J'enfile un t-shirt Qhuit et puis j'me lave la bite On sait jamais qu'une meuf soit assez bourrée pour qu'j'la nique Faut qu'j'invite la moitié d'Paris sinon j'me sens seul Dans la vie j'aime lire des mangas et m'déchirer la gueule J'collectionne les Lego Star Wars et les voitures Hot Wheels Et j'ai trop d'casquettes, trop d'shoes, trop d'lunettes, j'ai trop d'style J'ai éclaté mon forfait, ma ??? c'est la zone J'passe pour un con, j'suis l'seul de la bande qui a pas d'IPhone En bref, j'vis la vie d'n'importe quel adolescent Le problème c'est juste qu'j'ai plus d'35 ans Merde ! You might also like Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Tu sais qu'j'suis l'même-même petit-petit con c'est grave Les jeunes magacent et les mecs de mon age me gavent Ma meuf m'engueule, c'est encore trop rare que j'me lave Le matin c'est rare que j'me lève, j'ai la tête dans l'cul grave J'ai promis d'arrêter la console et d'plus bouger en boite De m'faire des salades mais j'ouvre des raviolis en boite Tous les matins d'vant larmoire qui déborde, j'bataille Mes jeans sont trop larges, trop serrés mais jamais à ma taille J'me revois encore en 4ème quand j'avais ans-12 Veste en jean, t-shirt Renaud et bandana rouge J'me revois encore quand j'voulais être un zulu et qu'j'traînais dans l'moove Élevé pas les louves aux palissades du Louvre Maintenant j'suis le Ancien Kid on the Block, le trop grand Lil Wayne Le Young Jeezy Old, le Soulja homme, le Hot Boys tiède Consomme-moi vite fait, avant qu'j'sois rassit, rincé J'suis un teenager de 35 ans, et d'mi, passés Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Et ouais au final T'as vu c'est fort la vie d'adulte, c'est compliqué la vie d'artiste Faut bien régler les factures, cours, cours après l'fric Mais j'reste encore bloqué quand j'me pognais d'vant Premiers Baisers Sur les lunettes d'Annette et j'croyais qu'j'allais jamais baiser Puis les boutons sur la gueule, ça finit par partir Les poils ça pousse, les dents ça finit par jaunir On a l'age qu'on a, j'ai l'age que j'ai J'suis toujours à l'aise, Gérard Baste 1973 x2 Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980</t>
+          <t>Et ben, c'est pas facile tous les jours 'M'ont prit la tête toute la semaine avec leurs cours de merde Profs de merde, bahut d'merde Les parents, ils m'ont saoulé, ils m'ont sur-saoulé J'en ai rien à foutre, t'façon c'week-end c'est décidé, je fume 25 grammes de shit Rien à foutre ! Et les d'voirs, qu'ils aillent se faire enculer Non mais attends, tu crois qu'on va s'laisser faire ? Non mais hey, oh ! LOL Les parents sont partis d'puis à peine 5 minutes Que j'pète déjà un 3 feuilles d'vant un bon film de uc' Et j'épluche le carnet d'adresses pour prévenir les soss' De s'pointés avec des meufs, de la tise et d'la dope Pendant qu'j'éclate le pack, j'fais chauffer l'eau des pâtes Et j'fais péter la chaîne hi-fi avec des disques de rap J'enfile un t-shirt Qhuit et puis j'me lave la bite On sait jamais qu'une meuf soit assez bourrée pour qu'j'la nique Faut qu'j'invite la moitié d'Paris sinon j'me sens seul Dans la vie j'aime lire des mangas et m'déchirer la gueule J'collectionne les Lego Star Wars et les voitures Hot Wheels Et j'ai trop d'casquettes, trop d'shoes, trop d'lunettes, j'ai trop d'style J'ai éclaté mon forfait, ma ??? c'est la zone J'passe pour un con, j'suis l'seul de la bande qui a pas d'IPhone En bref, j'vis la vie d'n'importe quel adolescent Le problème c'est juste qu'j'ai plus d'35 ans Merde ! Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Tu sais qu'j'suis l'même-même petit-petit con c'est grave Les jeunes magacent et les mecs de mon age me gavent Ma meuf m'engueule, c'est encore trop rare que j'me lave Le matin c'est rare que j'me lève, j'ai la tête dans l'cul grave J'ai promis d'arrêter la console et d'plus bouger en boite De m'faire des salades mais j'ouvre des raviolis en boite Tous les matins d'vant larmoire qui déborde, j'bataille Mes jeans sont trop larges, trop serrés mais jamais à ma taille J'me revois encore en 4ème quand j'avais ans-12 Veste en jean, t-shirt Renaud et bandana rouge J'me revois encore quand j'voulais être un zulu et qu'j'traînais dans l'moove Élevé pas les louves aux palissades du Louvre Maintenant j'suis le Ancien Kid on the Block, le trop grand Lil Wayne Le Young Jeezy Old, le Soulja homme, le Hot Boys tiède Consomme-moi vite fait, avant qu'j'sois rassit, rincé J'suis un teenager de 35 ans, et d'mi, passés Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Et ouais au final T'as vu c'est fort la vie d'adulte, c'est compliqué la vie d'artiste Faut bien régler les factures, cours, cours après l'fric Mais j'reste encore bloqué quand j'me pognais d'vant Premiers Baisers Sur les lunettes d'Annette et j'croyais qu'j'allais jamais baiser Puis les boutons sur la gueule, ça finit par partir Les poils ça pousse, les dents ça finit par jaunir On a l'age qu'on a, j'ai l'age que j'ai J'suis toujours à l'aise, Gérard Baste 1973 x2 Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980</t>
         </is>
       </c>
     </row>
@@ -565,7 +561,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Eh mon pote, eh regarde ce que j'ai pour toi Une petite gorgée de ça et fini le lait écrémé C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard J'ai une halène de mort et des pensées malsaines Et j'sors de ma tanière quand la lune apparaît dans le ciel Une montée de fièvre et j'ai tout le corps qui tremble J'pousse un hurlement horrible, pliant, m'tenant le ventre Les paupières qui se retournes, et les yeux qui se révulsent Les mains qui pendent au bout de mes bras qui se tendent, tout droit devant le buste Les dents qui s'allongent et les poils qui poussent J'marche comme un zombie dégueulasse jusqu'à ce que je fasse les courses Devant le rayon où je vais squatter pendant trois quarts d'heure En train de bander comme un vieux hardeur J'sais, j'finirai par serrer la même vieille piquette Mais, une par une je lirai toutes les étiquettes Si y'a une pauvre meuf qui me dit - Excusez-moi je passe - Non tu passes pas devant moi quand je regarde le pinard connasse ! J'la tire par les cheveux j'lui dévore la gorge Vise le goulot avec les dents et j'vide cul-sec une 'teille de Nuits-Saint-Georges You might also like C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard -Eh mon pote, tu peux me mettre une autre bouteille de côté pour plus tard ? - Mon vieux, je ne mettrai rien de côté pour toi - Eh mais je suis pas en train de parler de la gnaule mec, j'te parle pas de la gnaule. La vie ! J'suis en train de parler de la vie - Me fout complètement de ce que tu racontes, tu prends ta gnaule et tu dégages ! - Attends ! Écoute un peu ! J'absorbe plus que la sphaigne En manque j'suis une teigne Et je renais à la vie lorsque les lumières de la ville s'éteignent La bouche ouverte, la gorge sèche et les bras qui grattent J'défonce ton thorax, et j'bouffe ton cur de pie crade C'est le retour de Kid Cubi C'est le bal des promos, et ma victime a une belle robe rubis Tous les vendredis 13 degrés on se réunit Et c'est toute l'armée des morts qui fonce vers l'épicerie de nuit Ça te fera pas mal c'est promis J'l'enfile tout bourré pendant que Jennifer vomit Et l'aut' pédé de Dracula peut venir me sucer C'est lui qui va tomber dans le coma Visage bouffi contre les vampires The descente qui fait peur et je m'entretiens avec un sang pire Priez le Saint Père De ne pas croiser Gérard, en train de boire seul le soir, à poil sous son imper' J'ai le vin d'horreur, un pas de plus vers l'aurore Ramène un sommelier si tu comptes identifier le corps Tu peux venir me planter un pieu dans le cur Personne pourra m'arrêter tant que je serai armé d'un décapsuleur C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard - Prends ta gnaule et dégage ! - Ca y est je crois que ça viens ! Tu commences à saisir ce que je veux dire hein ? Et quand tu sauras la vérité, tu auras tout bon mon pote ! - Bon allez vas-y raconte ! Les yeux exorbités, injectés de sang et le visage blême J'pourrais boire encore plus mais j'ai la flemme Je m'essuie la bouche du revers de la main, pendant que les dernières bouteilles crèvent Et je rejoins mon cercueil pendant que le soleil se lève J'ai vidé les briques, fais les comptes de la Kriek Et ma tension retombe à 86 quand le jour rappliquent J'ai été abdominable, j'ai bu tout le sang de la Terre, et j'ai signé un pack avec le diable Une canette vide c'est ma vision de l'enfer Et je fonce vers le prochain bistrot à tombeau ouvert Et en guise d'épitaphe le jour où je remballe Tu peux inscrire Rest in Pils sur ma bière tombale C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard</t>
+          <t>Eh mon pote, eh regarde ce que j'ai pour toi Une petite gorgée de ça et fini le lait écrémé C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard J'ai une halène de mort et des pensées malsaines Et j'sors de ma tanière quand la lune apparaît dans le ciel Une montée de fièvre et j'ai tout le corps qui tremble J'pousse un hurlement horrible, pliant, m'tenant le ventre Les paupières qui se retournes, et les yeux qui se révulsent Les mains qui pendent au bout de mes bras qui se tendent, tout droit devant le buste Les dents qui s'allongent et les poils qui poussent J'marche comme un zombie dégueulasse jusqu'à ce que je fasse les courses Devant le rayon où je vais squatter pendant trois quarts d'heure En train de bander comme un vieux hardeur J'sais, j'finirai par serrer la même vieille piquette Mais, une par une je lirai toutes les étiquettes Si y'a une pauvre meuf qui me dit - Excusez-moi je passe - Non tu passes pas devant moi quand je regarde le pinard connasse ! J'la tire par les cheveux j'lui dévore la gorge Vise le goulot avec les dents et j'vide cul-sec une 'teille de Nuits-Saint-Georges C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard -Eh mon pote, tu peux me mettre une autre bouteille de côté pour plus tard ? - Mon vieux, je ne mettrai rien de côté pour toi - Eh mais je suis pas en train de parler de la gnaule mec, j'te parle pas de la gnaule. La vie ! J'suis en train de parler de la vie - Me fout complètement de ce que tu racontes, tu prends ta gnaule et tu dégages ! - Attends ! Écoute un peu ! J'absorbe plus que la sphaigne En manque j'suis une teigne Et je renais à la vie lorsque les lumières de la ville s'éteignent La bouche ouverte, la gorge sèche et les bras qui grattent J'défonce ton thorax, et j'bouffe ton cur de pie crade C'est le retour de Kid Cubi C'est le bal des promos, et ma victime a une belle robe rubis Tous les vendredis 13 degrés on se réunit Et c'est toute l'armée des morts qui fonce vers l'épicerie de nuit Ça te fera pas mal c'est promis J'l'enfile tout bourré pendant que Jennifer vomit Et l'aut' pédé de Dracula peut venir me sucer C'est lui qui va tomber dans le coma Visage bouffi contre les vampires The descente qui fait peur et je m'entretiens avec un sang pire Priez le Saint Père De ne pas croiser Gérard, en train de boire seul le soir, à poil sous son imper' J'ai le vin d'horreur, un pas de plus vers l'aurore Ramène un sommelier si tu comptes identifier le corps Tu peux venir me planter un pieu dans le cur Personne pourra m'arrêter tant que je serai armé d'un décapsuleur C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard - Prends ta gnaule et dégage ! - Ca y est je crois que ça viens ! Tu commences à saisir ce que je veux dire hein ? Et quand tu sauras la vérité, tu auras tout bon mon pote ! - Bon allez vas-y raconte ! Les yeux exorbités, injectés de sang et le visage blême J'pourrais boire encore plus mais j'ai la flemme Je m'essuie la bouche du revers de la main, pendant que les dernières bouteilles crèvent Et je rejoins mon cercueil pendant que le soleil se lève J'ai vidé les briques, fais les comptes de la Kriek Et ma tension retombe à 86 quand le jour rappliquent J'ai été abdominable, j'ai bu tout le sang de la Terre, et j'ai signé un pack avec le diable Une canette vide c'est ma vision de l'enfer Et je fonce vers le prochain bistrot à tombeau ouvert Et en guise d'épitaphe le jour où je remballe Tu peux inscrire Rest in Pils sur ma bière tombale C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard</t>
         </is>
       </c>
     </row>
@@ -582,7 +578,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Non mais c'est qui celle là ? Mais elle sert à quoi ? En plus tsais qu'j'suis un mauvais coup là ? Tu nme fait rien donc ne me touche pas Tu n'sert à rien et je n'me douche pas T'as cru qu't'allais baiser l'Rock'nroll ? Jme rappelle plus si tu t'appelles Germaine, Raymonde ou Carole Je nm'ouvre pas à toi Pire qu'une huître qui parle en patois Casse-toi et dis-toi que je n'baise qua cappella Fous-toi à poil, si tu veux j's'rais plus sexy qu'un maroilles Aller, viens baby maint'nant, kiffes grave sur ma ??? L'ergonomie d'flows astronomiques N'a rien à voir avec l'astrologie 2 galaxies se chevauchent, yeux dans les yeux, on baise Sur la plage, sur le sable, dos sur le sol Compte les étoiles, j'éjacule un liquide blanchâtre Que les MCs avalent gentiment, sans rien dire je me cloître Sans vivre en autarcie, ne squatte plus les macs Hystérique, Dominique You might also like Excuse, mais j'suis pas célibataire Si mes concerts t'ont réveillé les hormones Tu peux te toucher d'vant mon poster Cette photo d'il y a 56 ans quand j'avais encore la forme Mais j'peux plus t'nir une bombe, j'peux plus faire une pompe Creusez-moi une tombe, frappez-moi avec une tong Sortez l'double dong Fais péter l'punk, steup mais soit pas quelconque Observe ton urètre et fous-y une sonde Mate le Sénat à la télé sur FR3 et fous-y une bombe Nikus, Tido, Xanax, Baste et Cuizi une grande clique de malades Oh oui une grande clique de malades qui s'branlent Le style s'fait sucer comme Divine suce Hugh Grant Quand tu nous écoute tu t'dis C'est du rap ou du que-ro ? T'as la partouze de musiques pour 50 centimes d'euros TTC, Triptik, Svinkels, Qhuit pour la suite Si tu m'trouve trop cru, bouffe-la cuite fuiiti-fuiiit-fuiittt J'n'ai pas d'amour à donner pour les filles sales Celles qui passent leur vie au centre de dépistage Va r'vomir un coup et r'pars sans dédicace Cuizinier le spécimen prototype, sodomite T'autorise à vaporiser son membre salis N'oublie pas les sonorités porno style corrosifs Ton anus a prit un coup d'soleil J'adore les groupies qui se mettent accroupie Se croient indétournables et te disent Je ne suis pas soumise On s'amuse envers la pure ??? Okay! Go, go, go, courte-botte Go, go, courte-botte Go, go, courte-botte Tu t'déhanche sur la piste après mon concert J'suis dans des r'gards ambiancés, tu sais c'qui t'reste à faire So, what's next ? Time to have sex ! Mais jamais tu ne m'excite Tu dis qu'tu veux qu'j't'enchaîne, qu'j'te traite comme une chienne Female puppy, you should be ashamed of yourself ! Aussi, vois souvent ??? avec les boites de nuit comme raison d'vivre You better love me you better love me X2 Tu n'me fait rien donc ne me touche pas Tu n'sert à rien et je n'me douche pas T'as cru qu't'allais baiser l'Rock'n'roll ? J'me rappelle plus si tu t'appelles Germaine, Raymonde ou Carole</t>
+          <t>Non mais c'est qui celle là ? Mais elle sert à quoi ? En plus tsais qu'j'suis un mauvais coup là ? Tu nme fait rien donc ne me touche pas Tu n'sert à rien et je n'me douche pas T'as cru qu't'allais baiser l'Rock'nroll ? Jme rappelle plus si tu t'appelles Germaine, Raymonde ou Carole Je nm'ouvre pas à toi Pire qu'une huître qui parle en patois Casse-toi et dis-toi que je n'baise qua cappella Fous-toi à poil, si tu veux j's'rais plus sexy qu'un maroilles Aller, viens baby maint'nant, kiffes grave sur ma ??? L'ergonomie d'flows astronomiques N'a rien à voir avec l'astrologie 2 galaxies se chevauchent, yeux dans les yeux, on baise Sur la plage, sur le sable, dos sur le sol Compte les étoiles, j'éjacule un liquide blanchâtre Que les MCs avalent gentiment, sans rien dire je me cloître Sans vivre en autarcie, ne squatte plus les macs Hystérique, Dominique Excuse, mais j'suis pas célibataire Si mes concerts t'ont réveillé les hormones Tu peux te toucher d'vant mon poster Cette photo d'il y a 56 ans quand j'avais encore la forme Mais j'peux plus t'nir une bombe, j'peux plus faire une pompe Creusez-moi une tombe, frappez-moi avec une tong Sortez l'double dong Fais péter l'punk, steup mais soit pas quelconque Observe ton urètre et fous-y une sonde Mate le Sénat à la télé sur FR3 et fous-y une bombe Nikus, Tido, Xanax, Baste et Cuizi une grande clique de malades Oh oui une grande clique de malades qui s'branlent Le style s'fait sucer comme Divine suce Hugh Grant Quand tu nous écoute tu t'dis C'est du rap ou du que-ro ? T'as la partouze de musiques pour 50 centimes d'euros TTC, Triptik, Svinkels, Qhuit pour la suite Si tu m'trouve trop cru, bouffe-la cuite fuiiti-fuiiit-fuiittt J'n'ai pas d'amour à donner pour les filles sales Celles qui passent leur vie au centre de dépistage Va r'vomir un coup et r'pars sans dédicace Cuizinier le spécimen prototype, sodomite T'autorise à vaporiser son membre salis N'oublie pas les sonorités porno style corrosifs Ton anus a prit un coup d'soleil J'adore les groupies qui se mettent accroupie Se croient indétournables et te disent Je ne suis pas soumise On s'amuse envers la pure ??? Okay! Go, go, go, courte-botte Go, go, courte-botte Go, go, courte-botte Tu t'déhanche sur la piste après mon concert J'suis dans des r'gards ambiancés, tu sais c'qui t'reste à faire So, what's next ? Time to have sex ! Mais jamais tu ne m'excite Tu dis qu'tu veux qu'j't'enchaîne, qu'j'te traite comme une chienne Female puppy, you should be ashamed of yourself ! Aussi, vois souvent ??? avec les boites de nuit comme raison d'vivre You better love me you better love me X2 Tu n'me fait rien donc ne me touche pas Tu n'sert à rien et je n'me douche pas T'as cru qu't'allais baiser l'Rock'n'roll ? J'me rappelle plus si tu t'appelles Germaine, Raymonde ou Carole</t>
         </is>
       </c>
     </row>
@@ -599,7 +595,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Le défi est commun et le risque est gros On dé-confine les zones, c'est vrai qu'y a beaucoup d'idées fausses Si le malheur des uns fait le profit des autres Le comble s'rait de faire des masques avec des gilets jaunes Avec le corona', l'écart est net, tu respectes les mètres Mais pas ceux qui t'enseignaient comment nager dans le monde des lettres En banlieue, ça pète parce que ça va jamais jusqu'au parquet Pour menacer l'État, tout l'monde appelle en masqué Cette fois, on l'a pris la main dans le sac Pas assez de lits, pas assez de masques Confinés au max comme si c'était l'Alaska Mais relax, ouais, Macron, c'est le best Gérer la crise, c'est pas son fort, et v'là qu'arrive un autre drame Triste bilan des gens qui crèvent, des gilets jaunes, des Notre-Dame Des masques en plus pour le personnel médical mal équipé Emmanuel comme dans un film, sauf que c'est moi qui s'fait leaker Moi, j'aimerais pas être à sa place, non, mais, lui, il kiffe Il va rentrer dans l'Histoire, comme De Gaulle contre les Allemands Mais, bon, là, c'est une guerre contre un virus, t'sais Encore une astuce de Cortex et Minus You might also like J'suis en boubou à la mais', gratte mes seize en chuchotant Ambiance messe funéraire pour société moderne On s'adapte, se débat, se multiplie comme des blattes La situation les dépasse, rien n'arrête l'inspi' qui s'déplace c'est Kita Wesh, macro économe, sois digne, sois un homme Corona', corrida, j'suis taureau vif à la Viktorovitch Entre nous, tu t'es pas mis dans d'minis draps Dis au virus de traverser la rue pour s'trouver un vail-tra Eh, l'Président, t'es une girouette, on est perdus Donc on décide où être dedans, tous les résidents Font des pirouettes dehors, on marche que sur un kilomètre On est des il ou elle masqués, des silhouettes Le Président dit qu'c'est d'ta faute Tu n'sais pas t'confiner, tu n'fais que t'faufiler Mais c'est celui qu'a bradé l'matos qui est Donc ce s'ra sans filet, harnais et baudrier Verbiage hyper lâche Il aime faire la biatch pour l'image Le pays a pas l'outillage pour visages Le cash est dans les mirages, faut qu'tu l'saches J'vois trop d'étonnements genre L'État nous ment Des mensonges d'État, boy, j'en compte une tonne au moins Bref, rien d'neuf sous l'soleil, si c'n'est qu'la France reste c'qu'elle est Mais pas d'excès d'zèle, j'ai la teinte qu'ils aiment souiller Ça met du gaz dans les lacrymo', du sang sur ceux qui crient et Du Tas' et des G.I. Joe sur les blouses et sur les gilets De l'eau dans ton vin quand t'as eu besoin d'eux Pour c'qui est de t'en laver les mains, Macron, tu joues l'jeu Cache pas la peste dans nos deux maisons, morte saison Les Hommes s'entassent, pas de masque dans nos cargaisons Crémaillère ? Non, crématoire est la pendaison Répétition de l'Histoire, quand les bidons veulent le guidon C'putain d'virus est partout, j'te jure, un vrai truc de ouf J'suis passé d'Dr. Dre au Docteur Raoult Manu, règle ça, histoire qu'j'aille chercher ma paye Fini d'jouer, sérieux, j'en ai marre de perdre à la Play Je n'sais pas vous mais moi Le corona' ne me dérange pas Je n'sais pas vous mais moi Le corona' ne me dérange pas tant qu'ça Un discours équivaut à un cataplasme sur une jambe de bois Face aux mesures, le peuple n'a qu'un choix, c'est de porter sa croix On lève le voile sur l'imposture et la mascarade Comment faire passer la pilule avec des masques en rade ? Ça pue la défaite Mes doigts sentent la schnek, yeah J'suis Rocky, la nuit, je tape Je tape dans le steak J'sors mon bâton doré... Manu, tu nous dis qu'il faut pas qu'on porte de masque et, maintenant, si Tu nous dis qu'il faut pas qu'on sorte du taf, on a franchi Le cap pendant que les flics nous bloquent la chloroquine Tu stockes nos vies, tu les troques le choc, blaw Folie, gestion d'crise digne d'une série comique Et retour des théories conspi' qu'j'vomis, homie Soi-disant, personne n'avait prédit l'COVID Ils savent depuis janvier mais pensent plus à la money qu'aux vies Ça gère d'l'humain comme ça gère une prison On va sortir, ça va gueuler, dites adieu au silence Hun, mon humeur oscille entre ennui et rage Pas d'argent pour des masques mais des drones en patrouille ça en dit long Apparemment, les masques arriveront après les vaccinations ? J'vais reprendre mes études d'ingénieur en procrastination J'peux pas r'lancer l'économie, j'dois profiter d'l'ergonomie D'mon canapé, faire ma lettre de démotivation Du mal à s'décider l'avenir l'améliorer, c'est dead On sait c'qu'on fait mais joue avec le feu comme deux êtres avec le sida C'est clair, y a no future et pas d'place pour l'corona' Quand j'sors d'chez moi, ça pue la merde, j's'rais mieux sans odorat Incompétence à la présidence, se poursuit la série Quand on m'a dit Macron sait la gérer, j't'avoue qu'là j'ai ri Acérés sont mes propos d'vant leurs tristes balivernes J'lâche les rimes en attendant la prochaine crise sanitaire Pour nos ministres, on reste des sales cabots, des rats d'labo' Vu qu'ces imbéciles préfèrent investir dans les chars d'assaut Nous faire la philo' d'Darwin, nous passer l'arme à gauche Plutôt qu'un lasso, tu vois l'tableau ? Non, ça bouge pas un kilomètre, c'est la limite Passe des nuits blanches comme la be-bar d'Édouard Philippe J'regarde Manu qui r'garde l'OMS parler dans l'vide SO les caissières, les éboueurs, les gars qui vendent la weed Doucement, on nous ment souvent Surtout quand on entend qu'en guerre est ma douce France Où s'planquent les masques pendant qu'la vérité tousse, hante ? De décembre à mars frontières ouvertes depuis tout c'temps ? Remplace les gens qui font la queue au McDo' Par des médecins pour les hôpitaux du Grand-Est Hun, regard che-lou de mon voisin, est-ce un collabo' ? Non, juste un mec bien dans la pure tradition française Un pays à l'arrêt, un gouvernement à la rue En guerre contre le corono', on ne l'aura pas à mains nues Ça veut pas dire qu'baisser les bras doit être un geste barrière Ils trouveront d'quoi sauver les banques, pas les CHR Salut voisin, on s'retrouve pour applaudir et se sentir moins seuls Aide-soignants, caissiers ou éboueurs que l'on regarde d'un nouvel il Ce soir discours du Président, j'prétends pas être devin Mais, si tu veux entendre des applaudissements maintenant, faudra attendre demain C'est dur d'envisager autre chose qu'une tragique issue Du matin au soir, j'suis en slip, j'ai pas un look qui tue Les politiques sont dans l'vague avec le boule qui sue Nous vend d'l'espoir avec deux élastiques, un bout d'tissu On sait qui est nécessaire et quels sont les meilleurs boulots Une pensée à celles qui sont enfermées avec leur bourreau Le nez dehors, la bouche sous l'eau Même ceux qui ont fait des réserves sont au bout du rouleau Sortir le onze mai ? Vas-y, parle pas d'malheur Pour moi, tout va bien, j'ai pas besoin d'coiffeur Ré ouvrir les écoles ? En voilà, une drôle d'idée Interdisez les concerts Facebook de confinés 2020, c'est un blague mais, l'COVID, c'est pas marrant J'ai pas mon attestation donc j'f'rai un mot des parents Dis-moi au moins si, en été, on quittera le confinement J'vais pas taffer mes abdo' inutilement Ouais, tu vas servir la grosse douille, l'année blanche Ou l'année noire, surfe une marée noire de grosses couilles Slip sur la tête non, j'sais pas l'mettre J'applaudis leur incompétence, tout nu à la f'nêtre, bravo Applaudissez, bande de La route est longue comme celle d'Homère et son Odyssée Pff, ris la nuit comme se masturber Jouir sa vie sur des juments comme un palefrenier Seul dans mon appart', RPZ tous les autistes de France J'peux être au sein d'un monde COVID de sens Beurk, j'me dois d'avaler la pilule Le canapé m'attribue pour pas attraper le virus J'garde mes six feet de distance, revis chaque jour la veille Maintenant, ils m'font marrer, vos putains d'tatou' Cape diem Hun, un conseil faites en sorte qu'il y ait du Gin quand j'ressors Gardez Sibeth mais rendez-nous Christophe Ils élisent des clowns chouchoutés à l'Élysée Ils s'font la bise, senlacent, nous font des sermons Mais qui nous dirige vraiment, hein ? Macron, apparemment Ça fait un bail qu'tu nous mens, t'auras des comptes à nous rendre C'est plutôt de notre gestion interne dont on doit se préoccuper Au lieu de chercher à savoir si on s'est fait duper À mon échelle, j'fais ma part avec amour En envoyant des impro' bienveillantes sur ma page chaque jour On manque de masques, akhi, ils tombent, révélant tous nos visages Confrontés qu'au vide intime, laissera des traces dans l'héritage Penser à se situer à l'épicentre de la crise J'ai pas les mots pour vous transmettre à quel point j'vous fais la bise1</t>
+          <t>Le défi est commun et le risque est gros On dé-confine les zones, c'est vrai qu'y a beaucoup d'idées fausses Si le malheur des uns fait le profit des autres Le comble s'rait de faire des masques avec des gilets jaunes Avec le corona', l'écart est net, tu respectes les mètres Mais pas ceux qui t'enseignaient comment nager dans le monde des lettres En banlieue, ça pète parce que ça va jamais jusqu'au parquet Pour menacer l'État, tout l'monde appelle en masqué Cette fois, on l'a pris la main dans le sac Pas assez de lits, pas assez de masques Confinés au max comme si c'était l'Alaska Mais relax, ouais, Macron, c'est le best Gérer la crise, c'est pas son fort, et v'là qu'arrive un autre drame Triste bilan des gens qui crèvent, des gilets jaunes, des Notre-Dame Des masques en plus pour le personnel médical mal équipé Emmanuel comme dans un film, sauf que c'est moi qui s'fait leaker Moi, j'aimerais pas être à sa place, non, mais, lui, il kiffe Il va rentrer dans l'Histoire, comme De Gaulle contre les Allemands Mais, bon, là, c'est une guerre contre un virus, t'sais Encore une astuce de Cortex et Minus J'suis en boubou à la mais', gratte mes seize en chuchotant Ambiance messe funéraire pour société moderne On s'adapte, se débat, se multiplie comme des blattes La situation les dépasse, rien n'arrête l'inspi' qui s'déplace c'est Kita Wesh, macro économe, sois digne, sois un homme Corona', corrida, j'suis taureau vif à la Viktorovitch Entre nous, tu t'es pas mis dans d'minis draps Dis au virus de traverser la rue pour s'trouver un vail-tra Eh, l'Président, t'es une girouette, on est perdus Donc on décide où être dedans, tous les résidents Font des pirouettes dehors, on marche que sur un kilomètre On est des il ou elle masqués, des silhouettes Le Président dit qu'c'est d'ta faute Tu n'sais pas t'confiner, tu n'fais que t'faufiler Mais c'est celui qu'a bradé l'matos qui est Donc ce s'ra sans filet, harnais et baudrier Verbiage hyper lâche Il aime faire la biatch pour l'image Le pays a pas l'outillage pour visages Le cash est dans les mirages, faut qu'tu l'saches J'vois trop d'étonnements genre L'État nous ment Des mensonges d'État, boy, j'en compte une tonne au moins Bref, rien d'neuf sous l'soleil, si c'n'est qu'la France reste c'qu'elle est Mais pas d'excès d'zèle, j'ai la teinte qu'ils aiment souiller Ça met du gaz dans les lacrymo', du sang sur ceux qui crient et Du Tas' et des G.I. Joe sur les blouses et sur les gilets De l'eau dans ton vin quand t'as eu besoin d'eux Pour c'qui est de t'en laver les mains, Macron, tu joues l'jeu Cache pas la peste dans nos deux maisons, morte saison Les Hommes s'entassent, pas de masque dans nos cargaisons Crémaillère ? Non, crématoire est la pendaison Répétition de l'Histoire, quand les bidons veulent le guidon C'putain d'virus est partout, j'te jure, un vrai truc de ouf J'suis passé d'Dr. Dre au Docteur Raoult Manu, règle ça, histoire qu'j'aille chercher ma paye Fini d'jouer, sérieux, j'en ai marre de perdre à la Play Je n'sais pas vous mais moi Le corona' ne me dérange pas Je n'sais pas vous mais moi Le corona' ne me dérange pas tant qu'ça Un discours équivaut à un cataplasme sur une jambe de bois Face aux mesures, le peuple n'a qu'un choix, c'est de porter sa croix On lève le voile sur l'imposture et la mascarade Comment faire passer la pilule avec des masques en rade ? Ça pue la défaite Mes doigts sentent la schnek, yeah J'suis Rocky, la nuit, je tape Je tape dans le steak J'sors mon bâton doré... Manu, tu nous dis qu'il faut pas qu'on porte de masque et, maintenant, si Tu nous dis qu'il faut pas qu'on sorte du taf, on a franchi Le cap pendant que les flics nous bloquent la chloroquine Tu stockes nos vies, tu les troques le choc, blaw Folie, gestion d'crise digne d'une série comique Et retour des théories conspi' qu'j'vomis, homie Soi-disant, personne n'avait prédit l'COVID Ils savent depuis janvier mais pensent plus à la money qu'aux vies Ça gère d'l'humain comme ça gère une prison On va sortir, ça va gueuler, dites adieu au silence Hun, mon humeur oscille entre ennui et rage Pas d'argent pour des masques mais des drones en patrouille ça en dit long Apparemment, les masques arriveront après les vaccinations ? J'vais reprendre mes études d'ingénieur en procrastination J'peux pas r'lancer l'économie, j'dois profiter d'l'ergonomie D'mon canapé, faire ma lettre de démotivation Du mal à s'décider l'avenir l'améliorer, c'est dead On sait c'qu'on fait mais joue avec le feu comme deux êtres avec le sida C'est clair, y a no future et pas d'place pour l'corona' Quand j'sors d'chez moi, ça pue la merde, j's'rais mieux sans odorat Incompétence à la présidence, se poursuit la série Quand on m'a dit Macron sait la gérer, j't'avoue qu'là j'ai ri Acérés sont mes propos d'vant leurs tristes balivernes J'lâche les rimes en attendant la prochaine crise sanitaire Pour nos ministres, on reste des sales cabots, des rats d'labo' Vu qu'ces imbéciles préfèrent investir dans les chars d'assaut Nous faire la philo' d'Darwin, nous passer l'arme à gauche Plutôt qu'un lasso, tu vois l'tableau ? Non, ça bouge pas un kilomètre, c'est la limite Passe des nuits blanches comme la be-bar d'Édouard Philippe J'regarde Manu qui r'garde l'OMS parler dans l'vide SO les caissières, les éboueurs, les gars qui vendent la weed Doucement, on nous ment souvent Surtout quand on entend qu'en guerre est ma douce France Où s'planquent les masques pendant qu'la vérité tousse, hante ? De décembre à mars frontières ouvertes depuis tout c'temps ? Remplace les gens qui font la queue au McDo' Par des médecins pour les hôpitaux du Grand-Est Hun, regard che-lou de mon voisin, est-ce un collabo' ? Non, juste un mec bien dans la pure tradition française Un pays à l'arrêt, un gouvernement à la rue En guerre contre le corono', on ne l'aura pas à mains nues Ça veut pas dire qu'baisser les bras doit être un geste barrière Ils trouveront d'quoi sauver les banques, pas les CHR Salut voisin, on s'retrouve pour applaudir et se sentir moins seuls Aide-soignants, caissiers ou éboueurs que l'on regarde d'un nouvel il Ce soir discours du Président, j'prétends pas être devin Mais, si tu veux entendre des applaudissements maintenant, faudra attendre demain C'est dur d'envisager autre chose qu'une tragique issue Du matin au soir, j'suis en slip, j'ai pas un look qui tue Les politiques sont dans l'vague avec le boule qui sue Nous vend d'l'espoir avec deux élastiques, un bout d'tissu On sait qui est nécessaire et quels sont les meilleurs boulots Une pensée à celles qui sont enfermées avec leur bourreau Le nez dehors, la bouche sous l'eau Même ceux qui ont fait des réserves sont au bout du rouleau Sortir le onze mai ? Vas-y, parle pas d'malheur Pour moi, tout va bien, j'ai pas besoin d'coiffeur Ré ouvrir les écoles ? En voilà, une drôle d'idée Interdisez les concerts Facebook de confinés 2020, c'est un blague mais, l'COVID, c'est pas marrant J'ai pas mon attestation donc j'f'rai un mot des parents Dis-moi au moins si, en été, on quittera le confinement J'vais pas taffer mes abdo' inutilement Ouais, tu vas servir la grosse douille, l'année blanche Ou l'année noire, surfe une marée noire de grosses couilles Slip sur la tête non, j'sais pas l'mettre J'applaudis leur incompétence, tout nu à la f'nêtre, bravo Applaudissez, bande de La route est longue comme celle d'Homère et son Odyssée Pff, ris la nuit comme se masturber Jouir sa vie sur des juments comme un palefrenier Seul dans mon appart', RPZ tous les autistes de France J'peux être au sein d'un monde COVID de sens Beurk, j'me dois d'avaler la pilule Le canapé m'attribue pour pas attraper le virus J'garde mes six feet de distance, revis chaque jour la veille Maintenant, ils m'font marrer, vos putains d'tatou' Cape diem Hun, un conseil faites en sorte qu'il y ait du Gin quand j'ressors Gardez Sibeth mais rendez-nous Christophe Ils élisent des clowns chouchoutés à l'Élysée Ils s'font la bise, senlacent, nous font des sermons Mais qui nous dirige vraiment, hein ? Macron, apparemment Ça fait un bail qu'tu nous mens, t'auras des comptes à nous rendre C'est plutôt de notre gestion interne dont on doit se préoccuper Au lieu de chercher à savoir si on s'est fait duper À mon échelle, j'fais ma part avec amour En envoyant des impro' bienveillantes sur ma page chaque jour On manque de masques, akhi, ils tombent, révélant tous nos visages Confrontés qu'au vide intime, laissera des traces dans l'héritage Penser à se situer à l'épicentre de la crise J'ai pas les mots pour vous transmettre à quel point j'vous fais la bise1</t>
         </is>
       </c>
     </row>
@@ -616,7 +612,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yoshi, fais tourner un peu l'Rhum au miel là Yoshi sort de luf et Gérard sort de teuf Cur de pirate, une tête de beauf sur un corps de buf Toujours suivi par les kids et une cohorte de meufs Qui veulent que j'fasse le Chippendales en uniforme de keuf Comment tu crois pouvoir t'en tirer avec le moustachu sur le dos ? J'vais t'envoyer chez l'kiné, v'là l'gras du bide et l'dino ! Fais tourner la chopine, que j'me bourre la gueule Appelle les potes et les copines, qu'on s'retrouve pas seuls Et j'retourne à proximité d'un bon gisement d'rafraîchissement Pendant qu'les chiffes molles gisent mortes, j'tise jusqu'à épuisement J'fais preuve de mauvais esprit permanent J'bute la p'tite souris, j'garde la pièce et j'récupère la dent J'essaye d'être élégant, d'rester poli et d'poser relax Mais j'suis comme Cendrillon, passé minuit, j'deviens dégueulasse Hé Yoshi, ils savent pas Faut qu'on leur explique qu'nos textes piquent Qu'on balance la sauce blanche mais pas dans l'grec-frite Mec, j'ai un flow à couper l'souffle, sors la ventoline Meuf, viens nous sauter sur le zboub, fais du trempoline J'balaye les bonnes manières du revers d'la main J'ai plein d'trucs à faire aujourd'hui Mais j'prends mon courage à deux mains Alors ramène le gigot, l'aligot et j'crie à l'assaut Transforme l'eau en vin et j'pars en thalasso Pas l'p'tit d'job d'homo, quand l'beat croque, poto Qu'le hit cogne, coco, c'est le Hip-Hop Momo You might also like Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! J'pousse la porte du saloon avec Gérard Baste Tout le monde s'arrête de parler et se dit C'est la classe Devant ces deux moustachus bedonnants, les femmes bavent mais c'est pas grave Moi j'aime que les naines, les moches et les sales travs Baste et Yoshi, c'est le 8 et le 6 Désolé, fils mais ça va de paire comme Wesson et Smith Moi, j'aime trop les vices Le freestyle c'est ma vie Des fois j'fais même d'l'impro devant des p 'tits gars ébahis J'ai trop d'weed inhalée, rhum, biscuit salé J'veux être riche grâce à mon nom, comme Ziggy Marley Quand toi tu prends des kilos, nous, on prend des tonnes Et quand on fait tomber la chemise Les femmes elles, elles tombent dans les pommes Forte pilosité sur corps athlétique Je saute à 3 mètres 05 si y'a un paquet d'chips J'pe-ra sous Jack Da', Jack Herer ou Black Domina À coups de Lay's, j'entretiens ma ceinture abdominale Ha! T'sais qu'on aime ça, l'apéritif J'reponds plus d'moi, après dix spliffs Mais je n'fais pas, d'obsession dessus La seule idée que j'ai en tête est de monter l'ton Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! Sisi ! Zoulou, sors ton zizi J'ai envie d'faire pipi D'aller dans la street et... Bébé ! Fais nous voir tes nénés J'ai envie d'les téter De t'mater les fesses et d'les péter J'aime qu'on m'obéisse, me force pas à m'répéter Baste et Yoshi, explosent le taux d'gamma-GT Regarde dans nos têtes, vois les p'tit bêtes bizarres grouiller Irréprochable, pourquoi j'laisserai les shtars m'fouiller ? J'compte plus les microphones qu'on a écrabouillé Mon Rap est sale et personne viendra l'débarbouiller J'suis un claqueur de fraîche lâche, videur de friche Défonceur de beat comme si j'étais né à Queensbridge Et même les condés font des backspins, breakent sur le son des Rap Kings Devine qui a chopé la Gatling ? Donc ça tire, dans l'tas, ça t'y, changes pas J'aspire, ça s'vide et j'm'active que quand j'bois Et quand j'bois j'suis bête Cette connasse d'instru mérite une baffe, laisse-moi lui mettre Hey, yo ! Plus mes verres descendent et plus la pression monte Présente-moi une copine, que j'lui règle son compte Grosse bifle et oinj' de beuh, ou bien d'teu-teu Tache blanche sur la joue, grain d'be-teu J'suis une pince, je veux, chaque fois boire tis-gra J'vide le bar à ton mariage ou à ta Bar Mitzvah Envoie-nous du pinard ou on ne partira pas Avant d'avoir rendu gloire à Almighty Jah Jah Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh!</t>
+          <t>Yoshi, fais tourner un peu l'Rhum au miel là Yoshi sort de luf et Gérard sort de teuf Cur de pirate, une tête de beauf sur un corps de buf Toujours suivi par les kids et une cohorte de meufs Qui veulent que j'fasse le Chippendales en uniforme de keuf Comment tu crois pouvoir t'en tirer avec le moustachu sur le dos ? J'vais t'envoyer chez l'kiné, v'là l'gras du bide et l'dino ! Fais tourner la chopine, que j'me bourre la gueule Appelle les potes et les copines, qu'on s'retrouve pas seuls Et j'retourne à proximité d'un bon gisement d'rafraîchissement Pendant qu'les chiffes molles gisent mortes, j'tise jusqu'à épuisement J'fais preuve de mauvais esprit permanent J'bute la p'tite souris, j'garde la pièce et j'récupère la dent J'essaye d'être élégant, d'rester poli et d'poser relax Mais j'suis comme Cendrillon, passé minuit, j'deviens dégueulasse Hé Yoshi, ils savent pas Faut qu'on leur explique qu'nos textes piquent Qu'on balance la sauce blanche mais pas dans l'grec-frite Mec, j'ai un flow à couper l'souffle, sors la ventoline Meuf, viens nous sauter sur le zboub, fais du trempoline J'balaye les bonnes manières du revers d'la main J'ai plein d'trucs à faire aujourd'hui Mais j'prends mon courage à deux mains Alors ramène le gigot, l'aligot et j'crie à l'assaut Transforme l'eau en vin et j'pars en thalasso Pas l'p'tit d'job d'homo, quand l'beat croque, poto Qu'le hit cogne, coco, c'est le Hip-Hop Momo Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! J'pousse la porte du saloon avec Gérard Baste Tout le monde s'arrête de parler et se dit C'est la classe Devant ces deux moustachus bedonnants, les femmes bavent mais c'est pas grave Moi j'aime que les naines, les moches et les sales travs Baste et Yoshi, c'est le 8 et le 6 Désolé, fils mais ça va de paire comme Wesson et Smith Moi, j'aime trop les vices Le freestyle c'est ma vie Des fois j'fais même d'l'impro devant des p 'tits gars ébahis J'ai trop d'weed inhalée, rhum, biscuit salé J'veux être riche grâce à mon nom, comme Ziggy Marley Quand toi tu prends des kilos, nous, on prend des tonnes Et quand on fait tomber la chemise Les femmes elles, elles tombent dans les pommes Forte pilosité sur corps athlétique Je saute à 3 mètres 05 si y'a un paquet d'chips J'pe-ra sous Jack Da', Jack Herer ou Black Domina À coups de Lay's, j'entretiens ma ceinture abdominale Ha! T'sais qu'on aime ça, l'apéritif J'reponds plus d'moi, après dix spliffs Mais je n'fais pas, d'obsession dessus La seule idée que j'ai en tête est de monter l'ton Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! Sisi ! Zoulou, sors ton zizi J'ai envie d'faire pipi D'aller dans la street et... Bébé ! Fais nous voir tes nénés J'ai envie d'les téter De t'mater les fesses et d'les péter J'aime qu'on m'obéisse, me force pas à m'répéter Baste et Yoshi, explosent le taux d'gamma-GT Regarde dans nos têtes, vois les p'tit bêtes bizarres grouiller Irréprochable, pourquoi j'laisserai les shtars m'fouiller ? J'compte plus les microphones qu'on a écrabouillé Mon Rap est sale et personne viendra l'débarbouiller J'suis un claqueur de fraîche lâche, videur de friche Défonceur de beat comme si j'étais né à Queensbridge Et même les condés font des backspins, breakent sur le son des Rap Kings Devine qui a chopé la Gatling ? Donc ça tire, dans l'tas, ça t'y, changes pas J'aspire, ça s'vide et j'm'active que quand j'bois Et quand j'bois j'suis bête Cette connasse d'instru mérite une baffe, laisse-moi lui mettre Hey, yo ! Plus mes verres descendent et plus la pression monte Présente-moi une copine, que j'lui règle son compte Grosse bifle et oinj' de beuh, ou bien d'teu-teu Tache blanche sur la joue, grain d'be-teu J'suis une pince, je veux, chaque fois boire tis-gra J'vide le bar à ton mariage ou à ta Bar Mitzvah Envoie-nous du pinard ou on ne partira pas Avant d'avoir rendu gloire à Almighty Jah Jah Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh!</t>
         </is>
       </c>
     </row>
@@ -633,7 +629,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ouh oui ! Welcome ladies and gentleman To the Xanax show called Extravaganza Especially sponsorised by Qhuit, ouh oui ! J'bois mon cappuccino en m'faisant masser l'épaule ??? baby, roules un gros que j'me pause Ajoute ! Un p'tit peu pour que j'??? Toi et moi on sait qu'il faut qu'on fly C'est la révolution lexicale Et j'ajoute un p'tit peu d'suave dans mon style Oh oh oh Sock it to me, sock it to me, sock it to me Guettes comment, comment mon crew s'met à groover Tout à coup les enceintes s'mettent à bouncer Y'a pleins d'types différents aux styles corsés Et pourtant, surprenant, c'est du français Ajoute un petit peu plus sur la table Ajoute des médiums, des trembles et du grave Shake ton popotin, poses-le sur la table C'est d'la bounce bébé, c'est d'la bombe bébé All y'all niggas can suck my dick Impossible que j'joue pour toi sauf pour du fric Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money You might also like Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Cuizinier est large comme un Mammouth Supermarché du style Ça fait bien longtemps que les trous ne se bouchent plus avec des rustines À l'aide c'est l'usine, travaille à la chaîne Ajoute ! Supermarché utile Il a toujours avec lui sa valise d'merchandising L'air fantastique donc j'gère D'innombrables mères en mal fines sans vaseline J'ajoute, m'accoude au bar Joue des coudes et réclame Ajoute, pas d'coup de barre, 23 coupes et repars Le Svink c'est chic, TTC in Triptik has been ? Ils flippent, ces types sont tous des pimp De réels macs quand on tise Souvent pâle quand on pisse Pone, on ne tague pas sur les cuisses de tass quand on pine Rarement en manque de marchandise 8-6, 8-8, 10-10, 11-6 Oublie-moi avec ce 51 Sers-moi un 102, un 204 Jamais deux sans trois histoire qu'on finisse à quatre pattes, carpettes Ajoute, agite, ton corps éjecte ton cerveau que l'Ricard pète Ton foie qu'on écartèle C'est souvent qu'on fini par terre Qu'on bave et qu'on gerbe comme la lave sortant d'un cratère Plus de, plus de fonce-dé Alors bois un ouc', mattes le douze que j'ai pécho 't'à l'heure Ah, j'suis trop un ouf Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Teki Latex, Kronenbourg et moquette sale Serviettes hygiéniques, jus de chaussettes crades Calembours et mauvaises blagues Un célèbre hystérique toujours à la bourre et d'mauvaise foi Même si j'ai toujours raison Bébé t'es bonne mais ta copine non Et malheureusement j'n'ai pas d'bisou pour les thons Même si la chasse aux chattes chez moi est toujours d'saison Du pain, du vin Du joint, c'est l'fin du fin C'est pas du foin On voit plus loin J'ai d'jà plus faim On boit au moins le poids du moins lourd pack aux mains Masturbateur de filles clitoridiennes Perforeur vaginal, performer Ça rogne sec, ça cut grave, ça rappe fat Ne bouge pas mais voyage Anomalie, est-ce Berman avec la barmaid ? Triple dose de cool-al, on s'rencarde Pimpage de meufs bonnes Vidange de couilles pleines Puis clivage, ça s'dévergonde Ma tête tourne, j'bégère Elle glisse sur ma galette à grumeaux Avant d'atterrir au plumard, vénère Qui qu'a bu son mètre de Pastis ? Et qu'à r'peint l'AX en jaune pisse ? Ajoute ! J'suis sûr qu'c'est un coup du Qhuit Ils arriveraient même à bourrer un islamiste Ajoute ! Un couplet one shot à Brest C'est l'chemin l'plus court pour les States Ajoute le tord-boyaux s'il reste le noyau dur On est beaux là comme le virus Ajoute la goutte c'est pour Nikus Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute !</t>
+          <t>Ouh oui ! Welcome ladies and gentleman To the Xanax show called Extravaganza Especially sponsorised by Qhuit, ouh oui ! J'bois mon cappuccino en m'faisant masser l'épaule ??? baby, roules un gros que j'me pause Ajoute ! Un p'tit peu pour que j'??? Toi et moi on sait qu'il faut qu'on fly C'est la révolution lexicale Et j'ajoute un p'tit peu d'suave dans mon style Oh oh oh Sock it to me, sock it to me, sock it to me Guettes comment, comment mon crew s'met à groover Tout à coup les enceintes s'mettent à bouncer Y'a pleins d'types différents aux styles corsés Et pourtant, surprenant, c'est du français Ajoute un petit peu plus sur la table Ajoute des médiums, des trembles et du grave Shake ton popotin, poses-le sur la table C'est d'la bounce bébé, c'est d'la bombe bébé All y'all niggas can suck my dick Impossible que j'joue pour toi sauf pour du fric Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Cuizinier est large comme un Mammouth Supermarché du style Ça fait bien longtemps que les trous ne se bouchent plus avec des rustines À l'aide c'est l'usine, travaille à la chaîne Ajoute ! Supermarché utile Il a toujours avec lui sa valise d'merchandising L'air fantastique donc j'gère D'innombrables mères en mal fines sans vaseline J'ajoute, m'accoude au bar Joue des coudes et réclame Ajoute, pas d'coup de barre, 23 coupes et repars Le Svink c'est chic, TTC in Triptik has been ? Ils flippent, ces types sont tous des pimp De réels macs quand on tise Souvent pâle quand on pisse Pone, on ne tague pas sur les cuisses de tass quand on pine Rarement en manque de marchandise 8-6, 8-8, 10-10, 11-6 Oublie-moi avec ce 51 Sers-moi un 102, un 204 Jamais deux sans trois histoire qu'on finisse à quatre pattes, carpettes Ajoute, agite, ton corps éjecte ton cerveau que l'Ricard pète Ton foie qu'on écartèle C'est souvent qu'on fini par terre Qu'on bave et qu'on gerbe comme la lave sortant d'un cratère Plus de, plus de fonce-dé Alors bois un ouc', mattes le douze que j'ai pécho 't'à l'heure Ah, j'suis trop un ouf Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Teki Latex, Kronenbourg et moquette sale Serviettes hygiéniques, jus de chaussettes crades Calembours et mauvaises blagues Un célèbre hystérique toujours à la bourre et d'mauvaise foi Même si j'ai toujours raison Bébé t'es bonne mais ta copine non Et malheureusement j'n'ai pas d'bisou pour les thons Même si la chasse aux chattes chez moi est toujours d'saison Du pain, du vin Du joint, c'est l'fin du fin C'est pas du foin On voit plus loin J'ai d'jà plus faim On boit au moins le poids du moins lourd pack aux mains Masturbateur de filles clitoridiennes Perforeur vaginal, performer Ça rogne sec, ça cut grave, ça rappe fat Ne bouge pas mais voyage Anomalie, est-ce Berman avec la barmaid ? Triple dose de cool-al, on s'rencarde Pimpage de meufs bonnes Vidange de couilles pleines Puis clivage, ça s'dévergonde Ma tête tourne, j'bégère Elle glisse sur ma galette à grumeaux Avant d'atterrir au plumard, vénère Qui qu'a bu son mètre de Pastis ? Et qu'à r'peint l'AX en jaune pisse ? Ajoute ! J'suis sûr qu'c'est un coup du Qhuit Ils arriveraient même à bourrer un islamiste Ajoute ! Un couplet one shot à Brest C'est l'chemin l'plus court pour les States Ajoute le tord-boyaux s'il reste le noyau dur On est beaux là comme le virus Ajoute la goutte c'est pour Nikus Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute !</t>
         </is>
       </c>
     </row>
@@ -650,7 +646,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody cant deny Alcohol I'm wake up in the morning ??? I'm the pigman of the Svinkels Cause everything is good in a pig And everyday ??? ??? Waking, drinking, get in, fucking, studying, drinking, fucking, sipping Yo c'est le Svink, Svink Lève ton drink Et crie tchin-tchin Décapsuleur foutu autour du cou en guise de bling bling Oublie l'trekking, le jogging, l'rafting et l'bodybuilding Ici c'est cocooning voir larving, on va caressling J'men fiche si ton cidre a un peu l'goût drance On dvient des outrances foutant la race à outrance Rev'la le hip hop couillu et jte raconte pas la poutrance Et on va chercher des glutes chez l'autre vieille pute à votre ??? You might also like Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol Alcoholic, drinking problems, bad habits Theres vomit on my sweater already like bunny rabbit So let me grab it, it come on nuts plus Addicted to the smell of my penis Like Beavis et Butt-Head I'm done with that Uh huh huh We don't wait ??? throw up on the carpet ??? like Robert, give me a segment World, this is my sperm, make sure ears pregnant Wow what that's frenzy, it's the little frenchie on a spaceship Here on a mission for friendship The A, the L, the C, the O, the H, the O, the L forever It's my everyday night fever Light my body and my soul Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol</t>
+          <t>Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody cant deny Alcohol I'm wake up in the morning ??? I'm the pigman of the Svinkels Cause everything is good in a pig And everyday ??? ??? Waking, drinking, get in, fucking, studying, drinking, fucking, sipping Yo c'est le Svink, Svink Lève ton drink Et crie tchin-tchin Décapsuleur foutu autour du cou en guise de bling bling Oublie l'trekking, le jogging, l'rafting et l'bodybuilding Ici c'est cocooning voir larving, on va caressling J'men fiche si ton cidre a un peu l'goût drance On dvient des outrances foutant la race à outrance Rev'la le hip hop couillu et jte raconte pas la poutrance Et on va chercher des glutes chez l'autre vieille pute à votre ??? Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol Alcoholic, drinking problems, bad habits Theres vomit on my sweater already like bunny rabbit So let me grab it, it come on nuts plus Addicted to the smell of my penis Like Beavis et Butt-Head I'm done with that Uh huh huh We don't wait ??? throw up on the carpet ??? like Robert, give me a segment World, this is my sperm, make sure ears pregnant Wow what that's frenzy, it's the little frenchie on a spaceship Here on a mission for friendship The A, the L, the C, the O, the H, the O, the L forever It's my everyday night fever Light my body and my soul Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol</t>
         </is>
       </c>
     </row>
@@ -667,7 +663,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sous 8-6, v'là les soixante-huitards d'service Énième chapitre j'apporte mon pavé à l'édifice Mon métier mal parlé sur les condés Condoléances, le tiers-état balance son cahier d'doléances Pour le gendarme à Saint-Tropez, j'viens dropper flow rageur Quand tu vois qu'l'été y sont maîtres-nageurs J'préfère encore m'noyer que d'me faire réveiller Au bouche-à-bouche, par un CRS en congés payés Rencontre à la manif' étudiante dans la capitale Un bon catch amical avec gaz lacrymal Y'a jamais assez d'sacs de sable CEA CRS cassés au lancé d'dalle, mange ton casse-dalle Pécore, picole comme une serpillière Serpico t'sert un picon bière, ça date pas d'hier J'bave, même si j'sais qu'y doivent assurer, j'fais l'zouave Les keufs ont des consignes, normal avec tout c'qu'ils boivent Moustache tachée pas la mousse, s'émousser trop tard Serrer sur la route alors qu'eux même marche au radar Faire passer un ??? sous mes ch'nilles, j'en ai rêvé J'froisse les keufs comme mes pv You might also like Zéro gramme quatre Ça y est, t'es dans l'rouge Zéro sept, alcootest, ton permis qui bouge Un gramme cinq dans l'sang Ça fait deux 8-6, quatre grammes Dis-moi, tu s'rais pas d'la police ? J'ai la fâcheuse tendance du flic à boire plus qu'un demi, donc Des ??? en sang autant que des Police Academy Ho la, qui va là, inspecteur gadget Gadget-o-plaques, gadget-o-m'nottes, gadget-o-gâchette Viens faire un tour dans l'estafette, ça va être ta fête Avec eux, t'attrapes vite la grosse tête Ces débris ont moins d'études que d'ébriétudes Ouais l'seul bouquin, dans un comico, c'est l'bottin Y'a qu'dans l'vice qu'ils récidivent J'trouve plus d'agents actifs dans ma lessive Certaines brigades sont stupéfiantes d'incompétence Faut-il une balance pour ??? Les marginaux d'France notent qu'un rebeu sous barrette est moins mal barré qu'un képi sous piquette V'là pourquoi j'les chambres C'que j'déteste dans l'corps policier, c'sont ses membres Pas si virils, S.O.S civils en périls Policiers en dérive, le métier rend fébrile Tu tires une tête de bulldog où est l'amorce de dialogue ? Mon pit' va parler, sa seule parole c'est de ouaf, ouaf J'les trouve un peu dérangés pour des représentants d'l'ordre, alors j'viens ranger Chez les gradés, l'ambiance s'est dégradée J'ai vu des racailles mieux faire leur métier, que certains policiers D'ailleurs de quel côté y'a-t-il le plus de suicidés ? Toujours en quête denquêtes à élucidées J'me mettrais plutôt du côté des opprimés J'vais pas chialer sur quelques os brisés Ou sur une vie d'merde que l'on a soit même écourtée J'vais te carte-grisé, c'est clair t'es ma risée Le flic, c'est pendant sa carrière qu'il se pourris La racaille, ce n'est que le fric, ça le nourrit Tu paieras la facture de la fracture D'un côté des raclures, de l'autre des inspecteurs la bavure x2 Zéro gramme quatre Ça y est, t'es dans l'rouge Zéro sept, alcootest, ton permis qui bouge Un gramme cinq dans l'sang Ça fait deux 8-6, quatre grammes Dis-moi, tu s'rais pas d'la police ? J'ai à mon égérie, la guerre d'Algérie J'vais citer, c'est acquis, que le maquis sera reprit par plus d'un harkis Nous remettrons nos vestes kakis Et pour nous macquer, ils vous faudrait plus d'un Starsky Je ferais une razzia sur toute cette mafia Mais la 'caille c'est d'la caillasse, il lance des pierres comme à Gaza Comble de mon antisémitisme, j'ai le rôle du juif Je ne porte pas l'étoile jaune mais juste celle du shérif J'peux plus m'tartiner cette motte de beurre qui s'étale Pour la sécurité nationale, bande d'asociales, j'vote front national Enfermez-moi tous ces trous d'uc dans des tours infernales Normal qu'après on foute le feu au centre commercial Halte étranger ! Et tous ceux que la ??? Tous ces ??? remplissant l'stupéfiant, j'veux plus C'est la peste, la chute, ça chahute mais ça ??? Je lutte, j'fais dans mon fute, un étranger j'butte Blouson en faux cuir, fausse tête, faux jeans, fausses running Chez lui la seule chose qu'est vraie, c'est son racisme J'suis pas d'ac'! Ça m'donne des frayeurs car Kojak Voit partout des voleurs de couleur comme Kodak C'est cliché comme j'suis affiché, m'demande mes papiers Les shmits te cuisine, t'fige puis t'fiche dans un clapier Mettez-les dans des cages, tirez-les comme des lapins T'façon la 'caille kiffe la carotte du soir au matin Faut les enfermer dans des cités, les traiter d'assistés Puis vous fermez les yeux et pratiquez la cécité Prestige de l'uniformité Inspecteur Navarro préférerait voir étendu sur le carreau qu'derrière les barreaux Les chargeurs j'vide vite Les flics remplissent les prisons Nous rions car la police nous méprisons J't'invite là où les gendarmes se sentent désarmés Bienvenue dans lbéton armé</t>
+          <t>Sous 8-6, v'là les soixante-huitards d'service Énième chapitre j'apporte mon pavé à l'édifice Mon métier mal parlé sur les condés Condoléances, le tiers-état balance son cahier d'doléances Pour le gendarme à Saint-Tropez, j'viens dropper flow rageur Quand tu vois qu'l'été y sont maîtres-nageurs J'préfère encore m'noyer que d'me faire réveiller Au bouche-à-bouche, par un CRS en congés payés Rencontre à la manif' étudiante dans la capitale Un bon catch amical avec gaz lacrymal Y'a jamais assez d'sacs de sable CEA CRS cassés au lancé d'dalle, mange ton casse-dalle Pécore, picole comme une serpillière Serpico t'sert un picon bière, ça date pas d'hier J'bave, même si j'sais qu'y doivent assurer, j'fais l'zouave Les keufs ont des consignes, normal avec tout c'qu'ils boivent Moustache tachée pas la mousse, s'émousser trop tard Serrer sur la route alors qu'eux même marche au radar Faire passer un ??? sous mes ch'nilles, j'en ai rêvé J'froisse les keufs comme mes pv Zéro gramme quatre Ça y est, t'es dans l'rouge Zéro sept, alcootest, ton permis qui bouge Un gramme cinq dans l'sang Ça fait deux 8-6, quatre grammes Dis-moi, tu s'rais pas d'la police ? J'ai la fâcheuse tendance du flic à boire plus qu'un demi, donc Des ??? en sang autant que des Police Academy Ho la, qui va là, inspecteur gadget Gadget-o-plaques, gadget-o-m'nottes, gadget-o-gâchette Viens faire un tour dans l'estafette, ça va être ta fête Avec eux, t'attrapes vite la grosse tête Ces débris ont moins d'études que d'ébriétudes Ouais l'seul bouquin, dans un comico, c'est l'bottin Y'a qu'dans l'vice qu'ils récidivent J'trouve plus d'agents actifs dans ma lessive Certaines brigades sont stupéfiantes d'incompétence Faut-il une balance pour ??? Les marginaux d'France notent qu'un rebeu sous barrette est moins mal barré qu'un képi sous piquette V'là pourquoi j'les chambres C'que j'déteste dans l'corps policier, c'sont ses membres Pas si virils, S.O.S civils en périls Policiers en dérive, le métier rend fébrile Tu tires une tête de bulldog où est l'amorce de dialogue ? Mon pit' va parler, sa seule parole c'est de ouaf, ouaf J'les trouve un peu dérangés pour des représentants d'l'ordre, alors j'viens ranger Chez les gradés, l'ambiance s'est dégradée J'ai vu des racailles mieux faire leur métier, que certains policiers D'ailleurs de quel côté y'a-t-il le plus de suicidés ? Toujours en quête denquêtes à élucidées J'me mettrais plutôt du côté des opprimés J'vais pas chialer sur quelques os brisés Ou sur une vie d'merde que l'on a soit même écourtée J'vais te carte-grisé, c'est clair t'es ma risée Le flic, c'est pendant sa carrière qu'il se pourris La racaille, ce n'est que le fric, ça le nourrit Tu paieras la facture de la fracture D'un côté des raclures, de l'autre des inspecteurs la bavure x2 Zéro gramme quatre Ça y est, t'es dans l'rouge Zéro sept, alcootest, ton permis qui bouge Un gramme cinq dans l'sang Ça fait deux 8-6, quatre grammes Dis-moi, tu s'rais pas d'la police ? J'ai à mon égérie, la guerre d'Algérie J'vais citer, c'est acquis, que le maquis sera reprit par plus d'un harkis Nous remettrons nos vestes kakis Et pour nous macquer, ils vous faudrait plus d'un Starsky Je ferais une razzia sur toute cette mafia Mais la 'caille c'est d'la caillasse, il lance des pierres comme à Gaza Comble de mon antisémitisme, j'ai le rôle du juif Je ne porte pas l'étoile jaune mais juste celle du shérif J'peux plus m'tartiner cette motte de beurre qui s'étale Pour la sécurité nationale, bande d'asociales, j'vote front national Enfermez-moi tous ces trous d'uc dans des tours infernales Normal qu'après on foute le feu au centre commercial Halte étranger ! Et tous ceux que la ??? Tous ces ??? remplissant l'stupéfiant, j'veux plus C'est la peste, la chute, ça chahute mais ça ??? Je lutte, j'fais dans mon fute, un étranger j'butte Blouson en faux cuir, fausse tête, faux jeans, fausses running Chez lui la seule chose qu'est vraie, c'est son racisme J'suis pas d'ac'! Ça m'donne des frayeurs car Kojak Voit partout des voleurs de couleur comme Kodak C'est cliché comme j'suis affiché, m'demande mes papiers Les shmits te cuisine, t'fige puis t'fiche dans un clapier Mettez-les dans des cages, tirez-les comme des lapins T'façon la 'caille kiffe la carotte du soir au matin Faut les enfermer dans des cités, les traiter d'assistés Puis vous fermez les yeux et pratiquez la cécité Prestige de l'uniformité Inspecteur Navarro préférerait voir étendu sur le carreau qu'derrière les barreaux Les chargeurs j'vide vite Les flics remplissent les prisons Nous rions car la police nous méprisons J't'invite là où les gendarmes se sentent désarmés Bienvenue dans lbéton armé</t>
         </is>
       </c>
     </row>
@@ -684,7 +680,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Du mal à trouver l'sommeil, j'veille tard dans la nuit Puis, j'te surprends comme une tarte dans la nuque Nouveau maillot sort de la machine Je n'conçois ni la défaite, ni le match nul Tu m'veux pas du bien, j'imagine Sache que ni magie noire ni sorcellerie ne marche sur moi bitch J'y vais à fond, tu m'parles de modération, eh C'est pas l'moment, j'dois faire monter la ssion-pre Ouais, j'dois les baiser fort, fort Braquer l'industrie, péter la combi' du coffre-fort ouais Jaloux, haineux fuck, fuck Ces fils de... veulent que mon album flop J'vais pas m'arrêter tous les cents mètres La route est longue comme une peine sans mandat, sans lettre Ces putains d'colons auront beaucoup d'mal à s'en r'mettre Nouvel indépendant, négro brille sans chaîne et sans maître Des bouches à nourrir pas l'choix, j'dois tout plier Le building est en chantier, j'arrive outillé On m'a dit Tu cherches le succès, continue, t'y es Quand t'entends les inconnus te dire Tu m'as oublié Pour l'instant, tudo bem prestation j'en rate pas une Toujours pas sous cocaïne ou protection d'un caïd Le son tourne dans les Cayenne et dans les Clio Dans le binks, dans les paillettes, chez les dealers et les clients Pas b'soin d'lire le dépliant, t'inquiète pas, tout est clair Je suis l'nouveau proprio, j'ai déjà l'double des clefs Le respect, ça se force, puis, un jour, ça se perd Tu t'fais bouger par un p'tit, toi, t'as l'âge de son père C'est comme ça, l'game est sans cur, c'est toujours l'même procédé Un peu d'light et les suckers t'foncent dessus comme des possédés J'm'y suis fait, c'est l'humain, j'pense pas qu'il changera d'si tôt Non, il passe les premiers mois d'sa vie à téter, donc rien d'étonnant Impossible d'être numéro un sans écraser les autres, on N'a toujours pas croisé d'roi qu'acceptait d'partager son trône Ne joue pas l'justicier, l'dernier est mort juste ici Personne le pleure, il est sous terre, couvert d'engrais et d'pesticides Retrouve-moi tard dans la night, j'travaille sur les derniers réglages Quand l'building s'ra fini, j'm'installerai au dernier étage J'ai r'péré des envieux comploter sur oi-m à trois heures J'les ai vus venir de loin, comme des keufs déguisés en casseurs Les idées sont noires, j'ai fait sauter tout l'éclairage Si tu m'cherches, j'te conseille d'envoyer des drones en repérage J'ai cramé des envieux comploter sur oi-m à trois heures Y'en a qui jettent l'il mais, là, c'est plus des yeux, c'est des tasers You might also like Apparemment, tu t'es trompé, fiston, on joue pas dans la même compétition Tu m'connais pas très bien, c'est normal, pendant trois ans, j'étais complètement coupé du son J'viens parler musique, tu m'parles de nichons, m'invite plus jamais dans ton émission Quarante-cinq balais, t'appelles des gamines, tu leur expliques comment provoquer l'érection Du mal avec les médias, j'ai mes raisons Maintenant, j'm'adresse qu'à mon public sur mes réseaux J'arrive avec des nouvelles combinaisons, hey J'me suis toujours différencié des autres, hey J'arrête de raconter ma vie d'vant des caméras, maintenant, j'utilise mes sons pour communiquer Ardisson n'a qu'à niquer sa grand-mère, j'irai jamais lui donner d'quoi polémiquer 2.18, ça fuse à cent à l'heure, trop d'infos, j'risque pas d'être à court d'inspiration On vit dans nos écrans, même nos regards sont pixelisés, y'a même plus dinteraction J'suis plutôt discret, mais j'ai des amis listés qui mènent des vies risquées Certains d'entre eux ont perdu la boule au trou, va savoir c'que ces bâtards leur administraient Ne me fais pas d'accolade, ne force pas la collab' À chaque sortie d'bum-al, c'est l'retour des passeurs d'pommade Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force C'est tous des acteurs, j'hallucine Bientôt, ils vendront leur bum-al sur AlloCiné Si t'as toujours pas compris la supercherie, boy, t'es pas lucide Demande à Abou Tall, les chiffres mentent aussi quand on parle du stream Wesh les mecs, on fait comment ? Arrêtez d'jurer sur le Coran Vous êtes fans, mais vous attendez la lumière pour revenir en courant J'fais du sale sur commande, j'attends pas qu'tu commentes J'attends pas qu'le courant passe entre nous, casse-toi, r'tourne en classe Les tendances passent, ces clowns Vont tous se remettre à faire du pe-ra, putain, ça me casse les couilles Surtout si la moitié d'entre eux vont nous parler de pétasses et d'guns Va falloir que j'remette de l'ordre, il va falloir que je casse des gueules que je casse des gueules Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Ay, Gucci, Gucci, Louis, ça tire, rien qu'tu douilles Michto toute éblouie veut qu'tu payes son loyer Silencieux sur la tempe, j'les réveille en pleine nuit Si j'voulais faire du bruit, j'aurais débarqué sur un tank, hey Pour le plaisir et la paye, j's'rai plus jamais sur la paille Quand l'album est prêt, j'sors le bail, puis jemmène la mif' en vacances à la playa, hey Papa à la playa boit jus d'papaye à la paille, boy Toi, j'sais pas où t'es mais t'es ailleurs, tu t'branles sur l'dernier épisode d'Empire J'prends tous les risques sur l'terrain, passeur décisif et buteur Paye-moi en cash ou on va pas s'entendre, j't'attends au distributeur T'en fais trop, t'es dans l'exa', oh j'suis sur scène dans tout l'hexagone T'as l'seum, tu veux qu'on règle ça dehors t'as des couilles que quand t'empestes l'alcool Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Des fois, j'aime pas les gens, y'a rien d'personnel, c'est pas méchant Tu m'diras, les gens s'en foutent tant qu'tu leur proposes pas quelque chose d'alléchant N'écarte pas les jambes par peur de paraître chiant, j'ai raréfié les apparitions Dans les médias, mais tu peux toujours me croiser avec IDR dans Paris-Centre Tout niquer, ça paraît simple mais c'est pas toujours le cas Ton buzz d'un jour, il a foutu le camp, en vitesse de croisière, j'ai tenu le cap J'me mets en mode silence radio quand j'travaille, j'suis focus, je n'fais que du quali' Dis-toi qu'c'est le calme avant la tempête locale, hey, hey, hey Je n'juge pas à l'apparence et j'insulte pas les parents Mais sache que, pour toucher ta moitié, grand te-traî peut simuler l'amitié Bang bang bang, ils font les malins, ils font des plans, ça va pas loin J'regarde ma s'melle quand j'en écrase un, puis j'nettoie la scène de crime au Sopalin, hey Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire J'pense à faire dans l'textile, broder mon nom sur ma veste Dans l'même temps, j'apprends qu'une fan s'est tatouée mon nom sur la fesse J'suis du-per, c'est pas pour ça qu'j'ai signé Moi, j'suis v'nu bâtir un empire, les plans sont d'jà dessinés J'veux pas la moitié, non, j'veux ma part en entier J'suis pas v'nu parlementer pour tout t'dire, j'suis un peu remonté Attention quand j'suis lancé, boy, j'peux pas ralentir J'ai dit qu'j'arrivais, mes fans m'attendent, j'peux pas leur mentir T'es tombé pour train d'vie, normal qu'en cellule tu dérailles, ouais Sur la neige que tu vendais, t'as fini par déraper T'es dans l'droit, le juge épluche le dossier en détail Le fils de... veut qu'tu crèves en cage comme du bétail J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine Nos rêves d'enfant nous bousillent J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine Nos rêves d'enfant nous bousillent Têtu comme les p'tits d'la tess' j'suis pressé, boy, vide la caisse J'ai b'soin d'graille, j'ai b'soin d'graille, mon haleine sent dans toute la pièce Toute la pièce, comme si j'avais bu d'la Despé' j'ai beau chercher, j'trouve pas l'respect Ce con me fuit comme la peste, j'ai pas b'soin d'pute de Budapest Dans un jet, j'veux juste ma pièce, s'il faut rapper pour ça, balance-moi l'instru', j'la blesse Monnaie, monétiser, prendre des sommes à tomber sur la tête, fais pas l'con si j'te propose de v'nir poser sur la 'tape Monnaie, monnaie, j'repense à l'époque où j'bossais au supermarket Le soir, j'recomptais la caisse, mon putain d'boss me guettait Vers la fin du mois, j'disais au daron d'pas s'inquiéter Comprends qu'j'puisse pas mettre un salaire dans une paire de baskets J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine, billets d'banque Nos rêves d'enfant nous bousillent allez, allez, allez, allez J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine Nos rêves d'enfant nous bousillent Si, devant l'addition, t'es en mode chacun son chacun T'improvise pas lover, les prix des sacs sont choquants Sorry mais elle mouillera pas si l'compte en banque est sec En attendant d'faire des lourds, il faut qu'tu pointes à sept heures Ouais, l'monde est moche, boy, si tu veux manger, boy Sans faire la manche, boy, ou sortir le machin, boy Il faut qu'tu bosses, que tu transpires pour un boss qui t'paye au lance-pierres Ouais, qu'tu bosses, boy, faut qu'tu pointes à sept heures sept heures pile J'me présente Karim Fall, franco-sénégalais Si t'aimes c'que j'fais, m'suce pas, wesh, essaie d'm'égaler J'comprends pas l'discours des perdants, c'est des galères Le but des compét', c'est pas d'y participer, c'est d'les gagner Combien d'vues ? Combien d'streams ? Combien d'CD, c'tte année ? Combien d'pipes sous la table ou dans les escaliers dans les escaliersSignatures d'apprentis yous-voy fans des Savastano J'vais pas m'inventer toute une ie-v pour cer-per, j'suis d'jà installé Hey, hey Seven-five-zéro-one-eight one, eight Seven-five-zero-zero-nine zero, nine Renoi, y'avait beaucoup moins d'haters moins d'haters Quand on avait zéro, zéro maille, zéro maille hey Je sais toujours qui sont mes gars sûrs mes gars sûrs On s'est fait dans le sang et la sueur et la sueur Si l'un d'entre nous merde, tout l'monde assume On est, on est plus forts assemblés comme Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega J'suis un kickeur sale mais, devant les bleus, j'suis un silencieux Ferme un peu ta gueule car t'étais pas là pour me financer J'viens de L'École des Points Vitaux, quand il fallait kicker, personne m'invitait Tu veux que j'te dise la vérité ? On s'quittera pas sur un score de parité O.G kush est cachée dans la couche, cut, le te-shi dans la kitchen quiche Et bien calée dans la poche gauche, t'es qu'un putain de geush, tu payes et tu te casses, gars À bord de la caisse, elle a baissé l'siège et puis basta, oh merde M-E-G-A-S-K-I, j'ai pas besoin d'teille de 'sky J'arrive, cartouches dans la valise, vu que le savoir est une arme Mega, Fall, super sale Nueve-quatro, seven-five Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega Changement d'tactique quand les plans sont contrecarrés J'me bats comme si c'tait l'monde entier contre Karim C'putain d'game est vicieux, prends l'temps d'te préparer Le mur est encore plus douloureux quand y a personne pour t'réparer hey, hey Pas question d'se déchirer pour un testament Tout l'monde sait qu'la mif' c'est plus sacré qu'tout ça, nan ? Jeunes Parisiens pas toujours très beaux mais charmants Jeunes Parisiens, on a poussé entre les touristes et les pots d'échappement, hey hey Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega L'ancien m'a dit c'est qu'une question de temps Dans la vie faut pas être endetté Dans ma ville t'as écris sur un deux temps, obligé d'écrire que Le ventre vide, qui venait m'aider en ville si en uniforme ils sont embettant Dans mon coeur est floqué nueve-quatro Tu fais l'dur, tu rappes même pas dans les temps Pas encore pété, dans ta bouche y a d'jà ma 'te 'te Tu dis mon blase, t'as la pateuse Bientôt j'serai partout et j'vais ramener tous mes rates-pi Vos carrières ont un plan partouze Moi j'espère que y a pas d'appart et de perquise' Plan à part, j'vois que des gros culs, j'vais pas t'faire de croquis Ma mère disait qu'j'suis trop têtu mais jamais eu de racli parce que j'suis trop têtu J'ai la tête dur, j'te mets quelques claques si tu t'es perdus Elle a criée eperdument que c'était gros, que c'était hyper dur Ca bougera pas cet été, ça veut faire des tales, ça finis sur l'té-cô Dans l'métro odeur de pétou Y a ces batards d'la RATP sur l'té-cô T'as essayé d'm'atteindre, t'es mal tombé Je vais tous vous éteindre, je vais vous étonner Tu fais l'mec qui vis bien, arrête de mythonner Tu vas chanter comme Keblack tellement t'as déconné Rien n'sert de mythonner, vrais on connais Vrais on connais ce qui sonne Et faut pas nous sortir tes propos siliconés Tu vas t'faire cogner Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Dans le mille, j'préfère viser dans le mille Quand tu t'rates, ça s'frotte les mains dans le milieu Chacun voit midi à sa porte devant la mienne, il est minuit J'essaye de pas faire comme les autres, quitte à c'qu'ils disent Il s'prend pour qui, lui ? C'foutu game ramassis d'égos d'artistes en manque de light J'arrive bre-som comme le monde d'la night Insulte-moi si tu m'vois faire la diva J'préfère la franchise d'un frérot que d'payer pour m'allonger sur un divan Putain d'ble-Dia m'a dit Va, va jusqu'au bout, c'est pour oi-m Autant lui donner mon cul pour qu'il y fourre tout son oigt-d, fuck Y'a d'la ce-pla pour tout l'monde, renoi, pourquoi tu veux m'empêcher d'ter-mon ? Wesh, wesh, t'es bizarre, toi, tu s'rais pas du genre à donner des noms ? Tu sors un nouveau projet, tu veux qu'j'te tienne la main comme si t'étais ma nana J'suis pas ton mana', petite mierda, est-ce que t'as écouté Trois d'la mañana ? La ce-for, c'est dans les deux sens arrête de dire le sang si c'est pas le sang J'ai toujours pas ret'nu la leçon dans les virages, j'suis toujours à deux cent Boy, lunettes noires sur la gueule, c'est pour l'anonymat J'suis d'vant toi, t'y vois que dalle, fais-toi plaisir, parodie-moi Dans un sous-sol pendant dix mois, j'ai postillonné sur le micro L'objectif, c'est tout baiser si tu le peux, ralentis-moi, sinon, tue-moi Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone J'suis attendu comme ce foutu jour de paye Attendu comme mon prochain retour au pays Tant qu'je prends des euros, tudo bem Prends mon son dans la tête comme un coup d'bouteille Nouveau deal, mamacita, j't'emmène dîner J't'emmène danser la samba comme Ronaldinho Déterminé pour être sûr de pas m'faire piner J'ai enfilé un calbar en verre pilé La hess m'attendait en peignoir, pétales de rose du lit jusqu'à la baignoire Les caméras d'l'hôtel m'ont vues prendre la fuite dans un cabriolet noir Long et bre-som comme le couloir de la mort, la cabine est mon défouloir Touche pas l'micro, tu fais n'imp', tu rappes comme un asthmatique dans un fumoir C'est le foutoir, j'comprends R, j'prends la prod, j'la monte en l'air 2009, écrasement d'tête dix ans plus tard, on donne l'heure J'ai jamais vendu d'gue-dro dans le bât', la moitié d'ma ie-v à manger des pâtes La moitié d'ma ie-v à manger des portes, à cette époque, heureusement, j'ai des potes Heureusement, j'ai des potes, c'est comment ? Ils veulent tous faire comme moi Ça m'fatigue, j'sors l'album puis j'disparais quelques mois J'vais mettre le cap sur une île, quitter Snap', changer d'num' P't-être écrire un bouquin du genre Comment rapper pour les Nuls ? Ou Comment rapper pour les nudes ?, petit dique-sa, ça te parle, hein ? J'vais pas m'mettre à faire du X pour vendre des disques, gros, j'ai des parents Tu t'inventes une vie en racontant des histoires que t'as entendues au bar, hein? On connait tous un ou deux grands voyous mais ça suffit pas pour faire le Parrain Posé dans le fer Millions d'dollars, je veux faire Le Diable veut qu'on parle affaires Veut que j'le suive en Enfer 2-18 j'comprends toujours pas les rappeurs qui prétendent posséder des armes à feu Quand les tits-pe qui t'écoutent iront jusqu'au bout, faudra pas leur dire C'est pas ma faute Des mensonges maquillés au contouring, des vérités volontairement camouflées Multi-visage, multi-discours, j'aurai du mal à t'croire quand tu m'appelleras mon frère Y'en a qui disent que t'as raté ta vie si t'as pas d'Rolex avant la quarantaine Merde, il va falloir que j'dise à mon père Papa, t'es qu'un loser entre parenthèses J'ai vu des gens embellis par la thune et puis enlaidis par l'avarice J'ai vu la résine de cannabis détruire les meilleurs, la paresse les paralyse J'aime regarder l'Homme et l'analyser, j'aime me tromper quand j'ai des préjugés J'aime voyager léger, dites au douanier qu'il trouvera pas d'explosifs dans ma valise Quand la douleur est réelle, dites aux médias qu'c'est pas la peine de la scénariser L'instrumentaliser, c'est enfermer les appels à l'aide dans une pièce insonorisée Arrêtez d'créer des polémiques en sortant les propos d'leur contexte Est-ce que si j'vous dis qu'vous m'avez saoulé, vous allez m'faire souffler dans un alcootest ? J'ai d'plus en plus de mal à faire confiance aux humains, c'est rare que j'adhère à des causes J'écoute les politiques et bizarrement j'ai l'impression d'avoir affaire à des gosses Skrr, ay L'oseille et la santé, oseille et la santé, hey, hey Hey, hey, hey On veut s'gonfler le ventre ventre, faire exploser les ventes ventes T'inquiète pas, ça va rentrer rentrer, l'oseille et la santé sku H24 sur le chantier chantier, me dérange pas, j'suis concentré sku T'inquiète pas, ça va rentrer hey, l'oseille et la santé sku J'ai quitté l'école avant l'âge ay, j'suis toujours pas un crack en maths Mais prends pas ça pour un avantage, l'avocat vérifie les pourcentages chu On veut l'oseille et la santé santé dans l'immédiat, pas dans cent ans cent ans Ouais, l'oseille et la santé, tracer le sentier pour les descendants hey, hey, hey, hey Pour l'instant, lciel est oragé, au charbon comme un enragé J'me saigne jusqu'à l'hémorragie remercie Dieu si je meurs âgé J'aime pas demander, j'aime pas le mot magique, j'aime pas perdre, j'aime pas le mot dommage J'ai briefé mon entourage l'objectif, c'est de tout rach'ter hey, hey, hey, hey Qui n'a pas faim ? Qui n'a pas soif ? Tout l'monde veut sa part du gâteau, ouais, ça va d'soi Ça s'laisse pousser des ailes à la Black Swan, quitte à finir transformé en passoire par l'SWAT Dites à l'hosto' que j'leur envoie des patients, j'aurais jamais dû kicker devant les passants J'ai cherché des rivaux, y en a pas cent j'remercie mon équipe, j'avancerais pas sans sku On veut s'gonfler le ventre ouh, faire exploser les ventes ventes T'inquiète pas, ça va rentrer sku, l'oseille et la santé wouh H24 sur le chantier chantier, me dérange pas, j'suis concentré oui T'inquiète pas, ça va rentrer rentrer, l'oseille et la santé On m'a dit Fall, t'es sous-côté, t'es pas comme les autres, toi, tu fais la dif' La plupart d'entre eux sont sous codé', comme si leur 'sique était codée J'comprends que dalle, les 'ffres-chi' sont dopés continue, tu nous fais kiffer, la mif Tant que j'peux mettre des sous d'côté, tant qu'mes morceaux s'laissent écouter Tu t'fais du souci pour les années à venir, mais t'es même pas sûr d'être encore en vie soir-ce Si personne peut dire la vérité autour de la table, tu ferais mieux d't'y asseoir seul T'as pas bien choisi la mère de tes enfants, t'étonne pas si tes filles sont des garces Craque pas, plaque pas tout sur un coup d'tête, il t'restera que dalle, à part l'seum Mon cerveau chauffe j'ai b'soin d'le climatiser, j'laisserai aucun gourou l'privatiser Il t'reste toute une bouteille de rhum à tiser moi, j'ai besoin des conseils d'un homme avisé Insulter des mères, j'pourrais l'faire aussi, c'est pas ça qui t'rendra plus féroce J'te vois comme un attaquant qui plonge parce qu'il est pas capable de faire la différence Le négro sait qu'j'prépare l'artillerie, il préfère s'faire hara-kiri Contre-pied, j'la mets à ras-d'terre simple, efficace est mon caractère J'suis pas toujours très poétique droit au but, pas d'politique J'suis pas prêt à tout, question d'éthique, mais faut qu'le truc reste prolifique Tous ces gens qui s'improvisent meilleur ami font comme s'ils t'connaissaient depuis toujours, ils sont là pour la fame, pour la gloire... Tout ça pour la fame, tout ça pour la fame J'les connais pas, moi, ces gens-là, ils sont là pour la fame Ils sont là pour les femmes, l'argent et le pouvoir Ils jurent fidélité à tout jamais j'aimerais tout perdre juste pour voir Laisse ça, ils en valent pas la peine aucun des frères qui compte pour moi n'manque à l'appel Aucun d'mes ennemis n'mérite que j'lui creuse une tombe, j'te jure, ils en valent même pas la pelle Putain, ils m'foutront pas la paix, ces vampires m'foutront pas la paix Pop-corn, j'regarderai leur masque tomber, postiché dans mon canapé Le public attend mon retour avec impatience, ouais, négro, j'suis comme un prêt Qu'ils s'inquiètent pas, si j'ai fait 3 du mat, c'est pas pour revenir avec du com' après Tout ça pour la fame, tout ça pour la fame, yeah, yeah Chacun son destin, n'envie pas le mien négro, ça, c'est la flemme, hé C'est l'travail qui paie, demande à mon staff, pendant qu'tu dors devant Netflix J'm'arrête pas, j'veux faire en une journée d'taf le double de ton salaire net fixe Fuck, fuck tes grands speech, pour qui tu t'prends, bitch ? Tu serais sûrement que dalle sans triche, rien à foutre pourvu qu'tu t'sentes riche Rien à foutre pourvu qu'tu t'sentes riche, pourvu qu'tu serres ces p'tites pouffes excentriques Impossible de les attirer sans fric, comme impossible de les niquer sans trique Tout ça pour la fame, tout ça pour la fame Les hommes de parole, on les respecte les suceurs, on les ferme Sur ça, on est ferme sur ça, on ne bouge pas Leur excuse ne nous touche pas, ils font ça pour la fame Tout pour briller, tout pour briller les valeurs, les principes il faut tout oublier N'aie pas peur de t'mettre à genoux pour supplier, tu t'serviras d'ta réput' comme bouclier Poste sur les réseaux sociaux des photos d'tes fesses ou d'tes nichons dans un t-shirt mouillé Même si, au fond, tu t'sens un peu humiliée dans quelques likes, tu demanderas des milliers T'as même plus besoin d'talent pour tout plier, suffit d'être une salope et d'le publier Petite écervelée sachant à peine compter peut maintenant investir dans l'immobilier Cheveux dans l'vent dans la 'rrari, le nez complètement refait dans la farine Attention, ça sort les griffes, va rendre visite aux Anges à Los Angeles si t'as jamais fait d'safari Tout ça pour la fame, tout ça pour la fame J'les connais pas, moi, ces gens-là, ils sont là pour la fame</t>
+          <t>Du mal à trouver l'sommeil, j'veille tard dans la nuit Puis, j'te surprends comme une tarte dans la nuque Nouveau maillot sort de la machine Je n'conçois ni la défaite, ni le match nul Tu m'veux pas du bien, j'imagine Sache que ni magie noire ni sorcellerie ne marche sur moi bitch J'y vais à fond, tu m'parles de modération, eh C'est pas l'moment, j'dois faire monter la ssion-pre Ouais, j'dois les baiser fort, fort Braquer l'industrie, péter la combi' du coffre-fort ouais Jaloux, haineux fuck, fuck Ces fils de... veulent que mon album flop J'vais pas m'arrêter tous les cents mètres La route est longue comme une peine sans mandat, sans lettre Ces putains d'colons auront beaucoup d'mal à s'en r'mettre Nouvel indépendant, négro brille sans chaîne et sans maître Des bouches à nourrir pas l'choix, j'dois tout plier Le building est en chantier, j'arrive outillé On m'a dit Tu cherches le succès, continue, t'y es Quand t'entends les inconnus te dire Tu m'as oublié Pour l'instant, tudo bem prestation j'en rate pas une Toujours pas sous cocaïne ou protection d'un caïd Le son tourne dans les Cayenne et dans les Clio Dans le binks, dans les paillettes, chez les dealers et les clients Pas b'soin d'lire le dépliant, t'inquiète pas, tout est clair Je suis l'nouveau proprio, j'ai déjà l'double des clefs Le respect, ça se force, puis, un jour, ça se perd Tu t'fais bouger par un p'tit, toi, t'as l'âge de son père C'est comme ça, l'game est sans cur, c'est toujours l'même procédé Un peu d'light et les suckers t'foncent dessus comme des possédés J'm'y suis fait, c'est l'humain, j'pense pas qu'il changera d'si tôt Non, il passe les premiers mois d'sa vie à téter, donc rien d'étonnant Impossible d'être numéro un sans écraser les autres, on N'a toujours pas croisé d'roi qu'acceptait d'partager son trône Ne joue pas l'justicier, l'dernier est mort juste ici Personne le pleure, il est sous terre, couvert d'engrais et d'pesticides Retrouve-moi tard dans la night, j'travaille sur les derniers réglages Quand l'building s'ra fini, j'm'installerai au dernier étage J'ai r'péré des envieux comploter sur oi-m à trois heures J'les ai vus venir de loin, comme des keufs déguisés en casseurs Les idées sont noires, j'ai fait sauter tout l'éclairage Si tu m'cherches, j'te conseille d'envoyer des drones en repérage J'ai cramé des envieux comploter sur oi-m à trois heures Y'en a qui jettent l'il mais, là, c'est plus des yeux, c'est des tasers Apparemment, tu t'es trompé, fiston, on joue pas dans la même compétition Tu m'connais pas très bien, c'est normal, pendant trois ans, j'étais complètement coupé du son J'viens parler musique, tu m'parles de nichons, m'invite plus jamais dans ton émission Quarante-cinq balais, t'appelles des gamines, tu leur expliques comment provoquer l'érection Du mal avec les médias, j'ai mes raisons Maintenant, j'm'adresse qu'à mon public sur mes réseaux J'arrive avec des nouvelles combinaisons, hey J'me suis toujours différencié des autres, hey J'arrête de raconter ma vie d'vant des caméras, maintenant, j'utilise mes sons pour communiquer Ardisson n'a qu'à niquer sa grand-mère, j'irai jamais lui donner d'quoi polémiquer 2.18, ça fuse à cent à l'heure, trop d'infos, j'risque pas d'être à court d'inspiration On vit dans nos écrans, même nos regards sont pixelisés, y'a même plus dinteraction J'suis plutôt discret, mais j'ai des amis listés qui mènent des vies risquées Certains d'entre eux ont perdu la boule au trou, va savoir c'que ces bâtards leur administraient Ne me fais pas d'accolade, ne force pas la collab' À chaque sortie d'bum-al, c'est l'retour des passeurs d'pommade Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force C'est tous des acteurs, j'hallucine Bientôt, ils vendront leur bum-al sur AlloCiné Si t'as toujours pas compris la supercherie, boy, t'es pas lucide Demande à Abou Tall, les chiffres mentent aussi quand on parle du stream Wesh les mecs, on fait comment ? Arrêtez d'jurer sur le Coran Vous êtes fans, mais vous attendez la lumière pour revenir en courant J'fais du sale sur commande, j'attends pas qu'tu commentes J'attends pas qu'le courant passe entre nous, casse-toi, r'tourne en classe Les tendances passent, ces clowns Vont tous se remettre à faire du pe-ra, putain, ça me casse les couilles Surtout si la moitié d'entre eux vont nous parler de pétasses et d'guns Va falloir que j'remette de l'ordre, il va falloir que je casse des gueules que je casse des gueules Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Ay, Gucci, Gucci, Louis, ça tire, rien qu'tu douilles Michto toute éblouie veut qu'tu payes son loyer Silencieux sur la tempe, j'les réveille en pleine nuit Si j'voulais faire du bruit, j'aurais débarqué sur un tank, hey Pour le plaisir et la paye, j's'rai plus jamais sur la paille Quand l'album est prêt, j'sors le bail, puis jemmène la mif' en vacances à la playa, hey Papa à la playa boit jus d'papaye à la paille, boy Toi, j'sais pas où t'es mais t'es ailleurs, tu t'branles sur l'dernier épisode d'Empire J'prends tous les risques sur l'terrain, passeur décisif et buteur Paye-moi en cash ou on va pas s'entendre, j't'attends au distributeur T'en fais trop, t'es dans l'exa', oh j'suis sur scène dans tout l'hexagone T'as l'seum, tu veux qu'on règle ça dehors t'as des couilles que quand t'empestes l'alcool Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Des fois, j'aime pas les gens, y'a rien d'personnel, c'est pas méchant Tu m'diras, les gens s'en foutent tant qu'tu leur proposes pas quelque chose d'alléchant N'écarte pas les jambes par peur de paraître chiant, j'ai raréfié les apparitions Dans les médias, mais tu peux toujours me croiser avec IDR dans Paris-Centre Tout niquer, ça paraît simple mais c'est pas toujours le cas Ton buzz d'un jour, il a foutu le camp, en vitesse de croisière, j'ai tenu le cap J'me mets en mode silence radio quand j'travaille, j'suis focus, je n'fais que du quali' Dis-toi qu'c'est le calme avant la tempête locale, hey, hey, hey Je n'juge pas à l'apparence et j'insulte pas les parents Mais sache que, pour toucher ta moitié, grand te-traî peut simuler l'amitié Bang bang bang, ils font les malins, ils font des plans, ça va pas loin J'regarde ma s'melle quand j'en écrase un, puis j'nettoie la scène de crime au Sopalin, hey Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire J'pense à faire dans l'textile, broder mon nom sur ma veste Dans l'même temps, j'apprends qu'une fan s'est tatouée mon nom sur la fesse J'suis du-per, c'est pas pour ça qu'j'ai signé Moi, j'suis v'nu bâtir un empire, les plans sont d'jà dessinés J'veux pas la moitié, non, j'veux ma part en entier J'suis pas v'nu parlementer pour tout t'dire, j'suis un peu remonté Attention quand j'suis lancé, boy, j'peux pas ralentir J'ai dit qu'j'arrivais, mes fans m'attendent, j'peux pas leur mentir T'es tombé pour train d'vie, normal qu'en cellule tu dérailles, ouais Sur la neige que tu vendais, t'as fini par déraper T'es dans l'droit, le juge épluche le dossier en détail Le fils de... veut qu'tu crèves en cage comme du bétail J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine Nos rêves d'enfant nous bousillent J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine Nos rêves d'enfant nous bousillent Têtu comme les p'tits d'la tess' j'suis pressé, boy, vide la caisse J'ai b'soin d'graille, j'ai b'soin d'graille, mon haleine sent dans toute la pièce Toute la pièce, comme si j'avais bu d'la Despé' j'ai beau chercher, j'trouve pas l'respect Ce con me fuit comme la peste, j'ai pas b'soin d'pute de Budapest Dans un jet, j'veux juste ma pièce, s'il faut rapper pour ça, balance-moi l'instru', j'la blesse Monnaie, monétiser, prendre des sommes à tomber sur la tête, fais pas l'con si j'te propose de v'nir poser sur la 'tape Monnaie, monnaie, j'repense à l'époque où j'bossais au supermarket Le soir, j'recomptais la caisse, mon putain d'boss me guettait Vers la fin du mois, j'disais au daron d'pas s'inquiéter Comprends qu'j'puisse pas mettre un salaire dans une paire de baskets J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine, billets d'banque Nos rêves d'enfant nous bousillent allez, allez, allez, allez J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine Nos rêves d'enfant nous bousillent Si, devant l'addition, t'es en mode chacun son chacun T'improvise pas lover, les prix des sacs sont choquants Sorry mais elle mouillera pas si l'compte en banque est sec En attendant d'faire des lourds, il faut qu'tu pointes à sept heures Ouais, l'monde est moche, boy, si tu veux manger, boy Sans faire la manche, boy, ou sortir le machin, boy Il faut qu'tu bosses, que tu transpires pour un boss qui t'paye au lance-pierres Ouais, qu'tu bosses, boy, faut qu'tu pointes à sept heures sept heures pile J'me présente Karim Fall, franco-sénégalais Si t'aimes c'que j'fais, m'suce pas, wesh, essaie d'm'égaler J'comprends pas l'discours des perdants, c'est des galères Le but des compét', c'est pas d'y participer, c'est d'les gagner Combien d'vues ? Combien d'streams ? Combien d'CD, c'tte année ? Combien d'pipes sous la table ou dans les escaliers dans les escaliersSignatures d'apprentis yous-voy fans des Savastano J'vais pas m'inventer toute une ie-v pour cer-per, j'suis d'jà installé Hey, hey Seven-five-zéro-one-eight one, eight Seven-five-zero-zero-nine zero, nine Renoi, y'avait beaucoup moins d'haters moins d'haters Quand on avait zéro, zéro maille, zéro maille hey Je sais toujours qui sont mes gars sûrs mes gars sûrs On s'est fait dans le sang et la sueur et la sueur Si l'un d'entre nous merde, tout l'monde assume On est, on est plus forts assemblés comme Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega J'suis un kickeur sale mais, devant les bleus, j'suis un silencieux Ferme un peu ta gueule car t'étais pas là pour me financer J'viens de L'École des Points Vitaux, quand il fallait kicker, personne m'invitait Tu veux que j'te dise la vérité ? On s'quittera pas sur un score de parité O.G kush est cachée dans la couche, cut, le te-shi dans la kitchen quiche Et bien calée dans la poche gauche, t'es qu'un putain de geush, tu payes et tu te casses, gars À bord de la caisse, elle a baissé l'siège et puis basta, oh merde M-E-G-A-S-K-I, j'ai pas besoin d'teille de 'sky J'arrive, cartouches dans la valise, vu que le savoir est une arme Mega, Fall, super sale Nueve-quatro, seven-five Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega Changement d'tactique quand les plans sont contrecarrés J'me bats comme si c'tait l'monde entier contre Karim C'putain d'game est vicieux, prends l'temps d'te préparer Le mur est encore plus douloureux quand y a personne pour t'réparer hey, hey Pas question d'se déchirer pour un testament Tout l'monde sait qu'la mif' c'est plus sacré qu'tout ça, nan ? Jeunes Parisiens pas toujours très beaux mais charmants Jeunes Parisiens, on a poussé entre les touristes et les pots d'échappement, hey hey Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega L'ancien m'a dit c'est qu'une question de temps Dans la vie faut pas être endetté Dans ma ville t'as écris sur un deux temps, obligé d'écrire que Le ventre vide, qui venait m'aider en ville si en uniforme ils sont embettant Dans mon coeur est floqué nueve-quatro Tu fais l'dur, tu rappes même pas dans les temps Pas encore pété, dans ta bouche y a d'jà ma 'te 'te Tu dis mon blase, t'as la pateuse Bientôt j'serai partout et j'vais ramener tous mes rates-pi Vos carrières ont un plan partouze Moi j'espère que y a pas d'appart et de perquise' Plan à part, j'vois que des gros culs, j'vais pas t'faire de croquis Ma mère disait qu'j'suis trop têtu mais jamais eu de racli parce que j'suis trop têtu J'ai la tête dur, j'te mets quelques claques si tu t'es perdus Elle a criée eperdument que c'était gros, que c'était hyper dur Ca bougera pas cet été, ça veut faire des tales, ça finis sur l'té-cô Dans l'métro odeur de pétou Y a ces batards d'la RATP sur l'té-cô T'as essayé d'm'atteindre, t'es mal tombé Je vais tous vous éteindre, je vais vous étonner Tu fais l'mec qui vis bien, arrête de mythonner Tu vas chanter comme Keblack tellement t'as déconné Rien n'sert de mythonner, vrais on connais Vrais on connais ce qui sonne Et faut pas nous sortir tes propos siliconés Tu vas t'faire cogner Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Dans le mille, j'préfère viser dans le mille Quand tu t'rates, ça s'frotte les mains dans le milieu Chacun voit midi à sa porte devant la mienne, il est minuit J'essaye de pas faire comme les autres, quitte à c'qu'ils disent Il s'prend pour qui, lui ? C'foutu game ramassis d'égos d'artistes en manque de light J'arrive bre-som comme le monde d'la night Insulte-moi si tu m'vois faire la diva J'préfère la franchise d'un frérot que d'payer pour m'allonger sur un divan Putain d'ble-Dia m'a dit Va, va jusqu'au bout, c'est pour oi-m Autant lui donner mon cul pour qu'il y fourre tout son oigt-d, fuck Y'a d'la ce-pla pour tout l'monde, renoi, pourquoi tu veux m'empêcher d'ter-mon ? Wesh, wesh, t'es bizarre, toi, tu s'rais pas du genre à donner des noms ? Tu sors un nouveau projet, tu veux qu'j'te tienne la main comme si t'étais ma nana J'suis pas ton mana', petite mierda, est-ce que t'as écouté Trois d'la mañana ? La ce-for, c'est dans les deux sens arrête de dire le sang si c'est pas le sang J'ai toujours pas ret'nu la leçon dans les virages, j'suis toujours à deux cent Boy, lunettes noires sur la gueule, c'est pour l'anonymat J'suis d'vant toi, t'y vois que dalle, fais-toi plaisir, parodie-moi Dans un sous-sol pendant dix mois, j'ai postillonné sur le micro L'objectif, c'est tout baiser si tu le peux, ralentis-moi, sinon, tue-moi Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone J'suis attendu comme ce foutu jour de paye Attendu comme mon prochain retour au pays Tant qu'je prends des euros, tudo bem Prends mon son dans la tête comme un coup d'bouteille Nouveau deal, mamacita, j't'emmène dîner J't'emmène danser la samba comme Ronaldinho Déterminé pour être sûr de pas m'faire piner J'ai enfilé un calbar en verre pilé La hess m'attendait en peignoir, pétales de rose du lit jusqu'à la baignoire Les caméras d'l'hôtel m'ont vues prendre la fuite dans un cabriolet noir Long et bre-som comme le couloir de la mort, la cabine est mon défouloir Touche pas l'micro, tu fais n'imp', tu rappes comme un asthmatique dans un fumoir C'est le foutoir, j'comprends R, j'prends la prod, j'la monte en l'air 2009, écrasement d'tête dix ans plus tard, on donne l'heure J'ai jamais vendu d'gue-dro dans le bât', la moitié d'ma ie-v à manger des pâtes La moitié d'ma ie-v à manger des portes, à cette époque, heureusement, j'ai des potes Heureusement, j'ai des potes, c'est comment ? Ils veulent tous faire comme moi Ça m'fatigue, j'sors l'album puis j'disparais quelques mois J'vais mettre le cap sur une île, quitter Snap', changer d'num' P't-être écrire un bouquin du genre Comment rapper pour les Nuls ? Ou Comment rapper pour les nudes ?, petit dique-sa, ça te parle, hein ? J'vais pas m'mettre à faire du X pour vendre des disques, gros, j'ai des parents Tu t'inventes une vie en racontant des histoires que t'as entendues au bar, hein? On connait tous un ou deux grands voyous mais ça suffit pas pour faire le Parrain Posé dans le fer Millions d'dollars, je veux faire Le Diable veut qu'on parle affaires Veut que j'le suive en Enfer 2-18 j'comprends toujours pas les rappeurs qui prétendent posséder des armes à feu Quand les tits-pe qui t'écoutent iront jusqu'au bout, faudra pas leur dire C'est pas ma faute Des mensonges maquillés au contouring, des vérités volontairement camouflées Multi-visage, multi-discours, j'aurai du mal à t'croire quand tu m'appelleras mon frère Y'en a qui disent que t'as raté ta vie si t'as pas d'Rolex avant la quarantaine Merde, il va falloir que j'dise à mon père Papa, t'es qu'un loser entre parenthèses J'ai vu des gens embellis par la thune et puis enlaidis par l'avarice J'ai vu la résine de cannabis détruire les meilleurs, la paresse les paralyse J'aime regarder l'Homme et l'analyser, j'aime me tromper quand j'ai des préjugés J'aime voyager léger, dites au douanier qu'il trouvera pas d'explosifs dans ma valise Quand la douleur est réelle, dites aux médias qu'c'est pas la peine de la scénariser L'instrumentaliser, c'est enfermer les appels à l'aide dans une pièce insonorisée Arrêtez d'créer des polémiques en sortant les propos d'leur contexte Est-ce que si j'vous dis qu'vous m'avez saoulé, vous allez m'faire souffler dans un alcootest ? J'ai d'plus en plus de mal à faire confiance aux humains, c'est rare que j'adhère à des causes J'écoute les politiques et bizarrement j'ai l'impression d'avoir affaire à des gosses Skrr, ay L'oseille et la santé, oseille et la santé, hey, hey Hey, hey, hey On veut s'gonfler le ventre ventre, faire exploser les ventes ventes T'inquiète pas, ça va rentrer rentrer, l'oseille et la santé sku H24 sur le chantier chantier, me dérange pas, j'suis concentré sku T'inquiète pas, ça va rentrer hey, l'oseille et la santé sku J'ai quitté l'école avant l'âge ay, j'suis toujours pas un crack en maths Mais prends pas ça pour un avantage, l'avocat vérifie les pourcentages chu On veut l'oseille et la santé santé dans l'immédiat, pas dans cent ans cent ans Ouais, l'oseille et la santé, tracer le sentier pour les descendants hey, hey, hey, hey Pour l'instant, lciel est oragé, au charbon comme un enragé J'me saigne jusqu'à l'hémorragie remercie Dieu si je meurs âgé J'aime pas demander, j'aime pas le mot magique, j'aime pas perdre, j'aime pas le mot dommage J'ai briefé mon entourage l'objectif, c'est de tout rach'ter hey, hey, hey, hey Qui n'a pas faim ? Qui n'a pas soif ? Tout l'monde veut sa part du gâteau, ouais, ça va d'soi Ça s'laisse pousser des ailes à la Black Swan, quitte à finir transformé en passoire par l'SWAT Dites à l'hosto' que j'leur envoie des patients, j'aurais jamais dû kicker devant les passants J'ai cherché des rivaux, y en a pas cent j'remercie mon équipe, j'avancerais pas sans sku On veut s'gonfler le ventre ouh, faire exploser les ventes ventes T'inquiète pas, ça va rentrer sku, l'oseille et la santé wouh H24 sur le chantier chantier, me dérange pas, j'suis concentré oui T'inquiète pas, ça va rentrer rentrer, l'oseille et la santé On m'a dit Fall, t'es sous-côté, t'es pas comme les autres, toi, tu fais la dif' La plupart d'entre eux sont sous codé', comme si leur 'sique était codée J'comprends que dalle, les 'ffres-chi' sont dopés continue, tu nous fais kiffer, la mif Tant que j'peux mettre des sous d'côté, tant qu'mes morceaux s'laissent écouter Tu t'fais du souci pour les années à venir, mais t'es même pas sûr d'être encore en vie soir-ce Si personne peut dire la vérité autour de la table, tu ferais mieux d't'y asseoir seul T'as pas bien choisi la mère de tes enfants, t'étonne pas si tes filles sont des garces Craque pas, plaque pas tout sur un coup d'tête, il t'restera que dalle, à part l'seum Mon cerveau chauffe j'ai b'soin d'le climatiser, j'laisserai aucun gourou l'privatiser Il t'reste toute une bouteille de rhum à tiser moi, j'ai besoin des conseils d'un homme avisé Insulter des mères, j'pourrais l'faire aussi, c'est pas ça qui t'rendra plus féroce J'te vois comme un attaquant qui plonge parce qu'il est pas capable de faire la différence Le négro sait qu'j'prépare l'artillerie, il préfère s'faire hara-kiri Contre-pied, j'la mets à ras-d'terre simple, efficace est mon caractère J'suis pas toujours très poétique droit au but, pas d'politique J'suis pas prêt à tout, question d'éthique, mais faut qu'le truc reste prolifique Tous ces gens qui s'improvisent meilleur ami font comme s'ils t'connaissaient depuis toujours, ils sont là pour la fame, pour la gloire... Tout ça pour la fame, tout ça pour la fame J'les connais pas, moi, ces gens-là, ils sont là pour la fame Ils sont là pour les femmes, l'argent et le pouvoir Ils jurent fidélité à tout jamais j'aimerais tout perdre juste pour voir Laisse ça, ils en valent pas la peine aucun des frères qui compte pour moi n'manque à l'appel Aucun d'mes ennemis n'mérite que j'lui creuse une tombe, j'te jure, ils en valent même pas la pelle Putain, ils m'foutront pas la paix, ces vampires m'foutront pas la paix Pop-corn, j'regarderai leur masque tomber, postiché dans mon canapé Le public attend mon retour avec impatience, ouais, négro, j'suis comme un prêt Qu'ils s'inquiètent pas, si j'ai fait 3 du mat, c'est pas pour revenir avec du com' après Tout ça pour la fame, tout ça pour la fame, yeah, yeah Chacun son destin, n'envie pas le mien négro, ça, c'est la flemme, hé C'est l'travail qui paie, demande à mon staff, pendant qu'tu dors devant Netflix J'm'arrête pas, j'veux faire en une journée d'taf le double de ton salaire net fixe Fuck, fuck tes grands speech, pour qui tu t'prends, bitch ? Tu serais sûrement que dalle sans triche, rien à foutre pourvu qu'tu t'sentes riche Rien à foutre pourvu qu'tu t'sentes riche, pourvu qu'tu serres ces p'tites pouffes excentriques Impossible de les attirer sans fric, comme impossible de les niquer sans trique Tout ça pour la fame, tout ça pour la fame Les hommes de parole, on les respecte les suceurs, on les ferme Sur ça, on est ferme sur ça, on ne bouge pas Leur excuse ne nous touche pas, ils font ça pour la fame Tout pour briller, tout pour briller les valeurs, les principes il faut tout oublier N'aie pas peur de t'mettre à genoux pour supplier, tu t'serviras d'ta réput' comme bouclier Poste sur les réseaux sociaux des photos d'tes fesses ou d'tes nichons dans un t-shirt mouillé Même si, au fond, tu t'sens un peu humiliée dans quelques likes, tu demanderas des milliers T'as même plus besoin d'talent pour tout plier, suffit d'être une salope et d'le publier Petite écervelée sachant à peine compter peut maintenant investir dans l'immobilier Cheveux dans l'vent dans la 'rrari, le nez complètement refait dans la farine Attention, ça sort les griffes, va rendre visite aux Anges à Los Angeles si t'as jamais fait d'safari Tout ça pour la fame, tout ça pour la fame J'les connais pas, moi, ces gens-là, ils sont là pour la fame</t>
         </is>
       </c>
     </row>
@@ -701,7 +697,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Svinkels Lobotomitive 93-100 Putain, j'ai la tête dans l'cul Gérard Baste, Nikus Pokus, Mr Xavier et Frédérique Lansac C'est MC soûlard alias Clodo MC x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire J'suis grave dans l'pâté, la tête dans un étau Des quintaux d'neurones niqués Vite amenez-moi chez l'véto pour m'piquer J'suis zombie, j'me rappelle plus du début d'la soirée Attends, j'veux dire d'la fin enfin t'façon j'me rappelle plus d'rien Vu que, j'suis pas dans mon lit C'est qu'j ai du perdre mes clefs, mon fric, mes papiers, bref, tout c'qui peut s'perdre, j'ai la gerbe Hey Nikus réveilles-toi, j'ai plus d'estomac Mais qu'est ce qui a pu s'passer d'puis qu'on est tombé dans l'coma Ma deuxième boisson, c'est l'Efferalgan Contre les lendemains d'alcool et leurs effets rageants J'ai une casquette et plus d'plomb dans l'crane Une migraine comprimée à supprimer au Doliprane J'ai des r'montées d'bulles, un lendemain d'bal ou j'crache ma bile J'roule ma bille, sur un mauvais versant Une ivresse effervescente, indécente Ma descente, m'emmènera aux enfers Aux catacombes à Denfert You might also like Ah ouais ça commence à m'rev'nir, on était accoudés au bar Déboires dans l'bobard, j'faisais croire que j'portais un slip léopard Et ça s'barre en vrille, y'avait trop d'filles horrifiées, d'pouffes pouffants Dans l'Svinkisme jusqu'à l'étouffement On a fait les fonds d'bouteilles En criant Youpi, c'est noël! Juste avant d'se laver les dents avec la vieille brosse à vaisselle Puis l'image d'un pote qui pleure Et celle du pote du pote qui fait la tête J'pige plus rien quand j'ai fais la fête Rappelles-toi Gégé, la soirée c était rue d'la Roquette Toi t'as terminé tout allongé sur la moquette On t'a ramassé pour aller sur les quais Toi t'as fini dans la Seine, raide comme une queue d'pelle tu t'rappelles ? J'bois comme un trou Ma mémoire brisée au Marie Brizard Tu t'es vu quand t'abuses ? Non j'me suis pas vu, j'me rappelle plus J ai alcootisé tous mes écus pour la sécu J'ai voulu, donner mon foie à la médecine mais ils en ont pas voulu x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire Grillage la lourde du rade On ferme tôt c'soir Pis j'veux pas d'voyous dans mon bar, dégage connard Normal qu'ils puissent pas m'saquer Passent cinq à sec Quand Xanax-san sert le saké Putain, si c'est pas malheureux d'voir toute cette génération perdue dans l'alcool Les patrons d'marques de bière s'remplissent les poches et t'rendent bête En enfermant l'diable dans des putains d'canettes Vas-y bois! comme ça tsoublieras ta misère Vas-y bois! et files-en une à ton compère Zombies, tous dans l'vice Et à la main, faut croire qu'ça l'fait bien d's'afficher 8-6 à la main J'suis pas ??? Maintenant c'est ton cerveau qu't'as perdu Et pourtant c'est juste pour l'style qu't'as bu, trou du cul Tu croyais jouer Mais ça y'en a drogue dure, p'tit Et maintenant t'es d'vant l'fait accompli Avec mon pote, j ai tisé comme ils tisent Et comme E.T, j'pouvais plus r'tourner à la maison J avais perdu la raison J'me noie dans c'que j'vois, j'peux plus m'payer mon loyer Les bars, j'les fréquentent plus tard qu'le Frequenstar d'Laurent Boyer Mon QI un lendemain d'cuite J'court-circuite des fuites de cerveaux J'aurais du tomber dedans dès le berceau, Yakalelo Mais y'a pas que d'l'eau que j'vis L'alcool mon hobby avec des souvenirs de vomi Quand j'pense qu'on m'fait plus confiance Qu'j'fais honte à ma fiancée Tout renverser, tout casser, tout tacher sans balancer C'est devenu essentiel comme RTL D'm'envoyer au delà du réel Faut qu'j'défonce une 7.5cl J'ai 25 ans, des absences, j'tremble Il m'semble que l'Alka sezter guérit pas d'Parkinson ni d'Alzheimer D'un il vitreux j'mate mon r'flet dans la vitre C'lui d'un type qui boit des litres et qui fait l'pitre c'est ça le titre x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire</t>
+          <t>Svinkels Lobotomitive 93-100 Putain, j'ai la tête dans l'cul Gérard Baste, Nikus Pokus, Mr Xavier et Frédérique Lansac C'est MC soûlard alias Clodo MC x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire J'suis grave dans l'pâté, la tête dans un étau Des quintaux d'neurones niqués Vite amenez-moi chez l'véto pour m'piquer J'suis zombie, j'me rappelle plus du début d'la soirée Attends, j'veux dire d'la fin enfin t'façon j'me rappelle plus d'rien Vu que, j'suis pas dans mon lit C'est qu'j ai du perdre mes clefs, mon fric, mes papiers, bref, tout c'qui peut s'perdre, j'ai la gerbe Hey Nikus réveilles-toi, j'ai plus d'estomac Mais qu'est ce qui a pu s'passer d'puis qu'on est tombé dans l'coma Ma deuxième boisson, c'est l'Efferalgan Contre les lendemains d'alcool et leurs effets rageants J'ai une casquette et plus d'plomb dans l'crane Une migraine comprimée à supprimer au Doliprane J'ai des r'montées d'bulles, un lendemain d'bal ou j'crache ma bile J'roule ma bille, sur un mauvais versant Une ivresse effervescente, indécente Ma descente, m'emmènera aux enfers Aux catacombes à Denfert Ah ouais ça commence à m'rev'nir, on était accoudés au bar Déboires dans l'bobard, j'faisais croire que j'portais un slip léopard Et ça s'barre en vrille, y'avait trop d'filles horrifiées, d'pouffes pouffants Dans l'Svinkisme jusqu'à l'étouffement On a fait les fonds d'bouteilles En criant Youpi, c'est noël! Juste avant d'se laver les dents avec la vieille brosse à vaisselle Puis l'image d'un pote qui pleure Et celle du pote du pote qui fait la tête J'pige plus rien quand j'ai fais la fête Rappelles-toi Gégé, la soirée c était rue d'la Roquette Toi t'as terminé tout allongé sur la moquette On t'a ramassé pour aller sur les quais Toi t'as fini dans la Seine, raide comme une queue d'pelle tu t'rappelles ? J'bois comme un trou Ma mémoire brisée au Marie Brizard Tu t'es vu quand t'abuses ? Non j'me suis pas vu, j'me rappelle plus J ai alcootisé tous mes écus pour la sécu J'ai voulu, donner mon foie à la médecine mais ils en ont pas voulu x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire Grillage la lourde du rade On ferme tôt c'soir Pis j'veux pas d'voyous dans mon bar, dégage connard Normal qu'ils puissent pas m'saquer Passent cinq à sec Quand Xanax-san sert le saké Putain, si c'est pas malheureux d'voir toute cette génération perdue dans l'alcool Les patrons d'marques de bière s'remplissent les poches et t'rendent bête En enfermant l'diable dans des putains d'canettes Vas-y bois! comme ça tsoublieras ta misère Vas-y bois! et files-en une à ton compère Zombies, tous dans l'vice Et à la main, faut croire qu'ça l'fait bien d's'afficher 8-6 à la main J'suis pas ??? Maintenant c'est ton cerveau qu't'as perdu Et pourtant c'est juste pour l'style qu't'as bu, trou du cul Tu croyais jouer Mais ça y'en a drogue dure, p'tit Et maintenant t'es d'vant l'fait accompli Avec mon pote, j ai tisé comme ils tisent Et comme E.T, j'pouvais plus r'tourner à la maison J avais perdu la raison J'me noie dans c'que j'vois, j'peux plus m'payer mon loyer Les bars, j'les fréquentent plus tard qu'le Frequenstar d'Laurent Boyer Mon QI un lendemain d'cuite J'court-circuite des fuites de cerveaux J'aurais du tomber dedans dès le berceau, Yakalelo Mais y'a pas que d'l'eau que j'vis L'alcool mon hobby avec des souvenirs de vomi Quand j'pense qu'on m'fait plus confiance Qu'j'fais honte à ma fiancée Tout renverser, tout casser, tout tacher sans balancer C'est devenu essentiel comme RTL D'm'envoyer au delà du réel Faut qu'j'défonce une 7.5cl J'ai 25 ans, des absences, j'tremble Il m'semble que l'Alka sezter guérit pas d'Parkinson ni d'Alzheimer D'un il vitreux j'mate mon r'flet dans la vitre C'lui d'un type qui boit des litres et qui fait l'pitre c'est ça le titre x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire</t>
         </is>
       </c>
     </row>
@@ -718,7 +714,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Scratchs Dans les tunnels Scratchs On f'ra brûler, brûler la ville Yeah ! 2,3 souvenirs C'est pour les copains qui ont fait l'mur et qui ont tapé l'train Dans les tunnels Qui ont au fond d'la poche un ze-quin L.A.S 01 glisse mieux qu'la surface blanche d'une camionnette Dehors pour bomber comme au Vietnam sous l'même nom Baste One Le sale type au flow-master, salaud, bidons d'1 litre J'les embarque vite et puis je fonce vers la sortie J'ai pas appris sur le net mais dans les ronces et les orties À fumer dans les p'tites rues qu'les tags recouvrent Élevé par les louves aux Palissades du Louvre Quand j'crache pas mes phases malhonnêtes, j'lâche un blaze trop net Mec, y'a rien qui glisse mieux qu'la surface blanche d'une camionnette Chacun son ch'min et quand t'es lancé sur l'mauvais rail Demande à Earl ça peut t'miner l'moral On part en balade, Joujou soulève la trappe à ??? V'là les barbares foncedés à l'odeur de la Sparvar Aller jusqu'au bout d'la ligne et puis sauter J'écris mon futur comme mon passé, à la pointe biseautée Et si tu t'demandes pourquoi et qui j'suis pour t'parler d'tag T'inquiètes les anciens et les vrais savent Baste You might also like On en a passé des nuits sur les avenues dans les ruelles Le bruit des cailloux, des ventilos dans les tunnels C'est pour les gars qui correspondent jamais au panel Pour ceux qui squattent toujours en d'ssous des fenêtres comme un ??? On crache nos peurs et nos haines dans le chrome et le noir mat Me parle pas de stand-up quand j'te parle de One Man On peut tout donner et on viendra pour tout prendre Et on f'ra brûler la ville noyée sous l'amour et l'encre Scratchs Dans les tunnels Scratchs Dans les tunnels Scratchs Dans les tunnels Scratchs Et on f'ra brûler la ville, brûler la ville Descente interdite, fuck RATP Pardon à la comathèque, ils vont auront fait frotter Et les condés au p'tit matin, marchaient au bluff Postés sur les quais pendant qu'les train partaient au ??? Chacun son histoire, chacun ses héros d'guerre Défoncer les devantures, des flops sur les rideaux d'fer Taguer bourré, persuadés d'être invisibles On peut grimper, on peut tomber, on s'ra toujours invincibles Si on a voulu t'faire parler et qu't'as pas fait sur toi Si t'as été chercher des bombes dans l'pavillon à Aulnay-sous-Bois Si t'as connu les galères, les coulures, les couleurs qui r'passent pas Si t'as pris des poses devant ta brûlure du genre Il s'passe quoi? Et toujours fier quand les potos canardent Toutes ces heures à mater chaque photo dans ??? J'en place une pour les peigne-cul d'Austerlitz et d'Gare du Nord Ils vont ont menottés, vous repartirez plus forts</t>
+          <t>Scratchs Dans les tunnels Scratchs On f'ra brûler, brûler la ville Yeah ! 2,3 souvenirs C'est pour les copains qui ont fait l'mur et qui ont tapé l'train Dans les tunnels Qui ont au fond d'la poche un ze-quin L.A.S 01 glisse mieux qu'la surface blanche d'une camionnette Dehors pour bomber comme au Vietnam sous l'même nom Baste One Le sale type au flow-master, salaud, bidons d'1 litre J'les embarque vite et puis je fonce vers la sortie J'ai pas appris sur le net mais dans les ronces et les orties À fumer dans les p'tites rues qu'les tags recouvrent Élevé par les louves aux Palissades du Louvre Quand j'crache pas mes phases malhonnêtes, j'lâche un blaze trop net Mec, y'a rien qui glisse mieux qu'la surface blanche d'une camionnette Chacun son ch'min et quand t'es lancé sur l'mauvais rail Demande à Earl ça peut t'miner l'moral On part en balade, Joujou soulève la trappe à ??? V'là les barbares foncedés à l'odeur de la Sparvar Aller jusqu'au bout d'la ligne et puis sauter J'écris mon futur comme mon passé, à la pointe biseautée Et si tu t'demandes pourquoi et qui j'suis pour t'parler d'tag T'inquiètes les anciens et les vrais savent Baste On en a passé des nuits sur les avenues dans les ruelles Le bruit des cailloux, des ventilos dans les tunnels C'est pour les gars qui correspondent jamais au panel Pour ceux qui squattent toujours en d'ssous des fenêtres comme un ??? On crache nos peurs et nos haines dans le chrome et le noir mat Me parle pas de stand-up quand j'te parle de One Man On peut tout donner et on viendra pour tout prendre Et on f'ra brûler la ville noyée sous l'amour et l'encre Scratchs Dans les tunnels Scratchs Dans les tunnels Scratchs Dans les tunnels Scratchs Et on f'ra brûler la ville, brûler la ville Descente interdite, fuck RATP Pardon à la comathèque, ils vont auront fait frotter Et les condés au p'tit matin, marchaient au bluff Postés sur les quais pendant qu'les train partaient au ??? Chacun son histoire, chacun ses héros d'guerre Défoncer les devantures, des flops sur les rideaux d'fer Taguer bourré, persuadés d'être invisibles On peut grimper, on peut tomber, on s'ra toujours invincibles Si on a voulu t'faire parler et qu't'as pas fait sur toi Si t'as été chercher des bombes dans l'pavillon à Aulnay-sous-Bois Si t'as connu les galères, les coulures, les couleurs qui r'passent pas Si t'as pris des poses devant ta brûlure du genre Il s'passe quoi? Et toujours fier quand les potos canardent Toutes ces heures à mater chaque photo dans ??? J'en place une pour les peigne-cul d'Austerlitz et d'Gare du Nord Ils vont ont menottés, vous repartirez plus forts</t>
         </is>
       </c>
     </row>
@@ -735,7 +731,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>x2 Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normals Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma J'te jure qu'j'suis un mec normal Le problème c'est quand j'picole J'deviens comme O.J Simpson C'est la fête avec les Svinkels Le grand partage de l'alcool Y'en a un qui t'a piqué ton verre Mais tu sais pas l'quel Normal si après j'm'en sors mal J'me sens informe tellement j'dors mal Et qu'dans ma piaule ça sent fort l'mâle Hier, soirée banale avec TTC on buvait d'la bière Ben j'vous jure qu'j'suis normal Et j'ai rien fait monsieur l'commissaire Un mec normal, une espèce rare à garder dans du formol Qui va jamais à la pharma Qui a fait normale Sup' et Harvard Un rappeur normal Un noir plein d'putes qui rafle tout au Grammy's Award Un mec normal qui a peur d'un pit Et surtout qui aime pas l'rap Un mec qui économise comme un maudit Pour mourir dans un virage en Audi Un quadra sous déprime chez son psy Qui s'fait tout p'tit Qui a pas fait pipi au lit tard Se couche tôt Regarde pas d'film porno Et surtout fraude pas dans l'métro Un mec qui sort de table sans faire un rot Compte déjà en euros S'grille aucun neurone Pas un mec qui scratche comme Pone Ou un mec qui clash comme Xanax Qu'a pris de la dope à max Et surtout qui s'en tape de faire du rap sur des mixtapes You might also like Le soleil brille dans le ciel Il est déjà midi, je me réveille Et dans la rue tous les passants me sourient Instantanément j'oublie tous mes soucis Je suis normal, depuis qu'ils m'ont fait sortir de l'hôpital Les gens qui passent ne comprenaient pas mes envies sales Je me suis senti mal, ils ont froissé mes sentiments Je me suis enfermé dans une salle en disant Je suis brisé, je vous en supplie laissez-moi respirer ! TTC le groupe dans l'rap qui s'éclate C'est un coup d'feu au milieu d'une salle de concert Ça fait fuir tout l'monde Sauf que toutes les rates écartent, place au spectacle Tumbler, gin, sampler, tine-pla Fine lame, shit gras dans beurre tis-gra De l'amusement abrutissant, voilà c'que c'est Laissez place au style Cuiz le mec dans la discothèque Qui rock la place et file dans ses baskets Chercher la compèt Sans être hautain, honnête, respectueux Même vis a vis des produits défectueux Même vis a vis des produits défectueux Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normal Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma Ma vie c'est la vie d'bureau mais quand même c'est bave Rendez vous important chez l're-beu Déj'ner d'affaire au Kebab Journée normale, Renault espace, tape 8 heures d'route Pour allez jouer dans l'trou du cul du monde D'vant 3 ploucs, et 2 vieilles normales Obsédé sexuel comme tout l'monde Bon p't'être un peu davantage Si t'as l'matos pour un plan bondage Mais pour l'heure c'est Quality Streetz On va t'finir au finger Laisse-moi mettre 2 doigts coupe faim dans ta boite à bonheur Certains répètent que notre hip-hop est conceptuel Nos flow expérimentaux et nos sons extrêmes On s'en fout, on fait c'qu'on aime Ce sont les autres qui sont fous Je suis lucide, levons les mains en l'air et soyons stupides Si l'on nous supprime nos bouteilles, nos appareils dentaires, nos bougies à la cire d'abeille, nos caractères, nos artères Nous reste plus qu'à faire du rap de gangster Je suis caustique, vive les alcooliques, et mort au rap comique Il flotte une ambiance bizarroïde Une seringue lyricale dans la veine Tu t'vomis dessus Et ta glande thyroïdale s'agite Un coup sec sur la carotide Et tu crèves tout d'suite, t'es die On s'branlerait sur nos têtes Afin qu'ça nous réanime et qu'on gesticule Descriptif, toujours dans le timing La qualité d'la rue dans tes oreilles J'ai commencé à rapper dans les squares du 19ème Sans spliffs ou col-alh Des grands ??? trouvent ça normal Dans du ring fight, sur les rapodromes Cartonne un mal de crane carabiné T'auras à la fin d'cette phrase Reçois la comme un coup d'fouet dans tes seufs T'es sur la bonne route pour l'extase Ou tu préfères être sodom' par un buffle impénétrable x2 Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normal Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma</t>
+          <t>x2 Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normals Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma J'te jure qu'j'suis un mec normal Le problème c'est quand j'picole J'deviens comme O.J Simpson C'est la fête avec les Svinkels Le grand partage de l'alcool Y'en a un qui t'a piqué ton verre Mais tu sais pas l'quel Normal si après j'm'en sors mal J'me sens informe tellement j'dors mal Et qu'dans ma piaule ça sent fort l'mâle Hier, soirée banale avec TTC on buvait d'la bière Ben j'vous jure qu'j'suis normal Et j'ai rien fait monsieur l'commissaire Un mec normal, une espèce rare à garder dans du formol Qui va jamais à la pharma Qui a fait normale Sup' et Harvard Un rappeur normal Un noir plein d'putes qui rafle tout au Grammy's Award Un mec normal qui a peur d'un pit Et surtout qui aime pas l'rap Un mec qui économise comme un maudit Pour mourir dans un virage en Audi Un quadra sous déprime chez son psy Qui s'fait tout p'tit Qui a pas fait pipi au lit tard Se couche tôt Regarde pas d'film porno Et surtout fraude pas dans l'métro Un mec qui sort de table sans faire un rot Compte déjà en euros S'grille aucun neurone Pas un mec qui scratche comme Pone Ou un mec qui clash comme Xanax Qu'a pris de la dope à max Et surtout qui s'en tape de faire du rap sur des mixtapes Le soleil brille dans le ciel Il est déjà midi, je me réveille Et dans la rue tous les passants me sourient Instantanément j'oublie tous mes soucis Je suis normal, depuis qu'ils m'ont fait sortir de l'hôpital Les gens qui passent ne comprenaient pas mes envies sales Je me suis senti mal, ils ont froissé mes sentiments Je me suis enfermé dans une salle en disant Je suis brisé, je vous en supplie laissez-moi respirer ! TTC le groupe dans l'rap qui s'éclate C'est un coup d'feu au milieu d'une salle de concert Ça fait fuir tout l'monde Sauf que toutes les rates écartent, place au spectacle Tumbler, gin, sampler, tine-pla Fine lame, shit gras dans beurre tis-gra De l'amusement abrutissant, voilà c'que c'est Laissez place au style Cuiz le mec dans la discothèque Qui rock la place et file dans ses baskets Chercher la compèt Sans être hautain, honnête, respectueux Même vis a vis des produits défectueux Même vis a vis des produits défectueux Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normal Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma Ma vie c'est la vie d'bureau mais quand même c'est bave Rendez vous important chez l're-beu Déj'ner d'affaire au Kebab Journée normale, Renault espace, tape 8 heures d'route Pour allez jouer dans l'trou du cul du monde D'vant 3 ploucs, et 2 vieilles normales Obsédé sexuel comme tout l'monde Bon p't'être un peu davantage Si t'as l'matos pour un plan bondage Mais pour l'heure c'est Quality Streetz On va t'finir au finger Laisse-moi mettre 2 doigts coupe faim dans ta boite à bonheur Certains répètent que notre hip-hop est conceptuel Nos flow expérimentaux et nos sons extrêmes On s'en fout, on fait c'qu'on aime Ce sont les autres qui sont fous Je suis lucide, levons les mains en l'air et soyons stupides Si l'on nous supprime nos bouteilles, nos appareils dentaires, nos bougies à la cire d'abeille, nos caractères, nos artères Nous reste plus qu'à faire du rap de gangster Je suis caustique, vive les alcooliques, et mort au rap comique Il flotte une ambiance bizarroïde Une seringue lyricale dans la veine Tu t'vomis dessus Et ta glande thyroïdale s'agite Un coup sec sur la carotide Et tu crèves tout d'suite, t'es die On s'branlerait sur nos têtes Afin qu'ça nous réanime et qu'on gesticule Descriptif, toujours dans le timing La qualité d'la rue dans tes oreilles J'ai commencé à rapper dans les squares du 19ème Sans spliffs ou col-alh Des grands ??? trouvent ça normal Dans du ring fight, sur les rapodromes Cartonne un mal de crane carabiné T'auras à la fin d'cette phrase Reçois la comme un coup d'fouet dans tes seufs T'es sur la bonne route pour l'extase Ou tu préfères être sodom' par un buffle impénétrable x2 Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normal Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma</t>
         </is>
       </c>
     </row>
@@ -752,7 +748,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche Sea, sex and sun Il faut qu'ça fouette, que ce soit wet Qu'tu mouilles ton sweat Qhuit Jusque dans l'18 Hennessy Sprite pas d'Liptonic Laisse glisser le Dom Pérignon Vu que je ne bois la Veuve Clicquot qu'à même le clit' Eau gazeuse en prime et j'ai du bon son pour qui déprime Bounce à gauche ou bounce à droite Mais n'renverse pas ce verre de Jack Sur mes pompes, non la honte Ces choses m'ont coûtées très très cher, elles démontent Et j'me barre en silence, en ruminant des médisances Mais quand même, pour le chic, regarde-moi partir de la teuf avec 2 bitches You might also like Atchoum! Ça y est Gérard Baste est malade Pluie d'lyrics, fous ton ciré jaune, tes pompes d'escalade Parce qu'on sort d'notre coquille que quand tout est humide Quelques gouttes de sueur, un sourire, la scène s'illumine Y'a qu'à la critique qu'on est imperméable Imprégnation des fibres, introduction du chibre dans l'trou d'uc C'est la Qhuit dream team, v'la l'crew dur Un croc dur mais y'a que dalle qui sort d'l'aqueduc Auriez-vous une petite pièce ? Mais pas pour rester dignes On mélange la bière et l'sex, esthétique, esthétique Numéro 1 sur l'podium, électriques Et mouillés d'bas en haut si tu m'touches tu meurs comme Cloclo sous la douche Ecoute ce track comme un grand coup d'trique Des claques et tu cliques, Qhuit, Svinkels, Triptik Psykopat pour les scores Donc concrètement écarte juste les gosses, ramène tes soss, ta gueule puis ta rate Et alors j't'arrête ? Pas d'carotte t'inquiète ! Pirates et starlettes, subissent une syncope sans alerte Pas d'histoire, faut qu'ça pète, qu'ça braille, qu'ça jump sans tièp Faut qu'ça sue, faut qu'ça puire, faut qu'ça l'fasse direct Fixe la barre très haute pour ceux qui s'baissent trop vite Faut qu'les gars grelottent quand le sweat ??? Par centaines, par milliers, les oreilles crépitent Triptik, Psykopat, TTC, Svinkels et Qhuit On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche Bounce, come on Bounce, come on Si t'es down avec le Qhuit, bouge tes membres Qu'on soit pas les seuls à sués tellement la salle est condensée Et qu'tu finisse la culotte mouillée tellement y'a d'meufs sales qu'ont dansées Mouille le, mouille le maillot Dans ton tricot, dans ma mayo La plus belle des cartes de France Des grosses garces, des saunas, dites-moi ma renoi Enlace-moi dans tes bras, là c'est moi qui me noie Moi tout illé-mou, recouvert de big bisous Alors on mouille le maillot Rouge comme caillot Hard comme noyau, on s'la pète comme fayot Dab' n'a pas d'zeb, passe ta 4 bières Dab' n'a pas d'tête, Xan' à 4 16 Baste est HF, lâche ta cassette, lèche ton assiette Gâche pas la fête non, laisse t'es rassis, mâche ton acide Crache pas ta bile, tâche pas ma zique Fume comme ???,bêtes comme Aziz, bons pour l'asile, moites comme l'Asie Mains moites sur stylo bille Aisselles aux déo bille Postillonne, anti pop sur s't'instru d'DSL Mouiller l'slop, dans l'maillot, fais pas ta fiotte J'ai rêver d'rain man et j'me réveille dans mon lit en flotte Passe-moi du textile, changement d'sweat quickly Le Svink' en équipe pour une putain d'lessive Brumise-moi l'QI, j'bouge mon cul tout d'suite Ouais j'ai l'front qui fuite et les manches qui s'imbibent Éléments suintants, d'l'été jusqu'au printemps Être présent t'as pas l'temps Mc au souffle d'air sec fout l'camp C'est l'dégât des eaux, inonde la chair et les os Mes tissus poreux et ceux plus coûteux Des t-shirts, j'en paie peu, Nikus est Emmaüs J'en mouille tellement sur scène, qu'il m'en faut toujours plus Et même dans la cabine, ma sueur salée les abîment Il m'faut d'la qualité, je n'porte que du Qhuit On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche</t>
+          <t>On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche Sea, sex and sun Il faut qu'ça fouette, que ce soit wet Qu'tu mouilles ton sweat Qhuit Jusque dans l'18 Hennessy Sprite pas d'Liptonic Laisse glisser le Dom Pérignon Vu que je ne bois la Veuve Clicquot qu'à même le clit' Eau gazeuse en prime et j'ai du bon son pour qui déprime Bounce à gauche ou bounce à droite Mais n'renverse pas ce verre de Jack Sur mes pompes, non la honte Ces choses m'ont coûtées très très cher, elles démontent Et j'me barre en silence, en ruminant des médisances Mais quand même, pour le chic, regarde-moi partir de la teuf avec 2 bitches Atchoum! Ça y est Gérard Baste est malade Pluie d'lyrics, fous ton ciré jaune, tes pompes d'escalade Parce qu'on sort d'notre coquille que quand tout est humide Quelques gouttes de sueur, un sourire, la scène s'illumine Y'a qu'à la critique qu'on est imperméable Imprégnation des fibres, introduction du chibre dans l'trou d'uc C'est la Qhuit dream team, v'la l'crew dur Un croc dur mais y'a que dalle qui sort d'l'aqueduc Auriez-vous une petite pièce ? Mais pas pour rester dignes On mélange la bière et l'sex, esthétique, esthétique Numéro 1 sur l'podium, électriques Et mouillés d'bas en haut si tu m'touches tu meurs comme Cloclo sous la douche Ecoute ce track comme un grand coup d'trique Des claques et tu cliques, Qhuit, Svinkels, Triptik Psykopat pour les scores Donc concrètement écarte juste les gosses, ramène tes soss, ta gueule puis ta rate Et alors j't'arrête ? Pas d'carotte t'inquiète ! Pirates et starlettes, subissent une syncope sans alerte Pas d'histoire, faut qu'ça pète, qu'ça braille, qu'ça jump sans tièp Faut qu'ça sue, faut qu'ça puire, faut qu'ça l'fasse direct Fixe la barre très haute pour ceux qui s'baissent trop vite Faut qu'les gars grelottent quand le sweat ??? Par centaines, par milliers, les oreilles crépitent Triptik, Psykopat, TTC, Svinkels et Qhuit On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche Bounce, come on Bounce, come on Si t'es down avec le Qhuit, bouge tes membres Qu'on soit pas les seuls à sués tellement la salle est condensée Et qu'tu finisse la culotte mouillée tellement y'a d'meufs sales qu'ont dansées Mouille le, mouille le maillot Dans ton tricot, dans ma mayo La plus belle des cartes de France Des grosses garces, des saunas, dites-moi ma renoi Enlace-moi dans tes bras, là c'est moi qui me noie Moi tout illé-mou, recouvert de big bisous Alors on mouille le maillot Rouge comme caillot Hard comme noyau, on s'la pète comme fayot Dab' n'a pas d'zeb, passe ta 4 bières Dab' n'a pas d'tête, Xan' à 4 16 Baste est HF, lâche ta cassette, lèche ton assiette Gâche pas la fête non, laisse t'es rassis, mâche ton acide Crache pas ta bile, tâche pas ma zique Fume comme ???,bêtes comme Aziz, bons pour l'asile, moites comme l'Asie Mains moites sur stylo bille Aisselles aux déo bille Postillonne, anti pop sur s't'instru d'DSL Mouiller l'slop, dans l'maillot, fais pas ta fiotte J'ai rêver d'rain man et j'me réveille dans mon lit en flotte Passe-moi du textile, changement d'sweat quickly Le Svink' en équipe pour une putain d'lessive Brumise-moi l'QI, j'bouge mon cul tout d'suite Ouais j'ai l'front qui fuite et les manches qui s'imbibent Éléments suintants, d'l'été jusqu'au printemps Être présent t'as pas l'temps Mc au souffle d'air sec fout l'camp C'est l'dégât des eaux, inonde la chair et les os Mes tissus poreux et ceux plus coûteux Des t-shirts, j'en paie peu, Nikus est Emmaüs J'en mouille tellement sur scène, qu'il m'en faut toujours plus Et même dans la cabine, ma sueur salée les abîment Il m'faut d'la qualité, je n'porte que du Qhuit On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche</t>
         </is>
       </c>
     </row>
@@ -769,7 +765,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dr Vince J'ai 50 sacs dans la poche Hey, vas chercher 1 ou 2 packs Hey, j'ai la gorge sèche x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne C'est pour tous les massifs dans l'massif central Qui squattent dans l'Allier, le Puy de Dôme jusqu'au Cantal Le volcan s'réveille, oui oublie l'eau minérale Toi t'as l'air de rien, ils ont l'air de la montagne Lève ta main en l'air pour le Saint putain d'Nectaire Le Bleu d'Auvergne et la Fourme d'Ambert Ici on r'présente de Montluçon à Aurillac On envoie la viande de Salers sous l'buf de l'Aubrac Bombe le thorax, on est des terroristes Hourra, hourra pour les fils de Vercingétorix On débarque gare de Clermont, attention gare au gorilles Ici c'est pas la sauce samouraï c'est sauce au ??? Elle est à toi cette chanson, toi l'Auvergnat qui s'en fout d'Vulcania, qui préfère ??? Né dans la truffade, embourbé dans la potée T'as tripoté l' bibendum, vas pas t'dégonflé You might also like x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne ??? Un mi-homme mi saucisson débité au Laguiole Pression comme c'qui sort de ma bombe ??? ce qui fait qu'quand j'pète j'fais dans mon calbute des trous d'boulette ??? Original sound ??? ??? ??? x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne</t>
+          <t>Dr Vince J'ai 50 sacs dans la poche Hey, vas chercher 1 ou 2 packs Hey, j'ai la gorge sèche x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne C'est pour tous les massifs dans l'massif central Qui squattent dans l'Allier, le Puy de Dôme jusqu'au Cantal Le volcan s'réveille, oui oublie l'eau minérale Toi t'as l'air de rien, ils ont l'air de la montagne Lève ta main en l'air pour le Saint putain d'Nectaire Le Bleu d'Auvergne et la Fourme d'Ambert Ici on r'présente de Montluçon à Aurillac On envoie la viande de Salers sous l'buf de l'Aubrac Bombe le thorax, on est des terroristes Hourra, hourra pour les fils de Vercingétorix On débarque gare de Clermont, attention gare au gorilles Ici c'est pas la sauce samouraï c'est sauce au ??? Elle est à toi cette chanson, toi l'Auvergnat qui s'en fout d'Vulcania, qui préfère ??? Né dans la truffade, embourbé dans la potée T'as tripoté l' bibendum, vas pas t'dégonflé x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne ??? Un mi-homme mi saucisson débité au Laguiole Pression comme c'qui sort de ma bombe ??? ce qui fait qu'quand j'pète j'fais dans mon calbute des trous d'boulette ??? Original sound ??? ??? ??? x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne</t>
         </is>
       </c>
     </row>
@@ -786,7 +782,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ah Ah Ah Ah Ah ugly, ugly, ugly On fait ça dune drôle de manière Ah Ah Ah Ah Ah So ugly, so ugly Je nvoulais pas venir chez Jérôme Qhuit Ne mobligez pas à dev'nir violent Non je nveux pas de bière Et encore moins un sky Avec des glaçons ou autre additifs Il faut que je réfléchisse Les yeux plongés dans cette flaque de pisse Où ma face se réfléchit Non jveux pas y aller Non jveux pas y aller Non, décidément, je nveux pas y aller On mappâte avec des sacs de grass à cque jvois Au niveau fonce-dé te fie pas à c'que j'bois Je refuse lalcool, cest minable Jsuis content d'grinder dla verte avec ma limonade On fait ça dune drôle de manière Celle qui fait saigner dlarcade sourcilière Jsuis pas v'nu vous apporter des bonbons Moi ça serait plutôt la poche sur les yeux Avec des Glaçons You might also like x2 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Jen étais sûr que tu mettrais de la flotte dans la liqueur Jen étais sûr que tu nétais quune fiotte Putain tu mécure Tu sais la glace cest pour les gonzesses et la vodka-pomme Jlaime sec mon sky, jsuis plutôt vodka-rhum Ni diluant, ni glaçons, ni sirop, juste larôme Plus vite ça monte à la tête Plus vite chauffent les neurones Au goulot mon pote Sans filet, sans capote En rasades, en shots, cul-secs, en demis, en choppes Non-stop, plein dclopes et pas une goutte de flotte Dans l'rade tous les glaçons ont un goût d'chiotte Dry et pur, seulement l'alcool j'épure Gamin jétais du genre à sniffer la colle, jtassure Givré cest triché On the rock cest cliché Tu nsuces pas que des glaçons, putain cest pêché Faut plus dun verre pour mébrécher, mamocher Cest pas de leau gelée qui va mempêcher de massécher Avec des glaçons Cest ltop, on the rock Quand jrock la place, un glacier dans lfroc Jai des TOC quand jme sers des bocs à bloc Face à face avec mes verres Ressers-moi un effet d'serres Ya plus d'saison Cest la honte des glaciers Lâge de glace surgelé Surgelé, jsuis congelé Jsuis ccon dRhum-G en congé permanent À force de vouloir per-ra, mes glaçons fondent tout le temps x2 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Pas qulété, toute lannée Cest Holiday on Ice Des gros godets Day or night Dead or alive Trois icebergs dans ma tasse Ou bien retourne chez Picard Jveux du gros cube de Ricard Et dès qujme radine ça fasse bling Vire-moi c'truc tiède Coupe moi ce frelat' de chez ED Ce week-end au sec 15 ans qu'j'connais pas la diète Pas d'vin chaud ou d'saké J'veux du fresh, bien frappé Comme un beat de Drixxxé Qu'les MCs s'sentent congelés Hésite pas, inonde ça Qu'Archimède fasse sa loi La barmaid essuiera La poitrine pleine de çons-gla Vas-y verse la banquise dans l'gin fizz Pour qu'ça ramollisse mon mister freeze Oublie la beat-box Ici y'a l'max de human vide-bocs Qu'on d'jà mit l'box' J'vois double y'a Igor et Zubrowska Bogdanov P'tits yeuz et tronche bouffie comme Anne Roumanoff Il fait chaud ici Vite il mfaut l'truc qui rafraîchit Avant l'acte irréfléchi Matte la vitesse à laquelle le contenu des verres rétrécit L'contour des objets n'est plus très précis J'm'en envoie une derrière la glotte Quand on m'reproche d'la couper avec d'la flotte Et j'passe pour une fiotte Et j'perds en potentiel classe Mais c'est avec glace Alors on vide chaque verre comme le dernier palapapa Et vous feriez pareil si seulement vous saviez que ça va fermer L'équipage est soudain pris d'panique J'ai percuté l'iceberg et j'coule comme le Titanic Naufrage, dégivrage et l'voyage s'arrêta net Sur une tempête dans ce verre d'eau, réchauffement d'la canette x4 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons</t>
+          <t>Ah Ah Ah Ah Ah ugly, ugly, ugly On fait ça dune drôle de manière Ah Ah Ah Ah Ah So ugly, so ugly Je nvoulais pas venir chez Jérôme Qhuit Ne mobligez pas à dev'nir violent Non je nveux pas de bière Et encore moins un sky Avec des glaçons ou autre additifs Il faut que je réfléchisse Les yeux plongés dans cette flaque de pisse Où ma face se réfléchit Non jveux pas y aller Non jveux pas y aller Non, décidément, je nveux pas y aller On mappâte avec des sacs de grass à cque jvois Au niveau fonce-dé te fie pas à c'que j'bois Je refuse lalcool, cest minable Jsuis content d'grinder dla verte avec ma limonade On fait ça dune drôle de manière Celle qui fait saigner dlarcade sourcilière Jsuis pas v'nu vous apporter des bonbons Moi ça serait plutôt la poche sur les yeux Avec des Glaçons x2 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Jen étais sûr que tu mettrais de la flotte dans la liqueur Jen étais sûr que tu nétais quune fiotte Putain tu mécure Tu sais la glace cest pour les gonzesses et la vodka-pomme Jlaime sec mon sky, jsuis plutôt vodka-rhum Ni diluant, ni glaçons, ni sirop, juste larôme Plus vite ça monte à la tête Plus vite chauffent les neurones Au goulot mon pote Sans filet, sans capote En rasades, en shots, cul-secs, en demis, en choppes Non-stop, plein dclopes et pas une goutte de flotte Dans l'rade tous les glaçons ont un goût d'chiotte Dry et pur, seulement l'alcool j'épure Gamin jétais du genre à sniffer la colle, jtassure Givré cest triché On the rock cest cliché Tu nsuces pas que des glaçons, putain cest pêché Faut plus dun verre pour mébrécher, mamocher Cest pas de leau gelée qui va mempêcher de massécher Avec des glaçons Cest ltop, on the rock Quand jrock la place, un glacier dans lfroc Jai des TOC quand jme sers des bocs à bloc Face à face avec mes verres Ressers-moi un effet d'serres Ya plus d'saison Cest la honte des glaciers Lâge de glace surgelé Surgelé, jsuis congelé Jsuis ccon dRhum-G en congé permanent À force de vouloir per-ra, mes glaçons fondent tout le temps x2 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Pas qulété, toute lannée Cest Holiday on Ice Des gros godets Day or night Dead or alive Trois icebergs dans ma tasse Ou bien retourne chez Picard Jveux du gros cube de Ricard Et dès qujme radine ça fasse bling Vire-moi c'truc tiède Coupe moi ce frelat' de chez ED Ce week-end au sec 15 ans qu'j'connais pas la diète Pas d'vin chaud ou d'saké J'veux du fresh, bien frappé Comme un beat de Drixxxé Qu'les MCs s'sentent congelés Hésite pas, inonde ça Qu'Archimède fasse sa loi La barmaid essuiera La poitrine pleine de çons-gla Vas-y verse la banquise dans l'gin fizz Pour qu'ça ramollisse mon mister freeze Oublie la beat-box Ici y'a l'max de human vide-bocs Qu'on d'jà mit l'box' J'vois double y'a Igor et Zubrowska Bogdanov P'tits yeuz et tronche bouffie comme Anne Roumanoff Il fait chaud ici Vite il mfaut l'truc qui rafraîchit Avant l'acte irréfléchi Matte la vitesse à laquelle le contenu des verres rétrécit L'contour des objets n'est plus très précis J'm'en envoie une derrière la glotte Quand on m'reproche d'la couper avec d'la flotte Et j'passe pour une fiotte Et j'perds en potentiel classe Mais c'est avec glace Alors on vide chaque verre comme le dernier palapapa Et vous feriez pareil si seulement vous saviez que ça va fermer L'équipage est soudain pris d'panique J'ai percuté l'iceberg et j'coule comme le Titanic Naufrage, dégivrage et l'voyage s'arrêta net Sur une tempête dans ce verre d'eau, réchauffement d'la canette x4 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons</t>
         </is>
       </c>
     </row>
@@ -803,7 +799,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Welsh Recordz Gérard Baste Vas-y rajoutes un peu d'bière dans la casserole C'est pas assez fondu Yeah, faut qu'on fasse fondre cette merde Faut qu'on fasse foudre cette merde On est chauds comme une baraque à frites On jette de l'huile sur l'feu, prépare le son et les explosifs J'les entends qui trépignent, y'a la foule qui gronde Le vinyle qui crépite et l'Cheddar qui est en train d'fondre Considère-moi comme une bombe On a d'quoi allumer la mèche Marrant comme un gars qui tombe Boom ! Les morts se retournent dans leur tombe et j'te r'tourne avec J't'entrouvre la lèvre, j'ai encore fini toute la Leffe J'roule comme une boule de bowling au milieu des quilles Et j'kiffe la moule de ??? au milieu des filles J'ai toujours le bon slogan pour faire bouncer ton Sloggi J'ramène un droggy-bag si t'es d'jà pas assez groggy Parti en goguettes, j'taille ma route à la machette En tournée Intervilles, j'fini par bouffer la vachette Yo c'est le Welsh et tu sais qu'c'est du costaud J'ai un flow d'malade, j'viens foutre le feu à l'hosto You might also like x2 J'éclate la scène comme une bombe Badaboum ! Et à chaque fois qu'le beat tombe Badaboum ! Et dès que j'l'ouvre, c'est l'tonnerre qui gronde Boom ! Badaboum ! Boom ! Badaboom ! Alors ça vient c'putain d'Welsh ou quoi ? T'attends que j'chie du Cheddar pour m'le faire ? Ok ! Yeah ! Han ! Han ! On pousse les meufs dans le living room Y'a du LSD dans l'punch, numéro 1 d'l'organisation d'boum Baste et The Saoul Brotherz, v'là les mecs trop cools Bouge ton gros boule, écoutes c'qui sort du pro-tools Comme House of Pain à la Française, Jump Around Badaboum ! K.O. avant la fin du premier round Même avant qu'le premier gong sonne J't'encule pas, j'te ponctionne J'te glisse juste un doigt, c'est pour vérifier qu'tout fonctionne Tout dépend d'la façon d'voir les choses Moitié-vide, moitié-plein mais faut voir les doses Et si on fait l'compte, là j'suis à plus d'20 bières J'ai la tête dans les nuages et j'paie un demi à Saint Pierre Tu peux pas test, on est talentueux et jolis garçons Si tu l'ouvre, on t'pousse dans l'escalier en colimaçon Inhale ta beuze, on sait c'que les gars veulent Et passe-moi la gueuse, vite avant qu'on t'casse ta gueule x2 J'éclate la scène comme une bombe Badaboum ! Et à chaque fois qu'le beat tombe Badaboum ! Et dès que j'l'ouvre, c'est l'tonnerre qui gronde Boom ! Badaboum ! Boom ! Badaboom ! x2 Vide tes fûts dans l'pub On a l'son et l'ambiance est explosive Sur la piste du club En caleçon, on sort nos bâtons d'dynamite On pousse les meubles dans le living room Numéro 1 d'l'organisation d'boum Reprends-en une vite avant qu'tu dessoûles Et bouge ton gros boule quand t'entends boum ! Badaboum !</t>
+          <t>Welsh Recordz Gérard Baste Vas-y rajoutes un peu d'bière dans la casserole C'est pas assez fondu Yeah, faut qu'on fasse fondre cette merde Faut qu'on fasse foudre cette merde On est chauds comme une baraque à frites On jette de l'huile sur l'feu, prépare le son et les explosifs J'les entends qui trépignent, y'a la foule qui gronde Le vinyle qui crépite et l'Cheddar qui est en train d'fondre Considère-moi comme une bombe On a d'quoi allumer la mèche Marrant comme un gars qui tombe Boom ! Les morts se retournent dans leur tombe et j'te r'tourne avec J't'entrouvre la lèvre, j'ai encore fini toute la Leffe J'roule comme une boule de bowling au milieu des quilles Et j'kiffe la moule de ??? au milieu des filles J'ai toujours le bon slogan pour faire bouncer ton Sloggi J'ramène un droggy-bag si t'es d'jà pas assez groggy Parti en goguettes, j'taille ma route à la machette En tournée Intervilles, j'fini par bouffer la vachette Yo c'est le Welsh et tu sais qu'c'est du costaud J'ai un flow d'malade, j'viens foutre le feu à l'hosto x2 J'éclate la scène comme une bombe Badaboum ! Et à chaque fois qu'le beat tombe Badaboum ! Et dès que j'l'ouvre, c'est l'tonnerre qui gronde Boom ! Badaboum ! Boom ! Badaboom ! Alors ça vient c'putain d'Welsh ou quoi ? T'attends que j'chie du Cheddar pour m'le faire ? Ok ! Yeah ! Han ! Han ! On pousse les meufs dans le living room Y'a du LSD dans l'punch, numéro 1 d'l'organisation d'boum Baste et The Saoul Brotherz, v'là les mecs trop cools Bouge ton gros boule, écoutes c'qui sort du pro-tools Comme House of Pain à la Française, Jump Around Badaboum ! K.O. avant la fin du premier round Même avant qu'le premier gong sonne J't'encule pas, j'te ponctionne J'te glisse juste un doigt, c'est pour vérifier qu'tout fonctionne Tout dépend d'la façon d'voir les choses Moitié-vide, moitié-plein mais faut voir les doses Et si on fait l'compte, là j'suis à plus d'20 bières J'ai la tête dans les nuages et j'paie un demi à Saint Pierre Tu peux pas test, on est talentueux et jolis garçons Si tu l'ouvre, on t'pousse dans l'escalier en colimaçon Inhale ta beuze, on sait c'que les gars veulent Et passe-moi la gueuse, vite avant qu'on t'casse ta gueule x2 J'éclate la scène comme une bombe Badaboum ! Et à chaque fois qu'le beat tombe Badaboum ! Et dès que j'l'ouvre, c'est l'tonnerre qui gronde Boom ! Badaboum ! Boom ! Badaboom ! x2 Vide tes fûts dans l'pub On a l'son et l'ambiance est explosive Sur la piste du club En caleçon, on sort nos bâtons d'dynamite On pousse les meubles dans le living room Numéro 1 d'l'organisation d'boum Reprends-en une vite avant qu'tu dessoûles Et bouge ton gros boule quand t'entends boum ! Badaboum !</t>
         </is>
       </c>
     </row>
@@ -820,7 +816,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dr. Vince Gérard Baste Save Yourself À c'niveau là y'a même plus d'numéro On est là, on est beaux, on est gros Hey, hey x2 Toc, toc, qui tapes à la porte ? Surprise, surprise, c'est Gérard Baste le Doc yeah V'là le tandem de choc Y'a du gros rouge dans les verres et du gros son dans le poste Paris, Clermont représente pour le Dirty Centre Casquettes démentes, tatouages Rude Boy sur le ventre Passe au cabinet si une consultation te tente On organise une partouze géante dans la salle d'attente On casse des briques comme au bagne On assure à la montagne, à la campagne et dans ta compagne On vient lâcher l'mix redoutable Tu veux entendre du rap, du reggae et du rockab' Alors, êtes-vous prêts à faire la fête avec nous ? J'veux t'entendre gueuler si tu kiffes avec nous On a l'son qui tabasse, la zeb qui fracasse, le style et la classe C'est Dr. Vince Baste Mains sur le demi, doigts dans la fente Entouré des amis sur la mauvaise pente Trop nuls en ski mais une putain d'descente La la la la la la la laYou might also like</t>
+          <t>Dr. Vince Gérard Baste Save Yourself À c'niveau là y'a même plus d'numéro On est là, on est beaux, on est gros Hey, hey x2 Toc, toc, qui tapes à la porte ? Surprise, surprise, c'est Gérard Baste le Doc yeah V'là le tandem de choc Y'a du gros rouge dans les verres et du gros son dans le poste Paris, Clermont représente pour le Dirty Centre Casquettes démentes, tatouages Rude Boy sur le ventre Passe au cabinet si une consultation te tente On organise une partouze géante dans la salle d'attente On casse des briques comme au bagne On assure à la montagne, à la campagne et dans ta compagne On vient lâcher l'mix redoutable Tu veux entendre du rap, du reggae et du rockab' Alors, êtes-vous prêts à faire la fête avec nous ? J'veux t'entendre gueuler si tu kiffes avec nous On a l'son qui tabasse, la zeb qui fracasse, le style et la classe C'est Dr. Vince Baste Mains sur le demi, doigts dans la fente Entouré des amis sur la mauvaise pente Trop nuls en ski mais une putain d'descente La la la la la la la la</t>
         </is>
       </c>
     </row>
@@ -835,11 +831,7 @@
           <t>Beat saboté</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -854,7 +846,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oh Qhuit, j'aime ton bière Ton bière est si gros Oh Bibine Forever, and ever, and ever Bibine Forever Bibine Forever Bibine Forever Bibine Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Oh Qhuit, ton bière est si gros Je l'aime, pour toujours mon amour Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever Mot compte triple J'aime ton bière Bibine Forever Gémissements J'peux pas m'ret'nir J'ai b'soin d't'ouvrir Moi boire toi, primitifYou might also like</t>
+          <t>Oh Qhuit, j'aime ton bière Ton bière est si gros Oh Bibine Forever, and ever, and ever Bibine Forever Bibine Forever Bibine Forever Bibine Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Oh Qhuit, ton bière est si gros Je l'aime, pour toujours mon amour Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever Mot compte triple J'aime ton bière Bibine Forever Gémissements J'peux pas m'ret'nir J'ai b'soin d't'ouvrir Moi boire toi, primitif</t>
         </is>
       </c>
     </row>
@@ -888,7 +880,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir You might also like J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
+          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
         </is>
       </c>
     </row>
@@ -905,7 +897,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>x2 Bistrot Boys, grosses fêtes Overdoses de houblon Bistrot Boys, grosses lettres Sur le dos du blouson Svinkels, depuis l'début on a fait 200 titres Le problème, par semaine, on boit genre 200 litres En concert, ce week-end, on va tiser gratis Les Tees viennent de chez Qhuit le pif de chez l'caviste! Tourne autour de ta table comme un grand requin blanc Pour te taper ta poire, ta bouteille de vin blanc Si t'es pas v'nu faire la foire bébé, Baste fout l'camp Comme une vieille à la canicule, faut qu'on boive tout l'temps Temps! Temps! On est très tenaces, pour ton bar on représente une vraie menace Aller, trace sur la croisette, on part en croisière Et comme le cerbère, je voudrais juste trois têtes pour boire trois bières No Sleep Till! Moi j'ai de gros slips stylés La conso de Xanax! Laisse même le grossiste flipper On veux toujours les plus grandes doses nous sert pas la p'tite! Ce soir on part dans l'cosmos intergalactique x2 Bistrot Boys ! Les tiseurs des litres ! Ouais des Bistrot Boys ! Les tireurs d'élite ! Mets la p'tite sur et hop, v'là les Bistrot Boys ! Devant nous la flotte s'écarte comme devant Moïse You might also like Maman sert-moi l'meilleur maintenant, pas l'tout venant non! J'sens qu'j'vais finir dans une poubelle, j'en ai rien à foutre du prix d'la bouteille oui! Sers ! Sers! Sers! Sers! Sers-moi encore, sers Sers ! Bistrot Boys for life ! Patron, t'as plus qu'ce whisky mets l'dernier doigt On est trop beastie quand tout le bistrot s'boit Il est temps d'bouger, de troquer, y'a jamais assez d'bistrotiers STP, trois perroquets, combien d'fois vais-je le répéter ? On revient rocker ! Jamais on hoquette Des rues du Faubourg jusqu'à la Roquette Marque les esprits à coups d'tessons, sur le jukebox y'a plus qu'nos sons Les toxs font la queue aux chiottes, sur le comptoirs cent mètres de shots And you don't stop! Premier sur les quilles J'suis qu'un débile de boisson, License IV To Ill Trois MC's messies, le trio triso C'est pas Les Garçons Bouchers, juste les garçons bestiaux Picole! Bestioles ! Ethylo! Animals ! Sers-moi un demi mais J'veux pas d'demi molle On est des piliers par millions, sortez les milliers de litrons pour passer les fûts au siphon Svinkels c'est un typhon ! On a déjà fait l'tour d'un tas d'bistrots On paye nos tournées et on donne des cours magistraux Nos performances sont électriques comme celle de Cloclo Nos vieilles ambiances pathétiques, comme celles de clodos Bien bourré, j'parle dans ma barbe comme Rick Rubin J'les laisse dans l'rétro, ces bâtards de flics ruminent J'suis en train d'perdre la tête, j'ai mis d'la tise dedans Faut qu'on arrête, j'ai pas stop d'puis qu'on a 19 ans x2 Bistrot Boys ! Les tiseurs des litres ! Ouais des Bistrot Boys ! Les tireurs d'élite ! Mets la p'tite sur et hop, v'là les Bistrot Boys ! Devant nous la flotte s'écarte comme devant Moïse</t>
+          <t>x2 Bistrot Boys, grosses fêtes Overdoses de houblon Bistrot Boys, grosses lettres Sur le dos du blouson Svinkels, depuis l'début on a fait 200 titres Le problème, par semaine, on boit genre 200 litres En concert, ce week-end, on va tiser gratis Les Tees viennent de chez Qhuit le pif de chez l'caviste! Tourne autour de ta table comme un grand requin blanc Pour te taper ta poire, ta bouteille de vin blanc Si t'es pas v'nu faire la foire bébé, Baste fout l'camp Comme une vieille à la canicule, faut qu'on boive tout l'temps Temps! Temps! On est très tenaces, pour ton bar on représente une vraie menace Aller, trace sur la croisette, on part en croisière Et comme le cerbère, je voudrais juste trois têtes pour boire trois bières No Sleep Till! Moi j'ai de gros slips stylés La conso de Xanax! Laisse même le grossiste flipper On veux toujours les plus grandes doses nous sert pas la p'tite! Ce soir on part dans l'cosmos intergalactique x2 Bistrot Boys ! Les tiseurs des litres ! Ouais des Bistrot Boys ! Les tireurs d'élite ! Mets la p'tite sur et hop, v'là les Bistrot Boys ! Devant nous la flotte s'écarte comme devant Moïse Maman sert-moi l'meilleur maintenant, pas l'tout venant non! J'sens qu'j'vais finir dans une poubelle, j'en ai rien à foutre du prix d'la bouteille oui! Sers ! Sers! Sers! Sers! Sers-moi encore, sers Sers ! Bistrot Boys for life ! Patron, t'as plus qu'ce whisky mets l'dernier doigt On est trop beastie quand tout le bistrot s'boit Il est temps d'bouger, de troquer, y'a jamais assez d'bistrotiers STP, trois perroquets, combien d'fois vais-je le répéter ? On revient rocker ! Jamais on hoquette Des rues du Faubourg jusqu'à la Roquette Marque les esprits à coups d'tessons, sur le jukebox y'a plus qu'nos sons Les toxs font la queue aux chiottes, sur le comptoirs cent mètres de shots And you don't stop! Premier sur les quilles J'suis qu'un débile de boisson, License IV To Ill Trois MC's messies, le trio triso C'est pas Les Garçons Bouchers, juste les garçons bestiaux Picole! Bestioles ! Ethylo! Animals ! Sers-moi un demi mais J'veux pas d'demi molle On est des piliers par millions, sortez les milliers de litrons pour passer les fûts au siphon Svinkels c'est un typhon ! On a déjà fait l'tour d'un tas d'bistrots On paye nos tournées et on donne des cours magistraux Nos performances sont électriques comme celle de Cloclo Nos vieilles ambiances pathétiques, comme celles de clodos Bien bourré, j'parle dans ma barbe comme Rick Rubin J'les laisse dans l'rétro, ces bâtards de flics ruminent J'suis en train d'perdre la tête, j'ai mis d'la tise dedans Faut qu'on arrête, j'ai pas stop d'puis qu'on a 19 ans x2 Bistrot Boys ! Les tiseurs des litres ! Ouais des Bistrot Boys ! Les tireurs d'élite ! Mets la p'tite sur et hop, v'là les Bistrot Boys ! Devant nous la flotte s'écarte comme devant Moïse</t>
         </is>
       </c>
     </row>
@@ -922,7 +914,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">J'arpente Paris avec un crew de momies Mon bourreau est dans le creu de ma main Son apologie est le crime de mes mots Affronter les épreuves avec le cran de mama La vie est courte, ma nuit encore plus, j'entends les cris de ma mort J'ai lu l'avenir dans un whisky sans glace J'y ai rien à foutre comme un vil-ci en classe Ils parlent d'espoir, ils parlent d'amour ouais ouais sisi remballe Ici les papiers s'entassent, les milliers s'enlisent et les ministres s'en tapent Tu pensais t'en sortir après une galipette J'confonds les gows, les putes J'vois les mégots, les pèt' noircir le sol de ma mégalopole J'te gifle sans bouger mon auriculaire Dans une ville où tout est gris mon art est couleur J'pense à ce pote qui a gé-chan, qui sont les vrais ? Où sont les faux ? Que font les grands qui ont touché l'Everest ? L'un d'eux m'a dit qu'il y a pas d'paix sans rage Qu'il est dur de palper sans khaja, stone comme le poisson rouge Demande à ta pute je suis l'élégance même Bob Ralph Lauren, ste-ve Helly Hansen Les porcs me guettent mais j'té-fri quand même Ce fils de putain s'est mis dans l'zen Plus de neige qu'il n'y a dans l'ciel Ou dans une tribune présidentielle You might also like Nous, on a pas l'temps d'niaiser, des dollars faut qu'j'en fasse Nique un lifestyle déplorable, si ma ville pleure j'suis là pour lui remonter l'moral J'ai des shabs en école d'art, raisonnables D'autres qui s'éclatent la tête au bar dès qu'ils flairent l'occaz' Moi j'parle aux anges quand j'gratte des textes trimés On a l'slogan, c'est Flingue le jeu mais, par moments, rien de mieux qu'le silence pour s'exprimer Laisser son esprit s'exiler Lpee c'est mon blaze d'MC Ouais, on a tous dû faire des sacrifices pour qu'ça paye On avait dit qu'nos démons nous rattrapent toujours lorsqu'on étouffe sa haine Et si j'force la corde va finir par lâcher J'veux pas m'poser d'questions sur les choses que j'ai oublié d'partager J'ai pas toutes les réponses mais j'ai lu les énoncés Aujourd'hui sera meilleur qu'hier donc ouvre une bière, range ton panaché Gros, j'suis attaché au rap À cette aura, à ces moments mémorables Me demande pas d'raconter ma vie, j'en comprends moi-même pas le sens Des virages à 2.10 où j'vois toujours le diable et ses mêmes pas de danse Mais devant mes potes, pas d'ça nan J'parais heureux même si sans eux j'pourrais errer des lustres sans qu'mon destin se lance Textes insolents mais vrais Une flamme ne s'allume pas toute seule donc j'vous le redis vous êtes étincelants mes frères Au fond, j'assume le fait d'parler depuis qu'j'ai l'cur sur la main J'prolonge chacune de mes soirées depuis que j'ai peur du matin Perdu la main pour perpét' de cette fille dont j'rêvais J'me sens changé mais perplexe de cette ville dont j'reviens Et j'ai plus le temps pour espérer re-fré moi j'veux l'faire J'entends qu'c'est plus dur de battre S-Cap que de battre le fer Comment en avoir la certitude ? Moi j'ai pas fait toutes sortes d'études voilà mama nan j'fais pas trop le fier poto Cest la routine le soir jtitube, remets mes aptitudes en question Sans raison, seul j'veux même pas l'faire J'suis avec mamen' Inspire, dans le 1.8 Vas-y ramène un spliff ton flow a à peine un style Cracher le euf' on sait eff, blunt d'exodus on s'élève Mamen pas la peine d'un livre God damn, si t'as la haine insiste Vice ou vertu dans le un-neuf, la mala est un style Jamais voulu être le plus classe d'ici Tu m'lasses disciple, change prod en pur classic shit Shoot à 150, comme Wilfried, déter' comme Will Smith Rime très droite, imagerie, XV3, X barre X, Queensbridge Concu' c'est des détritus, on les détruit tous Toujours présent dans un coin d'ma tête J'prends soin d'matter les gens devant un joint d'ma verte C'est d'loin ma télé J'emmerde les tchoins, les zouaves, les grandes gueules Pour elles, j'ai moins d'espoir que pour rencontrer des Angels MC's sans gêne et sans gènes d'MC's Facile d'être les meilleurs, face à ces gens j'mène mes skills Légendaire estime entre mes G's j'exige Qu'LTF soit de ta radio le jingle Gyeah J'ferais tout pour ce crew et pour cette musique Malgré mes quelques singles, j'suis que la gâchette d'un fusil J'ai pas d'sortie de secours ici c'est marche ou crève Qu'l'histoire d'mes futurs morts s'écrivent avant que j'pète un fusible J'finirai pas ma vie à l'usine J'suis tel un Ronin, ceux qui m'voient enchaîner hallucinent J'ai pas d'boulet à traîner juste à m'entraîner, toujours à traîner J'ai tous les attraits nnés-i qu'ils ont à subir En c'moment, gros, Paris n'est pas au mieux Tous les gens s'bloquent, sont paranos, s'emportent pour un oui pour un non Mais moi j'm'en moque, j'crame des joints pil' aux bancs proches, Ourcq et Pyrénées Plus chargé qu'un silo j'dave bien un kilo par année, dans notre 19, pétasse, où les flics te kébar, s'prennent pour Steven Seagal Où les flics te déraillent et les immeubles s'étalent J'suis là, chaque jour, j'traîne près de Ladoumègue, la frappe sous l'iep comme Steven Gerrard Ça roule des zbars par douzaines, j'kiffe ce tier-quar Mais tous les jours j'en fais le tour en ralant Oui à force d'en faire l'tour tous les jours le secteur est relou Vite j'veux décal', mais j'y suis j'ai toujours plus d'un ter à rouler Sur l'terrain Rallye j'mets des tirs enroulés Tu crois peut-être qu'on joue, nan, j'veux faire mon trou je sais qu'mon crew Marquera l'histoire, ira loin tant qu'j'fais des sons pour Stop, bullshit, bang, seigneur Luciole Lutci Sans gants j'découpe comme Gucci Mane Plus sanglant qu'Rob Lucci Mon âme est moite et l'amné' noie mes années noires pour les laver Bourré d'la veille, ça nettoie, mais ça m'efface la mémoire Tout est à refaire, saletés d'moines, j'suis pas bourré d'sagesse Là j'm'éloigne, ramenez-moi sous les palmiers pour m'évader Là c'est grave, il m'manque une case, j'peux pas dire qu'j'suis dans la bonne, et pas Dans une cage, loin du foyer qu'ta bonne nettoie La suite j'la connais pas, j'me méfie des hommes j'adopte mes lois et j'évite les remords Le shériff est mort, lui qui croyait en sa bonne étoile On s'persuade que la mort n'est qu'un nom, gravé sur une pierre tombale Alors, chacun protégera sa tête lorsque le ciel tombera Tu paries qu'on t'sauvera tu peux déjà couper ta main Directement scier ton bras, trop refusent de livrer l'combat Donc vas-y, tiens-toi pour voir qui est plus sage et plus mature que l'autre C'est quand il obtient l'pouvoir qu'on voit la vraie nature de l'homme À la vue de l'or, n'importe qui peut devenir pourri As-tu de l'eau toi qui n'vois plus que l'aube ? Attends qu'j'devine pour rire Quand tu feras l'tour des globes tu verras qu'on est pas tous égaux Qu'on est pas tous réglos, c'est qu'un parcours d'égo putain Là-bas à Casa' j'connais des gars cool, mais quand ils tiennent pas l'coup Ces gars coupent des gorges, putain, partout c'est gore J'raconte rien d'autre que ma vie mais Au moins y'a pas d'bluff Marsou 93zoo d'la puff partout, et des keufs, rien d'neuf, walou J'vais pas trop en teuf J't'avoue, j'traine avec mes reufs Là où tu ramènerais pas ta meuf C'est pour la maille qu'la cité agit Même shitté, à jeun, j'suis té-agi La street c'est la jungle tu t'en sors qu'si t'es agile J'en place une pour Hakim et Ladji, Maxi J d'la J Plein d'connexions en projection, ma clique s'élargit J'ferai marquer Idéal J sur un futur litron O'riginal MC's, j'suis sur une mission Ouais, j'suis sur une mission Désormais j'f'rai mes diez plus sûrs sinon J'finirai comme mes potes qui dorment derrière les murs d'une prison C'est pas pour m'la conte-ra, crois-moi Nos raclos sont fichés, frère, j'ai 4 soces qui ont glissé en même pas trois mois L'temps passe, gros, on s'y fait Pour vos sorties j'espère qu'les gamos vont siffler Dehors il pleut, porte-monnaie plat, on cherche un plan Même si des fois j'ai le ventre pas plein, j'me plains pas Car j'suis pas celui qu'les bastos ont ciblé Tu peux t'faire caner qui et où qu'tu sois donc j'touche du bois Pour pas qu'un m'taré m'pousse du toit, qu'on prenne tous du poids Qu'ma mère arrête de m'dire T'as foutu quoi ? Eh où tu t'crois ? T'aurais pu gérer pour une fois Un bon billet qui tombe, ça fait zizir car la ze-zer s'est souvenue d'moi Chaque jour du mois dernier, elle m'a pointé du bout du doigt Tu crois qu'on pashave LTF, on dort jamais, négro, on baille pas Deuspi comme Bahebeck Tasse-pé, y a qu'ton tarpé qu'on appelle baby Viens à Cambrai s'tu veux un bail bien vicer Pilote, depuis 15 piges, plus d'ton-car hein Déter comme les Soumar et les Tounkara On baise des stars, les putes et ton carreau Négro, on veut tellement d'oseille qu'on devient paro, ouais On fait nos bails en silence, t'laisse la parole Négro, c'est en silence qu'on t'arrose Y'a trop d'trous d'boulettes, trop d'boulets Trop d'poulets, c'est Derka qui fait tout l'boulot Discret comme un coup d'couteau Va t'faire enculo, puto J'bois le sang des wacks au goulot LT putain d'F sur l'katana ou l'fourreau Sourire grand comme , j'me sens bien grâce à Allah Mais t'es fou gros, c'que m'diront les gens Rien à battre tant qu'y a du chrome sur mes jantes Et des métaux sur les tempes Grosso c'est chaud, j'prends les devants LTF demande prime, trop d'MC wackifiés Faut qu'j'liquide d'l'espèce, comme au 18ème siècle Et ma milice excelle dans l'crime Fallait bien qu'on l'fasse, tenir le bic puis la cantine On s'bat pour une cause commune, l'armée s'agrandit Moi quand j'te parle de rap, j'te parle d'envie, j'te parle d'en vivre J'te parle d'un art à part entière, pas d'un regard dans l'vide Regarde j'm'empiffre de mots J'suis d'ces mecs qui s'justifient par leur passion Un seize par jour, c'est ma seule ration Mais j'apprends vite de mes erreurs d'façon j'y vais à fond Quoi qu'passe, SO BBC Les bougs en face parlent, méritent des Sous les boules bédo et CC pour faire bouger les inactifs Et faire ralentir tes pélos très stressés Déso' si j't'ai blessé Lpee LTF Mon bob est prêt, visière droite, pour la millième fois j'traverse ma rue 4 mecs chahutent, plus loin 3 mecs s'allument Du coin, patron proxénète j'vois Jeune garçon, vieux patron, même des barons de la drogue sévères Croient qu'les gens bossent plus d'35 et voient qu'ce fut en vain À la fin du mois, d'une grande faim Normal qu'ils s'la butent au Tranxène, la came c'est un truc sale Crois pas qu'il existe une drogue saine J'm'oxyde, mais j'me r'mets un Oxmo Scred est la nelle-cocci, smoke 6 re-té aux loxos Les Lexus, le luxe, l'excès, bref le mal comme axe Mais prêt à tirer pour mes idées, comme Malcom X Dé-blin un stip blunt négro, dans le XX Ou 75-19-0, ça niaxx au max Passe au tieks si c'n'est qu'ça, mon son excite, exact Moi j'fais pas d'gangsta j'fais du next art Foutu rap bourge, j'fais c'truc goutu j't'avoue Pour qu'tu savoures, les arômes du nectar Après c'couplet ta retraite est bien envisagée T'avais bien envie d'grailler, devenir superstar Mais tu proposes de l'eau 'vec du smecta Le M propose un verre de vin Henri Jayer Seigneur, c'est vrai qu'c'est moche J'sais qu'j'ai déconné et qu'mes erreurs effraient mes proches J'ai peur d'élever des gosses C'est pas gagné déjà qu'moi-même j'ai du mal à m'prendre en main Arpente en vain l'tiekar, chanvre en main, en attendant d'main Des fois j'admet, j'rêve d'avoir les cachets d'Ashley Cole Et voyager mais, sous hash local, j'lâche l'école Nan pas d'soirée olé-olé, j'trouve un hall où aller Double 0, roule le bédo sur Ill' ou Ali Allô L.U. ? Sors l'alu, on l'a, c'est tout pour l'seille-o J'ai bien changé depuis les cours d'l'époque où on m'disait d'aller au lit Nan rien à foutre des pros, j'écris à mes O.Gs J'suis là pour taffer m'lâchez pas des Ça va passer au mix À part ça frère faut vivre, les zins vite vont travailler au SMIC Les autres arracher aux riches c'qu'ils n'ont pas Satané profit, t'as marqué nos vies, comme le diable J'reste là à té-co d'lui, à chaque bédo j'glisse j'vers le vide On s'bat, pour ses idées, ses G's et ses billets Mais ni ton cash, ni ton squad le jour-j s'ront là Paris Nord, les gars sèment la discorde Les 'tasses sous farine sortent Les carnivores, avec leurs canines, mordent Mais, moi, c'est l'rap qui m'porte J'finis l'16, la fumée de la cabine sort Demande au Maxi'Lord, celui qui m'teste il finit dead Etripe ces mini tasses-pé, j'ai pris l'élixir sacré Des mains d'Maître Karin mort Et la concurrence, mes gars n'ont plus l'temps Les balles pleuvent, paire de Nike neuve Sur les starting blocks j'pars en couille comme Marineford J'gratte des pages j'vais monter l'coup du siècle, depuis la case départ On me casse du sucre sur l'dos mais mes larmes ont gardé l'goût du sel Ravi d'avoir pensé qu'je ravive le rap français Mais malgré tout ça ce qui me rassure ma vie n'a pas changé Tristesse et mélancolie, finesse et détente au lit Qu'on apprend que vitesse et ivresse se mélangent aux risques Alors j'en pleure de rage, hé Mais voici l'bouquet final avant qu'ma plume n'atteigne la fleur de l'âge On a peur de s'battre, des rappeurs tenaces On fuit tous lâchement c'est c'que j'appelle la sueur de lâche Évite de prononcer mon nom si vite ma men J'différencie plus ta bouche ou ton cul tellement tu dis d'la merde Ok, là j'm'acharne oui j'gueule, j'gratte ma rage, middle-kick On a la dalle, pour nous MC ça veut dire McChicken Hé, moi et mon crew on est les plus forts Ça fait que moi j'suis l'plus fort des plus forts Hé, j'continuerai pendant qu'ma haine perdure J'pensais avoir perdu ma peine mais c'est peine perdue Mes tristesses m'inspirent, j'maîtrise les fins sbires Plein d'spleen t'attendent face à B-Biface et 1spire J'suis prisonnier d'ma tête mais j'ai pas d'schizophrénie Est-ce qu'ils ont frissonné, parfois j'me demande Est-ce qu'ils ont frémi ? Remballez tout j'hésite à faire mon buzz, hé Ils parlent de boules mais ils ont même pas les couilles d'écrire avec leur cur Eh, l'crime paie ienb', demande à DJ Peyo Pas d'être païen, on vient dépouiller tous ces pouilleux Cherche pas d'faille, il faut qu'tu payes Sinon quelques mecs de mon équipe n'hésiteront surement pas à t'fouille hein Rêve de pilote, pas des pavés mais des Mercedes Pour l'instant j'pivote sur le pavé et gratte des LTF Deux-trois vers, quatre-cinq ter, ça y est j'suis faya Prêt pour mouiller l'maillot mais tous ces mecs m'énervent Ayou, Maya m'a dit Il faut qu'tu persévères La cible est à 100 mètres, re-fré faut viser l'caillou Toi, tu délaisses tes rêves, mais rester l'même était ta seule devise, voyou Il faut mailler avant qu'mes dettes s'élèvent Une fois la bombe lancée faudra s'écarter J'laisse Maya pour vous dribbler et la finition c'est Corto M'en bats les couilles de c'que racontent ces putes, le peura j'ai qu'ça J'effrite le marron et l'fume, crache sur le daron des stups On encule tout plavons et stud, au micro j'excelle Mon stylo j'actionne et j'lâche des bombes comme à Ajaccio Fonce-dé comme un joueur de l'Ajax sous la lueur de l'avenue Vesqui les couleurs de la BAC et les tumeurs de la rue Cousin, le vice nous sélectionne, les keufs farfouillent dans nos téléphones Des Bouches-du-Rhône jusqu'en Corbeil-Essonnes Y'a trop longtemps qu'j'ai pas vu la mer J'vais pas vous la mettre Si j'rigole pas c'est qu'j'ai pas bu assez On traîne nos butins secs, fait un foot à 6 et baise une pute à 7 J'serai pas rentré pour 8, ma mère le sait et ne guette plus la tess par la fenêtre Ils veulent qu'on parle affaires, Paris c'est Budapest Les darons d'certains frères sont venus par la mère J'écris c'texte à 1 heure 33, fumeur d'ganja Tueur dans c'rap, au micro j'suis leur fantasme J'm'en fous qu't'aies des sous, j'voulais kisser Cassie On aimait le quartier, on s'demandait pas quand se casser Les années ont passé, maintenant on s'met des caisses au Kessa On voit les quais s'encaisser, gare aux dékiss, aux cassos' Ta vie est coussi coussa, coincé par ton casier, cousin Il faut trouver du taf pour te caser, causer d'une maison cosy Mais le diable est vif, il te tentera avec ses maléfices Après tes assedic aux montants assez tristes Qui voudrait ma mort ? Moi, j'sais ap J'repeins mes sous avec les mains moites Parle pas business pendant qu'les miens matent C'est qu'des hypothèses, check ce que tes impôts payent, mec Le repas de nos maîtres pendant qu'tu règles une hypothèque Sec comme le désert Comme le ton qu'adoptent mes potos Comme ma bouche après cette latte de boyco Costauds sont les miens, si tu salis ma seule mère Tu finis sous les marques de nos souliers, mec Bloqué dans les rues de Babylone city J'rêve de faire des classiques comme Biggie Les caïds sortent le calibre comme Fifty Je rallie Rhum-Whisky, gros blunt comme le Roi Heenok Les OG's s'additionnent d'ici à Washington DC Au quartier les 'tasses michtonnent, demande à Alison Finis les grecs Oasis pomme, faut l'inviter au Madison J'ai des contacts encore plus fous que Marilyn Monson Mon iPhone sonne, c'est surement Charlie Bronson J'viens pas d'Detroit ni d'Compton, mais mes rates-pi cognent Comme la famille Johnson, pas d'calibre Gomm Cogne J'te promets, comme l'a dit l'ancien J'préfère être chien que m'voir à l'avenir en chien Pour l'instant j'crée d'la rime en vain Bon taga comme type d'engin Si j'mange un MC au goûter, ça fera qu'un pitre en moins C'est bavon j'rajoute d'la weed dans l'joint, j'fume le gazon j'savoure En écoutant des savons lavourds, 310 pour départ C'est pour ce bas-fonds, la tour Les bars autour desquels j'ai tourné tard, jour et soir si y'a un plavon j'accoure Déjà plus petit j'voulais être le patron d'la cour J'suis vert j'me bute au marron chaque jour Mais j'regrette pas mon parcours J'regardais Oggy Les Cafards T'as vu on a bien poussé, guette mes OG's et mes lascars Ont des bails à revendre Pour un peu d'maille à reprendre, un grand t'cassera 2 jambes Sache qu'on va pas se rendre sauf si mama l'demande La clé est en toi, comprends-en les serrures Mon corps emprisonne mon âme, mon sang dans des cellules Bon sang, prends tes gélules, tes p'tits Propolis, Smecta T'es pas content essaie le lub', p'tite sodomie rectale Bref, ici, pour s'soigner, l'hydroponie s'paye cash Oui nos grossistes livrent nos colis d'Espagne Weed biologique, shit aux olives, nitro sonique, jet-pack Signaux cosmiques, physionomie d'l'espace Facultés psychomotrices spectrales, tir photonique beta Rimes robotiques, cyborg bionique, x prototype delta Touche ça comme l'hologramme Illusions d'optique, l'eau l'eau crame Dans l'impact du zanpakto AKA microphonique bankaï J'sors d'la Soul Society qui comporte une senkai Rimes sismiques comme le sol d'Haïti Cyclo-phonique j'fais l'taf, fils comme promis j'saigne pas Et comme 2 gros high kick, en kimono j'kickerai l'bail Cycle 1, poto notre pire C4, le niveau d'nos rimes s'écarte Oui c'est l'cas Tu veux frapper fort, essaye au moins d'viser l'cadre Equipe de l'espace, t'écoutes le reste Luciole et Moken AKA les types de l'Est passent Tes bougs se taisent parce qu'on pèse qu'on écrit des 16 d'As Pas d'bruit pendant mon dièse ou seulement des messes basses Laisse place dans mon crew naissent des messies Dans l'tiens les futurs SDF s'tassent MDexta', ça laisse des serpillières, des espaces Dans ton crâne, ça te l'lessive La mode les resquilles, quelle qu'elle soit Ils pensent que tel tel swag accorde le prestige J'recherche le vertige, ils essaient d'croire Mais n'ont pas c'qu'le rap exige et foncent dans l'désespoir Ils sont stupides et ça depuis qu'la trap existe, mon frère J'peux pas garder la ligne, j'suis comme un trapéziste obèse On veut du fric, on veut du chic, épargner l'pire aux mères Être millionnaire, moi j'suis qu'un rappeur noir, j'aurai pas d'Prix Nobel Igo, demande à Acinorev, au mic y'a rien d'impossible Et j'place un gros big up aux open mics de la Ces grands bâtards qui sont pathétiques au cro-mi Et donc ils rappent, ils sont malades, j'suis atteint d'la wack-MC's-ophobie Y'a pas d'examen, dès qu'c'est moi c'est des sons samplés Qui t'a dit qu'nous nous ressemblons ? C'est bien c'qui m'semblait Toi, tu penses encore qu'on peut être heureux sans blé On s'casse le dos pour d'l'essence sans plomb, paraît qu'on zone Tous emportés par les consonnes, à part les conso' Qui passeraient leurs vies à parler consoles, le décompte sonne La vie n'est pas rose et elle ne m'a pas fait d'fleur Y'a qu'dans la mort qu'elle s'est offerte aux hommes Gros, moi je veux un loft à Greenwitch Que je payerai en livres grâce à mes big skills Je veux prendre ce quon me doit Pour ça faut la détermination de Will Smith Le répertoire dun ministre et être plus vicieux quun politicien hongrois Toujours sous vrai taga, trop lent pour t'faire d'la place Je suis soûlé de la vibe de mecs qui peps à en soulever la table Je ne souhaite pas signer de contrat je ferai mes propres biftons Oui de beaux millions, mon nom en tête dun sondage dopinion Et rien de plus, proposer des textes sans insulte Pas valoriser un luxe particulier Je men fous si jai des Simons ou des sandales aux ieps Ce qui compte cest les pas que je fais avec vers mon but Je tiendrai même en restant seul car seuls les cons susent Cest pour ça que jai été conçu Et rendre fière ma mère Mais au fait vu les thunes que je gratte Je pourrai bien lemmener se relaxer sur des dunes de sable Lorsque je me serai fait une réput de roi Calé dans l'allée j'niaque, j'vois les tards-pé et les années qui passent J'passe chez rie-Ma, j'prends un paquet d'pipas, garette-ci, masse et puis j'vais aux rimes J'fais la même chose tous les jours Là où les tours t'en jouent, j'étouffe J'ai envie d'oublier, cette nuit j'vais vomir Les yeux sont rouges, on est tous rrés-bou C'est pas la même entre vous et nous nous, pour les sons, on s'bouge Ça vient ap seul tout, t'es fou Fais l'homme, bats-toi si, comme moi, la vie t'a roué d'coups Ici tout m'dégoûte, tous des fous Ceux qui nous gouvernent, ou les bourges, représentés par des cistes-ra Qui visent les immigrés en disant Si y'a pas d'sous c'est eux Qu'on est censé en, virer mais est-ce qu'on serait ici sans eux ? Moi nan en tout cas, donc maman doute pas On leur prouvera qu'la France c'est nous pas ces trous d'balles Sisi, on sait c'est où qu'on fait ses sous Avec d'la cécé ou d'la Sensi' sous l'501 Tu captes négro, faut s'casser l'dos, ici t'es rien sans rien J'fais qu'taffer, faut que j'prenne le train en chemin J'me battrai, gros, si tu veux maintenant, viens J'l'aime mais j'en n'ai rien à foutre de pper-ra Les gens veulent le succès mais, gros, y'a rien à tter-gra C'qui faut c'est des gros sous, du gros flouze, la famille pour pas quer-cra Grosso, le reste on les shoote Trop d'problèmes, j'ai ralenti l'shit Autant appuyer sur la gâchette, si j'canne c'est un talent gâché P't-être que plus tard le biff j'vais l'entasser Les filles les embrasser et tous les wack MCs les remplacer Ouais j'veux l'butin, des MCs j'en ai vu plein Des non challenges vécu plein, j'veux voir mon soce à Dublin Le M rappe comme si cétait les derniers jours de sa vie Où les jeunes grandissent en vain, entre cevi et savon Même si je vais mal et quon m'demande Est-ce que ça va ? Je réponds Yes, est-ce que tu captes ? Les fleurs du mal, je les brûle souvent Je récite mes vers savants Circuit du mal où mes reufs virent souvent Ambiance ghetto tah les Varsovie Je ne rappe que des faits réels Le reubeu prend lor Lcombat peu lemportent, ici on a tous à faire au hall Votre rappeur préféré estropié est trop fake Faites-vous escroquer comme la fait Raël On fume du gazon du pur Jai la barre quand mes potos approchent du but comme la fait Raul Peu importe je veux plein d'drogues Le sang du quartier, ne fait que tacher mon linge propre Et si je veux faire doubler mon compte chèques en banque Cest que faire des sous tonton cest tentant Troisième couplet, j'passe la cinquième, carnivore C'est pour l'19 et pour vingtième, Paris Nord On t'uet, prends mon iep La concurrence en miettes, j'la graille en un tiep maximum Frappe de Ballack MC, tu peux te mettre en plein dans ma course de vitesse, je m'en bats la queue Les couilles plus grosses que le ventre, que le ... Avec le vent, regardez devant, comme un machin XXX Tous ces rappeurs divins j'attends juste qu'ils se pendent et je m'arrache Ouais ça fume pas d'pilon naze, tous nos ter sont polénisés du gros taga qui grille ta go même si elle vient d'Polynésie Ça va flancher, j'prends les commandes, mets ta ceinture LTF, LPP l'avenir, tes MCs s'font avalancher J'refais la peinture de c'rap français qui vieillit Nouvelle génération, on vise l'élite, pas Valenciennes Demande à Lasco, appelle pas les secours J'me fais un 'loss quand, au Loxam, Zaky ouvre le score Arrête tes salades, amène le flouze J'vois déjà LTF sur la cover journal d'un de rap Me parle pas d'game, j'fume toutes ces putes mais elles jouent mal de base Moi j'serai l'plus riche des anciens pauvres à la Jamel Debbouze Les poches remplies, il est trop G mon jean L'quartier c'est Jumanji Les charos gardent les crocs même s'ils ont déjà mangé Haché mon gars, équipé comme un G.I. Joe Déter comme un témoin d'Jéhovah L'été on va oublier les promesses qu'on s'était faites On part sur des plages de ve-rê Est-ce que tu captes le se-diè ? On passe toute l'année au taf et puis on clamse condamné par le regret J'suis pas la relève C'est Lasco'mic, j'écris de meilleurs textes quand j'pense aux larmes qui squattent les yeux d'ma re-mè J'ai grandi aux Lilas, j'connais ses caves et ses tours Tu veux nous canner, c'est die comme un feukeu qu'avoue ses torts Fais fais fais gaffe où ça traîne, fais fais fais gaffe où ça tire Faut faut d'la came et c'est tout, si tu voudrais calmer mes gars Et dans 10 ans j'aurai quitté les quartiers malfamés J'aurai baisé 2000 feumeu, dont 100 milfs au moins Mais qu'est-ce que j'racave ? J'suis tous les jours au quartier À 2 lattes d'être éclaté, à 3 grammes de la gardav' Ils veulent que t'obtempères, mais ce keuf n'est ap ton père T'aimes pas leurs matraques et leur justice de merde t'as jamais opté pour Donc tu vas prendre 100 grammes quand ton daron tousse dans la nuit Et tu comprends qu'les fleurs du mal et leurs épines poussent dans la street Dur de rêver quand t'as plus pris du ferme que l'avion J'te parle d'espoir, mes rimes gravées sur les fines ailes d'un papillon Nike Air trouées sur l'gravillon, moi c'est coste-La et pas Vuitton Tu cherches d'la street cred j'te nique ta mère devant mon pavillon, 2.6 Jamais HS, au QG on n'a pas fait la sieste Faut du blé, on est tous occupé à gratter sa pièce On veut un gros budget, ça y'est ça presse Presque tous les gars d'chez moi vendent du sbar et d'la cesse Dans l'but de se barrer d'la tess Tu gères tes affaires devant ton bloc Ce sera le calvaire quand ton proc' T'annoncera ta peine, il faudra pas faire dans ton froc En plus tu rates les cours Et, quand t'y es, t'écoutes pas t'es sourd T'apprends plus au bas des tours J'me vois bien faire des allers-retours Entre Babylone-Washington À 50 piges avec une racli comme Jackie Brown Les keu-fli m'foutent la haine Quand je pense à mes gars qui dorment à Fleury ou à Fresnes Maintenant tu sais la te-stree où ça mène Dehors les rates-pi s'forment, teu-shi sous la semelle On veut fe-bi toute la semaine Plus les chiffres s'additionnent plus y'a de chance que les bleus samènent J'suis pas au maximum, eh poto j'suis mieux qu'ça même Textile LDNP, paire de NB MD, MD, MD, attends l'plan, on s'fait fric facile et argent simple LT LT LT LTF, ma bande, ma clique, ma fierté J'roule un sbar dans l'20 Les murs des quartiers jaunissent mais pas d'quoi s'en plaindre Par contre, même de loin, j'vois tes potes, sont pas tous réglo La ce-Fran nous a tourné l'dos Donc on a mis des coups d'épaules Les hommes seront jamais tous réglo, j'ai l'blues frérot Seul sous l'préau, j'vois Dieu qui pleure Donc j'ouvre ma bouteille et verse une larme pour mes khos Gros, j'pilote depuis l'aube Mais mon enthousiasme se lasse, me voyant accroché à un pilon et un pilonne Le temps devient vite long, m'faut des biftons Nique ton Vuitton, j'veux du Jay Scott et CDG sur mon p'tit dos Oui kho, faut du bif au fond des poches Avant d'entendre le douzième son des cloches Sombre époque gros, aujourd'hui j'me lève tard J'trouve pas d'clope et une puterie dans l'bus J'ai besoin d'une vie en plus, putain LT putain d'F pour la Grünt, roule la skunk Chez toi c'est dar, gros, chez moi c'est dur Toujours avec les couche-tard, vesqui les endroits tah l'placard 7.5., 19ème, sale bâtard Combien d'fois j'vais t'répéter ? C'est les biles-dé qui ont pas d'âme J'en n'ai rien à battre, mon négro Si tu m'prends pour un bouffon J'ai un bon fond mais j'vais t'la mettre au fond Ici s'achète ou pas la C J'arrive en RER pour repartir en Féfé Putain, j'serai vitres blindées, portes blindées, dans ma RR Mais pour l'instant on vient à 10 dans l'anniversaire Guère, avec mon équipe j'pars en guerre J'roule mon ter, pas d'amphet', j'ai des connexions jusqu'à Nanterre Tu crois qujsuis tout petit ? Négro là, jsuis avec mes khros si tas un problème on le règle tout de suite Dans 5 ans, aussi dangereux que Ferrara On va me téma comme si je débarque dans le four en roue Zinc, va t'faire foutre ya pas de casse-dédi j'te dis Vu qu'jai tué tous les MC's, jai le fourreau rouge Plus d'respect pour toi, j'men bats les Ferrero Négro, j'veux m'pavaner à bord d'ma Ferrari salope Sprite pilon, L1triangle AKA le strike J'vois les presque-MCs bégayer, le mic M'a réveillé, moi j'ai payé le price Pour m'y essayer Ça y est, j'serai le mighty Moken que vous préfériez On vous a laissé nier Seul objectif les saigner, comme Hyde Et que vous n'voyez qu'Jehkyl enseigner J'suis sur ma lancée lié à mes frères, mon crew déffraie La chronique, effraie l'accro, nique les faibles en ces lieux Ils finiront sous mes souliers Comme la conserve au fond du sellier La souillure nettoyée par le concierge, la porte enfoncée par le bélier Comme le dernier rappeur employé dans un concert Leurs sons ne concernent personne Quand ils kickent, nos yeux sont fermés Ils nous consternent, il faut qu'le tel sonne, pull up Changer d'MC c'est facile de cerner les cons Comment peuvent-ils fermer les yeux sur la fierté des sons MCs du-per, blablatent, s'prennent pour Lemsy Hayce Mais sont comme Tenshinhan contre Super Saiyan Nombreux sont les wacks qui s'y croient, tu sais quoi ? Face à eux, en moins nombreux sont les watts qui saccroissent Le courant n'passe pas, ces mecs ont l'seum, eh On se l'fait si cette grande pétasse parle Ils seront pas Big mais Sean Penn Leur seule peine, pas dans les temps ça m'gave Retourne au solfège t'as pas d'gammes Qui prend ça ? Ok y'a personne donc tu vas gober mes litchis On est chez Pichi, j'bois l'élixir Les teurs-inspec et les keufs inspectent Les drogués en boîte font aussi peur qu'un spectre Nous, on a dans l'verre 3 glaçons, dans l'blunt 5 têtes Ça s'passe à fond pour la Grünt 27 Tu connais le L.U., en impro, trop d'flow, c'est l'déluge La fenêtre était fermée et j'suis passé par l'velux J'envoie des rimes de fou Si y'a bagarre j'te fais un film de boules Les potos s'lancent dans le biz de schnouff Survêtements, comme équipes de foot La vie est une pute sauf qu'elle pisse debout Pense à la tombe, on va tous mettre un switch, à croire qu'on vise le trou Tu veux vivre le sou, ils vont t'la mettre pour de cacahuètes Dans mon cocon, j'guette le bon moment pour voir la concu' uet Ecoute-les fanfaronner, tu veux la fouffe à Rooney ? Faudra la carte bleue qui peut payer le Féfé re-noi On joue à Fifa khaleb, voilà c'que crée mon zoo À 4 dans une Peugeot avec du shit qu'on peut cramer zen Et ça passe crème, on zone Enfoirés d'ients-ients, j'fais que des chromes aux zins C'est dans nos chromosomes Juste un freestyle pour dire à tes rappeurs qu'j'suis pas mort Agite la vapeur, LTF n'a pas peur de tes rapports J'viens opérer sans complication, j'fais tout dans la justesse Et vu qu'y'a pas d'justice, ben, j'blinde le ter pour que l'G's tousse Ouais, j'les gifle tous Complexé parce qu'LTF vit c'que t'arrives pas à vivre, couz Même si parfois j'ai fait l'con et c'est gênant Mais plus la bouteille descend et plus les effets montent, c'est l'discours J'pète untel, on met la seconde, on pète un thème Pendant qu'tu t'demandes si t'es chaud Mais avec des si... on refait pas l'monde, on refait un rêve Donc mets d'la skunk et sers un verre Tuer l'rap, il faut qu'on y retourne Finalement Gédéon est élégant, hein ? Déconseillé pour les effets secondaires à tous les bambins J'te l'ai déjà dit, gars, j'veux la terre J'ai flairé ton vice, là où traînait ton fils donc t'avise pas d'me la faire Ils s'croient à l'abri mais t'en fais pas Une fois qu'Morphée les aura dans ses bras Ils s'rappelleront, qu'd'en-haut, le faucon vise tout Véritable vendetta, d'Cambrai à Gambetta C'est l'19ème, on vend de tout et sache que notre potion elle nique tout Pour commencer, j'trouve de l'inspiration en marchant l'soir On </t>
+          <t>J'arpente Paris avec un crew de momies Mon bourreau est dans le creu de ma main Son apologie est le crime de mes mots Affronter les épreuves avec le cran de mama La vie est courte, ma nuit encore plus, j'entends les cris de ma mort J'ai lu l'avenir dans un whisky sans glace J'y ai rien à foutre comme un vil-ci en classe Ils parlent d'espoir, ils parlent d'amour ouais ouais sisi remballe Ici les papiers s'entassent, les milliers s'enlisent et les ministres s'en tapent Tu pensais t'en sortir après une galipette J'confonds les gows, les putes J'vois les mégots, les pèt' noircir le sol de ma mégalopole J'te gifle sans bouger mon auriculaire Dans une ville où tout est gris mon art est couleur J'pense à ce pote qui a gé-chan, qui sont les vrais ? Où sont les faux ? Que font les grands qui ont touché l'Everest ? L'un d'eux m'a dit qu'il y a pas d'paix sans rage Qu'il est dur de palper sans khaja, stone comme le poisson rouge Demande à ta pute je suis l'élégance même Bob Ralph Lauren, ste-ve Helly Hansen Les porcs me guettent mais j'té-fri quand même Ce fils de putain s'est mis dans l'zen Plus de neige qu'il n'y a dans l'ciel Ou dans une tribune présidentielle Nous, on a pas l'temps d'niaiser, des dollars faut qu'j'en fasse Nique un lifestyle déplorable, si ma ville pleure j'suis là pour lui remonter l'moral J'ai des shabs en école d'art, raisonnables D'autres qui s'éclatent la tête au bar dès qu'ils flairent l'occaz' Moi j'parle aux anges quand j'gratte des textes trimés On a l'slogan, c'est Flingue le jeu mais, par moments, rien de mieux qu'le silence pour s'exprimer Laisser son esprit s'exiler Lpee c'est mon blaze d'MC Ouais, on a tous dû faire des sacrifices pour qu'ça paye On avait dit qu'nos démons nous rattrapent toujours lorsqu'on étouffe sa haine Et si j'force la corde va finir par lâcher J'veux pas m'poser d'questions sur les choses que j'ai oublié d'partager J'ai pas toutes les réponses mais j'ai lu les énoncés Aujourd'hui sera meilleur qu'hier donc ouvre une bière, range ton panaché Gros, j'suis attaché au rap À cette aura, à ces moments mémorables Me demande pas d'raconter ma vie, j'en comprends moi-même pas le sens Des virages à 2.10 où j'vois toujours le diable et ses mêmes pas de danse Mais devant mes potes, pas d'ça nan J'parais heureux même si sans eux j'pourrais errer des lustres sans qu'mon destin se lance Textes insolents mais vrais Une flamme ne s'allume pas toute seule donc j'vous le redis vous êtes étincelants mes frères Au fond, j'assume le fait d'parler depuis qu'j'ai l'cur sur la main J'prolonge chacune de mes soirées depuis que j'ai peur du matin Perdu la main pour perpét' de cette fille dont j'rêvais J'me sens changé mais perplexe de cette ville dont j'reviens Et j'ai plus le temps pour espérer re-fré moi j'veux l'faire J'entends qu'c'est plus dur de battre S-Cap que de battre le fer Comment en avoir la certitude ? Moi j'ai pas fait toutes sortes d'études voilà mama nan j'fais pas trop le fier poto Cest la routine le soir jtitube, remets mes aptitudes en question Sans raison, seul j'veux même pas l'faire J'suis avec mamen' Inspire, dans le 1.8 Vas-y ramène un spliff ton flow a à peine un style Cracher le euf' on sait eff, blunt d'exodus on s'élève Mamen pas la peine d'un livre God damn, si t'as la haine insiste Vice ou vertu dans le un-neuf, la mala est un style Jamais voulu être le plus classe d'ici Tu m'lasses disciple, change prod en pur classic shit Shoot à 150, comme Wilfried, déter' comme Will Smith Rime très droite, imagerie, XV3, X barre X, Queensbridge Concu' c'est des détritus, on les détruit tous Toujours présent dans un coin d'ma tête J'prends soin d'matter les gens devant un joint d'ma verte C'est d'loin ma télé J'emmerde les tchoins, les zouaves, les grandes gueules Pour elles, j'ai moins d'espoir que pour rencontrer des Angels MC's sans gêne et sans gènes d'MC's Facile d'être les meilleurs, face à ces gens j'mène mes skills Légendaire estime entre mes G's j'exige Qu'LTF soit de ta radio le jingle Gyeah J'ferais tout pour ce crew et pour cette musique Malgré mes quelques singles, j'suis que la gâchette d'un fusil J'ai pas d'sortie de secours ici c'est marche ou crève Qu'l'histoire d'mes futurs morts s'écrivent avant que j'pète un fusible J'finirai pas ma vie à l'usine J'suis tel un Ronin, ceux qui m'voient enchaîner hallucinent J'ai pas d'boulet à traîner juste à m'entraîner, toujours à traîner J'ai tous les attraits nnés-i qu'ils ont à subir En c'moment, gros, Paris n'est pas au mieux Tous les gens s'bloquent, sont paranos, s'emportent pour un oui pour un non Mais moi j'm'en moque, j'crame des joints pil' aux bancs proches, Ourcq et Pyrénées Plus chargé qu'un silo j'dave bien un kilo par année, dans notre 19, pétasse, où les flics te kébar, s'prennent pour Steven Seagal Où les flics te déraillent et les immeubles s'étalent J'suis là, chaque jour, j'traîne près de Ladoumègue, la frappe sous l'iep comme Steven Gerrard Ça roule des zbars par douzaines, j'kiffe ce tier-quar Mais tous les jours j'en fais le tour en ralant Oui à force d'en faire l'tour tous les jours le secteur est relou Vite j'veux décal', mais j'y suis j'ai toujours plus d'un ter à rouler Sur l'terrain Rallye j'mets des tirs enroulés Tu crois peut-être qu'on joue, nan, j'veux faire mon trou je sais qu'mon crew Marquera l'histoire, ira loin tant qu'j'fais des sons pour Stop, bullshit, bang, seigneur Luciole Lutci Sans gants j'découpe comme Gucci Mane Plus sanglant qu'Rob Lucci Mon âme est moite et l'amné' noie mes années noires pour les laver Bourré d'la veille, ça nettoie, mais ça m'efface la mémoire Tout est à refaire, saletés d'moines, j'suis pas bourré d'sagesse Là j'm'éloigne, ramenez-moi sous les palmiers pour m'évader Là c'est grave, il m'manque une case, j'peux pas dire qu'j'suis dans la bonne, et pas Dans une cage, loin du foyer qu'ta bonne nettoie La suite j'la connais pas, j'me méfie des hommes j'adopte mes lois et j'évite les remords Le shériff est mort, lui qui croyait en sa bonne étoile On s'persuade que la mort n'est qu'un nom, gravé sur une pierre tombale Alors, chacun protégera sa tête lorsque le ciel tombera Tu paries qu'on t'sauvera tu peux déjà couper ta main Directement scier ton bras, trop refusent de livrer l'combat Donc vas-y, tiens-toi pour voir qui est plus sage et plus mature que l'autre C'est quand il obtient l'pouvoir qu'on voit la vraie nature de l'homme À la vue de l'or, n'importe qui peut devenir pourri As-tu de l'eau toi qui n'vois plus que l'aube ? Attends qu'j'devine pour rire Quand tu feras l'tour des globes tu verras qu'on est pas tous égaux Qu'on est pas tous réglos, c'est qu'un parcours d'égo putain Là-bas à Casa' j'connais des gars cool, mais quand ils tiennent pas l'coup Ces gars coupent des gorges, putain, partout c'est gore J'raconte rien d'autre que ma vie mais Au moins y'a pas d'bluff Marsou 93zoo d'la puff partout, et des keufs, rien d'neuf, walou J'vais pas trop en teuf J't'avoue, j'traine avec mes reufs Là où tu ramènerais pas ta meuf C'est pour la maille qu'la cité agit Même shitté, à jeun, j'suis té-agi La street c'est la jungle tu t'en sors qu'si t'es agile J'en place une pour Hakim et Ladji, Maxi J d'la J Plein d'connexions en projection, ma clique s'élargit J'ferai marquer Idéal J sur un futur litron O'riginal MC's, j'suis sur une mission Ouais, j'suis sur une mission Désormais j'f'rai mes diez plus sûrs sinon J'finirai comme mes potes qui dorment derrière les murs d'une prison C'est pas pour m'la conte-ra, crois-moi Nos raclos sont fichés, frère, j'ai 4 soces qui ont glissé en même pas trois mois L'temps passe, gros, on s'y fait Pour vos sorties j'espère qu'les gamos vont siffler Dehors il pleut, porte-monnaie plat, on cherche un plan Même si des fois j'ai le ventre pas plein, j'me plains pas Car j'suis pas celui qu'les bastos ont ciblé Tu peux t'faire caner qui et où qu'tu sois donc j'touche du bois Pour pas qu'un m'taré m'pousse du toit, qu'on prenne tous du poids Qu'ma mère arrête de m'dire T'as foutu quoi ? Eh où tu t'crois ? T'aurais pu gérer pour une fois Un bon billet qui tombe, ça fait zizir car la ze-zer s'est souvenue d'moi Chaque jour du mois dernier, elle m'a pointé du bout du doigt Tu crois qu'on pashave LTF, on dort jamais, négro, on baille pas Deuspi comme Bahebeck Tasse-pé, y a qu'ton tarpé qu'on appelle baby Viens à Cambrai s'tu veux un bail bien vicer Pilote, depuis 15 piges, plus d'ton-car hein Déter comme les Soumar et les Tounkara On baise des stars, les putes et ton carreau Négro, on veut tellement d'oseille qu'on devient paro, ouais On fait nos bails en silence, t'laisse la parole Négro, c'est en silence qu'on t'arrose Y'a trop d'trous d'boulettes, trop d'boulets Trop d'poulets, c'est Derka qui fait tout l'boulot Discret comme un coup d'couteau Va t'faire enculo, puto J'bois le sang des wacks au goulot LT putain d'F sur l'katana ou l'fourreau Sourire grand comme , j'me sens bien grâce à Allah Mais t'es fou gros, c'que m'diront les gens Rien à battre tant qu'y a du chrome sur mes jantes Et des métaux sur les tempes Grosso c'est chaud, j'prends les devants LTF demande prime, trop d'MC wackifiés Faut qu'j'liquide d'l'espèce, comme au 18ème siècle Et ma milice excelle dans l'crime Fallait bien qu'on l'fasse, tenir le bic puis la cantine On s'bat pour une cause commune, l'armée s'agrandit Moi quand j'te parle de rap, j'te parle d'envie, j'te parle d'en vivre J'te parle d'un art à part entière, pas d'un regard dans l'vide Regarde j'm'empiffre de mots J'suis d'ces mecs qui s'justifient par leur passion Un seize par jour, c'est ma seule ration Mais j'apprends vite de mes erreurs d'façon j'y vais à fond Quoi qu'passe, SO BBC Les bougs en face parlent, méritent des Sous les boules bédo et CC pour faire bouger les inactifs Et faire ralentir tes pélos très stressés Déso' si j't'ai blessé Lpee LTF Mon bob est prêt, visière droite, pour la millième fois j'traverse ma rue 4 mecs chahutent, plus loin 3 mecs s'allument Du coin, patron proxénète j'vois Jeune garçon, vieux patron, même des barons de la drogue sévères Croient qu'les gens bossent plus d'35 et voient qu'ce fut en vain À la fin du mois, d'une grande faim Normal qu'ils s'la butent au Tranxène, la came c'est un truc sale Crois pas qu'il existe une drogue saine J'm'oxyde, mais j'me r'mets un Oxmo Scred est la nelle-cocci, smoke 6 re-té aux loxos Les Lexus, le luxe, l'excès, bref le mal comme axe Mais prêt à tirer pour mes idées, comme Malcom X Dé-blin un stip blunt négro, dans le XX Ou 75-19-0, ça niaxx au max Passe au tieks si c'n'est qu'ça, mon son excite, exact Moi j'fais pas d'gangsta j'fais du next art Foutu rap bourge, j'fais c'truc goutu j't'avoue Pour qu'tu savoures, les arômes du nectar Après c'couplet ta retraite est bien envisagée T'avais bien envie d'grailler, devenir superstar Mais tu proposes de l'eau 'vec du smecta Le M propose un verre de vin Henri Jayer Seigneur, c'est vrai qu'c'est moche J'sais qu'j'ai déconné et qu'mes erreurs effraient mes proches J'ai peur d'élever des gosses C'est pas gagné déjà qu'moi-même j'ai du mal à m'prendre en main Arpente en vain l'tiekar, chanvre en main, en attendant d'main Des fois j'admet, j'rêve d'avoir les cachets d'Ashley Cole Et voyager mais, sous hash local, j'lâche l'école Nan pas d'soirée olé-olé, j'trouve un hall où aller Double 0, roule le bédo sur Ill' ou Ali Allô L.U. ? Sors l'alu, on l'a, c'est tout pour l'seille-o J'ai bien changé depuis les cours d'l'époque où on m'disait d'aller au lit Nan rien à foutre des pros, j'écris à mes O.Gs J'suis là pour taffer m'lâchez pas des Ça va passer au mix À part ça frère faut vivre, les zins vite vont travailler au SMIC Les autres arracher aux riches c'qu'ils n'ont pas Satané profit, t'as marqué nos vies, comme le diable J'reste là à té-co d'lui, à chaque bédo j'glisse j'vers le vide On s'bat, pour ses idées, ses G's et ses billets Mais ni ton cash, ni ton squad le jour-j s'ront là Paris Nord, les gars sèment la discorde Les 'tasses sous farine sortent Les carnivores, avec leurs canines, mordent Mais, moi, c'est l'rap qui m'porte J'finis l'16, la fumée de la cabine sort Demande au Maxi'Lord, celui qui m'teste il finit dead Etripe ces mini tasses-pé, j'ai pris l'élixir sacré Des mains d'Maître Karin mort Et la concurrence, mes gars n'ont plus l'temps Les balles pleuvent, paire de Nike neuve Sur les starting blocks j'pars en couille comme Marineford J'gratte des pages j'vais monter l'coup du siècle, depuis la case départ On me casse du sucre sur l'dos mais mes larmes ont gardé l'goût du sel Ravi d'avoir pensé qu'je ravive le rap français Mais malgré tout ça ce qui me rassure ma vie n'a pas changé Tristesse et mélancolie, finesse et détente au lit Qu'on apprend que vitesse et ivresse se mélangent aux risques Alors j'en pleure de rage, hé Mais voici l'bouquet final avant qu'ma plume n'atteigne la fleur de l'âge On a peur de s'battre, des rappeurs tenaces On fuit tous lâchement c'est c'que j'appelle la sueur de lâche Évite de prononcer mon nom si vite ma men J'différencie plus ta bouche ou ton cul tellement tu dis d'la merde Ok, là j'm'acharne oui j'gueule, j'gratte ma rage, middle-kick On a la dalle, pour nous MC ça veut dire McChicken Hé, moi et mon crew on est les plus forts Ça fait que moi j'suis l'plus fort des plus forts Hé, j'continuerai pendant qu'ma haine perdure J'pensais avoir perdu ma peine mais c'est peine perdue Mes tristesses m'inspirent, j'maîtrise les fins sbires Plein d'spleen t'attendent face à B-Biface et 1spire J'suis prisonnier d'ma tête mais j'ai pas d'schizophrénie Est-ce qu'ils ont frissonné, parfois j'me demande Est-ce qu'ils ont frémi ? Remballez tout j'hésite à faire mon buzz, hé Ils parlent de boules mais ils ont même pas les couilles d'écrire avec leur cur Eh, l'crime paie ienb', demande à DJ Peyo Pas d'être païen, on vient dépouiller tous ces pouilleux Cherche pas d'faille, il faut qu'tu payes Sinon quelques mecs de mon équipe n'hésiteront surement pas à t'fouille hein Rêve de pilote, pas des pavés mais des Mercedes Pour l'instant j'pivote sur le pavé et gratte des LTF Deux-trois vers, quatre-cinq ter, ça y est j'suis faya Prêt pour mouiller l'maillot mais tous ces mecs m'énervent Ayou, Maya m'a dit Il faut qu'tu persévères La cible est à 100 mètres, re-fré faut viser l'caillou Toi, tu délaisses tes rêves, mais rester l'même était ta seule devise, voyou Il faut mailler avant qu'mes dettes s'élèvent Une fois la bombe lancée faudra s'écarter J'laisse Maya pour vous dribbler et la finition c'est Corto M'en bats les couilles de c'que racontent ces putes, le peura j'ai qu'ça J'effrite le marron et l'fume, crache sur le daron des stups On encule tout plavons et stud, au micro j'excelle Mon stylo j'actionne et j'lâche des bombes comme à Ajaccio Fonce-dé comme un joueur de l'Ajax sous la lueur de l'avenue Vesqui les couleurs de la BAC et les tumeurs de la rue Cousin, le vice nous sélectionne, les keufs farfouillent dans nos téléphones Des Bouches-du-Rhône jusqu'en Corbeil-Essonnes Y'a trop longtemps qu'j'ai pas vu la mer J'vais pas vous la mettre Si j'rigole pas c'est qu'j'ai pas bu assez On traîne nos butins secs, fait un foot à 6 et baise une pute à 7 J'serai pas rentré pour 8, ma mère le sait et ne guette plus la tess par la fenêtre Ils veulent qu'on parle affaires, Paris c'est Budapest Les darons d'certains frères sont venus par la mère J'écris c'texte à 1 heure 33, fumeur d'ganja Tueur dans c'rap, au micro j'suis leur fantasme J'm'en fous qu't'aies des sous, j'voulais kisser Cassie On aimait le quartier, on s'demandait pas quand se casser Les années ont passé, maintenant on s'met des caisses au Kessa On voit les quais s'encaisser, gare aux dékiss, aux cassos' Ta vie est coussi coussa, coincé par ton casier, cousin Il faut trouver du taf pour te caser, causer d'une maison cosy Mais le diable est vif, il te tentera avec ses maléfices Après tes assedic aux montants assez tristes Qui voudrait ma mort ? Moi, j'sais ap J'repeins mes sous avec les mains moites Parle pas business pendant qu'les miens matent C'est qu'des hypothèses, check ce que tes impôts payent, mec Le repas de nos maîtres pendant qu'tu règles une hypothèque Sec comme le désert Comme le ton qu'adoptent mes potos Comme ma bouche après cette latte de boyco Costauds sont les miens, si tu salis ma seule mère Tu finis sous les marques de nos souliers, mec Bloqué dans les rues de Babylone city J'rêve de faire des classiques comme Biggie Les caïds sortent le calibre comme Fifty Je rallie Rhum-Whisky, gros blunt comme le Roi Heenok Les OG's s'additionnent d'ici à Washington DC Au quartier les 'tasses michtonnent, demande à Alison Finis les grecs Oasis pomme, faut l'inviter au Madison J'ai des contacts encore plus fous que Marilyn Monson Mon iPhone sonne, c'est surement Charlie Bronson J'viens pas d'Detroit ni d'Compton, mais mes rates-pi cognent Comme la famille Johnson, pas d'calibre Gomm Cogne J'te promets, comme l'a dit l'ancien J'préfère être chien que m'voir à l'avenir en chien Pour l'instant j'crée d'la rime en vain Bon taga comme type d'engin Si j'mange un MC au goûter, ça fera qu'un pitre en moins C'est bavon j'rajoute d'la weed dans l'joint, j'fume le gazon j'savoure En écoutant des savons lavourds, 310 pour départ C'est pour ce bas-fonds, la tour Les bars autour desquels j'ai tourné tard, jour et soir si y'a un plavon j'accoure Déjà plus petit j'voulais être le patron d'la cour J'suis vert j'me bute au marron chaque jour Mais j'regrette pas mon parcours J'regardais Oggy Les Cafards T'as vu on a bien poussé, guette mes OG's et mes lascars Ont des bails à revendre Pour un peu d'maille à reprendre, un grand t'cassera 2 jambes Sache qu'on va pas se rendre sauf si mama l'demande La clé est en toi, comprends-en les serrures Mon corps emprisonne mon âme, mon sang dans des cellules Bon sang, prends tes gélules, tes p'tits Propolis, Smecta T'es pas content essaie le lub', p'tite sodomie rectale Bref, ici, pour s'soigner, l'hydroponie s'paye cash Oui nos grossistes livrent nos colis d'Espagne Weed biologique, shit aux olives, nitro sonique, jet-pack Signaux cosmiques, physionomie d'l'espace Facultés psychomotrices spectrales, tir photonique beta Rimes robotiques, cyborg bionique, x prototype delta Touche ça comme l'hologramme Illusions d'optique, l'eau l'eau crame Dans l'impact du zanpakto AKA microphonique bankaï J'sors d'la Soul Society qui comporte une senkai Rimes sismiques comme le sol d'Haïti Cyclo-phonique j'fais l'taf, fils comme promis j'saigne pas Et comme 2 gros high kick, en kimono j'kickerai l'bail Cycle 1, poto notre pire C4, le niveau d'nos rimes s'écarte Oui c'est l'cas Tu veux frapper fort, essaye au moins d'viser l'cadre Equipe de l'espace, t'écoutes le reste Luciole et Moken AKA les types de l'Est passent Tes bougs se taisent parce qu'on pèse qu'on écrit des 16 d'As Pas d'bruit pendant mon dièse ou seulement des messes basses Laisse place dans mon crew naissent des messies Dans l'tiens les futurs SDF s'tassent MDexta', ça laisse des serpillières, des espaces Dans ton crâne, ça te l'lessive La mode les resquilles, quelle qu'elle soit Ils pensent que tel tel swag accorde le prestige J'recherche le vertige, ils essaient d'croire Mais n'ont pas c'qu'le rap exige et foncent dans l'désespoir Ils sont stupides et ça depuis qu'la trap existe, mon frère J'peux pas garder la ligne, j'suis comme un trapéziste obèse On veut du fric, on veut du chic, épargner l'pire aux mères Être millionnaire, moi j'suis qu'un rappeur noir, j'aurai pas d'Prix Nobel Igo, demande à Acinorev, au mic y'a rien d'impossible Et j'place un gros big up aux open mics de la Ces grands bâtards qui sont pathétiques au cro-mi Et donc ils rappent, ils sont malades, j'suis atteint d'la wack-MC's-ophobie Y'a pas d'examen, dès qu'c'est moi c'est des sons samplés Qui t'a dit qu'nous nous ressemblons ? C'est bien c'qui m'semblait Toi, tu penses encore qu'on peut être heureux sans blé On s'casse le dos pour d'l'essence sans plomb, paraît qu'on zone Tous emportés par les consonnes, à part les conso' Qui passeraient leurs vies à parler consoles, le décompte sonne La vie n'est pas rose et elle ne m'a pas fait d'fleur Y'a qu'dans la mort qu'elle s'est offerte aux hommes Gros, moi je veux un loft à Greenwitch Que je payerai en livres grâce à mes big skills Je veux prendre ce quon me doit Pour ça faut la détermination de Will Smith Le répertoire dun ministre et être plus vicieux quun politicien hongrois Toujours sous vrai taga, trop lent pour t'faire d'la place Je suis soûlé de la vibe de mecs qui peps à en soulever la table Je ne souhaite pas signer de contrat je ferai mes propres biftons Oui de beaux millions, mon nom en tête dun sondage dopinion Et rien de plus, proposer des textes sans insulte Pas valoriser un luxe particulier Je men fous si jai des Simons ou des sandales aux ieps Ce qui compte cest les pas que je fais avec vers mon but Je tiendrai même en restant seul car seuls les cons susent Cest pour ça que jai été conçu Et rendre fière ma mère Mais au fait vu les thunes que je gratte Je pourrai bien lemmener se relaxer sur des dunes de sable Lorsque je me serai fait une réput de roi Calé dans l'allée j'niaque, j'vois les tards-pé et les années qui passent J'passe chez rie-Ma, j'prends un paquet d'pipas, garette-ci, masse et puis j'vais aux rimes J'fais la même chose tous les jours Là où les tours t'en jouent, j'étouffe J'ai envie d'oublier, cette nuit j'vais vomir Les yeux sont rouges, on est tous rrés-bou C'est pas la même entre vous et nous nous, pour les sons, on s'bouge Ça vient ap seul tout, t'es fou Fais l'homme, bats-toi si, comme moi, la vie t'a roué d'coups Ici tout m'dégoûte, tous des fous Ceux qui nous gouvernent, ou les bourges, représentés par des cistes-ra Qui visent les immigrés en disant Si y'a pas d'sous c'est eux Qu'on est censé en, virer mais est-ce qu'on serait ici sans eux ? Moi nan en tout cas, donc maman doute pas On leur prouvera qu'la France c'est nous pas ces trous d'balles Sisi, on sait c'est où qu'on fait ses sous Avec d'la cécé ou d'la Sensi' sous l'501 Tu captes négro, faut s'casser l'dos, ici t'es rien sans rien J'fais qu'taffer, faut que j'prenne le train en chemin J'me battrai, gros, si tu veux maintenant, viens J'l'aime mais j'en n'ai rien à foutre de pper-ra Les gens veulent le succès mais, gros, y'a rien à tter-gra C'qui faut c'est des gros sous, du gros flouze, la famille pour pas quer-cra Grosso, le reste on les shoote Trop d'problèmes, j'ai ralenti l'shit Autant appuyer sur la gâchette, si j'canne c'est un talent gâché P't-être que plus tard le biff j'vais l'entasser Les filles les embrasser et tous les wack MCs les remplacer Ouais j'veux l'butin, des MCs j'en ai vu plein Des non challenges vécu plein, j'veux voir mon soce à Dublin Le M rappe comme si cétait les derniers jours de sa vie Où les jeunes grandissent en vain, entre cevi et savon Même si je vais mal et quon m'demande Est-ce que ça va ? Je réponds Yes, est-ce que tu captes ? Les fleurs du mal, je les brûle souvent Je récite mes vers savants Circuit du mal où mes reufs virent souvent Ambiance ghetto tah les Varsovie Je ne rappe que des faits réels Le reubeu prend lor Lcombat peu lemportent, ici on a tous à faire au hall Votre rappeur préféré estropié est trop fake Faites-vous escroquer comme la fait Raël On fume du gazon du pur Jai la barre quand mes potos approchent du but comme la fait Raul Peu importe je veux plein d'drogues Le sang du quartier, ne fait que tacher mon linge propre Et si je veux faire doubler mon compte chèques en banque Cest que faire des sous tonton cest tentant Troisième couplet, j'passe la cinquième, carnivore C'est pour l'19 et pour vingtième, Paris Nord On t'uet, prends mon iep La concurrence en miettes, j'la graille en un tiep maximum Frappe de Ballack MC, tu peux te mettre en plein dans ma course de vitesse, je m'en bats la queue Les couilles plus grosses que le ventre, que le ... Avec le vent, regardez devant, comme un machin XXX Tous ces rappeurs divins j'attends juste qu'ils se pendent et je m'arrache Ouais ça fume pas d'pilon naze, tous nos ter sont polénisés du gros taga qui grille ta go même si elle vient d'Polynésie Ça va flancher, j'prends les commandes, mets ta ceinture LTF, LPP l'avenir, tes MCs s'font avalancher J'refais la peinture de c'rap français qui vieillit Nouvelle génération, on vise l'élite, pas Valenciennes Demande à Lasco, appelle pas les secours J'me fais un 'loss quand, au Loxam, Zaky ouvre le score Arrête tes salades, amène le flouze J'vois déjà LTF sur la cover journal d'un de rap Me parle pas d'game, j'fume toutes ces putes mais elles jouent mal de base Moi j'serai l'plus riche des anciens pauvres à la Jamel Debbouze Les poches remplies, il est trop G mon jean L'quartier c'est Jumanji Les charos gardent les crocs même s'ils ont déjà mangé Haché mon gars, équipé comme un G.I. Joe Déter comme un témoin d'Jéhovah L'été on va oublier les promesses qu'on s'était faites On part sur des plages de ve-rê Est-ce que tu captes le se-diè ? On passe toute l'année au taf et puis on clamse condamné par le regret J'suis pas la relève C'est Lasco'mic, j'écris de meilleurs textes quand j'pense aux larmes qui squattent les yeux d'ma re-mè J'ai grandi aux Lilas, j'connais ses caves et ses tours Tu veux nous canner, c'est die comme un feukeu qu'avoue ses torts Fais fais fais gaffe où ça traîne, fais fais fais gaffe où ça tire Faut faut d'la came et c'est tout, si tu voudrais calmer mes gars Et dans 10 ans j'aurai quitté les quartiers malfamés J'aurai baisé 2000 feumeu, dont 100 milfs au moins Mais qu'est-ce que j'racave ? J'suis tous les jours au quartier À 2 lattes d'être éclaté, à 3 grammes de la gardav' Ils veulent que t'obtempères, mais ce keuf n'est ap ton père T'aimes pas leurs matraques et leur justice de merde t'as jamais opté pour Donc tu vas prendre 100 grammes quand ton daron tousse dans la nuit Et tu comprends qu'les fleurs du mal et leurs épines poussent dans la street Dur de rêver quand t'as plus pris du ferme que l'avion J'te parle d'espoir, mes rimes gravées sur les fines ailes d'un papillon Nike Air trouées sur l'gravillon, moi c'est coste-La et pas Vuitton Tu cherches d'la street cred j'te nique ta mère devant mon pavillon, 2.6 Jamais HS, au QG on n'a pas fait la sieste Faut du blé, on est tous occupé à gratter sa pièce On veut un gros budget, ça y'est ça presse Presque tous les gars d'chez moi vendent du sbar et d'la cesse Dans l'but de se barrer d'la tess Tu gères tes affaires devant ton bloc Ce sera le calvaire quand ton proc' T'annoncera ta peine, il faudra pas faire dans ton froc En plus tu rates les cours Et, quand t'y es, t'écoutes pas t'es sourd T'apprends plus au bas des tours J'me vois bien faire des allers-retours Entre Babylone-Washington À 50 piges avec une racli comme Jackie Brown Les keu-fli m'foutent la haine Quand je pense à mes gars qui dorment à Fleury ou à Fresnes Maintenant tu sais la te-stree où ça mène Dehors les rates-pi s'forment, teu-shi sous la semelle On veut fe-bi toute la semaine Plus les chiffres s'additionnent plus y'a de chance que les bleus samènent J'suis pas au maximum, eh poto j'suis mieux qu'ça même Textile LDNP, paire de NB MD, MD, MD, attends l'plan, on s'fait fric facile et argent simple LT LT LT LTF, ma bande, ma clique, ma fierté J'roule un sbar dans l'20 Les murs des quartiers jaunissent mais pas d'quoi s'en plaindre Par contre, même de loin, j'vois tes potes, sont pas tous réglo La ce-Fran nous a tourné l'dos Donc on a mis des coups d'épaules Les hommes seront jamais tous réglo, j'ai l'blues frérot Seul sous l'préau, j'vois Dieu qui pleure Donc j'ouvre ma bouteille et verse une larme pour mes khos Gros, j'pilote depuis l'aube Mais mon enthousiasme se lasse, me voyant accroché à un pilon et un pilonne Le temps devient vite long, m'faut des biftons Nique ton Vuitton, j'veux du Jay Scott et CDG sur mon p'tit dos Oui kho, faut du bif au fond des poches Avant d'entendre le douzième son des cloches Sombre époque gros, aujourd'hui j'me lève tard J'trouve pas d'clope et une puterie dans l'bus J'ai besoin d'une vie en plus, putain LT putain d'F pour la Grünt, roule la skunk Chez toi c'est dar, gros, chez moi c'est dur Toujours avec les couche-tard, vesqui les endroits tah l'placard 7.5., 19ème, sale bâtard Combien d'fois j'vais t'répéter ? C'est les biles-dé qui ont pas d'âme J'en n'ai rien à battre, mon négro Si tu m'prends pour un bouffon J'ai un bon fond mais j'vais t'la mettre au fond Ici s'achète ou pas la C J'arrive en RER pour repartir en Féfé Putain, j'serai vitres blindées, portes blindées, dans ma RR Mais pour l'instant on vient à 10 dans l'anniversaire Guère, avec mon équipe j'pars en guerre J'roule mon ter, pas d'amphet', j'ai des connexions jusqu'à Nanterre Tu crois qujsuis tout petit ? Négro là, jsuis avec mes khros si tas un problème on le règle tout de suite Dans 5 ans, aussi dangereux que Ferrara On va me téma comme si je débarque dans le four en roue Zinc, va t'faire foutre ya pas de casse-dédi j'te dis Vu qu'jai tué tous les MC's, jai le fourreau rouge Plus d'respect pour toi, j'men bats les Ferrero Négro, j'veux m'pavaner à bord d'ma Ferrari salope Sprite pilon, L1triangle AKA le strike J'vois les presque-MCs bégayer, le mic M'a réveillé, moi j'ai payé le price Pour m'y essayer Ça y est, j'serai le mighty Moken que vous préfériez On vous a laissé nier Seul objectif les saigner, comme Hyde Et que vous n'voyez qu'Jehkyl enseigner J'suis sur ma lancée lié à mes frères, mon crew déffraie La chronique, effraie l'accro, nique les faibles en ces lieux Ils finiront sous mes souliers Comme la conserve au fond du sellier La souillure nettoyée par le concierge, la porte enfoncée par le bélier Comme le dernier rappeur employé dans un concert Leurs sons ne concernent personne Quand ils kickent, nos yeux sont fermés Ils nous consternent, il faut qu'le tel sonne, pull up Changer d'MC c'est facile de cerner les cons Comment peuvent-ils fermer les yeux sur la fierté des sons MCs du-per, blablatent, s'prennent pour Lemsy Hayce Mais sont comme Tenshinhan contre Super Saiyan Nombreux sont les wacks qui s'y croient, tu sais quoi ? Face à eux, en moins nombreux sont les watts qui saccroissent Le courant n'passe pas, ces mecs ont l'seum, eh On se l'fait si cette grande pétasse parle Ils seront pas Big mais Sean Penn Leur seule peine, pas dans les temps ça m'gave Retourne au solfège t'as pas d'gammes Qui prend ça ? Ok y'a personne donc tu vas gober mes litchis On est chez Pichi, j'bois l'élixir Les teurs-inspec et les keufs inspectent Les drogués en boîte font aussi peur qu'un spectre Nous, on a dans l'verre 3 glaçons, dans l'blunt 5 têtes Ça s'passe à fond pour la Grünt 27 Tu connais le L.U., en impro, trop d'flow, c'est l'déluge La fenêtre était fermée et j'suis passé par l'velux J'envoie des rimes de fou Si y'a bagarre j'te fais un film de boules Les potos s'lancent dans le biz de schnouff Survêtements, comme équipes de foot La vie est une pute sauf qu'elle pisse debout Pense à la tombe, on va tous mettre un switch, à croire qu'on vise le trou Tu veux vivre le sou, ils vont t'la mettre pour de cacahuètes Dans mon cocon, j'guette le bon moment pour voir la concu' uet Ecoute-les fanfaronner, tu veux la fouffe à Rooney ? Faudra la carte bleue qui peut payer le Féfé re-noi On joue à Fifa khaleb, voilà c'que crée mon zoo À 4 dans une Peugeot avec du shit qu'on peut cramer zen Et ça passe crème, on zone Enfoirés d'ients-ients, j'fais que des chromes aux zins C'est dans nos chromosomes Juste un freestyle pour dire à tes rappeurs qu'j'suis pas mort Agite la vapeur, LTF n'a pas peur de tes rapports J'viens opérer sans complication, j'fais tout dans la justesse Et vu qu'y'a pas d'justice, ben, j'blinde le ter pour que l'G's tousse Ouais, j'les gifle tous Complexé parce qu'LTF vit c'que t'arrives pas à vivre, couz Même si parfois j'ai fait l'con et c'est gênant Mais plus la bouteille descend et plus les effets montent, c'est l'discours J'pète untel, on met la seconde, on pète un thème Pendant qu'tu t'demandes si t'es chaud Mais avec des si... on refait pas l'monde, on refait un rêve Donc mets d'la skunk et sers un verre Tuer l'rap, il faut qu'on y retourne Finalement Gédéon est élégant, hein ? Déconseillé pour les effets secondaires à tous les bambins J'te l'ai déjà dit, gars, j'veux la terre J'ai flairé ton vice, là où traînait ton fils donc t'avise pas d'me la faire Ils s'croient à l'abri mais t'en fais pas Une fois qu'Morphée les aura dans ses bras Ils s'rappelleront, qu'd'en-haut, le faucon vise tout Véritable vendetta, d'Cambrai à Gambetta C'est l'19ème, on vend de tout et sache que notre potion elle nique tout Pour commencer, j'trouve de l'inspiration en marchant l'soir On s'endort sur la plag</t>
         </is>
       </c>
     </row>
@@ -939,7 +931,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>On m'dit souvent que dans mes textes je n'parle que d'sexe et de foncedé Mais loin d'être véx', je suis flatté car en effet C'est le journal du hard, l'inspiration numéro uno Et Raven la muse de Jojo, God Damn J'aime le porno accompagné d'un bédo, bien chargé en Aca-pulco Mon immeuble fait des pétitions Sous prétexte que j'enfume la maison, et que ça sent pas bon Mais bon, faut pas m'prendre pour un con, j'fume que d'la qualité Peux-tu me dire comment ça peut puer Alors que l'odeur, sortie tout droit du bled Réveillerait un mort, pour lui faire danser l'smurf en indoor à Bercy J'aime la sensi, oui merci, petit soit gentil de faire passer le spliff par ici Réhabiliter les doobies prohibés comme Bob c'est mon job Je gave les zouaves et zig-zag sur la zique et ris là Crois-tu qu'l'eau s'est bénite dans la pipe par la grâce du Pape Le Kink-Kong du bong bondit sur un beat de conga, bois donc ton Banga Je tourne au jaja, à la ganja, vive la java, fais la fiesta, pas la siesta ! pas la siesta ! Si le tabac t'abat n'appelle pas Tabatha Basta ! Baste hausse les basses Mets tes ADIDAS, et bascule avec moi J'ai l'calumet qui va t'calmer une seconde J'vais t'secouer au Shoobang Tire une taffe et ta tête fait z'booong Tu fais la teufê sous skunk bong Bambino ! Scotche tes babines au bambou Remplis tes bajoues mais s'te plaît bave pas partout Car le Svinkels pratique le Skonk Fonk chouchou façon Hong Kong fufu ! You might also like x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas dur d'la feuille quand le Svink se met en pétard Kiffe mon Skonk Fonk J'stoppe la pagaille Quand j'débarque sur mon chariot chargé dpaille Les payes braillent j'veux un joint!, roules-en-un Le Svink grille le business du coupeur, prend peur dvant ma qualité Même sur sa fille, mon pot smoking fait de l'effet Black Domina, met la pression M'donne l'impression d'être dans une sale situation Situons l'action Cave claustro, trop d'vapeur, trop d'bad boy, trop karglo Mon joint de skonk Qui fond dans la bouche Et me douche les dents du fond alors que baignent quelques touches de Funk qui se confondent Me fendent, j'en louche et bigle sur le bong Sur les ondes, le Svinkels En son nombre, bien à l'ombre Pas nombril du monde, gronde groove et prône l'underground Je concocte un cône de skonk, fonds fonchi Bouffon, monkey, j'suis fonkey L'Orange Bud et ma Budweiser, tu te bad Weasel Flic ! Tu me confisques ma skonk pour prévenir à ce qu'on n'se fixe Mais le Svinkels fonde le Skonk Bang Contre les condés qui confondent Draguer dur la drogue douce Et adhérer dare-dare à la drogue dure Tu piétines ma verdure, faudrait pas qu'ça perdure Huuum! Cette pipe va droite au but Plus brutal que les caresses buccales d'une pute, du quartier rouge Cherche pas la Jack Herer quand je m'porte acquéreur D'cette végétale terreur Comme Rika Zaraï sous un rail de déchets toxiques J'allie l'naturel au chimique J'dépasse les doses homéopathiques qu'on m'avait prescrites J'ai pas d'limite à la santé par les plantes aromatiques Vive la médecine douce Donc je remercie les chercheurs Qui ont mis en valeur la beu-her dans leur labeur J'salive devant une bonne Sativa ou Indica! Et j'indique à mes potes Cannabis Repetita Joins-toi à nous quand le Svin-kels se met.. en pétard Joins-toi à nous quand le Svin-kels se met.. en pétard Sorti toujours chargé, dangereux et prêt à tuer Le gun est un shilom et la fumée sort du barillet J'vais capter mon barrio, la puros me cogne le cerveau Sous télé qué-blo, m'donne des visions Impossible de suivre le fil rouge de l'émission Une émission d'bon son, chargé ambiance keu-skon J'la kiffe comme une sucrerie J'en connais plus d'un qu'envie mon style de vie Fumer des bongs, boire des bocks, font des lyrics et des locks Ton époque délire, les délits font des loques Choque les bollocks collés en bloc de douze T'as l'blues en loosedé j'prône l'Europe des 12 grammes Ramène du flouze, brave la douane Mets-leur des doigts, aller-r'tour Paname-Amsterdam Amsterdam, pique-toi, écoule des grammes Et bourres et bourres-en tes tam-tam J'veux de la bombe Pour moi c'est chronique, de la grosse bombe atomique De skonk qui m'nique comme c'fist fonk fils J'veux qu'elle poisse comme du réglisse, qu'elle suinte Dans ma fente à stick pleine de feintes Lève ta pinte en l'honneur de cette plante venue d'ailleurs Que j'kiffe avec un bon vieil Earth, Wind Fire, la meilleure Ouais tu peux tèje tous tes vieux clopes ringards Maintenant qu'l'herbe pousse dans les placards x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas dur d'la feuille quand le Svink se met en pétard Kiffe mon Skonk Fonk</t>
+          <t>On m'dit souvent que dans mes textes je n'parle que d'sexe et de foncedé Mais loin d'être véx', je suis flatté car en effet C'est le journal du hard, l'inspiration numéro uno Et Raven la muse de Jojo, God Damn J'aime le porno accompagné d'un bédo, bien chargé en Aca-pulco Mon immeuble fait des pétitions Sous prétexte que j'enfume la maison, et que ça sent pas bon Mais bon, faut pas m'prendre pour un con, j'fume que d'la qualité Peux-tu me dire comment ça peut puer Alors que l'odeur, sortie tout droit du bled Réveillerait un mort, pour lui faire danser l'smurf en indoor à Bercy J'aime la sensi, oui merci, petit soit gentil de faire passer le spliff par ici Réhabiliter les doobies prohibés comme Bob c'est mon job Je gave les zouaves et zig-zag sur la zique et ris là Crois-tu qu'l'eau s'est bénite dans la pipe par la grâce du Pape Le Kink-Kong du bong bondit sur un beat de conga, bois donc ton Banga Je tourne au jaja, à la ganja, vive la java, fais la fiesta, pas la siesta ! pas la siesta ! Si le tabac t'abat n'appelle pas Tabatha Basta ! Baste hausse les basses Mets tes ADIDAS, et bascule avec moi J'ai l'calumet qui va t'calmer une seconde J'vais t'secouer au Shoobang Tire une taffe et ta tête fait z'booong Tu fais la teufê sous skunk bong Bambino ! Scotche tes babines au bambou Remplis tes bajoues mais s'te plaît bave pas partout Car le Svinkels pratique le Skonk Fonk chouchou façon Hong Kong fufu ! x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas dur d'la feuille quand le Svink se met en pétard Kiffe mon Skonk Fonk J'stoppe la pagaille Quand j'débarque sur mon chariot chargé dpaille Les payes braillent j'veux un joint!, roules-en-un Le Svink grille le business du coupeur, prend peur dvant ma qualité Même sur sa fille, mon pot smoking fait de l'effet Black Domina, met la pression M'donne l'impression d'être dans une sale situation Situons l'action Cave claustro, trop d'vapeur, trop d'bad boy, trop karglo Mon joint de skonk Qui fond dans la bouche Et me douche les dents du fond alors que baignent quelques touches de Funk qui se confondent Me fendent, j'en louche et bigle sur le bong Sur les ondes, le Svinkels En son nombre, bien à l'ombre Pas nombril du monde, gronde groove et prône l'underground Je concocte un cône de skonk, fonds fonchi Bouffon, monkey, j'suis fonkey L'Orange Bud et ma Budweiser, tu te bad Weasel Flic ! Tu me confisques ma skonk pour prévenir à ce qu'on n'se fixe Mais le Svinkels fonde le Skonk Bang Contre les condés qui confondent Draguer dur la drogue douce Et adhérer dare-dare à la drogue dure Tu piétines ma verdure, faudrait pas qu'ça perdure Huuum! Cette pipe va droite au but Plus brutal que les caresses buccales d'une pute, du quartier rouge Cherche pas la Jack Herer quand je m'porte acquéreur D'cette végétale terreur Comme Rika Zaraï sous un rail de déchets toxiques J'allie l'naturel au chimique J'dépasse les doses homéopathiques qu'on m'avait prescrites J'ai pas d'limite à la santé par les plantes aromatiques Vive la médecine douce Donc je remercie les chercheurs Qui ont mis en valeur la beu-her dans leur labeur J'salive devant une bonne Sativa ou Indica! Et j'indique à mes potes Cannabis Repetita Joins-toi à nous quand le Svin-kels se met.. en pétard Joins-toi à nous quand le Svin-kels se met.. en pétard Sorti toujours chargé, dangereux et prêt à tuer Le gun est un shilom et la fumée sort du barillet J'vais capter mon barrio, la puros me cogne le cerveau Sous télé qué-blo, m'donne des visions Impossible de suivre le fil rouge de l'émission Une émission d'bon son, chargé ambiance keu-skon J'la kiffe comme une sucrerie J'en connais plus d'un qu'envie mon style de vie Fumer des bongs, boire des bocks, font des lyrics et des locks Ton époque délire, les délits font des loques Choque les bollocks collés en bloc de douze T'as l'blues en loosedé j'prône l'Europe des 12 grammes Ramène du flouze, brave la douane Mets-leur des doigts, aller-r'tour Paname-Amsterdam Amsterdam, pique-toi, écoule des grammes Et bourres et bourres-en tes tam-tam J'veux de la bombe Pour moi c'est chronique, de la grosse bombe atomique De skonk qui m'nique comme c'fist fonk fils J'veux qu'elle poisse comme du réglisse, qu'elle suinte Dans ma fente à stick pleine de feintes Lève ta pinte en l'honneur de cette plante venue d'ailleurs Que j'kiffe avec un bon vieil Earth, Wind Fire, la meilleure Ouais tu peux tèje tous tes vieux clopes ringards Maintenant qu'l'herbe pousse dans les placards x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas dur d'la feuille quand le Svink se met en pétard Kiffe mon Skonk Fonk</t>
         </is>
       </c>
     </row>
@@ -956,7 +948,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette A moi ! Jusqu'au bout de la nuit A moi ! Pour noyer mes soucis A moi ! Puis j'fais n'importequoi A moi ! Où tu vas ? Glou glou glou, je n'sais pas si j't'aime C'est peut-être le sang alcoolisé qui circule dans mes veines Dans quel état j'vais m'réveiller demain a 14 du mat' ? J'suis pas sur de m'souvenir de c'que j'ai frotté dans cette boite Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais pas où tu vas Je te suis et je bois Je n'suis pas une mauviette Je m'en bats les couilles de t'es qui Je m'en bats les couilles de t'es quoi Me parle pas, de toute façons je ne m'en rappelle pas Je n'te reconnais pas, merci pour le verre mais fallait pas Croises-moi encore nulle part dans un sale état Et puisque c'est comme ça, laisse-nous la bouteille Festoie, mais ta zeb' laisse-nous la goûter allez Rapporte les bières, les glaçons et la glacière Dab - Dabaaz n'a laissé que des cadavres dans le frigidaire You might also like Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme Zangief Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette Encore un spot où on va boire la tasse On est listés, j'ai les tickets Alcool Fast Pass C'est pas moral, mais mets-toi à notre place De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? Yep, tous les jours je deviens amnésique, je ne me souviens plus d'hier 'faut que j'me réhydrate, j'ai une voix qui tourne dans ma tête, qui m'dit vite vite vite vite Je fonce vers le supermarché, direction le rayon bière Je choisis, je ressors, je la décapsule et, cul-sec, je la vide-vide-vide-vide Hun, v'là l'clodo boom boom down Ca me rend din-lingue-din-lingue-dingue quand j'finis ma poom poom choppe Remets-en une J'arrêterai quand j'ferm'rai les paupières Vomi les coquillettes, farcies comme des paupiettes Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette A moi ! Jusqu'au bout de la nuit A moi ! Pour noyer mes soucis A moi ! Puis j'fais n'importequoi A moi ! Où tu vas ? De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? Dab - Dab - Dab - Dab - Dab - Dabaaz, Gérard baste FRER 200 Le Groupe du Moment, quoi !!! De - De - De - De - De - De - De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste???</t>
+          <t>Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette A moi ! Jusqu'au bout de la nuit A moi ! Pour noyer mes soucis A moi ! Puis j'fais n'importequoi A moi ! Où tu vas ? Glou glou glou, je n'sais pas si j't'aime C'est peut-être le sang alcoolisé qui circule dans mes veines Dans quel état j'vais m'réveiller demain a 14 du mat' ? J'suis pas sur de m'souvenir de c'que j'ai frotté dans cette boite Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais pas où tu vas Je te suis et je bois Je n'suis pas une mauviette Je m'en bats les couilles de t'es qui Je m'en bats les couilles de t'es quoi Me parle pas, de toute façons je ne m'en rappelle pas Je n'te reconnais pas, merci pour le verre mais fallait pas Croises-moi encore nulle part dans un sale état Et puisque c'est comme ça, laisse-nous la bouteille Festoie, mais ta zeb' laisse-nous la goûter allez Rapporte les bières, les glaçons et la glacière Dab - Dabaaz n'a laissé que des cadavres dans le frigidaire Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme Zangief Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette Encore un spot où on va boire la tasse On est listés, j'ai les tickets Alcool Fast Pass C'est pas moral, mais mets-toi à notre place De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? Yep, tous les jours je deviens amnésique, je ne me souviens plus d'hier 'faut que j'me réhydrate, j'ai une voix qui tourne dans ma tête, qui m'dit vite vite vite vite Je fonce vers le supermarché, direction le rayon bière Je choisis, je ressors, je la décapsule et, cul-sec, je la vide-vide-vide-vide Hun, v'là l'clodo boom boom down Ca me rend din-lingue-din-lingue-dingue quand j'finis ma poom poom choppe Remets-en une J'arrêterai quand j'ferm'rai les paupières Vomi les coquillettes, farcies comme des paupiettes Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette A moi ! Jusqu'au bout de la nuit A moi ! Pour noyer mes soucis A moi ! Puis j'fais n'importequoi A moi ! Où tu vas ? De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? Dab - Dab - Dab - Dab - Dab - Dabaaz, Gérard baste FRER 200 Le Groupe du Moment, quoi !!! De - De - De - De - De - De - De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste???</t>
         </is>
       </c>
     </row>
@@ -973,7 +965,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mets d'la couleur dans le mélange, dans nos curs, y a d'la place comme sur le gros front d'Aubameyang Moi j'mets d'la couleur dans nos têtes, y a rien qui bouge comme le vieux en bas qui fait des signes à sa f'nêtre Wesh alors la mif', c'est comment ? Les potes, les parents, la vie les brise en deux comme une vitre, une puce Lebara J'ai la dalle plus le talent, faut qu'je brill plus que la lampe, que ms frères puissent voir Saint-Tropez, Monaco plus les calanques Quand y a les flics ont fait des ouais ouais ouais, caillou à côté du Samsung en cas d'gyrophares d'puis la M.J.C Juste à la voix, tu sais qui c'est, couteau rouillé, flow aiguisé sa mère Joues salées, salées comme la Mer du Nord, on t'retourne comme la terre Il roule un bédo plus fort qu'lui, elle pousse une poussette plus grande qu'elle Il sait déjà faire des collages, elle veut d'jà faire du collagène P'tit cur en sucre dirait ma mère, faut juste leur dire qu'ils sont gentils, faut juste leur dire qu'on les aime Ouais, ouais C'est noir dehors, ça l'est pas moins dedans, cousin Y a qu'dans l'viano qu'c'est jamais moi devant, bah ouais J'peux rouler l'teh même si y a plein de vent autour Gros, la police n'empêche pas de vendre Les gamos n'arrêtent pas de chanter Et les shlagoss prennent du crackos sous une barre de chantier Super actif j'laisse rien au pif, j'suis l'opposé d'ton collectif J'arrive dans c'truc tout beau tout frais comme quand l'daron m'coupait les tifs, bah ouais Pas sûr que l'rap me rendra millionnaire J'arrive en mode F.A.B.E, en mode visionnaire J'les baise en missionnaire, en leu-leu Jeune B.E, l'élu, j'mets quatre lu'-lu' dans l'match Et puis j'me casse, comme si j'démissionnais, ouais On t'allume comme ce blunt plein de puff Tu t'fais sauter comme le Grünt 59, ouais Sacrée vie donc forcément qu'on a des sacrées failles Ça fume des oins-j avant et après l'five You might also like Yeah, hein Stonar pour les intimes, j'viens du clash à la base J'voyais tout rouge, on a mis un peu d'couleur dans nos lifes Nan, on a consommé la kush Fume à fond, bois beaucoup Très tôt j'ai su compter les erreurs, les main sales Maint'nant faut pas qu'j'me rate comme Trezeguet Sur la prod' du rodéo, drift, musique, mais j'aime bien tout Me mets pas dans une case, allez fuck, j'irai pas chez vous Té-ma j'suis entouré d'lyricistes, que fais-je donc ici ? Grünt 59, ouais, c'est bien trop gore, j'réouvre des cicatrices, hein P'tit remix pour le mob, c'est pour mes centipèdes, yeah J'ai mille façon d'leur dire nique ta mère, d'leur dire qu'j'suis le best Tu vas rester cinq minutes ici, après tu vas next Putain, yeah, après il va next Nous on se doit d'envoyer la dope, même si j'ai mon tel devant les yeux Salomons aux pieds pour run les cops Salomons aux pieds, même dans le pieux J'en place une pour Marlo, S.R.2.E, K.O.N.G.A, Sima, les feux Ceux qui se lèvent tôt, ceux qui baissent pas les bras, yeah Hey, hey, Jeune B, on y va, ouais ouais, ouais À deux sur un scoot délabré, autour ça sent la brique, ça fume, ça file après Tous ces chiffres ça fout la press' Un frère au sol entouré à la craie J'regarde dans l'flou, j'y pense après J'y pense après, on portait pas d'Superdry Par contre j'fume du super dry T.N.F, que la famille, compte pas sur moi si t'espères graille J'connais des fauteurs de trouble, j'connais des fouteurs de trouille J'connais des footeux, des fougueux, sur la table des poseurs de couilles J'connais des sauveurs de coups, des smokeurs troueurs de coussins Il paraît qu'Marylin Manson il mange des poussins J'rallume un J', j'rallume un coupe-faim J'nage en eaux troubles, j'évite les oursins Putain, plus de zéros sur l'contrat qu'sur le bulletin Mais pourtant, elle m'disait fous l'camp Tout près du radiateur, j'bavardais tout l'temps J'pas peur de vous, j'ai peur du changement J'avais pas peur du gen', -gen', j'connaissais la valeur du -gent, -gent Big up à Jeanjean, big-up à Grünt Un p'tit bout d'shit, un p'tit peu d'funk Casquette croco sur la coupe à Trunk Et j'pense aux frères, à six dans vingt mètres carrés Là ou t'aurais même pas su t'garer, on leur demande de vivre T'en parles mal une fois qu'c'est plus ta feu-meu, c'est facile Tu veux m'faire croire qu'ta nouvelle pute le fait mieux, j'suis pas sûr Pour en être là, j'ai try-hard, comme devant les porcs j'ai fort cavalé Concurrence préfère avaler l'chibre de l'industrie Merci à Flav' et Raf', le haut du panier D'avoir su qu'j'allais faire l'or, quand j'avais qu'la ferraille C'tait pas gagné, dans les poches j'crois qu'j'avais deux balles à peine Main dans l'froc sur mon canapé, cette vie là n'pouvait pas m'aller À notre place, qu'est'ce t'aurais fait, à part te plaindre comme beaucoup d'autres ? Attendre que quelqu'chose vienne à toi, qu'ça tombe du ciel comme des gouttes d'eau Mon épaule est un perchoir pour le p'tit ange qui veille sur moi J'sais qu'il prendra l'relais si j'foire Jeune B, Sto, Ben, Grünt 59, Ouais ouais ouais tu connais déjà On y va, on y va, yeah, hein Let's go, S.T.O, S.T.O, S.T.O, S.T.O, 5.9, T.N.F, L.C.G, Brotherhood jusqu'à l'infini, tu connais déjà, yeah On y va, yeah Ensemble finessementality, j'suis ambidextre, j'sais bien rer-ti J'fais tout pour le clan, comme Yung Simmie Mitsubishi AR Breda Sushi, cerveau mé-cra, tout est pollué, c'est Jakarta 5.9 endetté, dans les tatams Faut dix SUV couleur magenta Dans le game sans didacticiel Là-celle, elle croit c'est facile d'faire c'qu'on fait Sur la scène on manque d'oxygène, no-sleep j'ai coupé les deux bras d'Morphée Pas de bullet-proof, j'suis un one, j'les tape Entouré d'loups, marche comme dans les steppes J'sais y en a qui soufflent devant leurs stats Ils font grave pitié, en vrai c'est que d'la flemme On se prolifère comme un virus, hein, ça vient du Nord force à mes dogs J'roule un cône de plus sous l'abribus, j'suis à P.D.V, je vois que la mort C'est qu'des crackheads tes rappeurs, c'est au-ch Fini d'l'époque d'la lame sur le réchaud Les petits ont trois couteaux de poche T'inquiète qu'ils veulent pas rayer ta Porsche Les mutants on s'en rapproche, pour pouvoir cash les lunettes de Scott Summer Ma gueule j'ai plus peur, à 2.5 sur l'A7 dans un Hummer, vroum J'aime quand ça fait boum boum boum, huit-cent-huit malveillance au max J'suis en légende comme MF DOOM, mais j'aime pas trop les gens qui portent des masques Yeah, hein, let's go 2.4.2 sur la voie d'gauche à fond Drift musique, tous les murs y s'effondrent J'mélange tous les styles, nan j'mélange pas le fond Yeah, hein, let's go Dans un gros bolide y a qu'une seule direction Toujours tout droit c'était la prédiction Gros joint sur l'accoudoir j'fais des additions Cinq plus neuf, hein hein, non c'est pas une fiction, let's go Cinq plus neuf, non c'est pas une fiction, let's go Ok, ok, ok Grünt 59, faut qu'j'm'implique un peu Si tu m'avais dit ça y a cinq ans, j'y aurais pas cru Maint'nant ça m'fait ça, dès qu'j'commence un truc, t'imagines le trac, nique sa mère Ils m'ont dit t'es nul, j'ai quand même eu l'bac, nique sa mère J'ai même eu confiance en moi, t'imagines le bail J'ferme les yeux, la prod' démarre, j'imagine le sale Cabas Lidl cartonné, j'sors, j'sécurise le sac, lol Mon C.D à la Fnac, mes paroles à la fac', ma p'tite gueule à la CAF J'écoute des instrus, j'passe la serpillère Nos pères ont des yeux d'lynx, des doigts d'faits divers J'ai grandi avec des militaires, des bruits d'bouteilles de Jupiler Odeur d'clope et score de foot au Minitel, sur l'pallier beaucoup d'poussière Et des courriers du ministère, ces nouvelles qui rallongent l'hiver, le passé t'rattrape toujours Ça marche qu'un temps d'inventer une mauvaise adresse dans l'Finistère J'sens la sueur faire bouger mes molécules On a pris du r'cul, on va prendre les thunes, d'ceux qu'y ont pas payé les grandes études J'parle à la Lune, à un mur, les menaces brisent pas les armures Mais les larmes, elles si, on va tout niquer même si, yeah, yeah Époque Inter Milan Pirelli, on pensait qu't'étais pas toi-même quand t'avais pas ton pire ennemi J'voulais être Peter Parker, nos mères méritent des champs d'fleurs et d'la présence, pour ça qu'on pleure tous à l'adolescence J'ai tout crié, pour jamais oublier mes peines Tatoue le toi, pour jamais oublier qu't'es belle T'endors pas trop, pour pas tout oublier tes rêves Ça y est, c'est bon, là tu peux oublier les règles Cendrillon s'est niquée les veines, Batman s'est niqué les vertèbres À la chaîne au 3.8 Tintin rigole comme une hyène rue des Orfèvres au trente-six J'sais pas si j'm'abîme ou j'grandis, j'sais pas si j'pars ou j'm'enfuis J'arrive plus à dire tant pis, mais tant pis C'est l'chant des normaux et des non-dits, l'bonheur est libre en condi' Vu qu'les vampires ont pas compris qu'on est rentrés par la f'nêtre et par la porte de la sortie J'ai d'plus en plus mal à la tête, j'suis d'moins en moins mal à l'aise après un un je t'aime Ou un moi aussi, donc merci pour la survie, merci pour les cicatrices, les cicatrices et les chaînes Quand on pensait qu'être seulement soi-même pourrait jamais suffire Ça suffit Sale Ouais, ouais, ouais, ouais, ouais, ouais, ouais Hey, j'veux quitter ma banlieue, j'veux quitter ma colline, ouais J'veux quitter ma banlieue, j'veux quitter ma colline, voir le papel tripler de volume à la virgule près comme si j'étais Roni' Faire semblant, dire que l'dribble était voulu Fuis jamais tes doutes, ils vont finir par t'follow Acouphènes, c'est cause de la sono', bientôt les certifs' dans mon portfolio Le keuf a mal vérif' et il repart solo J'travaille bien trop, j'ai mal en bas d'la colonne Bon vivant, j'ai jamais su être économe On pleure jamais, on tise comme des bonhommes, des flashs rouges et blancs comme le drapeau d'la Pologne Si demain cette life m'agrippe avec un lasso et qu'elle m'emmène très, très, très loin d'la maison J'me dis qu'y aura toujours un hall pour un dealer, un toit pour un rêveur, une branche pour un oiseau Let's go, yeah Ma chérie, j'te dis pas si tu pars demain, ça m'f'ra l'effet qu'peut faire un bombardement J's'rai sûrement là-bas quelque part plus loin Seul sous rhum au degré d'mon département J'f'rai des tours dans mon quartier embrumé en m'demandant qui va rev'nir en premier J'suis fait d'gaz, d'azote et de flammes, t'approche pas trop, tu vas finir par t'brûler Premier en sport et en chant, dernier en maths et en meufs Ouais, en maths et en meufs On va pas s'pointer en teuf, on va pas s'pointer en teuf' Nan, nan, non, non Premier en sport et en chant, dernier en maths et en meufs Lets'go, en maths et en meufs On va s'préparer au show, on va pas s'pointer en teuf' Ouais, let's go Premier en sport et en chant Hein, dernier en maths et en meufs Ouais, en maths et en meufs On va s'préparer au show, on va pas s'pointer en teuf' Premier en sport et en chant, dernier en maths et en meufs Ouais, let's go On va s'préparer au show, on va pas s'pointer en teuf' Gang gang gang Yeah, let's go C'est mon retour ou c'est un vrai murder Gra-gra, boum, toi t'es un fou là Si j'disparais c'est que pour la moula J'suis fort partout, j'suis paré pour le goulag Toi t'es die, j'sais qu'tu parles sur nous Ta feu-meu en boîte casse les genoux J'ai l'sourire, mais j'reste pirate aguerri Money bag rempli, j'suis comme un guerrier Je guéris quand je crée, j'veux shiner, égérie, en secret, veux whiner J'suis dans l'thème, j'suis dans mon L.C.G Rue Faidherbe dans un gros SUV Qu'est-ce tu veux ? En vrai j'ai pas d'D.A J'me fais kiffer, j'me fais gonfler les bras Let's go, hein, j'me fais kiffer, j'me fais gonfler les bras C'est un goofy lui, il croit que j'me suis du-per J'suis resté l'même, toutes les places, je récupère Demande à 2C, mama elle doit manger Berline chargée tu ressens le Té-ma mes soldats, ils ressortent des tranchées J'sais être méchant, j'vais pas t'arranger Audio dope, on vend tout dans des sachets Prends ta cop' sinon elle va s'faire, hein Jusqu'à Mehringdamm on m'appelle Big Man J'ai la te-tê solide, ouais, c'est du titane J'suis dans les carotides, j'suis plus amateur Bou-bou-bou, hein Jusqu'à Mehringdamm, on m'appelle Big Man J'ai la te-tê solide, ouais, c'est du titane J'suis dans les carotides, j'suis plus amateur J'me sens comme comme un grand scammeur Wesh les cas social, la madame a dit qu'on n'était pas normal J'viens d'là où on sait pas quoi mettre sur l'devant des cartes postales Let's go Pour ta maman, j'suis adorable, pour ta cousine, j'suis abordable Pour mes p'tits frères, j'suis un moyen d'se faire inviter au McDonald's On a poncé les Aldi, les parkings, roulé des palmiers sur l'palier jusqu'à c'que la voisine sonne À part Zidane et papi, j'ai pas d'idole, la symphonie du taxi phone Y a les condés rue Ratisbonne en train d'batifoler comme à Washington Foutus descendants d'Wisigoths, sur la chatte à leur grand-mère la bourguignonne, yeah, yeah Thon Hannibal dans l'pain bagnat, supplément ufs durs, mayonnaise Ton cousin t'ramène des Total quatre-vingt cinq sans virgule quand il revient du bled yeah, yeah J'm'en bats les couilles d'percer, si j'peux pas fumer des joints dans l'hôtel J'rappe avec des lames dans la gorge, des nuds dans l'cur, elle m'demande si j'suis vraiment honnête, ah ouais Ouais, ouais, ouais et t'as cru qu'j'allais pas percer J'me sens comme Zinédine avant l'corner, comme Naps avant l'été, ouais Ouais, ouais, ouais et t'as cru qu'j'allais pas percer J'me sens comme Zinédine avant l'corner, comme Naps avant l'été Yeah, yeah, hey, Grünt 59 Jeune B, j'vais les mettre à l'amende Jeune B, j'vais les mettre à l'amende Jeune B, j'vais les mettre à l'amende Dans deux, trois piges j'ai plus d'prêt à la banque J'suis un mec discret, tu peux t'mettre à la mode Tu peux p't-être me voir si tu guettes par la fente, ouais Je reste le même donc sois pas surpris si tu m'pètes à l'alim' J'ai des frères muslims d'autres qui fêtent pas l'Aïd Mais on marche ensemble sur n'importe quelle pente Mauvais cocktail, ébullition, ils bandent sur les flows qu'nous utilisons J'ai caché des pièges dans les buissons Plus ils sont nombreux, plus ils s'sentent puissants Ils ont finis à dix dans un puit sombre Jamais d'ma vie j'fais machine arrière Même amputé j'enjambe les barrières Ils comptent les streams on compte les carrières On brise des chaines ils brisent des lanières Roubaix c'est pas la Villa Cavrois On va monter dans les tours même moteur à froid On a bien trop smoké, donc on pilote à trois Les années d'vie s'perdent, mais le talent s'accroît Let's go, le talent s'accroît Quelques leçons de vie que j'ai tendance à croire, mais j'ai vu mon frère se tuer tout en tenant sa croix Roule à fond dans un bolide noir, foire J'sais qu'là haut y a du cash à s'faire, mais pour l'instant j'suis qué-blo les pieds sur Terre Pas besoin d'grand chose, tout c'que j'ai, j'le donne La vie c'est pas tout rose, c'est grave monotone J'raconte moi, tout c'que j'vis J'invente pas, j'aime pas vos vices, yeah Lunettes de vitesse, j'dis Merci Gwam C'est marrant, t'es pas pareil qu'sur Instagram Salope fait l'grand écart la nuit en club Tu peux louer sa pussy pour deux, trois teufs Let's go J'dis non merci à toutes ces clavs J'ai besoin de qui colle aux oigts-d J'compte plus les balafres, mes gars ont soif J'm'enfume toute la night, j'attends qu'on s'taille Gros gamos, gros bad trip Tellement ça va à fond, t'en perds tes tripes J'sais qu'un jour on f'ra tous le vide J'ai des plavons qui m'feraient tenir dix vies C'est encore moi enfoiré, let's go Dans mon 5.9, mes reu-frés ils sont parés Quand j'rappe sur toute la France, c'est comme si y pleuvait J'ai grandi en rêvant d'la voisine, d'la dame de la cantine, en ayant toujours peur des quantités J'rappe parce que si j'rappe pas, j'me sens vidé J'fais comme les yeux d'mon père, j'mets d'l'intensité En un je t'aime, j'fais un couplet Trous d'boulettes de buf d'Lidl surgelées En un j't'aime plus, j'fais un putain d'projet Sponsorisé par l'époque des gouttes sur l'nez, yeah Let's go Évidemment quand un frérot s'détériore comme une autoroute, ça m'soûle J'rappe comme si j'épouse la foudre Ils bougent les bras pour rien comme les nunchakus On a fait d'la route, mon cur fait la boussole Jamais d'la vie j'dis j'me suis fait tout seul Jeune B.E, S-to, big BEN, y a trop d'klaxons pour entendre le chant des sirènes La vie, ça va super vite, j'récupère, j'investis l'bif J'laisse tes rappeurs dépenser la moitié d'leur avance en Uber Eats À force qu'on m'crie d'ssus, j'avais plus d'estime Là on va péter, y a plus d'esquive Viens on regarde la taille de tes glaouis, poto, quand y a plus les streams De un, baise le monde, baise les keufs, baise ces grosses têtes à claque qui parlent trop pour rien Les profiteurs, les critiqueurs, les gens trop lisses, tu sais ceux qui trouvent toujours tout bien Chaque matin j'ai tête de mort, café, moins quatre dehors, douche froide, chez nous on prend pas d'bain Baise le monde, baise les keufs, si tu veux qu'j'te l'dise de plus près, bah, viens Let's go Ouais, ouais Tu m'fais la hess, mais j't'ai vu hier au club dépenser trois fois la paye de ma daronne Hein On t'a cramé, ici on a l'il de la Lune, de Madara Uchiwa J'voulais un feat, avant qu'je monte ça m'répondait mandarin ou chinois Ils sont , j'me suis promis d'jamais r'produire ce schéma J'suis un gars peace, tu fais l'fou, j'peux t'faire une Fukushima Fils de p' En vrai je sais bien qu'j'suis un haineux, c'est pas moi, c'est B.E Dans la tête j'ai des nuds, mon but c'est d'le faire même de faire mieux J'ai grandi à Roubaix, j'suis pas fils de fermier, les briques rouges, la déprime hivernale, des nuisances infernales On va peu vers Lille, on traine qu'entre vermines Les sols sont trop glissants, dites-moi qui les vernit ? Let's go Sto, sto, sto Grünt 59, c'est grâce à vous hein, yeah Let's go J'ai un problème avec vos mans, danger j'vois plus les pictogrammes 2.4.2 jamais on rétrograde on capte des schlags, et des dobermans Mitsubishi, Arlequin, I like, j'ai pas l'permis, my wife elle drive J'suis une galère, tellement je smoke de ma bouche sort que du feu, j'me sens comme Smaug, hein Woa, woa, woa, c'est pas ici le paradise J'me sens comme Gucci en 2012, demande à 2C Ensemble 2008 assorti, bre-som comme une histoire sordide J'viens tout graille comme en tyrannie, pas d'parrainage, pas d'pyramide À ma table que les Avengers d'la u-re Wake up, j'ai trop serré la ceinture J'suis avec Bekar et BEN en direct d'Roubaix, big up à Hem' aussi On est tous unis, 5.9 sur les bras, j'vous oublie as-p J'prends des prods, c'est même plus d'la trap Mais j'reste un pirate, un putain d'crack Sale, sale Big up à Hem', big up à Fives J'habite là-bas hein, big up à tout l'monde On part aux states là En mode West Coast, il m'faut des grosses caisses, des pesos Let's go, yeah J'ai un problème avec ces bitchs qui font que d'parler sur les réseaux Ouais, ouais, hey En mode West Coast Il m'faut des grosses caisses, des pesos Et qu'tu m'demandes combien ma veste coûte Elle a des grosses fesses Et vu comme elle cause J'aurais pu lui faire treize gosses sur du gospel Jeune B.E, guess who's back Démarre la caisse on s'barre On a la carrosserie qui brille, les carreaux sont teintés Tu cries si j't'annonce un prix Lunettes violettes à la Vice City Vice City, hein Et pour les papiers, frère, on falsifie Yeah Professionnel comme Mission accomplie comme Carl C.J Moi j'suis plus Kendal que Jenner Kylie J'vis loin des cains-ri Mais j'allume leur Cali' Et plus j'suis high, plus j'fume leur Cali' C'est pas l'même calibre qu'à Lille J'ai un problème avec ces bitchs qui font que parler sur les réseaux J'ai un problème avec ces riches qui font que d'bander sur la ne-zo Ils prennent leur truc par voie nasale, ça m'dégoute tous ces shlags J'faisais mon biff près de la salle, puis j'partais recharger le bag J'ai brisé trente-six curs, nos sides c'est pour les miens C'fils de pute on lui baise sa sur si il nous sert pas la main J'suis dans un Motorsport rouge carmin Hoodie Lanvin taché d'blood, hein, j'veux faire fois vingt Tu sors un blicky dans tes sons, mais derrière on sait qu'tout est faux Jeune rêveur veut que tailler, le trou noir il est dans son ventre Un p'tit couteau aiguisé, tekpak il est matrixé Pyramide de Gizeh ou Dubaï, il voit plus c'qui rentre J'écoute pas les gens qui cé-su, j'écoute les gens qui sécurisent J'découpe la beuh rien qu'ça, pour un peu d'guap mes gars s'isolent Moi j'veux vire de la sorte, qu'on leak à mort Il m'faut dix fois l'salaire d'un avocat, j'mets plein phare comme si j'transportais d'la coca, yeah J'suis bien concentré, bien, bien, trop Une dernière taffe avant l'métro, j'me dis qu'ça va aller En c'moment j'me remets en cause tous les matins J'serais nulle part sans mes proches, sans mes copains Y en a qui m'ont ralenti, j'peux pas leur en vouloir Un pote qui change, ça fait l'effet d'un miroir J'veux plus jamais dire trop tard, j'suis accroché au trottoir J'écoutais pas en français, j'écoutais que en histoire En histoire Du coup, j'fais que des fautes partout, mais j'écris mieux qu'les mecs qu'on devait lire en cours Avec ma mère aux courses, j'sors la CB à la caisse, elle me dit range ta merde, t'es pas Drake et on n'est pas aux States J'sens qu'j'ai grandi, j'mets d'l'oseille dans l'horodateur J'conduis voie d'droite à cent dix sous régulateur Ça zehef les commentateurs comme les j'suis un artiste, j'suis pas juste un rappeur Oui, hé oui hé oui, hé oui Quel bon moment, yeah, c'est magnifique Merci à tous les beatmakers pour les instrus, Lucci', Low, tout l'monde Pour tous les gens qui ont une passion, croyez en vos rêves les frères Let's go, yeah Nan j'fais pas d'golf à Morfontaine, tu sais la fame c'est éphémère Rap jeu c'est une femme fontaine donc quand j'la baise, je persévère C'est comme une fable de La Fontaine, quand j'rappe y a double sens Sur la mélo' mes gars ils dansent, mais dans mes mots j'aime quand ça tranche Les faux frères j'les comptabilise, faut l'compte à Billy Anthracite sera ma 'ghini, j'touche du bois j'suis pas ébéniste Hein, Henni, Henni, glou-glou-glou, chacun ses vices Dans cette shit on en a mis des sous, non personne a fait d's... J'suis posé vers l'Mont des Cats, j'ai fait un p'tit tour de bécane J'pense à la vie, à ses mécaniques, au truc qui t'sert les canines Cur en céramique, la tête en acier trempé Sur l'drapeau c'est TTP d'puis l'époque de DDP Cartable Poivre et Sel, j'avais d'jà le mindset, on graillait à sept Quand Heenok parlait d'la cassette, j'ai compris la recette Cooking ce top dans le dio-stu, on a plus les bouches cousues Nous parler d'D.A, comment oses-tu alors qu't'achètes des vues ? Époque révolue, que ça transac' sur Revolut Les banquiers comprennent pas qu'avec ça, bah ma vie j'vais la sécur' J'connais mieux mes textes que mon numéro d'Sécu' Viens pas m'parler de mon vécu, il faut qu'sur mon dos ça spécule, hein Les requins nagent, dans l'grand bain, je tape une brasse Et j'mets un peu d'espoir dans cette dernière phrase, yeah Faut croire en ses rêves, se r'garder dans les eyes, yeah Pourquoi j'suis ici, pourquoi toi tu l'serais as-p ? C'est plus dur de tirer un trait que d'marquer un point Plus dur d'ouvrir un CapriSun que d'rouler un joint J'représente mon coin comme Steven Gerrard J'viens d'la belle ville de Tourcoing comme c't'idiot d'Gérald Personne n'aime les pointeurs Y'en a plein dans l'bus, dans l'train, dans les bureaux du 20h Mais personne n'aime les pointeurs Dans les commentaires sur Insta et Twitter, ils font des stats' de rappeurs mais t'inquiète Personne n'aime les pointeurs Fuck PPDA tous les jours Siffler une meuf c'est une preuve que t'es une merde, c'est pas une preuve d'amour V'nez on leur montre c'est qui les idiots P'tit frère à l'ombre pour trois grammes pendant qu'Norman fait des vidéos Gros joint sur les plages du débarquement T'es belle mais j'peux pas t'aimer plus que mon département ou peut-être autrement Mais j'attendrai d'avoir digéré plus de chose, là, ton regard me manque Là y a mon grand-père à la maison, il m'dit j'sais qu'j'suis vieux, qu'j'perds la raison J'lui dit j'prépare une Grünt 59, pour la région Il m'a dit j'suis fier de vous, les yeux rouges comme l'horizon J'vis pour ces moments là J'suis sur scène, j'fais moins d'fuck que d'curs avec les doigts Ça veut dire que ça va Ça veut dire Ça veut dire que ça va Hey On voulait voir de beaux décors, on a vu qu'passer qu'des corbeaux R.B.X mon territoire, à notre histoire vont-ils y croire ? Prie pour qu'demain soit beau, qu'après d'main soit encore beau Parce que c'est rare que les choses durent, ça s'effrite comme sous les chaussures J'ai fait l'deuil, papa heureux j'vais jamais l'voir Et mon pote non plus d'ailleurs, parce que cette life l'a mis ailleurs dans un monde où je n'peux y aller J'maudis la drogue qui l'a détruit et la corde qui l'a libéré J'pense à lui des fois le soir, quand j'me retrouve seul à errer J'suis pas sûr d'finir au Valhalla J'suis l'portrait d'mon père, ah la la Ça crache comme des lamas, ça sent l'fumier jusqu'à là-bas Entre ceux qui nous salissent et qui d'vant nous salivent, j'en ai ras-la-casquette Envie d'faire mes valises et d'voir Bali ou Malaga Crache sur un frère et j'le défends comme Alaba méfiant comme à la barre ou à minuit trente à la gare Envie d'visiter l'monde, rejoindre mon berceau à Barcelona Si l'or ça nous sépare, l'art ça nous lie, nique Ardisson, nique Hanouna, ouais J'crois qu'j'ai grandi, j'commence à vouloir faire du bif', ouais À prendre des décisions, à plus choisir au pif, eh Mais les contrats ça reste du hiéroglyphe Sous vos jolis gants noirs, j'ai su flairer vos griffes J'grandi, j'ai la barbe qui pousse, conscient qu'on s'éparpille tous J'vois des p'tits, sur la barre, qui poussent et des anciens au bar qui toussent J'connais toutes mes peurs, même les plus profondes On n'est jamais trop instruit, on n'est jamais trop con, yeah Yeah, yeah, yeah Jeune B.E, S-to, hein, BEN plg</t>
+          <t>Mets d'la couleur dans le mélange, dans nos curs, y a d'la place comme sur le gros front d'Aubameyang Moi j'mets d'la couleur dans nos têtes, y a rien qui bouge comme le vieux en bas qui fait des signes à sa f'nêtre Wesh alors la mif', c'est comment ? Les potes, les parents, la vie les brise en deux comme une vitre, une puce Lebara J'ai la dalle plus le talent, faut qu'je brill plus que la lampe, que ms frères puissent voir Saint-Tropez, Monaco plus les calanques Quand y a les flics ont fait des ouais ouais ouais, caillou à côté du Samsung en cas d'gyrophares d'puis la M.J.C Juste à la voix, tu sais qui c'est, couteau rouillé, flow aiguisé sa mère Joues salées, salées comme la Mer du Nord, on t'retourne comme la terre Il roule un bédo plus fort qu'lui, elle pousse une poussette plus grande qu'elle Il sait déjà faire des collages, elle veut d'jà faire du collagène P'tit cur en sucre dirait ma mère, faut juste leur dire qu'ils sont gentils, faut juste leur dire qu'on les aime Ouais, ouais C'est noir dehors, ça l'est pas moins dedans, cousin Y a qu'dans l'viano qu'c'est jamais moi devant, bah ouais J'peux rouler l'teh même si y a plein de vent autour Gros, la police n'empêche pas de vendre Les gamos n'arrêtent pas de chanter Et les shlagoss prennent du crackos sous une barre de chantier Super actif j'laisse rien au pif, j'suis l'opposé d'ton collectif J'arrive dans c'truc tout beau tout frais comme quand l'daron m'coupait les tifs, bah ouais Pas sûr que l'rap me rendra millionnaire J'arrive en mode F.A.B.E, en mode visionnaire J'les baise en missionnaire, en leu-leu Jeune B.E, l'élu, j'mets quatre lu'-lu' dans l'match Et puis j'me casse, comme si j'démissionnais, ouais On t'allume comme ce blunt plein de puff Tu t'fais sauter comme le Grünt 59, ouais Sacrée vie donc forcément qu'on a des sacrées failles Ça fume des oins-j avant et après l'five Yeah, hein Stonar pour les intimes, j'viens du clash à la base J'voyais tout rouge, on a mis un peu d'couleur dans nos lifes Nan, on a consommé la kush Fume à fond, bois beaucoup Très tôt j'ai su compter les erreurs, les main sales Maint'nant faut pas qu'j'me rate comme Trezeguet Sur la prod' du rodéo, drift, musique, mais j'aime bien tout Me mets pas dans une case, allez fuck, j'irai pas chez vous Té-ma j'suis entouré d'lyricistes, que fais-je donc ici ? Grünt 59, ouais, c'est bien trop gore, j'réouvre des cicatrices, hein P'tit remix pour le mob, c'est pour mes centipèdes, yeah J'ai mille façon d'leur dire nique ta mère, d'leur dire qu'j'suis le best Tu vas rester cinq minutes ici, après tu vas next Putain, yeah, après il va next Nous on se doit d'envoyer la dope, même si j'ai mon tel devant les yeux Salomons aux pieds pour run les cops Salomons aux pieds, même dans le pieux J'en place une pour Marlo, S.R.2.E, K.O.N.G.A, Sima, les feux Ceux qui se lèvent tôt, ceux qui baissent pas les bras, yeah Hey, hey, Jeune B, on y va, ouais ouais, ouais À deux sur un scoot délabré, autour ça sent la brique, ça fume, ça file après Tous ces chiffres ça fout la press' Un frère au sol entouré à la craie J'regarde dans l'flou, j'y pense après J'y pense après, on portait pas d'Superdry Par contre j'fume du super dry T.N.F, que la famille, compte pas sur moi si t'espères graille J'connais des fauteurs de trouble, j'connais des fouteurs de trouille J'connais des footeux, des fougueux, sur la table des poseurs de couilles J'connais des sauveurs de coups, des smokeurs troueurs de coussins Il paraît qu'Marylin Manson il mange des poussins J'rallume un J', j'rallume un coupe-faim J'nage en eaux troubles, j'évite les oursins Putain, plus de zéros sur l'contrat qu'sur le bulletin Mais pourtant, elle m'disait fous l'camp Tout près du radiateur, j'bavardais tout l'temps J'pas peur de vous, j'ai peur du changement J'avais pas peur du gen', -gen', j'connaissais la valeur du -gent, -gent Big up à Jeanjean, big-up à Grünt Un p'tit bout d'shit, un p'tit peu d'funk Casquette croco sur la coupe à Trunk Et j'pense aux frères, à six dans vingt mètres carrés Là ou t'aurais même pas su t'garer, on leur demande de vivre T'en parles mal une fois qu'c'est plus ta feu-meu, c'est facile Tu veux m'faire croire qu'ta nouvelle pute le fait mieux, j'suis pas sûr Pour en être là, j'ai try-hard, comme devant les porcs j'ai fort cavalé Concurrence préfère avaler l'chibre de l'industrie Merci à Flav' et Raf', le haut du panier D'avoir su qu'j'allais faire l'or, quand j'avais qu'la ferraille C'tait pas gagné, dans les poches j'crois qu'j'avais deux balles à peine Main dans l'froc sur mon canapé, cette vie là n'pouvait pas m'aller À notre place, qu'est'ce t'aurais fait, à part te plaindre comme beaucoup d'autres ? Attendre que quelqu'chose vienne à toi, qu'ça tombe du ciel comme des gouttes d'eau Mon épaule est un perchoir pour le p'tit ange qui veille sur moi J'sais qu'il prendra l'relais si j'foire Jeune B, Sto, Ben, Grünt 59, Ouais ouais ouais tu connais déjà On y va, on y va, yeah, hein Let's go, S.T.O, S.T.O, S.T.O, S.T.O, 5.9, T.N.F, L.C.G, Brotherhood jusqu'à l'infini, tu connais déjà, yeah On y va, yeah Ensemble finessementality, j'suis ambidextre, j'sais bien rer-ti J'fais tout pour le clan, comme Yung Simmie Mitsubishi AR Breda Sushi, cerveau mé-cra, tout est pollué, c'est Jakarta 5.9 endetté, dans les tatams Faut dix SUV couleur magenta Dans le game sans didacticiel Là-celle, elle croit c'est facile d'faire c'qu'on fait Sur la scène on manque d'oxygène, no-sleep j'ai coupé les deux bras d'Morphée Pas de bullet-proof, j'suis un one, j'les tape Entouré d'loups, marche comme dans les steppes J'sais y en a qui soufflent devant leurs stats Ils font grave pitié, en vrai c'est que d'la flemme On se prolifère comme un virus, hein, ça vient du Nord force à mes dogs J'roule un cône de plus sous l'abribus, j'suis à P.D.V, je vois que la mort C'est qu'des crackheads tes rappeurs, c'est au-ch Fini d'l'époque d'la lame sur le réchaud Les petits ont trois couteaux de poche T'inquiète qu'ils veulent pas rayer ta Porsche Les mutants on s'en rapproche, pour pouvoir cash les lunettes de Scott Summer Ma gueule j'ai plus peur, à 2.5 sur l'A7 dans un Hummer, vroum J'aime quand ça fait boum boum boum, huit-cent-huit malveillance au max J'suis en légende comme MF DOOM, mais j'aime pas trop les gens qui portent des masques Yeah, hein, let's go 2.4.2 sur la voie d'gauche à fond Drift musique, tous les murs y s'effondrent J'mélange tous les styles, nan j'mélange pas le fond Yeah, hein, let's go Dans un gros bolide y a qu'une seule direction Toujours tout droit c'était la prédiction Gros joint sur l'accoudoir j'fais des additions Cinq plus neuf, hein hein, non c'est pas une fiction, let's go Cinq plus neuf, non c'est pas une fiction, let's go Ok, ok, ok Grünt 59, faut qu'j'm'implique un peu Si tu m'avais dit ça y a cinq ans, j'y aurais pas cru Maint'nant ça m'fait ça, dès qu'j'commence un truc, t'imagines le trac, nique sa mère Ils m'ont dit t'es nul, j'ai quand même eu l'bac, nique sa mère J'ai même eu confiance en moi, t'imagines le bail J'ferme les yeux, la prod' démarre, j'imagine le sale Cabas Lidl cartonné, j'sors, j'sécurise le sac, lol Mon C.D à la Fnac, mes paroles à la fac', ma p'tite gueule à la CAF J'écoute des instrus, j'passe la serpillère Nos pères ont des yeux d'lynx, des doigts d'faits divers J'ai grandi avec des militaires, des bruits d'bouteilles de Jupiler Odeur d'clope et score de foot au Minitel, sur l'pallier beaucoup d'poussière Et des courriers du ministère, ces nouvelles qui rallongent l'hiver, le passé t'rattrape toujours Ça marche qu'un temps d'inventer une mauvaise adresse dans l'Finistère J'sens la sueur faire bouger mes molécules On a pris du r'cul, on va prendre les thunes, d'ceux qu'y ont pas payé les grandes études J'parle à la Lune, à un mur, les menaces brisent pas les armures Mais les larmes, elles si, on va tout niquer même si, yeah, yeah Époque Inter Milan Pirelli, on pensait qu't'étais pas toi-même quand t'avais pas ton pire ennemi J'voulais être Peter Parker, nos mères méritent des champs d'fleurs et d'la présence, pour ça qu'on pleure tous à l'adolescence J'ai tout crié, pour jamais oublier mes peines Tatoue le toi, pour jamais oublier qu't'es belle T'endors pas trop, pour pas tout oublier tes rêves Ça y est, c'est bon, là tu peux oublier les règles Cendrillon s'est niquée les veines, Batman s'est niqué les vertèbres À la chaîne au 3.8 Tintin rigole comme une hyène rue des Orfèvres au trente-six J'sais pas si j'm'abîme ou j'grandis, j'sais pas si j'pars ou j'm'enfuis J'arrive plus à dire tant pis, mais tant pis C'est l'chant des normaux et des non-dits, l'bonheur est libre en condi' Vu qu'les vampires ont pas compris qu'on est rentrés par la f'nêtre et par la porte de la sortie J'ai d'plus en plus mal à la tête, j'suis d'moins en moins mal à l'aise après un un je t'aime Ou un moi aussi, donc merci pour la survie, merci pour les cicatrices, les cicatrices et les chaînes Quand on pensait qu'être seulement soi-même pourrait jamais suffire Ça suffit Sale Ouais, ouais, ouais, ouais, ouais, ouais, ouais Hey, j'veux quitter ma banlieue, j'veux quitter ma colline, ouais J'veux quitter ma banlieue, j'veux quitter ma colline, voir le papel tripler de volume à la virgule près comme si j'étais Roni' Faire semblant, dire que l'dribble était voulu Fuis jamais tes doutes, ils vont finir par t'follow Acouphènes, c'est cause de la sono', bientôt les certifs' dans mon portfolio Le keuf a mal vérif' et il repart solo J'travaille bien trop, j'ai mal en bas d'la colonne Bon vivant, j'ai jamais su être économe On pleure jamais, on tise comme des bonhommes, des flashs rouges et blancs comme le drapeau d'la Pologne Si demain cette life m'agrippe avec un lasso et qu'elle m'emmène très, très, très loin d'la maison J'me dis qu'y aura toujours un hall pour un dealer, un toit pour un rêveur, une branche pour un oiseau Let's go, yeah Ma chérie, j'te dis pas si tu pars demain, ça m'f'ra l'effet qu'peut faire un bombardement J's'rai sûrement là-bas quelque part plus loin Seul sous rhum au degré d'mon département J'f'rai des tours dans mon quartier embrumé en m'demandant qui va rev'nir en premier J'suis fait d'gaz, d'azote et de flammes, t'approche pas trop, tu vas finir par t'brûler Premier en sport et en chant, dernier en maths et en meufs Ouais, en maths et en meufs On va pas s'pointer en teuf, on va pas s'pointer en teuf' Nan, nan, non, non Premier en sport et en chant, dernier en maths et en meufs Lets'go, en maths et en meufs On va s'préparer au show, on va pas s'pointer en teuf' Ouais, let's go Premier en sport et en chant Hein, dernier en maths et en meufs Ouais, en maths et en meufs On va s'préparer au show, on va pas s'pointer en teuf' Premier en sport et en chant, dernier en maths et en meufs Ouais, let's go On va s'préparer au show, on va pas s'pointer en teuf' Gang gang gang Yeah, let's go C'est mon retour ou c'est un vrai murder Gra-gra, boum, toi t'es un fou là Si j'disparais c'est que pour la moula J'suis fort partout, j'suis paré pour le goulag Toi t'es die, j'sais qu'tu parles sur nous Ta feu-meu en boîte casse les genoux J'ai l'sourire, mais j'reste pirate aguerri Money bag rempli, j'suis comme un guerrier Je guéris quand je crée, j'veux shiner, égérie, en secret, veux whiner J'suis dans l'thème, j'suis dans mon L.C.G Rue Faidherbe dans un gros SUV Qu'est-ce tu veux ? En vrai j'ai pas d'D.A J'me fais kiffer, j'me fais gonfler les bras Let's go, hein, j'me fais kiffer, j'me fais gonfler les bras C'est un goofy lui, il croit que j'me suis du-per J'suis resté l'même, toutes les places, je récupère Demande à 2C, mama elle doit manger Berline chargée tu ressens le Té-ma mes soldats, ils ressortent des tranchées J'sais être méchant, j'vais pas t'arranger Audio dope, on vend tout dans des sachets Prends ta cop' sinon elle va s'faire, hein Jusqu'à Mehringdamm on m'appelle Big Man J'ai la te-tê solide, ouais, c'est du titane J'suis dans les carotides, j'suis plus amateur Bou-bou-bou, hein Jusqu'à Mehringdamm, on m'appelle Big Man J'ai la te-tê solide, ouais, c'est du titane J'suis dans les carotides, j'suis plus amateur J'me sens comme comme un grand scammeur Wesh les cas social, la madame a dit qu'on n'était pas normal J'viens d'là où on sait pas quoi mettre sur l'devant des cartes postales Let's go Pour ta maman, j'suis adorable, pour ta cousine, j'suis abordable Pour mes p'tits frères, j'suis un moyen d'se faire inviter au McDonald's On a poncé les Aldi, les parkings, roulé des palmiers sur l'palier jusqu'à c'que la voisine sonne À part Zidane et papi, j'ai pas d'idole, la symphonie du taxi phone Y a les condés rue Ratisbonne en train d'batifoler comme à Washington Foutus descendants d'Wisigoths, sur la chatte à leur grand-mère la bourguignonne, yeah, yeah Thon Hannibal dans l'pain bagnat, supplément ufs durs, mayonnaise Ton cousin t'ramène des Total quatre-vingt cinq sans virgule quand il revient du bled yeah, yeah J'm'en bats les couilles d'percer, si j'peux pas fumer des joints dans l'hôtel J'rappe avec des lames dans la gorge, des nuds dans l'cur, elle m'demande si j'suis vraiment honnête, ah ouais Ouais, ouais, ouais et t'as cru qu'j'allais pas percer J'me sens comme Zinédine avant l'corner, comme Naps avant l'été, ouais Ouais, ouais, ouais et t'as cru qu'j'allais pas percer J'me sens comme Zinédine avant l'corner, comme Naps avant l'été Yeah, yeah, hey, Grünt 59 Jeune B, j'vais les mettre à l'amende Jeune B, j'vais les mettre à l'amende Jeune B, j'vais les mettre à l'amende Dans deux, trois piges j'ai plus d'prêt à la banque J'suis un mec discret, tu peux t'mettre à la mode Tu peux p't-être me voir si tu guettes par la fente, ouais Je reste le même donc sois pas surpris si tu m'pètes à l'alim' J'ai des frères muslims d'autres qui fêtent pas l'Aïd Mais on marche ensemble sur n'importe quelle pente Mauvais cocktail, ébullition, ils bandent sur les flows qu'nous utilisons J'ai caché des pièges dans les buissons Plus ils sont nombreux, plus ils s'sentent puissants Ils ont finis à dix dans un puit sombre Jamais d'ma vie j'fais machine arrière Même amputé j'enjambe les barrières Ils comptent les streams on compte les carrières On brise des chaines ils brisent des lanières Roubaix c'est pas la Villa Cavrois On va monter dans les tours même moteur à froid On a bien trop smoké, donc on pilote à trois Les années d'vie s'perdent, mais le talent s'accroît Let's go, le talent s'accroît Quelques leçons de vie que j'ai tendance à croire, mais j'ai vu mon frère se tuer tout en tenant sa croix Roule à fond dans un bolide noir, foire J'sais qu'là haut y a du cash à s'faire, mais pour l'instant j'suis qué-blo les pieds sur Terre Pas besoin d'grand chose, tout c'que j'ai, j'le donne La vie c'est pas tout rose, c'est grave monotone J'raconte moi, tout c'que j'vis J'invente pas, j'aime pas vos vices, yeah Lunettes de vitesse, j'dis Merci Gwam C'est marrant, t'es pas pareil qu'sur Instagram Salope fait l'grand écart la nuit en club Tu peux louer sa pussy pour deux, trois teufs Let's go J'dis non merci à toutes ces clavs J'ai besoin de qui colle aux oigts-d J'compte plus les balafres, mes gars ont soif J'm'enfume toute la night, j'attends qu'on s'taille Gros gamos, gros bad trip Tellement ça va à fond, t'en perds tes tripes J'sais qu'un jour on f'ra tous le vide J'ai des plavons qui m'feraient tenir dix vies C'est encore moi enfoiré, let's go Dans mon 5.9, mes reu-frés ils sont parés Quand j'rappe sur toute la France, c'est comme si y pleuvait J'ai grandi en rêvant d'la voisine, d'la dame de la cantine, en ayant toujours peur des quantités J'rappe parce que si j'rappe pas, j'me sens vidé J'fais comme les yeux d'mon père, j'mets d'l'intensité En un je t'aime, j'fais un couplet Trous d'boulettes de buf d'Lidl surgelées En un j't'aime plus, j'fais un putain d'projet Sponsorisé par l'époque des gouttes sur l'nez, yeah Let's go Évidemment quand un frérot s'détériore comme une autoroute, ça m'soûle J'rappe comme si j'épouse la foudre Ils bougent les bras pour rien comme les nunchakus On a fait d'la route, mon cur fait la boussole Jamais d'la vie j'dis j'me suis fait tout seul Jeune B.E, S-to, big BEN, y a trop d'klaxons pour entendre le chant des sirènes La vie, ça va super vite, j'récupère, j'investis l'bif J'laisse tes rappeurs dépenser la moitié d'leur avance en Uber Eats À force qu'on m'crie d'ssus, j'avais plus d'estime Là on va péter, y a plus d'esquive Viens on regarde la taille de tes glaouis, poto, quand y a plus les streams De un, baise le monde, baise les keufs, baise ces grosses têtes à claque qui parlent trop pour rien Les profiteurs, les critiqueurs, les gens trop lisses, tu sais ceux qui trouvent toujours tout bien Chaque matin j'ai tête de mort, café, moins quatre dehors, douche froide, chez nous on prend pas d'bain Baise le monde, baise les keufs, si tu veux qu'j'te l'dise de plus près, bah, viens Let's go Ouais, ouais Tu m'fais la hess, mais j't'ai vu hier au club dépenser trois fois la paye de ma daronne Hein On t'a cramé, ici on a l'il de la Lune, de Madara Uchiwa J'voulais un feat, avant qu'je monte ça m'répondait mandarin ou chinois Ils sont , j'me suis promis d'jamais r'produire ce schéma J'suis un gars peace, tu fais l'fou, j'peux t'faire une Fukushima Fils de p' En vrai je sais bien qu'j'suis un haineux, c'est pas moi, c'est B.E Dans la tête j'ai des nuds, mon but c'est d'le faire même de faire mieux J'ai grandi à Roubaix, j'suis pas fils de fermier, les briques rouges, la déprime hivernale, des nuisances infernales On va peu vers Lille, on traine qu'entre vermines Les sols sont trop glissants, dites-moi qui les vernit ? Let's go Sto, sto, sto Grünt 59, c'est grâce à vous hein, yeah Let's go J'ai un problème avec vos mans, danger j'vois plus les pictogrammes 2.4.2 jamais on rétrograde on capte des schlags, et des dobermans Mitsubishi, Arlequin, I like, j'ai pas l'permis, my wife elle drive J'suis une galère, tellement je smoke de ma bouche sort que du feu, j'me sens comme Smaug, hein Woa, woa, woa, c'est pas ici le paradise J'me sens comme Gucci en 2012, demande à 2C Ensemble 2008 assorti, bre-som comme une histoire sordide J'viens tout graille comme en tyrannie, pas d'parrainage, pas d'pyramide À ma table que les Avengers d'la u-re Wake up, j'ai trop serré la ceinture J'suis avec Bekar et BEN en direct d'Roubaix, big up à Hem' aussi On est tous unis, 5.9 sur les bras, j'vous oublie as-p J'prends des prods, c'est même plus d'la trap Mais j'reste un pirate, un putain d'crack Sale, sale Big up à Hem', big up à Fives J'habite là-bas hein, big up à tout l'monde On part aux states là En mode West Coast, il m'faut des grosses caisses, des pesos Let's go, yeah J'ai un problème avec ces bitchs qui font que d'parler sur les réseaux Ouais, ouais, hey En mode West Coast Il m'faut des grosses caisses, des pesos Et qu'tu m'demandes combien ma veste coûte Elle a des grosses fesses Et vu comme elle cause J'aurais pu lui faire treize gosses sur du gospel Jeune B.E, guess who's back Démarre la caisse on s'barre On a la carrosserie qui brille, les carreaux sont teintés Tu cries si j't'annonce un prix Lunettes violettes à la Vice City Vice City, hein Et pour les papiers, frère, on falsifie Yeah Professionnel comme Mission accomplie comme Carl C.J Moi j'suis plus Kendal que Jenner Kylie J'vis loin des cains-ri Mais j'allume leur Cali' Et plus j'suis high, plus j'fume leur Cali' C'est pas l'même calibre qu'à Lille J'ai un problème avec ces bitchs qui font que parler sur les réseaux J'ai un problème avec ces riches qui font que d'bander sur la ne-zo Ils prennent leur truc par voie nasale, ça m'dégoute tous ces shlags J'faisais mon biff près de la salle, puis j'partais recharger le bag J'ai brisé trente-six curs, nos sides c'est pour les miens C'fils de pute on lui baise sa sur si il nous sert pas la main J'suis dans un Motorsport rouge carmin Hoodie Lanvin taché d'blood, hein, j'veux faire fois vingt Tu sors un blicky dans tes sons, mais derrière on sait qu'tout est faux Jeune rêveur veut que tailler, le trou noir il est dans son ventre Un p'tit couteau aiguisé, tekpak il est matrixé Pyramide de Gizeh ou Dubaï, il voit plus c'qui rentre J'écoute pas les gens qui cé-su, j'écoute les gens qui sécurisent J'découpe la beuh rien qu'ça, pour un peu d'guap mes gars s'isolent Moi j'veux vire de la sorte, qu'on leak à mort Il m'faut dix fois l'salaire d'un avocat, j'mets plein phare comme si j'transportais d'la coca, yeah J'suis bien concentré, bien, bien, trop Une dernière taffe avant l'métro, j'me dis qu'ça va aller En c'moment j'me remets en cause tous les matins J'serais nulle part sans mes proches, sans mes copains Y en a qui m'ont ralenti, j'peux pas leur en vouloir Un pote qui change, ça fait l'effet d'un miroir J'veux plus jamais dire trop tard, j'suis accroché au trottoir J'écoutais pas en français, j'écoutais que en histoire En histoire Du coup, j'fais que des fautes partout, mais j'écris mieux qu'les mecs qu'on devait lire en cours Avec ma mère aux courses, j'sors la CB à la caisse, elle me dit range ta merde, t'es pas Drake et on n'est pas aux States J'sens qu'j'ai grandi, j'mets d'l'oseille dans l'horodateur J'conduis voie d'droite à cent dix sous régulateur Ça zehef les commentateurs comme les j'suis un artiste, j'suis pas juste un rappeur Oui, hé oui hé oui, hé oui Quel bon moment, yeah, c'est magnifique Merci à tous les beatmakers pour les instrus, Lucci', Low, tout l'monde Pour tous les gens qui ont une passion, croyez en vos rêves les frères Let's go, yeah Nan j'fais pas d'golf à Morfontaine, tu sais la fame c'est éphémère Rap jeu c'est une femme fontaine donc quand j'la baise, je persévère C'est comme une fable de La Fontaine, quand j'rappe y a double sens Sur la mélo' mes gars ils dansent, mais dans mes mots j'aime quand ça tranche Les faux frères j'les comptabilise, faut l'compte à Billy Anthracite sera ma 'ghini, j'touche du bois j'suis pas ébéniste Hein, Henni, Henni, glou-glou-glou, chacun ses vices Dans cette shit on en a mis des sous, non personne a fait d's... J'suis posé vers l'Mont des Cats, j'ai fait un p'tit tour de bécane J'pense à la vie, à ses mécaniques, au truc qui t'sert les canines Cur en céramique, la tête en acier trempé Sur l'drapeau c'est TTP d'puis l'époque de DDP Cartable Poivre et Sel, j'avais d'jà le mindset, on graillait à sept Quand Heenok parlait d'la cassette, j'ai compris la recette Cooking ce top dans le dio-stu, on a plus les bouches cousues Nous parler d'D.A, comment oses-tu alors qu't'achètes des vues ? Époque révolue, que ça transac' sur Revolut Les banquiers comprennent pas qu'avec ça, bah ma vie j'vais la sécur' J'connais mieux mes textes que mon numéro d'Sécu' Viens pas m'parler de mon vécu, il faut qu'sur mon dos ça spécule, hein Les requins nagent, dans l'grand bain, je tape une brasse Et j'mets un peu d'espoir dans cette dernière phrase, yeah Faut croire en ses rêves, se r'garder dans les eyes, yeah Pourquoi j'suis ici, pourquoi toi tu l'serais as-p ? C'est plus dur de tirer un trait que d'marquer un point Plus dur d'ouvrir un CapriSun que d'rouler un joint J'représente mon coin comme Steven Gerrard J'viens d'la belle ville de Tourcoing comme c't'idiot d'Gérald Personne n'aime les pointeurs Y'en a plein dans l'bus, dans l'train, dans les bureaux du 20h Mais personne n'aime les pointeurs Dans les commentaires sur Insta et Twitter, ils font des stats' de rappeurs mais t'inquiète Personne n'aime les pointeurs Fuck PPDA tous les jours Siffler une meuf c'est une preuve que t'es une merde, c'est pas une preuve d'amour V'nez on leur montre c'est qui les idiots P'tit frère à l'ombre pour trois grammes pendant qu'Norman fait des vidéos Gros joint sur les plages du débarquement T'es belle mais j'peux pas t'aimer plus que mon département ou peut-être autrement Mais j'attendrai d'avoir digéré plus de chose, là, ton regard me manque Là y a mon grand-père à la maison, il m'dit j'sais qu'j'suis vieux, qu'j'perds la raison J'lui dit j'prépare une Grünt 59, pour la région Il m'a dit j'suis fier de vous, les yeux rouges comme l'horizon J'vis pour ces moments là J'suis sur scène, j'fais moins d'fuck que d'curs avec les doigts Ça veut dire que ça va Ça veut dire Ça veut dire que ça va Hey On voulait voir de beaux décors, on a vu qu'passer qu'des corbeaux R.B.X mon territoire, à notre histoire vont-ils y croire ? Prie pour qu'demain soit beau, qu'après d'main soit encore beau Parce que c'est rare que les choses durent, ça s'effrite comme sous les chaussures J'ai fait l'deuil, papa heureux j'vais jamais l'voir Et mon pote non plus d'ailleurs, parce que cette life l'a mis ailleurs dans un monde où je n'peux y aller J'maudis la drogue qui l'a détruit et la corde qui l'a libéré J'pense à lui des fois le soir, quand j'me retrouve seul à errer J'suis pas sûr d'finir au Valhalla J'suis l'portrait d'mon père, ah la la Ça crache comme des lamas, ça sent l'fumier jusqu'à là-bas Entre ceux qui nous salissent et qui d'vant nous salivent, j'en ai ras-la-casquette Envie d'faire mes valises et d'voir Bali ou Malaga Crache sur un frère et j'le défends comme Alaba méfiant comme à la barre ou à minuit trente à la gare Envie d'visiter l'monde, rejoindre mon berceau à Barcelona Si l'or ça nous sépare, l'art ça nous lie, nique Ardisson, nique Hanouna, ouais J'crois qu'j'ai grandi, j'commence à vouloir faire du bif', ouais À prendre des décisions, à plus choisir au pif, eh Mais les contrats ça reste du hiéroglyphe Sous vos jolis gants noirs, j'ai su flairer vos griffes J'grandi, j'ai la barbe qui pousse, conscient qu'on s'éparpille tous J'vois des p'tits, sur la barre, qui poussent et des anciens au bar qui toussent J'connais toutes mes peurs, même les plus profondes On n'est jamais trop instruit, on n'est jamais trop con, yeah Yeah, yeah, yeah Jeune B.E, S-to, hein, BEN plg</t>
         </is>
       </c>
     </row>
@@ -1005,11 +997,7 @@
           <t>Bonjour madame</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1024,7 +1012,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Et bien voilà, une bonne chose de faite ! On a prit beaucoup de plaisir ensemble Ce sont des moments qui sont chers dans une vie C'est important d'le dire quand c'est bien ! J'ai l'sentiment que nous allons nous en souvenir longtemps J'imagine que chacun ici à ses problèmes, ses doutes mais aussi ses rêves Et j'ai l'impression qu'ce soir, nos rêves et bien ils se sont croisés Ma foi Gérard, j'vais parler au nom de toutes les personnes qui vont écouter cet album et qui ont participer Merci ! Un grand et sincère Merci ! Gérard.. Voila, il est temps d'éteindre la lumière, de vous coucher et de vous souhaiter une bonne journée.You might also like</t>
+          <t>Et bien voilà, une bonne chose de faite ! On a prit beaucoup de plaisir ensemble Ce sont des moments qui sont chers dans une vie C'est important d'le dire quand c'est bien ! J'ai l'sentiment que nous allons nous en souvenir longtemps J'imagine que chacun ici à ses problèmes, ses doutes mais aussi ses rêves Et j'ai l'impression qu'ce soir, nos rêves et bien ils se sont croisés Ma foi Gérard, j'vais parler au nom de toutes les personnes qui vont écouter cet album et qui ont participer Merci ! Un grand et sincère Merci ! Gérard.. Voila, il est temps d'éteindre la lumière, de vous coucher et de vous souhaiter une bonne journée.</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1029,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bonsoir à tous, bienvenue dans ce petit espace cosy de liberté d'expression.. Expression sonore ahah ! Vous êtes sur le point d'écouter la nouvelle Slip-Tape de Gérard Baste Dans mon slip Volume 2 Installez-vous confortablement, Gérard, c'est à toi ! Devine qui revient foutre le bordel dans cette fête C'est l'retour de la belle bête, la banane comme le Velvet Essaie pas d'me rattraper, j'suis loin comme le 7-7 J'emmène tous les poivrots et les crados comme le Hellfest Fais péter le saxo, tu sais qu'faut qu'on éclate ça J'suis toujours le plus sexy, les gars m'ont dit Arrête ça! J'viens kicker mes inepties, quelques MCs vont clamser J'suis v'nu pour grailler, insulter l'monde comme Gordon Ramsey J'ai jamais battle mais tu vas t'faire body bag par le mec trop gros qui tague J'ramènerai tes restes dans un doggy bag Parfois j'ai envie d'crier à pleine gorge Vos gueules vous tous! Me regarde pas avec ces yeux d'con comme George W. Bush Viens à mes concerts pour écouler tes grammes, pour écouter les vannes J'me dégoûte moi-même, j'vais dégoûter mes fans Gros articles dans le télégramme, j'rappe et là c'est l'drame Donc joue pas, joue pas avec moi comme François Feldman Allez, tout l'monde debout ! Là bas ! Au fond ! Waouh ! Quel Plaisir ! C'est du satin dans les oreilles C'est nouveau, c'est beau, on adore ce morceau ! Et le bonheur ne vient pas seul car cette tranche de délice est à peine entamée Vous avez encore de lappétit ? Allez, hop ! Les gourmandes et les gourmands, on continue Gérard Baste, c'est quand tu veux ! You might also like Si c'est toi sur le couverture, j'lirai jamais ton livre Laisse moi m'amuser comme je veux, j'suis un electron ivre J'baise la hiérarchie mais j'kiffe les go en uniforme de flic C'est pas moi qui écrit d'la merde, c'est mon stylo ! J'fais des crottes de bique Si mon style te laisse froid comme un plat pourri Findus J'bois l'vin d'une femme fontaine quand j'paie un cubilingus Dans tout c'que j'fais le cul et la foncedé en toile de fond J'gagnerai l'concours du plus sale et ça s'joue à un poil de fion Ouais j'aime toutes les boissons tant qu'elles contiennent de l'éthanol J'bois toutes les boissons d'Europe j'suis l'obèse espagnol Des raves parties dans des hangars moi j'veux pas d'une vie standard J'm'en fout du protocole, j'te ken avant l'premier rencard La concurrence est trop jeune, je leur pisse dessus R-Kelly C'est promis jarrête l'alcool puis j'retourne vider l'bar scredi On m'a dit qu'fallait rester vrai mais bon trop d'triche J'veux devenir comme mon alimentation trop riche J'suis v'nu faire sauter quelques ratiches Éclater l'stock de préservatifs que j'ai eus gratis J'suis fort en toute modestie, tu frôles lépilepsie Va chez esthéticienne pour t'épiler l'sif J'me comporte toujours comme le ouistiti typique Avant l'concert j'm'envoie juste un p'tit whisky qui pique J'vais v'nir te faire ta fête avec mes pires souillons T'inquiète, j'ai pas un gun j'ai un tir-bouchon Baste ! Et bien, c'est vraiment pas mal tout ça.. J'pense qu'on est toutes et tous d'accord pour dire que nous avons énormément d'estime pour cet artiste qui sait nous surprendre Sur ce, j'ai eu une longue journée alors on va s'la jouer relax, un peignoir en soie, des p'tits chaussons conforts, un cigare et au lit Bonne nuit !</t>
+          <t>Bonsoir à tous, bienvenue dans ce petit espace cosy de liberté d'expression.. Expression sonore ahah ! Vous êtes sur le point d'écouter la nouvelle Slip-Tape de Gérard Baste Dans mon slip Volume 2 Installez-vous confortablement, Gérard, c'est à toi ! Devine qui revient foutre le bordel dans cette fête C'est l'retour de la belle bête, la banane comme le Velvet Essaie pas d'me rattraper, j'suis loin comme le 7-7 J'emmène tous les poivrots et les crados comme le Hellfest Fais péter le saxo, tu sais qu'faut qu'on éclate ça J'suis toujours le plus sexy, les gars m'ont dit Arrête ça! J'viens kicker mes inepties, quelques MCs vont clamser J'suis v'nu pour grailler, insulter l'monde comme Gordon Ramsey J'ai jamais battle mais tu vas t'faire body bag par le mec trop gros qui tague J'ramènerai tes restes dans un doggy bag Parfois j'ai envie d'crier à pleine gorge Vos gueules vous tous! Me regarde pas avec ces yeux d'con comme George W. Bush Viens à mes concerts pour écouler tes grammes, pour écouter les vannes J'me dégoûte moi-même, j'vais dégoûter mes fans Gros articles dans le télégramme, j'rappe et là c'est l'drame Donc joue pas, joue pas avec moi comme François Feldman Allez, tout l'monde debout ! Là bas ! Au fond ! Waouh ! Quel Plaisir ! C'est du satin dans les oreilles C'est nouveau, c'est beau, on adore ce morceau ! Et le bonheur ne vient pas seul car cette tranche de délice est à peine entamée Vous avez encore de lappétit ? Allez, hop ! Les gourmandes et les gourmands, on continue Gérard Baste, c'est quand tu veux ! Si c'est toi sur le couverture, j'lirai jamais ton livre Laisse moi m'amuser comme je veux, j'suis un electron ivre J'baise la hiérarchie mais j'kiffe les go en uniforme de flic C'est pas moi qui écrit d'la merde, c'est mon stylo ! J'fais des crottes de bique Si mon style te laisse froid comme un plat pourri Findus J'bois l'vin d'une femme fontaine quand j'paie un cubilingus Dans tout c'que j'fais le cul et la foncedé en toile de fond J'gagnerai l'concours du plus sale et ça s'joue à un poil de fion Ouais j'aime toutes les boissons tant qu'elles contiennent de l'éthanol J'bois toutes les boissons d'Europe j'suis l'obèse espagnol Des raves parties dans des hangars moi j'veux pas d'une vie standard J'm'en fout du protocole, j'te ken avant l'premier rencard La concurrence est trop jeune, je leur pisse dessus R-Kelly C'est promis jarrête l'alcool puis j'retourne vider l'bar scredi On m'a dit qu'fallait rester vrai mais bon trop d'triche J'veux devenir comme mon alimentation trop riche J'suis v'nu faire sauter quelques ratiches Éclater l'stock de préservatifs que j'ai eus gratis J'suis fort en toute modestie, tu frôles lépilepsie Va chez esthéticienne pour t'épiler l'sif J'me comporte toujours comme le ouistiti typique Avant l'concert j'm'envoie juste un p'tit whisky qui pique J'vais v'nir te faire ta fête avec mes pires souillons T'inquiète, j'ai pas un gun j'ai un tir-bouchon Baste ! Et bien, c'est vraiment pas mal tout ça.. J'pense qu'on est toutes et tous d'accord pour dire que nous avons énormément d'estime pour cet artiste qui sait nous surprendre Sur ce, j'ai eu une longue journée alors on va s'la jouer relax, un peignoir en soie, des p'tits chaussons conforts, un cigare et au lit Bonne nuit !</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1046,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Ah ! Lâchez-moi ! Dans cette camisole y fait froid Tout ça parce qu'le médecin a dit qu'j'suis bon pour l'sile-a Ah ! Lâchez-moi ! Faut que j'taille, c'est tout ! ??? Ah ! Ah ouais, cet interne antillais Me remplis de cachets, pour qu'dans ma tête tout soit parfait Content, j'aime bien les médicaments Tout est tellement plus facile maint'nant qu'j'suis bon pour l'asile J'peux aller m'pendre à l'aide du téléphone sans fil Faire un cercle avec du fil barbelé Avec danser le hula hoop tout foncedé T'façon maint'nant, j'm'en bats, j'suis gérer par ??? Ils m'ont trouvé une belle place en HP Chante le refrain, racle-toi la gorge, gueule le slogan Putain c'est pas difficile ! Puisque j'te dis qu'j'suis bon pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile You might also like x4 Bons pour l'asile, on est bons pour l'asile Bons pour l'asile, on est bons, bons, bons Aujourd'hui j'vais jouer d'la zic, j'ai un entonnoir sur la tête J'tape dans un gong, j'sors tout nu en hurlant qu'c'est la fin du monde Shoes orthopédiques style Loana, main dans la veste Napoléon ??? Ils sentent lexpérience ping-pong, Sega Un p'tit coloriage et j'bois mon quinzième déca J'ai toujours trembler comme ça, j'crois qu'c'est un problème nerveux Et j'me tape la tête contre les murs en m'demandant c'est ça qu'tu veux? C'est pas d'ma faute, ça tourne en boucle dans mon crâne Et ça m'dit bois c'verre ! C'est Serge Gainsbourg qui t'parle Alors j'me mets à rêver à tout c'que j'aimerai bien faire Et que j'ferai sans doute jamais vu qu'ce s'rait trop suicidaire Comme renverser du pinard, l'ramasser à l'éponge et l'boire Croquer un quart d'boudin et être incapable de ler-par Bouffer des p'tites graines noires et flipper quand arrive le cas D'handicapés physiques et mentaux sorti d'tes pires cauchemars! Chuter d'vingt mètres dans les cata' et rester bloquer dans l'noir Pendant qu'ta meuf cherche la sortie et la trouve deux jours plus tard Faire une crise de tétanie parce que t'es alcoolique, spasmophile Elles m'sont d'jà toutes arrivé ces histoires débiles Désolé mais j'suis pas un cas isolé Et j'connais tout pleins d'autres potes, t'as qu'à m'isoler Bon pour l'hospice, pas 30 ans et d'jà sénile C'est pas difficile, il suffit juste dêtre bon pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile x4 Bons pour l'asile, on est bons pour l'asile Bons pour l'asile, on est bons, bons, bons Qui qu'à oublier ses médocs ? Mes parents ou mes potes ? Cette ce-fran sous cachetons, la te-hon plus teubés qu'dans l'Loft Direction la case hosto, plus parano qu'aux States Bloquer d'vant mon ordi, c'beat délectro-choc m'prend la tête J'demande le droit d'asile à moins qu'il m'mène droit au zoo Surtout quand j'sors d'une after où j'ai fait tout pleins promos Perdu toutes mes affaires, trou noir gros comme un cratère Perte de mémoire, c'est c'que mes potes veulent me faire croire Ils m'disent qu'j'ai chanter dans c'bar hier soir Qu'j'ai fini mon sky dans lécuelle du clébard Manger mon tartare à la paille, fait des cascades sur l'trottoir et crier maman! En pleine descente de champlards J'mérite pas ma gueule de mongole en tête de gondole Mais j't'explique bonhomme, v'là l'curriculum Sans déconner quand j'pense à tout c'que j'ai fait d'inutile pour être c'que j'suis d'puis qu'j'suis né J'me dis qu'j'suis vraiment bon pour l'asile x4 Bons pour l'asile, on est bons pour l'asile Bons pour l'asile, on est bons, bons, bons</t>
+          <t>Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Ah ! Lâchez-moi ! Dans cette camisole y fait froid Tout ça parce qu'le médecin a dit qu'j'suis bon pour l'sile-a Ah ! Lâchez-moi ! Faut que j'taille, c'est tout ! ??? Ah ! Ah ouais, cet interne antillais Me remplis de cachets, pour qu'dans ma tête tout soit parfait Content, j'aime bien les médicaments Tout est tellement plus facile maint'nant qu'j'suis bon pour l'asile J'peux aller m'pendre à l'aide du téléphone sans fil Faire un cercle avec du fil barbelé Avec danser le hula hoop tout foncedé T'façon maint'nant, j'm'en bats, j'suis gérer par ??? Ils m'ont trouvé une belle place en HP Chante le refrain, racle-toi la gorge, gueule le slogan Putain c'est pas difficile ! Puisque j'te dis qu'j'suis bon pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile x4 Bons pour l'asile, on est bons pour l'asile Bons pour l'asile, on est bons, bons, bons Aujourd'hui j'vais jouer d'la zic, j'ai un entonnoir sur la tête J'tape dans un gong, j'sors tout nu en hurlant qu'c'est la fin du monde Shoes orthopédiques style Loana, main dans la veste Napoléon ??? Ils sentent lexpérience ping-pong, Sega Un p'tit coloriage et j'bois mon quinzième déca J'ai toujours trembler comme ça, j'crois qu'c'est un problème nerveux Et j'me tape la tête contre les murs en m'demandant c'est ça qu'tu veux? C'est pas d'ma faute, ça tourne en boucle dans mon crâne Et ça m'dit bois c'verre ! C'est Serge Gainsbourg qui t'parle Alors j'me mets à rêver à tout c'que j'aimerai bien faire Et que j'ferai sans doute jamais vu qu'ce s'rait trop suicidaire Comme renverser du pinard, l'ramasser à l'éponge et l'boire Croquer un quart d'boudin et être incapable de ler-par Bouffer des p'tites graines noires et flipper quand arrive le cas D'handicapés physiques et mentaux sorti d'tes pires cauchemars! Chuter d'vingt mètres dans les cata' et rester bloquer dans l'noir Pendant qu'ta meuf cherche la sortie et la trouve deux jours plus tard Faire une crise de tétanie parce que t'es alcoolique, spasmophile Elles m'sont d'jà toutes arrivé ces histoires débiles Désolé mais j'suis pas un cas isolé Et j'connais tout pleins d'autres potes, t'as qu'à m'isoler Bon pour l'hospice, pas 30 ans et d'jà sénile C'est pas difficile, il suffit juste dêtre bon pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile Bons pour l'asile, bons pour l'asile x4 Bons pour l'asile, on est bons pour l'asile Bons pour l'asile, on est bons, bons, bons Qui qu'à oublier ses médocs ? Mes parents ou mes potes ? Cette ce-fran sous cachetons, la te-hon plus teubés qu'dans l'Loft Direction la case hosto, plus parano qu'aux States Bloquer d'vant mon ordi, c'beat délectro-choc m'prend la tête J'demande le droit d'asile à moins qu'il m'mène droit au zoo Surtout quand j'sors d'une after où j'ai fait tout pleins promos Perdu toutes mes affaires, trou noir gros comme un cratère Perte de mémoire, c'est c'que mes potes veulent me faire croire Ils m'disent qu'j'ai chanter dans c'bar hier soir Qu'j'ai fini mon sky dans lécuelle du clébard Manger mon tartare à la paille, fait des cascades sur l'trottoir et crier maman! En pleine descente de champlards J'mérite pas ma gueule de mongole en tête de gondole Mais j't'explique bonhomme, v'là l'curriculum Sans déconner quand j'pense à tout c'que j'ai fait d'inutile pour être c'que j'suis d'puis qu'j'suis né J'me dis qu'j'suis vraiment bon pour l'asile x4 Bons pour l'asile, on est bons pour l'asile Bons pour l'asile, on est bons, bons, bons</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1063,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mates, quand on débarque dans cette pute on est sauvages S'ramener et pas défoncer l'truc ça s'rait dommage Farcis-toi la tête et arrête tous tes blocages J'suis là pour la fête, les pépètes et l'macrotage Sors les explosifs on est prêts pour l'sabotage Et préviens les p'tites, va y avoir du ligotage Tu peux t'planquer, trop tard pour éviter l'orage On est Born 2 be wild T'es trop bonne, j'reste extatique Tout qué-blo, tétraplégique Crise tétanique, rien qu'tu m'engraines Dans tous les sens du terme, faut qu'j'm'introduise On va y aller, bien s'dépenser, pillave, tiser, tout défoncer Oui mais tout ça avec mes gars Prédestinés mais pour quoi ? Tête de mort sur le t-shirt, ghost rider Trop d'swagger, regarde l'équipe, trop d'crackers On est même pas invités, j'ai passé l'mot sur twitter J'suis v'nu avec les potes, 4300 followers Pousse les murs de l'appart', fais d'la place, v'là Xanax et Baste Tu dis qu'c'est fat ou tu t'manges des droites Et j'trace, quand tout est vidé c'est là qu'j'dis qu'c'est bonnard J'saute du train en marche en criant Salut les connards! You might also like Mates, quand on débarque dans cette pute on est sauvages S'ramener et pas défoncer l'truc ça s'rait dommage Farcis-toi la tête et arrête tous tes blocages J'suis là pour la fête, les pépètes et l'macrotage Sors les explosifs on est prêts pour l'sabotage Et préviens les p'tites, va y avoir du ligotage Tu peux t'planquer, trop tard pour éviter l'orage On est Born 2 be wild I told you mama Yeah, it's been a long time I told you mama I'm born 2 be wild Yeah, you ask me why I do this shit along I've nothing to say but the truth I'm born 2 be wild Ne viens pas t'plaindre à moi si c'est l'bordel chez toi Les voisins à ta porte et les condés en bas Franch'ment, qu'est ce qui t'as prit !? Tous les wacks de Paris ?! Maintenant faut tirer en l'air pour m'faire partir d'ici Envoyer un mail groupé, c'était pas très malin J'suis v'nu avec mon équipe, des tatoués et des nains On boit les teilles des autres pendants qu'certains squattent la salle de bain On s'tient pas bien Tous les matins je renais d'mes cendres Et si tu bouges avec nous c'est tous les jours l'31 décembre Et tout est vrai dans chacune de mes légendes Si t'as la chatte clean pas la peine de t'épiler les jambes C'est le vroom vroom des bikers dans un nuage de fumée On embrase le ciel appelle-moi comète de Harley Arrête de parler et montre-moi ton gigotage Enlève ta culotte, laisse faire les as du pilotage Mates, quand on débarque dans cette pute on est sauvages S'ramener et pas défoncer l'truc ça s'rait dommage Farcis-toi la tête et arrête tous tes blocages J'suis là pour la fête, les pépètes et l'macrotage Sors les explosifs on est prêts pour l'sabotage Et préviens les p'tites, va y avoir du ligotage Tu peux t'planquer, trop tard pour éviter l'orage On est Born 2 be wild I told you mama Yeah, it's been a long time I told you mama I'm born 2 be wild Yeah, you ask me why I do this shit along I've nothing to say but the truth I'm born 2 be wild C'est trop tard pour pleurer L'apocalypse, tu l'as voulue Et cette putain d'grosse sono qu'tu nous à d'mandé d'ramenée Elle aussi, tu l'as voulue Maintenant maîtresse de maison et ton violon Elle n'aurait pas dû manger tous ces champignons C'est pas parce qu'elle est partie qu'j'vais pas rester là Transformer le machin en squat Berlinois Mates, quand on débarque dans cette pute on est sauvages S'ramener et pas défoncer l'truc ça s'rait dommage Farcis-toi la tête et arrête tous tes blocages J'suis là pour la fête, les pépètes et l'macrotage Sors les explosifs on est prêts pour l'sabotage Et préviens les p'tites, va y avoir du ligotage Tu peux t'planquer, trop tard pour éviter l'orage On est Born 2 be wild Oh, oh, oh, oh, oh, oh J'débarque dans cette pute, on est sauvage Oh, oh, oh, oh, oh, oh Pas défoncer l'truc, ça s'rait dommage Oh, oh, oh, oh, oh, oh On est toujours prêts pour l'sabotage Oh, oh, oh, oh, oh, oh Yeah, yeah, on est, on est Born 2 be wild Oh, oh, oh, oh, oh, oh Oh, oh, oh, oh, oh, oh Oh, oh, oh, oh, oh, oh Oh, oh, oh, oh, oh, oh</t>
+          <t>Mates, quand on débarque dans cette pute on est sauvages S'ramener et pas défoncer l'truc ça s'rait dommage Farcis-toi la tête et arrête tous tes blocages J'suis là pour la fête, les pépètes et l'macrotage Sors les explosifs on est prêts pour l'sabotage Et préviens les p'tites, va y avoir du ligotage Tu peux t'planquer, trop tard pour éviter l'orage On est Born 2 be wild T'es trop bonne, j'reste extatique Tout qué-blo, tétraplégique Crise tétanique, rien qu'tu m'engraines Dans tous les sens du terme, faut qu'j'm'introduise On va y aller, bien s'dépenser, pillave, tiser, tout défoncer Oui mais tout ça avec mes gars Prédestinés mais pour quoi ? Tête de mort sur le t-shirt, ghost rider Trop d'swagger, regarde l'équipe, trop d'crackers On est même pas invités, j'ai passé l'mot sur twitter J'suis v'nu avec les potes, 4300 followers Pousse les murs de l'appart', fais d'la place, v'là Xanax et Baste Tu dis qu'c'est fat ou tu t'manges des droites Et j'trace, quand tout est vidé c'est là qu'j'dis qu'c'est bonnard J'saute du train en marche en criant Salut les connards! Mates, quand on débarque dans cette pute on est sauvages S'ramener et pas défoncer l'truc ça s'rait dommage Farcis-toi la tête et arrête tous tes blocages J'suis là pour la fête, les pépètes et l'macrotage Sors les explosifs on est prêts pour l'sabotage Et préviens les p'tites, va y avoir du ligotage Tu peux t'planquer, trop tard pour éviter l'orage On est Born 2 be wild I told you mama Yeah, it's been a long time I told you mama I'm born 2 be wild Yeah, you ask me why I do this shit along I've nothing to say but the truth I'm born 2 be wild Ne viens pas t'plaindre à moi si c'est l'bordel chez toi Les voisins à ta porte et les condés en bas Franch'ment, qu'est ce qui t'as prit !? Tous les wacks de Paris ?! Maintenant faut tirer en l'air pour m'faire partir d'ici Envoyer un mail groupé, c'était pas très malin J'suis v'nu avec mon équipe, des tatoués et des nains On boit les teilles des autres pendants qu'certains squattent la salle de bain On s'tient pas bien Tous les matins je renais d'mes cendres Et si tu bouges avec nous c'est tous les jours l'31 décembre Et tout est vrai dans chacune de mes légendes Si t'as la chatte clean pas la peine de t'épiler les jambes C'est le vroom vroom des bikers dans un nuage de fumée On embrase le ciel appelle-moi comète de Harley Arrête de parler et montre-moi ton gigotage Enlève ta culotte, laisse faire les as du pilotage Mates, quand on débarque dans cette pute on est sauvages S'ramener et pas défoncer l'truc ça s'rait dommage Farcis-toi la tête et arrête tous tes blocages J'suis là pour la fête, les pépètes et l'macrotage Sors les explosifs on est prêts pour l'sabotage Et préviens les p'tites, va y avoir du ligotage Tu peux t'planquer, trop tard pour éviter l'orage On est Born 2 be wild I told you mama Yeah, it's been a long time I told you mama I'm born 2 be wild Yeah, you ask me why I do this shit along I've nothing to say but the truth I'm born 2 be wild C'est trop tard pour pleurer L'apocalypse, tu l'as voulue Et cette putain d'grosse sono qu'tu nous à d'mandé d'ramenée Elle aussi, tu l'as voulue Maintenant maîtresse de maison et ton violon Elle n'aurait pas dû manger tous ces champignons C'est pas parce qu'elle est partie qu'j'vais pas rester là Transformer le machin en squat Berlinois Mates, quand on débarque dans cette pute on est sauvages S'ramener et pas défoncer l'truc ça s'rait dommage Farcis-toi la tête et arrête tous tes blocages J'suis là pour la fête, les pépètes et l'macrotage Sors les explosifs on est prêts pour l'sabotage Et préviens les p'tites, va y avoir du ligotage Tu peux t'planquer, trop tard pour éviter l'orage On est Born 2 be wild Oh, oh, oh, oh, oh, oh J'débarque dans cette pute, on est sauvage Oh, oh, oh, oh, oh, oh Pas défoncer l'truc, ça s'rait dommage Oh, oh, oh, oh, oh, oh On est toujours prêts pour l'sabotage Oh, oh, oh, oh, oh, oh Yeah, yeah, on est, on est Born 2 be wild Oh, oh, oh, oh, oh, oh Oh, oh, oh, oh, oh, oh Oh, oh, oh, oh, oh, oh Oh, oh, oh, oh, oh, oh</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1080,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>À l'instinct, mon grain d'voix sort du plexus Si un mot est une goutte, je deviens cumulus Pas très bien élevé, on louche sur les décolletés Notre hip-hop pas lavé sent l'entrejambe faisandé Sur un sample patiné, on s'est donné rendez-vous Nos rimes sont marinées pour avoir mauvais goût Affutés tous les 7, réunis pour la légende Dresse ton sexe ou ton index pour mon putain d'boys band Mesdames et messieurs, v'la Cyanure le roi des agneaux Qui vient récupérer son précieux J'apprécie le rap précis, je le précise Ouais, j'suis d'la greum, plus tout jeune et plutôt cheum Aux jeux de mots foireux, ke-lou classe, c'est tout, dans des pe-grou chelous Moi, c'est Ne-cyan, ah bon, dit l'abominable ciel bleu lagon vagabond échappé d'un labo Pour le Klub des 7, pas un gang, plutôt classique comme Wolfgang J'suis prêt à la, dès mon entrée, j'tomate mozzarella Regarde dans les 7 boules de cristal C'est pas les 7 mercenaires, pas les 7 samouraïs On est 7 comme les mousquetaires 7 pour tous, tous pour un, un pour 7, tous pour 7 Unis comme les 7 doigts de la main, proche comme des frères Appelle-nous Quadricolor, les 7 couleurs primaires 7 continents, 7 commandements, tu trouves ça bizarre 7 signes du zodiaque, c'est pas un hasard On lit Télé 7 Jours, on écoute Radio 7 Y'a une K7 qu'on kiffe grave, c'est les Jackson 7 On met des chaussettes, waow, quelle putain d'phase Le pire, c'est qu't'aimes, comme si t'étais sous putain d'taz Le Klub des 7 devait mourir, mais c'était trop triste On r'vient dans un gros 4x4, 7 roues motrices J'vais pas tout déballer, certaines infos doivent rester secrètes Mais sois là le 772007 à 7h07 You might also like C'est le Klub, c'est le Klub, c'est le Klub des 7 C'est le Klub, Klub, Klub, Klub, Klub des 7 C'est le Klub, c'est le Klub des 7 C'est le Klub des 7, c'est le Klub des 7 Envoie des poèmes au lance-pierres dans la chambre de cette fille que j'aime bien Mais elle ne veut pas les lire De toutes façons, les filles c'est nul, la plupart n'ont pas d'seins Et on se tape d'effleurer des soutiens-gorges rembourrés On préfère zoner en ville, arriver bourrés au dîner Qu'a-tu appris à l'école ? À oublier d'y aller Plutôt du genre à pas payer l'amende de la bibliothèque On aurait bien rendu les livres, mais trop tard, ils sont vendus 7 ! À qui profitent nos inventions ? 7 ! Qui pense qu'son flow est innovant 7 ! On n'changera pas une équipe qui gagne Rappelle-toi, contre le Brésil on était 7 Les 7 buts manqués nous ont mis direct sur la touche Du coup les lions on brûle dessus, on a formé le Klub des 7 Là où les bidons font des coups, nous on préfère la mériter On apprécie quand on prend l'temps être dans la peau de Maïté 7 ! À qui profitent nos inventions ? 7 ! Qui pense qu'son flow est innovant 7 ! On n'changera pas une équipe qui gagne Rappelle-toi, contre le Brésil on était 7 C'est le klub, klub, klub, le S Club Seven C'est pas du dub dub dub mais ça chauffe vénère On est 7 keums keums keums XXX Si t'es trop cheum cheum cheum, bah coupe-toi les veines J'ai dénoncé les autres, qu'on soit ensemble en heure de colle Pour mettre le plan à exécution sans attirer les attentions Chante avec moi, chante avec moi x4 C'est le Klub qui s'lâche Quand Gérard lève son verre et bastonne, quand Cyanure crache C'est le Klub qui s'lâche Quand F-K tchatche, quand Detect scratche C'est le Klub qui s'lâche Quand Fuzati met son masque, quand James slamme et arrache C'est le Klub qui s'lâche Quand Le Jouage nonchalant fait sa démarche, quand le public crache</t>
+          <t>À l'instinct, mon grain d'voix sort du plexus Si un mot est une goutte, je deviens cumulus Pas très bien élevé, on louche sur les décolletés Notre hip-hop pas lavé sent l'entrejambe faisandé Sur un sample patiné, on s'est donné rendez-vous Nos rimes sont marinées pour avoir mauvais goût Affutés tous les 7, réunis pour la légende Dresse ton sexe ou ton index pour mon putain d'boys band Mesdames et messieurs, v'la Cyanure le roi des agneaux Qui vient récupérer son précieux J'apprécie le rap précis, je le précise Ouais, j'suis d'la greum, plus tout jeune et plutôt cheum Aux jeux de mots foireux, ke-lou classe, c'est tout, dans des pe-grou chelous Moi, c'est Ne-cyan, ah bon, dit l'abominable ciel bleu lagon vagabond échappé d'un labo Pour le Klub des 7, pas un gang, plutôt classique comme Wolfgang J'suis prêt à la, dès mon entrée, j'tomate mozzarella Regarde dans les 7 boules de cristal C'est pas les 7 mercenaires, pas les 7 samouraïs On est 7 comme les mousquetaires 7 pour tous, tous pour un, un pour 7, tous pour 7 Unis comme les 7 doigts de la main, proche comme des frères Appelle-nous Quadricolor, les 7 couleurs primaires 7 continents, 7 commandements, tu trouves ça bizarre 7 signes du zodiaque, c'est pas un hasard On lit Télé 7 Jours, on écoute Radio 7 Y'a une K7 qu'on kiffe grave, c'est les Jackson 7 On met des chaussettes, waow, quelle putain d'phase Le pire, c'est qu't'aimes, comme si t'étais sous putain d'taz Le Klub des 7 devait mourir, mais c'était trop triste On r'vient dans un gros 4x4, 7 roues motrices J'vais pas tout déballer, certaines infos doivent rester secrètes Mais sois là le 772007 à 7h07 C'est le Klub, c'est le Klub, c'est le Klub des 7 C'est le Klub, Klub, Klub, Klub, Klub des 7 C'est le Klub, c'est le Klub des 7 C'est le Klub des 7, c'est le Klub des 7 Envoie des poèmes au lance-pierres dans la chambre de cette fille que j'aime bien Mais elle ne veut pas les lire De toutes façons, les filles c'est nul, la plupart n'ont pas d'seins Et on se tape d'effleurer des soutiens-gorges rembourrés On préfère zoner en ville, arriver bourrés au dîner Qu'a-tu appris à l'école ? À oublier d'y aller Plutôt du genre à pas payer l'amende de la bibliothèque On aurait bien rendu les livres, mais trop tard, ils sont vendus 7 ! À qui profitent nos inventions ? 7 ! Qui pense qu'son flow est innovant 7 ! On n'changera pas une équipe qui gagne Rappelle-toi, contre le Brésil on était 7 Les 7 buts manqués nous ont mis direct sur la touche Du coup les lions on brûle dessus, on a formé le Klub des 7 Là où les bidons font des coups, nous on préfère la mériter On apprécie quand on prend l'temps être dans la peau de Maïté 7 ! À qui profitent nos inventions ? 7 ! Qui pense qu'son flow est innovant 7 ! On n'changera pas une équipe qui gagne Rappelle-toi, contre le Brésil on était 7 C'est le klub, klub, klub, le S Club Seven C'est pas du dub dub dub mais ça chauffe vénère On est 7 keums keums keums XXX Si t'es trop cheum cheum cheum, bah coupe-toi les veines J'ai dénoncé les autres, qu'on soit ensemble en heure de colle Pour mettre le plan à exécution sans attirer les attentions Chante avec moi, chante avec moi x4 C'est le Klub qui s'lâche Quand Gérard lève son verre et bastonne, quand Cyanure crache C'est le Klub qui s'lâche Quand F-K tchatche, quand Detect scratche C'est le Klub qui s'lâche Quand Fuzati met son masque, quand James slamme et arrache C'est le Klub qui s'lâche Quand Le Jouage nonchalant fait sa démarche, quand le public crache</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1097,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Les humains connaissent depuis fort longtemps les effets aphrodisiaques de l'odeur corporelle. Ces odeurs n'ont pas besoin d'être agréables pour être excitantes J'débarque dans c'biz comme une boule puante Toute suante, fumante comme une merde gluante Résiste à l'Akileine, j'démarre toujours du bon pied Gérard Baste met l'feu, même au bal des pompiers Représente l'odeur, ma r'cette olfactive Sortie d'une chaussette radioactive Mon cloaque clique, coince le claquos On cloue l'claque merde des beaufs, décoince les coinços Pire que la moule d'une rousse quand j'houspille la foule J'pète et ma boule puante coule pile quand j'rouspète Usuellement, c'est toujours moi qu'on suspecte J'enlève mes chaussures c'est magique, tu sniffes mes roupettes C'est l'heure d'manger mon bâton d'berger J't'asperge et, ma crème d'asperge sent pas l'Fabergé Quand j'arrose, tu dis à ton pote viens on s'tire Ça sent pas la rose, Svinkels, tu peux pas m'sentir Sauve qui peut, v'là les fauves qui puent Ma faune daube la daube sur l'microphone Hume ce fumet, tas d'fumier qui r'monte du terroir Comme un chien qui pisse j'marque mon territoire C'est pitbull puante, casse-toi, tu pues pas t'es pas d'ma bande Svinkels, tu l'as pas dans ton album des crados J'salis ta playlist, j'me fous la FM à dos Mon instru est une perle, j'largue la caisse claire Interruption volontaire d'grosse caisse Y'a pas d'Hermès dans ma kermesse Laisse mes aisselles sans vaisselle, s'propagent comme l'herpès Mes slips pendent et sentent pas l'Calvin Klein Ça flippent mes voisins qui s'mettent au parfum J'écoute du rock fort et j'me moque fort C't'arôme stade du Vélodrome, c'est du crade core You might also like x2 Ça pue, tiens v'là Svinkels, sort le sent bon Ça tue, nuage d'immondices nique les moucherons T'as vu, comment mon style sent les WC Tâche gluante, fais place nette comme une boule puante Tu cherches une expérience inédite Essaie d'rentrer dans ma chambre quand j'dors, tu r'sortiras vite Si j't'accueille pas avec un pet foireux Tu s'ras fouetté par l'odeur d'mes calcifs qui sentent ma queue Solution aqueuse, j'ai bavé sur ton oreiller Glaviots vert fluo noir qui puent l'charnier Tellement j'ai bébé d'bédos avant d'dormir Et ça r'naude sous mes aisselles tellement j'transpire Pire, une secte de niakoués achète mes bâillements comme arme chimique Salive chargée en acide nitrique J'sens l'fauve, j'me lève et l'eau s'sauve Ça sent l'cimetière des éléphants dans mon alcôve Faut qu't'ouvres la fenêtre avant que tout n'explose Tu croyais qu'c'était terminé Mais une odeur de Xanax compressée dans un blunt vient t'angoisser Hé mec, c'est pour le Svink que j'viens puer Y'a comme une odeur forte, qui t'submerge dés qu't'ouvres la porte Cherche pas mon linge sale je l'porte Un pour tous, tous pourris Nourri économique, gastronomique Big bang, prout, gaz astronomique Ça daube, quand j'te montre c'que j'ai dans l'bide Je m'sens ballonné, ça t'fait mal au nez quand j'me vide Référentiel dans l'style pestilentiel Pestiféré, mais c'qu'on peut faire c'est démentiel Maintenant j'me décale Et j'balance un lyrics rance imprégné d'matière fécale Si tu veux qu'on soit d'mèche, si tu m'fais d'la lèche Commence par jamais dormir avec moi tête-bêche Tête plate, toutes tes farces valent pas un pet d'blatte Quand la boule puante du Svinkels éclate Ma glotte claque, ça sling dès qu'j'lâche un fox trotte Qui s'frotte aux Svinks, s'pique à une grosse crotte Tu m'flaires à deux bornes aux alentours d'Beaubourg Aux rues du Faubourg, j'lâche des calembours J'en fais tout un camembert, comme Paris j'pollue l'air avec mes opus populaires J'donne d'la glaire pour ton blair J'suis l'clochard qui rentre dans un wagon Ça puire, j'fais fuir comme des cafards d'vant du Baygon Car dans ma maison, ça sent pas l'bégonia Mes doigts d'pieds en éventail, l'meilleur des épouvantails Ça t'monte au nez comme la moutarde Maille J'graille un bout d'ail, vaut mieux qu'tu t'en ailles J'vais pas t'mentir, j'ouvre trop ma gueule j'peux plus m'sentir Y'en a qui trouvent ça drôle, moi j'joue mon rôle Mes auréoles sont pas sur ma tête, sous mes manchettes Une sueur en série qui monte à la tête Ça réchauffe comme un pet sous la couette Me rend rieuse comme la mouette quand j'lâche un gaz hilarant qui fouette x2 Ça pue, tiens v'là Svinkels, sort le sent bon Ça tue, nuage d'immondices nique les moucherons T'as vu, comment mon style sent les WC Tâche gluante, fais place nette comme une boule puante x2 J'débarque dans c'biz comme une boule puante Toute suante, fumante comme une merde gluante x2 Ça pue, tiens v'là Svinkels, sort le sent bon Ça tue, nuage d'immondices nique les moucherons T'as vu, comment mon style sent les WC Tâche gluante, fais place nette comme une boule puante</t>
+          <t>Les humains connaissent depuis fort longtemps les effets aphrodisiaques de l'odeur corporelle. Ces odeurs n'ont pas besoin d'être agréables pour être excitantes J'débarque dans c'biz comme une boule puante Toute suante, fumante comme une merde gluante Résiste à l'Akileine, j'démarre toujours du bon pied Gérard Baste met l'feu, même au bal des pompiers Représente l'odeur, ma r'cette olfactive Sortie d'une chaussette radioactive Mon cloaque clique, coince le claquos On cloue l'claque merde des beaufs, décoince les coinços Pire que la moule d'une rousse quand j'houspille la foule J'pète et ma boule puante coule pile quand j'rouspète Usuellement, c'est toujours moi qu'on suspecte J'enlève mes chaussures c'est magique, tu sniffes mes roupettes C'est l'heure d'manger mon bâton d'berger J't'asperge et, ma crème d'asperge sent pas l'Fabergé Quand j'arrose, tu dis à ton pote viens on s'tire Ça sent pas la rose, Svinkels, tu peux pas m'sentir Sauve qui peut, v'là les fauves qui puent Ma faune daube la daube sur l'microphone Hume ce fumet, tas d'fumier qui r'monte du terroir Comme un chien qui pisse j'marque mon territoire C'est pitbull puante, casse-toi, tu pues pas t'es pas d'ma bande Svinkels, tu l'as pas dans ton album des crados J'salis ta playlist, j'me fous la FM à dos Mon instru est une perle, j'largue la caisse claire Interruption volontaire d'grosse caisse Y'a pas d'Hermès dans ma kermesse Laisse mes aisselles sans vaisselle, s'propagent comme l'herpès Mes slips pendent et sentent pas l'Calvin Klein Ça flippent mes voisins qui s'mettent au parfum J'écoute du rock fort et j'me moque fort C't'arôme stade du Vélodrome, c'est du crade core x2 Ça pue, tiens v'là Svinkels, sort le sent bon Ça tue, nuage d'immondices nique les moucherons T'as vu, comment mon style sent les WC Tâche gluante, fais place nette comme une boule puante Tu cherches une expérience inédite Essaie d'rentrer dans ma chambre quand j'dors, tu r'sortiras vite Si j't'accueille pas avec un pet foireux Tu s'ras fouetté par l'odeur d'mes calcifs qui sentent ma queue Solution aqueuse, j'ai bavé sur ton oreiller Glaviots vert fluo noir qui puent l'charnier Tellement j'ai bébé d'bédos avant d'dormir Et ça r'naude sous mes aisselles tellement j'transpire Pire, une secte de niakoués achète mes bâillements comme arme chimique Salive chargée en acide nitrique J'sens l'fauve, j'me lève et l'eau s'sauve Ça sent l'cimetière des éléphants dans mon alcôve Faut qu't'ouvres la fenêtre avant que tout n'explose Tu croyais qu'c'était terminé Mais une odeur de Xanax compressée dans un blunt vient t'angoisser Hé mec, c'est pour le Svink que j'viens puer Y'a comme une odeur forte, qui t'submerge dés qu't'ouvres la porte Cherche pas mon linge sale je l'porte Un pour tous, tous pourris Nourri économique, gastronomique Big bang, prout, gaz astronomique Ça daube, quand j'te montre c'que j'ai dans l'bide Je m'sens ballonné, ça t'fait mal au nez quand j'me vide Référentiel dans l'style pestilentiel Pestiféré, mais c'qu'on peut faire c'est démentiel Maintenant j'me décale Et j'balance un lyrics rance imprégné d'matière fécale Si tu veux qu'on soit d'mèche, si tu m'fais d'la lèche Commence par jamais dormir avec moi tête-bêche Tête plate, toutes tes farces valent pas un pet d'blatte Quand la boule puante du Svinkels éclate Ma glotte claque, ça sling dès qu'j'lâche un fox trotte Qui s'frotte aux Svinks, s'pique à une grosse crotte Tu m'flaires à deux bornes aux alentours d'Beaubourg Aux rues du Faubourg, j'lâche des calembours J'en fais tout un camembert, comme Paris j'pollue l'air avec mes opus populaires J'donne d'la glaire pour ton blair J'suis l'clochard qui rentre dans un wagon Ça puire, j'fais fuir comme des cafards d'vant du Baygon Car dans ma maison, ça sent pas l'bégonia Mes doigts d'pieds en éventail, l'meilleur des épouvantails Ça t'monte au nez comme la moutarde Maille J'graille un bout d'ail, vaut mieux qu'tu t'en ailles J'vais pas t'mentir, j'ouvre trop ma gueule j'peux plus m'sentir Y'en a qui trouvent ça drôle, moi j'joue mon rôle Mes auréoles sont pas sur ma tête, sous mes manchettes Une sueur en série qui monte à la tête Ça réchauffe comme un pet sous la couette Me rend rieuse comme la mouette quand j'lâche un gaz hilarant qui fouette x2 Ça pue, tiens v'là Svinkels, sort le sent bon Ça tue, nuage d'immondices nique les moucherons T'as vu, comment mon style sent les WC Tâche gluante, fais place nette comme une boule puante x2 J'débarque dans c'biz comme une boule puante Toute suante, fumante comme une merde gluante x2 Ça pue, tiens v'là Svinkels, sort le sent bon Ça tue, nuage d'immondices nique les moucherons T'as vu, comment mon style sent les WC Tâche gluante, fais place nette comme une boule puante</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1114,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>J'ai des gouttes au creux d'mes mains, des fourmis dans les paupières J'ai la gueule de bois d'l'enfer, la gueule de travers Comme Yvan Attal, dans ma piaule c'est l'champ d'bataille Les cadavres d'bouteilles vides s'accumulent J'ai l'cerveau rongé par les vers, j'crois qu'ça pullule Cette merde est en train de m'faire perdre c'qu'il m'reste de neurones J'suis sur l'point d'm'exploser la tête Et j'peux même plus mettre un pied d'vant l'autre Devant moi c'est l'vide, j'vais juste sauter et m'présenter d'vant l'autre Là j'vais bourrir, tellement j'suis bourré j'crois qu'j'vais mourir J'vais pourrir sur pieds, terminé, là j'vais bourrir Nourrir les verres d'les avoir vidés Un dernier et j'fonce vers la lumière, ça va speeder J'vous regarderai d'la haut lors de ma mise en bière J'vais bourrir et courir m'bourrer la gueule au bar de l'enfer Là j'suis secoué, personne viendra m'secourir J'vais mourir, tellement j'suis bourrer j'crois qu'j'vais pourrir Quand il sera temps d'bouffer les pissenlits par la racine J'veux qu'on m'enterre dans les Corbières pour sucer la vigne Ça sent l'sapin, mes rêves noyés dans les fonds d'bouteilles Ma vie dans une consigne qu'j'ai oublié, dans c'bas monde tout s'paye Et les perspectives d'avenir me semblent bouchonnées Combien d'temps encore à faire le clown, combien à bouffonner ? Ça fait déjà 20 ans que j'pense plus qu'au litron Moi mes rires sont jaunes et acides, Pulco citron Mon horizon comme mon humour sont noirs comme la Guinness la Guinness J'laisse le miel à Winnie l'ourson Le myocarde branché sur une rythmique aléatoire J'ai bu tout c'qu'il y avait à boire J'ai des bulles dans l'système respiratoire Nouvelle bouteille, nouvelle victime expiatoire J'ai perdu l'contrôle du véhicule C'est l'essence qui m'brûle au plus profond d'mes deux ventricules You might also like x2 Là j'vais bourrir, tellement j'suis bourré j'crois qu'j'vais mourir J'vais pourrir sur pieds, terminé, là j'vais bourrir Nourrir les verres d'les avoir vidés Un dernier et j'fonce vers la lumière, ça va speeder J'vous regarderai d'la haut lors de ma mise en bière J'vais bourrir et courir m'bourrer la gueule au bar de l'enfer Là j'suis secoué, personne viendra m'secourir J'vais mourir, tellement j'suis bourrer j'crois qu'j'vais pourrir J'ai les oreilles qui bourdonnent, ça joue d'la scie sur mes nerfs Des gouttes au creux d'mes mains, des fourmis dans les paupières Et l'palpitant qui crépite comme un brasero J'passe de 0 à 100, ça monte bientôt d'200 à 0</t>
+          <t>J'ai des gouttes au creux d'mes mains, des fourmis dans les paupières J'ai la gueule de bois d'l'enfer, la gueule de travers Comme Yvan Attal, dans ma piaule c'est l'champ d'bataille Les cadavres d'bouteilles vides s'accumulent J'ai l'cerveau rongé par les vers, j'crois qu'ça pullule Cette merde est en train de m'faire perdre c'qu'il m'reste de neurones J'suis sur l'point d'm'exploser la tête Et j'peux même plus mettre un pied d'vant l'autre Devant moi c'est l'vide, j'vais juste sauter et m'présenter d'vant l'autre Là j'vais bourrir, tellement j'suis bourré j'crois qu'j'vais mourir J'vais pourrir sur pieds, terminé, là j'vais bourrir Nourrir les verres d'les avoir vidés Un dernier et j'fonce vers la lumière, ça va speeder J'vous regarderai d'la haut lors de ma mise en bière J'vais bourrir et courir m'bourrer la gueule au bar de l'enfer Là j'suis secoué, personne viendra m'secourir J'vais mourir, tellement j'suis bourrer j'crois qu'j'vais pourrir Quand il sera temps d'bouffer les pissenlits par la racine J'veux qu'on m'enterre dans les Corbières pour sucer la vigne Ça sent l'sapin, mes rêves noyés dans les fonds d'bouteilles Ma vie dans une consigne qu'j'ai oublié, dans c'bas monde tout s'paye Et les perspectives d'avenir me semblent bouchonnées Combien d'temps encore à faire le clown, combien à bouffonner ? Ça fait déjà 20 ans que j'pense plus qu'au litron Moi mes rires sont jaunes et acides, Pulco citron Mon horizon comme mon humour sont noirs comme la Guinness la Guinness J'laisse le miel à Winnie l'ourson Le myocarde branché sur une rythmique aléatoire J'ai bu tout c'qu'il y avait à boire J'ai des bulles dans l'système respiratoire Nouvelle bouteille, nouvelle victime expiatoire J'ai perdu l'contrôle du véhicule C'est l'essence qui m'brûle au plus profond d'mes deux ventricules x2 Là j'vais bourrir, tellement j'suis bourré j'crois qu'j'vais mourir J'vais pourrir sur pieds, terminé, là j'vais bourrir Nourrir les verres d'les avoir vidés Un dernier et j'fonce vers la lumière, ça va speeder J'vous regarderai d'la haut lors de ma mise en bière J'vais bourrir et courir m'bourrer la gueule au bar de l'enfer Là j'suis secoué, personne viendra m'secourir J'vais mourir, tellement j'suis bourrer j'crois qu'j'vais pourrir J'ai les oreilles qui bourdonnent, ça joue d'la scie sur mes nerfs Des gouttes au creux d'mes mains, des fourmis dans les paupières Et l'palpitant qui crépite comme un brasero J'passe de 0 à 100, ça monte bientôt d'200 à 0</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1131,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-Hey Rhum G -Si Si ! -Fout la 22 Long Rifle dans le Land Cruiser -Ajoute ! Descend un lion c'est du braconnage Descend un lion c'est du braconnage Descend un lion c'est du braconnage Descend un lion c'est du braconnage Bienvenue chez Qhuit ! On t'as ouvert la porte du bar Get, get in, c'est l'happy hour tous les soirs Ça commence calme p'tite mousse, Apérobic à fond Ça s'énerve un peu vodka-pomme avec des p'tits glaçons Tu peux m'trouver dans le club, ivre mort Toujours accoudé au bar, j'en veux encore Encore plus de tise à piller, vriller sur moi même et viser Encore plus de litres à vider, Rhum G ajoute pour le dernier Descend un lion c'est du braconnage Hey, sort le jerrycan de vaseline, j'viens d'repérer 2 rhinocéros Descend un lion c'est du braconnage Ce soir on met l'feu à la savane Descend un lion c'est du braconnage C'est du putain d'braconnage Descend un lion c'est du braconnage You might also like x2 Bienvenue chez Qhuit ! On t'as ouvert la porte du bar Get, get in, c'est l'happy hour tous les soirs J'marche en zig-zag et j'ai l'regard de travers Tu vas pas m'tèj' de ton rade alors qu'j'ai bu qu'2-3 verres En travers de tout braver, l'alcool aggravé dont j'suis pas fier Mais on boit, on boit, on boit, comme un moustachu en Bavière Oublie les boîtes de nuit d'dèps Distributeurs de biftecks Gérard Baste dans ta p'tite tête Reste avec nous, t'es vite dead Liquide de freins pur Ça d'vient vite dur, dur Mais j'repars dare, dare Pour déchirer ton open bar, bar</t>
+          <t>-Hey Rhum G -Si Si ! -Fout la 22 Long Rifle dans le Land Cruiser -Ajoute ! Descend un lion c'est du braconnage Descend un lion c'est du braconnage Descend un lion c'est du braconnage Descend un lion c'est du braconnage Bienvenue chez Qhuit ! On t'as ouvert la porte du bar Get, get in, c'est l'happy hour tous les soirs Ça commence calme p'tite mousse, Apérobic à fond Ça s'énerve un peu vodka-pomme avec des p'tits glaçons Tu peux m'trouver dans le club, ivre mort Toujours accoudé au bar, j'en veux encore Encore plus de tise à piller, vriller sur moi même et viser Encore plus de litres à vider, Rhum G ajoute pour le dernier Descend un lion c'est du braconnage Hey, sort le jerrycan de vaseline, j'viens d'repérer 2 rhinocéros Descend un lion c'est du braconnage Ce soir on met l'feu à la savane Descend un lion c'est du braconnage C'est du putain d'braconnage Descend un lion c'est du braconnage x2 Bienvenue chez Qhuit ! On t'as ouvert la porte du bar Get, get in, c'est l'happy hour tous les soirs J'marche en zig-zag et j'ai l'regard de travers Tu vas pas m'tèj' de ton rade alors qu'j'ai bu qu'2-3 verres En travers de tout braver, l'alcool aggravé dont j'suis pas fier Mais on boit, on boit, on boit, comme un moustachu en Bavière Oublie les boîtes de nuit d'dèps Distributeurs de biftecks Gérard Baste dans ta p'tite tête Reste avec nous, t'es vite dead Liquide de freins pur Ça d'vient vite dur, dur Mais j'repars dare, dare Pour déchirer ton open bar, bar</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1148,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bébé, si tu boudes, c'est cheum car Pour te consoler j'serai obligé d'te lancer ma Playstation 4 Y'a pas de Roberto Carlos mais c'est Carlos et Roberta Qui viennent te per-ta pour un passe non payé Il est classe mon pieu, quand un 95D Y est agité comme un gars bousillé J'aurai percé quand y'aura mon nom sur des plaquettes de shit Quand un charbonneur coupera mon nom en lamelle de dix Quand les corps gisent, le score est de 9.9.9 Suivi de trop d'chiffres J'ai laissé mes empreintes, j'ai mis trop d'gifles Il faut que j'me tire de là, ça sent l'cramé Entre les potes et les tasses y'a pas grand chose Donc parfois j'craque, j'demande un temps d'arrêt Parano car j'ai vu l'vice dans un peu trop d'pupilles Alerté par mon père Rares sont les amis présents toute une vie J'ai l'goût du risque et il m'disait qu'fallait que j'me calme Arrête de faire le mort, arrête le Rap, oublie tes rêves de gosse Qui va remplir ton assiette ? Sûrement pas tes petits potes Le jour où j'monterai au ciel, tu pourras dire qu'tu perds le cap Tout ça m'fait réfléchir, j'perds l'équilibre, trop défaitiste Faut pas que j'tombe dans l'précipice J'veux une meilleure carrière que Nas J'ai mes petites affaires, mes priorités, ma vie ne s'résume pas À déchirer cette cigarette, faire le ton-car et m'pillonifier J'tiens le guidon de ma carrière à dix-huit ans Tout seul, sans boussole car seul Dieu peut me guider L'décollage est imminent, tout ça était écrit Sur l'écran bientôt mon clan car l'écriture ne cesse de briller You might also like J'suis hésitant et dépressif à moitié, j'veux des femmes À moitié j'veux les caner et déballer toutes mes armes On fait comment, là ? Là c'est tendu, j'endure V'là l'effet d'ces tains-pu qui m'enfument Donc j'rappe des putains d'phases mées-cra Malgré Georgio, j'suis pas à l'abri d'finir en cure Et j'revisite en plus les endroits dangés hantés par mes tags Mais faut pas s'faire d'illusion Moi, j'ai mes cartes et mes classiques Mes vrais gars, pas des bad bitches Qui parfois filent puis s'éparpillent de mes an-iensc, ouais, c'est sans fin, mec J'risque de me perdre dans cette enceinte qui en sens inverse Technique bien coffrée dans l'falzar beige, je t'ai dit J'viens choquer tes récits, toute l'équipe présente dans la raquette Mais doucement ouf, toujours dans l'art abstrait et c'est la galère Demande à Limsa, à Koma, on est des arabes screds J'mérite d'la salade fraîche pour finir une Phillip en Phillies Pour cette shit qui fait rimer Grünt et mes paramètres Bah, ouais, ma gueule, ça fout l'seum En label ils s'touchent et grattent des thunes Alors qu'nous ça taffe tout seul Donc il faut que t'écoute ce couplet si t'es révolté Au lieu d'avoir la frousse Prendre ton mic pour mettre des coups d'seup' Et ça fait un pour mon équipe, deux pour moi Faire du Rap à l'infini, il nous faut plus d'1000 E d'pourboire Bah, ouais, l'argent c'est plaisant même si c'est pas la vie Je t'assure qu'dans mon appart à Plaisance j'avais du mal à vivre Le Rap, c'est mon défaut même si j'adore ça J'ai vu des potes mettre des rottes-ca J'ai appris qu'ce monde est faux Belek aux coups d'griffes, rugissements, on est des lions, des fauves Dans mon équipe ma gueule, pas d'amateur, non, non, tout l'monde est pro Ah ! Si tu parles mal, on t'enfonce la rime dans la prostate Clique sur YouTube et vois qu'mon équipe fait des grosses stats Ce monde est dégueulasse, j'ai déjà même vu des go's s'tapent Pour oublier tout ça, le soir, à c'qui p', ça fume des grosses lattes J'me concentre, j'imagine c'que j'rêve d'être J'ai presque trouvé la route Maintenant, j'espère que c'est l'bon sens Je suis arrivé pour éviter les mystères et t'as liquidé l'humilité ? Pourquoi vérifier si t'as tant d'flair, frère ? Faut se méfier de tout et de rien mais pas couper les liens Seule différence on voit tes gars s'taire On compte faire des dégâts, pas à pas l'appât fait des siennes Ce soir, j'ai les nerfs, il faut que j'me vide car j'ai la vessie pleine Et j'insiste même sur le fait que ce putain d'système M'insupporte mais j'hiberne dans leur putain d'frigidaire Les mains en l'air, j'vais pas parler d'savoir ni d'arme Rivière de larmes, c'est un drame Tirez l'alarme, ma plume aiguise ma lame Réincarnation de Duncan MacLeod Mystérieux comme le Loch Ness, les coups j'encaisse Le plus rusé d'la tess, j'suis pas fasciné par l'Homme Dommage, passe la pommade et fais l'ménage Ne fais pas l'mac sinon j'te laisse ma trace Plutôt dans l'ambiance tenace classique, la technique est maîtrisée Emploie des flows stylés dans l'oreille du mec postiché J'roule un vrai kamas, pas d'kétamine que du Ketama T'inquiète, hami, on contamine le Rap histoire qu'les chèques s'amassent Un pur sur la pochette de Nas Une grosse latte sur la roquette de Max OK, relax, laisse-moi juste smoker le niak's Venez prendre vos vers de claque, gros teh de frappe Gros verre de Jack et mes khos perdent le cap Faudrait me croire, on a tous zappé nos rêves de star Que des problèmes le soir mais dès l'aube on d'vient aussitôt cool En veste noire, Ilyes, mon bicot roule Sidy, mon négro pète le zbar, frérot, laisse deux barres J'ferai mes sous comme Iznogoud même avec les flics au boule Un kilo d'poudre planqué quelque part Et si ça vire aux coups, ne vas pas l'dire aux cops Fais-moi un petit -roco, dans mon crâne ça tire au colt Bang ! Bang ! C'est la LT Family, cesse tes gamineries Soudés comme Michel et Platini même dans les nuits au poste On sait nourrir nos forces comme on sait pourrir nos nerfs On fait souffrir nos mères Mais est-ce qu'on fera souffrir nos gosses ? J'compte pas sourire au boss ni être soumis aux ordres Les jeunes d'ici veulent du Gucci au corps Quitte à vendre des bouts d'shit aux profs Ma vie, un labyrinthe, je marsou l'minotaure J'parfume ma ville, zinc, eux, ils fument des niaxous inodores Y'a pas d'malaise, mon vieux, t'es fou, 9.3 Sache qu'à la tess on veut des sous, y'a quoi ? Bende, nouvelle vague, on est les commandants d'bord Écoute et ferme ta gueule, zin, comme en temps d'guerre Ouais, ça commence fort, ça commence mleh J'suis arrogant, j'flotte, chill en crapotant l'zdeh Moi, j'suis pas du clan des faibles Mais j'suis prêt à faire tant d'efforts Donc nique ceux qui m'disent c'que j'suis censé faire Mes bougs s'plaignent Nique s'réveiller dans une Bugatti Moi, je m'endors sur du Wu-Tang, réveil sur du Lunatic On s'bouge comme un gang de tarés Fout l'feu comme un lance-grenades Saouls quand on rentre de soirée, fougueux comme un gentleman J'sais que t'as des accès d'stress mais, vas-y, peace Je m'en bats les steaks, on t'shlasse au couteau balistique Les filles sont belles, vision d'rêve On chill dans les chaises longues, elle m'dit Mi corazon, encore un son et puis on ken On est les seuls qui maîtrisent, nan, j'rime symétriquement Disent qu'le Rap n'est qu'un divertissement, direct, ils s'branlent Teste pas ce serait une perte de temps, 'teille de Jack Verre de champ', faut qu'je reste droit Et qu'les Air Max restent blanches Identifié suspect dans une soirée un peu trop riche La vie est une chienne, elle ne fait que des vux torrides Eh DJ, balance le son, ambiance de fond Quand entre le monstre, dans l'antre je fonce, je Détecte les missions, brunes, blondes célèbres Expert et envoûtant, 100 de finition Mon plus beau style, fidèle à ma horde J'établis ma force, vilain comme un corse Ou une fille et son corset ou ce flic qui te course Ou ce flic qui te course ! Reufrè c'est Z.E.U qui kicke, à l'horizon c'est Bleach Les gens s'découpent pour quelques bouts de terre Couché le long d'la rive J'attends que le soleil glisse son premier rayon Et fils, file-moi ton crayon et ton Vélib' J'voudrais gambader seulement dans une propriété à Kiev Chiller le long d'la Seine, te proposer d'baiser après Sans ça c'est fichu, dis tu, m'prenant la tête, hey T'es qu'une pute, c'est ridicule, abrège, faisons la paix Le choc est assez violent, certes, mais ça qu'est-ce qu'on en sait ? On vient le-par, au nom du Panama, te-ma leur tête Et mes décals ? font mal à leurs fesses, recharge mes munitions Échauffé par l'ébullition du retour de flow d'Aladin On prend des grosses sommes à la pince, arrête tes XXX Certes frère, on fait des terribles pour quitter cette terre ferme On s'détend l'épiderme en partant loin du fisc, fils de J'viens juste retirer mon épingle du fil Parce que t'es moche, j'ai décidé d'pas t'aimer, t'as le zen À faire chavirer n'importe quel bateau en mouvement Ton père est pédophile, ton oncle t'fait des attouchements T'as la force d'un nouveau né qu'est bé-tom à l'accouchement Même refait tu serais moche, à c'qui paraît Ta femme est enceinte, j'veux pas voir la tête des gosses Tu peux faire ton vu mais elle file l'étoile J'dirais même que les tétraplégiques ont pitié d'toi Carrément, pour ta famille, lÉtat a fait des dons C'est grâce à ta tronche Qu'ils font de l'argent chaque année le Téléthon Tu t'prends pour un beau gosse mais t'as une tête de bite J'suis pas l'seul à l'affirmer, merde, même ta mère le dit Lamour est un châtiment divin, posé sur ldivan Là où les mots sont pratiquement physiciens Je ne mène pas une vie simple, reprends les devants Attends, javance avant de faire le vide, les poulets misent bien Mais miss, viens me voir, je narrive plus à distinguer lhypocrite Et les faux gars qui veulent la mort du mystérieux Type qui vient te voir à des heures tardives, un peu dliquide Cest là qutout part dans llit, on fait des backflips Tard la nuit, je file par les rues de ris-Pas, passe Par dessous la ville car les rues sont tricards, sale À ton avis, les bons narrivent quà la fin Mais les gens zapperont leurs amis Nvoient que le seille quand ça parle de légende Les mecs sous amphèt en font tant Pendant que jprends mes distances Évitant, je dépense mes sens tout comme mes finances Refilant le filon filé sous les ponts, Paris sous les bombes Tombe, échange ton kilo dplume contre un kilo dplomb Travaille avec sensi, cendar, m'endors puis le matin médite Je suis ce félin qui sen tape De la vie et de la fin des crimes Jai un bic en rage qui voit des catins s'dévêtir Tinquiète, man, on fait les rimes Ya qules vrais Gs qui sont indispensables ABBA, jsuis cgars qui sactive sans tracas Souvent ma rime tembrase, gars Et nconcurrence que des phases exécrables Habitant Paname, jaime que les petites femmes Et les phases, fait que les ignares, jles efface Ils veulent ma peau tout en salivant dma frappe Je gratte et jviens dailleurs, ya quà voir cque jfais dans mes sons Errant, jbe-tom parfois dans les fonds Oublie dapprendre mes leçons, jdéfraye tant les ondes Je mencense pas, jme perds dans des ombres Tendance à mremettre en question Après 23 heures, jveux que la fumée mensorcelle Jme couche tard donc jtombe en panne Réveil tôt puis mendors frêle Jusquà qula lumière monte en moi Oublie pas qusi tu touches léquipe Cest toute léquipe qui te couche Et qui peut dire que jdoute ? Tout est gris mais, moi, jfous lsouk et jbrille Jaime la musique, jaime le groove donc jvais faire groover ça Jprépare un gros coup d'état M'atteindre vous ne pouvez pas car j'ai la rime scred posée J'viens là pour explorer l'Rap avant de l'exploser Ouais, en c'moment jfais qubosser tard J'baise vos hectares de terrain Du moment que jai bière, drogues et femmes On fera lshow avec mes frères forts et hargneux Toute la nuit avec un peu dchance on verra billet vert, prod et fan Et j'te conseille pas daffoler la meute, ma gueule Jespère qudans nos cerceaux ya pas d'très gros dégâts Car on fait parti dceux qui passent leur temps à coller la yeuf Oh les gars, je plane avec de gros pétards, on fout lzbeul Donc tétonne pas si tu vois mes gars causer ta meuf Ouais, jpeux capter la foule même en a cappella Jviens rapper ça comme un héros, check check Poto ma cape est là, DJ, monte le son Poto, sors la 'teille et, baby, danse le twerk twerk Cest fini la macarena ! On veut du biff, on en aura, la réussite est proche Regarde-moi droit dans les yeux Pendant quZeurti te vide les poches J'suis jeune mais un expert au lit Si les voisins splaignent du bruit Dis-leur quils sont invités aussi Mes gars vendent de la came parce quils trouvent cheum ton RMI Tu vois qules keufs leur courent après Moi, jvois qules keufs stromper dennemi Une kippa sur la tête, demande à mon frelon Jeremy On apprécie le Rythme et le Blues mais nous on fuck ton R'n'B Tes gars veulent pomper des bites Mes gars veulent compter les biffs Voir un reuf stagner cest cheum mais voir un reuf tomber cest pire Un soss ma dit Gros, il faudrait quon vire au large Arrête ton bricolage et montons un cambriolage Un autre ma dit Gros, il faudrait qutu taffes en cours Et pas qutu partes en couilles, ça trapportera des liasses en retour Mais quest-ce que jdois penser ? Je sais pourtant qula street cest dla merde Gros, arrête ton bluff, tu perceras dans lhaschisch et la verte Bah, ouais, la vie, cest galère, il faut quj'maîtrise mes affaires Jpenserai lcontraire le jour où jverrai mes rents-pa tripler dsalaire Jai kiffé la tess, foutre le XXX tout lété Les aprem au stade avec mes gars dla tour GP Là, jai qudeux balles à tout péter Mais beaucoup dtaga sous les pieds Va falloir que jfasse un ient-cli ou deux à la cour drécré On sbarre en ville au volant dune Peugeot 306 Plus moi, plus 3 mecs du quartier, ouais, ça fait 310 Jsuis un python dans le Rap, si tas la haine, crie le Jsuis pas lRoi que à Paris, ton rêve je vais me laccaparer Jsuis pas ce petit con quon marave, si tas un blème, dis le Tu ferais mieux dcoopérer car tu sais que j'suis incomparable Gars, naies pas peur, accroche-toi, la douleur accordera Une réelle danse à ton corps quand la mort t'approchera C'est bientôt l'heure de lévénement, ressens la véhémence Ils se battent, jécoute Grödash pour renforcer mes défenses Tu croyais quoi ? Quon allait slaisser faire ? C'est la jeunesse parisienne Guette ma plume et check mon élégance Tel un messie, jentends mon blaze dans la foule On aime les filles quand on leur crache dans la bouche Mon Rap est précieux et précis Faut que tapprécies et que je timpressionne Si tu tsens oppressé, cest qule pressing met la pression Faut spresser pour éviter que les keufs nous rattrapent Cette vie dpacha, on la choisi, jvais mpachaver jusquà samedi Jai fumé trop dherbe hier, jsuis pas comme tous ces terriens Jsuis pas venu ici pour rien ni pour passer la serpillière Moi, jsuis un crack dans cgame et aussi sous les draps Mais jte toucherai pas si tas dla coke dans lzen Tu sais qu'ici tout se passe violemment, un peu comme Ikki Et dans mon cur, ce ne sont pas les stalactites qui manquent Faut du liquide, à la base tes gars sont pas dans lstupéfiant Arrondis la mise et l'image est nette, tout ça immédiatement J'ai longé la rive espérant passer de l'autre côté Faut passer par là, fils, mais au loin je vois la sale époque et Les gens qui t'ont gratté jusqu'à l'os bosse et prospère On voit ta go s'plaire, sale dans les bras du voisin d'à côté Toi, c'est Chacun pour sa peau, bah, va niquer ta mère Moi, un coup de fil à mon polak, la vanille kush amène La déprime sur mon cahier, Navarro veut me traquer C'est auch, j'me cache comme un uf le jour de Pâques Je ne parlerai pas de 2Pac, sinon la rime sera mée-cra Mais je l'ai quand même utilisée Regarde comment j'te la mets dans le fiacre Y'a pas que le pak-pak qui travaille H24, ves-qui Les hommes à la plaque, ça me rend barge La moindre occas' j'attaque Jamais arracher de sac, faire du boucan n'est pas intelligent Demande à Makay, les plus cons n'font pas long feu Écoute et ferme ta gueule quand j'kicke, grosse merde Y'aura pas d'crise d'hystérie ni de films austères J'viens tout baiser dans ta cité, dans ton département Je m'en bats les couilles d'ce qu'on dit sur moi C'est pour ça que les porcs te mentent Mesdames, Messieurs, laissez place à l'artiste Laissez place à la tise, premiers sur toutes les listes Bien pistonnés, ils ont l'air d'être isolé La vérité ? On leur pisse au nez Faut briser les pots cassés, parlez pas pendant que j'écris ce phrasé Effacer le passé dans le sarcophage du Kazekage La case je l'ai coché pour qu'les faux évitent de faucher Fiché face aux faux passifs parce qu'les rumeurs sont falsifiées Fils, j'ai tellement de récits, réécris les histoires de Mesrine Maquille les mecs cons, d'la vermine, à qui on ne fait pas d'cadeaux En attendant ma Confrérie arrive calmement Caner le manque avant qu'il frappe et qu'il augmente sa dépendance Ça part en impro, y'a pas d'blème-pro Tu sais très bien que j'baise la lice-po OK, mon pote, tu sais qu'dans la salle y'a Lomepal OK, mon soss, j'suis àl, j'te la mets dans l'anal J'suis chaud comme les flammes, poto OK, mon soss, j'suis àl et tu sais que j'pose Pour tous mes schyzos, OK, mon pote Ça boit de l'Arizona, OK, mon pote J'suis àl et tu sais que j'te nique ta mama Jusqu'à ris-Pa et j'braque la BNP Paribas OK, mon soss, tu sais que sur moi faut parier Et que sur toi je n'parie pas Mais qu'est-ce qu'il se passe ? Je pense que je perds la tê-te Comment t'expliquer que je kicke quand ma clique est opé ? Manque de loves, j'entends les sirènes du charbon Putain mais quelle question Qui n'voudrait pas gagner des millions ? Ouais, j'viens du 93, Seine Saint-Denis style Je lâche que des punchlines, fous donc ton gilet pare-balles J'vole comme un papillon et pique comme une abeille Si ça rentre dans ton pavillon c'est pour piquer ton oseille Ma technique nique les flics donc j'essaie de m'appliquer Comment t'expliquer que quand j'commence J'peux plus m'arrêter ? J'vois qu'ma vie défile à une vitesse impressionnante C'est Ormaz au micro, voilà pourquoi la pression monte J'crois qu'la Terre est plate vu que le monde ne tourne pas rond J'suis mal barré, pas paré, paro comme la victime face au XXX Caner pour des futilités, mais qu'es-ce qu'il s'est passé ? Mais qu'est-ce qui fait que la vie devient si compliquée ? On s'arrête pas, barrette baraque pour me barrer d'là M'les cassez plus jactez plus, bande de putes, j'vous sors le carré d'as J'ai qu'à raidir le sens de mes propos Ce travesti se transforme en grande forme avec ses potos J'fais ta biopsie en criant des slogans grave obscènes S'il me reste que ton corps ben on ira l'tèj dans les Hauts-de-Seine J'fais tes obsèques à chaque seconde, tu jactes C'est bon, j'ai des gros seize et des claques qui grondent Avec mes couz et les métèques, j'forme une coulée d'été Une vague qui couche detér' et t'enterre à coup de bélier Ouais, j'roule et fous le souk et découvre l'égout du zoo Avec mes troupes des hoods du sud, j'ai coupé court et vous ? Et j'roupille tous les jours avec mes groupes, on joue sur tous les murs Les groupies tue les toutes avec XXX la ue-r Déniche des putains d'foufs, ouais, des zouz stylées Si tu veux effriter la kush, tu t'manges un coup d'gilet Y'a pas d'dilemme, j'rappe si le beat me captive Je XXX et gratine la platine Ton flow est fastidieux, j'efface Avec mon Rap, un gras stick et des tas de tactiques Y'a pas d'limite donc j'brûle un tas d'gimmicks J'fais des tags le soir, j'suis grave un putain d'activiste J'rappe si vite donc dans mes ébats c'est bès-Bar Laisse ça à ceux man qu'ont Pas tranquille, j'ai disjoncté ça fait pas mal de temps Ma femme me hante, j'vieux pioncer, vivre au ralenti Car j'ai plus d'rage dans l'ventre Ouais, j'ai que des pics dans le cur Génération sanglante, nique l'amour on fera la guerre dans l'heure On s'détruira ensemble jusqu'à qu'on finisse en deuil Ou en pleurs dans notre cercueil Pendant des heures après s'être fait descendre C'est ça la vie d'bohème en 2013, chez nous, y'a plus d'promesses Surplus d'tristesse donc on s'ment à soi-même Allume un joint d'pollen pour calmer ma colère J'veux pas finir camé ou cané, c'est un peu trop d'problèmes J'veux pas d'un statut misérable ni d'une maison à mille étages Mon idéal, juste une femme qui m'fait des mômes honnêtes Désespéré, le Rap m'éloigne de tout ça Il m'a fait perdre la tête, il m'a fait perdre l'amour J'avoue que j'ai rêvé d'être l'égal de 2Pac Shakur Trou d'balle, réveille-toi, t'es l'seul coupable Si l'coup part avec un surplus d'amour C'est qu'il fallait que ça parte en couille Fallait que j'arrête les cours Fallait qu'Paname s'en doute que j'suis l'futur numéro 1 Ni 2 ni 3, tu l'sais si tu m'connais bien Joint d'beuh, joint d'frappe histoire de consoler les miens Panama Bende on est sept, on peut t'faire chier toute la semaine Comme une merde dans laquelle j'viens d'marcher Les MC's sont tous sous ma semelle Le mic, on m'la donné, OK, rappons Mon Rap est frais, mon Rap pétille à consommer avec modération Sinon tu risques de t'blesser, le beat j'veux l'dresser Sache que même si j'flippe tu m'verras pas les yeux baissés Hey l'internaute, si t'aimes le Rap viens voir ma page Dans mon équipe on garde la tête haute Dans l'espoir de pas boire la tasse Écoute ce beat, mes khos kickent stone Mais ça, ça ne bouge pas depuis les Beattles ou les Rolling Stone J'connais mes bases, j'ai relu ma leçon et j'vote la paix Fais comme moi, écoute ces basses Mets l'volume à fond et hoche la tête J'lâche que des phases qui te fascinent, effacent tous les blazes Écoute les MC's sont sous plaques d'égouts Et n'ont qu'des placements faciles Perdre sa valeur dans c'monde,où l'argent fascine J'aime trop cette tension dans la salle Lorsque les fans attendent l'artiste 18 ans à peine, tu vois que l'âge ne fait rien Le beat prend déjà tarif et pourtant là je n'fais rien Jeune terrien qui n'aime pas rester seul, ouais Un frère au tel' dans la main gauche Et avec l'autre, ma belle, j'caresse tes seufs Touche pas mon skeud si tes mains sentent la bouffe Tous des gars sont aussi virils que Vincent Mcdoom Tu crois que t'es jolie, ma folie a plus de charme Si la police trouve mon brolic, j'accuse le chat J'suis rare comme un Chinois obèse Mec, j'suis né sur Internet J'rappe depuis la terre mère dans ma villa de rêve Mon côté street ressort plus que l'autre Si j'suis cool c'est que j'ai construit mon trône sous de l'eau Si t'as pas compris la phase, arrête de penser direct J'veux fuir la France, l'émirate attire beaucoup les minettes Gars, j'ai les rimes tranchantes qui t'envoient en l'air, catapulte T'en fais pas qu'à ta tête, nan, t'en fais qu'à ta pute Y'a pas d'blèmes, Z.E.U envoie, emploie des fois des blasphèmes J'vois mes gars qui s'tâtent à doigter c'tas d'chair On ré-atterrit, Raikiri sur ta pommette fat Appétit d'staff, on graille des pâtes et ta cover Ouais, mec, là, j'gratte des kils sur ta map ou dans ma ville Et matte pas quand j'm'active Car même quand tu comptes, mec, t'es pas terrible Répartie pas crédible, les wacks j'vous claque Même les fatous s'tapent dans des vapeurs de XXX critique XXX bédave l'équipe Placement douteux mais c'est tout le charme du type Classement cool mais t'es fou, ZEU rappe tu kiffes Y'en a qui disent que j'ai un style de narcotrafiquant J'suis juste pratiquant, c'est pratique mais faut pas que j'y pense Déclare le premier cas d'infection chez les wacks J'remets l'gaz, te trompe pas, j'fais tomber les watts Déclare le premier cas d'infection chez les wacks J'remets l'gaz, tremble pas, fiston, j'fais tomber les watts J'suis peut-être ce messie qui aime briller, à l'écrit inestimable Sous c'Teddy j'ai l'vestige de plein de rimes interminables Dès que je prends l'stylo c'est pas pour s'tauler Mais pour dégainer le style avant d'tout niquer c't'année Y'a les démences des étrangers dérangés Donc j'dois m'élancer et changer les pensées Mais aussi sauter les passerelles avec élégance Acheter deux, trois polos par ci pour niquer dans la semaine Car j'sais qu'il y a trois, quatre groupies par là Célébrant ma présence avant l'événement J'ai plus d'un outil d'attaque et plus l'temps Pour attendre que le four chauffe J'suis à la page, eux, ils nagent sous l'eau J'dégaine un nouveau style, couteau suisse, personne au niveau J'me rapproche de l'excellence, plus attrayant qu'les Rolling Stones Aussitôt né dans un d'ces hôpitaux On doit faire nos preuves pour pas rester incognito J'kicke au microphone mec, guette comment j'me démerde J'aime parler pour les fans des aller-retours au comico Et tout ce tralala m'amène à la bracadabra Parle pas d'attaque, t'as pas l'panache à Pananama Bende J'suis en scène, le Rap français va jamais d'cesser sucer l'armada Le succès est par là-bas, là où mes gars s'reposent Le soleil frappe fort, on s'prépare ensuite on s'expose Panama Bende tue, Panama Bende canarda Et la panique devient globale Tout le monde se jette par dessus bord Oui j'ai le mord, aucune activité mais c'est paranormal Y'a pas d'copie conforme à part si tu as le Sharingan Ne bois pas de cool-al, juste après tu te prends pour Konan Laisse démarrer, du moins n'essaye pas de m'barrer la route Je prépare le terrain et dans mes couilles une barrette s'ajoute Mais qu'est-ce que tu fais, sale fou ? Redescends sur terre Écoutez la marée basse, les jaloux vont faire un ulcère Retourne les veaux-cer, tous les bosseurs ne sont pas payés J'ai vu des pupilles dilatées à cause de ce bout de papier Et papi, j'te fais une passe à la David Beck' Sans dec', mec, on rappe sale sans se faire de crasse Ouais, les rimes sont salaces pas de solo comme Zorro, juste un Cavalier à cheval gravé sur mon polo, ferme tes Petites lèvres adorateur de billets mauves Tu devrais moove avant que je ne ferme ton bec de lièvre Ouais, j'ai la ge-ra mais j'dois gérer les jours à venir Là j'arrive, j'arrose le mic, j'roule la weed les yeux ges-rou Inchallah, chérie, j'finirai che-ri plus que Chirac Fini les chéra, j'devais agir j'me suis déchiré Trop lourd est l'poids d'ma charrue, autour de moi y a qu'du chahut Le pilon m'a eu, ce soir sous la lune le chat hurle Allez, ciao, tchouss, les mecs ici ça tchompe J'passe le teh à gauche et j'entends atchoum J'monte dans ma XXX et mon tchou tchou Pour calmer ma rage de Tchétchène S'il veulent me tchatcher, j'leur dirai check check Moi y a qu'à mes frères qu'je me confie Même en période de conflits Et pour les autres ça sera la mort ou tchitchi Ni paix ni tension, mais j'ai d'la peine, entends ça Tu fais à peine attention et t'voilà au pénitencier La juge a puni tes soss, a puni les miens Une savonnette et l'argent pre-pro j'y ai plus mis les mains J'suis devenu stupide et dingue Il m'faut des stups et des flingues À Stalingrad, seule la Faucheuse viendra stopper les seringues C'est simple, j'y passe tous les jours Les toxs subissent un ensorcellement J'veux pas t'voir taffer salement pour un taudis à Sarcelles, m'man C'est-à-dire que tu t'en sors seulement si t'es dur Pour traquer l'oseille comme Esteban crois pas qu'ma cité dort On s'était dit, on reverra plus jamais ces taudis Plus j'y suis, plus j'les aime Moins j'y suis, plus j'me dis que c'était dar gros J'suis rieur, c'est curieux Jeune déviant, retourne chez tes vieux Nah, sérieux, j'suis meilleur même si je fais rien Jump dans c'buiz' comme un cop dans l'six, ou un mafieux Méfiant comme un il myope dans l'viseur Il y a des milliards de choses que j'veux illico presto Mini-bar, gov' chromé, whisky, frappe, resto Ils s'blessent pour des valeurs ajoutées Mais j'laisse faire, il m'reste quelques rappeurs à shooter J'me fiche de l'égalité des chances, j'vis Pour les lyrics et la qualité des jantes J'me relaxe, spliff sur quais d'Seine Et on m'a dit que jexcellais Quand j'rappe, t'es vexé, désolé, j'suis l'next level Roule de longues battes pour éviter qu'on bosse Et ça fait double contact entre ma bite et ton gloss Chillance, avec les vilains prend d'la distance On parle de filles ienbs, de filles minces et de finance Quand la frappe n'est pas là, les souris pleurent J'ai appris qu'les meufs c'est qu'des putes Et que les gars c'est que des leurres Rien ne sert de s'lancer des fleurs, on semboîte comme des Lego Mes gavas ont tous du flaire pour ça que j'les appelle tous négro Y en aura que un ou deux pour toi, si t'es en chien Ma belle, t'es pas ma meuf Tu suces trop bien pour être une meuf bien Spécialiste du saut d'obstacle, la vie t'a bercé doucement Moi, la mienne m'a mis des grosses claques Un bus, un siège, des Posca, c'est comme ça qu'on passe la route Ça roule au fond du car et on emmerde tous les jaloux Petit frère, coffre ton bénef' ça dure qu'un temps Fais pas l'con comme tous les autres Qui claquent tout l'biff à Printemps J'écrase mon teh à l'instant, il m'a envoyé à Rio Si tu dis qu'la vie t'attend, poto, c'est que du mytho Qui était là quand j'étais dans la muerte ? C'est la perte de ta paire de couille que t'appelle ta fierté Tu m'fais chier depuis l'placenta, viens on casse un tête Non non, ici c'est pas Saint-Anne, c'est juste que j'lâche un texte J'pense plus à rien quand j'rappe, c'est mon corps qui mène la danse Il faut encore péter les scores, il faut encore qu'on prenne d'l'avance Pure mixtape, grosses enceintes et c'est l'néant Mes paupières s'ferment La fumée s'mélange à la brume qui se lève Moi, quand j'rappe j'ai des images en tête, couleur magenta Accrochez-vous là c'est qu'la tempête, bientôt l'attentat Si j'ai la voix qui part en couille, ça c'est l'effet du blunt J'en ai rien à foutre du buzz, le Rap c'est mon kiff avant tout Le temps a pardonné ma plume de tatouer ma feuille Khey, on m'a donné la vue alors j'vais pas jouer l'aveugle Et ça fait frappe, frappe, lucarne, lucarne, but Nous l'soir on fume d'la frappe-frappe avec des putains d'putes Dis-moi MC, pourquoi tu parles pas ? T'as pas l'air timide, non À croire que t'as chaud quand c'est Panama Bende qui kicke Et le son glisse miss, plus de 0.6, émotif Roule un putain d'spliff, je quitte la rive, Paris, ouais, j'arrive Je vise le mille avec mes types, tout ça est technique Lunatic, Armaggedon arrive à XXX, fils Tout ça est fictif, je me l'demande bien Même si demain c'est loin Je vois de moins en moins, je reste dans le coin Du moins, j'essaye de faire le bien parmi les tiens J'ouvre des XXX, dans mon état Je vais pas faire long feu mais bon c'est bien Pas d'fond de teint, déteste les chiens, j'ai phasé Passé, caché, attaché ma partie du gain cette année J'ai parié sur Paris, la chance est partie Là où je participe à l'élévation avec toute ma troupe Wesh, les boys, ici la nouvelle génération Un Rap qui t'met des goldens, c'est bientôt la révélation On est sur le podium du top ten, pop corn et cocktails Si l'savoir est une arme, nos glocks sont dans nos vortex On vient rapper dans ta fête Ta meuf ! On va la baiser sans latex Ta gueule ! Et écoute Bende dans ta Benz On est les plus fous, les plus géniaux, c'est Aladin et Elyo On frappe où ça ? Dans tes organes génitaux Mes gars s'couchent tard, fourent des miss dans la cabine Ça s'décline en bagarre quand leurs copains font leurs bagages On est les princes de la partie, en aparté Dans un appart chill, on apparaît l'été à Paris J'm'évade et passe les passerelles, dérape et braque les gars mais M'échappe à l'écart d'mes partenaires trop attirés par la weed Wesh, Aladin, hier soir on a baisé qui ? Hum... Une pute, une ronne-da et nos ennemis Wesh, Elyo, y'a quoi d'important dans la vie ? Hum... La miff, le respect et le ness-bui On veut d'la maille et des Mazerrati, démarre, ouais démarre On part en ride sur les toits de la ville Des femmes et des fans, tels sont les proies de ma clique Donc j'repars en impro, t'à l'heure j'me suis chié Mais nique sa mère, j'suis àl et tu sais que je vais t'niquer Faut pas paniquer, tu peux pas nier, mon pote Mon pote, j'suis l'plus fort, mais nique sa mère j'suis àl J'représente le 93 hardcore, tu sais que j'mange pas d'porc On a graille des 'zzas mais nique sa mère, j'suis àl Tu pues la merde donc je zappe et tu passes à la trappe Espèce de merde, OK, mon soss, j'suis àl, je t'emmerde Tu sais bien que j'me démerde, la rime est cramée Mais nique sa mère, tu sais qu'je sors de l'armée J'viens t'niquer, tu peux paniquer, putain, j'me répète Mais nique sa mère, j'te fais tourner l'pet OK mon soss, j'suis àl, espèce de pute t'es sous amphet' Seigneur, dites leur qu'on vient de loin comme Marty McFly C'est oppressant, j'mets la pression sur tes MC's à la Maglite On lâche des fat lines, ma Confrérie tu acclames Kidnappe ta famille, la bicrave aux roumains du Cap d'Agde Préviens mon réseau géorgien, ouais, qu'y a des plav' libres On t'arrache ta chaîne du cou si tu brailles et que t'as pas biff J'ai l'plexus en feu, les phases fusent Et tu t'excuses quand je t'esquisse un tiers de mes astuces Je me réveille à peine, mamen, un coup de barre très vite J'ai cours, grave , mets coup d'lames terribles On rappe avec mon zoo, des putains d'proses classes je t'ai dis Y'a des faux gars que j'méprise mais l'Coca Cola m'maîtrise Ne m'demande plus ma quête, j'déclare que j'dévalise la rime Éclate sur ta face des tas d'crasses d'multisyllabiques Ouais, j'utilise la vie comme cour</t>
+          <t>Bébé, si tu boudes, c'est cheum car Pour te consoler j'serai obligé d'te lancer ma Playstation 4 Y'a pas de Roberto Carlos mais c'est Carlos et Roberta Qui viennent te per-ta pour un passe non payé Il est classe mon pieu, quand un 95D Y est agité comme un gars bousillé J'aurai percé quand y'aura mon nom sur des plaquettes de shit Quand un charbonneur coupera mon nom en lamelle de dix Quand les corps gisent, le score est de 9.9.9 Suivi de trop d'chiffres J'ai laissé mes empreintes, j'ai mis trop d'gifles Il faut que j'me tire de là, ça sent l'cramé Entre les potes et les tasses y'a pas grand chose Donc parfois j'craque, j'demande un temps d'arrêt Parano car j'ai vu l'vice dans un peu trop d'pupilles Alerté par mon père Rares sont les amis présents toute une vie J'ai l'goût du risque et il m'disait qu'fallait que j'me calme Arrête de faire le mort, arrête le Rap, oublie tes rêves de gosse Qui va remplir ton assiette ? Sûrement pas tes petits potes Le jour où j'monterai au ciel, tu pourras dire qu'tu perds le cap Tout ça m'fait réfléchir, j'perds l'équilibre, trop défaitiste Faut pas que j'tombe dans l'précipice J'veux une meilleure carrière que Nas J'ai mes petites affaires, mes priorités, ma vie ne s'résume pas À déchirer cette cigarette, faire le ton-car et m'pillonifier J'tiens le guidon de ma carrière à dix-huit ans Tout seul, sans boussole car seul Dieu peut me guider L'décollage est imminent, tout ça était écrit Sur l'écran bientôt mon clan car l'écriture ne cesse de briller J'suis hésitant et dépressif à moitié, j'veux des femmes À moitié j'veux les caner et déballer toutes mes armes On fait comment, là ? Là c'est tendu, j'endure V'là l'effet d'ces tains-pu qui m'enfument Donc j'rappe des putains d'phases mées-cra Malgré Georgio, j'suis pas à l'abri d'finir en cure Et j'revisite en plus les endroits dangés hantés par mes tags Mais faut pas s'faire d'illusion Moi, j'ai mes cartes et mes classiques Mes vrais gars, pas des bad bitches Qui parfois filent puis s'éparpillent de mes an-iensc, ouais, c'est sans fin, mec J'risque de me perdre dans cette enceinte qui en sens inverse Technique bien coffrée dans l'falzar beige, je t'ai dit J'viens choquer tes récits, toute l'équipe présente dans la raquette Mais doucement ouf, toujours dans l'art abstrait et c'est la galère Demande à Limsa, à Koma, on est des arabes screds J'mérite d'la salade fraîche pour finir une Phillip en Phillies Pour cette shit qui fait rimer Grünt et mes paramètres Bah, ouais, ma gueule, ça fout l'seum En label ils s'touchent et grattent des thunes Alors qu'nous ça taffe tout seul Donc il faut que t'écoute ce couplet si t'es révolté Au lieu d'avoir la frousse Prendre ton mic pour mettre des coups d'seup' Et ça fait un pour mon équipe, deux pour moi Faire du Rap à l'infini, il nous faut plus d'1000 E d'pourboire Bah, ouais, l'argent c'est plaisant même si c'est pas la vie Je t'assure qu'dans mon appart à Plaisance j'avais du mal à vivre Le Rap, c'est mon défaut même si j'adore ça J'ai vu des potes mettre des rottes-ca J'ai appris qu'ce monde est faux Belek aux coups d'griffes, rugissements, on est des lions, des fauves Dans mon équipe ma gueule, pas d'amateur, non, non, tout l'monde est pro Ah ! Si tu parles mal, on t'enfonce la rime dans la prostate Clique sur YouTube et vois qu'mon équipe fait des grosses stats Ce monde est dégueulasse, j'ai déjà même vu des go's s'tapent Pour oublier tout ça, le soir, à c'qui p', ça fume des grosses lattes J'me concentre, j'imagine c'que j'rêve d'être J'ai presque trouvé la route Maintenant, j'espère que c'est l'bon sens Je suis arrivé pour éviter les mystères et t'as liquidé l'humilité ? Pourquoi vérifier si t'as tant d'flair, frère ? Faut se méfier de tout et de rien mais pas couper les liens Seule différence on voit tes gars s'taire On compte faire des dégâts, pas à pas l'appât fait des siennes Ce soir, j'ai les nerfs, il faut que j'me vide car j'ai la vessie pleine Et j'insiste même sur le fait que ce putain d'système M'insupporte mais j'hiberne dans leur putain d'frigidaire Les mains en l'air, j'vais pas parler d'savoir ni d'arme Rivière de larmes, c'est un drame Tirez l'alarme, ma plume aiguise ma lame Réincarnation de Duncan MacLeod Mystérieux comme le Loch Ness, les coups j'encaisse Le plus rusé d'la tess, j'suis pas fasciné par l'Homme Dommage, passe la pommade et fais l'ménage Ne fais pas l'mac sinon j'te laisse ma trace Plutôt dans l'ambiance tenace classique, la technique est maîtrisée Emploie des flows stylés dans l'oreille du mec postiché J'roule un vrai kamas, pas d'kétamine que du Ketama T'inquiète, hami, on contamine le Rap histoire qu'les chèques s'amassent Un pur sur la pochette de Nas Une grosse latte sur la roquette de Max OK, relax, laisse-moi juste smoker le niak's Venez prendre vos vers de claque, gros teh de frappe Gros verre de Jack et mes khos perdent le cap Faudrait me croire, on a tous zappé nos rêves de star Que des problèmes le soir mais dès l'aube on d'vient aussitôt cool En veste noire, Ilyes, mon bicot roule Sidy, mon négro pète le zbar, frérot, laisse deux barres J'ferai mes sous comme Iznogoud même avec les flics au boule Un kilo d'poudre planqué quelque part Et si ça vire aux coups, ne vas pas l'dire aux cops Fais-moi un petit -roco, dans mon crâne ça tire au colt Bang ! Bang ! C'est la LT Family, cesse tes gamineries Soudés comme Michel et Platini même dans les nuits au poste On sait nourrir nos forces comme on sait pourrir nos nerfs On fait souffrir nos mères Mais est-ce qu'on fera souffrir nos gosses ? J'compte pas sourire au boss ni être soumis aux ordres Les jeunes d'ici veulent du Gucci au corps Quitte à vendre des bouts d'shit aux profs Ma vie, un labyrinthe, je marsou l'minotaure J'parfume ma ville, zinc, eux, ils fument des niaxous inodores Y'a pas d'malaise, mon vieux, t'es fou, 9.3 Sache qu'à la tess on veut des sous, y'a quoi ? Bende, nouvelle vague, on est les commandants d'bord Écoute et ferme ta gueule, zin, comme en temps d'guerre Ouais, ça commence fort, ça commence mleh J'suis arrogant, j'flotte, chill en crapotant l'zdeh Moi, j'suis pas du clan des faibles Mais j'suis prêt à faire tant d'efforts Donc nique ceux qui m'disent c'que j'suis censé faire Mes bougs s'plaignent Nique s'réveiller dans une Bugatti Moi, je m'endors sur du Wu-Tang, réveil sur du Lunatic On s'bouge comme un gang de tarés Fout l'feu comme un lance-grenades Saouls quand on rentre de soirée, fougueux comme un gentleman J'sais que t'as des accès d'stress mais, vas-y, peace Je m'en bats les steaks, on t'shlasse au couteau balistique Les filles sont belles, vision d'rêve On chill dans les chaises longues, elle m'dit Mi corazon, encore un son et puis on ken On est les seuls qui maîtrisent, nan, j'rime symétriquement Disent qu'le Rap n'est qu'un divertissement, direct, ils s'branlent Teste pas ce serait une perte de temps, 'teille de Jack Verre de champ', faut qu'je reste droit Et qu'les Air Max restent blanches Identifié suspect dans une soirée un peu trop riche La vie est une chienne, elle ne fait que des vux torrides Eh DJ, balance le son, ambiance de fond Quand entre le monstre, dans l'antre je fonce, je Détecte les missions, brunes, blondes célèbres Expert et envoûtant, 100 de finition Mon plus beau style, fidèle à ma horde J'établis ma force, vilain comme un corse Ou une fille et son corset ou ce flic qui te course Ou ce flic qui te course ! Reufrè c'est Z.E.U qui kicke, à l'horizon c'est Bleach Les gens s'découpent pour quelques bouts de terre Couché le long d'la rive J'attends que le soleil glisse son premier rayon Et fils, file-moi ton crayon et ton Vélib' J'voudrais gambader seulement dans une propriété à Kiev Chiller le long d'la Seine, te proposer d'baiser après Sans ça c'est fichu, dis tu, m'prenant la tête, hey T'es qu'une pute, c'est ridicule, abrège, faisons la paix Le choc est assez violent, certes, mais ça qu'est-ce qu'on en sait ? On vient le-par, au nom du Panama, te-ma leur tête Et mes décals ? font mal à leurs fesses, recharge mes munitions Échauffé par l'ébullition du retour de flow d'Aladin On prend des grosses sommes à la pince, arrête tes XXX Certes frère, on fait des terribles pour quitter cette terre ferme On s'détend l'épiderme en partant loin du fisc, fils de J'viens juste retirer mon épingle du fil Parce que t'es moche, j'ai décidé d'pas t'aimer, t'as le zen À faire chavirer n'importe quel bateau en mouvement Ton père est pédophile, ton oncle t'fait des attouchements T'as la force d'un nouveau né qu'est bé-tom à l'accouchement Même refait tu serais moche, à c'qui paraît Ta femme est enceinte, j'veux pas voir la tête des gosses Tu peux faire ton vu mais elle file l'étoile J'dirais même que les tétraplégiques ont pitié d'toi Carrément, pour ta famille, lÉtat a fait des dons C'est grâce à ta tronche Qu'ils font de l'argent chaque année le Téléthon Tu t'prends pour un beau gosse mais t'as une tête de bite J'suis pas l'seul à l'affirmer, merde, même ta mère le dit Lamour est un châtiment divin, posé sur ldivan Là où les mots sont pratiquement physiciens Je ne mène pas une vie simple, reprends les devants Attends, javance avant de faire le vide, les poulets misent bien Mais miss, viens me voir, je narrive plus à distinguer lhypocrite Et les faux gars qui veulent la mort du mystérieux Type qui vient te voir à des heures tardives, un peu dliquide Cest là qutout part dans llit, on fait des backflips Tard la nuit, je file par les rues de ris-Pas, passe Par dessous la ville car les rues sont tricards, sale À ton avis, les bons narrivent quà la fin Mais les gens zapperont leurs amis Nvoient que le seille quand ça parle de légende Les mecs sous amphèt en font tant Pendant que jprends mes distances Évitant, je dépense mes sens tout comme mes finances Refilant le filon filé sous les ponts, Paris sous les bombes Tombe, échange ton kilo dplume contre un kilo dplomb Travaille avec sensi, cendar, m'endors puis le matin médite Je suis ce félin qui sen tape De la vie et de la fin des crimes Jai un bic en rage qui voit des catins s'dévêtir Tinquiète, man, on fait les rimes Ya qules vrais Gs qui sont indispensables ABBA, jsuis cgars qui sactive sans tracas Souvent ma rime tembrase, gars Et nconcurrence que des phases exécrables Habitant Paname, jaime que les petites femmes Et les phases, fait que les ignares, jles efface Ils veulent ma peau tout en salivant dma frappe Je gratte et jviens dailleurs, ya quà voir cque jfais dans mes sons Errant, jbe-tom parfois dans les fonds Oublie dapprendre mes leçons, jdéfraye tant les ondes Je mencense pas, jme perds dans des ombres Tendance à mremettre en question Après 23 heures, jveux que la fumée mensorcelle Jme couche tard donc jtombe en panne Réveil tôt puis mendors frêle Jusquà qula lumière monte en moi Oublie pas qusi tu touches léquipe Cest toute léquipe qui te couche Et qui peut dire que jdoute ? Tout est gris mais, moi, jfous lsouk et jbrille Jaime la musique, jaime le groove donc jvais faire groover ça Jprépare un gros coup d'état M'atteindre vous ne pouvez pas car j'ai la rime scred posée J'viens là pour explorer l'Rap avant de l'exploser Ouais, en c'moment jfais qubosser tard J'baise vos hectares de terrain Du moment que jai bière, drogues et femmes On fera lshow avec mes frères forts et hargneux Toute la nuit avec un peu dchance on verra billet vert, prod et fan Et j'te conseille pas daffoler la meute, ma gueule Jespère qudans nos cerceaux ya pas d'très gros dégâts Car on fait parti dceux qui passent leur temps à coller la yeuf Oh les gars, je plane avec de gros pétards, on fout lzbeul Donc tétonne pas si tu vois mes gars causer ta meuf Ouais, jpeux capter la foule même en a cappella Jviens rapper ça comme un héros, check check Poto ma cape est là, DJ, monte le son Poto, sors la 'teille et, baby, danse le twerk twerk Cest fini la macarena ! On veut du biff, on en aura, la réussite est proche Regarde-moi droit dans les yeux Pendant quZeurti te vide les poches J'suis jeune mais un expert au lit Si les voisins splaignent du bruit Dis-leur quils sont invités aussi Mes gars vendent de la came parce quils trouvent cheum ton RMI Tu vois qules keufs leur courent après Moi, jvois qules keufs stromper dennemi Une kippa sur la tête, demande à mon frelon Jeremy On apprécie le Rythme et le Blues mais nous on fuck ton R'n'B Tes gars veulent pomper des bites Mes gars veulent compter les biffs Voir un reuf stagner cest cheum mais voir un reuf tomber cest pire Un soss ma dit Gros, il faudrait quon vire au large Arrête ton bricolage et montons un cambriolage Un autre ma dit Gros, il faudrait qutu taffes en cours Et pas qutu partes en couilles, ça trapportera des liasses en retour Mais quest-ce que jdois penser ? Je sais pourtant qula street cest dla merde Gros, arrête ton bluff, tu perceras dans lhaschisch et la verte Bah, ouais, la vie, cest galère, il faut quj'maîtrise mes affaires Jpenserai lcontraire le jour où jverrai mes rents-pa tripler dsalaire Jai kiffé la tess, foutre le XXX tout lété Les aprem au stade avec mes gars dla tour GP Là, jai qudeux balles à tout péter Mais beaucoup dtaga sous les pieds Va falloir que jfasse un ient-cli ou deux à la cour drécré On sbarre en ville au volant dune Peugeot 306 Plus moi, plus 3 mecs du quartier, ouais, ça fait 310 Jsuis un python dans le Rap, si tas la haine, crie le Jsuis pas lRoi que à Paris, ton rêve je vais me laccaparer Jsuis pas ce petit con quon marave, si tas un blème, dis le Tu ferais mieux dcoopérer car tu sais que j'suis incomparable Gars, naies pas peur, accroche-toi, la douleur accordera Une réelle danse à ton corps quand la mort t'approchera C'est bientôt l'heure de lévénement, ressens la véhémence Ils se battent, jécoute Grödash pour renforcer mes défenses Tu croyais quoi ? Quon allait slaisser faire ? C'est la jeunesse parisienne Guette ma plume et check mon élégance Tel un messie, jentends mon blaze dans la foule On aime les filles quand on leur crache dans la bouche Mon Rap est précieux et précis Faut que tapprécies et que je timpressionne Si tu tsens oppressé, cest qule pressing met la pression Faut spresser pour éviter que les keufs nous rattrapent Cette vie dpacha, on la choisi, jvais mpachaver jusquà samedi Jai fumé trop dherbe hier, jsuis pas comme tous ces terriens Jsuis pas venu ici pour rien ni pour passer la serpillière Moi, jsuis un crack dans cgame et aussi sous les draps Mais jte toucherai pas si tas dla coke dans lzen Tu sais qu'ici tout se passe violemment, un peu comme Ikki Et dans mon cur, ce ne sont pas les stalactites qui manquent Faut du liquide, à la base tes gars sont pas dans lstupéfiant Arrondis la mise et l'image est nette, tout ça immédiatement J'ai longé la rive espérant passer de l'autre côté Faut passer par là, fils, mais au loin je vois la sale époque et Les gens qui t'ont gratté jusqu'à l'os bosse et prospère On voit ta go s'plaire, sale dans les bras du voisin d'à côté Toi, c'est Chacun pour sa peau, bah, va niquer ta mère Moi, un coup de fil à mon polak, la vanille kush amène La déprime sur mon cahier, Navarro veut me traquer C'est auch, j'me cache comme un uf le jour de Pâques Je ne parlerai pas de 2Pac, sinon la rime sera mée-cra Mais je l'ai quand même utilisée Regarde comment j'te la mets dans le fiacre Y'a pas que le pak-pak qui travaille H24, ves-qui Les hommes à la plaque, ça me rend barge La moindre occas' j'attaque Jamais arracher de sac, faire du boucan n'est pas intelligent Demande à Makay, les plus cons n'font pas long feu Écoute et ferme ta gueule quand j'kicke, grosse merde Y'aura pas d'crise d'hystérie ni de films austères J'viens tout baiser dans ta cité, dans ton département Je m'en bats les couilles d'ce qu'on dit sur moi C'est pour ça que les porcs te mentent Mesdames, Messieurs, laissez place à l'artiste Laissez place à la tise, premiers sur toutes les listes Bien pistonnés, ils ont l'air d'être isolé La vérité ? On leur pisse au nez Faut briser les pots cassés, parlez pas pendant que j'écris ce phrasé Effacer le passé dans le sarcophage du Kazekage La case je l'ai coché pour qu'les faux évitent de faucher Fiché face aux faux passifs parce qu'les rumeurs sont falsifiées Fils, j'ai tellement de récits, réécris les histoires de Mesrine Maquille les mecs cons, d'la vermine, à qui on ne fait pas d'cadeaux En attendant ma Confrérie arrive calmement Caner le manque avant qu'il frappe et qu'il augmente sa dépendance Ça part en impro, y'a pas d'blème-pro Tu sais très bien que j'baise la lice-po OK, mon pote, tu sais qu'dans la salle y'a Lomepal OK, mon soss, j'suis àl, j'te la mets dans l'anal J'suis chaud comme les flammes, poto OK, mon soss, j'suis àl et tu sais que j'pose Pour tous mes schyzos, OK, mon pote Ça boit de l'Arizona, OK, mon pote J'suis àl et tu sais que j'te nique ta mama Jusqu'à ris-Pa et j'braque la BNP Paribas OK, mon soss, tu sais que sur moi faut parier Et que sur toi je n'parie pas Mais qu'est-ce qu'il se passe ? Je pense que je perds la tê-te Comment t'expliquer que je kicke quand ma clique est opé ? Manque de loves, j'entends les sirènes du charbon Putain mais quelle question Qui n'voudrait pas gagner des millions ? Ouais, j'viens du 93, Seine Saint-Denis style Je lâche que des punchlines, fous donc ton gilet pare-balles J'vole comme un papillon et pique comme une abeille Si ça rentre dans ton pavillon c'est pour piquer ton oseille Ma technique nique les flics donc j'essaie de m'appliquer Comment t'expliquer que quand j'commence J'peux plus m'arrêter ? J'vois qu'ma vie défile à une vitesse impressionnante C'est Ormaz au micro, voilà pourquoi la pression monte J'crois qu'la Terre est plate vu que le monde ne tourne pas rond J'suis mal barré, pas paré, paro comme la victime face au XXX Caner pour des futilités, mais qu'es-ce qu'il s'est passé ? Mais qu'est-ce qui fait que la vie devient si compliquée ? On s'arrête pas, barrette baraque pour me barrer d'là M'les cassez plus jactez plus, bande de putes, j'vous sors le carré d'as J'ai qu'à raidir le sens de mes propos Ce travesti se transforme en grande forme avec ses potos J'fais ta biopsie en criant des slogans grave obscènes S'il me reste que ton corps ben on ira l'tèj dans les Hauts-de-Seine J'fais tes obsèques à chaque seconde, tu jactes C'est bon, j'ai des gros seize et des claques qui grondent Avec mes couz et les métèques, j'forme une coulée d'été Une vague qui couche detér' et t'enterre à coup de bélier Ouais, j'roule et fous le souk et découvre l'égout du zoo Avec mes troupes des hoods du sud, j'ai coupé court et vous ? Et j'roupille tous les jours avec mes groupes, on joue sur tous les murs Les groupies tue les toutes avec XXX la ue-r Déniche des putains d'foufs, ouais, des zouz stylées Si tu veux effriter la kush, tu t'manges un coup d'gilet Y'a pas d'dilemme, j'rappe si le beat me captive Je XXX et gratine la platine Ton flow est fastidieux, j'efface Avec mon Rap, un gras stick et des tas de tactiques Y'a pas d'limite donc j'brûle un tas d'gimmicks J'fais des tags le soir, j'suis grave un putain d'activiste J'rappe si vite donc dans mes ébats c'est bès-Bar Laisse ça à ceux man qu'ont Pas tranquille, j'ai disjoncté ça fait pas mal de temps Ma femme me hante, j'vieux pioncer, vivre au ralenti Car j'ai plus d'rage dans l'ventre Ouais, j'ai que des pics dans le cur Génération sanglante, nique l'amour on fera la guerre dans l'heure On s'détruira ensemble jusqu'à qu'on finisse en deuil Ou en pleurs dans notre cercueil Pendant des heures après s'être fait descendre C'est ça la vie d'bohème en 2013, chez nous, y'a plus d'promesses Surplus d'tristesse donc on s'ment à soi-même Allume un joint d'pollen pour calmer ma colère J'veux pas finir camé ou cané, c'est un peu trop d'problèmes J'veux pas d'un statut misérable ni d'une maison à mille étages Mon idéal, juste une femme qui m'fait des mômes honnêtes Désespéré, le Rap m'éloigne de tout ça Il m'a fait perdre la tête, il m'a fait perdre l'amour J'avoue que j'ai rêvé d'être l'égal de 2Pac Shakur Trou d'balle, réveille-toi, t'es l'seul coupable Si l'coup part avec un surplus d'amour C'est qu'il fallait que ça parte en couille Fallait que j'arrête les cours Fallait qu'Paname s'en doute que j'suis l'futur numéro 1 Ni 2 ni 3, tu l'sais si tu m'connais bien Joint d'beuh, joint d'frappe histoire de consoler les miens Panama Bende on est sept, on peut t'faire chier toute la semaine Comme une merde dans laquelle j'viens d'marcher Les MC's sont tous sous ma semelle Le mic, on m'la donné, OK, rappons Mon Rap est frais, mon Rap pétille à consommer avec modération Sinon tu risques de t'blesser, le beat j'veux l'dresser Sache que même si j'flippe tu m'verras pas les yeux baissés Hey l'internaute, si t'aimes le Rap viens voir ma page Dans mon équipe on garde la tête haute Dans l'espoir de pas boire la tasse Écoute ce beat, mes khos kickent stone Mais ça, ça ne bouge pas depuis les Beattles ou les Rolling Stone J'connais mes bases, j'ai relu ma leçon et j'vote la paix Fais comme moi, écoute ces basses Mets l'volume à fond et hoche la tête J'lâche que des phases qui te fascinent, effacent tous les blazes Écoute les MC's sont sous plaques d'égouts Et n'ont qu'des placements faciles Perdre sa valeur dans c'monde,où l'argent fascine J'aime trop cette tension dans la salle Lorsque les fans attendent l'artiste 18 ans à peine, tu vois que l'âge ne fait rien Le beat prend déjà tarif et pourtant là je n'fais rien Jeune terrien qui n'aime pas rester seul, ouais Un frère au tel' dans la main gauche Et avec l'autre, ma belle, j'caresse tes seufs Touche pas mon skeud si tes mains sentent la bouffe Tous des gars sont aussi virils que Vincent Mcdoom Tu crois que t'es jolie, ma folie a plus de charme Si la police trouve mon brolic, j'accuse le chat J'suis rare comme un Chinois obèse Mec, j'suis né sur Internet J'rappe depuis la terre mère dans ma villa de rêve Mon côté street ressort plus que l'autre Si j'suis cool c'est que j'ai construit mon trône sous de l'eau Si t'as pas compris la phase, arrête de penser direct J'veux fuir la France, l'émirate attire beaucoup les minettes Gars, j'ai les rimes tranchantes qui t'envoient en l'air, catapulte T'en fais pas qu'à ta tête, nan, t'en fais qu'à ta pute Y'a pas d'blèmes, Z.E.U envoie, emploie des fois des blasphèmes J'vois mes gars qui s'tâtent à doigter c'tas d'chair On ré-atterrit, Raikiri sur ta pommette fat Appétit d'staff, on graille des pâtes et ta cover Ouais, mec, là, j'gratte des kils sur ta map ou dans ma ville Et matte pas quand j'm'active Car même quand tu comptes, mec, t'es pas terrible Répartie pas crédible, les wacks j'vous claque Même les fatous s'tapent dans des vapeurs de XXX critique XXX bédave l'équipe Placement douteux mais c'est tout le charme du type Classement cool mais t'es fou, ZEU rappe tu kiffes Y'en a qui disent que j'ai un style de narcotrafiquant J'suis juste pratiquant, c'est pratique mais faut pas que j'y pense Déclare le premier cas d'infection chez les wacks J'remets l'gaz, te trompe pas, j'fais tomber les watts Déclare le premier cas d'infection chez les wacks J'remets l'gaz, tremble pas, fiston, j'fais tomber les watts J'suis peut-être ce messie qui aime briller, à l'écrit inestimable Sous c'Teddy j'ai l'vestige de plein de rimes interminables Dès que je prends l'stylo c'est pas pour s'tauler Mais pour dégainer le style avant d'tout niquer c't'année Y'a les démences des étrangers dérangés Donc j'dois m'élancer et changer les pensées Mais aussi sauter les passerelles avec élégance Acheter deux, trois polos par ci pour niquer dans la semaine Car j'sais qu'il y a trois, quatre groupies par là Célébrant ma présence avant l'événement J'ai plus d'un outil d'attaque et plus l'temps Pour attendre que le four chauffe J'suis à la page, eux, ils nagent sous l'eau J'dégaine un nouveau style, couteau suisse, personne au niveau J'me rapproche de l'excellence, plus attrayant qu'les Rolling Stones Aussitôt né dans un d'ces hôpitaux On doit faire nos preuves pour pas rester incognito J'kicke au microphone mec, guette comment j'me démerde J'aime parler pour les fans des aller-retours au comico Et tout ce tralala m'amène à la bracadabra Parle pas d'attaque, t'as pas l'panache à Pananama Bende J'suis en scène, le Rap français va jamais d'cesser sucer l'armada Le succès est par là-bas, là où mes gars s'reposent Le soleil frappe fort, on s'prépare ensuite on s'expose Panama Bende tue, Panama Bende canarda Et la panique devient globale Tout le monde se jette par dessus bord Oui j'ai le mord, aucune activité mais c'est paranormal Y'a pas d'copie conforme à part si tu as le Sharingan Ne bois pas de cool-al, juste après tu te prends pour Konan Laisse démarrer, du moins n'essaye pas de m'barrer la route Je prépare le terrain et dans mes couilles une barrette s'ajoute Mais qu'est-ce que tu fais, sale fou ? Redescends sur terre Écoutez la marée basse, les jaloux vont faire un ulcère Retourne les veaux-cer, tous les bosseurs ne sont pas payés J'ai vu des pupilles dilatées à cause de ce bout de papier Et papi, j'te fais une passe à la David Beck' Sans dec', mec, on rappe sale sans se faire de crasse Ouais, les rimes sont salaces pas de solo comme Zorro, juste un Cavalier à cheval gravé sur mon polo, ferme tes Petites lèvres adorateur de billets mauves Tu devrais moove avant que je ne ferme ton bec de lièvre Ouais, j'ai la ge-ra mais j'dois gérer les jours à venir Là j'arrive, j'arrose le mic, j'roule la weed les yeux ges-rou Inchallah, chérie, j'finirai che-ri plus que Chirac Fini les chéra, j'devais agir j'me suis déchiré Trop lourd est l'poids d'ma charrue, autour de moi y a qu'du chahut Le pilon m'a eu, ce soir sous la lune le chat hurle Allez, ciao, tchouss, les mecs ici ça tchompe J'passe le teh à gauche et j'entends atchoum J'monte dans ma XXX et mon tchou tchou Pour calmer ma rage de Tchétchène S'il veulent me tchatcher, j'leur dirai check check Moi y a qu'à mes frères qu'je me confie Même en période de conflits Et pour les autres ça sera la mort ou tchitchi Ni paix ni tension, mais j'ai d'la peine, entends ça Tu fais à peine attention et t'voilà au pénitencier La juge a puni tes soss, a puni les miens Une savonnette et l'argent pre-pro j'y ai plus mis les mains J'suis devenu stupide et dingue Il m'faut des stups et des flingues À Stalingrad, seule la Faucheuse viendra stopper les seringues C'est simple, j'y passe tous les jours Les toxs subissent un ensorcellement J'veux pas t'voir taffer salement pour un taudis à Sarcelles, m'man C'est-à-dire que tu t'en sors seulement si t'es dur Pour traquer l'oseille comme Esteban crois pas qu'ma cité dort On s'était dit, on reverra plus jamais ces taudis Plus j'y suis, plus j'les aime Moins j'y suis, plus j'me dis que c'était dar gros J'suis rieur, c'est curieux Jeune déviant, retourne chez tes vieux Nah, sérieux, j'suis meilleur même si je fais rien Jump dans c'buiz' comme un cop dans l'six, ou un mafieux Méfiant comme un il myope dans l'viseur Il y a des milliards de choses que j'veux illico presto Mini-bar, gov' chromé, whisky, frappe, resto Ils s'blessent pour des valeurs ajoutées Mais j'laisse faire, il m'reste quelques rappeurs à shooter J'me fiche de l'égalité des chances, j'vis Pour les lyrics et la qualité des jantes J'me relaxe, spliff sur quais d'Seine Et on m'a dit que jexcellais Quand j'rappe, t'es vexé, désolé, j'suis l'next level Roule de longues battes pour éviter qu'on bosse Et ça fait double contact entre ma bite et ton gloss Chillance, avec les vilains prend d'la distance On parle de filles ienbs, de filles minces et de finance Quand la frappe n'est pas là, les souris pleurent J'ai appris qu'les meufs c'est qu'des putes Et que les gars c'est que des leurres Rien ne sert de s'lancer des fleurs, on semboîte comme des Lego Mes gavas ont tous du flaire pour ça que j'les appelle tous négro Y en aura que un ou deux pour toi, si t'es en chien Ma belle, t'es pas ma meuf Tu suces trop bien pour être une meuf bien Spécialiste du saut d'obstacle, la vie t'a bercé doucement Moi, la mienne m'a mis des grosses claques Un bus, un siège, des Posca, c'est comme ça qu'on passe la route Ça roule au fond du car et on emmerde tous les jaloux Petit frère, coffre ton bénef' ça dure qu'un temps Fais pas l'con comme tous les autres Qui claquent tout l'biff à Printemps J'écrase mon teh à l'instant, il m'a envoyé à Rio Si tu dis qu'la vie t'attend, poto, c'est que du mytho Qui était là quand j'étais dans la muerte ? C'est la perte de ta paire de couille que t'appelle ta fierté Tu m'fais chier depuis l'placenta, viens on casse un tête Non non, ici c'est pas Saint-Anne, c'est juste que j'lâche un texte J'pense plus à rien quand j'rappe, c'est mon corps qui mène la danse Il faut encore péter les scores, il faut encore qu'on prenne d'l'avance Pure mixtape, grosses enceintes et c'est l'néant Mes paupières s'ferment La fumée s'mélange à la brume qui se lève Moi, quand j'rappe j'ai des images en tête, couleur magenta Accrochez-vous là c'est qu'la tempête, bientôt l'attentat Si j'ai la voix qui part en couille, ça c'est l'effet du blunt J'en ai rien à foutre du buzz, le Rap c'est mon kiff avant tout Le temps a pardonné ma plume de tatouer ma feuille Khey, on m'a donné la vue alors j'vais pas jouer l'aveugle Et ça fait frappe, frappe, lucarne, lucarne, but Nous l'soir on fume d'la frappe-frappe avec des putains d'putes Dis-moi MC, pourquoi tu parles pas ? T'as pas l'air timide, non À croire que t'as chaud quand c'est Panama Bende qui kicke Et le son glisse miss, plus de 0.6, émotif Roule un putain d'spliff, je quitte la rive, Paris, ouais, j'arrive Je vise le mille avec mes types, tout ça est technique Lunatic, Armaggedon arrive à XXX, fils Tout ça est fictif, je me l'demande bien Même si demain c'est loin Je vois de moins en moins, je reste dans le coin Du moins, j'essaye de faire le bien parmi les tiens J'ouvre des XXX, dans mon état Je vais pas faire long feu mais bon c'est bien Pas d'fond de teint, déteste les chiens, j'ai phasé Passé, caché, attaché ma partie du gain cette année J'ai parié sur Paris, la chance est partie Là où je participe à l'élévation avec toute ma troupe Wesh, les boys, ici la nouvelle génération Un Rap qui t'met des goldens, c'est bientôt la révélation On est sur le podium du top ten, pop corn et cocktails Si l'savoir est une arme, nos glocks sont dans nos vortex On vient rapper dans ta fête Ta meuf ! On va la baiser sans latex Ta gueule ! Et écoute Bende dans ta Benz On est les plus fous, les plus géniaux, c'est Aladin et Elyo On frappe où ça ? Dans tes organes génitaux Mes gars s'couchent tard, fourent des miss dans la cabine Ça s'décline en bagarre quand leurs copains font leurs bagages On est les princes de la partie, en aparté Dans un appart chill, on apparaît l'été à Paris J'm'évade et passe les passerelles, dérape et braque les gars mais M'échappe à l'écart d'mes partenaires trop attirés par la weed Wesh, Aladin, hier soir on a baisé qui ? Hum... Une pute, une ronne-da et nos ennemis Wesh, Elyo, y'a quoi d'important dans la vie ? Hum... La miff, le respect et le ness-bui On veut d'la maille et des Mazerrati, démarre, ouais démarre On part en ride sur les toits de la ville Des femmes et des fans, tels sont les proies de ma clique Donc j'repars en impro, t'à l'heure j'me suis chié Mais nique sa mère, j'suis àl et tu sais que je vais t'niquer Faut pas paniquer, tu peux pas nier, mon pote Mon pote, j'suis l'plus fort, mais nique sa mère j'suis àl J'représente le 93 hardcore, tu sais que j'mange pas d'porc On a graille des 'zzas mais nique sa mère, j'suis àl Tu pues la merde donc je zappe et tu passes à la trappe Espèce de merde, OK, mon soss, j'suis àl, je t'emmerde Tu sais bien que j'me démerde, la rime est cramée Mais nique sa mère, tu sais qu'je sors de l'armée J'viens t'niquer, tu peux paniquer, putain, j'me répète Mais nique sa mère, j'te fais tourner l'pet OK mon soss, j'suis àl, espèce de pute t'es sous amphet' Seigneur, dites leur qu'on vient de loin comme Marty McFly C'est oppressant, j'mets la pression sur tes MC's à la Maglite On lâche des fat lines, ma Confrérie tu acclames Kidnappe ta famille, la bicrave aux roumains du Cap d'Agde Préviens mon réseau géorgien, ouais, qu'y a des plav' libres On t'arrache ta chaîne du cou si tu brailles et que t'as pas biff J'ai l'plexus en feu, les phases fusent Et tu t'excuses quand je t'esquisse un tiers de mes astuces Je me réveille à peine, mamen, un coup de barre très vite J'ai cours, grave , mets coup d'lames terribles On rappe avec mon zoo, des putains d'proses classes je t'ai dis Y'a des faux gars que j'méprise mais l'Coca Cola m'maîtrise Ne m'demande plus ma quête, j'déclare que j'dévalise la rime Éclate sur ta face des tas d'crasses d'multisyllabiques Ouais, j'utilise la vie comme cours d'amusement Je sui</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1165,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Est-ce que tu veux t'en prendre plein les Portugaises par le son des champions Est-ce que tu veux t'en prendre plein les nasaux par le fumet des champignons Voilà le son qui tape-tape, Doc, Dr Vince et Ba-Ba-Ba-Baste Toujours prêts à en débattre avec le menu gastronomique d'un gite d'étape Avec une descente que tu voudrais pas remonter en VTT On en fait encore beaucoup moins que les employés des PTT On ne peut plus t'aider, j'vais t'entuber dès que j'le pourrais Et j'vais m'occuper des pètes-culs pèds mais t'occupes PD, PD Je n'aurais jamais le niveau de vie d'un gars comme P. Diddy Alors on s'en fout, on est d'jà bourrés à 3 heures de l'après midi Quand la cloche sonne, les verres tintent et carillonnent ding ding ding Voilà comme tu sais qui sont les champions C'est le retour du champion sound qui dégueule dans les enceintes On est 2 be-bom avec 2 bons bidons de jeunes filles enceintes V'là les sumotoris, adore-nous comme des demi-dieux 100 foutre on parle même de nous chez Stade 2 Comme Birdy Nam Nam j'vise la victoire de la musique Mais on ne ramènerais même pas une médaille des JO des handicapés Oublie l'or et l'argent, on est juste bons à couler un bronze ??? du facho, bouffer du curé ou enculé un bonze On rentre dans le show bizness en sautant par dessus le portillon On est en concert pour foutre le bordel et cracher des postillons Attends qu'on sénerve parce que pour l'instant c'est juste un échantillon Gérard Baste et Dr Vince, v'là les championsYou might also like</t>
+          <t>Est-ce que tu veux t'en prendre plein les Portugaises par le son des champions Est-ce que tu veux t'en prendre plein les nasaux par le fumet des champignons Voilà le son qui tape-tape, Doc, Dr Vince et Ba-Ba-Ba-Baste Toujours prêts à en débattre avec le menu gastronomique d'un gite d'étape Avec une descente que tu voudrais pas remonter en VTT On en fait encore beaucoup moins que les employés des PTT On ne peut plus t'aider, j'vais t'entuber dès que j'le pourrais Et j'vais m'occuper des pètes-culs pèds mais t'occupes PD, PD Je n'aurais jamais le niveau de vie d'un gars comme P. Diddy Alors on s'en fout, on est d'jà bourrés à 3 heures de l'après midi Quand la cloche sonne, les verres tintent et carillonnent ding ding ding Voilà comme tu sais qui sont les champions C'est le retour du champion sound qui dégueule dans les enceintes On est 2 be-bom avec 2 bons bidons de jeunes filles enceintes V'là les sumotoris, adore-nous comme des demi-dieux 100 foutre on parle même de nous chez Stade 2 Comme Birdy Nam Nam j'vise la victoire de la musique Mais on ne ramènerais même pas une médaille des JO des handicapés Oublie l'or et l'argent, on est juste bons à couler un bronze ??? du facho, bouffer du curé ou enculé un bonze On rentre dans le show bizness en sautant par dessus le portillon On est en concert pour foutre le bordel et cracher des postillons Attends qu'on sénerve parce que pour l'instant c'est juste un échantillon Gérard Baste et Dr Vince, v'là les champions</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1182,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gérard Baste, Wizi P Laisse-moi m'parler à moi même pendant quelques secondes Gérard Baste, tue-le, kick cette merde x2 Ouais on court tous après, le pognon et l'succès Les filles nues, l'amour, la piscine, remplie d're-bié Ouais on est toujours prêts à décrocher la lune Pourquoi tes poches sont elles vides, pourquoi les miennes sont-elles pleines de tune ? J'ai pas b'soin d'savoir combien t'as payé ta gourmette J'ai juste à t'observer pour juger qu't'es une sous-merde Moi j'passe devant les boutiques à Chatelet Et j'dis ça je l'ai, ça je l'ai, ça je l'ai, ça je l'ai Gros batard comme Pudgee, j't'indique la porte de sortie J'suis v'nu mixer avec ma bite comme Philippe Corti Alors me dis pas qu'pour l'anal t'hésites Si t'as mal, t'auras juste besoin d'analgésiques Dans la vie y'a des hauts, des bas La vie c'est cru, les chattes ça pue, Gérard Baste ça tue J'suis pas v'nu jouer les gangster Mais j'veux qu'les p'tits pleurent et qu'les grands s'taisent Et qu'ma meuf crie encore quand j'baise Danger, danger, plaie à vif, Tel Aviv Style de vie qu'tu peines à vivre Yo, j'sens qu'la gène arrive Fallait pas m'prendre pour un fou Là j'suis pas punk pour un sous Toi t'es inutile comme un chien d'aveugle pour un sourd Tu voulais claquer des dolls Mais tu vas claper des tôles J'viens pas d'la tess', tess' mais face à toi mon rap est ghetto Espagnol, c'est ignoble, étonnant, si senior J't'insulte dans une putain d'langue que t'ignores Pourquoi es-tu la cible que je crible ? Parce-que c'que t'écris c'est la bibliothèque rose et moi c'est la bible En gros tu joues les pimps Mais t'es juste un toy Va t'acheter une DS Lite car tu n'as pas d'game, boy You might also like x2 Ouais on court tous après, le pognon et l'succès Les filles nues, l'amour, la piscine, remplie d're-bié Ouais on est toujours prêts à décrocher la lune Pourquoi tes poches sont elles vides, pourquoi les miennes sont-elles pleines de tune ? Tu voudrais jouer les durs Mais t'es qu'un mou du zguegue Malheureusement ton style est faux comme tout ces hoodies Bape Comme du talc, mes mots s'déposent sur les fesses des babes J'ramène ma clique de débiles qui gueulent comme des skinheads On est v'nu pour s'en foutre plein l'groin Bouffer comme des sagouins Sauter sur place en s'grattant les d'ssous d'bras comme des babouins Pour l'instant c'est maint'nant, tout d'suite, l'avenir on verra bien Et j'pose mon gros cul sur ta gueule si tu trouves que c'est pas bien J'saute dans la foule, j'me fais payer une coupe Dans la vie j'bois et j'me vide les couilles Le Svink c'est l'image du gros beauf comme Al Bundy Je suis d'retour comme dans Crocodile Dundee 2 J'vide des mousses, les connards, vite j'les pousse Dans ma tête pute jentends une voix qui m'dit Bute les tous! J'viens écurer la concurrence et ramasser les sesterces Voilà pourquoi j'met tant d'passion dans l'métier qu'j'exerce x2 Ouais on court tous après, le pognon et l'succès Les filles nues, l'amour, la piscine, remplie d're-bié Ouais on est toujours prêts à décrocher la lune Pourquoi tes poches sont elles vides, pourquoi les miennes sont-elles pleines de tune ?</t>
+          <t>Gérard Baste, Wizi P Laisse-moi m'parler à moi même pendant quelques secondes Gérard Baste, tue-le, kick cette merde x2 Ouais on court tous après, le pognon et l'succès Les filles nues, l'amour, la piscine, remplie d're-bié Ouais on est toujours prêts à décrocher la lune Pourquoi tes poches sont elles vides, pourquoi les miennes sont-elles pleines de tune ? J'ai pas b'soin d'savoir combien t'as payé ta gourmette J'ai juste à t'observer pour juger qu't'es une sous-merde Moi j'passe devant les boutiques à Chatelet Et j'dis ça je l'ai, ça je l'ai, ça je l'ai, ça je l'ai Gros batard comme Pudgee, j't'indique la porte de sortie J'suis v'nu mixer avec ma bite comme Philippe Corti Alors me dis pas qu'pour l'anal t'hésites Si t'as mal, t'auras juste besoin d'analgésiques Dans la vie y'a des hauts, des bas La vie c'est cru, les chattes ça pue, Gérard Baste ça tue J'suis pas v'nu jouer les gangster Mais j'veux qu'les p'tits pleurent et qu'les grands s'taisent Et qu'ma meuf crie encore quand j'baise Danger, danger, plaie à vif, Tel Aviv Style de vie qu'tu peines à vivre Yo, j'sens qu'la gène arrive Fallait pas m'prendre pour un fou Là j'suis pas punk pour un sous Toi t'es inutile comme un chien d'aveugle pour un sourd Tu voulais claquer des dolls Mais tu vas claper des tôles J'viens pas d'la tess', tess' mais face à toi mon rap est ghetto Espagnol, c'est ignoble, étonnant, si senior J't'insulte dans une putain d'langue que t'ignores Pourquoi es-tu la cible que je crible ? Parce-que c'que t'écris c'est la bibliothèque rose et moi c'est la bible En gros tu joues les pimps Mais t'es juste un toy Va t'acheter une DS Lite car tu n'as pas d'game, boy x2 Ouais on court tous après, le pognon et l'succès Les filles nues, l'amour, la piscine, remplie d're-bié Ouais on est toujours prêts à décrocher la lune Pourquoi tes poches sont elles vides, pourquoi les miennes sont-elles pleines de tune ? Tu voudrais jouer les durs Mais t'es qu'un mou du zguegue Malheureusement ton style est faux comme tout ces hoodies Bape Comme du talc, mes mots s'déposent sur les fesses des babes J'ramène ma clique de débiles qui gueulent comme des skinheads On est v'nu pour s'en foutre plein l'groin Bouffer comme des sagouins Sauter sur place en s'grattant les d'ssous d'bras comme des babouins Pour l'instant c'est maint'nant, tout d'suite, l'avenir on verra bien Et j'pose mon gros cul sur ta gueule si tu trouves que c'est pas bien J'saute dans la foule, j'me fais payer une coupe Dans la vie j'bois et j'me vide les couilles Le Svink c'est l'image du gros beauf comme Al Bundy Je suis d'retour comme dans Crocodile Dundee 2 J'vide des mousses, les connards, vite j'les pousse Dans ma tête pute jentends une voix qui m'dit Bute les tous! J'viens écurer la concurrence et ramasser les sesterces Voilà pourquoi j'met tant d'passion dans l'métier qu'j'exerce x2 Ouais on court tous après, le pognon et l'succès Les filles nues, l'amour, la piscine, remplie d're-bié Ouais on est toujours prêts à décrocher la lune Pourquoi tes poches sont elles vides, pourquoi les miennes sont-elles pleines de tune ?</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1199,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Dans lbouquet d'fleurs que nous offre la vie Le cur choisit souvent la seule rose qui porte une épine Cette fille la femme de ma vie La carabine sur les tympans dma solitude Sur ma montagne de problèmes La corde qui mtient quand jperds de laltitude La rare vipère qui n'ma pas mis une pomme dans la gorge Malgré la première année où jlui aurai bien foutu un flingue dans la gorge Mais six ans sont passés et jvois mes erreurs Jme dis qule bébé de la patience et des problèmes cest souvent lbonheur Mais Saïd elle est promise, oublie vite la mairie Tu vois pas mieux quIngalls Mary, cest pas delle que tu seras le mari Comment ? Elle est comorienne comme moi, musulmane comme moi À cause dvos coutumes c'est son moral qu'y'est dans lcoma Lanorexie nourrit sa santé, est boulimique de pression Plantée dans une moisson sèche, fanée dattendre la boisson Qui pourrait apaiser sa soif dunion, sa soif dréunion Tout ça pour qunos parents changent dopinion J'sais qula vie cest la mort donc la mort faut la vivre On mdit qutout est écrit mais jcrois quj'ai lu le quart du livre Mon cur un gratte-ciel et toi tu as pris léchelle Une fois monté tu la fais tomber pour pas quon tsuive Lamour nous a cueillis dans le jardin de nos parents Pas mûr pour faire une bonne salade mais lui il se portait garant Gâté jt'avoue, jsuis dceux qui criaient tout haut Jirai chercher ma reine loin, chez les esquimaux Et ouais, chez les étalons, cest là où elles veulent aller Quand du haut de leurs talons elles se retrouvent étalées Elles smettent à chialer, ensuite deviennent jalouses mais laisse-les parler Il faut que jfasse mes flouzes et quon stire dans notre chalet Donne-moi lamour que ma mère a pour moi et moi pour ma fille Et qu'ce travail à la chaîne se transmette de famille en famille Avant que tu partes, avant quje parte Avant que tout éclate, faut pas quon s'rate Hey, comme Marley, jveux être présent même absent Quon vienne remixer mon son, duo virtuel avec Jackson Et qu'ces francs nourrissent mon enfant pendant cent ans Garçon, plus dbaston pour un veston Un jeune père qu'ya vu à peine la vie, un jeune frère Parmi tous ces bandits, mais bref faut quj'téduque fier Que jserve dappât, qules pièges de la vie se referment sur moi Pour quton chemin à toi soit droit, sans piège sans croix Plus tard nécoute pas les copines qui tdiront Lécole ça nsert à rien, cest mon mari qui mramènera lpognon Même en couple reste indépendante Dis-toi qul'école ça sert, quand jpense que jpourrai pas taider en langues vivantes Ta mère et moi faut quça dure un maximum Pas comme ton grand-père, parti après avoir eu un max de mômes Jai été privé dune aile au décollage T'auras les deux et prendras lavion dla vie avec pleins de bagages Docteur, ça fait quatre heures quj'attends ma copine Dans cette salle dattente quatre heures qu'ma tête s'prend pour l'pic de Dante On scontente dme dire de patienter et dgarder mon sang froid Facile à dire, là jsuis perdu comme lAbbé Pierre sans foi Jen peux plus ces journées à lhosto mont rendu moins costaud Vu toutes ces larmes on pourrait mappeler Cousteau Depuis plus de cinq mois, elle maigrit Sans moi elle s'écrie, ses cris dus à des parents aigris Et moi jpasse mon temps à demander au bonheur de greffer un peu dson temps à notre avenir De greffer des bras à mon cur pour bercer un enfant à venir Et qules mains dma sueur lui offrent cque jaurais aimé avoir dans mes souvenirs Cest ça, cest cquon va faire un gosse Nos parents ne pourront rien y faire, cette brosse pourra coiffer cette chauve Idée du mariage quils ont, un gosse, ça la rendra heureuse Au moins on oubliera notre séparation précoce - Ah tes là bé', dis-moi quest-ce quil ta dit le docteur ? Lanorexie cest fini ? Dis-moi, en tout cas cest fini cette pression Jai trouvé on va faire un gosse, mais, mais quest-ce quil tarrive ? - Jpeux pas avoir denfant... - Non !You might also like</t>
+          <t>Dans lbouquet d'fleurs que nous offre la vie Le cur choisit souvent la seule rose qui porte une épine Cette fille la femme de ma vie La carabine sur les tympans dma solitude Sur ma montagne de problèmes La corde qui mtient quand jperds de laltitude La rare vipère qui n'ma pas mis une pomme dans la gorge Malgré la première année où jlui aurai bien foutu un flingue dans la gorge Mais six ans sont passés et jvois mes erreurs Jme dis qule bébé de la patience et des problèmes cest souvent lbonheur Mais Saïd elle est promise, oublie vite la mairie Tu vois pas mieux quIngalls Mary, cest pas delle que tu seras le mari Comment ? Elle est comorienne comme moi, musulmane comme moi À cause dvos coutumes c'est son moral qu'y'est dans lcoma Lanorexie nourrit sa santé, est boulimique de pression Plantée dans une moisson sèche, fanée dattendre la boisson Qui pourrait apaiser sa soif dunion, sa soif dréunion Tout ça pour qunos parents changent dopinion J'sais qula vie cest la mort donc la mort faut la vivre On mdit qutout est écrit mais jcrois quj'ai lu le quart du livre Mon cur un gratte-ciel et toi tu as pris léchelle Une fois monté tu la fais tomber pour pas quon tsuive Lamour nous a cueillis dans le jardin de nos parents Pas mûr pour faire une bonne salade mais lui il se portait garant Gâté jt'avoue, jsuis dceux qui criaient tout haut Jirai chercher ma reine loin, chez les esquimaux Et ouais, chez les étalons, cest là où elles veulent aller Quand du haut de leurs talons elles se retrouvent étalées Elles smettent à chialer, ensuite deviennent jalouses mais laisse-les parler Il faut que jfasse mes flouzes et quon stire dans notre chalet Donne-moi lamour que ma mère a pour moi et moi pour ma fille Et qu'ce travail à la chaîne se transmette de famille en famille Avant que tu partes, avant quje parte Avant que tout éclate, faut pas quon s'rate Hey, comme Marley, jveux être présent même absent Quon vienne remixer mon son, duo virtuel avec Jackson Et qu'ces francs nourrissent mon enfant pendant cent ans Garçon, plus dbaston pour un veston Un jeune père qu'ya vu à peine la vie, un jeune frère Parmi tous ces bandits, mais bref faut quj'téduque fier Que jserve dappât, qules pièges de la vie se referment sur moi Pour quton chemin à toi soit droit, sans piège sans croix Plus tard nécoute pas les copines qui tdiront Lécole ça nsert à rien, cest mon mari qui mramènera lpognon Même en couple reste indépendante Dis-toi qul'école ça sert, quand jpense que jpourrai pas taider en langues vivantes Ta mère et moi faut quça dure un maximum Pas comme ton grand-père, parti après avoir eu un max de mômes Jai été privé dune aile au décollage T'auras les deux et prendras lavion dla vie avec pleins de bagages Docteur, ça fait quatre heures quj'attends ma copine Dans cette salle dattente quatre heures qu'ma tête s'prend pour l'pic de Dante On scontente dme dire de patienter et dgarder mon sang froid Facile à dire, là jsuis perdu comme lAbbé Pierre sans foi Jen peux plus ces journées à lhosto mont rendu moins costaud Vu toutes ces larmes on pourrait mappeler Cousteau Depuis plus de cinq mois, elle maigrit Sans moi elle s'écrie, ses cris dus à des parents aigris Et moi jpasse mon temps à demander au bonheur de greffer un peu dson temps à notre avenir De greffer des bras à mon cur pour bercer un enfant à venir Et qules mains dma sueur lui offrent cque jaurais aimé avoir dans mes souvenirs Cest ça, cest cquon va faire un gosse Nos parents ne pourront rien y faire, cette brosse pourra coiffer cette chauve Idée du mariage quils ont, un gosse, ça la rendra heureuse Au moins on oubliera notre séparation précoce - Ah tes là bé', dis-moi quest-ce quil ta dit le docteur ? Lanorexie cest fini ? Dis-moi, en tout cas cest fini cette pression Jai trouvé on va faire un gosse, mais, mais quest-ce quil tarrive ? - Jpeux pas avoir denfant... - Non !</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1233,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça y'est c'est r'tipar, ça r'commence Tout à coup les baffles pètent V'la l'nouveau bébé Comme Michael j'le fous par la f'nêtre Scandale ! J'allume un p'tit oinj Comme JoeyStarr, j'te frappe Parce-qu'au mic tu cries comme un p'tit singe On débarque dans ta résoi Flanqué du vidéaste officiel Et ça t'déçois qu'on ait eu l'adresse de ta sauterie Ça y est, ça r'commence Ça va pogoter dans la vaisselle Tu vas morfler comme les autres Avant d'sortir d'ici You might also like Jéructe mes textes orduriers Pétris mes samples dans l'lisier J'viens r'cycler mon vide grenier Mon fond d'commerce ma zique de merde Pour faire taire les p'tites commères Un tour de piste, qui dès l'sommaire Réveille tous les morts dans l'cimetière T'as tellement mouillé À écouter mon premier CD Qu''il est tout rayé T'as beau essayé de l'foutre dans ta chaîne Maintenant il sau-sau-sau-sau-sau-te-te-te-te T'façon c'compact va s'autodétruire Avant qu'tous les autres suceurs ne pompent mon délire White Trash sur ta black list White spirit mais pilier comme un All Black Tous en piste, ça recommence Les MCs braillent et versent dans la démence Bon pour l'asile, vas-y trash ta vie si ça t'démange Jusquoù est-ce qu'on peut aller ? Trop loin, plus haut pour tomber plus bas Un peu comme les What For en plus beau On voulait s'grouiller mais on a pas trouvé un seul bar fermé C'est l'retour de Gerard Baste, Nikus Pokus et Mr. Xavier Svinkels, Triptik, TTC, DSL Chéravif ,Mutant Clan Et les professionnels Mat', Frog', FFKK, Enhancer Parab', High Tone, Tonton Damage Para One et DJ Pone Quand j'étais p'tit j'niquais l'trom' Maintenant j'fais d'la musique nickel chrome Pour l'or mais surtout pour t'piquer le crom' C'est l'son qui t'envoie en salle de soin Tagada Tsoin Tsoin Et j'claque les grandes gueules qui l'ouvrent que pour faire coin-coin Nettoie les bacs au Kärcher pour la sortie du prochain album Vu qu'le premier y'a squatter comme d'la merde collée au scrotum Comme si ça suffisait pas, j'trouve qu'on en a pas fait assez Alors voila le deuxième opus, putain d'crime de lèse-majesté Tant d'années pour faire c't'album mec, ça sert a rien Accouchement douloureux comme pour une césarienne Pourquoi tu m'as attendu, si tu croyais qu'jétais no future Pas keupon pour deux sous, ça r'commence come on Réveille le Svink' qu'est en vous Même mensonge quand Sarko ment Donc jette-toi en l'air, car ça r'commence Et jettes-y aussi ton flingue et ton sexe et colle au concept Sans faire de copier coller ou tu verras des coups d'pieds voler On va encore squatter l'classement Ferarock Avec mes poivrots, j'les appelle ainsi C'est comme quand les noirs s'appellent négros Destinés à prendre de la place dans vos bacs a disques Vu qu'bientôt y'a les solos et l'deuxième album des pros Dans l'bar c'est nous les premiers qu'on sert Un pauvre semblant d'gloire, résultat 200 concerts T'avais pas trop d'news alors qu'on est un putain d'groupe people Mais pour qu'on parle plus de nous faudrait créer la presse picole Cherche pas, on est toujours les mêmes On boit d'la piquette, on mouille la liquette On sent la biquette et on fait valser les étiquettes Dans la ur', en discothèque ou dans ta voiture À peine t'as foutu l'skeud, ça y est y'a l'feu à la toiture Ça r'commence, en route pour d'nouvelles aventures..</t>
+          <t>Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça r'commence Ça y'est c'est r'tipar, ça r'commence Tout à coup les baffles pètent V'la l'nouveau bébé Comme Michael j'le fous par la f'nêtre Scandale ! J'allume un p'tit oinj Comme JoeyStarr, j'te frappe Parce-qu'au mic tu cries comme un p'tit singe On débarque dans ta résoi Flanqué du vidéaste officiel Et ça t'déçois qu'on ait eu l'adresse de ta sauterie Ça y est, ça r'commence Ça va pogoter dans la vaisselle Tu vas morfler comme les autres Avant d'sortir d'ici Jéructe mes textes orduriers Pétris mes samples dans l'lisier J'viens r'cycler mon vide grenier Mon fond d'commerce ma zique de merde Pour faire taire les p'tites commères Un tour de piste, qui dès l'sommaire Réveille tous les morts dans l'cimetière T'as tellement mouillé À écouter mon premier CD Qu''il est tout rayé T'as beau essayé de l'foutre dans ta chaîne Maintenant il sau-sau-sau-sau-sau-te-te-te-te T'façon c'compact va s'autodétruire Avant qu'tous les autres suceurs ne pompent mon délire White Trash sur ta black list White spirit mais pilier comme un All Black Tous en piste, ça recommence Les MCs braillent et versent dans la démence Bon pour l'asile, vas-y trash ta vie si ça t'démange Jusquoù est-ce qu'on peut aller ? Trop loin, plus haut pour tomber plus bas Un peu comme les What For en plus beau On voulait s'grouiller mais on a pas trouvé un seul bar fermé C'est l'retour de Gerard Baste, Nikus Pokus et Mr. Xavier Svinkels, Triptik, TTC, DSL Chéravif ,Mutant Clan Et les professionnels Mat', Frog', FFKK, Enhancer Parab', High Tone, Tonton Damage Para One et DJ Pone Quand j'étais p'tit j'niquais l'trom' Maintenant j'fais d'la musique nickel chrome Pour l'or mais surtout pour t'piquer le crom' C'est l'son qui t'envoie en salle de soin Tagada Tsoin Tsoin Et j'claque les grandes gueules qui l'ouvrent que pour faire coin-coin Nettoie les bacs au Kärcher pour la sortie du prochain album Vu qu'le premier y'a squatter comme d'la merde collée au scrotum Comme si ça suffisait pas, j'trouve qu'on en a pas fait assez Alors voila le deuxième opus, putain d'crime de lèse-majesté Tant d'années pour faire c't'album mec, ça sert a rien Accouchement douloureux comme pour une césarienne Pourquoi tu m'as attendu, si tu croyais qu'jétais no future Pas keupon pour deux sous, ça r'commence come on Réveille le Svink' qu'est en vous Même mensonge quand Sarko ment Donc jette-toi en l'air, car ça r'commence Et jettes-y aussi ton flingue et ton sexe et colle au concept Sans faire de copier coller ou tu verras des coups d'pieds voler On va encore squatter l'classement Ferarock Avec mes poivrots, j'les appelle ainsi C'est comme quand les noirs s'appellent négros Destinés à prendre de la place dans vos bacs a disques Vu qu'bientôt y'a les solos et l'deuxième album des pros Dans l'bar c'est nous les premiers qu'on sert Un pauvre semblant d'gloire, résultat 200 concerts T'avais pas trop d'news alors qu'on est un putain d'groupe people Mais pour qu'on parle plus de nous faudrait créer la presse picole Cherche pas, on est toujours les mêmes On boit d'la piquette, on mouille la liquette On sent la biquette et on fait valser les étiquettes Dans la ur', en discothèque ou dans ta voiture À peine t'as foutu l'skeud, ça y est y'a l'feu à la toiture Ça r'commence, en route pour d'nouvelles aventures..</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1250,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hey, c'est Coconut Sunshine Gérard Baste On est les mieux ! Qui ? On ! Qui ? On ! Hoooo Bande d'enfoirés Ça va pas faire plaisir à ta maman Yeah! Yeah! à ta maman Hoooo Ok, yo, absorbe le son comme une giclure de zob D'mande à cette raclure de job, jamais on rature le job Demain on parcours le globe à coups d'massue dans l'torse Vas-tu encore nous casser les couilles ? Paris adorera-ça Electro San Ku Kaï, ça sent l'coup sale Loin dêtre triste comme un bobo sans scooter À 100 banlieusard amateur d'bons sons et d'beuveries Boxons et de-wee, ressens ton ego-trip A2H negro, c'est de la crack musik, maille comme la Castafiore Avec Gérard Baste en feat, tu te dis mince alors! Black et white trash cassent tes cervicales sur la piste de danse Ferme tes yeux et t'es vite dedans Ohhhhhh Casse ta nuque, oublie vite ton verre Dans la caisse on bouge la tête d'avant en arrière Et on roule foncedés On va se faire mal, mal, mal Bébé, on envoie le son qui brise les cervicales You might also likeAlors, casse ta nuque Casse ta nuque Casse ta nuque Casse ta nuque Bouge ton uc' Fais la pute Lève les mains, crie des trucs Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Baste ! J'débarque le bide bien lesté aux pâtes Tu connais l'taf, tu peux prendre rencard chez l'ostéopathe J'suis pas là pour racheter l'terrain quitte à lâcher l'pack Rien à foutre du club, on est v'nu pour plier l'stade Boire de la bière et voler l'argent, j'suis comme Jacques Chirac Ramper par terre comme une limace Briser en plusieurs points le cou d'une girafe Crack crack crack j'suis en atelier d'brisage Blah Blah Blah c'est le bruit de mes couilles qui se vident sur ton visage On se casse la nuque comme au catch après un German suplex Décomplexés comme Guy Carlier sappé en serveuse topless Je la sort devant les touristes, ??? le monstre du Loch Ness Alors Break Your Neck comme Busta, Rhymes pas Flex Et bouge ta tête comme le petit chien sur la plage arrière Profite de la foule, on fait l'amour sur les crash barrières Défonce-toi les vertèbres, suce-la comme ton premier werther's Soirée parallèle, 75 personnes dans les water Ça pue l'esprit teenage comme Nirvana Y'a de la danse, c'est de la violence comme chez Chris Brown et Rihanna Comme dans une manif' étudiante, on scande des slogans bêtes et fédérateurs Et on se lance du haut de l'enceinte, 6 mètres de hauteur On fait du son sans élastique, c'est l'son qui rend paraplégique Je fais des cascades mortelles comme sur l'tournage de Taxi 2 On se jette dans le vide, on va se faire mal, mal, mal Et on ira tous ensemble de la boite à lhôpital en chantant Ohhhhhh Casse ta nuque, oublie vite ton verre Dans la caisse on bouge la tête d'avant en arrière Et on roule foncedés On va se faire mal, mal, mal Bébé, on envoie le son qui brise les cervicales Alors, casse ta nuque Casse ta nuque Casse ta nuque Casse ta nuque Bouge ton uc' Fais la pute Lève les mains, crie des trucs Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Yo, c'est A2H et Gérard Baste Alors casse ta nuque, arrache ta jupe C'est la youte, faut qu'tu t'la foute si t'as pas capté l'truc Fais-toi mal aux cervicales, arrache-toi l'cerveau Headbang jusqu'à vomir, fais trembler cette fosse J'veux qu'ça slam, que ça pogote Hésite pas, ??? ta salope Au bar, claque tes allocs Choque les bourgeoises, nobles, attaque J'veux qu'ça s'casse ??? les barmans Des barjos, un carambolage De boule à Z à dreadlocks crades, ça s'rait marrant qu'ça r'parte en yecou grave J'veux voir des gars cramés r'tourner la salle Des mecs tellement bourrés qu'ils pourraient même chopper un trav' Ne serrer pas la vis, allez-y, pas d'problème Tous rempli de vices, choppe ta Barbie si t'as une envie d'ken Ohhhhhh Casse ta nuque, oublie vite ton verre Dans la caisse on bouge la tête d'avant en arrière Et on roule foncedés On va se faire mal, mal, mal Bébé, on envoie le son qui brise les cervicales Alors, casse ta nuque Casse ta nuque Casse ta nuque Casse ta nuque Bouge ton uc' Fais la pute Lève les mains, crie des trucs Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque C'est la A, le 2, le H Le Gé, le rard, le Baste Coconut Sunshine dans tes tympans !</t>
+          <t>Hey, c'est Coconut Sunshine Gérard Baste On est les mieux ! Qui ? On ! Qui ? On ! Hoooo Bande d'enfoirés Ça va pas faire plaisir à ta maman Yeah! Yeah! à ta maman Hoooo Ok, yo, absorbe le son comme une giclure de zob D'mande à cette raclure de job, jamais on rature le job Demain on parcours le globe à coups d'massue dans l'torse Vas-tu encore nous casser les couilles ? Paris adorera-ça Electro San Ku Kaï, ça sent l'coup sale Loin dêtre triste comme un bobo sans scooter À 100 banlieusard amateur d'bons sons et d'beuveries Boxons et de-wee, ressens ton ego-trip A2H negro, c'est de la crack musik, maille comme la Castafiore Avec Gérard Baste en feat, tu te dis mince alors! Black et white trash cassent tes cervicales sur la piste de danse Ferme tes yeux et t'es vite dedans Ohhhhhh Casse ta nuque, oublie vite ton verre Dans la caisse on bouge la tête d'avant en arrière Et on roule foncedés On va se faire mal, mal, mal Bébé, on envoie le son qui brise les cervicales Alors, casse ta nuque Casse ta nuque Casse ta nuque Casse ta nuque Bouge ton uc' Fais la pute Lève les mains, crie des trucs Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Baste ! J'débarque le bide bien lesté aux pâtes Tu connais l'taf, tu peux prendre rencard chez l'ostéopathe J'suis pas là pour racheter l'terrain quitte à lâcher l'pack Rien à foutre du club, on est v'nu pour plier l'stade Boire de la bière et voler l'argent, j'suis comme Jacques Chirac Ramper par terre comme une limace Briser en plusieurs points le cou d'une girafe Crack crack crack j'suis en atelier d'brisage Blah Blah Blah c'est le bruit de mes couilles qui se vident sur ton visage On se casse la nuque comme au catch après un German suplex Décomplexés comme Guy Carlier sappé en serveuse topless Je la sort devant les touristes, ??? le monstre du Loch Ness Alors Break Your Neck comme Busta, Rhymes pas Flex Et bouge ta tête comme le petit chien sur la plage arrière Profite de la foule, on fait l'amour sur les crash barrières Défonce-toi les vertèbres, suce-la comme ton premier werther's Soirée parallèle, 75 personnes dans les water Ça pue l'esprit teenage comme Nirvana Y'a de la danse, c'est de la violence comme chez Chris Brown et Rihanna Comme dans une manif' étudiante, on scande des slogans bêtes et fédérateurs Et on se lance du haut de l'enceinte, 6 mètres de hauteur On fait du son sans élastique, c'est l'son qui rend paraplégique Je fais des cascades mortelles comme sur l'tournage de Taxi 2 On se jette dans le vide, on va se faire mal, mal, mal Et on ira tous ensemble de la boite à lhôpital en chantant Ohhhhhh Casse ta nuque, oublie vite ton verre Dans la caisse on bouge la tête d'avant en arrière Et on roule foncedés On va se faire mal, mal, mal Bébé, on envoie le son qui brise les cervicales Alors, casse ta nuque Casse ta nuque Casse ta nuque Casse ta nuque Bouge ton uc' Fais la pute Lève les mains, crie des trucs Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Yo, c'est A2H et Gérard Baste Alors casse ta nuque, arrache ta jupe C'est la youte, faut qu'tu t'la foute si t'as pas capté l'truc Fais-toi mal aux cervicales, arrache-toi l'cerveau Headbang jusqu'à vomir, fais trembler cette fosse J'veux qu'ça slam, que ça pogote Hésite pas, ??? ta salope Au bar, claque tes allocs Choque les bourgeoises, nobles, attaque J'veux qu'ça s'casse ??? les barmans Des barjos, un carambolage De boule à Z à dreadlocks crades, ça s'rait marrant qu'ça r'parte en yecou grave J'veux voir des gars cramés r'tourner la salle Des mecs tellement bourrés qu'ils pourraient même chopper un trav' Ne serrer pas la vis, allez-y, pas d'problème Tous rempli de vices, choppe ta Barbie si t'as une envie d'ken Ohhhhhh Casse ta nuque, oublie vite ton verre Dans la caisse on bouge la tête d'avant en arrière Et on roule foncedés On va se faire mal, mal, mal Bébé, on envoie le son qui brise les cervicales Alors, casse ta nuque Casse ta nuque Casse ta nuque Casse ta nuque Bouge ton uc' Fais la pute Lève les mains, crie des trucs Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque Casse ta nuque Casse ta nuque Casse ta nuque-nuque-nuque C'est la A, le 2, le H Le Gé, le rard, le Baste Coconut Sunshine dans tes tympans !</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1267,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>22 v'là l'Svink' Là vient l'swing monte sur le ring Deux toxs sur la beat-box Te boxent de lyrics d'alcooliques.. Pour la picole, qui c'est qui s'y colle Nouvelle école Svinkels, coopérative agricole ..Comme une moissonneuse batteuse J'abats gueuzes et Svinkels Moisson balaise, boisson malaise En guise d'amuse-gueule À l'aise dans l'bourrage de gueule, j'dégueule T'invite à un fizz buzzle Et t'éparpille façon puzzle 3 2 1, le temps que tu ouvres ta bouteille J'avais vidé la mienne et l'avais mise à la poubelle N'oublie pas à qui tu t'adresses Le recordman de vitesse Classé dans le Guiness book Un gars de la ville qui pue le bouc You might also like Mes récoltes, j'les pisse comme des maïs J'm'enfile des géants verres Flaire les kilos d'céréales versés dans les silos Sirotons le houblon Bavons-en, brassons le Poussons l'bouchon, ça pleut des litres Comme à la mousson 4 fois 4 seize, fois 4 soixante-quatre 4 fois à quatre pattes, assez, c'est ton foie qui craque Sois hanté, écarlate Tu fais le grand écart Latté sur le planché Sur le parquet tout taché x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous Cereal killer mais qui m'leurre pas Pour sûr j'la connais coeur-par Car dès le lever les crevures carburent à la l'vure Donc je r'pars céréales à boire mais pas de l'Ovomaltine Le matin c'est du malt que j'tétine Bois ton bonjour à la chicorée J'me rince les chicos au bourbon M'embourbe dans le houblon Exit les exos hebdos de dos crawlé Ecroulé sous mes abdos à la Kro devant la télé Accro à la Kro et à la Kriek, j'ai la trique Gros Nike se nique à la Kro c'est chronique Le maquereau mi-homme micro prie synchro Et t'invite à l'apérobic, nos verres s'entrechoquent à pic Car au lever du coude on développe nos réflexes Ça nous vexe de te voir bouffer des corn flakes Car le Svink favorise la grosse tise aux Frosties Déraille, se crispe et pique sa crise pour Rice Krispies Malsain dans la membrane Oublies tes All Bran Pour tes problèmes de transit intestinal Baste a la solution anale Comme Destop je fais sauter le bouchon Et Smaks bien dans l'axe C'est tellement bon que j'fais des bonds jusqu'au balcon Et qu'j'y bé-ger toute ma potion Obsession, amour pour la boisson 1-6-6-4, j'en ai des cicatrices C'est triste, ma voix n'est plus celle d'une cantatrice J'm'attriste sur tes traces laissées sur mon bide Je danse la danse du ventre et tout remonte à ma tête livide Ravis d'ce gâchis j'en suis avide, gosier aride Quand mon verre est vide, j'le plains Quand mon verre est plein, j'le vide x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous Voici le bon grain. Le manger est à la portée de tous les imbéciles mais notre seigneur, dans sa divine sagesse, à prévu une meilleure façon de le consommer. Élevons une prière de remerciements envers notre créateur qui dans sa gloire céleste nous à donner la bière Le mâle aborde les bars Voilà le malabar des bières Qui swing les syllabes Met la gomme jusqu'à l'abus Tu t'rebutes devant mes rébus Rencard au bar Abra Carambar Je brigue les brocs et truque les bocks J'me biture et turbine à la Tuborg Turbo cyborg comme Björn Borg Tête de céréales killla Je mâche pas mes mots, je les smash Splash craft sur les fûts, v'là l'raffut Les big baroufs toujours à laffût d'une soirée mousse Les capitaines Taverne t'avoinent, t'avertissent N'avale pas d'travers Ou s'bang, j'flingue ton verre J'ai un permis de tuer c'est ma licence quatre mon ami Pas de demi mesure j'te mesure à ton usure au demi Usurpation d'consommation entraîne une punition On t'a mis dans un état stationnaire d'épuration Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous</t>
+          <t>22 v'là l'Svink' Là vient l'swing monte sur le ring Deux toxs sur la beat-box Te boxent de lyrics d'alcooliques.. Pour la picole, qui c'est qui s'y colle Nouvelle école Svinkels, coopérative agricole ..Comme une moissonneuse batteuse J'abats gueuzes et Svinkels Moisson balaise, boisson malaise En guise d'amuse-gueule À l'aise dans l'bourrage de gueule, j'dégueule T'invite à un fizz buzzle Et t'éparpille façon puzzle 3 2 1, le temps que tu ouvres ta bouteille J'avais vidé la mienne et l'avais mise à la poubelle N'oublie pas à qui tu t'adresses Le recordman de vitesse Classé dans le Guiness book Un gars de la ville qui pue le bouc Mes récoltes, j'les pisse comme des maïs J'm'enfile des géants verres Flaire les kilos d'céréales versés dans les silos Sirotons le houblon Bavons-en, brassons le Poussons l'bouchon, ça pleut des litres Comme à la mousson 4 fois 4 seize, fois 4 soixante-quatre 4 fois à quatre pattes, assez, c'est ton foie qui craque Sois hanté, écarlate Tu fais le grand écart Latté sur le planché Sur le parquet tout taché x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous Cereal killer mais qui m'leurre pas Pour sûr j'la connais coeur-par Car dès le lever les crevures carburent à la l'vure Donc je r'pars céréales à boire mais pas de l'Ovomaltine Le matin c'est du malt que j'tétine Bois ton bonjour à la chicorée J'me rince les chicos au bourbon M'embourbe dans le houblon Exit les exos hebdos de dos crawlé Ecroulé sous mes abdos à la Kro devant la télé Accro à la Kro et à la Kriek, j'ai la trique Gros Nike se nique à la Kro c'est chronique Le maquereau mi-homme micro prie synchro Et t'invite à l'apérobic, nos verres s'entrechoquent à pic Car au lever du coude on développe nos réflexes Ça nous vexe de te voir bouffer des corn flakes Car le Svink favorise la grosse tise aux Frosties Déraille, se crispe et pique sa crise pour Rice Krispies Malsain dans la membrane Oublies tes All Bran Pour tes problèmes de transit intestinal Baste a la solution anale Comme Destop je fais sauter le bouchon Et Smaks bien dans l'axe C'est tellement bon que j'fais des bonds jusqu'au balcon Et qu'j'y bé-ger toute ma potion Obsession, amour pour la boisson 1-6-6-4, j'en ai des cicatrices C'est triste, ma voix n'est plus celle d'une cantatrice J'm'attriste sur tes traces laissées sur mon bide Je danse la danse du ventre et tout remonte à ma tête livide Ravis d'ce gâchis j'en suis avide, gosier aride Quand mon verre est vide, j'le plains Quand mon verre est plein, j'le vide x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous Voici le bon grain. Le manger est à la portée de tous les imbéciles mais notre seigneur, dans sa divine sagesse, à prévu une meilleure façon de le consommer. Élevons une prière de remerciements envers notre créateur qui dans sa gloire céleste nous à donner la bière Le mâle aborde les bars Voilà le malabar des bières Qui swing les syllabes Met la gomme jusqu'à l'abus Tu t'rebutes devant mes rébus Rencard au bar Abra Carambar Je brigue les brocs et truque les bocks J'me biture et turbine à la Tuborg Turbo cyborg comme Björn Borg Tête de céréales killla Je mâche pas mes mots, je les smash Splash craft sur les fûts, v'là l'raffut Les big baroufs toujours à laffût d'une soirée mousse Les capitaines Taverne t'avoinent, t'avertissent N'avale pas d'travers Ou s'bang, j'flingue ton verre J'ai un permis de tuer c'est ma licence quatre mon ami Pas de demi mesure j'te mesure à ton usure au demi Usurpation d'consommation entraîne une punition On t'a mis dans un état stationnaire d'épuration Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1284,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Intro Ok now we're here on good ol' boy radio 109.77 Hearing the new track by Gérard Baste that's me And if you didn't hear this song before Well you really missed something in your life And it's a damn shame you ask me Couplet n1 Je suis revenu du rap game J'étais allé faire un tour J'ai vu des bons, des cons, des faux J'ai vu des vautours J'ai vu des suiveurs J'ai vu des centaines de veaux Prêts à revendre leurs daronnes Pour quelques centaines d'euros Pourquoi ils veulent tous faire la même chiasse? Ils ont les mêmes beats J'ai regardé leurs clips ils payent les mêmes biatchs Il serait peut-être temps de passer un cap igo J'ai impression que la trap C'est un peu l'attrape-nigauds Et je les vois faire du rap technique Pour parler de leur technique Comme les puceaux qui se branlent en se disant Putain j'ai une belle bite C'est le syndrome du verre vide Et s'ils n'en ont pas conscience Je vais leur rappeler le vrai truc Les petits ont pris la confiance J'viens mettre des patatates Les foutre à quatre patatates Mets deux balles dans le juke-box Et ça fera ratatat Ils se disent rappeurs Mais ce sont que des wacks Je les écoute kicker J'entends juste Shoobeedoowap You might also likeRefrain Shoobeedoowapwap Shoobeedoowap x3 Je les écoute rapper J'entends juste Shoobeedoowap Shoobeedoowapwap Shoobeedoowap x3 J'entends juste Shoobeedoowap And with the miracle of time, we're now here for face 2 Couplet n2 Face 2, j'sais pas crétin Si tu t'rends compte J'parle d'ceux Dont le rap est un tissu de mensonges Ils ont des voiture de sports louées Des armes en polystyrène Mais faut pas prendre les V6 pour des lanternes J'regarde ces hispters J'les appelle les chipsters J'les bouffe par paquet Leur public c'est les ados Et leurs ptites soeurs Je crois que j'suis trop vieux pour ce jeu Jumanji J'ai failli me facher Ils ont de la chatte Bunani J'débarque avec le flow d'un tsunami J'laisse la foule ravie Et ta moule flapie Je suis sur la route toute l'année Je les ai pas croisés Je suis dans le club Ils sont dans le club Dorothée On a perdu trop de temps A écouter leurs blagues Si on trouvait juste le moyen D'écourter leurs vannes Ils racontent leur life Mais mec ils racontent des cracks Je les écoute jacter j'entends juste Shoobeedoowap Refrain Outro I'm hearding them saying</t>
+          <t>Intro Ok now we're here on good ol' boy radio 109.77 Hearing the new track by Gérard Baste that's me And if you didn't hear this song before Well you really missed something in your life And it's a damn shame you ask me Couplet n1 Je suis revenu du rap game J'étais allé faire un tour J'ai vu des bons, des cons, des faux J'ai vu des vautours J'ai vu des suiveurs J'ai vu des centaines de veaux Prêts à revendre leurs daronnes Pour quelques centaines d'euros Pourquoi ils veulent tous faire la même chiasse? Ils ont les mêmes beats J'ai regardé leurs clips ils payent les mêmes biatchs Il serait peut-être temps de passer un cap igo J'ai impression que la trap C'est un peu l'attrape-nigauds Et je les vois faire du rap technique Pour parler de leur technique Comme les puceaux qui se branlent en se disant Putain j'ai une belle bite C'est le syndrome du verre vide Et s'ils n'en ont pas conscience Je vais leur rappeler le vrai truc Les petits ont pris la confiance J'viens mettre des patatates Les foutre à quatre patatates Mets deux balles dans le juke-box Et ça fera ratatat Ils se disent rappeurs Mais ce sont que des wacks Je les écoute kicker J'entends juste Shoobeedoowap Refrain Shoobeedoowapwap Shoobeedoowap x3 Je les écoute rapper J'entends juste Shoobeedoowap Shoobeedoowapwap Shoobeedoowap x3 J'entends juste Shoobeedoowap And with the miracle of time, we're now here for face 2 Couplet n2 Face 2, j'sais pas crétin Si tu t'rends compte J'parle d'ceux Dont le rap est un tissu de mensonges Ils ont des voiture de sports louées Des armes en polystyrène Mais faut pas prendre les V6 pour des lanternes J'regarde ces hispters J'les appelle les chipsters J'les bouffe par paquet Leur public c'est les ados Et leurs ptites soeurs Je crois que j'suis trop vieux pour ce jeu Jumanji J'ai failli me facher Ils ont de la chatte Bunani J'débarque avec le flow d'un tsunami J'laisse la foule ravie Et ta moule flapie Je suis sur la route toute l'année Je les ai pas croisés Je suis dans le club Ils sont dans le club Dorothée On a perdu trop de temps A écouter leurs blagues Si on trouvait juste le moyen D'écourter leurs vannes Ils racontent leur life Mais mec ils racontent des cracks Je les écoute jacter j'entends juste Shoobeedoowap Refrain Outro I'm hearding them saying</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1301,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>À l'instinct, mon grain d'voix sort du plexus Si un mot est une goutte, je deviens cumulus Pas très bien élevé, on louche sur les décolletés Notre hip-hop pas lavé sent l'entrejambe faisandé Sur un sample patiné, on s'est donné rendez-vous Nos rimes sont marinées pour avoir mauvais goût Affutés tous les 7, réunis pour la légende Dresse ton sexe ou ton index pour mon putain d'boys band Mesdames et messieurs, v'la Cyanure le roi des agneaux Qui vient récupérer son précieux J'apprécie le rap précis, je le précise Ouais, j'suis d'la greum, plus tout jeune et plutôt cheum Aux jeux de mots foireux, ke-lou classe, c'est tout, dans des pe-grou chelous Moi, c'est Ne-cyan, ah bon, dit l'abominable ciel bleu lagon vagabond échappé d'un labo Pour le Klub des 7, pas un gang, plutôt classique comme Wolfgang J'suis prêt à la, dès mon entrée, j'tomate mozzarella Regarde dans les 7 boules de cristal C'est pas les 7 mercenaires, pas les 7 samouraïs On est 7 comme les mousquetaires 7 pour tous, tous pour un, un pour 7, tous pour 7 Unis comme les 7 doigts de la main, proche comme des frères Appelle-nous Quadricolor, les 7 couleurs primaires 7 continents, 7 commandements, tu trouves ça bizarre 7 signes du zodiaque, c'est pas un hasard On lit Télé 7 Jours, on écoute Radio 7 Y'a une K7 qu'on kiffe grave, c'est les Jackson 7 On met des chaussettes, waow, quelle putain d'phase Le pire, c'est qu't'aimes, comme si t'étais sous putain d'taz Le Klub des 7 devait mourir, mais c'était trop triste On r'vient dans un gros 4x4, 7 roues motrices J'vais pas tout déballer, certaines infos doivent rester secrètes Mais sois là le 772007 à 7h07 You might also like C'est le Klub, c'est le Klub, c'est le Klub des 7 C'est le Klub, Klub, Klub, Klub, Klub des 7 C'est le Klub, c'est le Klub des 7 C'est le Klub des 7, c'est le Klub des 7 Envoie des poèmes au lance-pierres dans la chambre de cette fille que j'aime bien Mais elle ne veut pas les lire De toutes façons, les filles c'est nul, la plupart n'ont pas d'seins Et on se tape d'effleurer des soutiens-gorges rembourrés On préfère zoner en ville, arriver bourrés au dîner Qu'a-tu appris à l'école ? À oublier d'y aller Plutôt du genre à pas payer l'amende de la bibliothèque On aurait bien rendu les livres, mais trop tard, ils sont vendus 7 ! À qui profitent nos inventions ? 7 ! Qui pense qu'son flow est innovant 7 ! On n'changera pas une équipe qui gagne Rappelle-toi, contre le Brésil on était 7 Les 7 buts manqués nous ont mis direct sur la touche Du coup les lions on brûle dessus, on a formé le Klub des 7 Là où les bidons font des coups, nous on préfère la mériter On apprécie quand on prend l'temps être dans la peau de Maïté 7 ! À qui profitent nos inventions ? 7 ! Qui pense qu'son flow est innovant 7 ! On n'changera pas une équipe qui gagne Rappelle-toi, contre le Brésil on était 7 C'est le klub, klub, klub, le S Club Seven C'est pas du dub dub dub mais ça chauffe vénère On est 7 keums keums keums XXX Si t'es trop cheum cheum cheum, bah coupe-toi les veines J'ai dénoncé les autres, qu'on soit ensemble en heure de colle Pour mettre le plan à exécution sans attirer les attentions Chante avec moi, chante avec moi x4 C'est le Klub qui s'lâche Quand Gérard lève son verre et bastonne, quand Cyanure crache C'est le Klub qui s'lâche Quand F-K tchatche, quand Detect scratche C'est le Klub qui s'lâche Quand Fuzati met son masque, quand James slamme et arrache C'est le Klub qui s'lâche Quand Le Jouage nonchalant fait sa démarche, quand le public crache</t>
+          <t>À l'instinct, mon grain d'voix sort du plexus Si un mot est une goutte, je deviens cumulus Pas très bien élevé, on louche sur les décolletés Notre hip-hop pas lavé sent l'entrejambe faisandé Sur un sample patiné, on s'est donné rendez-vous Nos rimes sont marinées pour avoir mauvais goût Affutés tous les 7, réunis pour la légende Dresse ton sexe ou ton index pour mon putain d'boys band Mesdames et messieurs, v'la Cyanure le roi des agneaux Qui vient récupérer son précieux J'apprécie le rap précis, je le précise Ouais, j'suis d'la greum, plus tout jeune et plutôt cheum Aux jeux de mots foireux, ke-lou classe, c'est tout, dans des pe-grou chelous Moi, c'est Ne-cyan, ah bon, dit l'abominable ciel bleu lagon vagabond échappé d'un labo Pour le Klub des 7, pas un gang, plutôt classique comme Wolfgang J'suis prêt à la, dès mon entrée, j'tomate mozzarella Regarde dans les 7 boules de cristal C'est pas les 7 mercenaires, pas les 7 samouraïs On est 7 comme les mousquetaires 7 pour tous, tous pour un, un pour 7, tous pour 7 Unis comme les 7 doigts de la main, proche comme des frères Appelle-nous Quadricolor, les 7 couleurs primaires 7 continents, 7 commandements, tu trouves ça bizarre 7 signes du zodiaque, c'est pas un hasard On lit Télé 7 Jours, on écoute Radio 7 Y'a une K7 qu'on kiffe grave, c'est les Jackson 7 On met des chaussettes, waow, quelle putain d'phase Le pire, c'est qu't'aimes, comme si t'étais sous putain d'taz Le Klub des 7 devait mourir, mais c'était trop triste On r'vient dans un gros 4x4, 7 roues motrices J'vais pas tout déballer, certaines infos doivent rester secrètes Mais sois là le 772007 à 7h07 C'est le Klub, c'est le Klub, c'est le Klub des 7 C'est le Klub, Klub, Klub, Klub, Klub des 7 C'est le Klub, c'est le Klub des 7 C'est le Klub des 7, c'est le Klub des 7 Envoie des poèmes au lance-pierres dans la chambre de cette fille que j'aime bien Mais elle ne veut pas les lire De toutes façons, les filles c'est nul, la plupart n'ont pas d'seins Et on se tape d'effleurer des soutiens-gorges rembourrés On préfère zoner en ville, arriver bourrés au dîner Qu'a-tu appris à l'école ? À oublier d'y aller Plutôt du genre à pas payer l'amende de la bibliothèque On aurait bien rendu les livres, mais trop tard, ils sont vendus 7 ! À qui profitent nos inventions ? 7 ! Qui pense qu'son flow est innovant 7 ! On n'changera pas une équipe qui gagne Rappelle-toi, contre le Brésil on était 7 Les 7 buts manqués nous ont mis direct sur la touche Du coup les lions on brûle dessus, on a formé le Klub des 7 Là où les bidons font des coups, nous on préfère la mériter On apprécie quand on prend l'temps être dans la peau de Maïté 7 ! À qui profitent nos inventions ? 7 ! Qui pense qu'son flow est innovant 7 ! On n'changera pas une équipe qui gagne Rappelle-toi, contre le Brésil on était 7 C'est le klub, klub, klub, le S Club Seven C'est pas du dub dub dub mais ça chauffe vénère On est 7 keums keums keums XXX Si t'es trop cheum cheum cheum, bah coupe-toi les veines J'ai dénoncé les autres, qu'on soit ensemble en heure de colle Pour mettre le plan à exécution sans attirer les attentions Chante avec moi, chante avec moi x4 C'est le Klub qui s'lâche Quand Gérard lève son verre et bastonne, quand Cyanure crache C'est le Klub qui s'lâche Quand F-K tchatche, quand Detect scratche C'est le Klub qui s'lâche Quand Fuzati met son masque, quand James slamme et arrache C'est le Klub qui s'lâche Quand Le Jouage nonchalant fait sa démarche, quand le public crache</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1318,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Drixxxé ! Casquette sur les yeuz', moustache dégueulasse Canette dans la chatte, teddy perso Gérard Baste Custom made, classé tout en haut dans l'top mec Dans ta tête tu t'dis J'voudrais tell'ment que c't'homme m'aime! Tu peux dire que j'tue, tu peux dire que j'rock même J'ai b'soin d'une brouette quand j'pars faire un dépôt d'chèques Regarde ma vie c'est trop l'sketch C'est dur d'marcher avec ces p'tites suspendues à ma peau d'zguegue Devant les coulisses elles font la queue pour voire la grosse bête Pendant qu'on kiffe la race entre potes comme des gros schbebs Gentleman sur toute la ligne J'vais t'faire nettoyer, balayer comme les Zouk Machine Pour qu'tu goûtes ma pine, mets-toi au bout d'la file Et soit patiente, en c'moment y'a qu'2 s'maines d'attente On est jeunes, on est beaux, enfin surtout toi On a pas toute la vie alors secoue-toi Si tu viens m'pé-pom, m'fait pas perdre mon temps Si t'as aucun style, aucun rythme, aucun sens du gland Bouge plus Ouais tu m'as r'connu C'est moi teupu ! You might also like Quand j'débarque dans la pièce, ouais ça mitraille sec Tell'ment d'admiration, ouais c'est bizarre mec Quelques balles dans le slip pour ces dames, classe Tu cherches le mec ultime, ouais c'est oim, Baste J'fais d'la maille à l'endroit comme à l'envers Au paradis quand ça pue l'ovaire Toutes mes nuits c'est une nuit en enfer Reste pas à rien faire et vient fricoter, tripoter Pendant qu'j'tire l'élastique de ta culotte pour t'asticoter On est pas dans une discothèque de merde pour la discute Pas d'prise de tête, écarte les cuisses que j'puisse te fiste pute Acharné du lexique, feignasse comme au Mexique Appelle-moi Bérard Gaste comme le disent les dyslexiques Sexy! C'est c'que j'dis à l'autre devant la glace Et j'rajoute Tu sais qu'tu pourrais plaire à Ba-Ba-Ba-Baste! J'suis un Casanova du dimanche Te quiero, Tony Montana avec un p'tit manche Ouais tu m'as r'connu, tu sais qu'j'pose velu Mais sors l'épilation intégrale le jour venu J'ai plus d'temps à perdre et encore moins pour qu'une petite pute glande Donc j'baise celle là et j'suis à toi dans 1 minute 30 Bouge plus Ouais tu m'as r'connu C'est moi teupu ! Quand j'débarque dans la pièce, ouais ça mitraille sec Tell'ment d'admiration, ouais c'est bizarre mec Quelques balles dans le slip pour ces dames, classe Tu cherches le mec ultime, ouais c'est oim, Baste Hey Waxx, faut qu'ça éclabousse là !</t>
+          <t>Drixxxé ! Casquette sur les yeuz', moustache dégueulasse Canette dans la chatte, teddy perso Gérard Baste Custom made, classé tout en haut dans l'top mec Dans ta tête tu t'dis J'voudrais tell'ment que c't'homme m'aime! Tu peux dire que j'tue, tu peux dire que j'rock même J'ai b'soin d'une brouette quand j'pars faire un dépôt d'chèques Regarde ma vie c'est trop l'sketch C'est dur d'marcher avec ces p'tites suspendues à ma peau d'zguegue Devant les coulisses elles font la queue pour voire la grosse bête Pendant qu'on kiffe la race entre potes comme des gros schbebs Gentleman sur toute la ligne J'vais t'faire nettoyer, balayer comme les Zouk Machine Pour qu'tu goûtes ma pine, mets-toi au bout d'la file Et soit patiente, en c'moment y'a qu'2 s'maines d'attente On est jeunes, on est beaux, enfin surtout toi On a pas toute la vie alors secoue-toi Si tu viens m'pé-pom, m'fait pas perdre mon temps Si t'as aucun style, aucun rythme, aucun sens du gland Bouge plus Ouais tu m'as r'connu C'est moi teupu ! Quand j'débarque dans la pièce, ouais ça mitraille sec Tell'ment d'admiration, ouais c'est bizarre mec Quelques balles dans le slip pour ces dames, classe Tu cherches le mec ultime, ouais c'est oim, Baste J'fais d'la maille à l'endroit comme à l'envers Au paradis quand ça pue l'ovaire Toutes mes nuits c'est une nuit en enfer Reste pas à rien faire et vient fricoter, tripoter Pendant qu'j'tire l'élastique de ta culotte pour t'asticoter On est pas dans une discothèque de merde pour la discute Pas d'prise de tête, écarte les cuisses que j'puisse te fiste pute Acharné du lexique, feignasse comme au Mexique Appelle-moi Bérard Gaste comme le disent les dyslexiques Sexy! C'est c'que j'dis à l'autre devant la glace Et j'rajoute Tu sais qu'tu pourrais plaire à Ba-Ba-Ba-Baste! J'suis un Casanova du dimanche Te quiero, Tony Montana avec un p'tit manche Ouais tu m'as r'connu, tu sais qu'j'pose velu Mais sors l'épilation intégrale le jour venu J'ai plus d'temps à perdre et encore moins pour qu'une petite pute glande Donc j'baise celle là et j'suis à toi dans 1 minute 30 Bouge plus Ouais tu m'as r'connu C'est moi teupu ! Quand j'débarque dans la pièce, ouais ça mitraille sec Tell'ment d'admiration, ouais c'est bizarre mec Quelques balles dans le slip pour ces dames, classe Tu cherches le mec ultime, ouais c'est oim, Baste Hey Waxx, faut qu'ça éclabousse là !</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1335,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bouge plus Ouais tu m'as r'connu C'est moi teupu ! Casquette sur les yeuz', moustache dégueulasse Canette dans la chatte, teddy perso Gérard Baste Custom made, classé tout en haut dans l'top mec Dans ta tête tu t'dis J'voudrais tell'ment que c't'homme m'aime! Tu peux dire que j'tue, tu peux dire que j'rock même J'ai b'soin d'une brouette quand j'pars faire un dépôt d'chèques Regarde ma vie c'est trop l'sketch C'est dur d'marcher avec ces p'tites suspendues à ma peau d'zguegue Devant les coulisses elles font la queue pour voire la grosse bête Pendant qu'on kiffe la race entre potes comme des gros schbebs Gentleman sur toute la ligne J'vais t'faire nettoyer, balayer comme les Zouk Machine Pour qu'tu goûtes ma pine, mets-toi au bout d'la file Et soit patiente, en c'moment y'a qu'2 s'maines d'attente On est jeunes, on est beaux, enfin surtout toi On a pas toute la vie alors secoue-toi Si tu viens m'pé-pom, m'fait pas perdre mon temps Si t'as aucun style, aucun rythme, aucun sens du gland Bouge plus Ouais tu m'as r'connu C'est moi teupu ! You might also like J'fais d'la maille à l'endroit comme à l'envers Au paradis quand ça pue l'ovaire Toutes mes nuits c'est une nuit en enfer Reste pas à rien faire et vient fricoter, tripoter Pendant qu'j'tire l'élastique de ta culotte pour t'asticoter On est pas dans une discothèque de merde pour la discute Pas d'prise de tête, écarte les cuisses que j'puisse te fiste pute Acharné du lexique, feignasse comme au Mexique Appelle-moi Bérard Gaste comme le disent les dyslexiques Sexy! C'est c'que j'dis à l'autre devant la glace Et j'rajoute J'suis sûr qu'tu pourrais plaire à Ba-Ba-Ba-Baste! J'suis un Casanova du dimanche Te quiero, Tony Montana avec un p'tit manche Ouais tu m'as r'connu, tu sais qu'j'pose velu Mais sors l'épilation intégrale le jour venu J'ai plus d'temps à perdre et encore moins pour qu'une petite pute glande Donc j'baise celle là et j'suis à toi dans 1 minute 30 Bouge plus Ouais tu m'as r'connu C'est moi teupu !</t>
+          <t>Bouge plus Ouais tu m'as r'connu C'est moi teupu ! Casquette sur les yeuz', moustache dégueulasse Canette dans la chatte, teddy perso Gérard Baste Custom made, classé tout en haut dans l'top mec Dans ta tête tu t'dis J'voudrais tell'ment que c't'homme m'aime! Tu peux dire que j'tue, tu peux dire que j'rock même J'ai b'soin d'une brouette quand j'pars faire un dépôt d'chèques Regarde ma vie c'est trop l'sketch C'est dur d'marcher avec ces p'tites suspendues à ma peau d'zguegue Devant les coulisses elles font la queue pour voire la grosse bête Pendant qu'on kiffe la race entre potes comme des gros schbebs Gentleman sur toute la ligne J'vais t'faire nettoyer, balayer comme les Zouk Machine Pour qu'tu goûtes ma pine, mets-toi au bout d'la file Et soit patiente, en c'moment y'a qu'2 s'maines d'attente On est jeunes, on est beaux, enfin surtout toi On a pas toute la vie alors secoue-toi Si tu viens m'pé-pom, m'fait pas perdre mon temps Si t'as aucun style, aucun rythme, aucun sens du gland Bouge plus Ouais tu m'as r'connu C'est moi teupu ! J'fais d'la maille à l'endroit comme à l'envers Au paradis quand ça pue l'ovaire Toutes mes nuits c'est une nuit en enfer Reste pas à rien faire et vient fricoter, tripoter Pendant qu'j'tire l'élastique de ta culotte pour t'asticoter On est pas dans une discothèque de merde pour la discute Pas d'prise de tête, écarte les cuisses que j'puisse te fiste pute Acharné du lexique, feignasse comme au Mexique Appelle-moi Bérard Gaste comme le disent les dyslexiques Sexy! C'est c'que j'dis à l'autre devant la glace Et j'rajoute J'suis sûr qu'tu pourrais plaire à Ba-Ba-Ba-Baste! J'suis un Casanova du dimanche Te quiero, Tony Montana avec un p'tit manche Ouais tu m'as r'connu, tu sais qu'j'pose velu Mais sors l'épilation intégrale le jour venu J'ai plus d'temps à perdre et encore moins pour qu'une petite pute glande Donc j'baise celle là et j'suis à toi dans 1 minute 30 Bouge plus Ouais tu m'as r'connu C'est moi teupu !</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1352,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Barlou, barlou, barlou Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate On va pas s'mentir fils, tu peux sortir l'extincteur Décontrasté comme Garcimore on détend les sphincters Ta tête dans la soupière, tes couilles dans le broyeur Pendant que j'vide le Jack Daniel's fire Comme la canicule à Paris, chaud comme Marseille Dans le spliff c'est la tate-pa, gros bide dans le marcel Au mic c'est le magma, j'crois qu'j'suis pas né dans le bon pays J'vais les réduire en cendres, j'ai sorti le fusil à Pompéi On débarque dans ta boom, on est tous dans le ranch, chaud oh,oh D'humeur gypsy, paré à faire le bamba On t'retourne la boite tranquillement avec Gueko oh,oh C'est plus un dancefloor c'est une plancha Essaie pas d'nous suivre tu vas bouffer d'la nitro 40 c'est l'été, 14 c'est le Côtes-du-Rhône Et la température semballe dès qu'on blesse le micro T'as compris ? On fait monter le mercure-ochrome You might also like Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate Chaud patate ! Seth Gueko, Gérard Baste, on est chaud patate ! Pose les bonnes questions ou j't'arrache ton micro-cravate On arrive chaud patate, chauds les marrons, chauds J'vois les MCs tapiner sur les maréchaux Tu veux des photos mais t'achètes pas l'album Gros racho, j'fais du rap de moustachu bouracho Le crâne chauve, balafré comme Yamcha Prends ta coke et nachave, j'suis pas v'nu danser la Cucaracha rriba! On est v'nu t'chourave c'qu'est là J'aime les poulets qu'sur une grille de churrasqueira On compte plus les godemich que ton uc aspira J'suis écorché vif comme ??? Prends un aspirine, une seule patate de forain et tu t'tiens l'menton à vie comme Le Penseur de Rodin J'collectionne les blagues pourries comme Pascal Tourain Une paire de Timberland, j'suis l'ponceur de rondins Mon cousin, j'tiens la route comme un monster truck J'fais que du sale mais j'ai l'swag à Monsieur Propre Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate Chaud patate ! Seth Gueko, Gérard Baste, on est chaud patate ! Pose les bonnes questions ou j't'arrache ton micro-cravate</t>
+          <t>Barlou, barlou, barlou Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate On va pas s'mentir fils, tu peux sortir l'extincteur Décontrasté comme Garcimore on détend les sphincters Ta tête dans la soupière, tes couilles dans le broyeur Pendant que j'vide le Jack Daniel's fire Comme la canicule à Paris, chaud comme Marseille Dans le spliff c'est la tate-pa, gros bide dans le marcel Au mic c'est le magma, j'crois qu'j'suis pas né dans le bon pays J'vais les réduire en cendres, j'ai sorti le fusil à Pompéi On débarque dans ta boom, on est tous dans le ranch, chaud oh,oh D'humeur gypsy, paré à faire le bamba On t'retourne la boite tranquillement avec Gueko oh,oh C'est plus un dancefloor c'est une plancha Essaie pas d'nous suivre tu vas bouffer d'la nitro 40 c'est l'été, 14 c'est le Côtes-du-Rhône Et la température semballe dès qu'on blesse le micro T'as compris ? On fait monter le mercure-ochrome Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate Chaud patate ! Seth Gueko, Gérard Baste, on est chaud patate ! Pose les bonnes questions ou j't'arrache ton micro-cravate On arrive chaud patate, chauds les marrons, chauds J'vois les MCs tapiner sur les maréchaux Tu veux des photos mais t'achètes pas l'album Gros racho, j'fais du rap de moustachu bouracho Le crâne chauve, balafré comme Yamcha Prends ta coke et nachave, j'suis pas v'nu danser la Cucaracha rriba! On est v'nu t'chourave c'qu'est là J'aime les poulets qu'sur une grille de churrasqueira On compte plus les godemich que ton uc aspira J'suis écorché vif comme ??? Prends un aspirine, une seule patate de forain et tu t'tiens l'menton à vie comme Le Penseur de Rodin J'collectionne les blagues pourries comme Pascal Tourain Une paire de Timberland, j'suis l'ponceur de rondins Mon cousin, j'tiens la route comme un monster truck J'fais que du sale mais j'ai l'swag à Monsieur Propre Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate Chaud patate ! Seth Gueko, Gérard Baste, on est chaud patate ! Pose les bonnes questions ou j't'arrache ton micro-cravate</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1369,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hey man, voici le son de la Californie Ah bah t'aime ça, toi ? Bartender, fill me up ! I need an other cocktail in my cup Or in my mouth Thats the kind of drink that I talking about Bartender, don't be shy ??? ??? Mates l'état dl'équipe On a pris grave hier Donc aujourd'hui ça démarre tranquille Coca-bière, ambiance germanique Moustaches bavaroises Citror, gin tonic, Picon et soupe champenoise Mousseux, jus d'orange, Tequila, sucre Mais si j'te jure qu'ça existe, si, si j't'assure Fais péter lvinao, là on est lmatin vinao On a mélanger du lait et du vin Ah bah t'aime ça toi ? Ambiance de clochard Cocktails de crevettes, Ebola Change leau du Ricard pour d'la Vodka Packs de 6 pour 10, ambiance angoissante Solution pharmacie, alcool à 60 Prends ta trempe, trempe un boudoir dans du Saumure Cocktails de crevards, cocktails de crevures Bois dans une chaussure Dans une pompe, t'es sûr ?! Ah mais ça pique ! Des putains d'pointures Bartender shake it ! You might also like Bartender, fill me up ! I need an other cocktail in my cup Or in my mouth Thats the kind of drink that I talking about Bartender, don't be shy ??? ??? J'ai usé tous mes points Total Et même plus l'écran total L'estomac dans un dos d'âne Un coma comme sous propane Lâche les vannes que j'proclame Corona ma seule cocarde Et l'patron n'accepte plus nos Mastercard Y'a pas moyen! On va s'polier les pustules Qui polissent nos pédoncules Les jours de jaunisse et les soirs de pleines burnes Pleine bourre dans les urnes Pleins d'pots dans nos turnes En galère comme les kurdes Y'a plus d'tune pour accompagner ma biture Cubis et tuner sans friture AMS t'aime plus que l'Amstel Non pas d'Vittel J'suis fou comme Chouchen, bouffe le clit' de ta chienne Quand y'a Qhuit dans ta chaîne Mais là j'suis sûr à 100 Que c'qu'on dit c'est du Saint-pourçain Sandwichs aux huîtres et aux oursins Moi j'rappe pour ceux qui tenteront ça Jovials, un verre à la main J'f'rais ma vie sur un bootleg Aussi rouge que cette bouteille Pour elle j'bouge même pas l'gros orteil Quand la Kro m'appelle quand la Kro m'appelle Et t'as déplier tes sous-verre caïpirinha Haleine de piranha mais dis-moi si quand j'rappe j'ai l'air d'un pire ignare ? Cocktail de gars savants et buffets campagnards Bartender, fill me up ! I need an other cocktail in my cup Or in my mouth That's the kind of drink that I talking about Bartender, don't be shy ??? ??? Bon soirée Qhuit, ça va mal finir Cocktail dans la place Tous paillasses, mets ta paille ou ton doigt dans ma tasse Bouffe mon Qhuit Cocktail, soupçon d'ail, pas d'faux dry Plus de 'sky, tu veux qu'j'baille ou qu'j'taille ? Fais péter l'punch, y'a des éponges dans c' Cocktail, pour l'écosystème Douche écossaise en verres baveurs Sur la caïpi happy hour Drôle de piscine dans le shaker Chaude-pisse entre toutes les cuisses Black Russian au P'tits suisses Mais dis-moi Tom Cruise, ça manque d'épices C'est pas l'hospice Vinaigrette dans du Pommard, du bloody mary Poppers dans la marinade, la margarita J'ai croisé tous les cépages et toutes les boutures dans cette mixture Peu d'chance pour le DJ que son mixe tue Personne titube et danse dessus Soirée immonde, vomis bag pour tout l'monde Bartender, fill me up ! I need an other cocktail in my cup Or in my mouth That's the kind of drink that I talking about Bartender, don't be shy ??? ???</t>
+          <t>Hey man, voici le son de la Californie Ah bah t'aime ça, toi ? Bartender, fill me up ! I need an other cocktail in my cup Or in my mouth Thats the kind of drink that I talking about Bartender, don't be shy ??? ??? Mates l'état dl'équipe On a pris grave hier Donc aujourd'hui ça démarre tranquille Coca-bière, ambiance germanique Moustaches bavaroises Citror, gin tonic, Picon et soupe champenoise Mousseux, jus d'orange, Tequila, sucre Mais si j'te jure qu'ça existe, si, si j't'assure Fais péter lvinao, là on est lmatin vinao On a mélanger du lait et du vin Ah bah t'aime ça toi ? Ambiance de clochard Cocktails de crevettes, Ebola Change leau du Ricard pour d'la Vodka Packs de 6 pour 10, ambiance angoissante Solution pharmacie, alcool à 60 Prends ta trempe, trempe un boudoir dans du Saumure Cocktails de crevards, cocktails de crevures Bois dans une chaussure Dans une pompe, t'es sûr ?! Ah mais ça pique ! Des putains d'pointures Bartender shake it ! Bartender, fill me up ! I need an other cocktail in my cup Or in my mouth Thats the kind of drink that I talking about Bartender, don't be shy ??? ??? J'ai usé tous mes points Total Et même plus l'écran total L'estomac dans un dos d'âne Un coma comme sous propane Lâche les vannes que j'proclame Corona ma seule cocarde Et l'patron n'accepte plus nos Mastercard Y'a pas moyen! On va s'polier les pustules Qui polissent nos pédoncules Les jours de jaunisse et les soirs de pleines burnes Pleine bourre dans les urnes Pleins d'pots dans nos turnes En galère comme les kurdes Y'a plus d'tune pour accompagner ma biture Cubis et tuner sans friture AMS t'aime plus que l'Amstel Non pas d'Vittel J'suis fou comme Chouchen, bouffe le clit' de ta chienne Quand y'a Qhuit dans ta chaîne Mais là j'suis sûr à 100 Que c'qu'on dit c'est du Saint-pourçain Sandwichs aux huîtres et aux oursins Moi j'rappe pour ceux qui tenteront ça Jovials, un verre à la main J'f'rais ma vie sur un bootleg Aussi rouge que cette bouteille Pour elle j'bouge même pas l'gros orteil Quand la Kro m'appelle quand la Kro m'appelle Et t'as déplier tes sous-verre caïpirinha Haleine de piranha mais dis-moi si quand j'rappe j'ai l'air d'un pire ignare ? Cocktail de gars savants et buffets campagnards Bartender, fill me up ! I need an other cocktail in my cup Or in my mouth That's the kind of drink that I talking about Bartender, don't be shy ??? ??? Bon soirée Qhuit, ça va mal finir Cocktail dans la place Tous paillasses, mets ta paille ou ton doigt dans ma tasse Bouffe mon Qhuit Cocktail, soupçon d'ail, pas d'faux dry Plus de 'sky, tu veux qu'j'baille ou qu'j'taille ? Fais péter l'punch, y'a des éponges dans c' Cocktail, pour l'écosystème Douche écossaise en verres baveurs Sur la caïpi happy hour Drôle de piscine dans le shaker Chaude-pisse entre toutes les cuisses Black Russian au P'tits suisses Mais dis-moi Tom Cruise, ça manque d'épices C'est pas l'hospice Vinaigrette dans du Pommard, du bloody mary Poppers dans la marinade, la margarita J'ai croisé tous les cépages et toutes les boutures dans cette mixture Peu d'chance pour le DJ que son mixe tue Personne titube et danse dessus Soirée immonde, vomis bag pour tout l'monde Bartender, fill me up ! I need an other cocktail in my cup Or in my mouth That's the kind of drink that I talking about Bartender, don't be shy ??? ???</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1386,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>C'est si bon dêtre là. J'suis aussi vrai que la première fois Tu sais qui c'est, Prince Gérard Baste mec ! Hey, j'suis de retour, j'vais te dire une chose C'est que ça me fais super plaisir, ouais On est venu remettre le couvert Tu sais comment ça se passe, c'est maintenant ! On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne A chaque pas que j'fais y'a un roulement de tambour 365 et tu tombes pile pas l'bon jour shh une minute de silence pour la compèt Déroulez moi le tapis rouge et faites sonner les trompettes J'fous ma couronne et mon string panthère J'débarque avec mon sceptre et la force d'un tremblement de terre J'me désaltère, j'baisse ton froc et j'claque tes fesses Et même les Hells Angels se pressent pour saluer l'altesse Le prince du Dirty Centre, Dirty Mind comme Prince Le seul artiste que j'respecte c'est Chuck Norris Et j'me relève à chaque fois que j'me vautre Chez moi chaque testicule est plus grosse que l'autre En matière de punchline, j'suis trop élitiste J'viens frapper à ta porte pour faire du proséthylisme J'suis le capitaine de soirée qu'est toujours bourré J'rentre en zigzaguant et en jet privé, appelle moi Prince G Dans un carrosse tiré par des cygnes J'apparais à la fenêtre, un gros doigt en guise de p'tit signe Tu connais le prince du lèche-cyprine Le pape du priapisme avec Princesse Fancie dans la piscine Ça fait 20 ans qu'j'ai 20 ans d'avance J'suis juste le prince le plus cool de l'histoire de France Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne J'ai un physique d'Apollon dans mon slip Athena Et comme Zeus, je viens lâcher une bonne dose de foudre J'suis le roi du ballon, du ballon d'blanc ou d'rouge Et pis j'trouve que quand je l'ouvre j'fais parler la poudre Fous moi sur le calendrier des Dieux du Stade J'roule pour mon slip squad, j'suis le prince des aristocrade J'emmerde l'autorité, mais sur l'son j'suis tyrannique Tu veux rapper dans mon mic', fais-toi le vaccin antirabique Tu sais qu'j'ai le truc, que j'casse ta nuque Si tu n'apprécie pas c'que j'fais, bah casse toi pute J'suis pas sur le devant de la scène pour jouer les pucelles J'tue sec, j'explose la foule, mitraillette en or comme Saddam Hussein Tu sais que j'suis frais comme Prince Tu m'dois le respect, appelle moi Monseigneur comme pince J'suis en mode basse 10, tu vas péter une durit J'fonce en limousine, au volant c'est le chauffeur du Ritz On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigneYou might also like</t>
+          <t>C'est si bon dêtre là. J'suis aussi vrai que la première fois Tu sais qui c'est, Prince Gérard Baste mec ! Hey, j'suis de retour, j'vais te dire une chose C'est que ça me fais super plaisir, ouais On est venu remettre le couvert Tu sais comment ça se passe, c'est maintenant ! On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne A chaque pas que j'fais y'a un roulement de tambour 365 et tu tombes pile pas l'bon jour shh une minute de silence pour la compèt Déroulez moi le tapis rouge et faites sonner les trompettes J'fous ma couronne et mon string panthère J'débarque avec mon sceptre et la force d'un tremblement de terre J'me désaltère, j'baisse ton froc et j'claque tes fesses Et même les Hells Angels se pressent pour saluer l'altesse Le prince du Dirty Centre, Dirty Mind comme Prince Le seul artiste que j'respecte c'est Chuck Norris Et j'me relève à chaque fois que j'me vautre Chez moi chaque testicule est plus grosse que l'autre En matière de punchline, j'suis trop élitiste J'viens frapper à ta porte pour faire du proséthylisme J'suis le capitaine de soirée qu'est toujours bourré J'rentre en zigzaguant et en jet privé, appelle moi Prince G Dans un carrosse tiré par des cygnes J'apparais à la fenêtre, un gros doigt en guise de p'tit signe Tu connais le prince du lèche-cyprine Le pape du priapisme avec Princesse Fancie dans la piscine Ça fait 20 ans qu'j'ai 20 ans d'avance J'suis juste le prince le plus cool de l'histoire de France Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne J'ai un physique d'Apollon dans mon slip Athena Et comme Zeus, je viens lâcher une bonne dose de foudre J'suis le roi du ballon, du ballon d'blanc ou d'rouge Et pis j'trouve que quand je l'ouvre j'fais parler la poudre Fous moi sur le calendrier des Dieux du Stade J'roule pour mon slip squad, j'suis le prince des aristocrade J'emmerde l'autorité, mais sur l'son j'suis tyrannique Tu veux rapper dans mon mic', fais-toi le vaccin antirabique Tu sais qu'j'ai le truc, que j'casse ta nuque Si tu n'apprécie pas c'que j'fais, bah casse toi pute J'suis pas sur le devant de la scène pour jouer les pucelles J'tue sec, j'explose la foule, mitraillette en or comme Saddam Hussein Tu sais que j'suis frais comme Prince Tu m'dois le respect, appelle moi Monseigneur comme pince J'suis en mode basse 10, tu vas péter une durit J'fonce en limousine, au volant c'est le chauffeur du Ritz On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1403,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Côte ouest Le long du grand pacifique Côte ouest Yeah ! C'est le Svink' bébé quoi, quoi Côte ouest 2006 ??? Ça fait des années que j'rap mais j'reste coté Parce que j'ai choisi mon camp nord-ouest côté J'débarque avec une paire de baskets de pure beauté J'suis d'ceux qui rentre, toi d'ceux qu'on prie d'attendre sur l'côté Hey! Côte ouest, on fait tout péter J'suis v'nu sans prévenir, j't'ai fait sursauté Hou! La Californie, les Bloods et les Crips Ici c'est Paris, la bière et les chips C'est comme l'Amérique mais y'a pas assez d'place Non On veut tous danser d'vant l'miroir mais y'a pas assez d'glaces Non Les boites c'est comme les strip club mais y'a pas assez d'blacks Non Stalingrad c'est comme le Bronx mais y'a pas assez d'crack Ouais Côte ouest Toujours plus à l'ouest On s'rapproche des States, on bouge à Brest, Brest On vide des bières à la Gare de l'Est Mais quand on ferme les yeux, dans ma tête j'roule sur le côte, côte, côte You might also like Côte ouestTu sais où on roule et on roule dans quoi dans quoi Côte ouest On roule en 205 sur l'A3 l'A3 Côte ouest Pacifique, Atlantique, où que j'aille, poussé par le vent Côte ouest Si Dieu veut, toujours droit devant Côte ouest, côte ouest, le long du grand Pacifique C'est pas d'ma faute, j'suis pas né du bon côté d'l'Atlantique j'veux mon fric! Ça dépasse les questions géographiques Tu voudrais pouvoir dire Bang, Bang mais j'ai déjà fait clic, clic Gérard Baste, toujours prêt à démonter l'mic J'débarque dans le club sur la scelle d'un lowrider bike Enfin j'ai pas trouvé d'bike à la portée d'ma bourse Donc j'ai gratté à mon reup son vieux bike de course City cruisin' cruisin', Impala 64 64 Trajets en metro Yeah!, trois 16 dans l'sac Oh! J'voulais m'faire tatouer Compton mais ça attendra Et j'dessine l'Île-de-France au feutre sur mes avant-bras Côte ouest Ici Los Angeles c'est entre Angoulême et Argeles Les émeutes de watts explosent dès qu'les verres sont secs Appelle le 17 le 17, on trace sur la co-co-côte Côte ouestTu sais où on roule et on roule dans quoi dans quoi Côte ouest On roule en 205 sur l'A3 l'A3 Côte ouest Pacifique, Atlantique, où que j'aille, poussé par le vent Côte ouest Si Dieu veut, toujours droit devant Yeah, sur la côte ouest Le long du grand Pacifique C'est le Svink' bébé, quoi, quoi ??? 2006 Gérard Baste, Drixxxé, AMS Crew On trace sur la côte, côte, côte</t>
+          <t>Côte ouest Le long du grand pacifique Côte ouest Yeah ! C'est le Svink' bébé quoi, quoi Côte ouest 2006 ??? Ça fait des années que j'rap mais j'reste coté Parce que j'ai choisi mon camp nord-ouest côté J'débarque avec une paire de baskets de pure beauté J'suis d'ceux qui rentre, toi d'ceux qu'on prie d'attendre sur l'côté Hey! Côte ouest, on fait tout péter J'suis v'nu sans prévenir, j't'ai fait sursauté Hou! La Californie, les Bloods et les Crips Ici c'est Paris, la bière et les chips C'est comme l'Amérique mais y'a pas assez d'place Non On veut tous danser d'vant l'miroir mais y'a pas assez d'glaces Non Les boites c'est comme les strip club mais y'a pas assez d'blacks Non Stalingrad c'est comme le Bronx mais y'a pas assez d'crack Ouais Côte ouest Toujours plus à l'ouest On s'rapproche des States, on bouge à Brest, Brest On vide des bières à la Gare de l'Est Mais quand on ferme les yeux, dans ma tête j'roule sur le côte, côte, côte Côte ouestTu sais où on roule et on roule dans quoi dans quoi Côte ouest On roule en 205 sur l'A3 l'A3 Côte ouest Pacifique, Atlantique, où que j'aille, poussé par le vent Côte ouest Si Dieu veut, toujours droit devant Côte ouest, côte ouest, le long du grand Pacifique C'est pas d'ma faute, j'suis pas né du bon côté d'l'Atlantique j'veux mon fric! Ça dépasse les questions géographiques Tu voudrais pouvoir dire Bang, Bang mais j'ai déjà fait clic, clic Gérard Baste, toujours prêt à démonter l'mic J'débarque dans le club sur la scelle d'un lowrider bike Enfin j'ai pas trouvé d'bike à la portée d'ma bourse Donc j'ai gratté à mon reup son vieux bike de course City cruisin' cruisin', Impala 64 64 Trajets en metro Yeah!, trois 16 dans l'sac Oh! J'voulais m'faire tatouer Compton mais ça attendra Et j'dessine l'Île-de-France au feutre sur mes avant-bras Côte ouest Ici Los Angeles c'est entre Angoulême et Argeles Les émeutes de watts explosent dès qu'les verres sont secs Appelle le 17 le 17, on trace sur la co-co-côte Côte ouestTu sais où on roule et on roule dans quoi dans quoi Côte ouest On roule en 205 sur l'A3 l'A3 Côte ouest Pacifique, Atlantique, où que j'aille, poussé par le vent Côte ouest Si Dieu veut, toujours droit devant Yeah, sur la côte ouest Le long du grand Pacifique C'est le Svink' bébé, quoi, quoi ??? 2006 Gérard Baste, Drixxxé, AMS Crew On trace sur la côte, côte, côte</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1420,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Donne-moi deux heures et demi, trois heures avant qu'tu partes On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Tu passes la porte d'entrée, laisse-moi te débarrasser sur le palier J'vais te coller contre le mur et puis t'embrasser Je t'emmène dans le couloir, je t'enlève tes bottes On avance de quelques pas et moi je retire mon fute Ça c'est le salon, j'te jette sur le canap', c'est du re-cui Il est temps d's'activer, on va le faire d'vant la TV Une petite claque sur mes grosses fesses et tu prendras ton pied devant Top Chef Et j't'entendrai crier T'es incroyable Baste! À quatre pattes, les coudes posés sur la table basse Un coup sur le fauteuil, un coup sur le pouf Les jambes sur les accoudoirs, ton index dans la bouche On fait trembler les murs et tomber les bibelots de la bibli Je te glisse quelques doigts, à l'étroit dans le cagibi On commence debout, on fini par terre un peu flapi À se brûler les genoux, faire des taches sur le tapis Donne-moi deux heures et demi, trois heures avant qu'tu partes On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Y'a aucun endroit d'la maison qu'on écarte non! non! On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Est-ce-que t'imagines, quand tu seras à poil dans la cuisine Assise sur le plan d'travail, les fesses dans la farine Prêts à toutes les truanderies, calés dans la buanderie Ce prépare le programme essorage de la machine 69 dans le dressing tu sais, j'fonce tête baissée Juste pour info, j'ai mit une webcam dans les WC On aura beau finir dans la salle de bain J'peux t'assurer qu'tu seras encore sale demain Allez monte l'escalier, 4 à 4, déhanches-toi sur les marches Roule des fesses moi j'roule des yeux quand j'te matte Tu retires ton alliance et on nique dans la chambre Petite levrette technique allongée sur le ventre Architectural, osso buco-génital On s'en f'ra un petit extra dans le lit conjugal J'fais du sale, si ça t'soûle, prends 5 mins sur le balcon Tu vas fumer ta clope pendant qu'tu m'traitera d'sale con Donne-moi deux heures et demi, trois heures avant qu'tu partes On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Y'a aucun endroit d'la maison qu'on écarte On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Moi j'suis très joueur, j'vais t'faire jouir dans l'grenier Rayons d'soleil dans la poussière, j'vais t'décoller les toiles d'araignées Bondage dans la cave, plan SM dans le sous-sol J'ai le sang qui bouillonne pour ma petite souillonne Dans la baraque, dans le parc y'a un hamac.. .. Attend ! Pardon, j'te coupe Gérard ! Pardon mais tu vas pas faire toutes les pièces de la propriété quand même ? Tu fais pas du R'n'B là tu-tu fais du Airbnb là en fait ! T'es sponso par Plaza là ou quoi ?You might also like</t>
+          <t>Donne-moi deux heures et demi, trois heures avant qu'tu partes On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Tu passes la porte d'entrée, laisse-moi te débarrasser sur le palier J'vais te coller contre le mur et puis t'embrasser Je t'emmène dans le couloir, je t'enlève tes bottes On avance de quelques pas et moi je retire mon fute Ça c'est le salon, j'te jette sur le canap', c'est du re-cui Il est temps d's'activer, on va le faire d'vant la TV Une petite claque sur mes grosses fesses et tu prendras ton pied devant Top Chef Et j't'entendrai crier T'es incroyable Baste! À quatre pattes, les coudes posés sur la table basse Un coup sur le fauteuil, un coup sur le pouf Les jambes sur les accoudoirs, ton index dans la bouche On fait trembler les murs et tomber les bibelots de la bibli Je te glisse quelques doigts, à l'étroit dans le cagibi On commence debout, on fini par terre un peu flapi À se brûler les genoux, faire des taches sur le tapis Donne-moi deux heures et demi, trois heures avant qu'tu partes On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Y'a aucun endroit d'la maison qu'on écarte non! non! On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Est-ce-que t'imagines, quand tu seras à poil dans la cuisine Assise sur le plan d'travail, les fesses dans la farine Prêts à toutes les truanderies, calés dans la buanderie Ce prépare le programme essorage de la machine 69 dans le dressing tu sais, j'fonce tête baissée Juste pour info, j'ai mit une webcam dans les WC On aura beau finir dans la salle de bain J'peux t'assurer qu'tu seras encore sale demain Allez monte l'escalier, 4 à 4, déhanches-toi sur les marches Roule des fesses moi j'roule des yeux quand j'te matte Tu retires ton alliance et on nique dans la chambre Petite levrette technique allongée sur le ventre Architectural, osso buco-génital On s'en f'ra un petit extra dans le lit conjugal J'fais du sale, si ça t'soûle, prends 5 mins sur le balcon Tu vas fumer ta clope pendant qu'tu m'traitera d'sale con Donne-moi deux heures et demi, trois heures avant qu'tu partes On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Y'a aucun endroit d'la maison qu'on écarte On va le faire dans chaque pièce de la baraque Dans le studio, dans le bar ou dans l'appart' Promis on va le faire dans chaque pièce de la baraque Moi j'suis très joueur, j'vais t'faire jouir dans l'grenier Rayons d'soleil dans la poussière, j'vais t'décoller les toiles d'araignées Bondage dans la cave, plan SM dans le sous-sol J'ai le sang qui bouillonne pour ma petite souillonne Dans la baraque, dans le parc y'a un hamac.. .. Attend ! Pardon, j'te coupe Gérard ! Pardon mais tu vas pas faire toutes les pièces de la propriété quand même ? Tu fais pas du R'n'B là tu-tu fais du Airbnb là en fait ! T'es sponso par Plaza là ou quoi ?</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1437,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>OK! On est là avec mes potes On se sent tous vachement amis Mais on n'est pas là pour la tendresse connasse ! Tu comprends ? Une de tes copines m'a sûrement fait souffrir Alors je lâche cette putain de mélodie Et maintenant tu danses dessus Ironie de la vie connasse ! On est dans le club et c'est la vengeance ! 2004 ! Young Cuiz' balance la sauce bâtard ! TTC dans le club, fonce, dégage la route ! En soirée on est des ducs Donc prends garde à toutes les putes Nous sommes tellement puissants que plus aucun mec ne s'amuse On dit de nous Ils abusent Et tu ne trouves pas ça juste Entre nous c'est normal ma queue, ta meuf la suce Pendant que tu bois de la Suze Je peux te dire qu'elle assure Si bien que je lui lâche de la thune Elle me baise la main Je lui claque le cul Et You might also like Les secondes s'égrènent, je suis devant la boîte Flocons et grêle mortifient ma mlle épinière Je vois passer une véritable pépinière Qui se déhanche de manière périodique et binaire Je voulais à tout prix faire partie du making-of pour ces filles Leurs mecs forcés de secourir leurs baby-loves poursuivies J'ai effectivement le dress code Ton oreille me fait cocu, avec l'Armée des 12 puis la moitié des deux despotes Quand les mecs de TTC débarquent dans le club Avec leurs dégaines de branleurs Moitié thugs moitié nerds Soudain toutes les meufs Ressentent quelque chose de bizarre dans leur cur Quand les mecs de TTC débarquent dans le club Avec leurs dégaines de branleurs Moitié thugs moitié nerds Soudain toutes les meufs Ressentent quelque chose de bizarre dans leur cur Les tickets de boisson fondent sur son passage, c'est Baste Vient fêter ce deal Fait péter le stick, TTCSvink' ! Et les mecs se disent qui est ce type? Le physio est irresponsable D'le laisser rentrer dans l'club en twingo décapotable Ghetto fabulant ! Lettres gothiques sur l'ventre Banlieue centre T'as vu l'instru obligé que je rappe en faisant des signes de gang Dans cette boîte des mineurs ont bu de l'alcool, comme à Neverland Et à notre vue risquent d'avaler leurs langues Passe-moi vite un ou deux voire même trois glaçons garçon Passe moi un disque qui fasse bouger la piste Ce soir c'est moi l'artiste, soit pas triste Ce soir pas de violon ni de contrebassons, t'façon Effaçons nos différents, ne baissons pas le son Fais péter les basses, balance les stroboscopes Sur le trombinoscope de mes potes croulant sous les flashes des photographes Des magazines people Je suis leur idole Même une demoiselle à l'écart Voudrait que dans nos club se pointe un taulard Même deux pour faire un compte car elle n'avait pas la monnaie sur un dollar Mais je fais un tabac Je brûle le dancefloor Les putes j'touche à peine, sauf celles que j'déflore Toute une flopée de belettes Me collent la peau comme une dalle manufacturée chez Gerflor J'ai pécho deux coquines avec ma gonzesse dans les loges En bas résille, elles se servaient de cannes dans un club de golf Je suis aux anges, j'ai envie de festoyer Ça se sent c'est une soirée spéciale je veux pas qu'elle se termine C'est du délire total, des bras se lèvent, des foules s'enflamment Ce soir, je vais faire bouger des corps ! ce soir ! On dansera ensemble comme s'il n'y avait personne d'étranger On atteindra les limites de son en débit parce que c'est super fort Tu peux me trouver dans le club le visage délicatement posé devant un vodka pomme Et je resterai le seul à danser jusqu'à la fermeture du bar comme un soldat pom, pom ! C'est de la musique de jeune, de la pop pop ! Pas de chance on connaît toutes les danses dans les clips de Sean Paul On a toutes les casquettes de toutes les équipes de base ball À propos de ta petite copine quand j'y pense Je me demande si elle baisse dans ton estime À chaque fois que je la vois traîner avec les mec de TTC Genre défragmentée à moitié déshabillée Lui disant Crie ce refrain même si tu ne sais pas chanter Faites du du bruit pour le DJ qui passe ce son Parce que c'est moi qui l'ai fait ! Bâtards ! 1</t>
+          <t>OK! On est là avec mes potes On se sent tous vachement amis Mais on n'est pas là pour la tendresse connasse ! Tu comprends ? Une de tes copines m'a sûrement fait souffrir Alors je lâche cette putain de mélodie Et maintenant tu danses dessus Ironie de la vie connasse ! On est dans le club et c'est la vengeance ! 2004 ! Young Cuiz' balance la sauce bâtard ! TTC dans le club, fonce, dégage la route ! En soirée on est des ducs Donc prends garde à toutes les putes Nous sommes tellement puissants que plus aucun mec ne s'amuse On dit de nous Ils abusent Et tu ne trouves pas ça juste Entre nous c'est normal ma queue, ta meuf la suce Pendant que tu bois de la Suze Je peux te dire qu'elle assure Si bien que je lui lâche de la thune Elle me baise la main Je lui claque le cul Et Les secondes s'égrènent, je suis devant la boîte Flocons et grêle mortifient ma mlle épinière Je vois passer une véritable pépinière Qui se déhanche de manière périodique et binaire Je voulais à tout prix faire partie du making-of pour ces filles Leurs mecs forcés de secourir leurs baby-loves poursuivies J'ai effectivement le dress code Ton oreille me fait cocu, avec l'Armée des 12 puis la moitié des deux despotes Quand les mecs de TTC débarquent dans le club Avec leurs dégaines de branleurs Moitié thugs moitié nerds Soudain toutes les meufs Ressentent quelque chose de bizarre dans leur cur Quand les mecs de TTC débarquent dans le club Avec leurs dégaines de branleurs Moitié thugs moitié nerds Soudain toutes les meufs Ressentent quelque chose de bizarre dans leur cur Les tickets de boisson fondent sur son passage, c'est Baste Vient fêter ce deal Fait péter le stick, TTCSvink' ! Et les mecs se disent qui est ce type? Le physio est irresponsable D'le laisser rentrer dans l'club en twingo décapotable Ghetto fabulant ! Lettres gothiques sur l'ventre Banlieue centre T'as vu l'instru obligé que je rappe en faisant des signes de gang Dans cette boîte des mineurs ont bu de l'alcool, comme à Neverland Et à notre vue risquent d'avaler leurs langues Passe-moi vite un ou deux voire même trois glaçons garçon Passe moi un disque qui fasse bouger la piste Ce soir c'est moi l'artiste, soit pas triste Ce soir pas de violon ni de contrebassons, t'façon Effaçons nos différents, ne baissons pas le son Fais péter les basses, balance les stroboscopes Sur le trombinoscope de mes potes croulant sous les flashes des photographes Des magazines people Je suis leur idole Même une demoiselle à l'écart Voudrait que dans nos club se pointe un taulard Même deux pour faire un compte car elle n'avait pas la monnaie sur un dollar Mais je fais un tabac Je brûle le dancefloor Les putes j'touche à peine, sauf celles que j'déflore Toute une flopée de belettes Me collent la peau comme une dalle manufacturée chez Gerflor J'ai pécho deux coquines avec ma gonzesse dans les loges En bas résille, elles se servaient de cannes dans un club de golf Je suis aux anges, j'ai envie de festoyer Ça se sent c'est une soirée spéciale je veux pas qu'elle se termine C'est du délire total, des bras se lèvent, des foules s'enflamment Ce soir, je vais faire bouger des corps ! ce soir ! On dansera ensemble comme s'il n'y avait personne d'étranger On atteindra les limites de son en débit parce que c'est super fort Tu peux me trouver dans le club le visage délicatement posé devant un vodka pomme Et je resterai le seul à danser jusqu'à la fermeture du bar comme un soldat pom, pom ! C'est de la musique de jeune, de la pop pop ! Pas de chance on connaît toutes les danses dans les clips de Sean Paul On a toutes les casquettes de toutes les équipes de base ball À propos de ta petite copine quand j'y pense Je me demande si elle baisse dans ton estime À chaque fois que je la vois traîner avec les mec de TTC Genre défragmentée à moitié déshabillée Lui disant Crie ce refrain même si tu ne sais pas chanter Faites du du bruit pour le DJ qui passe ce son Parce que c'est moi qui l'ai fait ! Bâtards ! 1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1454,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>introduction Gérard Baste Cétait, cétait une toute jeune fille qui avait de bonnes manières Des taches de rousseur et les yeux clairs Un ange descendu du ciel sur la terre Mais elle ma lancé quand je la prenais par-derriere refrain Gérard Baste Tape dans le fond, jsuis pas ta mère x8 Couplet 1 Gérard Baste Allez tape, tape, tape dans le fond Choisit un trou et puis tape dans le bon Sois pas tartempion que tu me craches sur le visage ou que tu me craches dans le fion Ouais je men tape dans le fond Alors, tape dans le fond, aller tape ta mère Viens racler le fond de la soupière Ramone la cheminée Débouche la gouttière Au bout du tunnel il y a la grande lumière Elle a les dents du bonheur comme Vanessa Paradis Mais elle est beaucoup trop jeune, jai peur des paparazzis Ouais tes ma mama mais je pourrais être ton papa On y va mollo, je veux pas voir ton caca Cest un vrai voyage parmi les nuages Et je garderais pour toujours cette image De petite fille sage qua eue 18 ans hier Et qui ma lancé avec ses jolis yeux clairs You might also likerefrain Gérard Baste Tape dans le fond jsuis pas ta mère x8 outro Gérard Baste Aller tape dans le fond je suis pas ta mère Casse moi tout la dedans espèce de grand niaiseux Ostie criss Tabarnak Fais moi donc le péché de chair</t>
+          <t>introduction Gérard Baste Cétait, cétait une toute jeune fille qui avait de bonnes manières Des taches de rousseur et les yeux clairs Un ange descendu du ciel sur la terre Mais elle ma lancé quand je la prenais par-derriere refrain Gérard Baste Tape dans le fond, jsuis pas ta mère x8 Couplet 1 Gérard Baste Allez tape, tape, tape dans le fond Choisit un trou et puis tape dans le bon Sois pas tartempion que tu me craches sur le visage ou que tu me craches dans le fion Ouais je men tape dans le fond Alors, tape dans le fond, aller tape ta mère Viens racler le fond de la soupière Ramone la cheminée Débouche la gouttière Au bout du tunnel il y a la grande lumière Elle a les dents du bonheur comme Vanessa Paradis Mais elle est beaucoup trop jeune, jai peur des paparazzis Ouais tes ma mama mais je pourrais être ton papa On y va mollo, je veux pas voir ton caca Cest un vrai voyage parmi les nuages Et je garderais pour toujours cette image De petite fille sage qua eue 18 ans hier Et qui ma lancé avec ses jolis yeux clairs refrain Gérard Baste Tape dans le fond jsuis pas ta mère x8 outro Gérard Baste Aller tape dans le fond je suis pas ta mère Casse moi tout la dedans espèce de grand niaiseux Ostie criss Tabarnak Fais moi donc le péché de chair</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1471,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Han ! Comment ça ils disent tous la nage ? C'est nous la nage ! Han ! Viens chiller autour de ma piscine On va se déchirer avant de plonger dans la piscine Jles laissent tourner en rond au fond de la piscine Les gros poissons apprennent à nager dans ma piscine Les poulettes vident des cocktails au bord de la piscine Elles se dandinent sur leurs serviettes et font bronzette à la piscine Elles remplissent bien les bikinis au bord de la piscine Bientôt elles seront nues, se jetteront dans la piscine Je vais te faire mouiller, le flot de ta cyprine À faire monter le niveau de l'eau de la piscine J'ai vu la tass et jai bu la tasse, tchin tchin Des vodkas tchétchènes, des filles en lingerie fine Elles sont relax', bombent le cul sur leur transat' Elles ne demandent pas un reçu pour leurs transacs Elles aiment la monnaie, j'leur filerai que des Carensac Du rosé dans un cubi, de la weed dans un grand sac On a le son, on a la boisson et les bitches J'te vois trépigner en train de taper ta p'tite crise J'passerai au Mcdo, j'te ramènerai un ptit cheese Jentends ces bouffons, on la voix aiguë comme les Bee gees Je joue avec ma paille et le citron dans mon gin fizz Soleil de plomb comme dans un western aux West Indies À c'quils m'disent, ils veux tous connaitre la suite fils J'pète une Veuve Clicquot mais j'les arrose avec une 8.6 You might also like Viens chiller autour de ma piscine On va se déchirer avant de plonger dans la piscine Jles laissent tourner en rond au fond de la piscine Les gros poissons apprennent à nager dans ma piscine Les poulettes vident des cocktails au bord de la piscine Elles se dandinent sur leurs serviettes et font bronzette à la piscine Elles remplissent bien les bikinis au bord de la piscine Bientôt elles seront nues, se jetteront dans la piscine Quand elle sort de la piscine, soudain le temps parait plus lent Elle est bonne comme dans les nineties, c'est un vrai cliché ambulant L'empreinte de son pied mouillé s'évapore sur le sol brûlant J'irai lécher les gouttes qui coulent de ses orteils suants Tu peux garder tes free hugs et le Canada Dry J'mélange le freestyle, le free jazz et le free fight Tous ceux qui ont voulu m'tester ont fait faillite J'puise mon inspi d'vant une milf et une planche de charcutaille Y'a du pata negra, y'a de l'ibérico Tu te glisses dans les draps et moi je tire les rideaux On connait parfait'ment l'timing, on fini rapido Y'a du Don Papa, y'a du Diplomatico Si t'es v'nu pour faire le show, si t'es là pour faire la belle J'vais vous faire pleurer, ça s'ra pas à cause de la javel Gégé c'est le taulier, Fancie c'est la mère maquerelle Profite ! Entertainment, Drunk Money c'est le label La nage La nage ! Han ! Profite ! Entertainment Drunk Money La nage ! Han !</t>
+          <t>Han ! Comment ça ils disent tous la nage ? C'est nous la nage ! Han ! Viens chiller autour de ma piscine On va se déchirer avant de plonger dans la piscine Jles laissent tourner en rond au fond de la piscine Les gros poissons apprennent à nager dans ma piscine Les poulettes vident des cocktails au bord de la piscine Elles se dandinent sur leurs serviettes et font bronzette à la piscine Elles remplissent bien les bikinis au bord de la piscine Bientôt elles seront nues, se jetteront dans la piscine Je vais te faire mouiller, le flot de ta cyprine À faire monter le niveau de l'eau de la piscine J'ai vu la tass et jai bu la tasse, tchin tchin Des vodkas tchétchènes, des filles en lingerie fine Elles sont relax', bombent le cul sur leur transat' Elles ne demandent pas un reçu pour leurs transacs Elles aiment la monnaie, j'leur filerai que des Carensac Du rosé dans un cubi, de la weed dans un grand sac On a le son, on a la boisson et les bitches J'te vois trépigner en train de taper ta p'tite crise J'passerai au Mcdo, j'te ramènerai un ptit cheese Jentends ces bouffons, on la voix aiguë comme les Bee gees Je joue avec ma paille et le citron dans mon gin fizz Soleil de plomb comme dans un western aux West Indies À c'quils m'disent, ils veux tous connaitre la suite fils J'pète une Veuve Clicquot mais j'les arrose avec une 8.6 Viens chiller autour de ma piscine On va se déchirer avant de plonger dans la piscine Jles laissent tourner en rond au fond de la piscine Les gros poissons apprennent à nager dans ma piscine Les poulettes vident des cocktails au bord de la piscine Elles se dandinent sur leurs serviettes et font bronzette à la piscine Elles remplissent bien les bikinis au bord de la piscine Bientôt elles seront nues, se jetteront dans la piscine Quand elle sort de la piscine, soudain le temps parait plus lent Elle est bonne comme dans les nineties, c'est un vrai cliché ambulant L'empreinte de son pied mouillé s'évapore sur le sol brûlant J'irai lécher les gouttes qui coulent de ses orteils suants Tu peux garder tes free hugs et le Canada Dry J'mélange le freestyle, le free jazz et le free fight Tous ceux qui ont voulu m'tester ont fait faillite J'puise mon inspi d'vant une milf et une planche de charcutaille Y'a du pata negra, y'a de l'ibérico Tu te glisses dans les draps et moi je tire les rideaux On connait parfait'ment l'timing, on fini rapido Y'a du Don Papa, y'a du Diplomatico Si t'es v'nu pour faire le show, si t'es là pour faire la belle J'vais vous faire pleurer, ça s'ra pas à cause de la javel Gégé c'est le taulier, Fancie c'est la mère maquerelle Profite ! Entertainment, Drunk Money c'est le label La nage La nage ! Han ! Profite ! Entertainment Drunk Money La nage ! Han !</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1488,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>×4 J'suis sorti du ventre de ma mère pour vous faire l'album de l'année Les autres vendent de la merde, je l'ai fait sur mon propre label Dis-moi, c'est quoi l'album de l'année ? Feu ! Feu ! Feu ! Feu ! Comme Walter White, j'ai mes Clarks Wallabees Sur, serre-moi la main, frère, claque-moi la bise Je ne côtoie que des avions à la carlingue parfaite J'ai beaucoup plus de goût que Karl Lagerfeld Le monde de l'art est vantard, il te vend du street-art Mais ne veulent surtout pas voir mes scarlas graffer en vandale Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Tu peux ressentir l'aura dans nos raps, sortez les anoraks On aura bientôt l'orage selon l'oracle Ma conscience m'a dit Qui es-tu ? Veux-tu vivre dans le vice ou dans la quiétude ? Ça dépend où est l'pèze, on doit être bêtes, ouais, p't-être Mais ma plume peut clouer l'bec de Houellebecq Ici, on est vite tentés, il vaut mieux que tu vives ta quête J'ai entendu Vide ta caisse, le lendemain, les flics enquêtent ×2 C'est quand j'aurai des millions que j'me questionnerai Dans quelques années, je me demande qu'est-ce qu'on aura Si je n'savais pas que les keufs m'espionneraient Jamais j'démissionerais même s'ils veulent mon aura La voix d'la tess' dans l'oreille Faut qu'on encaisse dans le Rap Mental d'acier tah les chefs de guerre Dis-moi tu vas ken lequel ? Je n'vois que des merdeux gueh Tu vois pas comme les chiennes te guettent ? Elles rêvent d'être avec moi comme dans des fiançailles Pour que je ne regarde plus mes finances InchAllah, je ne mettrai qu'une fille enceinte J'prie mon Dieu mais je reste silencieux Pris dans l'jeu, c'était une évidence Pris dans l'feu, qui sort seul Méfiance, faut qu'tu prennes tes distances Vie d'malfrat en noir et blanc comme les films anciens Quand on est sur scène c'est l'empire byzantin Mon équipe rend dingues les pires depuis bambins You might also like La nuit, je sors sans but comme un somnambule Y'a certains rêves que les Hommes n'ont plus J'ai vu cette fille, on était seuls dans l'bus Elle avait les yeux rouges, elle avait pas seulement bu Elle avait de la came dans un sac Balenciaga Elle s'est fait caner, c'est ça d'balancer un gars Dans Paname, y'en a qui s'perdent, y'en a qu'espèrent Péter des sapes Agnès B., des Nike SB Dehors, c'est froid, y'a plus d'humanité Un homme est mort inanimé devant un immeuble inhabité C'est la crise ! La crise ? Qui est-ce qu'elle atteint ? Toi, moi ou le suicidaire qui escalade un toit ? Si Dieu veut, jusqu'à 120 ans voilà mon espérance de vie Toujours dans l'excellence, tu connais mes préférences On est vraiment des références de style Dans l'équipe, aucune déviance, nan On ne tolère pas la médisance, nan On est méfiants, choisis ton camp Au lieu de rester entre deux fils, nan Tant que je n'ai pas de millions Mes egotrips resteront de l'autodérision Besoin de causes et regrets pour quitter ce monde de merde Je me laisse aller avant de prendre une autre décision Trop de menaces et de coups de crasse pour des loves Je le sens tout d'suite quand un traitre tape mon épaule Ne le vois-tu pas ? De quoi tu parles à part de ton ego ? Moi, rester à ma place, ce n'est pas dans mon créneau J'veux que Def Jam signe mon chèque, ouais, mon putain d'chèque J'veux qu'la SACEM signe un chèque, ouais, mon putain d'chèque J'veux que Def Jam signe un chèque, ouais, mon putain d'chèque J'veux qu'la Def Jam signe un chèque, ouais, mon putain d'chèque Négro, faut d'la maille, ouais, mon négro, faut d'la maille Rebeu, faut d'la maille, ouais, mon rebeu, faut d'la maille Babtou, faut d'la maille, ouais, mon babtou, faut d'la maille Babtou, faut d'la maille, ouais, mon babtou, faut d'la maille J'dors les yeux ouverts, j'parle avec les esprits J'ai fait souffrir car j'ai souffert J'ai fait des erreurs aujourd'hui j'en paie l'prix J'suis bon qu'à rapper c'que j'suis Mes raisons, mes torts, c'est ça être vrai, couz' Et foutre des foufs dans mes clips Que moi-même je n'voudrais ni comme sur ni comme épouse J'suis qu'un fou parmi des cons En vrai, j'sais même pas dans quoi j'suis Ces bâtards m'critiquent, si j'les laisse ouvrir leurs gueules C'est juste que j'aime savoir dans quoi j'chie J'lâche des perles en stud' Mais j'crois qu'l'industrie n'y voit qu'tchi Et ma voisine du dessus Me regarde comme si j'étais un frère Kouachi On apprend à s'faire tous seuls, vu qu'le système nous néglige On deale en croyant être screds Alors qu'on s'fait remarquer comme une pute dans une église J'rappe pour mes rabzouzs J'rappe pour mes niggas Black, blanche ou beurre, j'les aime toutes Du moment qu'elles remplissent leurs leggings J'ai l'inspi' à Tupac, flow sale comme l'argent d'la bicrave Frais dans les clips à t'en faire croire Qu'être négro en France n'a jamais été un handicap J'pratique le haut-débit, Numéricable Toi, t'es un faux mac mais ne pute véritable J'me mets à nu, mais j'suis pudique Un peu comme une actrice X en Niqab Beaucoup qui font les hlels mais qui les baise en chette-ca ? Y'a ton ADN sous la semelle de ma sket-ba Micro semi-auto, j'appuie sur la chette-ga J'ai perdu au loto donc j'ai bibi la sel3a J'suis avec mes potos, capuché, squette-ca Trop chaud, loco, abusé, teste pas Ton équipe est et prête à gober des chibres Mon équipe est glauque et prête à t'voler tes litrons Tu veux tester mes salauds, ça fait bang, genre saloon Frère, si je t'allume c'est que j'suis prêt pour l'salut T'es pas d'la mif, parle-moi biff ou parle-moi d'profit Dix kilos d'weed, un kilo d'shit, le tout sera blanchi On fume le matos, mes vatos vont brûler ces rappeurs Ça sera du gâteau comme rotte-ca le de l'éducateur A bord d'une Merco Benz, vitres teintées, grosse boisson C'est la moisson, les mousseux sont d'sortie, ouais eh mistinguette Rentre dans le VIP si tu veux changer de vie Si tu rentres dans le lit, sache qu'on rentre dans le mille J'suis un hot nigga Mes gavas derrière oim ne craignent que God, nigga Mon équipe pète les scores pendant qu'tu t'fichas, kho Rebeu, renois, babtous, chicanos Tes négros softs ont des chichas roses Suffit pas d'pomper tous les rappeurs de Chicago Cassos, plaques et matraques la capitale est yomb Ici ni fleuve ni lac, juste une scène lasse-dèg donc allons-y, fuyons Entre les putes, les connasses, les gars, nous trions Vie lassante nous rions donc j'accomplis mon triomphe comme l'Arc Imagine la Tour Eiffel se faire amputer Boumbadaboum ! Encore un keuf vient d'se faire buter Le pognon, c'est l'thème L'opinion d'ces débiles n'est pas essentielle Sans gène, c'est l'défilé des pigeons avec ou sans ailes Certains, pris de dégout, deviendront des scélérats Sortis des égouts, les bourges nous regardent En s'disant C'est ça les rats... La street a mauvais ragout, passe tes thunes et ça l'aidera A assaisonner de plus de gout, ça vaut le coup mais, ça, c'est rare J'voulais porter le stard-co mais les keufs m'ont mis les pinces On n'écoute pas Sarko, ici, seul le Parc est un prince Au plus profond d'mes songes, j'ai vu cette lueur lunaire Sans aucune honte J'vous présente le côté sombre de la ville lumière ×2 D'ici à Châtelet, des deux côtés du périph' on gronde Drogue, sexe et Noctambus voici la capitale du monde L'hiver est rude, la neige tombe et s'faufile par le zen Les mecs sont prudes et puis Te plombent dans les nuits parisiennes Paris, ville lumière, ouais, bienvenu dans la capitale On t'attrape comme Thiago Silva, porte le brassard d'el capitan Tout porte à croire qu'c'est mondain Donc les touristes dépensent plus devant ces sangsues Donc j'pense plus comme Rodin Les clochards gisent sur le sol, les dealers dans la zeb Des péniches en façade cachant les cadavres enfouis dans la Seine La fréquence des contrôles varie d'Passy à bès-Bar Entre le 16ème et l'18ème, y'a qu'le 17 qui sépare Yo, embrasse le peuple de Dakar à Brazza Une odeur de bazar, ici, ça fouette comme la madrassa Ouais, c'est Paname, ça des rats aux dimensions de macro Assume la cité des arts, un concert par rame de métro Efface le cliché béret, gondole et cornemuse Et, pour les fraudes de bus, devant les leurs On change de blaze comme Cassius A la différence de Totti, ici, les roms vident les bennes Et c'est pas les gars du 19 qui t'diront qu'la vie est belle Dans les dédales de Paname, j'n'ai pas d'égal, j'me balade Pas loin des halles, où les daleux parle mal de la femme Et je déballe des tas d'phases, au départ, j'n'avais pas d'bases Mais je taffe et les raps sales que je lâche te laisse patraque Je n'aime pas les paperasses, parlez pas d'ça J'ai le bac mais le choix d'ma vie c'est d'rapper la night Ouais, ça c'est ma life, j'ai pris des tas de claques Prié tard le soir, grillé par la BAC, c'est pas marrant J'ai gratté pas mal de phases de malades Si j'ai dragué ta femme, c'est un acte banal Je plane dans le calme, flâne quand je dave-bé J'ai pas le temps de parler aux fans à part aux tasses-pé La vie est ainsi faite, envier les alliés du système Chaque matinée sur lpallier, lcur habillé de tristesse Les yeux rouges écarlates, rentrant dune soirée banale Boire et foirer sa life dans lespoir de croiser la joie Gars, jte croyais capable Pourquoi tu t'détruis pas comme nous ? Réduits dans des débris dalcool croyant que Dieu pardonne tout Jattends que les juges de mon âme me condamnent Quils se demandent si jsuis têtu ou si jai fait le bon choix Me convoitant pour que débute un constat immoral Comme mes pensées emprisonnées dans les cellules de mon crâne Mes gars se foutent de la sentence Toi, quoi la peur, yo, cest tout cque tas dans lventre ? Jme suis retrouvé en présence de la démence Chemin faisant dans lindécence La roue tourne mais dans quel sens ? Est-ce quon avance ou on recule dans cet enfer ? Le temps nous joue des tours et la roue tourne à lenvers Tes du-per si tu crois qujrécupère des écus Lorsque jénumère mon vécu, mec, jaurais dû faire des études Dans les rues jerre sans vrai but, la vérité, cest quça me rend fou Comme ces rageux méprisants Me disant que jferai pas de grands coups Jveux pas dune vie fade et sans gout Jcraque, des fois jpète mon câble Sans tromper pour compter du fric comme un expert-comptable La vie, une pêche frontale, ils font les fiers Mais tous mes frères ont mal Pas dcur de pierre face aux pierres tombales Les mains sales et la rime propre, Paris Nord en pleine forme Comme d'hab, le ciel est gris comme ton Macintosh J'm'active, bosse car dans l'Bronx, les macs, les putes Le crack, ses thunes, mate, c'est stupide mais j'connais ça Malgré l'omerta, t'inquiète que nos mères savent Viens tester les nôtres, j't'assure ton corps sera méconnaissable Toujours dans les business bizarres Crise d'nerfs, inhale, j'ai plus l'temps Ni même de visage, je vis ma vie chaque milliseconde Les négros qui agissent comme des bitches me gonflent Je reste vrai même si c'est vrai Qu'les vrais négros irritent ce monde Le contraire se tient aussi J'sors une veste en cuir peinte sur un Tachini comme Saïd On bicrave même à l'aid, la débrouillardise du Pirates des caraïbes Hustler de luxe, longtemps que j'cogite sur l'métier On loue un appart' en face du comico pour les surveiller Trouve-moi dans un sombre côté du square J'ai le crack en solde si ta meuf a du mal à perdre du poids Issue dramatique, l'automatique m'a dit La technique est stricte, break, beat et spliffs, esquive les flics Et les balances même si des fois c'est pas si facile. J'préfère ça qu'être celui qui reste passif assis Sur l'banc à regarder les gros culs et les dollars qui passent j'rime salace, mes taulards bicravent Même à l'intérieur, qui suis-je pourn'pas mailler en liberté ? Si t'aimes pas, t'es un illetré, cousin Est-ce que tu captes, on veut du calme Tire deux fois dans le ciel, négro, j'ai cru y voir les yeux du Diable 86 Joon speaks Set that nigga in history 86, call me 86 Or Joon bitch you can take your pic Or take a pic, post a Insta flick Got your girl all on my hip Don't act like you ain't heard that For when I speak you niggas pissed Flippin this dawg you had it I got it no worry who watchin' ? So sophisticated Ain't no one watchin' Still niggas wanna hate you ? Tell somebody comes naughty I aint a gangster but Ill break neck I worked for mine, deserve all these checks Took chances nigga, won all my bets I'm a man nigga so I owe my threats Ain't worried about it, look at me I pay no mind and kept my eyes on me And you're still broke, and that talk is cheap Piss me I'mma tryna go get Ali Fist fight in that mirror nigga Like Rick Hill, rockin' Hilfiger I'm DMX Tous tes rappeurs c'est des mythomanes en puissance Qui rêveraient d'avoir le flow et l'épopée de qui j'pense Beaucoup trop longtemps que j'erre Et que j'leur mets des distances J'veux l'million maintenant je bosse avec... Heureusement que j'ai des gavas qui sont là pour moi Cette michto, elle veut mon porte-monnaie pas la bague au doigt Tes rappeurs, les éliminer ça n'me fait pas peur du tout Pour trafic tu prends la même peine que Marc Dutroux Comme d'hab, j'suis posé à PDM Et bisous aux haineux qui la ferment et qui laissent passer les hyènes On a le cur mort et les mains dans la merde A chacun de nos actes on se rapproche de l'enfer Perdu dans ma matrice, j'ai la grise mine de Gandalf Tu veux un feat ? Pose ton SMIC qu'on en reparle Parait que j'suis un prodige mais j'ai déjà déconné Donc, bébé, suce pas trop ma bite Même si je sais que je suis pas comme les autres Et que le médecin l'avait dit lors de léchographie ×2 J'ai des plaies, j'peux les rapper des heures Approche et apprends que j'ai jamais voulu être célèbre J'me réveille dans une Mercedes neuve Car hier j'ai noyé ma peine dans la Belvédère Ouais je bois des litres de vodka A la santé de ceux qui voulaient nous mettre des rottes-ca On vole pas aux voleurs, va t'occuper d'autres gars Moi si je suis un rappeur, je suis un rappeur haut de gamme J'ai la tête sur les épaules et les épaules dans la piscine Pâtes au pesto dans un resto de la city Tu côtoies des vieilles gos, moi mes khos n'ont que des missiles On fréquente des tel-hô mais tu me verras jamais à l'Ibis J'ai la monnaie, collègue, rien qu'on fume le pollen On est sept sur scène et parait qu'on est en colère Toujours OP j'opère, direction le soleil Je rappe sept sur sept, je suis le meilleur depuis le collège Jamais à l'heure à mes rendez-vous, excusez-moi monsieur J'avais mieux à faire, je suis aller manger sur les quais Après je comptais venir, mais y'avait des fans sur mes côtes Ils voulaient des photos et je suis mauvais à ce jeu Si tu me vois dans la rue, s'il te plait ne m'arrête pas Fais tes bails, j'ai ma tranquillité et ma rette-ba Si ce flic ouvre sa gueule, mettez le dans la caisse noire Nous n'avons que notre liberté en guise d'espoir Appel inconnu, salope de plus me parasite A peine reconnu, les jaloux sont plus J'ai pas lu l'avenir mais ça s'voit qu'ce monde est condamné Donc avant d'partir, j'dois finir tout c'que j'ai commencé Issu d'là où ça pue la mort, la drogue et les keufs Là où les peuples s'entendent entre musulmans, chrétiens et feujs Fils, le prestige se gagne en travaillant pas si tu suces Le crime paie mais y'a rien d'glorieux dans c'ness-busi Sont tous hors-jeu car j'suis défenseur avec un gun T'es défoncé sous rhum, j'écrirai mes versets sous l'porche On a tous bicrave alors pourquoi tu t'sens pousser des couilles ? Biatch, reste cool, c'est pas la Gucci qui fait l'lascar Alors qu'on s'serre les coudes, sert à rien vu qu'tu sers à rien Putain, vraie tantouze fais du boucan juste pour être craints Moi, j'ai le cran, la haine, le seum, quand j'serai grand J'voudrais le biff, être à l'abri afin d'claquer ses seufs Panama Bende on est sept, on peut t'faire chier toute la semaine Comme une merde dans laquelle j'viens d'marcher Les MC's sont tous sous ma semelle Le mic, on m'la donné, OK, rappons Mon Rap est frais, mon Rap pétille à consommer avec modération Sinon tu risques de t'blesser, le beat j'veux l'dresser Sache que même si j'flippe tu m'verras pas les yeux baissés Hey l'internaute, si t'aimes le Rap viens voir ma page Dans mon équipe on garde la tête haute Dans l'espoir de pas boire la tasse Écoute ce beat, mes khos kickent stone Mais ça, ça ne bouge pas depuis les Beattles ou les Rolling Stone J'connais mes bases, j'ai relu ma leçon et j'vote la paix Fais comme moi, écoute ces basses Mets l'volume à fond et hoche la tête J'lâche que des phases qui te fascinent, effacent tous les blazes Écoute les MC's sont sous plaques d'égouts Et n'ont qu'des placements faciles Perdre sa valeur dans c'monde,où l'argent fascine J'aime trop cette tension dans la salle Lorsque les fans attendent l'artiste 18 ans à peine, tu vois que l'âge ne fait rien Le beat prend déjà tarif et pourtant là je n'fais rien Jeune terrien qui n'aime pas rester seul, ouais Un frère au tel' dans la main gauche Et avec l'autre, ma belle, j'caresse tes seufs C'est l'binôme infernal, sors l'matos, prends le bédo J'préviens qu'ça va faire mal comme le lapin dans le métro C'est pour mes gars d'mmerce-Co Qui font du biff, arrêtent la hess Tu kiffes avec la tête, c'est qu'on kicke avec la tech Hassanettes sur hassanettes, j'les fais ap, j'les ferai Pour l'instant, j'suis dans l'optique de gérer des khenzettes La recette, on cherche tous à s'la procurer Fuck le procureur, trop d'curieux, ça a trop duré Au stud, j'me dis tue-les tous, j'compte même plus les douzes C'est pour tous mes couz équipés d'un putain d'bulletproof Faut-il un style sophistiqué ? Ouais, trop d'estime On est ssif-ma, nocif pour les flics, vont-ils kiffer ? Hein, c'est c'que j'me demande Quand j'me dit qu'faut que j'les démonte Dès l'tin-ma, j'reçois plein d'amendes, on massera pas la loi J'suis pas un padawan, wallah, rien d'un Balavoine J'parle à toi quand t'as pas la gnaque, tu passeras pas la douane C'est leur bel équilibre, j'viens de Berriz City J'suis le best, tu veux test, en un bang je t'élimine C'est pour tous mes reufs qui fument de l'herbe à l'air frais J'aime quand une voiture de keufs me laisse traverser Parfois j'ai envie de tout faire péter pour qu'il reste rien de ce désordre Ils s'battent pas pour... Mais restreindre ceux des autres Ok ça foire mais c'est pas grave j'pars c'est pour ma poire J'me fends la poire rien à faire mec, ... je vois Ah c'est comme ça qu'ça s'passe mec j'compte pas pour du bois C'est pour mes potes qui prennent du poids Hey, qui va kicker ça ? Gagne un peu de temps pour le prochain C'est comme ça qu'ça s'passe, ceux qui s'font crosser, j'aime aussi les gros seins J'suis pas skin même en polo Fred Perry, tu le sais J'suis le best, elle est loin l'époque de Hail Mary Jexpérimente des flows qui vont t'faire périr Pour les faux, ça risque d'être terrible T'es en vogue si t'as nos jers' et nos vestes teddy Meilleurs textes, meilleurs textiles, l'dernier cri Qu'ces MC's pousseront risquerait d'me faire plaisir Gardez vos bitches, j'suis l'homme qu'elles désirent J'débarque, elles deviennent célib, la vie c'est si hard Estime-toi frais si t'as ta mif et des biffs à faire Eff Gee, stop ! Fuck tout ça ! Quand j'gratte, c'est d'la frappe, il faut qu'ça cogne tout-par Face au Eff du L, qu'est-ce tu testes ? Mec, tu perds Tu fais l'fou mais t'es trop doux, tes potos t'appellent my boo Mes bulles d'air restent sur Terre, frère, tu sais Trop s'étonnent des babtous qui rappent et cassent tout Pff... Comme si on allait s'arrêter J'vais pas m'abaisser à ça mais j'vous mets la fessée Elles veulent caresser ma barbe car il paraît que c'est d'la balle Voudraient s'faire graisser la patte, au moins s'faire lécher la chatte Laissez-moi ! J'kiffe pour mes homies Tes sons soûlent plus qu'une bouteille d'eau-de-vie J'les écoute, fonce-dé, pour m'faire vomir Je sais c'que j'ai à perdre, je sais c'que j'ai à gagner Toujours pas d'Rolex au poignet, j'sirote ma mauresque au Panier Restons calmes, restons parés, que les commères restent au palier J'ai la fierté dans le sang tout comme mes collègues Oranais Leur Rap Game, c'est un putain d'truc de putarelle En une semaine de Planète Rap J'vois plus de putes qu'à Bucarest, j'me prends plus la tête Ça vaut plus la peine, tu crois qu'tu m'arrêtes J'te coupe un bras et puis je t'encule avec J'te crève un il avec ton propre orteil All black comme le croque-mort, requiem post-mortem J'suis fort, j'suis formel, je n'sors qu'des trésors d'orfèvre J'commence doucement, j'finis gore comme Hostel ou Dorcel Présente-moi tes jolies potes, j'leur présenterai mon lollipop J'ai mis ma eue-qu dans tellement d'gorges Elles m'appellent toutes le polyglotte J'maîtrise la langue jusqu'aux litotes, la France jusqu'aux iPod's J'redonne de l'espoir au Game, j'redéfinis le mot Hip-Hop Burbigo, j'vais les ken jusqu'à c'que j'bande plus Ils vont tous crier mon blaze comme s'ils étaient mes plans cul Qu'ils crèvent avec leurs 16 jetables J'rêve de les voir en sang, les soigner avec du sel de table Me cherche pas ou tu risques de perdre Tout l'monde a vu mes RC, j'ai percé sans sucer d'verge Qui peut en dire autant ? Sûrement pas ces tire-au-flancs Je tire au but, je tire au centre depuis qu'la faim m'a pris au ventre J'suis rieur, c'est curieux Jeune déviant, retourne chez tes vieux Nah, sérieux, j'suis meilleur même si je fais rien Jump dans c'buiz' comme un cop dans l'six, ou un mafieux Méfiant comme un il myope dans l'viseur Il y a des milliards de choses que j'veux illico presto Mini-bar, gov' chromé, whisky, frappe, resto Ils s'blessent pour des valeurs ajoutées Mais j'laisse faire, il m'reste quelques rappeurs à shooter J'me fiche de l'égalité des chances, j'vis Pour les lyrics et la qualité des jantes J'me relaxe, spliff sur quais d'Seine Et on m'a dit que jexcellais Quand j'rappe, t'es vexé, désolé, j'suis l'next level Roule de longues battes pour éviter qu'on bosse Et ça fait double contact entre ma bite et ton gloss Chillance, avec les vilains prend d'la distance On parle de filles ienbs, de filles minces et de finance5</t>
+          <t>×4 J'suis sorti du ventre de ma mère pour vous faire l'album de l'année Les autres vendent de la merde, je l'ai fait sur mon propre label Dis-moi, c'est quoi l'album de l'année ? Feu ! Feu ! Feu ! Feu ! Comme Walter White, j'ai mes Clarks Wallabees Sur, serre-moi la main, frère, claque-moi la bise Je ne côtoie que des avions à la carlingue parfaite J'ai beaucoup plus de goût que Karl Lagerfeld Le monde de l'art est vantard, il te vend du street-art Mais ne veulent surtout pas voir mes scarlas graffer en vandale Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Feu ! Tu peux ressentir l'aura dans nos raps, sortez les anoraks On aura bientôt l'orage selon l'oracle Ma conscience m'a dit Qui es-tu ? Veux-tu vivre dans le vice ou dans la quiétude ? Ça dépend où est l'pèze, on doit être bêtes, ouais, p't-être Mais ma plume peut clouer l'bec de Houellebecq Ici, on est vite tentés, il vaut mieux que tu vives ta quête J'ai entendu Vide ta caisse, le lendemain, les flics enquêtent ×2 C'est quand j'aurai des millions que j'me questionnerai Dans quelques années, je me demande qu'est-ce qu'on aura Si je n'savais pas que les keufs m'espionneraient Jamais j'démissionerais même s'ils veulent mon aura La voix d'la tess' dans l'oreille Faut qu'on encaisse dans le Rap Mental d'acier tah les chefs de guerre Dis-moi tu vas ken lequel ? Je n'vois que des merdeux gueh Tu vois pas comme les chiennes te guettent ? Elles rêvent d'être avec moi comme dans des fiançailles Pour que je ne regarde plus mes finances InchAllah, je ne mettrai qu'une fille enceinte J'prie mon Dieu mais je reste silencieux Pris dans l'jeu, c'était une évidence Pris dans l'feu, qui sort seul Méfiance, faut qu'tu prennes tes distances Vie d'malfrat en noir et blanc comme les films anciens Quand on est sur scène c'est l'empire byzantin Mon équipe rend dingues les pires depuis bambins La nuit, je sors sans but comme un somnambule Y'a certains rêves que les Hommes n'ont plus J'ai vu cette fille, on était seuls dans l'bus Elle avait les yeux rouges, elle avait pas seulement bu Elle avait de la came dans un sac Balenciaga Elle s'est fait caner, c'est ça d'balancer un gars Dans Paname, y'en a qui s'perdent, y'en a qu'espèrent Péter des sapes Agnès B., des Nike SB Dehors, c'est froid, y'a plus d'humanité Un homme est mort inanimé devant un immeuble inhabité C'est la crise ! La crise ? Qui est-ce qu'elle atteint ? Toi, moi ou le suicidaire qui escalade un toit ? Si Dieu veut, jusqu'à 120 ans voilà mon espérance de vie Toujours dans l'excellence, tu connais mes préférences On est vraiment des références de style Dans l'équipe, aucune déviance, nan On ne tolère pas la médisance, nan On est méfiants, choisis ton camp Au lieu de rester entre deux fils, nan Tant que je n'ai pas de millions Mes egotrips resteront de l'autodérision Besoin de causes et regrets pour quitter ce monde de merde Je me laisse aller avant de prendre une autre décision Trop de menaces et de coups de crasse pour des loves Je le sens tout d'suite quand un traitre tape mon épaule Ne le vois-tu pas ? De quoi tu parles à part de ton ego ? Moi, rester à ma place, ce n'est pas dans mon créneau J'veux que Def Jam signe mon chèque, ouais, mon putain d'chèque J'veux qu'la SACEM signe un chèque, ouais, mon putain d'chèque J'veux que Def Jam signe un chèque, ouais, mon putain d'chèque J'veux qu'la Def Jam signe un chèque, ouais, mon putain d'chèque Négro, faut d'la maille, ouais, mon négro, faut d'la maille Rebeu, faut d'la maille, ouais, mon rebeu, faut d'la maille Babtou, faut d'la maille, ouais, mon babtou, faut d'la maille Babtou, faut d'la maille, ouais, mon babtou, faut d'la maille J'dors les yeux ouverts, j'parle avec les esprits J'ai fait souffrir car j'ai souffert J'ai fait des erreurs aujourd'hui j'en paie l'prix J'suis bon qu'à rapper c'que j'suis Mes raisons, mes torts, c'est ça être vrai, couz' Et foutre des foufs dans mes clips Que moi-même je n'voudrais ni comme sur ni comme épouse J'suis qu'un fou parmi des cons En vrai, j'sais même pas dans quoi j'suis Ces bâtards m'critiquent, si j'les laisse ouvrir leurs gueules C'est juste que j'aime savoir dans quoi j'chie J'lâche des perles en stud' Mais j'crois qu'l'industrie n'y voit qu'tchi Et ma voisine du dessus Me regarde comme si j'étais un frère Kouachi On apprend à s'faire tous seuls, vu qu'le système nous néglige On deale en croyant être screds Alors qu'on s'fait remarquer comme une pute dans une église J'rappe pour mes rabzouzs J'rappe pour mes niggas Black, blanche ou beurre, j'les aime toutes Du moment qu'elles remplissent leurs leggings J'ai l'inspi' à Tupac, flow sale comme l'argent d'la bicrave Frais dans les clips à t'en faire croire Qu'être négro en France n'a jamais été un handicap J'pratique le haut-débit, Numéricable Toi, t'es un faux mac mais ne pute véritable J'me mets à nu, mais j'suis pudique Un peu comme une actrice X en Niqab Beaucoup qui font les hlels mais qui les baise en chette-ca ? Y'a ton ADN sous la semelle de ma sket-ba Micro semi-auto, j'appuie sur la chette-ga J'ai perdu au loto donc j'ai bibi la sel3a J'suis avec mes potos, capuché, squette-ca Trop chaud, loco, abusé, teste pas Ton équipe est et prête à gober des chibres Mon équipe est glauque et prête à t'voler tes litrons Tu veux tester mes salauds, ça fait bang, genre saloon Frère, si je t'allume c'est que j'suis prêt pour l'salut T'es pas d'la mif, parle-moi biff ou parle-moi d'profit Dix kilos d'weed, un kilo d'shit, le tout sera blanchi On fume le matos, mes vatos vont brûler ces rappeurs Ça sera du gâteau comme rotte-ca le de l'éducateur A bord d'une Merco Benz, vitres teintées, grosse boisson C'est la moisson, les mousseux sont d'sortie, ouais eh mistinguette Rentre dans le VIP si tu veux changer de vie Si tu rentres dans le lit, sache qu'on rentre dans le mille J'suis un hot nigga Mes gavas derrière oim ne craignent que God, nigga Mon équipe pète les scores pendant qu'tu t'fichas, kho Rebeu, renois, babtous, chicanos Tes négros softs ont des chichas roses Suffit pas d'pomper tous les rappeurs de Chicago Cassos, plaques et matraques la capitale est yomb Ici ni fleuve ni lac, juste une scène lasse-dèg donc allons-y, fuyons Entre les putes, les connasses, les gars, nous trions Vie lassante nous rions donc j'accomplis mon triomphe comme l'Arc Imagine la Tour Eiffel se faire amputer Boumbadaboum ! Encore un keuf vient d'se faire buter Le pognon, c'est l'thème L'opinion d'ces débiles n'est pas essentielle Sans gène, c'est l'défilé des pigeons avec ou sans ailes Certains, pris de dégout, deviendront des scélérats Sortis des égouts, les bourges nous regardent En s'disant C'est ça les rats... La street a mauvais ragout, passe tes thunes et ça l'aidera A assaisonner de plus de gout, ça vaut le coup mais, ça, c'est rare J'voulais porter le stard-co mais les keufs m'ont mis les pinces On n'écoute pas Sarko, ici, seul le Parc est un prince Au plus profond d'mes songes, j'ai vu cette lueur lunaire Sans aucune honte J'vous présente le côté sombre de la ville lumière ×2 D'ici à Châtelet, des deux côtés du périph' on gronde Drogue, sexe et Noctambus voici la capitale du monde L'hiver est rude, la neige tombe et s'faufile par le zen Les mecs sont prudes et puis Te plombent dans les nuits parisiennes Paris, ville lumière, ouais, bienvenu dans la capitale On t'attrape comme Thiago Silva, porte le brassard d'el capitan Tout porte à croire qu'c'est mondain Donc les touristes dépensent plus devant ces sangsues Donc j'pense plus comme Rodin Les clochards gisent sur le sol, les dealers dans la zeb Des péniches en façade cachant les cadavres enfouis dans la Seine La fréquence des contrôles varie d'Passy à bès-Bar Entre le 16ème et l'18ème, y'a qu'le 17 qui sépare Yo, embrasse le peuple de Dakar à Brazza Une odeur de bazar, ici, ça fouette comme la madrassa Ouais, c'est Paname, ça des rats aux dimensions de macro Assume la cité des arts, un concert par rame de métro Efface le cliché béret, gondole et cornemuse Et, pour les fraudes de bus, devant les leurs On change de blaze comme Cassius A la différence de Totti, ici, les roms vident les bennes Et c'est pas les gars du 19 qui t'diront qu'la vie est belle Dans les dédales de Paname, j'n'ai pas d'égal, j'me balade Pas loin des halles, où les daleux parle mal de la femme Et je déballe des tas d'phases, au départ, j'n'avais pas d'bases Mais je taffe et les raps sales que je lâche te laisse patraque Je n'aime pas les paperasses, parlez pas d'ça J'ai le bac mais le choix d'ma vie c'est d'rapper la night Ouais, ça c'est ma life, j'ai pris des tas de claques Prié tard le soir, grillé par la BAC, c'est pas marrant J'ai gratté pas mal de phases de malades Si j'ai dragué ta femme, c'est un acte banal Je plane dans le calme, flâne quand je dave-bé J'ai pas le temps de parler aux fans à part aux tasses-pé La vie est ainsi faite, envier les alliés du système Chaque matinée sur lpallier, lcur habillé de tristesse Les yeux rouges écarlates, rentrant dune soirée banale Boire et foirer sa life dans lespoir de croiser la joie Gars, jte croyais capable Pourquoi tu t'détruis pas comme nous ? Réduits dans des débris dalcool croyant que Dieu pardonne tout Jattends que les juges de mon âme me condamnent Quils se demandent si jsuis têtu ou si jai fait le bon choix Me convoitant pour que débute un constat immoral Comme mes pensées emprisonnées dans les cellules de mon crâne Mes gars se foutent de la sentence Toi, quoi la peur, yo, cest tout cque tas dans lventre ? Jme suis retrouvé en présence de la démence Chemin faisant dans lindécence La roue tourne mais dans quel sens ? Est-ce quon avance ou on recule dans cet enfer ? Le temps nous joue des tours et la roue tourne à lenvers Tes du-per si tu crois qujrécupère des écus Lorsque jénumère mon vécu, mec, jaurais dû faire des études Dans les rues jerre sans vrai but, la vérité, cest quça me rend fou Comme ces rageux méprisants Me disant que jferai pas de grands coups Jveux pas dune vie fade et sans gout Jcraque, des fois jpète mon câble Sans tromper pour compter du fric comme un expert-comptable La vie, une pêche frontale, ils font les fiers Mais tous mes frères ont mal Pas dcur de pierre face aux pierres tombales Les mains sales et la rime propre, Paris Nord en pleine forme Comme d'hab, le ciel est gris comme ton Macintosh J'm'active, bosse car dans l'Bronx, les macs, les putes Le crack, ses thunes, mate, c'est stupide mais j'connais ça Malgré l'omerta, t'inquiète que nos mères savent Viens tester les nôtres, j't'assure ton corps sera méconnaissable Toujours dans les business bizarres Crise d'nerfs, inhale, j'ai plus l'temps Ni même de visage, je vis ma vie chaque milliseconde Les négros qui agissent comme des bitches me gonflent Je reste vrai même si c'est vrai Qu'les vrais négros irritent ce monde Le contraire se tient aussi J'sors une veste en cuir peinte sur un Tachini comme Saïd On bicrave même à l'aid, la débrouillardise du Pirates des caraïbes Hustler de luxe, longtemps que j'cogite sur l'métier On loue un appart' en face du comico pour les surveiller Trouve-moi dans un sombre côté du square J'ai le crack en solde si ta meuf a du mal à perdre du poids Issue dramatique, l'automatique m'a dit La technique est stricte, break, beat et spliffs, esquive les flics Et les balances même si des fois c'est pas si facile. J'préfère ça qu'être celui qui reste passif assis Sur l'banc à regarder les gros culs et les dollars qui passent j'rime salace, mes taulards bicravent Même à l'intérieur, qui suis-je pourn'pas mailler en liberté ? Si t'aimes pas, t'es un illetré, cousin Est-ce que tu captes, on veut du calme Tire deux fois dans le ciel, négro, j'ai cru y voir les yeux du Diable 86 Joon speaks Set that nigga in history 86, call me 86 Or Joon bitch you can take your pic Or take a pic, post a Insta flick Got your girl all on my hip Don't act like you ain't heard that For when I speak you niggas pissed Flippin this dawg you had it I got it no worry who watchin' ? So sophisticated Ain't no one watchin' Still niggas wanna hate you ? Tell somebody comes naughty I aint a gangster but Ill break neck I worked for mine, deserve all these checks Took chances nigga, won all my bets I'm a man nigga so I owe my threats Ain't worried about it, look at me I pay no mind and kept my eyes on me And you're still broke, and that talk is cheap Piss me I'mma tryna go get Ali Fist fight in that mirror nigga Like Rick Hill, rockin' Hilfiger I'm DMX Tous tes rappeurs c'est des mythomanes en puissance Qui rêveraient d'avoir le flow et l'épopée de qui j'pense Beaucoup trop longtemps que j'erre Et que j'leur mets des distances J'veux l'million maintenant je bosse avec... Heureusement que j'ai des gavas qui sont là pour moi Cette michto, elle veut mon porte-monnaie pas la bague au doigt Tes rappeurs, les éliminer ça n'me fait pas peur du tout Pour trafic tu prends la même peine que Marc Dutroux Comme d'hab, j'suis posé à PDM Et bisous aux haineux qui la ferment et qui laissent passer les hyènes On a le cur mort et les mains dans la merde A chacun de nos actes on se rapproche de l'enfer Perdu dans ma matrice, j'ai la grise mine de Gandalf Tu veux un feat ? Pose ton SMIC qu'on en reparle Parait que j'suis un prodige mais j'ai déjà déconné Donc, bébé, suce pas trop ma bite Même si je sais que je suis pas comme les autres Et que le médecin l'avait dit lors de léchographie ×2 J'ai des plaies, j'peux les rapper des heures Approche et apprends que j'ai jamais voulu être célèbre J'me réveille dans une Mercedes neuve Car hier j'ai noyé ma peine dans la Belvédère Ouais je bois des litres de vodka A la santé de ceux qui voulaient nous mettre des rottes-ca On vole pas aux voleurs, va t'occuper d'autres gars Moi si je suis un rappeur, je suis un rappeur haut de gamme J'ai la tête sur les épaules et les épaules dans la piscine Pâtes au pesto dans un resto de la city Tu côtoies des vieilles gos, moi mes khos n'ont que des missiles On fréquente des tel-hô mais tu me verras jamais à l'Ibis J'ai la monnaie, collègue, rien qu'on fume le pollen On est sept sur scène et parait qu'on est en colère Toujours OP j'opère, direction le soleil Je rappe sept sur sept, je suis le meilleur depuis le collège Jamais à l'heure à mes rendez-vous, excusez-moi monsieur J'avais mieux à faire, je suis aller manger sur les quais Après je comptais venir, mais y'avait des fans sur mes côtes Ils voulaient des photos et je suis mauvais à ce jeu Si tu me vois dans la rue, s'il te plait ne m'arrête pas Fais tes bails, j'ai ma tranquillité et ma rette-ba Si ce flic ouvre sa gueule, mettez le dans la caisse noire Nous n'avons que notre liberté en guise d'espoir Appel inconnu, salope de plus me parasite A peine reconnu, les jaloux sont plus J'ai pas lu l'avenir mais ça s'voit qu'ce monde est condamné Donc avant d'partir, j'dois finir tout c'que j'ai commencé Issu d'là où ça pue la mort, la drogue et les keufs Là où les peuples s'entendent entre musulmans, chrétiens et feujs Fils, le prestige se gagne en travaillant pas si tu suces Le crime paie mais y'a rien d'glorieux dans c'ness-busi Sont tous hors-jeu car j'suis défenseur avec un gun T'es défoncé sous rhum, j'écrirai mes versets sous l'porche On a tous bicrave alors pourquoi tu t'sens pousser des couilles ? Biatch, reste cool, c'est pas la Gucci qui fait l'lascar Alors qu'on s'serre les coudes, sert à rien vu qu'tu sers à rien Putain, vraie tantouze fais du boucan juste pour être craints Moi, j'ai le cran, la haine, le seum, quand j'serai grand J'voudrais le biff, être à l'abri afin d'claquer ses seufs Panama Bende on est sept, on peut t'faire chier toute la semaine Comme une merde dans laquelle j'viens d'marcher Les MC's sont tous sous ma semelle Le mic, on m'la donné, OK, rappons Mon Rap est frais, mon Rap pétille à consommer avec modération Sinon tu risques de t'blesser, le beat j'veux l'dresser Sache que même si j'flippe tu m'verras pas les yeux baissés Hey l'internaute, si t'aimes le Rap viens voir ma page Dans mon équipe on garde la tête haute Dans l'espoir de pas boire la tasse Écoute ce beat, mes khos kickent stone Mais ça, ça ne bouge pas depuis les Beattles ou les Rolling Stone J'connais mes bases, j'ai relu ma leçon et j'vote la paix Fais comme moi, écoute ces basses Mets l'volume à fond et hoche la tête J'lâche que des phases qui te fascinent, effacent tous les blazes Écoute les MC's sont sous plaques d'égouts Et n'ont qu'des placements faciles Perdre sa valeur dans c'monde,où l'argent fascine J'aime trop cette tension dans la salle Lorsque les fans attendent l'artiste 18 ans à peine, tu vois que l'âge ne fait rien Le beat prend déjà tarif et pourtant là je n'fais rien Jeune terrien qui n'aime pas rester seul, ouais Un frère au tel' dans la main gauche Et avec l'autre, ma belle, j'caresse tes seufs C'est l'binôme infernal, sors l'matos, prends le bédo J'préviens qu'ça va faire mal comme le lapin dans le métro C'est pour mes gars d'mmerce-Co Qui font du biff, arrêtent la hess Tu kiffes avec la tête, c'est qu'on kicke avec la tech Hassanettes sur hassanettes, j'les fais ap, j'les ferai Pour l'instant, j'suis dans l'optique de gérer des khenzettes La recette, on cherche tous à s'la procurer Fuck le procureur, trop d'curieux, ça a trop duré Au stud, j'me dis tue-les tous, j'compte même plus les douzes C'est pour tous mes couz équipés d'un putain d'bulletproof Faut-il un style sophistiqué ? Ouais, trop d'estime On est ssif-ma, nocif pour les flics, vont-ils kiffer ? Hein, c'est c'que j'me demande Quand j'me dit qu'faut que j'les démonte Dès l'tin-ma, j'reçois plein d'amendes, on massera pas la loi J'suis pas un padawan, wallah, rien d'un Balavoine J'parle à toi quand t'as pas la gnaque, tu passeras pas la douane C'est leur bel équilibre, j'viens de Berriz City J'suis le best, tu veux test, en un bang je t'élimine C'est pour tous mes reufs qui fument de l'herbe à l'air frais J'aime quand une voiture de keufs me laisse traverser Parfois j'ai envie de tout faire péter pour qu'il reste rien de ce désordre Ils s'battent pas pour... Mais restreindre ceux des autres Ok ça foire mais c'est pas grave j'pars c'est pour ma poire J'me fends la poire rien à faire mec, ... je vois Ah c'est comme ça qu'ça s'passe mec j'compte pas pour du bois C'est pour mes potes qui prennent du poids Hey, qui va kicker ça ? Gagne un peu de temps pour le prochain C'est comme ça qu'ça s'passe, ceux qui s'font crosser, j'aime aussi les gros seins J'suis pas skin même en polo Fred Perry, tu le sais J'suis le best, elle est loin l'époque de Hail Mary Jexpérimente des flows qui vont t'faire périr Pour les faux, ça risque d'être terrible T'es en vogue si t'as nos jers' et nos vestes teddy Meilleurs textes, meilleurs textiles, l'dernier cri Qu'ces MC's pousseront risquerait d'me faire plaisir Gardez vos bitches, j'suis l'homme qu'elles désirent J'débarque, elles deviennent célib, la vie c'est si hard Estime-toi frais si t'as ta mif et des biffs à faire Eff Gee, stop ! Fuck tout ça ! Quand j'gratte, c'est d'la frappe, il faut qu'ça cogne tout-par Face au Eff du L, qu'est-ce tu testes ? Mec, tu perds Tu fais l'fou mais t'es trop doux, tes potos t'appellent my boo Mes bulles d'air restent sur Terre, frère, tu sais Trop s'étonnent des babtous qui rappent et cassent tout Pff... Comme si on allait s'arrêter J'vais pas m'abaisser à ça mais j'vous mets la fessée Elles veulent caresser ma barbe car il paraît que c'est d'la balle Voudraient s'faire graisser la patte, au moins s'faire lécher la chatte Laissez-moi ! J'kiffe pour mes homies Tes sons soûlent plus qu'une bouteille d'eau-de-vie J'les écoute, fonce-dé, pour m'faire vomir Je sais c'que j'ai à perdre, je sais c'que j'ai à gagner Toujours pas d'Rolex au poignet, j'sirote ma mauresque au Panier Restons calmes, restons parés, que les commères restent au palier J'ai la fierté dans le sang tout comme mes collègues Oranais Leur Rap Game, c'est un putain d'truc de putarelle En une semaine de Planète Rap J'vois plus de putes qu'à Bucarest, j'me prends plus la tête Ça vaut plus la peine, tu crois qu'tu m'arrêtes J'te coupe un bras et puis je t'encule avec J'te crève un il avec ton propre orteil All black comme le croque-mort, requiem post-mortem J'suis fort, j'suis formel, je n'sors qu'des trésors d'orfèvre J'commence doucement, j'finis gore comme Hostel ou Dorcel Présente-moi tes jolies potes, j'leur présenterai mon lollipop J'ai mis ma eue-qu dans tellement d'gorges Elles m'appellent toutes le polyglotte J'maîtrise la langue jusqu'aux litotes, la France jusqu'aux iPod's J'redonne de l'espoir au Game, j'redéfinis le mot Hip-Hop Burbigo, j'vais les ken jusqu'à c'que j'bande plus Ils vont tous crier mon blaze comme s'ils étaient mes plans cul Qu'ils crèvent avec leurs 16 jetables J'rêve de les voir en sang, les soigner avec du sel de table Me cherche pas ou tu risques de perdre Tout l'monde a vu mes RC, j'ai percé sans sucer d'verge Qui peut en dire autant ? Sûrement pas ces tire-au-flancs Je tire au but, je tire au centre depuis qu'la faim m'a pris au ventre J'suis rieur, c'est curieux Jeune déviant, retourne chez tes vieux Nah, sérieux, j'suis meilleur même si je fais rien Jump dans c'buiz' comme un cop dans l'six, ou un mafieux Méfiant comme un il myope dans l'viseur Il y a des milliards de choses que j'veux illico presto Mini-bar, gov' chromé, whisky, frappe, resto Ils s'blessent pour des valeurs ajoutées Mais j'laisse faire, il m'reste quelques rappeurs à shooter J'me fiche de l'égalité des chances, j'vis Pour les lyrics et la qualité des jantes J'me relaxe, spliff sur quais d'Seine Et on m'a dit que jexcellais Quand j'rappe, t'es vexé, désolé, j'suis l'next level Roule de longues battes pour éviter qu'on bosse Et ça fait double contact entre ma bite et ton gloss Chillance, avec les vilains prend d'la distance On parle de filles ienbs, de filles minces et de finance5</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1505,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir You might also like J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
+          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1522,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Zenghi ! C'est pas toujours facile Dêtre un putain d'chef de famille non! C'est un putain d'job à plein temps Ça il faut l'vivre Tu t'poses des questions Et moi j'm'en pose souvent J'voulais faire un p'tit point avec toi Hey ! Je sais qu'ces derniers temps j'étais pas trop là Je sais que j'te délaisse un peu d'puis quelques mois Je sais que t'as b'soin d'moi et d'ma présence De m'faire confiance, tu sais qu'j'en ai bien conscience d'tout ça Je sais que j'manque à mon fils, qu'il aimerait tant qu'on joue au château, aux héros, aux Lego, aux Playmo J'ai l'impression d'tout rater, d'pas l'voir grandir Comment imaginer la vie sans vous dans mon avenir ? Mais j'ai tout c'vin à boire ! GTA V à finir ! Une bouteille de poire, le nouveau Resident Evil ! Alors tu peux bien m'dire que j'pense qu'à ma gueule Mais l'Étoile Noire en Lego, elle va s'construire toute seule ? You might also like J'dois bien mater mes pornos J'dois bien choisir mes casquettes J'dois bien passer mes 5 heures quotidiennes sur internet Et j'te promets d'm'occuper du gosse demain Mais pour l'instant il m'reste d'la tise et un boss de fin Je sais que vous comptez à fond sur moi pour le taf Que j'dois mériter la paie du job Que trop souvent j'travaille grave à l'arrache Que j'zappe les appels du staff, les mails du prod' Je sais qu'les places sont chères à la télé, dans la musique Qu'il faut s'battre pour réussir une carrière artistique Qu'il faut tout donner, toujours être disponible Qu'j'dois faire mes disques et prendre tous les risques possibles Mais j'ai une femme qui a besoin d'moi Et j'ai des bouches à nourrir Une compagne que j'déçois, un gosse que j'vois pas grandir Alors tu peux m'juger et m'trouver fragile Mais j'ai des priorités mec, j'suis un chef de famille ! Et surtout j'ai c'vin à boire ! GTA V à finir ! Une bouteille de poire, le nouveau Resident Evil ! Et tu peux encore me dire que j'pense qu'à ma gueule Mais l'Étoile Noire en Lego, elle va s'construire toute seule ? J'dois bien mater mes pornos J'dois bien choisir mes casquettes J'dois bien passer mes 5 heures quotidiennes sur internet J'dois bien mater mes séries J'peux pas lâcher la manette J'dois bien passer mes 5 heures quotidiennes sur internet J'ai l'impression d'plus voir mes potes, de plus avoir de vie De tout donner pour mon poste, de délaisser mes amis Parfois j'suis malheureux et quand j'leur demande leur avis Ils me disent Baste, on aimerait t'avoir un peu pour nous aussi On s'rappelle les bons moments quand on était plus jeunes Qu'on était encore insouciant, que tout était plus fun J'me sens d'plus en plus seul, ouais ils m'manquent mes reufs Et l'époque où on arrêtait jamais d'faire la teuf Mais j'ai tout c'taf à faire Tous ces délais à tenir Réussir une carrière Tout ça sans voir mon gosse grandir J'ai une femme à satisfaire Et toutes ces bouches à nourrir J'ai l'sens des priorités mec J'suis un chef de famille ! Et surtout j'ai c'vin à boire ! GTA V à finir ! Une bouteille de poire, le nouveau Resident Evil ! Et tu peux encore me dire que j'pense qu'à ma gueule Mais l'Étoile Noire en Lego, elle va s'construire toute seule ? J'dois bien mater mes pornos J'dois bien choisir mes casquettes J'dois bien passer mes 5 heures quotidiennes sur internet J'dois bien mater mes séries J'peux pas lâcher la manette J'dois bien passer mes 5 heures quotidiennes sur internet</t>
+          <t>Zenghi ! C'est pas toujours facile Dêtre un putain d'chef de famille non! C'est un putain d'job à plein temps Ça il faut l'vivre Tu t'poses des questions Et moi j'm'en pose souvent J'voulais faire un p'tit point avec toi Hey ! Je sais qu'ces derniers temps j'étais pas trop là Je sais que j'te délaisse un peu d'puis quelques mois Je sais que t'as b'soin d'moi et d'ma présence De m'faire confiance, tu sais qu'j'en ai bien conscience d'tout ça Je sais que j'manque à mon fils, qu'il aimerait tant qu'on joue au château, aux héros, aux Lego, aux Playmo J'ai l'impression d'tout rater, d'pas l'voir grandir Comment imaginer la vie sans vous dans mon avenir ? Mais j'ai tout c'vin à boire ! GTA V à finir ! Une bouteille de poire, le nouveau Resident Evil ! Alors tu peux bien m'dire que j'pense qu'à ma gueule Mais l'Étoile Noire en Lego, elle va s'construire toute seule ? J'dois bien mater mes pornos J'dois bien choisir mes casquettes J'dois bien passer mes 5 heures quotidiennes sur internet Et j'te promets d'm'occuper du gosse demain Mais pour l'instant il m'reste d'la tise et un boss de fin Je sais que vous comptez à fond sur moi pour le taf Que j'dois mériter la paie du job Que trop souvent j'travaille grave à l'arrache Que j'zappe les appels du staff, les mails du prod' Je sais qu'les places sont chères à la télé, dans la musique Qu'il faut s'battre pour réussir une carrière artistique Qu'il faut tout donner, toujours être disponible Qu'j'dois faire mes disques et prendre tous les risques possibles Mais j'ai une femme qui a besoin d'moi Et j'ai des bouches à nourrir Une compagne que j'déçois, un gosse que j'vois pas grandir Alors tu peux m'juger et m'trouver fragile Mais j'ai des priorités mec, j'suis un chef de famille ! Et surtout j'ai c'vin à boire ! GTA V à finir ! Une bouteille de poire, le nouveau Resident Evil ! Et tu peux encore me dire que j'pense qu'à ma gueule Mais l'Étoile Noire en Lego, elle va s'construire toute seule ? J'dois bien mater mes pornos J'dois bien choisir mes casquettes J'dois bien passer mes 5 heures quotidiennes sur internet J'dois bien mater mes séries J'peux pas lâcher la manette J'dois bien passer mes 5 heures quotidiennes sur internet J'ai l'impression d'plus voir mes potes, de plus avoir de vie De tout donner pour mon poste, de délaisser mes amis Parfois j'suis malheureux et quand j'leur demande leur avis Ils me disent Baste, on aimerait t'avoir un peu pour nous aussi On s'rappelle les bons moments quand on était plus jeunes Qu'on était encore insouciant, que tout était plus fun J'me sens d'plus en plus seul, ouais ils m'manquent mes reufs Et l'époque où on arrêtait jamais d'faire la teuf Mais j'ai tout c'taf à faire Tous ces délais à tenir Réussir une carrière Tout ça sans voir mon gosse grandir J'ai une femme à satisfaire Et toutes ces bouches à nourrir J'ai l'sens des priorités mec J'suis un chef de famille ! Et surtout j'ai c'vin à boire ! GTA V à finir ! Une bouteille de poire, le nouveau Resident Evil ! Et tu peux encore me dire que j'pense qu'à ma gueule Mais l'Étoile Noire en Lego, elle va s'construire toute seule ? J'dois bien mater mes pornos J'dois bien choisir mes casquettes J'dois bien passer mes 5 heures quotidiennes sur internet J'dois bien mater mes séries J'peux pas lâcher la manette J'dois bien passer mes 5 heures quotidiennes sur internet</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1539,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bonjour Delleck, je suis Dieu Quoi, t'es ça Dieu? Mais qu'est-ce tu fais avec ta guitare? Oh non, j'en étais sûr, pfff... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes T'as préféré laisser les lapins devenir carnivores Préféré en faire des chansons avec deux accords Du soir au matin, tes chers petits enfants s'piétinent Ton jardin s'est transformé en une jungle sanguine Inferne, doucement, la fin se dessine D'ailleurs Dieu, c'est même plus toi, mais un certain Zinédine Dépêche-toi en bas, faut du gros uvre, pas des rustines Bientôt tes montagnes ne seront plus qu'des collines Sans cur, tu nages en plein Flower Power Ton seul bonheur c'est d'faire des accords en do majeur Si t'as l'souffle divin, mets-toi au saxophone Mais range-moi cette guitare, tu seras jamais Lennon You might also like Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Lâche ta gratte, t'as du travail en retard Tarde pas trop, en bas on t'traite déjà d'salopard Tes succulentes mélopées douces comme un coussin mammaire Contrastent avec l'Enfer dans lequel nous, on macère Frénétique, pendant qu'tu cherches ton parfait refrain Les mauvaises herbes ont recouvert tous tes sacro-saints T'as pas l'impression d'avoir laissé quelqu'chose sur le feu Sept milliards de sapiens comptent moins qu'ta Gibson 62 Tu t'es affalé dans une pétillante légèreté Quitte à nous abandonner à notre humiliante liberté Remarque, T'as même pas su prendre soin des tiens Regarde ton fils, Il a des trous dans les mains... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Chez toi c'est psychédélique et celtico-lyrique Et dire qu'c'est l'autre que tu traites de diabolique Tu papillonnes d'étoile en refrain Fredonne en remuant l'bassin Perfectionne ton jeu aérien Postillonne en araméen Espèce de Mika, tu m'mérites pas, renvoie-moi sur Terre Que j'leur dise de rien attendre de toi ni d'tes émissaires Tes mélodies sucrées, amères, nous ramènent à l'ère glaciaire Mais, t'es vraiment Dieu ou un intérimaire ? Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Bon alors vous m'repeignez les nuages en rose, là Et puis t'es gentil, là, j'ai deux-trois autographes à signer puis ensuite j'ai une gonzesse qu'a envie d'chialer deux secondes, là</t>
+          <t>Bonjour Delleck, je suis Dieu Quoi, t'es ça Dieu? Mais qu'est-ce tu fais avec ta guitare? Oh non, j'en étais sûr, pfff... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes T'as préféré laisser les lapins devenir carnivores Préféré en faire des chansons avec deux accords Du soir au matin, tes chers petits enfants s'piétinent Ton jardin s'est transformé en une jungle sanguine Inferne, doucement, la fin se dessine D'ailleurs Dieu, c'est même plus toi, mais un certain Zinédine Dépêche-toi en bas, faut du gros uvre, pas des rustines Bientôt tes montagnes ne seront plus qu'des collines Sans cur, tu nages en plein Flower Power Ton seul bonheur c'est d'faire des accords en do majeur Si t'as l'souffle divin, mets-toi au saxophone Mais range-moi cette guitare, tu seras jamais Lennon Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Lâche ta gratte, t'as du travail en retard Tarde pas trop, en bas on t'traite déjà d'salopard Tes succulentes mélopées douces comme un coussin mammaire Contrastent avec l'Enfer dans lequel nous, on macère Frénétique, pendant qu'tu cherches ton parfait refrain Les mauvaises herbes ont recouvert tous tes sacro-saints T'as pas l'impression d'avoir laissé quelqu'chose sur le feu Sept milliards de sapiens comptent moins qu'ta Gibson 62 Tu t'es affalé dans une pétillante légèreté Quitte à nous abandonner à notre humiliante liberté Remarque, T'as même pas su prendre soin des tiens Regarde ton fils, Il a des trous dans les mains... Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Chez toi c'est psychédélique et celtico-lyrique Et dire qu'c'est l'autre que tu traites de diabolique Tu papillonnes d'étoile en refrain Fredonne en remuant l'bassin Perfectionne ton jeu aérien Postillonne en araméen Espèce de Mika, tu m'mérites pas, renvoie-moi sur Terre Que j'leur dise de rien attendre de toi ni d'tes émissaires Tes mélodies sucrées, amères, nous ramènent à l'ère glaciaire Mais, t'es vraiment Dieu ou un intérimaire ? Dieu est un chanteur de pop ! Qu'en a rien à foutre des hommes Je suis Dieu Dieu est un chanteur de pop Amateur de fausses notes Bon alors vous m'repeignez les nuages en rose, là Et puis t'es gentil, là, j'ai deux-trois autographes à signer puis ensuite j'ai une gonzesse qu'a envie d'chialer deux secondes, là</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1556,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Oh, Oh ! Dj Weedim Oh, Oh ! Oh, Oh, Oh ! Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Ouais j'aime boire des pi-, boire des pi-, boire des pots Passe-moi ce verre car bébé j'aime l'apéro Devant toi c'est l'gendre San-Nom et Gérard Baste Demande à la barmaid une pinte de Brooklyn froide Bouteille couleur pisse que j'adore Bol de cacahuètes, bretzels ou pop-corn J'commande une planche de charcut' Ou éventuellement du frometon pour mes vegos ou mes muslims Tise non stop, partage la note J'relance de 20 balles, j'rempli la cagnotte J'suis ce gros MC qui s'fracasse la tête Tu sais le cereal killer, pro d'la fête La prod c'est Weedim, l'flow c'est Bim Ouais ça fait un bail qu'j'suis addicted Et je sais d'quoi j'parle ! You might also like Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Je bois pour oublier qu'j'ai oublier d'avoir bu Je suis un fourmilier et la bière est ma pâture Ni Dieu ni maître sauf Maître Kanter Pas b'soin qu'on m'dise Hydrate-toi! J'mange que des merdes qui donnent le cancer, j'bois qu'des trucs qui filent la chiasse J'veux être dans l'Guinness Book pour l'record de Guinness bu Et puis j'irais vider l'tout sur ta face de vilaine pute Je bois des coups sur l'banc d'touche même pas b'soin de viser l'but Si Amsterdamer dans la bouche c'est qu'normalement j'vais t'pisser d'ssus On est pas d'ceux qui boivent du Sprite en train d'écouter Moby Tout l'temps une canette dans la pogne, j'ai les mains d'un Playmobil Les amuses-gueule dans la mienne, j'donne rien pour les rapaces Au début DJ Weedim, San-Nom et Gérard Baste Oh plus jamais à zéro oh non! Bien sûr qu'on va taper l'Rhum oh oui! Oh bébé j'aime l'apéro oh oui! Jamais je bois d'Apérol jamais! Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro</t>
+          <t>Oh, Oh ! Dj Weedim Oh, Oh ! Oh, Oh, Oh ! Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Ouais j'aime boire des pi-, boire des pi-, boire des pots Passe-moi ce verre car bébé j'aime l'apéro Devant toi c'est l'gendre San-Nom et Gérard Baste Demande à la barmaid une pinte de Brooklyn froide Bouteille couleur pisse que j'adore Bol de cacahuètes, bretzels ou pop-corn J'commande une planche de charcut' Ou éventuellement du frometon pour mes vegos ou mes muslims Tise non stop, partage la note J'relance de 20 balles, j'rempli la cagnotte J'suis ce gros MC qui s'fracasse la tête Tu sais le cereal killer, pro d'la fête La prod c'est Weedim, l'flow c'est Bim Ouais ça fait un bail qu'j'suis addicted Et je sais d'quoi j'parle ! Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Je bois pour oublier qu'j'ai oublier d'avoir bu Je suis un fourmilier et la bière est ma pâture Ni Dieu ni maître sauf Maître Kanter Pas b'soin qu'on m'dise Hydrate-toi! J'mange que des merdes qui donnent le cancer, j'bois qu'des trucs qui filent la chiasse J'veux être dans l'Guinness Book pour l'record de Guinness bu Et puis j'irais vider l'tout sur ta face de vilaine pute Je bois des coups sur l'banc d'touche même pas b'soin de viser l'but Si Amsterdamer dans la bouche c'est qu'normalement j'vais t'pisser d'ssus On est pas d'ceux qui boivent du Sprite en train d'écouter Moby Tout l'temps une canette dans la pogne, j'ai les mains d'un Playmobil Les amuses-gueule dans la mienne, j'donne rien pour les rapaces Au début DJ Weedim, San-Nom et Gérard Baste Oh plus jamais à zéro oh non! Bien sûr qu'on va taper l'Rhum oh oui! Oh bébé j'aime l'apéro oh oui! Jamais je bois d'Apérol jamais! Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro Oh bébé j'aime l'apéro</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1573,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C'est si bon dêtre là. J'suis aussi vrai que la première fois Tu sais qui c'est, Prince Gérard Baste mec ! Hey, j'suis de retour, j'vais te dire une chose C'est que ça me fais super plaisir, ouais On est venu remettre le couvert Tu sais comment ça se passe, c'est maintenant ! On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne A chaque pas que j'fais y'a un roulement de tambour 365 et tu tombes pile pas l'bon jour shh une minute de silence pour la compèt Déroulez moi le tapis rouge et faites sonner les trompettes J'fous ma couronne et mon string panthère J'débarque avec mon sceptre et la force d'un tremblement de terre J'me désaltère, j'baisse ton froc et j'claque tes fesses Et même les Hells Angels se pressent pour saluer l'altesse Le prince du Dirty Centre, Dirty Mind comme Prince Le seul artiste que j'respecte c'est Chuck Norris Et j'me relève à chaque fois que j'me vautre Chez moi chaque testicule est plus grosse que l'autre En matière de punchline, j'suis trop élitiste J'viens frapper à ta porte pour faire du proséthylisme J'suis le capitaine de soirée qu'est toujours bourré J'rentre en zigzaguant et en jet privé, appelle moi Prince G Dans un carrosse tiré par des cygnes J'apparais à la fenêtre, un gros doigt en guise de p'tit signe Tu connais le prince du lèche-cyprine Le pape du priapisme avec Princesse Fancie dans la piscine Ça fait 20 ans qu'j'ai 20 ans d'avance J'suis juste le prince le plus cool de l'histoire de France Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne J'ai un physique d'Apollon dans mon slip Athena Et comme Zeus, je viens lâcher une bonne dose de foudre J'suis le roi du ballon, du ballon d'blanc ou d'rouge Et pis j'trouve que quand je l'ouvre j'fais parler la poudre Fous moi sur le calendrier des Dieux du Stade J'roule pour mon slip squad, j'suis le prince des aristocrade J'emmerde l'autorité, mais sur l'son j'suis tyrannique Tu veux rapper dans mon mic', fais-toi le vaccin antirabique Tu sais qu'j'ai le truc, que j'casse ta nuque Si tu n'apprécie pas c'que j'fais, bah casse toi pute J'suis pas sur le devant de la scène pour jouer les pucelles J'tue sec, j'explose la foule, mitraillette en or comme Saddam Hussein Tu sais que j'suis frais comme Prince Tu m'dois le respect, appelle moi Monseigneur comme pince J'suis en mode basse 10, tu vas péter une durit J'fonce en limousine, au volant c'est le chauffeur du Ritz On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigneYou might also like</t>
+          <t>C'est si bon dêtre là. J'suis aussi vrai que la première fois Tu sais qui c'est, Prince Gérard Baste mec ! Hey, j'suis de retour, j'vais te dire une chose C'est que ça me fais super plaisir, ouais On est venu remettre le couvert Tu sais comment ça se passe, c'est maintenant ! On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne A chaque pas que j'fais y'a un roulement de tambour 365 et tu tombes pile pas l'bon jour shh une minute de silence pour la compèt Déroulez moi le tapis rouge et faites sonner les trompettes J'fous ma couronne et mon string panthère J'débarque avec mon sceptre et la force d'un tremblement de terre J'me désaltère, j'baisse ton froc et j'claque tes fesses Et même les Hells Angels se pressent pour saluer l'altesse Le prince du Dirty Centre, Dirty Mind comme Prince Le seul artiste que j'respecte c'est Chuck Norris Et j'me relève à chaque fois que j'me vautre Chez moi chaque testicule est plus grosse que l'autre En matière de punchline, j'suis trop élitiste J'viens frapper à ta porte pour faire du proséthylisme J'suis le capitaine de soirée qu'est toujours bourré J'rentre en zigzaguant et en jet privé, appelle moi Prince G Dans un carrosse tiré par des cygnes J'apparais à la fenêtre, un gros doigt en guise de p'tit signe Tu connais le prince du lèche-cyprine Le pape du priapisme avec Princesse Fancie dans la piscine Ça fait 20 ans qu'j'ai 20 ans d'avance J'suis juste le prince le plus cool de l'histoire de France Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne J'ai un physique d'Apollon dans mon slip Athena Et comme Zeus, je viens lâcher une bonne dose de foudre J'suis le roi du ballon, du ballon d'blanc ou d'rouge Et pis j'trouve que quand je l'ouvre j'fais parler la poudre Fous moi sur le calendrier des Dieux du Stade J'roule pour mon slip squad, j'suis le prince des aristocrade J'emmerde l'autorité, mais sur l'son j'suis tyrannique Tu veux rapper dans mon mic', fais-toi le vaccin antirabique Tu sais qu'j'ai le truc, que j'casse ta nuque Si tu n'apprécie pas c'que j'fais, bah casse toi pute J'suis pas sur le devant de la scène pour jouer les pucelles J'tue sec, j'explose la foule, mitraillette en or comme Saddam Hussein Tu sais que j'suis frais comme Prince Tu m'dois le respect, appelle moi Monseigneur comme pince J'suis en mode basse 10, tu vas péter une durit J'fonce en limousine, au volant c'est le chauffeur du Ritz On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1590,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>- And now, I want your attention ladies and gentleman Let's go ! Vas-y mec pousse les watts, on va faire danser la hype, fumer la zeb À un gros connard d'extrême droite Gros texte grotesque, j'viens défendre mon steak Tape du pied boum boum comme d'la grosse tek' C'est du Svink on veux d'la hard tise Débarque en short kaki, monte sur scène prend l'maquis Agrippe le mike Au rap français j'fous la grippe C'est plus zarbi qu'un bar bi, c'rap et c't'R'nB Marient Big Jim et Barbie Ça sonne nunuche et en plus ça s'paluche T'façon dans c'pays j'vois pas d'bons rappeurs d'puis Coluche Qu'ils m'embarquent au comico, j'y rapperai tous mes brûlots Putain d'ordre moral, z'ont crus qu'on chantait dans une chorale On va pas finir dans c'bar cosy, mais plutôt sous c'réverbère Enfreindre les lois Sarkozy Ajoutes-y du narcotique et du Cutty Sark aussi Et maintenant dizy qu'il est fini Et maintenant dizy qu'il est fini ! Et maintenant dizy qu'il est fini ! Et maintenant dizy qu'il est fini ! Dizy qu'il est fini ! T'as pas compris ? Bah dizy qu'il est fini ! You might also like On met l'feu, toi t'appelles les pompiers Puros, Q-huit, Svinkels, MB Non mais c'est qui lui ? C'est l'cow-boy en slip kangourou Qui trouve qu'la journée est pourrie si j'fais pas oungourougourou On traîne, en camion poubelle on sort d'la benne, sois pas haineux Ma zique c'est l'aiguille dans ta veine hip hop couillu Les boules comme des balles de tennis Augmente le volume comme si tu t'servais d'une pompe à pénis On casse ta baraque, nique la Starac' C'est facile, DJ Pone, deux platines et un microphone sans fil J'veux voir l'microphone sans Phil Barney S'enfiler l'bar, niquer l'zinc c'est mon life style désolé pour les L5 Qu'est ce tu fais ? on s'la met et ensuite on va slammer Faire du noise, mourir en pleine gloire comme les Bratisla Boys T'as pas compris ? Tu vois pas qu'ton groupe est rassis Que l'public s'est rassis, ben dizy qu'il est fini Dizy qu'il est fini ! Dizy qu'il est fini ! Dizy qu'il est fini ! T'as pas compris ? Bah dizy qu'il est fini ! - And now, on the left corner we have the pig men, the Nikus Pokus ! On the right corner, my main man Gerard Baste ! Ben dizy qu'il est fini ! Dizy qu'il est fini ! Dizy qu'il est fini ! Dizy qu'il est fini ! Dizy qu'il est fini ! T'as pas compris ? Bah dizy qu'il est fini ! Nanana na nanana na nananana Dizy qu'il est fini ! Nanana na nanana nana nananana Dizy qu'il est fini ! Nanana na nanana nana nananana</t>
+          <t>- And now, I want your attention ladies and gentleman Let's go ! Vas-y mec pousse les watts, on va faire danser la hype, fumer la zeb À un gros connard d'extrême droite Gros texte grotesque, j'viens défendre mon steak Tape du pied boum boum comme d'la grosse tek' C'est du Svink on veux d'la hard tise Débarque en short kaki, monte sur scène prend l'maquis Agrippe le mike Au rap français j'fous la grippe C'est plus zarbi qu'un bar bi, c'rap et c't'R'nB Marient Big Jim et Barbie Ça sonne nunuche et en plus ça s'paluche T'façon dans c'pays j'vois pas d'bons rappeurs d'puis Coluche Qu'ils m'embarquent au comico, j'y rapperai tous mes brûlots Putain d'ordre moral, z'ont crus qu'on chantait dans une chorale On va pas finir dans c'bar cosy, mais plutôt sous c'réverbère Enfreindre les lois Sarkozy Ajoutes-y du narcotique et du Cutty Sark aussi Et maintenant dizy qu'il est fini Et maintenant dizy qu'il est fini ! Et maintenant dizy qu'il est fini ! Et maintenant dizy qu'il est fini ! Dizy qu'il est fini ! T'as pas compris ? Bah dizy qu'il est fini ! On met l'feu, toi t'appelles les pompiers Puros, Q-huit, Svinkels, MB Non mais c'est qui lui ? C'est l'cow-boy en slip kangourou Qui trouve qu'la journée est pourrie si j'fais pas oungourougourou On traîne, en camion poubelle on sort d'la benne, sois pas haineux Ma zique c'est l'aiguille dans ta veine hip hop couillu Les boules comme des balles de tennis Augmente le volume comme si tu t'servais d'une pompe à pénis On casse ta baraque, nique la Starac' C'est facile, DJ Pone, deux platines et un microphone sans fil J'veux voir l'microphone sans Phil Barney S'enfiler l'bar, niquer l'zinc c'est mon life style désolé pour les L5 Qu'est ce tu fais ? on s'la met et ensuite on va slammer Faire du noise, mourir en pleine gloire comme les Bratisla Boys T'as pas compris ? Tu vois pas qu'ton groupe est rassis Que l'public s'est rassis, ben dizy qu'il est fini Dizy qu'il est fini ! Dizy qu'il est fini ! Dizy qu'il est fini ! T'as pas compris ? Bah dizy qu'il est fini ! - And now, on the left corner we have the pig men, the Nikus Pokus ! On the right corner, my main man Gerard Baste ! Ben dizy qu'il est fini ! Dizy qu'il est fini ! Dizy qu'il est fini ! Dizy qu'il est fini ! Dizy qu'il est fini ! T'as pas compris ? Bah dizy qu'il est fini ! Nanana na nanana na nananana Dizy qu'il est fini ! Nanana na nanana nana nananana Dizy qu'il est fini ! Nanana na nanana nana nananana</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1607,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir You might also like J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
+          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1624,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Une boite de 20 ! Chicken, McNuggets, chaque semaine Et au moins j'n'ai pas besoin d'faire la vaisselle Arrivé à la maison, je continue en ??? Et une fois d'plus, c'est dans l'anus la prochaine fois que j' ??? Un mal de chien ! À descendre la fin de cette trentième bière Encore un centilitre et je suis forcé d'faire Un bon pâté vert dont je serai fier J'en tombe par terre la tête la première Regarde bien ! Comment toi aussi ça va t'arriver Au bout de 2 minutes tu s'ras obligé darrêter la musique À bout de nerfs, au bord du malaise, une bouffée d'air est vraiment nécessaire Un bon verre d'eau, quelque chose sur place Une heure de silence et la nausée passe Encore raté ! encore raté ! Putain c'est la loose mec Quand tout a foiré même le numéro d'l'Ouzbek Encore raté, sortez les mouchoirs Y'a des jours comme ça où tout commence bien et tout foire You might also likeCiao les potes ! Salut, bye, j'vais rejoindre ma meuf, j'taille J'la néglige en c'moment, faut qu'j'm'occupe de ses seufs J'traîne trop avec les Qhuit, j'ai besoin d'cul neuf J'en ai marre des hommes, d'la testostérone, des ??? puants, dur J'dois lui faire l'amour et qu'ça dure Elle dit Vas-y, attends, tant pis Encore raté ! Merde ! Alors j'lui dit qu'on va l'refaire Qu'ça va durer plus longtemps si j'vide quelques bières Mais elle me répond qu'c'est trop tard, que maint'nant ça pique à lintérieur Qu'ça brûle parce qu'elle est allergique à cette marque de préservatifs J'avais qu'à pas être si hâtif, nuit d'amour chiatique Encore raté ! Putain c'est la loose mec Quand tout a foiré même le numéro d'l'Ouzbek Encore raté, sortez les mouchoirs Y'a des jours comme ça où tout commence bien et tout foire</t>
+          <t>Une boite de 20 ! Chicken, McNuggets, chaque semaine Et au moins j'n'ai pas besoin d'faire la vaisselle Arrivé à la maison, je continue en ??? Et une fois d'plus, c'est dans l'anus la prochaine fois que j' ??? Un mal de chien ! À descendre la fin de cette trentième bière Encore un centilitre et je suis forcé d'faire Un bon pâté vert dont je serai fier J'en tombe par terre la tête la première Regarde bien ! Comment toi aussi ça va t'arriver Au bout de 2 minutes tu s'ras obligé darrêter la musique À bout de nerfs, au bord du malaise, une bouffée d'air est vraiment nécessaire Un bon verre d'eau, quelque chose sur place Une heure de silence et la nausée passe Encore raté ! encore raté ! Putain c'est la loose mec Quand tout a foiré même le numéro d'l'Ouzbek Encore raté, sortez les mouchoirs Y'a des jours comme ça où tout commence bien et tout foire Ciao les potes ! Salut, bye, j'vais rejoindre ma meuf, j'taille J'la néglige en c'moment, faut qu'j'm'occupe de ses seufs J'traîne trop avec les Qhuit, j'ai besoin d'cul neuf J'en ai marre des hommes, d'la testostérone, des ??? puants, dur J'dois lui faire l'amour et qu'ça dure Elle dit Vas-y, attends, tant pis Encore raté ! Merde ! Alors j'lui dit qu'on va l'refaire Qu'ça va durer plus longtemps si j'vide quelques bières Mais elle me répond qu'c'est trop tard, que maint'nant ça pique à lintérieur Qu'ça brûle parce qu'elle est allergique à cette marque de préservatifs J'avais qu'à pas être si hâtif, nuit d'amour chiatique Encore raté ! Putain c'est la loose mec Quand tout a foiré même le numéro d'l'Ouzbek Encore raté, sortez les mouchoirs Y'a des jours comme ça où tout commence bien et tout foire</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1641,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>C'est les Svink', Svink', Svink' Nouveau track, track, track Pour bouger sur ce hit sur ce hit, sur ce hit Voilà la con-duite adéquate On veut qu'tu check, check, check avec ton pote On veut qu'tu bouges, bouges, bouges, bouges, bouges ta tête Remue tes pieds, pieds, pieds, pieds de droite a gauche Échauffement, on y va x2 Ça fait gloup gloup gloup quand j'vide ma teille Flap flap flap quand j'lâche l'oseille Ça fait pum, pum, tchak dans la discothèque Ça fait shkling-shkling dans l'tiroir-caisse Ça fait ho ho, ça fait ho ho Ça fait klaxon de camion si t'a pas compris Maintenant faites du bruit, maintenant faites du bruit Ça fait ho ho, ça fait ho ho Ça fait sifflement, si t'a pas compris Maintenant faites du bruit Ça fait psssshhhhttttt les oignons Ça fait krrrrrrrrrr l'huile d'olive, l'ail et les champignons Si t'a pas compris c'qui s'passe C'est juste Baste qu'est en train d'faire la sauce des pâtes Ça fait poum poum poum poum les voisins qui frappent Parce que ça fait boum bap quand on écoute du rap Ça fait hoho hoho quand c'est trop l'del-bor Ça fait hé ho hé ho pas plus haut que l'bord! Là j'dis stop. Alerte a la bombe, c'est l'Svink' Ça fait slurrrp quand les rappeurs m'pompent bitch Poiiinp dans les stades de foot Ça fait fouip fouip ça c'est juste une tâche de hiiinn Ça fait miaou miaou, ça fait ouaf ouaf Ça fait eeeeuuuurrrhhhh quand j'ai soif, soif Ça fait hinihii entre la camionnette et l'marqueur Et quand j'rappe... tout l'monde ferme sa gueule You might also like x2 Ça fait gloup gloup gloup quand j'vide ma teille Flap flap flap quand j'lâche l'oseille Ça fait pum, pum, tchak dans la discothèque Ça fait shkling-shkling dans l'tiroir-caisse Ça fait ho ho, ça fait ho ho Ça fait klaxon de camion si t'a pas compris Maintenant faites du bruit, maintenant faites du bruit Ça fait ho ho, ça fait ho ho Ça fait sifflement, si t'a pas compris Maintenant faites du bruit Ça fait poum poum tchak quand j'allume le Mac Quand j'arrose la weed, ça fait tititichhhhh Ça fait tchin tchin trop d'toxines faut qu'j'élimine Ça fait hou hou ha quand j'te balance mon coup droit Hmmmm douleur courbatures, psshhhhttt aspirine entre deux bitures Ça t'rend hinhhhhin quand técoutes ma zique Qui m'rend hoo hooo complètement autiste Ça fait prout prout dans les soirées parisiennes Ça fait ouste! chérie cette table est la tienne Ça fait double click-click sur les Peer-to-Peer Vu qu'on pirate les Svink-Svink', les autres groupes j'les pille Ça fait génération oui oui oui oui Quand j'dis polytoxicomanie -oh non -si si! Ça fait gloup comme deux, trois gélules Ça fait fouitifoutifouit Pone et ses cellules Y'en a marre faut qu'tout l'monde le sache Ça fait un putain d'boucan quand on débarque Watch me quand j'traverse la salle Élégante voix d'fausset pareil Williams Jolie fille, je veux juste que tu sache Ça chine maman carré VIP qu'est-ce que j'peux m'faire chier Si mes enculés sont tous ici Faites du bruit, tirez au fusil Allez non j'déconne, remuez tous la tête Ça fait 2 - 3 - 4 quand tu want to step Want to step, efficace Pour s'bouger c'morceau Nikus, Xanax et Baste Clap quand on check les potes Ça fait criiik criiik quand j'travaille la dope x2 Ça fait gloup gloup gloup quand j'vide ma teille Flap flap flap quand j'lâche l'oseille Ça fait pum, pum, tchak dans la discothèque Ça fait shkling-shkling dans l'tiroir-caisse Ça fait ho ho, ça fait ho ho Ça fait klaxon de camion si t'a pas compris Maintenant faites du bruit, maintenant faites du bruit Ça fait ho ho, ça fait ho ho Ça fait sifflement, si t'a pas compris Maintenant faites du bruit Houuu! Faites du bruit faites du bruit, faites du bruit Ce soir faut qu'on s'lâche mamy Fais du bruit surtout quant on s'frotte mamy Allons faire la fête Pas là pour se battre les mecs Fais du bruit fais du bruit En tisant du champagne papy Si j'dois mourir, avant d'y aller J'aimerais bien vous entendre gueuler Si c'est maintenant l'heure du départ Je veux entendre le del-bor</t>
+          <t>C'est les Svink', Svink', Svink' Nouveau track, track, track Pour bouger sur ce hit sur ce hit, sur ce hit Voilà la con-duite adéquate On veut qu'tu check, check, check avec ton pote On veut qu'tu bouges, bouges, bouges, bouges, bouges ta tête Remue tes pieds, pieds, pieds, pieds de droite a gauche Échauffement, on y va x2 Ça fait gloup gloup gloup quand j'vide ma teille Flap flap flap quand j'lâche l'oseille Ça fait pum, pum, tchak dans la discothèque Ça fait shkling-shkling dans l'tiroir-caisse Ça fait ho ho, ça fait ho ho Ça fait klaxon de camion si t'a pas compris Maintenant faites du bruit, maintenant faites du bruit Ça fait ho ho, ça fait ho ho Ça fait sifflement, si t'a pas compris Maintenant faites du bruit Ça fait psssshhhhttttt les oignons Ça fait krrrrrrrrrr l'huile d'olive, l'ail et les champignons Si t'a pas compris c'qui s'passe C'est juste Baste qu'est en train d'faire la sauce des pâtes Ça fait poum poum poum poum les voisins qui frappent Parce que ça fait boum bap quand on écoute du rap Ça fait hoho hoho quand c'est trop l'del-bor Ça fait hé ho hé ho pas plus haut que l'bord! Là j'dis stop. Alerte a la bombe, c'est l'Svink' Ça fait slurrrp quand les rappeurs m'pompent bitch Poiiinp dans les stades de foot Ça fait fouip fouip ça c'est juste une tâche de hiiinn Ça fait miaou miaou, ça fait ouaf ouaf Ça fait eeeeuuuurrrhhhh quand j'ai soif, soif Ça fait hinihii entre la camionnette et l'marqueur Et quand j'rappe... tout l'monde ferme sa gueule x2 Ça fait gloup gloup gloup quand j'vide ma teille Flap flap flap quand j'lâche l'oseille Ça fait pum, pum, tchak dans la discothèque Ça fait shkling-shkling dans l'tiroir-caisse Ça fait ho ho, ça fait ho ho Ça fait klaxon de camion si t'a pas compris Maintenant faites du bruit, maintenant faites du bruit Ça fait ho ho, ça fait ho ho Ça fait sifflement, si t'a pas compris Maintenant faites du bruit Ça fait poum poum tchak quand j'allume le Mac Quand j'arrose la weed, ça fait tititichhhhh Ça fait tchin tchin trop d'toxines faut qu'j'élimine Ça fait hou hou ha quand j'te balance mon coup droit Hmmmm douleur courbatures, psshhhhttt aspirine entre deux bitures Ça t'rend hinhhhhin quand técoutes ma zique Qui m'rend hoo hooo complètement autiste Ça fait prout prout dans les soirées parisiennes Ça fait ouste! chérie cette table est la tienne Ça fait double click-click sur les Peer-to-Peer Vu qu'on pirate les Svink-Svink', les autres groupes j'les pille Ça fait génération oui oui oui oui Quand j'dis polytoxicomanie -oh non -si si! Ça fait gloup comme deux, trois gélules Ça fait fouitifoutifouit Pone et ses cellules Y'en a marre faut qu'tout l'monde le sache Ça fait un putain d'boucan quand on débarque Watch me quand j'traverse la salle Élégante voix d'fausset pareil Williams Jolie fille, je veux juste que tu sache Ça chine maman carré VIP qu'est-ce que j'peux m'faire chier Si mes enculés sont tous ici Faites du bruit, tirez au fusil Allez non j'déconne, remuez tous la tête Ça fait 2 - 3 - 4 quand tu want to step Want to step, efficace Pour s'bouger c'morceau Nikus, Xanax et Baste Clap quand on check les potes Ça fait criiik criiik quand j'travaille la dope x2 Ça fait gloup gloup gloup quand j'vide ma teille Flap flap flap quand j'lâche l'oseille Ça fait pum, pum, tchak dans la discothèque Ça fait shkling-shkling dans l'tiroir-caisse Ça fait ho ho, ça fait ho ho Ça fait klaxon de camion si t'a pas compris Maintenant faites du bruit, maintenant faites du bruit Ça fait ho ho, ça fait ho ho Ça fait sifflement, si t'a pas compris Maintenant faites du bruit Houuu! Faites du bruit faites du bruit, faites du bruit Ce soir faut qu'on s'lâche mamy Fais du bruit surtout quant on s'frotte mamy Allons faire la fête Pas là pour se battre les mecs Fais du bruit fais du bruit En tisant du champagne papy Si j'dois mourir, avant d'y aller J'aimerais bien vous entendre gueuler Si c'est maintenant l'heure du départ Je veux entendre le del-bor</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1658,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Vous allez m'suivre, les gars, d'ailleurs Quand j'dis Des qu'jrentre, cest le bordel, vous dites Le ROAR 2, cest le WordUP! Des qu'jrentre, cest le bordel le ROAR 2, cest le WordUP! Des qu'jrentre, cest le bordel le ROAR 2, cest le WordUP! Tas vu ca ? Ca ma fait comme une decharge À c'qu'il p', tas dit qu'tetais meme pret a battle un bout dbois pour etr dans ltournoi Pourquoi ? Sournois, faut qutu detailles Car, si cest moi lbout dbois, j'minsre en toi comme une echarde Jdeteste les mythomanes, jpensais pas qu'tallais venir, petasse Souvent, tu fuis lprogramme et puis, apres, tu spites des craques Ni honneur ni morale, surpris qu'taies pas desister lmatch Car tes comme un cryptogramme, tu disparais tres vite des cartes Lui, cest Mil, lui, cest Lo, lui, cest Le Creed Je vire Lo Creed, oblige de cibler le mille Le Mil est gros, jcompte pas mettre a cote, Bim Jdecoche des tas dcrochets, jvais mettre Mil K.O. comme un mega octet Tu vois le battle comme un mini tremplin Mais trop faineant, tes pas un militant, non, le Mil y tente rien Sur moi, il faut qutu mises, tres peu de choses font sortir Lo du lit Cest moi le sphinx, jvois monter le niveau du Mil J'gratte mes textes sur ma main, jmets dans mes lignes lavenir Et ma main est fourree dans une fille qua le fluide, donc mes syllabes brillent Jefface tes minables rimes Depuis qu'tes la, le nombre de bitchs est passe dmille a deux mille Cest qui la bitch ? Si tas pas pige, devine... Ca svoit quil est stupide Tes venu au ROAR juste pour voir Lamatrice reuni Pour la soiree, tes ma princesse, Aparzite est puni Pour la baiser, jai besoin drien, a part dMil et une nuit Au bout du compte, toi, cest plus Gerard Baste mais Shérazade Cette chienne avale si tas le RS Sport, tes levres portent un exces dgloss Je gere les roles, jte baise pendant que payent mes potes Mettre mille dans cette Shérazade, wooh, jtrouve ca cher lescorte Tu viens du Nord la nuit, il gele le jour, il pele Ca fait douze week-ends que, tes repas, cest chouxrizcreme Toutes les etoiles dans ses yeux ne sont qumes shurikens Elle, elle donne son corps avant son nom ça, c'est... ? Non, non, ca, cest Shérazade ou Rizlene Ils tont dit Ny va pas, tas pris ce risque Fallait qujarrive strict, je plante un cut dans les habits de Mil Jai tellement dcran que j'fais rougir les tapisseries Ca porte ses fruits, jlaisse les murs framboises, les tapis cerises Jai un chargeur que jte liquide dans lventre Ca fait Pim-pim, pan-pan, les flics vont venir, je sais quSiri mentend Cest malgre moi que jmarche sur Lo, jsuis le divin enfant Vu quil perd deja un-zero, le Mil finit en cent You might also like Ce soir, jsuis Jack lÉventreur, vous allez voir des gorges se déployer au bout de mes lignes Jsuis Highlander, il va tfalloir ma tête si tu veux rejoindre lélite Toi ? Tony Parker, faut qu'tarrêtes la musique si tu veux rester digne Moi ? Un danseur, jvais mélanger plume, figure et style comme dans L'Lac des cygnes Jsuis fier de faire partie d'ça, le battle rap prend un virage Ça mavait manqué ce bruit, ces odeurs... Jacques Chirac Jme sens d'retour à la maison comme Ulysse en Ithaque Jsuis venu à ROAR foutre le bordel tel G.I. en Irak Du sang et des ecchymoses maffronter, cest signer pour les deux mais jsuis pas un bâtard Jvais t'laisser l'choix entre rouge et bleu comme Néo ou bien Eden Hazard Maffronter ? C'était p't-être pas l'bon choix Y a trois semaines, jai battu les gars qu'ont battu les gars qui écrivent pour toi Mais, Tetris, cest pas naze, cest pas l'bonheur non plus, tu restes un MC sans histoire J'vais faire honneur à son blase en visant c'vide avec mes barres Contre lui ? Jvais honorer la sélection Pour faire face à ses rounds, jcrois en mes barres Et j'compte bien gagner c'morpion Car, côté bars, je pèse, jsuis Amazon, toi juste un client un peu con Tu vas m'demander les références pour être bien sûr de recevoir la livraison Parce quen vrai, tes mauvais, à part sur le double mais, à côté d'Lamanif, cest presque d'la triche Jsuis sûr que, si on m'met avec Maadou, jai presque lair street Non, j'plaisante, toi, ten as, des bars Des bars, des bars celles de Lamanif Tous Salopards hyper soudés, vous allez p't-être me battre à sept Tas plus de plumes à ton arc quun guerrier aztèque Tous Salopards des bolides, mais y a un souci, jcrois De ton groupe, Tetris, tes la Fiat Multipla Ta musique ? Cest Saminem qui zouke, pompeuse comme un tapis rouge Tu battrais pas mon ami roux, tes l'pire de ton équipe, tes Olivier Giroud Et, pour ce genre de wack, droit d'véto Dans Star Wars, tu ferais C-3PO Alors arrête de jouer les gringos barges Vu qu'de ton crew, tes l'Ringo Starr Malgré ça, je sais qu'tes goons tencouragent Même si tes à peine leur Doums de LEntourage Tes même pas l'pesto dune pasta party Tes même pas l'Nesto d'Saint Saoul et Marti Et, putain, pourtant, jétais chaud, la hype pour le ROAR était d'mise Jusquà c'quon m'force à battle le Chinois des Black Eyed Peas Dans lmythe de Sisyphe, jporte des rochers, cest ma routine, la Jdonne des low-kicks, meme ta coquille prend des coups dtibias On sait qu'le Creed perd dans le deux le ROAR, cest Rocky, pas Rox et Rouky Jvais pas le pousser vers le haut, cest pas un rock, ce rookie Jvais pas mmefier d'Lo qui dort Jai la force de Loki, Thor, Hulk et Tony Stark, tu negocies lscore Tas vraiment un flow minable Resultat tu tfais bodybag par un plus ptit qutoi qu'a zero victoire Jsuis plusieurs personnes, jsuis des Syzif Jsuis Shawn Corey Carter jeune, jsuis Jay Z vif Jattaque lethique de ce chaton, jsuis lpesticide Au RC, jsuis pas le patron mais jsuis lbest ici Retour du baton, jsuis ce bout dbois qui te perce liris Tas parle dla canne dun aveugle, maintenant, cest elle qui tguide Jte baise easy, par-ci, par la, jai une paire dzizis Hyper efficace dans la surface, jsuis plein dperfidie Tas ni technique, ni texte, jsors le sept milli' Puis, si jrate le mille, au pire, le tir dapres, jme rectifie Jte laisse dans lcoin, plein dbleus, tete livide Jsuis lChelsea dDidier et dPetr ech au corner, tu te petrifies Mille, cest un K, et vu quil perd K.O. Tu tappelles... hmm, beh, tu tappelles meme pas Si jle bute la, y aura plus dscenario Donc jgarde mon neuf ainsi qumon quarante-cinq dans ldos comme Super Mario Le chat noir pleure ca, cest le Mil apres le Vu de Dony Ou alors Bernard Lama apres le but de Boli Les suceurs nont pas beaucoup dniveau À Paris, tas taille Mitroglou à Lyon, tas cite Juninho Et, ça, cest typique pour Milo et ça definit lbourricot Jai tellement la dalle, je pete larmoire, jvais finir tout lfrigo Dans cmilieu, jramene des couteaux dEspagne, mate mes six mille cuchillos Jpasse des raids aux bars ca, cest Phillipe Coutinho Faudrait que je pardonne lennemi ca, cest Meek Mill Mon neuf te cause mille ennuis ca, cest Milik Vu qu'jpeux pas tailler sur des morceaux dtoi, faut qu'jtaille des morceaux dtoi Faut qu'la mort cotoie des beaufs comme toi Jecoute pas cqu'les medisants pensent On fera pas dfeat' ensemble quand jecoute ton rap, frerot, jallume des tiges dencens Vu la taille dson tour de cuisse, il mfaut des immenses scies Mais pas besoin de decouper le Mil en cent pour le diss Tas choisi Tetris, cest ironique, tu veux savoir pourquoi j'me marre ? Tas choisi l'seul jeu où on passe son temps à attendre une bonne barre Premier ROAR une grosse claque, il fallait qujme bouge Un festival de barres dans la lumière comme au quartier rouge Tatteindras jamais les sommets avec ce style lancinant Pour espérer un jour l'niveau d'la Super League, tas besoin d'Milan Car, Tetris, tu présentes bien mais y a un hic, ce soir, bas les masques Ta carrière de battle MC est à limage de tes clips, tas foiré la D.A Femmes dénudées, tout plein d'consos, de tous tes clips, cest l'scénario On t'reconnaît grâce à c'que tas sous l'nez, comme Mario Tes à mi-chemin entre l'toxo et l'fan de tuning Pour voyager aux States, tas besoin dapprendre quune phrase need for speed Ta place est pas au stud mais au bar à tapas, vieux À t'cacher derrière les meilleurs, tu risques pas la carapace bleue Tu sens l'danger ? Jvais t'laisser des douleurs chroniques Jsuis en 5G, tes en EDGE, dog, donc, même si tétayes, cest forcément moi Sonic Hedgehog, Tails, Sonic fallait capter la mignardise Y a toujours une image derrière mes vers, comme le vitrail dune église Et, toi et Marseille, jvous emmerde À jamais les premiers, cest d'lesbrouffe Jfais un gros F à c'bleu et blanc et j'réinvente le logo Facebook Très exigeant comme Bielsa Round tranchant comme Kienzan Tas d'la chance quils aient fait du bruit contre Ladéa, tes gars Moi, jai besoin d'personne pour faire briller c'que jai au bout des doigts Kaméhaméha Et vous allez dire qujsuis un grand râleur, mais jvoulais un adversaire prêt pour un carnage Toi, tauras beau m'souhaiter plein d'malheurs, personne flippe dans les parages Tas fait ton temps d'clasheur, mais on veut des MC prêts à causer d'grands dommages Tas déjà été vaincu par Pasteur, normal que tu puisses plus avoir la rage Et, tu sais, javais plein d'bars de littérature métaphores, litotes, métonymies denfer Mais jcrois qu'j'vais les garder pour un prochain gus, jaime bien qu'mon adversaire comprenne pourquoi il perd Jai lcoffre plein de si, dis-moi si tu veux quj'tombe dune gamme Jramene plus de si quune poucave du Honduras On apprecierait tes rimes si taurais eu ldon du rap Meme mon exces dsi confirme la regle, je conjugue mal Jramene des scies larges Je coupe ton blaze, jen fais des syllabes, je coupe tes plans, jen fais des images Jramene celles quont les cils longs, bat les c' ce quils disent de moi Jramene plus de scies que Face, jramene plus de style que toi Hé, l'chat noir, tas pris du poil de la bete T'sais cqu'il faudrait qu'tu manges pour qutu perdes du poids ? De la blette Sors de ma route, jmarreterai pas, grand con T'sais, quand les roues dSubaru et le chat srencontrent, pff, cest rarement lchat lchampion Jai dla famille a Bastia, Alicante, Constantine Jviens dMarseille, lair que jexpire de mes poumons sent lshit Pendant quon deguste cinq cents cinquante daurades et autant dtruites Vous allez voir Mil sans poisson car, de lui, onze cent fish Jai lADN du ROAR, tas une echarpe RC Vu qutu joues seul a chat perche, degun va tchercher La mort va tbercer Jpourrais ltuer mais jvais pas mfaire chier donc jlui offre un neuf plus rare quun Faberge Certains tappellent Milou ? Mais jsais qu'tas un nom d'chien pour chaque RG Et tes basket bars te feront pas percer On taccueille comme cougar, jte mets pas figurant Ici, tu meurs, la, cest lTetris mutant, j'mempare de ton pouvoir Si tu veux maigrir du ventre, y a l'regime Dukan Jteclipse, tu pleures comme Kevin durant son battle contre Louvar Où est la ceinture ? Jsuis Teddy Riner Jenvoie ce chat noir dans sa propre gorge, il setrangle lui-meme comme Reggie Miller A ce jeu, je suis Trae Young, je suis tres bon Jsuis tout le temps dans lexces, je suis tres fort de Trae Young, je suis lprenom On sfout qutu claques, R.I.P. Mac Miller Sur mes hits, tarrêtes pas drâler, mais teste pas mes heats, jsuis Pat Railey Dans celui de Michael Man, jsuis Val Kilmer Dans ton reve, jte fais lamour dans lmien, y a toi et Manuel Vals qui meurent Dans deux kilos, tu vas devenir gras Tas pas fait semblant dprendre du jus, pas comme dans lexperience de Milgram Tu prends lmeilleur chez tes idoles, tu pompes mon flow, jme fâche Tas pompe l'taf de Parano, la parano d'2Taf Deux taffes, deux taffes... tiens, jvais mfaire un ptit Phillies Blunt Jsuis celui que les bitchies veulent, jsupprime tes trois rounds, le Mil finit seul Tes celui qua la morvelle, tes celui que la mort veut Aucun dmes neuf sont hors-jeu, jte graille en dernier hors duvre Des qu'jrentre, cest le bordel le ROAR 2, cest le WordUP! Des qu'jrentre, cest le bordel le ROAR 2, cest le WordUP! Si j'fais des gun bars, vous allez trouver ça peu crédible et peu réussi Pourtant, jsuis un putain d'geek, jai pressé sur plus de gâchettes que vous tous réunis Donc même si, dans tes sons, tu prétends vendre des talons d'beuh Quest-ce que tu vas faire face au Wojtek dAmong Us ? Car, sur internet, mec, jsuis un putain d'G Et tu sais quoi ? Jai même des guns si jai envie Jai un flingue que jadore, mon préféré parmi tous Jle fais hurler à ton oreille, j'lappelle Chicano Bulls Puis jai un pompe énorme, quand j'le sors, cest jour de fête Jte shoot et, pluie d'métal, on s'croirait au Hellfest Jai aussi un PP7 noir qui fait boom Il senraye deux fois sur trois, j'lappelle Youm Et noublions pas Afflelou, sniper spécial gwer, cest du précis, du net Et ça na rien à voir avec le fait qu'tessaies dvendre tes vers si j'dis qu'tes dans la lunette Jai aussi un canon scié qu'jai appelé Nadal quand j'lai dans les mains, j'tire à vue Et, vu quil sert toujours deux balles, pas dautre choix qu'tu finisses à terre, battu Je sais, apparemment, Parano en a fait une qui ressemble, au LC, bon, cest Marcö qui m'la dit Cest pas grave, ce sera la deuxième fois dans l'mois qu'j'prouve que j'suis meilleur que lui Et, toi, ça m'saoule quand tu louvres, j'te shoot dans la bouche, cest l'scénar J'te laisse un trou entre les dents, maintenant tas une bonne raison d'te prendre pour SCH Mais jen ai rien à foutre de c'simili thug J'te shoot avec plein d'longues lignes comme si javais sorti l'minigun Balle dans l'front, j'te laisse un tika Balle dans l'dos, chistera Quand j'sors les guns, la rafale, cest l'tarif, gros Jme balade comme mon équipe contre la tienne au classico Jenchaîne lignes sur lignes sur lignes sur lignes Pacino Ça vient d'gauche, droite, gauche, droite, gauche, droite akimbo Jaime ça quand, mon adversaire, il gueule Alors j'te balance une balle comme si tétais mon beagle Puis j'te rebalance neuf balles car, là, j'veux jouer avec mon Deagle Et j'suis très joueur donc, sur ta gueule, j'revide un chargeur Bon, j'récupère celle de mon chien mais tu fais toujours l'malin Donc jai perdu dix-sept balles comme si javais acheté l'pack du dernier TakeOver Je sais, tu vas dire que j'crache dans la soupe Mais, la réalité, cest qu'j'vous emmerde tous Fuck le RC qui respecte pas ses artistes Fuck le ROAR parfois limite intégriste Fini d'la fermer, maintenant Milo aboie Vous voulez tous la guerre ? Bah ça m'va Jen ai fini davoir peur des risques, vous pourrez constater lévolution Jsuis venu à ROAR pour brûler fleurs et Lys c'battle est ma Révolution</t>
+          <t>Vous allez m'suivre, les gars, d'ailleurs Quand j'dis Des qu'jrentre, cest le bordel, vous dites Le ROAR 2, cest le WordUP! Des qu'jrentre, cest le bordel le ROAR 2, cest le WordUP! Des qu'jrentre, cest le bordel le ROAR 2, cest le WordUP! Tas vu ca ? Ca ma fait comme une decharge À c'qu'il p', tas dit qu'tetais meme pret a battle un bout dbois pour etr dans ltournoi Pourquoi ? Sournois, faut qutu detailles Car, si cest moi lbout dbois, j'minsre en toi comme une echarde Jdeteste les mythomanes, jpensais pas qu'tallais venir, petasse Souvent, tu fuis lprogramme et puis, apres, tu spites des craques Ni honneur ni morale, surpris qu'taies pas desister lmatch Car tes comme un cryptogramme, tu disparais tres vite des cartes Lui, cest Mil, lui, cest Lo, lui, cest Le Creed Je vire Lo Creed, oblige de cibler le mille Le Mil est gros, jcompte pas mettre a cote, Bim Jdecoche des tas dcrochets, jvais mettre Mil K.O. comme un mega octet Tu vois le battle comme un mini tremplin Mais trop faineant, tes pas un militant, non, le Mil y tente rien Sur moi, il faut qutu mises, tres peu de choses font sortir Lo du lit Cest moi le sphinx, jvois monter le niveau du Mil J'gratte mes textes sur ma main, jmets dans mes lignes lavenir Et ma main est fourree dans une fille qua le fluide, donc mes syllabes brillent Jefface tes minables rimes Depuis qu'tes la, le nombre de bitchs est passe dmille a deux mille Cest qui la bitch ? Si tas pas pige, devine... Ca svoit quil est stupide Tes venu au ROAR juste pour voir Lamatrice reuni Pour la soiree, tes ma princesse, Aparzite est puni Pour la baiser, jai besoin drien, a part dMil et une nuit Au bout du compte, toi, cest plus Gerard Baste mais Shérazade Cette chienne avale si tas le RS Sport, tes levres portent un exces dgloss Je gere les roles, jte baise pendant que payent mes potes Mettre mille dans cette Shérazade, wooh, jtrouve ca cher lescorte Tu viens du Nord la nuit, il gele le jour, il pele Ca fait douze week-ends que, tes repas, cest chouxrizcreme Toutes les etoiles dans ses yeux ne sont qumes shurikens Elle, elle donne son corps avant son nom ça, c'est... ? Non, non, ca, cest Shérazade ou Rizlene Ils tont dit Ny va pas, tas pris ce risque Fallait qujarrive strict, je plante un cut dans les habits de Mil Jai tellement dcran que j'fais rougir les tapisseries Ca porte ses fruits, jlaisse les murs framboises, les tapis cerises Jai un chargeur que jte liquide dans lventre Ca fait Pim-pim, pan-pan, les flics vont venir, je sais quSiri mentend Cest malgre moi que jmarche sur Lo, jsuis le divin enfant Vu quil perd deja un-zero, le Mil finit en cent Ce soir, jsuis Jack lÉventreur, vous allez voir des gorges se déployer au bout de mes lignes Jsuis Highlander, il va tfalloir ma tête si tu veux rejoindre lélite Toi ? Tony Parker, faut qu'tarrêtes la musique si tu veux rester digne Moi ? Un danseur, jvais mélanger plume, figure et style comme dans L'Lac des cygnes Jsuis fier de faire partie d'ça, le battle rap prend un virage Ça mavait manqué ce bruit, ces odeurs... Jacques Chirac Jme sens d'retour à la maison comme Ulysse en Ithaque Jsuis venu à ROAR foutre le bordel tel G.I. en Irak Du sang et des ecchymoses maffronter, cest signer pour les deux mais jsuis pas un bâtard Jvais t'laisser l'choix entre rouge et bleu comme Néo ou bien Eden Hazard Maffronter ? C'était p't-être pas l'bon choix Y a trois semaines, jai battu les gars qu'ont battu les gars qui écrivent pour toi Mais, Tetris, cest pas naze, cest pas l'bonheur non plus, tu restes un MC sans histoire J'vais faire honneur à son blase en visant c'vide avec mes barres Contre lui ? Jvais honorer la sélection Pour faire face à ses rounds, jcrois en mes barres Et j'compte bien gagner c'morpion Car, côté bars, je pèse, jsuis Amazon, toi juste un client un peu con Tu vas m'demander les références pour être bien sûr de recevoir la livraison Parce quen vrai, tes mauvais, à part sur le double mais, à côté d'Lamanif, cest presque d'la triche Jsuis sûr que, si on m'met avec Maadou, jai presque lair street Non, j'plaisante, toi, ten as, des bars Des bars, des bars celles de Lamanif Tous Salopards hyper soudés, vous allez p't-être me battre à sept Tas plus de plumes à ton arc quun guerrier aztèque Tous Salopards des bolides, mais y a un souci, jcrois De ton groupe, Tetris, tes la Fiat Multipla Ta musique ? Cest Saminem qui zouke, pompeuse comme un tapis rouge Tu battrais pas mon ami roux, tes l'pire de ton équipe, tes Olivier Giroud Et, pour ce genre de wack, droit d'véto Dans Star Wars, tu ferais C-3PO Alors arrête de jouer les gringos barges Vu qu'de ton crew, tes l'Ringo Starr Malgré ça, je sais qu'tes goons tencouragent Même si tes à peine leur Doums de LEntourage Tes même pas l'pesto dune pasta party Tes même pas l'Nesto d'Saint Saoul et Marti Et, putain, pourtant, jétais chaud, la hype pour le ROAR était d'mise Jusquà c'quon m'force à battle le Chinois des Black Eyed Peas Dans lmythe de Sisyphe, jporte des rochers, cest ma routine, la Jdonne des low-kicks, meme ta coquille prend des coups dtibias On sait qu'le Creed perd dans le deux le ROAR, cest Rocky, pas Rox et Rouky Jvais pas le pousser vers le haut, cest pas un rock, ce rookie Jvais pas mmefier d'Lo qui dort Jai la force de Loki, Thor, Hulk et Tony Stark, tu negocies lscore Tas vraiment un flow minable Resultat tu tfais bodybag par un plus ptit qutoi qu'a zero victoire Jsuis plusieurs personnes, jsuis des Syzif Jsuis Shawn Corey Carter jeune, jsuis Jay Z vif Jattaque lethique de ce chaton, jsuis lpesticide Au RC, jsuis pas le patron mais jsuis lbest ici Retour du baton, jsuis ce bout dbois qui te perce liris Tas parle dla canne dun aveugle, maintenant, cest elle qui tguide Jte baise easy, par-ci, par la, jai une paire dzizis Hyper efficace dans la surface, jsuis plein dperfidie Tas ni technique, ni texte, jsors le sept milli' Puis, si jrate le mille, au pire, le tir dapres, jme rectifie Jte laisse dans lcoin, plein dbleus, tete livide Jsuis lChelsea dDidier et dPetr ech au corner, tu te petrifies Mille, cest un K, et vu quil perd K.O. Tu tappelles... hmm, beh, tu tappelles meme pas Si jle bute la, y aura plus dscenario Donc jgarde mon neuf ainsi qumon quarante-cinq dans ldos comme Super Mario Le chat noir pleure ca, cest le Mil apres le Vu de Dony Ou alors Bernard Lama apres le but de Boli Les suceurs nont pas beaucoup dniveau À Paris, tas taille Mitroglou à Lyon, tas cite Juninho Et, ça, cest typique pour Milo et ça definit lbourricot Jai tellement la dalle, je pete larmoire, jvais finir tout lfrigo Dans cmilieu, jramene des couteaux dEspagne, mate mes six mille cuchillos Jpasse des raids aux bars ca, cest Phillipe Coutinho Faudrait que je pardonne lennemi ca, cest Meek Mill Mon neuf te cause mille ennuis ca, cest Milik Vu qu'jpeux pas tailler sur des morceaux dtoi, faut qu'jtaille des morceaux dtoi Faut qu'la mort cotoie des beaufs comme toi Jecoute pas cqu'les medisants pensent On fera pas dfeat' ensemble quand jecoute ton rap, frerot, jallume des tiges dencens Vu la taille dson tour de cuisse, il mfaut des immenses scies Mais pas besoin de decouper le Mil en cent pour le diss Tas choisi Tetris, cest ironique, tu veux savoir pourquoi j'me marre ? Tas choisi l'seul jeu où on passe son temps à attendre une bonne barre Premier ROAR une grosse claque, il fallait qujme bouge Un festival de barres dans la lumière comme au quartier rouge Tatteindras jamais les sommets avec ce style lancinant Pour espérer un jour l'niveau d'la Super League, tas besoin d'Milan Car, Tetris, tu présentes bien mais y a un hic, ce soir, bas les masques Ta carrière de battle MC est à limage de tes clips, tas foiré la D.A Femmes dénudées, tout plein d'consos, de tous tes clips, cest l'scénario On t'reconnaît grâce à c'que tas sous l'nez, comme Mario Tes à mi-chemin entre l'toxo et l'fan de tuning Pour voyager aux States, tas besoin dapprendre quune phrase need for speed Ta place est pas au stud mais au bar à tapas, vieux À t'cacher derrière les meilleurs, tu risques pas la carapace bleue Tu sens l'danger ? Jvais t'laisser des douleurs chroniques Jsuis en 5G, tes en EDGE, dog, donc, même si tétayes, cest forcément moi Sonic Hedgehog, Tails, Sonic fallait capter la mignardise Y a toujours une image derrière mes vers, comme le vitrail dune église Et, toi et Marseille, jvous emmerde À jamais les premiers, cest d'lesbrouffe Jfais un gros F à c'bleu et blanc et j'réinvente le logo Facebook Très exigeant comme Bielsa Round tranchant comme Kienzan Tas d'la chance quils aient fait du bruit contre Ladéa, tes gars Moi, jai besoin d'personne pour faire briller c'que jai au bout des doigts Kaméhaméha Et vous allez dire qujsuis un grand râleur, mais jvoulais un adversaire prêt pour un carnage Toi, tauras beau m'souhaiter plein d'malheurs, personne flippe dans les parages Tas fait ton temps d'clasheur, mais on veut des MC prêts à causer d'grands dommages Tas déjà été vaincu par Pasteur, normal que tu puisses plus avoir la rage Et, tu sais, javais plein d'bars de littérature métaphores, litotes, métonymies denfer Mais jcrois qu'j'vais les garder pour un prochain gus, jaime bien qu'mon adversaire comprenne pourquoi il perd Jai lcoffre plein de si, dis-moi si tu veux quj'tombe dune gamme Jramene plus de si quune poucave du Honduras On apprecierait tes rimes si taurais eu ldon du rap Meme mon exces dsi confirme la regle, je conjugue mal Jramene des scies larges Je coupe ton blaze, jen fais des syllabes, je coupe tes plans, jen fais des images Jramene celles quont les cils longs, bat les c' ce quils disent de moi Jramene plus de scies que Face, jramene plus de style que toi Hé, l'chat noir, tas pris du poil de la bete T'sais cqu'il faudrait qu'tu manges pour qutu perdes du poids ? De la blette Sors de ma route, jmarreterai pas, grand con T'sais, quand les roues dSubaru et le chat srencontrent, pff, cest rarement lchat lchampion Jai dla famille a Bastia, Alicante, Constantine Jviens dMarseille, lair que jexpire de mes poumons sent lshit Pendant quon deguste cinq cents cinquante daurades et autant dtruites Vous allez voir Mil sans poisson car, de lui, onze cent fish Jai lADN du ROAR, tas une echarpe RC Vu qutu joues seul a chat perche, degun va tchercher La mort va tbercer Jpourrais ltuer mais jvais pas mfaire chier donc jlui offre un neuf plus rare quun Faberge Certains tappellent Milou ? Mais jsais qu'tas un nom d'chien pour chaque RG Et tes basket bars te feront pas percer On taccueille comme cougar, jte mets pas figurant Ici, tu meurs, la, cest lTetris mutant, j'mempare de ton pouvoir Si tu veux maigrir du ventre, y a l'regime Dukan Jteclipse, tu pleures comme Kevin durant son battle contre Louvar Où est la ceinture ? Jsuis Teddy Riner Jenvoie ce chat noir dans sa propre gorge, il setrangle lui-meme comme Reggie Miller A ce jeu, je suis Trae Young, je suis tres bon Jsuis tout le temps dans lexces, je suis tres fort de Trae Young, je suis lprenom On sfout qutu claques, R.I.P. Mac Miller Sur mes hits, tarrêtes pas drâler, mais teste pas mes heats, jsuis Pat Railey Dans celui de Michael Man, jsuis Val Kilmer Dans ton reve, jte fais lamour dans lmien, y a toi et Manuel Vals qui meurent Dans deux kilos, tu vas devenir gras Tas pas fait semblant dprendre du jus, pas comme dans lexperience de Milgram Tu prends lmeilleur chez tes idoles, tu pompes mon flow, jme fâche Tas pompe l'taf de Parano, la parano d'2Taf Deux taffes, deux taffes... tiens, jvais mfaire un ptit Phillies Blunt Jsuis celui que les bitchies veulent, jsupprime tes trois rounds, le Mil finit seul Tes celui qua la morvelle, tes celui que la mort veut Aucun dmes neuf sont hors-jeu, jte graille en dernier hors duvre Des qu'jrentre, cest le bordel le ROAR 2, cest le WordUP! Des qu'jrentre, cest le bordel le ROAR 2, cest le WordUP! Si j'fais des gun bars, vous allez trouver ça peu crédible et peu réussi Pourtant, jsuis un putain d'geek, jai pressé sur plus de gâchettes que vous tous réunis Donc même si, dans tes sons, tu prétends vendre des talons d'beuh Quest-ce que tu vas faire face au Wojtek dAmong Us ? Car, sur internet, mec, jsuis un putain d'G Et tu sais quoi ? Jai même des guns si jai envie Jai un flingue que jadore, mon préféré parmi tous Jle fais hurler à ton oreille, j'lappelle Chicano Bulls Puis jai un pompe énorme, quand j'le sors, cest jour de fête Jte shoot et, pluie d'métal, on s'croirait au Hellfest Jai aussi un PP7 noir qui fait boom Il senraye deux fois sur trois, j'lappelle Youm Et noublions pas Afflelou, sniper spécial gwer, cest du précis, du net Et ça na rien à voir avec le fait qu'tessaies dvendre tes vers si j'dis qu'tes dans la lunette Jai aussi un canon scié qu'jai appelé Nadal quand j'lai dans les mains, j'tire à vue Et, vu quil sert toujours deux balles, pas dautre choix qu'tu finisses à terre, battu Je sais, apparemment, Parano en a fait une qui ressemble, au LC, bon, cest Marcö qui m'la dit Cest pas grave, ce sera la deuxième fois dans l'mois qu'j'prouve que j'suis meilleur que lui Et, toi, ça m'saoule quand tu louvres, j'te shoot dans la bouche, cest l'scénar J'te laisse un trou entre les dents, maintenant tas une bonne raison d'te prendre pour SCH Mais jen ai rien à foutre de c'simili thug J'te shoot avec plein d'longues lignes comme si javais sorti l'minigun Balle dans l'front, j'te laisse un tika Balle dans l'dos, chistera Quand j'sors les guns, la rafale, cest l'tarif, gros Jme balade comme mon équipe contre la tienne au classico Jenchaîne lignes sur lignes sur lignes sur lignes Pacino Ça vient d'gauche, droite, gauche, droite, gauche, droite akimbo Jaime ça quand, mon adversaire, il gueule Alors j'te balance une balle comme si tétais mon beagle Puis j'te rebalance neuf balles car, là, j'veux jouer avec mon Deagle Et j'suis très joueur donc, sur ta gueule, j'revide un chargeur Bon, j'récupère celle de mon chien mais tu fais toujours l'malin Donc jai perdu dix-sept balles comme si javais acheté l'pack du dernier TakeOver Je sais, tu vas dire que j'crache dans la soupe Mais, la réalité, cest qu'j'vous emmerde tous Fuck le RC qui respecte pas ses artistes Fuck le ROAR parfois limite intégriste Fini d'la fermer, maintenant Milo aboie Vous voulez tous la guerre ? Bah ça m'va Jen ai fini davoir peur des risques, vous pourrez constater lévolution Jsuis venu à ROAR pour brûler fleurs et Lys c'battle est ma Révolution</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1692,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gérard Baste, Falgas Bordeaux, Paris On est d'l'époque ou Cubase tournait encore sur Atari Gee-Gee-Gee-Gee-Geek Muzik Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Hey, rejoins la partie si tu veux On a capturé l'flag et on contrôle le jeu Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Planque ta team, v'là l'équipe de choc Ça fini avec des rimes de bâtards et un headshot Baste Falgas, la magie au bout du mic et du joystick Passe-moi l'paddle, j'débarque pour incendier la salle Exploser le score comme sur mon Xbox Gamertag Jour et nuit sur le Live ou pour clasher du Noob J'suis présent sur la toile, Enki2012, appuie Start, j'te le prouve J'zigzague entre les lignes, mix entre Tétris et Matrix Mon Avatar est trop frais, t'as plus qu'à m'sucer la bite Gérard Baste et Falgas c'est la Team genre Double Dragon On ouvre la bouche, c'est une boucherie du mur au plafond T'es has been car vu d'en haut ton rap tourne à plat comme Kick Off Sur l'échiquier du rap mon AKA c'est Kasparov Mon futur ? Casser des briques, un peu comme Arkanoid Incarner la légende, celle des ventes de Metal Gear Solid Voila un son pour les Fanboys déshydratés Vu qu'les autres sont nuls à chier Tu veux du frais ? On t'l'apporte en HD C'est l'remake 2010 d'la Mélodie des Briques Hey'pton pour le beat et Baste Spencer pour la giffle ! You might also like Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Hey, rejoins la partie si tu veux On a capturé l'flag et on contrôle le jeu Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Planque ta team, v'là l'équipe de choc Ça fini avec des rimes de bâtards et un headshot Baste Falgas, la magie au bout du mic et du joystick Ici c'est gamers haut de gamme, cherche pas on a tout fini en hard Ton rap c'est une DS Lite, chez nous c'est une borne d'arcade C'casting, c'est l'équipe de rêve Appelle nous le Dreamcast On est Néo-Géniaux, Nintendo 1664 En un coup j'nique ta barre de vie, la suite c'est il y a tout l'bar de vide Boule de feu, quart de tour, quart de litre au rang d'art de vivre J'ai bouffé tous les champis du level On vient buter les zombies dans le game On les laisse pour mort sur la scène J'repars avec les putes et les pouces qui saignent J'te shoote avec un gun en plastique Comme dans Duck Hunt ou Time Crisis Level One tu connais l'équipe, Paris-BDX depuis la PSX On représente les blocs comme dans Tetris Regarde ça c'est pas du Virtua Pénis J'suis Micromaniacs, j'ai le flow Ultima Alors signe moi chez DefJam Vendetta Elle m'a vu en live depuis ta meuf trouve que tu ken mou Pendant c'temps là on est tranquille chez nous on joue a Shenmue Alors traite nous d'Geek, de No Life ou même de pauvres types Baste et Falgas, la magie au bout du mic et du joystick x2 Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Hey, rejoins la partie si tu veux On a capturé l'flag et on contrôle le jeu Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Planque ta team, v'là l'équipe de choc Ça fini avec des rimes de bâtards et un headshot Baste Falgas, la magie au bout du mic et du joystick</t>
+          <t>Gérard Baste, Falgas Bordeaux, Paris On est d'l'époque ou Cubase tournait encore sur Atari Gee-Gee-Gee-Gee-Geek Muzik Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Hey, rejoins la partie si tu veux On a capturé l'flag et on contrôle le jeu Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Planque ta team, v'là l'équipe de choc Ça fini avec des rimes de bâtards et un headshot Baste Falgas, la magie au bout du mic et du joystick Passe-moi l'paddle, j'débarque pour incendier la salle Exploser le score comme sur mon Xbox Gamertag Jour et nuit sur le Live ou pour clasher du Noob J'suis présent sur la toile, Enki2012, appuie Start, j'te le prouve J'zigzague entre les lignes, mix entre Tétris et Matrix Mon Avatar est trop frais, t'as plus qu'à m'sucer la bite Gérard Baste et Falgas c'est la Team genre Double Dragon On ouvre la bouche, c'est une boucherie du mur au plafond T'es has been car vu d'en haut ton rap tourne à plat comme Kick Off Sur l'échiquier du rap mon AKA c'est Kasparov Mon futur ? Casser des briques, un peu comme Arkanoid Incarner la légende, celle des ventes de Metal Gear Solid Voila un son pour les Fanboys déshydratés Vu qu'les autres sont nuls à chier Tu veux du frais ? On t'l'apporte en HD C'est l'remake 2010 d'la Mélodie des Briques Hey'pton pour le beat et Baste Spencer pour la giffle ! Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Hey, rejoins la partie si tu veux On a capturé l'flag et on contrôle le jeu Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Planque ta team, v'là l'équipe de choc Ça fini avec des rimes de bâtards et un headshot Baste Falgas, la magie au bout du mic et du joystick Ici c'est gamers haut de gamme, cherche pas on a tout fini en hard Ton rap c'est une DS Lite, chez nous c'est une borne d'arcade C'casting, c'est l'équipe de rêve Appelle nous le Dreamcast On est Néo-Géniaux, Nintendo 1664 En un coup j'nique ta barre de vie, la suite c'est il y a tout l'bar de vide Boule de feu, quart de tour, quart de litre au rang d'art de vivre J'ai bouffé tous les champis du level On vient buter les zombies dans le game On les laisse pour mort sur la scène J'repars avec les putes et les pouces qui saignent J'te shoote avec un gun en plastique Comme dans Duck Hunt ou Time Crisis Level One tu connais l'équipe, Paris-BDX depuis la PSX On représente les blocs comme dans Tetris Regarde ça c'est pas du Virtua Pénis J'suis Micromaniacs, j'ai le flow Ultima Alors signe moi chez DefJam Vendetta Elle m'a vu en live depuis ta meuf trouve que tu ken mou Pendant c'temps là on est tranquille chez nous on joue a Shenmue Alors traite nous d'Geek, de No Life ou même de pauvres types Baste et Falgas, la magie au bout du mic et du joystick x2 Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Hey, rejoins la partie si tu veux On a capturé l'flag et on contrôle le jeu Geek Muzik Cherche plus et matte le high score, on est les meilleurs V'là la différence entre un player et un gamer Planque ta team, v'là l'équipe de choc Ça fini avec des rimes de bâtards et un headshot Baste Falgas, la magie au bout du mic et du joystick</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1709,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bon, on va gratter ça... Oh, il a une étoile Gégé Putain, 2 étoiles! Oh mais... oh! Oh putain, j'ai les 4 étoiles! Un léger sourire lubrique se visse à ma face ankylosée Déjà j'imagine dire à mon chef de service vas t'faire encu... Je vais quitter mon appart' miteux et décrépi Jeter ma femme et flirter avec les actrices vues dans Voici Me voilà dans le luxe, même si je suis parti d'pas très haut C'est fini l'PQ, j'm'essuierai le cul avec des paréos Très vite tout c'que j'toucherai deviendra pépite Mon nom dans les moteurs de recherche trouvera des milliers d'sites J'marcherai sur la foule comme Jésus marcha sur l'eau J'guérirai les cons avec ma pisse en effet placebo Je fabriquerai tout à mon image, comme Hitler le voulait mais comme Bill Gates l'a fait Moi c'est Gérard de Roubaix Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut You might also like L'été j'sortirai ma R21 customisée J'deviendrai branché en allant au concert de TTC Avec tout mon blé, j'manquerai jamais de Gitanes maïs A moi les vacances et l'tourisme sexuel au Laos Jury pour l'casting Graine de pouf, j'ferai partie du PAF Et les week-ends j'ferai du jet-ski avec Lagaf' Ma vie n'sera qu'plaisir alors j'lui donnerai un sens En faisant la tournée des Enfoirés... cocaïne de circonstance Après j'm'achèterai une Harley Davidson J'ferai un road-movie avec Johnny en écoutant du George Benson A Saint-Trop', j'serai sur le yacht au design ovoïde L'exemple, le héros du peuple dans tous les tabloïds Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut Mes mémoires en best-seller Donneront un film où Bruce Willis Incarnera un type salace Se transformant en star céleste Même une goutte d'eau sur une vitre peut briller sous la lumière Mais une fois atteint la flaque, elle n'est qu'H2O malgré ses prières Ma main s'transforme en poing, mes yeux s'gorgent d'eau L'atmosphère s'assombrit, les pigeons se changent en corbeaux Mes fantasmes dégoulinent sur la toile de mes rêves Je ne suis qu'un roi déchu qui aurait avalé la fève Mon regard se fixe sur mon ticket par terre Là où mon putain d'gosse a gratté la case nul si découvert Gérard, Gérard, Gérard, ouais!!! J'suis qu'un prolo qu'a les nerfs, l'icône pathétique Qui voit l'monde qu'au travers d'son antenne parabolique Gérard, Gérard, Gérard, ouais!!! De la star j'ai que les excès, j'suis qu'un alcoolo Qui se sent si petit face à la France d'en haut Gérard, Gérard, Gérard, ouais!!! Gérard, Gérard, Gérard, ouais!!!</t>
+          <t>Bon, on va gratter ça... Oh, il a une étoile Gégé Putain, 2 étoiles! Oh mais... oh! Oh putain, j'ai les 4 étoiles! Un léger sourire lubrique se visse à ma face ankylosée Déjà j'imagine dire à mon chef de service vas t'faire encu... Je vais quitter mon appart' miteux et décrépi Jeter ma femme et flirter avec les actrices vues dans Voici Me voilà dans le luxe, même si je suis parti d'pas très haut C'est fini l'PQ, j'm'essuierai le cul avec des paréos Très vite tout c'que j'toucherai deviendra pépite Mon nom dans les moteurs de recherche trouvera des milliers d'sites J'marcherai sur la foule comme Jésus marcha sur l'eau J'guérirai les cons avec ma pisse en effet placebo Je fabriquerai tout à mon image, comme Hitler le voulait mais comme Bill Gates l'a fait Moi c'est Gérard de Roubaix Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut L'été j'sortirai ma R21 customisée J'deviendrai branché en allant au concert de TTC Avec tout mon blé, j'manquerai jamais de Gitanes maïs A moi les vacances et l'tourisme sexuel au Laos Jury pour l'casting Graine de pouf, j'ferai partie du PAF Et les week-ends j'ferai du jet-ski avec Lagaf' Ma vie n'sera qu'plaisir alors j'lui donnerai un sens En faisant la tournée des Enfoirés... cocaïne de circonstance Après j'm'achèterai une Harley Davidson J'ferai un road-movie avec Johnny en écoutant du George Benson A Saint-Trop', j'serai sur le yacht au design ovoïde L'exemple, le héros du peuple dans tous les tabloïds Gérard, Gérard, Gérard, ouais!!! J'suis le prolo millionnaire, l'icône symbolique Au fan-club inquiet lorsque j'aurai une simple colique Gérard, Gérard, Gérard, ouais!!! J'serai une star dans l'excès mais plus un alcoolo D'toute façon tout m'paraîtra si petit vu d'la France d'en haut Mes mémoires en best-seller Donneront un film où Bruce Willis Incarnera un type salace Se transformant en star céleste Même une goutte d'eau sur une vitre peut briller sous la lumière Mais une fois atteint la flaque, elle n'est qu'H2O malgré ses prières Ma main s'transforme en poing, mes yeux s'gorgent d'eau L'atmosphère s'assombrit, les pigeons se changent en corbeaux Mes fantasmes dégoulinent sur la toile de mes rêves Je ne suis qu'un roi déchu qui aurait avalé la fève Mon regard se fixe sur mon ticket par terre Là où mon putain d'gosse a gratté la case nul si découvert Gérard, Gérard, Gérard, ouais!!! J'suis qu'un prolo qu'a les nerfs, l'icône pathétique Qui voit l'monde qu'au travers d'son antenne parabolique Gérard, Gérard, Gérard, ouais!!! De la star j'ai que les excès, j'suis qu'un alcoolo Qui se sent si petit face à la France d'en haut Gérard, Gérard, Gérard, ouais!!! Gérard, Gérard, Gérard, ouais!!!</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1726,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ambiance mouillée, douillet, confidences sur l'oreiller Le silence vient d'se briser et les p'tites meufs sont réveillées J'attaque jour et nuit, Day'N'Nite comme Kid Cudi Les p'tites meufs type cuty, les p'tits culs qu'j'étudie Cosy, cosy, cosy, champagne, coke et jacuzzi C'est jamais trop posé, j'bicrave dans l'club comme Mack Daddy Sous les flashs j'fais que posé, 't'ai dit poches pleines de pénicilline, d'Euros, de Yen et de livres Sterling Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Je te regarde et je mate et je profite du spectacle Cosy glossy pussy, je l'adore de lextérieur Et je touche et je tâte et je l'inspecte et je craque Cosy glossy pussy, je l'aime autant à lintérieur Rose, fuchsia, violette, mauve, rouge, carmin, aigrelette, chaude Rose pâle, lilas parme, mouillée, douillette, Luna Park Fraîche, fraîche comme une idée, t'es douce comme une pêche Lèche-les toutes bien, peignées, angora ou rêches Bordeaux, brunes, gonflées comme une petite prune Sucrées à cur, fruitées humm!, tartine de confiture Elle est parfumée, elle est brillante, elle est ambrée, elle est luisante Elle est musquée et enivrante, elle est rosée, elle est béante Et avide à l'aurore, quand tu ouvres tes pétales Perlante et humide comme quand la rosée s'y étale Ouais, une ptite leçon d'anatomie, charme hommes, femmes, les hormones ???, trop serrée et trop mignonne miam, miam Déjeuner avec une créature de rêve Penchée vers l'écuelle, tu glapis comme une chienne Je veux te voir bien cambrée en train de mordre tes lèvres La tête en arrière pendant que je mordille les tiennes hey! You might also like Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Je te regarde et je mate et je profite du spectacle Cosy glossy pussy, je l'adore de lextérieur Et je touche et je tâte et je l'inspecte et je craque Cosy glossy pussy, je l'aime autant à lintérieur Trop navrant comme un vendeur J'pense qu'aux Pom-pom girls et aux belles-mères Aux masseuses Thaï, aux infirmières, aux appareils dentaire Les touffus, les toutes fines, les dodus, les toutes clean J'parle toutes les langues et j'parle à toutes les filles Aux p'tite chieuses indécises, aux danseuses qui ventilent leur boule Et j'parle à celles à qui j'ai brisé leur couple Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Je te regarde et je mate et je profite du spectacle Cosy glossy pussy, je l'adore de lextérieur Et je touche et je tâte et je l'inspecte et je craque Cosy glossy pussy, je l'aime autant à lintérieur</t>
+          <t>Ambiance mouillée, douillet, confidences sur l'oreiller Le silence vient d'se briser et les p'tites meufs sont réveillées J'attaque jour et nuit, Day'N'Nite comme Kid Cudi Les p'tites meufs type cuty, les p'tits culs qu'j'étudie Cosy, cosy, cosy, champagne, coke et jacuzzi C'est jamais trop posé, j'bicrave dans l'club comme Mack Daddy Sous les flashs j'fais que posé, 't'ai dit poches pleines de pénicilline, d'Euros, de Yen et de livres Sterling Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Je te regarde et je mate et je profite du spectacle Cosy glossy pussy, je l'adore de lextérieur Et je touche et je tâte et je l'inspecte et je craque Cosy glossy pussy, je l'aime autant à lintérieur Rose, fuchsia, violette, mauve, rouge, carmin, aigrelette, chaude Rose pâle, lilas parme, mouillée, douillette, Luna Park Fraîche, fraîche comme une idée, t'es douce comme une pêche Lèche-les toutes bien, peignées, angora ou rêches Bordeaux, brunes, gonflées comme une petite prune Sucrées à cur, fruitées humm!, tartine de confiture Elle est parfumée, elle est brillante, elle est ambrée, elle est luisante Elle est musquée et enivrante, elle est rosée, elle est béante Et avide à l'aurore, quand tu ouvres tes pétales Perlante et humide comme quand la rosée s'y étale Ouais, une ptite leçon d'anatomie, charme hommes, femmes, les hormones ???, trop serrée et trop mignonne miam, miam Déjeuner avec une créature de rêve Penchée vers l'écuelle, tu glapis comme une chienne Je veux te voir bien cambrée en train de mordre tes lèvres La tête en arrière pendant que je mordille les tiennes hey! Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Je te regarde et je mate et je profite du spectacle Cosy glossy pussy, je l'adore de lextérieur Et je touche et je tâte et je l'inspecte et je craque Cosy glossy pussy, je l'aime autant à lintérieur Trop navrant comme un vendeur J'pense qu'aux Pom-pom girls et aux belles-mères Aux masseuses Thaï, aux infirmières, aux appareils dentaire Les touffus, les toutes fines, les dodus, les toutes clean J'parle toutes les langues et j'parle à toutes les filles Aux p'tite chieuses indécises, aux danseuses qui ventilent leur boule Et j'parle à celles à qui j'ai brisé leur couple Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Cosy glossy pussy Cosy glossy pussy Cosy glossy pussy Go-go-glossy pussy Je te regarde et je mate et je profite du spectacle Cosy glossy pussy, je l'adore de lextérieur Et je touche et je tâte et je l'inspecte et je craque Cosy glossy pussy, je l'aime autant à lintérieur</t>
         </is>
       </c>
     </row>
@@ -1753,11 +1741,7 @@
           <t>Gros au Japon</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1772,7 +1756,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>T'as invité Gérard Baste T'as invité l'grand blond à la casquette noire T'as invité les rois d'la gaffe Toutes les conneries qu'on peut faire, tu vas pas y croire T'as voulu voir Gérard Baste T'as voulu voir l'grand blond à la casquette noire T'as vu 2 pauvres types à la masse Qui t'ont fait la misère, c'est la guerre, Babaste et Pedro Winter J'débarque sur la scène trop stylé J'fais un p'tit tour sur moi même J'm'emmêle les ieps dans l'fil du mic et j'me vautre la tête dans l'retour C'est pas encore du Michael Jackson Mais c'est d'ja Bad d'commencé l'concert en s'pétant l'arcade sourcilière C'est sûr c'est signé Gérard Au bout d'2 s'condes c'est l'feu, au bout d'4 c'est l'trou d'mémoire Heu Alors j'bafouille et j'postillonne J'crache dans lil d'la gonzesse au 1er rang, celle qu'était mignonne Je m'retourne vers les hommes, vu qu'autant qu'j'oublie les femmes En voulant taper un ??? j'file un coup d'pompe à un fan Oh putain c'est infâme, y'a la moitié d'la salle qui s'vide Quand les potes de l'autre qu'j'ai heurter m'saute à pieds joints sur l'bide Y'a du sang, d'la sueur et d'la drogue Mais qu'est ce t'attendais d'un bon vieux concert de Hard-rock !? Troque ce survet' Lacoste ici y'a qu'des headbanger The Headbangers, c'est Gérard Baste et Pedro Winter You might also like The Headbangers x3 T'as invité Gérard et l'grand blond à la casquette noire The Headbangers x3 Toutes les conneries qu'on peut faire, tu vas pas y croire The Headbangers x3 T'as invité les rois d'la gaffe The Headbangers x3 C'est Pedro Winter et Gérard Baste Coup d'gong, SB, Chang brothers présente fièrement L'pauvre type qui s'endort à l'heure du soleil levant Testicules de buffle, haleine de dragon Il sent l'fauve comme le tigre, v'là l'homme ivre C'est Gérard Baste le drunkmaster Toi tu sors le saké, moi j'sors mon style désastreux Fais tourner la jarre, car d'abord j'me désaltère Ensuite j'te montre la technique du gars qui tombe par terre Trop vite la bouteille est trop vide C'est trop bête, tu viens d'te faire taper à coup d'gros bide Sumo, physique à la Sammo Hung À moi tout seul j'pèse le poids des 2 autres Shaolin Comme Dr. Vince, j'ai l'dos tatouer à l'encore noire D'un calligramme qui en vieux Mandarin signifie À boire Tu f'rais bien d't'habituer aux drames Car quand j'ai 2,3 litres dans l'sang, j'ai trop d'idées au gramme J'ai pas appris les arts martiaux au Tibet comme Batman Mais dans l'supermarché, au rayon bières, appelle-moi Pack-Man Entrainement intensif pour qu'mes muscles gonflent Puis j'traîne dans la neige pour maîtriser l'style du gars enrhumé qui ronfle Comme Jackie Chan, j'assure moi-même les cascades Encore un verre et j'te montre comment j'roule sous la table Oublie l'Tai-chi, l'Jujitsu, là j'me chie d'ssus J'suis occidental mais j'ai les yeux bridés quand j'ai bu Faut qu'tu constates C'est clair qu'on a du style quand on s'tape Sors les caméras si tu veux qu'on s'batte On fait du Kung-fu Shaolin Faut qu'tu constates C'est clair qu'on a du style quand on s'tape Sors les caméras si tu veux qu'on s'batte On fait du Kung-fu Shaolin Ils arrivent c'est l'école Kung-fu Shaolin Jet li, Jackie, Sammo and Yuen Woo-ping Pour les Asiats, la ???, les ??? Au combat c'est l'école Kung-fu Shaolin Ils ont reçu une belle correction Bienvenue dans la Zone 51 degrés sous les spots En plein milieu du désert où les verres se télescopent L'anisette plein les nasaux, oublie la Nasa C'est l'retour du space apéro J'ai ma dose de kérozen et l'blaze au zef Les doigts d'pieds en éventail dans notre astronef Gérard Bastronef, tu sais à quoi j'carbure Si c'est la panne sèche, on est prêts à l'boire pur Dans l'espace les liquides s'transforment en glace Qu'est ce qu'on s'en fout d'trouver d'l'eau sur Mars On boit du blanc, du rouge et du rose-well Une soif extraterrestre qui m'donne mauvaise alien Et met sur orbite, cacahuètes comme satellites J'gravite à la rencontre du troisième litre On troue la couche d'eau jaune en soucoupe volante Avant la flotte, n'oublie pas la sous-couche violente C'est un voyage fantastique Les réservoirs d'la fusée sont remplis d'Pastis Oublie l'espace temps On va traverser l'espastis Prêts à décoller vers la Zone 51 On part à des Anis lumière Écumer les terrasses du système solaire Et on ira s'enflammer dans la stratosphère Pour atterrir enfin dans la Zone 51 Où sont les packs de bière dans l'??? ??? ma liqueur de réglisse La mise en orbite autour du Pastis Zone 51, fais-le moi c'est nostalgique À quel moment la chose à dérapé ? D'où proviennent ces petits hommes verres à pieds Pourquoi tous adoptent l'accent marseillais ? Quelqu'un peut-il m'expliquer !?</t>
+          <t>T'as invité Gérard Baste T'as invité l'grand blond à la casquette noire T'as invité les rois d'la gaffe Toutes les conneries qu'on peut faire, tu vas pas y croire T'as voulu voir Gérard Baste T'as voulu voir l'grand blond à la casquette noire T'as vu 2 pauvres types à la masse Qui t'ont fait la misère, c'est la guerre, Babaste et Pedro Winter J'débarque sur la scène trop stylé J'fais un p'tit tour sur moi même J'm'emmêle les ieps dans l'fil du mic et j'me vautre la tête dans l'retour C'est pas encore du Michael Jackson Mais c'est d'ja Bad d'commencé l'concert en s'pétant l'arcade sourcilière C'est sûr c'est signé Gérard Au bout d'2 s'condes c'est l'feu, au bout d'4 c'est l'trou d'mémoire Heu Alors j'bafouille et j'postillonne J'crache dans lil d'la gonzesse au 1er rang, celle qu'était mignonne Je m'retourne vers les hommes, vu qu'autant qu'j'oublie les femmes En voulant taper un ??? j'file un coup d'pompe à un fan Oh putain c'est infâme, y'a la moitié d'la salle qui s'vide Quand les potes de l'autre qu'j'ai heurter m'saute à pieds joints sur l'bide Y'a du sang, d'la sueur et d'la drogue Mais qu'est ce t'attendais d'un bon vieux concert de Hard-rock !? Troque ce survet' Lacoste ici y'a qu'des headbanger The Headbangers, c'est Gérard Baste et Pedro Winter The Headbangers x3 T'as invité Gérard et l'grand blond à la casquette noire The Headbangers x3 Toutes les conneries qu'on peut faire, tu vas pas y croire The Headbangers x3 T'as invité les rois d'la gaffe The Headbangers x3 C'est Pedro Winter et Gérard Baste Coup d'gong, SB, Chang brothers présente fièrement L'pauvre type qui s'endort à l'heure du soleil levant Testicules de buffle, haleine de dragon Il sent l'fauve comme le tigre, v'là l'homme ivre C'est Gérard Baste le drunkmaster Toi tu sors le saké, moi j'sors mon style désastreux Fais tourner la jarre, car d'abord j'me désaltère Ensuite j'te montre la technique du gars qui tombe par terre Trop vite la bouteille est trop vide C'est trop bête, tu viens d'te faire taper à coup d'gros bide Sumo, physique à la Sammo Hung À moi tout seul j'pèse le poids des 2 autres Shaolin Comme Dr. Vince, j'ai l'dos tatouer à l'encore noire D'un calligramme qui en vieux Mandarin signifie À boire Tu f'rais bien d't'habituer aux drames Car quand j'ai 2,3 litres dans l'sang, j'ai trop d'idées au gramme J'ai pas appris les arts martiaux au Tibet comme Batman Mais dans l'supermarché, au rayon bières, appelle-moi Pack-Man Entrainement intensif pour qu'mes muscles gonflent Puis j'traîne dans la neige pour maîtriser l'style du gars enrhumé qui ronfle Comme Jackie Chan, j'assure moi-même les cascades Encore un verre et j'te montre comment j'roule sous la table Oublie l'Tai-chi, l'Jujitsu, là j'me chie d'ssus J'suis occidental mais j'ai les yeux bridés quand j'ai bu Faut qu'tu constates C'est clair qu'on a du style quand on s'tape Sors les caméras si tu veux qu'on s'batte On fait du Kung-fu Shaolin Faut qu'tu constates C'est clair qu'on a du style quand on s'tape Sors les caméras si tu veux qu'on s'batte On fait du Kung-fu Shaolin Ils arrivent c'est l'école Kung-fu Shaolin Jet li, Jackie, Sammo and Yuen Woo-ping Pour les Asiats, la ???, les ??? Au combat c'est l'école Kung-fu Shaolin Ils ont reçu une belle correction Bienvenue dans la Zone 51 degrés sous les spots En plein milieu du désert où les verres se télescopent L'anisette plein les nasaux, oublie la Nasa C'est l'retour du space apéro J'ai ma dose de kérozen et l'blaze au zef Les doigts d'pieds en éventail dans notre astronef Gérard Bastronef, tu sais à quoi j'carbure Si c'est la panne sèche, on est prêts à l'boire pur Dans l'espace les liquides s'transforment en glace Qu'est ce qu'on s'en fout d'trouver d'l'eau sur Mars On boit du blanc, du rouge et du rose-well Une soif extraterrestre qui m'donne mauvaise alien Et met sur orbite, cacahuètes comme satellites J'gravite à la rencontre du troisième litre On troue la couche d'eau jaune en soucoupe volante Avant la flotte, n'oublie pas la sous-couche violente C'est un voyage fantastique Les réservoirs d'la fusée sont remplis d'Pastis Oublie l'espace temps On va traverser l'espastis Prêts à décoller vers la Zone 51 On part à des Anis lumière Écumer les terrasses du système solaire Et on ira s'enflammer dans la stratosphère Pour atterrir enfin dans la Zone 51 Où sont les packs de bière dans l'??? ??? ma liqueur de réglisse La mise en orbite autour du Pastis Zone 51, fais-le moi c'est nostalgique À quel moment la chose à dérapé ? D'où proviennent ces petits hommes verres à pieds Pourquoi tous adoptent l'accent marseillais ? Quelqu'un peut-il m'expliquer !?</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1773,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Qu'est-ce tu penses de c'popo? hehehe sniff sniff ouaiiiis L'abbé Xanax, aka Popo Masta... Svinkels... Ouais mec...feelin' so hiiigh Brouillard Noir, annonce l'arrivée d'Popo Masta Mastard, bédots gros comme des cigares Ambiance glauque dans l'périmètre Fumée opaque, qui t'met une barre dans l'crâne même si tu bédaves pas Une légende dit qu'il fume un douze par jour Mais est-ce la vérité ? Pour l'savoir essaie d'pomper c'qu'il a pompé Tu déconnectes c'que j'ai dans l'cerveau La yaya, j'ai mal au crâne à cause du popo Si shilom descend du singe Viens on régresse à l'âge de pierre Fumer l'calumet d'la paix Quand j'déterre mon hasch de guerre Mais déguerpis d'mon tipi si les pêts' te coupent l'appétit Y'a des signaux d'fumée parfumée, j'crois qu'v'la l'Nico You might also like Si t'as le spleen, j'ai le spliff, flippe quand je m'empiffre Et suis moins superflu que super flou Car je vois double zéro, c'est le coup de Sirocco Mon marocco te boxe comme Rocco et ses frères Voilà les frères pétard! Je suis plus drôle qu'Arthur sous H Et j'm'acharne sur mon mashtar Je déconne avec mon cône Et me déconnecte, deux feuilles que j'humecte Mecton j'ai un ticket, j'm'infiltre et j'fais un carton Allô maman lobo comme Souchon Ça plane pour moi Mais pas de plastique dans mon chichon Et s'tu veux faire une faveur à des joyeux bédaveurs Sois philanthrope, fais nous goûter la saveur de ton psychotrope Le Svink est stupéfiant, son QI déficient Se défend comme Fanfan, là tu flippes Tu fanes, si tu fumes ma tulipe Le pollen, je le butine Mon clan s'éclate les rétines Et jamais je n'lésine sur la résine Faudrait qu'tu t'résignes dans ta besogne À mettre plus qu'une crotte de bique Si tu comptes nous faire atteindre L'ivresse cannabique Mes ballons de houblon Doublés de bédo du bled, baby Voilà mon Blédina, je roule en Roller blade Potache, potasse ton bled Quand on met les grammes en grammaire Je n'roule pas qu'les R et n'avale pas que d'l'air En français le H s'aspire, moi il m'inspire Donc si t'en gâches, Gérard Bastéroash H, ich liebe dich, on lâche la bombe H Mec j'suis assimilable À un tox' qui prend pas d'came Tellement j'fume de shit Mais réaliste, j'sais qu'faut qu'j'arrête vite Sinon j'me réserve une belle place au cimetière Sous cancer d'la gorge dans l'caveau familial près d'l'oncle George Alors quand j'tousse, tape-moi dans l'dos Qu'je puisse me vider d'tous ces sales glaviots vert fluos Les mecs qui t'disent ça d'vrait interdit d'être foncedé comme ça J'les foncedé comme ça, c'est pas d'l'encens c'est Popo Masta Pour lutter contre le SIDA Les déps' ont créé Act'Up Pour autoriser le shit Le Svinkels lance le Fucked'Up La loque en fait des tonnes Les tonnes qu'on n'saisit pas Je m'assois sur mes notes Et chantonne comme en automne Que bientôt deux feuilles mortes Et Dieu t'viendra pas en aide Fais ton signe de Rizla Croix Quand je tire sur la corde raide def, red pif Yo Nikus passe le rocco sur le 'tos Pas d'blocus, ou j'te jette dans un blockhaus Déclenche ta balise Argos Balise sur mon argot Des valises entières arrivent Dans les soutes des cargos 5 millions d'consommateurs salivent Pas d'embargo Légalise, dépénalise, shit à gogo Analyse, le cannabis et son biz Se banalisent Tandis que certains l'accusent Et l'diabolisent Moi j'me drogue en douce Et j'me la coule douce Et même si mon savon s'émousse Je n'glisse pas sur la pente douce x2 H.A.C.H.I.S.C.H Avec nous c'est toujours l'heure H H.A.C.H.I.S.C.H Avec nous c'est toujours l'heure H De lâcher la bombe H Eh, tu crois qu'ça va t'rendre Plus intelligent la dope, connard ? Et toi, tu crois qu'c'est mieux d'interdire et d'laisser boire J'sais pas, mais quelqu'part Y'a quelqu'chose qui va pas Et compte pas sur moi Pour enjoliver un débat qui va nulle part minable T'façon, tous se dopent Même les sportifs s'font des shoots masta Remplace pas l'EPO par le pétard pour des résultats Fils, les hypocrites t'ont trompé Donc bois l'grog D'un mec qui dit la vérité Sur les drogues Hachisch, va-t'en de mon cerveau Tu squattes dans ma tête Quand trop de pets' crépitent Et nous retournent comme des crêpes Prends-en pour perpète Maintenant nos cerveaux lambinent Ouais le tétrahydrocannabinol nous carabine Et nous jette un sort comme la fée Carabosse C'est trop rare que j'bosse Jamais j'aurais dû rouler autre chose que ma bosse Comme les contes de Grimm J'ai tout un compte pour les grammes Mon crâne, finira en magret comme un canard Et n'inspectera plus comme Maigret Ma matière grise maigrit Et migrent mes neurones Ça t'a soufflette le crâne Et l'a cramé comme la boulette Shak Black Attack sur la moquette Loque passée à la moulinette Le lobby des lobos du libanais Dans leur labo népalais Et n'bois l'eau que si l'bédo les a mis pâlots Qui le premier se couche Fait dodo, zone et crève-la-couche ouche la couche qu'il tient bien Quand la chouchane a fait mouche, tsé-tsé T'sais qu'tu vas t'endormir foncedé Tu calanches Mauvaise mine Ta tronche est à l'état de tes bronches Tu ne bronches plus, ne t'agite plus Tu cogites je fume donc je suis J'essuie mon cerveau qui s'effrite comme du shit Apaysé, dépaysé, canapéisé, avachisch Une avalanche de teu-ish qui m'laisse en friche Mais j'm'en fiche J'ai beau descendre J'm'en entiche Et comme le phnix Je renaîtrai bientôt Des cendres de ce putain d'spliff, mec x2 H.A.C.H.I.S.C.H Avec nous c'est toujours l'heure H H.A.C.H.I.S.C.H Avec nous c'est toujours l'heure H De lâcher la bombe H1</t>
+          <t>Qu'est-ce tu penses de c'popo? hehehe sniff sniff ouaiiiis L'abbé Xanax, aka Popo Masta... Svinkels... Ouais mec...feelin' so hiiigh Brouillard Noir, annonce l'arrivée d'Popo Masta Mastard, bédots gros comme des cigares Ambiance glauque dans l'périmètre Fumée opaque, qui t'met une barre dans l'crâne même si tu bédaves pas Une légende dit qu'il fume un douze par jour Mais est-ce la vérité ? Pour l'savoir essaie d'pomper c'qu'il a pompé Tu déconnectes c'que j'ai dans l'cerveau La yaya, j'ai mal au crâne à cause du popo Si shilom descend du singe Viens on régresse à l'âge de pierre Fumer l'calumet d'la paix Quand j'déterre mon hasch de guerre Mais déguerpis d'mon tipi si les pêts' te coupent l'appétit Y'a des signaux d'fumée parfumée, j'crois qu'v'la l'Nico Si t'as le spleen, j'ai le spliff, flippe quand je m'empiffre Et suis moins superflu que super flou Car je vois double zéro, c'est le coup de Sirocco Mon marocco te boxe comme Rocco et ses frères Voilà les frères pétard! Je suis plus drôle qu'Arthur sous H Et j'm'acharne sur mon mashtar Je déconne avec mon cône Et me déconnecte, deux feuilles que j'humecte Mecton j'ai un ticket, j'm'infiltre et j'fais un carton Allô maman lobo comme Souchon Ça plane pour moi Mais pas de plastique dans mon chichon Et s'tu veux faire une faveur à des joyeux bédaveurs Sois philanthrope, fais nous goûter la saveur de ton psychotrope Le Svink est stupéfiant, son QI déficient Se défend comme Fanfan, là tu flippes Tu fanes, si tu fumes ma tulipe Le pollen, je le butine Mon clan s'éclate les rétines Et jamais je n'lésine sur la résine Faudrait qu'tu t'résignes dans ta besogne À mettre plus qu'une crotte de bique Si tu comptes nous faire atteindre L'ivresse cannabique Mes ballons de houblon Doublés de bédo du bled, baby Voilà mon Blédina, je roule en Roller blade Potache, potasse ton bled Quand on met les grammes en grammaire Je n'roule pas qu'les R et n'avale pas que d'l'air En français le H s'aspire, moi il m'inspire Donc si t'en gâches, Gérard Bastéroash H, ich liebe dich, on lâche la bombe H Mec j'suis assimilable À un tox' qui prend pas d'came Tellement j'fume de shit Mais réaliste, j'sais qu'faut qu'j'arrête vite Sinon j'me réserve une belle place au cimetière Sous cancer d'la gorge dans l'caveau familial près d'l'oncle George Alors quand j'tousse, tape-moi dans l'dos Qu'je puisse me vider d'tous ces sales glaviots vert fluos Les mecs qui t'disent ça d'vrait interdit d'être foncedé comme ça J'les foncedé comme ça, c'est pas d'l'encens c'est Popo Masta Pour lutter contre le SIDA Les déps' ont créé Act'Up Pour autoriser le shit Le Svinkels lance le Fucked'Up La loque en fait des tonnes Les tonnes qu'on n'saisit pas Je m'assois sur mes notes Et chantonne comme en automne Que bientôt deux feuilles mortes Et Dieu t'viendra pas en aide Fais ton signe de Rizla Croix Quand je tire sur la corde raide def, red pif Yo Nikus passe le rocco sur le 'tos Pas d'blocus, ou j'te jette dans un blockhaus Déclenche ta balise Argos Balise sur mon argot Des valises entières arrivent Dans les soutes des cargos 5 millions d'consommateurs salivent Pas d'embargo Légalise, dépénalise, shit à gogo Analyse, le cannabis et son biz Se banalisent Tandis que certains l'accusent Et l'diabolisent Moi j'me drogue en douce Et j'me la coule douce Et même si mon savon s'émousse Je n'glisse pas sur la pente douce x2 H.A.C.H.I.S.C.H Avec nous c'est toujours l'heure H H.A.C.H.I.S.C.H Avec nous c'est toujours l'heure H De lâcher la bombe H Eh, tu crois qu'ça va t'rendre Plus intelligent la dope, connard ? Et toi, tu crois qu'c'est mieux d'interdire et d'laisser boire J'sais pas, mais quelqu'part Y'a quelqu'chose qui va pas Et compte pas sur moi Pour enjoliver un débat qui va nulle part minable T'façon, tous se dopent Même les sportifs s'font des shoots masta Remplace pas l'EPO par le pétard pour des résultats Fils, les hypocrites t'ont trompé Donc bois l'grog D'un mec qui dit la vérité Sur les drogues Hachisch, va-t'en de mon cerveau Tu squattes dans ma tête Quand trop de pets' crépitent Et nous retournent comme des crêpes Prends-en pour perpète Maintenant nos cerveaux lambinent Ouais le tétrahydrocannabinol nous carabine Et nous jette un sort comme la fée Carabosse C'est trop rare que j'bosse Jamais j'aurais dû rouler autre chose que ma bosse Comme les contes de Grimm J'ai tout un compte pour les grammes Mon crâne, finira en magret comme un canard Et n'inspectera plus comme Maigret Ma matière grise maigrit Et migrent mes neurones Ça t'a soufflette le crâne Et l'a cramé comme la boulette Shak Black Attack sur la moquette Loque passée à la moulinette Le lobby des lobos du libanais Dans leur labo népalais Et n'bois l'eau que si l'bédo les a mis pâlots Qui le premier se couche Fait dodo, zone et crève-la-couche ouche la couche qu'il tient bien Quand la chouchane a fait mouche, tsé-tsé T'sais qu'tu vas t'endormir foncedé Tu calanches Mauvaise mine Ta tronche est à l'état de tes bronches Tu ne bronches plus, ne t'agite plus Tu cogites je fume donc je suis J'essuie mon cerveau qui s'effrite comme du shit Apaysé, dépaysé, canapéisé, avachisch Une avalanche de teu-ish qui m'laisse en friche Mais j'm'en fiche J'ai beau descendre J'm'en entiche Et comme le phnix Je renaîtrai bientôt Des cendres de ce putain d'spliff, mec x2 H.A.C.H.I.S.C.H Avec nous c'est toujours l'heure H H.A.C.H.I.S.C.H Avec nous c'est toujours l'heure H De lâcher la bombe H1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1807,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>J'ai bu tout une rivière de plus de trente-six bières C'est débile, je gerbe de la bile allongé sur une civière Hier dans le cendar', il y avait plus de 100 dards Parce qu'on n'fume pas que quand les gens dorment Au grand dam des gendarmes On s'imagine que l'bédo est un sport, et on l'instaure En dehors de l'instant où l'on baisse les stores, mais c'est un tort Car la fainéantise commence en fumée et finit en tise Et anéantit j'n'ai ni haine ni hantise Mi-homme, mi-trottoir, mi-alcool, mi-notoire Mitonne ma mère pour lui faire croire que de l'eau je n'fais que boire Ponar, le gars d'la pompe, des putes, des bombes, d'la glute Ponar, kiffeur de sons, célibataire en rut Ponar, un gars à part, qui sourit pas Même sous Ricard, même sur tricard Qui refuse pas un bon balard, un boule banal Une double anale, un grand malade Un grand malade Qui bouche le nez aux meufs et leur demande de tout raser And we don't stop ! And we don't Qhuit ! You might also like Lâche-moi, je ne rapperai pas, j'bois, laisse-moi quand je festoie Ok je ne tarderai pas, que j'béger', aucun espoir Qhuit, la marque de sapes que les jeunes ne connaissent pas Genre pipe de crack et un pack pour les gars qui n'vomissent pas Tu connais l'histoire, on a soif, ces connards ne fournissent pas Prochaine escale Brest, tu prends la pinte, moi le Mescal ne s'tise pas, merde XanaX ne tise pas, le Svink' et TTC, Sirop Sport Fraise pour les lèzes-ba Hiiiin ! Les bouteilles rendent les femmes plus belles et délient les langues Si tu n'as pas de cendrier sous la main, vas-y vide la mienne et mets-y tes cendres Teki Latex ne s'est délibérément pas senti sobre depuis décembre Il déprime et semble ne pas pleinement apprécier les verres qu'il descend J'fais pas d'sport, je n'suis pas travailleur comme le castor Je n'fais bouger mes muscles que lors des rapports, là où je passe l'alcool s'évapore J'ai laissé mes inhibitions au rayon des antiquités Et j'n'ai pas l'intention d'effacer de ma face ce sourire de gentil cuité J'marche en zig-zag, j'ai l'regard de travers Tu vas pas m'tèj' de ton rade alors qu'j'ai bu qu'2-3 verres En travers de tout braver, l'alcool aggravé dont j'suis pas fier Mais on boit, on boit, on boit, comme un moustachu en Bavière Oublie les boîtes de nuit d'dèps On balance la Qhuit tape Gérard Baste dans ta p'tite tête Reste avec nous, t'es vite dead Liquide de freins pur Ça d'vient vite dur, dur Mais on repart dare, dare Pour déchirer ton open bar, bar Bienvenue chez Qhuit ! On t'as ouvert la porte du bar Get, get in, c'est l'happy hour tous les soirs Ça commence calme p'tite mousse, Apérobic à fond Ça s'énerve un peu vodka-pomme avec des p'tits glaçons Tu peux m'trouver dans le club, ivre mort Toujours accoudé au bar, j'en veux encore Encore plus de tise à plier, vriller sur moi même et viser Encore plus de litres à vider, Rhum G ajoute pour le dernier Tu trouveras toujours un Cuizinier à la compétition de bières Derrière un fût, derrière un cul de vieille La doigte en larmoyant, la soixantaine C'est fou ce que l'on peut faire plus maître de soi même Pourtant très sélectif, passée une certaine heure Plus beaucoup de raisons que toutes les femmes soient belles Les bouteilles rendent les femmes plus belles et délient les langues Plus qu'à la mettre à poil, à g'noux, et mets-y ton gland J'ai trouvé un nouveau boulot Faire un disque avec des soûlots En enculant des goulots Gerbant à l'arrière des tacots Semé d'chicots, t-shirts crados Chez les alco-locataires Colle au pattern autant qu'par terre Menu pâtes ou pommes de terre J'te présente la nouvelle collec' Et les mannequins qui vont avec Toutes taxes comprises Je te faxe la note en Triptik En triple XL pour ma taille Et puis celle de Teki Latex Plus que du rap, avec les Qhuit du vrai travail de sape</t>
+          <t>J'ai bu tout une rivière de plus de trente-six bières C'est débile, je gerbe de la bile allongé sur une civière Hier dans le cendar', il y avait plus de 100 dards Parce qu'on n'fume pas que quand les gens dorment Au grand dam des gendarmes On s'imagine que l'bédo est un sport, et on l'instaure En dehors de l'instant où l'on baisse les stores, mais c'est un tort Car la fainéantise commence en fumée et finit en tise Et anéantit j'n'ai ni haine ni hantise Mi-homme, mi-trottoir, mi-alcool, mi-notoire Mitonne ma mère pour lui faire croire que de l'eau je n'fais que boire Ponar, le gars d'la pompe, des putes, des bombes, d'la glute Ponar, kiffeur de sons, célibataire en rut Ponar, un gars à part, qui sourit pas Même sous Ricard, même sur tricard Qui refuse pas un bon balard, un boule banal Une double anale, un grand malade Un grand malade Qui bouche le nez aux meufs et leur demande de tout raser And we don't stop ! And we don't Qhuit ! Lâche-moi, je ne rapperai pas, j'bois, laisse-moi quand je festoie Ok je ne tarderai pas, que j'béger', aucun espoir Qhuit, la marque de sapes que les jeunes ne connaissent pas Genre pipe de crack et un pack pour les gars qui n'vomissent pas Tu connais l'histoire, on a soif, ces connards ne fournissent pas Prochaine escale Brest, tu prends la pinte, moi le Mescal ne s'tise pas, merde XanaX ne tise pas, le Svink' et TTC, Sirop Sport Fraise pour les lèzes-ba Hiiiin ! Les bouteilles rendent les femmes plus belles et délient les langues Si tu n'as pas de cendrier sous la main, vas-y vide la mienne et mets-y tes cendres Teki Latex ne s'est délibérément pas senti sobre depuis décembre Il déprime et semble ne pas pleinement apprécier les verres qu'il descend J'fais pas d'sport, je n'suis pas travailleur comme le castor Je n'fais bouger mes muscles que lors des rapports, là où je passe l'alcool s'évapore J'ai laissé mes inhibitions au rayon des antiquités Et j'n'ai pas l'intention d'effacer de ma face ce sourire de gentil cuité J'marche en zig-zag, j'ai l'regard de travers Tu vas pas m'tèj' de ton rade alors qu'j'ai bu qu'2-3 verres En travers de tout braver, l'alcool aggravé dont j'suis pas fier Mais on boit, on boit, on boit, comme un moustachu en Bavière Oublie les boîtes de nuit d'dèps On balance la Qhuit tape Gérard Baste dans ta p'tite tête Reste avec nous, t'es vite dead Liquide de freins pur Ça d'vient vite dur, dur Mais on repart dare, dare Pour déchirer ton open bar, bar Bienvenue chez Qhuit ! On t'as ouvert la porte du bar Get, get in, c'est l'happy hour tous les soirs Ça commence calme p'tite mousse, Apérobic à fond Ça s'énerve un peu vodka-pomme avec des p'tits glaçons Tu peux m'trouver dans le club, ivre mort Toujours accoudé au bar, j'en veux encore Encore plus de tise à plier, vriller sur moi même et viser Encore plus de litres à vider, Rhum G ajoute pour le dernier Tu trouveras toujours un Cuizinier à la compétition de bières Derrière un fût, derrière un cul de vieille La doigte en larmoyant, la soixantaine C'est fou ce que l'on peut faire plus maître de soi même Pourtant très sélectif, passée une certaine heure Plus beaucoup de raisons que toutes les femmes soient belles Les bouteilles rendent les femmes plus belles et délient les langues Plus qu'à la mettre à poil, à g'noux, et mets-y ton gland J'ai trouvé un nouveau boulot Faire un disque avec des soûlots En enculant des goulots Gerbant à l'arrière des tacots Semé d'chicots, t-shirts crados Chez les alco-locataires Colle au pattern autant qu'par terre Menu pâtes ou pommes de terre J'te présente la nouvelle collec' Et les mannequins qui vont avec Toutes taxes comprises Je te faxe la note en Triptik En triple XL pour ma taille Et puis celle de Teki Latex Plus que du rap, avec les Qhuit du vrai travail de sape</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1841,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>- Ok, on the top of the bottom J'ai la prod qui va t'botter l'cul Et les lyrics qui font mal à la tête Quand le beat du Svink tombe Shbing un plomb qui pète Bouge ta tête, bouge ta tête Quand le Svinkels se la pète Tu connais l'credo T'écraser d'lyrics docras Qu'ça rock comme Eddy Cochran Qu'les gros gars d'jumpent comme des peaucras Accro d'mes mots crus à la limite de la moquerie Mais c'est sacré, quand j'rappe faut qu'j'sois à cran comme Jean-Pierre Bacri ça m'enerve çà ! Mon rock est hard, nique le soft punk comme les Dafts D'abord j'bute Lara Croft, ensuite j'frotte ma bite sur tes aphtes Imagines c'qu'on aurait fait dans l'Loft remake de Shaft Appuie sur shift pour qu's'étale mon nom BASTE en lettres capitales Ça va être sale, poisseux comme le sol Quand on quitte la salle, pieds qui collent, flaques de Tequila sol Sors le balais Bissell, c'est crasseux comme la ficelle Du string qui macère entre les deux fesses de là celle On passe le mercredi soir sur XXL Compose le numéro du Svink, rimes crades au tel Hard Amat', on t'donne des trucs à mater, un instru qui va t'latter C'coup ci mon groupe va éclater You might also like On donne dans l'Hard Amat', respecte ma puissance pouffiasse Filme moi en DV quand j'lisse mon vit d'vant la glace Ce soir y'a un concert du coté d'St-Denis Un truc bien dégueulasse, genre un gonzo d'Roc' Siffredi Si tu rentres dans la loge, d'bière tu t'f'ras asperger Ambiancé douche de sperme dans un bon HPG Si tu suis mes gars, et qu'tu fais pas ta fiotte T'as d'grandes chances de finir la tête dans les chiottes Si tu m'testes au bédo, fais gaffe à tes bronches Tirer la dessus ça équivaut a prendre un coup d'tronche On est tordus du cerveau, sort des phases pas banales Des truc qui font mal aux faux comme une double anale Ton fion c'est pour l'american pimp Je suis sûr que tout le monde rentre dedans T'as l'corps adéquate d'une star du Hard Amat' Et c'est navrant d'savoir tout l'blé qu'tu f'rais sur l'trottoir Alors les p'tites bites... Pas d'confusion, on fait pas d'la fusion à la Limp-Bizkit On débarque style sponsorisés par Jacob Delafon Fous l'son à fond, vas-y saute jusqu'au plafond Jette toi du rocher comme Pauline Lafont haaa... Ou alors disparais du PAF à jamais comme Axelle Laffont On réhabilite l'esprit du Professeur Choron En évitant les vannes plus vieilles que Mamie Goron Cherche pas à comprendre comme FF, on fait du Slip-Hop Parce qu'on débarque sur scène la bite à l'air comme Iggy Pop C'est la nudité, sandwich crudité, oublie toutes les autres nullités Svinkels c'est c'vieux cuir qu'tu peux plus quitter C'est plus de la musique c'est le boucan d'un 103 kité Pollini Je suis le maillon fort et j'tarte Laurence Boccolini Hard Amat' On r'viens t'faire guili-guili Avec des textes plus épicés que du chilli, blindés de Pili-pili Hard Amat' C'est nous qu'on a fait sauté le disque d'Milli Vanilli On veut le vrai vrai, comme la vidéo d'Pamela et d'Tommy Lee On donne dans l'Hard Amat' Trop d'phrases malsaines j'télescopent On donne dans l'Hard Amat' Qu'est-ce t'attends, sors le caméscope On a toujours été un peu à coté d'la plaque C'est pour ça qu'on reste plus cru, plus vrai qu'un Hard Amat' Svinkels, est-ce que t'as déjà vu du rock aussi frais, dis ? On déménage comme des rodies À peine audible D'puis des années, cartonne en rodage, pète un fusible Identité artiste, imposteurs, interprètes, intermittents du spectacle Un tiers miteux pros d'troisièmes mi-temps Chante tes hits d'poète maudit sous Moët Chandon dans l'taudis Les pros, j'les arrose de sale champagne façon fin de grand prix Ça tue dans le tordu, on avance comme des tortues C'est comme une torture, mais il y'a tout un public de mordus Classe moi entre Johnny et les Bérus dans l'bac musique de merde Ma discographie grande maquette, une carrière en herbe J'rappe avec des verbes que tu conjugues même pas dans l'Bescherelle En f'sant la tournée des bleds avec un budget d'épicier ED Camelote Pif-gadget comme dans un tout à 10 balles gadjo C'est pour les cas sociaux, style de casse auto Casse gueule et casse oreille Film d'amateur avec mauvaise actrice M'ont signé sans faire d'casting Ces producteurs c'est la matrice Tu crois qu'c'est approximatif Qu'on fait des actions de proximité Vu notre promiscuité, on a promis d'se cuiter avec notre public qui s'prosterne Notre seule promotion, on reste prolétaire On s'fout du profit, on va trouer l'fond monétaire Dans le hip-hop, je suis vu comme un bête de zoo Dans l'rock j'dépoussière et régénère en H0 Sans d'mi-mot, on fait pas d'l'Endemol, c'est de l'Hard Amat' Mon groupe un bon vieux scoot' qu'on choure, qui démarre au quart de tour x2 On donne dans l'Hard Amat' Trop d'phrases malsaines j'télescopent On donne dans l'Hard Amat' Qu'est-ce t'attends, sors le caméscope On a toujours été un peu à coté d'la plaque C'est pour ça qu'on reste plus cru, plus vrai qu'un Hard Amat' x2 Dance, dance, dance to this, eh yo Dance, dance, dance to this, eh yo Dance, dance, dance to this, eh yo Hard Amaaat', eh yo Hard Amaaat'... - Ok, on the top of the bottom</t>
+          <t>- Ok, on the top of the bottom J'ai la prod qui va t'botter l'cul Et les lyrics qui font mal à la tête Quand le beat du Svink tombe Shbing un plomb qui pète Bouge ta tête, bouge ta tête Quand le Svinkels se la pète Tu connais l'credo T'écraser d'lyrics docras Qu'ça rock comme Eddy Cochran Qu'les gros gars d'jumpent comme des peaucras Accro d'mes mots crus à la limite de la moquerie Mais c'est sacré, quand j'rappe faut qu'j'sois à cran comme Jean-Pierre Bacri ça m'enerve çà ! Mon rock est hard, nique le soft punk comme les Dafts D'abord j'bute Lara Croft, ensuite j'frotte ma bite sur tes aphtes Imagines c'qu'on aurait fait dans l'Loft remake de Shaft Appuie sur shift pour qu's'étale mon nom BASTE en lettres capitales Ça va être sale, poisseux comme le sol Quand on quitte la salle, pieds qui collent, flaques de Tequila sol Sors le balais Bissell, c'est crasseux comme la ficelle Du string qui macère entre les deux fesses de là celle On passe le mercredi soir sur XXL Compose le numéro du Svink, rimes crades au tel Hard Amat', on t'donne des trucs à mater, un instru qui va t'latter C'coup ci mon groupe va éclater On donne dans l'Hard Amat', respecte ma puissance pouffiasse Filme moi en DV quand j'lisse mon vit d'vant la glace Ce soir y'a un concert du coté d'St-Denis Un truc bien dégueulasse, genre un gonzo d'Roc' Siffredi Si tu rentres dans la loge, d'bière tu t'f'ras asperger Ambiancé douche de sperme dans un bon HPG Si tu suis mes gars, et qu'tu fais pas ta fiotte T'as d'grandes chances de finir la tête dans les chiottes Si tu m'testes au bédo, fais gaffe à tes bronches Tirer la dessus ça équivaut a prendre un coup d'tronche On est tordus du cerveau, sort des phases pas banales Des truc qui font mal aux faux comme une double anale Ton fion c'est pour l'american pimp Je suis sûr que tout le monde rentre dedans T'as l'corps adéquate d'une star du Hard Amat' Et c'est navrant d'savoir tout l'blé qu'tu f'rais sur l'trottoir Alors les p'tites bites... Pas d'confusion, on fait pas d'la fusion à la Limp-Bizkit On débarque style sponsorisés par Jacob Delafon Fous l'son à fond, vas-y saute jusqu'au plafond Jette toi du rocher comme Pauline Lafont haaa... Ou alors disparais du PAF à jamais comme Axelle Laffont On réhabilite l'esprit du Professeur Choron En évitant les vannes plus vieilles que Mamie Goron Cherche pas à comprendre comme FF, on fait du Slip-Hop Parce qu'on débarque sur scène la bite à l'air comme Iggy Pop C'est la nudité, sandwich crudité, oublie toutes les autres nullités Svinkels c'est c'vieux cuir qu'tu peux plus quitter C'est plus de la musique c'est le boucan d'un 103 kité Pollini Je suis le maillon fort et j'tarte Laurence Boccolini Hard Amat' On r'viens t'faire guili-guili Avec des textes plus épicés que du chilli, blindés de Pili-pili Hard Amat' C'est nous qu'on a fait sauté le disque d'Milli Vanilli On veut le vrai vrai, comme la vidéo d'Pamela et d'Tommy Lee On donne dans l'Hard Amat' Trop d'phrases malsaines j'télescopent On donne dans l'Hard Amat' Qu'est-ce t'attends, sors le caméscope On a toujours été un peu à coté d'la plaque C'est pour ça qu'on reste plus cru, plus vrai qu'un Hard Amat' Svinkels, est-ce que t'as déjà vu du rock aussi frais, dis ? On déménage comme des rodies À peine audible D'puis des années, cartonne en rodage, pète un fusible Identité artiste, imposteurs, interprètes, intermittents du spectacle Un tiers miteux pros d'troisièmes mi-temps Chante tes hits d'poète maudit sous Moët Chandon dans l'taudis Les pros, j'les arrose de sale champagne façon fin de grand prix Ça tue dans le tordu, on avance comme des tortues C'est comme une torture, mais il y'a tout un public de mordus Classe moi entre Johnny et les Bérus dans l'bac musique de merde Ma discographie grande maquette, une carrière en herbe J'rappe avec des verbes que tu conjugues même pas dans l'Bescherelle En f'sant la tournée des bleds avec un budget d'épicier ED Camelote Pif-gadget comme dans un tout à 10 balles gadjo C'est pour les cas sociaux, style de casse auto Casse gueule et casse oreille Film d'amateur avec mauvaise actrice M'ont signé sans faire d'casting Ces producteurs c'est la matrice Tu crois qu'c'est approximatif Qu'on fait des actions de proximité Vu notre promiscuité, on a promis d'se cuiter avec notre public qui s'prosterne Notre seule promotion, on reste prolétaire On s'fout du profit, on va trouer l'fond monétaire Dans le hip-hop, je suis vu comme un bête de zoo Dans l'rock j'dépoussière et régénère en H0 Sans d'mi-mot, on fait pas d'l'Endemol, c'est de l'Hard Amat' Mon groupe un bon vieux scoot' qu'on choure, qui démarre au quart de tour x2 On donne dans l'Hard Amat' Trop d'phrases malsaines j'télescopent On donne dans l'Hard Amat' Qu'est-ce t'attends, sors le caméscope On a toujours été un peu à coté d'la plaque C'est pour ça qu'on reste plus cru, plus vrai qu'un Hard Amat' x2 Dance, dance, dance to this, eh yo Dance, dance, dance to this, eh yo Dance, dance, dance to this, eh yo Hard Amaaat', eh yo Hard Amaaat'... - Ok, on the top of the bottom</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1875,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T'as invité Gérard Baste T'as invité l'grand blond à la casquette noire T'as invité les rois d'la gaffe Toutes les conneries qu'on peut faire, tu vas pas y croire T'as voulu voir Gérard Baste T'as voulu voir l'grand blond à la casquette noire T'as vu 2 pauvres types à la masse Qui t'ont fait la misère, c'est la guerre, Babaste et Pedro Winter J'débarque sur la scène trop stylé J'fais un p'tit tour sur moi même J'm'emmêle les ieps dans l'fil du mic et j'me vautre la tête dans l'retour C'est pas encore du Michael Jackson Mais c'est d'ja Bad d'commencé l'concert en s'pétant l'arcade sourcilière C'est sûr c'est signé Gérard Au bout d'2 s'condes c'est l'feu, au bout d'4 c'est l'trou d'mémoire Heu Alors j'bafouille et j'postillonne J'crache dans lil d'la gonzesse au 1er rang, celle qu'était mignonne Je m'retourne vers les hommes, vu qu'autant qu'j'oublie les femmes En voulant taper un ??? j'file un coup d'pompe à un fan Oh putain c'est infâme, y'a la moitié d'la salle qui s'vide Quand les potes de l'autre qu'j'ai heurter m'saute à pieds joints sur l'bide Y'a du sang, d'la sueur et d'la drogue Mais qu'est ce t'attendais d'un bon vieux concert de Hard-rock !? Troque ce survet' Lacoste ici y'a qu'des headbanger The Headbangers, c'est Gérard Baste et Pedro Winter You might also like The Headbangers x3 T'as invité Gérard et l'grand blond à la casquette noire The Headbangers x3 Toutes les conneries qu'on peut faire, tu vas pas y croire The Headbangers x3 T'as invité les rois d'la gaffe The Headbangers x3 C'est Pedro Winter et Gérard Baste Coup d'gong, SB, Chang brothers présente fièrement L'pauvre type qui s'endort à l'heure du soleil levant Testicules de buffle, haleine de dragon Il sent l'fauve comme le tigre, v'là l'homme ivre C'est Gérard Baste le drunkmaster Toi tu sors le saké, moi j'sors mon style désastreux Fais tourner la jarre, car d'abord j'me désaltère Ensuite j'te montre la technique du gars qui tombe par terre Trop vite la bouteille est trop vide C'est trop bête, tu viens d'te faire taper à coup d'gros bide Sumo, physique à la Sammo Hung À moi tout seul j'pèse le poids des 2 autres Shaolin Comme Dr. Vince, j'ai l'dos tatouer à l'encore noire D'un calligramme qui en vieux Mandarin signifie À boire Tu f'rais bien d't'habituer aux drames Car quand j'ai 2,3 litres dans l'sang, j'ai trop d'idées au gramme J'ai pas appris les arts martiaux au Tibet comme Batman Mais dans l'supermarché, au rayon bières, appelle-moi Pack-Man Entrainement intensif pour qu'mes muscles gonflent Puis j'traîne dans la neige pour maîtriser l'style du gars enrhumé qui ronfle Comme Jackie Chan, j'assure moi-même les cascades Encore un verre et j'te montre comment j'roule sous la table Oublie l'Tai-chi, l'Jujitsu, là j'me chie d'ssus J'suis occidental mais j'ai les yeux bridés quand j'ai bu Faut qu'tu constates C'est clair qu'on a du style quand on s'tape Sors les caméras si tu veux qu'on s'batte On fait du Kung-fu Shaolin Faut qu'tu constates C'est clair qu'on a du style quand on s'tape Sors les caméras si tu veux qu'on s'batte On fait du Kung-fu Shaolin Ils arrivent c'est l'école Kung-fu Shaolin Jet li, Jackie, Sammo and Yuen Woo-ping Pour les Asiats, la ???, les ??? Au combat c'est l'école Kung-fu Shaolin Ils ont reçu une belle correction Bienvenue dans la Zone 51 degrés sous les spots En plein milieu du désert où les verres se télescopent L'anisette plein les nasaux, oublie la Nasa C'est l'retour du space apéro J'ai ma dose de kérozen et l'blaze au zef Les doigts d'pieds en éventail dans notre astronef Gérard Bastronef, tu sais à quoi j'carbure Si c'est la panne sèche, on est prêts à l'boire pur Dans l'espace les liquides s'transforment en glace Qu'est ce qu'on s'en fout d'trouver d'l'eau sur Mars On boit du blanc, du rouge et du rose-well Une soif extraterrestre qui m'donne mauvaise alien Et met sur orbite, cacahuètes comme satellites J'gravite à la rencontre du troisième litre On troue la couche d'eau jaune en soucoupe volante Avant la flotte, n'oublie pas la sous-couche violente C'est un voyage fantastique Les réservoirs d'la fusée sont remplis d'Pastis Oublie l'espace temps On va traverser l'espastis Prêts à décoller vers la Zone 51 On part à des Anis lumière Écumer les terrasses du système solaire Et on ira s'enflammer dans la stratosphère Pour atterrir enfin dans la Zone 51 Où sont les packs de bière dans l'??? ??? ma liqueur de réglisse La mise en orbite autour du Pastis Zone 51, fais-le moi c'est nostalgique À quel moment la chose à dérapé ? D'où proviennent ces petits hommes verres à pieds Pourquoi tous adoptent l'accent marseillais ? Quelqu'un peut-il m'expliquer !?</t>
+          <t>T'as invité Gérard Baste T'as invité l'grand blond à la casquette noire T'as invité les rois d'la gaffe Toutes les conneries qu'on peut faire, tu vas pas y croire T'as voulu voir Gérard Baste T'as voulu voir l'grand blond à la casquette noire T'as vu 2 pauvres types à la masse Qui t'ont fait la misère, c'est la guerre, Babaste et Pedro Winter J'débarque sur la scène trop stylé J'fais un p'tit tour sur moi même J'm'emmêle les ieps dans l'fil du mic et j'me vautre la tête dans l'retour C'est pas encore du Michael Jackson Mais c'est d'ja Bad d'commencé l'concert en s'pétant l'arcade sourcilière C'est sûr c'est signé Gérard Au bout d'2 s'condes c'est l'feu, au bout d'4 c'est l'trou d'mémoire Heu Alors j'bafouille et j'postillonne J'crache dans lil d'la gonzesse au 1er rang, celle qu'était mignonne Je m'retourne vers les hommes, vu qu'autant qu'j'oublie les femmes En voulant taper un ??? j'file un coup d'pompe à un fan Oh putain c'est infâme, y'a la moitié d'la salle qui s'vide Quand les potes de l'autre qu'j'ai heurter m'saute à pieds joints sur l'bide Y'a du sang, d'la sueur et d'la drogue Mais qu'est ce t'attendais d'un bon vieux concert de Hard-rock !? Troque ce survet' Lacoste ici y'a qu'des headbanger The Headbangers, c'est Gérard Baste et Pedro Winter The Headbangers x3 T'as invité Gérard et l'grand blond à la casquette noire The Headbangers x3 Toutes les conneries qu'on peut faire, tu vas pas y croire The Headbangers x3 T'as invité les rois d'la gaffe The Headbangers x3 C'est Pedro Winter et Gérard Baste Coup d'gong, SB, Chang brothers présente fièrement L'pauvre type qui s'endort à l'heure du soleil levant Testicules de buffle, haleine de dragon Il sent l'fauve comme le tigre, v'là l'homme ivre C'est Gérard Baste le drunkmaster Toi tu sors le saké, moi j'sors mon style désastreux Fais tourner la jarre, car d'abord j'me désaltère Ensuite j'te montre la technique du gars qui tombe par terre Trop vite la bouteille est trop vide C'est trop bête, tu viens d'te faire taper à coup d'gros bide Sumo, physique à la Sammo Hung À moi tout seul j'pèse le poids des 2 autres Shaolin Comme Dr. Vince, j'ai l'dos tatouer à l'encore noire D'un calligramme qui en vieux Mandarin signifie À boire Tu f'rais bien d't'habituer aux drames Car quand j'ai 2,3 litres dans l'sang, j'ai trop d'idées au gramme J'ai pas appris les arts martiaux au Tibet comme Batman Mais dans l'supermarché, au rayon bières, appelle-moi Pack-Man Entrainement intensif pour qu'mes muscles gonflent Puis j'traîne dans la neige pour maîtriser l'style du gars enrhumé qui ronfle Comme Jackie Chan, j'assure moi-même les cascades Encore un verre et j'te montre comment j'roule sous la table Oublie l'Tai-chi, l'Jujitsu, là j'me chie d'ssus J'suis occidental mais j'ai les yeux bridés quand j'ai bu Faut qu'tu constates C'est clair qu'on a du style quand on s'tape Sors les caméras si tu veux qu'on s'batte On fait du Kung-fu Shaolin Faut qu'tu constates C'est clair qu'on a du style quand on s'tape Sors les caméras si tu veux qu'on s'batte On fait du Kung-fu Shaolin Ils arrivent c'est l'école Kung-fu Shaolin Jet li, Jackie, Sammo and Yuen Woo-ping Pour les Asiats, la ???, les ??? Au combat c'est l'école Kung-fu Shaolin Ils ont reçu une belle correction Bienvenue dans la Zone 51 degrés sous les spots En plein milieu du désert où les verres se télescopent L'anisette plein les nasaux, oublie la Nasa C'est l'retour du space apéro J'ai ma dose de kérozen et l'blaze au zef Les doigts d'pieds en éventail dans notre astronef Gérard Bastronef, tu sais à quoi j'carbure Si c'est la panne sèche, on est prêts à l'boire pur Dans l'espace les liquides s'transforment en glace Qu'est ce qu'on s'en fout d'trouver d'l'eau sur Mars On boit du blanc, du rouge et du rose-well Une soif extraterrestre qui m'donne mauvaise alien Et met sur orbite, cacahuètes comme satellites J'gravite à la rencontre du troisième litre On troue la couche d'eau jaune en soucoupe volante Avant la flotte, n'oublie pas la sous-couche violente C'est un voyage fantastique Les réservoirs d'la fusée sont remplis d'Pastis Oublie l'espace temps On va traverser l'espastis Prêts à décoller vers la Zone 51 On part à des Anis lumière Écumer les terrasses du système solaire Et on ira s'enflammer dans la stratosphère Pour atterrir enfin dans la Zone 51 Où sont les packs de bière dans l'??? ??? ma liqueur de réglisse La mise en orbite autour du Pastis Zone 51, fais-le moi c'est nostalgique À quel moment la chose à dérapé ? D'où proviennent ces petits hommes verres à pieds Pourquoi tous adoptent l'accent marseillais ? Quelqu'un peut-il m'expliquer !?</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1892,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tinquiètes, cette année on fait le Hellfest Oh ! J'tape du poing d'toutes mes forces sur les platines sblah ! J'vide un jerrican dans la cabine ah ! J'bouffe le mic', j'me lèche les babines J'te mets un coup d'boule en t'tirant par les narines ça vient de là! Nique sa re-mè, j'vide tous les rres-ve BIM dans ta te-tê, ouais j'emmerde la rre-Te Obligé d'les écraser, matte le peuple qu'il y a J'arrache les baffles et j'les broie, appelle-moi Clubzilla J'suis trop puissant, j'pète et j'fais dérailler l'tro-me J'ai aucune pitié, en festival j'passe du Neochrome J'veux être le premier rappeur à faire le Hellfest C'est dead mec, laisse la glace on pète ce Jack Daniel's sec Toutes nos actions sont à peine légales Mes passions lapocalypse et le Death metal Bougez vos seufs, merde, ici c'est pas le Club Med J'le retourne, j'le massacre et j'laisse le club dead Viens avec nous on part pour le Hellfest Tout l'monde saute dans le car pour le Hellfest Si tu vis tous les jours comme au Hellfest Tu vas voir quand on va venir au Hellfest Viens avec nous on part pour le Hellfest Quand la foule se sépare comme au Hellfest On va vider tous les bars dans le Hellfest Tu vas voir quand on va venir au Hellfest You might also like Eh yo Biff' Biff' Raconte-leur comme ça s'passe là-bas J'ramène un Caddie dans l'camping, ce soir c'est l'remake des Vikings Au bar à vin, j'ai plus une tune, on s'retrouve direct dans les vignes Ou direct au Leclerc, à six heures dans la cantine On surf les tables comme sur les îles, j'suis fonsdé sous la Valley J'fais des morts dans la Warzone Qu'est-ce que j'viens d'avaler ? Seulement 2, 3 litres de rhum Jconnais Camden comme ma poche, sans même traverser la Manche Un gros oigt-d pour Christine et t'as l'bonjour du festival bonjour Tiens tant pis si ça rime Retourne brûler tes semblables J'suis à Clisson dans mon tiekson J'veux ma maison devant l'rond-point Pas par passion qu'j'ai dl'embonpoint Au Hell Fest qu'est-ce qu'on mange bien ! J'aime la graisse et le matin gros mes fesses elles sont pleins d'vin Faut qu'j'me vide et qu'j'me re-plein Circle Pit comme les Indiens J'perds ma vie au Metal Corner J'passe ma vie allongé dans l'herbe sous la statut de Lemmy Sans crème solaire, j'bois ma bière, j'fume mon boze, j'fais des pauses comme fonctionnaire Mains en l'air et l'osmose éclate dans l'air Wall Of Death Viens avec nous on part pour le Hellfest Tout l'monde saute dans le car pour le Hellfest Si tu vis tous les jours comme au Hellfest Tu vas voir quand on va venir au Hellfest Viens avec nous on part pour le Hellfest Quand la foule se sépare comme au Hellfest On va vider tous les bars dans le Hellfest Tu vas voir quand on va venir au Hellfest2</t>
+          <t>Tinquiètes, cette année on fait le Hellfest Oh ! J'tape du poing d'toutes mes forces sur les platines sblah ! J'vide un jerrican dans la cabine ah ! J'bouffe le mic', j'me lèche les babines J'te mets un coup d'boule en t'tirant par les narines ça vient de là! Nique sa re-mè, j'vide tous les rres-ve BIM dans ta te-tê, ouais j'emmerde la rre-Te Obligé d'les écraser, matte le peuple qu'il y a J'arrache les baffles et j'les broie, appelle-moi Clubzilla J'suis trop puissant, j'pète et j'fais dérailler l'tro-me J'ai aucune pitié, en festival j'passe du Neochrome J'veux être le premier rappeur à faire le Hellfest C'est dead mec, laisse la glace on pète ce Jack Daniel's sec Toutes nos actions sont à peine légales Mes passions lapocalypse et le Death metal Bougez vos seufs, merde, ici c'est pas le Club Med J'le retourne, j'le massacre et j'laisse le club dead Viens avec nous on part pour le Hellfest Tout l'monde saute dans le car pour le Hellfest Si tu vis tous les jours comme au Hellfest Tu vas voir quand on va venir au Hellfest Viens avec nous on part pour le Hellfest Quand la foule se sépare comme au Hellfest On va vider tous les bars dans le Hellfest Tu vas voir quand on va venir au Hellfest Eh yo Biff' Biff' Raconte-leur comme ça s'passe là-bas J'ramène un Caddie dans l'camping, ce soir c'est l'remake des Vikings Au bar à vin, j'ai plus une tune, on s'retrouve direct dans les vignes Ou direct au Leclerc, à six heures dans la cantine On surf les tables comme sur les îles, j'suis fonsdé sous la Valley J'fais des morts dans la Warzone Qu'est-ce que j'viens d'avaler ? Seulement 2, 3 litres de rhum Jconnais Camden comme ma poche, sans même traverser la Manche Un gros oigt-d pour Christine et t'as l'bonjour du festival bonjour Tiens tant pis si ça rime Retourne brûler tes semblables J'suis à Clisson dans mon tiekson J'veux ma maison devant l'rond-point Pas par passion qu'j'ai dl'embonpoint Au Hell Fest qu'est-ce qu'on mange bien ! J'aime la graisse et le matin gros mes fesses elles sont pleins d'vin Faut qu'j'me vide et qu'j'me re-plein Circle Pit comme les Indiens J'perds ma vie au Metal Corner J'passe ma vie allongé dans l'herbe sous la statut de Lemmy Sans crème solaire, j'bois ma bière, j'fume mon boze, j'fais des pauses comme fonctionnaire Mains en l'air et l'osmose éclate dans l'air Wall Of Death Viens avec nous on part pour le Hellfest Tout l'monde saute dans le car pour le Hellfest Si tu vis tous les jours comme au Hellfest Tu vas voir quand on va venir au Hellfest Viens avec nous on part pour le Hellfest Quand la foule se sépare comme au Hellfest On va vider tous les bars dans le Hellfest Tu vas voir quand on va venir au Hellfest2</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1909,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>T'inquiètes ! On a déjà fait le Hellfest ! Le p'tit doigt et l'index sont les cornes du diable Remue la tête d'avant en arrière, fan de death metal Retrouve-nous au bar VIP, bouteilles PP On va t'faire la misère en sirotant 2 ou 3 Lemmy Scarifications, Marilyn Manson Putain d'fute zébré et une tonne de clous sur l'blouson On va t'chopper par le col du perfecto, ouais grave Jusqu'à c'qu'une tonne de sueur gicle de tes cheveux gras Pour toi c'est lévénement d'l'année, tu t'es endetté Pour nous il s'agit juste d'un énième endroit à défoncer Cerise sur l'gâteau, clou du spectacle Il parait qu'au catering y'a tout un groupe qui font les foulek Mais c'est nous mec ! Qu'les suiciders remuent leurs fesses On va faire faire le lean back à tout le Hellfest Lean back, lean back, lean back Viens avec nous on part pour le Hellfest Tout l'monde saute dans le car pour le Hellfest Si tu vis tous les jours comme au Hellfest Tu vas voir quand on va venir au Hellfest Viens avec nous on part pour le Hellfest Quand la foule se sépare comme au Hellfest On va vider tous les bars dans le Hellfest Tu vas voir quand on va venir au Hellfest You might also like Tu l'as vu à la télé ! Mais c'est pour de vrai ! Svinkels ! Avis à la population, à tous les traînes-savates On vient ressusciter Ozzy, ce soir c'est l'Black Sabbath J'ai ressorti les bacs de t-shirts loup, la casquette cloutée Ça va être ultra violent, y'aura pas d'scène floutée Ouais je choque les ploucs, j'bouche les trous et j'empoche les sous Ma vie et celle de mes potes c'est la biographie de Mötley Crüe J'rappe comme un pot d'échappement que l'huile de moteur encrasse J'réponds aux fans mais dans une enveloppe rempli d'anthrax On fait dans l'thrash comme Slayer On t'prépare une belle frayeur Toujours Megadeth, mes gars disent Baste, c'est l'meilleur! Tu vas pas m'dire qu'c'est pareil, Lemmy et Pharell Mais j'ai grandi avec Time Bomb et les solos d'Dimebag Darrell J'en place une pour Xtreme Fest et le Motocultor Ce soir même les pires geeks se prennent pour Musclor Et surtout viens nous les montrer si t'as une paire de belles fesses On est le premiers et les seuls rappeurs à faire le Hellfest Viens avec nous on part pour le Hellfest Tout l'monde saute dans le car pour le Hellfest Si tu vis tous les jours comme au Hellfest Tu vas voir quand on va venir au Hellfest Viens avec nous on part pour le Hellfest Quand la foule se sépare comme au Hellfest On va vider tous les bars dans le Hellfest Tu vas voir quand on va venir au Hellfest</t>
+          <t>T'inquiètes ! On a déjà fait le Hellfest ! Le p'tit doigt et l'index sont les cornes du diable Remue la tête d'avant en arrière, fan de death metal Retrouve-nous au bar VIP, bouteilles PP On va t'faire la misère en sirotant 2 ou 3 Lemmy Scarifications, Marilyn Manson Putain d'fute zébré et une tonne de clous sur l'blouson On va t'chopper par le col du perfecto, ouais grave Jusqu'à c'qu'une tonne de sueur gicle de tes cheveux gras Pour toi c'est lévénement d'l'année, tu t'es endetté Pour nous il s'agit juste d'un énième endroit à défoncer Cerise sur l'gâteau, clou du spectacle Il parait qu'au catering y'a tout un groupe qui font les foulek Mais c'est nous mec ! Qu'les suiciders remuent leurs fesses On va faire faire le lean back à tout le Hellfest Lean back, lean back, lean back Viens avec nous on part pour le Hellfest Tout l'monde saute dans le car pour le Hellfest Si tu vis tous les jours comme au Hellfest Tu vas voir quand on va venir au Hellfest Viens avec nous on part pour le Hellfest Quand la foule se sépare comme au Hellfest On va vider tous les bars dans le Hellfest Tu vas voir quand on va venir au Hellfest Tu l'as vu à la télé ! Mais c'est pour de vrai ! Svinkels ! Avis à la population, à tous les traînes-savates On vient ressusciter Ozzy, ce soir c'est l'Black Sabbath J'ai ressorti les bacs de t-shirts loup, la casquette cloutée Ça va être ultra violent, y'aura pas d'scène floutée Ouais je choque les ploucs, j'bouche les trous et j'empoche les sous Ma vie et celle de mes potes c'est la biographie de Mötley Crüe J'rappe comme un pot d'échappement que l'huile de moteur encrasse J'réponds aux fans mais dans une enveloppe rempli d'anthrax On fait dans l'thrash comme Slayer On t'prépare une belle frayeur Toujours Megadeth, mes gars disent Baste, c'est l'meilleur! Tu vas pas m'dire qu'c'est pareil, Lemmy et Pharell Mais j'ai grandi avec Time Bomb et les solos d'Dimebag Darrell J'en place une pour Xtreme Fest et le Motocultor Ce soir même les pires geeks se prennent pour Musclor Et surtout viens nous les montrer si t'as une paire de belles fesses On est le premiers et les seuls rappeurs à faire le Hellfest Viens avec nous on part pour le Hellfest Tout l'monde saute dans le car pour le Hellfest Si tu vis tous les jours comme au Hellfest Tu vas voir quand on va venir au Hellfest Viens avec nous on part pour le Hellfest Quand la foule se sépare comme au Hellfest On va vider tous les bars dans le Hellfest Tu vas voir quand on va venir au Hellfest</t>
         </is>
       </c>
     </row>
@@ -1940,11 +1924,7 @@
           <t>Hip the Line</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1959,7 +1939,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mais qui a laisser les chiens sortir ? Bordel, que fait la police ? Y'a vraiment plus d'justice Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes J'crache mes rimes, boxe le truc Fuck le reste, je botte les culs Je rappe, tu sues, t'es sûr qu'tu suis ? T'es ???, j'suis ??? Te rappe un ??? Mais si t'en chies haineux, je suis sympa J'redescendrais t'bicrave du shit Et ouais, je fais mon fric sur l'dos d'Gaspard et Xavier JB, ouvre la teille, on fait même groover l'gravier Moi je craque un gros spliff pour faire passer l'dragée Gros flow dans le gosier, bienvenue dans le brasier yeah! Crie mon blaze, je suis cramé, jamais naze J'ai craché des tas d'phases barrées genre raz d'marée Carré sur le groove, salaud, j'arrive à grands coups d'sabots Ça, ça va te foutre la gaule Viagra dans mes p'tites paroles, ok Avoue qu'ça roule, ça coule, soul, laidback Sur l'beat ça coule Et si ta meuf se cache man, c'est qu'ça lui hérisse la touffe Elle est pas clean ta pouf, elle veut rentrer gratuit en club Faire baisser l'prix d'la schnouf Et ouais, biz' de flouze Et moi j'te pisse dessus man, toi et ta clique de pute J'viens fourrer l'game, ça va faire mal car j'ai la bite de Hulk Mi-homme, mi-démon, je dégomme quand le beat démonte Ça y est mec j'amorce le décompte Bientôt les faux s'ront dans l'décors You might also like Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes On va r'tourner ton appart' On est v'nus boire et vomir Qui c'est qu'à app'ler les flics ? J'entends les sirènes venir oups, oups, oups Hou! Baisser la musique, plutôt mourir Allez vous faire enculé! mais j'le dis avec le sourire J'nique la justice et l'armée, j'baise la mère supérieure Appelle-moi Johnnie Haut-l'cur, car mon style técure Hou! J'suis un putain d'entertainer Slip crade sur l'ring et j'te pousse dans l'cercueil de l'Undertaker Tu flippes de faire l'amour devant les paparazzis Ta mère, ta sur la pute terroriste comme Materazzi J'men sur-bats les steaks du foot mais j'suis quand même pour Paris Et j'trace direction Cancún au volant d'Lolo Ferrari J'ai fini la mallette de Kanterbräu Entouré d'groupies du pénis, j'suis plus cool qu'on skateur pro J'me l'paquet comme Bigard À l'aise dans mon slibard, une pipe et un bon cigard J'suis cru comme au sushi bar Perdu dans la mousse, totalement à la masse On s'met d'grosses races, d'grosses traces grasses sur les 5 bonnes garces J'ai toujours des supers plans teuf J'suis glandeur nature, au bout d'mon gland c'est pas du blanc duf J'donne dans la jute verbale, j'envoie d'la rage sur les ondes J'suis indigné, presque parfait, à part la crasse sous mes ongles Alors les problèmes de conscience, qu'est ce que ça peut m'foutre, man ? J'te zappe, et j'envoie l'son qui pète comme Roger Proutman x2 Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes</t>
+          <t>Mais qui a laisser les chiens sortir ? Bordel, que fait la police ? Y'a vraiment plus d'justice Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes J'crache mes rimes, boxe le truc Fuck le reste, je botte les culs Je rappe, tu sues, t'es sûr qu'tu suis ? T'es ???, j'suis ??? Te rappe un ??? Mais si t'en chies haineux, je suis sympa J'redescendrais t'bicrave du shit Et ouais, je fais mon fric sur l'dos d'Gaspard et Xavier JB, ouvre la teille, on fait même groover l'gravier Moi je craque un gros spliff pour faire passer l'dragée Gros flow dans le gosier, bienvenue dans le brasier yeah! Crie mon blaze, je suis cramé, jamais naze J'ai craché des tas d'phases barrées genre raz d'marée Carré sur le groove, salaud, j'arrive à grands coups d'sabots Ça, ça va te foutre la gaule Viagra dans mes p'tites paroles, ok Avoue qu'ça roule, ça coule, soul, laidback Sur l'beat ça coule Et si ta meuf se cache man, c'est qu'ça lui hérisse la touffe Elle est pas clean ta pouf, elle veut rentrer gratuit en club Faire baisser l'prix d'la schnouf Et ouais, biz' de flouze Et moi j'te pisse dessus man, toi et ta clique de pute J'viens fourrer l'game, ça va faire mal car j'ai la bite de Hulk Mi-homme, mi-démon, je dégomme quand le beat démonte Ça y est mec j'amorce le décompte Bientôt les faux s'ront dans l'décors Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes On va r'tourner ton appart' On est v'nus boire et vomir Qui c'est qu'à app'ler les flics ? J'entends les sirènes venir oups, oups, oups Hou! Baisser la musique, plutôt mourir Allez vous faire enculé! mais j'le dis avec le sourire J'nique la justice et l'armée, j'baise la mère supérieure Appelle-moi Johnnie Haut-l'cur, car mon style técure Hou! J'suis un putain d'entertainer Slip crade sur l'ring et j'te pousse dans l'cercueil de l'Undertaker Tu flippes de faire l'amour devant les paparazzis Ta mère, ta sur la pute terroriste comme Materazzi J'men sur-bats les steaks du foot mais j'suis quand même pour Paris Et j'trace direction Cancún au volant d'Lolo Ferrari J'ai fini la mallette de Kanterbräu Entouré d'groupies du pénis, j'suis plus cool qu'on skateur pro J'me l'paquet comme Bigard À l'aise dans mon slibard, une pipe et un bon cigard J'suis cru comme au sushi bar Perdu dans la mousse, totalement à la masse On s'met d'grosses races, d'grosses traces grasses sur les 5 bonnes garces J'ai toujours des supers plans teuf J'suis glandeur nature, au bout d'mon gland c'est pas du blanc duf J'donne dans la jute verbale, j'envoie d'la rage sur les ondes J'suis indigné, presque parfait, à part la crasse sous mes ongles Alors les problèmes de conscience, qu'est ce que ça peut m'foutre, man ? J'te zappe, et j'envoie l'son qui pète comme Roger Proutman x2 Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1956,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Je viens du Nord je suis comme John Snow Et les briques rouges c'est la maison Winterfell On pense avec nos têtes et si on se fais péter c'est R A Roubaix je peux te le dire y'a plus d'une quinzaine de CR Le gueush la prend dans le nez comme si c'étais un PCR Ils parlent de gros bolides ils l'es roulent même pas en VR Et c'est encore Elys qui viens que pour défourailler On st tous fous alliés t'a déjà vu deux fours alliés ? Le jour ou t'en vois un c'est qu'y'a un gérant en commun T'en reconnais un vrai quand y'es la même sous temps pluvieux Des schlagues j'en ai servi et je peux dire que j'en ai fais plus d'un Ils se la coupent sur mon âge ils me disaient Elyes tu fais plus vieux J'entame les 17 ans sous la casquette j'ai la vingtaine Je ressors avec un album si un jour je suis en quarantaine Il veut un 20 euros donc je met deux 10 dans le même morceau Toi t'es pas dans les temps et tu viens me parler de mes morceaux Lever une perte de temps tu me verras pas sur un 2 temps Et je dois finir un freestyle mais j'écris celui la en même temps Dehors toute la journée pendant que tu jouer a la play 20 000 en grande coupure c'est assez pour soigner une plaie Frérot je fais ma journée je ferme ma gueule et je claque pas la paye Frère c'est pas compliqué nous pour les bep on a les clefs Et j'ai encore de l'inspi tu sais que je peux pas m'arrêter la Je vous renvoie une cartouche si vous êtes chaud arrêter la Moi je me contente juste de rouler parce que je sais pas piloter Village sur pilotis donc l'instru je dois la siroter Et c'est triste a dire mais leur loyauté m'attriste c'est pas la rouge ou la bleu frère on est pas dans matrix Et parles moi pas des tiens frère ici tout le monde a ses regrets J'ai pas chercher l'amour moi je viens rabattre le schlague dans le près De la frontière on est tout près, mais avec elle je suis distant A ce qui parait ils sont prêts, ces menteurs sont épuisant Je fais du rap mais est ce que je l'a veux temps cette argent Frérot pour un autre âge j'ai eu affaire a plus de sept agents Frère c'est un bleu de travail je m'en bats les couilles de ton uniforme Et les portes du succès je l'ai ouvre avec un cruciforme Les humains sont fêler les biyeh faut les crucifier Ma parole elle est fiable et si je te la donne faut s'y fier Si t'a pas les épaules au heps tu fume grâce a ton co Je suis né paranoïaque donc tu peux pas me donner en go Et c'est moi tard le soir qu'est passer avec les plein phares Je veux juste voir son regard de salope tremblé face au fer Mes parents y sont zehef donc je peux pas rentrer tard J'ai la mental je suis un DZ éduquer comme mon père Il me reste que une minute pourtant j'en ai des choses a dire Je le fais courir avec une batte j'imagine pas si ça tire Et fais pas semblant de me chercher quand tu sais ou me trouver Le rap ça me casse les couilles faut juste montrer qu'on sais kicker Je sais réfléchir mais parfois je me rend compte que je suis troubler La beuh ça deviens une attraction poto prend ton ticket Devant les meufs ils parlent j'imagine pas devant l'OPJ Y'a certaines choses qui font que c'est tout seul que j'ai du piger Qu'avec un petit peu de temps les potes te la mette a l'envers Et même la famille le ferais si c'étais normal de le faire T'étonne pas si tu vois un fer la ou ça parle affaire Y'en a qui parle trop facilement je l'ai vois plus quand faut le faire Tu parles sur mon dos tout le temps mais tu m'appelle mon frère Et moi je fais juste semblant de rien des fois c'est mieux de se taire Tu sais pas que tu fume celles des miens quand tu tire sur ton teh Dis toi que parmi ceux que tu selem y'a au moins une biyeh Sayer Elyes je crois que tu les crames avec un cran d'arrêt Dans tous les cas je suis loin devant avec un temps d'arrêt Sayer la machine est lancer maintenant faut m'arrêter Les jaloux hess les clips y se disent Elyes faut l'arreter Mais moi je veux que du cash la célébrité je vous la laisse Je traine avec ceux que l'état veux faire et veux tenir en laisse You might also like L'ambiance est sombre mais je suis la sous la quechua On étais trop presser donc c'est normal qu'on échoua Tiens je te sors de la Lemon et de l'amnésia t'a du choix Et je fais que bouger partout tu m'étonne que je perd du poids Khouya t'es poster donc les keufs font que te pister Y fume je l'accoste et me dis qu'il viens de la cité Je m'en bats les couilles moi tous ce que je voulais c'est le rabattre Au fil de la conversation je me rend compte qu'y'es un peu khabat Je lui fais sentir un 10 il me dis que c'est de la patate ça mère D'un coup il prend mon snap et j'ai réussi a le faire choper Je vais en rabattre des autres je pense a une villa sur la mer Mais ici c'est la rue pour réussir faut s'en échapper Je le considérer comme un frère lui même pas la moitié d'un Des fois je pense a leurs faire du sale je me dis Nhel sheitan Et sache qu'on fais pas demi-tour a la moitié du chemin Je mets le carburant avant de partir ça m'éviteras une panne Y m'appelle mon frère mais il parle sur mon dos Et quand je tiens le tarpés une vie elle tiens juste au bout de mon doigt Je me sent sale même après avoir fais l'odo La ville est si petite quand tu la vois bien du haut d'un toit Mais ils ont Winterfell, John snow et le D-stark? J'avais une bombonne sur moi tout blanc quand j'ai croisé sparte J'ai envie de vomir quand je détail de la beuh dès le sbah Ici c'est la mafia si tu biyeh on va te couper le sbah Lui c'est un bandeur, amoureux des meufs qu'on jette Je parles avec un trou de balle y dois penser que l'alcool ça se congèle L'extérieur est marron dedans y'es tout jaune Elyes y débite c'est un stre-mon en plus y'es tout jeune Et parles moi que sur snap sur numéro c'est trop dangereux Si je dois te le répéter bah nan la rue c'est pas un jeux Je suis pas sous CR et si j'ai pas de sous c'est R Je me leverais tôt le matin trouver un bon plan pour en faire D'ailleurs ça ma parler de déposer un sac a Anvers Des fois on pense pas trop on oublie même que y'a un enfer Mais on fais du terrain quand y fais beau ou sous l'averse Maman ton fils est débrouillard pour ça faut pas t'en faire Moi je suis un vrai gars dans ma tête je suis un vrai grand Tu sais je peux faire un dégât avec une cagoule des gants Je me lève pour faire des passes alors que de base je suis un buteur Il portait bien son nom en vrai Martin c'étais un Luther Défenseur adéquat ici c'est le Bayern München Ça ma dis sort des clipes je devais encore me créer une chaîne Je suis avec le Chen y'en a recaler des chiennes Et toi arrête le rap le son de ta voix me provoque une gène Je viens de rabattre le kamè je te laisse améa Eux c'est des grands bandits mais c'est que derrière une caméra Tu m'a pas donner d'aide t'inquiète ça ira Je sortirai une Audi c'est que du ?? une Porche Carrera Et reste jusqu'à la fin peut être que t'aura un petit refrain Je devrais passer plus de temps avec mon petit refrè Moi les problèmes je l'ai règles frerot je vais pas couper ton frein J'ai pas changer je vais rapper comme avant moi ça me dis rien d'être frais Frérot je t'ai rien fais dis moi pourquoi t'es mal Et comme a Marseille tu peux niquer t'es mort Ils sont mal de moi ils savent que je l'es démarre, j'avancerais dans ma ville même avec des remorts Frérot je t'ai rien fais dis moi pourquoi t'es mal Et comme a Marseille tu peux niquer t'es mort Ils sont mal de moi ils savent que je l'es démarre, j'avancerais dans ma ville même avec des remorts Je sors de GAV directe je fais mes lacets Mon avocat la police a menacer T'es au bout ça te fais mal de vendent la C C'est encore plus dur de te dire que tu dois la laisser Je sors de GAV directe je fais mes lacets Mon avocat la police a menacer T'es au bout ça te fais mal de vendent la C C'est encore plus dur de te dire que tu dois la laisser</t>
+          <t>Je viens du Nord je suis comme John Snow Et les briques rouges c'est la maison Winterfell On pense avec nos têtes et si on se fais péter c'est R A Roubaix je peux te le dire y'a plus d'une quinzaine de CR Le gueush la prend dans le nez comme si c'étais un PCR Ils parlent de gros bolides ils l'es roulent même pas en VR Et c'est encore Elys qui viens que pour défourailler On st tous fous alliés t'a déjà vu deux fours alliés ? Le jour ou t'en vois un c'est qu'y'a un gérant en commun T'en reconnais un vrai quand y'es la même sous temps pluvieux Des schlagues j'en ai servi et je peux dire que j'en ai fais plus d'un Ils se la coupent sur mon âge ils me disaient Elyes tu fais plus vieux J'entame les 17 ans sous la casquette j'ai la vingtaine Je ressors avec un album si un jour je suis en quarantaine Il veut un 20 euros donc je met deux 10 dans le même morceau Toi t'es pas dans les temps et tu viens me parler de mes morceaux Lever une perte de temps tu me verras pas sur un 2 temps Et je dois finir un freestyle mais j'écris celui la en même temps Dehors toute la journée pendant que tu jouer a la play 20 000 en grande coupure c'est assez pour soigner une plaie Frérot je fais ma journée je ferme ma gueule et je claque pas la paye Frère c'est pas compliqué nous pour les bep on a les clefs Et j'ai encore de l'inspi tu sais que je peux pas m'arrêter la Je vous renvoie une cartouche si vous êtes chaud arrêter la Moi je me contente juste de rouler parce que je sais pas piloter Village sur pilotis donc l'instru je dois la siroter Et c'est triste a dire mais leur loyauté m'attriste c'est pas la rouge ou la bleu frère on est pas dans matrix Et parles moi pas des tiens frère ici tout le monde a ses regrets J'ai pas chercher l'amour moi je viens rabattre le schlague dans le près De la frontière on est tout près, mais avec elle je suis distant A ce qui parait ils sont prêts, ces menteurs sont épuisant Je fais du rap mais est ce que je l'a veux temps cette argent Frérot pour un autre âge j'ai eu affaire a plus de sept agents Frère c'est un bleu de travail je m'en bats les couilles de ton uniforme Et les portes du succès je l'ai ouvre avec un cruciforme Les humains sont fêler les biyeh faut les crucifier Ma parole elle est fiable et si je te la donne faut s'y fier Si t'a pas les épaules au heps tu fume grâce a ton co Je suis né paranoïaque donc tu peux pas me donner en go Et c'est moi tard le soir qu'est passer avec les plein phares Je veux juste voir son regard de salope tremblé face au fer Mes parents y sont zehef donc je peux pas rentrer tard J'ai la mental je suis un DZ éduquer comme mon père Il me reste que une minute pourtant j'en ai des choses a dire Je le fais courir avec une batte j'imagine pas si ça tire Et fais pas semblant de me chercher quand tu sais ou me trouver Le rap ça me casse les couilles faut juste montrer qu'on sais kicker Je sais réfléchir mais parfois je me rend compte que je suis troubler La beuh ça deviens une attraction poto prend ton ticket Devant les meufs ils parlent j'imagine pas devant l'OPJ Y'a certaines choses qui font que c'est tout seul que j'ai du piger Qu'avec un petit peu de temps les potes te la mette a l'envers Et même la famille le ferais si c'étais normal de le faire T'étonne pas si tu vois un fer la ou ça parle affaire Y'en a qui parle trop facilement je l'ai vois plus quand faut le faire Tu parles sur mon dos tout le temps mais tu m'appelle mon frère Et moi je fais juste semblant de rien des fois c'est mieux de se taire Tu sais pas que tu fume celles des miens quand tu tire sur ton teh Dis toi que parmi ceux que tu selem y'a au moins une biyeh Sayer Elyes je crois que tu les crames avec un cran d'arrêt Dans tous les cas je suis loin devant avec un temps d'arrêt Sayer la machine est lancer maintenant faut m'arrêter Les jaloux hess les clips y se disent Elyes faut l'arreter Mais moi je veux que du cash la célébrité je vous la laisse Je traine avec ceux que l'état veux faire et veux tenir en laisse L'ambiance est sombre mais je suis la sous la quechua On étais trop presser donc c'est normal qu'on échoua Tiens je te sors de la Lemon et de l'amnésia t'a du choix Et je fais que bouger partout tu m'étonne que je perd du poids Khouya t'es poster donc les keufs font que te pister Y fume je l'accoste et me dis qu'il viens de la cité Je m'en bats les couilles moi tous ce que je voulais c'est le rabattre Au fil de la conversation je me rend compte qu'y'es un peu khabat Je lui fais sentir un 10 il me dis que c'est de la patate ça mère D'un coup il prend mon snap et j'ai réussi a le faire choper Je vais en rabattre des autres je pense a une villa sur la mer Mais ici c'est la rue pour réussir faut s'en échapper Je le considérer comme un frère lui même pas la moitié d'un Des fois je pense a leurs faire du sale je me dis Nhel sheitan Et sache qu'on fais pas demi-tour a la moitié du chemin Je mets le carburant avant de partir ça m'éviteras une panne Y m'appelle mon frère mais il parle sur mon dos Et quand je tiens le tarpés une vie elle tiens juste au bout de mon doigt Je me sent sale même après avoir fais l'odo La ville est si petite quand tu la vois bien du haut d'un toit Mais ils ont Winterfell, John snow et le D-stark? J'avais une bombonne sur moi tout blanc quand j'ai croisé sparte J'ai envie de vomir quand je détail de la beuh dès le sbah Ici c'est la mafia si tu biyeh on va te couper le sbah Lui c'est un bandeur, amoureux des meufs qu'on jette Je parles avec un trou de balle y dois penser que l'alcool ça se congèle L'extérieur est marron dedans y'es tout jaune Elyes y débite c'est un stre-mon en plus y'es tout jeune Et parles moi que sur snap sur numéro c'est trop dangereux Si je dois te le répéter bah nan la rue c'est pas un jeux Je suis pas sous CR et si j'ai pas de sous c'est R Je me leverais tôt le matin trouver un bon plan pour en faire D'ailleurs ça ma parler de déposer un sac a Anvers Des fois on pense pas trop on oublie même que y'a un enfer Mais on fais du terrain quand y fais beau ou sous l'averse Maman ton fils est débrouillard pour ça faut pas t'en faire Moi je suis un vrai gars dans ma tête je suis un vrai grand Tu sais je peux faire un dégât avec une cagoule des gants Je me lève pour faire des passes alors que de base je suis un buteur Il portait bien son nom en vrai Martin c'étais un Luther Défenseur adéquat ici c'est le Bayern München Ça ma dis sort des clipes je devais encore me créer une chaîne Je suis avec le Chen y'en a recaler des chiennes Et toi arrête le rap le son de ta voix me provoque une gène Je viens de rabattre le kamè je te laisse améa Eux c'est des grands bandits mais c'est que derrière une caméra Tu m'a pas donner d'aide t'inquiète ça ira Je sortirai une Audi c'est que du ?? une Porche Carrera Et reste jusqu'à la fin peut être que t'aura un petit refrain Je devrais passer plus de temps avec mon petit refrè Moi les problèmes je l'ai règles frerot je vais pas couper ton frein J'ai pas changer je vais rapper comme avant moi ça me dis rien d'être frais Frérot je t'ai rien fais dis moi pourquoi t'es mal Et comme a Marseille tu peux niquer t'es mort Ils sont mal de moi ils savent que je l'es démarre, j'avancerais dans ma ville même avec des remorts Frérot je t'ai rien fais dis moi pourquoi t'es mal Et comme a Marseille tu peux niquer t'es mort Ils sont mal de moi ils savent que je l'es démarre, j'avancerais dans ma ville même avec des remorts Je sors de GAV directe je fais mes lacets Mon avocat la police a menacer T'es au bout ça te fais mal de vendent la C C'est encore plus dur de te dire que tu dois la laisser Je sors de GAV directe je fais mes lacets Mon avocat la police a menacer T'es au bout ça te fais mal de vendent la C C'est encore plus dur de te dire que tu dois la laisser</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1973,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PLUME DÉCHIRÉE En chuchottement Cest la plume déchiré Jvous conseille juska la fin dlecouter Jfais pas trop dbruit jme fais discret Parce que ski va suivre Va sûrement vous étonnez Même pendant les pauses jécrirais Quand je chercherais quelque chose Jte parlerais Ya plein de choses Quon a dit sur moi Qui Mont broyer lcoeur Aujourdhui jai décider daffronter ma peur Jai décidé De ne plus me laisser faire Et surtout de ne plus Jouer celui qui été trop gentil Jessaye de me mettre un peu plus à labri Désormais quand jvais marcher Jai plus besoin drester sabrer Cque jdit Nest pas à prendre au premier degrés Si test mon poto jte laisserais jamais tirer Et perso jamais jte mentirais Même si cque jvais te dire Est difficile à digérer Ya des tarés qui tue des gens Et après ils regrettent Le pire dans tout ça Cest que leur famille les soutiennes toujours Ça cest inacceptable Moi je tue quelquun plus personne me parle Parce que je serais considéré Comme un meurtrier À chaque fois que je marcherai je serais griller Je pourrais crier autant de fois que jveux Tout le monde secarteras de moi Jespère que ce son va faire polémique Tas affaire à moi si je te vois en pleine rue En jetant des bouteilles par terre Tellement qutaime pas ton partenaire Tu serais même capable de lmettre par terre Sérieux faut que tu calme tes nerfs Ça sert à rien d faire la guerre On sait qui a quune équipe qui va gagner Donc faut changer de programme Jécoute plus ses accusations Je mapproche pas trop des interdictions Pour voir de laction Faut qutai pas peur dfaire attention Ya pas de dernière options Jrappe pas pour toucher des millions Pour bien vivre nous prions tous Quand tu fume trop près dmoi j tousse Pour retrouver la motivation on y est tous On a plus besoin dtoi Faut qutu tpousse On avance et on sdemerde tout seul Fait moi la geule moi jmen fous Parce que désormais jai envie dmarcher seul Jmen tamponne Complètement de ses histoires La jai lcou chaud Jsuis pas prés dme coucher On mdit souvent que jfais peur Que je fais plus vieux quun daron Que jtourne aussi en rond En regardant navarro Ya personne qui va taider Tu seras seul dans ton bouclier Tu pourras compter qusur toi Ten a rien a foutre des autres Tu vies qupour toi Les gens sont là qupour ton fric Ou pour ta célébrité Trouve toi des loisirs et tu penses quà toi Ne pense plus aux autres Meme après 10 verres de pastis et drosé Tout cque jdit est vrai Cest une bonne idée de mparler de loin Au moins on pourras identifier aucun témoins Jglisse sur ltapis volant dAladin Des qujsuis motivé jme met direct dans lbain Comme on dit jeu de mains jeu dvillain Jmameliore de mieux en mieux Jtravaille même quand ya lmistral Pour sconcentrer Il faut en avoir beaucoup dans lmental Tu est sensible si tu as un coeur sentimental Tu veux chercher des mecs pas très clean Fait gaffe ça va tmitrailler On spose pas la question Si test patron ou employé Ça met égal Mais faudrais mettre un point Dans les 2 camps Pour ça jvais vous aider À mettre ma petite touche principale Jtrouve pas ça normal De npas respecter la police nationale Même si ya des lois Qui sont abusé pour certain On peut pas faire autrement Jvous rappelle quon est des citoyens Notre pays nous devons le prendre en main Les plus belles filles sont de ma ville Désolé je ndis que là vérité Moi demain jme lève à 5 heure du mat Comme lindique mon dernier snap Vous vous rassemblez tous Comme des tortues collé Ne vous étonnez pas si vous avez ltorticoli Tu veut retrouver la forme Mais malheureusement test encore malade Tinquiète pas lavenir Va sûrement te faire guérir Tu ncrois plus en tes rêves La volonté te lpermettra Ce soir truc super bizarre jai lcou chaud Pas grave jvais mcoucher Si tu touches à mon père Tinquiète pas je ferais lnecessaire Jvais passer lpermis jsuis pas trop assr La jvais commencer à tplaire Ça fait 1 mois Que jsuis en stage en espace vert Jmen sors plutôt pas mal Cest mon avenir et ça jai pas honte de le dire Jreste connecté sur les actualités actuelles On sparle plus Cest un très lourd poid a traîner Mais quest tu veux Si on a pris cette décision Cest parce quon sest engrainer Après cest la vie faut pas sen arrêter là Ça me fait plaisir il y en a plein Qui se font des tatouages de mon nom Jcommence a mremettre au sport Mais jai pas le choix Je suis motivé alors jen profite Je vois des potos qui font la tête Il suffit davoir une meuf auprès deux Pour quil redevienne parfait Jai vu y en a plein qui ont cherché la merde Ils se sont fait refaire le portrait La a lheure quil est Ils doivent bosser en clinique En train dfaire portier Moi jen ai assez tu sais pourquoi? Avec toutes les personnes que jai encouragé À ton avis combien de vraies personnes Sont avec moi aujourdhui? Il doit y en avoir 3,4 pas plus Mais cest pas grave Je me suis tellement répété Tas compris ta famille jamais tu lassassines Tu sais quoi parfois La seule qui donne le plus de nouvelles Cest ta voisine Moi jtromperais jamais ta confiance Mais parfois jme cache derrière mon silence Jai croisé des gens Qui nrespectais pas les filles Franchement vous avez pas honte A les traiter comme si ils nétait rien du tout Mais sachez quelque chose Des filles cest comme vous et moi Juste que elles sont plus sensible Donc il faut les respecter Il faut les consoler quand elles sont mal Les aider quand elles sont en difficulté Jrappe pas pour faire le gros Si tu regarde bien,ça reste des textes réels Sans insulte sans violence Cest ça du bagzio Après y en a qui mdise tu nique le game Vazy faut tout niquer Mais moi jpeux pas dire ça Mes sons resterons des textes sincères,respectueux Oh bonhomme ça fait de 5 fois Que jte demande comment tu vas Tu fais que mlacher des vues Tu mparlais encore bien comme il faut La dernière fois qutu mas vue Mais là sache que ta dépasser les bornes Cest la dernière fois Qutendend parler de moi et qutu mrevois J tai rien fait et toi tu ma toujours rapporté Jespère que tu te rappelles Tout ce que je tai rapporté Jai toujours essayé de t contacter Même si l réseau wi-fi était hors de portée Quand test mal moi je suis toujours à côté Mais je sais pas toi tu veux jamais parler Jespère quun jour tu vas ouvrir ta bouche Si tu crois en toi Cest la force de ton cur qui va t remercier Et l pouvoir d lamour va devoir tinterroger Tu viens d tromper ton mari Et en plus tu oses jouer encore la canari A chaque fois qutu réfléchis Tu repenses quand tu lui as dit Quand est ce quon se marie Tu sais très bien qu ça va jamais sfaire Test plus son genre de fille pour lui plaire Tinquiète pas à cet heure çi Jen suis sûr quIl à trouver mieux Votre situation damour Est tombé dans les flammes Maintenant va falloir choisir un autre chemin Lui, croit pas que ça lui a fait du bien Le moment où tu las quitté Tu dit qu ta ldemon contre les gens Mais déjà si tas des soucis avec quelquun Va le téléphoner ou va lvoir en face à face Au lieu d texprimer sur snap Jvois des mecs dans lquartier Qui bache leurs scooteurs Ils devraient verrouiller complètement Leurs emplacements Parce que ya des ptits malins Et ils faut faire gaffe à ses gens Faut qutu mesure lempleur Mais faut surtout pas qutu pleures Tas vu tu las remarquer Jsuis toujours pas mort Mais ça embête plus dun Mais les gars personne va m arrêter Je sais quca vous casse les burnes Les quils me soutiennes Cest la plupart des blondes et brunes En cmoment il pleut cest un temp à crever Maintenant quand jfais du sport Jai comme une sensation Qumes yeux sont crevé Si jtinvite le verre tas ldroit dle lever Si tu fais lmac avec nous Tétonne pas si tas la mâchoire décroché Tu mas soulé là jai envie draccrocher La jsuis obligé dme couvrir Il fait un temps à mourir Le vent du Nord est prévu darriver Il vas falloir bien srechauffer Mais ça jpense que ça vas pas durer Ce son n seras jamais censuré On mdit que jsuis introuvable Mais pas du tout Cest juste que tu sais pas où chercher Ça fait 1 semaine qu jsuis injoignable Cest normal jenvie drester tranquille Au fur à mesure les problèmes sempile Et avec le temps on les oublie Ils sont écris pour un livre Une video,ou alors une petite série Bientôt j vais écrire un livre Mais là jdevoile le plus important Jessaye de rester dans lactuel Et surtout dans lréel Kestu fait au tel alors quta une atelle Jvois cette bande de potes Qui braque tout les commerces qui trouve Jles vois grimper sur un bâtiment Ils prennent lechelle Pour escalader par la fenêtre Mais manque de peau Ils arrivent dans lbatiment Ils voient qu ya rien à prendre Et ils aperçoivent une équipe de police Qui les voient cagoulé et armé jusquau pied Ils sont tous convoqués Et dise devant la police Que cetait pour faire juste un peu peur A ceux qui y travaille Ils ont du mal à avouer Mais là police Sait très bien quel sfait baratiner Le lendemain ils sont convoquer devant le juge Et le juge annonce la peine à chacun Tout les visages de ses jeunes Change complètement Ils deviennent tous pale Des larmes qui coule sur la table du tribunal Les familles sont aux courant Du coup quils ont monté Les familles tombe de très haut Certaines tombe dans une dépression Et dautres se suicide Parce quils n supporte plus Davoir c poid énorme Cest pas trop du love que jvous parle Mais cest la triste réalité Qui arrive tout les jours de partout Jai rien à regretter jai pas à me justifier La vie te prend la tête Comme quand tu vois cmec Qui tparle comme un chien Alors quil à 30 ans dplus que toi Ta envie dlui dire Tu tcrois ou à mparler comme ça Moi jsuis pas ta Boniche tas pas à msiffler Cest un plaisir Dêtre au côté dmon père à chaque réveil Mais j sais quil nest pas éternel Ne mparle pas Si tas pas un maximum de maturité Ne fait pas de conneries Sans prendre le maximum de précaution Jreste calme comme ce mec Qui a plus dnouvelles de personnes Tout lmonde croit quil mythonne Il sais pas parler sans faire demoticones Cest plutôt cool jlai vu faire du sport Autour du vieu port Il a croiser ses anciens potes toujours au rsa Ils ont plus envie dbosser Ils ont tous la cinquantaine Quand ils vont en boites ils disent aux meufs On a la quarantaine Mais elles savent très bien Quelles sfont rouler dans la farine Quand lunes dentre elles pleure Ça leur fait mal aux narines La plus jeune sappele delphine Et elle est engagé dans la Marine Jme tourne les pouces Comme ce mec qui fait rien dsa journée Il a pas dvie sociale mais il est bien comme ça Jsuis au courant des choses Que personne ne sais Comme toi qui fait des coups en douce Mais test pas assez discret Tu veux toujours essayer drester dans lsecret Mais sauf que tu ty prend mal On tas cramé tas plus quà changer dprojet Demande à ton collègue Roger Qui tembauche en tant quchef boucher Sa tante la cartoucher Avec lhôtesse du marché À force de marcher Tout lmonde las remarquer A force de prendre des taquets Tu vas enfin comprendre Que ça sert plus à rien d faire ltaré Jviens chez toi parce que jsens quchez moi Ty a fait une couille J sens un petit peu lembrouille Alors tu vas tout dsuite mexpliquer Avant quà ton domicile jfasse une fouille Je sais qutu touches Un peu à tout et tu bidouilles Mais là faut qutu tarrêtes Avant qutu tombes sur des gens Beaucoup moins sympas qumoi Qui tferont changer d planète Avec une seule balle qui ttouche la tête Faut connaître la recette pour bien réussir Faut pas être con faut pas être bête Faut comprendre qu test en danger Même dans les endroits perdu Tu sauras jamais ou scache les intrus Ta femme du jour au lendemain Elle peut tdire quel taime plus Soit tu décide de marcher seul Ou sois tu décide de prendre un chemin Qui te correspond pas Et qui te feras jamais faire demi tour Tu pourras demarrer au quart de tour Eux ils vont tsortir des armes de guerres Sur ltoit des tours Après avoir connu ça Tu compte faire demi tour ? Moi à ta place je tenterais même pas Jresterais chez moi Jfrequente les bonnes personnes Fin tu sauras jamais Si cest des personnes vraiment sincère À qui tu parles Faut toujours prendre de lécart Moi jai vus des gens Qui soit disant été pauvres Pourtant ils avaient des briques De 150 euros sur leurs meubles On peux aussi voir lbon coté des choses Je sais qu la jtenvoie une grosse dose Mais cest pas prêt d sarrêter Jai tellement dchose a dire Ya tellement dgens qui msoutienne Qui meurt qui pleure qui sbatte Ils mérite sûrement pas davoir Un manchot bloquer dans leurs pattes Ça fait longtemps qu jtai pas vu ,tu dates Jle reconnais quand jme rate Ya une explosion faut tous quon secarte En face ya un attentat dans lappart Faut tous quon descende à la gendarmerie Pour leurs expliquer cqui spasse La jcrois qui faut quon scasse Sinon on vas être les cibles idéales A force de voir des sous on a la dale Combien dpersonne souffres De labsence de leurs parents Ou de leurs enfants Jai une grosse pensée Pour toutes les victimes Et familles des victimes du bataclan Moi jai pas envie d foutre le camp Ou dme cacher Si jai envie daller au cinéma ou un concert Crois moi jle ferais Pour sen sortir faut quon parte à la nage Nous sommes tous des grands personnages On a tous en nous une énorme rage On a envie dlenfermer dans un bocal Et la jeter de toutes nos forces dans des cages On essaye de tous être sage Faut qutu l saches On monte dans lbatiment dla liberté Chambre 406 1 ère étage Il est tant dtourner la page Et laisser les mauvais souvenirs d côté Faut pas trop spresser Faut essayer d chuchoter Et faut surtout pas sauter La jsuis en train dmarcher Mais j sens qujai un point dcoté Jvais mposer en buvant un verre de thé Cest sympa nan même si on est pas en été Lui il mas clashé jlai direct recalé Tu penses quil mas pas répondu Parce quil a compris que jlai remis en place Ou alors parce quil à la trouille Jai pas ltemp quon mremplace Pour faire une fouille Test pas ma nièce pour mfaire des papouille Comme don corleone à dit La guerre doit sarrêter maintenant On est plus des gamins d5 ans Il faut parler avant dagir Écouter si cest vraiment officiel Avant dreflechir S faire respecter si on ose te contredire J compte pas marrêter là De bon matin jlaisse allumer ma télé Tu verrais les vacances où jétais en Savoie J te dis même pas comme jme pellais En 2018 dites-moi Qui sait pas comment mappeler Ils ne savent pas Si ils doivent mappeler par mon prénom Ou par mon nom dartiste Vous l savez très bien appelez-moi bagzio Quand j tappelle-moi j fais pas semblant Et au moins moi j te lâche pas des blancs Pour certains mes textes Vont sembler émouvant Mon rêve ce serait d mallonger Sur l sable mouvant Sans faire aucun mouvement Rester posé pendant deux trois heures Sans quy ai Quelquun qui m demande J vais y rester pendant combien d temps Jai pas envie d changer d camp J me suis toujours comporté comme un grand Pour éviter d ressembler à un brigand Jessaye davoir lautorité dun brigadier Pour éviter qu des jeunes Cherche à membrigader J Préfère les envoyer balader Laisse les saletés dans la corbeille J te garantis que j fais pas des sons Et des clips pour m faire Ou ramasser d loseille Jadore parler avec mes fans Jessaye de m rapprocher deux D les faire redonner l sourire Faire évader l malheur A lintérieur D leur cur Tu verrais dans lÉtat qu je suis Presque je transpire Mes os craques du nombril aux épaules Jai limpression qu tout mon corp S remet en place Jai pas le temps moi j bosse Allume les enceintes fais péter les bass Tu m propose de la drogue Mais pourtant tu sais très bien Qu j touche pas à ça Cest lanniversaire de ton pote Mais dis-moi quand ça? J comprends pas pourquoi tu radotes Cest que j dors dans la casa Dis-moi quest-ce qui t prouve Que j suis ton meilleur pote Beh Cest tout simplement Quon s les promit à la vie Mais tas voulu mtrahir Deux ans après quon ai Appris à s connaître Si tas une connerie à faire J te préviens tu seras tout seul à la commetre J vais devoir un peu posée Parce c que j crois qu jai la fièvre Que je fasse un son bizarre on m critique Que jen fasse un bon on mcritique aussi Quoi qu tu fasses Tu seras toujours taillé par les gens Venez entrer dans la légende Jvois en bas dchez moi Les ptits qui remonte Le quartier bouge toute la journée Les gens vienne reparte srejoigne et rerentre À croire que les petits rageux qui m critique Croive que Quand ils menvoient Des messages blessants Pense que ça m met une boule au ventre Mais ça m fait rien du tout Vous savez quoi allez y continuer Moi ça m rend plus fort Mais c que vous n comprenez pas Cest qu même Si vous mcritiquer gratuitement Vous parlez d moi quelque part Donc même sans l savoir Vous m faites connaître Même si vous parlez d moi en mal Tout l monde na pas l même point d vue Si tes un pote à moi J viendrais tsauver Si japprend qutest en garde à vue Jai grandis avec des mecs de la rue Ils avaient derrière eux un sale vécu Ils ont eu plusieurs confrontations Avec des agent dsécu Aujourdhui jai décidé drapper cru Cest pas d ma faute si tu mas pas cru Lautrefois j tai dis bonjour Tu mas même pas vu Dans les quartiers chauds Tu vois des gens qui sentre-tuent Ils sfont kalasher pour un regard dtravers Avec ses mecs Faut pas faire les chose de travers Tu commences à rentré dans lunivers Bordel j sors de chez moi J vois des poubelles renversées par terre Des canettes et des bouteilles Qui nont même pas pris la peine Dêtre jeté correctement Ils sont en plein trottoir J suis là pour dénoncer Ceux quils nprenne pas soin dla nature Si jen parle cest qu jsuis mature En écrivant jessaye de pas faire d ratures Jadore respirer lair pur Jme sens pas encore prêt dattendre le futur Faites attention quand vous êtes près d moi Parce qu après dans mes sons Vous entendrez tout ce que j dis Ou c que vous dites Ou peut-être c que jentends J te conseille de redescendre dun cran Parce que ty est pas encore assez grand Si il faut jrapperais juska mes 50 ans Jcrois qui en a qui msoutienne Vers saint Quentin J sais qui en a pleins qui sont près dmoi Et qui sont coquin Jleur souhaite leurs plus grand bonnheur Et quil soient toujours content J raconte mon vécu Le vécu d mes anciens potes Et dleurs parents Jprefere le dire Au moins tout le monde est au courant Hey petit si tu mécoute respecte tes parents Et aide ta sur si elle a des probleme Et toi la maman Reste plus proche de tes enfants Faire la cuisine cest une chose Mais eux cest lplus important 1 minute de silence Pour toutes les personnes Qui sont parties trop tôt C que jfais cest un boulot dpro Si tu mmontre 5 billet d500 jcrie codo A force de trop lever la roue en moto Tu finis avec un gros mal au dos Et le docteur va tdire ah beh bravo Jai pas envie quon salisse mon humeur Quand jai la trouille jessaye dcacher ma peur La jvais parler à toi Maintenant tu mfous la honte Tetais jamais là Quand y avait un règlement de compte On est pas à boston pour faire des bastons Jaime bien parler avec des fans Qui mpose plein dquestion Quelque fois cest insistant Mais chepa comment leur dire Mais cest pas grave ça mderange pas Ça mfait vraiment plaisir Moins jai d probleme mieux jme porte Comme on dit on recolte cque lon sème Mais jvous conseille De npas trop tirer sur la corde Faut qutassume tous seul tes conneries Personne ne sera là pour les réparer Tellement quje suis concentré sur mon boulot Jen ai des larmes qui coule Les vrais te dirons quje suis lplus cool La rage et la tristesse Jlai mélangé pour lecraser Maintenant jsuis réparer Maintenant Tout marche correctement pour moi Tout est bon tout est carré Nécoute plus tous ces tarés Ils te foutent la poisse sans arrêt Jembrasse les Freros en maison darrêt Attend attend jai pas encore fini dparler You might also like Je parle JESPÈRE QUE ÇA VOUS A BIEN SERVI TOUT CQUE JVOUS AI DIT PRENNEZ EN BIEN COMPTE CEST UNE REMISE EN QUESTION SUR LA VIE DE CHAQUE PERSONNE JEMBRASSE TOUT LMONDE MÊME CEUX QUI MSOUHAITE LE PLUS GRAND MALHEUR ÇA PARAÎT PEUT ÊTRE BIZARRE MAIS KESTUVEU FAIRE CEST COMME ÇA CEST GRÂCE À MON PÈRE ET MA MÈRE QUE AUJOURDHUI JSUIS COMME ÇA TIENS DAILLEURS JLES EMBRASSE JME SUIS SAIGNÉE POUR ÉCRIRE TOUT SES TEXTES MAIS QUAND MÉME JSUIS PAS CERTAIN QUE ÇA VA VRAIMENT BUZZER MAIS JE CHERCHE PAS DÊTRE CONNU COMME LE LOUP BLANC JRAPPE AVEC LE COEUR JAIMERAIS AVOIR UN MAXIMUM DE RECONNAISSANCE ENVERS MON TRAVAIL JVAIS DEVOIR VOUS LAISSER JAI ENCORE PLEIN DBOULOT BISOUS LA FAMILLE</t>
+          <t>PLUME DÉCHIRÉE En chuchottement Cest la plume déchiré Jvous conseille juska la fin dlecouter Jfais pas trop dbruit jme fais discret Parce que ski va suivre Va sûrement vous étonnez Même pendant les pauses jécrirais Quand je chercherais quelque chose Jte parlerais Ya plein de choses Quon a dit sur moi Qui Mont broyer lcoeur Aujourdhui jai décider daffronter ma peur Jai décidé De ne plus me laisser faire Et surtout de ne plus Jouer celui qui été trop gentil Jessaye de me mettre un peu plus à labri Désormais quand jvais marcher Jai plus besoin drester sabrer Cque jdit Nest pas à prendre au premier degrés Si test mon poto jte laisserais jamais tirer Et perso jamais jte mentirais Même si cque jvais te dire Est difficile à digérer Ya des tarés qui tue des gens Et après ils regrettent Le pire dans tout ça Cest que leur famille les soutiennes toujours Ça cest inacceptable Moi je tue quelquun plus personne me parle Parce que je serais considéré Comme un meurtrier À chaque fois que je marcherai je serais griller Je pourrais crier autant de fois que jveux Tout le monde secarteras de moi Jespère que ce son va faire polémique Tas affaire à moi si je te vois en pleine rue En jetant des bouteilles par terre Tellement qutaime pas ton partenaire Tu serais même capable de lmettre par terre Sérieux faut que tu calme tes nerfs Ça sert à rien d faire la guerre On sait qui a quune équipe qui va gagner Donc faut changer de programme Jécoute plus ses accusations Je mapproche pas trop des interdictions Pour voir de laction Faut qutai pas peur dfaire attention Ya pas de dernière options Jrappe pas pour toucher des millions Pour bien vivre nous prions tous Quand tu fume trop près dmoi j tousse Pour retrouver la motivation on y est tous On a plus besoin dtoi Faut qutu tpousse On avance et on sdemerde tout seul Fait moi la geule moi jmen fous Parce que désormais jai envie dmarcher seul Jmen tamponne Complètement de ses histoires La jai lcou chaud Jsuis pas prés dme coucher On mdit souvent que jfais peur Que je fais plus vieux quun daron Que jtourne aussi en rond En regardant navarro Ya personne qui va taider Tu seras seul dans ton bouclier Tu pourras compter qusur toi Ten a rien a foutre des autres Tu vies qupour toi Les gens sont là qupour ton fric Ou pour ta célébrité Trouve toi des loisirs et tu penses quà toi Ne pense plus aux autres Meme après 10 verres de pastis et drosé Tout cque jdit est vrai Cest une bonne idée de mparler de loin Au moins on pourras identifier aucun témoins Jglisse sur ltapis volant dAladin Des qujsuis motivé jme met direct dans lbain Comme on dit jeu de mains jeu dvillain Jmameliore de mieux en mieux Jtravaille même quand ya lmistral Pour sconcentrer Il faut en avoir beaucoup dans lmental Tu est sensible si tu as un coeur sentimental Tu veux chercher des mecs pas très clean Fait gaffe ça va tmitrailler On spose pas la question Si test patron ou employé Ça met égal Mais faudrais mettre un point Dans les 2 camps Pour ça jvais vous aider À mettre ma petite touche principale Jtrouve pas ça normal De npas respecter la police nationale Même si ya des lois Qui sont abusé pour certain On peut pas faire autrement Jvous rappelle quon est des citoyens Notre pays nous devons le prendre en main Les plus belles filles sont de ma ville Désolé je ndis que là vérité Moi demain jme lève à 5 heure du mat Comme lindique mon dernier snap Vous vous rassemblez tous Comme des tortues collé Ne vous étonnez pas si vous avez ltorticoli Tu veut retrouver la forme Mais malheureusement test encore malade Tinquiète pas lavenir Va sûrement te faire guérir Tu ncrois plus en tes rêves La volonté te lpermettra Ce soir truc super bizarre jai lcou chaud Pas grave jvais mcoucher Si tu touches à mon père Tinquiète pas je ferais lnecessaire Jvais passer lpermis jsuis pas trop assr La jvais commencer à tplaire Ça fait 1 mois Que jsuis en stage en espace vert Jmen sors plutôt pas mal Cest mon avenir et ça jai pas honte de le dire Jreste connecté sur les actualités actuelles On sparle plus Cest un très lourd poid a traîner Mais quest tu veux Si on a pris cette décision Cest parce quon sest engrainer Après cest la vie faut pas sen arrêter là Ça me fait plaisir il y en a plein Qui se font des tatouages de mon nom Jcommence a mremettre au sport Mais jai pas le choix Je suis motivé alors jen profite Je vois des potos qui font la tête Il suffit davoir une meuf auprès deux Pour quil redevienne parfait Jai vu y en a plein qui ont cherché la merde Ils se sont fait refaire le portrait La a lheure quil est Ils doivent bosser en clinique En train dfaire portier Moi jen ai assez tu sais pourquoi? Avec toutes les personnes que jai encouragé À ton avis combien de vraies personnes Sont avec moi aujourdhui? Il doit y en avoir 3,4 pas plus Mais cest pas grave Je me suis tellement répété Tas compris ta famille jamais tu lassassines Tu sais quoi parfois La seule qui donne le plus de nouvelles Cest ta voisine Moi jtromperais jamais ta confiance Mais parfois jme cache derrière mon silence Jai croisé des gens Qui nrespectais pas les filles Franchement vous avez pas honte A les traiter comme si ils nétait rien du tout Mais sachez quelque chose Des filles cest comme vous et moi Juste que elles sont plus sensible Donc il faut les respecter Il faut les consoler quand elles sont mal Les aider quand elles sont en difficulté Jrappe pas pour faire le gros Si tu regarde bien,ça reste des textes réels Sans insulte sans violence Cest ça du bagzio Après y en a qui mdise tu nique le game Vazy faut tout niquer Mais moi jpeux pas dire ça Mes sons resterons des textes sincères,respectueux Oh bonhomme ça fait de 5 fois Que jte demande comment tu vas Tu fais que mlacher des vues Tu mparlais encore bien comme il faut La dernière fois qutu mas vue Mais là sache que ta dépasser les bornes Cest la dernière fois Qutendend parler de moi et qutu mrevois J tai rien fait et toi tu ma toujours rapporté Jespère que tu te rappelles Tout ce que je tai rapporté Jai toujours essayé de t contacter Même si l réseau wi-fi était hors de portée Quand test mal moi je suis toujours à côté Mais je sais pas toi tu veux jamais parler Jespère quun jour tu vas ouvrir ta bouche Si tu crois en toi Cest la force de ton cur qui va t remercier Et l pouvoir d lamour va devoir tinterroger Tu viens d tromper ton mari Et en plus tu oses jouer encore la canari A chaque fois qutu réfléchis Tu repenses quand tu lui as dit Quand est ce quon se marie Tu sais très bien qu ça va jamais sfaire Test plus son genre de fille pour lui plaire Tinquiète pas à cet heure çi Jen suis sûr quIl à trouver mieux Votre situation damour Est tombé dans les flammes Maintenant va falloir choisir un autre chemin Lui, croit pas que ça lui a fait du bien Le moment où tu las quitté Tu dit qu ta ldemon contre les gens Mais déjà si tas des soucis avec quelquun Va le téléphoner ou va lvoir en face à face Au lieu d texprimer sur snap Jvois des mecs dans lquartier Qui bache leurs scooteurs Ils devraient verrouiller complètement Leurs emplacements Parce que ya des ptits malins Et ils faut faire gaffe à ses gens Faut qutu mesure lempleur Mais faut surtout pas qutu pleures Tas vu tu las remarquer Jsuis toujours pas mort Mais ça embête plus dun Mais les gars personne va m arrêter Je sais quca vous casse les burnes Les quils me soutiennes Cest la plupart des blondes et brunes En cmoment il pleut cest un temp à crever Maintenant quand jfais du sport Jai comme une sensation Qumes yeux sont crevé Si jtinvite le verre tas ldroit dle lever Si tu fais lmac avec nous Tétonne pas si tas la mâchoire décroché Tu mas soulé là jai envie draccrocher La jsuis obligé dme couvrir Il fait un temps à mourir Le vent du Nord est prévu darriver Il vas falloir bien srechauffer Mais ça jpense que ça vas pas durer Ce son n seras jamais censuré On mdit que jsuis introuvable Mais pas du tout Cest juste que tu sais pas où chercher Ça fait 1 semaine qu jsuis injoignable Cest normal jenvie drester tranquille Au fur à mesure les problèmes sempile Et avec le temps on les oublie Ils sont écris pour un livre Une video,ou alors une petite série Bientôt j vais écrire un livre Mais là jdevoile le plus important Jessaye de rester dans lactuel Et surtout dans lréel Kestu fait au tel alors quta une atelle Jvois cette bande de potes Qui braque tout les commerces qui trouve Jles vois grimper sur un bâtiment Ils prennent lechelle Pour escalader par la fenêtre Mais manque de peau Ils arrivent dans lbatiment Ils voient qu ya rien à prendre Et ils aperçoivent une équipe de police Qui les voient cagoulé et armé jusquau pied Ils sont tous convoqués Et dise devant la police Que cetait pour faire juste un peu peur A ceux qui y travaille Ils ont du mal à avouer Mais là police Sait très bien quel sfait baratiner Le lendemain ils sont convoquer devant le juge Et le juge annonce la peine à chacun Tout les visages de ses jeunes Change complètement Ils deviennent tous pale Des larmes qui coule sur la table du tribunal Les familles sont aux courant Du coup quils ont monté Les familles tombe de très haut Certaines tombe dans une dépression Et dautres se suicide Parce quils n supporte plus Davoir c poid énorme Cest pas trop du love que jvous parle Mais cest la triste réalité Qui arrive tout les jours de partout Jai rien à regretter jai pas à me justifier La vie te prend la tête Comme quand tu vois cmec Qui tparle comme un chien Alors quil à 30 ans dplus que toi Ta envie dlui dire Tu tcrois ou à mparler comme ça Moi jsuis pas ta Boniche tas pas à msiffler Cest un plaisir Dêtre au côté dmon père à chaque réveil Mais j sais quil nest pas éternel Ne mparle pas Si tas pas un maximum de maturité Ne fait pas de conneries Sans prendre le maximum de précaution Jreste calme comme ce mec Qui a plus dnouvelles de personnes Tout lmonde croit quil mythonne Il sais pas parler sans faire demoticones Cest plutôt cool jlai vu faire du sport Autour du vieu port Il a croiser ses anciens potes toujours au rsa Ils ont plus envie dbosser Ils ont tous la cinquantaine Quand ils vont en boites ils disent aux meufs On a la quarantaine Mais elles savent très bien Quelles sfont rouler dans la farine Quand lunes dentre elles pleure Ça leur fait mal aux narines La plus jeune sappele delphine Et elle est engagé dans la Marine Jme tourne les pouces Comme ce mec qui fait rien dsa journée Il a pas dvie sociale mais il est bien comme ça Jsuis au courant des choses Que personne ne sais Comme toi qui fait des coups en douce Mais test pas assez discret Tu veux toujours essayer drester dans lsecret Mais sauf que tu ty prend mal On tas cramé tas plus quà changer dprojet Demande à ton collègue Roger Qui tembauche en tant quchef boucher Sa tante la cartoucher Avec lhôtesse du marché À force de marcher Tout lmonde las remarquer A force de prendre des taquets Tu vas enfin comprendre Que ça sert plus à rien d faire ltaré Jviens chez toi parce que jsens quchez moi Ty a fait une couille J sens un petit peu lembrouille Alors tu vas tout dsuite mexpliquer Avant quà ton domicile jfasse une fouille Je sais qutu touches Un peu à tout et tu bidouilles Mais là faut qutu tarrêtes Avant qutu tombes sur des gens Beaucoup moins sympas qumoi Qui tferont changer d planète Avec une seule balle qui ttouche la tête Faut connaître la recette pour bien réussir Faut pas être con faut pas être bête Faut comprendre qu test en danger Même dans les endroits perdu Tu sauras jamais ou scache les intrus Ta femme du jour au lendemain Elle peut tdire quel taime plus Soit tu décide de marcher seul Ou sois tu décide de prendre un chemin Qui te correspond pas Et qui te feras jamais faire demi tour Tu pourras demarrer au quart de tour Eux ils vont tsortir des armes de guerres Sur ltoit des tours Après avoir connu ça Tu compte faire demi tour ? Moi à ta place je tenterais même pas Jresterais chez moi Jfrequente les bonnes personnes Fin tu sauras jamais Si cest des personnes vraiment sincère À qui tu parles Faut toujours prendre de lécart Moi jai vus des gens Qui soit disant été pauvres Pourtant ils avaient des briques De 150 euros sur leurs meubles On peux aussi voir lbon coté des choses Je sais qu la jtenvoie une grosse dose Mais cest pas prêt d sarrêter Jai tellement dchose a dire Ya tellement dgens qui msoutienne Qui meurt qui pleure qui sbatte Ils mérite sûrement pas davoir Un manchot bloquer dans leurs pattes Ça fait longtemps qu jtai pas vu ,tu dates Jle reconnais quand jme rate Ya une explosion faut tous quon secarte En face ya un attentat dans lappart Faut tous quon descende à la gendarmerie Pour leurs expliquer cqui spasse La jcrois qui faut quon scasse Sinon on vas être les cibles idéales A force de voir des sous on a la dale Combien dpersonne souffres De labsence de leurs parents Ou de leurs enfants Jai une grosse pensée Pour toutes les victimes Et familles des victimes du bataclan Moi jai pas envie d foutre le camp Ou dme cacher Si jai envie daller au cinéma ou un concert Crois moi jle ferais Pour sen sortir faut quon parte à la nage Nous sommes tous des grands personnages On a tous en nous une énorme rage On a envie dlenfermer dans un bocal Et la jeter de toutes nos forces dans des cages On essaye de tous être sage Faut qutu l saches On monte dans lbatiment dla liberté Chambre 406 1 ère étage Il est tant dtourner la page Et laisser les mauvais souvenirs d côté Faut pas trop spresser Faut essayer d chuchoter Et faut surtout pas sauter La jsuis en train dmarcher Mais j sens qujai un point dcoté Jvais mposer en buvant un verre de thé Cest sympa nan même si on est pas en été Lui il mas clashé jlai direct recalé Tu penses quil mas pas répondu Parce quil a compris que jlai remis en place Ou alors parce quil à la trouille Jai pas ltemp quon mremplace Pour faire une fouille Test pas ma nièce pour mfaire des papouille Comme don corleone à dit La guerre doit sarrêter maintenant On est plus des gamins d5 ans Il faut parler avant dagir Écouter si cest vraiment officiel Avant dreflechir S faire respecter si on ose te contredire J compte pas marrêter là De bon matin jlaisse allumer ma télé Tu verrais les vacances où jétais en Savoie J te dis même pas comme jme pellais En 2018 dites-moi Qui sait pas comment mappeler Ils ne savent pas Si ils doivent mappeler par mon prénom Ou par mon nom dartiste Vous l savez très bien appelez-moi bagzio Quand j tappelle-moi j fais pas semblant Et au moins moi j te lâche pas des blancs Pour certains mes textes Vont sembler émouvant Mon rêve ce serait d mallonger Sur l sable mouvant Sans faire aucun mouvement Rester posé pendant deux trois heures Sans quy ai Quelquun qui m demande J vais y rester pendant combien d temps Jai pas envie d changer d camp J me suis toujours comporté comme un grand Pour éviter d ressembler à un brigand Jessaye davoir lautorité dun brigadier Pour éviter qu des jeunes Cherche à membrigader J Préfère les envoyer balader Laisse les saletés dans la corbeille J te garantis que j fais pas des sons Et des clips pour m faire Ou ramasser d loseille Jadore parler avec mes fans Jessaye de m rapprocher deux D les faire redonner l sourire Faire évader l malheur A lintérieur D leur cur Tu verrais dans lÉtat qu je suis Presque je transpire Mes os craques du nombril aux épaules Jai limpression qu tout mon corp S remet en place Jai pas le temps moi j bosse Allume les enceintes fais péter les bass Tu m propose de la drogue Mais pourtant tu sais très bien Qu j touche pas à ça Cest lanniversaire de ton pote Mais dis-moi quand ça? J comprends pas pourquoi tu radotes Cest que j dors dans la casa Dis-moi quest-ce qui t prouve Que j suis ton meilleur pote Beh Cest tout simplement Quon s les promit à la vie Mais tas voulu mtrahir Deux ans après quon ai Appris à s connaître Si tas une connerie à faire J te préviens tu seras tout seul à la commetre J vais devoir un peu posée Parce c que j crois qu jai la fièvre Que je fasse un son bizarre on m critique Que jen fasse un bon on mcritique aussi Quoi qu tu fasses Tu seras toujours taillé par les gens Venez entrer dans la légende Jvois en bas dchez moi Les ptits qui remonte Le quartier bouge toute la journée Les gens vienne reparte srejoigne et rerentre À croire que les petits rageux qui m critique Croive que Quand ils menvoient Des messages blessants Pense que ça m met une boule au ventre Mais ça m fait rien du tout Vous savez quoi allez y continuer Moi ça m rend plus fort Mais c que vous n comprenez pas Cest qu même Si vous mcritiquer gratuitement Vous parlez d moi quelque part Donc même sans l savoir Vous m faites connaître Même si vous parlez d moi en mal Tout l monde na pas l même point d vue Si tes un pote à moi J viendrais tsauver Si japprend qutest en garde à vue Jai grandis avec des mecs de la rue Ils avaient derrière eux un sale vécu Ils ont eu plusieurs confrontations Avec des agent dsécu Aujourdhui jai décidé drapper cru Cest pas d ma faute si tu mas pas cru Lautrefois j tai dis bonjour Tu mas même pas vu Dans les quartiers chauds Tu vois des gens qui sentre-tuent Ils sfont kalasher pour un regard dtravers Avec ses mecs Faut pas faire les chose de travers Tu commences à rentré dans lunivers Bordel j sors de chez moi J vois des poubelles renversées par terre Des canettes et des bouteilles Qui nont même pas pris la peine Dêtre jeté correctement Ils sont en plein trottoir J suis là pour dénoncer Ceux quils nprenne pas soin dla nature Si jen parle cest qu jsuis mature En écrivant jessaye de pas faire d ratures Jadore respirer lair pur Jme sens pas encore prêt dattendre le futur Faites attention quand vous êtes près d moi Parce qu après dans mes sons Vous entendrez tout ce que j dis Ou c que vous dites Ou peut-être c que jentends J te conseille de redescendre dun cran Parce que ty est pas encore assez grand Si il faut jrapperais juska mes 50 ans Jcrois qui en a qui msoutienne Vers saint Quentin J sais qui en a pleins qui sont près dmoi Et qui sont coquin Jleur souhaite leurs plus grand bonnheur Et quil soient toujours content J raconte mon vécu Le vécu d mes anciens potes Et dleurs parents Jprefere le dire Au moins tout le monde est au courant Hey petit si tu mécoute respecte tes parents Et aide ta sur si elle a des probleme Et toi la maman Reste plus proche de tes enfants Faire la cuisine cest une chose Mais eux cest lplus important 1 minute de silence Pour toutes les personnes Qui sont parties trop tôt C que jfais cest un boulot dpro Si tu mmontre 5 billet d500 jcrie codo A force de trop lever la roue en moto Tu finis avec un gros mal au dos Et le docteur va tdire ah beh bravo Jai pas envie quon salisse mon humeur Quand jai la trouille jessaye dcacher ma peur La jvais parler à toi Maintenant tu mfous la honte Tetais jamais là Quand y avait un règlement de compte On est pas à boston pour faire des bastons Jaime bien parler avec des fans Qui mpose plein dquestion Quelque fois cest insistant Mais chepa comment leur dire Mais cest pas grave ça mderange pas Ça mfait vraiment plaisir Moins jai d probleme mieux jme porte Comme on dit on recolte cque lon sème Mais jvous conseille De npas trop tirer sur la corde Faut qutassume tous seul tes conneries Personne ne sera là pour les réparer Tellement quje suis concentré sur mon boulot Jen ai des larmes qui coule Les vrais te dirons quje suis lplus cool La rage et la tristesse Jlai mélangé pour lecraser Maintenant jsuis réparer Maintenant Tout marche correctement pour moi Tout est bon tout est carré Nécoute plus tous ces tarés Ils te foutent la poisse sans arrêt Jembrasse les Freros en maison darrêt Attend attend jai pas encore fini dparler Je parle JESPÈRE QUE ÇA VOUS A BIEN SERVI TOUT CQUE JVOUS AI DIT PRENNEZ EN BIEN COMPTE CEST UNE REMISE EN QUESTION SUR LA VIE DE CHAQUE PERSONNE JEMBRASSE TOUT LMONDE MÊME CEUX QUI MSOUHAITE LE PLUS GRAND MALHEUR ÇA PARAÎT PEUT ÊTRE BIZARRE MAIS KESTUVEU FAIRE CEST COMME ÇA CEST GRÂCE À MON PÈRE ET MA MÈRE QUE AUJOURDHUI JSUIS COMME ÇA TIENS DAILLEURS JLES EMBRASSE JME SUIS SAIGNÉE POUR ÉCRIRE TOUT SES TEXTES MAIS QUAND MÉME JSUIS PAS CERTAIN QUE ÇA VA VRAIMENT BUZZER MAIS JE CHERCHE PAS DÊTRE CONNU COMME LE LOUP BLANC JRAPPE AVEC LE COEUR JAIMERAIS AVOIR UN MAXIMUM DE RECONNAISSANCE ENVERS MON TRAVAIL JVAIS DEVOIR VOUS LAISSER JAI ENCORE PLEIN DBOULOT BISOUS LA FAMILLE</t>
         </is>
       </c>
     </row>
@@ -2010,7 +1990,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>J'ai bu tout une rivière de plus de trente-six bières C'est débile, je gerbe de la bile allongé sur une civière Hier dans le cendar', il y avait plus de 100 dards Parce qu'on n'fume pas que quand les gens dorment Au grand dam des gendarmes On s'imagine que l'bédo est un sport, et on l'instaure En dehors de l'instant où l'on baisse les stores, mais c'est un tort Car la fainéantise commence en fumée et finit en tise Et anéantit j'n'ai ni haine ni hantise Mi-homme, mi-trottoir, mi-alcool, mi-notoire Mitonne ma mère pour lui faire croire que de l'eau je n'fais que boire Ponar, le gars d'la pompe, des putes, des bombes, d'la glute Ponar, kiffeur de sons, célibataire en rut Ponar, un gars à part, qui sourit pas Même sous Ricard, même sur tricard Qui refuse pas un bon balard, un boule banal Une double anale, un grand malade Un grand malade Qui bouche le nez aux meufs et leur demande de tout raser And we don't stop ! And we don't Qhuit ! You might also like Lâche-moi, je ne rapperai pas, j'bois, laisse-moi quand je festoie Ok je ne tarderai pas, que j'béger', aucun espoir Qhuit, la marque de sapes que les jeunes ne connaissent pas Genre pipe de crack et un pack pour les gars qui n'vomissent pas Tu connais l'histoire, on a soif, ces connards ne fournissent pas Prochaine escale Brest, tu prends la pinte, moi le Mescal ne s'tise pas, merde XanaX ne tise pas, le Svink' et TTC, Sirop Sport Fraise pour les lèzes-ba Hiiiin ! Les bouteilles rendent les femmes plus belles et délient les langues Si tu n'as pas de cendrier sous la main, vas-y vide la mienne et mets-y tes cendres Teki Latex ne s'est délibérément pas senti sobre depuis décembre Il déprime et semble ne pas pleinement apprécier les verres qu'il descend J'fais pas d'sport, je n'suis pas travailleur comme le castor Je n'fais bouger mes muscles que lors des rapports, là où je passe l'alcool s'évapore J'ai laissé mes inhibitions au rayon des antiquités Et j'n'ai pas l'intention d'effacer de ma face ce sourire de gentil cuité J'marche en zig-zag, j'ai l'regard de travers Tu vas pas m'tèj' de ton rade alors qu'j'ai bu qu'2-3 verres En travers de tout braver, l'alcool aggravé dont j'suis pas fier Mais on boit, on boit, on boit, comme un moustachu en Bavière Oublie les boîtes de nuit d'dèps On balance la Qhuit tape Gérard Baste dans ta p'tite tête Reste avec nous, t'es vite dead Liquide de freins pur Ça d'vient vite dur, dur Mais on repart dare, dare Pour déchirer ton open bar, bar Bienvenue chez Qhuit ! On t'as ouvert la porte du bar Get, get in, c'est l'happy hour tous les soirs Ça commence calme p'tite mousse, Apérobic à fond Ça s'énerve un peu vodka-pomme avec des p'tits glaçons Tu peux m'trouver dans le club, ivre mort Toujours accoudé au bar, j'en veux encore Encore plus de tise à plier, vriller sur moi même et viser Encore plus de litres à vider, Rhum G ajoute pour le dernier Tu trouveras toujours un Cuizinier à la compétition de bières Derrière un fût, derrière un cul de vieille La doigte en larmoyant, la soixantaine C'est fou ce que l'on peut faire plus maître de soi même Pourtant très sélectif, passée une certaine heure Plus beaucoup de raisons que toutes les femmes soient belles Les bouteilles rendent les femmes plus belles et délient les langues Plus qu'à la mettre à poil, à g'noux, et mets-y ton gland J'ai trouvé un nouveau boulot Faire un disque avec des soûlots En enculant des goulots Gerbant à l'arrière des tacots Semé d'chicots, t-shirts crados Chez les alco-locataires Colle au pattern autant qu'par terre Menu pâtes ou pommes de terre J'te présente la nouvelle collec' Et les mannequins qui vont avec Toutes taxes comprises Je te faxe la note en Triptik En triple XL pour ma taille Et puis celle de Teki Latex Plus que du rap, avec les Qhuit du vrai travail de sape</t>
+          <t>J'ai bu tout une rivière de plus de trente-six bières C'est débile, je gerbe de la bile allongé sur une civière Hier dans le cendar', il y avait plus de 100 dards Parce qu'on n'fume pas que quand les gens dorment Au grand dam des gendarmes On s'imagine que l'bédo est un sport, et on l'instaure En dehors de l'instant où l'on baisse les stores, mais c'est un tort Car la fainéantise commence en fumée et finit en tise Et anéantit j'n'ai ni haine ni hantise Mi-homme, mi-trottoir, mi-alcool, mi-notoire Mitonne ma mère pour lui faire croire que de l'eau je n'fais que boire Ponar, le gars d'la pompe, des putes, des bombes, d'la glute Ponar, kiffeur de sons, célibataire en rut Ponar, un gars à part, qui sourit pas Même sous Ricard, même sur tricard Qui refuse pas un bon balard, un boule banal Une double anale, un grand malade Un grand malade Qui bouche le nez aux meufs et leur demande de tout raser And we don't stop ! And we don't Qhuit ! Lâche-moi, je ne rapperai pas, j'bois, laisse-moi quand je festoie Ok je ne tarderai pas, que j'béger', aucun espoir Qhuit, la marque de sapes que les jeunes ne connaissent pas Genre pipe de crack et un pack pour les gars qui n'vomissent pas Tu connais l'histoire, on a soif, ces connards ne fournissent pas Prochaine escale Brest, tu prends la pinte, moi le Mescal ne s'tise pas, merde XanaX ne tise pas, le Svink' et TTC, Sirop Sport Fraise pour les lèzes-ba Hiiiin ! Les bouteilles rendent les femmes plus belles et délient les langues Si tu n'as pas de cendrier sous la main, vas-y vide la mienne et mets-y tes cendres Teki Latex ne s'est délibérément pas senti sobre depuis décembre Il déprime et semble ne pas pleinement apprécier les verres qu'il descend J'fais pas d'sport, je n'suis pas travailleur comme le castor Je n'fais bouger mes muscles que lors des rapports, là où je passe l'alcool s'évapore J'ai laissé mes inhibitions au rayon des antiquités Et j'n'ai pas l'intention d'effacer de ma face ce sourire de gentil cuité J'marche en zig-zag, j'ai l'regard de travers Tu vas pas m'tèj' de ton rade alors qu'j'ai bu qu'2-3 verres En travers de tout braver, l'alcool aggravé dont j'suis pas fier Mais on boit, on boit, on boit, comme un moustachu en Bavière Oublie les boîtes de nuit d'dèps On balance la Qhuit tape Gérard Baste dans ta p'tite tête Reste avec nous, t'es vite dead Liquide de freins pur Ça d'vient vite dur, dur Mais on repart dare, dare Pour déchirer ton open bar, bar Bienvenue chez Qhuit ! On t'as ouvert la porte du bar Get, get in, c'est l'happy hour tous les soirs Ça commence calme p'tite mousse, Apérobic à fond Ça s'énerve un peu vodka-pomme avec des p'tits glaçons Tu peux m'trouver dans le club, ivre mort Toujours accoudé au bar, j'en veux encore Encore plus de tise à plier, vriller sur moi même et viser Encore plus de litres à vider, Rhum G ajoute pour le dernier Tu trouveras toujours un Cuizinier à la compétition de bières Derrière un fût, derrière un cul de vieille La doigte en larmoyant, la soixantaine C'est fou ce que l'on peut faire plus maître de soi même Pourtant très sélectif, passée une certaine heure Plus beaucoup de raisons que toutes les femmes soient belles Les bouteilles rendent les femmes plus belles et délient les langues Plus qu'à la mettre à poil, à g'noux, et mets-y ton gland J'ai trouvé un nouveau boulot Faire un disque avec des soûlots En enculant des goulots Gerbant à l'arrière des tacots Semé d'chicots, t-shirts crados Chez les alco-locataires Colle au pattern autant qu'par terre Menu pâtes ou pommes de terre J'te présente la nouvelle collec' Et les mannequins qui vont avec Toutes taxes comprises Je te faxe la note en Triptik En triple XL pour ma taille Et puis celle de Teki Latex Plus que du rap, avec les Qhuit du vrai travail de sape</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2007,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ah ça craint il fait sec là, j'ai soif J'ai soif, plus qu'un Brestois Plus qu'un punk à chien iroquois Sapristi, saperlipopette, j'ai soif, j'ai soif Donc j'veux, pas d'lopette au lever d'coude Pas d'la ration d'dé à coudre Faut en découdre avec le dernier des piliers Tiser des cubis par milliers, descendre de Mammouth assoiffés Arides comme la Garrigue en août Aboule l'container à barriques Qu'on charge plus qu'une bourrique Qu'ce soit la bourrasque dans mon foie Y'a des fois j'te jure, j'ai soif, j'ai soif Alors j'aboie ouaf ouaf trop en chien et plus haut que l'bord ??? c'est la youte, faut qu'on s'la foute Et j'veux d'la race supérieure, une aryenne cuite Contre l'désert dans mon haleine j'veux tous les ??? comme dessert J'ai soif, j'ai soif J'ai soif, j'ai soif Lorsque ma langue devient râpeuse, ma gorge sèche Lorsque mon estomac se serre et que mes joues se creusent Lorsque je n'arrive pas à parler aux filles dans les boites Lorsque tout contact rend le bout de mes mains moite Ça veut sûrement dire que j'ai soif, ça veut sûrement dire que j'ai soif Ça veut sûrement dire que j'ai soif, ça veut sûrement dire que j'ai soif You might also like Déjà cuit, gesticule au d'ssus d'ma bouche, j'ai soif J'ai dégueuler toute ma bouffe, j'ai soif Qu'est-ce tu festoie ? Ramène les mecs de Qhuit, j'ai soif Vider les mini-bars, la suite, j'ai soif Tout d'suite, à boire Plus vite, Qhuit Ce blé qui part en poudre dans sa bouche Farine de blé, buvant sa salive, les yeux rouges Des cernes, je ??? Et quand tu t'couche, ça grogne Grise mini jusqu'à l'épuisement Retourne faire des tractions Baise-main à la gente féminine Pour traduire l'épanouissement avec respect Réapprovisionne-nous en liquide, laisse faire À lui la fin d'une crasseuse, qu'est-ce qu'il espère ? On rigole, il se désaltère Papa, laisse-moi boire papa Ça sent l'alcool quand j'viens te voir C'est parce que j'ai soif et qu'j'viens de boire boire, boire, boire Et y'a qu'l'alcool qui m'désaltère C'est pas d'ma faute, ça vient d'mes gènes Irréversibles et ça me gêne Fiste-moi, fiste-moi, fiste-moi Avec une bonne bière belge Avant d'tomber dans l'trip j's'rais dead Avant que tombe la nuit et l'soir Sers-moi vite un verre de boire J'suis sec comme le Sahel Et j'ai un peu l'impression d'avoir avaler une salière J'ai la soif du millénaire Donnez-moi à boire avant que j'fasse une crise de nerfs Dépêche-toi d'aller chercher un pack Et ne parle plus d'alcool devant moi ou je te frappe Je me sens mal quand je bois Je me sens mal quand je ne bois pas Alors sers-moi un formidable avec 3 pailles Je veux pas m'retrouver face à un problème de dosage Sortez les tonneaux, les fûts, les tuyaux d'arrosage J'ai soif, j'ai soif, à boire,??? 'Cause me, so thirsty, me me so thirsty J'ai soif, j'ai soif J'ai soif, j'ai soif J'ai soif, j'ai soif J'ai soif, j'ai soif...</t>
+          <t>Ah ça craint il fait sec là, j'ai soif J'ai soif, plus qu'un Brestois Plus qu'un punk à chien iroquois Sapristi, saperlipopette, j'ai soif, j'ai soif Donc j'veux, pas d'lopette au lever d'coude Pas d'la ration d'dé à coudre Faut en découdre avec le dernier des piliers Tiser des cubis par milliers, descendre de Mammouth assoiffés Arides comme la Garrigue en août Aboule l'container à barriques Qu'on charge plus qu'une bourrique Qu'ce soit la bourrasque dans mon foie Y'a des fois j'te jure, j'ai soif, j'ai soif Alors j'aboie ouaf ouaf trop en chien et plus haut que l'bord ??? c'est la youte, faut qu'on s'la foute Et j'veux d'la race supérieure, une aryenne cuite Contre l'désert dans mon haleine j'veux tous les ??? comme dessert J'ai soif, j'ai soif J'ai soif, j'ai soif Lorsque ma langue devient râpeuse, ma gorge sèche Lorsque mon estomac se serre et que mes joues se creusent Lorsque je n'arrive pas à parler aux filles dans les boites Lorsque tout contact rend le bout de mes mains moite Ça veut sûrement dire que j'ai soif, ça veut sûrement dire que j'ai soif Ça veut sûrement dire que j'ai soif, ça veut sûrement dire que j'ai soif Déjà cuit, gesticule au d'ssus d'ma bouche, j'ai soif J'ai dégueuler toute ma bouffe, j'ai soif Qu'est-ce tu festoie ? Ramène les mecs de Qhuit, j'ai soif Vider les mini-bars, la suite, j'ai soif Tout d'suite, à boire Plus vite, Qhuit Ce blé qui part en poudre dans sa bouche Farine de blé, buvant sa salive, les yeux rouges Des cernes, je ??? Et quand tu t'couche, ça grogne Grise mini jusqu'à l'épuisement Retourne faire des tractions Baise-main à la gente féminine Pour traduire l'épanouissement avec respect Réapprovisionne-nous en liquide, laisse faire À lui la fin d'une crasseuse, qu'est-ce qu'il espère ? On rigole, il se désaltère Papa, laisse-moi boire papa Ça sent l'alcool quand j'viens te voir C'est parce que j'ai soif et qu'j'viens de boire boire, boire, boire Et y'a qu'l'alcool qui m'désaltère C'est pas d'ma faute, ça vient d'mes gènes Irréversibles et ça me gêne Fiste-moi, fiste-moi, fiste-moi Avec une bonne bière belge Avant d'tomber dans l'trip j's'rais dead Avant que tombe la nuit et l'soir Sers-moi vite un verre de boire J'suis sec comme le Sahel Et j'ai un peu l'impression d'avoir avaler une salière J'ai la soif du millénaire Donnez-moi à boire avant que j'fasse une crise de nerfs Dépêche-toi d'aller chercher un pack Et ne parle plus d'alcool devant moi ou je te frappe Je me sens mal quand je bois Je me sens mal quand je ne bois pas Alors sers-moi un formidable avec 3 pailles Je veux pas m'retrouver face à un problème de dosage Sortez les tonneaux, les fûts, les tuyaux d'arrosage J'ai soif, j'ai soif, à boire,??? 'Cause me, so thirsty, me me so thirsty J'ai soif, j'ai soif J'ai soif, j'ai soif J'ai soif, j'ai soif J'ai soif, j'ai soif...</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2024,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Jag vet att jag såg dig på stan igår Du log och du tog min hand Men sedan så var du försvunnen igen Sen mötte jag dig i min dröm Du är min sagoprins, i min sagovärld I den värld där jag är prinsessa Men varje gång du skall kyssa mig Så vaknar jag up ur min dröm Agnetha hette hon, Agnetha Fältskog. Hon jobbar på en bilfirma här. Jaha, så. Så jag börjar ringa rundt till alla bilfirmor i Jönköping, och det finns en hel del, och frågar Har ni nån som heter Agnetha Fältskog? Och så kom jag, sitter hon i växeln på ena stället Så sa Ja, det är jag som är Agnetha Fältskog.' Ja, hejsan sa jag, det är Little Gerhard från Stockholm.' Hi, hi, hi, plonk! Nej, jag trodde inte att det var han som ringde. Dt var ju, det var ju världens höjdare för mig att Littl Gerhard ringde mig, en 17-åring i Jönköping Så fick jag ringa upp igen. Ja, hejsan, det är Little Gerhard, är det du som är Agnetha Fältskog? Ja - nej, det är nåt skoj det här sa hon Jag tänkte kanske det är nån som plojar eller så, jag trodde absolut inte det var sant Då sa han Då, då, då gör vi så här, då du ringer upp mig istället dåre You might also like Gör det, för jag vill göra en skiva med dig' clank - åkte luren på. Så gick det 30 minuter ungefär så - ring - Du har telefon Jaså, tog jag up luren, så sa hon Vem talar jag med? sa hon Det är Little Gerhard Jaså, är det det verkligen? sa hon Då sa jag Den låten som ligger på bandet, vems låt är det? Den är min egen sa hon Den är jättebra sa jag Det var den här ...nu först forstår jag... Ja, nu först förstår jag Att det var ett misstag av mig För det är du, bara du Som framför mig står Vartän jag går Så sa jag som det var, att jag sitter på ett gramofonstudio i Stockholm och jag vill gärna göra ett försök med dig alltså. Så jag pratar med Walldoff och jag sa att vi måste försöka fixa till bakgrund, spela in nere på Philips huset med stråkar och så där. När allt var klart ringde jag ned till Agnetha så sa jag att Kan du komma upp den och den dagen? Hon kom upp med sin farsa då och då hade jag fixat att fotograf till studion var Det är ett av mina bästa minnen så är det när min far och jag kom ner på Philips huset, nerför trapporna där, och man hör att det sitter en stråkensemble där nere och lägger på stråkar på ens låt. Det är det roligaste tror jag som jag har vore med om ... alltså musikaliskt. Exakt så som jag hade, som jag hade tänkt och hoppas på var det. Exakt fångat så som jag ville ha det, utav mycket tycker jag Sven-Olof Walldoffs förtjenst, och Little Gerhard då Hon hade långt blondt hår och lite så där, hon visste inte vart hon skulle ta vägen nånstans, så hon knallar upp där och rapar iväg båda låtarna Så sa jag att Eh, det är nåt som fattas, kan du inte lägga på en andra stämma? Jag kan,'' sa hon, bara så där, direkt alltså Jag hade bara väldigt lätt för det. Jag har alltid hört stämmor Vartän jag går Vartän jag går Radio Interview Svensktoppen Och på tredje plats dagens framgångsrikaste nykomling och till lika en svensktopp debutant. Hej och grattis Agnetha! Tack så hemskt mycket Det var väl skoj? Det var jätte kul 17 år och rakt in på tredje plats. Det är väl - ja, jag behöver väl inte fråga om det är din största framgång hittils? Det är det, faktiskt! Kommer det fler skivor nu efter den här? Det kommer, jag har redan spelat in en till Och den heter? Utan dej Tack och lycka till i fortsättningen Tack ska du ha Tack Hej Hej</t>
+          <t>Jag vet att jag såg dig på stan igår Du log och du tog min hand Men sedan så var du försvunnen igen Sen mötte jag dig i min dröm Du är min sagoprins, i min sagovärld I den värld där jag är prinsessa Men varje gång du skall kyssa mig Så vaknar jag up ur min dröm Agnetha hette hon, Agnetha Fältskog. Hon jobbar på en bilfirma här. Jaha, så. Så jag börjar ringa rundt till alla bilfirmor i Jönköping, och det finns en hel del, och frågar Har ni nån som heter Agnetha Fältskog? Och så kom jag, sitter hon i växeln på ena stället Så sa Ja, det är jag som är Agnetha Fältskog.' Ja, hejsan sa jag, det är Little Gerhard från Stockholm.' Hi, hi, hi, plonk! Nej, jag trodde inte att det var han som ringde. Dt var ju, det var ju världens höjdare för mig att Littl Gerhard ringde mig, en 17-åring i Jönköping Så fick jag ringa upp igen. Ja, hejsan, det är Little Gerhard, är det du som är Agnetha Fältskog? Ja - nej, det är nåt skoj det här sa hon Jag tänkte kanske det är nån som plojar eller så, jag trodde absolut inte det var sant Då sa han Då, då, då gör vi så här, då du ringer upp mig istället dåre Gör det, för jag vill göra en skiva med dig' clank - åkte luren på. Så gick det 30 minuter ungefär så - ring - Du har telefon Jaså, tog jag up luren, så sa hon Vem talar jag med? sa hon Det är Little Gerhard Jaså, är det det verkligen? sa hon Då sa jag Den låten som ligger på bandet, vems låt är det? Den är min egen sa hon Den är jättebra sa jag Det var den här ...nu först forstår jag... Ja, nu först förstår jag Att det var ett misstag av mig För det är du, bara du Som framför mig står Vartän jag går Så sa jag som det var, att jag sitter på ett gramofonstudio i Stockholm och jag vill gärna göra ett försök med dig alltså. Så jag pratar med Walldoff och jag sa att vi måste försöka fixa till bakgrund, spela in nere på Philips huset med stråkar och så där. När allt var klart ringde jag ned till Agnetha så sa jag att Kan du komma upp den och den dagen? Hon kom upp med sin farsa då och då hade jag fixat att fotograf till studion var Det är ett av mina bästa minnen så är det när min far och jag kom ner på Philips huset, nerför trapporna där, och man hör att det sitter en stråkensemble där nere och lägger på stråkar på ens låt. Det är det roligaste tror jag som jag har vore med om ... alltså musikaliskt. Exakt så som jag hade, som jag hade tänkt och hoppas på var det. Exakt fångat så som jag ville ha det, utav mycket tycker jag Sven-Olof Walldoffs förtjenst, och Little Gerhard då Hon hade långt blondt hår och lite så där, hon visste inte vart hon skulle ta vägen nånstans, så hon knallar upp där och rapar iväg båda låtarna Så sa jag att Eh, det är nåt som fattas, kan du inte lägga på en andra stämma? Jag kan,'' sa hon, bara så där, direkt alltså Jag hade bara väldigt lätt för det. Jag har alltid hört stämmor Vartän jag går Vartän jag går Radio Interview Svensktoppen Och på tredje plats dagens framgångsrikaste nykomling och till lika en svensktopp debutant. Hej och grattis Agnetha! Tack så hemskt mycket Det var väl skoj? Det var jätte kul 17 år och rakt in på tredje plats. Det är väl - ja, jag behöver väl inte fråga om det är din största framgång hittils? Det är det, faktiskt! Kommer det fler skivor nu efter den här? Det kommer, jag har redan spelat in en till Och den heter? Utan dej Tack och lycka till i fortsättningen Tack ska du ha Tack Hej Hej</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2041,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>x2 Putain, j'me rappelle plus d'hier Mais tout l'monde se rappelle de moi Hier tout l'monde disait Qui c'est c'type là!? Putain, j'me rappelle plus d'hier Mais tout l'monde se rappelle de moi Aujourd'hui tout l'monde se rappelle de moi Putain, j'me rappelle plus d'hier Mais tout l'monde se rappelle de moi J'crois qu'j'ai vomi dans la poubelle deux fois Boire autant d'bières, y'a pas d'quoi être fier de soi Faut qu'on s'refasse le film à l'envers je crois Allongé au milieu d'la piste -Comment j'étais quand vous êtes parti? -En slip! Comment j'étais saper quand j'suis ressorti ? -Du sang! C'est quoi ces traces marron dans mon lit ? J'ai toujours l'impression qu'on joue à Jeopardy -Rien! Qu'est-ce que tu t'rappelles d'hier ? -Bien! Comment tu t'sens après ton premier verre ? -Loin! T'es parti où en goutant la beu-her ? -V'nir au concert! Qu'est-ce que tu m'conseilles de faire ? -Du sale! Qu'est-ce qu'on a encore fait hier soir ? -Du mal! Mais qu'est-ce qu'il nous voulait l'patron du bar ? -La basse! La Mâchoire! Qu'est-ce qui tombe ? -Les éclairs! Le tonnerre! Qu'est-ce qui gronde ? You might also like x4 Putain, j'me rappelle plus d'hier Mais tout l'monde se rappelle de moi Faut s'refaire le film à l'envers je crois</t>
+          <t>x2 Putain, j'me rappelle plus d'hier Mais tout l'monde se rappelle de moi Hier tout l'monde disait Qui c'est c'type là!? Putain, j'me rappelle plus d'hier Mais tout l'monde se rappelle de moi Aujourd'hui tout l'monde se rappelle de moi Putain, j'me rappelle plus d'hier Mais tout l'monde se rappelle de moi J'crois qu'j'ai vomi dans la poubelle deux fois Boire autant d'bières, y'a pas d'quoi être fier de soi Faut qu'on s'refasse le film à l'envers je crois Allongé au milieu d'la piste -Comment j'étais quand vous êtes parti? -En slip! Comment j'étais saper quand j'suis ressorti ? -Du sang! C'est quoi ces traces marron dans mon lit ? J'ai toujours l'impression qu'on joue à Jeopardy -Rien! Qu'est-ce que tu t'rappelles d'hier ? -Bien! Comment tu t'sens après ton premier verre ? -Loin! T'es parti où en goutant la beu-her ? -V'nir au concert! Qu'est-ce que tu m'conseilles de faire ? -Du sale! Qu'est-ce qu'on a encore fait hier soir ? -Du mal! Mais qu'est-ce qu'il nous voulait l'patron du bar ? -La basse! La Mâchoire! Qu'est-ce qui tombe ? -Les éclairs! Le tonnerre! Qu'est-ce qui gronde ? x4 Putain, j'me rappelle plus d'hier Mais tout l'monde se rappelle de moi Faut s'refaire le film à l'envers je crois</t>
         </is>
       </c>
     </row>
@@ -2076,11 +2056,7 @@
           <t>Je t’aime Top Billin</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2095,7 +2071,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Jte jure jai pris sur moi Mais ça spasse toujours comme ça Cest ltournis dans ma tête Cest ltournis dans ma tête Ouais jfais nimporte quoi Mais cétait plus fort que moi Jai vomi dans ta fête Jai vomi dans ta fête Cest pas les dix canettes Jaurais pas dû boire le Ricard sec Surtout après le gin et la mirabelle Une image archi pas belle Avec ma dirty bande de pique-assiette Toujours les keufs qui rappliquent Puis les flics qui rappellent Yà personne qui marrête Jme jette sur une vieille part de pizza mec Grande goulée dvin rouge pour faire passer lassiette Mais au fond dla teille trois mégots dpet et deux dcigarettes Jai vomi dans ta fête Sur le dancefloor je m'installe Frotte des fesses sales Je ride calme jai le time In a mother fuck west side Mon cerveau tourne Plus vite qu'une roulette de Las Vegas Dans la piscine je tape ma galette Pendant que tu tapes ta brasse Remplis mon verre de charrette Je deviens Charles Ingals On laisse des fissures Que ne peuvent réparer Carglass Nos soirées sont délurées Bien plus fou que Jackass Elle a bien bien débutée Vla Dirty Zoo avec Gérard Baste You might also like Jte jure jai pris sur moi Mais ça spasse toujours comme ça Cest ltournis dans ma tête Jai gerbé dans lentrée, le salon et le couloir Ouais jfais nimporte quoi Mais cétait plus fort que moi Jai vomi dans ta fête Jai gerbé dans la chambre, la salle deau et le boudoir On tourne au pastis à huit heures À cinq dans le lowrider On vomit Une armée de gros bides en sueur Qui répand lliquide à toute heure Cest nos vies, cest promis Fumer dblunt à la Snoop Concert punk dans la soute Stripoter comme des scouts On dit oh oui Gin and juice en écoute Nos deux boules dans ta coupe Cest du joli Ben and Jerry Moi jdéboule dans ta teufé avec ma tête défaite La truffe couleur fraise Sapé comme un client du Hellfest La fête sera sans taz Mais sûrement sous le signe de la gerbe Avec des gros pas de C-walk Façon Kurupt, Daz Dillinger Le crew arrive en Impala On est très Pimp mais pas trop là Ça bégaye et cest là que tu vois Quon parle tous un certain patois Yo papa, on vient juste démolir tous les packs En rejetant notre bile sur ta meuf, mais toujours très laid-back Jarrive tout nu sur ma trottinette Avec mes tout petits pecs Cest vrai qumon zizi tout blanc rssemble à un gros Tipex Ou à un beau T-rex On sboit un pot tigresse ? Jai la gueule fracassée, jressemble à une poterie grecque Ça sent fort la Toastinette sur le dos dInès Il a vomi, il a une barbe cest Frans au Qui est-ce ? ! Jte balance un beau geyser, vomir cest un projet clair Mon dégueulis fait du bruit jtinvite à aimer ses airs Jte jure jai pris sur moi Mais ça spasse toujours comme ça Cest ltournis dans ma tête Ouais jfais nimporte quoi Mais cétait plus fort que moi Jai vomi dans ta fête Hey yo, jai vomi yo dans ta fête Ça y est le proprio mprend la tête Fallait pas lprendre avec un si grand affect Ça srait pas arrivé sans ces putains de six Grants infectes Maintenant jrampe à terre comme un si grand insecte Jai honte jles vois minspectant Oui jai vomi dans le bac à litière, dans le sac de ta mère, dans le Jai la démarche dun hustler Manteau en vison Vision rollercoaster Dans lbide guerre des gangs Jump comme un lowrider Vomi style chronik demande au docteur Hey Bro! Sorry Jai vomi sur toi Façon gangsta gangsta Death Row Sorry Jai vomi chez toi Oh Lord !</t>
+          <t>Jte jure jai pris sur moi Mais ça spasse toujours comme ça Cest ltournis dans ma tête Cest ltournis dans ma tête Ouais jfais nimporte quoi Mais cétait plus fort que moi Jai vomi dans ta fête Jai vomi dans ta fête Cest pas les dix canettes Jaurais pas dû boire le Ricard sec Surtout après le gin et la mirabelle Une image archi pas belle Avec ma dirty bande de pique-assiette Toujours les keufs qui rappliquent Puis les flics qui rappellent Yà personne qui marrête Jme jette sur une vieille part de pizza mec Grande goulée dvin rouge pour faire passer lassiette Mais au fond dla teille trois mégots dpet et deux dcigarettes Jai vomi dans ta fête Sur le dancefloor je m'installe Frotte des fesses sales Je ride calme jai le time In a mother fuck west side Mon cerveau tourne Plus vite qu'une roulette de Las Vegas Dans la piscine je tape ma galette Pendant que tu tapes ta brasse Remplis mon verre de charrette Je deviens Charles Ingals On laisse des fissures Que ne peuvent réparer Carglass Nos soirées sont délurées Bien plus fou que Jackass Elle a bien bien débutée Vla Dirty Zoo avec Gérard Baste Jte jure jai pris sur moi Mais ça spasse toujours comme ça Cest ltournis dans ma tête Jai gerbé dans lentrée, le salon et le couloir Ouais jfais nimporte quoi Mais cétait plus fort que moi Jai vomi dans ta fête Jai gerbé dans la chambre, la salle deau et le boudoir On tourne au pastis à huit heures À cinq dans le lowrider On vomit Une armée de gros bides en sueur Qui répand lliquide à toute heure Cest nos vies, cest promis Fumer dblunt à la Snoop Concert punk dans la soute Stripoter comme des scouts On dit oh oui Gin and juice en écoute Nos deux boules dans ta coupe Cest du joli Ben and Jerry Moi jdéboule dans ta teufé avec ma tête défaite La truffe couleur fraise Sapé comme un client du Hellfest La fête sera sans taz Mais sûrement sous le signe de la gerbe Avec des gros pas de C-walk Façon Kurupt, Daz Dillinger Le crew arrive en Impala On est très Pimp mais pas trop là Ça bégaye et cest là que tu vois Quon parle tous un certain patois Yo papa, on vient juste démolir tous les packs En rejetant notre bile sur ta meuf, mais toujours très laid-back Jarrive tout nu sur ma trottinette Avec mes tout petits pecs Cest vrai qumon zizi tout blanc rssemble à un gros Tipex Ou à un beau T-rex On sboit un pot tigresse ? Jai la gueule fracassée, jressemble à une poterie grecque Ça sent fort la Toastinette sur le dos dInès Il a vomi, il a une barbe cest Frans au Qui est-ce ? ! Jte balance un beau geyser, vomir cest un projet clair Mon dégueulis fait du bruit jtinvite à aimer ses airs Jte jure jai pris sur moi Mais ça spasse toujours comme ça Cest ltournis dans ma tête Ouais jfais nimporte quoi Mais cétait plus fort que moi Jai vomi dans ta fête Hey yo, jai vomi yo dans ta fête Ça y est le proprio mprend la tête Fallait pas lprendre avec un si grand affect Ça srait pas arrivé sans ces putains de six Grants infectes Maintenant jrampe à terre comme un si grand insecte Jai honte jles vois minspectant Oui jai vomi dans le bac à litière, dans le sac de ta mère, dans le Jai la démarche dun hustler Manteau en vison Vision rollercoaster Dans lbide guerre des gangs Jump comme un lowrider Vomi style chronik demande au docteur Hey Bro! Sorry Jai vomi sur toi Façon gangsta gangsta Death Row Sorry Jai vomi chez toi Oh Lord !</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2088,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Hey yo ! Moi j'suis pas à propos dce Black and Yellow J'vais t'montrer les true colors Les vraies couleurs de la life Han ! Jen place une pour Wiz Khalifa et pour Big Snoop Doggy Dogg Snoop Doggy Dogg! Mais moi j'serai plutôt dans l'whisky-chicha gros, slip droggy drogue drogue, drogue, drogue Hin ! Hin ! Tu sais qui revient ! Jaune marron, jaune marron Jaune marron, jaune marron J'vais tout donner, jamais je retiens ! Jaune marron, jaune marron Jaune marron, jaune marron Jaune devant, marron derrière Vieille tache à l'avant, grosse trace à l'arrière Slibard dégueulasse, classe à ma manière Slip ou caleçon pour leur mettre!, foutu à l'envers Biceps à la fonte, gros bide à la bière Anchois et oignons, goût pissaladière Bi-bite poilue dans le slip kangourou C'est le Big Baste, de ma secte jsuis lgrand gourou Avec toujours une vieille couille qui dépasse, qui pendouille Je vois les MCs, je marche dessus, je les écrabouille Check toujours le bail avant de tirer la chasse Le High score! C'est le gros étron et le Père Lachiasse Maya labeille Jaune marron, jaune marron J'bois pour me r'mettre de la veille Chauds les marrons, chauds les marrons C'est juste une question déducation d'éducation! J'te fait un panoramique sur ma raie du maçon You might also like Hin ! Hin ! Hin ! Hin ! Tu sais qui revient ! Jaune marron, jaune marron Jaune marron, jaune marron J'vais tout donner, jamais je retiens ! Jaune marron, jaune marron Jaune marron, jaune marron Jaune devant, marron derrière Jaune marron, jaune marron Jaune marron, jaune marron Vieille tache à l'avant, grosse trace à l'arrière Jaune marron, jaune marron Jaune marron, jaune marron Quand j'étais p'tit dans les seventies Le papier peint était toujours marron et orange Oui, tous mes sons parlent de caca ou de tise On dirait qu'il y a quelque chose qui t'dérange J'bois du Bordeaux ça c'est le Barça! J'bois du jaune et du rouge ça c'est Atlanta! Quand j'bois du punch, mon verre est orange Miami Dolphins! Boston Red Sox parce que j'vois rouge devant Marine! Pour toutes les culottes au plafond d'La Scie Rose Ça sent la jeune fille qui s'néglige, tu r'pars avec une mycose Épidémie d'grattouilles, alerte ! C'est la psychose Ou alors c'est juste que t'es allergique au viscose J'te fais d'l'hypnose Black and Yellow, Black and Yellow T'aimes les big bose T'as les bédos tassés très gros J'pars dans les tours si tu fais pas c'que j'veux Dans l'dérapage permanent et j'laisse des traces de pneu Hin ! Hin ! Hin ! Hin ! Tu sais qui revient ! Jaune marron, jaune marron Jaune marron, jaune marron J'vais tout donner, jamais je retiens ! Jaune marron, jaune marron Jaune marron, jaune marron Jaune devant, marron derrière Jaune marron, jaune marron Jaune marron, jaune marron Vieille tache à l'avant, grosse trace à l'arrière Jaune marron, jaune marron Jaune marron, jaune marron Le sang et or c'est le RC Lens En jaune marron je vise l'excellence J'aurais bien fait quelques battles pour percer Mais j'préfère que tu m'parles de Lens quand tu m'parles de RC</t>
+          <t>Hey yo ! Moi j'suis pas à propos dce Black and Yellow J'vais t'montrer les true colors Les vraies couleurs de la life Han ! Jen place une pour Wiz Khalifa et pour Big Snoop Doggy Dogg Snoop Doggy Dogg! Mais moi j'serai plutôt dans l'whisky-chicha gros, slip droggy drogue drogue, drogue, drogue Hin ! Hin ! Tu sais qui revient ! Jaune marron, jaune marron Jaune marron, jaune marron J'vais tout donner, jamais je retiens ! Jaune marron, jaune marron Jaune marron, jaune marron Jaune devant, marron derrière Vieille tache à l'avant, grosse trace à l'arrière Slibard dégueulasse, classe à ma manière Slip ou caleçon pour leur mettre!, foutu à l'envers Biceps à la fonte, gros bide à la bière Anchois et oignons, goût pissaladière Bi-bite poilue dans le slip kangourou C'est le Big Baste, de ma secte jsuis lgrand gourou Avec toujours une vieille couille qui dépasse, qui pendouille Je vois les MCs, je marche dessus, je les écrabouille Check toujours le bail avant de tirer la chasse Le High score! C'est le gros étron et le Père Lachiasse Maya labeille Jaune marron, jaune marron J'bois pour me r'mettre de la veille Chauds les marrons, chauds les marrons C'est juste une question déducation d'éducation! J'te fait un panoramique sur ma raie du maçon Hin ! Hin ! Hin ! Hin ! Tu sais qui revient ! Jaune marron, jaune marron Jaune marron, jaune marron J'vais tout donner, jamais je retiens ! Jaune marron, jaune marron Jaune marron, jaune marron Jaune devant, marron derrière Jaune marron, jaune marron Jaune marron, jaune marron Vieille tache à l'avant, grosse trace à l'arrière Jaune marron, jaune marron Jaune marron, jaune marron Quand j'étais p'tit dans les seventies Le papier peint était toujours marron et orange Oui, tous mes sons parlent de caca ou de tise On dirait qu'il y a quelque chose qui t'dérange J'bois du Bordeaux ça c'est le Barça! J'bois du jaune et du rouge ça c'est Atlanta! Quand j'bois du punch, mon verre est orange Miami Dolphins! Boston Red Sox parce que j'vois rouge devant Marine! Pour toutes les culottes au plafond d'La Scie Rose Ça sent la jeune fille qui s'néglige, tu r'pars avec une mycose Épidémie d'grattouilles, alerte ! C'est la psychose Ou alors c'est juste que t'es allergique au viscose J'te fais d'l'hypnose Black and Yellow, Black and Yellow T'aimes les big bose T'as les bédos tassés très gros J'pars dans les tours si tu fais pas c'que j'veux Dans l'dérapage permanent et j'laisse des traces de pneu Hin ! Hin ! Hin ! Hin ! Tu sais qui revient ! Jaune marron, jaune marron Jaune marron, jaune marron J'vais tout donner, jamais je retiens ! Jaune marron, jaune marron Jaune marron, jaune marron Jaune devant, marron derrière Jaune marron, jaune marron Jaune marron, jaune marron Vieille tache à l'avant, grosse trace à l'arrière Jaune marron, jaune marron Jaune marron, jaune marron Le sang et or c'est le RC Lens En jaune marron je vise l'excellence J'aurais bien fait quelques battles pour percer Mais j'préfère que tu m'parles de Lens quand tu m'parles de RC</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2105,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Pas la peine pour le S.W.N.K.L.S, de parler de leur haleine Qui t'stresse et t'laisse le goût de la haine D'un spliff noyé dans dans une vieille 16 Quand on pète, c'est l'odeur de Bouddha qui te malaise Le lait fraise, c'est balaise, le lait merguez, malsain Classé parasite numéro un par les médecins Les bactéries s'y développent, téma donc dans mon slop Mon zguègue n'est pas assez propre, allez hop hop suce salope Il faut le nettoyer mais laisse la lessive Namène pas de savon, ce s'ra parfait avec la salive Attarde-toi par ci, attarde-toi par là Prends-le dans ta main, bouge de haut en bas De bas en haut, de haut en bas Pfuiiit! Gaffe, tout part dans ton nez Tu peux plus avaler mais tu peux toujours renifler Ce rail de sperme qui va te monter au cerveau Traumatiser ton ego, détraquer ta libido Et voilà maint'nant, plus jamais j'me bouge Puisque tu m'fais livrer liqueur de framboise rose-rouge Et les plus belles orchidées, t'es croque Depuis qu'j'me suis vidé, que j't'ai déridée Pff! moi j'm'en tape, pauvre tache Avec moi y'a pas d'tu simules même si j'kiffe le catch J'ai mis ma bite dans ta chatte et t'as sorti la balle de match Vainqueur Gérard Baste, en jeu, pète et trash You might also like Yeah! Car j'pète quand j'crache Pfuiiit! Pfuiiit! Pfuiiit! Prout! J'me lâche quand j'me relâche Biatch ! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Yeah! Ouais j'pète quand j'crache Ouh! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Mais alors, dites-moi exactement comment se manifestent ces troubles... J'coince du boule quand j'me défoule Je r'foule quand j'déferle J'pète quand j'crache Quand j'crache une huître, j'lâche une perle 'Plus, tu comprends quand t'es tout nu d'vant la glace Il te faudra de l'argent pour ressembler à Gérard Baste Une opération du pénis afin de l'hypertrophier Une autre paire de tennis, des litres dans le gosier Tu t'mets tout nu devant la glace et alors là tu comprends Que ressembler à Gérard Baste est un concept dément Articules quand tu pètes me répètent souvent mes copains J'trombine ta trompette et tu pleures le lendemain Deux mains, dix doigts et un outil perfectionné Dis-toi qu'ces dix doigts s'infiltrent en toi T'rendent cinglée Qu'ce joujou extra Qui ne fait pas Crac boum hu ! Est indirectement rattaché à mon trou du cul Tes draps tous tachés ont une odeur proche du goulasch Et c'est pour ça qu'j't'explique que j'pète quand j'crache Yeah! Car j'pète quand j'crache Pfuiiit! Pfuiiit! Pfuiiit! Prout! J'me lâche quand j'me relâche Biatch ! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Ouh! Ouais j'pète quand j'crache Ouh! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Pet sonore, inodore, pet discret sent l'exta Tu rajustes ton pince-nez quand j'balance la purée dans ta teucha Éjaculation égal évacuation Attention dispersion ! Manifestation de ma digestion Ma masturbation d'mande des dispositions Sur l'blair, j'ai besoin d'un filtre à air Et dans l'derrière, un petit bouchon Mais pas anti-prout, juste pour faire un joli pop Quand je décharge mon foutre Oups ! J'crois qu'j'ai fait une bourde Quand j'vide ma gourde, faut que j'lourde Heureusement qu't'es sourde J'pète quand j'crache nouvelle saveur J'te fais à la fois la vieille blague Du verre baveur et celle du coussin péteur Ça cogne quand j'me pogne Y'a plus d'eau d'Cologne On évoque la vie sexuelle de Baste et Greta jusqu'en Pologne Quel homme ! Quelle virilité ! Voilà la vérité qui sous tes yeux a éclaté Car j'ai découvert ton point G Tel Christophe Colomb posant l'pied sur l'Amérique Moi c'est dans le grand colon que sont mes contrées fantastiques En 1492 je n'étais pas encore né 1664 j'étais déjà réincarné J'me lâcherai, j'm'relâcherai et l'jour où j'f'rai r'lâche Rendez-vous sur la tombe de Baste au Père-Lach' Même quand j's'rai embaumé, j'viendrai tout embaumer Quand j'serai cané, dans l'cimetière, les fleurs vont faner Ouais! Car j'pète quand j'crache Pfuiiit! Pfuiiit! Pfuiiit! Prout! J'me lâche quand j'me relâche Biatch ! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Euh! Ouais j'pète quand j'crache Ouh! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Tu crois qu't'existes ? Et s'il te vide comme un kyste Reste pas chaste Faites place à l'énorme braquemart Braqué par Gérard Baste, le mec classe qui s'passe de d'publicités Qui est champion dans la lubricité Nouvelle apparition d'Frédéric Lansac R'n'B instru pour J'pète quand j'crache Gérard Baste en équipe avec Do Bass Olà qué tàl ? Les deux queutards du S-W C'est pourtant facile de n'pas s'tromper Pète et crache, sur tes fesses, ??? Perverse mmmh j'espère qu't'as déjà joué à Doom Prend mon joystick, essaie de jouer mon style percusif Mécanique sexuelle, pour les belles Bienvenue dans les tourelles du château ??? Mécanique sexuelle, mécanique rythmée Lobotomotiv' Tchou tchou ouh ouh</t>
+          <t>Pas la peine pour le S.W.N.K.L.S, de parler de leur haleine Qui t'stresse et t'laisse le goût de la haine D'un spliff noyé dans dans une vieille 16 Quand on pète, c'est l'odeur de Bouddha qui te malaise Le lait fraise, c'est balaise, le lait merguez, malsain Classé parasite numéro un par les médecins Les bactéries s'y développent, téma donc dans mon slop Mon zguègue n'est pas assez propre, allez hop hop suce salope Il faut le nettoyer mais laisse la lessive Namène pas de savon, ce s'ra parfait avec la salive Attarde-toi par ci, attarde-toi par là Prends-le dans ta main, bouge de haut en bas De bas en haut, de haut en bas Pfuiiit! Gaffe, tout part dans ton nez Tu peux plus avaler mais tu peux toujours renifler Ce rail de sperme qui va te monter au cerveau Traumatiser ton ego, détraquer ta libido Et voilà maint'nant, plus jamais j'me bouge Puisque tu m'fais livrer liqueur de framboise rose-rouge Et les plus belles orchidées, t'es croque Depuis qu'j'me suis vidé, que j't'ai déridée Pff! moi j'm'en tape, pauvre tache Avec moi y'a pas d'tu simules même si j'kiffe le catch J'ai mis ma bite dans ta chatte et t'as sorti la balle de match Vainqueur Gérard Baste, en jeu, pète et trash Yeah! Car j'pète quand j'crache Pfuiiit! Pfuiiit! Pfuiiit! Prout! J'me lâche quand j'me relâche Biatch ! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Yeah! Ouais j'pète quand j'crache Ouh! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Mais alors, dites-moi exactement comment se manifestent ces troubles... J'coince du boule quand j'me défoule Je r'foule quand j'déferle J'pète quand j'crache Quand j'crache une huître, j'lâche une perle 'Plus, tu comprends quand t'es tout nu d'vant la glace Il te faudra de l'argent pour ressembler à Gérard Baste Une opération du pénis afin de l'hypertrophier Une autre paire de tennis, des litres dans le gosier Tu t'mets tout nu devant la glace et alors là tu comprends Que ressembler à Gérard Baste est un concept dément Articules quand tu pètes me répètent souvent mes copains J'trombine ta trompette et tu pleures le lendemain Deux mains, dix doigts et un outil perfectionné Dis-toi qu'ces dix doigts s'infiltrent en toi T'rendent cinglée Qu'ce joujou extra Qui ne fait pas Crac boum hu ! Est indirectement rattaché à mon trou du cul Tes draps tous tachés ont une odeur proche du goulasch Et c'est pour ça qu'j't'explique que j'pète quand j'crache Yeah! Car j'pète quand j'crache Pfuiiit! Pfuiiit! Pfuiiit! Prout! J'me lâche quand j'me relâche Biatch ! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Ouh! Ouais j'pète quand j'crache Ouh! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Pet sonore, inodore, pet discret sent l'exta Tu rajustes ton pince-nez quand j'balance la purée dans ta teucha Éjaculation égal évacuation Attention dispersion ! Manifestation de ma digestion Ma masturbation d'mande des dispositions Sur l'blair, j'ai besoin d'un filtre à air Et dans l'derrière, un petit bouchon Mais pas anti-prout, juste pour faire un joli pop Quand je décharge mon foutre Oups ! J'crois qu'j'ai fait une bourde Quand j'vide ma gourde, faut que j'lourde Heureusement qu't'es sourde J'pète quand j'crache nouvelle saveur J'te fais à la fois la vieille blague Du verre baveur et celle du coussin péteur Ça cogne quand j'me pogne Y'a plus d'eau d'Cologne On évoque la vie sexuelle de Baste et Greta jusqu'en Pologne Quel homme ! Quelle virilité ! Voilà la vérité qui sous tes yeux a éclaté Car j'ai découvert ton point G Tel Christophe Colomb posant l'pied sur l'Amérique Moi c'est dans le grand colon que sont mes contrées fantastiques En 1492 je n'étais pas encore né 1664 j'étais déjà réincarné J'me lâcherai, j'm'relâcherai et l'jour où j'f'rai r'lâche Rendez-vous sur la tombe de Baste au Père-Lach' Même quand j's'rai embaumé, j'viendrai tout embaumer Quand j'serai cané, dans l'cimetière, les fleurs vont faner Ouais! Car j'pète quand j'crache Pfuiiit! Pfuiiit! Pfuiiit! Prout! J'me lâche quand j'me relâche Biatch ! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Euh! Ouais j'pète quand j'crache Ouh! Ouais j'pète quand j'crache J'me lâche quand j'me relâche Et Pfuiiit! Pfuiiit! Pfuiiit! Prout! Tu crois qu't'existes ? Et s'il te vide comme un kyste Reste pas chaste Faites place à l'énorme braquemart Braqué par Gérard Baste, le mec classe qui s'passe de d'publicités Qui est champion dans la lubricité Nouvelle apparition d'Frédéric Lansac R'n'B instru pour J'pète quand j'crache Gérard Baste en équipe avec Do Bass Olà qué tàl ? Les deux queutards du S-W C'est pourtant facile de n'pas s'tromper Pète et crache, sur tes fesses, ??? Perverse mmmh j'espère qu't'as déjà joué à Doom Prend mon joystick, essaie de jouer mon style percusif Mécanique sexuelle, pour les belles Bienvenue dans les tourelles du château ??? Mécanique sexuelle, mécanique rythmée Lobotomotiv' Tchou tchou ouh ouh</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2122,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Juste fais là, qu'est-ce que j'fais là, cliché peura Le must est là, y'a pas photo même si t'as ton Pola' Le contenu est simple, soutenu par un sample Sans pleur et sans r'proche, avec mes proches J'prends d'l'ampleur Les chevaliers braillards, font dans la rime gaillarde Nos lyrics, nous les pensons comme des chansons paillardes J'ai mis d'côté les phases de fonce-dé, grillées Tout est trié pour un soin d'enfoiré, j'passe en soirée Y'a pas qu'la basse qui passera pour les paces-ra, celle qui lassera Y'a pas qu'du peura pour l'underground sombrero-caillera Format single, fini les contenus d'cinglé Tous ces jingles Svinkels, pire que d'la jungle Juste une bonne basse qui fasse trémousser la masse Relève ton buste, y'a plus de Svinkels à la masse Il suffira d'en terminer sur un r'frain chanté Emballé, c'est pesé, circulez, envoie la monnaie Juste fêlé, ça fait d'l'effet La note juste est là Donc juste fais là Juste fais là baby ouais Toi-même tu fais Juste fais là baby Toi-même tu fais Juste fais là baby Just do it, façon Nike You might also like Le vengeur au grand cur qui tient toujours les promesses Qu'il fait à une femme, comme Chow Yun-fat dans The Killer Quand j'suis sous folie, appelle-moi Ki L'man qui maque sur seize pistes Mackie J'maquille mes lyrics comme un délit d'initié façon hip-hop Reste en travers de ta gorge comme un Roll Mop Juste fais là, d'toutes les manières nécessaires Quand t'as une envie qui t'travailles les viscères Juste fais là L'ignoble du vignoble Gerard Baste Jamais hypocrite, j'en fais l'serment du Picrate Prend un Prozac, kézako tu danses comme un cosaque Cher-lâ, ouate comme Doc juste met la, gouache C'est chouette, fais-toi des couettes comme Sheïla L'tumulte, me catapulte, vers l'âge adulte Dans 20 ans, on parlera d'ma jeunesse comme d'un film culte Pourquoi tu tempères, alors qu'ton grand-père, pète les ampères Sur mon trip donc comme naguère, juste fais l'amour, pas la guerre J'suis fondu, fada d'son p'tit abricot fendu J'croque le fruit défendu, j'ai la langue bien pendue Pas vendu, pas b'soin d'contrat stipulant J'sais pas quoi pour qu'nos shows soient toujours plus stimulants Extériorise-toi, regarde-toi dans la glace et prononce trois fois Juste fais là Fais l'tri, met d'l'ordre, trime et imprime que j'vais t'brimer Si tu t'laisses déprimer Si pour t'exprimer, t'as b'soin d'pisser par terre D'écrire des trucs malsains sur les murs des waters D'y laisser une virgule de de-mer façon Nike Air Juste fais là x2 Juste fais là baby ouais Toi-même tu fais Juste fais là baby Toi-même tu fais Juste fais là baby Just do it, façon Nike x2 1,2 jette ton sexe en l'air Si y'a une connerie à dire ou à faire Juste Fais Là ! 1,2 jette ton sexe en l'air Si y'a une bêtise à faire Juste Fais Là !</t>
+          <t>Juste fais là, qu'est-ce que j'fais là, cliché peura Le must est là, y'a pas photo même si t'as ton Pola' Le contenu est simple, soutenu par un sample Sans pleur et sans r'proche, avec mes proches J'prends d'l'ampleur Les chevaliers braillards, font dans la rime gaillarde Nos lyrics, nous les pensons comme des chansons paillardes J'ai mis d'côté les phases de fonce-dé, grillées Tout est trié pour un soin d'enfoiré, j'passe en soirée Y'a pas qu'la basse qui passera pour les paces-ra, celle qui lassera Y'a pas qu'du peura pour l'underground sombrero-caillera Format single, fini les contenus d'cinglé Tous ces jingles Svinkels, pire que d'la jungle Juste une bonne basse qui fasse trémousser la masse Relève ton buste, y'a plus de Svinkels à la masse Il suffira d'en terminer sur un r'frain chanté Emballé, c'est pesé, circulez, envoie la monnaie Juste fêlé, ça fait d'l'effet La note juste est là Donc juste fais là Juste fais là baby ouais Toi-même tu fais Juste fais là baby Toi-même tu fais Juste fais là baby Just do it, façon Nike Le vengeur au grand cur qui tient toujours les promesses Qu'il fait à une femme, comme Chow Yun-fat dans The Killer Quand j'suis sous folie, appelle-moi Ki L'man qui maque sur seize pistes Mackie J'maquille mes lyrics comme un délit d'initié façon hip-hop Reste en travers de ta gorge comme un Roll Mop Juste fais là, d'toutes les manières nécessaires Quand t'as une envie qui t'travailles les viscères Juste fais là L'ignoble du vignoble Gerard Baste Jamais hypocrite, j'en fais l'serment du Picrate Prend un Prozac, kézako tu danses comme un cosaque Cher-lâ, ouate comme Doc juste met la, gouache C'est chouette, fais-toi des couettes comme Sheïla L'tumulte, me catapulte, vers l'âge adulte Dans 20 ans, on parlera d'ma jeunesse comme d'un film culte Pourquoi tu tempères, alors qu'ton grand-père, pète les ampères Sur mon trip donc comme naguère, juste fais l'amour, pas la guerre J'suis fondu, fada d'son p'tit abricot fendu J'croque le fruit défendu, j'ai la langue bien pendue Pas vendu, pas b'soin d'contrat stipulant J'sais pas quoi pour qu'nos shows soient toujours plus stimulants Extériorise-toi, regarde-toi dans la glace et prononce trois fois Juste fais là Fais l'tri, met d'l'ordre, trime et imprime que j'vais t'brimer Si tu t'laisses déprimer Si pour t'exprimer, t'as b'soin d'pisser par terre D'écrire des trucs malsains sur les murs des waters D'y laisser une virgule de de-mer façon Nike Air Juste fais là x2 Juste fais là baby ouais Toi-même tu fais Juste fais là baby Toi-même tu fais Juste fais là baby Just do it, façon Nike x2 1,2 jette ton sexe en l'air Si y'a une connerie à dire ou à faire Juste Fais Là ! 1,2 jette ton sexe en l'air Si y'a une bêtise à faire Juste Fais Là !</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2139,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Aha... Aha... Otto jr... Wow! Jeg er rastløs, men hva faen skal jeg gjøre Fåkke drekke, fåkke feste, fåkke pule, fåkke kjøre Har prøvd å gå på kamp men det var ingen som fortalte At man ikke kunne ha med verken gunner eller balltre Alle barn skal ha en rett til å gå på en skole Men hva skjedde med retten, til å handle på polet Dt er en mennskerett for meg å kunne ta meg en fest Alt jeg ber om er pils, men jeg får bare kjeft Flere voksne sier til meg du må gå til psykolog Men jeg går jo til den beste, nemlig Snoop Doggy Dawg Jeg spurte Snoop, hvem han ville ligget med av disse Han svarte begge to fo'shis'a'meg'nisse Jeg var en rundbrenner før, men alt ble forandra Den dagen jeg fikk nærkontakt med Lene Alexandra Men hun nekta meg å gjøre henne til min bitch Så nå er jeg bare ung og pissed Ung og pissed Otto Jr. er ung og pissed Otto Jr. er ung og pissed Otto Jr. er ung, ung, ung og pissed You might also likeErik og Kriss er en jævla vits De er værre enn melodi grand prix for kids Som har barnemesterskap i å drite seg ut på scena Jeg spyr hver gang jeg hører Oro Jeaska Beana Drittfilm for barn, si meg hva er poenget Olsenbanden Jr. fack meg hardt og lenge Helmax Egon, å jeg har en plan Jeg har en plan, gi dere bank så fort som fa'n Jeg ser en rikmannsbil Det ekke sånn det skal værra Da går jeg rolig bort og blir bedre kjent med kjerra Jeg hater topp, jeg hater Donald Duck Jeg vil ha blader med damer som suger ku Også horer blir forbudt fra 2009 Da er jeg i puberteten Det har ingenting å si Jeg hater alt av politikk Jeg blir heller anarkist Jeg er Otto Jr, og jeg er ung og pissed Ung og pissed Otto Jr er ung og pissed Otto Jr er ung og pissed Otto Jr er ung, ung, ung og pissed Jeg er respektløs, men jeg krever respekt, det er mitt motto Otto Jr Jeg syns du gjør det bra, du gjør ikke skam på navnet Otto Otto Hold kjeft din jævla olding, neida bare kødda Otto Jr Å bli hetsa og fornærma har aldri noen dødd av Begge Kan du lære meg noe mer ditt fings imbisil Otto Jr Bli litt grovere i kjeften det er alt som skal til Otto Jeg er Otto, snart er jeg pensjonist Otto Jeg er Otto Jr, og jeg er ung og pissed Ung og pissed Otto Jr er ung og pissed Otto Jr er ung og pissed Otto Jr er ung, ung, ung og pissed</t>
+          <t>Aha... Aha... Otto jr... Wow! Jeg er rastløs, men hva faen skal jeg gjøre Fåkke drekke, fåkke feste, fåkke pule, fåkke kjøre Har prøvd å gå på kamp men det var ingen som fortalte At man ikke kunne ha med verken gunner eller balltre Alle barn skal ha en rett til å gå på en skole Men hva skjedde med retten, til å handle på polet Dt er en mennskerett for meg å kunne ta meg en fest Alt jeg ber om er pils, men jeg får bare kjeft Flere voksne sier til meg du må gå til psykolog Men jeg går jo til den beste, nemlig Snoop Doggy Dawg Jeg spurte Snoop, hvem han ville ligget med av disse Han svarte begge to fo'shis'a'meg'nisse Jeg var en rundbrenner før, men alt ble forandra Den dagen jeg fikk nærkontakt med Lene Alexandra Men hun nekta meg å gjøre henne til min bitch Så nå er jeg bare ung og pissed Ung og pissed Otto Jr. er ung og pissed Otto Jr. er ung og pissed Otto Jr. er ung, ung, ung og pissed Erik og Kriss er en jævla vits De er værre enn melodi grand prix for kids Som har barnemesterskap i å drite seg ut på scena Jeg spyr hver gang jeg hører Oro Jeaska Beana Drittfilm for barn, si meg hva er poenget Olsenbanden Jr. fack meg hardt og lenge Helmax Egon, å jeg har en plan Jeg har en plan, gi dere bank så fort som fa'n Jeg ser en rikmannsbil Det ekke sånn det skal værra Da går jeg rolig bort og blir bedre kjent med kjerra Jeg hater topp, jeg hater Donald Duck Jeg vil ha blader med damer som suger ku Også horer blir forbudt fra 2009 Da er jeg i puberteten Det har ingenting å si Jeg hater alt av politikk Jeg blir heller anarkist Jeg er Otto Jr, og jeg er ung og pissed Ung og pissed Otto Jr er ung og pissed Otto Jr er ung og pissed Otto Jr er ung, ung, ung og pissed Jeg er respektløs, men jeg krever respekt, det er mitt motto Otto Jr Jeg syns du gjør det bra, du gjør ikke skam på navnet Otto Otto Hold kjeft din jævla olding, neida bare kødda Otto Jr Å bli hetsa og fornærma har aldri noen dødd av Begge Kan du lære meg noe mer ditt fings imbisil Otto Jr Bli litt grovere i kjeften det er alt som skal til Otto Jeg er Otto, snart er jeg pensjonist Otto Jeg er Otto Jr, og jeg er ung og pissed Ung og pissed Otto Jr er ung og pissed Otto Jr er ung og pissed Otto Jr er ung, ung, ung og pissed</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2173,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Faire péter le kepon, paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon, paye ton punk Fais péter l'punk Gérard Baste, la Nina Hagen française Je veux réveiller le punk qui est en moi Faire péter le junkie Ce soir jen ai marre dêtre funky Jveux disjoncter à lacide Gerber juste avant le concert Monter sur scène tout livide Avec un banjo Même si jtroque mes Rangos Pour des Mephistos Jkifferai toujours une guitare disto Slam, jette-toi dans les flammes Jresterai Rock n Roll dans lâme jusquà ce que jclamse Jai brûlé mes verrues Mais jamais jbrûlerai mes vieux albums des Bérus Fils jen suis trop féru, plus que d'Jean Ferrat Je préfère le rock ferreux de Pantera Adhère à la philo-sophie De livrogne notoire Qui souvent utilisa le trottoir comme dortoir Mon ossature sature Toutes ces bitures Laissent des points de suture Si jcontinue ce sera No Future Gérard Baste arrête de tfonçder Disent les mecs alors que jsuis en train dvider Mon bide dans lbidet Ils comprennent rien à lanarchie Mec, tu veux un groupe rebelle, moi jle suis archi En direct et pas en duplex Nique tes complexes Le son claque dans tes dents Serrées comme les rangs dune triplex Jmen fous Jsaute comme Donkey Kong Je ne vivrai jamais comme quiconque Car jai réveillé le punk You might also like Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk Je fais la grasse matinée Reste dans mes odeurs Jempeste mauvaises OD De la veille quelle horreur Le punk se réveille Eclate son réveil Sur le téléphone qui sonne Jmassomme Réveille le punk qui sommeille Jbondis de mon sommier Me rince le gosier Môme la bière que jachetais Ne servait quà me coiffer Crise dadolescence, punk naissant Semblant dfamille délaissant Je suis bête et méchant En rade à Marmottan Barbotant dans mon sang Après un pogo Je suis le vilain sauvage pas beau Pire quun lobo Vlà mon logo Fallait pas mlaisser dans llabo dchimie Jai tout bégo Quoi dneuf doc gros coup dDoc coquée Dans mon hip hop troqué contre du rock Sors ton perfecto défroqué Tu seras Ok Pour ne pas terminer Comme la femme des Sex Pistols Dans lfrigo toute découpée Couplet à ma bière Comme si cétait mon frère Jsuis fier y a quelle qui me nourrisse Jtépingle à nourrisse Jai bu comme Ludwig Quatre-Vingt 8,6 Double zéro de Conduite Six Suicidal Tendances Mon single de cinglé, le tube de léther Plus anti-social que Trust Je pue comme le Munster Lépave lance le pavé Dans la manifestation Prônant lauto-destruction Jai perdu ma génération Des Who jusquau Wu Tang Je vais te faire fuir Je représente ceux qui utilisent leur cervelle à la détruire Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk</t>
+          <t>Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Faire péter le kepon, paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon, paye ton punk Fais péter l'punk Gérard Baste, la Nina Hagen française Je veux réveiller le punk qui est en moi Faire péter le junkie Ce soir jen ai marre dêtre funky Jveux disjoncter à lacide Gerber juste avant le concert Monter sur scène tout livide Avec un banjo Même si jtroque mes Rangos Pour des Mephistos Jkifferai toujours une guitare disto Slam, jette-toi dans les flammes Jresterai Rock n Roll dans lâme jusquà ce que jclamse Jai brûlé mes verrues Mais jamais jbrûlerai mes vieux albums des Bérus Fils jen suis trop féru, plus que d'Jean Ferrat Je préfère le rock ferreux de Pantera Adhère à la philo-sophie De livrogne notoire Qui souvent utilisa le trottoir comme dortoir Mon ossature sature Toutes ces bitures Laissent des points de suture Si jcontinue ce sera No Future Gérard Baste arrête de tfonçder Disent les mecs alors que jsuis en train dvider Mon bide dans lbidet Ils comprennent rien à lanarchie Mec, tu veux un groupe rebelle, moi jle suis archi En direct et pas en duplex Nique tes complexes Le son claque dans tes dents Serrées comme les rangs dune triplex Jmen fous Jsaute comme Donkey Kong Je ne vivrai jamais comme quiconque Car jai réveillé le punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk Je fais la grasse matinée Reste dans mes odeurs Jempeste mauvaises OD De la veille quelle horreur Le punk se réveille Eclate son réveil Sur le téléphone qui sonne Jmassomme Réveille le punk qui sommeille Jbondis de mon sommier Me rince le gosier Môme la bière que jachetais Ne servait quà me coiffer Crise dadolescence, punk naissant Semblant dfamille délaissant Je suis bête et méchant En rade à Marmottan Barbotant dans mon sang Après un pogo Je suis le vilain sauvage pas beau Pire quun lobo Vlà mon logo Fallait pas mlaisser dans llabo dchimie Jai tout bégo Quoi dneuf doc gros coup dDoc coquée Dans mon hip hop troqué contre du rock Sors ton perfecto défroqué Tu seras Ok Pour ne pas terminer Comme la femme des Sex Pistols Dans lfrigo toute découpée Couplet à ma bière Comme si cétait mon frère Jsuis fier y a quelle qui me nourrisse Jtépingle à nourrisse Jai bu comme Ludwig Quatre-Vingt 8,6 Double zéro de Conduite Six Suicidal Tendances Mon single de cinglé, le tube de léther Plus anti-social que Trust Je pue comme le Munster Lépave lance le pavé Dans la manifestation Prônant lauto-destruction Jai perdu ma génération Des Who jusquau Wu Tang Je vais te faire fuir Je représente ceux qui utilisent leur cervelle à la détruire Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2207,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Si tu n'sais pas comment faire poto, laisse faire prince Laisse faire prince, vas-y laisse faire prince Si tu pouvais seulement t'taire steuplait laisse faire prince Laisse faire prince, steuplait laisse faire prince Si tu n'sais pas comment faire, vas-y laisse faire prince Laisse faire prince, vas-y laisse faire prince Ça va vraiment être la guerre si tu laisses faire prince Laisse faire prince, vas-y laisse faire prince Ça y est, laisse moi faire, j'te jure ça va être marrant Mieux vaut demander aux parents quand on sait pas faire Si tu finis pas le verre, si tu finis par terre Si tu vomis, viens par ici apprendre les bonnes manières Régle numéro un, tu te comportes bien Ne mets pas dans ton tarin la taille de ton voisin Règle numéro deux, tu te démerdes J'en ai rien à foutre des règles Je te demanderais juste de te laver les dents Darrêter de me parler avec cet accent pédant T'as un rendez-vous galant, va te laver le gland Essaye de te retenir une fois que tu es dedans Si tu n'appliques pas ça bien, mec je peux te clash Tu peux gouter le vin, mais je te tape si tu le recraches Invite nous, on sera toujours royaux Si tu veux me faire honneur sors moi le tord-boyaux You might also like Si tu n'sais pas comment faire poto, laisse faire prince Laisse faire prince, vas-y laisse faire prince Si tu pouvais seulement t'taire steuplait laisse faire prince Laisse faire prince, steuplait laisse faire prince Si tu n'sais pas comment faire, vas-y laisse faire prince Laisse faire prince, vas-y laisse faire prince Ça va vraiment être la guerre si tu laisses faire prince Laisse faire prince, vas-y laisse faire prince Tous les jours je deviens amnésique Je ne me souviens plus d'hier Faut qu'j'me réhydrate, j'ai une voix qui tourne dans ma tete Qui m'dit vite vite vite vite Je fonce vers le supermarché, direction le rayon bière Je choisi, je ressors, je la décapsule Et cul sec je la vide vide vide vide Et c'est la nouvelle ère qui commence Souvent les mêmes galères qui r'commencent Il serait ptet temps darrêter de s'laisser faire Par tous ces gros blair' qui nous disent que Je suis vrai comme des On sort le Tomahawk comme les Comanches On ne leur pardonnera plus leur indolence On ne va pas faire de détour On va te réprimander pour ton insolence On va encore foutre le feu tu peux sortir l'extincteur Je suis venu pour gagner on me dit souvent Qu'j'ai une bonne tete de vainqueur Mais tous les meilleurs sont déjà partis J'viens combler l'manque J'ai pas des punch, mais des crunchline J'fais trembler le monde Après 20 ans tu sais qu'jsuis toujours là Mec regarde le prince Tu peux pas déconner avec moi Si tu n'sais pas comment faire poto, laisse faire prince Laisse faire prince, vas-y laisse faire prince Si tu pouvais seulement t'taire steuplait laisse faire prince Laisse faire prince, steuplait laisse faire prince Si tu n'sais pas comment faire, vas-y laisse faire prince Laisse faire prince, vas-y laisse faire prince Ça va vraiment être la guerre si tu laisses faire prince Laisse faire prince, vas-y laisse faire prince</t>
+          <t>Si tu n'sais pas comment faire poto, laisse faire prince Laisse faire prince, vas-y laisse faire prince Si tu pouvais seulement t'taire steuplait laisse faire prince Laisse faire prince, steuplait laisse faire prince Si tu n'sais pas comment faire, vas-y laisse faire prince Laisse faire prince, vas-y laisse faire prince Ça va vraiment être la guerre si tu laisses faire prince Laisse faire prince, vas-y laisse faire prince Ça y est, laisse moi faire, j'te jure ça va être marrant Mieux vaut demander aux parents quand on sait pas faire Si tu finis pas le verre, si tu finis par terre Si tu vomis, viens par ici apprendre les bonnes manières Régle numéro un, tu te comportes bien Ne mets pas dans ton tarin la taille de ton voisin Règle numéro deux, tu te démerdes J'en ai rien à foutre des règles Je te demanderais juste de te laver les dents Darrêter de me parler avec cet accent pédant T'as un rendez-vous galant, va te laver le gland Essaye de te retenir une fois que tu es dedans Si tu n'appliques pas ça bien, mec je peux te clash Tu peux gouter le vin, mais je te tape si tu le recraches Invite nous, on sera toujours royaux Si tu veux me faire honneur sors moi le tord-boyaux Si tu n'sais pas comment faire poto, laisse faire prince Laisse faire prince, vas-y laisse faire prince Si tu pouvais seulement t'taire steuplait laisse faire prince Laisse faire prince, steuplait laisse faire prince Si tu n'sais pas comment faire, vas-y laisse faire prince Laisse faire prince, vas-y laisse faire prince Ça va vraiment être la guerre si tu laisses faire prince Laisse faire prince, vas-y laisse faire prince Tous les jours je deviens amnésique Je ne me souviens plus d'hier Faut qu'j'me réhydrate, j'ai une voix qui tourne dans ma tete Qui m'dit vite vite vite vite Je fonce vers le supermarché, direction le rayon bière Je choisi, je ressors, je la décapsule Et cul sec je la vide vide vide vide Et c'est la nouvelle ère qui commence Souvent les mêmes galères qui r'commencent Il serait ptet temps darrêter de s'laisser faire Par tous ces gros blair' qui nous disent que Je suis vrai comme des On sort le Tomahawk comme les Comanches On ne leur pardonnera plus leur indolence On ne va pas faire de détour On va te réprimander pour ton insolence On va encore foutre le feu tu peux sortir l'extincteur Je suis venu pour gagner on me dit souvent Qu'j'ai une bonne tete de vainqueur Mais tous les meilleurs sont déjà partis J'viens combler l'manque J'ai pas des punch, mais des crunchline J'fais trembler le monde Après 20 ans tu sais qu'jsuis toujours là Mec regarde le prince Tu peux pas déconner avec moi Si tu n'sais pas comment faire poto, laisse faire prince Laisse faire prince, vas-y laisse faire prince Si tu pouvais seulement t'taire steuplait laisse faire prince Laisse faire prince, steuplait laisse faire prince Si tu n'sais pas comment faire, vas-y laisse faire prince Laisse faire prince, vas-y laisse faire prince Ça va vraiment être la guerre si tu laisses faire prince Laisse faire prince, vas-y laisse faire prince</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2224,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Oh la la comment elle fracasse C'est un truc de malade, hein ! Tain' mais c'est quoi cette weed de ouf ?! C'est pas d'la purple, c'est pas d'l' Africaine C'est le Svink et un pochon rempli d'mongolienne C'est la beuh qui rend trisomique et qui attaque les gênes J'commence à croire qu'le dealer, bah c'est Pascal Duquenne Réactions en chaîne, problèmes moteurs Le cerveau qui va s'vider Et les yeux qui vont s'brider Légaliser c'produit c'est autoriser l'euthanasie Est-ce que j'dois préciser qu'au départ c'est l'herbe des nazis ? Déguisé comme Lââm avec un grand chapeau Stupide comme Van Damme et fonce-dé comme un mongolito Alors oublie l'chichon, l'shit, toutes les drogues qui rendent trop mou Ta tête, un ballon d'rugby, c't'herbe, un drop de Jonah Lomu J'ai serré un bag de cette nouvelle grass Inclassable dans High Times tellement qu'elle fait mal Alors jette ce spliff de fausse hawaïenne Oublie la magic haze, j'ai d'la mongolienne Culture hydroponique, pour t'mash-up la tête La dernière fois j'ai mis une semaine pour finir un pet' Y'a un problème cependant Elle m'fait m'gratter, m'donne mal aux dents Il parait qu'elle vient du temps ou les allemands étaient méchants You might also likeRefrain Gérard Baste Nikus Pokus C'est la mongolienne C'est la mongolienne C'est la mongolienne Toujours prêt pour une tournante C'est la mongolienne Espèce de connasse C'est la mongolienne C'est la mongolienne C'est la mongolienne Tout l'monde dit oui pour l'herbe des nazis J'sais pas c'que j'ai récolté mais j'ai pas l'air cultivé P't'êt' ben qu'non p't'êt' ben qu'oui J'voudrais r'voir ma Normandie Mais j'débarque sur Paris, à l'américaine Avec tout plein d'blondes et d'beuze de mongolienne Putain d'buzz, j'deale des pochons d'branches à des branchés débiles Dédé à 100QI, j'signe tous les MC d'Mongolie Le nouveau Slim Shady en fauteuil roulant des 1000 feuilles en bavant Sur l'micro comme un triso Oh putain cette weed, c'est d'la merde en vrac Puis elle est vraiment trop forte, j'crois qu'j'préfère le crack À chaque fois qu'j'en bédave dans ma chambre c'est l'Ansdpah Et y'a des gars des îles Samoa qui s'mettent en place pour le Haka Alors t'as qu'à en acheter, ce truc qui va t'mater Et t'faire voir des gars qui gueulent Ka mate Ka mate Ce s'ra toujours mieux qu'tomber dans la brown Réunis plein d'oseille on va chez Alphonse Brown Refrain Gérard Baste Nikus Pokus C'est la mongolienne C'est la mongolienne C'est la mongolienne Toujours prêt pour une tournante C'est la mongolienne Espèce de connasse C'est la mongolienne C'est la mongolienne C'est la mongolienne Tout l'monde dit oui pour l'herbe des nazis J'tire une latte et j'me prends pour la Callas Sur c't'instru à la Dallas, mon univers est pitoyable Un alien dans la cervelle, plus abruti qu'Averell J'ai la vue daltonienne, vois la vie en aquarelle Avec ma copine la mongolienne, l'autre végétarienne Tout pleins d'golio-éléments qui m'rendent polio J'fume au bang, tousse et ne pipe mot Comme si j'm'étais pris sur la gueule un tsunami d'sumos Refrain Gérard Baste Nikus Pokus C'est la mongolienne C'est la mongolienne C'est la mongolienne Toujours prêt pour une tournante C'est la mongolienne Espèce de connasse C'est la mongolienne C'est la mongolienne C'est la mongolienne Tout l'monde dit oui pour l'herbe des nazis L'arrière allemande !!! Le produit est vraiment fort Nos soldats, toujours prêts a fumer la mongolienne, seront impitoyables Allemands mes amis, ARBEITEN !!</t>
+          <t>Oh la la comment elle fracasse C'est un truc de malade, hein ! Tain' mais c'est quoi cette weed de ouf ?! C'est pas d'la purple, c'est pas d'l' Africaine C'est le Svink et un pochon rempli d'mongolienne C'est la beuh qui rend trisomique et qui attaque les gênes J'commence à croire qu'le dealer, bah c'est Pascal Duquenne Réactions en chaîne, problèmes moteurs Le cerveau qui va s'vider Et les yeux qui vont s'brider Légaliser c'produit c'est autoriser l'euthanasie Est-ce que j'dois préciser qu'au départ c'est l'herbe des nazis ? Déguisé comme Lââm avec un grand chapeau Stupide comme Van Damme et fonce-dé comme un mongolito Alors oublie l'chichon, l'shit, toutes les drogues qui rendent trop mou Ta tête, un ballon d'rugby, c't'herbe, un drop de Jonah Lomu J'ai serré un bag de cette nouvelle grass Inclassable dans High Times tellement qu'elle fait mal Alors jette ce spliff de fausse hawaïenne Oublie la magic haze, j'ai d'la mongolienne Culture hydroponique, pour t'mash-up la tête La dernière fois j'ai mis une semaine pour finir un pet' Y'a un problème cependant Elle m'fait m'gratter, m'donne mal aux dents Il parait qu'elle vient du temps ou les allemands étaient méchants Refrain Gérard Baste Nikus Pokus C'est la mongolienne C'est la mongolienne C'est la mongolienne Toujours prêt pour une tournante C'est la mongolienne Espèce de connasse C'est la mongolienne C'est la mongolienne C'est la mongolienne Tout l'monde dit oui pour l'herbe des nazis J'sais pas c'que j'ai récolté mais j'ai pas l'air cultivé P't'êt' ben qu'non p't'êt' ben qu'oui J'voudrais r'voir ma Normandie Mais j'débarque sur Paris, à l'américaine Avec tout plein d'blondes et d'beuze de mongolienne Putain d'buzz, j'deale des pochons d'branches à des branchés débiles Dédé à 100QI, j'signe tous les MC d'Mongolie Le nouveau Slim Shady en fauteuil roulant des 1000 feuilles en bavant Sur l'micro comme un triso Oh putain cette weed, c'est d'la merde en vrac Puis elle est vraiment trop forte, j'crois qu'j'préfère le crack À chaque fois qu'j'en bédave dans ma chambre c'est l'Ansdpah Et y'a des gars des îles Samoa qui s'mettent en place pour le Haka Alors t'as qu'à en acheter, ce truc qui va t'mater Et t'faire voir des gars qui gueulent Ka mate Ka mate Ce s'ra toujours mieux qu'tomber dans la brown Réunis plein d'oseille on va chez Alphonse Brown Refrain Gérard Baste Nikus Pokus C'est la mongolienne C'est la mongolienne C'est la mongolienne Toujours prêt pour une tournante C'est la mongolienne Espèce de connasse C'est la mongolienne C'est la mongolienne C'est la mongolienne Tout l'monde dit oui pour l'herbe des nazis J'tire une latte et j'me prends pour la Callas Sur c't'instru à la Dallas, mon univers est pitoyable Un alien dans la cervelle, plus abruti qu'Averell J'ai la vue daltonienne, vois la vie en aquarelle Avec ma copine la mongolienne, l'autre végétarienne Tout pleins d'golio-éléments qui m'rendent polio J'fume au bang, tousse et ne pipe mot Comme si j'm'étais pris sur la gueule un tsunami d'sumos Refrain Gérard Baste Nikus Pokus C'est la mongolienne C'est la mongolienne C'est la mongolienne Toujours prêt pour une tournante C'est la mongolienne Espèce de connasse C'est la mongolienne C'est la mongolienne C'est la mongolienne Tout l'monde dit oui pour l'herbe des nazis L'arrière allemande !!! Le produit est vraiment fort Nos soldats, toujours prêts a fumer la mongolienne, seront impitoyables Allemands mes amis, ARBEITEN !!</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2241,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Derrière les tourne-disques le DJ s'appelle Dr. Vince Je suis moi-même votre hôte, Gérard Baste Nous sommes absolument ravis d'vous accueillir dans cet espace sonore Pour vous faire partager notre amour du Hip-Hop et de la musique en général D'autant plus qu'au départ, j'fais ce job par hasard J'voulais être peintre, rien à voir avec faire ma rockstar Devant un public de ouf , c'était l'pire truc qui puisse m'arriver Vu qu'à l'école j'me chiais d'ssus dès qu'j'devais faire un exposé Mais y'a eu une coupure nette et tout a changé dans ma tête Quand j'ai compris qu'j'devais combattre pour mon droit d'faire la fête J'me rappelle de mes premiers textes et d'mes, premières maquettes Gérard baste Huh! depuis 1987 Han! Pas la peine de mentir, j'tais qu'une pine En starter Dolphins, Burberry's d'un seul coté du jean Palmarès deux lignes de rap, trois graffs dans les Yvelines Mais j'ai toujours gardé l'amour pour les quatre disciplines C'est l'tag qui m'a amené au rap, c'est l'rap qui m'a amené au rock et au funk C'est l'rap qui m'a fait réveiller l'punk Et même si j'ai l'ventre en vrac, que j'suis bouffé par l'trac Qu'j'ai b'soin d'raconter mes frasques, mouiller mes frusques et rentrer frac' Quand on monte sur scène on s'tâte pas, on prend l'mic et on tatepa Depuis l'temps que j'bouffe un tas d'pâtes Maintenant j'veux mettre tout l'monde à quatre pattes On a la dalle et on pense qu'à s'battre On est Bad comme LL Ma musique, mixe la bourgeoisie et les rebelles J'fais ça par amour de l'art, j'ai pas grand chose à foutre du flouz Toute la musique que j'aime elle vient de là, elle vient du blues Graver mon blaze, être jamais blazé, qu'chaque chanson d'vienne un classique Qu'ce soit jamais déclassé et t'glacer l'sang sauf quand j'viens m'placer sur mon Hip-Hop, Hip-Hop, Hip-Hop Gérard Baste et j'fais du Hip-Hop, Hip-Hop, Hip-Hop Dr. Vince il aime le Hip-Hop, Hip-Hop, Hip-Hop Si toi aussi tu kiffes le Hip-Hop, Hip-Hop, Hip-Hop Yeah, yeah!You might also like</t>
+          <t>Derrière les tourne-disques le DJ s'appelle Dr. Vince Je suis moi-même votre hôte, Gérard Baste Nous sommes absolument ravis d'vous accueillir dans cet espace sonore Pour vous faire partager notre amour du Hip-Hop et de la musique en général D'autant plus qu'au départ, j'fais ce job par hasard J'voulais être peintre, rien à voir avec faire ma rockstar Devant un public de ouf , c'était l'pire truc qui puisse m'arriver Vu qu'à l'école j'me chiais d'ssus dès qu'j'devais faire un exposé Mais y'a eu une coupure nette et tout a changé dans ma tête Quand j'ai compris qu'j'devais combattre pour mon droit d'faire la fête J'me rappelle de mes premiers textes et d'mes, premières maquettes Gérard baste Huh! depuis 1987 Han! Pas la peine de mentir, j'tais qu'une pine En starter Dolphins, Burberry's d'un seul coté du jean Palmarès deux lignes de rap, trois graffs dans les Yvelines Mais j'ai toujours gardé l'amour pour les quatre disciplines C'est l'tag qui m'a amené au rap, c'est l'rap qui m'a amené au rock et au funk C'est l'rap qui m'a fait réveiller l'punk Et même si j'ai l'ventre en vrac, que j'suis bouffé par l'trac Qu'j'ai b'soin d'raconter mes frasques, mouiller mes frusques et rentrer frac' Quand on monte sur scène on s'tâte pas, on prend l'mic et on tatepa Depuis l'temps que j'bouffe un tas d'pâtes Maintenant j'veux mettre tout l'monde à quatre pattes On a la dalle et on pense qu'à s'battre On est Bad comme LL Ma musique, mixe la bourgeoisie et les rebelles J'fais ça par amour de l'art, j'ai pas grand chose à foutre du flouz Toute la musique que j'aime elle vient de là, elle vient du blues Graver mon blaze, être jamais blazé, qu'chaque chanson d'vienne un classique Qu'ce soit jamais déclassé et t'glacer l'sang sauf quand j'viens m'placer sur mon Hip-Hop, Hip-Hop, Hip-Hop Gérard Baste et j'fais du Hip-Hop, Hip-Hop, Hip-Hop Dr. Vince il aime le Hip-Hop, Hip-Hop, Hip-Hop Si toi aussi tu kiffes le Hip-Hop, Hip-Hop, Hip-Hop Yeah, yeah!</t>
         </is>
       </c>
     </row>
@@ -2314,11 +2290,7 @@
           <t>La tosserie</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2333,7 +2305,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Tu seras toujours en retard, nous, on est pile à l'heure Money time pillaveurs, record au bar d'l'Olympia deux fois au compteur, joue pas l'raconteur On a niqué la recette, coulé ta vedette T'as cru avoir les plus beaux chapeaux ? J'arrive avec une casquette Tes affiches en bois d'cagette, on va te prendre ton melon Tu vas repartir en cachette avec, au bras, ton cageot Pendant qu'on signe les culs des au sca-po Cherche pas la compét', c'est toujours complet, on fout la tempête C'est pour ça qu'on plaît, branle-toi sur nos couplets et panse bien tes plaies À force de vouloir la plus belle se-po, tu t'es spolié Y a pas de place pour les seconds rôles, petit écolier Elle est pas belle l'affiche ? Nos faces de gogols en tête de gondole Pourquoi tu ramènes ta quiche ? On a encore de quoi régaler la galette Amuser la fratrie de flatteries Te voler la vedette et te foutre au tapis Boom ! Le Svinkels déboule dans ta fête T'étais le roi d'la soirée, on va t'voler la vedette Comme Mozinor, tu peux pas test', on est des mastodontes J'me mets des mines comme Roi Salomon, j'suis l'homme le plus sale au monde La main sur le demi, doigt dans ta fente Sur le camping du festoche, on rentre à trois dans ta tente J'suis pas sectaire, j'bouffe la chair et le gras dans la viande T'es en concert dans la p'tite salle et moi dans la grande Parce que les gens m'trouvent trop stylé, toi, les gens n'te trouvent pas beau Va faire un tour sur le chantier, jette-toi d'un escabeau On vient foutre plus de bordel que dans une chambre d'ado J'suis en mode Fraggle Rock, tu veux la voir, la grande crado ? On met des grosses tartes à l'aveuglette Toi, t'y mets tout c'que t'as, mais tu balances que des tartelettes Tu repars avec la hchouma et un bon mal de tête On repart avec ta surette, on t'a volé la vedette You might also like Pas du type dur à cuire, j'suis du type serein, oui Mais, sur un beat, j'ai l'impression d'être un surin, pire, un tique Sur un pit' gue-din, l'pire venin qu'on n'ait jamais bu Celui qui préfère tous les buter que d'se faire cer-su Et, vu la vitesse à laquelle on passe de viande haschée à viande froide J'me serais sûrement viandé bien avant d'graille Diagnostiqué déviant déjà bien avant, j'craque Et j'avais la langue râpeuse déjà bien avant l'chat J'pourrais tout tenter mais ça m'tente pas et, si c'est moi qui t'attends C'soir, dis-toi bien qu't'as pas la moindre idée de c'qui t'attend, j'crache Dans un délire à l'ancienne en pire qu'avant si puissamment Qu'on fêtera la victoire avant l'match D-E-A-D-I les Nikus et les bastonne à tue-tête Sois sûr de toi ou sois sûr qu'il y aura pas d'peut-être Passé maître dans l'art d'à peu près tout sauf de l'à peu près Plutôt m'faire violer deux fois que d'leur voler la vedette T'étais sur scène, on s'est faufilé dans l'noir pour te voir Les gens ont crié Gérard!, on t'a volé la vedette Tu racontes ta meilleure histoire au comptoir dans ton bar On a juste une devinette, on t'a volé la vedette T'avais droit à un plus un pour la soirée secrète On débarque à quatre-vingt, on t'a volé la vedette T'as dit qu't'étais plus fort que nous et, maintenant, tu regrettes Ouais, tu t'trouves bête, on t'a volé la vedette</t>
+          <t>Tu seras toujours en retard, nous, on est pile à l'heure Money time pillaveurs, record au bar d'l'Olympia deux fois au compteur, joue pas l'raconteur On a niqué la recette, coulé ta vedette T'as cru avoir les plus beaux chapeaux ? J'arrive avec une casquette Tes affiches en bois d'cagette, on va te prendre ton melon Tu vas repartir en cachette avec, au bras, ton cageot Pendant qu'on signe les culs des au sca-po Cherche pas la compét', c'est toujours complet, on fout la tempête C'est pour ça qu'on plaît, branle-toi sur nos couplets et panse bien tes plaies À force de vouloir la plus belle se-po, tu t'es spolié Y a pas de place pour les seconds rôles, petit écolier Elle est pas belle l'affiche ? Nos faces de gogols en tête de gondole Pourquoi tu ramènes ta quiche ? On a encore de quoi régaler la galette Amuser la fratrie de flatteries Te voler la vedette et te foutre au tapis Boom ! Le Svinkels déboule dans ta fête T'étais le roi d'la soirée, on va t'voler la vedette Comme Mozinor, tu peux pas test', on est des mastodontes J'me mets des mines comme Roi Salomon, j'suis l'homme le plus sale au monde La main sur le demi, doigt dans ta fente Sur le camping du festoche, on rentre à trois dans ta tente J'suis pas sectaire, j'bouffe la chair et le gras dans la viande T'es en concert dans la p'tite salle et moi dans la grande Parce que les gens m'trouvent trop stylé, toi, les gens n'te trouvent pas beau Va faire un tour sur le chantier, jette-toi d'un escabeau On vient foutre plus de bordel que dans une chambre d'ado J'suis en mode Fraggle Rock, tu veux la voir, la grande crado ? On met des grosses tartes à l'aveuglette Toi, t'y mets tout c'que t'as, mais tu balances que des tartelettes Tu repars avec la hchouma et un bon mal de tête On repart avec ta surette, on t'a volé la vedette Pas du type dur à cuire, j'suis du type serein, oui Mais, sur un beat, j'ai l'impression d'être un surin, pire, un tique Sur un pit' gue-din, l'pire venin qu'on n'ait jamais bu Celui qui préfère tous les buter que d'se faire cer-su Et, vu la vitesse à laquelle on passe de viande haschée à viande froide J'me serais sûrement viandé bien avant d'graille Diagnostiqué déviant déjà bien avant, j'craque Et j'avais la langue râpeuse déjà bien avant l'chat J'pourrais tout tenter mais ça m'tente pas et, si c'est moi qui t'attends C'soir, dis-toi bien qu't'as pas la moindre idée de c'qui t'attend, j'crache Dans un délire à l'ancienne en pire qu'avant si puissamment Qu'on fêtera la victoire avant l'match D-E-A-D-I les Nikus et les bastonne à tue-tête Sois sûr de toi ou sois sûr qu'il y aura pas d'peut-être Passé maître dans l'art d'à peu près tout sauf de l'à peu près Plutôt m'faire violer deux fois que d'leur voler la vedette T'étais sur scène, on s'est faufilé dans l'noir pour te voir Les gens ont crié Gérard!, on t'a volé la vedette Tu racontes ta meilleure histoire au comptoir dans ton bar On a juste une devinette, on t'a volé la vedette T'avais droit à un plus un pour la soirée secrète On débarque à quatre-vingt, on t'a volé la vedette T'as dit qu't'étais plus fort que nous et, maintenant, tu regrettes Ouais, tu t'trouves bête, on t'a volé la vedette</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2322,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ça c'est pour tous les gens qui viennent nous voir en concert Vous avez failli vous appelez Les Grappes même Les Sacamerdes Mais vous êtes les putains d'Sacavins ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est parti d'un p'tit délire et vite c'est devenu une élite J'ai toujours dit qu'on a les fans qu'on mérite Les Sacavins, Sacavinettes ou Sacavinasses Si c'est trop, trace aux toilettes et vide ton sac De Brest même à Annecy jusqu'à Paris Comme mon pote ?Motok? bois 4 litres et pars faire le 4L Trophy Comme ?Bosh? et le Crotte Crew si l'caca c'est ton logo Ça s'jette dans l'pogo, bourré sur un vieux vélo Humour de merde comme ?Joe zu?, sourcils bas façon ?Lobro? Autant en emporte le Vandal, archi-ghetto Poissons panés au fond des amygdales, hémorroïdes Activités nocturnes bizarroïdes On est jeunes et imbibés, bien avinés Nés dans un village éloigné, Breton, Libanais Comme ?JFL ajar? sous double whisky glace En mode No Bullshit bourrés dans l'open space Sacavins viennent des Alpes ou du Limousin Capables de tout même de faire des sites sur des merdes de chiens Chimistes, informaticiens ou profs à la fac Comme ?Toto vito roro?, ?Monsieur Slop? alias bite de black Y'a même un caviste fan de jeux vidéos J'en place une pour le crew le ?R Ampto? On s'retrouve à Toulouse, prochain show QHuit Party J'espère que ?Jona San? aura mit sa casquette Marty You might also like C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Toujours prêts à s'mettre la youte du soir au matin Bouteilles dans l'sac à dos ou prods dans l'sac à main Espèce de Sacavin moi j'trouve que ça t'va bien ! Demande à ?BBK? nos passions dans la vie sont simples Les tronçonneuses, les pelles mécaniques et la bière J'descends en Bigorre dans l'sud-ouest pour boire une pinte Avec le mec qui tombe 1 litre en 11 secondes à l'Oktoberfest à Munich Vous êtes uniques et authentiques comme ?Lautentik?, c'est pas du toc Teigneux comme une tique, t'as une moustache dégueulasse, t'as survécu à un infarct' Sous morphine comme le malin, ça n'arrive pas qu'à Gérard Baste Putain ! Y'a des fans du Svink sur l'ile de Malte J'pense à ?La Burne? et à ?Nono? Demande à ?Grego? si ici c'est la porcherie Si t'aimes la vaseline comme dit Rodolphe, t'aimes pas la sodomie On est les obèses du quartier J'roule avec le ???, on va encore boucher les éviers À grands coups d'canettes et à force de bédave tout l'temps Tu finiras comme ?Mush? la bouche avec les coins blancs Ou comme ?Vesti? l'Picard, les couilles comme des poires Version plus mignonne, j'fais un bisou à ?Julie Pomme? Si t'aimes dessiner des bites et cracher du balcon Demande à ?Yongi? on en boufferai même le trognon Si tu traînes ton cul par terre sur Girlfriend de TTC T'étais skieur, médecin urgentiste Hey Black Edgar Grospiron, sors l'hélico viens nous sauver Et ramène tes platines pour la soirée à moins douze degrés Y'a rien d'malaisant à kiffer les vins Valaisan Sacavins seront toujours les bienvenus à la maison On s'voit au prochain concert, ça va encore être la fête Tu repartiras un tatou slip sur la fesse C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Toujours prêts à s'mettre la youte du soir au matin Bouteilles dans l'sac à dos ou prods dans l'sac à main Espèce de Sacavin moi j'trouve que ça t'va bien ! Celle là elle est pour ??? ??? ?Médhicoptère? en place une pour Aude, Tatiana, Kilian et Marley Lana, tous les gars d'??? Crotte Crew ! ???, Stibat Crew La ???, ?L'Atelier?, ???, ?Popi?, ??? ??? Sacavins ! On s'voit bientôt les Sacavinettes, Les Sacavinasses Gérard Baste ! 2020 ! Jusqu'à l'éternité !</t>
+          <t>Ça c'est pour tous les gens qui viennent nous voir en concert Vous avez failli vous appelez Les Grappes même Les Sacamerdes Mais vous êtes les putains d'Sacavins ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est parti d'un p'tit délire et vite c'est devenu une élite J'ai toujours dit qu'on a les fans qu'on mérite Les Sacavins, Sacavinettes ou Sacavinasses Si c'est trop, trace aux toilettes et vide ton sac De Brest même à Annecy jusqu'à Paris Comme mon pote ?Motok? bois 4 litres et pars faire le 4L Trophy Comme ?Bosh? et le Crotte Crew si l'caca c'est ton logo Ça s'jette dans l'pogo, bourré sur un vieux vélo Humour de merde comme ?Joe zu?, sourcils bas façon ?Lobro? Autant en emporte le Vandal, archi-ghetto Poissons panés au fond des amygdales, hémorroïdes Activités nocturnes bizarroïdes On est jeunes et imbibés, bien avinés Nés dans un village éloigné, Breton, Libanais Comme ?JFL ajar? sous double whisky glace En mode No Bullshit bourrés dans l'open space Sacavins viennent des Alpes ou du Limousin Capables de tout même de faire des sites sur des merdes de chiens Chimistes, informaticiens ou profs à la fac Comme ?Toto vito roro?, ?Monsieur Slop? alias bite de black Y'a même un caviste fan de jeux vidéos J'en place une pour le crew le ?R Ampto? On s'retrouve à Toulouse, prochain show QHuit Party J'espère que ?Jona San? aura mit sa casquette Marty C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Toujours prêts à s'mettre la youte du soir au matin Bouteilles dans l'sac à dos ou prods dans l'sac à main Espèce de Sacavin moi j'trouve que ça t'va bien ! Demande à ?BBK? nos passions dans la vie sont simples Les tronçonneuses, les pelles mécaniques et la bière J'descends en Bigorre dans l'sud-ouest pour boire une pinte Avec le mec qui tombe 1 litre en 11 secondes à l'Oktoberfest à Munich Vous êtes uniques et authentiques comme ?Lautentik?, c'est pas du toc Teigneux comme une tique, t'as une moustache dégueulasse, t'as survécu à un infarct' Sous morphine comme le malin, ça n'arrive pas qu'à Gérard Baste Putain ! Y'a des fans du Svink sur l'ile de Malte J'pense à ?La Burne? et à ?Nono? Demande à ?Grego? si ici c'est la porcherie Si t'aimes la vaseline comme dit Rodolphe, t'aimes pas la sodomie On est les obèses du quartier J'roule avec le ???, on va encore boucher les éviers À grands coups d'canettes et à force de bédave tout l'temps Tu finiras comme ?Mush? la bouche avec les coins blancs Ou comme ?Vesti? l'Picard, les couilles comme des poires Version plus mignonne, j'fais un bisou à ?Julie Pomme? Si t'aimes dessiner des bites et cracher du balcon Demande à ?Yongi? on en boufferai même le trognon Si tu traînes ton cul par terre sur Girlfriend de TTC T'étais skieur, médecin urgentiste Hey Black Edgar Grospiron, sors l'hélico viens nous sauver Et ramène tes platines pour la soirée à moins douze degrés Y'a rien d'malaisant à kiffer les vins Valaisan Sacavins seront toujours les bienvenus à la maison On s'voit au prochain concert, ça va encore être la fête Tu repartiras un tatou slip sur la fesse C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Toujours prêts à s'mettre la youte du soir au matin Bouteilles dans l'sac à dos ou prods dans l'sac à main Espèce de Sacavin moi j'trouve que ça t'va bien ! Celle là elle est pour ??? ??? ?Médhicoptère? en place une pour Aude, Tatiana, Kilian et Marley Lana, tous les gars d'??? Crotte Crew ! ???, Stibat Crew La ???, ?L'Atelier?, ???, ?Popi?, ??? ??? Sacavins ! On s'voit bientôt les Sacavinettes, Les Sacavinasses Gérard Baste ! 2020 ! Jusqu'à l'éternité !</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2339,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ma musique Oh, Oh Ma musique Oh, Oh Ma musique Oh, Oh Ma musique Elle m'a bercé toute ma vie À la maison, dès la naissance y'avait dangereux mélanges Brel ou Renaud avec le daron Avec la daronne, c'était Otis Redding et James Brown À l'adolescence, période punk, ska, raggae Avec mes premiers squattes, mes premiers groupes et mes premières foncedés J'rentrais déjà chez moi tard, avec la bave séchée aux lèvres Rien à foutre dêtre un mauvais élève Et ouais ça fait longtemps d'jà, l'apparition d'mes premiers skeuds de rap Run DMC My adidas Public Enemy It takes a nation of millions to hold us back No sleep till', j'entends Licence To Ill J'avais déjà c'flow qui m'grattait Mais à l'époque je n'savais pas encore c'que j'en f'rai Comme beaucoup, revendicatif et énervé Avec une putain d'envie d'chanter sur ma musique Ma musique L'son qui t'fait péter un fusible Dommage pour les autres mais c'est un fusil J'dis pas qu'on est les plus forts d'la musique Juste qu'on est les meilleurs d'notre genre et qu'on est uniques Ma musique Ma musique You might also like J'suis tombé d'dans quand j'étais p'tit et j's'rais un enfant toute ma vie Tout pleins d'gimmicks dans ma tête et des baskets jusqu'à la r'traite C'est juste ma liberté de vivre, jusqu'au jour où j'vais mourir J'la laisserai seule celle qui m'a suivie, tant d'fois réveillé en pleine nuit J'sais qu'y'a des gens qui m'envient mais j'te compte pas les jours dennuis J'aurais pu en rester aux notes, à une partition que j'pianote À des bouts d'textes sur un cahier, mais j'suis esclave de mon clavier Avec G. Baste et Mr. Xavier plus possible de faire marche arrière Les potes qu'ont prévus qu'ça marcherait, pouvaient pas prévoir la galère Putain d'salaire de misère, un trentenaire qu'a besoin d'sa mère Nique sam' j'f'rais encore mes gammes, quand y'aura plus d'Universal Vu qu'ici bas y'a peu d'choses propres Mon ame s'échappera d'la pierre tombale Et j'chant'rai dans milles autres vies Réincarner en milles autres ziques Tant qu'y'aura des Milosevic, immortelles s'ront nos partoches et nos lyrics Du jazz à la techno beatnik, du hip-hop au philarmonique Je sais qu'parfois mon art me nique, qu'les mélodies m'rendent amnésique Mais rien de rien, j'regrette rien C'est à ça qu'ma amené ma zique Ici Nikus y'a pas d'cactus Quand j'entends du Charlie Mingus, Coltrane, Miles ou Pastorius Redman, Busta ou du Rawkus Tu peux être sûr qu'j'serais toujours là avec le Svink pour chanter sur.. Ma musique L'son qui t'fait péter un fusible Dommage pour les autres mais c'est un fusil J'dis pas qu'on est les plus forts d'la musique Juste qu'on est les meilleurs d'notre genre et qu'on est uniques Ma musique Ma musique Au départ, j'ai fait d'la musique par hasard J'voulais être peintre rien à voir, avec faire ma rockstar Devant un parterre de fans, c'était l'pire truc qui puisse m'arriver Vu qu'à l'école j'me chiais d'ssus quand j'devais faire un exposé Mais y'a eu une coupure nette et tout a changé dans ma tête Quand j'ai appris qu'j'devais combattre pour mon droit d'faire la fête J'me rappelle de mes premiers textes et d'mes, premières maquettes Gerard baste, depuis 1987 Huh Pas la peine de mentir, j'tais qu'une pine En starter Dolphins, Burberry's d'un seul coté du jean Palmarès deux lignes de rap, trois graffs dans les Yvelines Mais j'ai toujours gardé l'amour pour les quatre disciplines C'est l'tag qui m'a amené au rap, c'est l'rap qui m'a amené au rock et au funk C'est l'rap qui m'a fait réveiller l'punk Et même si j'ai l'ventre en vrac et qu'j'suis bouffé par l'trac Qu'j'ai b'soin d'raconter mes frasques, mouiller mes frusques et rentrer frac' Quand on monte sur scène on s'tâte pas, on prend l'mic et on tatepa Depuis l'temps que j'bouffe un tas d'pâtes Maintenant j'veux mettre tout l'monde à quatre pattes On a la dalle et on pense qu'à s'battre On est Bad comme LL Ma musique, mixe la bourgeoisie et les rebelles J'fais ça par amour de l'art, j'ai pas grand chose à foutre du flouz Toute la musique que j'aime elle vient de là, elle vient du blues Graver mon blaze, être jamais blazé, qu'chaque chanson d'vienne un classique Qu'ce soit jamais déclassé et t'glacer l'sang sauf quand j'viens m'placer sur ma musique, ma musique, ma musique, ma musique Ma musique L'son qui t'fait péter un fusible Dommage pour les autres mais c'est un fusil J'dis pas qu'on est les plus forts d'la musique Juste qu'on est les meilleurs d'notre genre et qu'on est uniques Ma musique Ma musique</t>
+          <t>Ma musique Oh, Oh Ma musique Oh, Oh Ma musique Oh, Oh Ma musique Elle m'a bercé toute ma vie À la maison, dès la naissance y'avait dangereux mélanges Brel ou Renaud avec le daron Avec la daronne, c'était Otis Redding et James Brown À l'adolescence, période punk, ska, raggae Avec mes premiers squattes, mes premiers groupes et mes premières foncedés J'rentrais déjà chez moi tard, avec la bave séchée aux lèvres Rien à foutre dêtre un mauvais élève Et ouais ça fait longtemps d'jà, l'apparition d'mes premiers skeuds de rap Run DMC My adidas Public Enemy It takes a nation of millions to hold us back No sleep till', j'entends Licence To Ill J'avais déjà c'flow qui m'grattait Mais à l'époque je n'savais pas encore c'que j'en f'rai Comme beaucoup, revendicatif et énervé Avec une putain d'envie d'chanter sur ma musique Ma musique L'son qui t'fait péter un fusible Dommage pour les autres mais c'est un fusil J'dis pas qu'on est les plus forts d'la musique Juste qu'on est les meilleurs d'notre genre et qu'on est uniques Ma musique Ma musique J'suis tombé d'dans quand j'étais p'tit et j's'rais un enfant toute ma vie Tout pleins d'gimmicks dans ma tête et des baskets jusqu'à la r'traite C'est juste ma liberté de vivre, jusqu'au jour où j'vais mourir J'la laisserai seule celle qui m'a suivie, tant d'fois réveillé en pleine nuit J'sais qu'y'a des gens qui m'envient mais j'te compte pas les jours dennuis J'aurais pu en rester aux notes, à une partition que j'pianote À des bouts d'textes sur un cahier, mais j'suis esclave de mon clavier Avec G. Baste et Mr. Xavier plus possible de faire marche arrière Les potes qu'ont prévus qu'ça marcherait, pouvaient pas prévoir la galère Putain d'salaire de misère, un trentenaire qu'a besoin d'sa mère Nique sam' j'f'rais encore mes gammes, quand y'aura plus d'Universal Vu qu'ici bas y'a peu d'choses propres Mon ame s'échappera d'la pierre tombale Et j'chant'rai dans milles autres vies Réincarner en milles autres ziques Tant qu'y'aura des Milosevic, immortelles s'ront nos partoches et nos lyrics Du jazz à la techno beatnik, du hip-hop au philarmonique Je sais qu'parfois mon art me nique, qu'les mélodies m'rendent amnésique Mais rien de rien, j'regrette rien C'est à ça qu'ma amené ma zique Ici Nikus y'a pas d'cactus Quand j'entends du Charlie Mingus, Coltrane, Miles ou Pastorius Redman, Busta ou du Rawkus Tu peux être sûr qu'j'serais toujours là avec le Svink pour chanter sur.. Ma musique L'son qui t'fait péter un fusible Dommage pour les autres mais c'est un fusil J'dis pas qu'on est les plus forts d'la musique Juste qu'on est les meilleurs d'notre genre et qu'on est uniques Ma musique Ma musique Au départ, j'ai fait d'la musique par hasard J'voulais être peintre rien à voir, avec faire ma rockstar Devant un parterre de fans, c'était l'pire truc qui puisse m'arriver Vu qu'à l'école j'me chiais d'ssus quand j'devais faire un exposé Mais y'a eu une coupure nette et tout a changé dans ma tête Quand j'ai appris qu'j'devais combattre pour mon droit d'faire la fête J'me rappelle de mes premiers textes et d'mes, premières maquettes Gerard baste, depuis 1987 Huh Pas la peine de mentir, j'tais qu'une pine En starter Dolphins, Burberry's d'un seul coté du jean Palmarès deux lignes de rap, trois graffs dans les Yvelines Mais j'ai toujours gardé l'amour pour les quatre disciplines C'est l'tag qui m'a amené au rap, c'est l'rap qui m'a amené au rock et au funk C'est l'rap qui m'a fait réveiller l'punk Et même si j'ai l'ventre en vrac et qu'j'suis bouffé par l'trac Qu'j'ai b'soin d'raconter mes frasques, mouiller mes frusques et rentrer frac' Quand on monte sur scène on s'tâte pas, on prend l'mic et on tatepa Depuis l'temps que j'bouffe un tas d'pâtes Maintenant j'veux mettre tout l'monde à quatre pattes On a la dalle et on pense qu'à s'battre On est Bad comme LL Ma musique, mixe la bourgeoisie et les rebelles J'fais ça par amour de l'art, j'ai pas grand chose à foutre du flouz Toute la musique que j'aime elle vient de là, elle vient du blues Graver mon blaze, être jamais blazé, qu'chaque chanson d'vienne un classique Qu'ce soit jamais déclassé et t'glacer l'sang sauf quand j'viens m'placer sur ma musique, ma musique, ma musique, ma musique Ma musique L'son qui t'fait péter un fusible Dommage pour les autres mais c'est un fusil J'dis pas qu'on est les plus forts d'la musique Juste qu'on est les meilleurs d'notre genre et qu'on est uniques Ma musique Ma musique</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2373,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>x2 Salut les copains, et à l'année prochaine Allongés sur la pelouse, on regarde le soleil Ouais ! En route pour la vie ! Par ici la sortie, l'école est finie ! Mais comment ça ? Il doit y avoir une erreur Je ferai de mon mieux mais je ne peux pas passer en établissement supérieur Laissez-moi une chance, figez cette photo, annulez ce conseil de classe Au mois de Septembre, on recommence tous aux mêmes places Rendez vous compte, fini l'école buissonière Et les heures de colle, soyons rationnels Les disparitions de cartable, les antisèches sous la table Les plans marave, et les cours de français passionnels Désinfectez, les insectes infectent votre réfectoire Et marquez d'une croix et d'un cercle la onzième lettre de votre répertoire Sur l'écorce d'un arbre centenaire que tous les élèves connaissent Un chiffre, nos noms et une promesse Nous n'oublierons jamais l'unique dortoir, les filles, l'unique doctoresse L'unique cour d'école, et surtout les uniques camarades de notre unique jeunesse J'passe au collège avec mes six collègues Tourne notre manège mais sans Charly Oleg fin d'année J'irai au cour ... ant d'air façon Eole Damné, en classe de musique j'ai toujours eu que des bémols C'est fini le rap de récré, je passe au rap de rue Comme Jésus disait croyez-moi, travailler ça me tue Alors vive les vacances, oublie trimestre, bulletin et infernale cadence J'vois de la catin qui danse quand Juju s'dilate A l'idée de leurs lèvres pulpeuses comme le cul d'un primate Mais aussi sûr que Mamie ne passera pas l'été Juré, craché, on sera tous là à la rentrée You might also like x2 Salut les copains, et à l'année prochaine Allongés sur la pelouse, on regarde le soleil Ouais ! En route pour la vie ! Par ici la sortie, l'école est finie ! L'école, c'est ni-fi, que demander de plus que le début des cances-va ? Et danses d'ambiance de fin d'année, béni le temps est venu de se dire Celui de quitter ce pensionnat dans la prairie A la trée-ren, des nouvelles aventures nous attendent En marge de nos vies scolaires respectives, on a tous rendez-vous avec l'inconnu Sexe, drogues et hip-hop, au cinoche sans les rents-pa En mémoire de jadis, prêtons sermont sur l'honneur Que ce ne soit pas un adieu mais qu'un au revoir Non, ce n'est pas un adieu, juste un au revoir Seuls les redoublants se reverront à la trée-ren T'as vu ? Maintenant j'suis grand, j'parle un argot verlan Gérard Baste, le dernier samaritain mais le premier de la classe A avoir des poils, 10 ans et demi et déjà une petite moustache Nouvelle démarche décalquée sur Aldo, la classe J'veux voir les fesses de la maîtresse avant qu'on trace pour le CES Fumer des clopes et sécher l'EPS Technologie de pointe, walkman auto-reverse Jean neige, trop d'revers au dessus des Converse Ici c'est All Star Klub des 7 Et j'troque mon tatontan's contre un sac US Où j'écrirais plein d'noms d'groupes de hard Que j'connais même pas comme sur ma collec' de badges Ohé ohé, une dernière goutte pour le goûter de fin d'année Sors le Docteur Maboul, fais péter le Savane et le Fruité On va se quitter mais on se retrouvera vite Et j'vous invite tous au Quick prendre une dernière frite Violeur de note en série, tellement de zéros pointés Un homme averti en vaut deux, donc pas sept mais un millier Comme Papy, Mamie, je parle beaucoup au passé Collectionneur d'images jaunies mais aussi de regrets Je n'aurais pas dit à Corinne à quel point je l'aimais Et en même temps je ne sais pas si ses seins vont pousser Il paraît qu'au collège les classes changent pour les matières Cela va faire des siestes plus courtes mais il va falloir s'y faire Lance-pierre déjà dans le sac, mais ouais le bizutage Ils apprendront comme leurs mamans que je vise toujours au visage Grandir, c'est se rendre compte qu'on ne peut plus dire pouce L'école est finie, on ne se reverra pas tous</t>
+          <t>x2 Salut les copains, et à l'année prochaine Allongés sur la pelouse, on regarde le soleil Ouais ! En route pour la vie ! Par ici la sortie, l'école est finie ! Mais comment ça ? Il doit y avoir une erreur Je ferai de mon mieux mais je ne peux pas passer en établissement supérieur Laissez-moi une chance, figez cette photo, annulez ce conseil de classe Au mois de Septembre, on recommence tous aux mêmes places Rendez vous compte, fini l'école buissonière Et les heures de colle, soyons rationnels Les disparitions de cartable, les antisèches sous la table Les plans marave, et les cours de français passionnels Désinfectez, les insectes infectent votre réfectoire Et marquez d'une croix et d'un cercle la onzième lettre de votre répertoire Sur l'écorce d'un arbre centenaire que tous les élèves connaissent Un chiffre, nos noms et une promesse Nous n'oublierons jamais l'unique dortoir, les filles, l'unique doctoresse L'unique cour d'école, et surtout les uniques camarades de notre unique jeunesse J'passe au collège avec mes six collègues Tourne notre manège mais sans Charly Oleg fin d'année J'irai au cour ... ant d'air façon Eole Damné, en classe de musique j'ai toujours eu que des bémols C'est fini le rap de récré, je passe au rap de rue Comme Jésus disait croyez-moi, travailler ça me tue Alors vive les vacances, oublie trimestre, bulletin et infernale cadence J'vois de la catin qui danse quand Juju s'dilate A l'idée de leurs lèvres pulpeuses comme le cul d'un primate Mais aussi sûr que Mamie ne passera pas l'été Juré, craché, on sera tous là à la rentrée x2 Salut les copains, et à l'année prochaine Allongés sur la pelouse, on regarde le soleil Ouais ! En route pour la vie ! Par ici la sortie, l'école est finie ! L'école, c'est ni-fi, que demander de plus que le début des cances-va ? Et danses d'ambiance de fin d'année, béni le temps est venu de se dire Celui de quitter ce pensionnat dans la prairie A la trée-ren, des nouvelles aventures nous attendent En marge de nos vies scolaires respectives, on a tous rendez-vous avec l'inconnu Sexe, drogues et hip-hop, au cinoche sans les rents-pa En mémoire de jadis, prêtons sermont sur l'honneur Que ce ne soit pas un adieu mais qu'un au revoir Non, ce n'est pas un adieu, juste un au revoir Seuls les redoublants se reverront à la trée-ren T'as vu ? Maintenant j'suis grand, j'parle un argot verlan Gérard Baste, le dernier samaritain mais le premier de la classe A avoir des poils, 10 ans et demi et déjà une petite moustache Nouvelle démarche décalquée sur Aldo, la classe J'veux voir les fesses de la maîtresse avant qu'on trace pour le CES Fumer des clopes et sécher l'EPS Technologie de pointe, walkman auto-reverse Jean neige, trop d'revers au dessus des Converse Ici c'est All Star Klub des 7 Et j'troque mon tatontan's contre un sac US Où j'écrirais plein d'noms d'groupes de hard Que j'connais même pas comme sur ma collec' de badges Ohé ohé, une dernière goutte pour le goûter de fin d'année Sors le Docteur Maboul, fais péter le Savane et le Fruité On va se quitter mais on se retrouvera vite Et j'vous invite tous au Quick prendre une dernière frite Violeur de note en série, tellement de zéros pointés Un homme averti en vaut deux, donc pas sept mais un millier Comme Papy, Mamie, je parle beaucoup au passé Collectionneur d'images jaunies mais aussi de regrets Je n'aurais pas dit à Corinne à quel point je l'aimais Et en même temps je ne sais pas si ses seins vont pousser Il paraît qu'au collège les classes changent pour les matières Cela va faire des siestes plus courtes mais il va falloir s'y faire Lance-pierre déjà dans le sac, mais ouais le bizutage Ils apprendront comme leurs mamans que je vise toujours au visage Grandir, c'est se rendre compte qu'on ne peut plus dire pouce L'école est finie, on ne se reverra pas tous</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2390,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Jimmy Mac freestyle Sur mes sapes cest rare quy ait pas de taches Mon art ne rapporte pas de cash Jregrette les soirées patcash Jte cache pas que jai pas de 4x4 Mais quand je crache ma zique na pas de cadre Jsuis là jbouge et là regarde Jpose pour les kids quont du métal Plein la bouche et larcade Enhancer, le groupe de rap Des gars qui sentent fort Qui chantent faux, qui chantent fort Va falloir virer les gens de force Pour les faire bouger du champ de force Où qutas vu se bomber autant de torses Nowhere esprit de famille transfusé avec du sang de corse Pffff trop de level ça devient gonflant Tu crois que cest Timbal Doc Dre, les Neptunes, non ça vient de Conflans Mais cest la même rage, les mêmes rêves Et on en a tous marre de la même soupe Ma musique, mon kiff, ma life Ma thérapie de groupe Rameute les petites troupes Y a des grappes de petites prêtes À écouter de la gratte et à repartir avec des petites têtes Des petites fêtes qui tournent vite fait à la guerre civile Musique, guerre civique tu dis merci Vidé de lénergie quon libère si vite Ça ou un autre beat, dis jamais de gros mots sauf bip Au top chrono, tu te sauves vite Rejoindre le gros de ta clique de pauvres types Ma musique, ma bite, mon couteau, ma flamme Ma mère, ma sur, mon iench, ma femme Blam blam, Gérard Baste si mes mots tranchent comme plein de lames Et cest parce que ma musique vient de lâme Et vient de là, du cur, du ventre et des couilles Jme défonce la couenne, cest ton cerveau qui dérouille Ta meuf qui mouille sur ma musique Jimmy Mac freestyle Jdébarque à coups de basses grasses AMS comme blaze Pour ma zique y a quelle qui membrase, qui mévase Qui mévade, qui émane de mes phases Temmène à la base de mon âme Tombée dans les frasques de mon crâne Et même si je me crashe À me perdre dans le trash Je lâcherai la rage dans mes tchatches Pour faire tache parmi les lâches Pour faire hocher la tête des mômes Pour faire monter le taux dhormones Et pour régner au-dessus du dôme Je la jouerai même dans le trome Elle, ma muse, ma zique mamuse Ma clique abuse, me berce et muse Membrasse et mise sur loptimisme La rue, la ruse, puis hilare jen ris Faites donc briller ma voix comme largenterie Trop de galères, dgelures comme lArgentine Laisse largent sale à Medeline Je ferai plutôt un sub tube comme yellow submarine Ma musique fluide je mime Cest mystique mais je laime Jcontamine atypique tympan épiderme Beat lourd comme du tungstène Prêt du K.O. comme sous Tranxène Ouais cest pour elle que jsaigne Quand trop de coups bas me maintiennent sous zéro Elle est mon tuba, ma drogue, mon héro Pris dans ses croches pas de trémolo Jcrèche avec des néo slash Prêts à être immolés sur place Ouais pour cette fille de joie Jhurle après jusquà lextinction de voix Pour elle jchange de voie Chaque fois virage musical Pris à la corde vocale Le beat, mon cardiogramme Ma musique x2 Jimmy Mac freestyle Cest ma muse, chaque jour la même chose Je me lève toujours les mêmes rêves Y a plus quelle qui compte Elle nous a réunis, liés, nous aide à vivre À ne pas succomber à nos peines Et qui à chaque moment de gaîté Nous a accompagnés, portés Fait bouger, nous a fait évoluer Elle qui des mauvais tours de la vie Certains de nous elle a sauvé Cest elle qui nous a fait devenir Ce que aujourdhui lon est Sûr que certains voudraient nous voir lenfermer La mettre en captivité pour mieux pouvoir la classifier Mais gars, cherche pas, cest du rap, du rock, du ragga Du métal fusion ou dautres styles on sest influencé Aujourdhui chaque tendance est digérée Colle lui pas détiquette cest uniquement notre zik Ma zique, ma zique zigzague À lexcès mais sans exaction Et ça, ça mexcite Venu tout droit dAfrica mais aussi dAmérica Ma musica calme depuis toujours mes tracas Cest un truc de fou qui minspire en tout Violent ou bien cool dread locks ou la boule Bouuuuh des Who aux Wu et surtout pas de Worlds apart De Ben E. King à Big pun dans mon big band Les boom basses claquent au click comme Big Ben Dans ma tête cest le bing bang un ping-pong entre keuro et peura Ma musique met K.O. mais O.K. les médias perroquets Allez tchao gars et au cas où tas pas tout capté Vas-y, claque tes mains, ouais vas-y claque Jusquà en pecho des cloques Lépoque est à léclectisme de sweet smoke Just a poke a up in smoke de Woodstock aux Eurocks On stocke tout, le ressort en bloc Du pur black and white on the rocks Quoi de neuf doc, vla les new kids qui débloquent Jimmy Mac freestyle Accro un toxico il me faut ma dose de musique Ma musique régit mon humeur Meurs mais ne touche pas à ma musique Ma muse me rend triste et mamuse Me donne des envies de mort et la force de mordre Ma vie mémeut ou métonne Me donne des tonnes de moments magiques Manie les malins, les malines Les marrants ou les mélancoliques De mélodrames en méli-mélo de mélomane La mélodie me les met dans la ligne de mire Et shoote droit dans le mille Et un et deux et trois et quatre, claque des mains Sur ma caisse claire, bouge ton popotin Prends garde aux coups de kick Comme aux coups de beat, le démon de la musique mhabite Jimmy Mac freestyle Ma musique You might also like</t>
+          <t>Jimmy Mac freestyle Sur mes sapes cest rare quy ait pas de taches Mon art ne rapporte pas de cash Jregrette les soirées patcash Jte cache pas que jai pas de 4x4 Mais quand je crache ma zique na pas de cadre Jsuis là jbouge et là regarde Jpose pour les kids quont du métal Plein la bouche et larcade Enhancer, le groupe de rap Des gars qui sentent fort Qui chantent faux, qui chantent fort Va falloir virer les gens de force Pour les faire bouger du champ de force Où qutas vu se bomber autant de torses Nowhere esprit de famille transfusé avec du sang de corse Pffff trop de level ça devient gonflant Tu crois que cest Timbal Doc Dre, les Neptunes, non ça vient de Conflans Mais cest la même rage, les mêmes rêves Et on en a tous marre de la même soupe Ma musique, mon kiff, ma life Ma thérapie de groupe Rameute les petites troupes Y a des grappes de petites prêtes À écouter de la gratte et à repartir avec des petites têtes Des petites fêtes qui tournent vite fait à la guerre civile Musique, guerre civique tu dis merci Vidé de lénergie quon libère si vite Ça ou un autre beat, dis jamais de gros mots sauf bip Au top chrono, tu te sauves vite Rejoindre le gros de ta clique de pauvres types Ma musique, ma bite, mon couteau, ma flamme Ma mère, ma sur, mon iench, ma femme Blam blam, Gérard Baste si mes mots tranchent comme plein de lames Et cest parce que ma musique vient de lâme Et vient de là, du cur, du ventre et des couilles Jme défonce la couenne, cest ton cerveau qui dérouille Ta meuf qui mouille sur ma musique Jimmy Mac freestyle Jdébarque à coups de basses grasses AMS comme blaze Pour ma zique y a quelle qui membrase, qui mévase Qui mévade, qui émane de mes phases Temmène à la base de mon âme Tombée dans les frasques de mon crâne Et même si je me crashe À me perdre dans le trash Je lâcherai la rage dans mes tchatches Pour faire tache parmi les lâches Pour faire hocher la tête des mômes Pour faire monter le taux dhormones Et pour régner au-dessus du dôme Je la jouerai même dans le trome Elle, ma muse, ma zique mamuse Ma clique abuse, me berce et muse Membrasse et mise sur loptimisme La rue, la ruse, puis hilare jen ris Faites donc briller ma voix comme largenterie Trop de galères, dgelures comme lArgentine Laisse largent sale à Medeline Je ferai plutôt un sub tube comme yellow submarine Ma musique fluide je mime Cest mystique mais je laime Jcontamine atypique tympan épiderme Beat lourd comme du tungstène Prêt du K.O. comme sous Tranxène Ouais cest pour elle que jsaigne Quand trop de coups bas me maintiennent sous zéro Elle est mon tuba, ma drogue, mon héro Pris dans ses croches pas de trémolo Jcrèche avec des néo slash Prêts à être immolés sur place Ouais pour cette fille de joie Jhurle après jusquà lextinction de voix Pour elle jchange de voie Chaque fois virage musical Pris à la corde vocale Le beat, mon cardiogramme Ma musique x2 Jimmy Mac freestyle Cest ma muse, chaque jour la même chose Je me lève toujours les mêmes rêves Y a plus quelle qui compte Elle nous a réunis, liés, nous aide à vivre À ne pas succomber à nos peines Et qui à chaque moment de gaîté Nous a accompagnés, portés Fait bouger, nous a fait évoluer Elle qui des mauvais tours de la vie Certains de nous elle a sauvé Cest elle qui nous a fait devenir Ce que aujourdhui lon est Sûr que certains voudraient nous voir lenfermer La mettre en captivité pour mieux pouvoir la classifier Mais gars, cherche pas, cest du rap, du rock, du ragga Du métal fusion ou dautres styles on sest influencé Aujourdhui chaque tendance est digérée Colle lui pas détiquette cest uniquement notre zik Ma zique, ma zique zigzague À lexcès mais sans exaction Et ça, ça mexcite Venu tout droit dAfrica mais aussi dAmérica Ma musica calme depuis toujours mes tracas Cest un truc de fou qui minspire en tout Violent ou bien cool dread locks ou la boule Bouuuuh des Who aux Wu et surtout pas de Worlds apart De Ben E. King à Big pun dans mon big band Les boom basses claquent au click comme Big Ben Dans ma tête cest le bing bang un ping-pong entre keuro et peura Ma musique met K.O. mais O.K. les médias perroquets Allez tchao gars et au cas où tas pas tout capté Vas-y, claque tes mains, ouais vas-y claque Jusquà en pecho des cloques Lépoque est à léclectisme de sweet smoke Just a poke a up in smoke de Woodstock aux Eurocks On stocke tout, le ressort en bloc Du pur black and white on the rocks Quoi de neuf doc, vla les new kids qui débloquent Jimmy Mac freestyle Accro un toxico il me faut ma dose de musique Ma musique régit mon humeur Meurs mais ne touche pas à ma musique Ma muse me rend triste et mamuse Me donne des envies de mort et la force de mordre Ma vie mémeut ou métonne Me donne des tonnes de moments magiques Manie les malins, les malines Les marrants ou les mélancoliques De mélodrames en méli-mélo de mélomane La mélodie me les met dans la ligne de mire Et shoote droit dans le mille Et un et deux et trois et quatre, claque des mains Sur ma caisse claire, bouge ton popotin Prends garde aux coups de kick Comme aux coups de beat, le démon de la musique mhabite Jimmy Mac freestyle Ma musique</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2407,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hey, hey, passe la liqueur! J'ai envie de dire un truc, mais j'ai pas envie de le dire sobre J'ai besoin d'un kick, j'ai ouvert mon cur mec Appelle-le Dabaaz, Bad ass, Dab' ou le Da Appelle-le D, appelle-le D.A Appelle-le D.A.B Appelle-le D.A.B.A Appelle-le le D.A de son label Connaissant l'ABC, connaissant le B.A-BA D.A, initiales de dessin animé Le gars a un dessein, le gars est animé Le gars est mu, gars ému Le gars est mu par une force motrice, le gars t'a ému comme une chose trop triste T'a émulsionné comme une sauce vinaigrette Force motrice, chose trop triste, sauce vinaigrette Le Da c'est ça, le Da c'est quoi? Le Da c'est ça mais le Da c'est aussi d'autres choses Exemple, si le rap est une salade, le Da a trop de sauce Si le rap est une sauce, la sauce du Da a trop de sel Si le sel est du rap, la salière du hip-hop t'échappe Comme s'échappe de tes mains une salière glissante Le Da est trop puissante Le Da représente Mais le Da ne représente pas pour les textes minables Dignes d'un élève de terminale Le Da est là pour durer, contrairement à la durée d'une de tes séances de sexe minable Je m'appelle Gérard Baste Et la conclusion de ce truc Et que le Da est inestimable Yeah!You might also like</t>
+          <t>Hey, hey, passe la liqueur! J'ai envie de dire un truc, mais j'ai pas envie de le dire sobre J'ai besoin d'un kick, j'ai ouvert mon cur mec Appelle-le Dabaaz, Bad ass, Dab' ou le Da Appelle-le D, appelle-le D.A Appelle-le D.A.B Appelle-le D.A.B.A Appelle-le le D.A de son label Connaissant l'ABC, connaissant le B.A-BA D.A, initiales de dessin animé Le gars a un dessein, le gars est animé Le gars est mu, gars ému Le gars est mu par une force motrice, le gars t'a ému comme une chose trop triste T'a émulsionné comme une sauce vinaigrette Force motrice, chose trop triste, sauce vinaigrette Le Da c'est ça, le Da c'est quoi? Le Da c'est ça mais le Da c'est aussi d'autres choses Exemple, si le rap est une salade, le Da a trop de sauce Si le rap est une sauce, la sauce du Da a trop de sel Si le sel est du rap, la salière du hip-hop t'échappe Comme s'échappe de tes mains une salière glissante Le Da est trop puissante Le Da représente Mais le Da ne représente pas pour les textes minables Dignes d'un élève de terminale Le Da est là pour durer, contrairement à la durée d'une de tes séances de sexe minable Je m'appelle Gérard Baste Et la conclusion de ce truc Et que le Da est inestimable Yeah!</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2424,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ça alors, regardez ! Sur l'image de gauche, il y a des canettes pleines de bière À droite, elles sont vides, ça doit être la fin du concert Car sur l'image de gauche, Detect a l'air concentré Et sur celle de droite, il a juste l'air bourré Toujours à droite, Fredy K n'a pas d'afro Gérard Baste n'est pas gros, Fuzati a un flow Cyanure est capable de rapper posé Jouagie sort des lyrics où il représente sa cité Wesh, 9-4, ou quoi ? Parmi ces 7 personnages, un seul a à la fois une casquette Une moustache et une canette, une super paire de baskets Sauras-tu le reconnaitre si tu t'creuses la tête Relie les points de 1 à 16 et tu m'verras apparaitre Et si tu veux encore jouer, alors noircis Les cases marquées d'un point, t'auras l'portrait d'Jouage et Fredy Mais cherche pas les anomalies dans l'son On t'mets la tête à l'envers, tu vois la solutionYou might also like</t>
+          <t>Ça alors, regardez ! Sur l'image de gauche, il y a des canettes pleines de bière À droite, elles sont vides, ça doit être la fin du concert Car sur l'image de gauche, Detect a l'air concentré Et sur celle de droite, il a juste l'air bourré Toujours à droite, Fredy K n'a pas d'afro Gérard Baste n'est pas gros, Fuzati a un flow Cyanure est capable de rapper posé Jouagie sort des lyrics où il représente sa cité Wesh, 9-4, ou quoi ? Parmi ces 7 personnages, un seul a à la fois une casquette Une moustache et une canette, une super paire de baskets Sauras-tu le reconnaitre si tu t'creuses la tête Relie les points de 1 à 16 et tu m'verras apparaitre Et si tu veux encore jouer, alors noircis Les cases marquées d'un point, t'auras l'portrait d'Jouage et Fredy Mais cherche pas les anomalies dans l'son On t'mets la tête à l'envers, tu vois la solution</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2441,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>- Hey mais poulpe !? - Ouais ? - Toi t'as fait Taxi 4 ? - Non le 5 mais.. ouais.. - Frère, on a fait un morceau pour une B.O. d'Taxi façon années 90. Faut absolument qu'tu l'mettes sur la B.O. ! - Mais.. Mais j'peux pas, le film il est d'jà sorti en fait ! - Mais pour l'prochain ! - Mais.. Mais j'peux pas, j'suis juste comédien ! Faut qu't'appelles Franck Gastambide - T'as l'numéro ou quoi ? - Oui j'l'ai, 'fin non j'l'ai pas.. - Allez, j'te fait écouter, après on l'appelle ok ? - Non mais j'l'ai pas.. Vas-y, écoutons ! Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Non, non, non, non, non Oh non, ne rentre pas Oh non, non, non, non, non Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Non, j'le savais fallait pas rentrer, dans cet épicier J'avais cogité toute la journée J'avais promis à tout l'monde d'plus recommencer J'me suis retenu, j'ai tourné et puis j'ai craqué Alors j'ai acheté deux grandes canettes, un gros pack de Leffe, une demi bouteille de Jack Daniel's En rentrant j'vais m'faire déchirer, putain j'marche plus droit ! Oh non, Gérard ne rentre pas ! Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Y'a rien à faire j'suis attiré par tous les épiciers Portugais, Français, rebeus ou Pakistanais Rentrer dans l'épicier c'est rentrer déglingué J'essaie de faire le mec normal, j'me fait toujours griller Elle me dit Qu'est-ce-que t'as fait ? J'commence à bégayer C'est pas des bonbons à la menthe qui vont camouflé Que j'viens d'finir une 8.6. et d'vider une flasque You might also likeNon, par pitié, Gérard Baste ! Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Alors en fait, techniquement, c'est CHEZ l'épicier 'fin j'veux dire en terme de grammaire quoi, de règles de Français Bon en même temps c'est du R'n'B à la Taxi.. Bon allez, vas-y Fancie! Faut pas rentrer dans l'épicier CHEZ! Non, ne rentre pas dans l'épicier CHEZ l'épicier!! Non, ne rentre pas Faut pas rentrer dans l'épicier CHEZ! Non, ne rentre pas dans l'épicier Non, ne rentre pas Ou alors sinon ça veut dire que je rentre DANS l'épicier, j'veux dire à l'intérieur de lui J'crois pas qu'ça serait une bonne idée.. Allez, laisse tomber..</t>
+          <t>- Hey mais poulpe !? - Ouais ? - Toi t'as fait Taxi 4 ? - Non le 5 mais.. ouais.. - Frère, on a fait un morceau pour une B.O. d'Taxi façon années 90. Faut absolument qu'tu l'mettes sur la B.O. ! - Mais.. Mais j'peux pas, le film il est d'jà sorti en fait ! - Mais pour l'prochain ! - Mais.. Mais j'peux pas, j'suis juste comédien ! Faut qu't'appelles Franck Gastambide - T'as l'numéro ou quoi ? - Oui j'l'ai, 'fin non j'l'ai pas.. - Allez, j'te fait écouter, après on l'appelle ok ? - Non mais j'l'ai pas.. Vas-y, écoutons ! Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Non, non, non, non, non Oh non, ne rentre pas Oh non, non, non, non, non Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Non, j'le savais fallait pas rentrer, dans cet épicier J'avais cogité toute la journée J'avais promis à tout l'monde d'plus recommencer J'me suis retenu, j'ai tourné et puis j'ai craqué Alors j'ai acheté deux grandes canettes, un gros pack de Leffe, une demi bouteille de Jack Daniel's En rentrant j'vais m'faire déchirer, putain j'marche plus droit ! Oh non, Gérard ne rentre pas ! Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Y'a rien à faire j'suis attiré par tous les épiciers Portugais, Français, rebeus ou Pakistanais Rentrer dans l'épicier c'est rentrer déglingué J'essaie de faire le mec normal, j'me fait toujours griller Elle me dit Qu'est-ce-que t'as fait ? J'commence à bégayer C'est pas des bonbons à la menthe qui vont camouflé Que j'viens d'finir une 8.6. et d'vider une flasque Non, par pitié, Gérard Baste ! Faut pas rentrer dans l'épicier Non, ne rentre pas dans l'épicier Non, ne rentre pas Alors en fait, techniquement, c'est CHEZ l'épicier 'fin j'veux dire en terme de grammaire quoi, de règles de Français Bon en même temps c'est du R'n'B à la Taxi.. Bon allez, vas-y Fancie! Faut pas rentrer dans l'épicier CHEZ! Non, ne rentre pas dans l'épicier CHEZ l'épicier!! Non, ne rentre pas Faut pas rentrer dans l'épicier CHEZ! Non, ne rentre pas dans l'épicier Non, ne rentre pas Ou alors sinon ça veut dire que je rentre DANS l'épicier, j'veux dire à l'intérieur de lui J'crois pas qu'ça serait une bonne idée.. Allez, laisse tomber..</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2458,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>FLEUR DE PAVOT EP 2023 Paroles Brindille - Musique Philippe Cathonnet Dans le quartier chelou de la grand-ville Dans les troquets, dans les bars où l'on flippe De Ménilmontant jusqu'à la Bastille C'est moi le roi de l'évasion et du trip Je me déplace même à domicile Si t'as besoin d'un voyage à Rio T'as qu'à m'appeler et j'arrive illico Salut mon p'tit coco, c'est moi Fleur de Pavot ! Le pied, le panard Avec le pétard Sur moi j'ai tout ce qu'il faut Pour rire ou planer Passz la monnaie On m'appelle Flur de Pavot Du shit, un p'tit joint Du kif ou du foin C'est mieux qu'un coup au bistro D'la Terre à la Lune C'est pas pour des prunes Qu'on m'appelle Fleur de Pavot ! Dans le quartier chicos de la grand-ville Dans les casbahs, les hôtels du seizième Me v'là j'arrive avec mes ustensiles Mes narghilés, mes blagues et ma dégaine Là-bas, j'ai tapé en plein dans le mile De l'avenue Kléber à la rue Boileau J'ai la cote avec les gens distinguos Hello mes p'tits cocos, it's me Fleur de Pavot ! You might also likeLe pied, le panard Avec le pétard Sur moi j'ai tout ce qu'il faut Pour rire ou planer Passez la monnaie On m'appelle Fleur de Pavot Du shit, un p'tit joint Du kif ou du foin C'est mieux qu'un coup au bistro D'la Terre à la Lune C'est pas pour des prunes Qu'on m'appelle Fleur de Pavot ! Dans le quartier chagrin de la grand-ville Tu traînes tes tiags le long du Sébasto T'es un dur mais tu as le cur fragile C'est pas toi qu'elle aimait, c'est ta moto Allons essuies tes larmes de crocodile S'il te reste des thunes dans ton perfecto Et qu'elle t'a laissé tomber la Margot Alors mon p'tit coco, viens voir Fleur de Pavot ! Le pied, le panard Avec le pétard Sur moi j'ai tout ce qu'il faut Pour rire ou planer Passez la monnaie On m'appelle Fleur de Pavot Du shit, un p'tit joint Du kif ou du foin C'est mieux qu'un coup au bistro D'la Terre à la Lune C'est pas pour des prunes Qu'on m'appelle Fleur de Pavot ! Le pied, le panard Avec le pétard Sur moi j'ai tout ce qu'il faut Pour rire ou planer Passez la monnaie On m'appelle Fleur de Pavot Du shit, un p'tit joint Du kif ou du foin C'est mieux qu'un coup au bistro D'la Terre à la Lune C'est pas pour des prunes Qu'on m'appelle Fleur de Pavot !</t>
+          <t>FLEUR DE PAVOT EP 2023 Paroles Brindille - Musique Philippe Cathonnet Dans le quartier chelou de la grand-ville Dans les troquets, dans les bars où l'on flippe De Ménilmontant jusqu'à la Bastille C'est moi le roi de l'évasion et du trip Je me déplace même à domicile Si t'as besoin d'un voyage à Rio T'as qu'à m'appeler et j'arrive illico Salut mon p'tit coco, c'est moi Fleur de Pavot ! Le pied, le panard Avec le pétard Sur moi j'ai tout ce qu'il faut Pour rire ou planer Passz la monnaie On m'appelle Flur de Pavot Du shit, un p'tit joint Du kif ou du foin C'est mieux qu'un coup au bistro D'la Terre à la Lune C'est pas pour des prunes Qu'on m'appelle Fleur de Pavot ! Dans le quartier chicos de la grand-ville Dans les casbahs, les hôtels du seizième Me v'là j'arrive avec mes ustensiles Mes narghilés, mes blagues et ma dégaine Là-bas, j'ai tapé en plein dans le mile De l'avenue Kléber à la rue Boileau J'ai la cote avec les gens distinguos Hello mes p'tits cocos, it's me Fleur de Pavot ! Le pied, le panard Avec le pétard Sur moi j'ai tout ce qu'il faut Pour rire ou planer Passez la monnaie On m'appelle Fleur de Pavot Du shit, un p'tit joint Du kif ou du foin C'est mieux qu'un coup au bistro D'la Terre à la Lune C'est pas pour des prunes Qu'on m'appelle Fleur de Pavot ! Dans le quartier chagrin de la grand-ville Tu traînes tes tiags le long du Sébasto T'es un dur mais tu as le cur fragile C'est pas toi qu'elle aimait, c'est ta moto Allons essuies tes larmes de crocodile S'il te reste des thunes dans ton perfecto Et qu'elle t'a laissé tomber la Margot Alors mon p'tit coco, viens voir Fleur de Pavot ! Le pied, le panard Avec le pétard Sur moi j'ai tout ce qu'il faut Pour rire ou planer Passez la monnaie On m'appelle Fleur de Pavot Du shit, un p'tit joint Du kif ou du foin C'est mieux qu'un coup au bistro D'la Terre à la Lune C'est pas pour des prunes Qu'on m'appelle Fleur de Pavot ! Le pied, le panard Avec le pétard Sur moi j'ai tout ce qu'il faut Pour rire ou planer Passez la monnaie On m'appelle Fleur de Pavot Du shit, un p'tit joint Du kif ou du foin C'est mieux qu'un coup au bistro D'la Terre à la Lune C'est pas pour des prunes Qu'on m'appelle Fleur de Pavot !</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2475,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Faire péter le kepon, paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon, paye ton punk Fais péter l'punk Gérard Baste, la Nina Hagen française Je veux réveiller le punk qui est en moi Faire péter le junkie Ce soir jen ai marre dêtre funky Jveux disjoncter à lacide Gerber juste avant le concert Monter sur scène tout livide Avec un banjo Même si jtroque mes Rangos Pour des Mephistos Jkifferai toujours une guitare disto Slam, jette-toi dans les flammes Jresterai Rock n Roll dans lâme jusquà ce que jclamse Jai brûlé mes verrues Mais jamais jbrûlerai mes vieux albums des Bérus Fils jen suis trop féru, plus que d'Jean Ferrat Je préfère le rock ferreux de Pantera Adhère à la philo-sophie De livrogne notoire Qui souvent utilisa le trottoir comme dortoir Mon ossature sature Toutes ces bitures Laissent des points de suture Si jcontinue ce sera No Future Gérard Baste arrête de tfonçder Disent les mecs alors que jsuis en train dvider Mon bide dans lbidet Ils comprennent rien à lanarchie Mec, tu veux un groupe rebelle, moi jle suis archi En direct et pas en duplex Nique tes complexes Le son claque dans tes dents Serrées comme les rangs dune triplex Jmen fous Jsaute comme Donkey Kong Je ne vivrai jamais comme quiconque Car jai réveillé le punk You might also like Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk Je fais la grasse matinée Reste dans mes odeurs Jempeste mauvaises OD De la veille quelle horreur Le punk se réveille Eclate son réveil Sur le téléphone qui sonne Jmassomme Réveille le punk qui sommeille Jbondis de mon sommier Me rince le gosier Môme la bière que jachetais Ne servait quà me coiffer Crise dadolescence, punk naissant Semblant dfamille délaissant Je suis bête et méchant En rade à Marmottan Barbotant dans mon sang Après un pogo Je suis le vilain sauvage pas beau Pire quun lobo Vlà mon logo Fallait pas mlaisser dans llabo dchimie Jai tout bégo Quoi dneuf doc gros coup dDoc coquée Dans mon hip hop troqué contre du rock Sors ton perfecto défroqué Tu seras Ok Pour ne pas terminer Comme la femme des Sex Pistols Dans lfrigo toute découpée Couplet à ma bière Comme si cétait mon frère Jsuis fier y a quelle qui me nourrisse Jtépingle à nourrisse Jai bu comme Ludwig Quatre-Vingt 8,6 Double zéro de Conduite Six Suicidal Tendances Mon single de cinglé, le tube de léther Plus anti-social que Trust Je pue comme le Munster Lépave lance le pavé Dans la manifestation Prônant lauto-destruction Jai perdu ma génération Des Who jusquau Wu Tang Je vais te faire fuir Je représente ceux qui utilisent leur cervelle à la détruire Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk</t>
+          <t>Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Faire péter le kepon, paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon, paye ton punk Fais péter l'punk Gérard Baste, la Nina Hagen française Je veux réveiller le punk qui est en moi Faire péter le junkie Ce soir jen ai marre dêtre funky Jveux disjoncter à lacide Gerber juste avant le concert Monter sur scène tout livide Avec un banjo Même si jtroque mes Rangos Pour des Mephistos Jkifferai toujours une guitare disto Slam, jette-toi dans les flammes Jresterai Rock n Roll dans lâme jusquà ce que jclamse Jai brûlé mes verrues Mais jamais jbrûlerai mes vieux albums des Bérus Fils jen suis trop féru, plus que d'Jean Ferrat Je préfère le rock ferreux de Pantera Adhère à la philo-sophie De livrogne notoire Qui souvent utilisa le trottoir comme dortoir Mon ossature sature Toutes ces bitures Laissent des points de suture Si jcontinue ce sera No Future Gérard Baste arrête de tfonçder Disent les mecs alors que jsuis en train dvider Mon bide dans lbidet Ils comprennent rien à lanarchie Mec, tu veux un groupe rebelle, moi jle suis archi En direct et pas en duplex Nique tes complexes Le son claque dans tes dents Serrées comme les rangs dune triplex Jmen fous Jsaute comme Donkey Kong Je ne vivrai jamais comme quiconque Car jai réveillé le punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk Je fais la grasse matinée Reste dans mes odeurs Jempeste mauvaises OD De la veille quelle horreur Le punk se réveille Eclate son réveil Sur le téléphone qui sonne Jmassomme Réveille le punk qui sommeille Jbondis de mon sommier Me rince le gosier Môme la bière que jachetais Ne servait quà me coiffer Crise dadolescence, punk naissant Semblant dfamille délaissant Je suis bête et méchant En rade à Marmottan Barbotant dans mon sang Après un pogo Je suis le vilain sauvage pas beau Pire quun lobo Vlà mon logo Fallait pas mlaisser dans llabo dchimie Jai tout bégo Quoi dneuf doc gros coup dDoc coquée Dans mon hip hop troqué contre du rock Sors ton perfecto défroqué Tu seras Ok Pour ne pas terminer Comme la femme des Sex Pistols Dans lfrigo toute découpée Couplet à ma bière Comme si cétait mon frère Jsuis fier y a quelle qui me nourrisse Jtépingle à nourrisse Jai bu comme Ludwig Quatre-Vingt 8,6 Double zéro de Conduite Six Suicidal Tendances Mon single de cinglé, le tube de léther Plus anti-social que Trust Je pue comme le Munster Lépave lance le pavé Dans la manifestation Prônant lauto-destruction Jai perdu ma génération Des Who jusquau Wu Tang Je vais te faire fuir Je représente ceux qui utilisent leur cervelle à la détruire Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2492,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Y'a pire qu'd'être pépère au paradis quand d'autres paradent J'te laisse en haut d'ta pyramide t'taper sur l'pectoral L'seul truc qui pétarade chez oim c'est c'gros bide de malade Sans ça on reste au calme, un resto classe loin d'ces tocards On reste en place, 2 gars sans plastique cassent en place publique Du pubis au cubis, on s'bute, on s'punit, on cuni On senivre, on s'sent vivre, on chante, on s'sent libre, on s'en branle On s'fait livrer, quand la soupe est servie on en r'demande Ils veulent tous grimper haut mais à la fin tu sais, tu redescends tout seul Ce game est plein de jaloux! À force de sentir des culs, tu finis par puer, puis t'as le nez tout sale J'finirai pas à genoux! C'est même pas une question d'succès, j'suis dans ma stratosphère et j'reviens du sous-sol On reste putain de debout! Le feu sacré qui nous anime continue à brûler, s'éteindra pas tout seul Non! C'est juste une question de priorités, c'est toi qui sait Oh, my man! Les vrais gens sont maintenant en minorité, éradiqués Putain de merde! Mais j'garde le cap avec mon cap'taine aviné, le raffiné Yeah my man c'est le prince de la vigne et le king de la grogne Ouvre bien tes narines, on est pires que la drogue You might also like J'ai encore des rêves pleins la tête et du whisky dans l'estomac J'me réveille encore dans l'coma et l'moral dans les chaussettes Mais j'ai du love dans les ventricules, du gasoil dans le véhicule Aux portes de la gloire on va pas squatter dans le vestibule J'ai des fans dans les montagnes, dans les villes, dans les campagnes Y'a des trous dans l'compte en banque, y'a des trous dans l'Emmental D'la p'tite monnaie dans les fouilles mais d'l'or massif plein les couilles J'fais des pâtes à la truffe, tu mets du ketchup dans tes nouilles Alors, t'es en tête dans les hit-parade Ils ont d'la merde dans les oreilles, du sirop dans la limonade, d'la friture dans l'appareil Ils ont mit un peu trop d'poudre dans leur nez qui s'allonge J'vis dans le stupre et la luxure eux ils vivent dans l'mensonge, foncent tête baissée J'ai la fête dans l'guidon, ils t'la mettent dans l'fion, c'est complètement bidon Tu trouveras toujours mon blaze dans les remerciements Mais j'ai du respect pour ceux qu'ont les deux mains dans l'ciment J'claque mon biff dans la pillave, j'finirai dans la civière du calcaire dans les artères et une pinte de bière Mais j'ai un plan précis sur l'feu et leur front dans mon viseur Un paquet d'gars sur ma liste mais j'ai qu'six balles dans l'chargeur J'aime bien leurs albums, j'vais pas pour autant les acheter J'le met plus bas qu'terre, j'vais pas pour autant les achever Mais y'a une voix qui m'dit tue-les!, qui m'frotte quand jarrête Et j'ai toujours une idée d'merde qui m'crotte dans la tête Baste ! Ça fait un bail que j'suis plus dans ces bails de p'tit con Rien qui démarre, je baille, on s'croirait dans une sitcom Aller vas-y taille loin, espèce de p'tite conne Avant qu'ma femme te dérouille grave, c'est la plus mignonne Moi j'balaie d'vant ma porte mais pas trop souvent quand même J'aime pas quand c'est trop propre ni quand les gens s'en mêlent J'aime pas les gens sans rêve, l'argent c'est pas un rêve Le miens c'est tu sais la sève de c'plan jusqu'à c'que j'crève Ils veulent tous grimper haut mais à la fin tu sais, tu redescends tout seul Ce game est plein de jaloux! À force de sentir des culs, tu finis par puer, puis t'as le nez tout sale J'finirai pas à genoux! C'est même pas une question d'succès, j'suis dans ma stratosphère et j'reviens du sous-sol On reste putain de debout! Le feu sacré qui nous anime continue à brûler, s'éteindra pas tout seul Non! C'est juste une question de priorités, c'est toi qui sait Oh, my man! Les vrais gens sont maintenant en minorité, éradiqués Putain de merde! Mais j'garde le cap avec mon cap'taine aviné, le raffiné Yeah my man c'est le prince de la vigne et le king de la grogne Ouvre bien tes narines, on est pires que la drogue</t>
+          <t>Y'a pire qu'd'être pépère au paradis quand d'autres paradent J'te laisse en haut d'ta pyramide t'taper sur l'pectoral L'seul truc qui pétarade chez oim c'est c'gros bide de malade Sans ça on reste au calme, un resto classe loin d'ces tocards On reste en place, 2 gars sans plastique cassent en place publique Du pubis au cubis, on s'bute, on s'punit, on cuni On senivre, on s'sent vivre, on chante, on s'sent libre, on s'en branle On s'fait livrer, quand la soupe est servie on en r'demande Ils veulent tous grimper haut mais à la fin tu sais, tu redescends tout seul Ce game est plein de jaloux! À force de sentir des culs, tu finis par puer, puis t'as le nez tout sale J'finirai pas à genoux! C'est même pas une question d'succès, j'suis dans ma stratosphère et j'reviens du sous-sol On reste putain de debout! Le feu sacré qui nous anime continue à brûler, s'éteindra pas tout seul Non! C'est juste une question de priorités, c'est toi qui sait Oh, my man! Les vrais gens sont maintenant en minorité, éradiqués Putain de merde! Mais j'garde le cap avec mon cap'taine aviné, le raffiné Yeah my man c'est le prince de la vigne et le king de la grogne Ouvre bien tes narines, on est pires que la drogue J'ai encore des rêves pleins la tête et du whisky dans l'estomac J'me réveille encore dans l'coma et l'moral dans les chaussettes Mais j'ai du love dans les ventricules, du gasoil dans le véhicule Aux portes de la gloire on va pas squatter dans le vestibule J'ai des fans dans les montagnes, dans les villes, dans les campagnes Y'a des trous dans l'compte en banque, y'a des trous dans l'Emmental D'la p'tite monnaie dans les fouilles mais d'l'or massif plein les couilles J'fais des pâtes à la truffe, tu mets du ketchup dans tes nouilles Alors, t'es en tête dans les hit-parade Ils ont d'la merde dans les oreilles, du sirop dans la limonade, d'la friture dans l'appareil Ils ont mit un peu trop d'poudre dans leur nez qui s'allonge J'vis dans le stupre et la luxure eux ils vivent dans l'mensonge, foncent tête baissée J'ai la fête dans l'guidon, ils t'la mettent dans l'fion, c'est complètement bidon Tu trouveras toujours mon blaze dans les remerciements Mais j'ai du respect pour ceux qu'ont les deux mains dans l'ciment J'claque mon biff dans la pillave, j'finirai dans la civière du calcaire dans les artères et une pinte de bière Mais j'ai un plan précis sur l'feu et leur front dans mon viseur Un paquet d'gars sur ma liste mais j'ai qu'six balles dans l'chargeur J'aime bien leurs albums, j'vais pas pour autant les acheter J'le met plus bas qu'terre, j'vais pas pour autant les achever Mais y'a une voix qui m'dit tue-les!, qui m'frotte quand jarrête Et j'ai toujours une idée d'merde qui m'crotte dans la tête Baste ! Ça fait un bail que j'suis plus dans ces bails de p'tit con Rien qui démarre, je baille, on s'croirait dans une sitcom Aller vas-y taille loin, espèce de p'tite conne Avant qu'ma femme te dérouille grave, c'est la plus mignonne Moi j'balaie d'vant ma porte mais pas trop souvent quand même J'aime pas quand c'est trop propre ni quand les gens s'en mêlent J'aime pas les gens sans rêve, l'argent c'est pas un rêve Le miens c'est tu sais la sève de c'plan jusqu'à c'que j'crève Ils veulent tous grimper haut mais à la fin tu sais, tu redescends tout seul Ce game est plein de jaloux! À force de sentir des culs, tu finis par puer, puis t'as le nez tout sale J'finirai pas à genoux! C'est même pas une question d'succès, j'suis dans ma stratosphère et j'reviens du sous-sol On reste putain de debout! Le feu sacré qui nous anime continue à brûler, s'éteindra pas tout seul Non! C'est juste une question de priorités, c'est toi qui sait Oh, my man! Les vrais gens sont maintenant en minorité, éradiqués Putain de merde! Mais j'garde le cap avec mon cap'taine aviné, le raffiné Yeah my man c'est le prince de la vigne et le king de la grogne Ouvre bien tes narines, on est pires que la drogue</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2509,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Paris, Rome, New York, Tokyo, L.A., Moscow, Berlin, Rio ! Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre Le Svink c'est chic mais t'as intérêt à comprendre Le Svink c'est chic que pour rentrer là d'dans faut une carte de membre J'arrive sur le beat, tu t'dis, c'est d'la contrefaçon Ça sonne comme les ricains, en fait, t'entends rien qu'trois p'tits cons Une fièvre Punk Dafteuse Ma touch french concon En noeud noeud papillon J'règle tout en visa électron Tu veux du faux bifton En chanteuse en faux vison Un vocoder bien bidon On rafle tout à l'Eurovision C'est d'l'électro-rital Ça rappe avec les bras Agite tes chaînes en toc, sur l'dancefloor Je déballe ma graisse qu'a b'soin, d'produits affinés du gras bio Ma peau brille comme la coupe d'un playboy sous Pento J'défile, montre mes belles formes, collec' printemps été À croire qu'j'mange chez Fauchon bonne pension! mais fauché Chemise à carreaux froissée, boule à zéro Coiffeur à zéro euros Gouaille de titi parigots Ultra brite, lyrics au verbe à ras des pâquerettes Sache que l'Svink c'est chic comme un punk qu'a pas d'crête You might also like Comme Omo Micro Plus Je plonge au cur de la saleté de ton anus Papapa, papapa, pa Ridicules Trop dans la picole Baste et la Nicole Nez qui coule La quéquette qui colle Ça pue l'cul, les pieds, la moule Comme le collant d'ta meuf sous l'meuble qu'est roulé en boule On a, on a, on a beau faire, ça finit toujours dans la beauferie Fais péter l'barbeuc et fous l'pack de kros dans l'go-fri Nuls comme Chantal Lauby, des saoulots, romanos, sortis tout droit d'leur roulotte Chantant Elle a pas d'culotte, euh ! Ouais la bohème c'est la mode Ben on est des freaks, on a pas d'fric On a quelq'chose dans l'froc et la trique Le Svink c'est chic Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre L'ambiance est électrique, le Svink c'est chic On va réveiller l'rock, le Svink c'est choc Tout l'monde est ivre mou, le Svink c'est chou Le Svink c'est chic chic chic chic chic Finis ton pâté et lève ton gobelet en plastique ! J'parie qu'tu sais qui c'est, quand ça parle d'odeurs corporelles Quand sur la table y'a qu'des bouteilles, en guise de vaisselle Qu'on t'propose un gâteau roulé sous les aisselles Et qu'tu finis la fin d'soirée dans une poubelle T'es dans un squat Svink, oh putain c'est pourri Autour du bar rien qu'des trous remplis d'contrepèteries En plus aucun d'ces cons lâchera l'affaire Ils t'prendront la tête jusqu'à c'qu'ils t'aient payé un verre Bon d'accord c'est vulgaire, mais on rigole On ne regrette pas sa soirée, ambiance mongole Le Svink c'est chic, absolument fabuleux Surprenant comme découvrir un trav' punk dans son pieu Un MC qu'ceux d'M6 haïssent Les obscénités jaillissent C'est la grande classe, si j'veux péter j'reste sur place Sulfureux comme Dennis Rodman, Dirty comme Redman À la télé on fout la merde avec Ariel Wizman Si tu nous as vu sur Paris Dernière, j'parie qu'c'est la première et dernière fois qu'on va la faire Moi j'croyais qu'c'était chic les écrivains alcooliques Finis ton pâté et lève ton gobelet en plastique ! J'mate une pouf, faut qu'j'l'accoste mais ma ch'mise sent l'crocodile Fifille veut d'la dope, d'mande au pote le gros qui deale Celui qui bois du Champomy au bord d'une piscine vide Avec d'la house et des poufs badigeonnées d'antirides C'est grotesque comme Steph' de Monac' chez Stéphane Bern Façon Mme de Fontenay, mon maquillage des grosses cernes Lâche ta pouf, ton Davidoff, ta coupe de crémant, mets tout sur off et claque des doigts tout en chantant Le Svink c'est chic mais t'as intérêt à comprendre Le Svink c'est chic que pour rentrer là d'dans faut une carte de membre x2 Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre L'ambiance est électrique, le Svink c'est chic On va réveiller l'rock, le Svink c'est choc Tout l'monde est ivre mou, le Svink c'est chou Le Svink c'est chic chic chic chic chic Finis ton pâté et lève ton gobelet en plastique ! Le Svink c'est chic, papapa papapa pa pa pa Le Svink c'est chic, papapa papapa pa pa pa Le Svink c'est chic, papapa papapa pa pa pa Le Svink c'est chic, papapa papapa pa pa pa</t>
+          <t>Paris, Rome, New York, Tokyo, L.A., Moscow, Berlin, Rio ! Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre Le Svink c'est chic mais t'as intérêt à comprendre Le Svink c'est chic que pour rentrer là d'dans faut une carte de membre J'arrive sur le beat, tu t'dis, c'est d'la contrefaçon Ça sonne comme les ricains, en fait, t'entends rien qu'trois p'tits cons Une fièvre Punk Dafteuse Ma touch french concon En noeud noeud papillon J'règle tout en visa électron Tu veux du faux bifton En chanteuse en faux vison Un vocoder bien bidon On rafle tout à l'Eurovision C'est d'l'électro-rital Ça rappe avec les bras Agite tes chaînes en toc, sur l'dancefloor Je déballe ma graisse qu'a b'soin, d'produits affinés du gras bio Ma peau brille comme la coupe d'un playboy sous Pento J'défile, montre mes belles formes, collec' printemps été À croire qu'j'mange chez Fauchon bonne pension! mais fauché Chemise à carreaux froissée, boule à zéro Coiffeur à zéro euros Gouaille de titi parigots Ultra brite, lyrics au verbe à ras des pâquerettes Sache que l'Svink c'est chic comme un punk qu'a pas d'crête Comme Omo Micro Plus Je plonge au cur de la saleté de ton anus Papapa, papapa, pa Ridicules Trop dans la picole Baste et la Nicole Nez qui coule La quéquette qui colle Ça pue l'cul, les pieds, la moule Comme le collant d'ta meuf sous l'meuble qu'est roulé en boule On a, on a, on a beau faire, ça finit toujours dans la beauferie Fais péter l'barbeuc et fous l'pack de kros dans l'go-fri Nuls comme Chantal Lauby, des saoulots, romanos, sortis tout droit d'leur roulotte Chantant Elle a pas d'culotte, euh ! Ouais la bohème c'est la mode Ben on est des freaks, on a pas d'fric On a quelq'chose dans l'froc et la trique Le Svink c'est chic Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre L'ambiance est électrique, le Svink c'est chic On va réveiller l'rock, le Svink c'est choc Tout l'monde est ivre mou, le Svink c'est chou Le Svink c'est chic chic chic chic chic Finis ton pâté et lève ton gobelet en plastique ! J'parie qu'tu sais qui c'est, quand ça parle d'odeurs corporelles Quand sur la table y'a qu'des bouteilles, en guise de vaisselle Qu'on t'propose un gâteau roulé sous les aisselles Et qu'tu finis la fin d'soirée dans une poubelle T'es dans un squat Svink, oh putain c'est pourri Autour du bar rien qu'des trous remplis d'contrepèteries En plus aucun d'ces cons lâchera l'affaire Ils t'prendront la tête jusqu'à c'qu'ils t'aient payé un verre Bon d'accord c'est vulgaire, mais on rigole On ne regrette pas sa soirée, ambiance mongole Le Svink c'est chic, absolument fabuleux Surprenant comme découvrir un trav' punk dans son pieu Un MC qu'ceux d'M6 haïssent Les obscénités jaillissent C'est la grande classe, si j'veux péter j'reste sur place Sulfureux comme Dennis Rodman, Dirty comme Redman À la télé on fout la merde avec Ariel Wizman Si tu nous as vu sur Paris Dernière, j'parie qu'c'est la première et dernière fois qu'on va la faire Moi j'croyais qu'c'était chic les écrivains alcooliques Finis ton pâté et lève ton gobelet en plastique ! J'mate une pouf, faut qu'j'l'accoste mais ma ch'mise sent l'crocodile Fifille veut d'la dope, d'mande au pote le gros qui deale Celui qui bois du Champomy au bord d'une piscine vide Avec d'la house et des poufs badigeonnées d'antirides C'est grotesque comme Steph' de Monac' chez Stéphane Bern Façon Mme de Fontenay, mon maquillage des grosses cernes Lâche ta pouf, ton Davidoff, ta coupe de crémant, mets tout sur off et claque des doigts tout en chantant Le Svink c'est chic mais t'as intérêt à comprendre Le Svink c'est chic que pour rentrer là d'dans faut une carte de membre x2 Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre Tu sais le Svink c'est chic, mais t'as intérêt à comprendre Que pour rentrer là d'dans faut une carte de membre L'ambiance est électrique, le Svink c'est chic On va réveiller l'rock, le Svink c'est choc Tout l'monde est ivre mou, le Svink c'est chou Le Svink c'est chic chic chic chic chic Finis ton pâté et lève ton gobelet en plastique ! Le Svink c'est chic, papapa papapa pa pa pa Le Svink c'est chic, papapa papapa pa pa pa Le Svink c'est chic, papapa papapa pa pa pa Le Svink c'est chic, papapa papapa pa pa pa</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2526,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Messieurs, c'est le concours de danse Svinkels, déclenche des tornades comme Twister J'kiffe de m'prendre des musettes, j'fais valser les verres J'laisse des tonnes de mecs par terre Dès qu'j'entame deux pas d'Charleston J'fous l'souk, j'te donne des soukous quand j'zouke Pour les dancefloors moites, comme les boîtes de ploucs Y'a encore des cinglés qui croient qu'j'ai la danse de Saint-Guy Alors que j'tape une trop bonne phase d'Electric Boogie Fais un break, jarte si tu m'trouves bêrk Ou rapplique à mes concerts, là ou les jeunes junkies jerkent Excités comme dans les sixties Tous les ouistitis qu'Gérard Baste asticote, twistent Sautent comme les Beasties J'rock, acrobatique et les mecs prennent leur panard Mon twist, un mix de Sirtaki et d'la danse des canards Boom Tchikita, fais moi du tchatchatcha comme Coco Girl, j'suis l'meilleur gogo Dancer, un tueur en tango Sur scène j'suis Fatal Mambo Mais le Svinkels samba Les couilles de l'individu lambda fondu d'Lambada Boumbada, pour niquer Baste au disco Va prendre des cours chez les gays à San Francisco Entre toi et moi c'est une affaire de spécialistes Du cramage de piste, ouais le Svink danse le twist You might also like x2 L.O.B.O.T.W.I.S.T, viens twister J't'invite à la Svinkadelica Allez danse ! Messieurs, fox-trot ! L.O.B.O.T.W.I.S.T, viens twister J't'invite à la Svinkadelica J'lance une polka sous vodka Zubrowka J'amorce un pas d'ska, j't'invite à la Svinkadelica Fais l'singe comme Cheeta, pense à la chiquita Prends les hanches d'la Conchita, fais la sans mettre de hola Les p'tits rats du haut peura pimentent d'accapoeira Une Saga Africa en Americana Avec Maradona au Maracana sous Macarena J'danse le mia d'Roger Milla, d'vant la camera Écoute le mix et twist à Moscou Mes mots s'couent comme le soukous Douze zoulous loosent sur l'dancefloor sans flouze Hé gars Joe, t'as d'la bouse sous tes shoes, reviens pour la soirée mousse Tu pourras toucher la bouzni sans t'prendre de rouste Allez ouste, t'es tout rouillé Reviens danser pour l'concours de tee shirts mouillés Le mien j'vais l'éponger tellement sur scène j'ai tout donné Plus hystérique que les 3T dansant à Hit Machine, le shit machine ma tête J'fais des claquettes avec les canettes, comme un chef d'orchestre j'mène à la baguette Donc lève ton fût de là comme tu t'lèves pour Danette Toutes les filles que tu dragues couinent Pire qu'à une after du Queen où y'a qu'des gouines qui mâchent leur chewing Pense au Svink et swing, swing Twist, twist, sois pas raciste comme Elvis D'Paris à Zurick on danse le Lobotwist Nouvelle apparition d'Fredzérique Ses deux doigts coupent faim Raider cadavérique Fondation métisse mutant Et permettez qu'j'explique La mécanique rythmique du madison Génération antichoc et Ericsson 2 - 4 carats, habillage qureauma Pour les femmes c'est simple, mettre les mains sur les seins Ondulation ondulation Pour les gars, pas la peine de s'précipiter À s'mettre en chien à s'mettre en chien Pour les femmes c'est simple, mettre les mains sur les seins Ondulation ondulation Frédérique L.A.N. pure lobotomotiv' Lansac Xanax Boy, si tu veux qu'j'te dose Viens danser le mash potatoes Avec Xanax, c'est la Crazy Leg Party Seul, ou accompagné dans sa folie Parce que bah, bah j'sais pas danser en fait Et j'aimerais faire des coups comme l'autre fou d'James Brown Bugalow Mais c'est pas l'cas du tout, alors si un jour tu m'as vu danser la disco sur la tête Ben c'était pas moi en fait c'était mon clone.. -Hé Xanax ! Dis-leur c'que tu penses du twist ! ..J'en ai rien à foutre alors viens pas m'faire chier Puis si tu veux danser, j'vais t'faire danser Et j'en pose une pour les gars qui dansent le rap Dans les ghettos bois, là où la pression fait des ghettos boys Hé meuf, tu m'as vu danser l'moonwalk ? J'sais pas, mais d'après mes potes, c'est à tomber Un peu comme un toto qui rampe par terre pour ramasser l'crack qu'est tombé -Vous arrêtez d'me faire chier, t'façon j'vous ai dit j'ai des problèmes</t>
+          <t>Messieurs, c'est le concours de danse Svinkels, déclenche des tornades comme Twister J'kiffe de m'prendre des musettes, j'fais valser les verres J'laisse des tonnes de mecs par terre Dès qu'j'entame deux pas d'Charleston J'fous l'souk, j'te donne des soukous quand j'zouke Pour les dancefloors moites, comme les boîtes de ploucs Y'a encore des cinglés qui croient qu'j'ai la danse de Saint-Guy Alors que j'tape une trop bonne phase d'Electric Boogie Fais un break, jarte si tu m'trouves bêrk Ou rapplique à mes concerts, là ou les jeunes junkies jerkent Excités comme dans les sixties Tous les ouistitis qu'Gérard Baste asticote, twistent Sautent comme les Beasties J'rock, acrobatique et les mecs prennent leur panard Mon twist, un mix de Sirtaki et d'la danse des canards Boom Tchikita, fais moi du tchatchatcha comme Coco Girl, j'suis l'meilleur gogo Dancer, un tueur en tango Sur scène j'suis Fatal Mambo Mais le Svinkels samba Les couilles de l'individu lambda fondu d'Lambada Boumbada, pour niquer Baste au disco Va prendre des cours chez les gays à San Francisco Entre toi et moi c'est une affaire de spécialistes Du cramage de piste, ouais le Svink danse le twist x2 L.O.B.O.T.W.I.S.T, viens twister J't'invite à la Svinkadelica Allez danse ! Messieurs, fox-trot ! L.O.B.O.T.W.I.S.T, viens twister J't'invite à la Svinkadelica J'lance une polka sous vodka Zubrowka J'amorce un pas d'ska, j't'invite à la Svinkadelica Fais l'singe comme Cheeta, pense à la chiquita Prends les hanches d'la Conchita, fais la sans mettre de hola Les p'tits rats du haut peura pimentent d'accapoeira Une Saga Africa en Americana Avec Maradona au Maracana sous Macarena J'danse le mia d'Roger Milla, d'vant la camera Écoute le mix et twist à Moscou Mes mots s'couent comme le soukous Douze zoulous loosent sur l'dancefloor sans flouze Hé gars Joe, t'as d'la bouse sous tes shoes, reviens pour la soirée mousse Tu pourras toucher la bouzni sans t'prendre de rouste Allez ouste, t'es tout rouillé Reviens danser pour l'concours de tee shirts mouillés Le mien j'vais l'éponger tellement sur scène j'ai tout donné Plus hystérique que les 3T dansant à Hit Machine, le shit machine ma tête J'fais des claquettes avec les canettes, comme un chef d'orchestre j'mène à la baguette Donc lève ton fût de là comme tu t'lèves pour Danette Toutes les filles que tu dragues couinent Pire qu'à une after du Queen où y'a qu'des gouines qui mâchent leur chewing Pense au Svink et swing, swing Twist, twist, sois pas raciste comme Elvis D'Paris à Zurick on danse le Lobotwist Nouvelle apparition d'Fredzérique Ses deux doigts coupent faim Raider cadavérique Fondation métisse mutant Et permettez qu'j'explique La mécanique rythmique du madison Génération antichoc et Ericsson 2 - 4 carats, habillage qureauma Pour les femmes c'est simple, mettre les mains sur les seins Ondulation ondulation Pour les gars, pas la peine de s'précipiter À s'mettre en chien à s'mettre en chien Pour les femmes c'est simple, mettre les mains sur les seins Ondulation ondulation Frédérique L.A.N. pure lobotomotiv' Lansac Xanax Boy, si tu veux qu'j'te dose Viens danser le mash potatoes Avec Xanax, c'est la Crazy Leg Party Seul, ou accompagné dans sa folie Parce que bah, bah j'sais pas danser en fait Et j'aimerais faire des coups comme l'autre fou d'James Brown Bugalow Mais c'est pas l'cas du tout, alors si un jour tu m'as vu danser la disco sur la tête Ben c'était pas moi en fait c'était mon clone.. -Hé Xanax ! Dis-leur c'que tu penses du twist ! ..J'en ai rien à foutre alors viens pas m'faire chier Puis si tu veux danser, j'vais t'faire danser Et j'en pose une pour les gars qui dansent le rap Dans les ghettos bois, là où la pression fait des ghettos boys Hé meuf, tu m'as vu danser l'moonwalk ? J'sais pas, mais d'après mes potes, c'est à tomber Un peu comme un toto qui rampe par terre pour ramasser l'crack qu'est tombé -Vous arrêtez d'me faire chier, t'façon j'vous ai dit j'ai des problèmes</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2543,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bonsoir à tous, aujourd'hui je vais vous montrer comment récupérer la totalité du vin qui se trouve dans une poche de cubi. Alors le cas vous est peut être souvent arrivé, vous sortez la poche du cubi, et il vous reste encore beaucoup de vin. Mais à cause des aspérités et des plis, vous n'arrivez pas à récupérer la totalité. Je vais vous montrer comment procéder Donc c'est très simple, appuyez sur le système de déverrouillage, et soufflez dans la poche . Vous allez pouvoir voir, elle se gonfle . Voila, nous avons gonflé la totalité de notre poche, et nous avons tout le vin qui est descendu dans le coin de la poche. Comme vous pouvez le constater, on a l'impression d'avoir un coussin, et toutes les aspérités sont gonflées. Nous allons pouvoir récupérer la totalité du vin. Faites glisser le vin jusqu'à la goupille, et appuyez pour récupérer la boisson. Et voilà, vous avez récupéré le vin qui restait. Il y a encore quelques gouttes, vous pressez pour chasser l'air, et voila, vous avez votre vin qui est récupéré. Le vin est récupéré, et comme vous pouvez le constater, il ne reste plus de vin dans la poche. nous avons récupéré la totalité du produit, il n'y a absolument aucune perte.You might also like</t>
+          <t>Bonsoir à tous, aujourd'hui je vais vous montrer comment récupérer la totalité du vin qui se trouve dans une poche de cubi. Alors le cas vous est peut être souvent arrivé, vous sortez la poche du cubi, et il vous reste encore beaucoup de vin. Mais à cause des aspérités et des plis, vous n'arrivez pas à récupérer la totalité. Je vais vous montrer comment procéder Donc c'est très simple, appuyez sur le système de déverrouillage, et soufflez dans la poche . Vous allez pouvoir voir, elle se gonfle . Voila, nous avons gonflé la totalité de notre poche, et nous avons tout le vin qui est descendu dans le coin de la poche. Comme vous pouvez le constater, on a l'impression d'avoir un coussin, et toutes les aspérités sont gonflées. Nous allons pouvoir récupérer la totalité du vin. Faites glisser le vin jusqu'à la goupille, et appuyez pour récupérer la boisson. Et voilà, vous avez récupéré le vin qui restait. Il y a encore quelques gouttes, vous pressez pour chasser l'air, et voila, vous avez votre vin qui est récupéré. Le vin est récupéré, et comme vous pouvez le constater, il ne reste plus de vin dans la poche. nous avons récupéré la totalité du produit, il n'y a absolument aucune perte.</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2560,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Je tadore Gérard Je te trouve magnifique, tu es beau Tu es la synthèse de tout ce qui peut rendre une femme heureuse Il parait que tu gardes tes chaussettes quand tu fais lamour Tu me rends folle, et une femme folle, cest une femme amoureuse Tu as le corps dun Dieu, quel dommage que ce soit Bouddha Comment te dire, Quand j'te regarde j'ai mal à la tête Et j'imagine des trucs bizarre genre ça va pas la tête Et j'visualise ta p'tite fouffe ouais, j'suis ouf de oi-t Deux oigts-d, mon ouvre boite, meuf vas-y ouvre oi-t Déplie le clic clac, on pourrait faire un gros calin On a ce qu'il faut, on a le chanvre, on a le Sopalin Bougie dans la salle de bain, tu me fera ma p'tite toilette J'ai envie de te fourrer, frangipane dans la galette J'ai le zizi en l'air, je deviens visionnaire J'te propose autre chose qu'un samedi soir en missionnaire J'veux être ton patron, sur ton CV t'as tout pour me plaire Fous tes lunettes et suce moi, t'es ma future secrétaire J'ai envie qu'tu sues, qu'tu m'fasses des figures, des trucs athlétiques J'aimerais que tu fasses ta pute, mais en tapinage artistique J'pourrais te faire un peu mal, j'pourrais te faire des trucs fous On pourrait se faire des trucs sales, on pourrait faire des trucs cools You might also like Mais j'ai la flemme de t'ken', t'es belle comme une reine J'imagine la scène, et j'ai la femme de t'ken' Et tu le mériterais très bien, et je le ferais très bien Mais n'attends rien, je n'me donnerai pas cette peine Je peux toujours te mater bébé, pas de problèmes Nos photos sur les réseaux et v'là trop d'j'aime Et j'aurais pu te faire des trucs tellement sales ma belle Finalement t'as d'la veine que j'ai la flemme de t'ken' Oh s'il te plait Gérard J'aimerais bien que tu t'occupes un tout petit peu de moi quand même Tu veux qu'on fasse du sexe, ça se pourrait ptêt bien J'ai plein de fantasmes en tête auxquels tu te prête bien Il se pourrait que j'te traite, il se pourrait que j'te traite bien Mais j'préfère ne rien faire pour être sur que je n'regrette rien Petite musique bien choisie pour ce qui nous attends Là j'hésite entre Barry White et Franky Vincent Tu m'files la dalle, j'me sens comme un gars au mitard Prêt à décharger sur un vieux poster de gros nibards J'aime faire les choses de manière artisanale Ton cul est une toile, et moi je suis un artiste anal Je t'imagine accroupie, et j'te fais faire la toupie T'as la tête qui tourne et les lèvres qui pendent comme Droopy C'est vrai que j'suis plus un feignant qu'un grand baiseur Mais je pourrais regarder ta chatte pendant des heures Écoute moi ronfler et tu connaitra mieux Baste Ramène une copine un peu gourde puisqu'j'me sens un peu flasque Car j'ai la flemme de t'ken', t'es belle comme une reine J'imagine la scène, et j'ai la femme de t'ken' Et tu le mériterais très bien, et je le ferais très bien Mais n'attends rien, je n'me donnerai pas cette peine Je peux toujours te mater bébé, pas de problèmes Nos photos sur les réseaux et v'là trop d'j'aime Et j'aurais pu te faire des trucs tellement sales ma belle Finalement t'as d'la veine que j'ai la flemme de t'ken'</t>
+          <t>Je tadore Gérard Je te trouve magnifique, tu es beau Tu es la synthèse de tout ce qui peut rendre une femme heureuse Il parait que tu gardes tes chaussettes quand tu fais lamour Tu me rends folle, et une femme folle, cest une femme amoureuse Tu as le corps dun Dieu, quel dommage que ce soit Bouddha Comment te dire, Quand j'te regarde j'ai mal à la tête Et j'imagine des trucs bizarre genre ça va pas la tête Et j'visualise ta p'tite fouffe ouais, j'suis ouf de oi-t Deux oigts-d, mon ouvre boite, meuf vas-y ouvre oi-t Déplie le clic clac, on pourrait faire un gros calin On a ce qu'il faut, on a le chanvre, on a le Sopalin Bougie dans la salle de bain, tu me fera ma p'tite toilette J'ai envie de te fourrer, frangipane dans la galette J'ai le zizi en l'air, je deviens visionnaire J'te propose autre chose qu'un samedi soir en missionnaire J'veux être ton patron, sur ton CV t'as tout pour me plaire Fous tes lunettes et suce moi, t'es ma future secrétaire J'ai envie qu'tu sues, qu'tu m'fasses des figures, des trucs athlétiques J'aimerais que tu fasses ta pute, mais en tapinage artistique J'pourrais te faire un peu mal, j'pourrais te faire des trucs fous On pourrait se faire des trucs sales, on pourrait faire des trucs cools Mais j'ai la flemme de t'ken', t'es belle comme une reine J'imagine la scène, et j'ai la femme de t'ken' Et tu le mériterais très bien, et je le ferais très bien Mais n'attends rien, je n'me donnerai pas cette peine Je peux toujours te mater bébé, pas de problèmes Nos photos sur les réseaux et v'là trop d'j'aime Et j'aurais pu te faire des trucs tellement sales ma belle Finalement t'as d'la veine que j'ai la flemme de t'ken' Oh s'il te plait Gérard J'aimerais bien que tu t'occupes un tout petit peu de moi quand même Tu veux qu'on fasse du sexe, ça se pourrait ptêt bien J'ai plein de fantasmes en tête auxquels tu te prête bien Il se pourrait que j'te traite, il se pourrait que j'te traite bien Mais j'préfère ne rien faire pour être sur que je n'regrette rien Petite musique bien choisie pour ce qui nous attends Là j'hésite entre Barry White et Franky Vincent Tu m'files la dalle, j'me sens comme un gars au mitard Prêt à décharger sur un vieux poster de gros nibards J'aime faire les choses de manière artisanale Ton cul est une toile, et moi je suis un artiste anal Je t'imagine accroupie, et j'te fais faire la toupie T'as la tête qui tourne et les lèvres qui pendent comme Droopy C'est vrai que j'suis plus un feignant qu'un grand baiseur Mais je pourrais regarder ta chatte pendant des heures Écoute moi ronfler et tu connaitra mieux Baste Ramène une copine un peu gourde puisqu'j'me sens un peu flasque Car j'ai la flemme de t'ken', t'es belle comme une reine J'imagine la scène, et j'ai la femme de t'ken' Et tu le mériterais très bien, et je le ferais très bien Mais n'attends rien, je n'me donnerai pas cette peine Je peux toujours te mater bébé, pas de problèmes Nos photos sur les réseaux et v'là trop d'j'aime Et j'aurais pu te faire des trucs tellement sales ma belle Finalement t'as d'la veine que j'ai la flemme de t'ken'</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2577,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>J'vis dans un pays où les gens sont libres dêtre racistes Putain d'régime, j'vois pas l'électorat fasciste maigrir Sont dev'nus grossistes, font plus dans l'détail Mondialisent leur bêtise comme des nébuleuses islamistes Manger du facho, mon plat d'résistance Y'a pas qu'en France qu'ça sent l'suif et j'prends pas d'distance Si j'jette la pierre au voisin, j'vais pas l'faire en juif Mate la politique de l'autruche face à l'Autriche Les mecs veulent l'Europe, ça dérape dans nos pays riches Otan s'voiler la face, j'me fiche d'leur farce attrape Tombe pas dans l'piège à faucon, j'veux dire à vrais cons D'faire des guerres d'religion comme cour d'récréation Tu danses un slow Bodan, c'est l'quart d'heure Américain On va au bal quand y'aura plus d'femme chez les Talibans Z'ont enfanté la force obscure qu'en veut à l'empire Maintenant vont tout contrôler en gueulant papier, papier x2 C'est la, c'est la, c'est la lutte finale Groupons, groupons, groupons nous pour demain Linternazi, nazi, nazi-onale Sera, sera sera le genre humain You might also like Y'en a marre faut qu'ça stoppe qu'ça sarrête On l'a d'jà dit, le monde tourne pas rond, putain d'planète Est-ce-que les hommes sont bêtes où l'font exprès J'ai pas la réponse mais en attendant c'que j'sais C'est qu'on peut plus fantasmer sur un monde sans couleur C'était d'l'utopie, maintenant va falloir s'battre et puis tant pis Et même si j'suis l'dernier d'l'espèce La rage au ventre quand un facho rentre dans la pièce Seul à vouloir qu'y parte sans d'mander son reste Et détaller, j'vais engrainer les autres à l'tabasser à coups d'madrier Et s'il veut m'foutre un procès, pas la peine Au tribunal j'dirais c'est pas moi, c'est Ben Laden J'ressors mon couplet pourri, nique les nazis Nique les indécis qui savent pas quoi faire Ah faut des papiers pour Bougnoula Mon gars ici on veut pas d'toi Faut des papiers pour Bougnoula Ah x2 C'est la, c'est la, c'est la lutte finale Groupons, groupons, groupons nous pour demain Linternazi, nazi, nazi-onale Sera, sera sera le genre humain Ici on extrade pas pour génocide Un dictateur qui c'négocie pas au prix du baril D'mande à Poutine, pour lui c'est la routine Dès qu'y'a trois mort Tchétchènes, on sort la Vodka tchin tchin Quand on voit qu'le CIO donne aux Chinois les J.O On s'dit qu'les droits d'l'Homme sont prit pour des idiots Et les mafiosos trinquent au Coca-Cola en s'disant Que plus d'deux milliards d'Asiats vont boire du soda dans 10 ans Le conflit général, c'est notre conflit dans l'journal On a mangé la guerre froide, bouffe la chaude, on s'régale Ouvre grand ta bouche on t'chie d'dans, ici George W L'ricain qui s'fout des bougnoules et des peuples Africains La religion qu'ils vendent aux autres la Kalachnikov Un nom d'vodka plus meurtrière qu'une biture de Kazakh S'il faut sout'nir un régime dictatorial On l'fra quitte à envoyer des GI's sur l'djihad Z'ont rêvé d'voir Kaboul et Bagdad cassés Mais sont tombés sur du pur arabica corsé Y'a un grain d'sable dans l'machin L'or rend les mains sales Luttons tous au final contre l'internazionale x2 C'est la, c'est la, c'est la lutte finale Groupons, groupons, groupons nous pour demain Linternazi, nazi, nazi-onale Sera, sera sera le genre humain</t>
+          <t>J'vis dans un pays où les gens sont libres dêtre racistes Putain d'régime, j'vois pas l'électorat fasciste maigrir Sont dev'nus grossistes, font plus dans l'détail Mondialisent leur bêtise comme des nébuleuses islamistes Manger du facho, mon plat d'résistance Y'a pas qu'en France qu'ça sent l'suif et j'prends pas d'distance Si j'jette la pierre au voisin, j'vais pas l'faire en juif Mate la politique de l'autruche face à l'Autriche Les mecs veulent l'Europe, ça dérape dans nos pays riches Otan s'voiler la face, j'me fiche d'leur farce attrape Tombe pas dans l'piège à faucon, j'veux dire à vrais cons D'faire des guerres d'religion comme cour d'récréation Tu danses un slow Bodan, c'est l'quart d'heure Américain On va au bal quand y'aura plus d'femme chez les Talibans Z'ont enfanté la force obscure qu'en veut à l'empire Maintenant vont tout contrôler en gueulant papier, papier x2 C'est la, c'est la, c'est la lutte finale Groupons, groupons, groupons nous pour demain Linternazi, nazi, nazi-onale Sera, sera sera le genre humain Y'en a marre faut qu'ça stoppe qu'ça sarrête On l'a d'jà dit, le monde tourne pas rond, putain d'planète Est-ce-que les hommes sont bêtes où l'font exprès J'ai pas la réponse mais en attendant c'que j'sais C'est qu'on peut plus fantasmer sur un monde sans couleur C'était d'l'utopie, maintenant va falloir s'battre et puis tant pis Et même si j'suis l'dernier d'l'espèce La rage au ventre quand un facho rentre dans la pièce Seul à vouloir qu'y parte sans d'mander son reste Et détaller, j'vais engrainer les autres à l'tabasser à coups d'madrier Et s'il veut m'foutre un procès, pas la peine Au tribunal j'dirais c'est pas moi, c'est Ben Laden J'ressors mon couplet pourri, nique les nazis Nique les indécis qui savent pas quoi faire Ah faut des papiers pour Bougnoula Mon gars ici on veut pas d'toi Faut des papiers pour Bougnoula Ah x2 C'est la, c'est la, c'est la lutte finale Groupons, groupons, groupons nous pour demain Linternazi, nazi, nazi-onale Sera, sera sera le genre humain Ici on extrade pas pour génocide Un dictateur qui c'négocie pas au prix du baril D'mande à Poutine, pour lui c'est la routine Dès qu'y'a trois mort Tchétchènes, on sort la Vodka tchin tchin Quand on voit qu'le CIO donne aux Chinois les J.O On s'dit qu'les droits d'l'Homme sont prit pour des idiots Et les mafiosos trinquent au Coca-Cola en s'disant Que plus d'deux milliards d'Asiats vont boire du soda dans 10 ans Le conflit général, c'est notre conflit dans l'journal On a mangé la guerre froide, bouffe la chaude, on s'régale Ouvre grand ta bouche on t'chie d'dans, ici George W L'ricain qui s'fout des bougnoules et des peuples Africains La religion qu'ils vendent aux autres la Kalachnikov Un nom d'vodka plus meurtrière qu'une biture de Kazakh S'il faut sout'nir un régime dictatorial On l'fra quitte à envoyer des GI's sur l'djihad Z'ont rêvé d'voir Kaboul et Bagdad cassés Mais sont tombés sur du pur arabica corsé Y'a un grain d'sable dans l'machin L'or rend les mains sales Luttons tous au final contre l'internazionale x2 C'est la, c'est la, c'est la lutte finale Groupons, groupons, groupons nous pour demain Linternazi, nazi, nazi-onale Sera, sera sera le genre humain</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2594,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Si tu me prononces mal le mot Svink Je te mâche comme chewing-gum Mon style bubble gum Tous les MCs à la gomme Les mots sont croisés comme au scrabble Quoi, qu'est-ce qu'elle a ma gueule de bois ? Moi pas parler langue de bois Kik' agrégé d'lettres mais pas d'l'Académie française Déploie son flow comme le jeu footballistique à la nantaise Sors de tes charentaises J'attaque par les ailes Hey Yo Gérard rentre dans ma parenthèse Si je subis D'avoir le nez rouge comme un rubis C'est qu'ma lubie C'est de vider des cubis Ne sois pas dubitatif J'attends pas l'huitième jour pour m'foukane Comme Pascal Duquenne j'suis trop con mais j'mérite la palme Il grogne tout le temps mais au fond, je crois qu'il est très gentil You might also like Dans toutes les réssois c'est beautiful people only Heureusement qu'y'a des teufês pour les pourris L'underground gronde Tu rentres dans la ronde des pains que j'distribue comme Jésus Christ à sa table C'est palpable, mon flow n'est pas malléable et imperméable À l'érosion du temps À l'éclosion d'un agent Dans ma vie privée, dans mon style Me faire bouger d'un iota, gars ce s'ra difficile Svinkels dans tes réceptions Comme un gag à répétition J'ai toute une ration d'aberrations Si tu veux plus qu'j'fasse péter l'son Trouve un produit d'substitution Ou signe avec les voisins la pétition Tu trouves ça lamentable Et blâmable Mais tu peux te branler pour ébranler l'inébranlable Car j'suis indestructible Et m'octroie le droit imprescriptible De parler de mon sexe indescriptible Le S.V.I.N.K.E.L.S à bord d'son soulier magique Représente l'odeur Le Svink, résiste à l'Akiléïne Représente l'odeur Le S.V.I.N.K.E.L.S à bord d'son soulier magique Représente l'odeur NikoL'homme qui transforme l'eau en vin Représente l'odeur Comme une fraction d'Action Directe j'terrorise Rock les mots, les mémorise Quand la 8-6 fleurit, mes rots gisent Épris d'boisson, poison dont j'suis prisonnier Santé ruinée, gueule de Bois d'Arcy, foie incarcéré J'ai besoin d'une médecine sexuelle Comme Marvin J'm'attaque pas au p'tites filles comme Marc Dutroux ou l'groupe Gamine Gentleman dans l'âme Mais version charclo Connait la différence entre une femme et un frigo Je suis le meilleur en tout, c'est tout! Graisse-moi les pistons mais lâche-moi les roustons Suce ton pouce, ton pénis n'est pas plus long Baste se débarrasse Et ratisse tout les erzatz Mon haleine sent l'ail comme cat's Remets-moi dans ma cage comme Joël Bats Tu flippes sur mon style calligraphié Devant l'avalanche de phases les MCs se sentent atrophiés Je ponctue mes phrases d'atroces faciès comme Louis de Funès Et si il y a un abcès, comme Julien j'le perce Ma vengeance serpente ma plume réglo À la Luis Rego Toute ma bande a des signes, des odeurs comme Charlie Schlingo Des rimes en familles en or J'en sors elles brillent comme des lingots Tu les absorbes, les gobes comme des murs de berlingots J'kiffe, pars en egotrip Comme sur ton mégot tu tripes Je sors mes tripes visqueuses Comme un bigorneau, est-ce karglo Quand j'les écrase comme un mégot d'stupéfiants illégaux Les mots sont assemblés comme le plus complexe des Lego Bienvenue à Legoland où tous les nigauds glandent, font dans l'égo Call me nigaud, c'est un appel du Niko Lali lali on rock toutes les party Kik' du Svink met dans l'vent tous les fonchis Eh yo zincou ! Qui c'est qui fait cette teufé ? Va lui dire que j'ai déjà éclaté son parquet Avec des trous d'boulettes Des traces de canettes Passées par la f'nêtre Et j'ai tué son chien Pepette Me suis assis dessus J'l'avais pas vu ah, pardon Il a fait un bide Les yeux exorbités comme un tripé sous acide Bouche toi les oreilles ou bouge-toi les orteils Prend ta carte vermeille comme Simone j'y veille Les MCs bég-bégayent comme une vieille qu'a du tartre à son appareil Tu voudrais m'avoir ? Pas demain la veille ! Avale la fève y'a pas d'trêve Sur les sales manies des rois d'la galette Tous les jours c'est l'Épiphanie Donc remue ta croupe que rapplique toute ma troupe Svinkels dans ton cur le nouveau boys group' Le S.V.I.N.K.E.L.S à bord d'son soulier magique Représente l'odeur Le Svink, résiste à l'Akiléïne Représente l'odeur Le S.V.I.N.K.E.L.S à bord d'son soulier magique Représente l'odeur Frédéric Lansac en attaque pour le Svink Représente l'odeur Svinkels représente l'odeur Le Niko, l'homme représente l'odeur qui transforme l'eau en vin Gérard Baste représente l'odeur, la sexualité bestiale dans son plus simple appareil représente l'odeur Votre serviteur Mr Xavier représente l'odeur est l'expression du bon goût représente l'odeur</t>
+          <t>Si tu me prononces mal le mot Svink Je te mâche comme chewing-gum Mon style bubble gum Tous les MCs à la gomme Les mots sont croisés comme au scrabble Quoi, qu'est-ce qu'elle a ma gueule de bois ? Moi pas parler langue de bois Kik' agrégé d'lettres mais pas d'l'Académie française Déploie son flow comme le jeu footballistique à la nantaise Sors de tes charentaises J'attaque par les ailes Hey Yo Gérard rentre dans ma parenthèse Si je subis D'avoir le nez rouge comme un rubis C'est qu'ma lubie C'est de vider des cubis Ne sois pas dubitatif J'attends pas l'huitième jour pour m'foukane Comme Pascal Duquenne j'suis trop con mais j'mérite la palme Il grogne tout le temps mais au fond, je crois qu'il est très gentil Dans toutes les réssois c'est beautiful people only Heureusement qu'y'a des teufês pour les pourris L'underground gronde Tu rentres dans la ronde des pains que j'distribue comme Jésus Christ à sa table C'est palpable, mon flow n'est pas malléable et imperméable À l'érosion du temps À l'éclosion d'un agent Dans ma vie privée, dans mon style Me faire bouger d'un iota, gars ce s'ra difficile Svinkels dans tes réceptions Comme un gag à répétition J'ai toute une ration d'aberrations Si tu veux plus qu'j'fasse péter l'son Trouve un produit d'substitution Ou signe avec les voisins la pétition Tu trouves ça lamentable Et blâmable Mais tu peux te branler pour ébranler l'inébranlable Car j'suis indestructible Et m'octroie le droit imprescriptible De parler de mon sexe indescriptible Le S.V.I.N.K.E.L.S à bord d'son soulier magique Représente l'odeur Le Svink, résiste à l'Akiléïne Représente l'odeur Le S.V.I.N.K.E.L.S à bord d'son soulier magique Représente l'odeur NikoL'homme qui transforme l'eau en vin Représente l'odeur Comme une fraction d'Action Directe j'terrorise Rock les mots, les mémorise Quand la 8-6 fleurit, mes rots gisent Épris d'boisson, poison dont j'suis prisonnier Santé ruinée, gueule de Bois d'Arcy, foie incarcéré J'ai besoin d'une médecine sexuelle Comme Marvin J'm'attaque pas au p'tites filles comme Marc Dutroux ou l'groupe Gamine Gentleman dans l'âme Mais version charclo Connait la différence entre une femme et un frigo Je suis le meilleur en tout, c'est tout! Graisse-moi les pistons mais lâche-moi les roustons Suce ton pouce, ton pénis n'est pas plus long Baste se débarrasse Et ratisse tout les erzatz Mon haleine sent l'ail comme cat's Remets-moi dans ma cage comme Joël Bats Tu flippes sur mon style calligraphié Devant l'avalanche de phases les MCs se sentent atrophiés Je ponctue mes phrases d'atroces faciès comme Louis de Funès Et si il y a un abcès, comme Julien j'le perce Ma vengeance serpente ma plume réglo À la Luis Rego Toute ma bande a des signes, des odeurs comme Charlie Schlingo Des rimes en familles en or J'en sors elles brillent comme des lingots Tu les absorbes, les gobes comme des murs de berlingots J'kiffe, pars en egotrip Comme sur ton mégot tu tripes Je sors mes tripes visqueuses Comme un bigorneau, est-ce karglo Quand j'les écrase comme un mégot d'stupéfiants illégaux Les mots sont assemblés comme le plus complexe des Lego Bienvenue à Legoland où tous les nigauds glandent, font dans l'égo Call me nigaud, c'est un appel du Niko Lali lali on rock toutes les party Kik' du Svink met dans l'vent tous les fonchis Eh yo zincou ! Qui c'est qui fait cette teufé ? Va lui dire que j'ai déjà éclaté son parquet Avec des trous d'boulettes Des traces de canettes Passées par la f'nêtre Et j'ai tué son chien Pepette Me suis assis dessus J'l'avais pas vu ah, pardon Il a fait un bide Les yeux exorbités comme un tripé sous acide Bouche toi les oreilles ou bouge-toi les orteils Prend ta carte vermeille comme Simone j'y veille Les MCs bég-bégayent comme une vieille qu'a du tartre à son appareil Tu voudrais m'avoir ? Pas demain la veille ! Avale la fève y'a pas d'trêve Sur les sales manies des rois d'la galette Tous les jours c'est l'Épiphanie Donc remue ta croupe que rapplique toute ma troupe Svinkels dans ton cur le nouveau boys group' Le S.V.I.N.K.E.L.S à bord d'son soulier magique Représente l'odeur Le Svink, résiste à l'Akiléïne Représente l'odeur Le S.V.I.N.K.E.L.S à bord d'son soulier magique Représente l'odeur Frédéric Lansac en attaque pour le Svink Représente l'odeur Svinkels représente l'odeur Le Niko, l'homme représente l'odeur qui transforme l'eau en vin Gérard Baste représente l'odeur, la sexualité bestiale dans son plus simple appareil représente l'odeur Votre serviteur Mr Xavier représente l'odeur est l'expression du bon goût représente l'odeur</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2611,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1978 apprécies-tu l'millésime ? 10 ans plus tard vu d'ici c'était mi-fugue, mi-résine Tu m'situes, plus d'issue, j'ai si vite bifurqué A tituber sur l'bitume, à fuir les difficultés Juste un p'tit qui s'bute, qui s'imagine si futé Qu'instits et darons disputent quand il s'agit d'discuter Mais quels sacrifices tu ferais pour un tas d'biscuits sucrés ? Aujourd'hui je me sens seul comme un gars qui vit sur l'quai 1988 j'avais 10 piges, j'étais te-bê Un vrai de vrai, de ce qui s'fiche de ces gestes, ces regrets Un ce-gre j'étais refait, ça chouravait des Vespa La cavale était un sport et l'outrage était l'exploit Premier joint, première cuite, j'me rappelle un gros gamin Avec le Diable on était quitte, on marchait main dans la main On formait qu'un ma gueule, un peu comme deux tourtereaux Aujourd'hui je me sens seul et j'ignore le goût de l'euro 1990 j'roulais v'là l'bédo d'A-I Je découvrais ce putain d'vice et toute ma cleptomanie Les sales blèmes-pro d'la vie, ça allait mal t'as vu Entre les darons qui s'déchirent et les aléas d'la rue A cette époque j'ramenais des notes, on m'parlait pas d'lacune Très vite j'ai squatté les blocs et là le Sheïtan m'a eu Ouais fallait que j'fasse la thune, j'ai cette grosse envie d'grandeur En c'temps là, ouais mon cousin j'ai le cerveau rempli de rancur 1992 la grande vie d'branleur Avec la ge-ra c'foutu blues avait tellement pris de l'ampleur J'passais mon temps à courir, à squatter l'terrain d'foot Pour walou j'avais l'sourire, ma life c'était rien foutre J'étais jeunot, plein d'fougue, sportif en bonne santé Narvalo je n'étais qu'un fourbe, en kiff quand le cône flambait J'étais insolent et violent, et totalement trop sauvage Ça va du collège au collage, au cool-al dans lsophage 1.9.9.4. j'écris, j'rappe ces rimes sommaires Trop d'appétit, d'colère, c'est la dérive scolaire Quand la résine opère, ça m'rafraîchit l'veau-cer J'ai l'baratin du ler-dea, la stratégie d'faussaire 1996 premier contrat d'travail Fallait qu'on s'tape la caille pour mieux combattre la dalle J'quittais l'foyer familial pour ça mon gars que j'bataille Depuis cette époque je m'assume grave, j'raconte pas d'salade Non à fond d'cale ça brade, ça emballe et ça découpe J'étais trop con sans l'savoir rien que d'en parler ça dégoûte 1.9.9.8. j'essaie d'y croire, j'fumais l'chanvre On fout la misère au Brésil, j'fête la victoire sur les Champs J'avais rencontré l'amour et les joies d'la vie à deux Cette bonté je la savoure, non j'vois pas l'avenir affreux L'an 2000 en famille, je me rappelle ce réveillon Une foutu bringue chez l'daron et sur ma tête c'était bon C'est la fête, j'fais des ronds, faut ladmettre j'étais con Un an plus tard, j'perds mon taf et j'suis à terre, j'pète les plombs A cette époque j'maîtrisais l'vice, les curs et l'poker Tous ces freestyles chez J.C. mon beatmaker d'Auber' Mes petites liqueurs au bar, les coups shtracks chez José J'devenais le pire de leur cauchemar sous Jack désossé Moi le niak je l'ai dosé, le mic je l'ai rossé Fallait oser pomper l'Pac' c'est une marque déposée 2001 les deux tours, 2002 je deviens père J'dois faire honneur à ce jour et j'fais l'vu de bien l'faire Wesh mon vieux je m'insère et je m'en sors pas trop mal 2003 j'enterre grand-père et j'prends l'mort face au mal A bout, j'réfléchis la vie j'avoue met des gifles Moi j'ai déjà courbé l'échine mais jamais bouffé les chibres Ouais les couplets je les jette vite, je coule et je végète Là j'me gourais d'échelle et j'découvrais l'échec 2004 avec Swift, Rossito, j'mets des gifles On sort A base de vers durs, Horizone c'est l'équipe Une putain d'belle époque, le Suares est bénéfique Joncquaille, sum, récolte, il savait semer les flics 2006 j'brassais, je m'éclatais dans c'business C'était la liesse et l'ivresse, on fête la naissance d'Inès Et c'est l'déclic sin-cou, j'arrête la merde en vitesse Moi j'étais clean d'un coup, j'avais pas pressenti l'reste Y'a v'là les gens qui m'stressent, la gentillesse n'est plus J'ai cette rage qui m'enlise et la hantise d'être déçu Têtu j'arrête le rap, je range ma plume, mes rimes Ironique, 6 ans pus tard, on m'dira tu l'mérites 2008 posé, j'taffe, j'mène ma p'tite vie pépère J'bosse et j'gratte la CAF, y'a l'black qui suit derrière Les allocs, les blèmes-pro, j'baise la ie-v et j'pense pas Les barbeucs, les ker-po, les annivs, les cances-va La vie quoi y'a qu'ça de vrai, j'dis pas que j'économise Je mapitoie pas, j'la fête, c'climat est au beau fixe La vie est dure, c'est dédicacé aux novices Le fait de vouloir fuir les murs n'évite pas les fautes commises 2010 saturation, j'quitte Paname J'arrive dans l'sud, j'ai pas un rond, j'assure à fond, j'kiffe la vibe Parisien et digne de l'être, j'ai rangé ma connerie C'était Intérim, usine, cueillette et chantier d'maçonnerie J'avais beau pas être feignant, t'as vu la perte de temps Perpignan c'est effrayant, ça a tenu à peine deux ans Soudain la poisse s'y met, j'suis à bout, j'veux qu'ça crame J'étais comme déraciné, appelle ça l'blues de Paname 2012 c'est l'come back, un ménage qui bat de l'aile Quand j'y repense on déconne grave, c'était tragique ma belle On s'accrochait pour tchi, j'étais fragile pas d'veine Tout ce qu'on récolte aujourd'hui n'est que le gâchis d'la veille 2013 on en est là, mais dis-moi où c'manège va ? Une nouvelle page dans c'pe-ra mais je la tourne pas cette fois Non je lâcherai rien tonton, c'est la vie ça rend fou Car tu sais très bien qu'au fond, c'est la mif avant toutYou might also like</t>
+          <t>1978 apprécies-tu l'millésime ? 10 ans plus tard vu d'ici c'était mi-fugue, mi-résine Tu m'situes, plus d'issue, j'ai si vite bifurqué A tituber sur l'bitume, à fuir les difficultés Juste un p'tit qui s'bute, qui s'imagine si futé Qu'instits et darons disputent quand il s'agit d'discuter Mais quels sacrifices tu ferais pour un tas d'biscuits sucrés ? Aujourd'hui je me sens seul comme un gars qui vit sur l'quai 1988 j'avais 10 piges, j'étais te-bê Un vrai de vrai, de ce qui s'fiche de ces gestes, ces regrets Un ce-gre j'étais refait, ça chouravait des Vespa La cavale était un sport et l'outrage était l'exploit Premier joint, première cuite, j'me rappelle un gros gamin Avec le Diable on était quitte, on marchait main dans la main On formait qu'un ma gueule, un peu comme deux tourtereaux Aujourd'hui je me sens seul et j'ignore le goût de l'euro 1990 j'roulais v'là l'bédo d'A-I Je découvrais ce putain d'vice et toute ma cleptomanie Les sales blèmes-pro d'la vie, ça allait mal t'as vu Entre les darons qui s'déchirent et les aléas d'la rue A cette époque j'ramenais des notes, on m'parlait pas d'lacune Très vite j'ai squatté les blocs et là le Sheïtan m'a eu Ouais fallait que j'fasse la thune, j'ai cette grosse envie d'grandeur En c'temps là, ouais mon cousin j'ai le cerveau rempli de rancur 1992 la grande vie d'branleur Avec la ge-ra c'foutu blues avait tellement pris de l'ampleur J'passais mon temps à courir, à squatter l'terrain d'foot Pour walou j'avais l'sourire, ma life c'était rien foutre J'étais jeunot, plein d'fougue, sportif en bonne santé Narvalo je n'étais qu'un fourbe, en kiff quand le cône flambait J'étais insolent et violent, et totalement trop sauvage Ça va du collège au collage, au cool-al dans lsophage 1.9.9.4. j'écris, j'rappe ces rimes sommaires Trop d'appétit, d'colère, c'est la dérive scolaire Quand la résine opère, ça m'rafraîchit l'veau-cer J'ai l'baratin du ler-dea, la stratégie d'faussaire 1996 premier contrat d'travail Fallait qu'on s'tape la caille pour mieux combattre la dalle J'quittais l'foyer familial pour ça mon gars que j'bataille Depuis cette époque je m'assume grave, j'raconte pas d'salade Non à fond d'cale ça brade, ça emballe et ça découpe J'étais trop con sans l'savoir rien que d'en parler ça dégoûte 1.9.9.8. j'essaie d'y croire, j'fumais l'chanvre On fout la misère au Brésil, j'fête la victoire sur les Champs J'avais rencontré l'amour et les joies d'la vie à deux Cette bonté je la savoure, non j'vois pas l'avenir affreux L'an 2000 en famille, je me rappelle ce réveillon Une foutu bringue chez l'daron et sur ma tête c'était bon C'est la fête, j'fais des ronds, faut ladmettre j'étais con Un an plus tard, j'perds mon taf et j'suis à terre, j'pète les plombs A cette époque j'maîtrisais l'vice, les curs et l'poker Tous ces freestyles chez J.C. mon beatmaker d'Auber' Mes petites liqueurs au bar, les coups shtracks chez José J'devenais le pire de leur cauchemar sous Jack désossé Moi le niak je l'ai dosé, le mic je l'ai rossé Fallait oser pomper l'Pac' c'est une marque déposée 2001 les deux tours, 2002 je deviens père J'dois faire honneur à ce jour et j'fais l'vu de bien l'faire Wesh mon vieux je m'insère et je m'en sors pas trop mal 2003 j'enterre grand-père et j'prends l'mort face au mal A bout, j'réfléchis la vie j'avoue met des gifles Moi j'ai déjà courbé l'échine mais jamais bouffé les chibres Ouais les couplets je les jette vite, je coule et je végète Là j'me gourais d'échelle et j'découvrais l'échec 2004 avec Swift, Rossito, j'mets des gifles On sort A base de vers durs, Horizone c'est l'équipe Une putain d'belle époque, le Suares est bénéfique Joncquaille, sum, récolte, il savait semer les flics 2006 j'brassais, je m'éclatais dans c'business C'était la liesse et l'ivresse, on fête la naissance d'Inès Et c'est l'déclic sin-cou, j'arrête la merde en vitesse Moi j'étais clean d'un coup, j'avais pas pressenti l'reste Y'a v'là les gens qui m'stressent, la gentillesse n'est plus J'ai cette rage qui m'enlise et la hantise d'être déçu Têtu j'arrête le rap, je range ma plume, mes rimes Ironique, 6 ans pus tard, on m'dira tu l'mérites 2008 posé, j'taffe, j'mène ma p'tite vie pépère J'bosse et j'gratte la CAF, y'a l'black qui suit derrière Les allocs, les blèmes-pro, j'baise la ie-v et j'pense pas Les barbeucs, les ker-po, les annivs, les cances-va La vie quoi y'a qu'ça de vrai, j'dis pas que j'économise Je mapitoie pas, j'la fête, c'climat est au beau fixe La vie est dure, c'est dédicacé aux novices Le fait de vouloir fuir les murs n'évite pas les fautes commises 2010 saturation, j'quitte Paname J'arrive dans l'sud, j'ai pas un rond, j'assure à fond, j'kiffe la vibe Parisien et digne de l'être, j'ai rangé ma connerie C'était Intérim, usine, cueillette et chantier d'maçonnerie J'avais beau pas être feignant, t'as vu la perte de temps Perpignan c'est effrayant, ça a tenu à peine deux ans Soudain la poisse s'y met, j'suis à bout, j'veux qu'ça crame J'étais comme déraciné, appelle ça l'blues de Paname 2012 c'est l'come back, un ménage qui bat de l'aile Quand j'y repense on déconne grave, c'était tragique ma belle On s'accrochait pour tchi, j'étais fragile pas d'veine Tout ce qu'on récolte aujourd'hui n'est que le gâchis d'la veille 2013 on en est là, mais dis-moi où c'manège va ? Une nouvelle page dans c'pe-ra mais je la tourne pas cette fois Non je lâcherai rien tonton, c'est la vie ça rend fou Car tu sais très bien qu'au fond, c'est la mif avant tout</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2628,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Han ! Hey yo Djar ! Faut qu'on fasse un truc caillera sur celle là ! Un truc caillera mais conscient un peu Intelligence ! Han ! Jpeux t'tuer d'un seul regard, lunettes zizi Tu veux la dope ? Jbibi avec mes lunettes zizi Incognito et scredi derrière mes lunettes zizi C'est ainsi qu'j'vois la vie avec mes lunettes zizi Lunettes zizi, lunettes zizi what? Lunettes zizi, lunettes zizi wha! Lunettes zizi, lunettes zizi oh oh, oh Lunettes zizi, lunettes zizi Si si ! J'traîne au rayon gadgets de chez Gifi Lunettes zizi dans les allées d'La Foir'Fouille Tablier gros nichons, charentaises, vieille paire de couilles Garde tes lunettes Gucci, j'garde mes lunettes goût dchiottes Enlève ta culotte, cest moi qui lunettes pilote Tu roules à toute vitesse, Ferrari décapotable Je sors à toute vitesse mon zizi décalotable Baste! J'te fait zizir mon ptit pote Pour une femme à barbe j'sors les lunettes noires de ZZ Top Et j'les porte comme un naturiste à l'aise dans le rayon disques Jte déshabille du regard, j'les ai équipées de rayons X On dit souvent qu'les lunettes, ça donne un air intello J'respire l'intelligence quand j'porte mes lunettes zizi Mets tes lunettes de secrétaire et vite j't'emmène au tel-ho Cinq minutes plus tard cette belle histoire s'arrête ici You might also like J'peux t'tuer d'un seul regard, lunettes zizi Tu veux la dope ? J'bibi avec mes lunettes zizi Incognito et scredi derrière mes lunettes zizi C'est ainsi qu'j'vois la vie avec mes lunettes zizi Lunettes zizi, lunettes zizi what? Lunettes zizi, lunettes zizi wha! Lunettes zizi, lunettes zizi oh oh, oh 0.9 à chaque il, lunettes neuves de zizi Parfaite avec un col roulé et une belle calvitie Les lunettes zizi c'est un bête de plan Y'a rien qui va mieux à ma tête de gland J'lève mon verre de blanc pour mes frères de sang Y'a du lait dedans, viens me traire devant Ok ! Quand les gens croisent mon regard, les gens trébuchent Celle là elle est pas top on va la couper prépuce Personne ne voit qu't'es rré-bou quand tu portes tes Ray-Ban Tout l'monde voit qu'j'suis relou quand j'porte mes lunettes zizi J'leur fait mal au crâne pour les soulagés j'les trépane J'te fait sauter sur place comme quand t'as envie d'faire pipi Systématiquement j'urine sur la lunette des WC Faut que j'prenne du viagra, ma vue est en train d'baissée J'suis trop stylé d'puis qu'l'ophtalmo m'les à prescrites Remboursées par la sécu, idéales pour les presbytes J'peux t'tuer d'un seul regard, lunettes zizi Tu veux la dope ? J'bibi avec mes lunettes zizi Incognito et scredi derrière mes lunettes zizi C'est ainsi qu'j'vois la vie avec mes lunettes zizi Lunettes zizi, lunettes zizi what? Lunettes zizi, lunettes zizi wha! Lunettes zizi, lunettes zizi oh oh, oh Grosse promo ! Lunettes zizi ! Deux paires pour l'prix d'une ! Yeah ! C'est la Fashion Week ! Tu sais c'qu'il t'reste à faire Faut t'mettre un peu dans la vibe du truc Tout l'monde met ses lunettes zizi ! Hey !</t>
+          <t>Han ! Hey yo Djar ! Faut qu'on fasse un truc caillera sur celle là ! Un truc caillera mais conscient un peu Intelligence ! Han ! Jpeux t'tuer d'un seul regard, lunettes zizi Tu veux la dope ? Jbibi avec mes lunettes zizi Incognito et scredi derrière mes lunettes zizi C'est ainsi qu'j'vois la vie avec mes lunettes zizi Lunettes zizi, lunettes zizi what? Lunettes zizi, lunettes zizi wha! Lunettes zizi, lunettes zizi oh oh, oh Lunettes zizi, lunettes zizi Si si ! J'traîne au rayon gadgets de chez Gifi Lunettes zizi dans les allées d'La Foir'Fouille Tablier gros nichons, charentaises, vieille paire de couilles Garde tes lunettes Gucci, j'garde mes lunettes goût dchiottes Enlève ta culotte, cest moi qui lunettes pilote Tu roules à toute vitesse, Ferrari décapotable Je sors à toute vitesse mon zizi décalotable Baste! J'te fait zizir mon ptit pote Pour une femme à barbe j'sors les lunettes noires de ZZ Top Et j'les porte comme un naturiste à l'aise dans le rayon disques Jte déshabille du regard, j'les ai équipées de rayons X On dit souvent qu'les lunettes, ça donne un air intello J'respire l'intelligence quand j'porte mes lunettes zizi Mets tes lunettes de secrétaire et vite j't'emmène au tel-ho Cinq minutes plus tard cette belle histoire s'arrête ici J'peux t'tuer d'un seul regard, lunettes zizi Tu veux la dope ? J'bibi avec mes lunettes zizi Incognito et scredi derrière mes lunettes zizi C'est ainsi qu'j'vois la vie avec mes lunettes zizi Lunettes zizi, lunettes zizi what? Lunettes zizi, lunettes zizi wha! Lunettes zizi, lunettes zizi oh oh, oh 0.9 à chaque il, lunettes neuves de zizi Parfaite avec un col roulé et une belle calvitie Les lunettes zizi c'est un bête de plan Y'a rien qui va mieux à ma tête de gland J'lève mon verre de blanc pour mes frères de sang Y'a du lait dedans, viens me traire devant Ok ! Quand les gens croisent mon regard, les gens trébuchent Celle là elle est pas top on va la couper prépuce Personne ne voit qu't'es rré-bou quand tu portes tes Ray-Ban Tout l'monde voit qu'j'suis relou quand j'porte mes lunettes zizi J'leur fait mal au crâne pour les soulagés j'les trépane J'te fait sauter sur place comme quand t'as envie d'faire pipi Systématiquement j'urine sur la lunette des WC Faut que j'prenne du viagra, ma vue est en train d'baissée J'suis trop stylé d'puis qu'l'ophtalmo m'les à prescrites Remboursées par la sécu, idéales pour les presbytes J'peux t'tuer d'un seul regard, lunettes zizi Tu veux la dope ? J'bibi avec mes lunettes zizi Incognito et scredi derrière mes lunettes zizi C'est ainsi qu'j'vois la vie avec mes lunettes zizi Lunettes zizi, lunettes zizi what? Lunettes zizi, lunettes zizi wha! Lunettes zizi, lunettes zizi oh oh, oh Grosse promo ! Lunettes zizi ! Deux paires pour l'prix d'une ! Yeah ! C'est la Fashion Week ! Tu sais c'qu'il t'reste à faire Faut t'mettre un peu dans la vibe du truc Tout l'monde met ses lunettes zizi ! Hey !</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2645,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Un dernier pour la route Mets-en pleins pour ma troupe Y'a toute la team gloup, gloup Alors ajoute, ajoute On rest'ra là coûte que coûte Peut importe c'que ça nous coûte que coûte Si tu veux pas l'foutre alors mec, vas t'faire foutre On a pas l'temps d'attendre tell'ment l'temps est important Pas d'temps d'latence entre l'dernier et c'lui d'avant J'ai soif, j'ai soif, pas changé d'puis Gran Bang Ne m'laisse pas avec le goût du dernier sur la langue Dépêche-toi d'aller chercher un pack Et ne parle plus d'alcool devant moi ou je te frappe Je me sens mal quand je bois Je me sens mal quand je ne bois pas Donc sers-moi vite un formidable avec 3 pailles Tu vas pas m'saouler pour un problème de dosage Sortez les tonneaux, les fûts et le tuyau d'arrosage J'ai soif, j'ai soif, à boire, ??? 'Cause me, so thirsty, me me so thirsty Mais kes', mais kes', mais kes' tu bois ? Mais kes' tu bois ? Mais kes', mais kes', mais kes' tu bois ? Mais kes' tu bois ? Mais kes', mais kes', mais kes' tu bois ? Mais kes' tu bois ? Mais kes', mais kes', mais kes' tu bois ? Mais kes' tu bois ?You might also like</t>
+          <t>Un dernier pour la route Mets-en pleins pour ma troupe Y'a toute la team gloup, gloup Alors ajoute, ajoute On rest'ra là coûte que coûte Peut importe c'que ça nous coûte que coûte Si tu veux pas l'foutre alors mec, vas t'faire foutre On a pas l'temps d'attendre tell'ment l'temps est important Pas d'temps d'latence entre l'dernier et c'lui d'avant J'ai soif, j'ai soif, pas changé d'puis Gran Bang Ne m'laisse pas avec le goût du dernier sur la langue Dépêche-toi d'aller chercher un pack Et ne parle plus d'alcool devant moi ou je te frappe Je me sens mal quand je bois Je me sens mal quand je ne bois pas Donc sers-moi vite un formidable avec 3 pailles Tu vas pas m'saouler pour un problème de dosage Sortez les tonneaux, les fûts et le tuyau d'arrosage J'ai soif, j'ai soif, à boire, ??? 'Cause me, so thirsty, me me so thirsty Mais kes', mais kes', mais kes' tu bois ? Mais kes' tu bois ? Mais kes', mais kes', mais kes' tu bois ? Mais kes' tu bois ? Mais kes', mais kes', mais kes' tu bois ? Mais kes' tu bois ? Mais kes', mais kes', mais kes' tu bois ? Mais kes' tu bois ?</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2662,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>J'débarque la bave aux lèvres comme Cujo wouf, wouf! Nous on a la rage, toi tu vas dev'nir ouf han! On aura toujours ce p'tit truc en plus Ça fait Ouh! et Waouhh! quand j'sors du mini, mini bus Yo c'est Gérard Baste Gérard Baste!, lève les mains en l'air C'est la teuf frère, jump et l'reste nique sa mère J'me suis pas pointé pour faire tapiss'rie Ça fait pshiiit, glou glou glou quand j'sors de l'épicerie Contrair'ment à Popeye, j'tire ma force du pinard Quand j'me beurre j'ai du mal à mettre du beurre dans les épinards Mais j'm'arrange pour jamais être à la dèche, man Et dans les soirées j'fais tâche de vin comme Jean-Luc Reichmann Une descente monstrueuse, les gens crient C'est dément c'truc! On est prêts à tout avaler même le sang des menstru' Y'a un moment j'choisis plus et j'ingurgite tout et même D'abord j'bois son sky et ensuite j'la baise saoul Hélène Appelle Allô, apéro! et dis-leur qui s'grouillent Si j'tirais comme je tise, j'ferais pleuvoir les douilles Et si j't'ai casser les couilles parce que j'avais bu d'la bière J'm'en fous plains-toi à mon avocat, c'est Maître Kanter Lève la tête vers le ciel mec, regarde dans les airs V'là les gros bonhommes qui volent on est parés pour la guerre oh! On peut être les pires enfoirés d'la terre J'm'en fous plains-toi à mon avocat, c'est Maître Kanter You might also likeTu peux dire qu'on est des fous, qu'on fout notre vie en l'air Peut importe c'qu'on dira d'moi juste avant qu'on m'enterre oh! Tu peux croire c'que tu veux mon frère J'm'en fous plains-toi à mon avocat, c'est Maître Kanter x4 Maître, Maître, Maître Kanter Et s'il faut qu'on m'présente Alors j'me présente moi-même Gérard Baste, hypocondriaque, toujours un problème Profession chanteur de rap, ex speakerine sur la câble Ch'veux dans l'vent, face à l'océan j'urine sur le sable J'aime quand y'a pas trop d'taf et beaucoup d'thunes En gros j'crois que c'que j'préfère c'est en foutre pas une Ok, j'kiffe quand on a trop bu et bien manger Là ça fait 15 jours que j'suis en week-end prolongé hey! Dire de la merde, ça s'rait indigne de moi Quand tu m'écoutes, respire et fais un signe de croix Si t'as la dalle, j'vais t'gaver jusqu'à la crise de foie Ici pas d'prise de tête, juste de la prise de poids Des pratiques à risque, on t'f'ra pas d'trucs de base Car même l'actrice de X respecte la trique de Baste Ça passe ou ça casse, c'est pas grave si c'est limite gore Donne-moi 48H et j'te ramène la bite d'or Lève la tête vers le ciel mec, regarde dans les airs V'là les gros bonhommes qui volent on est parés pour la guerre oh! On peut être les pires enfoirés d'la terre J'm'en fous plains-toi à mon avocat, c'est Maître Kanter Tu peux dire qu'on est des fous, qu'on fout notre vie en l'air Peut importe c'qu'on dira d'moi juste avant qu'on m'enterre oh! Tu peux croire c'que tu veux mon frère J'm'en fous plains-toi à mon avocat, c'est Maître Kanter</t>
+          <t>J'débarque la bave aux lèvres comme Cujo wouf, wouf! Nous on a la rage, toi tu vas dev'nir ouf han! On aura toujours ce p'tit truc en plus Ça fait Ouh! et Waouhh! quand j'sors du mini, mini bus Yo c'est Gérard Baste Gérard Baste!, lève les mains en l'air C'est la teuf frère, jump et l'reste nique sa mère J'me suis pas pointé pour faire tapiss'rie Ça fait pshiiit, glou glou glou quand j'sors de l'épicerie Contrair'ment à Popeye, j'tire ma force du pinard Quand j'me beurre j'ai du mal à mettre du beurre dans les épinards Mais j'm'arrange pour jamais être à la dèche, man Et dans les soirées j'fais tâche de vin comme Jean-Luc Reichmann Une descente monstrueuse, les gens crient C'est dément c'truc! On est prêts à tout avaler même le sang des menstru' Y'a un moment j'choisis plus et j'ingurgite tout et même D'abord j'bois son sky et ensuite j'la baise saoul Hélène Appelle Allô, apéro! et dis-leur qui s'grouillent Si j'tirais comme je tise, j'ferais pleuvoir les douilles Et si j't'ai casser les couilles parce que j'avais bu d'la bière J'm'en fous plains-toi à mon avocat, c'est Maître Kanter Lève la tête vers le ciel mec, regarde dans les airs V'là les gros bonhommes qui volent on est parés pour la guerre oh! On peut être les pires enfoirés d'la terre J'm'en fous plains-toi à mon avocat, c'est Maître Kanter Tu peux dire qu'on est des fous, qu'on fout notre vie en l'air Peut importe c'qu'on dira d'moi juste avant qu'on m'enterre oh! Tu peux croire c'que tu veux mon frère J'm'en fous plains-toi à mon avocat, c'est Maître Kanter x4 Maître, Maître, Maître Kanter Et s'il faut qu'on m'présente Alors j'me présente moi-même Gérard Baste, hypocondriaque, toujours un problème Profession chanteur de rap, ex speakerine sur la câble Ch'veux dans l'vent, face à l'océan j'urine sur le sable J'aime quand y'a pas trop d'taf et beaucoup d'thunes En gros j'crois que c'que j'préfère c'est en foutre pas une Ok, j'kiffe quand on a trop bu et bien manger Là ça fait 15 jours que j'suis en week-end prolongé hey! Dire de la merde, ça s'rait indigne de moi Quand tu m'écoutes, respire et fais un signe de croix Si t'as la dalle, j'vais t'gaver jusqu'à la crise de foie Ici pas d'prise de tête, juste de la prise de poids Des pratiques à risque, on t'f'ra pas d'trucs de base Car même l'actrice de X respecte la trique de Baste Ça passe ou ça casse, c'est pas grave si c'est limite gore Donne-moi 48H et j'te ramène la bite d'or Lève la tête vers le ciel mec, regarde dans les airs V'là les gros bonhommes qui volent on est parés pour la guerre oh! On peut être les pires enfoirés d'la terre J'm'en fous plains-toi à mon avocat, c'est Maître Kanter Tu peux dire qu'on est des fous, qu'on fout notre vie en l'air Peut importe c'qu'on dira d'moi juste avant qu'on m'enterre oh! Tu peux croire c'que tu veux mon frère J'm'en fous plains-toi à mon avocat, c'est Maître Kanter</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2679,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Jimmy Mac freestyle Sur mes sapes cest rare quy ait pas de taches Mon art ne rapporte pas de cash Jregrette les soirées patcash Jte cache pas que jai pas de 4x4 Mais quand je crache ma zique na pas de cadre Jsuis là jbouge et là regarde Jpose pour les kids quont du métal Plein la bouche et larcade Enhancer, le groupe de rap Des gars qui sentent fort Qui chantent faux, qui chantent fort Va falloir virer les gens de force Pour les faire bouger du champ de force Où qutas vu se bomber autant de torses Nowhere esprit de famille transfusé avec du sang de corse Pffff trop de level ça devient gonflant Tu crois que cest Timbal Doc Dre, les Neptunes, non ça vient de Conflans Mais cest la même rage, les mêmes rêves Et on en a tous marre de la même soupe Ma musique, mon kiff, ma life Ma thérapie de groupe Rameute les petites troupes Y a des grappes de petites prêtes À écouter de la gratte et à repartir avec des petites têtes Des petites fêtes qui tournent vite fait à la guerre civile Musique, guerre civique tu dis merci Vidé de lénergie quon libère si vite Ça ou un autre beat, dis jamais de gros mots sauf bip Au top chrono, tu te sauves vite Rejoindre le gros de ta clique de pauvres types Ma musique, ma bite, mon couteau, ma flamme Ma mère, ma sur, mon iench, ma femme Blam blam, Gérard Baste si mes mots tranchent comme plein de lames Et cest parce que ma musique vient de lâme Et vient de là, du cur, du ventre et des couilles Jme défonce la couenne, cest ton cerveau qui dérouille Ta meuf qui mouille sur ma musique Jimmy Mac freestyle Jdébarque à coups de basses grasses AMS comme blaze Pour ma zique y a quelle qui membrase, qui mévase Qui mévade, qui émane de mes phases Temmène à la base de mon âme Tombée dans les frasques de mon crâne Et même si je me crashe À me perdre dans le trash Je lâcherai la rage dans mes tchatches Pour faire tache parmi les lâches Pour faire hocher la tête des mômes Pour faire monter le taux dhormones Et pour régner au-dessus du dôme Je la jouerai même dans le trome Elle, ma muse, ma zique mamuse Ma clique abuse, me berce et muse Membrasse et mise sur loptimisme La rue, la ruse, puis hilare jen ris Faites donc briller ma voix comme largenterie Trop de galères, dgelures comme lArgentine Laisse largent sale à Medeline Je ferai plutôt un sub tube comme yellow submarine Ma musique fluide je mime Cest mystique mais je laime Jcontamine atypique tympan épiderme Beat lourd comme du tungstène Prêt du K.O. comme sous Tranxène Ouais cest pour elle que jsaigne Quand trop de coups bas me maintiennent sous zéro Elle est mon tuba, ma drogue, mon héro Pris dans ses croches pas de trémolo Jcrèche avec des néo slash Prêts à être immolés sur place Ouais pour cette fille de joie Jhurle après jusquà lextinction de voix Pour elle jchange de voie Chaque fois virage musical Pris à la corde vocale Le beat, mon cardiogramme Ma musique x2 Jimmy Mac freestyle Cest ma muse, chaque jour la même chose Je me lève toujours les mêmes rêves Y a plus quelle qui compte Elle nous a réunis, liés, nous aide à vivre À ne pas succomber à nos peines Et qui à chaque moment de gaîté Nous a accompagnés, portés Fait bouger, nous a fait évoluer Elle qui des mauvais tours de la vie Certains de nous elle a sauvé Cest elle qui nous a fait devenir Ce que aujourdhui lon est Sûr que certains voudraient nous voir lenfermer La mettre en captivité pour mieux pouvoir la classifier Mais gars, cherche pas, cest du rap, du rock, du ragga Du métal fusion ou dautres styles on sest influencé Aujourdhui chaque tendance est digérée Colle lui pas détiquette cest uniquement notre zik Ma zique, ma zique zigzague À lexcès mais sans exaction Et ça, ça mexcite Venu tout droit dAfrica mais aussi dAmérica Ma musica calme depuis toujours mes tracas Cest un truc de fou qui minspire en tout Violent ou bien cool dread locks ou la boule Bouuuuh des Who aux Wu et surtout pas de Worlds apart De Ben E. King à Big pun dans mon big band Les boom basses claquent au click comme Big Ben Dans ma tête cest le bing bang un ping-pong entre keuro et peura Ma musique met K.O. mais O.K. les médias perroquets Allez tchao gars et au cas où tas pas tout capté Vas-y, claque tes mains, ouais vas-y claque Jusquà en pecho des cloques Lépoque est à léclectisme de sweet smoke Just a poke a up in smoke de Woodstock aux Eurocks On stocke tout, le ressort en bloc Du pur black and white on the rocks Quoi de neuf doc, vla les new kids qui débloquent Jimmy Mac freestyle Accro un toxico il me faut ma dose de musique Ma musique régit mon humeur Meurs mais ne touche pas à ma musique Ma muse me rend triste et mamuse Me donne des envies de mort et la force de mordre Ma vie mémeut ou métonne Me donne des tonnes de moments magiques Manie les malins, les malines Les marrants ou les mélancoliques De mélodrames en méli-mélo de mélomane La mélodie me les met dans la ligne de mire Et shoote droit dans le mille Et un et deux et trois et quatre, claque des mains Sur ma caisse claire, bouge ton popotin Prends garde aux coups de kick Comme aux coups de beat, le démon de la musique mhabite Jimmy Mac freestyle Ma musique You might also like</t>
+          <t>Jimmy Mac freestyle Sur mes sapes cest rare quy ait pas de taches Mon art ne rapporte pas de cash Jregrette les soirées patcash Jte cache pas que jai pas de 4x4 Mais quand je crache ma zique na pas de cadre Jsuis là jbouge et là regarde Jpose pour les kids quont du métal Plein la bouche et larcade Enhancer, le groupe de rap Des gars qui sentent fort Qui chantent faux, qui chantent fort Va falloir virer les gens de force Pour les faire bouger du champ de force Où qutas vu se bomber autant de torses Nowhere esprit de famille transfusé avec du sang de corse Pffff trop de level ça devient gonflant Tu crois que cest Timbal Doc Dre, les Neptunes, non ça vient de Conflans Mais cest la même rage, les mêmes rêves Et on en a tous marre de la même soupe Ma musique, mon kiff, ma life Ma thérapie de groupe Rameute les petites troupes Y a des grappes de petites prêtes À écouter de la gratte et à repartir avec des petites têtes Des petites fêtes qui tournent vite fait à la guerre civile Musique, guerre civique tu dis merci Vidé de lénergie quon libère si vite Ça ou un autre beat, dis jamais de gros mots sauf bip Au top chrono, tu te sauves vite Rejoindre le gros de ta clique de pauvres types Ma musique, ma bite, mon couteau, ma flamme Ma mère, ma sur, mon iench, ma femme Blam blam, Gérard Baste si mes mots tranchent comme plein de lames Et cest parce que ma musique vient de lâme Et vient de là, du cur, du ventre et des couilles Jme défonce la couenne, cest ton cerveau qui dérouille Ta meuf qui mouille sur ma musique Jimmy Mac freestyle Jdébarque à coups de basses grasses AMS comme blaze Pour ma zique y a quelle qui membrase, qui mévase Qui mévade, qui émane de mes phases Temmène à la base de mon âme Tombée dans les frasques de mon crâne Et même si je me crashe À me perdre dans le trash Je lâcherai la rage dans mes tchatches Pour faire tache parmi les lâches Pour faire hocher la tête des mômes Pour faire monter le taux dhormones Et pour régner au-dessus du dôme Je la jouerai même dans le trome Elle, ma muse, ma zique mamuse Ma clique abuse, me berce et muse Membrasse et mise sur loptimisme La rue, la ruse, puis hilare jen ris Faites donc briller ma voix comme largenterie Trop de galères, dgelures comme lArgentine Laisse largent sale à Medeline Je ferai plutôt un sub tube comme yellow submarine Ma musique fluide je mime Cest mystique mais je laime Jcontamine atypique tympan épiderme Beat lourd comme du tungstène Prêt du K.O. comme sous Tranxène Ouais cest pour elle que jsaigne Quand trop de coups bas me maintiennent sous zéro Elle est mon tuba, ma drogue, mon héro Pris dans ses croches pas de trémolo Jcrèche avec des néo slash Prêts à être immolés sur place Ouais pour cette fille de joie Jhurle après jusquà lextinction de voix Pour elle jchange de voie Chaque fois virage musical Pris à la corde vocale Le beat, mon cardiogramme Ma musique x2 Jimmy Mac freestyle Cest ma muse, chaque jour la même chose Je me lève toujours les mêmes rêves Y a plus quelle qui compte Elle nous a réunis, liés, nous aide à vivre À ne pas succomber à nos peines Et qui à chaque moment de gaîté Nous a accompagnés, portés Fait bouger, nous a fait évoluer Elle qui des mauvais tours de la vie Certains de nous elle a sauvé Cest elle qui nous a fait devenir Ce que aujourdhui lon est Sûr que certains voudraient nous voir lenfermer La mettre en captivité pour mieux pouvoir la classifier Mais gars, cherche pas, cest du rap, du rock, du ragga Du métal fusion ou dautres styles on sest influencé Aujourdhui chaque tendance est digérée Colle lui pas détiquette cest uniquement notre zik Ma zique, ma zique zigzague À lexcès mais sans exaction Et ça, ça mexcite Venu tout droit dAfrica mais aussi dAmérica Ma musica calme depuis toujours mes tracas Cest un truc de fou qui minspire en tout Violent ou bien cool dread locks ou la boule Bouuuuh des Who aux Wu et surtout pas de Worlds apart De Ben E. King à Big pun dans mon big band Les boom basses claquent au click comme Big Ben Dans ma tête cest le bing bang un ping-pong entre keuro et peura Ma musique met K.O. mais O.K. les médias perroquets Allez tchao gars et au cas où tas pas tout capté Vas-y, claque tes mains, ouais vas-y claque Jusquà en pecho des cloques Lépoque est à léclectisme de sweet smoke Just a poke a up in smoke de Woodstock aux Eurocks On stocke tout, le ressort en bloc Du pur black and white on the rocks Quoi de neuf doc, vla les new kids qui débloquent Jimmy Mac freestyle Accro un toxico il me faut ma dose de musique Ma musique régit mon humeur Meurs mais ne touche pas à ma musique Ma muse me rend triste et mamuse Me donne des envies de mort et la force de mordre Ma vie mémeut ou métonne Me donne des tonnes de moments magiques Manie les malins, les malines Les marrants ou les mélancoliques De mélodrames en méli-mélo de mélomane La mélodie me les met dans la ligne de mire Et shoote droit dans le mille Et un et deux et trois et quatre, claque des mains Sur ma caisse claire, bouge ton popotin Prends garde aux coups de kick Comme aux coups de beat, le démon de la musique mhabite Jimmy Mac freestyle Ma musique</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2696,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Jimmy Mac freestyle Sur mes sapes cest rare quy ait pas de taches Mon art ne rapporte pas de cash Jregrette les soirées patcash Jte cache pas que jai pas de 4x4 Mais quand je crache ma zique na pas de cadre Jsuis là jbouge et là regarde Jpose pour les kids quont du métal Plein la bouche et larcade Enhancer, le groupe de rap Des gars qui sentent fort Qui chantent faux, qui chantent fort Va falloir virer les gens de force Pour les faire bouger du champ de force Où qutas vu se bomber autant de torses Nowhere esprit de famille transfusé avec du sang de corse Pffff trop de level ça devient gonflant Tu crois que cest Timbal Doc Dre, les Neptunes, non ça vient de Conflans Mais cest la même rage, les mêmes rêves Et on en a tous marre de la même soupe Ma musique, mon kiff, ma life Ma thérapie de groupe Rameute les petites troupes Y a des grappes de petites prêtes À écouter de la gratte et à repartir avec des petites têtes Des petites fêtes qui tournent vite fait à la guerre civile Musique, guerre civique tu dis merci Vidé de lénergie quon libère si vite Ça ou un autre beat, dis jamais de gros mots sauf bip Au top chrono, tu te sauves vite Rejoindre le gros de ta clique de pauvres types Ma musique, ma bite, mon couteau, ma flamme Ma mère, ma sur, mon iench, ma femme Blam blam, Gérard Baste si mes mots tranchent comme plein de lames Et cest parce que ma musique vient de lâme Et vient de là, du cur, du ventre et des couilles Jme défonce la couenne, cest ton cerveau qui dérouille Ta meuf qui mouille sur ma musique Jimmy Mac freestyle Jdébarque à coups de basses grasses AMS comme blaze Pour ma zique y a quelle qui membrase, qui mévase Qui mévade, qui émane de mes phases Temmène à la base de mon âme Tombée dans les frasques de mon crâne Et même si je me crashe À me perdre dans le trash Je lâcherai la rage dans mes tchatches Pour faire tache parmi les lâches Pour faire hocher la tête des mômes Pour faire monter le taux dhormones Et pour régner au-dessus du dôme Je la jouerai même dans le trome Elle, ma muse, ma zique mamuse Ma clique abuse, me berce et muse Membrasse et mise sur loptimisme La rue, la ruse, puis hilare jen ris Faites donc briller ma voix comme largenterie Trop de galères, dgelures comme lArgentine Laisse largent sale à Medeline Je ferai plutôt un sub tube comme yellow submarine Ma musique fluide je mime Cest mystique mais je laime Jcontamine atypique tympan épiderme Beat lourd comme du tungstène Prêt du K.O. comme sous Tranxène Ouais cest pour elle que jsaigne Quand trop de coups bas me maintiennent sous zéro Elle est mon tuba, ma drogue, mon héro Pris dans ses croches pas de trémolo Jcrèche avec des néo slash Prêts à être immolés sur place Ouais pour cette fille de joie Jhurle après jusquà lextinction de voix Pour elle jchange de voie Chaque fois virage musical Pris à la corde vocale Le beat, mon cardiogramme Ma musique x2 Jimmy Mac freestyle Cest ma muse, chaque jour la même chose Je me lève toujours les mêmes rêves Y a plus quelle qui compte Elle nous a réunis, liés, nous aide à vivre À ne pas succomber à nos peines Et qui à chaque moment de gaîté Nous a accompagnés, portés Fait bouger, nous a fait évoluer Elle qui des mauvais tours de la vie Certains de nous elle a sauvé Cest elle qui nous a fait devenir Ce que aujourdhui lon est Sûr que certains voudraient nous voir lenfermer La mettre en captivité pour mieux pouvoir la classifier Mais gars, cherche pas, cest du rap, du rock, du ragga Du métal fusion ou dautres styles on sest influencé Aujourdhui chaque tendance est digérée Colle lui pas détiquette cest uniquement notre zik Ma zique, ma zique zigzague À lexcès mais sans exaction Et ça, ça mexcite Venu tout droit dAfrica mais aussi dAmérica Ma musica calme depuis toujours mes tracas Cest un truc de fou qui minspire en tout Violent ou bien cool dread locks ou la boule Bouuuuh des Who aux Wu et surtout pas de Worlds apart De Ben E. King à Big pun dans mon big band Les boom basses claquent au click comme Big Ben Dans ma tête cest le bing bang un ping-pong entre keuro et peura Ma musique met K.O. mais O.K. les médias perroquets Allez tchao gars et au cas où tas pas tout capté Vas-y, claque tes mains, ouais vas-y claque Jusquà en pecho des cloques Lépoque est à léclectisme de sweet smoke Just a poke a up in smoke de Woodstock aux Eurocks On stocke tout, le ressort en bloc Du pur black and white on the rocks Quoi de neuf doc, vla les new kids qui débloquent Jimmy Mac freestyle Accro un toxico il me faut ma dose de musique Ma musique régit mon humeur Meurs mais ne touche pas à ma musique Ma muse me rend triste et mamuse Me donne des envies de mort et la force de mordre Ma vie mémeut ou métonne Me donne des tonnes de moments magiques Manie les malins, les malines Les marrants ou les mélancoliques De mélodrames en méli-mélo de mélomane La mélodie me les met dans la ligne de mire Et shoote droit dans le mille Et un et deux et trois et quatre, claque des mains Sur ma caisse claire, bouge ton popotin Prends garde aux coups de kick Comme aux coups de beat, le démon de la musique mhabite Jimmy Mac freestyle Ma musique You might also like</t>
+          <t>Jimmy Mac freestyle Sur mes sapes cest rare quy ait pas de taches Mon art ne rapporte pas de cash Jregrette les soirées patcash Jte cache pas que jai pas de 4x4 Mais quand je crache ma zique na pas de cadre Jsuis là jbouge et là regarde Jpose pour les kids quont du métal Plein la bouche et larcade Enhancer, le groupe de rap Des gars qui sentent fort Qui chantent faux, qui chantent fort Va falloir virer les gens de force Pour les faire bouger du champ de force Où qutas vu se bomber autant de torses Nowhere esprit de famille transfusé avec du sang de corse Pffff trop de level ça devient gonflant Tu crois que cest Timbal Doc Dre, les Neptunes, non ça vient de Conflans Mais cest la même rage, les mêmes rêves Et on en a tous marre de la même soupe Ma musique, mon kiff, ma life Ma thérapie de groupe Rameute les petites troupes Y a des grappes de petites prêtes À écouter de la gratte et à repartir avec des petites têtes Des petites fêtes qui tournent vite fait à la guerre civile Musique, guerre civique tu dis merci Vidé de lénergie quon libère si vite Ça ou un autre beat, dis jamais de gros mots sauf bip Au top chrono, tu te sauves vite Rejoindre le gros de ta clique de pauvres types Ma musique, ma bite, mon couteau, ma flamme Ma mère, ma sur, mon iench, ma femme Blam blam, Gérard Baste si mes mots tranchent comme plein de lames Et cest parce que ma musique vient de lâme Et vient de là, du cur, du ventre et des couilles Jme défonce la couenne, cest ton cerveau qui dérouille Ta meuf qui mouille sur ma musique Jimmy Mac freestyle Jdébarque à coups de basses grasses AMS comme blaze Pour ma zique y a quelle qui membrase, qui mévase Qui mévade, qui émane de mes phases Temmène à la base de mon âme Tombée dans les frasques de mon crâne Et même si je me crashe À me perdre dans le trash Je lâcherai la rage dans mes tchatches Pour faire tache parmi les lâches Pour faire hocher la tête des mômes Pour faire monter le taux dhormones Et pour régner au-dessus du dôme Je la jouerai même dans le trome Elle, ma muse, ma zique mamuse Ma clique abuse, me berce et muse Membrasse et mise sur loptimisme La rue, la ruse, puis hilare jen ris Faites donc briller ma voix comme largenterie Trop de galères, dgelures comme lArgentine Laisse largent sale à Medeline Je ferai plutôt un sub tube comme yellow submarine Ma musique fluide je mime Cest mystique mais je laime Jcontamine atypique tympan épiderme Beat lourd comme du tungstène Prêt du K.O. comme sous Tranxène Ouais cest pour elle que jsaigne Quand trop de coups bas me maintiennent sous zéro Elle est mon tuba, ma drogue, mon héro Pris dans ses croches pas de trémolo Jcrèche avec des néo slash Prêts à être immolés sur place Ouais pour cette fille de joie Jhurle après jusquà lextinction de voix Pour elle jchange de voie Chaque fois virage musical Pris à la corde vocale Le beat, mon cardiogramme Ma musique x2 Jimmy Mac freestyle Cest ma muse, chaque jour la même chose Je me lève toujours les mêmes rêves Y a plus quelle qui compte Elle nous a réunis, liés, nous aide à vivre À ne pas succomber à nos peines Et qui à chaque moment de gaîté Nous a accompagnés, portés Fait bouger, nous a fait évoluer Elle qui des mauvais tours de la vie Certains de nous elle a sauvé Cest elle qui nous a fait devenir Ce que aujourdhui lon est Sûr que certains voudraient nous voir lenfermer La mettre en captivité pour mieux pouvoir la classifier Mais gars, cherche pas, cest du rap, du rock, du ragga Du métal fusion ou dautres styles on sest influencé Aujourdhui chaque tendance est digérée Colle lui pas détiquette cest uniquement notre zik Ma zique, ma zique zigzague À lexcès mais sans exaction Et ça, ça mexcite Venu tout droit dAfrica mais aussi dAmérica Ma musica calme depuis toujours mes tracas Cest un truc de fou qui minspire en tout Violent ou bien cool dread locks ou la boule Bouuuuh des Who aux Wu et surtout pas de Worlds apart De Ben E. King à Big pun dans mon big band Les boom basses claquent au click comme Big Ben Dans ma tête cest le bing bang un ping-pong entre keuro et peura Ma musique met K.O. mais O.K. les médias perroquets Allez tchao gars et au cas où tas pas tout capté Vas-y, claque tes mains, ouais vas-y claque Jusquà en pecho des cloques Lépoque est à léclectisme de sweet smoke Just a poke a up in smoke de Woodstock aux Eurocks On stocke tout, le ressort en bloc Du pur black and white on the rocks Quoi de neuf doc, vla les new kids qui débloquent Jimmy Mac freestyle Accro un toxico il me faut ma dose de musique Ma musique régit mon humeur Meurs mais ne touche pas à ma musique Ma muse me rend triste et mamuse Me donne des envies de mort et la force de mordre Ma vie mémeut ou métonne Me donne des tonnes de moments magiques Manie les malins, les malines Les marrants ou les mélancoliques De mélodrames en méli-mélo de mélomane La mélodie me les met dans la ligne de mire Et shoote droit dans le mille Et un et deux et trois et quatre, claque des mains Sur ma caisse claire, bouge ton popotin Prends garde aux coups de kick Comme aux coups de beat, le démon de la musique mhabite Jimmy Mac freestyle Ma musique</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2747,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ok, ok, reste connecté, yo, Davodka, DJ Weedim, écoute Objets dconsommation, tous dans labus, cest vite dit La tête dans une tablette, ça les amuse dès huit piges Tes pas à la page, tes juste un gus primitif Perdu dans la matrice de Morpheus, Trinity Ce monde ma trop saoulé, laisse-moi qujdécuve Les mecs font dla gonflette pour être au même stade quHercule Ça veut le trône comme Ned Stark, ya pas de mecs stables Et ça sprend en photo pour qules regards sdécuplent On mène des vies virtuelles, entre les spams, les pubs Sur les réseaux c'est la bataille pour des likes, des vues Des stars, des culs, des stories Snap de gars montrant des sbars, des stups La vie virtuelle cest qudu vent, le but cest déviter ccourant dair Jai cette ouverture desprit mais la technologie nous renferme Ils veulent mla fermer, jen ai trop dit dans cson Se font berner, mènent des fausses vies dans lfond Ce que tu vis en 3D, moi jle rap en Indé, pour ça qumon son prend une autre dimension Bienvenue dans lfutur, si tu veux vivre avec ton temps, tes servi Bienvenue dans lfutur, sils te tendent la perche, cest juste pour prendre des selfies Je me tape un trip en kickant, big up à ceux qui madmirent en cliquant Mais dans 10 ans que sera notre monde ? Plus de noms, prénoms, il restera que des identifiants Objets dconsommation, tous dans labus, cest vite dit On est tous dépendant de ces virus qui dirigent Tes pas à la page, tes juste un gus primitif Perdu dans la matrice de Morpheus, Trinity Davodka, DJ Weedim, hey, reste branché You might also like Weedim, Gérard Baste, Kid Cubi est dans la boulang petit, hey, yeah Quand jétais petit, javais un walkman K7 auto reverse Si jsors ça aux kids, cest comme si jleur parlais dDick Rivers On remontait les K7 avec des Bics pour pas user les piles 1984, les vieux nous trouvaient déjà débiles 2018, cest la fête, jai mon smartphone, jai ma tablette Deux ordis, quatre consoles et une big télé d1 mètre 37 Ya 400 chaînes sur lcâble mais ya toujours un truc bizarre Ça fait 20 ans quy a jamais rien à regarder lmercredi soir hey ! Cest lmonde moderne Papa ouais ! Jle voyais bien comme ça, avec ses hauts et ses bas, ses côtés nuls et sympas Jme suis fait censurer, jai mis mon gros cul sur Insta ouais ! Pourquoi jdevrais rester tout seul, enfermé dans ma breuch À exploser des bonbecs en sniffant des lignes de Candy Crush Et jdeviens complétement barge quand jai pas la 4G à la campagne Jvais pt-être ressortir mon vieux Walkman Hologramme, hey, hey Jparle avec ton hologramme hey Steve Jobs ma pris en otage hey Jparle avec ton hologramme skuuurr Jette ton Iphone, counia manman'w, bomboclat hey On scache derrière des arobases hey On scache encore derrière un écran sh-shmer Jsuis sur lpoint ddevenir associable heeey Moi jaurais plus diphone quand jserais grand sh-shmer Jconnais mieux le clavier quma vie han Jai tellement peur que mon coeur éclate Maman dit que jsuis devenu esclave Sauf que mes chaînes sont dans le cloud skuuurr Donc je parle avec ton hologramme hey Steve Jobs ma pris en otage hey Jparle avec ton hologramme Jette ton Iphone, counia manman'w, bomboclat hey Jparle avec ton hologramme hey Steve Jobs ma pris en otage heeey Jparle avec ton hologramme Counia manman'w, bomboclat Quest ce que jferais sans mon iphone ? Pt-être que jparlerais en face-à-face avec les gens ? Jsais pas Salope veut changer mon menu hey Vu, venu, jai vaincu woo Fume beaucoup de oinj, on évacue wo De la monnaie pour les vacances skurt Mama spréoccupe pas des fins dmois sheesh Jpeux manger maintenant que jai faim moi jai faim Tu msouris devant mais parle sur moi skuur Ramène mon oseille et mes fins dtoi Des voitures quon a mis en cendres Des beaux parleurs quon a mis en sang On peut se dire quon est ensemble se dire quon est ensemble Mais est-ce que tes vraiment le sang ? sang, chaud Et jsuis en route pour la gloire, y a que les vrais que je remercie merci, merci Jfinis ce oinj au tabac et je fais ce loss rue Lemercier merci, merci La dégaine à Migos ouaaais Mais on fume pas le même pilon ouaaais Jsuis dans lhood en vrai Ta pétasse veut un coup et deux traits skuuurr Gros doigt pour les traîtres Bras va lever pour les longues peines À la même heure, au même restaurant, mais pas la même assiette skurr, skurr Hey, la Skylanderie ma gueule Yo, djiguidicheck, sbiguidisbang, djiguidiguizmo, YW, G.P. Gang jusquà la mort mothafucka Yo, yo, check-moi, hey Jai fait quelques péchés que je regrette vraiment Que tiser, ne rien faire, cétait vraiment plaisant Seul devant la vitrine, le rapport est payant Devant la vitrine, le rapport est payant Et jbois un quetru, on dirait cest dla pisse Si ta un petit plavon, poto fais-moi la passe Le terrain est mouillé, il faut pas quon glisse Faut pas quon subisse les supplices de limpasse Je suis un bout de scarla Tes mort si tu pousses par là Pas de place pour les froussards Soit t'achètes un pouchka ou soit tappelles un bout-mara Et jfais pas dego trip, cest vous qui trippez sur mon égo Toujours dans la street, même les babtous sont mes négros Premier xte-té, jdisais que vive la bière ! Viens même pas tmêler dma famille et dmes affaires On tcherchait la poucave, on avait quelques doutes Mais quand on était sûrs, on lui baisait sa mère Là jsuis dans mon coin avec ma bouteille et mon joint Jmalcoolise toute la journée, ils croient qujsuis là mais je suis loin Pas daffinités avec ces fils de putes Jsuis dans la musique ou dans ltrafic de stups Jsuis comme leau et lhuile, jaime pas mmélanger Vaut mieux técarter ou mon équipe te fume Et je kiffe le cul, quand les bitches me sucent Je lui tire le cul et elle rentre chez elle Tellement pété, tellement bourré Jai déjà fait lamour avec Claire Chazal On a vendu des quetru et ils ont fait des spasmes Ouais, ils ont fait des spasmes On a vendu des quetru et ils ont fait des spasmes Ouais, ils ont fait des spasmes On a vendu des quetru et ils ont fait des spasmes Hey, ils ont fait des spasmes Tout le monde roule un joint dbeuh, on va délirer dans lespace ! Woo, ouzouguizi, coucou, si si, sbang Oui, oui, ouiii, Still Fresh, 360 Elle me dit quelle maime, cest des conneries Ce quelle aime cest ma money Moi et ma clique, on la connaît Grosse t siliconée Dans tous les cas, je vais quitter cglobe Leurs blases sur un Death Note Prendre la familia et mes vrais soces Faucon Millenimum, je me vé-sau Et je prie pour nos mères et nos pères yeah Pardonnez-moi, jai péché mon père hey En effet, mes habits sont propres Parce que jtraine dans de sales affaires sheesh Ils peuvent crever ces porcs fuck Moi je pense à mon sort On aime vraiment un homme quand il est mort bang bang Prouvez moi que jai tort yeah Jsuis dans la zone yeah Jsuis dans la zone Jsuis dans la zone oui Jsuis dans la zone Jsuis dans la zone Jsuis dans la zone Jsuis dans la zone sheesh Still Fresh est dans la zone Jsuis dans la zone Coeur noir, jsuis dans la zone 360, jsuis dans la zone en 360 huh, yeah Jte mens pas, des fois jsuis à sec Tenté demprunter la A7 Quand le désespoir nous assiège Manger et risquer les assiettes Cette fille me dit quelle est triste huh Elle me dit quelle a besoin dune épaule Mais sur la mienne, y a un fusil brrrrrrrrah Et ça fait longtemps quil est sé-po Surhumain, oui la ce-for est sismique Surhumain, jles baise fort pendant six weeks Modèle et fort, je sais pas si jsuis suisse Mortel effort, ne pas sombrer sous 8.6 low On tolère pas la défaite, tous mes négros seront millionnaires Grosse mallette dans un jet, jvais jeter mes billets en lair yeah Des mères de famille prennent des risques dans cputain de trafic de dope yeah, huh Jvivais la crise du disque, tu vivais la crise dado huh Petit, jai dû gérer des responsabilités sur le dos Et jai eu du mal à digérer cette putain de pomme dAdam ouiiii Maintenant, jsuis dans la zone yeah Ouiiii Jsuis dans la zone yeah Ouiiii Jsuis dans la zone sheesh Ouiiii Jsuis dans la zone Ouiiii Still Fresh est dans la zone Ouiiii Jsuis dans la zone Ouiiii Coeur noir, jsuis dans la zone Ouiiii En 360, jsuis dans la zone Ouiiii Still Fresh Ouiiii Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Consomme-Consomme-Absurde La vie est devenue virtuelle Nos relations se numérisent Au paradis des pixels Les sentiments sémojisent Plaisirs artificiels ou réalité fictive ? Qui donc tire les ficelles De nos fils dactualité intensifs ? On se like, on se follow Puis on serase, top chrono Niveau de vie souvent sous zéro Jaurais de quoi freiner vos égos Les réseaux sont remplis dgens solos Qui cherchent lamour rayon couteau Connectés au monde entier Sans jamais rien à lui dire Bravo ! Un homme AZERTY en vaut deux Un homme AZERTY en vaut deux La débilité a toujours connu le haut débit Un homme AZERTY en vaut deux Un homme AZERTY en vaut deux On nse regarde plus le nombril On fait des selfies Si tout lmonde demandait la paix plutôt quun dernier poste de télévision Alors on aurait la paix, prolo Jsuis dans lcarré VIP Comme Hallyday, RIP Par les plus grands, jsuis validé Tas pas idée, mayday, tes pas aidé Jsuis djà en 2020, bande de vilains en Philipp Plein Jreviens vous lver, dla tête aux pieds en Louis V hein Jsuis un mec au logis, jlis les rubriques nécrologiques Jsuis plus écologie, que nouvelles technologies, logique Jsuis ce ptit mec de la campagne qui écoute Atlanta Celui qui rentre dans ltas et qui accompagne vos compagnes Logo dmon crew tatoué sur lavant-bras Tavais rarement ressenti ça avant moi Tes marrant toi, cest moi maintenant lroi 230 en toi, en un claquement ddoigt Vie cruelle est la réalité Virtuelle, telle une banalité Jtire à balles réelles sur ta médiocrité Et cest bien mérité Jsuis un retour vers le futur Toi un aller vers le passé Allez, laissez passer Jsuis lfutur tout tracé Pull up boyboy, hey, 75, bang Tu connais les bails ma gueule On laisse jamais dfaille ma gueule Tu connais les bails ma gueule On laisse jamais dfaille ma gueule Hey, hey, hey, hey, hey, hey On était chargés, calibrés quand on sortait On essayait desquiver le , les portraits Jtai secoué, cest tout poto, y avait pas mort dhomme Tas crié sur tous les toits que jmétais trop emporté boy Jme suis emporté, où est-cque tas mis mes lovés ? Jme mélange pas aux rappeurs, ils sont mégalos Ils ont jamais détaillé un demi-kilo Ils sprennent pour des tueurs, ils font les paranos Mais jvais passer la noche avec oit baby Viens nous voir au taff, cest un autre level Jai trainé avec Beethoven et Maurice Ravel Jai pas besoin dinstrument mais jai besoin dWanted Jdédicace Joe, jdédicace Ma Ta gueule sinon à la chaussée tu vas faire un smack Il fallait tout laver, mon pote tas ouvert un snack Jvais men aller car mon passé ma rendu instable Rime de louest, on mappelle John Wayne Jdégaine vite, jsuis un nouveau du game Monte en lair les vestiges Style de lest, on mappelle Malkovitch Poto fuck la tess, le business va trop vite Arrête de raconter dla merde Arrête de raconter ma ville Les lovés, les pétasses mappellent, my man Toi tu mailles, tu tinquiètes quand le Iphone vibre Réseaux sociaux, réseaux sociaux, mon uc Dans la vraie vie, tu nous croisais, tu tprenais pas pour Hulk Jme rappelle de toi, jpensais plus à Flash Que les sprinters dans lquartier den face Geneviève de Fontenay, oh yeah, tu connais, fiston Jfais plus daudience que Arte Jregarde plus le foot à la télé Jaime pas la france dantan Jvais décharger dans la mêlée Recharger tous mes péchés Jlie les atomes, pas lhuile et leau Jtire dans lvide et sur tes soces Prie pour ta vie, regarde en haut Cest fin du reportage Bienvenue au Moyen ge Tas les ièps dans lmarécage Jsuis quasi-sûr qucest pas légal Fais-toi sucer par un âne Va tfaire lustrer par létat Trou dans lbide comme Gogeta Regard fixe et quand y a rrraaah Faut lfaire loin des caméras Al dente, la cuisson des pâtes est al dente Autour de ton oeil, y a le delta Mes plats sont vulgaires à la Dante J'suis tentée de danser Mais j'vois quta tempe s'met à tremper Et jsais quta tante kiffe mon EP J't'ai foutu des crampes et des oedèmes Jcuisine comme grand-mère sous codé Ils me radotent Chilla, t'es sous-côtée J'te fous un point de côté Mais j'ai la recette un gobelet de thé Une pincée de gingembre mariné, ouais hey Bah nan, jn'ai pas fait les Gobelins Sans téléphone, tes comme un orphelin Jremonte le moral, jsuis leur Arlequin Et non pas lBon Samaritain Cook, cook, j't'emmerde toi fort et ta coke Si t'as foiré, c'est ta faute T'avais quà porter ta cause, ouais Cool, cool, j'avoue qu'parfois j'bédave trop Ça m'rend bécasse, j'fais la sotte J'réduis, j'cuisine, j'fais dla lotte Al dente, ma vision dla trap est al dente Jai passé un cap, jsuis al dente La cuisson du bail est al dente Al dente, al dente Jai passé un cap, jsuis al dente Ma vision dla trap est al dente La cuisson du bail est al dente Al dente, al dente Jeez, wow, cui-cui, téma, , yeah Ne viens pas chercher mes cailleras Toute mon équipe sur cette Zahia Frelo, on ten fera voir de toutes les couleurs comme un Zaïrois Les bons comptes font les bons amis Big up à ma banquière Habiba Jsuis trop haut, jmourrai fly 6rano alias Aaliyah cui-cui-cui-cui-cui-cui-cui Tu fais lfou parce que tas trop tisé mais taurais dû rester à jeun cui-cui, téma, woo Les négros nont plus drègles comme un vieux vagin Quand tu vois mes renois manger cui-cui Ya pas beaucoup de riz par terre cui-cui Les keufs voudraient nous voir plonger cui-cui Car Manaudou a pris sa rtraite jeez Ça cuit cuit cuit sur le réchaud Stu veux pécho, mec donne des peso-os Elle veut faire genre belle gosse blair gloss Mais tes Air Force ont lair fau-ausses Rien à perdre comme si jjouais à lOM woo Elle ouvre sa bouche à lhôtel Jvais cracher, Hadoken ! woo, Hadoken On fait pas exprès téma, téma Dfaire les cailleras On fait que courir wow, wow Après la maille Jveux être lhomme de ta nuit cui-cui-cui-cui Comme un Batman Ma jolie on mélange le produit Comme des barmen Les gars sen foutent Mes blédards font les 400 coups Avec un accent douf Et quand on na pas fait un gros billet On taffe un peu mieux nos disquettes et nos triceps Nos costards, survêt Coste-la Mes taulards ont des posters 3-1 Costa Elle sait qucest moi 6rano Elle veut vnir me voir mais elle nose pas cui-cui-cui-cui-cui-cui-cui</t>
+          <t>Ok, ok, reste connecté, yo, Davodka, DJ Weedim, écoute Objets dconsommation, tous dans labus, cest vite dit La tête dans une tablette, ça les amuse dès huit piges Tes pas à la page, tes juste un gus primitif Perdu dans la matrice de Morpheus, Trinity Ce monde ma trop saoulé, laisse-moi qujdécuve Les mecs font dla gonflette pour être au même stade quHercule Ça veut le trône comme Ned Stark, ya pas de mecs stables Et ça sprend en photo pour qules regards sdécuplent On mène des vies virtuelles, entre les spams, les pubs Sur les réseaux c'est la bataille pour des likes, des vues Des stars, des culs, des stories Snap de gars montrant des sbars, des stups La vie virtuelle cest qudu vent, le but cest déviter ccourant dair Jai cette ouverture desprit mais la technologie nous renferme Ils veulent mla fermer, jen ai trop dit dans cson Se font berner, mènent des fausses vies dans lfond Ce que tu vis en 3D, moi jle rap en Indé, pour ça qumon son prend une autre dimension Bienvenue dans lfutur, si tu veux vivre avec ton temps, tes servi Bienvenue dans lfutur, sils te tendent la perche, cest juste pour prendre des selfies Je me tape un trip en kickant, big up à ceux qui madmirent en cliquant Mais dans 10 ans que sera notre monde ? Plus de noms, prénoms, il restera que des identifiants Objets dconsommation, tous dans labus, cest vite dit On est tous dépendant de ces virus qui dirigent Tes pas à la page, tes juste un gus primitif Perdu dans la matrice de Morpheus, Trinity Davodka, DJ Weedim, hey, reste branché Weedim, Gérard Baste, Kid Cubi est dans la boulang petit, hey, yeah Quand jétais petit, javais un walkman K7 auto reverse Si jsors ça aux kids, cest comme si jleur parlais dDick Rivers On remontait les K7 avec des Bics pour pas user les piles 1984, les vieux nous trouvaient déjà débiles 2018, cest la fête, jai mon smartphone, jai ma tablette Deux ordis, quatre consoles et une big télé d1 mètre 37 Ya 400 chaînes sur lcâble mais ya toujours un truc bizarre Ça fait 20 ans quy a jamais rien à regarder lmercredi soir hey ! Cest lmonde moderne Papa ouais ! Jle voyais bien comme ça, avec ses hauts et ses bas, ses côtés nuls et sympas Jme suis fait censurer, jai mis mon gros cul sur Insta ouais ! Pourquoi jdevrais rester tout seul, enfermé dans ma breuch À exploser des bonbecs en sniffant des lignes de Candy Crush Et jdeviens complétement barge quand jai pas la 4G à la campagne Jvais pt-être ressortir mon vieux Walkman Hologramme, hey, hey Jparle avec ton hologramme hey Steve Jobs ma pris en otage hey Jparle avec ton hologramme skuuurr Jette ton Iphone, counia manman'w, bomboclat hey On scache derrière des arobases hey On scache encore derrière un écran sh-shmer Jsuis sur lpoint ddevenir associable heeey Moi jaurais plus diphone quand jserais grand sh-shmer Jconnais mieux le clavier quma vie han Jai tellement peur que mon coeur éclate Maman dit que jsuis devenu esclave Sauf que mes chaînes sont dans le cloud skuuurr Donc je parle avec ton hologramme hey Steve Jobs ma pris en otage hey Jparle avec ton hologramme Jette ton Iphone, counia manman'w, bomboclat hey Jparle avec ton hologramme hey Steve Jobs ma pris en otage heeey Jparle avec ton hologramme Counia manman'w, bomboclat Quest ce que jferais sans mon iphone ? Pt-être que jparlerais en face-à-face avec les gens ? Jsais pas Salope veut changer mon menu hey Vu, venu, jai vaincu woo Fume beaucoup de oinj, on évacue wo De la monnaie pour les vacances skurt Mama spréoccupe pas des fins dmois sheesh Jpeux manger maintenant que jai faim moi jai faim Tu msouris devant mais parle sur moi skuur Ramène mon oseille et mes fins dtoi Des voitures quon a mis en cendres Des beaux parleurs quon a mis en sang On peut se dire quon est ensemble se dire quon est ensemble Mais est-ce que tes vraiment le sang ? sang, chaud Et jsuis en route pour la gloire, y a que les vrais que je remercie merci, merci Jfinis ce oinj au tabac et je fais ce loss rue Lemercier merci, merci La dégaine à Migos ouaaais Mais on fume pas le même pilon ouaaais Jsuis dans lhood en vrai Ta pétasse veut un coup et deux traits skuuurr Gros doigt pour les traîtres Bras va lever pour les longues peines À la même heure, au même restaurant, mais pas la même assiette skurr, skurr Hey, la Skylanderie ma gueule Yo, djiguidicheck, sbiguidisbang, djiguidiguizmo, YW, G.P. Gang jusquà la mort mothafucka Yo, yo, check-moi, hey Jai fait quelques péchés que je regrette vraiment Que tiser, ne rien faire, cétait vraiment plaisant Seul devant la vitrine, le rapport est payant Devant la vitrine, le rapport est payant Et jbois un quetru, on dirait cest dla pisse Si ta un petit plavon, poto fais-moi la passe Le terrain est mouillé, il faut pas quon glisse Faut pas quon subisse les supplices de limpasse Je suis un bout de scarla Tes mort si tu pousses par là Pas de place pour les froussards Soit t'achètes un pouchka ou soit tappelles un bout-mara Et jfais pas dego trip, cest vous qui trippez sur mon égo Toujours dans la street, même les babtous sont mes négros Premier xte-té, jdisais que vive la bière ! Viens même pas tmêler dma famille et dmes affaires On tcherchait la poucave, on avait quelques doutes Mais quand on était sûrs, on lui baisait sa mère Là jsuis dans mon coin avec ma bouteille et mon joint Jmalcoolise toute la journée, ils croient qujsuis là mais je suis loin Pas daffinités avec ces fils de putes Jsuis dans la musique ou dans ltrafic de stups Jsuis comme leau et lhuile, jaime pas mmélanger Vaut mieux técarter ou mon équipe te fume Et je kiffe le cul, quand les bitches me sucent Je lui tire le cul et elle rentre chez elle Tellement pété, tellement bourré Jai déjà fait lamour avec Claire Chazal On a vendu des quetru et ils ont fait des spasmes Ouais, ils ont fait des spasmes On a vendu des quetru et ils ont fait des spasmes Ouais, ils ont fait des spasmes On a vendu des quetru et ils ont fait des spasmes Hey, ils ont fait des spasmes Tout le monde roule un joint dbeuh, on va délirer dans lespace ! Woo, ouzouguizi, coucou, si si, sbang Oui, oui, ouiii, Still Fresh, 360 Elle me dit quelle maime, cest des conneries Ce quelle aime cest ma money Moi et ma clique, on la connaît Grosse t siliconée Dans tous les cas, je vais quitter cglobe Leurs blases sur un Death Note Prendre la familia et mes vrais soces Faucon Millenimum, je me vé-sau Et je prie pour nos mères et nos pères yeah Pardonnez-moi, jai péché mon père hey En effet, mes habits sont propres Parce que jtraine dans de sales affaires sheesh Ils peuvent crever ces porcs fuck Moi je pense à mon sort On aime vraiment un homme quand il est mort bang bang Prouvez moi que jai tort yeah Jsuis dans la zone yeah Jsuis dans la zone Jsuis dans la zone oui Jsuis dans la zone Jsuis dans la zone Jsuis dans la zone Jsuis dans la zone sheesh Still Fresh est dans la zone Jsuis dans la zone Coeur noir, jsuis dans la zone 360, jsuis dans la zone en 360 huh, yeah Jte mens pas, des fois jsuis à sec Tenté demprunter la A7 Quand le désespoir nous assiège Manger et risquer les assiettes Cette fille me dit quelle est triste huh Elle me dit quelle a besoin dune épaule Mais sur la mienne, y a un fusil brrrrrrrrah Et ça fait longtemps quil est sé-po Surhumain, oui la ce-for est sismique Surhumain, jles baise fort pendant six weeks Modèle et fort, je sais pas si jsuis suisse Mortel effort, ne pas sombrer sous 8.6 low On tolère pas la défaite, tous mes négros seront millionnaires Grosse mallette dans un jet, jvais jeter mes billets en lair yeah Des mères de famille prennent des risques dans cputain de trafic de dope yeah, huh Jvivais la crise du disque, tu vivais la crise dado huh Petit, jai dû gérer des responsabilités sur le dos Et jai eu du mal à digérer cette putain de pomme dAdam ouiiii Maintenant, jsuis dans la zone yeah Ouiiii Jsuis dans la zone yeah Ouiiii Jsuis dans la zone sheesh Ouiiii Jsuis dans la zone Ouiiii Still Fresh est dans la zone Ouiiii Jsuis dans la zone Ouiiii Coeur noir, jsuis dans la zone Ouiiii En 360, jsuis dans la zone Ouiiii Still Fresh Ouiiii Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Ctrl-Alt-Suppr Consomme-Consomme-Absurde La vie est devenue virtuelle Nos relations se numérisent Au paradis des pixels Les sentiments sémojisent Plaisirs artificiels ou réalité fictive ? Qui donc tire les ficelles De nos fils dactualité intensifs ? On se like, on se follow Puis on serase, top chrono Niveau de vie souvent sous zéro Jaurais de quoi freiner vos égos Les réseaux sont remplis dgens solos Qui cherchent lamour rayon couteau Connectés au monde entier Sans jamais rien à lui dire Bravo ! Un homme AZERTY en vaut deux Un homme AZERTY en vaut deux La débilité a toujours connu le haut débit Un homme AZERTY en vaut deux Un homme AZERTY en vaut deux On nse regarde plus le nombril On fait des selfies Si tout lmonde demandait la paix plutôt quun dernier poste de télévision Alors on aurait la paix, prolo Jsuis dans lcarré VIP Comme Hallyday, RIP Par les plus grands, jsuis validé Tas pas idée, mayday, tes pas aidé Jsuis djà en 2020, bande de vilains en Philipp Plein Jreviens vous lver, dla tête aux pieds en Louis V hein Jsuis un mec au logis, jlis les rubriques nécrologiques Jsuis plus écologie, que nouvelles technologies, logique Jsuis ce ptit mec de la campagne qui écoute Atlanta Celui qui rentre dans ltas et qui accompagne vos compagnes Logo dmon crew tatoué sur lavant-bras Tavais rarement ressenti ça avant moi Tes marrant toi, cest moi maintenant lroi 230 en toi, en un claquement ddoigt Vie cruelle est la réalité Virtuelle, telle une banalité Jtire à balles réelles sur ta médiocrité Et cest bien mérité Jsuis un retour vers le futur Toi un aller vers le passé Allez, laissez passer Jsuis lfutur tout tracé Pull up boyboy, hey, 75, bang Tu connais les bails ma gueule On laisse jamais dfaille ma gueule Tu connais les bails ma gueule On laisse jamais dfaille ma gueule Hey, hey, hey, hey, hey, hey On était chargés, calibrés quand on sortait On essayait desquiver le , les portraits Jtai secoué, cest tout poto, y avait pas mort dhomme Tas crié sur tous les toits que jmétais trop emporté boy Jme suis emporté, où est-cque tas mis mes lovés ? Jme mélange pas aux rappeurs, ils sont mégalos Ils ont jamais détaillé un demi-kilo Ils sprennent pour des tueurs, ils font les paranos Mais jvais passer la noche avec oit baby Viens nous voir au taff, cest un autre level Jai trainé avec Beethoven et Maurice Ravel Jai pas besoin dinstrument mais jai besoin dWanted Jdédicace Joe, jdédicace Ma Ta gueule sinon à la chaussée tu vas faire un smack Il fallait tout laver, mon pote tas ouvert un snack Jvais men aller car mon passé ma rendu instable Rime de louest, on mappelle John Wayne Jdégaine vite, jsuis un nouveau du game Monte en lair les vestiges Style de lest, on mappelle Malkovitch Poto fuck la tess, le business va trop vite Arrête de raconter dla merde Arrête de raconter ma ville Les lovés, les pétasses mappellent, my man Toi tu mailles, tu tinquiètes quand le Iphone vibre Réseaux sociaux, réseaux sociaux, mon uc Dans la vraie vie, tu nous croisais, tu tprenais pas pour Hulk Jme rappelle de toi, jpensais plus à Flash Que les sprinters dans lquartier den face Geneviève de Fontenay, oh yeah, tu connais, fiston Jfais plus daudience que Arte Jregarde plus le foot à la télé Jaime pas la france dantan Jvais décharger dans la mêlée Recharger tous mes péchés Jlie les atomes, pas lhuile et leau Jtire dans lvide et sur tes soces Prie pour ta vie, regarde en haut Cest fin du reportage Bienvenue au Moyen ge Tas les ièps dans lmarécage Jsuis quasi-sûr qucest pas légal Fais-toi sucer par un âne Va tfaire lustrer par létat Trou dans lbide comme Gogeta Regard fixe et quand y a rrraaah Faut lfaire loin des caméras Al dente, la cuisson des pâtes est al dente Autour de ton oeil, y a le delta Mes plats sont vulgaires à la Dante J'suis tentée de danser Mais j'vois quta tempe s'met à tremper Et jsais quta tante kiffe mon EP J't'ai foutu des crampes et des oedèmes Jcuisine comme grand-mère sous codé Ils me radotent Chilla, t'es sous-côtée J'te fous un point de côté Mais j'ai la recette un gobelet de thé Une pincée de gingembre mariné, ouais hey Bah nan, jn'ai pas fait les Gobelins Sans téléphone, tes comme un orphelin Jremonte le moral, jsuis leur Arlequin Et non pas lBon Samaritain Cook, cook, j't'emmerde toi fort et ta coke Si t'as foiré, c'est ta faute T'avais quà porter ta cause, ouais Cool, cool, j'avoue qu'parfois j'bédave trop Ça m'rend bécasse, j'fais la sotte J'réduis, j'cuisine, j'fais dla lotte Al dente, ma vision dla trap est al dente Jai passé un cap, jsuis al dente La cuisson du bail est al dente Al dente, al dente Jai passé un cap, jsuis al dente Ma vision dla trap est al dente La cuisson du bail est al dente Al dente, al dente Jeez, wow, cui-cui, téma, , yeah Ne viens pas chercher mes cailleras Toute mon équipe sur cette Zahia Frelo, on ten fera voir de toutes les couleurs comme un Zaïrois Les bons comptes font les bons amis Big up à ma banquière Habiba Jsuis trop haut, jmourrai fly 6rano alias Aaliyah cui-cui-cui-cui-cui-cui-cui Tu fais lfou parce que tas trop tisé mais taurais dû rester à jeun cui-cui, téma, woo Les négros nont plus drègles comme un vieux vagin Quand tu vois mes renois manger cui-cui Ya pas beaucoup de riz par terre cui-cui Les keufs voudraient nous voir plonger cui-cui Car Manaudou a pris sa rtraite jeez Ça cuit cuit cuit sur le réchaud Stu veux pécho, mec donne des peso-os Elle veut faire genre belle gosse blair gloss Mais tes Air Force ont lair fau-ausses Rien à perdre comme si jjouais à lOM woo Elle ouvre sa bouche à lhôtel Jvais cracher, Hadoken ! woo, Hadoken On fait pas exprès téma, téma Dfaire les cailleras On fait que courir wow, wow Après la maille Jveux être lhomme de ta nuit cui-cui-cui-cui Comme un Batman Ma jolie on mélange le produit Comme des barmen Les gars sen foutent Mes blédards font les 400 coups Avec un accent douf Et quand on na pas fait un gros billet On taffe un peu mieux nos disquettes et nos triceps Nos costards, survêt Coste-la Mes taulards ont des posters 3-1 Costa Elle sait qucest moi 6rano Elle veut vnir me voir mais elle nose pas cui-cui-cui-cui-cui-cui-cui</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2764,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Microphage bobine, MC snuff movie Marque au fer les homies dans des sarcophages en momie Lyrical bestiole, j'en vomis les Mice Tea Rhyme animal, naturel comme un Exerball Imbibé à la bud comme un ricain d'vant l'super bowl Traverse la Gaule, de Colmar à la Baule J'traîne mes groles dans Groland et pourtant j'trouve qu'ça glande Dans ma bande on est tous découvert à la banque C'est du bénévolat, faudrait mieux faire la manche À croire qu'notre hip-hop de punk, c'est l'virus Ebola Ici Nikus, du moment qu'ça fait la ola Y'a pas d'cactus, j'préfère être pauvre et ivre comme un russe Écoutes cet instru, pire qu'une after sous indus Ça t'bloque les sinus, comme 100 travellers dans un bus Il est 6 du, on dirait la fin du Comme dit Nostradamus, ça va s'conclure c'soir à la Jean-Claude Dusse On va claper l'mic avec des lyrics gratinés Des textes aux p'tits oignons qu'on gratte pour t'ratatiner T'mettre des tartes avec tout c'que j'viens d'tartiner Faut qu'j'braille microphage, file ce ??? que j'raille C'est la famine, la crise hypoglycémique L'estomac prit d'spasmes et d'secousses sismiques Fais-moi glisser c'mic Nikus, met l'son histoire qu'le beat nique On est des beatniks qui partent en tournée comme d'autres partiraient en pique-nique Avant d'monter sur scène on crie À table! On bouffe le micro et l'câble On va même manger, la table de mixe et l'ingé On s'en met plein la pense, on t'en met plein la gueule J'ai une grosse fringale C'est moi qui gueule et c'est toi qui régale J'te laisse la note et les micros miettes Cracher tes rimes rachitiques dans mon micro, niet J'veux pas qu't'y touche et pour être sur qu'tu restes sur le banc d'touche J'rappe avec la boule grillagée dans la bouche You might also like Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Crame la Marie-Jeanne et fous l'feu chez Régine C'est d'la bonne cuisine à bobonne, une microphage bobine Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Svinkels, éloignez les personnes âgées Microphage Bouffeur de vieilles boules grillagées Rappeurs en marcel, ni d'Marseille ni d'Sarcelles Harcèlent de larsen, poussent des cris stridents sur scène Le mic j'dégaine, déchaîne une foule malsaine Les tympans s'fêlent, aller, à l'air, les Heinekens Ça brise les oreilles, fabrique de cérumen Énergumène beat, comme piercing dans la chaire humaine Les mecs salivent, putain ça live Crachent la lave à chaque mot sur l'mic, trop dans la hype Ouais c'est du rap, ça frappe et y s'touchent tous la grappe Le but que tu fasses dans l'calbute, tache toutes tes sapes On fais du slip-hop, nique les charts et l'Ifop Nikus qui popote l'anus, hip-hop d'hippopotame qui t'entame On s'en met plein l'sophage J'suis pas seulement microphage Canettophage, vodkannibal et acidophage J'en place une pour l'graffiti et surtout les p'tits sauvages Niqueurs d'dépôts d'train et d'métro, les entrepotphages Tu veux savoir l'identité du crevard qui t'dévore Gerard Baste, bouffeur d'chattes, grand-écart-nivore Et si tu kiffes la r'cette, passe en cuisine m'féliciter On tue l'mic comme une anguille dans les mains d'Maïté Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Crame la Marie-Jeanne et fous l'feu chez Régine C'est d'la bonne cuisine à bobonne, une microphage bobine Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Svinkels, éloignez les personnes âgées Microphage Bouffeur de vieilles boules grillagées Microphage de naissance Évoluant dans l'son dans l'aisance Avant d'foutre le feu en boite, j'verse de l'essence Quand ça crame bien, j'reste au milieu des flammes Quand ça cuit bien, c'est un micro qui marche que j'réclame Et au fait, passes-moi un doggy bag pour les câbles Pour grignoter à lhôtel, avant d'pioncer, histoire d'kiffer En studio, ils supportent plus ma présence C'est pas par malveillance J'suis comme un pit' lâché sans surveillance En 2 s'condes, j'ai d'jà niqué les pieds d'micro, les câbles Faut qu'tu marrêtes avant qu'j'me mette à bouffer la bonnette Sortant mon zguegue et pissant en riant sur la moquette J'peux voir sur ton visage qu'j't'ai pris la tête Mais on va pas s'embrouiller, à propos d'un micro rouillé Laisse tomber, la boite de prod va rembourser Et on r'viendra l'an prochain pour tout niquer, ok ? Sauf si t'es en dépôt d'bilan, évidemment Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Crame la Marie-Jeanne et fous l'feu chez Régine C'est d'la bonne cuisine à bobonne, une microphage bobine Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Svinkels, éloignez les personnes âgées Microphage Bouffeur de vieilles boules grillagées</t>
+          <t>Microphage bobine, MC snuff movie Marque au fer les homies dans des sarcophages en momie Lyrical bestiole, j'en vomis les Mice Tea Rhyme animal, naturel comme un Exerball Imbibé à la bud comme un ricain d'vant l'super bowl Traverse la Gaule, de Colmar à la Baule J'traîne mes groles dans Groland et pourtant j'trouve qu'ça glande Dans ma bande on est tous découvert à la banque C'est du bénévolat, faudrait mieux faire la manche À croire qu'notre hip-hop de punk, c'est l'virus Ebola Ici Nikus, du moment qu'ça fait la ola Y'a pas d'cactus, j'préfère être pauvre et ivre comme un russe Écoutes cet instru, pire qu'une after sous indus Ça t'bloque les sinus, comme 100 travellers dans un bus Il est 6 du, on dirait la fin du Comme dit Nostradamus, ça va s'conclure c'soir à la Jean-Claude Dusse On va claper l'mic avec des lyrics gratinés Des textes aux p'tits oignons qu'on gratte pour t'ratatiner T'mettre des tartes avec tout c'que j'viens d'tartiner Faut qu'j'braille microphage, file ce ??? que j'raille C'est la famine, la crise hypoglycémique L'estomac prit d'spasmes et d'secousses sismiques Fais-moi glisser c'mic Nikus, met l'son histoire qu'le beat nique On est des beatniks qui partent en tournée comme d'autres partiraient en pique-nique Avant d'monter sur scène on crie À table! On bouffe le micro et l'câble On va même manger, la table de mixe et l'ingé On s'en met plein la pense, on t'en met plein la gueule J'ai une grosse fringale C'est moi qui gueule et c'est toi qui régale J'te laisse la note et les micros miettes Cracher tes rimes rachitiques dans mon micro, niet J'veux pas qu't'y touche et pour être sur qu'tu restes sur le banc d'touche J'rappe avec la boule grillagée dans la bouche Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Crame la Marie-Jeanne et fous l'feu chez Régine C'est d'la bonne cuisine à bobonne, une microphage bobine Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Svinkels, éloignez les personnes âgées Microphage Bouffeur de vieilles boules grillagées Rappeurs en marcel, ni d'Marseille ni d'Sarcelles Harcèlent de larsen, poussent des cris stridents sur scène Le mic j'dégaine, déchaîne une foule malsaine Les tympans s'fêlent, aller, à l'air, les Heinekens Ça brise les oreilles, fabrique de cérumen Énergumène beat, comme piercing dans la chaire humaine Les mecs salivent, putain ça live Crachent la lave à chaque mot sur l'mic, trop dans la hype Ouais c'est du rap, ça frappe et y s'touchent tous la grappe Le but que tu fasses dans l'calbute, tache toutes tes sapes On fais du slip-hop, nique les charts et l'Ifop Nikus qui popote l'anus, hip-hop d'hippopotame qui t'entame On s'en met plein l'sophage J'suis pas seulement microphage Canettophage, vodkannibal et acidophage J'en place une pour l'graffiti et surtout les p'tits sauvages Niqueurs d'dépôts d'train et d'métro, les entrepotphages Tu veux savoir l'identité du crevard qui t'dévore Gerard Baste, bouffeur d'chattes, grand-écart-nivore Et si tu kiffes la r'cette, passe en cuisine m'féliciter On tue l'mic comme une anguille dans les mains d'Maïté Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Crame la Marie-Jeanne et fous l'feu chez Régine C'est d'la bonne cuisine à bobonne, une microphage bobine Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Svinkels, éloignez les personnes âgées Microphage Bouffeur de vieilles boules grillagées Microphage de naissance Évoluant dans l'son dans l'aisance Avant d'foutre le feu en boite, j'verse de l'essence Quand ça crame bien, j'reste au milieu des flammes Quand ça cuit bien, c'est un micro qui marche que j'réclame Et au fait, passes-moi un doggy bag pour les câbles Pour grignoter à lhôtel, avant d'pioncer, histoire d'kiffer En studio, ils supportent plus ma présence C'est pas par malveillance J'suis comme un pit' lâché sans surveillance En 2 s'condes, j'ai d'jà niqué les pieds d'micro, les câbles Faut qu'tu marrêtes avant qu'j'me mette à bouffer la bonnette Sortant mon zguegue et pissant en riant sur la moquette J'peux voir sur ton visage qu'j't'ai pris la tête Mais on va pas s'embrouiller, à propos d'un micro rouillé Laisse tomber, la boite de prod va rembourser Et on r'viendra l'an prochain pour tout niquer, ok ? Sauf si t'es en dépôt d'bilan, évidemment Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Crame la Marie-Jeanne et fous l'feu chez Régine C'est d'la bonne cuisine à bobonne, une microphage bobine Microphage Et c'est pour ça qu'on tourne à plein régime Microphage Et c'est pas d'main qu'on va changer d'régime Svinkels, éloignez les personnes âgées Microphage Bouffeur de vieilles boules grillagées</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2781,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>C'est le Svink bébé, quoi ? Ferme ta gueule et viens voir J't'étale pas lCV, tu connais d'jà l'histoire Y'a ceux qui viennent gagner, ceux qui sont v'nus pour perdre J'regarde autour de moi et j'crie C'est dla merde! Tout est sur lpoint d'exploser, vous lsentez tous T'as la tête dans les chiottes et l'son t'étouffe Si tas quelque chose à dire, accroupis-toi et pousse Ou comme devant l'douanier, juste penches-toi et tousse On débarque et tu cries Ah merde! Faites attention! Tu sais bien que le reste c'est d'la merde, chante nos chansons Fous la tête dans l'son, c'est l'Svink' et l'Peuple de l'herbe Comme Gwen Stefani chante C'est ma merde! C'est ma merde! J'envoie l'purin pour faire danser les clubs et les boites de bouseux, déboîter les tours d'reins Pousse les watts, pousse ma merde, lève le ??? Vire ces fiottes ou mixe-les avec un balais à chiottes, poussif Ta zic' me constipe J'fais un caca nerveux comme Delarue vers l'cockpit J'ponds ma merde, vas-y danse et marche dedans Avec le Peuple de l'herbe on a l'son qui arrache des dents Même les trans se tordent collés au transistor, baisse les stores Tournée d'shooters, drug store Supadope, bouffe ma supadaube bien chaude Quenelles et Côtes-du-Rhône Incontinent, j'm'épanche, ça s'déhanche Faudrait qu'j'rappe sur plus d'un continent J'ai l'envie comme Johnny, passe le cromi Qu'j'fasse la grosse commission comme promis You might also like J'suis là ne me cherche pas dans l'trou du cul d'ta sur Autant s'taper un travelo vu qu'c'est un camionneur Elle n'a pas l'attitude qu'il faut, elle s'habille comme d'la merde Elle ne sait même pas qu'il faut qu'elle écoute Svinkels et le Peuple de l'herbe Qu'elle ne sache même pas parler, preuve d'son intelligence Non je n'suis pas misogyne, juste à ta sur que j'pense Rien à foutre qui tu crois qu'je suis, bitch je suis Rick James Derrière moi Nikus Pokus, à mon bras Gérard Baste qui chantent C'est ma merde On débarque et tu cries Ah merde! Faites attention! Tu sais bien que le reste c'est d'la merde, chante nos chansons Fous la tête dans l'son, c'est l'Svink' et l'Peuple de l'herbe Comme Gwen Stefani chante C'est ma merde! C'est ma merde! Tic-tac Tic-tac Tic-tac Tic-tac On court contre la montre Y'a des gens qui sont pour, nous on est toujours contre Me d'mande pas contre quoi, contre toutes ces merdes J'suis dans l'état d'esprit où un peu tout m'énerve J'ferais toutes les tentatives avant d'échouer Comme disait La Cliqua Mon crew n'a pas l'temps d'jouer J'suis v'nu pour profiter avant qu'on m'joue l'requiem Et j'me donne pas plus d'2 heures pour niquer les ??? Un appétit gargantuesque, un délire orgiaque Fous-le dans ta bouche comme la sucette de Kojak On sais toujours quoi faire pour réussir la fête Excusez-moi Guy Lux mais on a cassé mes lunettes! Garde ta merde, viens pas polluer mes méninges C'est le Svink' et l'Peuple, on envoie du linge On prend l'taureau par les couilles, tu sais la rage que j'ai Gérard Baste en direct de Lyon, à vous Cognacq-Jay On débarque et tu cries Ah merde! Faites attention! Tu sais bien que le reste c'est d'la merde, chante nos chansons Fous la tête dans l'son, c'est l'Svink' et l'Peuple de l'herbe Comme Gwen Stefani chante C'est ma merde! C'est ma merde! -Ah, monde de merde ! -Ouais, moi aussi j'ai bien envie d'le dire, monde de merde!</t>
+          <t>C'est le Svink bébé, quoi ? Ferme ta gueule et viens voir J't'étale pas lCV, tu connais d'jà l'histoire Y'a ceux qui viennent gagner, ceux qui sont v'nus pour perdre J'regarde autour de moi et j'crie C'est dla merde! Tout est sur lpoint d'exploser, vous lsentez tous T'as la tête dans les chiottes et l'son t'étouffe Si tas quelque chose à dire, accroupis-toi et pousse Ou comme devant l'douanier, juste penches-toi et tousse On débarque et tu cries Ah merde! Faites attention! Tu sais bien que le reste c'est d'la merde, chante nos chansons Fous la tête dans l'son, c'est l'Svink' et l'Peuple de l'herbe Comme Gwen Stefani chante C'est ma merde! C'est ma merde! J'envoie l'purin pour faire danser les clubs et les boites de bouseux, déboîter les tours d'reins Pousse les watts, pousse ma merde, lève le ??? Vire ces fiottes ou mixe-les avec un balais à chiottes, poussif Ta zic' me constipe J'fais un caca nerveux comme Delarue vers l'cockpit J'ponds ma merde, vas-y danse et marche dedans Avec le Peuple de l'herbe on a l'son qui arrache des dents Même les trans se tordent collés au transistor, baisse les stores Tournée d'shooters, drug store Supadope, bouffe ma supadaube bien chaude Quenelles et Côtes-du-Rhône Incontinent, j'm'épanche, ça s'déhanche Faudrait qu'j'rappe sur plus d'un continent J'ai l'envie comme Johnny, passe le cromi Qu'j'fasse la grosse commission comme promis J'suis là ne me cherche pas dans l'trou du cul d'ta sur Autant s'taper un travelo vu qu'c'est un camionneur Elle n'a pas l'attitude qu'il faut, elle s'habille comme d'la merde Elle ne sait même pas qu'il faut qu'elle écoute Svinkels et le Peuple de l'herbe Qu'elle ne sache même pas parler, preuve d'son intelligence Non je n'suis pas misogyne, juste à ta sur que j'pense Rien à foutre qui tu crois qu'je suis, bitch je suis Rick James Derrière moi Nikus Pokus, à mon bras Gérard Baste qui chantent C'est ma merde On débarque et tu cries Ah merde! Faites attention! Tu sais bien que le reste c'est d'la merde, chante nos chansons Fous la tête dans l'son, c'est l'Svink' et l'Peuple de l'herbe Comme Gwen Stefani chante C'est ma merde! C'est ma merde! Tic-tac Tic-tac Tic-tac Tic-tac On court contre la montre Y'a des gens qui sont pour, nous on est toujours contre Me d'mande pas contre quoi, contre toutes ces merdes J'suis dans l'état d'esprit où un peu tout m'énerve J'ferais toutes les tentatives avant d'échouer Comme disait La Cliqua Mon crew n'a pas l'temps d'jouer J'suis v'nu pour profiter avant qu'on m'joue l'requiem Et j'me donne pas plus d'2 heures pour niquer les ??? Un appétit gargantuesque, un délire orgiaque Fous-le dans ta bouche comme la sucette de Kojak On sais toujours quoi faire pour réussir la fête Excusez-moi Guy Lux mais on a cassé mes lunettes! Garde ta merde, viens pas polluer mes méninges C'est le Svink' et l'Peuple, on envoie du linge On prend l'taureau par les couilles, tu sais la rage que j'ai Gérard Baste en direct de Lyon, à vous Cognacq-Jay On débarque et tu cries Ah merde! Faites attention! Tu sais bien que le reste c'est d'la merde, chante nos chansons Fous la tête dans l'son, c'est l'Svink' et l'Peuple de l'herbe Comme Gwen Stefani chante C'est ma merde! C'est ma merde! -Ah, monde de merde ! -Ouais, moi aussi j'ai bien envie d'le dire, monde de merde!</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2798,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>J'te fais une fleur, jai du cur J'voulais regarder toutes tes vidéos mais, avec ta tête séducteur, j'ai eu peur Cest du bluff, j'ai eu l'il et une preuve J'les ai vues, tes interviews, j'voudrais pas être réducteur Mais, quand tu poses des questions, moi, j'en ai qu'une seule Pourquoi, en pleine vidéo, tu sors une barquette de frites et un tacos légumesbuf ? C'est plus lheure La vidéo commence, le mec, il pose une question jusquà là, c'est pas dur Sauf quon entend moins la réponse que lui qui déballe son papier alu' Mec, tu t'affiches, sauce blanche dans la bouche Tu demandes à La Gazelle si elle en a pas marre qu'on la sexualise Tu métonnes que tu galères avec les femmes, comme c'est malin Tu leur poses des questions, elles te posent des lapins Regarder la vidéo en entier, c'est une vraie prise de tête Et, si tu la supprimes, c'est con, je l'ai, comme tes frites de merde J'suis sur le cou comme une pomme d'Adam Fallait tourner une vidéo, pas la broche à viande Et j'vais pas t'faire la morale, j'te dirais bien que, pour faire ça, faut vraiment être un âne Mais j'ai trop peur que tu m'répondes que t'aimes pas l'fromage Pain, sauce et frites J'te refais l'portrait jusqu'à c'que mon pinceau s'effrite Rapide et sans douleur, j'ai du savoir-vivre Le temps que j't'exécute, ton tacos, il aura pas refroidi Mon grand, j'hallucine, poulet, frites, sauce Viande coupée fine comme tes chances de percer dans la musique Mais, si carrière reste une belle misère Tu peux toujours ouvrir un kebab, t'en maîtrises déjà les règles d'hygiène La vidéo n'est pas très flatteuse Les mains grasses, tu te lèches les doigts comme quand tu voudras tourner la page après c'battle Et sache que, l'sucre, ça attaque les gencives Tu t'lèches les doigts puis tu t'les mets dans les oreilles quand on t'parle de dentiste Donc il faut qu't'arrêtes le soda Tu rappes comme un gangster mais tu dégoupilles que des canettes de Coca Quand tu fais l'méchant, c'est l'bouquet Dans ton kebab, y'a pas beaucoup d'salade, c'est normal, t'as tout mis dans tes couplets Une hygiène de vie catastrophique, t'as à la fois une tête de vieux et une bouille de jeunot J'veux pas savoir ton âge mais si t'as grandi avec des kebabs à cinq ou neuf euros Et j'voudrais pas marcher sur des ufs Mais, ce soir, j'vais m'en sortir indemne, comme un kebab après une émeute Ce soir, pas d'interview, il sera pas long, le débat, en une seconde, je t'efface Hier, tu posais des questions, aujourd'hui, tu vas répondre de tes actes You might also like T'as commencé en face cam', puis tu fais l'ROAR 001 sans qu'personne n'comprenne pourquoi Ce jour-là, ta perf' et celle de Bat m'ont fait peur J'suis venu pour t'mettre la face contre les meubles, comme ces mecs qui s'tapent contre les keufs En résumé, t'arrives surcoté comme Louve au Rap Contenders Alors, oui, t'as fait l'premier battle de l'histoire du ROAR, mais c'était pas fou, donc, sur toi, qui a parié ? J'ai fait trois fois l'ROAR, ils ont pas rappelé mes adversaires dois-je t'rappeler c'qu'il va t'arriver ? Parce qu'ici, bah t'es rien, moi, j'aime pas tes rimes La différence entre toi et moi, c'est qu'moi, j'suis pas terrien, toi, t'es pas terrible Bref, ROAR 002 j'ai pas compris pourquoi autant d'jubilation Elle était humide, la leçon, mais pas utile à c'con Quand j'entends 2Taf vs. Dam's, j'entends humiliation Et j'ai remarqué que, quand on t'touche, ça t'énerve, mais faut avouer Que t'as fermé ta grande gueule quand 2Taf t'a secoué Non mais sérieux Mon village bodybag ton village Nique ta mère T'as osé comparer Montélimar, capitale du nougat, à Saint-Gaudens Vous voyez pas c'est quoi ? Bah c'est un village où y'a cinq gos d'dans Un village où on met cinq godes en toi Le nom d'tes potes, c'est Saint-Paul Antoine Vous avez tous un pote violeur à en faire une syncope en soi T'as parlé d'Montélimar alors qu'ton village s'est même fait bodybag par le syndrome Andra Donc retourne à ton bon rang où on t'filait aux schmits, où tu nies les grosses bitchs ROAR 003 Marseille, ville de tous les possibles T'y étais, c'est c'que certains diront Perso', j'avais oublié ta présence sur cette édition J'me suis dit Pourquoi j'ai pas regardé c'battle ?, mais tant pis J'ai regardé, j'ai compris Bien qu'j'ai oublié ta presta' alors qu'j'étais présent pour soutenir mes reufs Sur la vidéo, dans ton back, on voit Rotka qui courtise tes seufs Mais, demander la protection d'ses anciens ennemis, ça, c'est la technique des feujs ROAR 004 ah non, t'y étais pas ROAR 005 t'as réussi à donner du charisme à Wolff, t'as mis aucune pression aux Cats T'avais tellement pas d'présence que j'avais l'impression d'être au ROAR 004 Tu sers d'appui et t'as du cran a capella Mais les Cats ont poussé Wolff sur toi et t'as disparu du champ d'la caméra Ça fait longtemps qu't'es pas v'nu, ouais, gros, médite là-d'ssus T'as disparu du champ d'la caméra puis t'as vraiment disparu Et, deux ans après, maintenant qu'notre style est à l'âge d'or Toi, tu fais ton retour, mais à la JoB Faire son retour dans la ligue concurrente, mais quelle horreur Et, comme si c'était pas suffisant, il a failli refuser c'match pour aller faire le TakeOver Au final, tu l'as annulé pour venir t'la péter sur Paname Non, la vérité, c'est qu't'as accepté c'match parce que y'a Wojtek sur la carte J'dirais qu'tu manques de reconnaissance, comme toutes les ligues envers tous les MC de c'game T'as un parcours de zgeg, comme si ta carrière était tout droit sortie d'la bouche de Skeg Enfin, bon, c'est un tremplin, c'con un round, j'te bodybag, tu repartiras sans un son Le titre de c'battle, ça sera Tuto comment détruire une carrière en 120 secondes Time J'ai remarqué un p'tit truc, c'est qu'tu dis plus souvent nique ta mère que s'il vous plaît Tu te comportes avec insolence, j'y vois un manque de confiance en toi Et je sais de quoi j'parle moi aussi, j'suis insolent et j'ai pas confiance en toi T'es malpoli, t'as plus de vice que d'bon fond Puis y'a qu'à regarder tes dents pour savoir qu'c'est pas arrivé souvent que ta mère te prive de bonbons Toi, c'est sûr, au collège, tu t'faisais renvoyer en boucle Toujours en heure de colle, pour te punir, on t'envoyait en cours À chaque fois qu'j'vois une vidéo de Sloux, il fait des doigts d'honneur, c'est insensé Mais, au moins, quand tu fais des doigts d'honneur, t'es pas en train d'manger Grossier et malpoli, on te récompense pas Tu vas pas t'en sortir si tu surveilles ta ligne comme tu surveilles ton langage Si tu parles comme ça au boulot, tu vas t'faire admonester Tu sais pas c'que ça veut dire ? Aller au boulot, ça veut dire avoir un métier Déjà qu'il est malpoli, j'affronte un chômeur de plus La seule fois où t'as laissé ton siège à un handicapé, t'as perdu ton job de chauffeur de bus Imaginez l'éducation quand il aura fait des gosses Sloux, il les engueulera s'ils sont à table pendant qu'ils sont sur leur téléphone T'inspires pas la confiance, quand tu fais les boutiques avec ta femme, tu joues les bobos gauchistes Quand elle a froid, tu lui prêtes ton manteau, sauf qu'en sortant du magasin, c'est elle qui sonne au portique Si j'te termine ce soir, je te rends service Tu manques de savoir-vivre mais, là, c'est moi qui suis sans merci Je t'envoie dans l'décor T'es venu faire des manières, moi pour t'apprendre les bonnes T'es venu faire l'insolent mais, là, tu repars aussitôt Tout c'que t'as d'une vie d'ange, c'est qu't'es pas au niveau Ça me dépasse, pas de lézard Si j'te parle d'honneur, c'est pour t'faire un couplet qui parle de kebab Donc, la prochaine fois qu'tu diras nique ta mère, tu repenses à tout ça et tu t'assagis T'arrivais en retard en cours, moi, j't'envoie en avance au paradis Parler sur la mère des gens, j'trouve ça abject et lugubre Mais, après tout, moi aussi, j'peux l'faire et t'faire galérer d'une ruse Donc, le premier qui réagit à son couplet, sa mère, c'est une pute Nique ta mère, nique ta mère On n'est pas venus voir des chatons miauler, on est venus voir des lions rugir Plus rien m'surprend d'ce gosse étrange, zehma t'es un lion Tu plantes le croc et tranches tes adversaires mais, là, tu tentes de m'gober l'gland Donc tu pourras jamais être un lion, parce que tu manques de pilosité T'as l'physique d'une fille sage Vingt-trois ans et la calvitie du visage Ça va êtres très sanglant, j'te vois, t'es tremblant Car on s'demande étrangement si tu es transgenre À son accouchement, Wolff est sorti avec la touffe de sa mère sur la tête Toi, t'es sorti en laissant tous tes poils sur sa schneck Et, sur ta carte d'identité, t'as dix-huit ans Mais, si on regarde juste sur ton visage, y'a dix-huit angles Quand tu sors d'un kidnapping, on s'demande depuis quand Ton visage reflète ta vie parce que ça manque de piquant T'as l'visage pâle et pas d'pot Sur t'as peau, y'a pas d'poils Mais, tout ça, c'est à cause de ton manque de calcium et, là, j'sens grave que t'as l'seum Parce qu'elle a qu'sept ans mais tu fais quand même la taille de ta sur Mais t'es quand même un grand garçon Même si tu fais la taille d'une jambe d'N'joy et qu'tes t-shirts c'est ses caleçons Faut qu'tu grandisses, grand, il serait temps d's'y mettre Mais m'marche pas sur les pieds juste pour prendre dix centimètres Les gens pensent que t'es discret, p'tit, c'est trop Parce que, moi, j'vois bien qu't'es sur la pointe des pieds juste pour être dans l'cadre de la vidéo Et t'as beau nier, vieux, arrête Dans ton battle contre 2Taf, on voyait que ta tête Donc tu manques pas d'cohérence, ça, on l'accepte, mon sin-c' Mais tu manques de coffre, et j'pense que tes chances de pas perdre sont minces T'as le style, le niveau, la tête de tout l'monde ton surnom, c'est Dam's comme tous les Damien d'la Terre Ça reste cohérent pour quelqu'un d'lambda, ça s'tient, j'accepte En battle, tu t'démarques pas et, professionnellement, t'as du mal à décoller, c'est cohérent Tu plantes des battles pour les études, tu galères dans les études pour des battles, c'est cohérent J'comprends qu'tu puisses le reprocher aux autres car t'es cohérent Mais l'niveau de ta cohérence montre l'écart de niveau entre ton niveau et ta cohérence Perdre l'originalité pour la cohérence, y'a qu'toi qui veux faire ça Donc, maintenant qu'on a montré que t'es cohérent, que les autres ne sont pas cohérents Bah on préfère c'qui est pas cohérent et, ça, c'est pas cohérent Time Tu dis qu'dans mon visage, y'a dix-huit angles Ferme ta gueule, dans l'tien, y'a dix-huit dents On m'a rapporté que t'avais des valeurs douteuses, tu cours après le succès Mais moins vite que la rumeur comme quoi t'écris pas tes battles tout seul T'aurais des ghost writers, écrivains fantômes pour t'indiquer le sens de la marche Mais, moi, j'crois pas aux fantômes, t'as besoin de personne pour te mettre dans de sales draps Arrêtez de croire qu'on écrit les battles pour Sloux 2Taf et Saminem te donneraient des phases... Arrêtez d'croire qu'on écrit les battles pour Sloux 2Taf et Saminem ne te donnent pas leurs phases D'ailleurs, ils te donnent pas l'heure tout court Ils écriraient pour lui ? Moi, j'vois pas en quoi Tout c'qu'ils t'écrivent, c'est des cartes postales des vacances où ils partent sans toi Les gens qui pensent ça, ils t'ont surcoté T'as pas des ghost writers, tu t'fais juste ghoster Puis, même contre de l'argent, ils voudraient pas s'embourber Si 2Taf te demande des sous, c'est pour ce kebab que t'as toujours pas remboursé Donc, maintenant, on arrête ce long débat, moi, j'ai vu son cahier d'brouillon Et c'est la même écriture que l'chèque qu'il m'a fait pour pas qu'j'donne l'adresse de son kebab Tes potes t'écriraient dix phases sur quinze, c'est assez colossal... Mais, la seule fois où tu mets l'heure d'hiver, c'est quand tu t'lèves plus tôt pour aller au chômage T'es au chômage et t'écris tes battles tout seul ? T'as du mérite, c'est bien T'as tellement de temps libre, t'aurais même pu écrire les miens Mais, après tout, peut-être que t'as vraiment un écrivain fantôme Mais qu'tu réponds jamais quand il t'appelle, t'as trop peur qu'ça soit pour un entretien d'embauche Du coup, c'est vraiment toi qui écris tes couplets qui parlent de barils de poudre et d'calibres 12 Maintenant, faudrait qu't'écrives un CV et dentifrice sur ta liste de courses Moi, je suis pour que, les tricheurs, on les rase de la carte Mais, toi, y'a qu'à regarder tes dents pour savoir qu'c'est pas tes potes qui te mâchent le travail Dans ton dernier battle, t'as dit C'est rudimentaire, pas mal, mec Ça rime avec du fil dentaire mais, comme c'est toi qui l'as écrit, ça t'est pas passé par la tête Sloux, laisse tomber tous ces complots d'ivrognes, moi, j'y vois un compromis d'or T'as là une super excuse pour justifier d'avoir un jour écrit un nom aussi moche Tu demandes rien à personne, j'ai pas de doute dessus Tout c'que t'as demandé, c'est des droits d'auteur pour la dégaine de Requin dans Foot 2 rue En plus d'écrire tes battles, t'écris tes chansons, c'est vilain Tu perceras jamais dans la musique, mec, t'écris bien Mais tu restes un type téméraire, t'as des rimes, des vrais textes On peut tout t'reprocher mais pas d'écrire tes défaites Pap's, dis à mam's qu'elle me cam's les coum's C'est ça qui a inspiré ton blaze et tu commences à m'peiner Mais j'ai honte pour le ROAR à savoir qu'c'est comme ça qu't'es né On m'a dit d'arrêter d'parler d'K5, que ça serait p't-être pas mal Mais, si on voulait pas qu'il ait d'traumatismes, on n'aurait pas dû présenter Kev à Dam's Tu mets des s partout, grosse galère Le matin, il fait des grasses mam's, comme sa mère Et, quand Jamel Debbouze nous dit qu'il fait une crise dam's C'est parce qu'il fait vraiment une crise, Dam's On n'a pas l'même sens de la créativité, c'est foutu si t'essaies d'paraître hautain Faut pas faire d'amalgame pour moi, les cops, c'est pas mes copains En date, quand elle voit qu'ton blaze c'est un sketch de Mister V, impossible qu'la miss te revoit J'm'appelle Damien, c'est c'que tu t'apprêtais à dire pour causer aux femmes Mais, sous l'nom d'Damien, t'en avais marre d'enchaîner les échecs, donc t'as préféré jouer aux damses J'me fous d'ta gueule mais c'est drôle, faut qu'ce con l'sache Pour montrer qu't'as d'la suite dans les idées, t'as viré la suite de ton blaze Alors écoute-moi bien, Famacito T'aimerais aller au RC tenir le titre de champion à bout d'brams Manger des Mars dans les loges avec Badsam et boire trop d'cool-al', mais tu connais pas d'brams, pas d'chocolams T'as raccourci Damien pour Dam's en pensant faire grave d'oseille Alors que, moi, sur mon PC, Dam's, c'est l'raccourci d'la corbeille Tu rappes pour tchi T'es pas allé chercher loin ton blaze, normal qu'il soit raccourci Parce que, Dam's, ça fait grave pétasse Mais, si tu voulais être le schlag des clashs, t'aurais dû réduire encore plus ton blaze et t'appeler Das Et j'dirais pas qu't'es pédé où qu'tu génères des doss' Mais, l'matin, tu prends jamais d'tasse, toi, tu préfères les balls Tu mets des s où y'en a pas besoin, tu vois pas c'qui cloche ? T'as modifié la moitié d'ton identité pour plaire sans doute Mais, si tu veux être franc, sois Damiens, il faut qu'tu cherches l'embrouille T'es infam's, t'es ni un fan's ni une femm's T'es un phasme Ta façon d'parler, ça m'attriste, et j'avoue, t'es limite autiste, à la fois attractif et balourd En cas d'problème, il va s'plaindre à Lam's et Mam's c'est l'diminutif de Lamanif et Maadou C'est en soum-soum qu'on fait des soum's Sinon, on s'les fait voler par Sloux Parce que, les gars comme noum's, on prend votre argent Mais, si vous nous mettiez pas tous dans l'même sac, on prendrait pas c'qu'y'a d'dans T'es une merde, impossible que, pour l'un d'eux, t'existes avoir ton blaze, note bien que c'est triste Parce que t'as troqué la moitié de c'que tes parents t'ont donné pour un peu d'estime Conclus-en qu'c'est toi qui es à la base du drame J'te souhaite d'être à fond sur l'autoroute et qu'ta voiture crame Ton blaze te donne pas plus d'âme's Au final, quoi qu'je clame, l'important, c'est qu'toi tu clamses Time's</t>
+          <t>J'te fais une fleur, jai du cur J'voulais regarder toutes tes vidéos mais, avec ta tête séducteur, j'ai eu peur Cest du bluff, j'ai eu l'il et une preuve J'les ai vues, tes interviews, j'voudrais pas être réducteur Mais, quand tu poses des questions, moi, j'en ai qu'une seule Pourquoi, en pleine vidéo, tu sors une barquette de frites et un tacos légumesbuf ? C'est plus lheure La vidéo commence, le mec, il pose une question jusquà là, c'est pas dur Sauf quon entend moins la réponse que lui qui déballe son papier alu' Mec, tu t'affiches, sauce blanche dans la bouche Tu demandes à La Gazelle si elle en a pas marre qu'on la sexualise Tu métonnes que tu galères avec les femmes, comme c'est malin Tu leur poses des questions, elles te posent des lapins Regarder la vidéo en entier, c'est une vraie prise de tête Et, si tu la supprimes, c'est con, je l'ai, comme tes frites de merde J'suis sur le cou comme une pomme d'Adam Fallait tourner une vidéo, pas la broche à viande Et j'vais pas t'faire la morale, j'te dirais bien que, pour faire ça, faut vraiment être un âne Mais j'ai trop peur que tu m'répondes que t'aimes pas l'fromage Pain, sauce et frites J'te refais l'portrait jusqu'à c'que mon pinceau s'effrite Rapide et sans douleur, j'ai du savoir-vivre Le temps que j't'exécute, ton tacos, il aura pas refroidi Mon grand, j'hallucine, poulet, frites, sauce Viande coupée fine comme tes chances de percer dans la musique Mais, si carrière reste une belle misère Tu peux toujours ouvrir un kebab, t'en maîtrises déjà les règles d'hygiène La vidéo n'est pas très flatteuse Les mains grasses, tu te lèches les doigts comme quand tu voudras tourner la page après c'battle Et sache que, l'sucre, ça attaque les gencives Tu t'lèches les doigts puis tu t'les mets dans les oreilles quand on t'parle de dentiste Donc il faut qu't'arrêtes le soda Tu rappes comme un gangster mais tu dégoupilles que des canettes de Coca Quand tu fais l'méchant, c'est l'bouquet Dans ton kebab, y'a pas beaucoup d'salade, c'est normal, t'as tout mis dans tes couplets Une hygiène de vie catastrophique, t'as à la fois une tête de vieux et une bouille de jeunot J'veux pas savoir ton âge mais si t'as grandi avec des kebabs à cinq ou neuf euros Et j'voudrais pas marcher sur des ufs Mais, ce soir, j'vais m'en sortir indemne, comme un kebab après une émeute Ce soir, pas d'interview, il sera pas long, le débat, en une seconde, je t'efface Hier, tu posais des questions, aujourd'hui, tu vas répondre de tes actes T'as commencé en face cam', puis tu fais l'ROAR 001 sans qu'personne n'comprenne pourquoi Ce jour-là, ta perf' et celle de Bat m'ont fait peur J'suis venu pour t'mettre la face contre les meubles, comme ces mecs qui s'tapent contre les keufs En résumé, t'arrives surcoté comme Louve au Rap Contenders Alors, oui, t'as fait l'premier battle de l'histoire du ROAR, mais c'était pas fou, donc, sur toi, qui a parié ? J'ai fait trois fois l'ROAR, ils ont pas rappelé mes adversaires dois-je t'rappeler c'qu'il va t'arriver ? Parce qu'ici, bah t'es rien, moi, j'aime pas tes rimes La différence entre toi et moi, c'est qu'moi, j'suis pas terrien, toi, t'es pas terrible Bref, ROAR 002 j'ai pas compris pourquoi autant d'jubilation Elle était humide, la leçon, mais pas utile à c'con Quand j'entends 2Taf vs. Dam's, j'entends humiliation Et j'ai remarqué que, quand on t'touche, ça t'énerve, mais faut avouer Que t'as fermé ta grande gueule quand 2Taf t'a secoué Non mais sérieux Mon village bodybag ton village Nique ta mère T'as osé comparer Montélimar, capitale du nougat, à Saint-Gaudens Vous voyez pas c'est quoi ? Bah c'est un village où y'a cinq gos d'dans Un village où on met cinq godes en toi Le nom d'tes potes, c'est Saint-Paul Antoine Vous avez tous un pote violeur à en faire une syncope en soi T'as parlé d'Montélimar alors qu'ton village s'est même fait bodybag par le syndrome Andra Donc retourne à ton bon rang où on t'filait aux schmits, où tu nies les grosses bitchs ROAR 003 Marseille, ville de tous les possibles T'y étais, c'est c'que certains diront Perso', j'avais oublié ta présence sur cette édition J'me suis dit Pourquoi j'ai pas regardé c'battle ?, mais tant pis J'ai regardé, j'ai compris Bien qu'j'ai oublié ta presta' alors qu'j'étais présent pour soutenir mes reufs Sur la vidéo, dans ton back, on voit Rotka qui courtise tes seufs Mais, demander la protection d'ses anciens ennemis, ça, c'est la technique des feujs ROAR 004 ah non, t'y étais pas ROAR 005 t'as réussi à donner du charisme à Wolff, t'as mis aucune pression aux Cats T'avais tellement pas d'présence que j'avais l'impression d'être au ROAR 004 Tu sers d'appui et t'as du cran a capella Mais les Cats ont poussé Wolff sur toi et t'as disparu du champ d'la caméra Ça fait longtemps qu't'es pas v'nu, ouais, gros, médite là-d'ssus T'as disparu du champ d'la caméra puis t'as vraiment disparu Et, deux ans après, maintenant qu'notre style est à l'âge d'or Toi, tu fais ton retour, mais à la JoB Faire son retour dans la ligue concurrente, mais quelle horreur Et, comme si c'était pas suffisant, il a failli refuser c'match pour aller faire le TakeOver Au final, tu l'as annulé pour venir t'la péter sur Paname Non, la vérité, c'est qu't'as accepté c'match parce que y'a Wojtek sur la carte J'dirais qu'tu manques de reconnaissance, comme toutes les ligues envers tous les MC de c'game T'as un parcours de zgeg, comme si ta carrière était tout droit sortie d'la bouche de Skeg Enfin, bon, c'est un tremplin, c'con un round, j'te bodybag, tu repartiras sans un son Le titre de c'battle, ça sera Tuto comment détruire une carrière en 120 secondes Time J'ai remarqué un p'tit truc, c'est qu'tu dis plus souvent nique ta mère que s'il vous plaît Tu te comportes avec insolence, j'y vois un manque de confiance en toi Et je sais de quoi j'parle moi aussi, j'suis insolent et j'ai pas confiance en toi T'es malpoli, t'as plus de vice que d'bon fond Puis y'a qu'à regarder tes dents pour savoir qu'c'est pas arrivé souvent que ta mère te prive de bonbons Toi, c'est sûr, au collège, tu t'faisais renvoyer en boucle Toujours en heure de colle, pour te punir, on t'envoyait en cours À chaque fois qu'j'vois une vidéo de Sloux, il fait des doigts d'honneur, c'est insensé Mais, au moins, quand tu fais des doigts d'honneur, t'es pas en train d'manger Grossier et malpoli, on te récompense pas Tu vas pas t'en sortir si tu surveilles ta ligne comme tu surveilles ton langage Si tu parles comme ça au boulot, tu vas t'faire admonester Tu sais pas c'que ça veut dire ? Aller au boulot, ça veut dire avoir un métier Déjà qu'il est malpoli, j'affronte un chômeur de plus La seule fois où t'as laissé ton siège à un handicapé, t'as perdu ton job de chauffeur de bus Imaginez l'éducation quand il aura fait des gosses Sloux, il les engueulera s'ils sont à table pendant qu'ils sont sur leur téléphone T'inspires pas la confiance, quand tu fais les boutiques avec ta femme, tu joues les bobos gauchistes Quand elle a froid, tu lui prêtes ton manteau, sauf qu'en sortant du magasin, c'est elle qui sonne au portique Si j'te termine ce soir, je te rends service Tu manques de savoir-vivre mais, là, c'est moi qui suis sans merci Je t'envoie dans l'décor T'es venu faire des manières, moi pour t'apprendre les bonnes T'es venu faire l'insolent mais, là, tu repars aussitôt Tout c'que t'as d'une vie d'ange, c'est qu't'es pas au niveau Ça me dépasse, pas de lézard Si j'te parle d'honneur, c'est pour t'faire un couplet qui parle de kebab Donc, la prochaine fois qu'tu diras nique ta mère, tu repenses à tout ça et tu t'assagis T'arrivais en retard en cours, moi, j't'envoie en avance au paradis Parler sur la mère des gens, j'trouve ça abject et lugubre Mais, après tout, moi aussi, j'peux l'faire et t'faire galérer d'une ruse Donc, le premier qui réagit à son couplet, sa mère, c'est une pute Nique ta mère, nique ta mère On n'est pas venus voir des chatons miauler, on est venus voir des lions rugir Plus rien m'surprend d'ce gosse étrange, zehma t'es un lion Tu plantes le croc et tranches tes adversaires mais, là, tu tentes de m'gober l'gland Donc tu pourras jamais être un lion, parce que tu manques de pilosité T'as l'physique d'une fille sage Vingt-trois ans et la calvitie du visage Ça va êtres très sanglant, j'te vois, t'es tremblant Car on s'demande étrangement si tu es transgenre À son accouchement, Wolff est sorti avec la touffe de sa mère sur la tête Toi, t'es sorti en laissant tous tes poils sur sa schneck Et, sur ta carte d'identité, t'as dix-huit ans Mais, si on regarde juste sur ton visage, y'a dix-huit angles Quand tu sors d'un kidnapping, on s'demande depuis quand Ton visage reflète ta vie parce que ça manque de piquant T'as l'visage pâle et pas d'pot Sur t'as peau, y'a pas d'poils Mais, tout ça, c'est à cause de ton manque de calcium et, là, j'sens grave que t'as l'seum Parce qu'elle a qu'sept ans mais tu fais quand même la taille de ta sur Mais t'es quand même un grand garçon Même si tu fais la taille d'une jambe d'N'joy et qu'tes t-shirts c'est ses caleçons Faut qu'tu grandisses, grand, il serait temps d's'y mettre Mais m'marche pas sur les pieds juste pour prendre dix centimètres Les gens pensent que t'es discret, p'tit, c'est trop Parce que, moi, j'vois bien qu't'es sur la pointe des pieds juste pour être dans l'cadre de la vidéo Et t'as beau nier, vieux, arrête Dans ton battle contre 2Taf, on voyait que ta tête Donc tu manques pas d'cohérence, ça, on l'accepte, mon sin-c' Mais tu manques de coffre, et j'pense que tes chances de pas perdre sont minces T'as le style, le niveau, la tête de tout l'monde ton surnom, c'est Dam's comme tous les Damien d'la Terre Ça reste cohérent pour quelqu'un d'lambda, ça s'tient, j'accepte En battle, tu t'démarques pas et, professionnellement, t'as du mal à décoller, c'est cohérent Tu plantes des battles pour les études, tu galères dans les études pour des battles, c'est cohérent J'comprends qu'tu puisses le reprocher aux autres car t'es cohérent Mais l'niveau de ta cohérence montre l'écart de niveau entre ton niveau et ta cohérence Perdre l'originalité pour la cohérence, y'a qu'toi qui veux faire ça Donc, maintenant qu'on a montré que t'es cohérent, que les autres ne sont pas cohérents Bah on préfère c'qui est pas cohérent et, ça, c'est pas cohérent Time Tu dis qu'dans mon visage, y'a dix-huit angles Ferme ta gueule, dans l'tien, y'a dix-huit dents On m'a rapporté que t'avais des valeurs douteuses, tu cours après le succès Mais moins vite que la rumeur comme quoi t'écris pas tes battles tout seul T'aurais des ghost writers, écrivains fantômes pour t'indiquer le sens de la marche Mais, moi, j'crois pas aux fantômes, t'as besoin de personne pour te mettre dans de sales draps Arrêtez de croire qu'on écrit les battles pour Sloux 2Taf et Saminem te donneraient des phases... Arrêtez d'croire qu'on écrit les battles pour Sloux 2Taf et Saminem ne te donnent pas leurs phases D'ailleurs, ils te donnent pas l'heure tout court Ils écriraient pour lui ? Moi, j'vois pas en quoi Tout c'qu'ils t'écrivent, c'est des cartes postales des vacances où ils partent sans toi Les gens qui pensent ça, ils t'ont surcoté T'as pas des ghost writers, tu t'fais juste ghoster Puis, même contre de l'argent, ils voudraient pas s'embourber Si 2Taf te demande des sous, c'est pour ce kebab que t'as toujours pas remboursé Donc, maintenant, on arrête ce long débat, moi, j'ai vu son cahier d'brouillon Et c'est la même écriture que l'chèque qu'il m'a fait pour pas qu'j'donne l'adresse de son kebab Tes potes t'écriraient dix phases sur quinze, c'est assez colossal... Mais, la seule fois où tu mets l'heure d'hiver, c'est quand tu t'lèves plus tôt pour aller au chômage T'es au chômage et t'écris tes battles tout seul ? T'as du mérite, c'est bien T'as tellement de temps libre, t'aurais même pu écrire les miens Mais, après tout, peut-être que t'as vraiment un écrivain fantôme Mais qu'tu réponds jamais quand il t'appelle, t'as trop peur qu'ça soit pour un entretien d'embauche Du coup, c'est vraiment toi qui écris tes couplets qui parlent de barils de poudre et d'calibres 12 Maintenant, faudrait qu't'écrives un CV et dentifrice sur ta liste de courses Moi, je suis pour que, les tricheurs, on les rase de la carte Mais, toi, y'a qu'à regarder tes dents pour savoir qu'c'est pas tes potes qui te mâchent le travail Dans ton dernier battle, t'as dit C'est rudimentaire, pas mal, mec Ça rime avec du fil dentaire mais, comme c'est toi qui l'as écrit, ça t'est pas passé par la tête Sloux, laisse tomber tous ces complots d'ivrognes, moi, j'y vois un compromis d'or T'as là une super excuse pour justifier d'avoir un jour écrit un nom aussi moche Tu demandes rien à personne, j'ai pas de doute dessus Tout c'que t'as demandé, c'est des droits d'auteur pour la dégaine de Requin dans Foot 2 rue En plus d'écrire tes battles, t'écris tes chansons, c'est vilain Tu perceras jamais dans la musique, mec, t'écris bien Mais tu restes un type téméraire, t'as des rimes, des vrais textes On peut tout t'reprocher mais pas d'écrire tes défaites Pap's, dis à mam's qu'elle me cam's les coum's C'est ça qui a inspiré ton blaze et tu commences à m'peiner Mais j'ai honte pour le ROAR à savoir qu'c'est comme ça qu't'es né On m'a dit d'arrêter d'parler d'K5, que ça serait p't-être pas mal Mais, si on voulait pas qu'il ait d'traumatismes, on n'aurait pas dû présenter Kev à Dam's Tu mets des s partout, grosse galère Le matin, il fait des grasses mam's, comme sa mère Et, quand Jamel Debbouze nous dit qu'il fait une crise dam's C'est parce qu'il fait vraiment une crise, Dam's On n'a pas l'même sens de la créativité, c'est foutu si t'essaies d'paraître hautain Faut pas faire d'amalgame pour moi, les cops, c'est pas mes copains En date, quand elle voit qu'ton blaze c'est un sketch de Mister V, impossible qu'la miss te revoit J'm'appelle Damien, c'est c'que tu t'apprêtais à dire pour causer aux femmes Mais, sous l'nom d'Damien, t'en avais marre d'enchaîner les échecs, donc t'as préféré jouer aux damses J'me fous d'ta gueule mais c'est drôle, faut qu'ce con l'sache Pour montrer qu't'as d'la suite dans les idées, t'as viré la suite de ton blaze Alors écoute-moi bien, Famacito T'aimerais aller au RC tenir le titre de champion à bout d'brams Manger des Mars dans les loges avec Badsam et boire trop d'cool-al', mais tu connais pas d'brams, pas d'chocolams T'as raccourci Damien pour Dam's en pensant faire grave d'oseille Alors que, moi, sur mon PC, Dam's, c'est l'raccourci d'la corbeille Tu rappes pour tchi T'es pas allé chercher loin ton blaze, normal qu'il soit raccourci Parce que, Dam's, ça fait grave pétasse Mais, si tu voulais être le schlag des clashs, t'aurais dû réduire encore plus ton blaze et t'appeler Das Et j'dirais pas qu't'es pédé où qu'tu génères des doss' Mais, l'matin, tu prends jamais d'tasse, toi, tu préfères les balls Tu mets des s où y'en a pas besoin, tu vois pas c'qui cloche ? T'as modifié la moitié d'ton identité pour plaire sans doute Mais, si tu veux être franc, sois Damiens, il faut qu'tu cherches l'embrouille T'es infam's, t'es ni un fan's ni une femm's T'es un phasme Ta façon d'parler, ça m'attriste, et j'avoue, t'es limite autiste, à la fois attractif et balourd En cas d'problème, il va s'plaindre à Lam's et Mam's c'est l'diminutif de Lamanif et Maadou C'est en soum-soum qu'on fait des soum's Sinon, on s'les fait voler par Sloux Parce que, les gars comme noum's, on prend votre argent Mais, si vous nous mettiez pas tous dans l'même sac, on prendrait pas c'qu'y'a d'dans T'es une merde, impossible que, pour l'un d'eux, t'existes avoir ton blaze, note bien que c'est triste Parce que t'as troqué la moitié de c'que tes parents t'ont donné pour un peu d'estime Conclus-en qu'c'est toi qui es à la base du drame J'te souhaite d'être à fond sur l'autoroute et qu'ta voiture crame Ton blaze te donne pas plus d'âme's Au final, quoi qu'je clame, l'important, c'est qu'toi tu clamses Time's</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2815,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Zengui ! Celle là elle est tout péter ! On débarque dans ta fête on est pas invité Balance du son qui pète on est sur-motivé Pas besoin d'se droguer on est d'jà fracassé Si c'est une chouette soirée on va l'atomiser La salle à manger on va la dévaster Ramène tout l'mobilier on va l'faire brûler Ta belle baie vitrée on va la briser Papier peint imprimé on va l'décoller Ton super canapé on va l'éventrer Les fauteuils rembourrés on va les lacérer Ta moquette colorée on va la tacher Les robes de mémé on va les souiller Les jolies p'tits ballons on va les crever Toutes les décorations on va les arracher Les rideaux en velours on va les découper Les fleurs dans la cours on va les piétiner Dans ta cuisine on va tout renverser Les bouteilles, tout vider, les frigos, tout bouffer, tout ruiner Toute ta jolie cuisine on va la démonter Ta jolie p'tite cousine on va la déboiter Dans l'eau trop chlorée d'ta piscine on va tout déverser Les matelas et les bouées on va les dégonfler Si t'appelles les pompiers on va les caillasser Si ta famille revient elle sera traumatisée Même les policiers seront paralysés Tout l'monde les mains en l'air on va vous amputer Les p'tits canaris on va les étrangler Et même les poissons rouges on va les noyer Les draps d'tes parents on va les salir Les tapis persan on va les pourrir Les jouets d'tes enfants on va les faire frire Les photos d'ta maman, j'les prends, j'les déchire Ton moral d'acier j'vais te l'démolir Tes belles convictions j'vais les anéantir Y'a encore un peu d'taf on est pas prêt d'partir Bref toute ta baraque on va la détruire Parce qu'on va You might also like Tout péter, tout péter, tout péter, tout péter Tout casser, tout casser, tout casser, tout casser Tout péter, tout péter, tout péter, tout péter Tout casser, tout casser, tout casser, tout casser Zengui ! Y'a beaucoup trop d'cymbales ! Gérard Baste ! DMSV2 Dans mon slip ! Plus copieux ! Plus généreux ! C'est l'volume 2 ! Hey gros ! Vas-y viens on bouge Lève ton cul d'ton canapé, mets tes shoes M'fait pas l'plan Robert Johnson, m'file le blues Ce soir y'aura les pires biatchs et les couz Elle est belle et sans elle la fête est pourrie Donc j'la cherche, j'la trouve, j'la fourre Halle Berry Halle Berry! Ça va aller, motivé, ça tombe bien j'ai une tonne d'hormones à libérés J'suis c'genre de type qui n'marque pas le stop Tu sais qu'c'est nous quand ça fait pop, pop dans l'spot On ne frappe pas on arrache la porte On est venu pour tout péter encore Franchement niveau foncedés, ça va c'est correct J'ai d'quoi tuer deux ou trois personnes dans ma pochette L'instru il déboîte si, si ! Presque autant qu'ce flow ??? New-York City! Sur scène je deviens un autre être J'sais pas c'est comme un déclic qui s'fait dans ma tête Andy Murray à l'entame du ??? Ferme ta gueule ici y'a qu'moi qui s'la pète En fait on ne me stoppe plus Ça fait 20 ans qu'ça dure, au bout d'6 mois t'as disparu Si tu tapes un mauvais délire parce que tu tire sur ma ??? Fais pas chier, va aux chiottes te rincer la gueule Yeah ! Xan ! Palace Prod ! Passe-moi un siège pour m'asseoir poto Laisse-moi m'poser tranquille Gérard Baste !</t>
+          <t>Zengui ! Celle là elle est tout péter ! On débarque dans ta fête on est pas invité Balance du son qui pète on est sur-motivé Pas besoin d'se droguer on est d'jà fracassé Si c'est une chouette soirée on va l'atomiser La salle à manger on va la dévaster Ramène tout l'mobilier on va l'faire brûler Ta belle baie vitrée on va la briser Papier peint imprimé on va l'décoller Ton super canapé on va l'éventrer Les fauteuils rembourrés on va les lacérer Ta moquette colorée on va la tacher Les robes de mémé on va les souiller Les jolies p'tits ballons on va les crever Toutes les décorations on va les arracher Les rideaux en velours on va les découper Les fleurs dans la cours on va les piétiner Dans ta cuisine on va tout renverser Les bouteilles, tout vider, les frigos, tout bouffer, tout ruiner Toute ta jolie cuisine on va la démonter Ta jolie p'tite cousine on va la déboiter Dans l'eau trop chlorée d'ta piscine on va tout déverser Les matelas et les bouées on va les dégonfler Si t'appelles les pompiers on va les caillasser Si ta famille revient elle sera traumatisée Même les policiers seront paralysés Tout l'monde les mains en l'air on va vous amputer Les p'tits canaris on va les étrangler Et même les poissons rouges on va les noyer Les draps d'tes parents on va les salir Les tapis persan on va les pourrir Les jouets d'tes enfants on va les faire frire Les photos d'ta maman, j'les prends, j'les déchire Ton moral d'acier j'vais te l'démolir Tes belles convictions j'vais les anéantir Y'a encore un peu d'taf on est pas prêt d'partir Bref toute ta baraque on va la détruire Parce qu'on va Tout péter, tout péter, tout péter, tout péter Tout casser, tout casser, tout casser, tout casser Tout péter, tout péter, tout péter, tout péter Tout casser, tout casser, tout casser, tout casser Zengui ! Y'a beaucoup trop d'cymbales ! Gérard Baste ! DMSV2 Dans mon slip ! Plus copieux ! Plus généreux ! C'est l'volume 2 ! Hey gros ! Vas-y viens on bouge Lève ton cul d'ton canapé, mets tes shoes M'fait pas l'plan Robert Johnson, m'file le blues Ce soir y'aura les pires biatchs et les couz Elle est belle et sans elle la fête est pourrie Donc j'la cherche, j'la trouve, j'la fourre Halle Berry Halle Berry! Ça va aller, motivé, ça tombe bien j'ai une tonne d'hormones à libérés J'suis c'genre de type qui n'marque pas le stop Tu sais qu'c'est nous quand ça fait pop, pop dans l'spot On ne frappe pas on arrache la porte On est venu pour tout péter encore Franchement niveau foncedés, ça va c'est correct J'ai d'quoi tuer deux ou trois personnes dans ma pochette L'instru il déboîte si, si ! Presque autant qu'ce flow ??? New-York City! Sur scène je deviens un autre être J'sais pas c'est comme un déclic qui s'fait dans ma tête Andy Murray à l'entame du ??? Ferme ta gueule ici y'a qu'moi qui s'la pète En fait on ne me stoppe plus Ça fait 20 ans qu'ça dure, au bout d'6 mois t'as disparu Si tu tapes un mauvais délire parce que tu tire sur ma ??? Fais pas chier, va aux chiottes te rincer la gueule Yeah ! Xan ! Palace Prod ! Passe-moi un siège pour m'asseoir poto Laisse-moi m'poser tranquille Gérard Baste !</t>
         </is>
       </c>
     </row>
@@ -2858,11 +2830,7 @@
           <t>No Fun With You [Dr Vince Remix]</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2877,7 +2845,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Gérard Baste, I love you so much ! I think you're amazing I love the way you walk, the way you talk The way you move The way you move your fat ass Gérard Baste ! Pour une nuit d'amour avec Baste Qu'est-ce-que tu serais prête à faire ? Le tour de la Terre ? V'nir avec ta mère ? Aller jusqu'au bout d'la nuit, jusqu'au bout d'ta vie, jusqu'au bout d'l'univers ? Tu m'écrirais des mails et des textos J'y répondrais jamais parce que j'suis juste un gros connard Tu t'f'rais une épilation d'la foufe Pas en ticket d'métro, plutôt en forme de bouteille de pinard Et tu t'mettrais à boire J'suis un mauvais coup mais t'es pas censé l'savoir T'es complètement folle si tu crois qu'après tu pourrais t'asseoir J'ai des toys que j'sors de mon placard de manière aléatoire Tu viendrais à tous mes concerts au premier rang Quand Fancie t'arroserais d'blanc le cubi! J't'imaginerais m'dévorer l'gland Tiens la 112 c'est la chambre de Xan, j'lui ai donné l'plan J'aime qu'on me mordille, t'aimes qu'on te torpille On pourrait faire des trucs sordides avant d's'endormir Fais la queue ou resquille, mate comme elle frétille J'mets tout dedans ou même à côté comme Shaquille O'Neal Tu ferais du covoiturage Blablacar ! Où es-tu ? Où es-tu ? Babacar ! Tu ferais des pieds et des mains et ça, ça tombe bien Car j'aime bien qu't'utilises tes pieds et tes mains Tu traverserais tout l'territoire et toutes ces histoires Ça devient sans aucun doute méritoire Tu changerais mon nom dans ton répertoire Pour pas qu'ton mec grille à qui t'envoies ces sextos bizarres Tu m'chercherais sur Tinder, est-ce-que tu t'rends compte ? Moi j'fais partie d'l'élite j'suis sur DélitresRencontre Alors steuplai reste naturelle, mature et découverte Pour moi la plus bourrée s'ra toujours la plus belle You might also like Pour une nuit d'amour avec Baste Qu'est-ce-que tu serais prête à faire ? Le tour de la Terre ? V'nir avec ta mère ? Aller jusqu'au bout d'la nuit, jusqu'au bout d'ta vie, jusqu'au bout d'l'univers ? Hello Gérard Can you please answer the messages ? I've been dying for you, I've got a bottle of wine waiting for you Please ! Please !</t>
+          <t>Gérard Baste, I love you so much ! I think you're amazing I love the way you walk, the way you talk The way you move The way you move your fat ass Gérard Baste ! Pour une nuit d'amour avec Baste Qu'est-ce-que tu serais prête à faire ? Le tour de la Terre ? V'nir avec ta mère ? Aller jusqu'au bout d'la nuit, jusqu'au bout d'ta vie, jusqu'au bout d'l'univers ? Tu m'écrirais des mails et des textos J'y répondrais jamais parce que j'suis juste un gros connard Tu t'f'rais une épilation d'la foufe Pas en ticket d'métro, plutôt en forme de bouteille de pinard Et tu t'mettrais à boire J'suis un mauvais coup mais t'es pas censé l'savoir T'es complètement folle si tu crois qu'après tu pourrais t'asseoir J'ai des toys que j'sors de mon placard de manière aléatoire Tu viendrais à tous mes concerts au premier rang Quand Fancie t'arroserais d'blanc le cubi! J't'imaginerais m'dévorer l'gland Tiens la 112 c'est la chambre de Xan, j'lui ai donné l'plan J'aime qu'on me mordille, t'aimes qu'on te torpille On pourrait faire des trucs sordides avant d's'endormir Fais la queue ou resquille, mate comme elle frétille J'mets tout dedans ou même à côté comme Shaquille O'Neal Tu ferais du covoiturage Blablacar ! Où es-tu ? Où es-tu ? Babacar ! Tu ferais des pieds et des mains et ça, ça tombe bien Car j'aime bien qu't'utilises tes pieds et tes mains Tu traverserais tout l'territoire et toutes ces histoires Ça devient sans aucun doute méritoire Tu changerais mon nom dans ton répertoire Pour pas qu'ton mec grille à qui t'envoies ces sextos bizarres Tu m'chercherais sur Tinder, est-ce-que tu t'rends compte ? Moi j'fais partie d'l'élite j'suis sur DélitresRencontre Alors steuplai reste naturelle, mature et découverte Pour moi la plus bourrée s'ra toujours la plus belle Pour une nuit d'amour avec Baste Qu'est-ce-que tu serais prête à faire ? Le tour de la Terre ? V'nir avec ta mère ? Aller jusqu'au bout d'la nuit, jusqu'au bout d'ta vie, jusqu'au bout d'l'univers ? Hello Gérard Can you please answer the messages ? I've been dying for you, I've got a bottle of wine waiting for you Please ! Please !</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2862,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ho, ho, ho Bonjour les enfants C'est le Père Noël qui vous parle Tu as été un gentil garçon ? Ou une gentille petite fille ? Tu as bien travaillé à lécole ? Ou au bureau ? Alors tu as bien mérité un beau cadeau Il était 11 heure et d'mi Et j'l'attendais d'puis l'début d'la journée En fait ça f'sait des s'maines que j'l'attendais J'avais tout préparé, un joli feu d'cheminé J'm'étais dit qu'ça m'ferait marrer si c'con pouvait s'cramer un p'tit peu l'fion J'avais même cuisiner une bûche pour le remercier d'm'apporter un R2D2 en peluche Et en plus, j'avais déblayé la terrasse Et sculpté une belle bite en glace pour accueillir l'gros dégueulasse J'ai débouché une méchante bouteille Pour immortalisé la scène, j'ai mis des piles dans l'appareil Depuis toutes ces années, oui il m'a toujours gâté Il fallait s'organiser pour pouvoir lui rendre la pareille J'me suis dit, qu'il d'vait en avoir marre des grosses fêtes Qu'une fois dans sa vie il d'vait avoir envie d'poser ses grosses fesses De s'donner un peu d'plaisir en fait Alors j'l'ai attendu vibrant, en p'tite tenue sur ma peau d'bête You might also like À minuit j'étais opé, j'avais sorti l'pot d'gel J'lui ai baisser son froc et j'ai enculé l'Père Noël Il avait besoin d'se réchauffer, sur le traîneau il gèle J'ai fais ma bonne action et j'ai enculé l'Père Noël Avec beaucoup d'vigueur, en chantant Jingle Bells J'y ai mit tout mon cur et j'ai enculé l'Père Noël L'24 décembre s'ra plus jamais pareil Désolé les enfants mais j'ai enculé l'Père Noël Ho, ho, ho, merci mon garçon Tu as donné beaucoup d'plaisir à un vieux bonhomme J'en ai vu des trucs et même des tordus depuis l'temps qu'j'fais c'boulot Mais alors ça, on m'l'avait jamais fait Dis donc, j't'enverrai bien Saint Nicolas puis faudrait qu'j'en cause aux Rois Mages, ça peut les branchés ton truc hein Ah vraiment, tu m'as fait revivre la magie de Noël Il est hot, hot, hot J'bourre sa hotte, hotte, hotte J'l'ai laisser chancelant et l'cul en compote-pote-pote La tête plein de loupiotes et les boules brillantes Embroché en haut du sapin à la place de l'étoile filante J'l'ai obligé à tracer, dire qu'il avait fait sa tournée Avant qu'la Mère Noël puisse l'enguirlandé J'l'ai embrassé sur le nez et j'lui ai dit à l'année prochaine! Et avant qu'il s'r'envole, j'ai branlé un d'ses rennes Au revoir Père Noël! Hoooo, au revoir les enfants ! Merci à tous ! Ce fut, une très belle nuit de Noël Un p'tit peu mal au cul mais sur le traîneau ça va passer ! Et merci pour mon renne Au revoir les enfants ! Il avait besoin d'se réchauffer, sur le traîneau il gèle J'ai fais ma bonne action et j'ai enculé l'Père Noël Avec beaucoup d'vigueur, en chantant Jingle Bells J'y ai mit tout mon cur et j'ai enculé l'Père Noël Par souci d'parité avant qu'il reparte dans l'ciel J'ai branlé un des rennes du Père Noël L'24 décembre s'ra jamais plus pareil Désolé les enfants mais j'ai enculé l'Père Noël Si, si !</t>
+          <t>Ho, ho, ho Bonjour les enfants C'est le Père Noël qui vous parle Tu as été un gentil garçon ? Ou une gentille petite fille ? Tu as bien travaillé à lécole ? Ou au bureau ? Alors tu as bien mérité un beau cadeau Il était 11 heure et d'mi Et j'l'attendais d'puis l'début d'la journée En fait ça f'sait des s'maines que j'l'attendais J'avais tout préparé, un joli feu d'cheminé J'm'étais dit qu'ça m'ferait marrer si c'con pouvait s'cramer un p'tit peu l'fion J'avais même cuisiner une bûche pour le remercier d'm'apporter un R2D2 en peluche Et en plus, j'avais déblayé la terrasse Et sculpté une belle bite en glace pour accueillir l'gros dégueulasse J'ai débouché une méchante bouteille Pour immortalisé la scène, j'ai mis des piles dans l'appareil Depuis toutes ces années, oui il m'a toujours gâté Il fallait s'organiser pour pouvoir lui rendre la pareille J'me suis dit, qu'il d'vait en avoir marre des grosses fêtes Qu'une fois dans sa vie il d'vait avoir envie d'poser ses grosses fesses De s'donner un peu d'plaisir en fait Alors j'l'ai attendu vibrant, en p'tite tenue sur ma peau d'bête À minuit j'étais opé, j'avais sorti l'pot d'gel J'lui ai baisser son froc et j'ai enculé l'Père Noël Il avait besoin d'se réchauffer, sur le traîneau il gèle J'ai fais ma bonne action et j'ai enculé l'Père Noël Avec beaucoup d'vigueur, en chantant Jingle Bells J'y ai mit tout mon cur et j'ai enculé l'Père Noël L'24 décembre s'ra plus jamais pareil Désolé les enfants mais j'ai enculé l'Père Noël Ho, ho, ho, merci mon garçon Tu as donné beaucoup d'plaisir à un vieux bonhomme J'en ai vu des trucs et même des tordus depuis l'temps qu'j'fais c'boulot Mais alors ça, on m'l'avait jamais fait Dis donc, j't'enverrai bien Saint Nicolas puis faudrait qu'j'en cause aux Rois Mages, ça peut les branchés ton truc hein Ah vraiment, tu m'as fait revivre la magie de Noël Il est hot, hot, hot J'bourre sa hotte, hotte, hotte J'l'ai laisser chancelant et l'cul en compote-pote-pote La tête plein de loupiotes et les boules brillantes Embroché en haut du sapin à la place de l'étoile filante J'l'ai obligé à tracer, dire qu'il avait fait sa tournée Avant qu'la Mère Noël puisse l'enguirlandé J'l'ai embrassé sur le nez et j'lui ai dit à l'année prochaine! Et avant qu'il s'r'envole, j'ai branlé un d'ses rennes Au revoir Père Noël! Hoooo, au revoir les enfants ! Merci à tous ! Ce fut, une très belle nuit de Noël Un p'tit peu mal au cul mais sur le traîneau ça va passer ! Et merci pour mon renne Au revoir les enfants ! Il avait besoin d'se réchauffer, sur le traîneau il gèle J'ai fais ma bonne action et j'ai enculé l'Père Noël Avec beaucoup d'vigueur, en chantant Jingle Bells J'y ai mit tout mon cur et j'ai enculé l'Père Noël Par souci d'parité avant qu'il reparte dans l'ciel J'ai branlé un des rennes du Père Noël L'24 décembre s'ra jamais plus pareil Désolé les enfants mais j'ai enculé l'Père Noël Si, si !</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2879,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Hey ! Est-ce-que tout l'monde est prêt ? On a lâché les taureaux et branché l'son dans les arènes Hey ! Pas moyen d'te planquer ! Parés à foutre le souk et tout le monde fait pareil ! On est dans l'stade, en direct des tribunes, craque un fumigène C'est l'son des ferias, j'veux qu'les gars crient Olé ! Balance les graines qu'on fasse pousser la skunk sous les halogènes Si c'est pareil chez toi, te gênes pas, crie Olé ! Dans la manif' on reste même sous l'feu des lacrymogènes Si tu fais ça chez toi aussi, avec moi crie Olé ! Complètement à l'ouest, perdu sous hallucinogènes J'espère que t'as compris, tout le monde crie Olé !, Olé !, Olé ! Olé ! J'fais pas mon show à Taratata, j'me bute dans l'bar à tapas J'te vole ta barbapapa, j'vais t'broyer les maracas On a braqué Fort Boyard, j'vais sortir le Tord-boyaux Ouais j'peux être ton pire bourreau, transformé en père Bouras Joue pas les pachas, d'vant ton public d'vient pas chauve Gros casses-toi ! Si tu partage pas ta cachaça L'premier qui fait la gueule, on plonge sa tête dans l'gaspacho Vide ton verre et ton shot, j'ai qu'un mot d'ordre c'est gâche pas ça ! Pour moi c'est un vrai bol d'air quand les gars foutent le bordel Les blagues sont toujours border, le flow est toujours mortel Mec on est toujours d'équerre mais on sera toujours déter Ouais nous fout pas en pétard, vaut mieux nous voir en poster Ça va dégénérer, pas besoin d'présenter mes reufs Tu connais l'CV, pas besoin d'présenter mes rèf' Si ils t'font tous chier, qu't'es obligé d'serrer les seufs Moi j'ai la force de l'ordre, j'ai une p'tite haine des CRS You might also like On est dans l'stade, en direct des tribunes, craque un fumigène C'est l'son des ferias, j'veux qu'les gars crient Olé ! Balance les graines qu'on fasse pousser la skunk sous les halogènes Si c'est pareil chez toi, te gênes pas, crie Olé ! Dans la manif' on reste même sous l'feu des lacrymogènes Si tu fais ça chez toi aussi, avec moi crie Olé ! Complètement à l'ouest, perdu sous hallucinogènes J'espère que t'as compris, tout le monde crie Olé !, Olé !, Olé ! Olé ! J'vais te tirer par la peau des testicules lifting J'en oublierais aucun, j'ai prit des notes listing J'm'énerve pas, j'explique juste que tu es nul briefing Il va y avoir du sang sur mon pare-chocs Christine Buvez et éliminez les toxines à hautes doses Au milieu des illuminés j'choppe la myxomatose Il suffit d'pas grand chose pour qu'une teuf devienne sulfureuse Le temps pax trop vite pour qu'on s'impose des règles douloureuses En festivals, en fest-noz, kermesses, carnavals Sangria, cendriers, tout c'qui traîne sur l'bar j'l'avale Camarade, ici personne n'est dupe de leur mascarade Et on va s'en mettre une rude jusqu'à galocher l'macadam T'iras pas au taf, appelle ton boss, t'as perdu ton poste Va au bout d'tes forces, sors pas tes vieilles excuses de fiotte Même le samu à mit du Pastis dans les bouteilles de flotte Alors bougez vos culs bordel de chiottes On est dans l'stade, en direct des tribunes, craque un fumigène C'est l'son des ferias, j'veux qu'les gars crient Olé ! Balance les graines qu'on fasse pousser la skunk sous les halogènes Si c'est pareil chez toi, te gênes pas, crie Olé ! Dans la manif' on reste même sous l'feu des lacrymogènes Si tu fais ça chez toi aussi, avec moi crie Olé ! Complètement à l'ouest, perdu sous hallucinogènes J'espère que t'as compris, tout le monde crie Olé !, Olé !, Olé ! Olé ! x2 Hey ! Est-ce-que tout l'monde est prêt ? On a lâché les taureaux et branché l'son dans les arènes Hey ! Pas moyen d'te planquer ! Parés à foutre le souk et tout le monde fait pareil ! Tout le monde crie Olé ! Te gênes pas, crie Olé ! Avec moi crie Olé ! J'espère que t'as compris, tout le monde crie Olé !, Olé !, Olé ! Olé !</t>
+          <t>Hey ! Est-ce-que tout l'monde est prêt ? On a lâché les taureaux et branché l'son dans les arènes Hey ! Pas moyen d'te planquer ! Parés à foutre le souk et tout le monde fait pareil ! On est dans l'stade, en direct des tribunes, craque un fumigène C'est l'son des ferias, j'veux qu'les gars crient Olé ! Balance les graines qu'on fasse pousser la skunk sous les halogènes Si c'est pareil chez toi, te gênes pas, crie Olé ! Dans la manif' on reste même sous l'feu des lacrymogènes Si tu fais ça chez toi aussi, avec moi crie Olé ! Complètement à l'ouest, perdu sous hallucinogènes J'espère que t'as compris, tout le monde crie Olé !, Olé !, Olé ! Olé ! J'fais pas mon show à Taratata, j'me bute dans l'bar à tapas J'te vole ta barbapapa, j'vais t'broyer les maracas On a braqué Fort Boyard, j'vais sortir le Tord-boyaux Ouais j'peux être ton pire bourreau, transformé en père Bouras Joue pas les pachas, d'vant ton public d'vient pas chauve Gros casses-toi ! Si tu partage pas ta cachaça L'premier qui fait la gueule, on plonge sa tête dans l'gaspacho Vide ton verre et ton shot, j'ai qu'un mot d'ordre c'est gâche pas ça ! Pour moi c'est un vrai bol d'air quand les gars foutent le bordel Les blagues sont toujours border, le flow est toujours mortel Mec on est toujours d'équerre mais on sera toujours déter Ouais nous fout pas en pétard, vaut mieux nous voir en poster Ça va dégénérer, pas besoin d'présenter mes reufs Tu connais l'CV, pas besoin d'présenter mes rèf' Si ils t'font tous chier, qu't'es obligé d'serrer les seufs Moi j'ai la force de l'ordre, j'ai une p'tite haine des CRS On est dans l'stade, en direct des tribunes, craque un fumigène C'est l'son des ferias, j'veux qu'les gars crient Olé ! Balance les graines qu'on fasse pousser la skunk sous les halogènes Si c'est pareil chez toi, te gênes pas, crie Olé ! Dans la manif' on reste même sous l'feu des lacrymogènes Si tu fais ça chez toi aussi, avec moi crie Olé ! Complètement à l'ouest, perdu sous hallucinogènes J'espère que t'as compris, tout le monde crie Olé !, Olé !, Olé ! Olé ! J'vais te tirer par la peau des testicules lifting J'en oublierais aucun, j'ai prit des notes listing J'm'énerve pas, j'explique juste que tu es nul briefing Il va y avoir du sang sur mon pare-chocs Christine Buvez et éliminez les toxines à hautes doses Au milieu des illuminés j'choppe la myxomatose Il suffit d'pas grand chose pour qu'une teuf devienne sulfureuse Le temps pax trop vite pour qu'on s'impose des règles douloureuses En festivals, en fest-noz, kermesses, carnavals Sangria, cendriers, tout c'qui traîne sur l'bar j'l'avale Camarade, ici personne n'est dupe de leur mascarade Et on va s'en mettre une rude jusqu'à galocher l'macadam T'iras pas au taf, appelle ton boss, t'as perdu ton poste Va au bout d'tes forces, sors pas tes vieilles excuses de fiotte Même le samu à mit du Pastis dans les bouteilles de flotte Alors bougez vos culs bordel de chiottes On est dans l'stade, en direct des tribunes, craque un fumigène C'est l'son des ferias, j'veux qu'les gars crient Olé ! Balance les graines qu'on fasse pousser la skunk sous les halogènes Si c'est pareil chez toi, te gênes pas, crie Olé ! Dans la manif' on reste même sous l'feu des lacrymogènes Si tu fais ça chez toi aussi, avec moi crie Olé ! Complètement à l'ouest, perdu sous hallucinogènes J'espère que t'as compris, tout le monde crie Olé !, Olé !, Olé ! Olé ! x2 Hey ! Est-ce-que tout l'monde est prêt ? On a lâché les taureaux et branché l'son dans les arènes Hey ! Pas moyen d'te planquer ! Parés à foutre le souk et tout le monde fait pareil ! Tout le monde crie Olé ! Te gênes pas, crie Olé ! Avec moi crie Olé ! J'espère que t'as compris, tout le monde crie Olé !, Olé !, Olé ! Olé !</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2896,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Yoshi, fais tourner un peu l'Rhum au miel là Yoshi sort de luf et Gérard sort de teuf Cur de pirate, une tête de beauf sur un corps de buf Toujours suivi par les kids et une cohorte de meufs Qui veulent que j'fasse le Chippendales en uniforme de keuf Comment tu crois pouvoir t'en tirer avec le moustachu sur le dos ? J'vais t'envoyer chez l'kiné, v'là l'gras du bide et l'dino ! Fais tourner la chopine, que j'me bourre la gueule Appelle les potes et les copines, qu'on s'retrouve pas seuls Et j'retourne à proximité d'un bon gisement d'rafraîchissement Pendant qu'les chiffes molles gisent mortes, j'tise jusqu'à épuisement J'fais preuve de mauvais esprit permanent J'bute la p'tite souris, j'garde la pièce et j'récupère la dent J'essaye d'être élégant, d'rester poli et d'poser relax Mais j'suis comme Cendrillon, passé minuit, j'deviens dégueulasse Hé Yoshi, ils savent pas Faut qu'on leur explique qu'nos textes piquent Qu'on balance la sauce blanche mais pas dans l'grec-frite Mec, j'ai un flow à couper l'souffle, sors la ventoline Meuf, viens nous sauter sur le zboub, fais du trempoline J'balaye les bonnes manières du revers d'la main J'ai plein d'trucs à faire aujourd'hui Mais j'prends mon courage à deux mains Alors ramène le gigot, l'aligot et j'crie à l'assaut Transforme l'eau en vin et j'pars en thalasso Pas l'p'tit d'job d'homo, quand l'beat croque, poto Qu'le hit cogne, coco, c'est le Hip-Hop Momo You might also like Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! J'pousse la porte du saloon avec Gérard Baste Tout le monde s'arrête de parler et se dit C'est la classe Devant ces deux moustachus bedonnants, les femmes bavent mais c'est pas grave Moi j'aime que les naines, les moches et les sales travs Baste et Yoshi, c'est le 8 et le 6 Désolé, fils mais ça va de paire comme Wesson et Smith Moi, j'aime trop les vices Le freestyle c'est ma vie Des fois j'fais même d'l'impro devant des p 'tits gars ébahis J'ai trop d'weed inhalée, rhum, biscuit salé J'veux être riche grâce à mon nom, comme Ziggy Marley Quand toi tu prends des kilos, nous, on prend des tonnes Et quand on fait tomber la chemise Les femmes elles, elles tombent dans les pommes Forte pilosité sur corps athlétique Je saute à 3 mètres 05 si y'a un paquet d'chips J'pe-ra sous Jack Da', Jack Herer ou Black Domina À coups de Lay's, j'entretiens ma ceinture abdominale Ha! T'sais qu'on aime ça, l'apéritif J'reponds plus d'moi, après dix spliffs Mais je n'fais pas, d'obsession dessus La seule idée que j'ai en tête est de monter l'ton Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! Sisi ! Zoulou, sors ton zizi J'ai envie d'faire pipi D'aller dans la street et... Bébé ! Fais nous voir tes nénés J'ai envie d'les téter De t'mater les fesses et d'les péter J'aime qu'on m'obéisse, me force pas à m'répéter Baste et Yoshi, explosent le taux d'gamma-GT Regarde dans nos têtes, vois les p'tit bêtes bizarres grouiller Irréprochable, pourquoi j'laisserai les shtars m'fouiller ? J'compte plus les microphones qu'on a écrabouillé Mon Rap est sale et personne viendra l'débarbouiller J'suis un claqueur de fraîche lâche, videur de friche Défonceur de beat comme si j'étais né à Queensbridge Et même les condés font des backspins, breakent sur le son des Rap Kings Devine qui a chopé la Gatling ? Donc ça tire, dans l'tas, ça t'y, changes pas J'aspire, ça s'vide et j'm'active que quand j'bois Et quand j'bois j'suis bête Cette connasse d'instru mérite une baffe, laisse-moi lui mettre Hey, yo ! Plus mes verres descendent et plus la pression monte Présente-moi une copine, que j'lui règle son compte Grosse bifle et oinj' de beuh, ou bien d'teu-teu Tache blanche sur la joue, grain d'be-teu J'suis une pince, je veux, chaque fois boire tis-gra J'vide le bar à ton mariage ou à ta Bar Mitzvah Envoie-nous du pinard ou on ne partira pas Avant d'avoir rendu gloire à Almighty Jah Jah Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh!</t>
+          <t>Yoshi, fais tourner un peu l'Rhum au miel là Yoshi sort de luf et Gérard sort de teuf Cur de pirate, une tête de beauf sur un corps de buf Toujours suivi par les kids et une cohorte de meufs Qui veulent que j'fasse le Chippendales en uniforme de keuf Comment tu crois pouvoir t'en tirer avec le moustachu sur le dos ? J'vais t'envoyer chez l'kiné, v'là l'gras du bide et l'dino ! Fais tourner la chopine, que j'me bourre la gueule Appelle les potes et les copines, qu'on s'retrouve pas seuls Et j'retourne à proximité d'un bon gisement d'rafraîchissement Pendant qu'les chiffes molles gisent mortes, j'tise jusqu'à épuisement J'fais preuve de mauvais esprit permanent J'bute la p'tite souris, j'garde la pièce et j'récupère la dent J'essaye d'être élégant, d'rester poli et d'poser relax Mais j'suis comme Cendrillon, passé minuit, j'deviens dégueulasse Hé Yoshi, ils savent pas Faut qu'on leur explique qu'nos textes piquent Qu'on balance la sauce blanche mais pas dans l'grec-frite Mec, j'ai un flow à couper l'souffle, sors la ventoline Meuf, viens nous sauter sur le zboub, fais du trempoline J'balaye les bonnes manières du revers d'la main J'ai plein d'trucs à faire aujourd'hui Mais j'prends mon courage à deux mains Alors ramène le gigot, l'aligot et j'crie à l'assaut Transforme l'eau en vin et j'pars en thalasso Pas l'p'tit d'job d'homo, quand l'beat croque, poto Qu'le hit cogne, coco, c'est le Hip-Hop Momo Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! J'pousse la porte du saloon avec Gérard Baste Tout le monde s'arrête de parler et se dit C'est la classe Devant ces deux moustachus bedonnants, les femmes bavent mais c'est pas grave Moi j'aime que les naines, les moches et les sales travs Baste et Yoshi, c'est le 8 et le 6 Désolé, fils mais ça va de paire comme Wesson et Smith Moi, j'aime trop les vices Le freestyle c'est ma vie Des fois j'fais même d'l'impro devant des p 'tits gars ébahis J'ai trop d'weed inhalée, rhum, biscuit salé J'veux être riche grâce à mon nom, comme Ziggy Marley Quand toi tu prends des kilos, nous, on prend des tonnes Et quand on fait tomber la chemise Les femmes elles, elles tombent dans les pommes Forte pilosité sur corps athlétique Je saute à 3 mètres 05 si y'a un paquet d'chips J'pe-ra sous Jack Da', Jack Herer ou Black Domina À coups de Lay's, j'entretiens ma ceinture abdominale Ha! T'sais qu'on aime ça, l'apéritif J'reponds plus d'moi, après dix spliffs Mais je n'fais pas, d'obsession dessus La seule idée que j'ai en tête est de monter l'ton Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! Sisi ! Zoulou, sors ton zizi J'ai envie d'faire pipi D'aller dans la street et... Bébé ! Fais nous voir tes nénés J'ai envie d'les téter De t'mater les fesses et d'les péter J'aime qu'on m'obéisse, me force pas à m'répéter Baste et Yoshi, explosent le taux d'gamma-GT Regarde dans nos têtes, vois les p'tit bêtes bizarres grouiller Irréprochable, pourquoi j'laisserai les shtars m'fouiller ? J'compte plus les microphones qu'on a écrabouillé Mon Rap est sale et personne viendra l'débarbouiller J'suis un claqueur de fraîche lâche, videur de friche Défonceur de beat comme si j'étais né à Queensbridge Et même les condés font des backspins, breakent sur le son des Rap Kings Devine qui a chopé la Gatling ? Donc ça tire, dans l'tas, ça t'y, changes pas J'aspire, ça s'vide et j'm'active que quand j'bois Et quand j'bois j'suis bête Cette connasse d'instru mérite une baffe, laisse-moi lui mettre Hey, yo ! Plus mes verres descendent et plus la pression monte Présente-moi une copine, que j'lui règle son compte Grosse bifle et oinj' de beuh, ou bien d'teu-teu Tache blanche sur la joue, grain d'be-teu J'suis une pince, je veux, chaque fois boire tis-gra J'vide le bar à ton mariage ou à ta Bar Mitzvah Envoie-nous du pinard ou on ne partira pas Avant d'avoir rendu gloire à Almighty Jah Jah Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh!</t>
         </is>
       </c>
     </row>
@@ -2943,11 +2911,7 @@
           <t>On n’aurait pas dû venir</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2962,7 +2926,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Tellement d'alcools, tu deviens triso Vodka dans le congèl', Corona dans le frigo Tellement de drogues, tu deviens débile La verte dans les poumons, la blanche dans les narines Tellement de filles, tu deviens bête Tout à l'heure tu étais laide, maintenant tu deviens belle Si tu traînes avec nous, laisse tomber les drogues On a d'la qualité, on a v'la laisse tomber les prods Quand on débarque dans la camionnette, brinquebalants Rien qu'à la fumée qui en sort, tu sais c'qu'il y a d'dans Tu sais aussi qu'j'aime pas perdre de temps Faut vite qu'elle écarte ses cuisses comme mes dents d'devant Comment faire pour lui faire boire ce verre dabsinthe ? Pour que dans une demi heure, elle est perdue le sens commun ? Ne t'inquiètes pas je n'veux pas t'faire d'enfant J'veux juste te ramener à ??? et dormir dedans Quatre heure de l'aprèm et on est raides ouais mec! On est d'jà vider, vider Rosé au p'tit dèj, c'était p't'être pas une bonne idée non! Que des têtes de vainqueurs, une vraie équipe de compèt' Ramènes ta bidoche et sort les piques à brochettes On écoute Doggystyle, on fait des gros freestyles Avec des textes et de l'asthme, même les groupies s'taillent C'est Gérard Baste et Xanax, le Svink et l'Palace Si tu t'démonte pas la gueule bah vas niquer ta race bitch! You might also like Et ouais on sort encore ouais, ouais On n'sais faire que ça on sais faire que ça mec! T'en as pas marre d'la ride ? jamais, jamais Non ! Non ! Après trois heure j'ai envie d'partir Ou d'prendre n'importe quelles sortes de drogues qu'on pourra m'offrir Tu croyais p't'être qu'c'était terminer Mais quand on sort avec Baste c'est la puberté Arrête ! T'es ouf ! Franchement ! Tu déconnes ! J'ai bu trop de Henny, trop d'Patrón Fout ça sur l'dos d'l'alcool, ho ! Fout ça sur l'dos d'l'alcool Quatre heure du matin et on est raides ouais! C'est limite inadmissible Sono à dev'nir sourds, vin rouge dans la piscine Ambiance boite à partouzes, le peignoir et les pantoufles Tous nus sur des serviettes en regardant la grande ours Violé par une cougar qui t'dévore le zboub C'est dingue c'qu'elle peut faire quand elle prend cette ??? Et ça continuera comme ça jusqu'à pas d'heure Hé Xan, j'sens qu'ça va finir dans l'sang et la douleur Et ouais on sort encore ouais, ouais On n'sais faire que ça on sais faire que ça mec! T'en as pas marre d'la ride ? jamais, jamais Non ! Non ! Et ouais on sort encore ouais, ouais On n'sais faire que ça Et même à l'age quand on a 40 ans pute! Yeah ! Hey yo, I need that guitar solo A.S.A.P. man</t>
+          <t>Tellement d'alcools, tu deviens triso Vodka dans le congèl', Corona dans le frigo Tellement de drogues, tu deviens débile La verte dans les poumons, la blanche dans les narines Tellement de filles, tu deviens bête Tout à l'heure tu étais laide, maintenant tu deviens belle Si tu traînes avec nous, laisse tomber les drogues On a d'la qualité, on a v'la laisse tomber les prods Quand on débarque dans la camionnette, brinquebalants Rien qu'à la fumée qui en sort, tu sais c'qu'il y a d'dans Tu sais aussi qu'j'aime pas perdre de temps Faut vite qu'elle écarte ses cuisses comme mes dents d'devant Comment faire pour lui faire boire ce verre dabsinthe ? Pour que dans une demi heure, elle est perdue le sens commun ? Ne t'inquiètes pas je n'veux pas t'faire d'enfant J'veux juste te ramener à ??? et dormir dedans Quatre heure de l'aprèm et on est raides ouais mec! On est d'jà vider, vider Rosé au p'tit dèj, c'était p't'être pas une bonne idée non! Que des têtes de vainqueurs, une vraie équipe de compèt' Ramènes ta bidoche et sort les piques à brochettes On écoute Doggystyle, on fait des gros freestyles Avec des textes et de l'asthme, même les groupies s'taillent C'est Gérard Baste et Xanax, le Svink et l'Palace Si tu t'démonte pas la gueule bah vas niquer ta race bitch! Et ouais on sort encore ouais, ouais On n'sais faire que ça on sais faire que ça mec! T'en as pas marre d'la ride ? jamais, jamais Non ! Non ! Après trois heure j'ai envie d'partir Ou d'prendre n'importe quelles sortes de drogues qu'on pourra m'offrir Tu croyais p't'être qu'c'était terminer Mais quand on sort avec Baste c'est la puberté Arrête ! T'es ouf ! Franchement ! Tu déconnes ! J'ai bu trop de Henny, trop d'Patrón Fout ça sur l'dos d'l'alcool, ho ! Fout ça sur l'dos d'l'alcool Quatre heure du matin et on est raides ouais! C'est limite inadmissible Sono à dev'nir sourds, vin rouge dans la piscine Ambiance boite à partouzes, le peignoir et les pantoufles Tous nus sur des serviettes en regardant la grande ours Violé par une cougar qui t'dévore le zboub C'est dingue c'qu'elle peut faire quand elle prend cette ??? Et ça continuera comme ça jusqu'à pas d'heure Hé Xan, j'sens qu'ça va finir dans l'sang et la douleur Et ouais on sort encore ouais, ouais On n'sais faire que ça on sais faire que ça mec! T'en as pas marre d'la ride ? jamais, jamais Non ! Non ! Et ouais on sort encore ouais, ouais On n'sais faire que ça Et même à l'age quand on a 40 ans pute! Yeah ! Hey yo, I need that guitar solo A.S.A.P. man</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2943,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Je m'suis réveillé cmatin, pas bien, malsain La migraine et la gerbe plus les marques du coussin Parce que j'me suis couché hier, ???, c'est clair Jai l'toucher 'nique ton verre, faut qu'j'les vide sa mère On y est encore pas aller avec le dos d'la cuillère Un d'ces quatre on va m'repêcher dans le lit dla rivière Ce monde a un goût amer et même si jl'aime dans lfond, c'est bon c'est bon Là on touche le fond Han ! On touche le fond ! J'crois bien qule monde tourne plus rond, on touche le fond ! Allume ta télévision ouais, on touche le fond ! Nabilla en prison, là on touche le fond ! Non mais allô ? On touche le fond ! 400 gars sur un canot qui touchent le fond ! Faudrait quand même s'poser la question une fois pour de bon C'est juste une impression ou on touche le fond ? En fait j'suis comme notre société, j'ai plus aucune dignité Et j'me d'mande qui versera l'plus dans la médiocrité J'peux plus les supporter quand j'les regarde au JT Ils nous enculent, où est l'principe de la réciprocité ? You might also like Han ! Ces bâtards ont laissé les keufs Tabasser les gosses et gazer les meufs Qu'ils ne viennent plus faire leur victime Ils ont joué les Big Jim, on va leur faire Bim Bim Jhésite entre le haine et la piquouze, coincé entre BFM et NRJ12 J'sais plus comment cracher mon dégoût Mais j'vous donne rendez-vous à la nuit, rré-bou À la nuit rré-bou, on va picoler On va dire de la merde, on va rigoler Y'aura des discussions d'fond et on va l'toucher Y'aura du bon cru, du vieux fond et on va l'vider Entre les sales idées, les voitures calcinées Autant paumés qu'nous, élus à la majorité Mais la majorité des gens sont juste des cons Ok ! Et c'est p't'être pour ça qu'on touche le fond Han ! On touche le fond ! J'crois bien qu'le monde tourne plus rond, on touche le fond ! Élections sur élections ouais, on touche le fond ! Campez sur vos positions, là on touche le fond ! On s'l'ai fait mettre bien au fond, on touche le fond ! Un cinglé dans un camion qui déboule à fond ! On va pas éternellement s'poser la question On va rester comme des cons avant qu'on touche le fond ? J'crois pas ! Vous aller encore faire la leçon ? Foutez-vous encore de notre gueule ! Vous croyez vraiment qu'ça va t'nir ? J'crois pas !</t>
+          <t>Je m'suis réveillé cmatin, pas bien, malsain La migraine et la gerbe plus les marques du coussin Parce que j'me suis couché hier, ???, c'est clair Jai l'toucher 'nique ton verre, faut qu'j'les vide sa mère On y est encore pas aller avec le dos d'la cuillère Un d'ces quatre on va m'repêcher dans le lit dla rivière Ce monde a un goût amer et même si jl'aime dans lfond, c'est bon c'est bon Là on touche le fond Han ! On touche le fond ! J'crois bien qule monde tourne plus rond, on touche le fond ! Allume ta télévision ouais, on touche le fond ! Nabilla en prison, là on touche le fond ! Non mais allô ? On touche le fond ! 400 gars sur un canot qui touchent le fond ! Faudrait quand même s'poser la question une fois pour de bon C'est juste une impression ou on touche le fond ? En fait j'suis comme notre société, j'ai plus aucune dignité Et j'me d'mande qui versera l'plus dans la médiocrité J'peux plus les supporter quand j'les regarde au JT Ils nous enculent, où est l'principe de la réciprocité ? Han ! Ces bâtards ont laissé les keufs Tabasser les gosses et gazer les meufs Qu'ils ne viennent plus faire leur victime Ils ont joué les Big Jim, on va leur faire Bim Bim Jhésite entre le haine et la piquouze, coincé entre BFM et NRJ12 J'sais plus comment cracher mon dégoût Mais j'vous donne rendez-vous à la nuit, rré-bou À la nuit rré-bou, on va picoler On va dire de la merde, on va rigoler Y'aura des discussions d'fond et on va l'toucher Y'aura du bon cru, du vieux fond et on va l'vider Entre les sales idées, les voitures calcinées Autant paumés qu'nous, élus à la majorité Mais la majorité des gens sont juste des cons Ok ! Et c'est p't'être pour ça qu'on touche le fond Han ! On touche le fond ! J'crois bien qu'le monde tourne plus rond, on touche le fond ! Élections sur élections ouais, on touche le fond ! Campez sur vos positions, là on touche le fond ! On s'l'ai fait mettre bien au fond, on touche le fond ! Un cinglé dans un camion qui déboule à fond ! On va pas éternellement s'poser la question On va rester comme des cons avant qu'on touche le fond ? J'crois pas ! Vous aller encore faire la leçon ? Foutez-vous encore de notre gueule ! Vous croyez vraiment qu'ça va t'nir ? J'crois pas !</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2960,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Hey yo ! Est-ce qu'on est prêts à répéter 10 fois l'même mot ? J'répète, est-ce qu'on est prêts à répéter 10 fois l'même mot ? Bounce, come on Si t'es down avec les Qhuit, bouge tes membres Qu'on soit pas les seuls à sués tellement la salle est condensée Et qu'tu finisse la culotte mouillée tellement qu'à d'meufs sales qu'ont dansées Mouille le, mouille le maillot Dans ton tricot, dans ma mayo La plus belle des cartes de France Des grosses garces, des saunas, dites-moi ma renoi Enlace-moi dans tes bras, là c'est moi qui me noie Moi tout illé-mou, recouvert de big bisous Oublie-moi avec ce 51 Sers-moi un 102, un 204 Jamais deux sans trois histoire qu'on finisse à quatre pattes, carpettes Ajoute, agite, ton corps éjecte ton cerveau que l'Ricard pète Ton foie qu'on écartèle C'est souvent qu'on fini par terre Qu'on bave et qu'on gerbe comme la lave sortant d'un cratère Plus de, plus de fonce-dé Alors bois un ouc', bouge ton uc bouge cousine, bouge Ah, j'suis trop un ouf You might also like Bounce, come on Si t'es down avec les Qhuit, bouge tes membres Bounce, come on Si t'es avec Dr Vince, sors ton membre Scratchs Bounce, come on Si t'es avec Dr Vince, sors ton membre Scratchs Bounce, come on Si t'es avec Dr Vince, sors ton membre</t>
+          <t>Hey yo ! Est-ce qu'on est prêts à répéter 10 fois l'même mot ? J'répète, est-ce qu'on est prêts à répéter 10 fois l'même mot ? Bounce, come on Si t'es down avec les Qhuit, bouge tes membres Qu'on soit pas les seuls à sués tellement la salle est condensée Et qu'tu finisse la culotte mouillée tellement qu'à d'meufs sales qu'ont dansées Mouille le, mouille le maillot Dans ton tricot, dans ma mayo La plus belle des cartes de France Des grosses garces, des saunas, dites-moi ma renoi Enlace-moi dans tes bras, là c'est moi qui me noie Moi tout illé-mou, recouvert de big bisous Oublie-moi avec ce 51 Sers-moi un 102, un 204 Jamais deux sans trois histoire qu'on finisse à quatre pattes, carpettes Ajoute, agite, ton corps éjecte ton cerveau que l'Ricard pète Ton foie qu'on écartèle C'est souvent qu'on fini par terre Qu'on bave et qu'on gerbe comme la lave sortant d'un cratère Plus de, plus de fonce-dé Alors bois un ouc', bouge ton uc bouge cousine, bouge Ah, j'suis trop un ouf Bounce, come on Si t'es down avec les Qhuit, bouge tes membres Bounce, come on Si t'es avec Dr Vince, sors ton membre Scratchs Bounce, come on Si t'es avec Dr Vince, sors ton membre Scratchs Bounce, come on Si t'es avec Dr Vince, sors ton membre</t>
         </is>
       </c>
     </row>
@@ -3013,7 +2977,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Mario ? T'as trouvé la bouteille de vin ? Oui Mais c'est Et pourquoi ? Bah c'est pour toi, pour ton travail Mais non ! Han ! Wech les girls ! Monsieur Baste ! Ehe Quand tu vois comment j'ai passé la moitié de ma vie imbibé Je me demande encore comment j'ai fait pour avoir un bébé J'en suis resté baba Maintenant Baste est papa Passe ma vie le nez dans les couches à nettoyer le caca Bébé est resté 9 mois dans le liquide amniotique Moi j'ai mariné 20 ans dans le liquide alcoolique Et j'suis devenu un autre homme Plus imbibé qu'un baba, appelle moi le papa o'rhum Entouré d'trucs trop mignon Et de dizaines de mignonnettes J'ride dans la ville, 8.6 planquée dans la poussette Bébé joue avec son hochet Papa a le hoquet Maman m'envoie à la pharma', Papa s'arrête au troquet Dring dring ! C'est l'heure du biberon et d'la bibinne Maman a plus de poitrine que Lil'Kim J'te laisse le lolo, j'te laisse la Blédine Par solidarité au bout d'ma 'teille j'ai mis une tétine Et j'contribue à renouveler la population Et j'lâche mon meilleur spermato' Standing ovulation Et toi tu m'as donné le plus beau bébé du monde Laisse moi fêter ça Depuis que tu n'es plus ronde La bière est plus blonde You might also like Han ! Bébé Mario Quand t'as débarqué j'avais pas prévu l'changement dans l'scénario Quand t'es sorti j'ai regardé, c'était pas très beau J'ai bouffé le placenta, j'aurais pas du, c'est juste un placebo Tu sais quand j'change la vie d'un mec Pas de panique On comprend vite la vie qui va avec Et j'suis devenu un autre homme Plus imbibé qu'un baba, appelle moi le papa o'rhum Rhum pom pom pom Rhum popopom Rhum pom pom pom Il est 4 heures, j't'emmène au square P'tite Despé' dans la bar Déjà flaya, peine fin d'journée J'débarque casquette, lunettes noires Veste en jean de clochard J'ai le même style que Domini en pleine fin d'tournée Et les bobos se retournent sur ma gueule Les MILFs s'disent, c'est le gars de D17 fonc'dé avec son filleul Et même si j'ai l'air confit, ouai C'est bel et bien mon fils mec C'est pour lui et sa mère que j'me ruine à ramener le bif' Et elle m'appelle des fois en gueulant pour me faire quitter l'pub J'irais deux fois plus souvent dévaliser Jouet Club J'ai acheté un Volvo Break Et pris un crédit, laisse tomber les taux On verra dans 10 ans si j'suis mûr pour te prêter mes Legos Mon amour Grâce à toi j'avais déjà été beau-père A quoi ca sert d'être en famille Pour se la jouer so-per Niveau charme, dorénavant Le mien n'est plus le seul qui opère On s'tirera la bourre pour niquer la jeune fille au pair Fils Han ! Bébé Mario Quand t'as débarqué j'avais pas prévu l'changement dans l'scénario Quand t'es sorti j'ai regardé, c'était pas très beau J'ai bouffé le placenta, j'aurais pas du, c'est juste un placebo Tu sais quand j'change la vie d'un mec Pas de panique On comprend vite la vie qui va avec Et j'suis devenu un autre homme Plus imbibé qu'un baba, appelle moi le papa o'rhum Rhum pom pom pom Rhum popopom Rhum pom pom pom Et tu peux nous traiter d'parents indigne mais Bah rien T'auras bien raison Eh Mario ! Demande à Maman la bouteille à Papa Hihi</t>
+          <t>Mario ? T'as trouvé la bouteille de vin ? Oui Mais c'est Et pourquoi ? Bah c'est pour toi, pour ton travail Mais non ! Han ! Wech les girls ! Monsieur Baste ! Ehe Quand tu vois comment j'ai passé la moitié de ma vie imbibé Je me demande encore comment j'ai fait pour avoir un bébé J'en suis resté baba Maintenant Baste est papa Passe ma vie le nez dans les couches à nettoyer le caca Bébé est resté 9 mois dans le liquide amniotique Moi j'ai mariné 20 ans dans le liquide alcoolique Et j'suis devenu un autre homme Plus imbibé qu'un baba, appelle moi le papa o'rhum Entouré d'trucs trop mignon Et de dizaines de mignonnettes J'ride dans la ville, 8.6 planquée dans la poussette Bébé joue avec son hochet Papa a le hoquet Maman m'envoie à la pharma', Papa s'arrête au troquet Dring dring ! C'est l'heure du biberon et d'la bibinne Maman a plus de poitrine que Lil'Kim J'te laisse le lolo, j'te laisse la Blédine Par solidarité au bout d'ma 'teille j'ai mis une tétine Et j'contribue à renouveler la population Et j'lâche mon meilleur spermato' Standing ovulation Et toi tu m'as donné le plus beau bébé du monde Laisse moi fêter ça Depuis que tu n'es plus ronde La bière est plus blonde Han ! Bébé Mario Quand t'as débarqué j'avais pas prévu l'changement dans l'scénario Quand t'es sorti j'ai regardé, c'était pas très beau J'ai bouffé le placenta, j'aurais pas du, c'est juste un placebo Tu sais quand j'change la vie d'un mec Pas de panique On comprend vite la vie qui va avec Et j'suis devenu un autre homme Plus imbibé qu'un baba, appelle moi le papa o'rhum Rhum pom pom pom Rhum popopom Rhum pom pom pom Il est 4 heures, j't'emmène au square P'tite Despé' dans la bar Déjà flaya, peine fin d'journée J'débarque casquette, lunettes noires Veste en jean de clochard J'ai le même style que Domini en pleine fin d'tournée Et les bobos se retournent sur ma gueule Les MILFs s'disent, c'est le gars de D17 fonc'dé avec son filleul Et même si j'ai l'air confit, ouai C'est bel et bien mon fils mec C'est pour lui et sa mère que j'me ruine à ramener le bif' Et elle m'appelle des fois en gueulant pour me faire quitter l'pub J'irais deux fois plus souvent dévaliser Jouet Club J'ai acheté un Volvo Break Et pris un crédit, laisse tomber les taux On verra dans 10 ans si j'suis mûr pour te prêter mes Legos Mon amour Grâce à toi j'avais déjà été beau-père A quoi ca sert d'être en famille Pour se la jouer so-per Niveau charme, dorénavant Le mien n'est plus le seul qui opère On s'tirera la bourre pour niquer la jeune fille au pair Fils Han ! Bébé Mario Quand t'as débarqué j'avais pas prévu l'changement dans l'scénario Quand t'es sorti j'ai regardé, c'était pas très beau J'ai bouffé le placenta, j'aurais pas du, c'est juste un placebo Tu sais quand j'change la vie d'un mec Pas de panique On comprend vite la vie qui va avec Et j'suis devenu un autre homme Plus imbibé qu'un baba, appelle moi le papa o'rhum Rhum pom pom pom Rhum popopom Rhum pom pom pom Et tu peux nous traiter d'parents indigne mais Bah rien T'auras bien raison Eh Mario ! Demande à Maman la bouteille à Papa Hihi</t>
         </is>
       </c>
     </row>
@@ -3030,7 +2994,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Wizi-P, Gérard Baste Yeah, yeah Wizi-P Yeah, ok, ça c'est pour 2010, ouais Gérard Baste Hey, hey, Wizi-P et Gérard Baste La soirée avait super bien commencé Les gens étaient beaux, le son était fort et l'air était chaud Dans les flûtes, le champ-champagne coulait à flot Quelques pas sur la piste pour faire kiffer les go Et puis en quelques secondes, l'ambiance à changé Tout autour de moi-moi les gens se sont écartés, écurés Un peu partout des cercles se formaient Et je voyais le visage des filles prendre un air dégoutté Parce que j'avais parce que j'avais, parce que j'avais Péter dans le club Péter dans le club Péter dans le club J'ai des nausées et des vertiges J'ai péter dans le club Péter dans le club J'ai lâcher une bonne caisse Largué une grosse perle J'ai péter dans le club Il avait péter, péter, péter dans le club You might also like Alors la soirée a continué de façon bizarre Les gens étaient verts, le son était mou et l'air était rare Quelques gars pleuraient, j'avais honte Mes mains étaient moites Il ne restait plus que la moitié de la boite Et soudain, une fois d'plus, l'ambiance à changé Les filles se sont mises à vomir d'un air horrifié J'ai vu courir vers moi les gars de la sécurité En quelques secondes je me suis fait super tabassé Parce que j'avais parce que j'avais, parce que j'avais Chier dans le club Chier dans le club J'avais chier dans le club Il a chier dans le club J'ai fait caca dans le club Caca dans le club Caca dans le club Il a fait caca, caca, caca dans le club</t>
+          <t>Wizi-P, Gérard Baste Yeah, yeah Wizi-P Yeah, ok, ça c'est pour 2010, ouais Gérard Baste Hey, hey, Wizi-P et Gérard Baste La soirée avait super bien commencé Les gens étaient beaux, le son était fort et l'air était chaud Dans les flûtes, le champ-champagne coulait à flot Quelques pas sur la piste pour faire kiffer les go Et puis en quelques secondes, l'ambiance à changé Tout autour de moi-moi les gens se sont écartés, écurés Un peu partout des cercles se formaient Et je voyais le visage des filles prendre un air dégoutté Parce que j'avais parce que j'avais, parce que j'avais Péter dans le club Péter dans le club Péter dans le club J'ai des nausées et des vertiges J'ai péter dans le club Péter dans le club J'ai lâcher une bonne caisse Largué une grosse perle J'ai péter dans le club Il avait péter, péter, péter dans le club Alors la soirée a continué de façon bizarre Les gens étaient verts, le son était mou et l'air était rare Quelques gars pleuraient, j'avais honte Mes mains étaient moites Il ne restait plus que la moitié de la boite Et soudain, une fois d'plus, l'ambiance à changé Les filles se sont mises à vomir d'un air horrifié J'ai vu courir vers moi les gars de la sécurité En quelques secondes je me suis fait super tabassé Parce que j'avais parce que j'avais, parce que j'avais Chier dans le club Chier dans le club J'avais chier dans le club Il a chier dans le club J'ai fait caca dans le club Caca dans le club Caca dans le club Il a fait caca, caca, caca dans le club</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3011,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Vas-y Sals' ! Y'a plus le temps de blaguer maintenant Que la rime assassine, faire la diff, car on est plein dedans Viens percer le silence, venger, créer le danger Honorer les miens, ceux que la France appelle étrangers Mon cur se noue, ces tirailleurs oubliés sont nos aïeux Et nous au goût de sang dans la bouche sommes le noyau On passe nos vies à chercher ce qu'on a devant nous Attirés par les strass c'est ce à quoi mes frères se vouent Hors nos rues mon langage cru sur beat scandalise Meurtri à la plume et chez les concernés ça balise Obligé de niquer trop de bidons en réinsertion Les vrais c'est comme la vérité chez nous y'a plusieurs versions La sensi paie plus, les sachets blessent, tuent Mon souhait, sensibiliser avant que le fasse Iblis Rimes sous tension, intenses, les mots en mal Fruits d'une tèce où c'est les keufs qui éteignent le feu avec de l'essence Mon putain de jargon, je balance fat pour les âmes perdues Autant dans nos rues que de boîtes vides de Néocodion Lassé, si la vie a un goût pour moi c'est amer, c'est la merde Ici c'est chaud comme insulter sa mère Pour les meilleurs pleurs et pour les pires rires Toutes ces courses poursuites sport à sensations Toutes ces courses pour shmidts porcs sans concessions Les cliques se court-circuitent quand vendent du shit en terre cuite Hémorragie interne nos vies si ternes crime, chagrins constants Nos blocs pullulent de corps meurtris Si de cette connexion, ce feat, en naît en hit En ligne de front je milite essentiellement pour nécessiteux Parle de l'amour aux gens, ils se marrent You might also like Haine story, dans toutes ces zones où ça turbule Haine story, au pouvoir trop de Mister Bean Si les conflits affluent, un espoir que mes rimes influent Et quand c'est les armes qui parlent ça, on s'entend plus Parle de l'amour aux gens ils se marrent Parle-leur de bonne foi ils se barrent Vicelards, des quartiers chics jusqu'à bèss-Bar Haine story, même scènes, thèmes, même peines Même qu'ici on vit tous en territoire hostile Mais entêtés on s'obstine, on se bat contre les toxines du vice Et ses victimes, le crime est une vitrine Le service après-vente c'est des mères qui pleurent et des pères qui triment Des frères qui plongent un procureur qui passe pas l'éponge Un franc tireur au M.I.C. par nécessité La vie est un fil conducteur mon rap décharge de l'électricité Nos vies sont des fils conducteurs donc quand on rap y'a électricité Haine story, dans toutes ces zones où ça turbule Haine story, au pouvoir trop de Mister Bean Si les conflits affluent, un espoir que mes rimes influent Et quand c'est les armes qui parlent ça, on s'entend plus Si je rap c'est par nécessité, rien que pour leurs gueules Qui croit que je cite mon nom en grand rien que pour l'orgueil Qui voulaient paraître plus grand que moi, piétinant mes orteils A ceux qui m'ouvriront le portail, m'aimeront que pour mon portefeuille Ici c'est qu'à base de bizz, une devise où on se fout bien des gendarmes Un champ d'armes sans charme, où les gens s'arment Et finissent par lâcher d'énormes cascades de larmes Ici, on vit avec la trouille à l'idée de se faire descendre En se faisant insulter de sale crouille Et de voir des parents désespérés devant des cendres Ici je compte sur personne, ça ne veut pas dire Que je ne serre pas la main que je sais pas sourire Question d'indépendance, plus tard qui est-ce qui va me nourrir ? Et j'aimerais bien savoir pour voir qui me laissera mourir Pourquoi je rap ? trop de problèmes à résoudre Observe bien mon dos t'y remarqueras du sucre en poudre Dû aux coups de fourbes par ceux pour qui j'ai eu le coup de foudre</t>
+          <t>Vas-y Sals' ! Y'a plus le temps de blaguer maintenant Que la rime assassine, faire la diff, car on est plein dedans Viens percer le silence, venger, créer le danger Honorer les miens, ceux que la France appelle étrangers Mon cur se noue, ces tirailleurs oubliés sont nos aïeux Et nous au goût de sang dans la bouche sommes le noyau On passe nos vies à chercher ce qu'on a devant nous Attirés par les strass c'est ce à quoi mes frères se vouent Hors nos rues mon langage cru sur beat scandalise Meurtri à la plume et chez les concernés ça balise Obligé de niquer trop de bidons en réinsertion Les vrais c'est comme la vérité chez nous y'a plusieurs versions La sensi paie plus, les sachets blessent, tuent Mon souhait, sensibiliser avant que le fasse Iblis Rimes sous tension, intenses, les mots en mal Fruits d'une tèce où c'est les keufs qui éteignent le feu avec de l'essence Mon putain de jargon, je balance fat pour les âmes perdues Autant dans nos rues que de boîtes vides de Néocodion Lassé, si la vie a un goût pour moi c'est amer, c'est la merde Ici c'est chaud comme insulter sa mère Pour les meilleurs pleurs et pour les pires rires Toutes ces courses poursuites sport à sensations Toutes ces courses pour shmidts porcs sans concessions Les cliques se court-circuitent quand vendent du shit en terre cuite Hémorragie interne nos vies si ternes crime, chagrins constants Nos blocs pullulent de corps meurtris Si de cette connexion, ce feat, en naît en hit En ligne de front je milite essentiellement pour nécessiteux Parle de l'amour aux gens, ils se marrent Haine story, dans toutes ces zones où ça turbule Haine story, au pouvoir trop de Mister Bean Si les conflits affluent, un espoir que mes rimes influent Et quand c'est les armes qui parlent ça, on s'entend plus Parle de l'amour aux gens ils se marrent Parle-leur de bonne foi ils se barrent Vicelards, des quartiers chics jusqu'à bèss-Bar Haine story, même scènes, thèmes, même peines Même qu'ici on vit tous en territoire hostile Mais entêtés on s'obstine, on se bat contre les toxines du vice Et ses victimes, le crime est une vitrine Le service après-vente c'est des mères qui pleurent et des pères qui triment Des frères qui plongent un procureur qui passe pas l'éponge Un franc tireur au M.I.C. par nécessité La vie est un fil conducteur mon rap décharge de l'électricité Nos vies sont des fils conducteurs donc quand on rap y'a électricité Haine story, dans toutes ces zones où ça turbule Haine story, au pouvoir trop de Mister Bean Si les conflits affluent, un espoir que mes rimes influent Et quand c'est les armes qui parlent ça, on s'entend plus Si je rap c'est par nécessité, rien que pour leurs gueules Qui croit que je cite mon nom en grand rien que pour l'orgueil Qui voulaient paraître plus grand que moi, piétinant mes orteils A ceux qui m'ouvriront le portail, m'aimeront que pour mon portefeuille Ici c'est qu'à base de bizz, une devise où on se fout bien des gendarmes Un champ d'armes sans charme, où les gens s'arment Et finissent par lâcher d'énormes cascades de larmes Ici, on vit avec la trouille à l'idée de se faire descendre En se faisant insulter de sale crouille Et de voir des parents désespérés devant des cendres Ici je compte sur personne, ça ne veut pas dire Que je ne serre pas la main que je sais pas sourire Question d'indépendance, plus tard qui est-ce qui va me nourrir ? Et j'aimerais bien savoir pour voir qui me laissera mourir Pourquoi je rap ? trop de problèmes à résoudre Observe bien mon dos t'y remarqueras du sucre en poudre Dû aux coups de fourbes par ceux pour qui j'ai eu le coup de foudre</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3028,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Et ben, c'est pas facile tous les jours 'M'ont prit la tête toute la semaine avec leurs cours de merde Profs de merde, bahut d'merde Les parents, ils m'ont saoulé, ils m'ont sur-saoulé J'en ai rien à foutre, t'façon c'week-end c'est décidé, je fume 25 grammes de shit Rien à foutre ! Et les d'voirs, qu'ils aillent se faire enculer Non mais attends, tu crois qu'on va s'laisser faire ? Non mais hey, oh ! LOL Les parents sont partis d'puis à peine 5 minutes Que j'pète déjà un 3 feuilles d'vant un bon film de uc' Et j'épluche le carnet d'adresses pour prévenir les soss' De s'pointés avec des meufs, de la tise et d'la dope Pendant qu'j'éclate le pack, j'fais chauffer l'eau des pâtes Et j'fais péter la chaîne hi-fi avec des disques de rap J'enfile un t-shirt Qhuit et puis j'me lave la bite On sait jamais qu'une meuf soit assez bourrée pour qu'j'la nique Faut qu'j'invite la moitié d'Paris sinon j'me sens seul Dans la vie j'aime lire des mangas et m'déchirer la gueule J'collectionne les Lego Star Wars et les voitures Hot Wheels Et j'ai trop d'casquettes, trop d'shoes, trop d'lunettes, j'ai trop d'style J'ai éclaté mon forfait, ma ??? c'est la zone J'passe pour un con, j'suis l'seul de la bande qui a pas d'IPhone En bref, j'vis la vie d'n'importe quel adolescent Le problème c'est juste qu'j'ai plus d'35 ans Merde ! You might also like Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Tu sais qu'j'suis l'même-même petit-petit con c'est grave Les jeunes magacent et les mecs de mon age me gavent Ma meuf m'engueule, c'est encore trop rare que j'me lave Le matin c'est rare que j'me lève, j'ai la tête dans l'cul grave J'ai promis d'arrêter la console et d'plus bouger en boite De m'faire des salades mais j'ouvre des raviolis en boite Tous les matins d'vant larmoire qui déborde, j'bataille Mes jeans sont trop larges, trop serrés mais jamais à ma taille J'me revois encore en 4ème quand j'avais ans-12 Veste en jean, t-shirt Renaud et bandana rouge J'me revois encore quand j'voulais être un zulu et qu'j'traînais dans l'moove Élevé pas les louves aux palissades du Louvre Maintenant j'suis le Ancien Kid on the Block, le trop grand Lil Wayne Le Young Jeezy Old, le Soulja homme, le Hot Boys tiède Consomme-moi vite fait, avant qu'j'sois rassit, rincé J'suis un teenager de 35 ans, et d'mi, passés Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Et ouais au final T'as vu c'est fort la vie d'adulte, c'est compliqué la vie d'artiste Faut bien régler les factures, cours, cours après l'fric Mais j'reste encore bloqué quand j'me pognais d'vant Premiers Baisers Sur les lunettes d'Annette et j'croyais qu'j'allais jamais baiser Puis les boutons sur la gueule, ça finit par partir Les poils ça pousse, les dents ça finit par jaunir On a l'age qu'on a, j'ai l'age que j'ai J'suis toujours à l'aise, Gérard Baste 1973 x2 Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980</t>
+          <t>Et ben, c'est pas facile tous les jours 'M'ont prit la tête toute la semaine avec leurs cours de merde Profs de merde, bahut d'merde Les parents, ils m'ont saoulé, ils m'ont sur-saoulé J'en ai rien à foutre, t'façon c'week-end c'est décidé, je fume 25 grammes de shit Rien à foutre ! Et les d'voirs, qu'ils aillent se faire enculer Non mais attends, tu crois qu'on va s'laisser faire ? Non mais hey, oh ! LOL Les parents sont partis d'puis à peine 5 minutes Que j'pète déjà un 3 feuilles d'vant un bon film de uc' Et j'épluche le carnet d'adresses pour prévenir les soss' De s'pointés avec des meufs, de la tise et d'la dope Pendant qu'j'éclate le pack, j'fais chauffer l'eau des pâtes Et j'fais péter la chaîne hi-fi avec des disques de rap J'enfile un t-shirt Qhuit et puis j'me lave la bite On sait jamais qu'une meuf soit assez bourrée pour qu'j'la nique Faut qu'j'invite la moitié d'Paris sinon j'me sens seul Dans la vie j'aime lire des mangas et m'déchirer la gueule J'collectionne les Lego Star Wars et les voitures Hot Wheels Et j'ai trop d'casquettes, trop d'shoes, trop d'lunettes, j'ai trop d'style J'ai éclaté mon forfait, ma ??? c'est la zone J'passe pour un con, j'suis l'seul de la bande qui a pas d'IPhone En bref, j'vis la vie d'n'importe quel adolescent Le problème c'est juste qu'j'ai plus d'35 ans Merde ! Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Tu sais qu'j'suis l'même-même petit-petit con c'est grave Les jeunes magacent et les mecs de mon age me gavent Ma meuf m'engueule, c'est encore trop rare que j'me lave Le matin c'est rare que j'me lève, j'ai la tête dans l'cul grave J'ai promis d'arrêter la console et d'plus bouger en boite De m'faire des salades mais j'ouvre des raviolis en boite Tous les matins d'vant larmoire qui déborde, j'bataille Mes jeans sont trop larges, trop serrés mais jamais à ma taille J'me revois encore en 4ème quand j'avais ans-12 Veste en jean, t-shirt Renaud et bandana rouge J'me revois encore quand j'voulais être un zulu et qu'j'traînais dans l'moove Élevé pas les louves aux palissades du Louvre Maintenant j'suis le Ancien Kid on the Block, le trop grand Lil Wayne Le Young Jeezy Old, le Soulja homme, le Hot Boys tiède Consomme-moi vite fait, avant qu'j'sois rassit, rincé J'suis un teenager de 35 ans, et d'mi, passés Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Et ouais au final T'as vu c'est fort la vie d'adulte, c'est compliqué la vie d'artiste Faut bien régler les factures, cours, cours après l'fric Mais j'reste encore bloqué quand j'me pognais d'vant Premiers Baisers Sur les lunettes d'Annette et j'croyais qu'j'allais jamais baiser Puis les boutons sur la gueule, ça finit par partir Les poils ça pousse, les dents ça finit par jaunir On a l'age qu'on a, j'ai l'age que j'ai J'suis toujours à l'aise, Gérard Baste 1973 x2 Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3045,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Alors comme ça, y'a des gars qui viennent voir Jérôme Qhuit en réssoi Pour le saouler avec des conneries du genre Tu mconnais pas moi ! Tu nous connais pas nous ! On est des fous ! On boit plus que tout l'monde ! On boit plus que vous ! On boit plus que tout ! Mais tu bois plus que qui ? Tu crois qu'tu parles à qui ? Ça fait longtemps quchez nous l'alcool c'est plus un loisir Encore moins une fierté Chez nous l'alcool c'est d'venu un putain d'problème On est accro à cette merde, mec Et ça peu d'gens lsavent Quand jvais chez mon pote Raph' Quon boit une bouteille de Vodka en même pas une heure Et qu'on est même pas bourré Parce qu'on reste assis comme des loques Obligés d'en ouvrir une deuxième Et ddépenser 30 euros pour s'la foutre Tu crois qu'c'est la fête ? Et encore 30 euros s'tu restes chez toi 50 si tu bois dehors, 100 euros s'tu bouges en boite 100 euros ?! Sept putain d'100 balles mec ! C'est pire que d'être dans la coke Et ça peu d'gens l'savent Tu bois plus que tout, mais jusqu'où t'es prêt à aller ? Jusqu'à crever ? Jusqu'à faire des putains d'infarctus ? Tu crois qu'tu parles à qui ? À des adolescents ? Des gars d'20 ans ? Tes potes du lycée ? Ça fait 17 ans qu'on est dans l'rap, 15 ans qu'on est dans la tise Et tout ça pour vivre au jour le jour Avec des cacahuètes pour faire plaisir à nos femmes On fait ça par amour de l'art Alors la prochaine fois qu'tu croises Jérôme Qhuit en réssoi Travaille ton flow et tes textes Parce qu'ici t'impressionneras personne avec ta consommation d'alcool Aller, sans rancune kid C'est le Svink bébé, TTC, Triptik, DSL, QhuitYou might also like</t>
+          <t>Alors comme ça, y'a des gars qui viennent voir Jérôme Qhuit en réssoi Pour le saouler avec des conneries du genre Tu mconnais pas moi ! Tu nous connais pas nous ! On est des fous ! On boit plus que tout l'monde ! On boit plus que vous ! On boit plus que tout ! Mais tu bois plus que qui ? Tu crois qu'tu parles à qui ? Ça fait longtemps quchez nous l'alcool c'est plus un loisir Encore moins une fierté Chez nous l'alcool c'est d'venu un putain d'problème On est accro à cette merde, mec Et ça peu d'gens lsavent Quand jvais chez mon pote Raph' Quon boit une bouteille de Vodka en même pas une heure Et qu'on est même pas bourré Parce qu'on reste assis comme des loques Obligés d'en ouvrir une deuxième Et ddépenser 30 euros pour s'la foutre Tu crois qu'c'est la fête ? Et encore 30 euros s'tu restes chez toi 50 si tu bois dehors, 100 euros s'tu bouges en boite 100 euros ?! Sept putain d'100 balles mec ! C'est pire que d'être dans la coke Et ça peu d'gens l'savent Tu bois plus que tout, mais jusqu'où t'es prêt à aller ? Jusqu'à crever ? Jusqu'à faire des putains d'infarctus ? Tu crois qu'tu parles à qui ? À des adolescents ? Des gars d'20 ans ? Tes potes du lycée ? Ça fait 17 ans qu'on est dans l'rap, 15 ans qu'on est dans la tise Et tout ça pour vivre au jour le jour Avec des cacahuètes pour faire plaisir à nos femmes On fait ça par amour de l'art Alors la prochaine fois qu'tu croises Jérôme Qhuit en réssoi Travaille ton flow et tes textes Parce qu'ici t'impressionneras personne avec ta consommation d'alcool Aller, sans rancune kid C'est le Svink bébé, TTC, Triptik, DSL, Qhuit</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3062,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>J'ai un p'tit problème gros J'sais plus quoi écrire J'crois bien qu'j'ai plus rien à dire Wesh, plus rien à dire J'aurais pu faire encore un de ces morceaux Avec des jeux de mots genre village picole J'aurais pu faire des jeux de mots sur l'alcool mais Faut qu'j'te tise la vérité, j'me suis dit Leffe tomber J'risquerais d'me répéter, de faire Bis-bis Et après j'bistrot, j'en ai déjà fait Kro, et Kro c'est Kro Seule la Grim' paye, aucun remord pour les soulot Chassez le naturel, il revient au goulot Ouais je garde jamais mon Pils contrôle C'est rien de le dire, unis pour le meilleur et pour le Kir J'suis le God of Boire, j'fais les choses bien J'ai tellement Chardonnay pour toute mon oeuvre J'mérite vin sur vin Toute ces phases j'en ai Martini-magine bien Qu'on m'invitera pas demain aux garden party J'm'étais promis de plus faire ce genre de titre J'aurais pu te dire que j'veux bien boire de tout Que j'suis cosmopolite Quand j'viderai mon cocktail, j'resterai sur la paille Et j'finirai sous les ponts, j'ai sifflé la rivière d'Sky J'me fais l'aVodka du diable La parole est à la défonce Toutes ces phases que j'aurais pu écrire Mais j'ai plus rien à dire Ouais j'ai plus rien à dire J'aurais pu faire comme tout le monde Balancer du rap technique Et des couplets où j'rappe vite Du genre qui retournent le public J'aurais pu faire du rap technique qui tape très vite Des rimes très bêtes qu'les puristes du boom bap critiquent Des barres qui pètent comme les presses crépitent Mais, mais, j'préfère les grosses pépètes C'est pas dans le rap qu'j'veux des vraies pépites Des rimes de merde qui s'répètent j'évite Ouais c'est vite fait, j'laisse les kids kicker sur le premier beat près J'suis un geek et un type vrai authentique Ouais j'ai du bide mais j'balance et j'valide que les hits frais J'aurais pu faire du multi syllabique sur 11 syllabes Perdre de vue qu'il n'y a vite qu'une tromperie d'base Frère, tu suces 10 milliard d'bites vu ton style naze C'n'est qu'une nullissime pratique du compilage Peu importe si j'fais des erreurs Typex On vient pour foutre le feu à l'ancienne Silex On a les dents longues et des grosse queues T-Rex Et on va t'casser tes lunettes Skrillex J'aurais pu faire ce genre de rap tech' J'aurais pu faire toutes ces rimes hashtag Mais j'sais plus quoi écrire J'crois bien qu'j'ai plus rien à dire J'ai plus rien à dire J'aurais pu te parler du monde Mais j'crois que tout va bien en ce moment J'aurais pas su d'quoi t'parler Et puis ça va d'mieux en mieux nan J'crois qu'on a évité le pire Et j'crois bien qu'y'a plus rien à dire Ouais j'ai plus rien à direYou might also like</t>
+          <t>J'ai un p'tit problème gros J'sais plus quoi écrire J'crois bien qu'j'ai plus rien à dire Wesh, plus rien à dire J'aurais pu faire encore un de ces morceaux Avec des jeux de mots genre village picole J'aurais pu faire des jeux de mots sur l'alcool mais Faut qu'j'te tise la vérité, j'me suis dit Leffe tomber J'risquerais d'me répéter, de faire Bis-bis Et après j'bistrot, j'en ai déjà fait Kro, et Kro c'est Kro Seule la Grim' paye, aucun remord pour les soulot Chassez le naturel, il revient au goulot Ouais je garde jamais mon Pils contrôle C'est rien de le dire, unis pour le meilleur et pour le Kir J'suis le God of Boire, j'fais les choses bien J'ai tellement Chardonnay pour toute mon oeuvre J'mérite vin sur vin Toute ces phases j'en ai Martini-magine bien Qu'on m'invitera pas demain aux garden party J'm'étais promis de plus faire ce genre de titre J'aurais pu te dire que j'veux bien boire de tout Que j'suis cosmopolite Quand j'viderai mon cocktail, j'resterai sur la paille Et j'finirai sous les ponts, j'ai sifflé la rivière d'Sky J'me fais l'aVodka du diable La parole est à la défonce Toutes ces phases que j'aurais pu écrire Mais j'ai plus rien à dire Ouais j'ai plus rien à dire J'aurais pu faire comme tout le monde Balancer du rap technique Et des couplets où j'rappe vite Du genre qui retournent le public J'aurais pu faire du rap technique qui tape très vite Des rimes très bêtes qu'les puristes du boom bap critiquent Des barres qui pètent comme les presses crépitent Mais, mais, j'préfère les grosses pépètes C'est pas dans le rap qu'j'veux des vraies pépites Des rimes de merde qui s'répètent j'évite Ouais c'est vite fait, j'laisse les kids kicker sur le premier beat près J'suis un geek et un type vrai authentique Ouais j'ai du bide mais j'balance et j'valide que les hits frais J'aurais pu faire du multi syllabique sur 11 syllabes Perdre de vue qu'il n'y a vite qu'une tromperie d'base Frère, tu suces 10 milliard d'bites vu ton style naze C'n'est qu'une nullissime pratique du compilage Peu importe si j'fais des erreurs Typex On vient pour foutre le feu à l'ancienne Silex On a les dents longues et des grosse queues T-Rex Et on va t'casser tes lunettes Skrillex J'aurais pu faire ce genre de rap tech' J'aurais pu faire toutes ces rimes hashtag Mais j'sais plus quoi écrire J'crois bien qu'j'ai plus rien à dire J'ai plus rien à dire J'aurais pu te parler du monde Mais j'crois que tout va bien en ce moment J'aurais pas su d'quoi t'parler Et puis ça va d'mieux en mieux nan J'crois qu'on a évité le pire Et j'crois bien qu'y'a plus rien à dire Ouais j'ai plus rien à dire</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3079,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Mais qui a laisser les chiens sortir ? Bordel, que fait la police ? Y'a vraiment plus d'justice Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes J'crache mes rimes, boxe le truc Fuck le reste, je botte les culs Je rappe, tu sues, t'es sûr qu'tu suis ? T'es ???, j'suis ??? Te rappe un ??? Mais si t'en chies haineux, je suis sympa J'redescendrais t'bicrave du shit Et ouais, je fais mon fric sur l'dos d'Gaspard et Xavier JB, ouvre la teille, on fait même groover l'gravier Moi je craque un gros spliff pour faire passer l'dragée Gros flow dans le gosier, bienvenue dans le brasier yeah! Crie mon blaze, je suis cramé, jamais naze J'ai craché des tas d'phases barrées genre raz d'marée Carré sur le groove, salaud, j'arrive à grands coups d'sabots Ça, ça va te foutre la gaule Viagra dans mes p'tites paroles, ok Avoue qu'ça roule, ça coule, soul, laidback Sur l'beat ça coule Et si ta meuf se cache man, c'est qu'ça lui hérisse la touffe Elle est pas clean ta pouf, elle veut rentrer gratuit en club Faire baisser l'prix d'la schnouf Et ouais, biz' de flouze Et moi j'te pisse dessus man, toi et ta clique de pute J'viens fourrer l'game, ça va faire mal car j'ai la bite de Hulk Mi-homme, mi-démon, je dégomme quand le beat démonte Ça y est mec j'amorce le décompte Bientôt les faux s'ront dans l'décors You might also like Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes On va r'tourner ton appart' On est v'nus boire et vomir Qui c'est qu'à app'ler les flics ? J'entends les sirènes venir oups, oups, oups Hou! Baisser la musique, plutôt mourir Allez vous faire enculé! mais j'le dis avec le sourire J'nique la justice et l'armée, j'baise la mère supérieure Appelle-moi Johnnie Haut-l'cur, car mon style técure Hou! J'suis un putain d'entertainer Slip crade sur l'ring et j'te pousse dans l'cercueil de l'Undertaker Tu flippes de faire l'amour devant les paparazzis Ta mère, ta sur la pute terroriste comme Materazzi J'men sur-bats les steaks du foot mais j'suis quand même pour Paris Et j'trace direction Cancún au volant d'Lolo Ferrari J'ai fini la mallette de Kanterbräu Entouré d'groupies du pénis, j'suis plus cool qu'on skateur pro J'me l'paquet comme Bigard À l'aise dans mon slibard, une pipe et un bon cigard J'suis cru comme au sushi bar Perdu dans la mousse, totalement à la masse On s'met d'grosses races, d'grosses traces grasses sur les 5 bonnes garces J'ai toujours des supers plans teuf J'suis glandeur nature, au bout d'mon gland c'est pas du blanc duf J'donne dans la jute verbale, j'envoie d'la rage sur les ondes J'suis indigné, presque parfait, à part la crasse sous mes ongles Alors les problèmes de conscience, qu'est ce que ça peut m'foutre, man ? J'te zappe, et j'envoie l'son qui pète comme Roger Proutman x2 Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes</t>
+          <t>Mais qui a laisser les chiens sortir ? Bordel, que fait la police ? Y'a vraiment plus d'justice Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes J'crache mes rimes, boxe le truc Fuck le reste, je botte les culs Je rappe, tu sues, t'es sûr qu'tu suis ? T'es ???, j'suis ??? Te rappe un ??? Mais si t'en chies haineux, je suis sympa J'redescendrais t'bicrave du shit Et ouais, je fais mon fric sur l'dos d'Gaspard et Xavier JB, ouvre la teille, on fait même groover l'gravier Moi je craque un gros spliff pour faire passer l'dragée Gros flow dans le gosier, bienvenue dans le brasier yeah! Crie mon blaze, je suis cramé, jamais naze J'ai craché des tas d'phases barrées genre raz d'marée Carré sur le groove, salaud, j'arrive à grands coups d'sabots Ça, ça va te foutre la gaule Viagra dans mes p'tites paroles, ok Avoue qu'ça roule, ça coule, soul, laidback Sur l'beat ça coule Et si ta meuf se cache man, c'est qu'ça lui hérisse la touffe Elle est pas clean ta pouf, elle veut rentrer gratuit en club Faire baisser l'prix d'la schnouf Et ouais, biz' de flouze Et moi j'te pisse dessus man, toi et ta clique de pute J'viens fourrer l'game, ça va faire mal car j'ai la bite de Hulk Mi-homme, mi-démon, je dégomme quand le beat démonte Ça y est mec j'amorce le décompte Bientôt les faux s'ront dans l'décors Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes On va r'tourner ton appart' On est v'nus boire et vomir Qui c'est qu'à app'ler les flics ? J'entends les sirènes venir oups, oups, oups Hou! Baisser la musique, plutôt mourir Allez vous faire enculé! mais j'le dis avec le sourire J'nique la justice et l'armée, j'baise la mère supérieure Appelle-moi Johnnie Haut-l'cur, car mon style técure Hou! J'suis un putain d'entertainer Slip crade sur l'ring et j'te pousse dans l'cercueil de l'Undertaker Tu flippes de faire l'amour devant les paparazzis Ta mère, ta sur la pute terroriste comme Materazzi J'men sur-bats les steaks du foot mais j'suis quand même pour Paris Et j'trace direction Cancún au volant d'Lolo Ferrari J'ai fini la mallette de Kanterbräu Entouré d'groupies du pénis, j'suis plus cool qu'on skateur pro J'me l'paquet comme Bigard À l'aise dans mon slibard, une pipe et un bon cigard J'suis cru comme au sushi bar Perdu dans la mousse, totalement à la masse On s'met d'grosses races, d'grosses traces grasses sur les 5 bonnes garces J'ai toujours des supers plans teuf J'suis glandeur nature, au bout d'mon gland c'est pas du blanc duf J'donne dans la jute verbale, j'envoie d'la rage sur les ondes J'suis indigné, presque parfait, à part la crasse sous mes ongles Alors les problèmes de conscience, qu'est ce que ça peut m'foutre, man ? J'te zappe, et j'envoie l'son qui pète comme Roger Proutman x2 Hou! On s'la met comme au Spring Break, oui Hou! Keupon remue ta p'tite crête, oui Hou! Deux doigts dans ta p'tite schneck J'espère que t'es dans l'trip ??? On va vider des barils pour se réchauffer Danser, lancer des concours de t-shirts mouillés Hou! On s'la met comme au Spring Break C'est la fête tant qu'il y aura des mecs débiles et des filles prêtes</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3096,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Aujourd'hui, jaffronte un des grands paroliers du jeu Pâtissier d'l'Orient, pardonnez du peu Il a dit qules socialistes ont changé Paris en toilettes Bah, fils de pute, fallait pas voter pour eux Ton round sur Paris, c'était très gilet jaune Tu t'es plaint d'l'insécurité qui, dans cette ville, est haute Puis tu viens nous faire la morale avec tes idées d'gauche Pourquoi tu t'plains des conséquences dont tu chéries les causes ? Tu t'es plaint des Roumains qui volent bien vu, mon pot Tu penses que, sous Louis quatorzièm du nom, ça tournait plus rond bienvenue au club Ça commence par un round un peu réac et, dans quelques battles, le gars fera Mein Kampf Contre Wolff, tas dit qu'il sappelait comme une star du battle rap allemand Ok, donc c'est moi l'nazi mais c'est toi qui mates du battle rap allemand Espèce de fiente de glaviot Si, dans ccontexte, tu t'mets à traiter tous les gens qui s'défendent de fachos Bah tu mérites un guet-apens par une bande de Bramzo J'veux qu'ils viennent avec un schlass te viser l'bide J'espère qu'leurs lames te cisèleront, comme une boîte de chicken wings J'veux qu'ça soit d'ceux qui t'rackettaient par quatre à l'école De ceux qui s'sont rendus en masse à Crépol pour massacrer Paul Si, à la suite de mes propos, des minorités veulent m'ôter la vie J'ai quelques potes journalistes, tu crois la faire à qui ? J'viens d'un milieu récupérateur, comme Verratti Beaucoup attendaient l'affrontement des Lumières face à Vichy J'sais pas comment tu comptes l'aborder mais, moi, ce sera vite fait bite, fesses, Hitler, caca, pipi J'ai des images qui sont parmi les plus sombres Comme Thaïs d'Escufon avec un avis d'expulsion Ta tête va faire toutes sortes de rotations Quand j't'envoie des mandales avec une force de Cro-Magnon J'suis sous les ordres de Gros Lardon J'vais t'boire comme Hennessy, j'vais t'graille comme steak et frites Toi, t'es comme tous les électeurs LFI, t'aimes les garçons et les filles J'veux qu'tu t'fasses licencier, j'souhaite à ta fiancée la gonorrhée Fuck le cachet du ROAR, j'suis financé par Bolloré Et, si vous voulez quand même me donner d'l'argent, eh bien sachez que je compte reverser L'intégralité d'mon cachet à des auteurs controversés Faire des rounds d'extrême droite en 2024, c'est vrai que c'est un peu opportuniste, et ça pue la mort C'est vrai qu'j'ai pas eu ton courage de faire l'gauchiste alors qu'c'est plus la mode You might also like Ouatsonne, allons droit au but, t'es un dangereux facho misogyne et raciste Ça, c'est c'que disent tes détracteurs Eh mais vous en avez pas marre de mettre les gens dans des cases ? Quand il dit qu'Harvey Weinstein est innocent, qu'y'a trop d'immigration J'vais pas dire qu'ça m'dérange pas, ouais, faut qu'j'avoue qu'si Qu'Hitler est un gauchiste, que les nazis se sont trop adoucis Mais d'là à dire qu'c'est un facho, c'est un gros raccourci Moi, c'est pareil, arrêtez d'me traiter d'gauchiste Juste parce que j'lis que des textes de femmes et des écrits de trans' Et que j'dis c'que j'pense J'vois pas c'qu'y'a d'mal à trouver qu'y'a trop d'Blancs en Équipe de France Oui, j'défends les droits des gays et des transgenres, mais arrêtez d'dire qu'j'suis woke dès qu'j'débarque en scène La preuve j'ai un ami qu'a pas d'cheveux bleus ou de veste arc-en-ciel, et j'l'ai même pas cancel On m'dit qu'j'suis un homme soja parce que, mes repas, c'est boulgourPerrier Et j'me fais tout l'temps traiter d'islamo-gauchiste, non mais vous verriez Juste parce que j'ai signé la pétition pour qu'l'Aïd soit un jour férié Ouatsonne et moi, on en a marre d'subir vos préjugés On a créé une association d'défense des battles MC, faut nous donner d'la force Parce que, lui, parmi les fachos, il est nommé à tort Par exemple, quand il dit qu'il faut commettre plus de féminicides, alors, certes, c'est un peu abrupte au premier abord À la deuxième écoute, ça ressemble toujours à un encouragement à donner la mort Mais j'vous jure qu'à la trentième écoute... bon, ok, d'accord Faut s'rendre à l'évidence, tu t'revendiques toi-même comme un rappeur d'extrême droite Donc, même si tu sors un gros Magnum, personne n'achètera ton album, ouais, c'est ça qu'on s'dit Profites-en avant qu'ma paume t'assomme, là, t'es devant l'fait accompli On va voir si tu vas assumer maintenant qu'on est homme à homme Enfin, homme moi, j'me considère plus comme non-binaire... T'es devant l'fait accompli On va voir si tu vas assumer maintenant qu'on est homme à homme Enfin, moi, j'me considère plus comme non-binaire à dominante masculine mais, bref, t'as compris Toi et ton bord politique, vous êtes des obsessionnels, laissez les musulmans tranquilles, y'en a marre Parce que vos discours qui parlent d'Arabes, d'islam, c'est innovant Que des incitations à la haine, des crachats, des larmes, des hymnes au sang Salah Abdeslam est innocent En vrai, tu dis qu'ton rôle, c'est d'rendre l'extrême droite fréquentable mais, des battles, tu peux en faire six mille On n'oubliera pas votre haine raciale, vos vux d'guerre civile Car pas besoin d'être un expert des grandes guerres mondiales ou d'la chute de Constantinople Pour savoir que les massacres sont une constante ignoble et qu'vous créerez juste des champs d'pierres tombales Et, à vrai dire, y'a des soirs Où j'me demande si vous êtes à c'point amnésiques car l'Histoire Nous a montré c'que produisent ces temps où défilent les torches et où les ennemis s'écorchent Rappelons-nous d'cela car, parfois, pour éviter qu'les esprits s'échauffent, suffit d'se rafraîchir la mémoire T'es fan de médias progressistes Konbini, Vice, ça, tu kiffes Tu t'es même abonné à BrutX, abruti Pâtissier, tes proches veulent plus passer Noël en compagnie de toi Parce que t'es l'oncle gauchiste dans une famille de droite Tu les fais chier, Pâtissier, tu casses les couilles avec ça T'es tellement woke, si j'prends tes jambes, j'peux cuire des nouilles avec toi Donc, toi, tu prends tes adversaire et tu t'en sers d'urinoir Tu devrais pas dire à IRL c'que tu n'dis pas chez Pand'or Tu peux pas t'servir d'urinoir les urinoirs, c'est transphobe T'es pâtissier, toi ? T'es pâtissier quand ? Tu vas plus t'servir d'l'urinoir, j'suis parti chier d'dans Lyricalement, t'es bon mais, globalement, tu m'écures On a compris qu't'étais un être omniscient et moralement supérieur Pour faire l'intéressant, monsieur n'a rien trouvé d'plus utile à faire Que prendre des auteurs au hasard et faire des multis avec T'es juste un gauchiste pédant qui cite des livres qu'il ne maîtrise pas Et qui s'en sert allégrement pour faire du mépris d'classe Quand tu t'adresses à ton audience, eh bah, déjà, tu l'éduques pas Tellement d'branlettes cérébrales, ils vont éjaculer du crâne Donc, quand ce coquin de bourge hautain de fou Leur fait des références obscures pendant qu'aucun ne l'ouvre Ça n'a ni queue ni tête, comme Olympe de Gouges Moi aussi, j'sais faire T'as lu la page Wikipédia de Jean-Paul Sartre pour briller en société, pour qu'tu fasses de l'esprit Et t'as été surpris qu'il ait décidé d's'appeler comme le battle MC Tu m'fais rire comme guili-guili T'es juste un mec qui dit qu'il lit J'viens t'mettre les doigts dans les yeux, les poings dans les burnes Tu t'revendiques des Lumières mais t'es loin d'en être une Parce que la prétendue culture de c'gars hautain est fictive Tu fais honte à tes enfants, Apollin et Myrtille Pâtissier, ta famille et toi, si vous changiez d'adresse À vous tout seuls, vous pourriez gentrifier Barbès Tu n'es qu'un fatigué, un Pâtissier low-cost qui prend sa droite, qui fait dodo J'suis venu ici pour t'faire du mal et c'est moi qui m'fais l'bobo Cependant, j'éprouve à ton égard comme un vent de pulsion On est venus mélanger nos plumes dans un genre de fusion On a beau s'affronter maintenant dans cette antre du lion N'oublie jamais qu'en 2016, nous nous entre-sucions Pendant ton round, j'ai beaucoup réfléchi Après tout, qu'tu sois fasciste, qui suis-je pour juger ? T'as ton avis, j'ai le mien Mais, quand j'écoute tes arguments, c'est plutôt périlleux J'pense que tu peux faire mieux, mets-y un peu d'sérieux Si tu veux faire le mal, au moins, fais-le bien Parce qu'aussi dur qu'ce soit pour moi d'l'admettre, les droitards ne sont pas des gens bêtes Y'a eu des théoriciens structurés qui ont permis l'avènement des États fascistes Y'a eu des brillants penseurs, comme Céline, y'a même des auteurs d'extrême droite à lire Puis y'a Ouatsonne qui dit dans son interview que la délinquance, c'est pas grave si c'est fait par des Blancs frère, j'sais même pas quoi t'dire Disons qu't'es pas l'plus malin d'ta bande Parce que, même si c'est des idées nauséabondes et que ça m'débecte C'est que, l'extrême droite, c'est une culture et, moi, j'suis un homme de gauche Et, pour un homme de gauche, une culture, ça s'respecte Fais des efforts, là, tu viens, pull, p'tite chaîne mais, dans la vraie vie, t'as un chino et une p'tite écharpe Tes potes, c'est pas des Blancs déter', y'a des Turques puis des Jap', y'a un truc qui m'échappe Et, pour ma démonstration, y'a ta nation lamentable qui m'aide Quand on pense à la Suisse, on pense plus à une association emmentalskineige qu'à un mental skinhead J'suis pas sûr qu'ton pays soit à la hauteur de tes ambitions Parce que c'est nous, en France, qui donnons un César à Polanski, ouais, c'est sinistre à donf' On a un quart du gouvernement qu'est poursuivi pour violences sexistes d'après c'que leurs victimes racontent Vous avez même pas un violeur dans vos ministres, la honte Arrête de t'approprier notre culture Le truc le plus violent qu'ont vécu tes arrières grands-parents, c'est un problème d'horloge suisse et des galères de bus Ils étaient où quand nos ancêtres criaient mort aux juifs pendant l'affaire Dreyfus ? Vous pouvez pas rivaliser Les crimes atroces que nos ennemis vécurent, les richesses du tiers-monde que nos églises perçurent Alors la Suisse comme pays du mal, j'dirais pas que c'est hyper sûr Vous étiez où quand on a colonisé les deux-tiers de l'hémisphère sud ? C'est nous, les vrais racistes Tu peux parader, inonder quiconque de pure vanité T'es juste jaloux parce que vous avez commis aucun crime contre l'humanité Arrête de salir notre extrême droite avec ton pays d'fragiles La preuve en France, Lamanif était c'battle MC qui aime la crasse, les phases sales et qui adore l'orgie On venait écouter des phases sexistes, homophobes, et leur apologie Deux mois en Suisse et il nous fait des rounds d'horlogerie Et, Ouatsonne, il joue l'raciste mais il est bien content chez lui Quand sa femme de ménage étrangère laisse sa salle de bain propre et ses toilettes rangées Mais n'oublie pas qu'ici, c'est toi, l'étranger On va t'montrer comment ils sont traités, on va t'mettre dans un camp d'rétention sans lumière, assoiffé d'air pur Pire encore, on va t'faire vivre une journée d'attente à la préfecture Ça m'avait l'air dur Alors j'vais pas t'le dire deux fois quitte le ROAR, retourne dans ton pays, y'en a marre de t'entendre brasser Trouve-toi une vie, t'as trente ans passés Les battles MC bien d'chez nous en ont marre que tu viennes les grand remplacer J'aimerais parler du fait qu'à la Jokes Over Barz, K5 t'aie insulté d'juif C'était le 7 octobre 2023, c'était d'un subversif Le lendemain, Israël entame un génocide à Gaza t'es d'un susceptible Quand il s'agit d'vous reconnaître, à la base, j'suis pas trop sûr Mais t'as les yeux globuleux, le dos voûté, les doigts crochus Si j'avais ramené mes outils, j'aurais pu vous prouver ici Que sa posture et son nez forment une courbe sémitique C'est scientifique Tout c'que ton visage me donne envie d'écrire, c'est sidérant J'ai envie d'te dépeindre en p'tit Levy, en juif errant J'suis pas antisioniste, j'suis antisémite, c'est différent C'est différent, c'est pas la même chose, c'est pas la même chose C'est différent T'es vraiment pas prêt pour c'que tu vas t'ramasser J'vais t'Hamasser J'imagine des tresses de rabbi sur ta tête de Nagui J'suis sûr que, Meyer Habib, c'est ton meilleur ami Moi, si j'suis dans l'lobby, c'est qu'j'suis dans l'rez-d'chaussée d'l'hôtel Toi, si t'es dans l'lobby, bah c'est pour dérober nos terres Toi, si t'allumes des bougies, c'est pour Chabbat, Hanoukkah, j'sais pas quel fête à vous Moi, si j'allume des bougies, c'est que j'vais faire l'amour Vous êtes la honte des religions monothéistes Tes ancêtres ont violé Y et menotté X Donc j'vais t'infliger en rimes c'que les tox' prennent en méthadone J'me suis inspiré d'un auteur qui se prénommait Adolf Tu vas regretter les écrits qu'Adolf Hitler dit dans ses livres J'suis ghost writé par Jésus Christ et Louis-Ferdinand Céline J'te mets des patates dans la tempe puis dans ta panse à mascarpone Et t'iras, sans attendre, nous rendre l'argent d'la taxe carbone Tu veux qu'on s'fritte comme des hommes, mon p'tit John Lennon ? J'vais t'séquestrer dans une cave et mettre du Freeze Corleone T'écouteras l'plus subversif qu'il peut donner en deux mixtapes Après ça, j'te mets des sketchs de Dieudonné en 2007 Paraît qu'un peuple vous a gazé, du moins en a eu l'intention J't'aurais p't-être dit qu'c'était bien fait, si c'était pas une invention Juif qui parle, bouche qui ment Dieu bénisse ceux qui créèrent cette devise J'ai lu Les Carnets de Turner et les .pdf de Cheef J'sors de vingt ans d'complotisme, j'y ai mis fougue et intérêt J'ai fait ça dans l'dos d'mes parents, sans qu'mes goûts n'les interpellent Quand j'matais Soral à douze ans, fallait m'couper internet Mais, en vrai, j't'aime bien, puis j'aime pas quand tu m'fais la gueule Donc, en cas d'défaite, j't'ai écrit tout un round pour censurer l'battle Bon, j'ai fait deux rounds de politique encore un round politique, je dis non À la base, on est là pour s'détendre, du coup, cette fois, j'vais parler... de religion Parce que tu portes une croix autour du cou mais, la trajectoire d'Ouatsonne, laissez-moi la faire Quand j't'ai rencontré, t'avais jamais mis les pieds dans une église, c'est une sale affaire Ton expression préférée, c'était wAllah frère On vous connaît, les identitaires y'a cinq ans, vous étiez unanimes La religion, c'était juste has been Mais genre, maintenant, on a bien pu l'voir, ça déchire Il vous a suffi d'trois vidéos d'Papacito et, à c'qu'il p', vous êtes tous devenus ceinture noire d'catéchisme Ce genre de chrétien 2.0, ça s'voit qu't'y connais tellement rien T'es capable de trouver les Saintes Écritures hip-hop N'importe qui connaît mieux l'christianisme que toi, même en Chine Si j'te montre une image d'Adam et Eve en jeans, j'suis sûr qu'y'a même pas un p'tit truc qui t'choque Moi, j'ai lu les Évangiles, j'vais pas perdre mon temps avec un gars qu'a découvert la Bible sur TikTok Pour toi, la religion, c'est juste le truc à la mode Et j'suis pas prosélyte, chacun croit c'qu'il veut Tu peux louer Bouddha, tu peux boire cinq bières faites par des moines imberbes ou rêver d'voir Saint-Pierre Mais un peu d'respect pour les vrais croyants, car j'suis pas sûr que ta voie s'insère dans une foi sincère Parce que, mec, tu t'es mis à parler d'religion en même temps qu'tu t'es mis à parler de prendre et de dealer d'la drogue C'est quoi c'type abjecte ? La religion, c'est pas un truc de cokés qui s'la mettent Un peu d'respect, car j'suis pas sûr que le Christ admette tes délires d'crystal meth Oui, j'suis énervé, et j'vois qu't'es déçu quand j'prends l'attention Mais, aujourd'hui, j'suis venu te remonter l'hébreu tel Jésus pendant l'Ascension Tu fais l'croyant, mais cachez ce saint que je ne saurais voir, tu m'fais donc rire Parce qu'on sait qu'dans l'intimité, tu mets l'athée au-dessus du pieux, comme quand tu refais ton lit Alors, Ouatsonne, t'as beau dire qu'tu veux sauver l'Europe chrétienne, éviter qu'la croix s'enlise pendant qu'le croissant luit Mais, si tu préfères prendre de la MD que d'lire un livre sur le Roi Saint Louis Et qu'tu t'es drogué pendant plus d'trois cents nuits J'suis pas expert, hein, mais j'crois que, même Dieu lui-même, Il préfère pas qu'tu croies en Lui</t>
+          <t>Aujourd'hui, jaffronte un des grands paroliers du jeu Pâtissier d'l'Orient, pardonnez du peu Il a dit qules socialistes ont changé Paris en toilettes Bah, fils de pute, fallait pas voter pour eux Ton round sur Paris, c'était très gilet jaune Tu t'es plaint d'l'insécurité qui, dans cette ville, est haute Puis tu viens nous faire la morale avec tes idées d'gauche Pourquoi tu t'plains des conséquences dont tu chéries les causes ? Tu t'es plaint des Roumains qui volent bien vu, mon pot Tu penses que, sous Louis quatorzièm du nom, ça tournait plus rond bienvenue au club Ça commence par un round un peu réac et, dans quelques battles, le gars fera Mein Kampf Contre Wolff, tas dit qu'il sappelait comme une star du battle rap allemand Ok, donc c'est moi l'nazi mais c'est toi qui mates du battle rap allemand Espèce de fiente de glaviot Si, dans ccontexte, tu t'mets à traiter tous les gens qui s'défendent de fachos Bah tu mérites un guet-apens par une bande de Bramzo J'veux qu'ils viennent avec un schlass te viser l'bide J'espère qu'leurs lames te cisèleront, comme une boîte de chicken wings J'veux qu'ça soit d'ceux qui t'rackettaient par quatre à l'école De ceux qui s'sont rendus en masse à Crépol pour massacrer Paul Si, à la suite de mes propos, des minorités veulent m'ôter la vie J'ai quelques potes journalistes, tu crois la faire à qui ? J'viens d'un milieu récupérateur, comme Verratti Beaucoup attendaient l'affrontement des Lumières face à Vichy J'sais pas comment tu comptes l'aborder mais, moi, ce sera vite fait bite, fesses, Hitler, caca, pipi J'ai des images qui sont parmi les plus sombres Comme Thaïs d'Escufon avec un avis d'expulsion Ta tête va faire toutes sortes de rotations Quand j't'envoie des mandales avec une force de Cro-Magnon J'suis sous les ordres de Gros Lardon J'vais t'boire comme Hennessy, j'vais t'graille comme steak et frites Toi, t'es comme tous les électeurs LFI, t'aimes les garçons et les filles J'veux qu'tu t'fasses licencier, j'souhaite à ta fiancée la gonorrhée Fuck le cachet du ROAR, j'suis financé par Bolloré Et, si vous voulez quand même me donner d'l'argent, eh bien sachez que je compte reverser L'intégralité d'mon cachet à des auteurs controversés Faire des rounds d'extrême droite en 2024, c'est vrai que c'est un peu opportuniste, et ça pue la mort C'est vrai qu'j'ai pas eu ton courage de faire l'gauchiste alors qu'c'est plus la mode Ouatsonne, allons droit au but, t'es un dangereux facho misogyne et raciste Ça, c'est c'que disent tes détracteurs Eh mais vous en avez pas marre de mettre les gens dans des cases ? Quand il dit qu'Harvey Weinstein est innocent, qu'y'a trop d'immigration J'vais pas dire qu'ça m'dérange pas, ouais, faut qu'j'avoue qu'si Qu'Hitler est un gauchiste, que les nazis se sont trop adoucis Mais d'là à dire qu'c'est un facho, c'est un gros raccourci Moi, c'est pareil, arrêtez d'me traiter d'gauchiste Juste parce que j'lis que des textes de femmes et des écrits de trans' Et que j'dis c'que j'pense J'vois pas c'qu'y'a d'mal à trouver qu'y'a trop d'Blancs en Équipe de France Oui, j'défends les droits des gays et des transgenres, mais arrêtez d'dire qu'j'suis woke dès qu'j'débarque en scène La preuve j'ai un ami qu'a pas d'cheveux bleus ou de veste arc-en-ciel, et j'l'ai même pas cancel On m'dit qu'j'suis un homme soja parce que, mes repas, c'est boulgourPerrier Et j'me fais tout l'temps traiter d'islamo-gauchiste, non mais vous verriez Juste parce que j'ai signé la pétition pour qu'l'Aïd soit un jour férié Ouatsonne et moi, on en a marre d'subir vos préjugés On a créé une association d'défense des battles MC, faut nous donner d'la force Parce que, lui, parmi les fachos, il est nommé à tort Par exemple, quand il dit qu'il faut commettre plus de féminicides, alors, certes, c'est un peu abrupte au premier abord À la deuxième écoute, ça ressemble toujours à un encouragement à donner la mort Mais j'vous jure qu'à la trentième écoute... bon, ok, d'accord Faut s'rendre à l'évidence, tu t'revendiques toi-même comme un rappeur d'extrême droite Donc, même si tu sors un gros Magnum, personne n'achètera ton album, ouais, c'est ça qu'on s'dit Profites-en avant qu'ma paume t'assomme, là, t'es devant l'fait accompli On va voir si tu vas assumer maintenant qu'on est homme à homme Enfin, homme moi, j'me considère plus comme non-binaire... T'es devant l'fait accompli On va voir si tu vas assumer maintenant qu'on est homme à homme Enfin, moi, j'me considère plus comme non-binaire à dominante masculine mais, bref, t'as compris Toi et ton bord politique, vous êtes des obsessionnels, laissez les musulmans tranquilles, y'en a marre Parce que vos discours qui parlent d'Arabes, d'islam, c'est innovant Que des incitations à la haine, des crachats, des larmes, des hymnes au sang Salah Abdeslam est innocent En vrai, tu dis qu'ton rôle, c'est d'rendre l'extrême droite fréquentable mais, des battles, tu peux en faire six mille On n'oubliera pas votre haine raciale, vos vux d'guerre civile Car pas besoin d'être un expert des grandes guerres mondiales ou d'la chute de Constantinople Pour savoir que les massacres sont une constante ignoble et qu'vous créerez juste des champs d'pierres tombales Et, à vrai dire, y'a des soirs Où j'me demande si vous êtes à c'point amnésiques car l'Histoire Nous a montré c'que produisent ces temps où défilent les torches et où les ennemis s'écorchent Rappelons-nous d'cela car, parfois, pour éviter qu'les esprits s'échauffent, suffit d'se rafraîchir la mémoire T'es fan de médias progressistes Konbini, Vice, ça, tu kiffes Tu t'es même abonné à BrutX, abruti Pâtissier, tes proches veulent plus passer Noël en compagnie de toi Parce que t'es l'oncle gauchiste dans une famille de droite Tu les fais chier, Pâtissier, tu casses les couilles avec ça T'es tellement woke, si j'prends tes jambes, j'peux cuire des nouilles avec toi Donc, toi, tu prends tes adversaire et tu t'en sers d'urinoir Tu devrais pas dire à IRL c'que tu n'dis pas chez Pand'or Tu peux pas t'servir d'urinoir les urinoirs, c'est transphobe T'es pâtissier, toi ? T'es pâtissier quand ? Tu vas plus t'servir d'l'urinoir, j'suis parti chier d'dans Lyricalement, t'es bon mais, globalement, tu m'écures On a compris qu't'étais un être omniscient et moralement supérieur Pour faire l'intéressant, monsieur n'a rien trouvé d'plus utile à faire Que prendre des auteurs au hasard et faire des multis avec T'es juste un gauchiste pédant qui cite des livres qu'il ne maîtrise pas Et qui s'en sert allégrement pour faire du mépris d'classe Quand tu t'adresses à ton audience, eh bah, déjà, tu l'éduques pas Tellement d'branlettes cérébrales, ils vont éjaculer du crâne Donc, quand ce coquin de bourge hautain de fou Leur fait des références obscures pendant qu'aucun ne l'ouvre Ça n'a ni queue ni tête, comme Olympe de Gouges Moi aussi, j'sais faire T'as lu la page Wikipédia de Jean-Paul Sartre pour briller en société, pour qu'tu fasses de l'esprit Et t'as été surpris qu'il ait décidé d's'appeler comme le battle MC Tu m'fais rire comme guili-guili T'es juste un mec qui dit qu'il lit J'viens t'mettre les doigts dans les yeux, les poings dans les burnes Tu t'revendiques des Lumières mais t'es loin d'en être une Parce que la prétendue culture de c'gars hautain est fictive Tu fais honte à tes enfants, Apollin et Myrtille Pâtissier, ta famille et toi, si vous changiez d'adresse À vous tout seuls, vous pourriez gentrifier Barbès Tu n'es qu'un fatigué, un Pâtissier low-cost qui prend sa droite, qui fait dodo J'suis venu ici pour t'faire du mal et c'est moi qui m'fais l'bobo Cependant, j'éprouve à ton égard comme un vent de pulsion On est venus mélanger nos plumes dans un genre de fusion On a beau s'affronter maintenant dans cette antre du lion N'oublie jamais qu'en 2016, nous nous entre-sucions Pendant ton round, j'ai beaucoup réfléchi Après tout, qu'tu sois fasciste, qui suis-je pour juger ? T'as ton avis, j'ai le mien Mais, quand j'écoute tes arguments, c'est plutôt périlleux J'pense que tu peux faire mieux, mets-y un peu d'sérieux Si tu veux faire le mal, au moins, fais-le bien Parce qu'aussi dur qu'ce soit pour moi d'l'admettre, les droitards ne sont pas des gens bêtes Y'a eu des théoriciens structurés qui ont permis l'avènement des États fascistes Y'a eu des brillants penseurs, comme Céline, y'a même des auteurs d'extrême droite à lire Puis y'a Ouatsonne qui dit dans son interview que la délinquance, c'est pas grave si c'est fait par des Blancs frère, j'sais même pas quoi t'dire Disons qu't'es pas l'plus malin d'ta bande Parce que, même si c'est des idées nauséabondes et que ça m'débecte C'est que, l'extrême droite, c'est une culture et, moi, j'suis un homme de gauche Et, pour un homme de gauche, une culture, ça s'respecte Fais des efforts, là, tu viens, pull, p'tite chaîne mais, dans la vraie vie, t'as un chino et une p'tite écharpe Tes potes, c'est pas des Blancs déter', y'a des Turques puis des Jap', y'a un truc qui m'échappe Et, pour ma démonstration, y'a ta nation lamentable qui m'aide Quand on pense à la Suisse, on pense plus à une association emmentalskineige qu'à un mental skinhead J'suis pas sûr qu'ton pays soit à la hauteur de tes ambitions Parce que c'est nous, en France, qui donnons un César à Polanski, ouais, c'est sinistre à donf' On a un quart du gouvernement qu'est poursuivi pour violences sexistes d'après c'que leurs victimes racontent Vous avez même pas un violeur dans vos ministres, la honte Arrête de t'approprier notre culture Le truc le plus violent qu'ont vécu tes arrières grands-parents, c'est un problème d'horloge suisse et des galères de bus Ils étaient où quand nos ancêtres criaient mort aux juifs pendant l'affaire Dreyfus ? Vous pouvez pas rivaliser Les crimes atroces que nos ennemis vécurent, les richesses du tiers-monde que nos églises perçurent Alors la Suisse comme pays du mal, j'dirais pas que c'est hyper sûr Vous étiez où quand on a colonisé les deux-tiers de l'hémisphère sud ? C'est nous, les vrais racistes Tu peux parader, inonder quiconque de pure vanité T'es juste jaloux parce que vous avez commis aucun crime contre l'humanité Arrête de salir notre extrême droite avec ton pays d'fragiles La preuve en France, Lamanif était c'battle MC qui aime la crasse, les phases sales et qui adore l'orgie On venait écouter des phases sexistes, homophobes, et leur apologie Deux mois en Suisse et il nous fait des rounds d'horlogerie Et, Ouatsonne, il joue l'raciste mais il est bien content chez lui Quand sa femme de ménage étrangère laisse sa salle de bain propre et ses toilettes rangées Mais n'oublie pas qu'ici, c'est toi, l'étranger On va t'montrer comment ils sont traités, on va t'mettre dans un camp d'rétention sans lumière, assoiffé d'air pur Pire encore, on va t'faire vivre une journée d'attente à la préfecture Ça m'avait l'air dur Alors j'vais pas t'le dire deux fois quitte le ROAR, retourne dans ton pays, y'en a marre de t'entendre brasser Trouve-toi une vie, t'as trente ans passés Les battles MC bien d'chez nous en ont marre que tu viennes les grand remplacer J'aimerais parler du fait qu'à la Jokes Over Barz, K5 t'aie insulté d'juif C'était le 7 octobre 2023, c'était d'un subversif Le lendemain, Israël entame un génocide à Gaza t'es d'un susceptible Quand il s'agit d'vous reconnaître, à la base, j'suis pas trop sûr Mais t'as les yeux globuleux, le dos voûté, les doigts crochus Si j'avais ramené mes outils, j'aurais pu vous prouver ici Que sa posture et son nez forment une courbe sémitique C'est scientifique Tout c'que ton visage me donne envie d'écrire, c'est sidérant J'ai envie d'te dépeindre en p'tit Levy, en juif errant J'suis pas antisioniste, j'suis antisémite, c'est différent C'est différent, c'est pas la même chose, c'est pas la même chose C'est différent T'es vraiment pas prêt pour c'que tu vas t'ramasser J'vais t'Hamasser J'imagine des tresses de rabbi sur ta tête de Nagui J'suis sûr que, Meyer Habib, c'est ton meilleur ami Moi, si j'suis dans l'lobby, c'est qu'j'suis dans l'rez-d'chaussée d'l'hôtel Toi, si t'es dans l'lobby, bah c'est pour dérober nos terres Toi, si t'allumes des bougies, c'est pour Chabbat, Hanoukkah, j'sais pas quel fête à vous Moi, si j'allume des bougies, c'est que j'vais faire l'amour Vous êtes la honte des religions monothéistes Tes ancêtres ont violé Y et menotté X Donc j'vais t'infliger en rimes c'que les tox' prennent en méthadone J'me suis inspiré d'un auteur qui se prénommait Adolf Tu vas regretter les écrits qu'Adolf Hitler dit dans ses livres J'suis ghost writé par Jésus Christ et Louis-Ferdinand Céline J'te mets des patates dans la tempe puis dans ta panse à mascarpone Et t'iras, sans attendre, nous rendre l'argent d'la taxe carbone Tu veux qu'on s'fritte comme des hommes, mon p'tit John Lennon ? J'vais t'séquestrer dans une cave et mettre du Freeze Corleone T'écouteras l'plus subversif qu'il peut donner en deux mixtapes Après ça, j'te mets des sketchs de Dieudonné en 2007 Paraît qu'un peuple vous a gazé, du moins en a eu l'intention J't'aurais p't-être dit qu'c'était bien fait, si c'était pas une invention Juif qui parle, bouche qui ment Dieu bénisse ceux qui créèrent cette devise J'ai lu Les Carnets de Turner et les .pdf de Cheef J'sors de vingt ans d'complotisme, j'y ai mis fougue et intérêt J'ai fait ça dans l'dos d'mes parents, sans qu'mes goûts n'les interpellent Quand j'matais Soral à douze ans, fallait m'couper internet Mais, en vrai, j't'aime bien, puis j'aime pas quand tu m'fais la gueule Donc, en cas d'défaite, j't'ai écrit tout un round pour censurer l'battle Bon, j'ai fait deux rounds de politique encore un round politique, je dis non À la base, on est là pour s'détendre, du coup, cette fois, j'vais parler... de religion Parce que tu portes une croix autour du cou mais, la trajectoire d'Ouatsonne, laissez-moi la faire Quand j't'ai rencontré, t'avais jamais mis les pieds dans une église, c'est une sale affaire Ton expression préférée, c'était wAllah frère On vous connaît, les identitaires y'a cinq ans, vous étiez unanimes La religion, c'était juste has been Mais genre, maintenant, on a bien pu l'voir, ça déchire Il vous a suffi d'trois vidéos d'Papacito et, à c'qu'il p', vous êtes tous devenus ceinture noire d'catéchisme Ce genre de chrétien 2.0, ça s'voit qu't'y connais tellement rien T'es capable de trouver les Saintes Écritures hip-hop N'importe qui connaît mieux l'christianisme que toi, même en Chine Si j'te montre une image d'Adam et Eve en jeans, j'suis sûr qu'y'a même pas un p'tit truc qui t'choque Moi, j'ai lu les Évangiles, j'vais pas perdre mon temps avec un gars qu'a découvert la Bible sur TikTok Pour toi, la religion, c'est juste le truc à la mode Et j'suis pas prosélyte, chacun croit c'qu'il veut Tu peux louer Bouddha, tu peux boire cinq bières faites par des moines imberbes ou rêver d'voir Saint-Pierre Mais un peu d'respect pour les vrais croyants, car j'suis pas sûr que ta voie s'insère dans une foi sincère Parce que, mec, tu t'es mis à parler d'religion en même temps qu'tu t'es mis à parler de prendre et de dealer d'la drogue C'est quoi c'type abjecte ? La religion, c'est pas un truc de cokés qui s'la mettent Un peu d'respect, car j'suis pas sûr que le Christ admette tes délires d'crystal meth Oui, j'suis énervé, et j'vois qu't'es déçu quand j'prends l'attention Mais, aujourd'hui, j'suis venu te remonter l'hébreu tel Jésus pendant l'Ascension Tu fais l'croyant, mais cachez ce saint que je ne saurais voir, tu m'fais donc rire Parce qu'on sait qu'dans l'intimité, tu mets l'athée au-dessus du pieux, comme quand tu refais ton lit Alors, Ouatsonne, t'as beau dire qu'tu veux sauver l'Europe chrétienne, éviter qu'la croix s'enlise pendant qu'le croissant luit Mais, si tu préfères prendre de la MD que d'lire un livre sur le Roi Saint Louis Et qu'tu t'es drogué pendant plus d'trois cents nuits J'suis pas expert, hein, mais j'crois que, même Dieu lui-même, Il préfère pas qu'tu croies en Lui</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3113,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>C'est si bon dêtre là. J'suis aussi vrai que la première fois Tu sais qui c'est, Prince Gérard Baste mec ! Hey, j'suis de retour, j'vais te dire une chose C'est que ça me fais super plaisir, ouais On est venu remettre le couvert Tu sais comment ça se passe, c'est maintenant ! On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne A chaque pas que j'fais y'a un roulement de tambour 365 et tu tombes pile pas l'bon jour shh une minute de silence pour la compèt Déroulez moi le tapis rouge et faites sonner les trompettes J'fous ma couronne et mon string panthère J'débarque avec mon sceptre et la force d'un tremblement de terre J'me désaltère, j'baisse ton froc et j'claque tes fesses Et même les Hells Angels se pressent pour saluer l'altesse Le prince du Dirty Centre, Dirty Mind comme Prince Le seul artiste que j'respecte c'est Chuck Norris Et j'me relève à chaque fois que j'me vautre Chez moi chaque testicule est plus grosse que l'autre En matière de punchline, j'suis trop élitiste J'viens frapper à ta porte pour faire du proséthylisme J'suis le capitaine de soirée qu'est toujours bourré J'rentre en zigzaguant et en jet privé, appelle moi Prince G Dans un carrosse tiré par des cygnes J'apparais à la fenêtre, un gros doigt en guise de p'tit signe Tu connais le prince du lèche-cyprine Le pape du priapisme avec Princesse Fancie dans la piscine Ça fait 20 ans qu'j'ai 20 ans d'avance J'suis juste le prince le plus cool de l'histoire de France Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne J'ai un physique d'Apollon dans mon slip Athena Et comme Zeus, je viens lâcher une bonne dose de foudre J'suis le roi du ballon, du ballon d'blanc ou d'rouge Et pis j'trouve que quand je l'ouvre j'fais parler la poudre Fous moi sur le calendrier des Dieux du Stade J'roule pour mon slip squad, j'suis le prince des aristocrade J'emmerde l'autorité, mais sur l'son j'suis tyrannique Tu veux rapper dans mon mic', fais-toi le vaccin antirabique Tu sais qu'j'ai le truc, que j'casse ta nuque Si tu n'apprécie pas c'que j'fais, bah casse toi pute J'suis pas sur le devant de la scène pour jouer les pucelles J'tue sec, j'explose la foule, mitraillette en or comme Saddam Hussein Tu sais que j'suis frais comme Prince Tu m'dois le respect, appelle moi Monseigneur comme pince J'suis en mode basse 10, tu vas péter une durit J'fonce en limousine, au volant c'est le chauffeur du Ritz On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigneYou might also like</t>
+          <t>C'est si bon dêtre là. J'suis aussi vrai que la première fois Tu sais qui c'est, Prince Gérard Baste mec ! Hey, j'suis de retour, j'vais te dire une chose C'est que ça me fais super plaisir, ouais On est venu remettre le couvert Tu sais comment ça se passe, c'est maintenant ! On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne A chaque pas que j'fais y'a un roulement de tambour 365 et tu tombes pile pas l'bon jour shh une minute de silence pour la compèt Déroulez moi le tapis rouge et faites sonner les trompettes J'fous ma couronne et mon string panthère J'débarque avec mon sceptre et la force d'un tremblement de terre J'me désaltère, j'baisse ton froc et j'claque tes fesses Et même les Hells Angels se pressent pour saluer l'altesse Le prince du Dirty Centre, Dirty Mind comme Prince Le seul artiste que j'respecte c'est Chuck Norris Et j'me relève à chaque fois que j'me vautre Chez moi chaque testicule est plus grosse que l'autre En matière de punchline, j'suis trop élitiste J'viens frapper à ta porte pour faire du proséthylisme J'suis le capitaine de soirée qu'est toujours bourré J'rentre en zigzaguant et en jet privé, appelle moi Prince G Dans un carrosse tiré par des cygnes J'apparais à la fenêtre, un gros doigt en guise de p'tit signe Tu connais le prince du lèche-cyprine Le pape du priapisme avec Princesse Fancie dans la piscine Ça fait 20 ans qu'j'ai 20 ans d'avance J'suis juste le prince le plus cool de l'histoire de France Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne J'ai un physique d'Apollon dans mon slip Athena Et comme Zeus, je viens lâcher une bonne dose de foudre J'suis le roi du ballon, du ballon d'blanc ou d'rouge Et pis j'trouve que quand je l'ouvre j'fais parler la poudre Fous moi sur le calendrier des Dieux du Stade J'roule pour mon slip squad, j'suis le prince des aristocrade J'emmerde l'autorité, mais sur l'son j'suis tyrannique Tu veux rapper dans mon mic', fais-toi le vaccin antirabique Tu sais qu'j'ai le truc, que j'casse ta nuque Si tu n'apprécie pas c'que j'fais, bah casse toi pute J'suis pas sur le devant de la scène pour jouer les pucelles J'tue sec, j'explose la foule, mitraillette en or comme Saddam Hussein Tu sais que j'suis frais comme Prince Tu m'dois le respect, appelle moi Monseigneur comme pince J'suis en mode basse 10, tu vas péter une durit J'fonce en limousine, au volant c'est le chauffeur du Ritz On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3130,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Hey princesse J'te regarde depuis tout à l'heure En train d'enchainer les cocktails au bar du nightclub Malgré ton p'tit air supérieur J'vois qu't'as envie d'faire la fête et d'te bourrer la gueule T'as un joli p'tit cul et des seins bien fermes Tu commences à tituber, t'as les yeux qui s'ferment J'ai de plus en plus envie de t'attraper le boule Vas-y vas-y enchaine encore une Vodka-Redbull Pasque quand tu seras éclatée j'vais temmener dans les chiottes Baisser mon froc et t'coller ma queue au fond de la gorge Je vais faire joujou avec ta glotte Déchirer ta culotte et arracher ton soutien-gorge Je vais fourrer dans ta chatte une tripotée d'doigts T'es dans un état second, j'vais profiter de toi Tu peux me faire confiance, je vais t'en mettre partout Et puis tout remettre dans ta bouche pour que tavale tout Et je vais te toucher l'anus pendant que t'es en train de t'endormir T'étonnes pas si demain j'ai les doigts sales, et encore pire Tu as gagné à Chatroulette Promis je ne mettrais pas les photos sur internet J'veux pas une femme fontaine, j'veux une femme cubi On a picolé comme des porcs et baisé toute la nuit Réponse rien. Question de quoi tu t'rappelles Heureusement qu'il y a l'alcool pour les mecs moches et les femmes belles You might also like Je suis saoule, ah ouais complétement Je suis saoule, indubitablement Je suis saoule, alors profite, profite Je suis saoule, alors profites-en Je suis saoule, ah ouais complétement Je suis saoule, indubitablement Je suis saoule, alors profite, profite Je suis saoule, alors profites-en Hey, laisse moi caresser ta croupe Bébé t'es ma louve, fais la pouf T'aime quand j'te la bouffe Fais la ouf, y'a pas d'limite c'est d'l'amour C'est dégueu mais c'est trop cool J'vais te remplir jusqu'au cou N'en parle pas à ton mec, j'vais t'faire de la barbarie Technique de catch, j'te change en pastrami Pas de panique, A2' est doux si t'es une chatte caline Je viens des iles, si tu la prends faut mettre un tas d'salive J'défonce le mobilier, j'm'essuie avec les oreillers Je joue avec tes seins même 5 minutes avant d'te congédier J'aime trop la leu-leu les beaux fessiers et les gros nénés je lâche mes locks et j'te pénètre avec un fond d'reggae Remue ton boule jusqu'à m'en donner la nausée J'veux voir des étoiles on va même narguer la NASA Pas d'destination, j'me laisse guider par ma fusée T'es vachement cambrée, il se passe des choses dans mon falsard A2H prend l'avant Et Gérard Baste prend l'arrière Dans ton boule c'est la guerre Là y'a la fille et la mère Ocho cinco, va voir mon pote à moustache T'aime le hip hop, 69 sur un boom bap Tu t'es fait démonter par une équipe de dingue J'entendrais plus parler de toi sauf si tu portes plainte Gégé, regarde celle là Elle est déglinguée mais elle tue Oh j'suis très très excitée J'me ferais bien un pti plan cul Je suis saoule, ah ouais complétement Je suis saoule, indubitablement Je suis saoule, alors profite, profite Je suis saoule, alors profites-en Je suis saoule, ah ouais complétement Je suis saoule, indubitablement Je suis saoule, alors profite, profite Je suis saoule, alors profites-en</t>
+          <t>Hey princesse J'te regarde depuis tout à l'heure En train d'enchainer les cocktails au bar du nightclub Malgré ton p'tit air supérieur J'vois qu't'as envie d'faire la fête et d'te bourrer la gueule T'as un joli p'tit cul et des seins bien fermes Tu commences à tituber, t'as les yeux qui s'ferment J'ai de plus en plus envie de t'attraper le boule Vas-y vas-y enchaine encore une Vodka-Redbull Pasque quand tu seras éclatée j'vais temmener dans les chiottes Baisser mon froc et t'coller ma queue au fond de la gorge Je vais faire joujou avec ta glotte Déchirer ta culotte et arracher ton soutien-gorge Je vais fourrer dans ta chatte une tripotée d'doigts T'es dans un état second, j'vais profiter de toi Tu peux me faire confiance, je vais t'en mettre partout Et puis tout remettre dans ta bouche pour que tavale tout Et je vais te toucher l'anus pendant que t'es en train de t'endormir T'étonnes pas si demain j'ai les doigts sales, et encore pire Tu as gagné à Chatroulette Promis je ne mettrais pas les photos sur internet J'veux pas une femme fontaine, j'veux une femme cubi On a picolé comme des porcs et baisé toute la nuit Réponse rien. Question de quoi tu t'rappelles Heureusement qu'il y a l'alcool pour les mecs moches et les femmes belles Je suis saoule, ah ouais complétement Je suis saoule, indubitablement Je suis saoule, alors profite, profite Je suis saoule, alors profites-en Je suis saoule, ah ouais complétement Je suis saoule, indubitablement Je suis saoule, alors profite, profite Je suis saoule, alors profites-en Hey, laisse moi caresser ta croupe Bébé t'es ma louve, fais la pouf T'aime quand j'te la bouffe Fais la ouf, y'a pas d'limite c'est d'l'amour C'est dégueu mais c'est trop cool J'vais te remplir jusqu'au cou N'en parle pas à ton mec, j'vais t'faire de la barbarie Technique de catch, j'te change en pastrami Pas de panique, A2' est doux si t'es une chatte caline Je viens des iles, si tu la prends faut mettre un tas d'salive J'défonce le mobilier, j'm'essuie avec les oreillers Je joue avec tes seins même 5 minutes avant d'te congédier J'aime trop la leu-leu les beaux fessiers et les gros nénés je lâche mes locks et j'te pénètre avec un fond d'reggae Remue ton boule jusqu'à m'en donner la nausée J'veux voir des étoiles on va même narguer la NASA Pas d'destination, j'me laisse guider par ma fusée T'es vachement cambrée, il se passe des choses dans mon falsard A2H prend l'avant Et Gérard Baste prend l'arrière Dans ton boule c'est la guerre Là y'a la fille et la mère Ocho cinco, va voir mon pote à moustache T'aime le hip hop, 69 sur un boom bap Tu t'es fait démonter par une équipe de dingue J'entendrais plus parler de toi sauf si tu portes plainte Gégé, regarde celle là Elle est déglinguée mais elle tue Oh j'suis très très excitée J'me ferais bien un pti plan cul Je suis saoule, ah ouais complétement Je suis saoule, indubitablement Je suis saoule, alors profite, profite Je suis saoule, alors profites-en Je suis saoule, ah ouais complétement Je suis saoule, indubitablement Je suis saoule, alors profite, profite Je suis saoule, alors profites-en</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3147,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>En l'an 2007, le président de la République Française, monsieur Nicolas Sarkozy Interdit la fabrication et la consommation d'alcool sur tout le territoire français Dès lors, chaque citoyen français doit établir un rapport mensuel soumis à contrôle d'huissier de sa consommation d'eau et de soda afin de prouver sa bonne foi Tu vois j'm'en pète si jarrête de boire en 2007, bon ça p't'être Me faire plonger dans l'crack ça va être du rhum en scred Cachés à Châtelet avec des locks, DSL des rastas, ti-punch masta ouais, ouais Y'aura des shérifs fonce-dés au Xanax qui t'f'ront la moral comme Des poulailles qui t'casserait les couilles aujourd'hui pour un joint d'thaï Tu vois, on peut flipper Sarko Tu sais les stards-co chez les aristocrates, ils t'crèveront pour un verre d'pinard Les alcoolos dans la rue c'est la moitié du bled avec open-bar pour aller taper du CRS Cherche pas la guerre aux amoureux du whisky Ah quelle époque de merde, on débloque le Qhuit avec l'orchestre de Robert Lamoureux On sent la bande de rappeurs révolutionnaires Vive le pastaga sous cirrhose et la Thalasso Niquer l'état, vider les caisses d'la sécurité sociale Arrête les dépresseurs, dit à ta surette darrêter de prendre d'la came 2007, nos gosses ils pisseront d'l'eau d'vie et tellement on est d'dans Ça chie les gars et si la fin du monde c'tait ça Tous saints d'corps et d'esprit, génération d'sportifs Sarko, il t'manque plus qu'la moustache, d'la coke plein l'pif La populace s'agite À l'heure où les incorruptibles prennent le pouvoir La résistance au contre l'ordre s'organise Des révolutionnaires de souche communiste prennent la parole You might also like L'ambiance est sinistre, grise Merci m'sieur l'ministre, crise Où sont la fête de l'huma et les communistes, please ? C'est pas humain ni humaniste Plus d'tise et tout c'qu'était cool sur la blacklist Mais pas celle de Greenpeace Et c'est tout clair quand j'pisse et encore quand j'pisse vu qu'y'a plus rien à pisser Tout a été ratissé, nous reste qu'les yeux pour pleurer J'ai arrêter d'me droguer, de fumer et d'boire Ce furent les pires 5 minutes de toute mon histoire Alors comme ça, on veut jouer les Eliot Ness ? Mais on est prêts à boire tout l'lac et bouffer l'monstre du Loch Ness T'inquiètes papy, la résistance s'organise Plus pacifiques qu'en guerre dans l'Pacifique avec Force Anis Si y'en a plus à Paris on s'torche à Nice Il aura pas fallut longtemps avant qu'quelqu'un réagisse Pas d'pot, t'es tombé sur les gars qui vont plein pot Qui paient pleins d'pots et pas leurs impôts Y'a d'supers bonnes nouvelles aux flash infos Information de dernière minute Un producteur bourguignon du nom de Nicolas P Produirait de manière illicite de l'alcool de contrebande Qu'il revendrait à une grande marque du textile français pour la distribution Moi j'vais pas m'emmerder, maintenant c'est sans étiquette Le tout v'nant, l'grand cru et puis même la piquette 'Veulent qu'on joue les mafieux, j'casse les prix à coups d'pieux Du liquide sous l'pieu et Au pouvoir les culs-terreux ! Attise la terreur, haro sur l'labo à coups d'sabot J'lance au sécateur, plante le cépage dans l'secteur Caisse de pinot noir, pour le simple flic Premier cru d'Chablis pour la haute établie Et pour le Sarkozy du Margaux ??? dans d'l'acètone La contrebande décolle et ça tise sur les bancs d'école Pire qu'à Chicago, j'livre par dix cargos Le chic, le bobo et l'charclo parigo Atelier clando, sixième étage Alors la haute couture ça pète dans l'tube ? Bouilleur d'cru pour ton crew quitte à finir sous les écrous Si j'tombe pour l'Qhuit c'est parce qu'ils picolent comme des trous Heureusement la police reprend le dessus sur les réfractaires encore heureux ouais Les troupes, menées par le charismatique commissaire Xanax, encercle la demeure de Nicolas P Allez virez-moi c'journaliste à la con là parce que j'ai besoin d'place Tout est en place pour l'intervention Chinois ! CHINOIS ! en direct sur nos ondes Front d'libération, les poivrots sucent ma bite On va les faire tomber, moi et mon équipe On a même ramené des bleus pour gonfler l'effectif Faire sauter les incisives au cour d'interventions abusives C'est mon métier, l'job pour lequel j'suis payé, très bien noté Mes supérieurs sont contents, j'remplis les quotas Même si certains suspects finissent à l'hosto C'est vrai on est un peu à cran en c'moment vu qu'Sarko a serré la vis Bien obliger d'taper d'la coke pendant les rondes de nuit Ça en a rendu certains légèrement agressifs Les voyous r'grettent l'époque où on tournait au whisky Eux, j'vais m'les farcir aux p'tits oignons Ils auraient jamais du jouer avec un vrai con L'gars d'la haute, avec qui ils sont en bisbille, on l'a serré Et il a pas fallu 5 minutes avant qu'il s'mette à jacter 'Faut dire, on a un collègue et il est asiatique Et comme il est chinois, bah on l'appelle chinois Lui et l'turc, c'est la dream team de la souffrance Torture à base de points d'acupuncture et tout l'toutim On les a logés, maintenant j'suis en planque avec 500 hommes Et dans 5 minutes on tape aux Dome Bon aller, virez-moi toutes ces putains d'caméras On fait pas du show-business ici, aller, serrez-moi tout ça</t>
+          <t>En l'an 2007, le président de la République Française, monsieur Nicolas Sarkozy Interdit la fabrication et la consommation d'alcool sur tout le territoire français Dès lors, chaque citoyen français doit établir un rapport mensuel soumis à contrôle d'huissier de sa consommation d'eau et de soda afin de prouver sa bonne foi Tu vois j'm'en pète si jarrête de boire en 2007, bon ça p't'être Me faire plonger dans l'crack ça va être du rhum en scred Cachés à Châtelet avec des locks, DSL des rastas, ti-punch masta ouais, ouais Y'aura des shérifs fonce-dés au Xanax qui t'f'ront la moral comme Des poulailles qui t'casserait les couilles aujourd'hui pour un joint d'thaï Tu vois, on peut flipper Sarko Tu sais les stards-co chez les aristocrates, ils t'crèveront pour un verre d'pinard Les alcoolos dans la rue c'est la moitié du bled avec open-bar pour aller taper du CRS Cherche pas la guerre aux amoureux du whisky Ah quelle époque de merde, on débloque le Qhuit avec l'orchestre de Robert Lamoureux On sent la bande de rappeurs révolutionnaires Vive le pastaga sous cirrhose et la Thalasso Niquer l'état, vider les caisses d'la sécurité sociale Arrête les dépresseurs, dit à ta surette darrêter de prendre d'la came 2007, nos gosses ils pisseront d'l'eau d'vie et tellement on est d'dans Ça chie les gars et si la fin du monde c'tait ça Tous saints d'corps et d'esprit, génération d'sportifs Sarko, il t'manque plus qu'la moustache, d'la coke plein l'pif La populace s'agite À l'heure où les incorruptibles prennent le pouvoir La résistance au contre l'ordre s'organise Des révolutionnaires de souche communiste prennent la parole L'ambiance est sinistre, grise Merci m'sieur l'ministre, crise Où sont la fête de l'huma et les communistes, please ? C'est pas humain ni humaniste Plus d'tise et tout c'qu'était cool sur la blacklist Mais pas celle de Greenpeace Et c'est tout clair quand j'pisse et encore quand j'pisse vu qu'y'a plus rien à pisser Tout a été ratissé, nous reste qu'les yeux pour pleurer J'ai arrêter d'me droguer, de fumer et d'boire Ce furent les pires 5 minutes de toute mon histoire Alors comme ça, on veut jouer les Eliot Ness ? Mais on est prêts à boire tout l'lac et bouffer l'monstre du Loch Ness T'inquiètes papy, la résistance s'organise Plus pacifiques qu'en guerre dans l'Pacifique avec Force Anis Si y'en a plus à Paris on s'torche à Nice Il aura pas fallut longtemps avant qu'quelqu'un réagisse Pas d'pot, t'es tombé sur les gars qui vont plein pot Qui paient pleins d'pots et pas leurs impôts Y'a d'supers bonnes nouvelles aux flash infos Information de dernière minute Un producteur bourguignon du nom de Nicolas P Produirait de manière illicite de l'alcool de contrebande Qu'il revendrait à une grande marque du textile français pour la distribution Moi j'vais pas m'emmerder, maintenant c'est sans étiquette Le tout v'nant, l'grand cru et puis même la piquette 'Veulent qu'on joue les mafieux, j'casse les prix à coups d'pieux Du liquide sous l'pieu et Au pouvoir les culs-terreux ! Attise la terreur, haro sur l'labo à coups d'sabot J'lance au sécateur, plante le cépage dans l'secteur Caisse de pinot noir, pour le simple flic Premier cru d'Chablis pour la haute établie Et pour le Sarkozy du Margaux ??? dans d'l'acètone La contrebande décolle et ça tise sur les bancs d'école Pire qu'à Chicago, j'livre par dix cargos Le chic, le bobo et l'charclo parigo Atelier clando, sixième étage Alors la haute couture ça pète dans l'tube ? Bouilleur d'cru pour ton crew quitte à finir sous les écrous Si j'tombe pour l'Qhuit c'est parce qu'ils picolent comme des trous Heureusement la police reprend le dessus sur les réfractaires encore heureux ouais Les troupes, menées par le charismatique commissaire Xanax, encercle la demeure de Nicolas P Allez virez-moi c'journaliste à la con là parce que j'ai besoin d'place Tout est en place pour l'intervention Chinois ! CHINOIS ! en direct sur nos ondes Front d'libération, les poivrots sucent ma bite On va les faire tomber, moi et mon équipe On a même ramené des bleus pour gonfler l'effectif Faire sauter les incisives au cour d'interventions abusives C'est mon métier, l'job pour lequel j'suis payé, très bien noté Mes supérieurs sont contents, j'remplis les quotas Même si certains suspects finissent à l'hosto C'est vrai on est un peu à cran en c'moment vu qu'Sarko a serré la vis Bien obliger d'taper d'la coke pendant les rondes de nuit Ça en a rendu certains légèrement agressifs Les voyous r'grettent l'époque où on tournait au whisky Eux, j'vais m'les farcir aux p'tits oignons Ils auraient jamais du jouer avec un vrai con L'gars d'la haute, avec qui ils sont en bisbille, on l'a serré Et il a pas fallu 5 minutes avant qu'il s'mette à jacter 'Faut dire, on a un collègue et il est asiatique Et comme il est chinois, bah on l'appelle chinois Lui et l'turc, c'est la dream team de la souffrance Torture à base de points d'acupuncture et tout l'toutim On les a logés, maintenant j'suis en planque avec 500 hommes Et dans 5 minutes on tape aux Dome Bon aller, virez-moi toutes ces putains d'caméras On fait pas du show-business ici, aller, serrez-moi tout ça</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3164,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Gérard Baste ! Fuzati ! Waow, c'est fort la vie d'adulte ! Tu m'étonnes mec ! Qu'est ce qu'on va faire quand on sera grand ? Ca seul l'avenir nous le dira Qu'est ce qu'on deviendra si on a le temps ? Que sera sera, qui vivra verra Est ce qu'on sera beau, est ce qu'on sera grand ? De toute façon ça peut pas être pire... On verra bien car pour l'instant On veut juste profiter de la vie Quand je serai grand, je ne veux pas l'être je m'achèterai une doublure Un type qui s'occupera des gosses et qui paiera les factures Moi je vivrai à l'hôtel, entouré de disques et de filles Je partagerai ma vie entre la musique et l'aiguille Quand je serai grand, je conduirai pour te larguer en conduisant Que toi tu ne puisses rien faire à part claquer la porte dire Salut! Quand je serai grand, je n'aimerai pas trop les sentiments Je ne dirai pas Je t'aime parce qu'elle aura un amant Et pendant mes jours de repos, j'irais souvent au zoo Vivrai entouré de porcs et voudrai voir d'autres animaux Me lèverai tôt pour le boulot, me coucherai avec le goulot Une bouteille qui ne parlera pas et ne tirera pas non plus les draps Quand je serai grand, j'aurai un travail et un salaire Dont une partie partira dans la pension alimentaire Je sortirai des bars, d'un pas mal assuré En titubant, me demandant A quel moment tout a foiré ? You might also like Quand je pense qu'en l'an 2000 j'aurai déjà 27ans Est ce que je serai déjà sénile ? J'aurai encoure toutes mes dents ? On ira plus à l'école, y'aura des voitures qui volent Et je marcherai au plafond avec mes chaussures qui collent La vie coule entre nos doigts vas-y coule coule coule Les années passent allez passe passe passe Dans 20ans où on sera ? Dans 20ans où on sera ? Mec, dans 20ans c'est demain. Dans 20ans c'est tout de suite ! Quand je sera grand je veux être un rockeur comme les Forbans et faire PAP PAP PAP Je veux plus jamais qu'on me dise même pas cap Quand je serai grand, je veux être comme Papa rester à la maison, boire du vin, avoir pas de travail Quand je serai grand, je veux être comme Tonton Jouer à la bagarre avec tous les copains de la prison Je veux être fort et très très musclé Comme les deux garçons que j'ai vu sortir de la discothéque d'à-coté Yeah, je ferai du karaté des tags et j'aurai le pire crew Je ferai du vélo sans les p'tites roues Je veux gagner plein de sous, nager jusqu'à la bouée Je veux tuer tous les requins dans la mer et j'ai même pas pied Et j'ai même pas peur et j'ai même pas mal J'aurai des couilles du ventre et des poils Quand je serai grand je veux trouer le cul et avoir la classe Purée quand je serai grand je veux être Gérard Baste Yeah ! 1</t>
+          <t>Gérard Baste ! Fuzati ! Waow, c'est fort la vie d'adulte ! Tu m'étonnes mec ! Qu'est ce qu'on va faire quand on sera grand ? Ca seul l'avenir nous le dira Qu'est ce qu'on deviendra si on a le temps ? Que sera sera, qui vivra verra Est ce qu'on sera beau, est ce qu'on sera grand ? De toute façon ça peut pas être pire... On verra bien car pour l'instant On veut juste profiter de la vie Quand je serai grand, je ne veux pas l'être je m'achèterai une doublure Un type qui s'occupera des gosses et qui paiera les factures Moi je vivrai à l'hôtel, entouré de disques et de filles Je partagerai ma vie entre la musique et l'aiguille Quand je serai grand, je conduirai pour te larguer en conduisant Que toi tu ne puisses rien faire à part claquer la porte dire Salut! Quand je serai grand, je n'aimerai pas trop les sentiments Je ne dirai pas Je t'aime parce qu'elle aura un amant Et pendant mes jours de repos, j'irais souvent au zoo Vivrai entouré de porcs et voudrai voir d'autres animaux Me lèverai tôt pour le boulot, me coucherai avec le goulot Une bouteille qui ne parlera pas et ne tirera pas non plus les draps Quand je serai grand, j'aurai un travail et un salaire Dont une partie partira dans la pension alimentaire Je sortirai des bars, d'un pas mal assuré En titubant, me demandant A quel moment tout a foiré ? Quand je pense qu'en l'an 2000 j'aurai déjà 27ans Est ce que je serai déjà sénile ? J'aurai encoure toutes mes dents ? On ira plus à l'école, y'aura des voitures qui volent Et je marcherai au plafond avec mes chaussures qui collent La vie coule entre nos doigts vas-y coule coule coule Les années passent allez passe passe passe Dans 20ans où on sera ? Dans 20ans où on sera ? Mec, dans 20ans c'est demain. Dans 20ans c'est tout de suite ! Quand je sera grand je veux être un rockeur comme les Forbans et faire PAP PAP PAP Je veux plus jamais qu'on me dise même pas cap Quand je serai grand, je veux être comme Papa rester à la maison, boire du vin, avoir pas de travail Quand je serai grand, je veux être comme Tonton Jouer à la bagarre avec tous les copains de la prison Je veux être fort et très très musclé Comme les deux garçons que j'ai vu sortir de la discothéque d'à-coté Yeah, je ferai du karaté des tags et j'aurai le pire crew Je ferai du vélo sans les p'tites roues Je veux gagner plein de sous, nager jusqu'à la bouée Je veux tuer tous les requins dans la mer et j'ai même pas pied Et j'ai même pas peur et j'ai même pas mal J'aurai des couilles du ventre et des poils Quand je serai grand je veux trouer le cul et avoir la classe Purée quand je serai grand je veux être Gérard Baste Yeah ! 1</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3181,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Quoi d'neuf ? What's up ? Ma gueule T'es en deuil de Michael Ta meuf te fait la gueule Elle ??? ??? pas d'reuf, pas d'teuf, pas d'seuf non Et dans ton business, pas d'bluff, pas d'keuf Mais bonne tête, bon pied bon il Dompter, faut p't'être, l'orgueil Car tu vois des tas de minettes donc tu n'as même pas 2 minutes Tu ne te fais pas de bile mais ta femme n'avale pas la pilule C'est fou quand tout s'écroule autour de nous Sur le coup, on tient fièrement toujours debout Ton mariage passe à l'opinel pour une ado à demi nue Tu ne te sens pas désiré, tu crois que le drame se dilue Tout compte fait, tu préfère parler d'art Je te féliciterai plus tard, j'ai peur de t'parler mal On s'check, on se fait la bise On s'bécote, on se dit l'avenir On déconne, on rit à tire-larigot Quoi d'neuf mon pote ? Est-ce-que ça va ? Moi ça va mais c'est le rap qui va pas You might also likeQuand on croise les vieux potos, quoi d'neuf ? Ça s'passe ! Les amour et les affaires ? Ça s'tasse ! Et en attendant dans les postes y'a du son, quoi d'neuf ? Ça rame ! T'tracasses, on est al et ça déchire Sa race ! Yo, quoi d'neuf ? J'viens donner des news Chiller avec mes potes, effrité mon douze Ressouder les coups, éviter les ??? Moi c'est cool, à part quelques soucis Marre que les reufs se butent entre eux comme Hutu et Tutsi Mais bon, v'la l'actualité J'suis dans la vanité, j'suis bouffi J'traîne toujours avec chrétiens et muslims Tout c'qui est cool p'tit J'suis en duo avec mon bout d'shit J'bosse ma musique avec ma brousse, j'kicke Hey, Gégé, Greg, la forme ? J'ai ramené les pairs pour baiser les faibles Vous allez kiffer la teille, l'actu est fat J'suis dans le club, le hood, sur les boom-bap Toujours foncedé, toujours couche-tard Le Palace mon coup d'barre, je distribue les coups d'battes Jamais ???, toujours tout-terrain Y'a quelques haineux mais bon, on s'en fout c'est rien Et j'prie pour que bientôt on soit tous dés-blin On s'check, on se fait la bise On s'bécote, on se dit l'avenir On déconne, on rit à tire-larigot Quoi d'neuf mon pote ? Est-ce-que ça va ? Moi ça va mais c'est le rap qui va pas Quand on croise les vieux potos, quoi d'neuf ? Ça s'passe ! Les amour et les affaires ? Ça s'tasse ! Et en attendant dans les postes y'a du son, quoi d'neuf ? Ça rame ! T'tracasses, on est al et ça déchire Sa race ! J'ai la force d'un sasquatch Et la libido d'un gorille J'ai trouvé personne pour boxer dans ma catégorie Des bouts d'nos vies d'viennent vite des putains d'titres historiques P't'être pas vendeurs, mais j'reste un vieux bandeur euphorique Ici pas d'réchauffé, qu'du neuf Pas d'la bouse frère, quand j'bouge, j'pète tout l'flouze bref ??? mais j'rock qu'des shoes fresh J'lâche des nouvelles comme un coup d'cymbale sur une vanne Ma life vole vers les étoiles ou j'crève au fond d'la poubelle Pour les gars j'suis un chef de file Pour les meufs, j'suis un rêve de filles Ouais en bref, je brille Et les spotlights qu'sont au d'ssus d'ma tête, m'protègent J'ai le flow qui t'bousille et j'fais une promo sur les prothèses En maison d'disque il parait qu'ça parle Bons ou mauvais, on est tranquilles mais attendez qu'ça braille J'viens faire bouffer sa planche de surf à Brice Alors, ça farte ? ??? x2 On s'check, on se fait la bise On s'bécote, on se dit l'avenir On déconne, on rit à tire-larigot Quoi d'neuf mon pote ? Est-ce-que ça va ? Moi ça va mais c'est le rap qui va pas Quand on croise les vieux potos, quoi d'neuf ? Ça s'passe ! Les amour et les affaires ? Ça s'tasse ! Et en attendant dans les postes y'a du son, quoi d'neuf ? Ça rame ! T'tracasses, on est al et ça déchire Sa race !</t>
+          <t>Quoi d'neuf ? What's up ? Ma gueule T'es en deuil de Michael Ta meuf te fait la gueule Elle ??? ??? pas d'reuf, pas d'teuf, pas d'seuf non Et dans ton business, pas d'bluff, pas d'keuf Mais bonne tête, bon pied bon il Dompter, faut p't'être, l'orgueil Car tu vois des tas de minettes donc tu n'as même pas 2 minutes Tu ne te fais pas de bile mais ta femme n'avale pas la pilule C'est fou quand tout s'écroule autour de nous Sur le coup, on tient fièrement toujours debout Ton mariage passe à l'opinel pour une ado à demi nue Tu ne te sens pas désiré, tu crois que le drame se dilue Tout compte fait, tu préfère parler d'art Je te féliciterai plus tard, j'ai peur de t'parler mal On s'check, on se fait la bise On s'bécote, on se dit l'avenir On déconne, on rit à tire-larigot Quoi d'neuf mon pote ? Est-ce-que ça va ? Moi ça va mais c'est le rap qui va pas Quand on croise les vieux potos, quoi d'neuf ? Ça s'passe ! Les amour et les affaires ? Ça s'tasse ! Et en attendant dans les postes y'a du son, quoi d'neuf ? Ça rame ! T'tracasses, on est al et ça déchire Sa race ! Yo, quoi d'neuf ? J'viens donner des news Chiller avec mes potes, effrité mon douze Ressouder les coups, éviter les ??? Moi c'est cool, à part quelques soucis Marre que les reufs se butent entre eux comme Hutu et Tutsi Mais bon, v'la l'actualité J'suis dans la vanité, j'suis bouffi J'traîne toujours avec chrétiens et muslims Tout c'qui est cool p'tit J'suis en duo avec mon bout d'shit J'bosse ma musique avec ma brousse, j'kicke Hey, Gégé, Greg, la forme ? J'ai ramené les pairs pour baiser les faibles Vous allez kiffer la teille, l'actu est fat J'suis dans le club, le hood, sur les boom-bap Toujours foncedé, toujours couche-tard Le Palace mon coup d'barre, je distribue les coups d'battes Jamais ???, toujours tout-terrain Y'a quelques haineux mais bon, on s'en fout c'est rien Et j'prie pour que bientôt on soit tous dés-blin On s'check, on se fait la bise On s'bécote, on se dit l'avenir On déconne, on rit à tire-larigot Quoi d'neuf mon pote ? Est-ce-que ça va ? Moi ça va mais c'est le rap qui va pas Quand on croise les vieux potos, quoi d'neuf ? Ça s'passe ! Les amour et les affaires ? Ça s'tasse ! Et en attendant dans les postes y'a du son, quoi d'neuf ? Ça rame ! T'tracasses, on est al et ça déchire Sa race ! J'ai la force d'un sasquatch Et la libido d'un gorille J'ai trouvé personne pour boxer dans ma catégorie Des bouts d'nos vies d'viennent vite des putains d'titres historiques P't'être pas vendeurs, mais j'reste un vieux bandeur euphorique Ici pas d'réchauffé, qu'du neuf Pas d'la bouse frère, quand j'bouge, j'pète tout l'flouze bref ??? mais j'rock qu'des shoes fresh J'lâche des nouvelles comme un coup d'cymbale sur une vanne Ma life vole vers les étoiles ou j'crève au fond d'la poubelle Pour les gars j'suis un chef de file Pour les meufs, j'suis un rêve de filles Ouais en bref, je brille Et les spotlights qu'sont au d'ssus d'ma tête, m'protègent J'ai le flow qui t'bousille et j'fais une promo sur les prothèses En maison d'disque il parait qu'ça parle Bons ou mauvais, on est tranquilles mais attendez qu'ça braille J'viens faire bouffer sa planche de surf à Brice Alors, ça farte ? ??? x2 On s'check, on se fait la bise On s'bécote, on se dit l'avenir On déconne, on rit à tire-larigot Quoi d'neuf mon pote ? Est-ce-que ça va ? Moi ça va mais c'est le rap qui va pas Quand on croise les vieux potos, quoi d'neuf ? Ça s'passe ! Les amour et les affaires ? Ça s'tasse ! Et en attendant dans les postes y'a du son, quoi d'neuf ? Ça rame ! T'tracasses, on est al et ça déchire Sa race !</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3198,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>My nigga said, Speak on it, throw a slow tempo beat on it, He said, Real Hip Hop gonna feed off it. Call in sick to the beef meat market come back with peace offering No man is a island, no man is sovereign Any artist, could turn a garden to a desert But can he turn a desert to a garden? These haters hating my bars, playing they part The illest alive, it ain't my fault, where do I start? My words always go unheard, my voice is ignored Nobody will ever understand 10,000 bars I don't even understand it myself 7 billion people on the planet, not 1 understands how I felt I feel like Sophia Stewart, the male oracle of rap music I've been through implorable abuses Let me explain something called mechanical royalty A certain amount of albums get pressed up quarterly For every unit that's pressed, they owe me a dollar Father Author Poor Pauper, they called me a ????? On a corner drinking Goldschlager, it's not something that I'm proud of The business is corrupt and dishonest It's a law not a promise Distributors supposed to pay each artist a dollar per album per project After mechanical royalty is confirmed Copyright infringement is the next lesson to learn The writer is the copyright holder, in my case I'm the owner Without a signature you're not supposed to, sell my music but they sold it A quarter million dollar fine and five months in prison, hold up! How many songs you wrote Bus? I wrote one thousand five hundred, ASCAP don't lie about the numbers But my account got shut down I got no referral From the biggest collection agency in the world Here we go boys and girls they took everything from me I wondered if it's cause I'm ugly, or unlucky I said fuck you crooks you stole my money, keep it gully They keep playing courtroom rugby I feel like God don't love me Cause not one person on the planet stepped up to represent me And now here I am talking to you, but not really though Cause I know you don't really hear me though So now I'm sending a message as far as it could go In the hope that it could maybe reach an uncorrupt soul Somewhere over the rainbow, I go through pain they'll never know That's why I'm so miserable, yo Turn into the lyrical Hulk, jump the gate, grab you by the throat I should break your fuckin' neck cause I'm broke But I ain't really on it like that, I'm so important to rap One day I'll get a lawyer to do that For now evil wins overwhelming the people with sin The modern day Djinn with medieval grins The Jim Baker jungle gym, drink gin and jump into him Then jump into them, then jump back to gin I don't want no money, I just want justice But nowadays no one gives a fuck so fuck it! You gotta love it, big business, big budget Harry Fox hates Hip Hop I'm going public! You might also like Ey yo 5'9 You must be out your rabbit ass mind For real or what? I'm finna get some, ya'll nigga line up 'Fore it's over ima show you what it is Imma show you why they kicked me out the biz Them niggas ain't trying to let me live I ain't gonna end up like Pac and Big What are you a lyrical body part? Starstruck over the bodies, U-God With pajamas on, what the fuck you rhymin' for? Fee-fi-fo-fum, the forty ton dinosaur with smoky lungs Nigga where you know me from?! Thoroughbred Hip-Hop head Hip-Hop ain't shit without knowin' the ledge That's what the GOD said I smoke barley green, turn into Charlie Sheen Fuck the honor roll if Hip-Hop don't want to honor me Jump off the deep end, give me the beat man! I'm twelve albums deep, you just gettin' your feet wet Beast from the East Bis never been beat yet You can't avoid war without peace and respect Listen, I don't wanna rub it in, you actin' like that's your husband But this is mutual assured destruction Look up, you see the space and the stars? Don't create a facade, your arms are too short to wave at God The lunar base guard, in a Raveon space pod I was sent to the planet earth to examinate bars Determinate whatever contaminates Lyrical Law Im like Maygoth ragin' in space war with J-Rod I don't have to play the race card I just grab the ACOG, aim at your jaw, and tear your face off First thing in the morning, treat it like a dayjob Mixin' Johnnie Walker with napalm I hold your nose, make you open mouth and say aww The Hip-Hop H-bomb, say sumn', I can't wait to respond Run up in your dressin' room like Raekwon You act hard when them videotapes on 'Cause you hate to be wrong Well let me tell you something, nigga, this is Lyrical Law A spiritual bomb that can cause physical harm Twitter beef, naw, you act like a miserable broad A 360 deal means you gettin' circled by a shark boy Better beg your pardon, turn into a Horsemen, slaughter him I'm a Undergod, you too overconfident So talkin' nigga, 'cause you could all get it W-A-R, nigga, I'm raw with it Don't let the alcohol fuck with your short vision I knock you out of the park, nigga, long distance I wrote this rhyme in five minutes I'm like ten Ghostface Killahs and twenty-five GZAs! Except as set forth below, Baby Grande and Mic Club Music will assign, transfer, and release to Williams all copyrights and other rights to Canibus projects, albums, compositions, and merchandise, and all recordings, copyrights, income and revenues arising out of, or relating to Canibus Williams will own all copyrights in, and to lyrical compositions written by him. Williams will own 100 of all rights. Including all rights to receive revenues, with respect to the master recordings on the albums Rip The Jacker. Williams will own 100 of all rights, including all rights to receive revenues with respect to the master recordings on the albums Mic Club The Curriculum and 'C' True Hollywood Stories. Williams assigns to You Know Who, for a period of 5 years, 50 of all record royalties, paid after recoupment on those 2 albums. You Know Who releases all rights to the name Canibus and will transfer to Williams, or a designee, the Canibus and Poet Laureate domain names, Poet Laureate albums, trademarks relating to the business of Williams. Used to promise Canibus or his music, as well as any titles You Know Who agrees not to sell any Canibus CD's or merchandise and will transfer to Williams all inventory in their possession. You Know Who agrees not to use the name Mic Club in connection with the business of Canibus Crooked motherfuckers. So what I'm supposed to do? Every lawyer I'd done hired to go chase the royalties, mechanicals, and or otherwise, done dropped the ball out of fear, of whoever they work for. You know? People done collected payments. People still selling records. You know what I'm saying? Where's MY cut? You know. I own the copyrights. I WROTE THOSE RECORDS! You know what I'm saying? I wrote the lyrical composition on 'em. You know. Those are MY lyrics. I DO get out there and do the damn thing! But it's hard to compete with these big money labels. It's hard to compete with the promo that they put out there versus the little hand to hand promo that I could get going. You know? Sometimes, I don't even know what I'm doing sometimes. You know, I'm just hoping that, maybe there's a, a group of people, that's going thru the same situation and ain't scared enough to just rally up, form a frontline. And make it so that we could snowball this into something that we could get back what's rightfully ours. You know? And at least get these crooks to be accountable for what they've been doing. Particularly now, because, you know, the economy ain't getting no better. You know what I'm saying? And people are working harder and getting less. So, you know, if you're satisfied with that. That's on you. But I'm speaking on what pertains to me, and what, and what's directly related to the things I see going on in the music. You know? And I love it. I love, I love my music. I love Hip Hop. I love to sit down and write my music. You know? I LOVE IT. I love what it sounds like. I love the result of it. And YOU ain't gonna make me stop. YOU ain't gonna make me quit. You know? I do it when I'm ready. And you ain't gonna stop me from getting my new stuff out there neither. You know. Like I said, if I catch you. If I catch you jumping over the line, I'ma jump the gate. And I'ma punish you. I'ma MAUL YOU. Alright? So just let it be known man... Rub a dub dub, Rip The Jacker gets no love Gotta diss a rap nigga for a buzz Ritual sacrifice they want blood But I don't understand what that got to do with the music Cuz' I don't hate L, I don't care if he fucking trannies or not All I care about is hip-hop I ain't mad at Eminem, I just be responding To the nigga running his mouth who choose to be my nemesis Nigga I rap too this old head nigga rap the truth Rap to the streets, I rap in the booth Spit from the underground to the skyscraper roofs On paper I wrote more rhymes than any rap group Tell me why I just can't get on a track with Jeezy nigga I know how to get them thangs ??? you heard? What's goodie nigga? Still on deck The leprechaun lexicon from U.S. Congress Got a chopper in the car, God-body how I talk it Got dogs on the carpet, G's at the flea market Better back it up nigga 'fore I park it Between your eyebrows on your forehead, my style is that raw shit!</t>
+          <t>My nigga said, Speak on it, throw a slow tempo beat on it, He said, Real Hip Hop gonna feed off it. Call in sick to the beef meat market come back with peace offering No man is a island, no man is sovereign Any artist, could turn a garden to a desert But can he turn a desert to a garden? These haters hating my bars, playing they part The illest alive, it ain't my fault, where do I start? My words always go unheard, my voice is ignored Nobody will ever understand 10,000 bars I don't even understand it myself 7 billion people on the planet, not 1 understands how I felt I feel like Sophia Stewart, the male oracle of rap music I've been through implorable abuses Let me explain something called mechanical royalty A certain amount of albums get pressed up quarterly For every unit that's pressed, they owe me a dollar Father Author Poor Pauper, they called me a ????? On a corner drinking Goldschlager, it's not something that I'm proud of The business is corrupt and dishonest It's a law not a promise Distributors supposed to pay each artist a dollar per album per project After mechanical royalty is confirmed Copyright infringement is the next lesson to learn The writer is the copyright holder, in my case I'm the owner Without a signature you're not supposed to, sell my music but they sold it A quarter million dollar fine and five months in prison, hold up! How many songs you wrote Bus? I wrote one thousand five hundred, ASCAP don't lie about the numbers But my account got shut down I got no referral From the biggest collection agency in the world Here we go boys and girls they took everything from me I wondered if it's cause I'm ugly, or unlucky I said fuck you crooks you stole my money, keep it gully They keep playing courtroom rugby I feel like God don't love me Cause not one person on the planet stepped up to represent me And now here I am talking to you, but not really though Cause I know you don't really hear me though So now I'm sending a message as far as it could go In the hope that it could maybe reach an uncorrupt soul Somewhere over the rainbow, I go through pain they'll never know That's why I'm so miserable, yo Turn into the lyrical Hulk, jump the gate, grab you by the throat I should break your fuckin' neck cause I'm broke But I ain't really on it like that, I'm so important to rap One day I'll get a lawyer to do that For now evil wins overwhelming the people with sin The modern day Djinn with medieval grins The Jim Baker jungle gym, drink gin and jump into him Then jump into them, then jump back to gin I don't want no money, I just want justice But nowadays no one gives a fuck so fuck it! You gotta love it, big business, big budget Harry Fox hates Hip Hop I'm going public! Ey yo 5'9 You must be out your rabbit ass mind For real or what? I'm finna get some, ya'll nigga line up 'Fore it's over ima show you what it is Imma show you why they kicked me out the biz Them niggas ain't trying to let me live I ain't gonna end up like Pac and Big What are you a lyrical body part? Starstruck over the bodies, U-God With pajamas on, what the fuck you rhymin' for? Fee-fi-fo-fum, the forty ton dinosaur with smoky lungs Nigga where you know me from?! Thoroughbred Hip-Hop head Hip-Hop ain't shit without knowin' the ledge That's what the GOD said I smoke barley green, turn into Charlie Sheen Fuck the honor roll if Hip-Hop don't want to honor me Jump off the deep end, give me the beat man! I'm twelve albums deep, you just gettin' your feet wet Beast from the East Bis never been beat yet You can't avoid war without peace and respect Listen, I don't wanna rub it in, you actin' like that's your husband But this is mutual assured destruction Look up, you see the space and the stars? Don't create a facade, your arms are too short to wave at God The lunar base guard, in a Raveon space pod I was sent to the planet earth to examinate bars Determinate whatever contaminates Lyrical Law Im like Maygoth ragin' in space war with J-Rod I don't have to play the race card I just grab the ACOG, aim at your jaw, and tear your face off First thing in the morning, treat it like a dayjob Mixin' Johnnie Walker with napalm I hold your nose, make you open mouth and say aww The Hip-Hop H-bomb, say sumn', I can't wait to respond Run up in your dressin' room like Raekwon You act hard when them videotapes on 'Cause you hate to be wrong Well let me tell you something, nigga, this is Lyrical Law A spiritual bomb that can cause physical harm Twitter beef, naw, you act like a miserable broad A 360 deal means you gettin' circled by a shark boy Better beg your pardon, turn into a Horsemen, slaughter him I'm a Undergod, you too overconfident So talkin' nigga, 'cause you could all get it W-A-R, nigga, I'm raw with it Don't let the alcohol fuck with your short vision I knock you out of the park, nigga, long distance I wrote this rhyme in five minutes I'm like ten Ghostface Killahs and twenty-five GZAs! Except as set forth below, Baby Grande and Mic Club Music will assign, transfer, and release to Williams all copyrights and other rights to Canibus projects, albums, compositions, and merchandise, and all recordings, copyrights, income and revenues arising out of, or relating to Canibus Williams will own all copyrights in, and to lyrical compositions written by him. Williams will own 100 of all rights. Including all rights to receive revenues, with respect to the master recordings on the albums Rip The Jacker. Williams will own 100 of all rights, including all rights to receive revenues with respect to the master recordings on the albums Mic Club The Curriculum and 'C' True Hollywood Stories. Williams assigns to You Know Who, for a period of 5 years, 50 of all record royalties, paid after recoupment on those 2 albums. You Know Who releases all rights to the name Canibus and will transfer to Williams, or a designee, the Canibus and Poet Laureate domain names, Poet Laureate albums, trademarks relating to the business of Williams. Used to promise Canibus or his music, as well as any titles You Know Who agrees not to sell any Canibus CD's or merchandise and will transfer to Williams all inventory in their possession. You Know Who agrees not to use the name Mic Club in connection with the business of Canibus Crooked motherfuckers. So what I'm supposed to do? Every lawyer I'd done hired to go chase the royalties, mechanicals, and or otherwise, done dropped the ball out of fear, of whoever they work for. You know? People done collected payments. People still selling records. You know what I'm saying? Where's MY cut? You know. I own the copyrights. I WROTE THOSE RECORDS! You know what I'm saying? I wrote the lyrical composition on 'em. You know. Those are MY lyrics. I DO get out there and do the damn thing! But it's hard to compete with these big money labels. It's hard to compete with the promo that they put out there versus the little hand to hand promo that I could get going. You know? Sometimes, I don't even know what I'm doing sometimes. You know, I'm just hoping that, maybe there's a, a group of people, that's going thru the same situation and ain't scared enough to just rally up, form a frontline. And make it so that we could snowball this into something that we could get back what's rightfully ours. You know? And at least get these crooks to be accountable for what they've been doing. Particularly now, because, you know, the economy ain't getting no better. You know what I'm saying? And people are working harder and getting less. So, you know, if you're satisfied with that. That's on you. But I'm speaking on what pertains to me, and what, and what's directly related to the things I see going on in the music. You know? And I love it. I love, I love my music. I love Hip Hop. I love to sit down and write my music. You know? I LOVE IT. I love what it sounds like. I love the result of it. And YOU ain't gonna make me stop. YOU ain't gonna make me quit. You know? I do it when I'm ready. And you ain't gonna stop me from getting my new stuff out there neither. You know. Like I said, if I catch you. If I catch you jumping over the line, I'ma jump the gate. And I'ma punish you. I'ma MAUL YOU. Alright? So just let it be known man... Rub a dub dub, Rip The Jacker gets no love Gotta diss a rap nigga for a buzz Ritual sacrifice they want blood But I don't understand what that got to do with the music Cuz' I don't hate L, I don't care if he fucking trannies or not All I care about is hip-hop I ain't mad at Eminem, I just be responding To the nigga running his mouth who choose to be my nemesis Nigga I rap too this old head nigga rap the truth Rap to the streets, I rap in the booth Spit from the underground to the skyscraper roofs On paper I wrote more rhymes than any rap group Tell me why I just can't get on a track with Jeezy nigga I know how to get them thangs ??? you heard? What's goodie nigga? Still on deck The leprechaun lexicon from U.S. Congress Got a chopper in the car, God-body how I talk it Got dogs on the carpet, G's at the flea market Better back it up nigga 'fore I park it Between your eyebrows on your forehead, my style is that raw shit!</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3215,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>C'est le Svink bébé À lancienne sur celle là x2 Partouze old-chool Swimming-pool party x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam Je jamme sur des defs et tape des bufs, des fakes, des fucks Pas d'keuf, non, y'a Funky Stuff Cour de récré, smurf, défis Parie comme au turf Woofers, grattes trash et beats bien ruff Du funk, dans un esprit punk Mes rimes s'abattent, sur un vieux riff de Black Sabbath Electro, des graffs pourris sur les métros, mes racines Comme Muggs, j'me saoule et j'assassine J'te bassine et direct t'es croque Mais qu'est-ce qui t'choque ? 15 kilos d'chaînes en toc, une boucle de hard-rock Un son live, de mon b-boy's band Non mais là, faut trop qu'j'me pécho un survet' 3 bandes Un MC, avec une collec' d'Adidas Run-DMC Bouts en plastique, j'les astiquent, pour qu'elles restent bien élastiques J'imprime un flow fantastique, un futur classique You might also like x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam Vieux sac US usé, logo ACDC Premier tag posé sur table d'écolier Fan des hardos d'époque, je sniffe de la colle UHU Avec mon nez Cléopâtre 84, collec' de badges, groupes trop violents pour mon âge V'la mon école des fans dont j'fais l'hommage 10 ans plus tard, j'comprend c'qu'est une guitare saturée Un lyrics raturé, un beat old-chool trituré Retour aux seventies C'est pire que Seven quand j'tise Comme Patrick Topaloff, dis-moi où est ma ch'mise grise J'm'agite comme un electron, 78, console Vectron Rompu, aux exercices phalliques Le Svink revient, dans un style plus métallique qu'un solo d'Slash Mon crew s'lâche, DJ Clash, je r'pars en GrandBaster Flash J'en lâche une pour les vieux d'la vieille, les lascars qu'on retourné Paris Ceux qu'étaient au Globo dans les party J'y étais pas, j'étais trop p'tit Mais putain, circulait tellement d'histoires Qu'j'ai voulu faire la même tous les soirs Avec mes potes en classe, on bitait rien à l'anglais Mais on chantait quand même, ça nous plaisait Même si on captait pas encore, l'message d'The Message L'feeling passait déjà à notre âge Don't push me, yeah yo, come on, 'cause I'm close Tout ça, c'est tout a fait c'que j'suis J'renierais pas et y'a eu d'autres choses aussi Mais j'les placent loin derrière, et fais d'ma zique, ma mère nourricière Pour l'caractère, les émotions, les sentiments J'remercie mes pairs très sincèrement Et pour la old-school, qu'est-ce qui coule ? C'est du papa Xanax ! x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam J'ai trop d'styles, donc j'en fous un, fussent-ils bourrins J'reste subtil, rutile, No sleep till Brooklyn D'New-York à Paris La source est jamais tarie, juste branche l'Atari Je-je-ne-ne-veux-veux-pas-pas, de textes nazes alors laisse faire les PaRappa La bite moulée dans un survet' Kappa, flight jacket Japa Et même si t'as pas, toutes les références Inclines-toi d'vant la old-school, fais ta révérence Ma préférence à moi c'est ???, 3 accords d'gratte hardcore J'm'en gratte si t'es pas d'accord J'Electric Boogie, avec les bons tuyaux d'Huggy L'beat lourd et l'jean velours à la Starsky Zulu, Afrika Bambaataa, look bâtard, shoes Bata ??? J'écoute Street Dance sur mon mange-disque, orange, année 70 Hit Break Machine année 80 Le samedi soir d'vant Sex Machine Comme Philippe, j' manuvre, je cherche le chef-d'oeuvre Du classique rock, kick d'Herbie Hancock, j'm'abreuve, j'oeuvre pour mes voisins Un Scorpions enchaîné avec un Beastie Brass Monkey Sur mes AéroStansmith, j'me r'fait l'clip Walk This Way x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam So def, so def, it's a def jam x4 x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam So def, so def, it's a def jam and we don't stop x8</t>
+          <t>C'est le Svink bébé À lancienne sur celle là x2 Partouze old-chool Swimming-pool party x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam Je jamme sur des defs et tape des bufs, des fakes, des fucks Pas d'keuf, non, y'a Funky Stuff Cour de récré, smurf, défis Parie comme au turf Woofers, grattes trash et beats bien ruff Du funk, dans un esprit punk Mes rimes s'abattent, sur un vieux riff de Black Sabbath Electro, des graffs pourris sur les métros, mes racines Comme Muggs, j'me saoule et j'assassine J'te bassine et direct t'es croque Mais qu'est-ce qui t'choque ? 15 kilos d'chaînes en toc, une boucle de hard-rock Un son live, de mon b-boy's band Non mais là, faut trop qu'j'me pécho un survet' 3 bandes Un MC, avec une collec' d'Adidas Run-DMC Bouts en plastique, j'les astiquent, pour qu'elles restent bien élastiques J'imprime un flow fantastique, un futur classique x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam Vieux sac US usé, logo ACDC Premier tag posé sur table d'écolier Fan des hardos d'époque, je sniffe de la colle UHU Avec mon nez Cléopâtre 84, collec' de badges, groupes trop violents pour mon âge V'la mon école des fans dont j'fais l'hommage 10 ans plus tard, j'comprend c'qu'est une guitare saturée Un lyrics raturé, un beat old-chool trituré Retour aux seventies C'est pire que Seven quand j'tise Comme Patrick Topaloff, dis-moi où est ma ch'mise grise J'm'agite comme un electron, 78, console Vectron Rompu, aux exercices phalliques Le Svink revient, dans un style plus métallique qu'un solo d'Slash Mon crew s'lâche, DJ Clash, je r'pars en GrandBaster Flash J'en lâche une pour les vieux d'la vieille, les lascars qu'on retourné Paris Ceux qu'étaient au Globo dans les party J'y étais pas, j'étais trop p'tit Mais putain, circulait tellement d'histoires Qu'j'ai voulu faire la même tous les soirs Avec mes potes en classe, on bitait rien à l'anglais Mais on chantait quand même, ça nous plaisait Même si on captait pas encore, l'message d'The Message L'feeling passait déjà à notre âge Don't push me, yeah yo, come on, 'cause I'm close Tout ça, c'est tout a fait c'que j'suis J'renierais pas et y'a eu d'autres choses aussi Mais j'les placent loin derrière, et fais d'ma zique, ma mère nourricière Pour l'caractère, les émotions, les sentiments J'remercie mes pairs très sincèrement Et pour la old-school, qu'est-ce qui coule ? C'est du papa Xanax ! x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam J'ai trop d'styles, donc j'en fous un, fussent-ils bourrins J'reste subtil, rutile, No sleep till Brooklyn D'New-York à Paris La source est jamais tarie, juste branche l'Atari Je-je-ne-ne-veux-veux-pas-pas, de textes nazes alors laisse faire les PaRappa La bite moulée dans un survet' Kappa, flight jacket Japa Et même si t'as pas, toutes les références Inclines-toi d'vant la old-school, fais ta révérence Ma préférence à moi c'est ???, 3 accords d'gratte hardcore J'm'en gratte si t'es pas d'accord J'Electric Boogie, avec les bons tuyaux d'Huggy L'beat lourd et l'jean velours à la Starsky Zulu, Afrika Bambaataa, look bâtard, shoes Bata ??? J'écoute Street Dance sur mon mange-disque, orange, année 70 Hit Break Machine année 80 Le samedi soir d'vant Sex Machine Comme Philippe, j' manuvre, je cherche le chef-d'oeuvre Du classique rock, kick d'Herbie Hancock, j'm'abreuve, j'oeuvre pour mes voisins Un Scorpions enchaîné avec un Beastie Brass Monkey Sur mes AéroStansmith, j'me r'fait l'clip Walk This Way x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam So def, so def, it's a def jam x4 x2 Mets ton pattes d'eph' Quand le groupe Raid Def Jam J'paye mon hommage, au micro j'fais des dommages Remets ton pattes d'eph' Quand le groupe Raid Def Jam So def, so def, it's a def jam So def, so def, it's a def jam and we don't stop x8</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3232,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1979 1. Sugarhill Gang Rapper's Delight Sugarhill 2. Grandmaster Flash the Furious 5 Superrappin' Enjoy 3. Kurtis Blow Christmas Rappin' Mercury 4. Funky 4 1 Rappin' and Rockin' the House Enjoy 5. The Younger Generation We Rap More Mellow Brass 6. Paulette Tanya Winley Rhymin' and Rappin' Winley 7. Sequence Funk You Up Sugarhill 8. Lady B To the Beat, Y'all T.E.C. 9. Jazzy 4 MCs MC Rock Razzberri Rainbow 10. Lady D Lady D Reflection 11. Funky Constellation Street Talk Madam Rapper Funky Constellation 12. Solid C, Bobby D Kool Drop Wack Rap Wackie's 13. Ron Hunt Spiderap Reflection 14. Xanadu Sweet Lady Rapper's DelightRocker's Choice Joe Gibbs Music 15. Fatback King Tim III Personality Jock Spring 1980 1. Kurtis Blow The Breaks Mercury 2. Disco Dave the Force of the 5 MC's High Powered Rap Mike Dave 3. Spoonie Gee Spoonin' Rap Sound of New York 4. Treacherous Three The New Rap Language Spoonie Gee Love Rap Enjoy 5. Treacherous Three The Body Rock Enjoy 6. Afrika Bambaataa the Cosmic Force Zulu Nation Throwdown Volume 1 Winley 7. Grandmaster Flash the Furious 5 Freedom Sugarhill 8. Jimmy Spicer Adventures of Super Rhyme Rap Dazz 9. Tanya Winley Vicious Rap Winley 10. Afrika Bambaataa the Soul Sonic Force Zulu Nation Throwdown Volume 2 Winley 11. Sequence featuring Spoonie Gee Monster Jam Sugarhill 12. Sugarhill Gang 8th Wonder Sugarhill 13. Treacherous Three At the Party Enjoy 14. Ronnie Gee Raptivity Reflection 15. Brother D the Collective Effort How We Gonna Make the Black Nation Rise? Clappers 16. T.J. Swann And You Know That Express 17. Trickeration Rap, Bounce, Rockskate Sound of New York 18. Grandmaster Flash the Furious 5 Super Rappin' no. 2 Enjoy 19. Super 3 Philosophy Rappin' Spree Delmar International 20. Spyder-D Big Apple Rappin' National Rappin' Anthem Newtroit 21. The Marvelous Three The Younger Generation Rappin' All Over Brass 22. Nice Nasty 3 The Ultimate Rap Holiday 23. Kool Kyle the Starchild the Disco Dolls Do You Like That Funky Beat Enjoy 24. Harlem World Crew Let's Rock Tay-ster 25. Harlem World Crew Rapper's Convention Tay-ster 26. Jazzy Three The Rappin' Spree New City 27. Scoopy Scoopy Rap Sound of New York 28. Rappermatical 5 Party People Dynamite 29. Master Jay Michael Dee T.S.O.B. The Sound of Brooklyn 30. Disco Four Move to the Groove Enjoy 31. Super J Santa's Rap Party Sound of New York 32. BobbyDemo More Ounce Rap Scorpio 33. Willie Wood the Willie Wood Crew Willie Rap Sound of New York 34. CC Crew CC Crew Rap Golden Flamingo 35. Family Family Rap Sound of New York 36. Pookey Blow Get Up and Go to School Tri-State 37. Sicle Cell Rhapazooty Rhapazooty in Blue Showstoppers 38. Mr. Magic Rappin' with Mr. Magic Magic 39. Lonnie Love Young Ladies Nia 40. Bon Rock the Rhythm Rebellion Searchin' Rap Reelin' Rockin' You might also like1981 1. Afrika Bambaataa the Jazzy 5 Jazzy Sensation Tommy Boy 2. Treacherous Three Feel the Heartbeat Enjoy 3. Grandmaster Flash the Furious 5 The Adventures of Grandmaster Flash on the Wheels of Steel Sugarhill 4. Funky 4 1 That's the Joint Sugarhill 5. T Ski Valley Catch the Beat Grand Groove 6. Dr. Jeckyll Mr. Hyde Genius Rap Profile 7. Boogie Boys featuring Kool Ski, Kid Delight Disco Dave Rappin' Ain't No Thang Mike Dave 8. Grand Wizard Theodore the Fantastic Five Can I Get a Soul Clap, Fresh Out the Pack Soul Wax 9. Grandmaster Flash the Furious 5 It's Nasty Sugarhill 10. Trouble Funk Pump Me Up Jam 11. Spoonie Gee Spoonie is Back Sugarhill 12. Just Four Girls of the World Grand Groove 13. Mean Machine Disco Dream Sugarhill 14. Treacherous Three Put the Boogie in Your Body Enjoy 15. Grandmaster Flash the Furious 5 The Birthday Party Sugarhill 16. Pee Wee Mel Barry B Life on Planet Earth 12 Star 17. T.J. Swann, Pee Wee Mel Swann Controllers Maximus Party Express 18. Crash Crew We Want to Rock Sugarhill 19. Solo Sound Get the Party Jumpin' Express 20. Lovebug Starski the Harlem World Crew Positive Life Tay-ster 21. South Bronx The Big Throwdown Dakar 22. Grandmaster Chilly T Stevie G Rock the Message Rap 12 Star 23. Kool Kyle the Starchild It's Rockin' Time Enjoy 24. Chapter Three Real Rocking Groove Grand Groove 25. Disco Four Do It, Do It Enjoy 26. Spanish Fly the Terrible Two Spanglish Enjoy 27. T Ski Valley Never Let Go Grand Groove 28. Margo's Kool Out Crew Death Rap Heavenly Star 29. Troy Rainey Tricky Tee Rap Heavenly Star 30. Doctor Love Sister Love Doctor Love Sister Love Rap Heavenly Star 31. Land of Hits Orchestra Gangster Rock Golden Flamingo 32. T.J. Swann Company Get Fly Express 33. Busy Bee School Days Master Five 34. Chapter Three Smurf Trek Grand Groove 35. Sweet G A Heartbeat Rap West End 36. Doctor Ice Calling Doctor Ice Enjoy 37. Sugarhill Gang Apache Sugarhill 38. Blondie Rapture Chrysalis 39. Super Jay Super Jay Love Theme Hitmakers of America 40. Sangria To the Beat Y'all Reel to Reel 1982 1. Grandmaster Flash the Furious 5 The Message Sugarhill 2. Afrika Bambaataa the Soul Sonic Force Planet Rock Tommy Boy 3. Fearless Four Rockin' It Enjoy 4. Grandmaster Flash the Furious 5 Flash to the Beat Live Bozo Meko 5. Cold Crush Brothers Weekend Elite 6. Busy Bee Making Cash Money Sugarhill 7. Afrika Bambaataa the Soul Sonic Force Looking for the Perfect Beat Tommy Boy 8. Fearless Four It's Magic Enjoy 9. Fab 5 Freddy Change the Beat Celluloid 10. Malcolm McLaren the World Famous Supreme Team Buffalo Gals Island 11. Jimmy Spicer The Bubble Bunch Mercury 12. Treacherous Three Yes We Can Can Sugarhill 13. Funky 4 1 Do You Want to Rock Before I Let Go Sugarhill 14. Masterdon Committee Funk Box Party Enjoy 15. Grandmaster Flash the Furious 5 Flash to the Beat Sugarhill 16. Super 3 When You're Standing on the Top Delmar International 17. Pieces of a Dream Mt. Airy Groove Rap Version Elektra 18. Just Four Jam to Remember Grand Groove 19. Disco Four Country Rock Rap Enjoy 20. Jonzun Crew Space Cowboy Tommy Boy 21. Grandmaster Melle Mel Duke Bootee Message II Survival Sugarhill 22. Nairobi featuring Awesome Foursome Funky Soul Makossa Streetwise 23. Crash Crew Breaking Bells Take Me to the Mardi Gras Sugarhill 24. Grandmixer D.ST the Infinity Rappers The Grandmixer Cuts It Up Celluloid 25. Whodini Magic's Wand Jive 26. Grandmaster Flash the Furious 5 Scorpio Sugarhill 27. Disco Four We're at the Party Profile 28. Kurtis Blow Daydreamin' Mercury 29. South Bronx The Bottom Line Rissa Chrissa 30. Kool Kyle the Starchild Getting Over Frills 31. Mr. Sweety G We Want to Get Down Mike Dave 32. Paulette Tanya Winley I Believe in the Wheel of Fortune Winley 33. Star Quality Class Betcha Got a Dude on the Side RR 34. Missy Dee the Melody Crew Missy Missy Dee Universal Record Co. 35. Sweet G Boogie Feelin' Rap Queens Constance 36. Radiance featuring Prize The Micstro Ware 37. Count Coolout Touch the Rock Rhythm Rap Rock Revival Boss 38. Wayne Charlie the Rappin' Dummy Check It Out Sugarhill 39. T Ski Valley Sexual Rapping TSMP 40. Bon Rock Cotton Candy Junior Wants to Play Tommy Boy 1983 1. Run-D.M.C. It's Like ThatSucker MC's Profile 2. Grandmaster Melle Mel White Lines Don't Don't Do ItSugarhill 3. K-Rob vs. Rammelzee Beat Bop Tartown 4. Double Dee Steinski Play that Beat Mr. DJ Lesson 1 the Payoff MixLesson 2 the James Brown MixLesson 3 History of Hip-Hop Mix Mastermix promo 5. Jimmy Spicer Money Dollar Bill, Y'all Spring 6. Fantasy Three It's Your Rock Specific 7. The B-Boys 2, 3 Break Vintertainment 8. Run-D.M.C. Hard TimesJam Master Jay Profile 9. Sweet G Games People Play Fever 10. Treacherous Three Action Sugarhill 11. Grandmaster Flash the Furious 5 New York, New YorkSugarhill 12. Crash Crew On the Radio Sugarhill 13. Art of Noise Beat BoxMoments in Love ZTT 14. Fresh 3 MC's Fresh Profile 15. Lovebug Starski You Gotta Believe Lovebug Starski Live at the Fever Fever 16. Dimples D Sucker DJs I Will Survive Party Time 17. G.L.O.B.E. Whiz Kid Play That Beat Mr. DJ Tommy Boy 18. Fearless Four Problems of the World Elektra 19. West Street Mob Breakdance-Electric Boogie Sugarhill 20. Beastie Boys Cooky Puss Ratcage 21. Whodini Haunted House of Rock Jive 22. Rockmaster Scott the Dynamic Three It's Life You Gotta Think Twice Reality 23. Newcleus Jam on Revenge the Wikki-Wikki SongSunnyview 24. Pumpkin King of the Beat Profile 25. Afrika Bambaataa the Soul Sonic Force Renegades of Funk Tommy Boy 26. Crash Crew We Are Known Emcees We Turn Parties OutSugarhill 27. Spoonie Gee The Big Beat Tuff City 28. Malcolm X featuring Keith LeBlanc No Sell Out Tommy Boy 29. The Rake Street Justice Profile 30. DJ Divine Get into the Mix West End 31. The B-Boys Rock the HouseCuttin' Herbie Vintertainment 32. Cold Crush Brothers Punk Rock Rap Tuff City 33. Kevie Kev All Night Long Waterbed Sugarhill 34. South Bronx Movement You've Got the Power to Get High on Yourself Positive Juice 35. Gigolette Games Females Play Fever 36. I.R.T. Interboro Rhythm Team Watch the Closing Doors RCA 37. T-Ski Valley Cut It Up Grand Groove 38. Rickey G the Everlasting Five To the Max Capo 39. Captain Rapp Bad Times I Can't Stand It Magic Disc 40. K-9 Corps featuring Pretty C Dog Talk Capitol 1984 1. T La Rock Jazzy Jay It's Yours Partytime 2. L.L. Cool J I Need a Beat Def Jam 3. Run-D.M.C. Rock Box Profile 4. U.T.F.O. Roxanne, Roxanne Select 5. Whodini FriendsFive Minutes of Funk Jive 6. Roxanne Shante Roxanne's Revenge Pop Art 7. Kurtis Blow 8 Million StoriesAJ Scratch Mercury 8. Davy DMX One for the Treble Fresh Tuff City 9. Cold Crush Brothers Fresh, Fly, Wild Bold Tuff City 10. World's Famous Supreme Team Hey DJ Island 11. Whodini Freaks Come Out at Night Jive 12. Disco 3 Fat BoysHuman Beat Box Sutra 13. Divine Sounds What People Do for Money Specific 14. Afrika Bambaataa James Brown Unity Tommy Boy 15. Freddy B the Mighty Mic Masters The Main Event Tuff City 16. Fat Boys Jailhouse Rap Sutra 17. Newcleus Jam on It Sunnyview 18. Grandmaster Melle Mel Beat Street Breakdown Atlantic 19. Furious Five featuring Cowboy, Grandmaster Melle Mel Scorpio Step Off Sugarhill 20. Kurtis Blow Basketball Mercury 21. Grandmixer D.ST Megamix II Why is It Fresh? Celluloid 22. Chuck Chillout Hip Hop on Wax Volume 1 Vintertainment 23. Kool DJ Red Alert Hip Hop on Wax Volume 2 Vintertainment 24. Fat Boys Can You Feel It? Sutra 25. Donald D Don's Groove Elektra 26. Pumpkin the Profile All-Stars Here Comes That Beat! Profile 27. Doug E. Fresh featuring DJs Chill Will Barry Bee Just Having Fun Enjoy 28. Doug E. Fresh Original Human Beat Box Vintertainment 29. Treacherous Three Turning You On Sugarhill 30. Master O.C. Krazy Eddie featuring Peso Tito of the Fearless Four Main Attraction Masters of the Scratch Next Plateau 31. Dr. Jeckyll Mr. Hyde Fast LifeA.M.P.M. Profile 32. Cut Master D.C. That's Life Airport 33. Captain Rock Cosmic Blast Nia 34. DJ Hollywood Hollywood's Message H.I.K.I.M.-Ali 35. Lovebug Starski Starski Live at the Fever Pt. II Fever 36. Ultimate 3 MCs What Are We Gonna Do? Partytime 37. Awesome Foursome Funky Breakdown Partytime 38. Just Four Games of Life Express 39. Frederick MC Count Linton I'm Somebody Else's Guy Vinyl Dreams 40. Masterdon Committee Paid the Cost to Be the Boss Enjoy 1985 1. Doug E. Fresh the Get Fresh Crew The ShowLa Di Da Di Reality 2. Schoolly D P.S.K. Gucci Time Schoolly D 3. L.L. Cool J Rock the Bells Def Jam 4. Run-D.M.C. King of Rock Profile 5. Marley Marl featuring MC Shan Marley Marl Scratch Nia 6. L.L. Cool J I Can't Live Without My Radio Def Jam 7. Mantronix featuring MC Tee Fresh is the Word Sleeping Bag 8. Whistle Nothing Serious Just Buggin' Select 9. Cutmaster D.C. Brooklyn's in the House Zakia 10. Stetsasonic Just Say Stet Tommy Boy 11. Roxanne Shante Bite This Pop Art 12. Grandmaster Flash Larry's Dance Theme Elektra 13. The B-Boys Girls Vintertainment 14. The B-Boys Girls Part 2 Vintertainment 15. Roxanne Shante Queen of Rox Pop Art 16. Word of Mouth featuring DJ Cheese King Kut Beauty the Beat 17. Boogie Boys A Fly Girl Capitol 18. Toddy Tee Batterram Evejim 19. Too hort Girl 75 Girls 20. Kurtis Blow If I Ruled the World Mercury 21. Run-D.M.C. Together Forever Krush Groove 4 Profile 22. Bad Boys featuring K Love Bad Boys Starlite 23. Hollis Crew It's the Beat Def Jam 24. Beastie Boys Rock Hard Def Jam 25. Bad Boys featuring K Love Veronica Starlite 26. Rockmaster Scott the Dynamic Three The Roof is on FireRequest Line Reality 27. DJ Hollywood Hollywood's World Abdull-Akbar 28. Jazzy Jay Def JamCold Chillin' in the Spot Def Jam 29. Super Nature The Show Stoppa is Stupid Fresh Pop Art 30. Sparky D Sparky's Turn Roxanne You're Through Nia 31. Super Kids The Tragedy Don't Do It Nia 32. Steady B featuring Roxanne Shante Just Call Us DefFly Shante Pop Art 33. L.L. Cool J I Want YouDangerous Def Jam 34. Mantronix Needle to the Groove Sleeping Bag 35. Craig G Shout Rap Version Pop Art 36. Force MD's Itchin' for a Scratch Atlantic 37. Beastie Boys She's on It Def Jam 38. Tricky Tee Johnny the Fox Sleeping Bag 39. DJ Born Supreme Allah 2, 3 Break Part II-the Sequel Vintertainment 40. Masterdon Committee Funkbox 2 Profile 1986 1. Eric B. Rakim Eric B. is President My Melody Zakia 2. Run-D.M.C. My AdidasPeter Piper Profile 3. MC Shan The Bridge Bridge 4. Boogie Down Productions South Bronx B-Boy 5. Ultramagnetic MCs Ego Trippin' Next Plateau 6. Beastie Boys Hold It, Now Hit It Def Jam 7. Kool G Rap DJ Polo It's a DemoI'm Fly Cold Chillin' 8. Biz Markie Make the Music with Your Mouth Biz Prism 9. Stetsasonic Go Stetsa I Tommy Boy 10. Just-Ice Latoya Fresh 11. Just-Ice Cold Gettin' Dumb Fresh 12. Roxanne Shante featuring Biz Markie Def Fresh Crew Pop Art 13. Beastie Boys The New StylePaul Revere Def Jam 14. Ice-T 6 'n the Mornin' Techno-Hop 15. Salt-n-Pepa My Mic Sounds Nice Next Plateau 16. Doug E. Fresh the Get Fresh Crew Play This Only at Night Reality 17. Too hort Freaky Tales Jive 18. DJ Jazzy Jeff the Fresh Prince Girls Ain't Nothing But Trouble Word Up 19. Joeski Love Pee-Wee's Dance Vintertainment 20. Sweet Tee DJ Jazzy Joyce It's My Beat Profile 21. Cutmaster D.C. Brooklyn Rocks the Best Zakia 22. Dana Dane Nightmares Profile 23. Word of Mouth featuring DJ Cheese Coast to Coast Profile 24. Whodini One Love Jive 25. Original Concept Knowledge MeCan U Feel It Def Jam 26. Doug E. Fresh the Get Fresh Crew All the Way to HeavenNuthin' Reality 27. Divine Sounds Do or Die Bed Stuy Reality 28. Rodney O Joe Cooley Everlasting Bass Egyptian Empire 29. Whodini Funky Beat Jive 30. Sweet Tee DJ Jazzy Joyce It's Like That, Y'all Profile 31. King Tee Payback's a Mutha Techno-Hop 32. DBL Crew Bust It Urban Rock 33. Stetsasonic Faye4 Ever My Beat Tommy Boy 34. MC Shan Jane, Stop This Crazy ThingCocaine Cold Chillin' 35. Kool Moe Dee Go See the Doctor Rooftop 36. Grandmaster Flash Style Peter Gunn Theme Elektra 37. Heavy D the Boyz Mr. Big Stuff Uptown 38. The Real Roxanne featuring Hitman Howie Tee Bang Zoom Let's Go-Go Select 39. Steady B Bring the Beat Back Pop Art 40. B. Fats Woppit Posse 1987 1. Audio Two Top Billin' First Priority 2. Public Enemy Rebel without a Pause Def Jam 3. Boogie Down Productions The Bridge is Over B-Boy 4. EPMD It's My ThingYou're a Customer Fresh 5. Big Daddy Kane Raw Prism 6. Public Enemy Bring the Noise Def Jam 7. Biz Markie Nobody Beats the Biz Prism 8. Eric B. Rakim I Know You Got Soul Zakia 9. Public Enemy Public Enemy No. 1Timebomb Def Jam 10. Big Daddy Kane featuring Biz Markie Just Rhymin' with Biz Prism 11. Super Lover Cee Casanova Rud Do the James Citi-Beat 12. L.L. Cool J I'm Bad Def Jam 13. Ultramagnetic MCs Funky Next Plateau 14. Eazy-E Boyz-n-the Hood Ruthless 15. Divine Force Holy War Live Yamak-ka 16. Schoolly D Saturday Night Schoolly D 17. Eric B. Rakim I Ain't No Joke Zakia 18. MC Lyte I Cram to Understand U Sam First Priority 19. N.W.A Dope Man Ruthless 20. Just-Ice Going Way Back Fresh 21. Roxanne Shante Have a Nice Day Cold Chillin' 22. Biz Markie Pickin' Boogers Prism 23. Salt-n-Pepa TrampPush It Prism 24. Boogie Down Productions Poetry B-Boy 25. Kool G Rap DJ Polo Rikers IslandRhyme Time Cold Chillin' 26. Jungle Brothers Jimbrowski Idlers 27. Dismasters Small Time Hustler Urban Rock 28. Heavy D the Boyz The Overweight Lover's in the House Uptown 29. Spoonie Gee The Godfather Tuff City 30. The Alliance Do It! Do It!Bustin' LooseOreo Cookie First Priority 31. Antoinette I Got an Attitude Next Plateau 32. Spoonie Gee Take It Off Tuff City 33. Kid 'n Play Last Night Select 34. Latee This Cut's Got FlavorPuttin on the Hits Wild Pitch 35. Steady B Use Me Before I Let Go Jive 36. Masters of Ceremony Sexy Strong City 37. Busy Bee Suicide Strong City 38. Lord Shafiyq My Mic is on Fire NUWR 39. The Classical Two New Generation Rooftop 40. 2 Live Crew We Want Some Pussy!! Luke Skyywalker 1988 1. Rob Base DJ E-Z Rock It Takes Two Profile 2. Eric B Rakim Paid in Full Seven Minutes of Madness Remix4th B'way 3. Big Daddy Kane Ain't No Half Steppin' Cold Chillin' 4. Boogie Down Productions My Philosophy Jive 5. Run-D.M.C. Run's HouseBeats to the Rhyme Profile 6. Public Enemy Don't Believe the Hype Def Jam 7. Marley Marl featuring Masta Ace, Craig G, Kool G Rap Big Daddy Kane The Symphony Cold Chillin' 8. De La Soul Plug Tunin' Tommy Boy 9. EPMD You Gots to Chill Fresh 10. Biz Markie Vapors Cold Chillin' 11. Doug E. Fresh the Get Fresh Crew Keep Risin' to the TopReality 12. J.V.C Force Strong Island B-Boy 13. Biz Markie The Biz is Goin' Off Prism 14. Mark 45 King The 900 Number Tuff City 15. Boogie Down Productions Jack of SpadesI'm Still 1 Numero Uno Jive 16. Eric B. Rakim Microphone Fiend Uni 17. MC Lyte 10 Dis First Priority 18. Stetsasonic SallyDBC Let the Music Play Tommy Boy 19. Jungle Brothers Because I Got It Like That Idlers 20. De La Soul Jenifa Taught MePotholes in My Lawn Tommy Boy 21. Chubb Rock featuring Hitman Howie Tee Caught Up Remix Select 22. 2 Much Wild Thing Warlock 23. Marley Marl featuring Craig G Droppin' Science Cold Chillin' 24. L.L. Cool J Goin' Back to CaliJack the Ripper Def Jam 25. Kool G Rap DJ Polo Road to the Riches Cold Chillin' 26. MC EZ Troup Get Retarded Fresh 27. Stetsasonic Talkin' All That Jazz Tommy Boy 28. Queen Latifah Wrath of My MadnessPrincess of the Posse Tommy Boy 29. MC Lyte Paper Thin Priority 30. Positive K Step Up Front First Priority 31. MC Shan I Pioneered This Cold Chillin' 32. Chill Rob G Dope RhymesChillin'Wild Pitch Wild Pitch 33. Kid 'n Play Do This My Way Select 34. Super Lover Cee Casanova Rud Super- Casanova DNA International 35. Antoinette Hit 'em with This Unfinished Business Next Plateau 36. King Tee Bass Capitol 37. J.J. Fad Supersonic Dream Team 38. Sir Mix-a-Lot Posse on Broadway Def American 39. Supreme Nyborn Versatility Payroll 40. Kid 'n Play Gittin' Funky Select 1989 1. Public Enemy Fight the Power Motown 2. EPMD So Wat Cha Sayin' Fresh 3. Slick Rick Children's Story Def Jam 4. Special Ed I Got It Made Profile 5. Slick Rick Hey Young WorldMona Lisa Def Jam 6. Biz Markie Just a Friend Cold Chillin' 7. Big Daddy Kane Smooth OperatorWarm It Up, Kane Cold Chillin' 8. De La Soul featuring Jungle Brothers, A Tribe Called Quest Monie Love Buddy Native Tongues Decision Tommy Boy 9. N.W.A Straight Outta Compton Ruthless 10. Three Times Dope Funky Dividends Arista 11. The D.O.C. It's Funky Enough Ruthless 12. N.W.A Express YourselfA Bitch iz a Bitch Ruthless 13. Eazy-E Eazy-er Said Than Dunn Ruthless 14. 2 Live Crew Me So Horny Luke 15. 3rd Bass featuring Zev Love X The Gas Face Def Jam 16. Stezo It's My TurnTo the Max Fresh 17. L.L. Cool J Big Ole Butt Def Jam 18. Gang Starr Words I Manifest Remix Wild Pitch 19. Digital Underground Doowutchyalike Tommy Boy 20. Chubb Rock featuring Hitman Howie TeeYa Bad Chubbs Select 21. Positive K A Good Combination First Priority 22. YZ G Rock In Control of ThingsThinking of a Master Plan Diversity 23. 3rd Bass Steppin' to the A.M. Def Jam 24. Main Source ThinkAtom Actual 25. Beastie Boys Hey LadiesShake Your Rump Capitol 26. Nice Smooth Early to RiseMore More Hits Fresh 27. MC Lyte Cha Cha Cha First Priority 28. Chill Rob G Court is Now in Session Wild Pitch 29. MC Sugar Ray Stranger D Knock 'em Out, Sugar Ray Def City 30. Ice-T You Played Yourself Sire 31. Stop the Violence Movement Self-Destruction Jive 32. Boogie Down Productions Why is That? Jive 33. Queen Latifah Dance for Me Inside Out Tommy Boy 34. Low Profile Pay Ya Dues Priority 35. The Bizzie Boyz Droppin' It Payroll 36. Young MC Bust a Move Delicious Vinyl 37. Divine Styler featuring the Scheme Team Ain't Sayin Nothin 38. Kwame the Boy Genius featuring a New Beginning The RhythmAtlantic 39. Cool C The Glamorous Life Atlantic 40. Tone-Loc Wild Thing Delicious Vinyl 1990 1. Public Enemy Welcome to the Terrordome Def Jam 2. A Tribe Called Quest Bonita Applebum Jive 3. Digital Underground The Humpty Dance Tommy Boy 4. L.L. Cool J Jingling Baby Remixed but Still Jingling Def Jam 5. Nice Smooth Funky for YouNo Bones in Ice Cream Fresh 6. EPMD Gold Digger Def Jam 7. Gang Starr Just to Get a RepWho's Gonna Take the Weight?Chrysalis 8. A Tribe Called Quest Can I Kick It?If the Papes Come Jive 9. Main Source Looking at the Front Door Wild Pitch 10. Boogie Down Productions Love's Gonna Get'cha Material Love Jive 11. Kool G Rap DJ Polo Streets of New York Cold Chillin' 12. Eric B. Rakim In the Ghetto MCA 13. Public Enemy Brothers Gonna Work It Out Def Jam 14. L.L. Cool J Around the Way Girl Def Jam 15. Jungle Brothers J. Beez Comin' Through Warner Bros 16. Ice Cube AmeriKKKa's Most WantedOnce Upon a Time in the Projects Priority 17. Terminator X featuring Chuck D Sister Souljah Buck Whylin' Def Jam 18. Digital Underground Freaks of the Industry Tommy Boy 19. D-Nice Call Me D-Nice Jive 20. Chubb Rock Treat 'em Right Select 21. 3rd Bass Product of the Environment Remix3 Strikes 5000 Def Jam 22. K-Solo Your Mom's in My Business Atlantic 23. L.L. Cool J To da Break of Dawn Motown 24. Lord Finesse DJ Mike Smooth Strictly for the Ladies Wild Pitch 25. Poor Righteous Teachers Rock Dis Funky Joint Profile 26. Above the Law Murder Rap Ruthless 27. Special Ed I'm the Magnificent the Magnificent Remix Ready 2 Attack Profile 28. K.M.D. Peachfuzz Elektra 29. Ice Cube Who's the Mack? Priority 30. K-Solo Spellbound Atlantic 31. King Tee Ruff Rhyme Back AgainPlayed Like a Piano Capitol 32. X Clan Funkin' Lesson Island 33. Kid Frost La Raza Virgin 34. Kings of Swing Nod Your Head to This Virgin 35. Masta Ace Me and the Biz Cold Chillin' 36. Double XX Posse Executive Class Mel-O 37. Special Ed The Mission Profile 38. L.L. Cool J The Boomin' System Motown 39. Above the Law Untouchable Ruthless 40. The Jaz featuring Jay-Z The Originators EMI 1991 1. Geto Boys Mind Playing Tricks on Me Rap-a-Lot 2. A Tribe Called Quest Check the Rhime Jive 3. Naughty by Nature O.P.P. Tommy Boy 4. Public Enemy Shut 'em Down Pete Rock Remix Def Jam 5. Cypress Hill How I Could Just Kill a Man Ruffhouse 6. Brand Nubian Slow Down Elektra 7. Main Source Just Hangin' OutLive at the Barbeque Wild Pitch 8. DJ Jazzy Jeff the Fresh Prince Summertime Jive 9. Brand Nubian All for One Elektra 10. Ed O.G. da Bulldogs I Got to Have It PWL 11. MC Breed Ain't No Future in Yo' Frontin' Ichiban 12. EPMD featuring L.L. Cool J Rampage Def Jam 13. Nice Smooth Hip Hop Junkies Fresh 14. Black Sheep Flavor of the Month Mercury 15. De La Soul Ring Ring Ring Ha Ha Hey Tommy Boy 16. Ice Cube Steady Mobbin'No Vaseline Priority 17. Leaders of the New School Sobb Story Elektra 18. Compton's Most Wanted Growin' Up in the Hood Orpheus 19. Tim Dog Fuck Compton Ruffhouse 20. Digital Underground featuring 2Pac Same Song Tommy Boy 21. AMG Jiggable Pie Select 22. MC Lyte Poor Georige First Priority 23. Ed O.G. da Bulldogs Be a Father to Your Child PWL 24. WC the MAAD Circle Dress Code Priority 25. Gang Star Step in the ArenaCheck the Technique Chrysalis 26. Poor Righteous Teachers Shakiyla Profile 27. De La Soul featuring Q-Tip A Rollerskating Jam Named 'Saturdays' Tommy Boy 28. Leaders of the New School Case of the P.T.A. Elektra 29. K.M.D. Nitty Gritty RemixPlumskinzz Elektra 30. Del tha Funkee Homosapien Sleepin' on My Couch Elektra 31. K-Solo Fugitive Atlantic 32. Eric B. Rakim Mahogany MCA 33. Kool G Rap DJ Polo Bad to the Bone Cold Chillin' 34. AMG Bitch Betta Have My Money Select 35. D-Nice 25 ta Life Jive 36. DJ Quik Tonight Profile 37. Special Ed Come on, Let's Move It Profile 38. Ice-T O.G. Original GangsterBitches 2 Sire 39. K.M.D. Who Me? Elektra 40. Raw Fusion Throw Your Hands in the AirDo My Thang Hollywood BASIC 1992 1. Black Sheep The Choice is Yours Revisited Mercury 2. Gang Starr featuring Nice Smooth DWYCK Chrysalis 3. Das EFX They Want EFX Eastwest 4. Dr. Dre featuring Snoop Doggy Dogg Deep Cover Epic 5. Pete Rock CL Smooth T.R.O.Y. They Reminisce Over YouElektra 6. A Tribe Called Quest featuring Leaders of the New School Scenario Jive 7. Main Source featuring Neek the Exotic Fakin' the Funk Remix Wild Pitch 8. Brand Nubian Punks Jump Up to Get Beat Down Elektra 9. Nas Half Time Columbia 10. EPMD CrossoverBrothers from Brentwood L.I. Def Jam 11. House of Pain Jump Around Tommy Boy 12. Ultramagnetic MCs Poppa Large East Coast Remix Mercury 13. Das EFX Mic Checka RemixJussumen Remix Eastwest 14. Redman Blow Your MindHow to Roll a Blunt Def Jam 15. Naughty by Nature Uptown Anthem MCA 16. Eric B. Rakim Juice Know the Ledge MCA 17. EPMD featuring K-Solo Redman Head Banger Def Jam 18. A Tribe Called Quest Jazz We've Got Jive 19. Naughty by Nature Everything's Gonna Be Alright Ghetto BastardTommy Boy 20. Kool G Rap DJ Polo Ill Street Blues Cold Chillin' 21. Black Moon Who Got da Props? Nervous 22. Apache Gangsta Bitch Tommy Boy 23. Cypress Hill Hand on the Pump Ruffhouse 24. Afrika Bambaataa Presents Time Zone Zulu War Chant Planet Rock 25. Grand Puba 360 Degrees What Goes Around Elektra 26. Diamond D Best Kept SecretFreestyle Yo, That's That Shit Chemistry 27. DJ Quik Just Like Compton Profile 28. Double XX Posse Not Gonna Be Able to Do It Big Beat 29. Pete Rock CL Smooth Straighten It Out Elektra 30. UMC's One to Grow On Wild Pitch 31. Beastie Boys So What'cha Want Grand Royal 32. Fu-Schnickens featuring Phife Dawg La Schmoove Jive 33. Show AG Fat Pockets Remix Payday 34. Organized Konfusion featuring O.C. Fudge Pudge Hollywood BASIC 35. Chi Ali Age Ain't Nothin' But a Relativity 36. Del tha Funkee Homosapien Mistadobalina Elektra 37. Eric B. Rakim Don't Sweat the Technique MCA 38. MC Ren Final Frontier Ruthless 39. Sir Mix-a-Lot Baby Got Back Def American 40. N2Deep Back to the Hotel Profile 1993 1. Dr. Dre featuring Snoop Doggy Dogg Nuthin' But a 'G' Thang Death Row 2. Wu-Tang Clan Protect Ya Neck Wu-Tang 3. Jeru the Damaja Come Clean Payday 4. The Pharcyde Passin' Me By Delicious Vinyl 5. Redman Tonight's da Night Def Jam 6. 2Pac featuring Shock G Money B I Get Around Interscope 7. A Tribe Called Quest featuring Trugoy Award Tour Jive 8. Onyx Throw Ya Gunz Def Jam 9. Dr. Dre featuring Snoop Doggy Dogg Fuck wit Dre Day and Everybody's Celebratin' Death Row 10. Redman Time 4 Sum Aksion Def Jam 11. Wu-Tang Clan Method Man Loud 12. KRS-One Outta Here Jive 13. A Tribe Called Quest Electric Relaxation Jive 14. Souls of Mischief 93 'til Infinity Jive 15. Kool G Rap DJ Polo On the Run Dirty Untouchable Remix Cold Chillin' 16. Onyx Slam Def Jam 17. MC Eiht Streiht Up Menace Jive 18. M.O.P. How About Some Hardcore Select 19. The Pharcyde Otha Fish Delicious Vinyl 20. Notorious B.I.G. Party and Bullshit Uptown 21. Alkaholiks Make Room Loud 22. MC Breed featuring 2Pac Gotta Get Mine Ichiban 23. Beatnuts Reign of the Tec Relativity 24. Casual That's How It Is Remix Jive 25. Fat Joe Flow Joe Relativity 26. KRS-One Sound of da PoliceHip Hop vs. Rap Jive 27. De La Soul Breakadawn Tommy Boy 28. Ultramagnetic MCs Two Brothers with Checks San Francisco, HarveyOne, Two, One, Two Wild Pitch 29. Diamond D I'm Outta HereYou Can't Front the Shit is Real Chemistry 30. Casual I Didn't Mean To Jive 31. Lords of the Underground Chief Rocka Elektra 32. Kurious Walk Like a Duck Columbia 33. Geto Boys Crooked Officer Rap-a-Lot 34. Leaders of the New School What's Next? Elektra 35. Domino Getto Jam Outburst 36. Intelligent Hoodlum Grand Groove Remix AM 37. 2Pac Keep Ya Head Up Interscope 38. Trends of Culture Off On Remix Mad Sounds 39. Cypress Hill Insane in the Brain When the Shit Goes Down Ruffhouse 40. Mobb DeepHit It From the Back 4th B'way 1994 1. Craig Mack Flava in Your Ear Bad Boy 2. Snoop Doggy Dogg Gin Juice Death Row 3. Wu-Tang Clan C.R.E.A.M. Loud 4. The Notorious B.I.G. Juicy Unbelievable Bad Boy 5. Method Man Bring the Pain Def Jam 6. O.C. Time's Up Wild Pitch 7. Common i used to love h.e.r. Relativity 8. Black Moon I Got Cha Opin RemixReality Killin' Every Nigga in Sight Nervous 9. Keith Murray The Most Beautifullest Thing in This World Jive 10. Above the Law Black Superman Ruthless 11. Nas It Ain't Hard to Tell Columbia 12. Smif-n-Wessun BucktownLet's Git It On Nervous 13. Fugees Nappy Heads Remix Ruffhouse 14. Jeru the Damaja D. Original Payday 15. Gang Starr Mass Appeal Chrysalis 16. Nas The World is Yours Columbia 17. Outkast Player's Ball LaFace 18. Scarface I Seen a Man Die Rap-a-Lot 19. Group Home Supa Star Payday 20. Snoop Doggy Dogg Murder Was the Case Death Row 21. Too hort Money in the Ghetto Jive 22. The Lady of Rage featuring Snoop Doggy Dogg Afro Puffs Death Row 23. Wu-Tang Clan Can It Be All So Simple Loud 24. Channel Live featuring KRS-One Mad Izm Capitol 25. Black Moon How Many MCs Nervous 26. Redman Rockafella Remix Def Jam 27. Redman Can't Wait Def Jam 28. Black Moon Buck 'em Down remixMurder MCs Nervous 29. De La Soul Ego Trippin' Part Two Tommy Boy 30. Gravediggaz feat. Shabazz the Disciple Killah Priest Diary of a Madman Gee Street 31. Crooklyn Dodgers Crooklyn MCA 32. Outkast Southernplayalisticadillacmuzik LaFace 33. Bone Thugs-n-Harmony Thuggish Ruggish Bone Relativity 34. Dru Down featuring Luniz Ice Cream Man Relativity 35. Craig Mack featuring Q-Tip Get Down Remix Bad Boy 36. Shyheim On and On Virgin 37. JT the Bigga Figga featuring Mac Mall Game Recognize Game Get Low 38. E-40 featuring the Click Captain Save a Hoe Sick wid It 39. Ill Al Skratch Where My Homiez Mercury 40. Nate Dogg Warren G Regulate Death Row 1995 1. Mobb Deep Shook Ones Pt. II Loud 2. The Notorious B.I.G. One More Chance Stay with Me Remix Bad Boy 3. Luniz I Got 5 on It Noo Trybe 4. Ol' Dirty Bastard Brooklyn Zoo Elektra 5. The Notorious B.I.G. Big PoppaWho Shot Ya Bad Boy 6. Method Man featuring Mary J. Blige You're All I Need to Get By Def Jam 7. Junior M.A.F.I.A. featuring the Notorious B.I.G. Get Money Big Beat 8. TRU featuring Mia X I'm Bout It, Bout It No Limit 9. Smoothe da Hustler featuring Trigger tha Gambler Broken Language Profile 10. Raekwon Incarcerated ScarfacesIce Cream Loud 11. KRS-One MCs Act Like They Don't Know Jive 12. E-40 featuring Suga T Sprinkle Me Jive 13. Blahzay Blahzay Danger Mercury 14. WC and the MAAD Circle featuring Mack 10 Ice Cube West Up!Payday 15. Onyx Last Dayz Def Jam 16. Tha Dogg Pound featuring Snoop Doggy Dogg New York, New York Death Row 17. Junior M.A.F.I.A. featuring the Notorious B.I.G. Player's Anthem Big Beat 18. Big Mike Playa Playa Rap-a-Lot 19. Mack 10 Foe Life Priority 20. Redman Method Man How High Def Jam 21. Raekwon CriminologyGlaciers of Ice Loud 22. Smif-n-Wessun featuring Starang Wondah Sound Bwoy Bureill Nervous 23. Grand Puba I Like It I Wanna Be Where You Are Elektra 24. Show AG Next Level Payday 25. Bone Thugs-n-Harmony 1st of tha Month Relativity 26. Da Brat Give It 2 You Remix So So Def 27. The Pharcyde Runnin'Drop Delicious Vinyl 28. Tha Alkaholiks DAAAM! Loud 29. GZA Liquid Swords Geffen 30. Group Home Livin' Proof Payday 31. Crooklyn Dodgers '95 Return of the Crooklyn Dodgers MCA 32. Das EFX Real Hip Hop EastWest 33. J-Live Braggin' Writes Raw Shack 34. Nine Whutcha Want? Profile 35. Lost Boyz Jeeps, Lex Coups, Bimaz Benz Universal 36. Ol' Dirty Bastard Shimmy Shimmy Ya Elektra 37. Jay-Z In My LifetimeCan't Get wit That Roc-a-Fella 38. Three 6 Mafia Tear da Club Up Da Real Prophet 39. Frankie Cutlass feat. Doo Wop, Fat Joe, Ray Boogie True God Boriquas on da Set Relativity 40. Q-Ball Curt Cazal My Kinda Moves VZQ 1996 1. Outkast Elevators Me You LaFace 2. Jay-Z Dead PresidentsAin't No Nigga Roc-a-Fella 3. Fugees Killing Me Softly Ruffhouse 4. Jay-Z featuring Mary J. Blige Can't Knock the Hustle Roc-a-Fella 5. Busta Rhymes Woo Hah!! Got You All in Check Elektra 6. Goodie Mob Cell Therapy LaFace 7. Westside Connection Bow Down Priority 8. Junior M.A.F.I.A. featuring the Notorious B.I.G. Get Money Remix Big Beat 9. Lil' Kim No TimeQueen Bitch Undeas 10. Mobb Deep Drop a Gem on 'Em Loud 11. Too hort featuring Erick Sermon Buy You Some Jive 12. Ghostface Killah featuring Raekwon, Cappadonna the Force MDs Daytona 500 Razor Sharp 13</t>
+          <t>1979 1. Sugarhill Gang Rapper's Delight Sugarhill 2. Grandmaster Flash the Furious 5 Superrappin' Enjoy 3. Kurtis Blow Christmas Rappin' Mercury 4. Funky 4 1 Rappin' and Rockin' the House Enjoy 5. The Younger Generation We Rap More Mellow Brass 6. Paulette Tanya Winley Rhymin' and Rappin' Winley 7. Sequence Funk You Up Sugarhill 8. Lady B To the Beat, Y'all T.E.C. 9. Jazzy 4 MCs MC Rock Razzberri Rainbow 10. Lady D Lady D Reflection 11. Funky Constellation Street Talk Madam Rapper Funky Constellation 12. Solid C, Bobby D Kool Drop Wack Rap Wackie's 13. Ron Hunt Spiderap Reflection 14. Xanadu Sweet Lady Rapper's DelightRocker's Choice Joe Gibbs Music 15. Fatback King Tim III Personality Jock Spring 1980 1. Kurtis Blow The Breaks Mercury 2. Disco Dave the Force of the 5 MC's High Powered Rap Mike Dave 3. Spoonie Gee Spoonin' Rap Sound of New York 4. Treacherous Three The New Rap Language Spoonie Gee Love Rap Enjoy 5. Treacherous Three The Body Rock Enjoy 6. Afrika Bambaataa the Cosmic Force Zulu Nation Throwdown Volume 1 Winley 7. Grandmaster Flash the Furious 5 Freedom Sugarhill 8. Jimmy Spicer Adventures of Super Rhyme Rap Dazz 9. Tanya Winley Vicious Rap Winley 10. Afrika Bambaataa the Soul Sonic Force Zulu Nation Throwdown Volume 2 Winley 11. Sequence featuring Spoonie Gee Monster Jam Sugarhill 12. Sugarhill Gang 8th Wonder Sugarhill 13. Treacherous Three At the Party Enjoy 14. Ronnie Gee Raptivity Reflection 15. Brother D the Collective Effort How We Gonna Make the Black Nation Rise? Clappers 16. T.J. Swann And You Know That Express 17. Trickeration Rap, Bounce, Rockskate Sound of New York 18. Grandmaster Flash the Furious 5 Super Rappin' no. 2 Enjoy 19. Super 3 Philosophy Rappin' Spree Delmar International 20. Spyder-D Big Apple Rappin' National Rappin' Anthem Newtroit 21. The Marvelous Three The Younger Generation Rappin' All Over Brass 22. Nice Nasty 3 The Ultimate Rap Holiday 23. Kool Kyle the Starchild the Disco Dolls Do You Like That Funky Beat Enjoy 24. Harlem World Crew Let's Rock Tay-ster 25. Harlem World Crew Rapper's Convention Tay-ster 26. Jazzy Three The Rappin' Spree New City 27. Scoopy Scoopy Rap Sound of New York 28. Rappermatical 5 Party People Dynamite 29. Master Jay Michael Dee T.S.O.B. The Sound of Brooklyn 30. Disco Four Move to the Groove Enjoy 31. Super J Santa's Rap Party Sound of New York 32. BobbyDemo More Ounce Rap Scorpio 33. Willie Wood the Willie Wood Crew Willie Rap Sound of New York 34. CC Crew CC Crew Rap Golden Flamingo 35. Family Family Rap Sound of New York 36. Pookey Blow Get Up and Go to School Tri-State 37. Sicle Cell Rhapazooty Rhapazooty in Blue Showstoppers 38. Mr. Magic Rappin' with Mr. Magic Magic 39. Lonnie Love Young Ladies Nia 40. Bon Rock the Rhythm Rebellion Searchin' Rap Reelin' Rockin' 1981 1. Afrika Bambaataa the Jazzy 5 Jazzy Sensation Tommy Boy 2. Treacherous Three Feel the Heartbeat Enjoy 3. Grandmaster Flash the Furious 5 The Adventures of Grandmaster Flash on the Wheels of Steel Sugarhill 4. Funky 4 1 That's the Joint Sugarhill 5. T Ski Valley Catch the Beat Grand Groove 6. Dr. Jeckyll Mr. Hyde Genius Rap Profile 7. Boogie Boys featuring Kool Ski, Kid Delight Disco Dave Rappin' Ain't No Thang Mike Dave 8. Grand Wizard Theodore the Fantastic Five Can I Get a Soul Clap, Fresh Out the Pack Soul Wax 9. Grandmaster Flash the Furious 5 It's Nasty Sugarhill 10. Trouble Funk Pump Me Up Jam 11. Spoonie Gee Spoonie is Back Sugarhill 12. Just Four Girls of the World Grand Groove 13. Mean Machine Disco Dream Sugarhill 14. Treacherous Three Put the Boogie in Your Body Enjoy 15. Grandmaster Flash the Furious 5 The Birthday Party Sugarhill 16. Pee Wee Mel Barry B Life on Planet Earth 12 Star 17. T.J. Swann, Pee Wee Mel Swann Controllers Maximus Party Express 18. Crash Crew We Want to Rock Sugarhill 19. Solo Sound Get the Party Jumpin' Express 20. Lovebug Starski the Harlem World Crew Positive Life Tay-ster 21. South Bronx The Big Throwdown Dakar 22. Grandmaster Chilly T Stevie G Rock the Message Rap 12 Star 23. Kool Kyle the Starchild It's Rockin' Time Enjoy 24. Chapter Three Real Rocking Groove Grand Groove 25. Disco Four Do It, Do It Enjoy 26. Spanish Fly the Terrible Two Spanglish Enjoy 27. T Ski Valley Never Let Go Grand Groove 28. Margo's Kool Out Crew Death Rap Heavenly Star 29. Troy Rainey Tricky Tee Rap Heavenly Star 30. Doctor Love Sister Love Doctor Love Sister Love Rap Heavenly Star 31. Land of Hits Orchestra Gangster Rock Golden Flamingo 32. T.J. Swann Company Get Fly Express 33. Busy Bee School Days Master Five 34. Chapter Three Smurf Trek Grand Groove 35. Sweet G A Heartbeat Rap West End 36. Doctor Ice Calling Doctor Ice Enjoy 37. Sugarhill Gang Apache Sugarhill 38. Blondie Rapture Chrysalis 39. Super Jay Super Jay Love Theme Hitmakers of America 40. Sangria To the Beat Y'all Reel to Reel 1982 1. Grandmaster Flash the Furious 5 The Message Sugarhill 2. Afrika Bambaataa the Soul Sonic Force Planet Rock Tommy Boy 3. Fearless Four Rockin' It Enjoy 4. Grandmaster Flash the Furious 5 Flash to the Beat Live Bozo Meko 5. Cold Crush Brothers Weekend Elite 6. Busy Bee Making Cash Money Sugarhill 7. Afrika Bambaataa the Soul Sonic Force Looking for the Perfect Beat Tommy Boy 8. Fearless Four It's Magic Enjoy 9. Fab 5 Freddy Change the Beat Celluloid 10. Malcolm McLaren the World Famous Supreme Team Buffalo Gals Island 11. Jimmy Spicer The Bubble Bunch Mercury 12. Treacherous Three Yes We Can Can Sugarhill 13. Funky 4 1 Do You Want to Rock Before I Let Go Sugarhill 14. Masterdon Committee Funk Box Party Enjoy 15. Grandmaster Flash the Furious 5 Flash to the Beat Sugarhill 16. Super 3 When You're Standing on the Top Delmar International 17. Pieces of a Dream Mt. Airy Groove Rap Version Elektra 18. Just Four Jam to Remember Grand Groove 19. Disco Four Country Rock Rap Enjoy 20. Jonzun Crew Space Cowboy Tommy Boy 21. Grandmaster Melle Mel Duke Bootee Message II Survival Sugarhill 22. Nairobi featuring Awesome Foursome Funky Soul Makossa Streetwise 23. Crash Crew Breaking Bells Take Me to the Mardi Gras Sugarhill 24. Grandmixer D.ST the Infinity Rappers The Grandmixer Cuts It Up Celluloid 25. Whodini Magic's Wand Jive 26. Grandmaster Flash the Furious 5 Scorpio Sugarhill 27. Disco Four We're at the Party Profile 28. Kurtis Blow Daydreamin' Mercury 29. South Bronx The Bottom Line Rissa Chrissa 30. Kool Kyle the Starchild Getting Over Frills 31. Mr. Sweety G We Want to Get Down Mike Dave 32. Paulette Tanya Winley I Believe in the Wheel of Fortune Winley 33. Star Quality Class Betcha Got a Dude on the Side RR 34. Missy Dee the Melody Crew Missy Missy Dee Universal Record Co. 35. Sweet G Boogie Feelin' Rap Queens Constance 36. Radiance featuring Prize The Micstro Ware 37. Count Coolout Touch the Rock Rhythm Rap Rock Revival Boss 38. Wayne Charlie the Rappin' Dummy Check It Out Sugarhill 39. T Ski Valley Sexual Rapping TSMP 40. Bon Rock Cotton Candy Junior Wants to Play Tommy Boy 1983 1. Run-D.M.C. It's Like ThatSucker MC's Profile 2. Grandmaster Melle Mel White Lines Don't Don't Do ItSugarhill 3. K-Rob vs. Rammelzee Beat Bop Tartown 4. Double Dee Steinski Play that Beat Mr. DJ Lesson 1 the Payoff MixLesson 2 the James Brown MixLesson 3 History of Hip-Hop Mix Mastermix promo 5. Jimmy Spicer Money Dollar Bill, Y'all Spring 6. Fantasy Three It's Your Rock Specific 7. The B-Boys 2, 3 Break Vintertainment 8. Run-D.M.C. Hard TimesJam Master Jay Profile 9. Sweet G Games People Play Fever 10. Treacherous Three Action Sugarhill 11. Grandmaster Flash the Furious 5 New York, New YorkSugarhill 12. Crash Crew On the Radio Sugarhill 13. Art of Noise Beat BoxMoments in Love ZTT 14. Fresh 3 MC's Fresh Profile 15. Lovebug Starski You Gotta Believe Lovebug Starski Live at the Fever Fever 16. Dimples D Sucker DJs I Will Survive Party Time 17. G.L.O.B.E. Whiz Kid Play That Beat Mr. DJ Tommy Boy 18. Fearless Four Problems of the World Elektra 19. West Street Mob Breakdance-Electric Boogie Sugarhill 20. Beastie Boys Cooky Puss Ratcage 21. Whodini Haunted House of Rock Jive 22. Rockmaster Scott the Dynamic Three It's Life You Gotta Think Twice Reality 23. Newcleus Jam on Revenge the Wikki-Wikki SongSunnyview 24. Pumpkin King of the Beat Profile 25. Afrika Bambaataa the Soul Sonic Force Renegades of Funk Tommy Boy 26. Crash Crew We Are Known Emcees We Turn Parties OutSugarhill 27. Spoonie Gee The Big Beat Tuff City 28. Malcolm X featuring Keith LeBlanc No Sell Out Tommy Boy 29. The Rake Street Justice Profile 30. DJ Divine Get into the Mix West End 31. The B-Boys Rock the HouseCuttin' Herbie Vintertainment 32. Cold Crush Brothers Punk Rock Rap Tuff City 33. Kevie Kev All Night Long Waterbed Sugarhill 34. South Bronx Movement You've Got the Power to Get High on Yourself Positive Juice 35. Gigolette Games Females Play Fever 36. I.R.T. Interboro Rhythm Team Watch the Closing Doors RCA 37. T-Ski Valley Cut It Up Grand Groove 38. Rickey G the Everlasting Five To the Max Capo 39. Captain Rapp Bad Times I Can't Stand It Magic Disc 40. K-9 Corps featuring Pretty C Dog Talk Capitol 1984 1. T La Rock Jazzy Jay It's Yours Partytime 2. L.L. Cool J I Need a Beat Def Jam 3. Run-D.M.C. Rock Box Profile 4. U.T.F.O. Roxanne, Roxanne Select 5. Whodini FriendsFive Minutes of Funk Jive 6. Roxanne Shante Roxanne's Revenge Pop Art 7. Kurtis Blow 8 Million StoriesAJ Scratch Mercury 8. Davy DMX One for the Treble Fresh Tuff City 9. Cold Crush Brothers Fresh, Fly, Wild Bold Tuff City 10. World's Famous Supreme Team Hey DJ Island 11. Whodini Freaks Come Out at Night Jive 12. Disco 3 Fat BoysHuman Beat Box Sutra 13. Divine Sounds What People Do for Money Specific 14. Afrika Bambaataa James Brown Unity Tommy Boy 15. Freddy B the Mighty Mic Masters The Main Event Tuff City 16. Fat Boys Jailhouse Rap Sutra 17. Newcleus Jam on It Sunnyview 18. Grandmaster Melle Mel Beat Street Breakdown Atlantic 19. Furious Five featuring Cowboy, Grandmaster Melle Mel Scorpio Step Off Sugarhill 20. Kurtis Blow Basketball Mercury 21. Grandmixer D.ST Megamix II Why is It Fresh? Celluloid 22. Chuck Chillout Hip Hop on Wax Volume 1 Vintertainment 23. Kool DJ Red Alert Hip Hop on Wax Volume 2 Vintertainment 24. Fat Boys Can You Feel It? Sutra 25. Donald D Don's Groove Elektra 26. Pumpkin the Profile All-Stars Here Comes That Beat! Profile 27. Doug E. Fresh featuring DJs Chill Will Barry Bee Just Having Fun Enjoy 28. Doug E. Fresh Original Human Beat Box Vintertainment 29. Treacherous Three Turning You On Sugarhill 30. Master O.C. Krazy Eddie featuring Peso Tito of the Fearless Four Main Attraction Masters of the Scratch Next Plateau 31. Dr. Jeckyll Mr. Hyde Fast LifeA.M.P.M. Profile 32. Cut Master D.C. That's Life Airport 33. Captain Rock Cosmic Blast Nia 34. DJ Hollywood Hollywood's Message H.I.K.I.M.-Ali 35. Lovebug Starski Starski Live at the Fever Pt. II Fever 36. Ultimate 3 MCs What Are We Gonna Do? Partytime 37. Awesome Foursome Funky Breakdown Partytime 38. Just Four Games of Life Express 39. Frederick MC Count Linton I'm Somebody Else's Guy Vinyl Dreams 40. Masterdon Committee Paid the Cost to Be the Boss Enjoy 1985 1. Doug E. Fresh the Get Fresh Crew The ShowLa Di Da Di Reality 2. Schoolly D P.S.K. Gucci Time Schoolly D 3. L.L. Cool J Rock the Bells Def Jam 4. Run-D.M.C. King of Rock Profile 5. Marley Marl featuring MC Shan Marley Marl Scratch Nia 6. L.L. Cool J I Can't Live Without My Radio Def Jam 7. Mantronix featuring MC Tee Fresh is the Word Sleeping Bag 8. Whistle Nothing Serious Just Buggin' Select 9. Cutmaster D.C. Brooklyn's in the House Zakia 10. Stetsasonic Just Say Stet Tommy Boy 11. Roxanne Shante Bite This Pop Art 12. Grandmaster Flash Larry's Dance Theme Elektra 13. The B-Boys Girls Vintertainment 14. The B-Boys Girls Part 2 Vintertainment 15. Roxanne Shante Queen of Rox Pop Art 16. Word of Mouth featuring DJ Cheese King Kut Beauty the Beat 17. Boogie Boys A Fly Girl Capitol 18. Toddy Tee Batterram Evejim 19. Too hort Girl 75 Girls 20. Kurtis Blow If I Ruled the World Mercury 21. Run-D.M.C. Together Forever Krush Groove 4 Profile 22. Bad Boys featuring K Love Bad Boys Starlite 23. Hollis Crew It's the Beat Def Jam 24. Beastie Boys Rock Hard Def Jam 25. Bad Boys featuring K Love Veronica Starlite 26. Rockmaster Scott the Dynamic Three The Roof is on FireRequest Line Reality 27. DJ Hollywood Hollywood's World Abdull-Akbar 28. Jazzy Jay Def JamCold Chillin' in the Spot Def Jam 29. Super Nature The Show Stoppa is Stupid Fresh Pop Art 30. Sparky D Sparky's Turn Roxanne You're Through Nia 31. Super Kids The Tragedy Don't Do It Nia 32. Steady B featuring Roxanne Shante Just Call Us DefFly Shante Pop Art 33. L.L. Cool J I Want YouDangerous Def Jam 34. Mantronix Needle to the Groove Sleeping Bag 35. Craig G Shout Rap Version Pop Art 36. Force MD's Itchin' for a Scratch Atlantic 37. Beastie Boys She's on It Def Jam 38. Tricky Tee Johnny the Fox Sleeping Bag 39. DJ Born Supreme Allah 2, 3 Break Part II-the Sequel Vintertainment 40. Masterdon Committee Funkbox 2 Profile 1986 1. Eric B. Rakim Eric B. is President My Melody Zakia 2. Run-D.M.C. My AdidasPeter Piper Profile 3. MC Shan The Bridge Bridge 4. Boogie Down Productions South Bronx B-Boy 5. Ultramagnetic MCs Ego Trippin' Next Plateau 6. Beastie Boys Hold It, Now Hit It Def Jam 7. Kool G Rap DJ Polo It's a DemoI'm Fly Cold Chillin' 8. Biz Markie Make the Music with Your Mouth Biz Prism 9. Stetsasonic Go Stetsa I Tommy Boy 10. Just-Ice Latoya Fresh 11. Just-Ice Cold Gettin' Dumb Fresh 12. Roxanne Shante featuring Biz Markie Def Fresh Crew Pop Art 13. Beastie Boys The New StylePaul Revere Def Jam 14. Ice-T 6 'n the Mornin' Techno-Hop 15. Salt-n-Pepa My Mic Sounds Nice Next Plateau 16. Doug E. Fresh the Get Fresh Crew Play This Only at Night Reality 17. Too hort Freaky Tales Jive 18. DJ Jazzy Jeff the Fresh Prince Girls Ain't Nothing But Trouble Word Up 19. Joeski Love Pee-Wee's Dance Vintertainment 20. Sweet Tee DJ Jazzy Joyce It's My Beat Profile 21. Cutmaster D.C. Brooklyn Rocks the Best Zakia 22. Dana Dane Nightmares Profile 23. Word of Mouth featuring DJ Cheese Coast to Coast Profile 24. Whodini One Love Jive 25. Original Concept Knowledge MeCan U Feel It Def Jam 26. Doug E. Fresh the Get Fresh Crew All the Way to HeavenNuthin' Reality 27. Divine Sounds Do or Die Bed Stuy Reality 28. Rodney O Joe Cooley Everlasting Bass Egyptian Empire 29. Whodini Funky Beat Jive 30. Sweet Tee DJ Jazzy Joyce It's Like That, Y'all Profile 31. King Tee Payback's a Mutha Techno-Hop 32. DBL Crew Bust It Urban Rock 33. Stetsasonic Faye4 Ever My Beat Tommy Boy 34. MC Shan Jane, Stop This Crazy ThingCocaine Cold Chillin' 35. Kool Moe Dee Go See the Doctor Rooftop 36. Grandmaster Flash Style Peter Gunn Theme Elektra 37. Heavy D the Boyz Mr. Big Stuff Uptown 38. The Real Roxanne featuring Hitman Howie Tee Bang Zoom Let's Go-Go Select 39. Steady B Bring the Beat Back Pop Art 40. B. Fats Woppit Posse 1987 1. Audio Two Top Billin' First Priority 2. Public Enemy Rebel without a Pause Def Jam 3. Boogie Down Productions The Bridge is Over B-Boy 4. EPMD It's My ThingYou're a Customer Fresh 5. Big Daddy Kane Raw Prism 6. Public Enemy Bring the Noise Def Jam 7. Biz Markie Nobody Beats the Biz Prism 8. Eric B. Rakim I Know You Got Soul Zakia 9. Public Enemy Public Enemy No. 1Timebomb Def Jam 10. Big Daddy Kane featuring Biz Markie Just Rhymin' with Biz Prism 11. Super Lover Cee Casanova Rud Do the James Citi-Beat 12. L.L. Cool J I'm Bad Def Jam 13. Ultramagnetic MCs Funky Next Plateau 14. Eazy-E Boyz-n-the Hood Ruthless 15. Divine Force Holy War Live Yamak-ka 16. Schoolly D Saturday Night Schoolly D 17. Eric B. Rakim I Ain't No Joke Zakia 18. MC Lyte I Cram to Understand U Sam First Priority 19. N.W.A Dope Man Ruthless 20. Just-Ice Going Way Back Fresh 21. Roxanne Shante Have a Nice Day Cold Chillin' 22. Biz Markie Pickin' Boogers Prism 23. Salt-n-Pepa TrampPush It Prism 24. Boogie Down Productions Poetry B-Boy 25. Kool G Rap DJ Polo Rikers IslandRhyme Time Cold Chillin' 26. Jungle Brothers Jimbrowski Idlers 27. Dismasters Small Time Hustler Urban Rock 28. Heavy D the Boyz The Overweight Lover's in the House Uptown 29. Spoonie Gee The Godfather Tuff City 30. The Alliance Do It! Do It!Bustin' LooseOreo Cookie First Priority 31. Antoinette I Got an Attitude Next Plateau 32. Spoonie Gee Take It Off Tuff City 33. Kid 'n Play Last Night Select 34. Latee This Cut's Got FlavorPuttin on the Hits Wild Pitch 35. Steady B Use Me Before I Let Go Jive 36. Masters of Ceremony Sexy Strong City 37. Busy Bee Suicide Strong City 38. Lord Shafiyq My Mic is on Fire NUWR 39. The Classical Two New Generation Rooftop 40. 2 Live Crew We Want Some Pussy!! Luke Skyywalker 1988 1. Rob Base DJ E-Z Rock It Takes Two Profile 2. Eric B Rakim Paid in Full Seven Minutes of Madness Remix4th B'way 3. Big Daddy Kane Ain't No Half Steppin' Cold Chillin' 4. Boogie Down Productions My Philosophy Jive 5. Run-D.M.C. Run's HouseBeats to the Rhyme Profile 6. Public Enemy Don't Believe the Hype Def Jam 7. Marley Marl featuring Masta Ace, Craig G, Kool G Rap Big Daddy Kane The Symphony Cold Chillin' 8. De La Soul Plug Tunin' Tommy Boy 9. EPMD You Gots to Chill Fresh 10. Biz Markie Vapors Cold Chillin' 11. Doug E. Fresh the Get Fresh Crew Keep Risin' to the TopReality 12. J.V.C Force Strong Island B-Boy 13. Biz Markie The Biz is Goin' Off Prism 14. Mark 45 King The 900 Number Tuff City 15. Boogie Down Productions Jack of SpadesI'm Still 1 Numero Uno Jive 16. Eric B. Rakim Microphone Fiend Uni 17. MC Lyte 10 Dis First Priority 18. Stetsasonic SallyDBC Let the Music Play Tommy Boy 19. Jungle Brothers Because I Got It Like That Idlers 20. De La Soul Jenifa Taught MePotholes in My Lawn Tommy Boy 21. Chubb Rock featuring Hitman Howie Tee Caught Up Remix Select 22. 2 Much Wild Thing Warlock 23. Marley Marl featuring Craig G Droppin' Science Cold Chillin' 24. L.L. Cool J Goin' Back to CaliJack the Ripper Def Jam 25. Kool G Rap DJ Polo Road to the Riches Cold Chillin' 26. MC EZ Troup Get Retarded Fresh 27. Stetsasonic Talkin' All That Jazz Tommy Boy 28. Queen Latifah Wrath of My MadnessPrincess of the Posse Tommy Boy 29. MC Lyte Paper Thin Priority 30. Positive K Step Up Front First Priority 31. MC Shan I Pioneered This Cold Chillin' 32. Chill Rob G Dope RhymesChillin'Wild Pitch Wild Pitch 33. Kid 'n Play Do This My Way Select 34. Super Lover Cee Casanova Rud Super- Casanova DNA International 35. Antoinette Hit 'em with This Unfinished Business Next Plateau 36. King Tee Bass Capitol 37. J.J. Fad Supersonic Dream Team 38. Sir Mix-a-Lot Posse on Broadway Def American 39. Supreme Nyborn Versatility Payroll 40. Kid 'n Play Gittin' Funky Select 1989 1. Public Enemy Fight the Power Motown 2. EPMD So Wat Cha Sayin' Fresh 3. Slick Rick Children's Story Def Jam 4. Special Ed I Got It Made Profile 5. Slick Rick Hey Young WorldMona Lisa Def Jam 6. Biz Markie Just a Friend Cold Chillin' 7. Big Daddy Kane Smooth OperatorWarm It Up, Kane Cold Chillin' 8. De La Soul featuring Jungle Brothers, A Tribe Called Quest Monie Love Buddy Native Tongues Decision Tommy Boy 9. N.W.A Straight Outta Compton Ruthless 10. Three Times Dope Funky Dividends Arista 11. The D.O.C. It's Funky Enough Ruthless 12. N.W.A Express YourselfA Bitch iz a Bitch Ruthless 13. Eazy-E Eazy-er Said Than Dunn Ruthless 14. 2 Live Crew Me So Horny Luke 15. 3rd Bass featuring Zev Love X The Gas Face Def Jam 16. Stezo It's My TurnTo the Max Fresh 17. L.L. Cool J Big Ole Butt Def Jam 18. Gang Starr Words I Manifest Remix Wild Pitch 19. Digital Underground Doowutchyalike Tommy Boy 20. Chubb Rock featuring Hitman Howie TeeYa Bad Chubbs Select 21. Positive K A Good Combination First Priority 22. YZ G Rock In Control of ThingsThinking of a Master Plan Diversity 23. 3rd Bass Steppin' to the A.M. Def Jam 24. Main Source ThinkAtom Actual 25. Beastie Boys Hey LadiesShake Your Rump Capitol 26. Nice Smooth Early to RiseMore More Hits Fresh 27. MC Lyte Cha Cha Cha First Priority 28. Chill Rob G Court is Now in Session Wild Pitch 29. MC Sugar Ray Stranger D Knock 'em Out, Sugar Ray Def City 30. Ice-T You Played Yourself Sire 31. Stop the Violence Movement Self-Destruction Jive 32. Boogie Down Productions Why is That? Jive 33. Queen Latifah Dance for Me Inside Out Tommy Boy 34. Low Profile Pay Ya Dues Priority 35. The Bizzie Boyz Droppin' It Payroll 36. Young MC Bust a Move Delicious Vinyl 37. Divine Styler featuring the Scheme Team Ain't Sayin Nothin 38. Kwame the Boy Genius featuring a New Beginning The RhythmAtlantic 39. Cool C The Glamorous Life Atlantic 40. Tone-Loc Wild Thing Delicious Vinyl 1990 1. Public Enemy Welcome to the Terrordome Def Jam 2. A Tribe Called Quest Bonita Applebum Jive 3. Digital Underground The Humpty Dance Tommy Boy 4. L.L. Cool J Jingling Baby Remixed but Still Jingling Def Jam 5. Nice Smooth Funky for YouNo Bones in Ice Cream Fresh 6. EPMD Gold Digger Def Jam 7. Gang Starr Just to Get a RepWho's Gonna Take the Weight?Chrysalis 8. A Tribe Called Quest Can I Kick It?If the Papes Come Jive 9. Main Source Looking at the Front Door Wild Pitch 10. Boogie Down Productions Love's Gonna Get'cha Material Love Jive 11. Kool G Rap DJ Polo Streets of New York Cold Chillin' 12. Eric B. Rakim In the Ghetto MCA 13. Public Enemy Brothers Gonna Work It Out Def Jam 14. L.L. Cool J Around the Way Girl Def Jam 15. Jungle Brothers J. Beez Comin' Through Warner Bros 16. Ice Cube AmeriKKKa's Most WantedOnce Upon a Time in the Projects Priority 17. Terminator X featuring Chuck D Sister Souljah Buck Whylin' Def Jam 18. Digital Underground Freaks of the Industry Tommy Boy 19. D-Nice Call Me D-Nice Jive 20. Chubb Rock Treat 'em Right Select 21. 3rd Bass Product of the Environment Remix3 Strikes 5000 Def Jam 22. K-Solo Your Mom's in My Business Atlantic 23. L.L. Cool J To da Break of Dawn Motown 24. Lord Finesse DJ Mike Smooth Strictly for the Ladies Wild Pitch 25. Poor Righteous Teachers Rock Dis Funky Joint Profile 26. Above the Law Murder Rap Ruthless 27. Special Ed I'm the Magnificent the Magnificent Remix Ready 2 Attack Profile 28. K.M.D. Peachfuzz Elektra 29. Ice Cube Who's the Mack? Priority 30. K-Solo Spellbound Atlantic 31. King Tee Ruff Rhyme Back AgainPlayed Like a Piano Capitol 32. X Clan Funkin' Lesson Island 33. Kid Frost La Raza Virgin 34. Kings of Swing Nod Your Head to This Virgin 35. Masta Ace Me and the Biz Cold Chillin' 36. Double XX Posse Executive Class Mel-O 37. Special Ed The Mission Profile 38. L.L. Cool J The Boomin' System Motown 39. Above the Law Untouchable Ruthless 40. The Jaz featuring Jay-Z The Originators EMI 1991 1. Geto Boys Mind Playing Tricks on Me Rap-a-Lot 2. A Tribe Called Quest Check the Rhime Jive 3. Naughty by Nature O.P.P. Tommy Boy 4. Public Enemy Shut 'em Down Pete Rock Remix Def Jam 5. Cypress Hill How I Could Just Kill a Man Ruffhouse 6. Brand Nubian Slow Down Elektra 7. Main Source Just Hangin' OutLive at the Barbeque Wild Pitch 8. DJ Jazzy Jeff the Fresh Prince Summertime Jive 9. Brand Nubian All for One Elektra 10. Ed O.G. da Bulldogs I Got to Have It PWL 11. MC Breed Ain't No Future in Yo' Frontin' Ichiban 12. EPMD featuring L.L. Cool J Rampage Def Jam 13. Nice Smooth Hip Hop Junkies Fresh 14. Black Sheep Flavor of the Month Mercury 15. De La Soul Ring Ring Ring Ha Ha Hey Tommy Boy 16. Ice Cube Steady Mobbin'No Vaseline Priority 17. Leaders of the New School Sobb Story Elektra 18. Compton's Most Wanted Growin' Up in the Hood Orpheus 19. Tim Dog Fuck Compton Ruffhouse 20. Digital Underground featuring 2Pac Same Song Tommy Boy 21. AMG Jiggable Pie Select 22. MC Lyte Poor Georige First Priority 23. Ed O.G. da Bulldogs Be a Father to Your Child PWL 24. WC the MAAD Circle Dress Code Priority 25. Gang Star Step in the ArenaCheck the Technique Chrysalis 26. Poor Righteous Teachers Shakiyla Profile 27. De La Soul featuring Q-Tip A Rollerskating Jam Named 'Saturdays' Tommy Boy 28. Leaders of the New School Case of the P.T.A. Elektra 29. K.M.D. Nitty Gritty RemixPlumskinzz Elektra 30. Del tha Funkee Homosapien Sleepin' on My Couch Elektra 31. K-Solo Fugitive Atlantic 32. Eric B. Rakim Mahogany MCA 33. Kool G Rap DJ Polo Bad to the Bone Cold Chillin' 34. AMG Bitch Betta Have My Money Select 35. D-Nice 25 ta Life Jive 36. DJ Quik Tonight Profile 37. Special Ed Come on, Let's Move It Profile 38. Ice-T O.G. Original GangsterBitches 2 Sire 39. K.M.D. Who Me? Elektra 40. Raw Fusion Throw Your Hands in the AirDo My Thang Hollywood BASIC 1992 1. Black Sheep The Choice is Yours Revisited Mercury 2. Gang Starr featuring Nice Smooth DWYCK Chrysalis 3. Das EFX They Want EFX Eastwest 4. Dr. Dre featuring Snoop Doggy Dogg Deep Cover Epic 5. Pete Rock CL Smooth T.R.O.Y. They Reminisce Over YouElektra 6. A Tribe Called Quest featuring Leaders of the New School Scenario Jive 7. Main Source featuring Neek the Exotic Fakin' the Funk Remix Wild Pitch 8. Brand Nubian Punks Jump Up to Get Beat Down Elektra 9. Nas Half Time Columbia 10. EPMD CrossoverBrothers from Brentwood L.I. Def Jam 11. House of Pain Jump Around Tommy Boy 12. Ultramagnetic MCs Poppa Large East Coast Remix Mercury 13. Das EFX Mic Checka RemixJussumen Remix Eastwest 14. Redman Blow Your MindHow to Roll a Blunt Def Jam 15. Naughty by Nature Uptown Anthem MCA 16. Eric B. Rakim Juice Know the Ledge MCA 17. EPMD featuring K-Solo Redman Head Banger Def Jam 18. A Tribe Called Quest Jazz We've Got Jive 19. Naughty by Nature Everything's Gonna Be Alright Ghetto BastardTommy Boy 20. Kool G Rap DJ Polo Ill Street Blues Cold Chillin' 21. Black Moon Who Got da Props? Nervous 22. Apache Gangsta Bitch Tommy Boy 23. Cypress Hill Hand on the Pump Ruffhouse 24. Afrika Bambaataa Presents Time Zone Zulu War Chant Planet Rock 25. Grand Puba 360 Degrees What Goes Around Elektra 26. Diamond D Best Kept SecretFreestyle Yo, That's That Shit Chemistry 27. DJ Quik Just Like Compton Profile 28. Double XX Posse Not Gonna Be Able to Do It Big Beat 29. Pete Rock CL Smooth Straighten It Out Elektra 30. UMC's One to Grow On Wild Pitch 31. Beastie Boys So What'cha Want Grand Royal 32. Fu-Schnickens featuring Phife Dawg La Schmoove Jive 33. Show AG Fat Pockets Remix Payday 34. Organized Konfusion featuring O.C. Fudge Pudge Hollywood BASIC 35. Chi Ali Age Ain't Nothin' But a Relativity 36. Del tha Funkee Homosapien Mistadobalina Elektra 37. Eric B. Rakim Don't Sweat the Technique MCA 38. MC Ren Final Frontier Ruthless 39. Sir Mix-a-Lot Baby Got Back Def American 40. N2Deep Back to the Hotel Profile 1993 1. Dr. Dre featuring Snoop Doggy Dogg Nuthin' But a 'G' Thang Death Row 2. Wu-Tang Clan Protect Ya Neck Wu-Tang 3. Jeru the Damaja Come Clean Payday 4. The Pharcyde Passin' Me By Delicious Vinyl 5. Redman Tonight's da Night Def Jam 6. 2Pac featuring Shock G Money B I Get Around Interscope 7. A Tribe Called Quest featuring Trugoy Award Tour Jive 8. Onyx Throw Ya Gunz Def Jam 9. Dr. Dre featuring Snoop Doggy Dogg Fuck wit Dre Day and Everybody's Celebratin' Death Row 10. Redman Time 4 Sum Aksion Def Jam 11. Wu-Tang Clan Method Man Loud 12. KRS-One Outta Here Jive 13. A Tribe Called Quest Electric Relaxation Jive 14. Souls of Mischief 93 'til Infinity Jive 15. Kool G Rap DJ Polo On the Run Dirty Untouchable Remix Cold Chillin' 16. Onyx Slam Def Jam 17. MC Eiht Streiht Up Menace Jive 18. M.O.P. How About Some Hardcore Select 19. The Pharcyde Otha Fish Delicious Vinyl 20. Notorious B.I.G. Party and Bullshit Uptown 21. Alkaholiks Make Room Loud 22. MC Breed featuring 2Pac Gotta Get Mine Ichiban 23. Beatnuts Reign of the Tec Relativity 24. Casual That's How It Is Remix Jive 25. Fat Joe Flow Joe Relativity 26. KRS-One Sound of da PoliceHip Hop vs. Rap Jive 27. De La Soul Breakadawn Tommy Boy 28. Ultramagnetic MCs Two Brothers with Checks San Francisco, HarveyOne, Two, One, Two Wild Pitch 29. Diamond D I'm Outta HereYou Can't Front the Shit is Real Chemistry 30. Casual I Didn't Mean To Jive 31. Lords of the Underground Chief Rocka Elektra 32. Kurious Walk Like a Duck Columbia 33. Geto Boys Crooked Officer Rap-a-Lot 34. Leaders of the New School What's Next? Elektra 35. Domino Getto Jam Outburst 36. Intelligent Hoodlum Grand Groove Remix AM 37. 2Pac Keep Ya Head Up Interscope 38. Trends of Culture Off On Remix Mad Sounds 39. Cypress Hill Insane in the Brain When the Shit Goes Down Ruffhouse 40. Mobb DeepHit It From the Back 4th B'way 1994 1. Craig Mack Flava in Your Ear Bad Boy 2. Snoop Doggy Dogg Gin Juice Death Row 3. Wu-Tang Clan C.R.E.A.M. Loud 4. The Notorious B.I.G. Juicy Unbelievable Bad Boy 5. Method Man Bring the Pain Def Jam 6. O.C. Time's Up Wild Pitch 7. Common i used to love h.e.r. Relativity 8. Black Moon I Got Cha Opin RemixReality Killin' Every Nigga in Sight Nervous 9. Keith Murray The Most Beautifullest Thing in This World Jive 10. Above the Law Black Superman Ruthless 11. Nas It Ain't Hard to Tell Columbia 12. Smif-n-Wessun BucktownLet's Git It On Nervous 13. Fugees Nappy Heads Remix Ruffhouse 14. Jeru the Damaja D. Original Payday 15. Gang Starr Mass Appeal Chrysalis 16. Nas The World is Yours Columbia 17. Outkast Player's Ball LaFace 18. Scarface I Seen a Man Die Rap-a-Lot 19. Group Home Supa Star Payday 20. Snoop Doggy Dogg Murder Was the Case Death Row 21. Too hort Money in the Ghetto Jive 22. The Lady of Rage featuring Snoop Doggy Dogg Afro Puffs Death Row 23. Wu-Tang Clan Can It Be All So Simple Loud 24. Channel Live featuring KRS-One Mad Izm Capitol 25. Black Moon How Many MCs Nervous 26. Redman Rockafella Remix Def Jam 27. Redman Can't Wait Def Jam 28. Black Moon Buck 'em Down remixMurder MCs Nervous 29. De La Soul Ego Trippin' Part Two Tommy Boy 30. Gravediggaz feat. Shabazz the Disciple Killah Priest Diary of a Madman Gee Street 31. Crooklyn Dodgers Crooklyn MCA 32. Outkast Southernplayalisticadillacmuzik LaFace 33. Bone Thugs-n-Harmony Thuggish Ruggish Bone Relativity 34. Dru Down featuring Luniz Ice Cream Man Relativity 35. Craig Mack featuring Q-Tip Get Down Remix Bad Boy 36. Shyheim On and On Virgin 37. JT the Bigga Figga featuring Mac Mall Game Recognize Game Get Low 38. E-40 featuring the Click Captain Save a Hoe Sick wid It 39. Ill Al Skratch Where My Homiez Mercury 40. Nate Dogg Warren G Regulate Death Row 1995 1. Mobb Deep Shook Ones Pt. II Loud 2. The Notorious B.I.G. One More Chance Stay with Me Remix Bad Boy 3. Luniz I Got 5 on It Noo Trybe 4. Ol' Dirty Bastard Brooklyn Zoo Elektra 5. The Notorious B.I.G. Big PoppaWho Shot Ya Bad Boy 6. Method Man featuring Mary J. Blige You're All I Need to Get By Def Jam 7. Junior M.A.F.I.A. featuring the Notorious B.I.G. Get Money Big Beat 8. TRU featuring Mia X I'm Bout It, Bout It No Limit 9. Smoothe da Hustler featuring Trigger tha Gambler Broken Language Profile 10. Raekwon Incarcerated ScarfacesIce Cream Loud 11. KRS-One MCs Act Like They Don't Know Jive 12. E-40 featuring Suga T Sprinkle Me Jive 13. Blahzay Blahzay Danger Mercury 14. WC and the MAAD Circle featuring Mack 10 Ice Cube West Up!Payday 15. Onyx Last Dayz Def Jam 16. Tha Dogg Pound featuring Snoop Doggy Dogg New York, New York Death Row 17. Junior M.A.F.I.A. featuring the Notorious B.I.G. Player's Anthem Big Beat 18. Big Mike Playa Playa Rap-a-Lot 19. Mack 10 Foe Life Priority 20. Redman Method Man How High Def Jam 21. Raekwon CriminologyGlaciers of Ice Loud 22. Smif-n-Wessun featuring Starang Wondah Sound Bwoy Bureill Nervous 23. Grand Puba I Like It I Wanna Be Where You Are Elektra 24. Show AG Next Level Payday 25. Bone Thugs-n-Harmony 1st of tha Month Relativity 26. Da Brat Give It 2 You Remix So So Def 27. The Pharcyde Runnin'Drop Delicious Vinyl 28. Tha Alkaholiks DAAAM! Loud 29. GZA Liquid Swords Geffen 30. Group Home Livin' Proof Payday 31. Crooklyn Dodgers '95 Return of the Crooklyn Dodgers MCA 32. Das EFX Real Hip Hop EastWest 33. J-Live Braggin' Writes Raw Shack 34. Nine Whutcha Want? Profile 35. Lost Boyz Jeeps, Lex Coups, Bimaz Benz Universal 36. Ol' Dirty Bastard Shimmy Shimmy Ya Elektra 37. Jay-Z In My LifetimeCan't Get wit That Roc-a-Fella 38. Three 6 Mafia Tear da Club Up Da Real Prophet 39. Frankie Cutlass feat. Doo Wop, Fat Joe, Ray Boogie True God Boriquas on da Set Relativity 40. Q-Ball Curt Cazal My Kinda Moves VZQ 1996 1. Outkast Elevators Me You LaFace 2. Jay-Z Dead PresidentsAin't No Nigga Roc-a-Fella 3. Fugees Killing Me Softly Ruffhouse 4. Jay-Z featuring Mary J. Blige Can't Knock the Hustle Roc-a-Fella 5. Busta Rhymes Woo Hah!! Got You All in Check Elektra 6. Goodie Mob Cell Therapy LaFace 7. Westside Connection Bow Down Priority 8. Junior M.A.F.I.A. featuring the Notorious B.I.G. Get Money Remix Big Beat 9. Lil' Kim No TimeQueen Bitch Undeas 10. Mobb Deep Drop a Gem on 'Em Loud 11. Too hort featuring Erick Sermon Buy You Some Jive 12. Ghostface Killah featuring Raekwon, Cappadonna the Force MDs Daytona 500 Razor Sharp 13. Fugees Ready or N</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3249,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Zenghi ! Est-ce-que j'dois te refaire le topo sur mon cursus ? BTS cassage de gueules, CAP free fight option démontage de dents, destruction d'harmonie faciale Fous un masque sur tes oreilles, j'ai un flow d'malade Et j'fais pleuvoir v'là les balles, fous du kevlar dans limperméable J'suis connu comme Fame, actuel comme femme Bourré comme d'hab, couvre-chef trop large comme Lââm Et j'commande tellement de casquettes que les gars d'chez UPS ont même plus besoin d'GPS Ils connaissent par cur mon adresse Ramène le beat on l'tue ! T'as pas compris ? On l'tue ! Et j'fais pas partie des femmes battues, pourtant j'porte trop d'marques Et j'ai trop d'paires blanches, j'déclenche des flots d'pertes blanches Et j'te mets à l'amande comme Marie Pervenche J'suis une pornstar en puissance, j'attends plus qu'on m'signe J'suis un chèque avec pleins d'zéros, j'attends plus qu'on m'signe Rien n'était comparable au Svink' J'ai péter Docteur Quinn et incendié Colorado Springs 15 ans que j'fous l'feu, j'crois qu'j'le f'rais éternellement En fait j'suis comme une banque, tous les jeunes me doivent tellement Hey, yo, c'est Baste, fils Depuis quand ? Depuis 1987 ! Tu connais l'CV du gonze J'suis un putain d'daron, mec ! You might also like Laissez-moi faire mon foutu d'job Fini d'glander, j'viens balancer du rap de papa Tu peux sucer mon foutu zob Marre de m'branler, j'viens pour larguer du rap de papa J'reviens m'occuper des affaires Et c'est vrai que j'pourrai être ton père, ouais J'viens balancer du rap de papa Comme si j'tirais en l'air, ça fait pap papap pap J'écris plus, j'tue l'stylo et j'le laisse saigner Ici c'est Prince G, il serait temps qu'on m'laisse régner J'viens mettre des grosses beignes et ça va s'faire gifler Ils se branlent tous tellement, ils vont bien finir par gicler La moitié d'tes phases, j'en réclame la paternité C'est ma soirée, viens pas d'dans ou tu vas t'faire virer Toi tu vas t'faire niquer moi j'pars vers l'bidet J'finis par terre, plié, t'as vu l'tas d'verres vidés J'suis cuit à la ??? dans la carbonnade J'suis v'nu pour râler et gueuler, j'suis dans la daronnade C'est du rap de papa vénère, de quadragénaire Toi t'es pas-pas viril, papa Bruce Jenner L'ami, j'fais pas du son pour faire des sonneries J'en ai encore dans l'slip mais j'ai plus l'age de vos conneries J'suis pas homophobe, promis mais j'déteste le rap de tata Donc j'fais du rap de papa Jespère qu'j'me suis bien fait comprendre Laissez-moi faire mon foutu d'job Fini d'glander, j'viens balancer du rap de papa Tu peux sucer mon foutu zob Marre de m'branler, j'viens pour larguer du rap de papa J'reviens m'occuper des affaires Et c'est vrai que j'pourrai être ton père, ouais J'viens balancer du rap de papa Comme si j'tirais en l'air, ça fait pap papap pap Yeah ! Ça c'est pour Fancie, mon fils Mario One love Zenghi prod Profite ! Entertainment 2015 bande d'enfoirés !</t>
+          <t>Zenghi ! Est-ce-que j'dois te refaire le topo sur mon cursus ? BTS cassage de gueules, CAP free fight option démontage de dents, destruction d'harmonie faciale Fous un masque sur tes oreilles, j'ai un flow d'malade Et j'fais pleuvoir v'là les balles, fous du kevlar dans limperméable J'suis connu comme Fame, actuel comme femme Bourré comme d'hab, couvre-chef trop large comme Lââm Et j'commande tellement de casquettes que les gars d'chez UPS ont même plus besoin d'GPS Ils connaissent par cur mon adresse Ramène le beat on l'tue ! T'as pas compris ? On l'tue ! Et j'fais pas partie des femmes battues, pourtant j'porte trop d'marques Et j'ai trop d'paires blanches, j'déclenche des flots d'pertes blanches Et j'te mets à l'amande comme Marie Pervenche J'suis une pornstar en puissance, j'attends plus qu'on m'signe J'suis un chèque avec pleins d'zéros, j'attends plus qu'on m'signe Rien n'était comparable au Svink' J'ai péter Docteur Quinn et incendié Colorado Springs 15 ans que j'fous l'feu, j'crois qu'j'le f'rais éternellement En fait j'suis comme une banque, tous les jeunes me doivent tellement Hey, yo, c'est Baste, fils Depuis quand ? Depuis 1987 ! Tu connais l'CV du gonze J'suis un putain d'daron, mec ! Laissez-moi faire mon foutu d'job Fini d'glander, j'viens balancer du rap de papa Tu peux sucer mon foutu zob Marre de m'branler, j'viens pour larguer du rap de papa J'reviens m'occuper des affaires Et c'est vrai que j'pourrai être ton père, ouais J'viens balancer du rap de papa Comme si j'tirais en l'air, ça fait pap papap pap J'écris plus, j'tue l'stylo et j'le laisse saigner Ici c'est Prince G, il serait temps qu'on m'laisse régner J'viens mettre des grosses beignes et ça va s'faire gifler Ils se branlent tous tellement, ils vont bien finir par gicler La moitié d'tes phases, j'en réclame la paternité C'est ma soirée, viens pas d'dans ou tu vas t'faire virer Toi tu vas t'faire niquer moi j'pars vers l'bidet J'finis par terre, plié, t'as vu l'tas d'verres vidés J'suis cuit à la ??? dans la carbonnade J'suis v'nu pour râler et gueuler, j'suis dans la daronnade C'est du rap de papa vénère, de quadragénaire Toi t'es pas-pas viril, papa Bruce Jenner L'ami, j'fais pas du son pour faire des sonneries J'en ai encore dans l'slip mais j'ai plus l'age de vos conneries J'suis pas homophobe, promis mais j'déteste le rap de tata Donc j'fais du rap de papa Jespère qu'j'me suis bien fait comprendre Laissez-moi faire mon foutu d'job Fini d'glander, j'viens balancer du rap de papa Tu peux sucer mon foutu zob Marre de m'branler, j'viens pour larguer du rap de papa J'reviens m'occuper des affaires Et c'est vrai que j'pourrai être ton père, ouais J'viens balancer du rap de papa Comme si j'tirais en l'air, ça fait pap papap pap Yeah ! Ça c'est pour Fancie, mon fils Mario One love Zenghi prod Profite ! Entertainment 2015 bande d'enfoirés !</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3317,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es hat sich viel seit den 700 Bars getan Ohne Tricks, ohne Gimmicks, ohne Masterplan Nur harte Arbeit, ohne Beef und Skandal Die Features normal, genauso wie die Video-Auswahl Niemand hat mich gepusht außer realem Hip-Hop Freezy on top, es gibt nichts, was das Feeling noch toppt Vierzigtausend verkauft, nächstes Mal knacken wir die fünfzig Denn meine Fans vertrauen mir, die Platte wird vernünftig Das Volk ist bereit, Gold ist nicht weit Wer hätte mir vor paar Jahr'n den Erfolg prophezeit? Ich war noch nie so nah an mei'm Lebensziel Habe dieses Jahr 'ne Wahnsinnstournee gespielt Ja, und mein Major-Deal, er lief aus Ich könnte sign'n, wo ich will, Mann, so sieht's aus Nächstes Jahr kommt mein erster Film in die Kinos raus Und für mein Buch handeln wir grad 'nen Deal aus Um Danke zu sagen für alles, was mich freut Schenk ich diesen Track, so lang wie ein Album, nun euch Ich schrieb hundert, zweihundert, dreihundert, fünfhundert Siebenhundert, tausend, jetzt sieh mir in die Augen Ich hab' euch letztes Mal meine Karriere erzählt Und das gleiche würde dieses Mal deswegen nicht geh'n Habe stets überlegt Was mach' ich, um euch zu flashen? Dass die Kids den Bezug zu der Kunst neu entdecken Und auch von den Heads den Willen still'n und doch erfüll'n Ach, ich weiß, was Skills, Skills und noch mehr Skills Bisschen texten, spitten und flexen Und jeden Style ausführen, bis zur Perfection Sie halten sich für gut, ich stell's unter Beweis Gestalte meinen Ruf in dieser schnelllebigen Zeit Wo jeder dieser Typen mitreden möchte Shit reden möchte, es klingt eben töfte Haus- und Maus-Rap, Zweckreim-Massaker Wenn ich das schon höre, ist mein Brechreiz am Flattern Und jeder, der versucht, meinen Rap einzustufen Kann sich jetzt in Zukunft nun auf diesen Track hier berufen Stell das einfach gegen eure ganzen Diskographien Der längste Track im Deutschrap History Denn Oldschool kann ich, Trap? Kann ich! Kanaken-Sound auch, ich hab' das alles drauf Doubletime? Ja! Tripletime? Ja! Ich ficke dein'n Part, Dipset-Style? Klar! Storytelling? Yes! Represent? Yes! Nach diesen Bars ist auch der Letzte Eko-Fan fresh Ich kann lustig, Junge, stimmt, sozialkritisch unbedingt Kannst du auch das gleiche auf das gleiche reim'n? Unser Kind Schreibmaschine, Ghostwriter, solang wie ich kann Ach, wovon red' ich hier? Dann fangen wir mal an Ich handel' wie ein Mann und halte mein Wort Dieser Tausend-Bars-Song, er knallt in dein Ohr You might also like So, junger Fresh, genug der Einleitung. Bist du bereit für deine Meisterprüfung? Ja, Meister, bin ich Ich werde dir verschiedene Aufgaben stellen. Wenn du sie bewältigst, gehörst du einer Elite an. Einem ehrenwerten Club von Menschen, von denen es nur ganz wenige auf der Welt gibt. Denn, Kleiner, dann bist du ein Meister der Zeremonie. Deine siebenhundert Bars waren nur die Vorstufe, eine Art Gesellenprüfung. Jetzt werden wir sehen, ob du wirklich das ABC des Raps beherrschst. Apropos, zum Aufwärmen, machst du mir den ABC-Style. Los! Und wehe, du lässt einen Buchstaben aus. Alter, alles Atze? Anders als alle, agiere angstfrei Angeber auf Aggro, alte AR's am Anschrei'n Anti-Aging Ambition, Achi ala A-Z Attraktiver Anblick angeboren, Anzug adrett Boss bei Bräuten, busy Bora, Buzzer B bald Balla Balla Bruder, bring Berettas, beiläufig bei Billig-Ballast ballern Beamer, Benz, Bentley, Benzin brennt, Bandogs bellen Boah Brutoz Brutalos bangt Biter-Bitches breit bei Bellator Babas, Barbies, Bargeld, bestehl Behindi-Bonzen broke Chaingang Commander chillt, Chartclowns chancenlos Chrystal Champagne, Chai Latte, cheers, Cho Carlo Colucci Crime, chice Chicks, Cameltoe Der deutsche Don, Digga, drück die Daum'n derbe Dynamit, dieser Dreamer denkt Dadash, der den Dünger dealt Dopes Dauerfeuer, das die Dummköpfe distanziert Droppe durch DHL direkt diesen Diss dann dir Fremde Fools fanden's fast faul, ficke Feiglinge Freude fällt, falls Freezy fernab fiese Feinde findet Fiktive Fantasy-Fighter, fühle Fremdschämen Fordest funktionierende Festival-Features, Fans fehlen Ekrem entertaint, es erfordert einfach Eleganz Ehrgeiz, Erfindungsreichtum, Eier eines Elefants Ekelhaften Edelhuren erteilt der Ether entgegen Ehrfurcht, erstarrt eben, esse erschwert easy ein Leben Gebe gründlich Gas, Geschäfte gen Georgien Gespielten Gossen-Gangstern gefallen geile Gay-Orgien Glaube gehört gegenüber Geiz gut gestellt Grundlegend gibt's Gesetz, greif ganzes Geld Hammer, holen hasserfüllte Hurensöhne Hype Hoffen Hip-Hop-Hustlers Hipstern Handicaps herbei Holprige Hindernisse hielten hiesige Hemsos hinten, Homes Habe hinreichend Hits, hebe häufig Hintern hoch Intrigante Internet-Idioten immer im iPod Intensive Imagepflege ist in Ibne Insidejob Ich inspizier insgeheim Ischen in Instagram Ideenreiches Improvisieren ist interessant, isso Jogginghose, Jordans, jugendlicher Joseph Jackson Jawohl, Junge, jetzt jedes Jahr jüngst jumbojetten Jumpende Jeeps, Joop-Jeans, Jewelry Jailhouse-Jargon, jederzeit Juhu jippie Kleiner, komm, keiner kickt kampfeslustige Kacke krasser Köpfe, Kiez, King, Karikaturen, komische Klassenkasper Kontroverse, kiloweise, Kriege, Kampf Kleinkriminelle kollaborieren, kriegen Krampf Linke Lügner lechzen lumpenhaft, leider legitim Leute liken Lachnummern, Lindsay Lohans Lebensziel Lieber lernen, Ladies, Leute lieben Leseratten Lockerer Lifestyle, Leben leben lassen Mächtige Mukke massakriert, mach mal Mic-Massaker Macho-Mafiosi-Möchtegerns meistens Motherfucker Meine Musik meidet Mongos mit Maniküre Mimen-Medien-Mogule machen manchmal Money mit Mühe Nixkönner nutzen naheliegend Neid noch Normalerweise nahmen Naturtalente nie Nikeshox Na na, navigiere nochmal, nächste nice Nutten Netzstrümpfe, Nikotin, näschenweise nuckeln Ollen onanieren oder oral, Ole Ole Overseas, Overkill, Ohrenkrebs, Ohweh Ohweh Okay, okay, overhypte Ottos ohne Obdach Ownen Onkel Oscars Oregano-Ot, Opfas Puste Penner per Pistole platt, Peng Peng Penetriere prüde Pissnelken, Psycho, plem plem Produziere peinigende Power-Platten, Payback Pimmel pumpen plumpe Paselacken-Parts playback Proll-Paranoia, Panik-Pisse platscht Quotentürken-Qualität, quasi Quasselstrippen-Quatsch Reimroboter, Renaissance, radikaler Rapper Radlerhosen-Records reichen rabiate Retter Reifen rollen, Rennfahrer reisen rasant Realer Ruf, roh, reif, reich, relevant Seit sieben Saisons schon sensationeller Seht selbst, sogar Samy stellt sein'n Serato schneller Sollte Sonderwünsche seitens Supportern servieren, sonnenklar Sehen szenenintern so seichte Sänger, sonderbar Torpedos treffen totale Trottel, tja Titten, Tangas, Tabledance, toller Tag Toughe Typen trinken Tequila, teilweise türkischen Tee Triple-Texte, Timing, terrific tam, tödliche Them'n Ungefiltertes Unterweld-Umfeld unbequem Unglaublich untalentierter Unfug, ultra unverschämt Upps, unbehagen ums Untergrundgescheh'n Unterrichte Ungeformte unterdessen unterwegs Verdopple Viralität, vielleicht Vimeo-Vine Vögel verkrampfen, Veröffentlichungen vermiesen Vibes Verfluchte Vampire vertreiben vordergründig Vinyl Vorrausgesetzt voll viel vom Vorschuss verdealt Wahrscheinlich wollen Wankster wissen Warum Wichsen wider Willen? Während wunderschöne Weiber Weiter Wollust wünschen, wallah, Winning Witzfigur'n wie Willy Wonka werden weggecockt Was Wikipedia, widerlicher Wetterfrosch Weitestgehend warten Weggefährten wohl wieder X-beliebige Xantener Xylophonspieler Yankeecaps, Yachthafen, Yogastunde Zack zack, Zigaretten zünden zügelt Zungen Zampanos ziehen Zeigefinger-Rap zum Zeitvertreiben Z Z, ziemlich zügig Zeilen zeigen Zerstöre, zerstampfe, zerlege, zerschmetter Zickenzoff, zapp zarapp, zerquetsche zu viel Z-Rapper Sie sind zwar okay, doch ich kann sie grad nicht seh'n Wer von ihnen droppt so nebenbei ein ABC? Hö? Das war schon ganz gut für den Anfang, Junge. Wie ich vernommen habe, hältst du dich für einen Entwickler des Nomen-Raps oder des Aufzähler-Stiles, wie du ihn nennst. Da haben wir also einen Klugscheißer in unseren Reihen, Mister Harvard-Student-Ich-entwickle-in-meinen-Lehrjahren-schon-was-Eigenes. Dann schau mal, ob du das auch auf die Reihe kriegst. Aufzähler-Style, aber Halt, nicht so schnell. Diesmal auf Japanisch, Arabisch, Französisch, Türkisch und Deutsch. Haha, viel Spaß! Takeshi, Yamaha, Sushi-Bar, Hongkong Kung Fu, Honda, Mitsubishi, Tom Tom Hyundai, Kawasaki, Shanghai, Nippon Shaolin, Samurai, Karaoke, Nikon Mazda, Shang Tsung, Tekken 3, Karate John Woo, Jackie Chan, Jet Li, Sensei Yokohama, Casio, Huawei, Atari Subaru, Saigon, Hiroshima, Fuji Sayonara, Geisha, Tamagotchi, Mikado Toyota, Nissan, Toshiba, Tokyo Shu, Habibi, eri fik, Maskhara Ahmedin, Osama, Arafat, mashallah Hizbollah, Mudschahiddin, Hamas, Taliban Libanon, Falestine, Kairo, Teheran Lak shu, Sharmuta, halal, haram Marhaba, Mashallah, Haschisch, Shukran Labes, Khoya, Flus, Khalas Hak, hamdullah, hammam, yallah Baklava, inshallah, Abu Dhabi, Humus Al Jazeera, Shisha, Azizam, Couscous Bon appétit, Champagner, le crobac French Kiss, sur le coq, Pariser 'odensack Métro, Renault, Citroën, Peugeot Gérard Depardieu, Luc Besson, Jean Reno L'Oréal, Chanel, Christian Audigier Estée Lauder, Dior, Café au lait Croissant, Crêpe, Omelette, pomme de terre Booba, IAM, NTM, nique ta mère Salut, ça va, au revoir, mon ami Touché, Tour de France, Déjà vu, c'est la vie Egetürk, Gazoz, Ibrahim Tatlises Ceza, Muhabbet, Tarkan, Arabesk Erdogan, Atatürk, Christoph Daum, Istanbul Ayran, Sucuk, Dönerteller, Lahmacun Aldi, LIDL, Netto, Penny-Markt AY YILDIZ, debitel, Turkcell, Gezi-Park Ulan, Moruk, Ibne, Götveren Yarrak, Amck, Orospu, Pezevenk Börek, Pide, Arkada, Rak Köfte, Adana, Karada, Gazi Saumagen, Weißwurst, Kaiserschmarrn, Jägerschnitzel Mercedes, Audi, BMW, Ledersitze Lagerfeld, Heidi Klum, Hasselhoff, Jogi Löw Hinterseer, Schwarzwald, Schützenfest, oh wie schön Eisbein, Sauerkraut, Löwenbräu, Adidas Alice Schwartzer, Hartz IV, Caritas Uli Hoeneß, Beckenbauer, FC Bayern Meister Maggi fix, Ricola, nein, das waren Schweizer Til Schweiger, Schweighöfer, Lufthansa, Haribo Goethe, Bertold Brecht, Einstein, Loriot Na gut, komm aufn Teppich. Wenn du ein echter Meister des HipHops werden willst, musst du auch wissen, wo er herkommt Amerika. Es hat alles in New York angefangen und schwappte dann über nach LA. Diese Städte sind die Säulen der Kultur und jede hat ihren spezifischen Rapstil. Und du demonstrierst mir jetzt, dass du sie beide studiert hast, junger Padawan. New York vs. Los Angeles! Ey yo, ich flow wie New Yorker, bin ohne Supporter Der erste, der aufwacht und aufpasst Am Schauplatz so wie Reporter Styles auf den Beat kick von Long Island bis Queensbridge Komme rein, wenn du Songs schreibst und erschieß dich Habe die Chance, dass du die Ware bekommst Da ich heute rapp, als läuft der Dreck in Harlem und Bronx Es war nicht umsonst, das erste Mal 'ne Premo-Snare Und Nas rappte Bilder, als ob ich im Kino wär Es fiel mir nie so schwer Ich musste die auf den Punkt bring'n Denn ich wollte werden wie Biggie Smallz aus Brooklyn Und in dem Jahr, als die Twin-Türme fielen Hab ich beim Bunker als Künstler unterschrieben Als Puff Daddy das erste Mal Puff Daddy hieß Plant' ich den Release meiner Klassiker-EP Genau damals, als der Punisher noch lebte Machte ich die Knete erstmals mit Rap, mein Homie Guck mal damals, als fünfzig noch gedealt hat Hat mein Deal geklappt, dann war Ek bei Sony Die Worte, die ich schreib, New York State of Mind Fünfzehn Jahre später vom Bordstein auf eins Heute kann ich Bars droppen und für die Fans rappen Morgen gehe ich aus Spaß shoppen Manhattan Louis und Armani, google mich, du Assi Das Ende der Gangster-Ära Rudoph Giuliani Ich dachte, in New York ist es jetzt vorbei Dann änderte sich HipHop, es war Westcoast-Style Bow, wow, wow, yippie, yo, yippie, yeah Eko Fresh in da motherfuckin' house Mir gefällt der Beat wie aus LBC Also, Junge, check das aus Besser, du bist Optimist, jetzt wird dein Block gedisst Ab heute sind wir Feinde wie die Bloods und Crips G-Funk-Einfluss, C-Walk ist ein Muss Drive-By, es reicht meist zu zielen, nur ein Schuss Von Compton bis Long Beach, als der Don diesen Song schrieb Wusst ich, dass du Honk an der Bong ziehst Denn damals, als ich den ersten Dre-Beat gehört hab Hingst du auf 'ner Party mit paar schäbigen Girls ab Damals, als ich das erste Snoop-Album kaufte Hautest du wegen der Playsi deinem Bruder auf die Schnauze Genau damals, als Shakur aus dem Knast kam Hingst du auf der Couch-Garnitur deines Nachbarn Und heute hörst du, wie ich die Flows weiter spucke Das ist Lowrider-Mukke, du Sohn einer Nutte Ich bin Dropbox-Fan, Dogg Pound-Gang Und jeder rappt mit, der den Wortlaut kennt Dickies über Chuck Taylor's, fuck haters E zum K, GTA San Andreas Westcoast, yes, yo, Rap-Show, fet,t Bro Eko, Ghetto, Death Row, let's go Okay, okay. Nun widmen wir uns einer Kunst, mit deren Erfindung der werte Herr wieder zu tun hatte Den Bitte-Spitte-Style hast du damals mit Meister Kool Savas etabliert, als du noch sein Lehrling warst. Später gabst du die Fackel dann an Farid Bang weiter, der diesen Stil der heutigen Jugend näherbringt. Inzwischen wird es so oft gemacht, dass man meinen könnte, es gäbe keine Reime mehr mit doppelter Bedeutung. Ob du noch welche finden kannst, oder es überhaupt noch drauf hast, wirst du mir jetzt zeigen. Na dann, bitte spitte! Ich sitze zu Haus und esse Crispy Chicken Lass mir währenddessen einen Chris-Beat schicken Putz lieber weiter Türklinken Denn niemals kannst du diesen Türk linken Du kleiner Psycho bist auf Ritalin Ich köpf' dich mit dem Schwert, was mir Ritter lieh'n Früher sammelte ich Spielzeug von Hasbro Heute rapp ich und das Spiel zeugt mein'n Hass, Bro Früher war ich am Spiel'n, heute immer noch Manchmal lässt mich deine Frau an ihrer Am spiel'n Früher wollten sie mich piesacken Die selben Loser siehst du heute noch ihr Piece hacken In der Nacht macht man Heia, man schläft Während deine Frau mit jedem für 'nen Heiermann schläft Noch nie habt ihr euren Rap so komplex hinbekomm'n Ihr habt höchstens wegen Rap schon Komplexe bekomm'n Ich hab die Macht, nix Anakin Ihr müsst es, weil ihr macht nix, anerkenn'n Denn ihr plagt euch mit Sparmaßnahm'n Als sie für meinen Bademantel im Spa Maß nahm'n Deine Frau stresst dich mit Eifersucht Doch sagt dir nicht, dass sie sich an meim Ei versucht Zu Haus behandelst du sie wie 'ne Göttin Doch drehst du dich mal um, hält sie jedem ihren Göt hin Es muss auch Liebe für Mollige geben Sieht hat mir nach einer Molly gegeben Denn diese Einsame, braucht einen Einsamen Sie braucht ihn zum Einsamen Wenn ich sterb, errichtet mir ein Mausoleum am Grab Sorry, wenn ich heute Nacht dein Mausi Leon angrab In diesem Leben ist guter Rat teuer Am türkischen Auto ist guter Rad teuer Manche Rapper nehmen zu viel Haarspray, Digga Und andere machen ein'n auf Hassprediger Doch bei mir ist alles in Butter Kerrygold Nur noch zwei, drei Alben und ich carry Gold Während man bei dein'n Parts denkt Ist mir Latte Wollen von mir sogar die Bitches aus Izmir Latte Während ich release auf iTunes und dann sich zieh'n Musst du aus finanziellen Gründen nach Danzig zieh'n Sogar Franzosen sagen, ich bin tres magnifique Weil ich mit Icy Box für das Dre-Money fake Du machst öffentlich auf hart und hörst Schoolboy Q Aber innerlich findest du den Poolboy cute Ich bin ein Staatsmann, treff mich in der Botschaft Der es zu 'nem Boot schafft, hörst du diese Botschaft? Man trifft mich in der Oper Ali As mit siebzig hahaha Ich hab noch vieles zu erledigen Will mir heute ein paar Platten aus LA diggen Bravo! Bravo! Du machst dich ganz gut, aber das war doch alles leicht. Jetzt ändern wir mal das Tempo, Kleiner. Ein echter Meister muss in jeder Geschwindigkeit rappen können. Bediene dich der Doubletime-Technik, auf geht's, und das saubere Flow'n nicht vergessen! Es ist meine gottverdammte Fresse, die du kennst Ghetto-Represent, rappe meinen Part bei der Pressekonferenz Eko ist der Man, chatte mit den Fans Trage wieder mal meine Kette und sie glänzt Setze den Trend, viele wollen mehr Keiner von euch findet eure Niederlage fair Dieser junge Herr bietet aber mehr Fake Rapper können sich jetzt wieder mal beschwer'n Du rauchst ein Haufen Gras, ich schreibe tausend Bars Viele dieser Mutterficker können es nicht einsehen Tja, dann geht zum Augenarzt Du lädst mein Album down? Passt zu dir Pausenclown Irgendwann wird die ganze Kacke für dich haarig So wie meine Augenbrau'n - Komme mit den illegalen Paselacken Die 'nen dicken Haufen auf dein'n Vater kacken Und sie tragen alle gerne Starter-Jacken Bin der beste Rapper, das sind harte Fakten Leute finden meine Mukke entertainend Und sie wissen, dass alle Gangster gay sind Typen wollen üben mit der Band im Basement Zeigen auf der Bühne aber end das Elend Ich bin der, der bei mein'n Zeil'n tight bleibt Auf Kommando eins, zwei, drei schreibt Ein Haufen Gesocks, schaut in die Blocks Du bist der bei diesem Lifestyle Neid zeigt Die Kasse klingelt immer ching, ching, ching, ching Trag im Club, wenn ich Gin trink, bling-bling Die schäbigen Dudes geben es zu Weil ich einfach nur aus Instinkt King bin Alle meine Brüder bangen den Sound Freezy, dieser motherfuckin' Champion in town Kenne mich aus, hänge dich auf Digga, du kannst nichts außer Schwänze zu kau'n Action Jackson, fantastique Diese Reime geben deiner Mannschaft Krieg Die andern Gs kriegen langsam Beef Deine Freunde machen nur auf krampfthaft lieb Du mit deinen Standard-Beats Denkst, du kannst mir in die Quere komm'n? Aber ich habe mehr davon Chill und gebe keinen Fick auf deren Songs Ich rappe immer sehr gekonnt, keiner, der mich in der Szene hält Während bei dir die Träne fällt Kill ich meine Gegner oder zähle Geld Krass tätowiert, Bass, der vibriert Habe meine aus dem Knast importiert Warum will mir dieser Spast imponier'n? Komm mir vor, als gäbe es nur Bastarde hier Meine Fans sind Hustler wie wir Das ganze Land hat meinen Channel fast abonniert Sie sagen Eko, was machst du mit mir? So als hätten Moslems Kasseler probiert Steig aus der Asche zum Himmel empor Zeige euch Flaschen, der King ist wie Thor Würde man echt eure Tracks gerne hör'n Doch Geld in der Tasche behindert mein Ohr Bring gleich auf den Takt meine Lines auf den Punkt Glaubst du nicht? Dann hol dein Mic raus, du Hund Sprech dein Gebet jetzt, denn nach diesem Track gibt es kein'n Der noch was von dir Scheißhaufen pumpt Unterwegs unter Fakes Brauchst hundert Takes, damit du nicht untergehst Ich bin der Allerbeste seit den Bunker-Tapes Während du so tust, als ob du dein'n Mund bewegst Bleibst ohne Job, Oberflop Während dein Vermieter grad bei deiner Wohnung klopft Ich sammel auf Befehl deinen toten Kopf Bei mir geht das einfach automatisch RoboCop Nun ja, Doubletime hast du drauf, aber was, wenn ich den Takt änder? Was ist, wenn es ein Dreiviertel-Takt ist? Hä? Bekommst du das dann auch noch so sauber hin? Beweis es! Spuck 'nen Part auf 'nem Triole-Beat Es geht wieder einmal rund im Takt, Beats ballern immer Bumm, bumm, tschak Wenn dann dieser Typ, der immer gerne kommt, einfach so in deinem Mund rumkackt Alle wollen Ek, keiner kann so flow'n, droppe dauernd meine Bars, du Schmock Glaub an meine Tracks, blicke auf den Thron, doch ich ficke deine Party-Blocks Kille viele Rapper, ficke ihre Mütter lyrisch danebenbei Panamera Flow, Gun am Mikrofon, wirklich, Mann, jeden Style Eko der Don, Ghetto-Beton, rappe den Song tight Halte dich fest, Alter, ich flex, bald bin ich echt reich Immer wieder bring ich Spinner diese Dinge, finde eure Pimmel richtig klein Diese Penner werden wieder einmal sterben, immer kann das leider nicht so sein Ticke vierzigtausend, Nächstes mal sind's fünfzig, denn diese Leute kaufen Biggie oder Freezy Schreibe diese auf den Malediven, Alter, deshalb sind sie ultraparadiesisch Ra-ta-ta-ta-tat, peng, peng, peng, rede lieber meinen Gangbang-Slang Digga, du behauptest Läuft bei dir, aber guck mal, bei mir rennt, rennt, rennt Mach den Maestro-Job, du bist leider immer Sideshow-Bob Ganz egal, wo auch immer, es gibt keinen, der das Mic so droppt Zücke meine Gun, lade wieder nach, calle meinen Bro, Alibi danach Rapper gehen leider alle wieder pleite, Leben jetzt vom Staat und fahren schwarz Rest in peace, wenn du mein Spektrum siehst Digga, denn mich führt wieder mal der Hunger, dieser Appetit auf Wack-MCs Homie, rate mal, wer fährt hier wie der Pate umher? Du suchst grad dein Gewehr, doch der Schrank von deinem Vater ist leer Yeah, guck die Unterschicht bleibt unterm Strich unter sich Gebe dir verwirrte Memme, wenn du grade muckst, wieder Unterricht Es ist Ekrem Fresh, ich schreib sechzehn Tracks Alle genau dieses Material, nach dem wirklich jeder Rap-Fan lechzt Dieser Freezy kann's, habe keinen Bock auf Beef mit Punks Alle diese Dinge hinter mir gelassen, kein Interesse, vielen Dank Und ich pump meinen Verse für die Jungs, die es hör'n Das ist Kult, Mann, ich schwör, denn sie bumst dein Gehirn Keiner kann mich stoppen, Eko der Kanake, besser als alle Rapper, Geld ist in der Tasche Bruder, es gibt keinen Text in meiner Klasse, geht euch alle ficken, ich bin Don Ehrlich, Junge, du hast das drauf! Doubletime, Triole, Respekt! Aber das war mir noch nicht schnell genug. Ich will mehr Action. Du flext jetzt in Trippletime so dermaßen durch, dass den Leuten die Scheiße im Hals stecken bleibt. Aber, Meister, wer hat denn schon Scheiße im Hals? Quatsch nicht, Junge, rapp schneller! Schneller! Schnelleeeer! Ficke die Penner, sie können nicht rappen, es fehlt ihnen einfach der richtige Drive Um zu seh'n, dass es auch mal so Leute wie mich gibt, der King aller Kings, Alter, Eko der Chief Baller die Knarre jetzt ununterbrochen, du Missgeburt, sollst nicht mehr Leben und guck mal Ich triple die Partline in völliger Tightness und kack dir 'nen Haufen hin bon appetit Droppe die Typen, die denken, sie können mithalten, doch wenn euch der Rapper killt Könnt ihr nichts tun, außer beten und hoffen Und weinend weglaufen, bis irgendwer kommt und euch rettet, ihr Punks König von Deutschland, ich trage den Titel ja immer noch, fick eure Mütter direkt im Akkord Und die Trottel, sie peilen, es gibt keine Hoffnung, verrecken aus Angst All meine Freunde sind wieder am Lachen, ihr droppt euren Kack, aber niemand hört zu Staiger und Toxik und Visa Vie, Nico, sie wissen es auch, ich bin realer als du Ladies, sie gucken und finden mich unwiderstehlich, noch süßer als Tiramisu Während du aufgibst und keiner sich kümmert, warst früher mal Player wie Lizarazu Ich war mal bei Optik und dann noch bei EGJ, GD for Life, heute drück ich auf Play Sah viele Freunde, sie wurden zu Zinkern und hauten ab, weil sie verrückt sind auf Fame Gebe seit heute einen Fick auf die Medien und presse ganz locker mein'n Dick in das Game Lange Zeit arm, doch jetzt mach ich die Kohle, kack einfach auf alle und sippe Champagne Im Rappen bin ich der verrückte Messias, Mann, unübertrieben, da findest du niemand Der auch nur im Ansatz so kontinuierlich die Bretter verteilt, bin der türkische Pac Glaub mir, ich bringe die Apokalypse direkt in dein Ghetto, die Straßenlegende Sie kennen mich überall, finden mich hammer, doch Pisser wie du rappen wirklich verkackt Digga, sie wollen mein Leben verfilmen, ein epischer Dreiteiler wär ganz okay Aber trotzdem, ich bleib immer Untergrund, Viva Colonia, Freezy, man nennt ihn den Don Gangster-Kanake wie Robert DeNiro, der Baba, der Mac, denn ich spitte so Find eure Mucke so widerlich, kann keiner sich mit dem Müll noch identifizieren All diese Bastarde wollen ein Feature, der Grund, warum ständig mein Handy vibriert Ich mag deine Frau, sie ist echt elegant, während sie meinen Cock mit den Händen massiert All deine Pläne, sie brechen jetzt ein, so als würdest du grade bei Jenga verlier'n Bro, meine sind alles umgreifend, du seelischer Krüppel wirst heute gedisst Ich hinterlass eine Spur der Verwüstung und aus diesem Grund werden Leute vermisst Spritz in die Luft, wenn ich ejakuliere, ertrinken die meisten der Toys in dem Biz Doubletime, Tripletime, keiner packt alles, da bleiben am Ende die Euros für mich So, jetzt beruhigen wir uns erst einmal. Wir werden Legenden Respekt zollen, die nicht mehr unter uns weilen. Meister Tupac und Meister Biggie haben in ihrem kurzen Leben so einen großen Eindruck hinterlassen, dass selbst zwanzig Jahre nach ihrem Ableben ihr Style unerreicht bleibt. Du wirst jetzt als Hommage an diese beiden zeigen, dass du ihre zur Genüge studiert hast. Ich bin gespannt, Kleiner. Tupac vs. Biggie! Baby, Baby, Ekaveli der Don Du wärst gern an meine Stelle gekomm'n, verdien dir bitte selber die Chance Die Devise, wie ich handel Lieber tot als Schande Ich sehe deine Pläne, sie verliefen bloß im Sande Ist da im Himmel noch Platz für einen nackten G? Die Leute woll'n viel versprechen, aber halten nie Aber hinterher können sie sich wundern Fallen sie den Höllenschlund herunter Manchmal ist es hart, ich hab es allen anderen gesagt Denn die Brüder und die Schwestern haben alle Angst vorm Staat Ihr müsst kämpfen, zeigt, aus was wir für 'nem Holz sind Lasst euch nicht blenden, ich hab was, worauf wir stolz sind Aber wenn du diesen Van siehst Glaub mir, dass du viele fake Fans kriegst Ich mach das nur für meine Fans, wie Und geh deswegen nicht mal mehr ans Handy Trinke Hennessy, das peilen diese Menschen nie Denn ich habe es mir selbst verdient In Nordrhein-Westfalen mache ich mein Business Wo sie dich bestrafen, wenn du eine Bitch bist Leute auf der Straße, ihre Liebe ist so rein Ich lief hier nur vorbei, aber viele der Männer wein'n Sie wissen, ich hatt' es die Jahre nicht easy Aber guck mal, da ist der Freezy, hehe Und grad als du dich über Pac-Style im Track freust Kommt Biggie Smallz, der Bad Boy Rapper wollen flieh'n, denn ich komm im Team mit dem Dream Um euch kleine Lümmel zu erzieh'n Komme clean und ich schick euch angepisst nach Hause Ohne Pause, Blunts, ich bau'se Immer abgepackt, doch ich pack jeden Satz auf den Takt Bitches suchen Kontakt Sagt das mal eurem Booty und wir treffen all euch Groupies im Jacuzzi, nur ich und mein Brudi Check mein Stilo, Rap-Pacino, Mios Mach ich bald und ich hab sie wie Liberace Ich verkack nie, solang ich Ekrem Bora heiße Ich perform am Mic, als wär mein Vornam'n Michael Mir egal, wer, Wendler, Buffer, Schumacher Fassbender, ihr findet das nicht fair Das ist echt schizophren, denn er zwingt, dich zu geh'n Und hält dich gleichzeitig fest, um den Shit mitzuseh'n Bitch, versteh, ich komme mit den Gs und ich schieß dir ins Knie Es gibt nie wieder Peace In der Szene musst du wählen zwischen Mama verliert eine Träne Oder ich geh weiter stehlen Sayonara, ich durchquere mit dem Fahrrad Die Sahara, denn ich hab genug Flows Das ist busy Bora, man nennt ihn auch den Gladbacher Diggi Rest in peace, Pac und Biggie Man, war das ein geiler Flashback! Ich bin grad in richtiger Oldschool-Stimmung. Zeig' mir, dass du die Geschichte unserer Hip-Hop-Kultur kennst. Nehme jetzt einige Oldschool-Tracks deiner Wahl und übersetze die Flow ins Deutsche. Ich will eine Zeitreise durchleben, also bleib dabei in chronologischer Reihenfolge. Los, unterhalte mich! Ich höre Hip-Hop, de hippe, de hippe to the Hip, Hip-Hop, denn von Montag bis hin Zu dem Freitag läuft bei mir nix im Player, außer mega alarmierende Beats Denn was du hörst, ist kein Verseh'n, Rap ist mein Gebiet Mann, hör doch mal die tausend Bars, dann siehst du, was geschieht Guck, ich bin hier am Mic und sag einfach Hallo Bin der beste, der freshste, der Mac from the West namens E-K-O Ich brauche Cash jeden Tag Leute kacken in die Ecke, es ist eh egal Alter, es stinkt, Alter, es ist laut Ich hab das Gefühl, ich halte es nicht aus Digga, kannst du seh'n, denn sie leben hier im Dreck Junkies in der Ecke mit 'nem Baseball-Cap Ich wollte abhau'n, doch ich kam nicht weit Denn die Kohle für den Tank hat nicht mal gereicht Homes, du siehst, ich kann Bars schreiben Und mein Wahrzeichen ist mein Arbeitswill'n A-hahah-ha Straight outta Köln-Porz, der crazy Motherfucker heißt Freezy Deine Gang callt, ich erschieß sie Weil ich abschalt auf dem Asphalt Den Abzug drück und euch alle abknall Du auch, Boy, schläfst bei den Fischen Die Polizei muss mich zunächst mal erwischen Kugeln in dein Arsch, ihr werdet nicht lang leben Für die ganzen Hurensöhne, die nur angeben Ihr seid in Trouble, ich mach euer Rumble GD Clique, mit uns kann man nicht verhandeln Du kannst mich nicht vergleichen mit dem ganzen Scheiß, den ihr treibt Bin der Mac, komm aus Rheydt und ich rapp' bis in die Westside Und ich pump-pump die Reeboks und mach' 'nen Dunk Denn ich spitte so herrlich, die ganze Halle jumpt Wie hoch? Ziemlich hoch, du kleiner Idiot Ich bin auf Sendung, mein Pensum ist riesengroß Und wenn ich einen deiner Tracks find' im Internet Fällt mir auf, sie sind wiggedy-wiggedy-wiggedy-whack Ich komm, Don auf Beton und ich bin am Jumpen In eurem Video sieht man nur paar kleine Kinder hampeln Und wenn der Big Boss euch mal einen vorrappt Drücken alle eure Fans jetzt auf Eject Freezy Freezy, yoah, Freezy yeah, Freezy yeah Gib mir das Mic und komm, ich spitte noch mehr Call meine Nummer, ich rapp' dir 'nen Part Yes, Mann, ich hab' es getan, jetzt brennt dein Arsch GD Killer sind unterwegs Sie nennen mich The Freezy Man Bumaye Du kommst an mich kein Stück heran Du weißt, dass ich der einzige Typ bin, der sowas hier am Stück kann Easy Flash, miese Skills auf Täsch Ein Arschloch, weil ich den Schiri bestech Für alle MCs, denn ich fang wieder an Doch ich bleib ein Chiller 51 Ekrem, check, man, denn ich burne den Takt GD, Freezy, die Rapper turnen mich ab Köln-Porz ist der Ort, wo es irgendwie klappt Während eure Künstler gucken, ob die Röhrenjeans passt Sie fragen mich, habe ich, was der German Dream hat Oh nein, auf keinsten, Mann, ich schwöre, ihr suckt Leute schrei'n, heute sei ich auf der Party der Host Alle Ladies hier im Club, hebt die Arme jetzt hoch Doch sie gucken mich nur an, so als wär ich vom Mars Denkt ihr, dass es mich berührt? Baby, Leck mich am Arsch Und die Typen sind schon wütend, woll'n ein Feature mit Ek Ich muss lieber mal hier weg, Mann, ich flieg mit dem Jet Meine Herr'n, macht mal Lärm für den Vater des Raps Zeigt dem Paten Respekt, Oldschool, was? Leute rollen sich 'nen Joint, doch ich bleibe lieber clean Manche kommen mit 'nem Freund, doch ich komme mit 'nem Team Zum Beispiel Farid Bang, auch der ist bei German Dream Schreibe Summer Cem bei Insta Tipini Sikim Es hat sich nicht verändert, Abi callt auf Facetime Ich seh Capkekz in der Ecke und er bröselt Haze klein Und guck mal, Sinan G mit den Weibern wie ein Stenz oder Pimp Oder mein kleiner Homie Serc, der den Hennessy trinkt Und die Fans sagen Eko, schau nicht zu tief ins Glas Wir hören dich schon seit den Tracks mit deinem Bruder Savas Und die andern Rapper sagen alle Ek ist so loco Doch laufen komisch wegen einem Strap in ihrm Popo Die Bars sind ready, jede einzelne stark und heavy Du willst flüchten, fahr im Chevy so wie Marge und Maggie Echt Deutschland, jetzt streut man auf die Stars Konfetti Früher nicht, da war doch in den Charts nur Shaggy Cologne Sound, die Homecrowd tobt und bounct Sie pogt und staunt, stell das Mikrofon auf laut Mein Flow ist wow, gut platziert und so genau Bis sie sagen Eko, läuft bei dir Modenschau Ek Fresh ist der German Dream, Bro, ich komm und burne die Show Nein, ich zerstöre dich, Bro, der Typ ist irgendwie dope Bin für die Türken Jean Claude, du nur ein Girl aus 'ner Soap Du hast ein Würstchen im Po und deine Firma ist broke Wenn ich die Wirklichkeit hol, bist du nur irgendein Joe Der in das Viertel einzog und so verirrt er sich Verdien, wenn möglich, mein Brot und daran störst du dich Alter, hörst du nicht, wie dieser E-K-O die Wörter spricht? Mann, wie ich die alte Schule liebe. Gut gemacht. Was mir jetzt noch fehlt, ist ein bisschen Deepness. Ich brauche ein paar nachdenkliche Zeilen von dir. Ich weiß, es ist nicht dein Lieblingsfach, aber es ist eine Sache, die jeder Meister können sollte. Gib mir den Conscious Rap, den ich in letzter Zeit so vermisse, auf, auf! Überrasch' mich! Wenn das letzte Körnchen Sand durch die Sanduhr rinnt Und im Ohr dieser Klang wie 'ne Standuhr klingt Wär das Leben unendlich wie das Firmament Wenn man, was die Leute denken, an der Stirn erkennt Wenn bei einer Tasse Tee dein Hass noch nicht vergeht Fällt dir plötzlich auf, dass du hier im Ascheregen stehst Ans Chaos gewöhnt, du fürchtest dich vor Friede Deine Seele eine Wüste und es dürstet dich nach Liebe In Kürze haben viele dir den sichren Part erschwert Gefühle kannst du zeigen, ist das Whisky-Glas entleert Du fragst dich, wo ist die Glückseligkeit geblieben? Und ist der dritte Akt deines Lebens schon geschrieben? Es sind Fehler, die wir mieden, sie geh'n dir durch den Kopf Als deine letzte Träne durch die Regenrinne tropft Denn bevor der Winter kommt und die </t>
+          <t>Es hat sich viel seit den 700 Bars getan Ohne Tricks, ohne Gimmicks, ohne Masterplan Nur harte Arbeit, ohne Beef und Skandal Die Features normal, genauso wie die Video-Auswahl Niemand hat mich gepusht außer realem Hip-Hop Freezy on top, es gibt nichts, was das Feeling noch toppt Vierzigtausend verkauft, nächstes Mal knacken wir die fünfzig Denn meine Fans vertrauen mir, die Platte wird vernünftig Das Volk ist bereit, Gold ist nicht weit Wer hätte mir vor paar Jahr'n den Erfolg prophezeit? Ich war noch nie so nah an mei'm Lebensziel Habe dieses Jahr 'ne Wahnsinnstournee gespielt Ja, und mein Major-Deal, er lief aus Ich könnte sign'n, wo ich will, Mann, so sieht's aus Nächstes Jahr kommt mein erster Film in die Kinos raus Und für mein Buch handeln wir grad 'nen Deal aus Um Danke zu sagen für alles, was mich freut Schenk ich diesen Track, so lang wie ein Album, nun euch Ich schrieb hundert, zweihundert, dreihundert, fünfhundert Siebenhundert, tausend, jetzt sieh mir in die Augen Ich hab' euch letztes Mal meine Karriere erzählt Und das gleiche würde dieses Mal deswegen nicht geh'n Habe stets überlegt Was mach' ich, um euch zu flashen? Dass die Kids den Bezug zu der Kunst neu entdecken Und auch von den Heads den Willen still'n und doch erfüll'n Ach, ich weiß, was Skills, Skills und noch mehr Skills Bisschen texten, spitten und flexen Und jeden Style ausführen, bis zur Perfection Sie halten sich für gut, ich stell's unter Beweis Gestalte meinen Ruf in dieser schnelllebigen Zeit Wo jeder dieser Typen mitreden möchte Shit reden möchte, es klingt eben töfte Haus- und Maus-Rap, Zweckreim-Massaker Wenn ich das schon höre, ist mein Brechreiz am Flattern Und jeder, der versucht, meinen Rap einzustufen Kann sich jetzt in Zukunft nun auf diesen Track hier berufen Stell das einfach gegen eure ganzen Diskographien Der längste Track im Deutschrap History Denn Oldschool kann ich, Trap? Kann ich! Kanaken-Sound auch, ich hab' das alles drauf Doubletime? Ja! Tripletime? Ja! Ich ficke dein'n Part, Dipset-Style? Klar! Storytelling? Yes! Represent? Yes! Nach diesen Bars ist auch der Letzte Eko-Fan fresh Ich kann lustig, Junge, stimmt, sozialkritisch unbedingt Kannst du auch das gleiche auf das gleiche reim'n? Unser Kind Schreibmaschine, Ghostwriter, solang wie ich kann Ach, wovon red' ich hier? Dann fangen wir mal an Ich handel' wie ein Mann und halte mein Wort Dieser Tausend-Bars-Song, er knallt in dein Ohr So, junger Fresh, genug der Einleitung. Bist du bereit für deine Meisterprüfung? Ja, Meister, bin ich Ich werde dir verschiedene Aufgaben stellen. Wenn du sie bewältigst, gehörst du einer Elite an. Einem ehrenwerten Club von Menschen, von denen es nur ganz wenige auf der Welt gibt. Denn, Kleiner, dann bist du ein Meister der Zeremonie. Deine siebenhundert Bars waren nur die Vorstufe, eine Art Gesellenprüfung. Jetzt werden wir sehen, ob du wirklich das ABC des Raps beherrschst. Apropos, zum Aufwärmen, machst du mir den ABC-Style. Los! Und wehe, du lässt einen Buchstaben aus. Alter, alles Atze? Anders als alle, agiere angstfrei Angeber auf Aggro, alte AR's am Anschrei'n Anti-Aging Ambition, Achi ala A-Z Attraktiver Anblick angeboren, Anzug adrett Boss bei Bräuten, busy Bora, Buzzer B bald Balla Balla Bruder, bring Berettas, beiläufig bei Billig-Ballast ballern Beamer, Benz, Bentley, Benzin brennt, Bandogs bellen Boah Brutoz Brutalos bangt Biter-Bitches breit bei Bellator Babas, Barbies, Bargeld, bestehl Behindi-Bonzen broke Chaingang Commander chillt, Chartclowns chancenlos Chrystal Champagne, Chai Latte, cheers, Cho Carlo Colucci Crime, chice Chicks, Cameltoe Der deutsche Don, Digga, drück die Daum'n derbe Dynamit, dieser Dreamer denkt Dadash, der den Dünger dealt Dopes Dauerfeuer, das die Dummköpfe distanziert Droppe durch DHL direkt diesen Diss dann dir Fremde Fools fanden's fast faul, ficke Feiglinge Freude fällt, falls Freezy fernab fiese Feinde findet Fiktive Fantasy-Fighter, fühle Fremdschämen Fordest funktionierende Festival-Features, Fans fehlen Ekrem entertaint, es erfordert einfach Eleganz Ehrgeiz, Erfindungsreichtum, Eier eines Elefants Ekelhaften Edelhuren erteilt der Ether entgegen Ehrfurcht, erstarrt eben, esse erschwert easy ein Leben Gebe gründlich Gas, Geschäfte gen Georgien Gespielten Gossen-Gangstern gefallen geile Gay-Orgien Glaube gehört gegenüber Geiz gut gestellt Grundlegend gibt's Gesetz, greif ganzes Geld Hammer, holen hasserfüllte Hurensöhne Hype Hoffen Hip-Hop-Hustlers Hipstern Handicaps herbei Holprige Hindernisse hielten hiesige Hemsos hinten, Homes Habe hinreichend Hits, hebe häufig Hintern hoch Intrigante Internet-Idioten immer im iPod Intensive Imagepflege ist in Ibne Insidejob Ich inspizier insgeheim Ischen in Instagram Ideenreiches Improvisieren ist interessant, isso Jogginghose, Jordans, jugendlicher Joseph Jackson Jawohl, Junge, jetzt jedes Jahr jüngst jumbojetten Jumpende Jeeps, Joop-Jeans, Jewelry Jailhouse-Jargon, jederzeit Juhu jippie Kleiner, komm, keiner kickt kampfeslustige Kacke krasser Köpfe, Kiez, King, Karikaturen, komische Klassenkasper Kontroverse, kiloweise, Kriege, Kampf Kleinkriminelle kollaborieren, kriegen Krampf Linke Lügner lechzen lumpenhaft, leider legitim Leute liken Lachnummern, Lindsay Lohans Lebensziel Lieber lernen, Ladies, Leute lieben Leseratten Lockerer Lifestyle, Leben leben lassen Mächtige Mukke massakriert, mach mal Mic-Massaker Macho-Mafiosi-Möchtegerns meistens Motherfucker Meine Musik meidet Mongos mit Maniküre Mimen-Medien-Mogule machen manchmal Money mit Mühe Nixkönner nutzen naheliegend Neid noch Normalerweise nahmen Naturtalente nie Nikeshox Na na, navigiere nochmal, nächste nice Nutten Netzstrümpfe, Nikotin, näschenweise nuckeln Ollen onanieren oder oral, Ole Ole Overseas, Overkill, Ohrenkrebs, Ohweh Ohweh Okay, okay, overhypte Ottos ohne Obdach Ownen Onkel Oscars Oregano-Ot, Opfas Puste Penner per Pistole platt, Peng Peng Penetriere prüde Pissnelken, Psycho, plem plem Produziere peinigende Power-Platten, Payback Pimmel pumpen plumpe Paselacken-Parts playback Proll-Paranoia, Panik-Pisse platscht Quotentürken-Qualität, quasi Quasselstrippen-Quatsch Reimroboter, Renaissance, radikaler Rapper Radlerhosen-Records reichen rabiate Retter Reifen rollen, Rennfahrer reisen rasant Realer Ruf, roh, reif, reich, relevant Seit sieben Saisons schon sensationeller Seht selbst, sogar Samy stellt sein'n Serato schneller Sollte Sonderwünsche seitens Supportern servieren, sonnenklar Sehen szenenintern so seichte Sänger, sonderbar Torpedos treffen totale Trottel, tja Titten, Tangas, Tabledance, toller Tag Toughe Typen trinken Tequila, teilweise türkischen Tee Triple-Texte, Timing, terrific tam, tödliche Them'n Ungefiltertes Unterweld-Umfeld unbequem Unglaublich untalentierter Unfug, ultra unverschämt Upps, unbehagen ums Untergrundgescheh'n Unterrichte Ungeformte unterdessen unterwegs Verdopple Viralität, vielleicht Vimeo-Vine Vögel verkrampfen, Veröffentlichungen vermiesen Vibes Verfluchte Vampire vertreiben vordergründig Vinyl Vorrausgesetzt voll viel vom Vorschuss verdealt Wahrscheinlich wollen Wankster wissen Warum Wichsen wider Willen? Während wunderschöne Weiber Weiter Wollust wünschen, wallah, Winning Witzfigur'n wie Willy Wonka werden weggecockt Was Wikipedia, widerlicher Wetterfrosch Weitestgehend warten Weggefährten wohl wieder X-beliebige Xantener Xylophonspieler Yankeecaps, Yachthafen, Yogastunde Zack zack, Zigaretten zünden zügelt Zungen Zampanos ziehen Zeigefinger-Rap zum Zeitvertreiben Z Z, ziemlich zügig Zeilen zeigen Zerstöre, zerstampfe, zerlege, zerschmetter Zickenzoff, zapp zarapp, zerquetsche zu viel Z-Rapper Sie sind zwar okay, doch ich kann sie grad nicht seh'n Wer von ihnen droppt so nebenbei ein ABC? Hö? Das war schon ganz gut für den Anfang, Junge. Wie ich vernommen habe, hältst du dich für einen Entwickler des Nomen-Raps oder des Aufzähler-Stiles, wie du ihn nennst. Da haben wir also einen Klugscheißer in unseren Reihen, Mister Harvard-Student-Ich-entwickle-in-meinen-Lehrjahren-schon-was-Eigenes. Dann schau mal, ob du das auch auf die Reihe kriegst. Aufzähler-Style, aber Halt, nicht so schnell. Diesmal auf Japanisch, Arabisch, Französisch, Türkisch und Deutsch. Haha, viel Spaß! Takeshi, Yamaha, Sushi-Bar, Hongkong Kung Fu, Honda, Mitsubishi, Tom Tom Hyundai, Kawasaki, Shanghai, Nippon Shaolin, Samurai, Karaoke, Nikon Mazda, Shang Tsung, Tekken 3, Karate John Woo, Jackie Chan, Jet Li, Sensei Yokohama, Casio, Huawei, Atari Subaru, Saigon, Hiroshima, Fuji Sayonara, Geisha, Tamagotchi, Mikado Toyota, Nissan, Toshiba, Tokyo Shu, Habibi, eri fik, Maskhara Ahmedin, Osama, Arafat, mashallah Hizbollah, Mudschahiddin, Hamas, Taliban Libanon, Falestine, Kairo, Teheran Lak shu, Sharmuta, halal, haram Marhaba, Mashallah, Haschisch, Shukran Labes, Khoya, Flus, Khalas Hak, hamdullah, hammam, yallah Baklava, inshallah, Abu Dhabi, Humus Al Jazeera, Shisha, Azizam, Couscous Bon appétit, Champagner, le crobac French Kiss, sur le coq, Pariser 'odensack Métro, Renault, Citroën, Peugeot Gérard Depardieu, Luc Besson, Jean Reno L'Oréal, Chanel, Christian Audigier Estée Lauder, Dior, Café au lait Croissant, Crêpe, Omelette, pomme de terre Booba, IAM, NTM, nique ta mère Salut, ça va, au revoir, mon ami Touché, Tour de France, Déjà vu, c'est la vie Egetürk, Gazoz, Ibrahim Tatlises Ceza, Muhabbet, Tarkan, Arabesk Erdogan, Atatürk, Christoph Daum, Istanbul Ayran, Sucuk, Dönerteller, Lahmacun Aldi, LIDL, Netto, Penny-Markt AY YILDIZ, debitel, Turkcell, Gezi-Park Ulan, Moruk, Ibne, Götveren Yarrak, Amck, Orospu, Pezevenk Börek, Pide, Arkada, Rak Köfte, Adana, Karada, Gazi Saumagen, Weißwurst, Kaiserschmarrn, Jägerschnitzel Mercedes, Audi, BMW, Ledersitze Lagerfeld, Heidi Klum, Hasselhoff, Jogi Löw Hinterseer, Schwarzwald, Schützenfest, oh wie schön Eisbein, Sauerkraut, Löwenbräu, Adidas Alice Schwartzer, Hartz IV, Caritas Uli Hoeneß, Beckenbauer, FC Bayern Meister Maggi fix, Ricola, nein, das waren Schweizer Til Schweiger, Schweighöfer, Lufthansa, Haribo Goethe, Bertold Brecht, Einstein, Loriot Na gut, komm aufn Teppich. Wenn du ein echter Meister des HipHops werden willst, musst du auch wissen, wo er herkommt Amerika. Es hat alles in New York angefangen und schwappte dann über nach LA. Diese Städte sind die Säulen der Kultur und jede hat ihren spezifischen Rapstil. Und du demonstrierst mir jetzt, dass du sie beide studiert hast, junger Padawan. New York vs. Los Angeles! Ey yo, ich flow wie New Yorker, bin ohne Supporter Der erste, der aufwacht und aufpasst Am Schauplatz so wie Reporter Styles auf den Beat kick von Long Island bis Queensbridge Komme rein, wenn du Songs schreibst und erschieß dich Habe die Chance, dass du die Ware bekommst Da ich heute rapp, als läuft der Dreck in Harlem und Bronx Es war nicht umsonst, das erste Mal 'ne Premo-Snare Und Nas rappte Bilder, als ob ich im Kino wär Es fiel mir nie so schwer Ich musste die auf den Punkt bring'n Denn ich wollte werden wie Biggie Smallz aus Brooklyn Und in dem Jahr, als die Twin-Türme fielen Hab ich beim Bunker als Künstler unterschrieben Als Puff Daddy das erste Mal Puff Daddy hieß Plant' ich den Release meiner Klassiker-EP Genau damals, als der Punisher noch lebte Machte ich die Knete erstmals mit Rap, mein Homie Guck mal damals, als fünfzig noch gedealt hat Hat mein Deal geklappt, dann war Ek bei Sony Die Worte, die ich schreib, New York State of Mind Fünfzehn Jahre später vom Bordstein auf eins Heute kann ich Bars droppen und für die Fans rappen Morgen gehe ich aus Spaß shoppen Manhattan Louis und Armani, google mich, du Assi Das Ende der Gangster-Ära Rudoph Giuliani Ich dachte, in New York ist es jetzt vorbei Dann änderte sich HipHop, es war Westcoast-Style Bow, wow, wow, yippie, yo, yippie, yeah Eko Fresh in da motherfuckin' house Mir gefällt der Beat wie aus LBC Also, Junge, check das aus Besser, du bist Optimist, jetzt wird dein Block gedisst Ab heute sind wir Feinde wie die Bloods und Crips G-Funk-Einfluss, C-Walk ist ein Muss Drive-By, es reicht meist zu zielen, nur ein Schuss Von Compton bis Long Beach, als der Don diesen Song schrieb Wusst ich, dass du Honk an der Bong ziehst Denn damals, als ich den ersten Dre-Beat gehört hab Hingst du auf 'ner Party mit paar schäbigen Girls ab Damals, als ich das erste Snoop-Album kaufte Hautest du wegen der Playsi deinem Bruder auf die Schnauze Genau damals, als Shakur aus dem Knast kam Hingst du auf der Couch-Garnitur deines Nachbarn Und heute hörst du, wie ich die Flows weiter spucke Das ist Lowrider-Mukke, du Sohn einer Nutte Ich bin Dropbox-Fan, Dogg Pound-Gang Und jeder rappt mit, der den Wortlaut kennt Dickies über Chuck Taylor's, fuck haters E zum K, GTA San Andreas Westcoast, yes, yo, Rap-Show, fet,t Bro Eko, Ghetto, Death Row, let's go Okay, okay. Nun widmen wir uns einer Kunst, mit deren Erfindung der werte Herr wieder zu tun hatte Den Bitte-Spitte-Style hast du damals mit Meister Kool Savas etabliert, als du noch sein Lehrling warst. Später gabst du die Fackel dann an Farid Bang weiter, der diesen Stil der heutigen Jugend näherbringt. Inzwischen wird es so oft gemacht, dass man meinen könnte, es gäbe keine Reime mehr mit doppelter Bedeutung. Ob du noch welche finden kannst, oder es überhaupt noch drauf hast, wirst du mir jetzt zeigen. Na dann, bitte spitte! Ich sitze zu Haus und esse Crispy Chicken Lass mir währenddessen einen Chris-Beat schicken Putz lieber weiter Türklinken Denn niemals kannst du diesen Türk linken Du kleiner Psycho bist auf Ritalin Ich köpf' dich mit dem Schwert, was mir Ritter lieh'n Früher sammelte ich Spielzeug von Hasbro Heute rapp ich und das Spiel zeugt mein'n Hass, Bro Früher war ich am Spiel'n, heute immer noch Manchmal lässt mich deine Frau an ihrer Am spiel'n Früher wollten sie mich piesacken Die selben Loser siehst du heute noch ihr Piece hacken In der Nacht macht man Heia, man schläft Während deine Frau mit jedem für 'nen Heiermann schläft Noch nie habt ihr euren Rap so komplex hinbekomm'n Ihr habt höchstens wegen Rap schon Komplexe bekomm'n Ich hab die Macht, nix Anakin Ihr müsst es, weil ihr macht nix, anerkenn'n Denn ihr plagt euch mit Sparmaßnahm'n Als sie für meinen Bademantel im Spa Maß nahm'n Deine Frau stresst dich mit Eifersucht Doch sagt dir nicht, dass sie sich an meim Ei versucht Zu Haus behandelst du sie wie 'ne Göttin Doch drehst du dich mal um, hält sie jedem ihren Göt hin Es muss auch Liebe für Mollige geben Sieht hat mir nach einer Molly gegeben Denn diese Einsame, braucht einen Einsamen Sie braucht ihn zum Einsamen Wenn ich sterb, errichtet mir ein Mausoleum am Grab Sorry, wenn ich heute Nacht dein Mausi Leon angrab In diesem Leben ist guter Rat teuer Am türkischen Auto ist guter Rad teuer Manche Rapper nehmen zu viel Haarspray, Digga Und andere machen ein'n auf Hassprediger Doch bei mir ist alles in Butter Kerrygold Nur noch zwei, drei Alben und ich carry Gold Während man bei dein'n Parts denkt Ist mir Latte Wollen von mir sogar die Bitches aus Izmir Latte Während ich release auf iTunes und dann sich zieh'n Musst du aus finanziellen Gründen nach Danzig zieh'n Sogar Franzosen sagen, ich bin tres magnifique Weil ich mit Icy Box für das Dre-Money fake Du machst öffentlich auf hart und hörst Schoolboy Q Aber innerlich findest du den Poolboy cute Ich bin ein Staatsmann, treff mich in der Botschaft Der es zu 'nem Boot schafft, hörst du diese Botschaft? Man trifft mich in der Oper Ali As mit siebzig hahaha Ich hab noch vieles zu erledigen Will mir heute ein paar Platten aus LA diggen Bravo! Bravo! Du machst dich ganz gut, aber das war doch alles leicht. Jetzt ändern wir mal das Tempo, Kleiner. Ein echter Meister muss in jeder Geschwindigkeit rappen können. Bediene dich der Doubletime-Technik, auf geht's, und das saubere Flow'n nicht vergessen! Es ist meine gottverdammte Fresse, die du kennst Ghetto-Represent, rappe meinen Part bei der Pressekonferenz Eko ist der Man, chatte mit den Fans Trage wieder mal meine Kette und sie glänzt Setze den Trend, viele wollen mehr Keiner von euch findet eure Niederlage fair Dieser junge Herr bietet aber mehr Fake Rapper können sich jetzt wieder mal beschwer'n Du rauchst ein Haufen Gras, ich schreibe tausend Bars Viele dieser Mutterficker können es nicht einsehen Tja, dann geht zum Augenarzt Du lädst mein Album down? Passt zu dir Pausenclown Irgendwann wird die ganze Kacke für dich haarig So wie meine Augenbrau'n - Komme mit den illegalen Paselacken Die 'nen dicken Haufen auf dein'n Vater kacken Und sie tragen alle gerne Starter-Jacken Bin der beste Rapper, das sind harte Fakten Leute finden meine Mukke entertainend Und sie wissen, dass alle Gangster gay sind Typen wollen üben mit der Band im Basement Zeigen auf der Bühne aber end das Elend Ich bin der, der bei mein'n Zeil'n tight bleibt Auf Kommando eins, zwei, drei schreibt Ein Haufen Gesocks, schaut in die Blocks Du bist der bei diesem Lifestyle Neid zeigt Die Kasse klingelt immer ching, ching, ching, ching Trag im Club, wenn ich Gin trink, bling-bling Die schäbigen Dudes geben es zu Weil ich einfach nur aus Instinkt King bin Alle meine Brüder bangen den Sound Freezy, dieser motherfuckin' Champion in town Kenne mich aus, hänge dich auf Digga, du kannst nichts außer Schwänze zu kau'n Action Jackson, fantastique Diese Reime geben deiner Mannschaft Krieg Die andern Gs kriegen langsam Beef Deine Freunde machen nur auf krampfthaft lieb Du mit deinen Standard-Beats Denkst, du kannst mir in die Quere komm'n? Aber ich habe mehr davon Chill und gebe keinen Fick auf deren Songs Ich rappe immer sehr gekonnt, keiner, der mich in der Szene hält Während bei dir die Träne fällt Kill ich meine Gegner oder zähle Geld Krass tätowiert, Bass, der vibriert Habe meine aus dem Knast importiert Warum will mir dieser Spast imponier'n? Komm mir vor, als gäbe es nur Bastarde hier Meine Fans sind Hustler wie wir Das ganze Land hat meinen Channel fast abonniert Sie sagen Eko, was machst du mit mir? So als hätten Moslems Kasseler probiert Steig aus der Asche zum Himmel empor Zeige euch Flaschen, der King ist wie Thor Würde man echt eure Tracks gerne hör'n Doch Geld in der Tasche behindert mein Ohr Bring gleich auf den Takt meine Lines auf den Punkt Glaubst du nicht? Dann hol dein Mic raus, du Hund Sprech dein Gebet jetzt, denn nach diesem Track gibt es kein'n Der noch was von dir Scheißhaufen pumpt Unterwegs unter Fakes Brauchst hundert Takes, damit du nicht untergehst Ich bin der Allerbeste seit den Bunker-Tapes Während du so tust, als ob du dein'n Mund bewegst Bleibst ohne Job, Oberflop Während dein Vermieter grad bei deiner Wohnung klopft Ich sammel auf Befehl deinen toten Kopf Bei mir geht das einfach automatisch RoboCop Nun ja, Doubletime hast du drauf, aber was, wenn ich den Takt änder? Was ist, wenn es ein Dreiviertel-Takt ist? Hä? Bekommst du das dann auch noch so sauber hin? Beweis es! Spuck 'nen Part auf 'nem Triole-Beat Es geht wieder einmal rund im Takt, Beats ballern immer Bumm, bumm, tschak Wenn dann dieser Typ, der immer gerne kommt, einfach so in deinem Mund rumkackt Alle wollen Ek, keiner kann so flow'n, droppe dauernd meine Bars, du Schmock Glaub an meine Tracks, blicke auf den Thron, doch ich ficke deine Party-Blocks Kille viele Rapper, ficke ihre Mütter lyrisch danebenbei Panamera Flow, Gun am Mikrofon, wirklich, Mann, jeden Style Eko der Don, Ghetto-Beton, rappe den Song tight Halte dich fest, Alter, ich flex, bald bin ich echt reich Immer wieder bring ich Spinner diese Dinge, finde eure Pimmel richtig klein Diese Penner werden wieder einmal sterben, immer kann das leider nicht so sein Ticke vierzigtausend, Nächstes mal sind's fünfzig, denn diese Leute kaufen Biggie oder Freezy Schreibe diese auf den Malediven, Alter, deshalb sind sie ultraparadiesisch Ra-ta-ta-ta-tat, peng, peng, peng, rede lieber meinen Gangbang-Slang Digga, du behauptest Läuft bei dir, aber guck mal, bei mir rennt, rennt, rennt Mach den Maestro-Job, du bist leider immer Sideshow-Bob Ganz egal, wo auch immer, es gibt keinen, der das Mic so droppt Zücke meine Gun, lade wieder nach, calle meinen Bro, Alibi danach Rapper gehen leider alle wieder pleite, Leben jetzt vom Staat und fahren schwarz Rest in peace, wenn du mein Spektrum siehst Digga, denn mich führt wieder mal der Hunger, dieser Appetit auf Wack-MCs Homie, rate mal, wer fährt hier wie der Pate umher? Du suchst grad dein Gewehr, doch der Schrank von deinem Vater ist leer Yeah, guck die Unterschicht bleibt unterm Strich unter sich Gebe dir verwirrte Memme, wenn du grade muckst, wieder Unterricht Es ist Ekrem Fresh, ich schreib sechzehn Tracks Alle genau dieses Material, nach dem wirklich jeder Rap-Fan lechzt Dieser Freezy kann's, habe keinen Bock auf Beef mit Punks Alle diese Dinge hinter mir gelassen, kein Interesse, vielen Dank Und ich pump meinen Verse für die Jungs, die es hör'n Das ist Kult, Mann, ich schwör, denn sie bumst dein Gehirn Keiner kann mich stoppen, Eko der Kanake, besser als alle Rapper, Geld ist in der Tasche Bruder, es gibt keinen Text in meiner Klasse, geht euch alle ficken, ich bin Don Ehrlich, Junge, du hast das drauf! Doubletime, Triole, Respekt! Aber das war mir noch nicht schnell genug. Ich will mehr Action. Du flext jetzt in Trippletime so dermaßen durch, dass den Leuten die Scheiße im Hals stecken bleibt. Aber, Meister, wer hat denn schon Scheiße im Hals? Quatsch nicht, Junge, rapp schneller! Schneller! Schnelleeeer! Ficke die Penner, sie können nicht rappen, es fehlt ihnen einfach der richtige Drive Um zu seh'n, dass es auch mal so Leute wie mich gibt, der King aller Kings, Alter, Eko der Chief Baller die Knarre jetzt ununterbrochen, du Missgeburt, sollst nicht mehr Leben und guck mal Ich triple die Partline in völliger Tightness und kack dir 'nen Haufen hin bon appetit Droppe die Typen, die denken, sie können mithalten, doch wenn euch der Rapper killt Könnt ihr nichts tun, außer beten und hoffen Und weinend weglaufen, bis irgendwer kommt und euch rettet, ihr Punks König von Deutschland, ich trage den Titel ja immer noch, fick eure Mütter direkt im Akkord Und die Trottel, sie peilen, es gibt keine Hoffnung, verrecken aus Angst All meine Freunde sind wieder am Lachen, ihr droppt euren Kack, aber niemand hört zu Staiger und Toxik und Visa Vie, Nico, sie wissen es auch, ich bin realer als du Ladies, sie gucken und finden mich unwiderstehlich, noch süßer als Tiramisu Während du aufgibst und keiner sich kümmert, warst früher mal Player wie Lizarazu Ich war mal bei Optik und dann noch bei EGJ, GD for Life, heute drück ich auf Play Sah viele Freunde, sie wurden zu Zinkern und hauten ab, weil sie verrückt sind auf Fame Gebe seit heute einen Fick auf die Medien und presse ganz locker mein'n Dick in das Game Lange Zeit arm, doch jetzt mach ich die Kohle, kack einfach auf alle und sippe Champagne Im Rappen bin ich der verrückte Messias, Mann, unübertrieben, da findest du niemand Der auch nur im Ansatz so kontinuierlich die Bretter verteilt, bin der türkische Pac Glaub mir, ich bringe die Apokalypse direkt in dein Ghetto, die Straßenlegende Sie kennen mich überall, finden mich hammer, doch Pisser wie du rappen wirklich verkackt Digga, sie wollen mein Leben verfilmen, ein epischer Dreiteiler wär ganz okay Aber trotzdem, ich bleib immer Untergrund, Viva Colonia, Freezy, man nennt ihn den Don Gangster-Kanake wie Robert DeNiro, der Baba, der Mac, denn ich spitte so Find eure Mucke so widerlich, kann keiner sich mit dem Müll noch identifizieren All diese Bastarde wollen ein Feature, der Grund, warum ständig mein Handy vibriert Ich mag deine Frau, sie ist echt elegant, während sie meinen Cock mit den Händen massiert All deine Pläne, sie brechen jetzt ein, so als würdest du grade bei Jenga verlier'n Bro, meine sind alles umgreifend, du seelischer Krüppel wirst heute gedisst Ich hinterlass eine Spur der Verwüstung und aus diesem Grund werden Leute vermisst Spritz in die Luft, wenn ich ejakuliere, ertrinken die meisten der Toys in dem Biz Doubletime, Tripletime, keiner packt alles, da bleiben am Ende die Euros für mich So, jetzt beruhigen wir uns erst einmal. Wir werden Legenden Respekt zollen, die nicht mehr unter uns weilen. Meister Tupac und Meister Biggie haben in ihrem kurzen Leben so einen großen Eindruck hinterlassen, dass selbst zwanzig Jahre nach ihrem Ableben ihr Style unerreicht bleibt. Du wirst jetzt als Hommage an diese beiden zeigen, dass du ihre zur Genüge studiert hast. Ich bin gespannt, Kleiner. Tupac vs. Biggie! Baby, Baby, Ekaveli der Don Du wärst gern an meine Stelle gekomm'n, verdien dir bitte selber die Chance Die Devise, wie ich handel Lieber tot als Schande Ich sehe deine Pläne, sie verliefen bloß im Sande Ist da im Himmel noch Platz für einen nackten G? Die Leute woll'n viel versprechen, aber halten nie Aber hinterher können sie sich wundern Fallen sie den Höllenschlund herunter Manchmal ist es hart, ich hab es allen anderen gesagt Denn die Brüder und die Schwestern haben alle Angst vorm Staat Ihr müsst kämpfen, zeigt, aus was wir für 'nem Holz sind Lasst euch nicht blenden, ich hab was, worauf wir stolz sind Aber wenn du diesen Van siehst Glaub mir, dass du viele fake Fans kriegst Ich mach das nur für meine Fans, wie Und geh deswegen nicht mal mehr ans Handy Trinke Hennessy, das peilen diese Menschen nie Denn ich habe es mir selbst verdient In Nordrhein-Westfalen mache ich mein Business Wo sie dich bestrafen, wenn du eine Bitch bist Leute auf der Straße, ihre Liebe ist so rein Ich lief hier nur vorbei, aber viele der Männer wein'n Sie wissen, ich hatt' es die Jahre nicht easy Aber guck mal, da ist der Freezy, hehe Und grad als du dich über Pac-Style im Track freust Kommt Biggie Smallz, der Bad Boy Rapper wollen flieh'n, denn ich komm im Team mit dem Dream Um euch kleine Lümmel zu erzieh'n Komme clean und ich schick euch angepisst nach Hause Ohne Pause, Blunts, ich bau'se Immer abgepackt, doch ich pack jeden Satz auf den Takt Bitches suchen Kontakt Sagt das mal eurem Booty und wir treffen all euch Groupies im Jacuzzi, nur ich und mein Brudi Check mein Stilo, Rap-Pacino, Mios Mach ich bald und ich hab sie wie Liberace Ich verkack nie, solang ich Ekrem Bora heiße Ich perform am Mic, als wär mein Vornam'n Michael Mir egal, wer, Wendler, Buffer, Schumacher Fassbender, ihr findet das nicht fair Das ist echt schizophren, denn er zwingt, dich zu geh'n Und hält dich gleichzeitig fest, um den Shit mitzuseh'n Bitch, versteh, ich komme mit den Gs und ich schieß dir ins Knie Es gibt nie wieder Peace In der Szene musst du wählen zwischen Mama verliert eine Träne Oder ich geh weiter stehlen Sayonara, ich durchquere mit dem Fahrrad Die Sahara, denn ich hab genug Flows Das ist busy Bora, man nennt ihn auch den Gladbacher Diggi Rest in peace, Pac und Biggie Man, war das ein geiler Flashback! Ich bin grad in richtiger Oldschool-Stimmung. Zeig' mir, dass du die Geschichte unserer Hip-Hop-Kultur kennst. Nehme jetzt einige Oldschool-Tracks deiner Wahl und übersetze die Flow ins Deutsche. Ich will eine Zeitreise durchleben, also bleib dabei in chronologischer Reihenfolge. Los, unterhalte mich! Ich höre Hip-Hop, de hippe, de hippe to the Hip, Hip-Hop, denn von Montag bis hin Zu dem Freitag läuft bei mir nix im Player, außer mega alarmierende Beats Denn was du hörst, ist kein Verseh'n, Rap ist mein Gebiet Mann, hör doch mal die tausend Bars, dann siehst du, was geschieht Guck, ich bin hier am Mic und sag einfach Hallo Bin der beste, der freshste, der Mac from the West namens E-K-O Ich brauche Cash jeden Tag Leute kacken in die Ecke, es ist eh egal Alter, es stinkt, Alter, es ist laut Ich hab das Gefühl, ich halte es nicht aus Digga, kannst du seh'n, denn sie leben hier im Dreck Junkies in der Ecke mit 'nem Baseball-Cap Ich wollte abhau'n, doch ich kam nicht weit Denn die Kohle für den Tank hat nicht mal gereicht Homes, du siehst, ich kann Bars schreiben Und mein Wahrzeichen ist mein Arbeitswill'n A-hahah-ha Straight outta Köln-Porz, der crazy Motherfucker heißt Freezy Deine Gang callt, ich erschieß sie Weil ich abschalt auf dem Asphalt Den Abzug drück und euch alle abknall Du auch, Boy, schläfst bei den Fischen Die Polizei muss mich zunächst mal erwischen Kugeln in dein Arsch, ihr werdet nicht lang leben Für die ganzen Hurensöhne, die nur angeben Ihr seid in Trouble, ich mach euer Rumble GD Clique, mit uns kann man nicht verhandeln Du kannst mich nicht vergleichen mit dem ganzen Scheiß, den ihr treibt Bin der Mac, komm aus Rheydt und ich rapp' bis in die Westside Und ich pump-pump die Reeboks und mach' 'nen Dunk Denn ich spitte so herrlich, die ganze Halle jumpt Wie hoch? Ziemlich hoch, du kleiner Idiot Ich bin auf Sendung, mein Pensum ist riesengroß Und wenn ich einen deiner Tracks find' im Internet Fällt mir auf, sie sind wiggedy-wiggedy-wiggedy-whack Ich komm, Don auf Beton und ich bin am Jumpen In eurem Video sieht man nur paar kleine Kinder hampeln Und wenn der Big Boss euch mal einen vorrappt Drücken alle eure Fans jetzt auf Eject Freezy Freezy, yoah, Freezy yeah, Freezy yeah Gib mir das Mic und komm, ich spitte noch mehr Call meine Nummer, ich rapp' dir 'nen Part Yes, Mann, ich hab' es getan, jetzt brennt dein Arsch GD Killer sind unterwegs Sie nennen mich The Freezy Man Bumaye Du kommst an mich kein Stück heran Du weißt, dass ich der einzige Typ bin, der sowas hier am Stück kann Easy Flash, miese Skills auf Täsch Ein Arschloch, weil ich den Schiri bestech Für alle MCs, denn ich fang wieder an Doch ich bleib ein Chiller 51 Ekrem, check, man, denn ich burne den Takt GD, Freezy, die Rapper turnen mich ab Köln-Porz ist der Ort, wo es irgendwie klappt Während eure Künstler gucken, ob die Röhrenjeans passt Sie fragen mich, habe ich, was der German Dream hat Oh nein, auf keinsten, Mann, ich schwöre, ihr suckt Leute schrei'n, heute sei ich auf der Party der Host Alle Ladies hier im Club, hebt die Arme jetzt hoch Doch sie gucken mich nur an, so als wär ich vom Mars Denkt ihr, dass es mich berührt? Baby, Leck mich am Arsch Und die Typen sind schon wütend, woll'n ein Feature mit Ek Ich muss lieber mal hier weg, Mann, ich flieg mit dem Jet Meine Herr'n, macht mal Lärm für den Vater des Raps Zeigt dem Paten Respekt, Oldschool, was? Leute rollen sich 'nen Joint, doch ich bleibe lieber clean Manche kommen mit 'nem Freund, doch ich komme mit 'nem Team Zum Beispiel Farid Bang, auch der ist bei German Dream Schreibe Summer Cem bei Insta Tipini Sikim Es hat sich nicht verändert, Abi callt auf Facetime Ich seh Capkekz in der Ecke und er bröselt Haze klein Und guck mal, Sinan G mit den Weibern wie ein Stenz oder Pimp Oder mein kleiner Homie Serc, der den Hennessy trinkt Und die Fans sagen Eko, schau nicht zu tief ins Glas Wir hören dich schon seit den Tracks mit deinem Bruder Savas Und die andern Rapper sagen alle Ek ist so loco Doch laufen komisch wegen einem Strap in ihrm Popo Die Bars sind ready, jede einzelne stark und heavy Du willst flüchten, fahr im Chevy so wie Marge und Maggie Echt Deutschland, jetzt streut man auf die Stars Konfetti Früher nicht, da war doch in den Charts nur Shaggy Cologne Sound, die Homecrowd tobt und bounct Sie pogt und staunt, stell das Mikrofon auf laut Mein Flow ist wow, gut platziert und so genau Bis sie sagen Eko, läuft bei dir Modenschau Ek Fresh ist der German Dream, Bro, ich komm und burne die Show Nein, ich zerstöre dich, Bro, der Typ ist irgendwie dope Bin für die Türken Jean Claude, du nur ein Girl aus 'ner Soap Du hast ein Würstchen im Po und deine Firma ist broke Wenn ich die Wirklichkeit hol, bist du nur irgendein Joe Der in das Viertel einzog und so verirrt er sich Verdien, wenn möglich, mein Brot und daran störst du dich Alter, hörst du nicht, wie dieser E-K-O die Wörter spricht? Mann, wie ich die alte Schule liebe. Gut gemacht. Was mir jetzt noch fehlt, ist ein bisschen Deepness. Ich brauche ein paar nachdenkliche Zeilen von dir. Ich weiß, es ist nicht dein Lieblingsfach, aber es ist eine Sache, die jeder Meister können sollte. Gib mir den Conscious Rap, den ich in letzter Zeit so vermisse, auf, auf! Überrasch' mich! Wenn das letzte Körnchen Sand durch die Sanduhr rinnt Und im Ohr dieser Klang wie 'ne Standuhr klingt Wär das Leben unendlich wie das Firmament Wenn man, was die Leute denken, an der Stirn erkennt Wenn bei einer Tasse Tee dein Hass noch nicht vergeht Fällt dir plötzlich auf, dass du hier im Ascheregen stehst Ans Chaos gewöhnt, du fürchtest dich vor Friede Deine Seele eine Wüste und es dürstet dich nach Liebe In Kürze haben viele dir den sichren Part erschwert Gefühle kannst du zeigen, ist das Whisky-Glas entleert Du fragst dich, wo ist die Glückseligkeit geblieben? Und ist der dritte Akt deines Lebens schon geschrieben? Es sind Fehler, die wir mieden, sie geh'n dir durch den Kopf Als deine letzte Träne durch die Regenrinne tropft Denn bevor der Winter kommt und die Blätter fall'n im He</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3368,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Parlez, parlez, jserai jamais Blahzay, Blahzay Jferai c'truc toute ma vie même si Keith Murray Jdéteste quon mErik Sermon, Salt-M-feppa la morale Jpréfere GraveDiggaz quon mKRS-One dans lsens du poil Tu veux test, si Cypress, soit patient prends ta RZA Jvide toujours une Bu-Teille Pleine mais ça tu lsavais GZA Jsuis un Grosface Killah, jmacharne jusquà c'que ta Raekwine Avec un collection dU-Gods comme si jétais une vraie gouine Un vraie Fouine, le nez dans une touffe de poils pubiques Number One en tout mais surtout en tant quennemi public Bad comme L.L. tu lsais d'puis Ma Musique Et jvais les Big Daddy Kane avec ma Notorious B.I.G On veut de la moule, on évite la soupe On envoie la viande, surtout De La Soul On va Biz Markie l'rap après on The Clipsera Et Afu-Ra della della bile quand on lremixera Jsuis un Roi du Rock, yen a pas dplus haut Suceurs MCs peuvent smettre au boulot Tout c'quest Juicy on lboit au goulot Geezy Baste, Big Wapp Yen a pas dplus beaux Jsuis un King, ting titing ting Jrappe depuis la tétine-titine-tine Scratche mon son sur les plati-tines-tines You might also like Yeah, Basta Rhyme et Basta Flex comme ça cest fait Pon the decks vite zef comme un Prince sur Jazzy Jeff Ça sue pas lImmortelle technique à la Eric Serra Cest plus Eric B Rakim meet Eric et Ramzy Viens dans mon Jungle Posse On est Up In Smoke On a d'la Supernatural Ça te fait Doggystyle De La qui Soul de la qui tape le Q tip Cest le Prince i Paul Je suis dans une tribu qui cherche sa Native tongue Je suis un Fu Shuinickens de la tête Un Garçon Bestial Même quand je suis Red jai la Method Man Cool as Ice cubitainer sur la table en place La classe à Richard Gotainer avec le flow à Nas Je suis ce Sale Vieux Bâtard Dizzy à cRascal Si ya un Beans jtrouve Sayid Yo Moi je suis High PriestO Cest lantipop quon sort si on minvite au mic Pas besoin d'Subtitles demande au Busdriver Jsuis un Roi du Rock, yen a pas dplus haut Suceurs MCs peuvent smettre au boulot Tout c'quest Juicy on lboit au goulot Geezy Baste, Big Wapp Yen a pas dplus beaux Jsuis un King, ting titing ting Jrappe depuis la tétine-titine-tine Scratche mon son sur les plati-tines-tines Jveux être le Dj Premier, état second d'puis la 3ème 100 miles and runnin, ma vitesse de croisière Jsuis plus un Little MC, jai roulé ma B.O.S.S Maintenant jpréfère Rockin Squatter sous ma Tribe Called Couette Ça rOxmo mo les fake on les Zoxea Façon Cannibal, cest pas un Ox on va les Rocé On est en Mode Flip avec le Squad Onyx tout Jarrive en Mobb Deep potes sur le porte bagages en Habits dDelinquent On est là pour sfoutre Neptunes plein les fouilles On est Fat Joey Crack on sen Bambaata les couilles Jai un gros paquet dans lSlick Rick, ouvre ta Bush Babeez Soit pas RadioInactive ou jtape ma Ludacrise Et Missy elle est Hot depuis quelle est Grems aussi En plus LL Cool J limpression Direct comme ça Jmets mets Timberland, jles M.O.P yeah Mon polo Everlast Mes Adidas comme DMC ou Gerard Baste x2 Jsuis un Roi du Rock, yen a pas dplus haut Suceurs MCs peuvent smettre au boulot Tout c'quest Juicy on lboit au goulot Geezy Baste, Big Wapp Yen a pas dplus beaux Jsuis un King, ting titing ting Jrappe depuis la tétine-titine-tine Scratche mon son sur les plati-tines-tines</t>
+          <t>Parlez, parlez, jserai jamais Blahzay, Blahzay Jferai c'truc toute ma vie même si Keith Murray Jdéteste quon mErik Sermon, Salt-M-feppa la morale Jpréfere GraveDiggaz quon mKRS-One dans lsens du poil Tu veux test, si Cypress, soit patient prends ta RZA Jvide toujours une Bu-Teille Pleine mais ça tu lsavais GZA Jsuis un Grosface Killah, jmacharne jusquà c'que ta Raekwine Avec un collection dU-Gods comme si jétais une vraie gouine Un vraie Fouine, le nez dans une touffe de poils pubiques Number One en tout mais surtout en tant quennemi public Bad comme L.L. tu lsais d'puis Ma Musique Et jvais les Big Daddy Kane avec ma Notorious B.I.G On veut de la moule, on évite la soupe On envoie la viande, surtout De La Soul On va Biz Markie l'rap après on The Clipsera Et Afu-Ra della della bile quand on lremixera Jsuis un Roi du Rock, yen a pas dplus haut Suceurs MCs peuvent smettre au boulot Tout c'quest Juicy on lboit au goulot Geezy Baste, Big Wapp Yen a pas dplus beaux Jsuis un King, ting titing ting Jrappe depuis la tétine-titine-tine Scratche mon son sur les plati-tines-tines Yeah, Basta Rhyme et Basta Flex comme ça cest fait Pon the decks vite zef comme un Prince sur Jazzy Jeff Ça sue pas lImmortelle technique à la Eric Serra Cest plus Eric B Rakim meet Eric et Ramzy Viens dans mon Jungle Posse On est Up In Smoke On a d'la Supernatural Ça te fait Doggystyle De La qui Soul de la qui tape le Q tip Cest le Prince i Paul Je suis dans une tribu qui cherche sa Native tongue Je suis un Fu Shuinickens de la tête Un Garçon Bestial Même quand je suis Red jai la Method Man Cool as Ice cubitainer sur la table en place La classe à Richard Gotainer avec le flow à Nas Je suis ce Sale Vieux Bâtard Dizzy à cRascal Si ya un Beans jtrouve Sayid Yo Moi je suis High PriestO Cest lantipop quon sort si on minvite au mic Pas besoin d'Subtitles demande au Busdriver Jsuis un Roi du Rock, yen a pas dplus haut Suceurs MCs peuvent smettre au boulot Tout c'quest Juicy on lboit au goulot Geezy Baste, Big Wapp Yen a pas dplus beaux Jsuis un King, ting titing ting Jrappe depuis la tétine-titine-tine Scratche mon son sur les plati-tines-tines Jveux être le Dj Premier, état second d'puis la 3ème 100 miles and runnin, ma vitesse de croisière Jsuis plus un Little MC, jai roulé ma B.O.S.S Maintenant jpréfère Rockin Squatter sous ma Tribe Called Couette Ça rOxmo mo les fake on les Zoxea Façon Cannibal, cest pas un Ox on va les Rocé On est en Mode Flip avec le Squad Onyx tout Jarrive en Mobb Deep potes sur le porte bagages en Habits dDelinquent On est là pour sfoutre Neptunes plein les fouilles On est Fat Joey Crack on sen Bambaata les couilles Jai un gros paquet dans lSlick Rick, ouvre ta Bush Babeez Soit pas RadioInactive ou jtape ma Ludacrise Et Missy elle est Hot depuis quelle est Grems aussi En plus LL Cool J limpression Direct comme ça Jmets mets Timberland, jles M.O.P yeah Mon polo Everlast Mes Adidas comme DMC ou Gerard Baste x2 Jsuis un Roi du Rock, yen a pas dplus haut Suceurs MCs peuvent smettre au boulot Tout c'quest Juicy on lboit au goulot Geezy Baste, Big Wapp Yen a pas dplus beaux Jsuis un King, ting titing ting Jrappe depuis la tétine-titine-tine Scratche mon son sur les plati-tines-tines</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3385,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Allume la C'est parti, Yoshi Rouler sur le game, rouler sur le game On vient vous rouler sur le game, rouler sur le game Rouler sur le game, rouler sur le game On va rouler sur le game, rouler sur le game C'est rouler sur le game, rouler sur le game On vient vous rouler sur le game, rouler sur le game Écraser le game, dépecer le game Enterrer le game, bref, tuer le game On a botté des culs, caresser des oreilles Baste et Yosh', troisième round, on roule sur le game Même après deuxtrois litrons, jamais je n'oublie ma mission Je veux juste que tout le monde danse, et rond, comme sur le Pont d'Avignon On fume de la merde à l'ouest avec de weed je vois tous On vient rouler sur le game avec des débits de cinq litres et des jantes soixante-dix-huit pouces signale la pointe de la pine Sur les en compagnie du prince de la vigne You might also like Baste et Yoshi, dalle et folie, pas très polis, mal dégrossis D'jà démolis, cramés, rôtis, ah, c'est joli, cannellonis Flow va taper, faut t'attraper, gros canapé car j'ai grossi L'pare-terre jonché, l'bar dévasté, Gérard Baste est par terre aussi Mais je me relève et je m'en vais rouler sur ce jeu Tu voulais toucher le ciel ? Tu vas passer sous mes cieux T'as rêvé de Baste, t'as rêvé de Yosh', tu t'es réveillé dans des draps mouillés La scène de crime est très moche, regarde le game et tous écrabouillés Rouler sur le game, rouler sur le game Enclenche la cinquième, on vient pour rouler sur le game C'est rouler sur le game, rouler sur le game Préviens BFM, on va rouler sur le game C'est rouler sur le game, rouler sur le game J'ai passé l'permis poids lourd juste pour rouler sur le game Pour Écraser le game, pour dépecer le game Pour Enterrer le game, bref, tuer le game Salut les frères, salut les surs, pas de différence, ça fait ratatata En maniant le rouleau compresseur, on laisse le game tout raplapla-la J'roule sur le jeu avec ma Subaru bleu nuit et dorée, couleur 8.6 Et j'repasse en vélo avec les p'tites roues, on va t'laisser quelques cicatrices On va te traumatiser et tu vas caner dans d'atroces souffrances Hey On t'roule dessus sur les Champs-Élysées, on a détourné l'bus de l'Équipe de France On a pris de bonnes décisions hey, les jeunes me jugent et m'trouvent taré Mais, un jour, on ira en prison parce qu'on roule sur le game comme Suge Knight Si tu connais qui kick comme Baste et Yoshi, paire légendaire comme Sly et Robbie Pour l'apérobic, passe un coup de fil à tes copines, dis-leur qu'on est comme Batman et Robin Fais péter la re-biè' à et Grosminet Tes cheveux sont gras, gestes bas inexistants chez moi, donc on roule sur tes rappeurs gominés Je ne veux pas d'un lisseur non, ni d'un autotune mal utilisé J'appuie sur l'accélérateur quand les bouteilles de rhum se sont volatilisées Le niveau est trop élevé, toutes les mains sont levées quand on kick sur scène On agit pour le bien d'tes oreilles, quitte à y sacrifier quelques vies humaines J'aime tuer, d'ailleurs Envoyez-moi n'importe qui, je tue tout l'monde Rouler sur le game, rouler sur le game Préviens BFM, on va rouler sur le game C'est rouler sur le game, rouler sur le game J'ai passé l'permis poids lourd juste pour rouler sur le game Pour Écraser le game, pour dépecer le game Pour Enterrer le game, bref, tuer le game Et ça fait boom bye bye, j'débarque avec mes pires potes Au volant d'un s'mi-r'morque entièrement rempli d'Smirnoff On roule comme Poutine sur un track en tête du cortège Tu sors la ubrówka du congél', on sort les pneus neige On roule sur le game même en marche arrière, j'ai de la bouteille, tu vas pas m'la faire C'est moi qu'ai la plus grosse, nananère, j'ai le groove, la méthode, l'art et la manière D'écraser des wacks au volant de mon kart comme si j'avais eu ce putain d'éclair La poubelle finit blindée d'verre et les aisselles sentent le Saint-Nectaire Rouler sur le game, rouler sur le game On est v'nus rouler sur le game C'est rouler sur le game, rouler sur le game Baste et Big Yosh', on a roulé sur le game C'est rouler sur le game, rouler sur le game SOAP à la prod pour mieux rouler sur le game On a Écrasé le game, on a dépecé le game On a Enterré le game, bref, tué le game</t>
+          <t>Allume la C'est parti, Yoshi Rouler sur le game, rouler sur le game On vient vous rouler sur le game, rouler sur le game Rouler sur le game, rouler sur le game On va rouler sur le game, rouler sur le game C'est rouler sur le game, rouler sur le game On vient vous rouler sur le game, rouler sur le game Écraser le game, dépecer le game Enterrer le game, bref, tuer le game On a botté des culs, caresser des oreilles Baste et Yosh', troisième round, on roule sur le game Même après deuxtrois litrons, jamais je n'oublie ma mission Je veux juste que tout le monde danse, et rond, comme sur le Pont d'Avignon On fume de la merde à l'ouest avec de weed je vois tous On vient rouler sur le game avec des débits de cinq litres et des jantes soixante-dix-huit pouces signale la pointe de la pine Sur les en compagnie du prince de la vigne Baste et Yoshi, dalle et folie, pas très polis, mal dégrossis D'jà démolis, cramés, rôtis, ah, c'est joli, cannellonis Flow va taper, faut t'attraper, gros canapé car j'ai grossi L'pare-terre jonché, l'bar dévasté, Gérard Baste est par terre aussi Mais je me relève et je m'en vais rouler sur ce jeu Tu voulais toucher le ciel ? Tu vas passer sous mes cieux T'as rêvé de Baste, t'as rêvé de Yosh', tu t'es réveillé dans des draps mouillés La scène de crime est très moche, regarde le game et tous écrabouillés Rouler sur le game, rouler sur le game Enclenche la cinquième, on vient pour rouler sur le game C'est rouler sur le game, rouler sur le game Préviens BFM, on va rouler sur le game C'est rouler sur le game, rouler sur le game J'ai passé l'permis poids lourd juste pour rouler sur le game Pour Écraser le game, pour dépecer le game Pour Enterrer le game, bref, tuer le game Salut les frères, salut les surs, pas de différence, ça fait ratatata En maniant le rouleau compresseur, on laisse le game tout raplapla-la J'roule sur le jeu avec ma Subaru bleu nuit et dorée, couleur 8.6 Et j'repasse en vélo avec les p'tites roues, on va t'laisser quelques cicatrices On va te traumatiser et tu vas caner dans d'atroces souffrances Hey On t'roule dessus sur les Champs-Élysées, on a détourné l'bus de l'Équipe de France On a pris de bonnes décisions hey, les jeunes me jugent et m'trouvent taré Mais, un jour, on ira en prison parce qu'on roule sur le game comme Suge Knight Si tu connais qui kick comme Baste et Yoshi, paire légendaire comme Sly et Robbie Pour l'apérobic, passe un coup de fil à tes copines, dis-leur qu'on est comme Batman et Robin Fais péter la re-biè' à et Grosminet Tes cheveux sont gras, gestes bas inexistants chez moi, donc on roule sur tes rappeurs gominés Je ne veux pas d'un lisseur non, ni d'un autotune mal utilisé J'appuie sur l'accélérateur quand les bouteilles de rhum se sont volatilisées Le niveau est trop élevé, toutes les mains sont levées quand on kick sur scène On agit pour le bien d'tes oreilles, quitte à y sacrifier quelques vies humaines J'aime tuer, d'ailleurs Envoyez-moi n'importe qui, je tue tout l'monde Rouler sur le game, rouler sur le game Préviens BFM, on va rouler sur le game C'est rouler sur le game, rouler sur le game J'ai passé l'permis poids lourd juste pour rouler sur le game Pour Écraser le game, pour dépecer le game Pour Enterrer le game, bref, tuer le game Et ça fait boom bye bye, j'débarque avec mes pires potes Au volant d'un s'mi-r'morque entièrement rempli d'Smirnoff On roule comme Poutine sur un track en tête du cortège Tu sors la ubrówka du congél', on sort les pneus neige On roule sur le game même en marche arrière, j'ai de la bouteille, tu vas pas m'la faire C'est moi qu'ai la plus grosse, nananère, j'ai le groove, la méthode, l'art et la manière D'écraser des wacks au volant de mon kart comme si j'avais eu ce putain d'éclair La poubelle finit blindée d'verre et les aisselles sentent le Saint-Nectaire Rouler sur le game, rouler sur le game On est v'nus rouler sur le game C'est rouler sur le game, rouler sur le game Baste et Big Yosh', on a roulé sur le game C'est rouler sur le game, rouler sur le game SOAP à la prod pour mieux rouler sur le game On a Écrasé le game, on a dépecé le game On a Enterré le game, bref, tué le game</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3402,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ça c'est pour tous les gens qui viennent nous voir en concert Vous avez failli vous appelez Les Grappes même Les Sacamerdes Mais vous êtes les putains d'Sacavins ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est parti d'un p'tit délire et vite c'est devenu une élite J'ai toujours dit qu'on a les fans qu'on mérite Les Sacavins, Sacavinettes ou Sacavinasses Si c'est trop, trace aux toilettes et vide ton sac De Brest même à Annecy jusqu'à Paris Comme mon pote ?Motok? bois 4 litres et pars faire le 4L Trophy Comme ?Bosh? et le Crotte Crew si l'caca c'est ton logo Ça s'jette dans l'pogo, bourré sur un vieux vélo Humour de merde comme ?Joe zu?, sourcils bas façon ?Lobro? Autant en emporte le Vandal, archi-ghetto Poissons panés au fond des amygdales, hémorroïdes Activités nocturnes bizarroïdes On est jeunes et imbibés, bien avinés Nés dans un village éloigné, Breton, Libanais Comme ?JFL ajar? sous double whisky glace En mode No Bullshit bourrés dans l'open space Sacavins viennent des Alpes ou du Limousin Capables de tout même de faire des sites sur des merdes de chiens Chimistes, informaticiens ou profs à la fac Comme ?Toto vito roro?, ?Monsieur Slop? alias bite de black Y'a même un caviste fan de jeux vidéos J'en place une pour le crew le ?R Ampto? On s'retrouve à Toulouse, prochain show QHuit Party J'espère que ?Jona San? aura mit sa casquette Marty You might also like C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Toujours prêts à s'mettre la youte du soir au matin Bouteilles dans l'sac à dos ou prods dans l'sac à main Espèce de Sacavin moi j'trouve que ça t'va bien ! Demande à ?BBK? nos passions dans la vie sont simples Les tronçonneuses, les pelles mécaniques et la bière J'descends en Bigorre dans l'sud-ouest pour boire une pinte Avec le mec qui tombe 1 litre en 11 secondes à l'Oktoberfest à Munich Vous êtes uniques et authentiques comme ?Lautentik?, c'est pas du toc Teigneux comme une tique, t'as une moustache dégueulasse, t'as survécu à un infarct' Sous morphine comme le malin, ça n'arrive pas qu'à Gérard Baste Putain ! Y'a des fans du Svink sur l'ile de Malte J'pense à ?La Burne? et à ?Nono? Demande à ?Grego? si ici c'est la porcherie Si t'aimes la vaseline comme dit Rodolphe, t'aimes pas la sodomie On est les obèses du quartier J'roule avec le ???, on va encore boucher les éviers À grands coups d'canettes et à force de bédave tout l'temps Tu finiras comme ?Mush? la bouche avec les coins blancs Ou comme ?Vesti? l'Picard, les couilles comme des poires Version plus mignonne, j'fais un bisou à ?Julie Pomme? Si t'aimes dessiner des bites et cracher du balcon Demande à ?Yongi? on en boufferai même le trognon Si tu traînes ton cul par terre sur Girlfriend de TTC T'étais skieur, médecin urgentiste Hey Black Edgar Grospiron, sors l'hélico viens nous sauver Et ramène tes platines pour la soirée à moins douze degrés Y'a rien d'malaisant à kiffer les vins Valaisan Sacavins seront toujours les bienvenus à la maison On s'voit au prochain concert, ça va encore être la fête Tu repartiras un tatou slip sur la fesse C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Toujours prêts à s'mettre la youte du soir au matin Bouteilles dans l'sac à dos ou prods dans l'sac à main Espèce de Sacavin moi j'trouve que ça t'va bien ! Celle là elle est pour ??? ??? ?Médhicoptère? en place une pour Aude, Tatiana, Kilian et Marley Lana, tous les gars d'??? Crotte Crew ! ???, Stibat Crew La ???, ?L'Atelier?, ???, ?Popi?, ??? ??? Sacavins ! On s'voit bientôt les Sacavinettes, Les Sacavinasses Gérard Baste ! 2020 ! Jusqu'à l'éternité !</t>
+          <t>Ça c'est pour tous les gens qui viennent nous voir en concert Vous avez failli vous appelez Les Grappes même Les Sacamerdes Mais vous êtes les putains d'Sacavins ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est parti d'un p'tit délire et vite c'est devenu une élite J'ai toujours dit qu'on a les fans qu'on mérite Les Sacavins, Sacavinettes ou Sacavinasses Si c'est trop, trace aux toilettes et vide ton sac De Brest même à Annecy jusqu'à Paris Comme mon pote ?Motok? bois 4 litres et pars faire le 4L Trophy Comme ?Bosh? et le Crotte Crew si l'caca c'est ton logo Ça s'jette dans l'pogo, bourré sur un vieux vélo Humour de merde comme ?Joe zu?, sourcils bas façon ?Lobro? Autant en emporte le Vandal, archi-ghetto Poissons panés au fond des amygdales, hémorroïdes Activités nocturnes bizarroïdes On est jeunes et imbibés, bien avinés Nés dans un village éloigné, Breton, Libanais Comme ?JFL ajar? sous double whisky glace En mode No Bullshit bourrés dans l'open space Sacavins viennent des Alpes ou du Limousin Capables de tout même de faire des sites sur des merdes de chiens Chimistes, informaticiens ou profs à la fac Comme ?Toto vito roro?, ?Monsieur Slop? alias bite de black Y'a même un caviste fan de jeux vidéos J'en place une pour le crew le ?R Ampto? On s'retrouve à Toulouse, prochain show QHuit Party J'espère que ?Jona San? aura mit sa casquette Marty C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Toujours prêts à s'mettre la youte du soir au matin Bouteilles dans l'sac à dos ou prods dans l'sac à main Espèce de Sacavin moi j'trouve que ça t'va bien ! Demande à ?BBK? nos passions dans la vie sont simples Les tronçonneuses, les pelles mécaniques et la bière J'descends en Bigorre dans l'sud-ouest pour boire une pinte Avec le mec qui tombe 1 litre en 11 secondes à l'Oktoberfest à Munich Vous êtes uniques et authentiques comme ?Lautentik?, c'est pas du toc Teigneux comme une tique, t'as une moustache dégueulasse, t'as survécu à un infarct' Sous morphine comme le malin, ça n'arrive pas qu'à Gérard Baste Putain ! Y'a des fans du Svink sur l'ile de Malte J'pense à ?La Burne? et à ?Nono? Demande à ?Grego? si ici c'est la porcherie Si t'aimes la vaseline comme dit Rodolphe, t'aimes pas la sodomie On est les obèses du quartier J'roule avec le ???, on va encore boucher les éviers À grands coups d'canettes et à force de bédave tout l'temps Tu finiras comme ?Mush? la bouche avec les coins blancs Ou comme ?Vesti? l'Picard, les couilles comme des poires Version plus mignonne, j'fais un bisou à ?Julie Pomme? Si t'aimes dessiner des bites et cracher du balcon Demande à ?Yongi? on en boufferai même le trognon Si tu traînes ton cul par terre sur Girlfriend de TTC T'étais skieur, médecin urgentiste Hey Black Edgar Grospiron, sors l'hélico viens nous sauver Et ramène tes platines pour la soirée à moins douze degrés Y'a rien d'malaisant à kiffer les vins Valaisan Sacavins seront toujours les bienvenus à la maison On s'voit au prochain concert, ça va encore être la fête Tu repartiras un tatou slip sur la fesse C'est pour mes sac-sac-sac, c'est pour mes Sacavins Tous prêts à s'mettre la youte du soir au matin Une bande de sales gamins, alors fais pas l'malin Espèce de sac-sac-sac, espèce de Sacavin ! C'est pour mes sac-sac-sac, c'est pour mes Sacavins Toujours prêts à s'mettre la youte du soir au matin Bouteilles dans l'sac à dos ou prods dans l'sac à main Espèce de Sacavin moi j'trouve que ça t'va bien ! Celle là elle est pour ??? ??? ?Médhicoptère? en place une pour Aude, Tatiana, Kilian et Marley Lana, tous les gars d'??? Crotte Crew ! ???, Stibat Crew La ???, ?L'Atelier?, ???, ?Popi?, ??? ??? Sacavins ! On s'voit bientôt les Sacavinettes, Les Sacavinasses Gérard Baste ! 2020 ! Jusqu'à l'éternité !</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3419,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Gérard Baste Mes bien chers frères Mes bien chères surs Nous sommes aujourd'hui réunis A l'initiative du Klub des 7 Pour réfléchir à nos péchés Et avouer nos faiblesses Fuzati, Gérard Baste, James Delleck Mes frères, j'ai fait un rêve ! J'ai fait un rêve ! Et je l'ai oublié ! James Delleck Ouais, c'est bien la peine J'ai le blasphème dans la bouche Le Diable dans les mots Pour les mouches qui ont plus d'ailes Ma boite à cachous est un cachot Seigneur ! Je ne suis qu'un pauvre pêcheur Je regrette d'avoir eu de mauvaises pensées sur ta sur J'ai sous mon lit tous les DVD d'Al Bundy Pardonnez moi d'faire du rap Étant ni noir ni bandit Je sais que c'est mal, je n'suis qu'un mécréant J'ai déjà bloqué sur MSN tant de gens ! Je vous assure, déplorant ce tragique accident Quand ils m'ont accusé d'avoir poussé dans le puits mon copain d'six ans Mon dieu j'ai triché, séché, léché des miches Pire encore, hier j'ai même pas trié mes déchets Je me moquerai plus des filles qui s'appellent Kimberlyte ! Et j'me brosserai les dents avec de l'eau bénite ! Delleck, artiste déviant qui n'a pas toute sa tête Puisque mon plus grave péché c'est d'appartenir au Klub des 7 ! You might also likeRefrain Alléluia ! Enfoirés, priez pour moi Et pour le salut d'âmes de quelques Sacrés pêcheurs ! Passion anormale pour les sous-vêtements sales Attends dans le confessionnal Vl'a les sacrés pêcheurs ! Alléluia ! Enfoirés, priez pour moi Et pour les saluts d'âmes de quelques Sacré pêcheurs ! Mon père, excusez-moi Pardonnez-moi ma sur Mais y'a plus rien à faire On est qu'des sacrés pêcheurs ! Fuzati Les anges n'ont pas de sexe mais ont tous des godes ceintures Quand on a une vie pourrie, penser au paradis rassure Je suis rentré dans léglise parce que dedans il faisait frais Ne croyant pas que la Bible puisse être tirée d'une histoire vraie Enfant d'une femme qu'on disait vierge, il l'appela fils de Dieu, pas fils de pute La religion ce nest qu'une manière de voir les choses Je te respecte si tu respectes que je ne te respecte pas ! Soit disant toute différence se résumant toujours à ça Ils me parlaient de rédemption, moi je voyais des gens morts ! Si nous sommes à l'image de Dieu, il est normal que je l'ignore ! Non je nétais pas convaincu, et je me disais que si Jésus sétait noyé, les aquariums seraient peut être tous symboliques Avec à la place du trésor un petit bonhomme en plastique Évidemment, autour du cou personne ne trouverait ça pratique Tous les poissons seraient blasphème, ils ont mangé le corps du Christ ! Mais j'en cuisinerais quand même, restant un sacré pêcheur ! Gérard Baste Avé bas Maria, je vous salue Marie Je vous salis ma rue Dès que jtag dans Paris Jai pas été à confesse Et jai bu tout le vin de la messe ! Jai péché mais même les gangsters repentis comme Ice-T pêchent Jai piqué largent de la quête Rempli mon bas de laine Et jtrace me faire laver les iep aux larmes de Marie-Madeleine Je fais partie de ces putains de martyrs qui souffrent Jaurais jamais dû faire le carême Jattends le pack comme un ouf ! Jai jamais été au cathé, jsuis plutôt athée Surtout quand je timagine à quatre pattes comme un Athée hâté Jai mis du champ dans le bénitier Farci les cièrges à la nitro Et jbaise au milieu de léglise Fécondation in vitraux ! Je me trimbale avec mes cheveux longs A poil sous mon pagne Tu nadoreras quun seul Dieu et ce Dieu, cest ouam ! Aimez-vous les uns les autres au nom du père et du fils Et succombons tous à la dernière tentation du Fist ! Refrain1</t>
+          <t>Gérard Baste Mes bien chers frères Mes bien chères surs Nous sommes aujourd'hui réunis A l'initiative du Klub des 7 Pour réfléchir à nos péchés Et avouer nos faiblesses Fuzati, Gérard Baste, James Delleck Mes frères, j'ai fait un rêve ! J'ai fait un rêve ! Et je l'ai oublié ! James Delleck Ouais, c'est bien la peine J'ai le blasphème dans la bouche Le Diable dans les mots Pour les mouches qui ont plus d'ailes Ma boite à cachous est un cachot Seigneur ! Je ne suis qu'un pauvre pêcheur Je regrette d'avoir eu de mauvaises pensées sur ta sur J'ai sous mon lit tous les DVD d'Al Bundy Pardonnez moi d'faire du rap Étant ni noir ni bandit Je sais que c'est mal, je n'suis qu'un mécréant J'ai déjà bloqué sur MSN tant de gens ! Je vous assure, déplorant ce tragique accident Quand ils m'ont accusé d'avoir poussé dans le puits mon copain d'six ans Mon dieu j'ai triché, séché, léché des miches Pire encore, hier j'ai même pas trié mes déchets Je me moquerai plus des filles qui s'appellent Kimberlyte ! Et j'me brosserai les dents avec de l'eau bénite ! Delleck, artiste déviant qui n'a pas toute sa tête Puisque mon plus grave péché c'est d'appartenir au Klub des 7 ! Refrain Alléluia ! Enfoirés, priez pour moi Et pour le salut d'âmes de quelques Sacrés pêcheurs ! Passion anormale pour les sous-vêtements sales Attends dans le confessionnal Vl'a les sacrés pêcheurs ! Alléluia ! Enfoirés, priez pour moi Et pour les saluts d'âmes de quelques Sacré pêcheurs ! Mon père, excusez-moi Pardonnez-moi ma sur Mais y'a plus rien à faire On est qu'des sacrés pêcheurs ! Fuzati Les anges n'ont pas de sexe mais ont tous des godes ceintures Quand on a une vie pourrie, penser au paradis rassure Je suis rentré dans léglise parce que dedans il faisait frais Ne croyant pas que la Bible puisse être tirée d'une histoire vraie Enfant d'une femme qu'on disait vierge, il l'appela fils de Dieu, pas fils de pute La religion ce nest qu'une manière de voir les choses Je te respecte si tu respectes que je ne te respecte pas ! Soit disant toute différence se résumant toujours à ça Ils me parlaient de rédemption, moi je voyais des gens morts ! Si nous sommes à l'image de Dieu, il est normal que je l'ignore ! Non je nétais pas convaincu, et je me disais que si Jésus sétait noyé, les aquariums seraient peut être tous symboliques Avec à la place du trésor un petit bonhomme en plastique Évidemment, autour du cou personne ne trouverait ça pratique Tous les poissons seraient blasphème, ils ont mangé le corps du Christ ! Mais j'en cuisinerais quand même, restant un sacré pêcheur ! Gérard Baste Avé bas Maria, je vous salue Marie Je vous salis ma rue Dès que jtag dans Paris Jai pas été à confesse Et jai bu tout le vin de la messe ! Jai péché mais même les gangsters repentis comme Ice-T pêchent Jai piqué largent de la quête Rempli mon bas de laine Et jtrace me faire laver les iep aux larmes de Marie-Madeleine Je fais partie de ces putains de martyrs qui souffrent Jaurais jamais dû faire le carême Jattends le pack comme un ouf ! Jai jamais été au cathé, jsuis plutôt athée Surtout quand je timagine à quatre pattes comme un Athée hâté Jai mis du champ dans le bénitier Farci les cièrges à la nitro Et jbaise au milieu de léglise Fécondation in vitraux ! Je me trimbale avec mes cheveux longs A poil sous mon pagne Tu nadoreras quun seul Dieu et ce Dieu, cest ouam ! Aimez-vous les uns les autres au nom du père et du fils Et succombons tous à la dernière tentation du Fist ! Refrain1</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3436,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir You might also like J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
+          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3453,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>x2 Salut les copains, et à l'année prochaine Allongés sur la pelouse, on regarde le soleil Ouais ! En route pour la vie ! Par ici la sortie, l'école est finie ! Mais comment ça ? Il doit y avoir une erreur Je ferai de mon mieux mais je ne peux pas passer en établissement supérieur Laissez-moi une chance, figez cette photo, annulez ce conseil de classe Au mois de Septembre, on recommence tous aux mêmes places Rendez vous compte, fini l'école buissonière Et les heures de colle, soyons rationnels Les disparitions de cartable, les antisèches sous la table Les plans marave, et les cours de français passionnels Désinfectez, les insectes infectent votre réfectoire Et marquez d'une croix et d'un cercle la onzième lettre de votre répertoire Sur l'écorce d'un arbre centenaire que tous les élèves connaissent Un chiffre, nos noms et une promesse Nous n'oublierons jamais l'unique dortoir, les filles, l'unique doctoresse L'unique cour d'école, et surtout les uniques camarades de notre unique jeunesse J'passe au collège avec mes six collègues Tourne notre manège mais sans Charly Oleg fin d'année J'irai au cour ... ant d'air façon Eole Damné, en classe de musique j'ai toujours eu que des bémols C'est fini le rap de récré, je passe au rap de rue Comme Jésus disait croyez-moi, travailler ça me tue Alors vive les vacances, oublie trimestre, bulletin et infernale cadence J'vois de la catin qui danse quand Juju s'dilate A l'idée de leurs lèvres pulpeuses comme le cul d'un primate Mais aussi sûr que Mamie ne passera pas l'été Juré, craché, on sera tous là à la rentrée You might also like x2 Salut les copains, et à l'année prochaine Allongés sur la pelouse, on regarde le soleil Ouais ! En route pour la vie ! Par ici la sortie, l'école est finie ! L'école, c'est ni-fi, que demander de plus que le début des cances-va ? Et danses d'ambiance de fin d'année, béni le temps est venu de se dire Celui de quitter ce pensionnat dans la prairie A la trée-ren, des nouvelles aventures nous attendent En marge de nos vies scolaires respectives, on a tous rendez-vous avec l'inconnu Sexe, drogues et hip-hop, au cinoche sans les rents-pa En mémoire de jadis, prêtons sermont sur l'honneur Que ce ne soit pas un adieu mais qu'un au revoir Non, ce n'est pas un adieu, juste un au revoir Seuls les redoublants se reverront à la trée-ren T'as vu ? Maintenant j'suis grand, j'parle un argot verlan Gérard Baste, le dernier samaritain mais le premier de la classe A avoir des poils, 10 ans et demi et déjà une petite moustache Nouvelle démarche décalquée sur Aldo, la classe J'veux voir les fesses de la maîtresse avant qu'on trace pour le CES Fumer des clopes et sécher l'EPS Technologie de pointe, walkman auto-reverse Jean neige, trop d'revers au dessus des Converse Ici c'est All Star Klub des 7 Et j'troque mon tatontan's contre un sac US Où j'écrirais plein d'noms d'groupes de hard Que j'connais même pas comme sur ma collec' de badges Ohé ohé, une dernière goutte pour le goûter de fin d'année Sors le Docteur Maboul, fais péter le Savane et le Fruité On va se quitter mais on se retrouvera vite Et j'vous invite tous au Quick prendre une dernière frite Violeur de note en série, tellement de zéros pointés Un homme averti en vaut deux, donc pas sept mais un millier Comme Papy, Mamie, je parle beaucoup au passé Collectionneur d'images jaunies mais aussi de regrets Je n'aurais pas dit à Corinne à quel point je l'aimais Et en même temps je ne sais pas si ses seins vont pousser Il paraît qu'au collège les classes changent pour les matières Cela va faire des siestes plus courtes mais il va falloir s'y faire Lance-pierre déjà dans le sac, mais ouais le bizutage Ils apprendront comme leurs mamans que je vise toujours au visage Grandir, c'est se rendre compte qu'on ne peut plus dire pouce L'école est finie, on ne se reverra pas tous</t>
+          <t>x2 Salut les copains, et à l'année prochaine Allongés sur la pelouse, on regarde le soleil Ouais ! En route pour la vie ! Par ici la sortie, l'école est finie ! Mais comment ça ? Il doit y avoir une erreur Je ferai de mon mieux mais je ne peux pas passer en établissement supérieur Laissez-moi une chance, figez cette photo, annulez ce conseil de classe Au mois de Septembre, on recommence tous aux mêmes places Rendez vous compte, fini l'école buissonière Et les heures de colle, soyons rationnels Les disparitions de cartable, les antisèches sous la table Les plans marave, et les cours de français passionnels Désinfectez, les insectes infectent votre réfectoire Et marquez d'une croix et d'un cercle la onzième lettre de votre répertoire Sur l'écorce d'un arbre centenaire que tous les élèves connaissent Un chiffre, nos noms et une promesse Nous n'oublierons jamais l'unique dortoir, les filles, l'unique doctoresse L'unique cour d'école, et surtout les uniques camarades de notre unique jeunesse J'passe au collège avec mes six collègues Tourne notre manège mais sans Charly Oleg fin d'année J'irai au cour ... ant d'air façon Eole Damné, en classe de musique j'ai toujours eu que des bémols C'est fini le rap de récré, je passe au rap de rue Comme Jésus disait croyez-moi, travailler ça me tue Alors vive les vacances, oublie trimestre, bulletin et infernale cadence J'vois de la catin qui danse quand Juju s'dilate A l'idée de leurs lèvres pulpeuses comme le cul d'un primate Mais aussi sûr que Mamie ne passera pas l'été Juré, craché, on sera tous là à la rentrée x2 Salut les copains, et à l'année prochaine Allongés sur la pelouse, on regarde le soleil Ouais ! En route pour la vie ! Par ici la sortie, l'école est finie ! L'école, c'est ni-fi, que demander de plus que le début des cances-va ? Et danses d'ambiance de fin d'année, béni le temps est venu de se dire Celui de quitter ce pensionnat dans la prairie A la trée-ren, des nouvelles aventures nous attendent En marge de nos vies scolaires respectives, on a tous rendez-vous avec l'inconnu Sexe, drogues et hip-hop, au cinoche sans les rents-pa En mémoire de jadis, prêtons sermont sur l'honneur Que ce ne soit pas un adieu mais qu'un au revoir Non, ce n'est pas un adieu, juste un au revoir Seuls les redoublants se reverront à la trée-ren T'as vu ? Maintenant j'suis grand, j'parle un argot verlan Gérard Baste, le dernier samaritain mais le premier de la classe A avoir des poils, 10 ans et demi et déjà une petite moustache Nouvelle démarche décalquée sur Aldo, la classe J'veux voir les fesses de la maîtresse avant qu'on trace pour le CES Fumer des clopes et sécher l'EPS Technologie de pointe, walkman auto-reverse Jean neige, trop d'revers au dessus des Converse Ici c'est All Star Klub des 7 Et j'troque mon tatontan's contre un sac US Où j'écrirais plein d'noms d'groupes de hard Que j'connais même pas comme sur ma collec' de badges Ohé ohé, une dernière goutte pour le goûter de fin d'année Sors le Docteur Maboul, fais péter le Savane et le Fruité On va se quitter mais on se retrouvera vite Et j'vous invite tous au Quick prendre une dernière frite Violeur de note en série, tellement de zéros pointés Un homme averti en vaut deux, donc pas sept mais un millier Comme Papy, Mamie, je parle beaucoup au passé Collectionneur d'images jaunies mais aussi de regrets Je n'aurais pas dit à Corinne à quel point je l'aimais Et en même temps je ne sais pas si ses seins vont pousser Il paraît qu'au collège les classes changent pour les matières Cela va faire des siestes plus courtes mais il va falloir s'y faire Lance-pierre déjà dans le sac, mais ouais le bizutage Ils apprendront comme leurs mamans que je vise toujours au visage Grandir, c'est se rendre compte qu'on ne peut plus dire pouce L'école est finie, on ne se reverra pas tous</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3470,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Intro Ok now we're here on good ol' boy radio 109.77 Hearing the new track by Gérard Baste that's me And if you didn't hear this song before Well you really missed something in your life And it's a damn shame you ask me Couplet n1 Je suis revenu du rap game J'étais allé faire un tour J'ai vu des bons, des cons, des faux J'ai vu des vautours J'ai vu des suiveurs J'ai vu des centaines de veaux Prêts à revendre leurs daronnes Pour quelques centaines d'euros Pourquoi ils veulent tous faire la même chiasse? Ils ont les mêmes beats J'ai regardé leurs clips ils payent les mêmes biatchs Il serait peut-être temps de passer un cap igo J'ai impression que la trap C'est un peu l'attrape-nigauds Et je les vois faire du rap technique Pour parler de leur technique Comme les puceaux qui se branlent en se disant Putain j'ai une belle bite C'est le syndrome du verre vide Et s'ils n'en ont pas conscience Je vais leur rappeler le vrai truc Les petits ont pris la confiance J'viens mettre des patatates Les foutre à quatre patatates Mets deux balles dans le juke-box Et ça fera ratatat Ils se disent rappeurs Mais ce sont que des wacks Je les écoute kicker J'entends juste Shoobeedoowap You might also likeRefrain Shoobeedoowapwap Shoobeedoowap x3 Je les écoute rapper J'entends juste Shoobeedoowap Shoobeedoowapwap Shoobeedoowap x3 J'entends juste Shoobeedoowap And with the miracle of time, we're now here for face 2 Couplet n2 Face 2, j'sais pas crétin Si tu t'rends compte J'parle d'ceux Dont le rap est un tissu de mensonges Ils ont des voiture de sports louées Des armes en polystyrène Mais faut pas prendre les V6 pour des lanternes J'regarde ces hispters J'les appelle les chipsters J'les bouffe par paquet Leur public c'est les ados Et leurs ptites soeurs Je crois que j'suis trop vieux pour ce jeu Jumanji J'ai failli me facher Ils ont de la chatte Bunani J'débarque avec le flow d'un tsunami J'laisse la foule ravie Et ta moule flapie Je suis sur la route toute l'année Je les ai pas croisés Je suis dans le club Ils sont dans le club Dorothée On a perdu trop de temps A écouter leurs blagues Si on trouvait juste le moyen D'écourter leurs vannes Ils racontent leur life Mais mec ils racontent des cracks Je les écoute jacter j'entends juste Shoobeedoowap Refrain Outro I'm hearding them saying</t>
+          <t>Intro Ok now we're here on good ol' boy radio 109.77 Hearing the new track by Gérard Baste that's me And if you didn't hear this song before Well you really missed something in your life And it's a damn shame you ask me Couplet n1 Je suis revenu du rap game J'étais allé faire un tour J'ai vu des bons, des cons, des faux J'ai vu des vautours J'ai vu des suiveurs J'ai vu des centaines de veaux Prêts à revendre leurs daronnes Pour quelques centaines d'euros Pourquoi ils veulent tous faire la même chiasse? Ils ont les mêmes beats J'ai regardé leurs clips ils payent les mêmes biatchs Il serait peut-être temps de passer un cap igo J'ai impression que la trap C'est un peu l'attrape-nigauds Et je les vois faire du rap technique Pour parler de leur technique Comme les puceaux qui se branlent en se disant Putain j'ai une belle bite C'est le syndrome du verre vide Et s'ils n'en ont pas conscience Je vais leur rappeler le vrai truc Les petits ont pris la confiance J'viens mettre des patatates Les foutre à quatre patatates Mets deux balles dans le juke-box Et ça fera ratatat Ils se disent rappeurs Mais ce sont que des wacks Je les écoute kicker J'entends juste Shoobeedoowap Refrain Shoobeedoowapwap Shoobeedoowap x3 Je les écoute rapper J'entends juste Shoobeedoowap Shoobeedoowapwap Shoobeedoowap x3 J'entends juste Shoobeedoowap And with the miracle of time, we're now here for face 2 Couplet n2 Face 2, j'sais pas crétin Si tu t'rends compte J'parle d'ceux Dont le rap est un tissu de mensonges Ils ont des voiture de sports louées Des armes en polystyrène Mais faut pas prendre les V6 pour des lanternes J'regarde ces hispters J'les appelle les chipsters J'les bouffe par paquet Leur public c'est les ados Et leurs ptites soeurs Je crois que j'suis trop vieux pour ce jeu Jumanji J'ai failli me facher Ils ont de la chatte Bunani J'débarque avec le flow d'un tsunami J'laisse la foule ravie Et ta moule flapie Je suis sur la route toute l'année Je les ai pas croisés Je suis dans le club Ils sont dans le club Dorothée On a perdu trop de temps A écouter leurs blagues Si on trouvait juste le moyen D'écourter leurs vannes Ils racontent leur life Mais mec ils racontent des cracks Je les écoute jacter j'entends juste Shoobeedoowap Refrain Outro I'm hearding them saying</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3487,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>On m'dit souvent que dans mes textes je n'parle que d'sexe et de foncedé Mais loin d'être véx', je suis flatté car en effet C'est le journal du hard, l'inspiration numéro uno Et Raven la muse de Jojo, God Damn J'aime le porno accompagné d'un bédo, bien chargé en Aca-pulco Mon immeuble fait des pétitions Sous prétexte que j'enfume la maison, et que ça sent pas bon Mais bon, faut pas m'prendre pour un con, j'fume que d'la qualité Peux-tu me dire comment ça peut puer Alors que l'odeur, sortie tout droit du bled Réveillerait un mort, pour lui faire danser l'smurf en indoor à Bercy J'aime la sensi, oui merci, petit soit gentil de faire passer le spliff par ici Réhabiliter les doobies prohibés comme Bob c'est mon job Je gave les zouaves et zig-zag sur la zique et ris là Crois-tu qu'l'eau s'est bénite dans la pipe par la grâce du Pape Le Kink-Kong du bong bondit sur un beat de conga, bois donc ton Banga Je tourne au jaja, à la ganja, vive la java, fais la fiesta, pas la siesta ! pas la siesta ! Si le tabac t'abat n'appelle pas Tabatha Basta ! Baste hausse les basses Mets tes ADIDAS, et bascule avec moi J'ai l'calumet qui va t'calmer une seconde J'vais t'secouer au Shoobang Tire une taffe et ta tête fait z'booong Tu fais la teufê sous skunk bong Bambino ! Scotche tes babines au bambou Remplis tes bajoues mais s'te plaît bave pas partout Car le Svinkels pratique le Skonk Fonk chouchou façon Hong Kong fufu ! You might also like x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas dur d'la feuille quand le Svink se met en pétard Kiffe mon Skonk Fonk J'stoppe la pagaille Quand j'débarque sur mon chariot chargé dpaille Les payes braillent j'veux un joint!, roules-en-un Le Svink grille le business du coupeur, prend peur dvant ma qualité Même sur sa fille, mon pot smoking fait de l'effet Black Domina, met la pression M'donne l'impression d'être dans une sale situation Situons l'action Cave claustro, trop d'vapeur, trop d'bad boy, trop karglo Mon joint de skonk Qui fond dans la bouche Et me douche les dents du fond alors que baignent quelques touches de Funk qui se confondent Me fendent, j'en louche et bigle sur le bong Sur les ondes, le Svinkels En son nombre, bien à l'ombre Pas nombril du monde, gronde groove et prône l'underground Je concocte un cône de skonk, fonds fonchi Bouffon, monkey, j'suis fonkey L'Orange Bud et ma Budweiser, tu te bad Weasel Flic ! Tu me confisques ma skonk pour prévenir à ce qu'on n'se fixe Mais le Svinkels fonde le Skonk Bang Contre les condés qui confondent Draguer dur la drogue douce Et adhérer dare-dare à la drogue dure Tu piétines ma verdure, faudrait pas qu'ça perdure Huuum! Cette pipe va droite au but Plus brutal que les caresses buccales d'une pute, du quartier rouge Cherche pas la Jack Herer quand je m'porte acquéreur D'cette végétale terreur Comme Rika Zaraï sous un rail de déchets toxiques J'allie l'naturel au chimique J'dépasse les doses homéopathiques qu'on m'avait prescrites J'ai pas d'limite à la santé par les plantes aromatiques Vive la médecine douce Donc je remercie les chercheurs Qui ont mis en valeur la beu-her dans leur labeur J'salive devant une bonne Sativa ou Indica! Et j'indique à mes potes Cannabis Repetita Joins-toi à nous quand le Svin-kels se met.. en pétard Joins-toi à nous quand le Svin-kels se met.. en pétard Sorti toujours chargé, dangereux et prêt à tuer Le gun est un shilom et la fumée sort du barillet J'vais capter mon barrio, la puros me cogne le cerveau Sous télé qué-blo, m'donne des visions Impossible de suivre le fil rouge de l'émission Une émission d'bon son, chargé ambiance keu-skon J'la kiffe comme une sucrerie J'en connais plus d'un qu'envie mon style de vie Fumer des bongs, boire des bocks, font des lyrics et des locks Ton époque délire, les délits font des loques Choque les bollocks collés en bloc de douze T'as l'blues en loosedé j'prône l'Europe des 12 grammes Ramène du flouze, brave la douane Mets-leur des doigts, aller-r'tour Paname-Amsterdam Amsterdam, pique-toi, écoule des grammes Et bourres et bourres-en tes tam-tam J'veux de la bombe Pour moi c'est chronique, de la grosse bombe atomique De skonk qui m'nique comme c'fist fonk fils J'veux qu'elle poisse comme du réglisse, qu'elle suinte Dans ma fente à stick pleine de feintes Lève ta pinte en l'honneur de cette plante venue d'ailleurs Que j'kiffe avec un bon vieil Earth, Wind Fire, la meilleure Ouais tu peux tèje tous tes vieux clopes ringards Maintenant qu'l'herbe pousse dans les placards x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas dur d'la feuille quand le Svink se met en pétard Kiffe mon Skonk Fonk</t>
+          <t>On m'dit souvent que dans mes textes je n'parle que d'sexe et de foncedé Mais loin d'être véx', je suis flatté car en effet C'est le journal du hard, l'inspiration numéro uno Et Raven la muse de Jojo, God Damn J'aime le porno accompagné d'un bédo, bien chargé en Aca-pulco Mon immeuble fait des pétitions Sous prétexte que j'enfume la maison, et que ça sent pas bon Mais bon, faut pas m'prendre pour un con, j'fume que d'la qualité Peux-tu me dire comment ça peut puer Alors que l'odeur, sortie tout droit du bled Réveillerait un mort, pour lui faire danser l'smurf en indoor à Bercy J'aime la sensi, oui merci, petit soit gentil de faire passer le spliff par ici Réhabiliter les doobies prohibés comme Bob c'est mon job Je gave les zouaves et zig-zag sur la zique et ris là Crois-tu qu'l'eau s'est bénite dans la pipe par la grâce du Pape Le Kink-Kong du bong bondit sur un beat de conga, bois donc ton Banga Je tourne au jaja, à la ganja, vive la java, fais la fiesta, pas la siesta ! pas la siesta ! Si le tabac t'abat n'appelle pas Tabatha Basta ! Baste hausse les basses Mets tes ADIDAS, et bascule avec moi J'ai l'calumet qui va t'calmer une seconde J'vais t'secouer au Shoobang Tire une taffe et ta tête fait z'booong Tu fais la teufê sous skunk bong Bambino ! Scotche tes babines au bambou Remplis tes bajoues mais s'te plaît bave pas partout Car le Svinkels pratique le Skonk Fonk chouchou façon Hong Kong fufu ! x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas dur d'la feuille quand le Svink se met en pétard Kiffe mon Skonk Fonk J'stoppe la pagaille Quand j'débarque sur mon chariot chargé dpaille Les payes braillent j'veux un joint!, roules-en-un Le Svink grille le business du coupeur, prend peur dvant ma qualité Même sur sa fille, mon pot smoking fait de l'effet Black Domina, met la pression M'donne l'impression d'être dans une sale situation Situons l'action Cave claustro, trop d'vapeur, trop d'bad boy, trop karglo Mon joint de skonk Qui fond dans la bouche Et me douche les dents du fond alors que baignent quelques touches de Funk qui se confondent Me fendent, j'en louche et bigle sur le bong Sur les ondes, le Svinkels En son nombre, bien à l'ombre Pas nombril du monde, gronde groove et prône l'underground Je concocte un cône de skonk, fonds fonchi Bouffon, monkey, j'suis fonkey L'Orange Bud et ma Budweiser, tu te bad Weasel Flic ! Tu me confisques ma skonk pour prévenir à ce qu'on n'se fixe Mais le Svinkels fonde le Skonk Bang Contre les condés qui confondent Draguer dur la drogue douce Et adhérer dare-dare à la drogue dure Tu piétines ma verdure, faudrait pas qu'ça perdure Huuum! Cette pipe va droite au but Plus brutal que les caresses buccales d'une pute, du quartier rouge Cherche pas la Jack Herer quand je m'porte acquéreur D'cette végétale terreur Comme Rika Zaraï sous un rail de déchets toxiques J'allie l'naturel au chimique J'dépasse les doses homéopathiques qu'on m'avait prescrites J'ai pas d'limite à la santé par les plantes aromatiques Vive la médecine douce Donc je remercie les chercheurs Qui ont mis en valeur la beu-her dans leur labeur J'salive devant une bonne Sativa ou Indica! Et j'indique à mes potes Cannabis Repetita Joins-toi à nous quand le Svin-kels se met.. en pétard Joins-toi à nous quand le Svin-kels se met.. en pétard Sorti toujours chargé, dangereux et prêt à tuer Le gun est un shilom et la fumée sort du barillet J'vais capter mon barrio, la puros me cogne le cerveau Sous télé qué-blo, m'donne des visions Impossible de suivre le fil rouge de l'émission Une émission d'bon son, chargé ambiance keu-skon J'la kiffe comme une sucrerie J'en connais plus d'un qu'envie mon style de vie Fumer des bongs, boire des bocks, font des lyrics et des locks Ton époque délire, les délits font des loques Choque les bollocks collés en bloc de douze T'as l'blues en loosedé j'prône l'Europe des 12 grammes Ramène du flouze, brave la douane Mets-leur des doigts, aller-r'tour Paname-Amsterdam Amsterdam, pique-toi, écoule des grammes Et bourres et bourres-en tes tam-tam J'veux de la bombe Pour moi c'est chronique, de la grosse bombe atomique De skonk qui m'nique comme c'fist fonk fils J'veux qu'elle poisse comme du réglisse, qu'elle suinte Dans ma fente à stick pleine de feintes Lève ta pinte en l'honneur de cette plante venue d'ailleurs Que j'kiffe avec un bon vieil Earth, Wind Fire, la meilleure Ouais tu peux tèje tous tes vieux clopes ringards Maintenant qu'l'herbe pousse dans les placards x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas dur d'la feuille quand le Svink se met en pétard Kiffe mon Skonk Fonk</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3504,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>It's been a long time, get re-acquainted with the world famous You know how on point my aim is Long range sniper's, clash of the titan's, chrome pipen' In this 300 like Leonidas Snub in the bubblegoose, riding down the interstate Where fiends put them needles in they arm and let 'em penetrate Leanin' sideways with my fitted straight The 27's on point, the paint job a New York minute late Check my Audemar, no cloud's in my stones Project's ringin', standin' by the corner store Two Glocks on me, BANG BANG if you wanna war That was '05, now we ballin' on this tour Screamin' out Thug Life, pourin' Belve on ya whore Money I'm involved with it, wake up and ball with it KobeGasol with it, uncut raw with it Chop bricks take trips ot Before I had a goatee, I used to bag the Oz Yeah, fish-scale nigga, What up Ghost!? Then stash 'em by the oak tree, move it by the coke leaf Drama let the llama Knick niggas like Charles Oakley Nigga don't insult me, I banana boat B.R.C.K.S.'s And stuff 'em in the Lexus I'm sitting fat like Precious, Christ up on the necklace And I keep them clips on a dresser Yes sir, I'm bout to ball, Louis bag the fuckin' mall Bitches, money and fast cars, nigga I want it all Yeah, word to my kids nigga, I want it all Nascar Game, why the fuck would I stall!? I'm the franchise nigga, Chris fucking Paul! Empty out the cannon hit ya bitch, you the truck and all Withdrawal 200 thousand, and then FUCK it off! King of the hill, gotta dime bitch cuttin' raw She bagged the last nick', I unzip, she suck it soft Black Superman, yeah, I'm above the law I put this hollowtip a quarter inch above ya jaw Eat out a FUCKIN' straw! Blindfold your bitch toss her in the trunk After the first 48 that bitch smellin' like a skunk It's a wrap, I rap, when I wrap the punk Throw me in the gang module and tell 'em wrap the bunks The breakfast club nigga, no Captain Crunch This for my dog nigga's that eat cat's for lunch I'm hungry like I ain't trapped in month's So nigga act and stunt, my Glock pack a punch Or I can Heckler-Koch, and seal your pine box Leave your head wrapped for months, while I pass the blunt To my niggas, we all Roc'd out, what's up Jigga? Sometimes I be in BK, with Fab' on the freeway Lincoln Continental and I copped it off a eBay I pop cham. like it's my b-day, horse power Under my hood like it's an olympic relay My flow right on time, no delay I raise a million dollars, send it off to Chile Word to my red cross, I don't fuck with the Red Cross I'm All-Madden nigga, EA, I'm in VA Money talks with Dre and Pharrell on 3-Way Them 28's, that's my DJ, they spinning shit When I took trips OT, I never rented shit I just drop then cop, and then I tinted shit Diddy and Mike Epps, I'm All About The Benjamins In it for the benefits, I'll be down in Ten to 6 Tell 'em get me a Porterhouse and some eggs-Benedict Damn that was good, but I'm still hungry And I'm living it, I be out in Venice, shit They say Weezy-Jordan, nigga I'm on my Pippen shit They say Drake-Lebron, I'm on my Moe Williams shit If T.I.P. is Kobe then fuck it, I'm Derek Fisher, shit! Long as I'm in the starting five, I'm a get it in Cause I promised the city of Compton, I would get it in! I was OutKast'd... Andre Benjamin Now I slide through with my Dominican woman friend She like puttin' No Ceilings in, yeah Giuseppe Heels, expensive wines, Perri seal It ain't tricking, I just spend money on cheap thrills Big Phantom's, sweet wheels Back seat like a club, make them bitches eat pills Take Patrone shots to the purse with chrome Glocks Jay Electronica, this a dome shot So I had to steal it, nigga I had the kill it! I was the turtle in the race, I made the rabbit feel it! Yeah, keep runnin' nigga Housing by the subway, feel it through the projects Come through the Murcialago, a foreign object Number one prospect, the day that I was drafted Aftermath-matic unleashed a fuckin' bastard! Don't respect none of you niggas, get in the casket! Talking ratchets, never touched a fuckin' automatic Drama this is tragic, put it in the plastic 88 bars and runnin', throw it with my other classics Drama you should've warned these niggas, I'm bout to kill 'em Yeah, trash bag it, this is crack And I know you been fiendin' for this, come get your packs I do it for the music nigga, fuck the Plaques Ain't on no beef shit, but it's still FUCK the rats! And when I'm in New York, I set a bunch of traps Put the cheese where they can see it, and if you stunt, you clapped Catch 'em in the club, that's when I stomp 'em flat Nigga get up after that, go get a fucking bat I tell you bout these fucking rats! They either snitch or bend over to catch No matter how you look at it, I hate fucking rats! Get my bottle of Ciroc and I twist the cap Sit back watch the NBA play-offs and roll a bat Yeah, real fat, yeah, all I do is stack bread In the hood on the wall like a fucking Phathead Two nines on your back, Warren Sapp, yeah! This my block and you niggas can't trap here Unless you wanna get clapped here, head wrapped, yeah I'm killing niggas, I should have a hundred tat tears Celebrate your death, toast bottles and clap beers It's gon' be a cold summer, come through like burr! The red Phantom bullshittin, the 25, Steve Kerr The beat insane, Just Blaze in this mothafucka The cars outside, the 'K is in this mothafucka I should let off a couple strays in this mothafucka Fuck that, I'm tryna get laid in this mothafucka Yo, tell your friends to get with my friends... Yeah Meet me in the parking lot, license plate Aftermath Screamin' out Fuck 50, wouldn't snitch for half his cash If he wasn't such a bitch, nobody would've had to blast They stood us down in Jacksonville, don't make me have to wrap ya Jag' Cause I rather be in Saint Tropez, unpackin bags With bitches that speak French, how you say catch a cab I don't trip Euros, I don't trip Pounds I bowlin' ball bitches, till I knock 'em all down Like the '93 Pac, I Get Around Duffles by the staircase, crack by the backdoor Navigate my way through the South, I used to trap ho All the way through Queensbidge moving packs yo Might've lost a couple friends, but I got my gat though Blast fo', my Rap foes could never stop my cash flow Had a Nike box of hundreds, when I was in that RAV4 But now I pull up in that truck with the crash board With the mag low, give you everythin you ask for Sometimes, I can be a fucking asshole In the bank with my mask on, look at this nigga A-R Don't take your fucking mask off, bitch empty out the cash drawer We on a suicide mission, but we don't give fuck Cause if we make it out, bigger house bigger truck I'm in a strip club with a Glock, nigga what!? Gimme your bitch, she got a cuter face and bigger butt I ain't gon' do shit but pour champagne on her Hit it from the back and watch half of the Laker game on her Don't put that back on, too many cum stains on it Run a train on her, call Cartoon Have 'em tattoo my name on her, Star Trak too You know what? Fuck it, Aftermath too Put a little smoke around it then take it home and pound it Helicopter outside, nigga I'm surrounded Had a spot in the Jungles till the fuckin Fed's found it Momma, your son got a public announcement I got 5 million in the walls and the couches Don't even think about it... We got cameras, dogs and guns Ask Pe-Pe, he was there, he can vouch it Throw it in the trashcan on some Oscar The Grouch shit A bunch of green popped out, time to re-route shit Settle down in Mississippi, gotta down South click And my niggas like, we ain't know all about this And any nigga ever snitch, got his fuckin' mouth fixed You get 25, he get his fuckin' throat slit Cut 'em like Filet Mignon and throw em off a boat, bitch! Feed 'em to the sharks then dock the yacht Oil in the water, damn the ocean so thick Time to finish off his niggas on some trench coat shit It's a drug war, real life, Grand Theft Catch you in the streets fuck you up and hit ya man next Come through on some retarded shit, just sprayin' techs Where my dogs at? tell 'em I'm crazier then DMX Lazier then Chinese eyes, when I'm puffin that Blueberry, I ain't talking where the muffins' at Roll up the sour diesel if you want nigga I split open the dutch, then I'm stuffin' that You should get a flight to California, come fuck with that That's all you, go ahead, hop in the truck with that Take it down in Cashville and hit Young Buck with that Don't bring nothin' back, Border Patrol cuffin that I ain't trying see the pen, and have to get my knuckles wrapped I wake up real early, keep lunchin fags This shit easy, you Rap niggas my punchin bags I got some combinations nigga, Pacquiao shit Talkin 'bout you poppin tags, talkin 'bout u poppin Cris' Where u get it poppin at? Nigga u ain't poppin shit But a X pill, as I turn the Lex' wheels I got a mean Phantom, very upset grill Tell'em why you mad son, that nigga pulled a fast one You know who you are, when I see you that's ya ass son But I'm in the club, throwin' shots like my last gun It's 2o'clock, YURR, gotta make a cash run Yo, go get the truck from around the corner, tell Wack I'll meet 'em outside Into the 7-11 bout to blast one This nigga A-R will not keep his fuckin' mask on Deal with it when we get to the crib You niggas is wildin'! Wait till we get to the crib And split this fuckin' money up Hit the block and dummy up Shave the onion, slice it down the middle, that's a tummy tuck That's how we do it in Compton, FUCK the Police! Defend my hood like an NHL goalie Sometimes it's cold on these mothafuckin' streets nigga Iced out Rollie And I still remember everythin' that Dre told me Red Polo fleece, sippin on that O.E Never been to jail cause I never had a cold D Do it just like the O.G.'s Cut the Impala in half, insert the gold D's Then bounce this mothafucka till it got a slow leak Flatbed pick it up and you know me I'm goin with the car, all night, no sleep Gotta get this mothafucker back on the Strip Next day we in the red Phantom, 4 deep Kids runnin up to the car, block off the whole street It's the ice cream man like the Ol' P Cali like the Lion's o-line, it's where the holeshoes be BC runnin shit like a nose bleed Don't get it confused or screwed like Codine More swag then the niggas from the show-me That's ya bitch I'm bout to Mac her like Goldie Shit, together we can rule the world baby Blacked out Cartier, Four Season's caviar Spray a lil Diddy on it, that'll get their panties off Nigga see me in the lobby lookin like damn he soft Catch me outside where I can let this cannon off Soo to the Woo, bet I let this cannon off And put everything in the clip right where u standin, dog Ride off in a Mazi' like can I ball? For the bucks, I'm tryna get it like Brandon dog Young Money clearly NBA rookie of the year I'm still standin tall wish the Twin Towers was Take innocent lives, that's the type of shit a coward does I'm just reminiscin', smokin' on the sour, blood Take a couple more hits and pass the shit around the bus U can't tell me shit I done seen a thousand drugs Hundred rounds in ten drums, that's a thousand slugs One day I flipped the kitchen table, found a bug Kept lookin', found another one, right around the subs Ayyo, Fed's can u hear me? God damn I was takin a shit, then I seen one by the tub Feedin' my fish, there's a wire right by the rug Dumb mothafuckers this is not where they buy the drugs That's Salami in the kitchen that we fryin up The world full of bitches, all the niggas dyin' up They strechin' niggas out for crack, all the fiends tryin dust We got some mean smokers for the sack they tie u up Quarter sack and get the pound, brick burn the house down The connect ain't gon' think that shit is funny The fuck these niggas laughin at? Run up, u got some cash in that? Knock on ya momma's door, ya head sittin' in a bassinette While I'm on a G4, smokin' up half the jet All season in New York, smokin' up half the Jets 246 bars ain't broke half a sweat Just got half a mil', gave the hood half the check And I done shot it out with probly over half the 'jects Sometimes just for the love, the other half, respect That's that HOOD shit, I'm livin' GOOD bitch! Out of my mind like breakin' off half an X Movin through Hollywood faster than a bag a Meth Yup, nigga's better watch they step 'Less they in a fraternity, but that ain't concernin' me Let's get back on this ape shit, back to the basics Cold words, flip birds in the kitchen with cake mix Yeah, Betty Crocker that, then hit the block with that Cut off khakis, house shoes and a stockin' cap Hit the Swapmeet... Get me some white T's, red-tip socks My flow a 38. don't make me have to cock it back Shoot it like Olajuwon and bring the old Rocket's back Two holes in ya face where ya sockets at Bring the whole hood out and show 'em how to drop a rat They got them brand new Porsche's out, I'm coppin that V12 under the hood, ain't no stock in that Panoramic sunroof, me and this chick watchin glass My hood is like cameras in the bumper, watch ya ass Get ya ass smoked around these parts, youngin' What the fuck u thought? Ride up bangin Too Short Smoke u like a Newport, nigga this ain't New York I be in the jungle with lions or in the zoo lost Or with my wolves that's dyin' to get they tools off City Of Angels, be careful who you cross Niggas'll run in Mr.Chow's and take them fuckin' jewels off Rappin' all that goon shit, we all know that u soft A baby's ass in the Martha Stewart face cloth Or a box of cotton, stay pushed 'til your rotten So, nigga you stay on your Rap shit, while I stay on my trap shit My, bust a gat shit, Busta hit me like u wrote 400 that quick? Naw, 282 and that's just cause the track sick 120 more, welcome to the liquor store Same one that frog sent me, lil' nigga get the raw And I did it, Cedar Block, I'm with it Who you think got all these niggas in them Cincinnati fitted's? Yeah, took America and Ken Griffey'd that 7-5-8's, throw on my crown, throw on my khakis Then brush the Nike's down Jump in the 'Lac and push to Nike town Where Them Space Jam's? I need 'em right NOW! Jordan sweatsuit on, OH Let's Do It! Go Wocka Flocka on them nigga's in these new kicks You know how that go, new kick's, new whip Blue 6, loc'in on the set like a new Crip That line was so crazy I had to say that shit, Blood Interior coke white, smooth like Cool Whip Sold the shit to Rick Ross, 80 thou', a cool flip Then I got that vibrant thing, my lil' Q-tip That Maserati a problem, especially with the dual shift 0 to 60, and WHOO! It's like a mule kick I swear to God like the preacher in the pool pit Speakin of pools, mine heated, come through bitch Long as it's La Perla, I don't care who you come through with Canadian, Spanish, French, nigga whatever! Minage in the deep end, head on the back end I wanna fuck the Asian bitch, next time leave your fat friend Why the fuck y'all in the Honda all packed in? Headed to Inglewood, say wassup to Mack 10 Say wassup to Glock 9, I'm back on you nigga's heads L.A. would be a ghost-town if I wanted nigga's dead Run with my Goon Squad cause more than half you nigga's Fed's It's either that, you ATF or one of 50's friend's I see the wires hangin' out you nigga's Levi's Well fuck it though cause the nigga did let me in But he ain't wanna see the Game in HD on ESPN I think the boy's John-in', we was the best of friends Then shit flipped, went to his holmes like I was Mexican We all know the rest, put the burner to his chest Hit him with 300 Bars and let the streets do the rest Yes! Terror is over you can eat now, JayceonJason killed Freddy The WHOLE world can SLEEP now! Dream-snatcher, that's ME now Take your money lay yo' bitch ass on the beach now I can see it, a G-Unit beach towel Another man on it, ya'll 'bout to tan on it? Send some lil' goons by to kick some fuckin' sand on it We ain't watchin', go 'head nigga, jam on it Damn homie in high school you was the man homie You was lucky in Manhattan, the clip jammed But come to Cali you a moose in some quicksand Sink nigga, like a fuckin' boat with bullet-holes in it Buttersoft Banks, you a bitch man Me and you was cool 'til 50 unscrewed your kickstand And Yayo, turn in your senior citizen wristband Slap the shit out you for LilHenchman And just like the old days, I play the bench man Dre play the big hand, I'm cool with the 6th man Never selfish nigga, I'm eatin shellfish nigga My legacy will never die, the black Elvis nigga Come check me out in Graceland nigga, pull the guitar out and e'rrything Glock by my pelvis, clip by the waistline On the block like Chris Bosh, shoot it from the baseline We at the 350 mark, it's break time Ayyo, go get the L out the car man... Naw, this Purple Haze nigga, I'm 'bout to roll this shit up Get high nigga, finish this mothafuckin' 400 Barz Naw, my key's right there... By that, by that, Cocunut Ciroc... Yeah, Let's Go Yo, and tell The Runners I'm hungry man Get me some Frech Toast, Bacon and shit Run up on you with 50 bean's and 50 chef's Niggas thinkin' it's a game, tryna push select Call a time out, like I'm OUT! All these soft ass Rappers fakin' the crime route Niggas got real quiet now that Shyne out Don't make me smuggle 'em outta Belize and pull them 9's out Niggas scared now, my Goon Squad here now We turnin' on the headlights and runnin over deer's now Yeah... All up in the wood's, what's good!? And I'm the only one you Rap niggas should fear now You see a G-Unit poster, you better tear it down I'm talkin' to you mothafucker, so turn around The beef forever lives, never ever put ya burner down I beat the shit out these niggas, they Tina Turner now Stripped of their manhood, ass naked like they Shermin' out While I peel the top on the block and just burn it out Hit the strip club with my niggas and just turn it OUT! Ayyo, that's Jeezy mothafuckin' Lambo'? Shit cold nigga They got free hot wings, they bringin full serving's out It's all good, we straight, time to perm' it out Katt Williams, run up in ya house, tie you up And make you watch while we run through your spouse Rip off her fuckin' blouse! Tiger Woods been in this? No thank you, pass that bitch to Menace Get what I came for, stuff it inside the Range doors 380 bars and get ready for the main course Yo, gimme a couple of them napkins, a salad fork... I'm starvin' nigga! June 15th, one of us gotta change course But not the one that spit 400, blunt'd and ain't hoarse 8 plaques on the wall, hang yours Before you get one, I'll probly have 8 more It never been about the money with me Just been about tryna get my nigga somethin' to eat Take 'em on a couple of tours, get 'em somethin' to beat Never satisfied, that's why we keep the gun's on his feet Yeah... All I know is block's, Glock's and Ciroc... Let's Get It! Who got a blunt I can chief? Nigga's runnin around like Indians But near not one of'em chief Killa California, I'm just one of the beasts Take a fuckin' blood bath and bathe myself with the beefUHH! It's the home stretch but I ain't even home yet Only thing can stop me, is ME, I'm my own threat Eatin' Lobster's, writin' Al Capone checks I still ain't on the level of N.O.R.E. or Capone yet Nigga's gon' learn, respect the veteran's... Nigga, apologize to Cube But after this year, and after this here Niggas won't see the throne for another 6 years P.S. mothafucker, ain't no bitch here! I'm goin' out the same way I came in, 5th gear I see the finish line, SHIT YEAH! It's time to celebrate, Kanary bring that Cris' here Sticks tell Crack bring the car around the back 400 and 6 bars... BITCH, it's a WRAP!You might also like5</t>
+          <t>It's been a long time, get re-acquainted with the world famous You know how on point my aim is Long range sniper's, clash of the titan's, chrome pipen' In this 300 like Leonidas Snub in the bubblegoose, riding down the interstate Where fiends put them needles in they arm and let 'em penetrate Leanin' sideways with my fitted straight The 27's on point, the paint job a New York minute late Check my Audemar, no cloud's in my stones Project's ringin', standin' by the corner store Two Glocks on me, BANG BANG if you wanna war That was '05, now we ballin' on this tour Screamin' out Thug Life, pourin' Belve on ya whore Money I'm involved with it, wake up and ball with it KobeGasol with it, uncut raw with it Chop bricks take trips ot Before I had a goatee, I used to bag the Oz Yeah, fish-scale nigga, What up Ghost!? Then stash 'em by the oak tree, move it by the coke leaf Drama let the llama Knick niggas like Charles Oakley Nigga don't insult me, I banana boat B.R.C.K.S.'s And stuff 'em in the Lexus I'm sitting fat like Precious, Christ up on the necklace And I keep them clips on a dresser Yes sir, I'm bout to ball, Louis bag the fuckin' mall Bitches, money and fast cars, nigga I want it all Yeah, word to my kids nigga, I want it all Nascar Game, why the fuck would I stall!? I'm the franchise nigga, Chris fucking Paul! Empty out the cannon hit ya bitch, you the truck and all Withdrawal 200 thousand, and then FUCK it off! King of the hill, gotta dime bitch cuttin' raw She bagged the last nick', I unzip, she suck it soft Black Superman, yeah, I'm above the law I put this hollowtip a quarter inch above ya jaw Eat out a FUCKIN' straw! Blindfold your bitch toss her in the trunk After the first 48 that bitch smellin' like a skunk It's a wrap, I rap, when I wrap the punk Throw me in the gang module and tell 'em wrap the bunks The breakfast club nigga, no Captain Crunch This for my dog nigga's that eat cat's for lunch I'm hungry like I ain't trapped in month's So nigga act and stunt, my Glock pack a punch Or I can Heckler-Koch, and seal your pine box Leave your head wrapped for months, while I pass the blunt To my niggas, we all Roc'd out, what's up Jigga? Sometimes I be in BK, with Fab' on the freeway Lincoln Continental and I copped it off a eBay I pop cham. like it's my b-day, horse power Under my hood like it's an olympic relay My flow right on time, no delay I raise a million dollars, send it off to Chile Word to my red cross, I don't fuck with the Red Cross I'm All-Madden nigga, EA, I'm in VA Money talks with Dre and Pharrell on 3-Way Them 28's, that's my DJ, they spinning shit When I took trips OT, I never rented shit I just drop then cop, and then I tinted shit Diddy and Mike Epps, I'm All About The Benjamins In it for the benefits, I'll be down in Ten to 6 Tell 'em get me a Porterhouse and some eggs-Benedict Damn that was good, but I'm still hungry And I'm living it, I be out in Venice, shit They say Weezy-Jordan, nigga I'm on my Pippen shit They say Drake-Lebron, I'm on my Moe Williams shit If T.I.P. is Kobe then fuck it, I'm Derek Fisher, shit! Long as I'm in the starting five, I'm a get it in Cause I promised the city of Compton, I would get it in! I was OutKast'd... Andre Benjamin Now I slide through with my Dominican woman friend She like puttin' No Ceilings in, yeah Giuseppe Heels, expensive wines, Perri seal It ain't tricking, I just spend money on cheap thrills Big Phantom's, sweet wheels Back seat like a club, make them bitches eat pills Take Patrone shots to the purse with chrome Glocks Jay Electronica, this a dome shot So I had to steal it, nigga I had the kill it! I was the turtle in the race, I made the rabbit feel it! Yeah, keep runnin' nigga Housing by the subway, feel it through the projects Come through the Murcialago, a foreign object Number one prospect, the day that I was drafted Aftermath-matic unleashed a fuckin' bastard! Don't respect none of you niggas, get in the casket! Talking ratchets, never touched a fuckin' automatic Drama this is tragic, put it in the plastic 88 bars and runnin', throw it with my other classics Drama you should've warned these niggas, I'm bout to kill 'em Yeah, trash bag it, this is crack And I know you been fiendin' for this, come get your packs I do it for the music nigga, fuck the Plaques Ain't on no beef shit, but it's still FUCK the rats! And when I'm in New York, I set a bunch of traps Put the cheese where they can see it, and if you stunt, you clapped Catch 'em in the club, that's when I stomp 'em flat Nigga get up after that, go get a fucking bat I tell you bout these fucking rats! They either snitch or bend over to catch No matter how you look at it, I hate fucking rats! Get my bottle of Ciroc and I twist the cap Sit back watch the NBA play-offs and roll a bat Yeah, real fat, yeah, all I do is stack bread In the hood on the wall like a fucking Phathead Two nines on your back, Warren Sapp, yeah! This my block and you niggas can't trap here Unless you wanna get clapped here, head wrapped, yeah I'm killing niggas, I should have a hundred tat tears Celebrate your death, toast bottles and clap beers It's gon' be a cold summer, come through like burr! The red Phantom bullshittin, the 25, Steve Kerr The beat insane, Just Blaze in this mothafucka The cars outside, the 'K is in this mothafucka I should let off a couple strays in this mothafucka Fuck that, I'm tryna get laid in this mothafucka Yo, tell your friends to get with my friends... Yeah Meet me in the parking lot, license plate Aftermath Screamin' out Fuck 50, wouldn't snitch for half his cash If he wasn't such a bitch, nobody would've had to blast They stood us down in Jacksonville, don't make me have to wrap ya Jag' Cause I rather be in Saint Tropez, unpackin bags With bitches that speak French, how you say catch a cab I don't trip Euros, I don't trip Pounds I bowlin' ball bitches, till I knock 'em all down Like the '93 Pac, I Get Around Duffles by the staircase, crack by the backdoor Navigate my way through the South, I used to trap ho All the way through Queensbidge moving packs yo Might've lost a couple friends, but I got my gat though Blast fo', my Rap foes could never stop my cash flow Had a Nike box of hundreds, when I was in that RAV4 But now I pull up in that truck with the crash board With the mag low, give you everythin you ask for Sometimes, I can be a fucking asshole In the bank with my mask on, look at this nigga A-R Don't take your fucking mask off, bitch empty out the cash drawer We on a suicide mission, but we don't give fuck Cause if we make it out, bigger house bigger truck I'm in a strip club with a Glock, nigga what!? Gimme your bitch, she got a cuter face and bigger butt I ain't gon' do shit but pour champagne on her Hit it from the back and watch half of the Laker game on her Don't put that back on, too many cum stains on it Run a train on her, call Cartoon Have 'em tattoo my name on her, Star Trak too You know what? Fuck it, Aftermath too Put a little smoke around it then take it home and pound it Helicopter outside, nigga I'm surrounded Had a spot in the Jungles till the fuckin Fed's found it Momma, your son got a public announcement I got 5 million in the walls and the couches Don't even think about it... We got cameras, dogs and guns Ask Pe-Pe, he was there, he can vouch it Throw it in the trashcan on some Oscar The Grouch shit A bunch of green popped out, time to re-route shit Settle down in Mississippi, gotta down South click And my niggas like, we ain't know all about this And any nigga ever snitch, got his fuckin' mouth fixed You get 25, he get his fuckin' throat slit Cut 'em like Filet Mignon and throw em off a boat, bitch! Feed 'em to the sharks then dock the yacht Oil in the water, damn the ocean so thick Time to finish off his niggas on some trench coat shit It's a drug war, real life, Grand Theft Catch you in the streets fuck you up and hit ya man next Come through on some retarded shit, just sprayin' techs Where my dogs at? tell 'em I'm crazier then DMX Lazier then Chinese eyes, when I'm puffin that Blueberry, I ain't talking where the muffins' at Roll up the sour diesel if you want nigga I split open the dutch, then I'm stuffin' that You should get a flight to California, come fuck with that That's all you, go ahead, hop in the truck with that Take it down in Cashville and hit Young Buck with that Don't bring nothin' back, Border Patrol cuffin that I ain't trying see the pen, and have to get my knuckles wrapped I wake up real early, keep lunchin fags This shit easy, you Rap niggas my punchin bags I got some combinations nigga, Pacquiao shit Talkin 'bout you poppin tags, talkin 'bout u poppin Cris' Where u get it poppin at? Nigga u ain't poppin shit But a X pill, as I turn the Lex' wheels I got a mean Phantom, very upset grill Tell'em why you mad son, that nigga pulled a fast one You know who you are, when I see you that's ya ass son But I'm in the club, throwin' shots like my last gun It's 2o'clock, YURR, gotta make a cash run Yo, go get the truck from around the corner, tell Wack I'll meet 'em outside Into the 7-11 bout to blast one This nigga A-R will not keep his fuckin' mask on Deal with it when we get to the crib You niggas is wildin'! Wait till we get to the crib And split this fuckin' money up Hit the block and dummy up Shave the onion, slice it down the middle, that's a tummy tuck That's how we do it in Compton, FUCK the Police! Defend my hood like an NHL goalie Sometimes it's cold on these mothafuckin' streets nigga Iced out Rollie And I still remember everythin' that Dre told me Red Polo fleece, sippin on that O.E Never been to jail cause I never had a cold D Do it just like the O.G.'s Cut the Impala in half, insert the gold D's Then bounce this mothafucka till it got a slow leak Flatbed pick it up and you know me I'm goin with the car, all night, no sleep Gotta get this mothafucker back on the Strip Next day we in the red Phantom, 4 deep Kids runnin up to the car, block off the whole street It's the ice cream man like the Ol' P Cali like the Lion's o-line, it's where the holeshoes be BC runnin shit like a nose bleed Don't get it confused or screwed like Codine More swag then the niggas from the show-me That's ya bitch I'm bout to Mac her like Goldie Shit, together we can rule the world baby Blacked out Cartier, Four Season's caviar Spray a lil Diddy on it, that'll get their panties off Nigga see me in the lobby lookin like damn he soft Catch me outside where I can let this cannon off Soo to the Woo, bet I let this cannon off And put everything in the clip right where u standin, dog Ride off in a Mazi' like can I ball? For the bucks, I'm tryna get it like Brandon dog Young Money clearly NBA rookie of the year I'm still standin tall wish the Twin Towers was Take innocent lives, that's the type of shit a coward does I'm just reminiscin', smokin' on the sour, blood Take a couple more hits and pass the shit around the bus U can't tell me shit I done seen a thousand drugs Hundred rounds in ten drums, that's a thousand slugs One day I flipped the kitchen table, found a bug Kept lookin', found another one, right around the subs Ayyo, Fed's can u hear me? God damn I was takin a shit, then I seen one by the tub Feedin' my fish, there's a wire right by the rug Dumb mothafuckers this is not where they buy the drugs That's Salami in the kitchen that we fryin up The world full of bitches, all the niggas dyin' up They strechin' niggas out for crack, all the fiends tryin dust We got some mean smokers for the sack they tie u up Quarter sack and get the pound, brick burn the house down The connect ain't gon' think that shit is funny The fuck these niggas laughin at? Run up, u got some cash in that? Knock on ya momma's door, ya head sittin' in a bassinette While I'm on a G4, smokin' up half the jet All season in New York, smokin' up half the Jets 246 bars ain't broke half a sweat Just got half a mil', gave the hood half the check And I done shot it out with probly over half the 'jects Sometimes just for the love, the other half, respect That's that HOOD shit, I'm livin' GOOD bitch! Out of my mind like breakin' off half an X Movin through Hollywood faster than a bag a Meth Yup, nigga's better watch they step 'Less they in a fraternity, but that ain't concernin' me Let's get back on this ape shit, back to the basics Cold words, flip birds in the kitchen with cake mix Yeah, Betty Crocker that, then hit the block with that Cut off khakis, house shoes and a stockin' cap Hit the Swapmeet... Get me some white T's, red-tip socks My flow a 38. don't make me have to cock it back Shoot it like Olajuwon and bring the old Rocket's back Two holes in ya face where ya sockets at Bring the whole hood out and show 'em how to drop a rat They got them brand new Porsche's out, I'm coppin that V12 under the hood, ain't no stock in that Panoramic sunroof, me and this chick watchin glass My hood is like cameras in the bumper, watch ya ass Get ya ass smoked around these parts, youngin' What the fuck u thought? Ride up bangin Too Short Smoke u like a Newport, nigga this ain't New York I be in the jungle with lions or in the zoo lost Or with my wolves that's dyin' to get they tools off City Of Angels, be careful who you cross Niggas'll run in Mr.Chow's and take them fuckin' jewels off Rappin' all that goon shit, we all know that u soft A baby's ass in the Martha Stewart face cloth Or a box of cotton, stay pushed 'til your rotten So, nigga you stay on your Rap shit, while I stay on my trap shit My, bust a gat shit, Busta hit me like u wrote 400 that quick? Naw, 282 and that's just cause the track sick 120 more, welcome to the liquor store Same one that frog sent me, lil' nigga get the raw And I did it, Cedar Block, I'm with it Who you think got all these niggas in them Cincinnati fitted's? Yeah, took America and Ken Griffey'd that 7-5-8's, throw on my crown, throw on my khakis Then brush the Nike's down Jump in the 'Lac and push to Nike town Where Them Space Jam's? I need 'em right NOW! Jordan sweatsuit on, OH Let's Do It! Go Wocka Flocka on them nigga's in these new kicks You know how that go, new kick's, new whip Blue 6, loc'in on the set like a new Crip That line was so crazy I had to say that shit, Blood Interior coke white, smooth like Cool Whip Sold the shit to Rick Ross, 80 thou', a cool flip Then I got that vibrant thing, my lil' Q-tip That Maserati a problem, especially with the dual shift 0 to 60, and WHOO! It's like a mule kick I swear to God like the preacher in the pool pit Speakin of pools, mine heated, come through bitch Long as it's La Perla, I don't care who you come through with Canadian, Spanish, French, nigga whatever! Minage in the deep end, head on the back end I wanna fuck the Asian bitch, next time leave your fat friend Why the fuck y'all in the Honda all packed in? Headed to Inglewood, say wassup to Mack 10 Say wassup to Glock 9, I'm back on you nigga's heads L.A. would be a ghost-town if I wanted nigga's dead Run with my Goon Squad cause more than half you nigga's Fed's It's either that, you ATF or one of 50's friend's I see the wires hangin' out you nigga's Levi's Well fuck it though cause the nigga did let me in But he ain't wanna see the Game in HD on ESPN I think the boy's John-in', we was the best of friends Then shit flipped, went to his holmes like I was Mexican We all know the rest, put the burner to his chest Hit him with 300 Bars and let the streets do the rest Yes! Terror is over you can eat now, JayceonJason killed Freddy The WHOLE world can SLEEP now! Dream-snatcher, that's ME now Take your money lay yo' bitch ass on the beach now I can see it, a G-Unit beach towel Another man on it, ya'll 'bout to tan on it? Send some lil' goons by to kick some fuckin' sand on it We ain't watchin', go 'head nigga, jam on it Damn homie in high school you was the man homie You was lucky in Manhattan, the clip jammed But come to Cali you a moose in some quicksand Sink nigga, like a fuckin' boat with bullet-holes in it Buttersoft Banks, you a bitch man Me and you was cool 'til 50 unscrewed your kickstand And Yayo, turn in your senior citizen wristband Slap the shit out you for LilHenchman And just like the old days, I play the bench man Dre play the big hand, I'm cool with the 6th man Never selfish nigga, I'm eatin shellfish nigga My legacy will never die, the black Elvis nigga Come check me out in Graceland nigga, pull the guitar out and e'rrything Glock by my pelvis, clip by the waistline On the block like Chris Bosh, shoot it from the baseline We at the 350 mark, it's break time Ayyo, go get the L out the car man... Naw, this Purple Haze nigga, I'm 'bout to roll this shit up Get high nigga, finish this mothafuckin' 400 Barz Naw, my key's right there... By that, by that, Cocunut Ciroc... Yeah, Let's Go Yo, and tell The Runners I'm hungry man Get me some Frech Toast, Bacon and shit Run up on you with 50 bean's and 50 chef's Niggas thinkin' it's a game, tryna push select Call a time out, like I'm OUT! All these soft ass Rappers fakin' the crime route Niggas got real quiet now that Shyne out Don't make me smuggle 'em outta Belize and pull them 9's out Niggas scared now, my Goon Squad here now We turnin' on the headlights and runnin over deer's now Yeah... All up in the wood's, what's good!? And I'm the only one you Rap niggas should fear now You see a G-Unit poster, you better tear it down I'm talkin' to you mothafucker, so turn around The beef forever lives, never ever put ya burner down I beat the shit out these niggas, they Tina Turner now Stripped of their manhood, ass naked like they Shermin' out While I peel the top on the block and just burn it out Hit the strip club with my niggas and just turn it OUT! Ayyo, that's Jeezy mothafuckin' Lambo'? Shit cold nigga They got free hot wings, they bringin full serving's out It's all good, we straight, time to perm' it out Katt Williams, run up in ya house, tie you up And make you watch while we run through your spouse Rip off her fuckin' blouse! Tiger Woods been in this? No thank you, pass that bitch to Menace Get what I came for, stuff it inside the Range doors 380 bars and get ready for the main course Yo, gimme a couple of them napkins, a salad fork... I'm starvin' nigga! June 15th, one of us gotta change course But not the one that spit 400, blunt'd and ain't hoarse 8 plaques on the wall, hang yours Before you get one, I'll probly have 8 more It never been about the money with me Just been about tryna get my nigga somethin' to eat Take 'em on a couple of tours, get 'em somethin' to beat Never satisfied, that's why we keep the gun's on his feet Yeah... All I know is block's, Glock's and Ciroc... Let's Get It! Who got a blunt I can chief? Nigga's runnin around like Indians But near not one of'em chief Killa California, I'm just one of the beasts Take a fuckin' blood bath and bathe myself with the beefUHH! It's the home stretch but I ain't even home yet Only thing can stop me, is ME, I'm my own threat Eatin' Lobster's, writin' Al Capone checks I still ain't on the level of N.O.R.E. or Capone yet Nigga's gon' learn, respect the veteran's... Nigga, apologize to Cube But after this year, and after this here Niggas won't see the throne for another 6 years P.S. mothafucker, ain't no bitch here! I'm goin' out the same way I came in, 5th gear I see the finish line, SHIT YEAH! It's time to celebrate, Kanary bring that Cris' here Sticks tell Crack bring the car around the back 400 and 6 bars... BITCH, it's a WRAP!5</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3521,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Et tout d'suite on retrouve le tube de cette fin dannée 1988 Gérard Baste, Slip Life C'est parti ! À la baraque ou en live faut qu'jme dénude pour survivre J'envoie ma part de rêve c'est tout un art de vivre Non j'suis pas exhibo non j'suis pas naturiste Moi je vois la vie en rose quand j'vis ma vie en slip Slip Life Oui! En slip on est tous égaux Slip Life En slip tout parait plus beau Slip Life C'est la vie déshabillée Ouais! Ouais! Slip Life Celle dont j'ai toujours rêvé Allez cest parti ! Je rtire mes grolles et j'balance mon sweat Jvire mon t-shirt et mon froc bref, j'me fous en slop C'est l'premier truc que jfais quand je rentre chez moi J'ai un physique d'Apollon dans mon slip Athéna Tu peux garder tes calcifs, tes boxers, tes shorties En deux s'condes j'fais deuspi, juste j'me mets en pe-sli Sors la chantilly et goûte ce banana-slip J'suis gros comme Beth Ditto, mon groupe c'est The Grosslip Mon cul dans le Dodge Ram, le tiens dans ta p'tite Smart J'traîne en slip dans la street, j'pratique le Slip-Art J'force tout l'monde à se mettre en slip dictateur J'me dessape en un quart de tour Slip Fighter Certains corps savent le mettre en valeur, c'est une évidence J'suis un genre de Eminem mais qui porte du Éminence Et j'dis Quelle chance! à un slip que j'viens d'acheter Quelle chance petit slip, Gérard Baste va te porter! You might also like Slip Life Et oui! Tout l'monde en slip illico Illico! Illico! Slip Life En slip tout parait plus beau Slip Life C'est la vie déshabillée Ouais! Ouais! Slip Life Celle dont j'ai toujours rêvé I got the magic slip, j'ai la rime rebelle Magic Mike XXL, j'suis un Slippendale J'connais par cur mon numéro de slipteaseur J'en branle pas une, dans l'salon en slip des heures J'ai même le slip Party Rock d'LMFAO Pas de Petit Bateau, Gérard Baste petit logo Y'a le cavalier sans tête, moi sans fute, Slipy Hollow Baste porte le slip comme tous les super-héros Tu peux m'voir dans ma rue, d'vant mon paf tard le soir En train d'sortir la poubelle, tranquille en slip noir J'ai fréquenté les palaces comme les tous p'tits bars J'adore signer les autographes à l'aise en slibard Ne crois pas que j'suis à poil non, j'ai ma dignité Un cur qui bat dans le slip, j'ai ma senslipilité Oui je resterai en slip jusqu'à la fin d'mes jours Et il parait que je garde mes chaussettes quand je fais l'amour ..Que je garde mes chaussettes quand je fais l'amour ..Donc il garde ses chaussettes quand il fait l'amour</t>
+          <t>Et tout d'suite on retrouve le tube de cette fin dannée 1988 Gérard Baste, Slip Life C'est parti ! À la baraque ou en live faut qu'jme dénude pour survivre J'envoie ma part de rêve c'est tout un art de vivre Non j'suis pas exhibo non j'suis pas naturiste Moi je vois la vie en rose quand j'vis ma vie en slip Slip Life Oui! En slip on est tous égaux Slip Life En slip tout parait plus beau Slip Life C'est la vie déshabillée Ouais! Ouais! Slip Life Celle dont j'ai toujours rêvé Allez cest parti ! Je rtire mes grolles et j'balance mon sweat Jvire mon t-shirt et mon froc bref, j'me fous en slop C'est l'premier truc que jfais quand je rentre chez moi J'ai un physique d'Apollon dans mon slip Athéna Tu peux garder tes calcifs, tes boxers, tes shorties En deux s'condes j'fais deuspi, juste j'me mets en pe-sli Sors la chantilly et goûte ce banana-slip J'suis gros comme Beth Ditto, mon groupe c'est The Grosslip Mon cul dans le Dodge Ram, le tiens dans ta p'tite Smart J'traîne en slip dans la street, j'pratique le Slip-Art J'force tout l'monde à se mettre en slip dictateur J'me dessape en un quart de tour Slip Fighter Certains corps savent le mettre en valeur, c'est une évidence J'suis un genre de Eminem mais qui porte du Éminence Et j'dis Quelle chance! à un slip que j'viens d'acheter Quelle chance petit slip, Gérard Baste va te porter! Slip Life Et oui! Tout l'monde en slip illico Illico! Illico! Slip Life En slip tout parait plus beau Slip Life C'est la vie déshabillée Ouais! Ouais! Slip Life Celle dont j'ai toujours rêvé I got the magic slip, j'ai la rime rebelle Magic Mike XXL, j'suis un Slippendale J'connais par cur mon numéro de slipteaseur J'en branle pas une, dans l'salon en slip des heures J'ai même le slip Party Rock d'LMFAO Pas de Petit Bateau, Gérard Baste petit logo Y'a le cavalier sans tête, moi sans fute, Slipy Hollow Baste porte le slip comme tous les super-héros Tu peux m'voir dans ma rue, d'vant mon paf tard le soir En train d'sortir la poubelle, tranquille en slip noir J'ai fréquenté les palaces comme les tous p'tits bars J'adore signer les autographes à l'aise en slibard Ne crois pas que j'suis à poil non, j'ai ma dignité Un cur qui bat dans le slip, j'ai ma senslipilité Oui je resterai en slip jusqu'à la fin d'mes jours Et il parait que je garde mes chaussettes quand je fais l'amour ..Que je garde mes chaussettes quand je fais l'amour ..Donc il garde ses chaussettes quand il fait l'amour</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3538,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>J'ai cette bibine dans ma tête Cette image qui m'entête C'est ma dernière consigne, sur un dernier post-it j'inscris À B.O.I.R.E J'ai poussé tous mes cris, j'ai fait toutes mes singeries Mais tout l'monde est sur messagerie Est-ce que tu m'entends he ho Est-ce que tu veux boire he ho he ho J'te l'dirai pas par mail ou par sms Juste un message dans une bouteille contre la sécheresse En pleine rade à Brest pour s'la mettre J'attend mon équipage pour l'départ d'the race L'Abbé Pierre appelle au s'cours, 54 c'est old school Mais c'est pas possible qu'on s'déshydrate en 2004 Alors fais pas ton bomboclaat et sauve-moi d'ce sevrage À B.O.I.R.E mon dernier message Do you remember ? Est-ce que tu t'rappelles des jours d'sobriété Quand t'avais plus d'boisson ni d'oseille Quelques débris à la r'cherche de lébriété J'espère qu'arrivera jusqu'à tes oreilles Mon message dans une bouteille You might also like Défi brestois, Finistère amer 35 jours sans boire d'la bière Foutu à la diète, putain j'pleure ma mère Y'a ma meuf qu'a foutu ma bouteille à la mer J'en ai j'té une autre j'espère qu'quelqu'un lira l'message qu'elle contient J'suis pas content vite j'me contiens Ramène un truc à boire avant qu'il y ait des pertes Un Robinson Crusoé sur son île déserte Ramène un truc à boire avant qu'il y ait des morts Qu'les corps s'accumulent comme à la canicule Mon message Ramène au moins un flash, même si c'est pas celui d'Grandmaster Flash x2 Peace, love, unity and having fun Tise, morve, punani and having drugs Do you remember ? Est-ce que tu t'rappelles des jours d'sobriété Quand t'avais plus d'boisson ni d'oseille Quelques débris à la r'cherche de lébriété J'espère qu'arrivera jusqu'à tes oreilles Mon message dans une bouteille La nouvelle école arrive dans ton cul Celle qui a tout vu, celle qui a tout bu Celle qui a tout misé, salivé, attendue malheureusement ??? t'envoyer ce message alarmant qui te dit Dégage de là et fais place Tueur du genre, buteur de gens Buveur de sang qui t'éclate Toi-même toi-même sur des textes de tise Tu m'causes de cirrhoses, de cocktails molotov , j'ai des embrouilles Mec, à citer Smirnoff sur ton 16 de lyrics imbibés Alors v'là l'rappeur DSL Crew Tifs qui poussent, I shot the sheriff J'suis un reur-ti avec mon colt dans les soirées apéritifs, on s'dit en CIF Tous mes potes au rouge sur l'pif Pitoux vodka-rhum, dragues de poufs, styles de oufs, jamais tranquilles Faut qu'ils souffrent comme on souffle Dès qu'j'bois, j'ouvre mon bide et j'les frappe avec mon foie, bref Comme un chien sur les canettes et puis t'es soul, c'est un pack Faut qu'tu rafles pour ??? T'as vu mon crew, le DSL gang mix soul shit Give me the milk et le rhum 3 poufs pour mes reufs, on va t'inventer un sérum Avec mes déglingos et si on ??? Lèves les mains en l'air, pour le vin et la bière Le vomis par terre, ouais j'suis ??? et la gueule craquée J'ouvre la bouche croyant qu'j'ai la force de Marvel Et les mecs ont perdus le ??? De toute façon, nous savons, qu'nous avons, bu bien plus que de raison Nazes, on est 15, on est cloisonnés Vu l'état de la maison, les talus de tessons C'est l'carnage sur l'carr'lage, les cadavres écarlates, on s'adapte Zig-zag entre les canettes huh! dites-moi c'qu'on va boire ce soir Il en reste pas une goutte ? J'ai du mal à l'croire ! J'entends réclamer à boire, paniquer mes soiffards Trembler mes pochtrons et saliver mes soûlards Vite fait faut qu'on trouve une bouteille De l'oseille et une boutique ouverte Opération pièces jaunes comme Bernadette, nous jamais on sarrête Comme à la messe, fait la quête mais le budget m'inquiète On a déjà explosé tout le budget maquette Pas d'quoi acheter le moindre flash Cette fois j'ai peur de mourir de soif Do you remember ? Est-ce que tu t'rappelles des jours d'sobriété Quand t'avais plus d'boisson ni d'oseille Quelques débris à la r'cherche de lébriété J'espère qu'arrivera jusqu'à tes oreilles Mon message dans une bouteille x2 Peace, love, unity and having fun Tise, morve, punani and having drugs</t>
+          <t>J'ai cette bibine dans ma tête Cette image qui m'entête C'est ma dernière consigne, sur un dernier post-it j'inscris À B.O.I.R.E J'ai poussé tous mes cris, j'ai fait toutes mes singeries Mais tout l'monde est sur messagerie Est-ce que tu m'entends he ho Est-ce que tu veux boire he ho he ho J'te l'dirai pas par mail ou par sms Juste un message dans une bouteille contre la sécheresse En pleine rade à Brest pour s'la mettre J'attend mon équipage pour l'départ d'the race L'Abbé Pierre appelle au s'cours, 54 c'est old school Mais c'est pas possible qu'on s'déshydrate en 2004 Alors fais pas ton bomboclaat et sauve-moi d'ce sevrage À B.O.I.R.E mon dernier message Do you remember ? Est-ce que tu t'rappelles des jours d'sobriété Quand t'avais plus d'boisson ni d'oseille Quelques débris à la r'cherche de lébriété J'espère qu'arrivera jusqu'à tes oreilles Mon message dans une bouteille Défi brestois, Finistère amer 35 jours sans boire d'la bière Foutu à la diète, putain j'pleure ma mère Y'a ma meuf qu'a foutu ma bouteille à la mer J'en ai j'té une autre j'espère qu'quelqu'un lira l'message qu'elle contient J'suis pas content vite j'me contiens Ramène un truc à boire avant qu'il y ait des pertes Un Robinson Crusoé sur son île déserte Ramène un truc à boire avant qu'il y ait des morts Qu'les corps s'accumulent comme à la canicule Mon message Ramène au moins un flash, même si c'est pas celui d'Grandmaster Flash x2 Peace, love, unity and having fun Tise, morve, punani and having drugs Do you remember ? Est-ce que tu t'rappelles des jours d'sobriété Quand t'avais plus d'boisson ni d'oseille Quelques débris à la r'cherche de lébriété J'espère qu'arrivera jusqu'à tes oreilles Mon message dans une bouteille La nouvelle école arrive dans ton cul Celle qui a tout vu, celle qui a tout bu Celle qui a tout misé, salivé, attendue malheureusement ??? t'envoyer ce message alarmant qui te dit Dégage de là et fais place Tueur du genre, buteur de gens Buveur de sang qui t'éclate Toi-même toi-même sur des textes de tise Tu m'causes de cirrhoses, de cocktails molotov , j'ai des embrouilles Mec, à citer Smirnoff sur ton 16 de lyrics imbibés Alors v'là l'rappeur DSL Crew Tifs qui poussent, I shot the sheriff J'suis un reur-ti avec mon colt dans les soirées apéritifs, on s'dit en CIF Tous mes potes au rouge sur l'pif Pitoux vodka-rhum, dragues de poufs, styles de oufs, jamais tranquilles Faut qu'ils souffrent comme on souffle Dès qu'j'bois, j'ouvre mon bide et j'les frappe avec mon foie, bref Comme un chien sur les canettes et puis t'es soul, c'est un pack Faut qu'tu rafles pour ??? T'as vu mon crew, le DSL gang mix soul shit Give me the milk et le rhum 3 poufs pour mes reufs, on va t'inventer un sérum Avec mes déglingos et si on ??? Lèves les mains en l'air, pour le vin et la bière Le vomis par terre, ouais j'suis ??? et la gueule craquée J'ouvre la bouche croyant qu'j'ai la force de Marvel Et les mecs ont perdus le ??? De toute façon, nous savons, qu'nous avons, bu bien plus que de raison Nazes, on est 15, on est cloisonnés Vu l'état de la maison, les talus de tessons C'est l'carnage sur l'carr'lage, les cadavres écarlates, on s'adapte Zig-zag entre les canettes huh! dites-moi c'qu'on va boire ce soir Il en reste pas une goutte ? J'ai du mal à l'croire ! J'entends réclamer à boire, paniquer mes soiffards Trembler mes pochtrons et saliver mes soûlards Vite fait faut qu'on trouve une bouteille De l'oseille et une boutique ouverte Opération pièces jaunes comme Bernadette, nous jamais on sarrête Comme à la messe, fait la quête mais le budget m'inquiète On a déjà explosé tout le budget maquette Pas d'quoi acheter le moindre flash Cette fois j'ai peur de mourir de soif Do you remember ? Est-ce que tu t'rappelles des jours d'sobriété Quand t'avais plus d'boisson ni d'oseille Quelques débris à la r'cherche de lébriété J'espère qu'arrivera jusqu'à tes oreilles Mon message dans une bouteille x2 Peace, love, unity and having fun Tise, morve, punani and having drugs</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3555,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette A moi ! Jusqu'au bout de la nuit A moi ! Pour noyer mes soucis A moi ! Puis j'fais n'importequoi A moi ! Où tu vas ? Glou glou glou, je n'sais pas si j't'aime C'est peut-être le sang alcoolisé qui circule dans mes veines Dans quel état j'vais m'réveiller demain a 14 du mat' ? J'suis pas sur de m'souvenir de c'que j'ai frotté dans cette boite Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais pas où tu vas Je te suis et je bois Je n'suis pas une mauviette Je m'en bats les couilles de t'es qui Je m'en bats les couilles de t'es quoi Me parle pas, de toute façons je ne m'en rappelle pas Je n'te reconnais pas, merci pour le verre mais fallait pas Croises-moi encore nulle part dans un sale état Et puisque c'est comme ça, laisse-nous la bouteille Festoie, mais ta zeb' laisse-nous la goûter allez Rapporte les bières, les glaçons et la glacière Dab - Dabaaz n'a laissé que des cadavres dans le frigidaire You might also like Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme Zangief Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette Encore un spot où on va boire la tasse On est listés, j'ai les tickets Alcool Fast Pass C'est pas moral, mais mets-toi à notre place De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? Yep, tous les jours je deviens amnésique, je ne me souviens plus d'hier 'faut que j'me réhydrate, j'ai une voix qui tourne dans ma tête, qui m'dit vite vite vite vite Je fonce vers le supermarché, direction le rayon bière Je choisis, je ressors, je la décapsule et, cul-sec, je la vide-vide-vide-vide Hun, v'là l'clodo boom boom down Ca me rend din-lingue-din-lingue-dingue quand j'finis ma poom poom choppe Remets-en une J'arrêterai quand j'ferm'rai les paupières Vomi les coquillettes, farcies comme des paupiettes Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette A moi ! Jusqu'au bout de la nuit A moi ! Pour noyer mes soucis A moi ! Puis j'fais n'importequoi A moi ! Où tu vas ? De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? Dab - Dab - Dab - Dab - Dab - Dabaaz, Gérard baste FRER 200 Le Groupe du Moment, quoi !!! De - De - De - De - De - De - De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste???</t>
+          <t>Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette A moi ! Jusqu'au bout de la nuit A moi ! Pour noyer mes soucis A moi ! Puis j'fais n'importequoi A moi ! Où tu vas ? Glou glou glou, je n'sais pas si j't'aime C'est peut-être le sang alcoolisé qui circule dans mes veines Dans quel état j'vais m'réveiller demain a 14 du mat' ? J'suis pas sur de m'souvenir de c'que j'ai frotté dans cette boite Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais pas où tu vas Je te suis et je bois Je n'suis pas une mauviette Je m'en bats les couilles de t'es qui Je m'en bats les couilles de t'es quoi Me parle pas, de toute façons je ne m'en rappelle pas Je n'te reconnais pas, merci pour le verre mais fallait pas Croises-moi encore nulle part dans un sale état Et puisque c'est comme ça, laisse-nous la bouteille Festoie, mais ta zeb' laisse-nous la goûter allez Rapporte les bières, les glaçons et la glacière Dab - Dabaaz n'a laissé que des cadavres dans le frigidaire Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme Zangief Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette Encore un spot où on va boire la tasse On est listés, j'ai les tickets Alcool Fast Pass C'est pas moral, mais mets-toi à notre place De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? Yep, tous les jours je deviens amnésique, je ne me souviens plus d'hier 'faut que j'me réhydrate, j'ai une voix qui tourne dans ma tête, qui m'dit vite vite vite vite Je fonce vers le supermarché, direction le rayon bière Je choisis, je ressors, je la décapsule et, cul-sec, je la vide-vide-vide-vide Hun, v'là l'clodo boom boom down Ca me rend din-lingue-din-lingue-dingue quand j'finis ma poom poom choppe Remets-en une J'arrêterai quand j'ferm'rai les paupières Vomi les coquillettes, farcies comme des paupiettes Dans la nuit, y'a des phares Des étoiles et des bars Je m'y torche comme un soviet Je n'sais aps où tu vas Je te suis et je bois Je n'suis pas une mauviette A moi ! Jusqu'au bout de la nuit A moi ! Pour noyer mes soucis A moi ! Puis j'fais n'importequoi A moi ! Où tu vas ? De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste? Dab - Dab - Dab - Dab - Dab - Dabaaz, Gérard baste FRER 200 Le Groupe du Moment, quoi !!! De - De - De - De - De - De - De quoi tu veux qu'on parle avec Dabaaz et Gérard Baste???</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3572,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Han ! Slip-Hop deluxe Gérard Baste, Léo Berliner Aka silver fox Go foxy, Go Tiens, tiens, mets-toi dans la file là J'voudrais juste t'expliquer un truc Comment j'suis Gérard Baste, toujours en train d'boire ou d'se branler Tu m'adore depuis J'pète quand j'crache Et me demande pas Quand est-ce qu'on s'lâche ?, c'est toujours Ce connard va nous servir ou il attend qu'on s'fâche ? J'donne mon sperme mais pas pour l'cash Pas pour les espèces, c'est juste pour améliorer l'espèce J'suis un acrobate des buvettes Ça commence debout sur l'bar, ça fini la tête dans la cuvette J'ai annuler tous mes rencards Pour m'concentrer à 100 à m'mettre minable dans les bars J'ai fais sauter tous mes rendez-vous Blondes Belges, brunes Anglaises, rousses Irlandaises, présentez-vous J'fais du speed drinking Quelques s'condes et j'me fais une opinion valide Ok J'les goutte toutes avant d'faire mon choix J'mets toujours du cur à trouver l'élue d'mon foie À la vue d'mon poids Le mec est fat! Appelle-moi Big Poppa, tous à laffût d'ma voix Et le goût d'mes noix, c'est pas du light comme chez Weight Watchers Viens t'empaler sur mon gros doigt d'chair C'est l'ouragan dans ton p'tit ionf Après la tempête vient l'calme et puis tu m'porte en triomphe Avec les dents j'arrache ton Triumph et j'm'arrache moi-même ach'ter du Jack Daniel's sur ma Triumph You might also like Pose ton cul et sors ton CV Et fais vite perds pas d'temps C'est du Speed Dating Ouvre la bouche et fais-moi rêver Montre-moi toutes tes qualités ou bouge de la file bouge On est pas là pour s'foutre en ménage Non Et t'attends pas à c'qu'on emménage Non T'est tombé sur le bon type cousine Tu sais qu'j'fais la cuisine mais compte pas sur moi pour l'ménage J'me présente, j'm'appelle Beauty, j'suis l'homme inédit Tu peux faire la p'tite anglaise mais pas la Lady Di Moi j'm'en bat les couilles de tous tes exs, me racontes pas ta vie J'veux une princesse, une déesse, une Jackie Kennedy T'inquiète, maintenant j'encaisse sur ta génétique Le père, le géniteur, le génie Connu d'Belleville à Rivoli J'écrase mes rivaux lorsque j'arrive au lit J'vais t'réchauffer comme un plat de raviolis Buitoni Rêve de oim dans un gonzo, à poil sur la moto Guzzi Avocate au Barreau, tu t'retrouves dans mes allégories Dans un amas de mots puis un ??? Appelle-moi John Stagliano On gagnera du temps vu qu'on est speed baby Appelle-moi ???, sweet sixteen, ??? On applaudi quand vient Ste-ba et beauty Ok ! Redarty beat box Beat Box Pardon Pose ton cul et sors ton CV Et fais vite perds pas d'temps C'est du Speed Dating Ouvre la bouche et fais-moi rêver Montre-moi toutes tes qualités ou bouge de la file bouge On est pas là pour s'foutre en ménage Non Et t'attends pas à c'qu'on emménage Non T'est tombé sur le bon type cousine Tu sais qu'j'fais la cuisine mais compte pas sur moi pour l'ménage Non, non, non, non c'est mort pour le ménage Compte pas sur moi pour passer l'aspirateur ou quoi qu'ce soit dans ce style Beat Box Pardon</t>
+          <t>Han ! Slip-Hop deluxe Gérard Baste, Léo Berliner Aka silver fox Go foxy, Go Tiens, tiens, mets-toi dans la file là J'voudrais juste t'expliquer un truc Comment j'suis Gérard Baste, toujours en train d'boire ou d'se branler Tu m'adore depuis J'pète quand j'crache Et me demande pas Quand est-ce qu'on s'lâche ?, c'est toujours Ce connard va nous servir ou il attend qu'on s'fâche ? J'donne mon sperme mais pas pour l'cash Pas pour les espèces, c'est juste pour améliorer l'espèce J'suis un acrobate des buvettes Ça commence debout sur l'bar, ça fini la tête dans la cuvette J'ai annuler tous mes rencards Pour m'concentrer à 100 à m'mettre minable dans les bars J'ai fais sauter tous mes rendez-vous Blondes Belges, brunes Anglaises, rousses Irlandaises, présentez-vous J'fais du speed drinking Quelques s'condes et j'me fais une opinion valide Ok J'les goutte toutes avant d'faire mon choix J'mets toujours du cur à trouver l'élue d'mon foie À la vue d'mon poids Le mec est fat! Appelle-moi Big Poppa, tous à laffût d'ma voix Et le goût d'mes noix, c'est pas du light comme chez Weight Watchers Viens t'empaler sur mon gros doigt d'chair C'est l'ouragan dans ton p'tit ionf Après la tempête vient l'calme et puis tu m'porte en triomphe Avec les dents j'arrache ton Triumph et j'm'arrache moi-même ach'ter du Jack Daniel's sur ma Triumph Pose ton cul et sors ton CV Et fais vite perds pas d'temps C'est du Speed Dating Ouvre la bouche et fais-moi rêver Montre-moi toutes tes qualités ou bouge de la file bouge On est pas là pour s'foutre en ménage Non Et t'attends pas à c'qu'on emménage Non T'est tombé sur le bon type cousine Tu sais qu'j'fais la cuisine mais compte pas sur moi pour l'ménage J'me présente, j'm'appelle Beauty, j'suis l'homme inédit Tu peux faire la p'tite anglaise mais pas la Lady Di Moi j'm'en bat les couilles de tous tes exs, me racontes pas ta vie J'veux une princesse, une déesse, une Jackie Kennedy T'inquiète, maintenant j'encaisse sur ta génétique Le père, le géniteur, le génie Connu d'Belleville à Rivoli J'écrase mes rivaux lorsque j'arrive au lit J'vais t'réchauffer comme un plat de raviolis Buitoni Rêve de oim dans un gonzo, à poil sur la moto Guzzi Avocate au Barreau, tu t'retrouves dans mes allégories Dans un amas de mots puis un ??? Appelle-moi John Stagliano On gagnera du temps vu qu'on est speed baby Appelle-moi ???, sweet sixteen, ??? On applaudi quand vient Ste-ba et beauty Ok ! Redarty beat box Beat Box Pardon Pose ton cul et sors ton CV Et fais vite perds pas d'temps C'est du Speed Dating Ouvre la bouche et fais-moi rêver Montre-moi toutes tes qualités ou bouge de la file bouge On est pas là pour s'foutre en ménage Non Et t'attends pas à c'qu'on emménage Non T'est tombé sur le bon type cousine Tu sais qu'j'fais la cuisine mais compte pas sur moi pour l'ménage Non, non, non, non c'est mort pour le ménage Compte pas sur moi pour passer l'aspirateur ou quoi qu'ce soit dans ce style Beat Box Pardon</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3589,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>x2 In the club we pimpin' right We got the flow that you need tonight Long as you get workin' That body, body, body On est v'nu s'mettre à nu comme au club de strip tease Et raconté notre vie comme quand tous les pauvres types tisent Ça t'fait mal au cur mais c'est juste une p'tite crise J'envoie la me-crè, y'a comme des grumeaux dans l'Bailey's J'dépoussière le rap, j'glisse sur l'track comme la vieille sur l'Pliz J'vais tout dévoilé comme à la fin d'Surprise sur prise ! Et dire la vérité car le mensonge me les sur-brise J'suis v'nu sans accessoire, y'a trop d'ffon-bou qui sdéguisent J'suis un iench! Affamé, j'déchire le sac de Friskies Sur la ligne, j'suis l'poulain sur lequel le fric s'mise J'suis une star de l'underground, j'ai l'statut qu'les freaks visent Ivresse sur la voie publique à c'que les flics disent En mettant les balles dans le barillet On est vrais dans la vie comme sur le papier Les gars brillants méritent des tas d'billets À peine déshabillé, j'me met à rapper qu'le morceau est déjà plié Fais péter l'sky, imite le fusil-mitrailleur J'suis v'nu comme d'hab, cracher 24 de fire AMS Crew, Svink', à poil sur l'ring J'ai l'rap dans l'sang, glisse-moi un billet d'100 dans l'string You might also like x2 In the club we pimpin' right We got the flow that you need tonight Long as you get workin' That body, body, body x2 In the club we pimpin' right We got the flow that you need tonight Long as you get workin' That body, body, body Body, body, body Body, body, body Long as you get workin' That body, body, body</t>
+          <t>x2 In the club we pimpin' right We got the flow that you need tonight Long as you get workin' That body, body, body On est v'nu s'mettre à nu comme au club de strip tease Et raconté notre vie comme quand tous les pauvres types tisent Ça t'fait mal au cur mais c'est juste une p'tite crise J'envoie la me-crè, y'a comme des grumeaux dans l'Bailey's J'dépoussière le rap, j'glisse sur l'track comme la vieille sur l'Pliz J'vais tout dévoilé comme à la fin d'Surprise sur prise ! Et dire la vérité car le mensonge me les sur-brise J'suis v'nu sans accessoire, y'a trop d'ffon-bou qui sdéguisent J'suis un iench! Affamé, j'déchire le sac de Friskies Sur la ligne, j'suis l'poulain sur lequel le fric s'mise J'suis une star de l'underground, j'ai l'statut qu'les freaks visent Ivresse sur la voie publique à c'que les flics disent En mettant les balles dans le barillet On est vrais dans la vie comme sur le papier Les gars brillants méritent des tas d'billets À peine déshabillé, j'me met à rapper qu'le morceau est déjà plié Fais péter l'sky, imite le fusil-mitrailleur J'suis v'nu comme d'hab, cracher 24 de fire AMS Crew, Svink', à poil sur l'ring J'ai l'rap dans l'sang, glisse-moi un billet d'100 dans l'string x2 In the club we pimpin' right We got the flow that you need tonight Long as you get workin' That body, body, body x2 In the club we pimpin' right We got the flow that you need tonight Long as you get workin' That body, body, body Body, body, body Body, body, body Long as you get workin' That body, body, body</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3606,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Seul dans la ville Perdu au milieu des gens qui n'me regardaient pas Les ??? m'bousculaient avec dédain J'avais besoin d'voir la lumière Et puis j'ai eu la révélation Ouais, j'ai enfin compris J'ai un flash Direction l'ordi, j'me met à surfer En quelques clics je sens que ma vie sapprête à changer C'est le monde qui m'appelle, il a besoin d'un king D'un nouveau champion, d'un poids lourd sur le ring J'ai le sens du rythme, il faut que j'me la donne Jexige une professeure de danse terriblement bonne Donne-moi le style, donne-moi les sapes, donne-moi les bijoux Donne-moi ton numéro baby, ce soir la nuit est à nous x2 Beau gosse, beau gosse C'est comme ça qu'j'm'appelle J'suis le nouveau roi d'la ville et toutes les meufs m'aiment Beau gosse, beau gosse Say my name, say my name J'suis numéro 1 sans problème You might also like J'suis en couv' et à la TV, j'fais des interviews La présentatrice me demande Qui êtes-vous? Alors j'lui réponds tranquille J'ai envie d'dire le meilleur! J'ai plus besoin d'montre, c'est moi qui donne l'heure J'suis le boss dans mon bureau trop grand, où j'prends trop d'place J'ai trop d'classe et une équipe de 12 armoires à glace Hummer limo, v'là la longueur Yacht avec des bombes, v'là la blondeur La foule crie mon nom, les filles ont toutes le coup d'foudre Saute dans l'hélico on trace à Hollywood Beau gosse ! Beau gosse ! Beau gosse ! Beau gosse ! x2 Beau gosse, beau gosse C'est comme ça qu'j'm'appelle J'suis le nouveau roi d'la ville et toutes les meufs m'aiment Beau gosse, beau gosse Say my name, say my name J'suis numéro 1 sans problème</t>
+          <t>Seul dans la ville Perdu au milieu des gens qui n'me regardaient pas Les ??? m'bousculaient avec dédain J'avais besoin d'voir la lumière Et puis j'ai eu la révélation Ouais, j'ai enfin compris J'ai un flash Direction l'ordi, j'me met à surfer En quelques clics je sens que ma vie sapprête à changer C'est le monde qui m'appelle, il a besoin d'un king D'un nouveau champion, d'un poids lourd sur le ring J'ai le sens du rythme, il faut que j'me la donne Jexige une professeure de danse terriblement bonne Donne-moi le style, donne-moi les sapes, donne-moi les bijoux Donne-moi ton numéro baby, ce soir la nuit est à nous x2 Beau gosse, beau gosse C'est comme ça qu'j'm'appelle J'suis le nouveau roi d'la ville et toutes les meufs m'aiment Beau gosse, beau gosse Say my name, say my name J'suis numéro 1 sans problème J'suis en couv' et à la TV, j'fais des interviews La présentatrice me demande Qui êtes-vous? Alors j'lui réponds tranquille J'ai envie d'dire le meilleur! J'ai plus besoin d'montre, c'est moi qui donne l'heure J'suis le boss dans mon bureau trop grand, où j'prends trop d'place J'ai trop d'classe et une équipe de 12 armoires à glace Hummer limo, v'là la longueur Yacht avec des bombes, v'là la blondeur La foule crie mon nom, les filles ont toutes le coup d'foudre Saute dans l'hélico on trace à Hollywood Beau gosse ! Beau gosse ! Beau gosse ! Beau gosse ! x2 Beau gosse, beau gosse C'est comme ça qu'j'm'appelle J'suis le nouveau roi d'la ville et toutes les meufs m'aiment Beau gosse, beau gosse Say my name, say my name J'suis numéro 1 sans problème</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3623,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Biiiiip Allô ? Hey, tu t'rappelles de moi ? Tu sais on s'est croisés l'autre fois et puis on a passer la nuit ensemble Et d'puis qu'j't'ai rencontré, j'pense qu'à toi Et là j'viens d'mettre un ptit CD dans la chaîne hi-fi Et quand j'l'entend, j'pense qu'à un truc Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Putain qu'c'est bon, de se faire pé-pom Sur un bon son, une bonne basse, salle du fond Je rêve que nous fuckons une jolie tiss-mé du Soul Train Mais quand j'me saoul, j'traîne, que des grosses Germaine J'connais des fumeuses de cigares à moustache Elles sont tellement douées qu'au bout de 6 barres, j'crache C'est la prière du poulet featuring Gérard Baste P'tit volatile débile, un gros dégueulasse C'est une célébration, on la joue Kool and the Gang and the Gang Tu me caresses les couilles et je bande Et une vague de pensées impures me submerge Quand le sang afflue dans les corps caverneux de ma verge Yeah! J'n'ai plus qu'une seule idée en tête mon grand Où et comment je vais balancer la crème d'mon gland J'aime tes yeux, j'aime tes fesses mais plus que tout, j'aime ta belle bouche Aller avale, c'est pas du gel douche You might also like Lèche ma chatte, Gérard Baste Lèche ma chatte, Gérard Baste Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Heu, j'peux t'poser une question ? -Ouais ! Comment tu trouves ce jolie zigomar Pas de tralala, trais-la moi sur du Shalamar Ça sent pas l'??? c'est sûr!, ça sent pas la menthe Suce-moi la bite sur un vieux Parliament Fous des glaçons dans ta bouche, moi je baisse mon froc Et fais-moi une pipe on the rocks Si t'as de l'imagination, t'es une p'tite cochonne And The Beat Goes On, And The Beat Goes On And The Beat Goes On Ouvre la bouche que je pisse mon Dillon Niveau immondices, ton vice en dit long Lèche mes condylomes ma petite funky lope-sa Une teub de bougnoule ne se décalotte pas C'est le don qui groove ??? Poils de uc' sur l'torse à la ??? Grand mère, pour mettre à profit votre talent buccale Pourriez-vous plonger votre dentier dans un bocal Si tu veux du rap, plus de sauce Pas d'soucis, Baste crache sur tes boobs gras comme une basse de ??? Un gros bobo, viens me la soigner Bow wow wow yippy yo yippy yay Pas la peine de speeder meuf, on prend pas le train Mordille-moi les bourses, léchouille-moi le foin Vidange-moi le bien, bon dieu, qu'est ce que t'es belle Quand tu fais courir le bout de ta langue le long de mes fesses J'suis fly! un sky and the Family Stone Et lèche bien les cotés comme quand tu dévore un King cone L'allure de la luxure, le feu derrière tes lunettes Tes yeux brillent comme des boules à facettes Sur des musiques noires comme Cherry Pastor Tu me la suce tellement qu'elle devient plate comme la queue d'un castor Je veux te voir sourire, quand je me vide sur ta bobine Et gardes-en une goutte pour ta copine Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Hey, tu m'as fait kiffer la teub</t>
+          <t>Biiiiip Allô ? Hey, tu t'rappelles de moi ? Tu sais on s'est croisés l'autre fois et puis on a passer la nuit ensemble Et d'puis qu'j't'ai rencontré, j'pense qu'à toi Et là j'viens d'mettre un ptit CD dans la chaîne hi-fi Et quand j'l'entend, j'pense qu'à un truc Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Putain qu'c'est bon, de se faire pé-pom Sur un bon son, une bonne basse, salle du fond Je rêve que nous fuckons une jolie tiss-mé du Soul Train Mais quand j'me saoul, j'traîne, que des grosses Germaine J'connais des fumeuses de cigares à moustache Elles sont tellement douées qu'au bout de 6 barres, j'crache C'est la prière du poulet featuring Gérard Baste P'tit volatile débile, un gros dégueulasse C'est une célébration, on la joue Kool and the Gang and the Gang Tu me caresses les couilles et je bande Et une vague de pensées impures me submerge Quand le sang afflue dans les corps caverneux de ma verge Yeah! J'n'ai plus qu'une seule idée en tête mon grand Où et comment je vais balancer la crème d'mon gland J'aime tes yeux, j'aime tes fesses mais plus que tout, j'aime ta belle bouche Aller avale, c'est pas du gel douche Lèche ma chatte, Gérard Baste Lèche ma chatte, Gérard Baste Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Heu, j'peux t'poser une question ? -Ouais ! Comment tu trouves ce jolie zigomar Pas de tralala, trais-la moi sur du Shalamar Ça sent pas l'??? c'est sûr!, ça sent pas la menthe Suce-moi la bite sur un vieux Parliament Fous des glaçons dans ta bouche, moi je baisse mon froc Et fais-moi une pipe on the rocks Si t'as de l'imagination, t'es une p'tite cochonne And The Beat Goes On, And The Beat Goes On And The Beat Goes On Ouvre la bouche que je pisse mon Dillon Niveau immondices, ton vice en dit long Lèche mes condylomes ma petite funky lope-sa Une teub de bougnoule ne se décalotte pas C'est le don qui groove ??? Poils de uc' sur l'torse à la ??? Grand mère, pour mettre à profit votre talent buccale Pourriez-vous plonger votre dentier dans un bocal Si tu veux du rap, plus de sauce Pas d'soucis, Baste crache sur tes boobs gras comme une basse de ??? Un gros bobo, viens me la soigner Bow wow wow yippy yo yippy yay Pas la peine de speeder meuf, on prend pas le train Mordille-moi les bourses, léchouille-moi le foin Vidange-moi le bien, bon dieu, qu'est ce que t'es belle Quand tu fais courir le bout de ta langue le long de mes fesses J'suis fly! un sky and the Family Stone Et lèche bien les cotés comme quand tu dévore un King cone L'allure de la luxure, le feu derrière tes lunettes Tes yeux brillent comme des boules à facettes Sur des musiques noires comme Cherry Pastor Tu me la suce tellement qu'elle devient plate comme la queue d'un castor Je veux te voir sourire, quand je me vide sur ta bobine Et gardes-en une goutte pour ta copine Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Suce moi la bite sur cet air funky Hey, tu m'as fait kiffer la teub</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3640,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>22 v'là l'Svink' Là vient l'swing monte sur le ring Deux toxs sur la beat-box Te boxent de lyrics d'alcooliques.. Pour la picole, qui c'est qui s'y colle Nouvelle école Svinkels, coopérative agricole ..Comme une moissonneuse batteuse J'abats gueuzes et Svinkels Moisson balaise, boisson malaise En guise d'amuse-gueule À l'aise dans l'bourrage de gueule, j'dégueule T'invite à un fizz buzzle Et t'éparpille façon puzzle 3 2 1, le temps que tu ouvres ta bouteille J'avais vidé la mienne et l'avais mise à la poubelle N'oublie pas à qui tu t'adresses Le recordman de vitesse Classé dans l'Guiness book Un gars de la ville qui pue le bouc You might also like Mes récoltes, j'les pisse comme des maïs J'm'enfile des géants verres Flaire les kilos d'céréales versés dans les silos Sirotons le houblon Bavons-en, brassons le Poussons l'bouchon, ça pleut des litres Comme à la mousson 4 fois 4 seize, fois 4 soixante-quatre 4 fois à quatre pattes, assez, c'est ton foie qui craque Sois hanté, écarlate Tu fais le grand écart Latté sur le planché Sur le parquet tout taché x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous Céréales killer mais qui m'leurre pas Pour sûr j'la connais coeur-par Dès le lever les crevures carburent à la l'vure Donc je r'pars céréales à boire mais pas de l'Ovomaltine Le matin c'est du malt que j'tétine Bois ton bonjour à la chicorée J'me rince les chicos au bourbon M'embourbe dans le houblon Exit les exos hebdos de dos crawlé Ecroulé sous mes abdos à la Kro devant la télé Accro à la Kro et à la Kriek, j'ai la trique Gros Nike se nique à la Kro c'est chronique Le maquereau mi-homme micro prie synchro Et t'invite à l'apérobic, nos verres s'entrechoquent à pic Ouais au lever du coude on développe nos réflexes Ça nous vexe de te voir bouffer des corn flakes Car le Svink favorise la grosse tise aux Frosties Déraille, se crispe et pique sa crise pour Rice Krispies Malsain dans la membrane Oublies tes All Bran Pour tes problèmes de transit intestinal Baste a la solution anale Comme Destop je fais sauter le bouchon Et Smaks bien dans l'axe C'est tellement bon que j'fais des bonds jusqu'au balcon Et qu'j'y bé-ger toute ma potion Obsession, amour pour la boisson 1-6-6-4, j'en ai des cicatrices C'est triste, ma voix n'est plus celle d'une cantatrice Je m'attriste sur tes traces laissées sur mon bide Je danse la danse du ventre et tout remonte à ma tête livide Ravis de ce gâchis j'en suis avide, gosier aride Quand mon verre est vide, j'le plains Quand mon verre est plein, j'le vide x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous À bord de son ??? le commandant Gérard Baste et son fidèle matelot Nico s'infiltre profondément dans un verre dalcool. Ils découvriront ainsi vu de lintérieur, les joies, et méfaits, les dangers et la fête que l'alcool pourra leur procurer Le mâle aborde les bars Voilà le malabar des bières Qui swing les syllabes Met la gomme jusqu'à l'abus Tu t'rebutes devant mes rébus Rencard au bar Abra Carambar Je brigue les brocs et truque les bocks J'me biture et turbine à la Tuborg Turbo cyborg comme Björn Borg Tête de céréales killla Je mâche pas mes mots, je les smash Splash craft sur les fûts, v'là l'raffut Les big baroufs toujours à laffût d'une soirée mousse Les capitaines Taverne t'avoinent, t'avertissent N'avale pas d'travers Ou s'bang, j'flingue ton verre J'ai un permis de tuer c'est ma licence quatre mon ami Pas de demi mesure j'te mesure à ton usure au demi Usurpation d'consommation entraîne une punition On t'a mis dans un état stationnaire d'épuration Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous Et ben finalement, j'trouve qu'on a été assez sobres sur c'coup là. Parce que, pour une fête de la bière à Munich, 15 litres par personne c'est plutôt un truc honnête. Moi j'dis correct, correct sur c'coup là tu vois ! On aurait pu s'attendre à pire et finalement ils ont fait mieux. Ah l'remix il est sévère !1</t>
+          <t>22 v'là l'Svink' Là vient l'swing monte sur le ring Deux toxs sur la beat-box Te boxent de lyrics d'alcooliques.. Pour la picole, qui c'est qui s'y colle Nouvelle école Svinkels, coopérative agricole ..Comme une moissonneuse batteuse J'abats gueuzes et Svinkels Moisson balaise, boisson malaise En guise d'amuse-gueule À l'aise dans l'bourrage de gueule, j'dégueule T'invite à un fizz buzzle Et t'éparpille façon puzzle 3 2 1, le temps que tu ouvres ta bouteille J'avais vidé la mienne et l'avais mise à la poubelle N'oublie pas à qui tu t'adresses Le recordman de vitesse Classé dans l'Guiness book Un gars de la ville qui pue le bouc Mes récoltes, j'les pisse comme des maïs J'm'enfile des géants verres Flaire les kilos d'céréales versés dans les silos Sirotons le houblon Bavons-en, brassons le Poussons l'bouchon, ça pleut des litres Comme à la mousson 4 fois 4 seize, fois 4 soixante-quatre 4 fois à quatre pattes, assez, c'est ton foie qui craque Sois hanté, écarlate Tu fais le grand écart Latté sur le planché Sur le parquet tout taché x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous Céréales killer mais qui m'leurre pas Pour sûr j'la connais coeur-par Dès le lever les crevures carburent à la l'vure Donc je r'pars céréales à boire mais pas de l'Ovomaltine Le matin c'est du malt que j'tétine Bois ton bonjour à la chicorée J'me rince les chicos au bourbon M'embourbe dans le houblon Exit les exos hebdos de dos crawlé Ecroulé sous mes abdos à la Kro devant la télé Accro à la Kro et à la Kriek, j'ai la trique Gros Nike se nique à la Kro c'est chronique Le maquereau mi-homme micro prie synchro Et t'invite à l'apérobic, nos verres s'entrechoquent à pic Ouais au lever du coude on développe nos réflexes Ça nous vexe de te voir bouffer des corn flakes Car le Svink favorise la grosse tise aux Frosties Déraille, se crispe et pique sa crise pour Rice Krispies Malsain dans la membrane Oublies tes All Bran Pour tes problèmes de transit intestinal Baste a la solution anale Comme Destop je fais sauter le bouchon Et Smaks bien dans l'axe C'est tellement bon que j'fais des bonds jusqu'au balcon Et qu'j'y bé-ger toute ma potion Obsession, amour pour la boisson 1-6-6-4, j'en ai des cicatrices C'est triste, ma voix n'est plus celle d'une cantatrice Je m'attriste sur tes traces laissées sur mon bide Je danse la danse du ventre et tout remonte à ma tête livide Ravis de ce gâchis j'en suis avide, gosier aride Quand mon verre est vide, j'le plains Quand mon verre est plein, j'le vide x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous À bord de son ??? le commandant Gérard Baste et son fidèle matelot Nico s'infiltre profondément dans un verre dalcool. Ils découvriront ainsi vu de lintérieur, les joies, et méfaits, les dangers et la fête que l'alcool pourra leur procurer Le mâle aborde les bars Voilà le malabar des bières Qui swing les syllabes Met la gomme jusqu'à l'abus Tu t'rebutes devant mes rébus Rencard au bar Abra Carambar Je brigue les brocs et truque les bocks J'me biture et turbine à la Tuborg Turbo cyborg comme Björn Borg Tête de céréales killla Je mâche pas mes mots, je les smash Splash craft sur les fûts, v'là l'raffut Les big baroufs toujours à laffût d'une soirée mousse Les capitaines Taverne t'avoinent, t'avertissent N'avale pas d'travers Ou s'bang, j'flingue ton verre J'ai un permis de tuer c'est ma licence quatre mon ami Pas de demi mesure j'te mesure à ton usure au demi Usurpation d'consommation entraîne une punition On t'a mis dans un état stationnaire d'épuration Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui Notre torture c'est la Tourtel Et on va t'en faire boire jusqu'au bout de l'ennui x2 Cereal killer, buveur de bière en série On se gorge d'orge, de houblon et de malt à whisky Cereal killer, les Svinkels sont fous On laisse que des cadavres derrière nous Et ben finalement, j'trouve qu'on a été assez sobres sur c'coup là. Parce que, pour une fête de la bière à Munich, 15 litres par personne c'est plutôt un truc honnête. Moi j'dis correct, correct sur c'coup là tu vois ! On aurait pu s'attendre à pire et finalement ils ont fait mieux. Ah l'remix il est sévère !1</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3657,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>C'est les Svinkels C'est Svinkels Hein! Yeah! Gérard Baste, pour ??? cousin Svinkels.com, mec Parce que j'suis l'premier homme Et si comme Eve, tu veux croquer mon serpent comme la pomme Si tu kiffes le programme porno d'Gérard Baste sur CD-ROM Tapes www, svinkels.com Si tu cherches des trucs tordus, juste allume ton ordi Du crade-core, d'l'Annie Cordi sous crack Bref, du sordide Ici pas d'porno chic, j'nique Gucci et Chanel Gérard Baste, gros bide et p'tite queue façon Cabanel Branche ta webcam pour le strip tease online, d'la bonne came Tu m'veras nu d'vant l'sunshine, c'est pas un truc de bonne femme J'suis tenace, teigneux, squatte ton cul comme un Ténia Parce qu'il renaît à la vie lorsqu'on l'imbibe de liquide comme les Artémias d'Pif J'évite le suggestif, Babaste à poil sur l'net, subversif voir controversif Mais j'm'en bats les yeuks si l'Svink' te fait ièch Verse d'la Tequila sur mon iep et qu'tu l'suces comme Salma Hayek Ton logiciel j'vais l'bourrer d'gigaoctets Derrière toi j'suis un bouquetin, en hoquetant, tu m'demandes Où qu't'es? C'est pour ton anniversaire, j'ai une surprise qui tape Une bougie dans l'anus et une Heineken dans ta chatte Et si t'as la paroi musclée, faudrait qu'tu m'la décapsule Parce d'abord j'bois une bonne bière et t'à l'heure j't'encule You might also like Parce que j'suis l'premier homme Et si comme Eve, tu veux croquer mon serpent comme la pomme Si tu kiffes le programme porno d'Gérard Baste sur CD-ROM Tapes www, svinkels.com Pour la suite, si tu m'trouve trop cru, bouffe-la cuite J'ruine, me faufile comme une fouine, ta foune couine Et si j'ai b'soin d'gadgets j'vais pas so-do au mur j'me dirige vers un bon vieux sex shop zoo C'est pire qu'dans une vidéo allemande Ou un berger allemand s'occupe d'une vieille ambiancé Jeanne Calment Svinkels on fait ça salement du moment qu'elles sont heureuses Les muqueuses, vicieux et visqueuses ??? J'voudrais pas qu'ce soit virtuel quand j'sortirais mon joystick Un sexe qui rendrait boulimique une anorexique Ouais mon lexique choque mais mon crew Svink' rock C'est l'jardin d'Eden, mon serpent comme la pomme, tu croques Hey, Gérard j'ai l'impression qu'tu t'égares, qu't'as été trop gore J'sais pas moi, j'croyais qu'on avait dit mixtape no-por J'voudrais bien être disque d'or mais j'sors que des disques durs Faire l'amour avec Baste est un des derniers risques purs J'vais pas t'mettre l'eau à la bouche mais du sperme par louche Et prépares-toi vite parce j'pars dès qu'on m'touche la bite Parfois je m'demande quel putain d'démon m'habites ? Quelques éléments d'réponse sur Svinkels le site J'débite des insanités, mentalité d'sanitaire 1,2 jettes ton sexe en l'air, bouge ton derrière Et si t'as des goûts chelous, qu'ta meuf veux pas s'laisser faire Tapes 3 w, svinkels, .com, .org, .fr Parce que j'suis l'premier homme Et si comme Eve, tu veux croquer mon serpent comme la pomme Si tu kiffes le programme porno d'Gérard Baste sur CD-ROM Tapes www, svinkels.com Parce que j'suis l'premier homme Et si comme Eve, tu veux croquer mon serpent comme la pomme Si tu kiffes le programme porno d'Gérard Baste sur CD-ROM On t'met ça dans l'trou, trou, trou, trou Ouais mec, Gérard Baste, c'est pour mon Svink' crew, crew, crew, crew ???, on est fous, fous, fous, fous</t>
+          <t>C'est les Svinkels C'est Svinkels Hein! Yeah! Gérard Baste, pour ??? cousin Svinkels.com, mec Parce que j'suis l'premier homme Et si comme Eve, tu veux croquer mon serpent comme la pomme Si tu kiffes le programme porno d'Gérard Baste sur CD-ROM Tapes www, svinkels.com Si tu cherches des trucs tordus, juste allume ton ordi Du crade-core, d'l'Annie Cordi sous crack Bref, du sordide Ici pas d'porno chic, j'nique Gucci et Chanel Gérard Baste, gros bide et p'tite queue façon Cabanel Branche ta webcam pour le strip tease online, d'la bonne came Tu m'veras nu d'vant l'sunshine, c'est pas un truc de bonne femme J'suis tenace, teigneux, squatte ton cul comme un Ténia Parce qu'il renaît à la vie lorsqu'on l'imbibe de liquide comme les Artémias d'Pif J'évite le suggestif, Babaste à poil sur l'net, subversif voir controversif Mais j'm'en bats les yeuks si l'Svink' te fait ièch Verse d'la Tequila sur mon iep et qu'tu l'suces comme Salma Hayek Ton logiciel j'vais l'bourrer d'gigaoctets Derrière toi j'suis un bouquetin, en hoquetant, tu m'demandes Où qu't'es? C'est pour ton anniversaire, j'ai une surprise qui tape Une bougie dans l'anus et une Heineken dans ta chatte Et si t'as la paroi musclée, faudrait qu'tu m'la décapsule Parce d'abord j'bois une bonne bière et t'à l'heure j't'encule Parce que j'suis l'premier homme Et si comme Eve, tu veux croquer mon serpent comme la pomme Si tu kiffes le programme porno d'Gérard Baste sur CD-ROM Tapes www, svinkels.com Pour la suite, si tu m'trouve trop cru, bouffe-la cuite J'ruine, me faufile comme une fouine, ta foune couine Et si j'ai b'soin d'gadgets j'vais pas so-do au mur j'me dirige vers un bon vieux sex shop zoo C'est pire qu'dans une vidéo allemande Ou un berger allemand s'occupe d'une vieille ambiancé Jeanne Calment Svinkels on fait ça salement du moment qu'elles sont heureuses Les muqueuses, vicieux et visqueuses ??? J'voudrais pas qu'ce soit virtuel quand j'sortirais mon joystick Un sexe qui rendrait boulimique une anorexique Ouais mon lexique choque mais mon crew Svink' rock C'est l'jardin d'Eden, mon serpent comme la pomme, tu croques Hey, Gérard j'ai l'impression qu'tu t'égares, qu't'as été trop gore J'sais pas moi, j'croyais qu'on avait dit mixtape no-por J'voudrais bien être disque d'or mais j'sors que des disques durs Faire l'amour avec Baste est un des derniers risques purs J'vais pas t'mettre l'eau à la bouche mais du sperme par louche Et prépares-toi vite parce j'pars dès qu'on m'touche la bite Parfois je m'demande quel putain d'démon m'habites ? Quelques éléments d'réponse sur Svinkels le site J'débite des insanités, mentalité d'sanitaire 1,2 jettes ton sexe en l'air, bouge ton derrière Et si t'as des goûts chelous, qu'ta meuf veux pas s'laisser faire Tapes 3 w, svinkels, .com, .org, .fr Parce que j'suis l'premier homme Et si comme Eve, tu veux croquer mon serpent comme la pomme Si tu kiffes le programme porno d'Gérard Baste sur CD-ROM Tapes www, svinkels.com Parce que j'suis l'premier homme Et si comme Eve, tu veux croquer mon serpent comme la pomme Si tu kiffes le programme porno d'Gérard Baste sur CD-ROM On t'met ça dans l'trou, trou, trou, trou Ouais mec, Gérard Baste, c'est pour mon Svink' crew, crew, crew, crew ???, on est fous, fous, fous, fous</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3674,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>C'est si bon dêtre là. J'suis aussi vrai que la première fois Tu sais qui c'est, Prince Gérard Baste mec ! Hey, j'suis de retour, j'vais te dire une chose C'est que ça me fais super plaisir, ouais On est venu remettre le couvert Tu sais comment ça se passe, c'est maintenant ! On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne A chaque pas que j'fais y'a un roulement de tambour 365 et tu tombes pile pas l'bon jour shh une minute de silence pour la compèt Déroulez moi le tapis rouge et faites sonner les trompettes J'fous ma couronne et mon string panthère J'débarque avec mon sceptre et la force d'un tremblement de terre J'me désaltère, j'baisse ton froc et j'claque tes fesses Et même les Hells Angels se pressent pour saluer l'altesse Le prince du Dirty Centre, Dirty Mind comme Prince Le seul artiste que j'respecte c'est Chuck Norris Et j'me relève à chaque fois que j'me vautre Chez moi chaque testicule est plus grosse que l'autre En matière de punchline, j'suis trop élitiste J'viens frapper à ta porte pour faire du proséthylisme J'suis le capitaine de soirée qu'est toujours bourré J'rentre en zigzaguant et en jet privé, appelle moi Prince G Dans un carrosse tiré par des cygnes J'apparais à la fenêtre, un gros doigt en guise de p'tit signe Tu connais le prince du lèche-cyprine Le pape du priapisme avec Princesse Fancie dans la piscine Ça fait 20 ans qu'j'ai 20 ans d'avance J'suis juste le prince le plus cool de l'histoire de France Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne J'ai un physique d'Apollon dans mon slip Athena Et comme Zeus, je viens lâcher une bonne dose de foudre J'suis le roi du ballon, du ballon d'blanc ou d'rouge Et pis j'trouve que quand je l'ouvre j'fais parler la poudre Fous moi sur le calendrier des Dieux du Stade J'roule pour mon slip squad, j'suis le prince des aristocrade J'emmerde l'autorité, mais sur l'son j'suis tyrannique Tu veux rapper dans mon mic', fais-toi le vaccin antirabique Tu sais qu'j'ai le truc, que j'casse ta nuque Si tu n'apprécie pas c'que j'fais, bah casse toi pute J'suis pas sur le devant de la scène pour jouer les pucelles J'tue sec, j'explose la foule, mitraillette en or comme Saddam Hussein Tu sais que j'suis frais comme Prince Tu m'dois le respect, appelle moi Monseigneur comme pince J'suis en mode basse 10, tu vas péter une durit J'fonce en limousine, au volant c'est le chauffeur du Ritz On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigneYou might also like</t>
+          <t>C'est si bon dêtre là. J'suis aussi vrai que la première fois Tu sais qui c'est, Prince Gérard Baste mec ! Hey, j'suis de retour, j'vais te dire une chose C'est que ça me fais super plaisir, ouais On est venu remettre le couvert Tu sais comment ça se passe, c'est maintenant ! On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne A chaque pas que j'fais y'a un roulement de tambour 365 et tu tombes pile pas l'bon jour shh une minute de silence pour la compèt Déroulez moi le tapis rouge et faites sonner les trompettes J'fous ma couronne et mon string panthère J'débarque avec mon sceptre et la force d'un tremblement de terre J'me désaltère, j'baisse ton froc et j'claque tes fesses Et même les Hells Angels se pressent pour saluer l'altesse Le prince du Dirty Centre, Dirty Mind comme Prince Le seul artiste que j'respecte c'est Chuck Norris Et j'me relève à chaque fois que j'me vautre Chez moi chaque testicule est plus grosse que l'autre En matière de punchline, j'suis trop élitiste J'viens frapper à ta porte pour faire du proséthylisme J'suis le capitaine de soirée qu'est toujours bourré J'rentre en zigzaguant et en jet privé, appelle moi Prince G Dans un carrosse tiré par des cygnes J'apparais à la fenêtre, un gros doigt en guise de p'tit signe Tu connais le prince du lèche-cyprine Le pape du priapisme avec Princesse Fancie dans la piscine Ça fait 20 ans qu'j'ai 20 ans d'avance J'suis juste le prince le plus cool de l'histoire de France Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne J'ai un physique d'Apollon dans mon slip Athena Et comme Zeus, je viens lâcher une bonne dose de foudre J'suis le roi du ballon, du ballon d'blanc ou d'rouge Et pis j'trouve que quand je l'ouvre j'fais parler la poudre Fous moi sur le calendrier des Dieux du Stade J'roule pour mon slip squad, j'suis le prince des aristocrade J'emmerde l'autorité, mais sur l'son j'suis tyrannique Tu veux rapper dans mon mic', fais-toi le vaccin antirabique Tu sais qu'j'ai le truc, que j'casse ta nuque Si tu n'apprécie pas c'que j'fais, bah casse toi pute J'suis pas sur le devant de la scène pour jouer les pucelles J'tue sec, j'explose la foule, mitraillette en or comme Saddam Hussein Tu sais que j'suis frais comme Prince Tu m'dois le respect, appelle moi Monseigneur comme pince J'suis en mode basse 10, tu vas péter une durit J'fonce en limousine, au volant c'est le chauffeur du Ritz On envoie le son et tu peux pas tester Holà, c'est le grand retour de sa majesté, yeah Si on est sobre on va pas le rester C'est d'jà trop tard, c'est le retour de Prince Gérard Prince G, tu sais que ça va partir en vrille Et toutes les étoiles dans le ciel brillent Tellement à l'aise quand j'avance dans les rues de ma ville Tu sais que j'suis le prince de la vigne</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3691,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>T'as invité Gérard Baste T'as invité l'grand blond à la casquette noire T'as invité les rois d'la gaffe Toutes les conneries qu'on peut faire, tu vas pas y croire T'as voulu voir Gérard Baste T'as voulu voir l'grand blond à la casquette noire T'as vu 2 pauvres types à la masse Qui t'ont fait la misère, c'est la guerre, Babaste et Pedro Winter J'débarque sur la scène trop stylé J'fais un p'tit tour sur moi même J'm'emmêle les ieps dans l'fil du mic et j'me vautre la tête dans l'retour C'est pas encore du Michael Jackson Mais c'est d'ja Bad d'commencé l'concert en s'pétant l'arcade sourcilière C'est sûr c'est signé Gérard Au bout d'2 s'condes c'est l'feu, au bout d'4 c'est l'trou d'mémoire Heu Alors j'bafouille et j'postillonne J'crache dans lil d'la gonzesse au 1er rang, celle qu'était mignonne Je m'retourne vers les hommes autant qu'j'oublie les femmes En voulant taper un ??? j'file un coup d'pompe à un fan Oh putain c'est infâme, y'a la moitié d'la salle qui s'vide Quand les potes de l'autre qu'j'ai heurter m'saute à pieds joints sur l'bide Y'a du sang, d'la sueur et d'la drogue Mais qu'est ce t'attendais d'un bon vieux concert de Hard-rock !? Troque ce survet' Lacoste ici y'a qu'des headbanger The Headbangers, c'est Gérard Baste et Pedro Winter You might also like The Headbangers The Headbangers The Headbangers T'as invité Gérard Baste et l'grand blond à la casquette noire The Headbangers The Headbangers The Headbangers Toutes les conneries qu'on peut faire, tu vas pas y croire The Headbangers The Headbangers The Headbangers T'as invité les rois d'la gaffe The Headbangers The Headbangers The Headbangers C'est Pedro Winter et Gérard Baste J'me prépare d'vant l'miroir, c'soir, j'ai un dîner sympa J'vais bouffer chez ma meuf qui doit m'présenter à ses rents-pa J'ai choppé un ptit bouquet pour m'faire bien voir dès l'début du test Mais j'sais pas qu'dans l'langage des fleurs, les miennes veulent dire je vous déteste Dring dring, j'sonne à la porte Les parents s'amènent, j'espère qu'ça gêne pas si j'ramène un pote !? Le grand dadet derrière c'est Pedro, j'vous rassure, c'est un mec simple -Ouais bah nous on avait prévu pour 4 pas pour 5 Passons, à l'apéro pour moi c'est double Ricard Y'a moyen qu'j'roule un bédo pendant qu'vous m'ramenez à boire !? Et après on passe à table parce que faut qu'j'vous parle de votre fille Franch'ment j'l'adore et puis sexuellement ça s'passe super bien aussi J'leur dis qu'j'ai des rêves plein la tête Qu'ma philosophie d'vie c'est la fête j'adore l'excès J'parle trop fort en f'sant d'grands gestes J'renverse mon verre d'vin sur la nappe et j'fais tomber ma fourchette En m'baissant pour la ramassée, ça m'comprime le ventre et j'pète T'as invité Gérard Baste et l'grand blond à la casquette noire Toutes les conneries qu'on peut faire, tu vas pas y croire T'as invité les rois d'la gaffe C'est Pedro Winter et Gérard Baste J'ai r'çu un coup d'fil au début d'l'année C'est Pedro qui m'proposait d'poser sur l'instru qu'il v'nait d'composer Moi j'suis toujours partant et puis j'fais jamais la pute Quand il s'agit d'filer un coup d'main aux p'tits jeunes qui débutent J't'étale pas l'CV du gonz, manager d'Daft Punk et d'Cassius Il bosse avec les Neptunes et que trop d'gars sucent Le mec blindé d'plan Ibiza, Miami Il connait Loana bref un bobo qui a moyen d'relancer ma carrière solo Il m'a contacté en janvier, bah là on est en juin 6 mois j'm'encroûte à rien foutre Faut qu'j'trouve un mytho qui tienne la route J'me tape une panique à chaque fois qu'le téléphone sonne J'demande à ma fiancé d'décrocher et d'dire qu'il y a personne Si j'persévère dans cette voie ça va l'vénère Mais j'crois qu'j'ai trouvé l'moyen d'la lui faire à l'envers J'l'appelle, j'lui dit qu'j'vais parler d'lui dans l'texte, ça lflatte dans son ego Et maintenant d'vine qui c'est qui est en train d'mettre le feu au studio !? The Headbangers The Headbangers The Headbangers T'as invité Gérard Baste et l'grand blond à la casquette noire The Headbangers The Headbangers The Headbangers Toutes les conneries qu'on peut faire, tu vas pas y croire The Headbangers The Headbangers The Headbangers T'as invité les rois d'la gaffe The Headbangers The Headbangers The Headbangers C'est Pedro Winter et Gérard Baste Ed Bangers entertainment, Yves Robert, Svinkels T'as invité Gérard Baste T'as invité l'grand blond à la casquette noire T'as invité les rois d'la gaffe Toutes les conneries qu'on peut faire, tu vas pas y croire T'as voulu voir Gérard Baste T'as voulu voir l'grand blond à la casquette noire T'as vu 2 pauvres types à la masse Qui t'ont fait la misère, c'est la guerre, Babaste et Pedro Winter</t>
+          <t>T'as invité Gérard Baste T'as invité l'grand blond à la casquette noire T'as invité les rois d'la gaffe Toutes les conneries qu'on peut faire, tu vas pas y croire T'as voulu voir Gérard Baste T'as voulu voir l'grand blond à la casquette noire T'as vu 2 pauvres types à la masse Qui t'ont fait la misère, c'est la guerre, Babaste et Pedro Winter J'débarque sur la scène trop stylé J'fais un p'tit tour sur moi même J'm'emmêle les ieps dans l'fil du mic et j'me vautre la tête dans l'retour C'est pas encore du Michael Jackson Mais c'est d'ja Bad d'commencé l'concert en s'pétant l'arcade sourcilière C'est sûr c'est signé Gérard Au bout d'2 s'condes c'est l'feu, au bout d'4 c'est l'trou d'mémoire Heu Alors j'bafouille et j'postillonne J'crache dans lil d'la gonzesse au 1er rang, celle qu'était mignonne Je m'retourne vers les hommes autant qu'j'oublie les femmes En voulant taper un ??? j'file un coup d'pompe à un fan Oh putain c'est infâme, y'a la moitié d'la salle qui s'vide Quand les potes de l'autre qu'j'ai heurter m'saute à pieds joints sur l'bide Y'a du sang, d'la sueur et d'la drogue Mais qu'est ce t'attendais d'un bon vieux concert de Hard-rock !? Troque ce survet' Lacoste ici y'a qu'des headbanger The Headbangers, c'est Gérard Baste et Pedro Winter The Headbangers The Headbangers The Headbangers T'as invité Gérard Baste et l'grand blond à la casquette noire The Headbangers The Headbangers The Headbangers Toutes les conneries qu'on peut faire, tu vas pas y croire The Headbangers The Headbangers The Headbangers T'as invité les rois d'la gaffe The Headbangers The Headbangers The Headbangers C'est Pedro Winter et Gérard Baste J'me prépare d'vant l'miroir, c'soir, j'ai un dîner sympa J'vais bouffer chez ma meuf qui doit m'présenter à ses rents-pa J'ai choppé un ptit bouquet pour m'faire bien voir dès l'début du test Mais j'sais pas qu'dans l'langage des fleurs, les miennes veulent dire je vous déteste Dring dring, j'sonne à la porte Les parents s'amènent, j'espère qu'ça gêne pas si j'ramène un pote !? Le grand dadet derrière c'est Pedro, j'vous rassure, c'est un mec simple -Ouais bah nous on avait prévu pour 4 pas pour 5 Passons, à l'apéro pour moi c'est double Ricard Y'a moyen qu'j'roule un bédo pendant qu'vous m'ramenez à boire !? Et après on passe à table parce que faut qu'j'vous parle de votre fille Franch'ment j'l'adore et puis sexuellement ça s'passe super bien aussi J'leur dis qu'j'ai des rêves plein la tête Qu'ma philosophie d'vie c'est la fête j'adore l'excès J'parle trop fort en f'sant d'grands gestes J'renverse mon verre d'vin sur la nappe et j'fais tomber ma fourchette En m'baissant pour la ramassée, ça m'comprime le ventre et j'pète T'as invité Gérard Baste et l'grand blond à la casquette noire Toutes les conneries qu'on peut faire, tu vas pas y croire T'as invité les rois d'la gaffe C'est Pedro Winter et Gérard Baste J'ai r'çu un coup d'fil au début d'l'année C'est Pedro qui m'proposait d'poser sur l'instru qu'il v'nait d'composer Moi j'suis toujours partant et puis j'fais jamais la pute Quand il s'agit d'filer un coup d'main aux p'tits jeunes qui débutent J't'étale pas l'CV du gonz, manager d'Daft Punk et d'Cassius Il bosse avec les Neptunes et que trop d'gars sucent Le mec blindé d'plan Ibiza, Miami Il connait Loana bref un bobo qui a moyen d'relancer ma carrière solo Il m'a contacté en janvier, bah là on est en juin 6 mois j'm'encroûte à rien foutre Faut qu'j'trouve un mytho qui tienne la route J'me tape une panique à chaque fois qu'le téléphone sonne J'demande à ma fiancé d'décrocher et d'dire qu'il y a personne Si j'persévère dans cette voie ça va l'vénère Mais j'crois qu'j'ai trouvé l'moyen d'la lui faire à l'envers J'l'appelle, j'lui dit qu'j'vais parler d'lui dans l'texte, ça lflatte dans son ego Et maintenant d'vine qui c'est qui est en train d'mettre le feu au studio !? The Headbangers The Headbangers The Headbangers T'as invité Gérard Baste et l'grand blond à la casquette noire The Headbangers The Headbangers The Headbangers Toutes les conneries qu'on peut faire, tu vas pas y croire The Headbangers The Headbangers The Headbangers T'as invité les rois d'la gaffe The Headbangers The Headbangers The Headbangers C'est Pedro Winter et Gérard Baste Ed Bangers entertainment, Yves Robert, Svinkels T'as invité Gérard Baste T'as invité l'grand blond à la casquette noire T'as invité les rois d'la gaffe Toutes les conneries qu'on peut faire, tu vas pas y croire T'as voulu voir Gérard Baste T'as voulu voir l'grand blond à la casquette noire T'as vu 2 pauvres types à la masse Qui t'ont fait la misère, c'est la guerre, Babaste et Pedro Winter</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3708,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Ça fait clac clac clac qu'on on pille la boite C'est la paire de bras cassés qui fait son come-back On est d'retour dans l'studio pour finir l'boulot On est d'retour dans l'bar pour téter l'goulot C'est Gérard Baste and Busy P Prêts à faire des conneries jusqu'au bout d'la nuit Et si toi aussi chante pa padapadap pa padap pada pada padap J'débarque sur la scène trop stylé J'fais un p'tit tour sur moi même J'm'emmêle les ieps dans l'fil du mic et j'me vautre la tête dans l'retour C'est pas encore du Michael Jackson Mais c'est d'ja Bad d'commencé l'concert en s'pétant l'arcade sourcilière C'est sûr c'est signé Gérard Au bout d'2 s'condes c'est l'feu, au bout d'4 c'est l'trou d'mémoire Heu Alors j'bafouille et j'postillonne J'crache dans lil d'la gonzesse au 1er rang, celle qu'était mignonne Je m'retourne vers les hommes autant qu'j'oublie les femmes En voulant taper un ??? j'file un coup d'pompe à un fan Oh putain c'est infâme, y'a la moitié d'la salle qui s'vide Quand les potes de l'autre qu'j'ai heurter m'saute à pieds joints sur l'bide Y'a du sang, d'la sueur et d'la drogue Mais qu'est ce t'attendais d'un bon vieux concert de Hard-rock !? C'est l'son des headbangers Lève ton poings, bouge ta tête, Gérard Baste et Pedro Winter You might also like If you want some more Bang your head, bang your head if you want some more And the countdown four, say one, two, three, four Bang your head if you want some more C'est Gérard Baste and Busy P At the countdown three let's start this party One, two, three the headbangers ??? the club goes wild 'cause the party's jumpin' J'me prépare d'vant l'miroir, c'soir, j'ai un dîner sympa J'vais dîner chez ma meuf qui doit m'présenter à ses rents-pa J'ai choppé un ptit bouquet pour m'faire bien voir dès l'début du test Mais j'sais pas qu'dans l'langage des fleurs, les miennes veulent dire je vous déteste Dring dring, j'sonne à la porte Les parents s'amènent, ça vous dérange si j'ramène un pote !? Le grand dadet derrière c'est Pedro, j'vous rassure, c'est un mec simple -Ouais mais nous on avait prévu pour 4 pas pour 5 Passons, à l'apéro pour moi c'est double Ricard Y'a moyen qu'j'roule un bédo pendant qu'vous m'ramenez à boire !? Puis après on passe à table parce que faut qu'j'vous parle de votre fille Franch'ment j'l'adore et puis sexuellement ça s'passe super bien aussi J'leur dis qu'j'ai des rêves plein la tête Qu'ma philosophie d'vie c'est la fête j'adore l'excès J'parle trop fort en f'sant d'grands gestes J'renverse le pinard sur la table et j'fais tomber ma fourchette En m'baissant pour la ramassée, ça m'comprime le ventre et j'pète If you want some more Bang your head, bang your head if you want some more And the countdown four, say one, two, three, four Bang your head if you want some more C'est Gérard Baste and Busy P At the countdown three let's start this party One, two, three the headbangers ??? the club goes wild 'cause the party's jumpin' J'ai r'çu un coup d'fil au début d'l'année C'est Pedro qui m'proposait d'poser sur l'instru qu'il v'nait d'composer Moi j'suis toujours partant et puis j'fais jamais la pute Quand faut filer un coup d'paluche aux p'tits jeunes qui débutent J't'étale pas l'CV du gonz, manager d'Justice et d'Daft Punk Il bosse avec Pharell, ??? et DJ Funk Le gars blindé d'plan Ibiza, Miami Il connait Loana bref un bobo qui a moyen d'relancer ma carrière solo Il m'a contacté en avril, là on est fin septembre 6 mois j'm'encroûte à rien foutre Faut qu'j'trouve un mytho qui tienne la route J'me tape une panique à chaque fois qu'le téléphone sonne J'demande à ma fiancé d'décrocher et d'dire qu'il y a personne Si j'persévère dans cette voie ça va l'vénère Mais j'crois qu'j'ai trouvé l'moyen d'la lui faire à l'envers J'l'appelle, j'lui dit qu'j'vais parler d'lui dans l'texte, ça lflatte dans son ego Et maintenant d'vine qui c'est qui est en train d'foutre le feu au studio !? If you want some more Bang your head, bang your head if you want some more And the countdown four, say one, two, three, four Bang your head if you want some more C'est Gérard Baste and Busy P At the countdown three let's start this party One, two, three the headbangers ??? the club goes wild 'cause the party's jumpin' Headbanger recordz, Arcade mode, Yves Robert, Svinkels Ça fait clac clac clac qu'on on pille la boite C'est la paire de bras cassés qui fait son come-back On est d'retour dans l'studio pour finir l'boulot On est d'retour dans l'bar pour téter l'goulot C'est Gérard Baste and Busy P Prêts à faire des conneries jusqu'au bout d'la nuit Et si toi aussi chante pa padapadap pa padap pada pada padap</t>
+          <t>Ça fait clac clac clac qu'on on pille la boite C'est la paire de bras cassés qui fait son come-back On est d'retour dans l'studio pour finir l'boulot On est d'retour dans l'bar pour téter l'goulot C'est Gérard Baste and Busy P Prêts à faire des conneries jusqu'au bout d'la nuit Et si toi aussi chante pa padapadap pa padap pada pada padap J'débarque sur la scène trop stylé J'fais un p'tit tour sur moi même J'm'emmêle les ieps dans l'fil du mic et j'me vautre la tête dans l'retour C'est pas encore du Michael Jackson Mais c'est d'ja Bad d'commencé l'concert en s'pétant l'arcade sourcilière C'est sûr c'est signé Gérard Au bout d'2 s'condes c'est l'feu, au bout d'4 c'est l'trou d'mémoire Heu Alors j'bafouille et j'postillonne J'crache dans lil d'la gonzesse au 1er rang, celle qu'était mignonne Je m'retourne vers les hommes autant qu'j'oublie les femmes En voulant taper un ??? j'file un coup d'pompe à un fan Oh putain c'est infâme, y'a la moitié d'la salle qui s'vide Quand les potes de l'autre qu'j'ai heurter m'saute à pieds joints sur l'bide Y'a du sang, d'la sueur et d'la drogue Mais qu'est ce t'attendais d'un bon vieux concert de Hard-rock !? C'est l'son des headbangers Lève ton poings, bouge ta tête, Gérard Baste et Pedro Winter If you want some more Bang your head, bang your head if you want some more And the countdown four, say one, two, three, four Bang your head if you want some more C'est Gérard Baste and Busy P At the countdown three let's start this party One, two, three the headbangers ??? the club goes wild 'cause the party's jumpin' J'me prépare d'vant l'miroir, c'soir, j'ai un dîner sympa J'vais dîner chez ma meuf qui doit m'présenter à ses rents-pa J'ai choppé un ptit bouquet pour m'faire bien voir dès l'début du test Mais j'sais pas qu'dans l'langage des fleurs, les miennes veulent dire je vous déteste Dring dring, j'sonne à la porte Les parents s'amènent, ça vous dérange si j'ramène un pote !? Le grand dadet derrière c'est Pedro, j'vous rassure, c'est un mec simple -Ouais mais nous on avait prévu pour 4 pas pour 5 Passons, à l'apéro pour moi c'est double Ricard Y'a moyen qu'j'roule un bédo pendant qu'vous m'ramenez à boire !? Puis après on passe à table parce que faut qu'j'vous parle de votre fille Franch'ment j'l'adore et puis sexuellement ça s'passe super bien aussi J'leur dis qu'j'ai des rêves plein la tête Qu'ma philosophie d'vie c'est la fête j'adore l'excès J'parle trop fort en f'sant d'grands gestes J'renverse le pinard sur la table et j'fais tomber ma fourchette En m'baissant pour la ramassée, ça m'comprime le ventre et j'pète If you want some more Bang your head, bang your head if you want some more And the countdown four, say one, two, three, four Bang your head if you want some more C'est Gérard Baste and Busy P At the countdown three let's start this party One, two, three the headbangers ??? the club goes wild 'cause the party's jumpin' J'ai r'çu un coup d'fil au début d'l'année C'est Pedro qui m'proposait d'poser sur l'instru qu'il v'nait d'composer Moi j'suis toujours partant et puis j'fais jamais la pute Quand faut filer un coup d'paluche aux p'tits jeunes qui débutent J't'étale pas l'CV du gonz, manager d'Justice et d'Daft Punk Il bosse avec Pharell, ??? et DJ Funk Le gars blindé d'plan Ibiza, Miami Il connait Loana bref un bobo qui a moyen d'relancer ma carrière solo Il m'a contacté en avril, là on est fin septembre 6 mois j'm'encroûte à rien foutre Faut qu'j'trouve un mytho qui tienne la route J'me tape une panique à chaque fois qu'le téléphone sonne J'demande à ma fiancé d'décrocher et d'dire qu'il y a personne Si j'persévère dans cette voie ça va l'vénère Mais j'crois qu'j'ai trouvé l'moyen d'la lui faire à l'envers J'l'appelle, j'lui dit qu'j'vais parler d'lui dans l'texte, ça lflatte dans son ego Et maintenant d'vine qui c'est qui est en train d'foutre le feu au studio !? If you want some more Bang your head, bang your head if you want some more And the countdown four, say one, two, three, four Bang your head if you want some more C'est Gérard Baste and Busy P At the countdown three let's start this party One, two, three the headbangers ??? the club goes wild 'cause the party's jumpin' Headbanger recordz, Arcade mode, Yves Robert, Svinkels Ça fait clac clac clac qu'on on pille la boite C'est la paire de bras cassés qui fait son come-back On est d'retour dans l'studio pour finir l'boulot On est d'retour dans l'bar pour téter l'goulot C'est Gérard Baste and Busy P Prêts à faire des conneries jusqu'au bout d'la nuit Et si toi aussi chante pa padapadap pa padap pada pada padap</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3725,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Moi ye trouve que transsexuel ça ressemble à très sensuel Alors arrête ta cinoch, enlève ton culotte et met là tout nu ton zizi Est-ce un homme ou une femme ? Est-ce un homme ou une femme ? Si tu veux vraiment l'savoir Emmène-la dans les toilettes Sexy, Sexy, Sexy Mais faut jouer l'jeu si y'a un zgueg Oh no Tu n'devrais pas t'laisser tenter par le diable Sexy, Sexy, Sexy Mais pourquoi résister ? Tu t'dis qu'c'est une situation ma foi fort agréable Pourquoi pas essayer ? Tout nu Yo ! Dans le lit Yo ! Entouré de quelques amis Yo ! Filles et garçons, dans l'plus simple appareil Avec un superbe travelo, c'est presque pareil ! Y'a rien d'anormal y'a rien d'immoral! Ptit coup d'oeil dans l'slip comme à la visite médicale Et tu verras qu'à poil, c'est très vite la poilade Tu reconnais bien là le style des bad boys du Cap d'Agde ! You might also like Un bon trav' est-il ? Un bon trav' est-ce telle ? Bronzé, bronzé, Brazil, brazelle Tout nu yo ! Rasé de près, chauve Teinture mauve, sous la ceinture, gaule Y'en a d'jà au garde-à-vous Tout nu comme en garde à vue Moustachus, imberbes, ambigus Tenue déconvenue exigée Forêt de cons nus exhibés Quand je descends cul à l'air dans le avenue J'aimerais bien que tous les passants se mettent tout nus Ouverture d'esprit, invite un ami Et si tu veux tu tapes aussi dans un bon travesti Tu t'dis qu'c'est un superbe travesti So Sex, So Sexy, et qu'personne le saura Tu penses pouvoir te l'taper scret-di Mais derrière la porte des chiottes, y'a moi x2 Extension, inspiration Epilation, introduction Mise à nue, offerte à la vue Ouverture d'esprit, invite un ami Nuit du vice, nuit d'sévices I love you, ich liebe dich La correspondante, esthétique Avec doigté, ritmo de la noche Retire cette feuille de vigne vierge Y'a pas de gêne comme dans la genèse avec Eve Dandine ton vis, scande à la vie Chaud comme dans un sauna en Scandinavie Bien en chair comme un Botticelli Il est de toute beauté, bien sculpté Consurs et consorts, tout nu Yo ! Exprimez vos corps ! Bouge comme un asticot, roule-toi par terre Nu comme un ver, le lombric à l'air Tous dans l'frigidaire et on trempe son sexe Dans l'yaourt à zéro pour cent d'complexes Archi décadent, mets ta tenue d'Adam Dis-moi, est-ce que les singes se posent toutes ces questions ? Et même les autres animaux ? Alors une bonne fois pour toutes j'veux voir tout le monde tout nu Yo ! Rolling backs naked down the avenue J'aimerais bien que tous les passants se mettent tout nus Ouverture d'esprit, invite un ami Et si tu veux tu tapes aussi dans un bon travesti Tu t'dis qu'c'est un superbe travesti So Sex, So Sexy, et qu'personne le saura Tu penses pouvoir te l'taper scret-di I like it! Mais derrière la porte des chiottes, y'a moi C'est une ambiance ... de pédale Après l'concert, ils s'foutent tous à poil Et ça court dans tout l'hôtel Dans le plus simple appareil Stetson et Santiag Gérard Baste aime l'exhib' Texane Des travelos ? affirmatif Quoi moi ? Tout nu Yo ? Comment ça !? Tout nu Yo ! Dans le lit Yo ! Entouré de quelques amis Yo ! Filles et garçons, dans l'plus simple appareil Avec un superbe travelo, c'est presque pareil ! Y'a rien d'anormal y'a rien d'immoral! Ptit coup d'oeil dans l'slip comme à la visite médicale Et tu verras qu'à poil, c'est très vite la poilade Tu reconnais bien là le style des bad boys du Cap d'Agde !</t>
+          <t>Moi ye trouve que transsexuel ça ressemble à très sensuel Alors arrête ta cinoch, enlève ton culotte et met là tout nu ton zizi Est-ce un homme ou une femme ? Est-ce un homme ou une femme ? Si tu veux vraiment l'savoir Emmène-la dans les toilettes Sexy, Sexy, Sexy Mais faut jouer l'jeu si y'a un zgueg Oh no Tu n'devrais pas t'laisser tenter par le diable Sexy, Sexy, Sexy Mais pourquoi résister ? Tu t'dis qu'c'est une situation ma foi fort agréable Pourquoi pas essayer ? Tout nu Yo ! Dans le lit Yo ! Entouré de quelques amis Yo ! Filles et garçons, dans l'plus simple appareil Avec un superbe travelo, c'est presque pareil ! Y'a rien d'anormal y'a rien d'immoral! Ptit coup d'oeil dans l'slip comme à la visite médicale Et tu verras qu'à poil, c'est très vite la poilade Tu reconnais bien là le style des bad boys du Cap d'Agde ! Un bon trav' est-il ? Un bon trav' est-ce telle ? Bronzé, bronzé, Brazil, brazelle Tout nu yo ! Rasé de près, chauve Teinture mauve, sous la ceinture, gaule Y'en a d'jà au garde-à-vous Tout nu comme en garde à vue Moustachus, imberbes, ambigus Tenue déconvenue exigée Forêt de cons nus exhibés Quand je descends cul à l'air dans le avenue J'aimerais bien que tous les passants se mettent tout nus Ouverture d'esprit, invite un ami Et si tu veux tu tapes aussi dans un bon travesti Tu t'dis qu'c'est un superbe travesti So Sex, So Sexy, et qu'personne le saura Tu penses pouvoir te l'taper scret-di Mais derrière la porte des chiottes, y'a moi x2 Extension, inspiration Epilation, introduction Mise à nue, offerte à la vue Ouverture d'esprit, invite un ami Nuit du vice, nuit d'sévices I love you, ich liebe dich La correspondante, esthétique Avec doigté, ritmo de la noche Retire cette feuille de vigne vierge Y'a pas de gêne comme dans la genèse avec Eve Dandine ton vis, scande à la vie Chaud comme dans un sauna en Scandinavie Bien en chair comme un Botticelli Il est de toute beauté, bien sculpté Consurs et consorts, tout nu Yo ! Exprimez vos corps ! Bouge comme un asticot, roule-toi par terre Nu comme un ver, le lombric à l'air Tous dans l'frigidaire et on trempe son sexe Dans l'yaourt à zéro pour cent d'complexes Archi décadent, mets ta tenue d'Adam Dis-moi, est-ce que les singes se posent toutes ces questions ? Et même les autres animaux ? Alors une bonne fois pour toutes j'veux voir tout le monde tout nu Yo ! Rolling backs naked down the avenue J'aimerais bien que tous les passants se mettent tout nus Ouverture d'esprit, invite un ami Et si tu veux tu tapes aussi dans un bon travesti Tu t'dis qu'c'est un superbe travesti So Sex, So Sexy, et qu'personne le saura Tu penses pouvoir te l'taper scret-di I like it! Mais derrière la porte des chiottes, y'a moi C'est une ambiance ... de pédale Après l'concert, ils s'foutent tous à poil Et ça court dans tout l'hôtel Dans le plus simple appareil Stetson et Santiag Gérard Baste aime l'exhib' Texane Des travelos ? affirmatif Quoi moi ? Tout nu Yo ? Comment ça !? Tout nu Yo ! Dans le lit Yo ! Entouré de quelques amis Yo ! Filles et garçons, dans l'plus simple appareil Avec un superbe travelo, c'est presque pareil ! Y'a rien d'anormal y'a rien d'immoral! Ptit coup d'oeil dans l'slip comme à la visite médicale Et tu verras qu'à poil, c'est très vite la poilade Tu reconnais bien là le style des bad boys du Cap d'Agde !</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3742,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Zengui ! Celle là elle est tout péter ! On débarque dans ta fête on est pas invité Balance du son qui pète on est sur-motivé Pas besoin d'se droguer on est d'jà fracassé Si c'est une chouette soirée on va l'atomiser La salle à manger on va la dévaster Ramène tout l'mobilier on va l'faire brûler Ta belle baie vitrée on va la briser Papier peint imprimé on va l'décoller Ton super canapé on va l'éventrer Les fauteuils rembourrés on va les lacérer Ta moquette colorée on va la tacher Les robes de mémé on va les souiller Les jolies p'tits ballons on va les crever Toutes les décorations on va les arracher Les rideaux en velours on va les découper Les fleurs dans la cours on va les piétiner Dans ta cuisine on va tout renverser Les bouteilles, tout vider, les frigos, tout bouffer, tout ruiner Toute ta jolie cuisine on va la démonter Ta jolie p'tite cousine on va la déboiter Dans l'eau trop chlorée d'ta piscine on va tout déverser Les matelas et les bouées on va les dégonfler Si t'appelles les pompiers on va les caillasser Si ta famille revient elle sera traumatisée Même les policiers seront paralysés Tout l'monde les mains en l'air on va vous amputer Les p'tits canaris on va les étrangler Et même les poissons rouges on va les noyer Les draps d'tes parents on va les salir Les tapis persan on va les pourrir Les jouets d'tes enfants on va les faire frire Les photos d'ta maman, j'les prends, j'les déchire Ton moral d'acier j'vais te l'démolir Tes belles convictions j'vais les anéantir Y'a encore un peu d'taf on est pas prêt d'partir Bref toute ta baraque on va la détruire Parce qu'on va You might also like Tout péter, tout péter, tout péter, tout péter Tout casser, tout casser, tout casser, tout casser Tout péter, tout péter, tout péter, tout péter Tout casser, tout casser, tout casser, tout casser Zengui ! Y'a beaucoup trop d'cymbales ! Gérard Baste ! DMSV2 Dans mon slip ! Plus copieux ! Plus généreux ! C'est l'volume 2 ! Hey gros ! Vas-y viens on bouge Lève ton cul d'ton canapé, mets tes shoes M'fait pas l'plan Robert Johnson, m'file le blues Ce soir y'aura les pires biatchs et les couz Elle est belle et sans elle la fête est pourrie Donc j'la cherche, j'la trouve, j'la fourre Halle Berry Halle Berry! Ça va aller, motivé, ça tombe bien j'ai une tonne d'hormones à libérés J'suis c'genre de type qui n'marque pas le stop Tu sais qu'c'est nous quand ça fait pop, pop dans l'spot On ne frappe pas on arrache la porte On est venu pour tout péter encore Franchement niveau foncedés, ça va c'est correct J'ai d'quoi tuer deux ou trois personnes dans ma pochette L'instru il déboîte si, si ! Presque autant qu'ce flow ??? New-York City! Sur scène je deviens un autre être J'sais pas c'est comme un déclic qui s'fait dans ma tête Andy Murray à l'entame du ??? Ferme ta gueule ici y'a qu'moi qui s'la pète En fait on ne me stoppe plus Ça fait 20 ans qu'ça dure, au bout d'6 mois t'as disparu Si tu tapes un mauvais délire parce que tu tire sur ma ??? Fais pas chier, va aux chiottes te rincer la gueule Yeah ! Xan ! Palace Prod ! Passe-moi un siège pour m'asseoir poto Laisse-moi m'poser tranquille Gérard Baste !</t>
+          <t>Zengui ! Celle là elle est tout péter ! On débarque dans ta fête on est pas invité Balance du son qui pète on est sur-motivé Pas besoin d'se droguer on est d'jà fracassé Si c'est une chouette soirée on va l'atomiser La salle à manger on va la dévaster Ramène tout l'mobilier on va l'faire brûler Ta belle baie vitrée on va la briser Papier peint imprimé on va l'décoller Ton super canapé on va l'éventrer Les fauteuils rembourrés on va les lacérer Ta moquette colorée on va la tacher Les robes de mémé on va les souiller Les jolies p'tits ballons on va les crever Toutes les décorations on va les arracher Les rideaux en velours on va les découper Les fleurs dans la cours on va les piétiner Dans ta cuisine on va tout renverser Les bouteilles, tout vider, les frigos, tout bouffer, tout ruiner Toute ta jolie cuisine on va la démonter Ta jolie p'tite cousine on va la déboiter Dans l'eau trop chlorée d'ta piscine on va tout déverser Les matelas et les bouées on va les dégonfler Si t'appelles les pompiers on va les caillasser Si ta famille revient elle sera traumatisée Même les policiers seront paralysés Tout l'monde les mains en l'air on va vous amputer Les p'tits canaris on va les étrangler Et même les poissons rouges on va les noyer Les draps d'tes parents on va les salir Les tapis persan on va les pourrir Les jouets d'tes enfants on va les faire frire Les photos d'ta maman, j'les prends, j'les déchire Ton moral d'acier j'vais te l'démolir Tes belles convictions j'vais les anéantir Y'a encore un peu d'taf on est pas prêt d'partir Bref toute ta baraque on va la détruire Parce qu'on va Tout péter, tout péter, tout péter, tout péter Tout casser, tout casser, tout casser, tout casser Tout péter, tout péter, tout péter, tout péter Tout casser, tout casser, tout casser, tout casser Zengui ! Y'a beaucoup trop d'cymbales ! Gérard Baste ! DMSV2 Dans mon slip ! Plus copieux ! Plus généreux ! C'est l'volume 2 ! Hey gros ! Vas-y viens on bouge Lève ton cul d'ton canapé, mets tes shoes M'fait pas l'plan Robert Johnson, m'file le blues Ce soir y'aura les pires biatchs et les couz Elle est belle et sans elle la fête est pourrie Donc j'la cherche, j'la trouve, j'la fourre Halle Berry Halle Berry! Ça va aller, motivé, ça tombe bien j'ai une tonne d'hormones à libérés J'suis c'genre de type qui n'marque pas le stop Tu sais qu'c'est nous quand ça fait pop, pop dans l'spot On ne frappe pas on arrache la porte On est venu pour tout péter encore Franchement niveau foncedés, ça va c'est correct J'ai d'quoi tuer deux ou trois personnes dans ma pochette L'instru il déboîte si, si ! Presque autant qu'ce flow ??? New-York City! Sur scène je deviens un autre être J'sais pas c'est comme un déclic qui s'fait dans ma tête Andy Murray à l'entame du ??? Ferme ta gueule ici y'a qu'moi qui s'la pète En fait on ne me stoppe plus Ça fait 20 ans qu'ça dure, au bout d'6 mois t'as disparu Si tu tapes un mauvais délire parce que tu tire sur ma ??? Fais pas chier, va aux chiottes te rincer la gueule Yeah ! Xan ! Palace Prod ! Passe-moi un siège pour m'asseoir poto Laisse-moi m'poser tranquille Gérard Baste !</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3759,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Hey ! Ça c'est un p'tit morceau Tu l'connais pas mais en fait c'est comme ci, enfin.. Faut qu'j't'explique ! C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Ouais tu le ... Ouais tu le ... Aujourd'hui j'voulais rester tranquille, pépère au lit Devant la télé avec une pizza ... J'ai un gros problème, même quand j'suis tout seul je bois Et j'me réveille toujours avec une belle ... Lourd comme une pierre, j'crois qu'j'agis d'une manière suicidaire Mais j'm'en fous, j'vais quand même chercher une bière dans le ... Y'a pas qu'avec la tise que j'suis un vrai barbare Fous un beat, j'le bouffe tout cru comme un steak ... On laisse les mecs au sol et les filles toujours frétillantes Arrête de gazer et va boire ton eau ... File ton bout d'teuteu, ouais on shoote le jeu Mais qu'est-ce, mais qu'est qu'on attend ... J'suis un poids lourd, tout c'que j'fais est trop puissant J'me suis élargit comme dans un miroir ... T'façon c'est l'genre de zique qui s'apprécie rré-bou Si tu kiffes pas renoi ... You might also like C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Ouais tu le ... Ouais tu le ... C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Écoute le refrain, tu le ... Je n'veux pas faire de politique ma mission est ... Le Hip-Hop mon royaume, mon ... Peaufiné, léché, trop sophistiqué c'est ... Je pense pas à demain parce que demain ... Ok ! Mon équipe tue bien, j'ai entendu la tienne et puis plus rien Ma devise c'est Carpe Diem, j'suis un ... Tu t'rappelles plus d'rien parce qu'on a mit la gomme sur le Rhum En fait tout allait bien puis t'es tombé ... J'serais jamais l'genre de rappeur que les zoulettes sucent Une seule bière pleine dans l'pack ça c'est ma ... J'rigole et j'glisse comme un gosse qui irait à l'école en ski J'vais violer tes oreilles pas comme Roman ... Mais pour le repas du soir, t'inquiètes papa est là Chorizo, moules et crevettes mais c'est pas d'la ... J'me lèche les babines, tu sais qu'le sadique est là J'vais t'démonté, t'laisser en kit dans un sac ... C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Ouais tu le ... Ouais tu le ... C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Écoute le refrain, tu le ... Spéciale dédicace à mon ... et aussi à ma ... Massif big up à tous ceux qui ... tous ceux ouais! Et aussi ceux ... yes! Laisse moi avoir une p'tite pensée pour tout ... On pense à vous on pense à vous les frères! Yes ! C'était Gérard ... Peace !</t>
+          <t>Hey ! Ça c'est un p'tit morceau Tu l'connais pas mais en fait c'est comme ci, enfin.. Faut qu'j't'explique ! C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Ouais tu le ... Ouais tu le ... Aujourd'hui j'voulais rester tranquille, pépère au lit Devant la télé avec une pizza ... J'ai un gros problème, même quand j'suis tout seul je bois Et j'me réveille toujours avec une belle ... Lourd comme une pierre, j'crois qu'j'agis d'une manière suicidaire Mais j'm'en fous, j'vais quand même chercher une bière dans le ... Y'a pas qu'avec la tise que j'suis un vrai barbare Fous un beat, j'le bouffe tout cru comme un steak ... On laisse les mecs au sol et les filles toujours frétillantes Arrête de gazer et va boire ton eau ... File ton bout d'teuteu, ouais on shoote le jeu Mais qu'est-ce, mais qu'est qu'on attend ... J'suis un poids lourd, tout c'que j'fais est trop puissant J'me suis élargit comme dans un miroir ... T'façon c'est l'genre de zique qui s'apprécie rré-bou Si tu kiffes pas renoi ... C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Ouais tu le ... Ouais tu le ... C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Écoute le refrain, tu le ... Je n'veux pas faire de politique ma mission est ... Le Hip-Hop mon royaume, mon ... Peaufiné, léché, trop sophistiqué c'est ... Je pense pas à demain parce que demain ... Ok ! Mon équipe tue bien, j'ai entendu la tienne et puis plus rien Ma devise c'est Carpe Diem, j'suis un ... Tu t'rappelles plus d'rien parce qu'on a mit la gomme sur le Rhum En fait tout allait bien puis t'es tombé ... J'serais jamais l'genre de rappeur que les zoulettes sucent Une seule bière pleine dans l'pack ça c'est ma ... J'rigole et j'glisse comme un gosse qui irait à l'école en ski J'vais violer tes oreilles pas comme Roman ... Mais pour le repas du soir, t'inquiètes papa est là Chorizo, moules et crevettes mais c'est pas d'la ... J'me lèche les babines, tu sais qu'le sadique est là J'vais t'démonté, t'laisser en kit dans un sac ... C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Ouais tu le ... Ouais tu le ... C'est le morceau que tu connais déjà Tu l'a jamais entendu mais tu le ... Tu l'entends pour la première fois, tu le ... Écoute le refrain, tu le ... Spéciale dédicace à mon ... et aussi à ma ... Massif big up à tous ceux qui ... tous ceux ouais! Et aussi ceux ... yes! Laisse moi avoir une p'tite pensée pour tout ... On pense à vous on pense à vous les frères! Yes ! C'était Gérard ... Peace !</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3776,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>L'haleine du Svinkels a le même effet magique qu'Impulse Soit on t'offre des fleurs soit on t'casse la gueule C'est le chant des supporters, déploie les banderoles On est venu tout renverser comme aux fêtes de Bayonne À chaque date, c'est l'bordel comme à Bagdad Et les gars r'partent, sont ouin-ouin comme Roland Magdane Tout c'qu'on veut, c'est qu'les mecs bandent et qu'les filles mouillent On est là pour qu'tout le monde s'fasse plaisir ma couille Ça fait 1, 2, fait craquer la sono c'est le Svink crew La soirée commence les meufs se trémoussent 4H du matin et la fête saute encore car maman est en week-end J'voudrais, qu'tout le monde s'aime et j'vais pas t'lire un poème Mais organiser la partouze du PSG et d'l'OM Pas d'problème, zen, distribution de tazexs On va séquestrer Footix et tabasser Gaston latex Toujours dans l'kif, quelques verres dans l'pif, on tranche dans l'vif On ramène le soleil pour les tronches d'endives Mon secret, c'est d'boire du vin, du coup j'ai pas besoin d'UV C'est pas que j'bronze mais j'ai l'visage ultra-violet On adore faire notre cirque et on a rempli le chapiteau J'suis pas un groupe de ska mais j'ai envie d'dire tigido -Alors Gérard vous ouvrez le rideau ? -Bah non là faut qu'j'taille Clodo rasta à la ramasse, Jah ramasse ta ferraille Rentrer dans l'rang c'est mission impossible Les connes de l'ANPE m'rendent susceptible Bosser ça m'fait mal mais là j'ai l'antiseptique J'ai lu dans l'journal mon style est ultra festif Saute dans tes babouches, viens jouer à touche-touche Va y-avoir du spectacle, deux minettes s'prennent la bouche Dès qu'elles entendent mon son les radios s'effarouchent Les gens veulent de la soupe, trop tard j'ai craché dans la louche You might also like Ultra festifs, tout retourner v'là l'objectif Ici c'est open y'a pas d' tri sélectif C'est pour les darons comme pour les keums de seize piges Lèves tes mains en l'air et suit les directives Chantez Na na na na na na na na naaa -Na na na na na na na na naaa Na na na na na na na na naaa -Na na na na na na na na naaa J'veux voir les tétons qui pointent sous les soutifs Les d'sous d'bras qui suintent pour le Svink ultra festif Les voix qui s'esquintent, troisième mi-temps digestif Ultra sportifs car on lâche jamais le morcif J'souris comme un élu, chemise Honolulu Tout l'monde est l'bienvenu, ultra faux-cul Coupe de p'tites bulles j' tète un G dans l'vestibule Sans prise de tête, faut pas qu'la foncedé brise la fête Pas très glamour mais avec amour on lâche notre p'tit tour On fout notre carte de France à jour Torride, z'ont laché les fauves comme à Thoiry Ressers-moi, jveux pas être aride comme un Touareg Tout est permis, jouir sans alibi Range tes anxiolytiques, sans gène comme Ali G On squatte comme les romains, banquettes et grappes de raisins Corbeille de fruits défendus, hallucinogènes dans l'cul Barmaid dans l'jus, t'en met plein la vue Jump sur les fûts, décroche la pleine lune Lèves ta pinte pour les putains d'Svink On dévergonderait même une ville sainte C'est la parité, les meufs boivent comme des keums Pour la mixité, passe passe le oinj de sum Lève l'index l'auriculaire, c'est les Svinkels populaires Pas besoin d'braquer la foule, pour voir toutes les mains en l'air Ultra festifs, tout retourner v'là l'objectif Ici c'est open y'a pas d' tri sélectif C'est pour les darons comme pour les keums de seize piges Lèves tes mains en l'air et suit les directives Chantez Na na na na na na na na naaa -Na na na na na na na na naaa Na na na na na na na na naaa -Na na na na na na na na naaa Non c'est vraiment pas la peine, non c'est pas la peine que j'vienne Je n'poserais pas sur c't'instru, déguisé en père noël Je n'f'rais pas n'importe quoi, même si l'public le demande Je n'boirais pas avec eux, quitte à finir dans les plantes Ultra festifs, j'dirais plus ultra poussifs Les stigmates de l'alcool sur une tronche ultra rouge vif Te-bê, ringards, comportement agressif Bons pour une chose la chasse aux truffes, ultra gros pif x2 If you want a real party bitch Better wave your hands in the air If you put a fit in my party Better wave your drinks in the air Try to have fun in my party With very good women in my party Try to have sex in my party But never broke a fight in my party Brought your own bottle in my party 'Cause I've got my own in my party I'm never gonna share in my party Let me hear you say it's my party It's my party, it's my party Gerard Baste say it's my party Nikus don't say it's party And this 'cause you don't say it's my party It's my party, it's my party</t>
+          <t>L'haleine du Svinkels a le même effet magique qu'Impulse Soit on t'offre des fleurs soit on t'casse la gueule C'est le chant des supporters, déploie les banderoles On est venu tout renverser comme aux fêtes de Bayonne À chaque date, c'est l'bordel comme à Bagdad Et les gars r'partent, sont ouin-ouin comme Roland Magdane Tout c'qu'on veut, c'est qu'les mecs bandent et qu'les filles mouillent On est là pour qu'tout le monde s'fasse plaisir ma couille Ça fait 1, 2, fait craquer la sono c'est le Svink crew La soirée commence les meufs se trémoussent 4H du matin et la fête saute encore car maman est en week-end J'voudrais, qu'tout le monde s'aime et j'vais pas t'lire un poème Mais organiser la partouze du PSG et d'l'OM Pas d'problème, zen, distribution de tazexs On va séquestrer Footix et tabasser Gaston latex Toujours dans l'kif, quelques verres dans l'pif, on tranche dans l'vif On ramène le soleil pour les tronches d'endives Mon secret, c'est d'boire du vin, du coup j'ai pas besoin d'UV C'est pas que j'bronze mais j'ai l'visage ultra-violet On adore faire notre cirque et on a rempli le chapiteau J'suis pas un groupe de ska mais j'ai envie d'dire tigido -Alors Gérard vous ouvrez le rideau ? -Bah non là faut qu'j'taille Clodo rasta à la ramasse, Jah ramasse ta ferraille Rentrer dans l'rang c'est mission impossible Les connes de l'ANPE m'rendent susceptible Bosser ça m'fait mal mais là j'ai l'antiseptique J'ai lu dans l'journal mon style est ultra festif Saute dans tes babouches, viens jouer à touche-touche Va y-avoir du spectacle, deux minettes s'prennent la bouche Dès qu'elles entendent mon son les radios s'effarouchent Les gens veulent de la soupe, trop tard j'ai craché dans la louche Ultra festifs, tout retourner v'là l'objectif Ici c'est open y'a pas d' tri sélectif C'est pour les darons comme pour les keums de seize piges Lèves tes mains en l'air et suit les directives Chantez Na na na na na na na na naaa -Na na na na na na na na naaa Na na na na na na na na naaa -Na na na na na na na na naaa J'veux voir les tétons qui pointent sous les soutifs Les d'sous d'bras qui suintent pour le Svink ultra festif Les voix qui s'esquintent, troisième mi-temps digestif Ultra sportifs car on lâche jamais le morcif J'souris comme un élu, chemise Honolulu Tout l'monde est l'bienvenu, ultra faux-cul Coupe de p'tites bulles j' tète un G dans l'vestibule Sans prise de tête, faut pas qu'la foncedé brise la fête Pas très glamour mais avec amour on lâche notre p'tit tour On fout notre carte de France à jour Torride, z'ont laché les fauves comme à Thoiry Ressers-moi, jveux pas être aride comme un Touareg Tout est permis, jouir sans alibi Range tes anxiolytiques, sans gène comme Ali G On squatte comme les romains, banquettes et grappes de raisins Corbeille de fruits défendus, hallucinogènes dans l'cul Barmaid dans l'jus, t'en met plein la vue Jump sur les fûts, décroche la pleine lune Lèves ta pinte pour les putains d'Svink On dévergonderait même une ville sainte C'est la parité, les meufs boivent comme des keums Pour la mixité, passe passe le oinj de sum Lève l'index l'auriculaire, c'est les Svinkels populaires Pas besoin d'braquer la foule, pour voir toutes les mains en l'air Ultra festifs, tout retourner v'là l'objectif Ici c'est open y'a pas d' tri sélectif C'est pour les darons comme pour les keums de seize piges Lèves tes mains en l'air et suit les directives Chantez Na na na na na na na na naaa -Na na na na na na na na naaa Na na na na na na na na naaa -Na na na na na na na na naaa Non c'est vraiment pas la peine, non c'est pas la peine que j'vienne Je n'poserais pas sur c't'instru, déguisé en père noël Je n'f'rais pas n'importe quoi, même si l'public le demande Je n'boirais pas avec eux, quitte à finir dans les plantes Ultra festifs, j'dirais plus ultra poussifs Les stigmates de l'alcool sur une tronche ultra rouge vif Te-bê, ringards, comportement agressif Bons pour une chose la chasse aux truffes, ultra gros pif x2 If you want a real party bitch Better wave your hands in the air If you put a fit in my party Better wave your drinks in the air Try to have fun in my party With very good women in my party Try to have sex in my party But never broke a fight in my party Brought your own bottle in my party 'Cause I've got my own in my party I'm never gonna share in my party Let me hear you say it's my party It's my party, it's my party Gerard Baste say it's my party Nikus don't say it's party And this 'cause you don't say it's my party It's my party, it's my party</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3793,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>- Let's do it again now, if you please Vite fait, mal fait mais ça l'fait Du sans filet, sans filage Un sample et c'est l'pillage Acharné dans l'carnage Avachi dans l'anarchie Ça va chier mais pas d'gâchis D'la gâchette pour la gazette Et tous les gaziers font Mazette Aller en route, mauvais groupe Et tous les flights dans les soutes Pour foutre le souk dans ton bled En sortie d'scène, un blended on the rocks Un joint d'herbe, un peu d'verve Ho man, you rock ! Ouais one shot, record et vite fait, mal fait Vite fait, mal fait, c'est du sans filet, vite fait, mal fait Vite fait vite fait! mal fait mal fait! c'est d'la haute voltige, c'est vite fait, mal fait Y'a un nouvel instru, faut qu'on pause vite, vite, vite Faut que j'trouve des bons lyrics pour se pur beat, beat, beat C'est du vite fait, mal fait, j'me précipite, pite, pite Et pour me motiver, j'roule un oinj de shit, shit, shit Quand on l'jouera sur scène, les gars feront zut, zut,zut Autour d'eux leurs gonzesses leur diront shut, shut,shut Les rappeurs qui l'entendront feront dans leur fute, fute, fute Et si tu t'prends pour le King, prépare ta chute, chute, chute Alors bande de p'tites poulettes ça f'sait cot, cot, cot Mais tu flippes car tu sens montée ma côte, côte, côte On est venu pour niquer c'business avec nos potes, potes, potes Et virer les wacks du circuit à coups d'bottes, bottes, bottes J'ai lu ton interview, j'trouve que tu t'la pète, pète, pète Mais quand j'écoute tes paroles, bah j'les trouvent bêtes, bêtes, bêtes En concert vite fait, mal fait, bah c'est ton set, set, set Le mien c'est la fête, fête, fête Regarde ta tête, tête, tête, tête J'pose un one shot, shot, shot Après on taille, taille, taille Goûte le fire, fire, fire où qu'on aille, aille, aille Mets ton Damart on va t'refroidir, ça caille, caille, caille Les roquets font kaï, kaï Cherche pas la faille, faille, faille C'est l'genre de son où les B-boy crient my, my, my Aussi vite fait qu'la coke traverse une paille, paille, paille Faire un track en 10 minutes ça f'sait un bail, bail, bail Vite fait, mal fait, Gerard Baste vous dit Bye, bye, bye You might also like On va pas s'emmerder Mais j'vais faire ça sans merder Et laisser aux p'tits merdeux Écraser l'rap de morveux Juste un hors-d'uvre faute de mieux Complète mon oeuvre faute dêtre pieu De tout mon vu si tu m'en veux C'est vite fait, mal fait si tu veux Vite fait vite fait! mal fait mal fait! c'est du sans filet, vite fait, mal fait Vite fait vite fait mal fait mal fait c'est du sans filet, c'est vite fait, mal fait Vite fait vite fait! mal fait mal fait! c'est du sans filet c'est vite fait, mal fait Vite fait vite fait mal fait mal fait c'est d'la haute voltige, c'est vite fait, mal fait Vite fait, mal fait -Let's do it again now, if you please C'est infâme, j'voulais qu'ça s'passe bien Mais tout est vite fait, mal fait et donc ça craint On avait décidé d'faire les choses dans les règles Et pourtant j'savais dès l'début qu'on allait s'y perdre Fallait bosser mais j'avais déjà décidé, qu'aujourd'hui j'f'rais rien Tiens si tu veux j'te lâche un pauvre refrain Ça fait Vite fait, mal fait Hollow - C'est pas mal, mais ça m'fait penser à c'que j'avais trouvé c'matin Et bah ouais j't'ai pompé, vu qu'j'avais envie d'rien foutre À l'aurore t'écrivais, j'avais les feuilles à l'écoute Pour qu'tu crois qu'ça vient d'moi J'te push encore une goutte Pour qu'une fois bien bourré, tu t'rappelles plus et qu'tu fasses Écoute, écoute ! Ah putain c'est mortel ! Là y'a Xanax il a trouvé un plan trop cruel Ouais c'est vrai qu'elle est belle J'dirais même qu'c'est parfait J'm'en sors encore avec un truc vite fait, mal fait Vite fait vite fait! mal fait mal fait! c'est du sans filet, vite fait, mal fait Vite fait vite fait mal fait mal fait c'est du sans filet, c'est vite fait, mal fait Vite fait vite fait! mal fait mal fait! c'est du sans filet c'est vite fait, mal fait Vite fait vite fait mal fait mal fait c'est d'la haute voltige, c'est vite fait, mal fait</t>
+          <t>- Let's do it again now, if you please Vite fait, mal fait mais ça l'fait Du sans filet, sans filage Un sample et c'est l'pillage Acharné dans l'carnage Avachi dans l'anarchie Ça va chier mais pas d'gâchis D'la gâchette pour la gazette Et tous les gaziers font Mazette Aller en route, mauvais groupe Et tous les flights dans les soutes Pour foutre le souk dans ton bled En sortie d'scène, un blended on the rocks Un joint d'herbe, un peu d'verve Ho man, you rock ! Ouais one shot, record et vite fait, mal fait Vite fait, mal fait, c'est du sans filet, vite fait, mal fait Vite fait vite fait! mal fait mal fait! c'est d'la haute voltige, c'est vite fait, mal fait Y'a un nouvel instru, faut qu'on pause vite, vite, vite Faut que j'trouve des bons lyrics pour se pur beat, beat, beat C'est du vite fait, mal fait, j'me précipite, pite, pite Et pour me motiver, j'roule un oinj de shit, shit, shit Quand on l'jouera sur scène, les gars feront zut, zut,zut Autour d'eux leurs gonzesses leur diront shut, shut,shut Les rappeurs qui l'entendront feront dans leur fute, fute, fute Et si tu t'prends pour le King, prépare ta chute, chute, chute Alors bande de p'tites poulettes ça f'sait cot, cot, cot Mais tu flippes car tu sens montée ma côte, côte, côte On est venu pour niquer c'business avec nos potes, potes, potes Et virer les wacks du circuit à coups d'bottes, bottes, bottes J'ai lu ton interview, j'trouve que tu t'la pète, pète, pète Mais quand j'écoute tes paroles, bah j'les trouvent bêtes, bêtes, bêtes En concert vite fait, mal fait, bah c'est ton set, set, set Le mien c'est la fête, fête, fête Regarde ta tête, tête, tête, tête J'pose un one shot, shot, shot Après on taille, taille, taille Goûte le fire, fire, fire où qu'on aille, aille, aille Mets ton Damart on va t'refroidir, ça caille, caille, caille Les roquets font kaï, kaï Cherche pas la faille, faille, faille C'est l'genre de son où les B-boy crient my, my, my Aussi vite fait qu'la coke traverse une paille, paille, paille Faire un track en 10 minutes ça f'sait un bail, bail, bail Vite fait, mal fait, Gerard Baste vous dit Bye, bye, bye On va pas s'emmerder Mais j'vais faire ça sans merder Et laisser aux p'tits merdeux Écraser l'rap de morveux Juste un hors-d'uvre faute de mieux Complète mon oeuvre faute dêtre pieu De tout mon vu si tu m'en veux C'est vite fait, mal fait si tu veux Vite fait vite fait! mal fait mal fait! c'est du sans filet, vite fait, mal fait Vite fait vite fait mal fait mal fait c'est du sans filet, c'est vite fait, mal fait Vite fait vite fait! mal fait mal fait! c'est du sans filet c'est vite fait, mal fait Vite fait vite fait mal fait mal fait c'est d'la haute voltige, c'est vite fait, mal fait Vite fait, mal fait -Let's do it again now, if you please C'est infâme, j'voulais qu'ça s'passe bien Mais tout est vite fait, mal fait et donc ça craint On avait décidé d'faire les choses dans les règles Et pourtant j'savais dès l'début qu'on allait s'y perdre Fallait bosser mais j'avais déjà décidé, qu'aujourd'hui j'f'rais rien Tiens si tu veux j'te lâche un pauvre refrain Ça fait Vite fait, mal fait Hollow - C'est pas mal, mais ça m'fait penser à c'que j'avais trouvé c'matin Et bah ouais j't'ai pompé, vu qu'j'avais envie d'rien foutre À l'aurore t'écrivais, j'avais les feuilles à l'écoute Pour qu'tu crois qu'ça vient d'moi J'te push encore une goutte Pour qu'une fois bien bourré, tu t'rappelles plus et qu'tu fasses Écoute, écoute ! Ah putain c'est mortel ! Là y'a Xanax il a trouvé un plan trop cruel Ouais c'est vrai qu'elle est belle J'dirais même qu'c'est parfait J'm'en sors encore avec un truc vite fait, mal fait Vite fait vite fait! mal fait mal fait! c'est du sans filet, vite fait, mal fait Vite fait vite fait mal fait mal fait c'est du sans filet, c'est vite fait, mal fait Vite fait vite fait! mal fait mal fait! c'est du sans filet c'est vite fait, mal fait Vite fait vite fait mal fait mal fait c'est d'la haute voltige, c'est vite fait, mal fait</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3810,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Ok, euh, Kanter, euh, t'as mit des nouvelles cordes sur la guitare ? Hey Obs, le piano il est accordé là ? Il reste des saucisses pour la choucroute ou quoi ? Y'a des trous dans la flûte !? Bon qu'est ce qui faut, qu'est ce qui faut faire pour faire d'la musique ici, merde ! Oh ! C'est Gérard Baste mec Yeah ! Yeah ! Yeah ! J'balance des tartes et des tartines Mon flow est d'taille comme un trou d'balle Serré comme une boite de sardines Passe-moi le microphone que j'le ru-ine Si tu m'broute, j'te mâche et avant d'te chier, j'te rumine Les gars sont chauds, les filles sont humides J'vais m'en mettre plein l'bide et prendre cher avant qu'on s'débine J'suis un ouf, j'suis un débile Chez Léon, j'commande un steak, j'prend les moules au Buffalo Grill 1 pour la basse, 2 pour les pétasses J'débarque dans le bar prêt à brûler les pesetas Sors largenterie quand l'équipe s'déplace Demande pas qui c'est l'plus chaud, c'est Baste ! On est pas v'nu faire dans l'raffiné Plutôt dans l'style de vieilles croûtes fromages affinés J'suis l'portrait type d'la brute avinée Mais j'sais faire tout pleins d'trucs alités, de grande qualité On finira tous surendettés ah non! Sous trips éventés, tous sur-édentés Fallait qu'j'arrêta alors j'ai pris un tas d'Nicoretta Avant d'avoir la peau et les dents d'Nicoletta Yo c'est le Welsh bébé, danse dans la cuisine Fais-le funky façon car wash J'retourne ma casquette ensuite j'plonge dans la cyprine Comme j'me jette sur une tartelette au MaroillesYou might also like</t>
+          <t>Ok, euh, Kanter, euh, t'as mit des nouvelles cordes sur la guitare ? Hey Obs, le piano il est accordé là ? Il reste des saucisses pour la choucroute ou quoi ? Y'a des trous dans la flûte !? Bon qu'est ce qui faut, qu'est ce qui faut faire pour faire d'la musique ici, merde ! Oh ! C'est Gérard Baste mec Yeah ! Yeah ! Yeah ! J'balance des tartes et des tartines Mon flow est d'taille comme un trou d'balle Serré comme une boite de sardines Passe-moi le microphone que j'le ru-ine Si tu m'broute, j'te mâche et avant d'te chier, j'te rumine Les gars sont chauds, les filles sont humides J'vais m'en mettre plein l'bide et prendre cher avant qu'on s'débine J'suis un ouf, j'suis un débile Chez Léon, j'commande un steak, j'prend les moules au Buffalo Grill 1 pour la basse, 2 pour les pétasses J'débarque dans le bar prêt à brûler les pesetas Sors largenterie quand l'équipe s'déplace Demande pas qui c'est l'plus chaud, c'est Baste ! On est pas v'nu faire dans l'raffiné Plutôt dans l'style de vieilles croûtes fromages affinés J'suis l'portrait type d'la brute avinée Mais j'sais faire tout pleins d'trucs alités, de grande qualité On finira tous surendettés ah non! Sous trips éventés, tous sur-édentés Fallait qu'j'arrêta alors j'ai pris un tas d'Nicoretta Avant d'avoir la peau et les dents d'Nicoletta Yo c'est le Welsh bébé, danse dans la cuisine Fais-le funky façon car wash J'retourne ma casquette ensuite j'plonge dans la cyprine Comme j'me jette sur une tartelette au Maroilles</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3827,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Il les a vu, Dr. Vincent Allô, allô monsieur l'ordinateur Passez-moi l'dope dealer Qui ramène les putes, les kilos d'drogues et la liqueur On encule le ch'val, on conduit l'vaisseau spatiale Et j'enfile mes lunettes spéciales Han! Les lunettes qui déshabille Ça va encore finir dans des positions érotiques À la Freddie Mercury on s'trimbale slip et moustache On attaque la diligence, on finit à poil tout ???You might also like</t>
+          <t>Il les a vu, Dr. Vincent Allô, allô monsieur l'ordinateur Passez-moi l'dope dealer Qui ramène les putes, les kilos d'drogues et la liqueur On encule le ch'val, on conduit l'vaisseau spatiale Et j'enfile mes lunettes spéciales Han! Les lunettes qui déshabille Ça va encore finir dans des positions érotiques À la Freddie Mercury on s'trimbale slip et moustache On attaque la diligence, on finit à poil tout ???</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3844,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Dis-moi, y'a qui sur ta tape ? Mais dis-moi, y'a qui sur ta tape ? Dis-moi, y'a qui sur ta tape ? Dis-moi, y'a qui sur ta tape ? -Allô ? Gérard Baste ? Voilà j'fais une p'tite mixtape Et j'aimerais bien qu'vous posiez, y'a d'jà du monde, ça va être une bombe Au fait c'est Dabaaz qui m'a filé ton phone-tèl Faudrait qu'on s'voit, qu'j'te fasse écouter des ons, qu'tu m'files ta réponse Tu vas voir l'instru, c'est un mec de Carcassonne, il est pas encore connu mais il tue ! Franch'ment j'vous verrais trop d'ssus -Bon bah écoutes, c'est frais, on va essayer d'te lâcher quelque chose vite fait J'te d'mande même pas si y'a un thème pour l'truc Au mieux ça s'ra les flics ou bien les films de uc' J'te d'mande même pas si vous avez d'jà trouvé l'titre Parce que j'suis sûr qu'il y a un jeu de mot avec une lettre et un chiffre -Bah, c'est mot 2 passe -Bah mot 2 passe c'est pas c'qu'il y a d'pire Mais quand j'regarde les paragraphes, c'est des textos qu'j'ai l'impression d'lire Tous ces groupes en La genre La Machine, La Chose, La Cargaison, La Soudure, La Marine Nationale La Mononucléose D'ailleurs y'a les BEP qui ont fait un morceau avec Bac Pro Ils ont fait un collectif qui sappelle Le Lycée Technique ils sont hyper technique! -Y'a un autre gars, c'est plus du slam, c'est pas vraiment du rap C'est un punk de 55 ans mais écoutes c'qu'il fait, j'te jure qu'ça tape Bon, j'te dis pas qu'on aura la couv' mais pour la promo, t'inquiètes, on a un pote qui bosse chez Groove Enfin qui bosse, en fait il est courtier Mais il y passe super souvent pour y déposer du courrier tout l'monde le connait! On a aussi une émission d'radio t'as vu, 'faut absolument qu'vous v'niez la faire C'est l'mardi matin à 25 minutes du RER Et quand vous viendrez, oubliez pas d'ramener des albums On pourra en faire gagner, s'ils ont réparer l'téléphone D'vant tant d'bonne volonté, j'vois pas comment j'pourrais r'fuser J'me suis jamais défilé quand y'a moyen d'poser J'te parle pas d'fric bébé, c'est dans mon trip Dédé Mais quand même c'est une tape ou c'est un street cd ? You might also like Mais dis-moi, y'a qui sur ta tape ? C'est une tape de Paris pour intellos, j'suis sûr qu'il y a D'Oz et qu'il y'a Set Mais dis-moi, y'a qui sur ta tape ? C'est une tape de banlieue, racailleux et 20 fois l'même texte Dis-moi, y'a qui sur ta tape ? Y'a qui sur ta tape? D'abord, c'est un CD ou une cassette ? Dis-moi, y'a qui sur ta tape ? On s'en fout, on est tous la pour lâcher des bombes et qu'ça pète Na na nanananana, na na nanananana Na na nanananana, na na nanananana</t>
+          <t>Dis-moi, y'a qui sur ta tape ? Mais dis-moi, y'a qui sur ta tape ? Dis-moi, y'a qui sur ta tape ? Dis-moi, y'a qui sur ta tape ? -Allô ? Gérard Baste ? Voilà j'fais une p'tite mixtape Et j'aimerais bien qu'vous posiez, y'a d'jà du monde, ça va être une bombe Au fait c'est Dabaaz qui m'a filé ton phone-tèl Faudrait qu'on s'voit, qu'j'te fasse écouter des ons, qu'tu m'files ta réponse Tu vas voir l'instru, c'est un mec de Carcassonne, il est pas encore connu mais il tue ! Franch'ment j'vous verrais trop d'ssus -Bon bah écoutes, c'est frais, on va essayer d'te lâcher quelque chose vite fait J'te d'mande même pas si y'a un thème pour l'truc Au mieux ça s'ra les flics ou bien les films de uc' J'te d'mande même pas si vous avez d'jà trouvé l'titre Parce que j'suis sûr qu'il y a un jeu de mot avec une lettre et un chiffre -Bah, c'est mot 2 passe -Bah mot 2 passe c'est pas c'qu'il y a d'pire Mais quand j'regarde les paragraphes, c'est des textos qu'j'ai l'impression d'lire Tous ces groupes en La genre La Machine, La Chose, La Cargaison, La Soudure, La Marine Nationale La Mononucléose D'ailleurs y'a les BEP qui ont fait un morceau avec Bac Pro Ils ont fait un collectif qui sappelle Le Lycée Technique ils sont hyper technique! -Y'a un autre gars, c'est plus du slam, c'est pas vraiment du rap C'est un punk de 55 ans mais écoutes c'qu'il fait, j'te jure qu'ça tape Bon, j'te dis pas qu'on aura la couv' mais pour la promo, t'inquiètes, on a un pote qui bosse chez Groove Enfin qui bosse, en fait il est courtier Mais il y passe super souvent pour y déposer du courrier tout l'monde le connait! On a aussi une émission d'radio t'as vu, 'faut absolument qu'vous v'niez la faire C'est l'mardi matin à 25 minutes du RER Et quand vous viendrez, oubliez pas d'ramener des albums On pourra en faire gagner, s'ils ont réparer l'téléphone D'vant tant d'bonne volonté, j'vois pas comment j'pourrais r'fuser J'me suis jamais défilé quand y'a moyen d'poser J'te parle pas d'fric bébé, c'est dans mon trip Dédé Mais quand même c'est une tape ou c'est un street cd ? Mais dis-moi, y'a qui sur ta tape ? C'est une tape de Paris pour intellos, j'suis sûr qu'il y a D'Oz et qu'il y'a Set Mais dis-moi, y'a qui sur ta tape ? C'est une tape de banlieue, racailleux et 20 fois l'même texte Dis-moi, y'a qui sur ta tape ? Y'a qui sur ta tape? D'abord, c'est un CD ou une cassette ? Dis-moi, y'a qui sur ta tape ? On s'en fout, on est tous la pour lâcher des bombes et qu'ça pète Na na nanananana, na na nanananana Na na nanananana, na na nanananana</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Gérard_Baste_songs.xlsx
+++ b/data/02_intermediate/cleaned_Gérard_Baste_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clash d’Astéroïde</t>
+          <t>Réveille le punk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I. The train has left the hills of Braid The barrier guard have open made So Lindesay bade the palisade, That closed the tented ground Their men the warders backward drew, 5 And carried pikes as they rode through, Into its ample bound. Fast ran the Scottish warriors there, Upon the Southern band to stare. And envy with their wonder rose, 10 To see such well-appointed foes Such length of shafts, such mighty bows, So huge, that many simply thought, But for a vaunt such weapons wrought And little deemd their force to feel, 15 Through links of mail, and plates of steel, When rattling upon Flodden vale, The cloth-yard arrows flew like hail. II. Nor less did Marmions skilful view Glance every line and squadron through 20 And much he marvelld one small land Could marshal forth such various band For men-at-arms were here, Heavily sheathed in mail and plate, Like iron towers for strength and weight, 25 On Flemish steeds of bone and height, With battle-axe and spear. Young knights and squires, a lighter train, Practised their chargers on the plain, By aid of leg, of hand, and rein, 30 Each warlike feat to show, To pass, to wheel, the croupe to gain, And high curvett, that not in vain The sword sway might descend amain On foemans casque below. 35 He saw the hardy burghers there March armd, on foot, with faces bare, For vizor they wore none, Nor waving plume, nor crest of knight But burnishd were their corslets bright, 40 Their brigantines, and gorgets light, Like very silver shone. Long pikes they had for standing fight, Two-handed swords they wore, And many wielded mace of weight, 45 And bucklers bright they bore. III. On foot the yeoman too, but dressd In his steel-jack, a swarthy vest, With iron quilted well Each at his back a slender store 50 His forty days provision bore, As feudal statutes tell. His arms were halbert, axe, or spear, A crossbow there, a hagbut here, A dagger-knife, and brand. 55 Sober he seemd, and sad of cheer, As loath to leave his cottage dear, And march to foreign strand Or musing, who would guide his steer, To till the fallow land. 60 Yet deem not in his thoughtful eye Did aught of dastard terror lie More dreadful far his ire, Than theirs, who, scorning dangers name, In eager mood to battle came, 65 Their valour like light straw on name, A fierce but fading fire. IV. Not so the Borderer-bred to war, He knew the battles din afar, And joyd to hear it swell. 70 His peaceful day was slothful ease Nor harp, nor pipe, his ear could please, Like the loud slogan yell. On active steed, with lance and blade, The light-armd pricker plied his trade,- 75 Let nobles fight for fame Let vassals follow where they lead, Burghers, to guard their townships, bleed, But wars the Borderers game. Their gain, their glory, their delight, 80 To sleep the day, maraud the night, Oer mountain, moss, and moor Joyful to fight they took their way, Scarce caring who might win the day, Their booty was secure. 85 These, as Lord Marmions train passd by, Lookd on at first with careless eye, Nor marvelld aught, well taught to know The form and force of English bow. But when they saw the Lord arrayd 90 In splendid arms, and rich brocade, Each Borderer to his kinsman said,- Hist, Ringan! seest thou there! Canst guess which road theyll homeward ride?- O! could we but on Border side, 95 By Eusedale glen, or Liddells tide, Beset a prize so fair! That fangless Lion, too, their guide, Might chance to lose his glistering hide Brown Maudlin, of that doublet pied, 100 Could make a kirtle rare. V. Next, Marmion marked the Celtic race, Of different language, form, and face, A various race of man Just then the Chiefs their tribes arrayd, 105 And wild and garish semblance made, The chequerd trews, and belted plaid, And varying notes the war-pipes brayd, To every varying clan, Wild through their red or sable hair 110 Lookd out their eyes with savage stare, On Marmion as he passd Their legs above the knee were bare Their frame was sinewy, short, and spare, And hardend to the blast 115 Of taller race, the chiefs they own Were by the eagles plumage known. The hunted red-deers undressd hide Their hairy buskins well supplied The graceful bonnet deckd their head 120 Back from their shoulders hung the plaid A broadsword of unwieldy length, A dagger proved for edge and strength, A studded targe they wore, And quivers, bows, and shafts,-but, O! 125 Short was the shaft, and weak the bow, To that which England bore. The Isles-men carried at their backs The ancient Danish battle-axe. They raised a wild and wondering cry, 130 As with his guide rode Marmion by. Loud were their clamouring tongues, as when The clanging sea-fowl leave the fen, And, with their cries discordant mixd, Grumbled and yelld the pipes betwixt. 135 VI. Thus through the Scottish camp they passd, And reachd the City gate at last, Where all around, a wakeful guard, Armd burghers kept their watch and ward. Well had they cause of jealous fear, 140 When lay encampd, in field so near, The Borderer and the Mountaineer. As through the bustling streets they go, All was alive with martial show At every turn, with dinning clang, 145 The armourers anvil clashd and rang Or toild the swarthy smith, to wheel The bar that arms the chargers heel Or axe, or falchion, to the side Of jarring grindstone was applied. 150 Page, groom, and squire, with hurrying pace Through street, and lane, and market-place, Bore lance, or casque, or sword While burghers, with important face, Described each new-come lord, 155 Discussd his lineage, told his name, His following, and his warlike fame. The Lion led to lodging meet, Which high oerlookd the crowded street There must the Baron rest, 160 Till past the hour of vesper tide, And then to Holy-Rood must ride,- Such was the Kings behest. Meanwhile the Lions care assigns A banquet rich, and costly wines, 165 To Marmion and his train And when the appointed hour succeeds, The Baron dons his peaceful weeds, And following Lindesay as he leads, The palace-halls they gain. 170 VIL Old Holy-Rood rung merrily, That night, with wassell, mirth, and glee King James within her princely bower Feasted the Chiefs of Scotlands power, Summond to spend the parting hour 175 For he had charged, that his array Should southward march by break of day. Well loved that splendid monarch aye The banquet and the song, By day the tourney, and by night 180 The merry dance, traced fast and light, The maskers quaint, the pageant bright, The revel loud and long. This feast outshone his banquets past It was his blithest,-and his last. 185 The dazzling lamps, from gallery gay, Cast on the Court a dancing ray Here to the harp did minstrels sing There ladies touched a softer string With long-eard cap, and motley vest, 190 The licensed fool retaild his jest His magic tricks the juggler plied At dice and draughts the gallants vied While some, in close recess apart, Courted the ladies of their heart, 195 Nor courted them in vain For often, in the parting hour, Victorious Love asserts his power Oer coldness and disdain And flinty is her heart, can view 200 To battle march a lover true- Can hear, perchance, his last adieu, Nor own her share of pain. VIII. Through this mixd crowd of glee and game, The King to greet Lord Marmion came, 205 While, reverent, all made room. An easy task it was, I trow, King Jamess manly form to know, Although, his courtesy to show, He doffd, to Marmion bending low, 210 His broiderd cap and plume. For royal was his garb and mien, His cloak, of crimson velvet piled, Trimmd with the fur of marten wild His vest of changeful satin sheen, 215 The dazzled eye beguiled His gorgeous collar hung adown, Wrought with the badge of Scotlands crown, The thistle brave, of old renown His trusty blade, Toledo right, 220 Descended from a baldric bright White were his buskins, on the heel His spurs inlaid of gold and steel His bonnet, all of crimson fair, Was buttond with a ruby rare 225 And Marmion deemd he neer had seen A prince of such a noble mien. IX. The Monarchs form was middle size For feat of strength, or exercise, Shaped in proportion fair 230 And hazel was his eagle eye, And auburn of the darkest dye, His short curld beard and hair. Light was his footstep in the dance, And firm his stirrup in the lists 235 And, oh! he had that merry glance, That seldom ladys heart resists. Lightly from fair to fair he flew, And loved to plead, lament, and sue- Suit lightly won, and short-lived pain, 240 For monarchs seldom sigh in vain. I said he joyd in banquet bower But, mid his mirth, twas often strange, How suddenly his cheer would change, His look oercast and lower, 245 If, in a sudden turn, he felt The pressure of his iron belt, That bound his breast in penance pain, In memory of his father slain. Even so twas strange how, evermore, 250 Soon as the passing pang was oer, Forward he rushd, with double glee, Into the stream of revelry Thus, dim-seen object of affright Startles the courser in his flight, 255 And half he halts, half springs aside But feels the quickening spur applied, And, straining on the tightend rein, Scours doubly swift oer hill and plain. X. Oer Jamess heart, the courtiers say, 260 Sir Hugh the Herons wife held sway To Scotlands Court she came, To be a hostage for her lord, Who Cessfords gallant heart had gored, And with the King to make accord, 265 Had sent his lovely dame. Nor to that lady free alone Did the gay King allegiance own For the fair Queen of France Sent him a turquois ring and glove, 270 And charged him, as her knight and love, For her to break a lance And strike three strokes with Scottish brand, And march three miles on Southron land, And bid the banners of his band 275 In English breezes dance. And thus, for Frances Queen he drest His manly limbs in mailed vest And thus admitted English fair His inmost counsels still to share 280 And thus, for both, he madly plannd The ruin of himself and land! And yet, the sooth to tell, Nor Englands fair, nor Frances Queen, Were worth one pearl-drop, bright and sheen, 285 From Margarets eyes that fell,- His own Queen Margaret, who, in Lithgows bower, All lonely sat, and wept the weary hour. XI. The Queen sits lone in Lithgow pile, And weeps the weary day, 290 The war against her native soil, Her monarchs risk in battle broil- And in gay Holy-Rood, the while, Dame Heron rises with a smile Upon the harp to play. 295 Fair was her rounded arm, as oer The strings her fingers flew And as she touchd and tuned them all, Ever her bosoms rise and fall Was plainer given to view 300 For, all for heat, was laid aside Her wimple, and her hood untied. And first she pitchd her voice to sing, Then glanced her dark eye on the King, And then around the silent ring 305 And laughd, and blushd, and oft did say Her pretty oath, by Yea, and Nay, She could not, would not, durst not play! At length, upon the harp, with glee, Mingled with arch simplicity, 310 A soft, yet lively, air she rung, While thus the wily lady sung- XII. LOCHINVAR. Lady Herons Song O, young Lochinvar is come out of the west, Through all the wide Border his steed was the best And save his good broadsword, he weapons had none, 315 He rode all unarmd, and he rode all alone. So faithful in love, and so dauntless in war, There never was knight like the young Lochinvar. He staid not for brake, and he stoppd not for stone, He swam the Eske river where ford there was none 320 But ere he alighted at Netherby gate, The bride had consented, the gallant came late For a laggard in love, and a dastard in war, Was to wed the fair Ellen of brave Lochinvar. So boldly he enterd the Netherby Hall, 325 Among brides-men, and kinsmen, and brothers, and all Then spoke the brides father, his hand on his sword, For the poor craven bridegroom said never a word, O come ye in peace here, or come ye in war, Or to dance at our bridal, young Lord Lochinvar?- 330 I long wood your daughter, my suit you denied- Love swells like the Solway, but ebbs like its tide- And now am I come, with this lost love of mine, To lead but one measure, drink one cup of wine. There are maidens in Scotland more lovely by far, 335 That would gladly be bride to the young Lochinvar. The bride kissd the goblet the knight took it up, He quaffd off the wine, and he threw down the cup. She lookd down to blush, and she lookd up to sigh, With a smile on her lips, and a tear in her eye. 340 He took her soft hand, ere her mother could bar,- Now tread we a measure! said young Lochinvar. So stately his form, and so lovely her face, That never a hall such a galliard did grace While her mother did fret, and her father did fume, 345 And the bridegroom stood dangling his bonnet and plume And the bride-maidens whisperd, Twere better by far, To have matchd our fair cousin with young Lochinvar. One touch to her hand, and one word in her ear, When they reachd the hall-door, and the charger stood near 350 So light to the croupe the fair lady he swung, So light to the saddle before her he sprung! She is won! we are gone, over bank, bush, and scaur Theyll have fleet steeds that follow, quoth young Lochinvar. There was mounting mong Graemes of the Netherby clan 355 Forsters, Fenwicks, and Musgraves, they rode and they ran There was racing and chasing, on Cannobie Lee, But the lost bride of Netherby neer did they see. So daring in love, and so dauntless in war, Have ye eer heard of gallant like young Lochinvar? 360 XIII. The Monarch oer the siren hung, And beat the measure as she sung And, pressing closer, and more near, He whisperd praises in her ear. In loud applause the courtiers vied 365 And ladies winkd, and spoke aside. The witching dame to Marmion threw A glance, where seemd to reign The pride that claims applauses due, And of her royal conquest too, 370 A real or feignd disdain Familiar was the look, and told, Marmion and she were friends of old. The King observed their meeting eyes, With something like displeased surprise 375 For monarchs ill can rivals brook, Even in a word, or smile, or look. Straight took he forth the parchment broad, Which Marmions high commission showd Our Borders sackd by many a raid, 380 Our peaceful liege-men robbd, he said On day of truce our Warden slain, Stout Barton killd, his vessels taen- Unworthy were we here to reign, Should these for vengeance cry in vain 385 Our full defiance, hate, and scorn, Our herald has to Henry borne. XIV. He paused, and led where Douglas stood, And with stern eye the pageant viewd I mean that Douglas, sixth of yore, 390 Who coronet of Angus bore, And, when his blood and heart were high, Did the third James in camp defy, And all his minions led to die On Lauders dreary flat 395 Princes and favourites long grew tame, And trembled at the homely name Of Archibald Bell-the-Cat The same who left the dusky vale Of Hermitage in Liddisdale, 400 Its dungeons, and its towers, Where Bothwells turrets brave the air, And Bothwell bank is blooming fair, To fix his princely bowers. Though now, in age, he had laid down 405 His armour for the peaceful gown, And for a staff his brand, Yet often would flash forth the fire, That could, in youth, a monarchs ire And minions pride withstand 410 And even that day, at council board, Unapt to soothe his sovereigns mood, Against the war had Angus stood, And chafed his royal Lord. XV. His giant-form, like ruind tower, 415 Though falln its muscles brawny vaunt, Huge-boned, and tall, and grim, and gaunt, Seemd oer the gaudy scene to lower His locks and beard in silver grew His eyebrows kept their sable hue. 420 Near Douglas when the Monarch stood, His bitter speech he thus pursued Lord Marmion, since these letters say That in the North you needs must stay, While slightest hopes of peace remain, 425 Uncourteous speech it were, and stern, To say-Return to Lindisfarne, Until my herald come again.- Then rest you in Tantallon Hold Your host shall be the Douglas bold,- 430 A chief unlike his sires of old. He wears their motto on his blade, Their blazon oer his towers displayd Yet loves his sovereign to oppose, More than to face his countrys foes. 435 And, I bethink me, by Saint Stephen, But een this morn to me was given A prize, the first fruits of the war, Taen by a galley from Dunbar, A bevy of the maids of Heaven. 440 Under your guard, these holy maids Shall safe return to cloister shades, And, while they at Tantallon stay, Requiem for Cochrans soul may say. And, with the slaughterd favourites name, 445 Across the Monarchs brow there came A cloud of ire, remorse, and shame. XVI. In answer nought could Angus speak His proud heart swelld wellnigh to break He turnd aside, and down his cheek 450 A burning tear there stole. His hand the Monarch sudden took, That sight his kind heart could not brook Now, by the Bruces soul, Angus, my hasty speech forgive! 455 For sure as doth his spirit live, As he said of the Douglas old, I well may say of you,- That never King did subject hold, In speech more free, in war more bold, 460 More tender and more true Forgive me, Douglas, once again.- And, while the King his hand did strain, The old mans tears fell down like rain. To seize the moment Marmion tried, 465 And whisperd to the King aside Oh! let such tears unwonted plead For respite short from dubious deed! A child will weep a brambles smart, A maid to see her sparrow part, 470 A stripling for a womans heart But woe awaits a country, when She sees the tears of bearded men. Then, oh! what omen, dark and high, When Douglas wets his manly eye! 475 XVII. Displeased was James, that stranger viewd And tamperd with his changing mood. Laugh those that can, weep those that may, Thus did the fiery Monarch say, Southward I march by break of day 480 And if within Tantallon strong, The good Lord Marmion tarries long, Perchance our meeting next may fall At Tamworth, in his castle-hall.- The haughty Marmion felt the taunt, 485 And answerd, grave, the royal vaunt Much honourd were my humble home, If in its halls King James should come But Nottingham has archers good, And Yorkshire men are stem of mood 490 Northumbrian prickers wild and rude. On Derby Hills the paths are steep In Ouse and Tyne the fords are deep And many a banner will be torn, And many a knight to earth be borne, 495 And many a sheaf of arrows spent, Ere Scotlands King shall cross the Trent Yet pause, brave Prince, while yet you may!- The Monarch lightly turnd away, And to his nobles loud did call,- 500 Lords, to the dance,-a hall! a hall! Himself his cloak and sword flung by, And led Dame Heron gallantly And Minstrels, at the royal order, Rung out-Blue Bonnets oer the Border. 505 XVIII. Leave we these revels now, to tell What to Saint Hildas maids befell, Whose galley, as they saild again To Whitby, by a Scot was taen. Now at Dun-Edin did they bide, 510 Till James should of their fate decide And soon, by his command, Were gently summond to prepare To journey under Marmions care, As escort honourd, safe, and fair, 515 Again to English land. The Abbess told her chaplet oer, Nor knew which Saint she should implore For, when she thought of Constance, sore She feard Lord Marmions mood. 520 And judge what Clara must have felt! The sword, that hung in Marmions belt, Had drunk De Wiltons blood. Unwittingly, King James had given, As guard to Whitbys shades, 525 The man most dreaded under heaven By these defenceless maids Yet what petition could avail, Or who would listen to the tale Of woman, prisoner, and nun, 530 Mid bustle of a war begun? They deemd it hopeless to avoid The convoy of their dangerous guide. XIX. Their lodging, so the King assignd, To Marmions, as their guardian, joind 535 And thus it fell, that, passing nigh, The Palmer caught the Abbess eye, Who warnd him by a scroll, She had a secret to reveal, That much concernd the Churchs weal, 540 And health of sinners soul And, with deep charge of secrecy, She named a place to meet, Within an open balcony, That hung from dizzy pitch, and high, 545 Above the stately street To which, as common to each home, At night they might in secret come. XX. At night, in secret, there they came, The Palmer and the holy dame. 550 The moon among the clouds rose high, And all the city hum was by. Upon the street, where late before Did din of war and warriors roar, You might have heard a pebble fall, 555 A beetle hum, a cricket sing, An owlet flap his boding wing On Giless steeple tall. The antique buildings, climbing high, Whose Gothic frontlets sought the sky, 560 Were here wrapt deep in shade There on their brows the moon-beam broke, Through the faint wreaths of silvery smoke, And on the casements playd. And other light was none to see, 565 Save torches gliding far, Before some chieftain of degree, Who left the royal revelry To bowne him for the war.- A solemn scene the Abbess chose 570 A solemn hour, her secret to disclose. XXI. O, holy Palmer! she began,- For sure he must be sainted man, Whose blessed feet have trod the ground Where the Redeemers tomb is found,- 575 For His dear Churchs sake, my tale Attend, nor deem of light avail, Though I must speak of worldly love,- How vain to those who wed above!- De Wilton and Lord Marmion wood 580 Clara de Clare, of Glosters blood Idle it were of Whitbys dame, To say of that same blood I came And once, when jealous rage was high, Lord Marmion said despiteously, 585 Wilton was traitor in his heart, And had made league with Martin Swart, When he came here on Simnels part And only cowardice did restrain His rebel aid on Stokefields plain,- 590 And down he threw his glove-the thing Was tried, as wont, before the King Where frankly did De Wilton own, That Swart in Guelders he had known And that between them then there went 595 Some scroll of courteous compliment. For this he to his castle sent But when his messenger returnd, Judge how De Wiltons fury burnd! For in his packet there were laid 600 Letters that claimd disloyal aid, And proved King Henrys cause betrayd. His fame, thus blighted, in the field He strove to clear, by spear and shield- To clear his fame in vain he strove, 605 For wondrous are His ways above! Perchance some form was unobserved Perchance in prayer, or faith, he swerved Else how could guiltless champion quail, Or how the blessed ordeal fail? 610 XXII. His squire, who now De Wilton saw As recreant doomd to suffer law, Repentant, ownd in vain, That, while he had the scrolls in care, A stranger maiden, passing fair, 615 Had drenchd him with a beverage rare His words no faith could gain. With Clare alone he credence won, Who, rather than wed Marmion, Did to Saint Hildas shrine repair, 620 To give our house her livings fair, And die a vestal votress there. The impulse from the earth was given, But bent her to the paths of heaven. A purer heart, a lovelier maid, 625 Neer shelterd her in Whitbys shade, No, not since Saxon Edelfled Only one trace of earthly strain, That for her lovers loss She cherishes a sorrow vain, 630 And murmurs at the cross. And then her heritage-it goes Along the banks of Tame Deep fields of grain the reaper mows, In meadows rich the heifer lows, 635 The falconer and huntsman knows Its woodlands for the game. Shame were it to Saint Hilda dear, And I, her humble votress here, Should do a deadly sin, 640 Her temple spoild before mine eyes, If this false Marmion such a prize By my consent should win Yet hath our boisterous monarch sworn, That Clare shall from our house be torn 645 And grievous cause have I to fear, Such mandate doth Lord Marmion bear. XXIII. Now, prisoner, helpless, and betrayd To evil power, I claim thine aid, By every step that thou hast trod 650 To holy shrine and grotto dim, By every martyrs tortured limb, By angel, saint, and seraphim, And by the Church of God! For mark-When Wilton was betrayd, 655 And with his squire forged letters laid, She was, alas! that sinful maid, By whom the deed was done,- Oh! shame and horror to be said! She was a perjured nun! 660 No clerk in all the land, like her, Traced quaint and varying character. Perchance you may a marvel deem, That Marmions paramour For such vile thing she was should scheme 665 Her lovers nuptial hour But oer him thus she hoped to gain, As privy to his honours stain, Illimitable power For this she secretly retaind 670 Each proof that might the plot reveal, Instructions with his hand and seal And thus Saint Hilda deignd, Through sinners perfidy impure, Her houses glory to secure, 675 And Clares immortal weal. XXIV. Twere long, and needless, here to tell, How to my hand these papers fell With me they must not stay. Saint Hilda keep her Abbess true! 680 Who knows what outrage he might do, While journeying by the way?- O, blessed Saint, if eer again I venturous leave thy calm domain, To travel or by land or main, 685 Deep penance may I pay!- Now, saintly Palmer, mark my prayer I give this packet to thy care, For thee to stop they will not dare And O! with cautious speed, 690 To Wolseys hand the papers bring, That he may show them to the King And, for thy well-earnd meed, Thou holy man, at Whitbys shrine A weekly mass shall still be thine, 695 While priests can sing and read. What ailst thou?-Speak!-For as he took The charge, a strong emotion shook His frame and, ere reply, They heard a faint, yet shrilly tone, 700 Like distant clarion feebly blown, That on the breeze did die And loud the Abbess shriekd in fear, Saint Withold, save us!-What is here! Look at yon City Cross! 705 See on its battled tower appear Phantoms, that scutcheons seem to rear, And blazond banners toss!- XXV. Dun-Edins Cross, a pillard stone, Rose on a turret octagon 710 But now is razed that monument, Whence royal edict rang, And voice of Scotlands law was sent In glorious trumpet-clang. O! be his tomb as lead to lead, 715 Upon its dull destroyers head!- A minstrels malison is said.- Then on its battlements they saw A vision, passing Natures law, Strange, wild, and dimly seen 720 Figures that seemd to rise and die, Gibber and sign, advance and fly, While nought confirmd could ear or eye Discern of sound or mien. Yet darkly did it seem, as there 725 Heralds and Pursuivants prepare, With trumpet sound, and blazon fair, A summons to proclaim But indistinct the pageant proud, As fancy forms of midnight cloud, 730 When flings the moon upon her shroud A wavering tinge of flame It flits, expands, and shifts, till loud, From midmost of the spectre crowd, This awful summons came- 735 XXVI. Prince, prelate, potentate, and peer, Whose names I now shall call, Scottish, or foreigner, give ear! Subjects of him who sent me here, At his tribunal to appear, 740 I summon one and all I cite you by each deadly sin, That eer hath soild your hearts within I cite you by each brutal lust, That eer defiled your earthly dust,- 745 By wrath, by pride, by fear, By each oer-mastering passions tone, By the dark grave, and dying groan! When forty days are passd and gone, I cite you at your Monarchs throne, 750 To answer and appear.- Then thundered forth a roll of names- The first was thine, unhappy James! Then all thy nobles came Crawford, Glencairn, Montrose, Argyle, 755 Ross, Bothwell, Forbes, Lennox, Lyle, Why should I tell their separate style? Each chief of birth and fame, Of Lowland, Highland, Border, Isle, Fore-doomd to Floddens carnage pile, 760 Was cited there by name And Marmion, Lord of Fontenaye, Of Lutterward, and Scrivelbaye De Wilton, erst of Aberley, The self-same thundering voice did say.- 765 But then another spoke Thy fatal summons I deny, And thine infernal Lord defy, Appealing me to Him on high, Who burst the sinners yoke. 770 At that dread accent, with a scream, Parted the pageant like a dream, The summoner was gone. Prone on her face the Abbess fell, And fast, and fast, her beads did tell 775 Her nuns came, startled by the yell, And found her there alone. She markd not, at the scene aghast, What time, or how, the Palmer passd. XXVII. Shift we the scene.-The camp doth move, 780 Dun-Edins streets are empty now, Save when, for weal of those they love, To pray the prayer, and vow the vow, The tottering child, the anxious fair, The grey-haird sire, with pious care, 785 To chapels and to shrines repair- Where is the Palmer now? and where The Abbess, Marmion, and Clare?- Bold Douglas! to Tantallon fair They journey in thy charge 790 Lord Marmion rode on his right hand, The Palmer still was with the band Angus, like Lindesay, did command, That none should roam at large. But in that Palmers altered mien 795 A wondrous change might now be seen Freely he spoke of war, Of marvels wrought by single hand, When lifted for a native land And still lookd high, as if he plannd 800 Some desperate deed afar. His courser would he feed and stroke, And, tucking up his sable frocke, Would first his mettle bold provoke, Then soothe or quell his pride. 805 Old Hubert said, that never one He saw, except Lord Marmion, A steed so fairly ride. XXVIII. Some half-hours march behind, there came, By Eustace governd fair, 810 A troop escorting Hildas Dame, With all her nuns, and Clare. No audience had Lord Marmion sought Ever he feard to aggravate Clara de Clares suspicious hate 815 And safer twas, he thought, To wait till, from the nuns removed, The influence of kinsmen loved, And suit by Henrys self approved, Her slow consent had wrought. 820 His was no flickering flame, that dies Unless when fannd by looks and sighs, And lighted oft at ladys eyes He longd to stretch his wide command Oer luckless Claras ample land 825 Besides, when Wilton with him vied, Although the pang of humbled pride The place of jealousy supplied, Yet conquest, by that meanness won He almost loathd to think upon, 830 Led him, at times, to hate the cause, Which made him burst through honours laws. If eer he loved, twas her alone, Who died within that vault of stone. XXIX. And now, when close at hand they saw 835 North Berwicks town, and lofty Law, Fitz-Eustace bade them pause a while, Before a venerable pile, Whose turrets viewd, afar, The lofty Bass, the Lambie Isle, 840 The oceans peace or war. At tolling of a bell, forth came The convents venerable Dame, And prayd Saint Hildas Abbess rest With her, a loved and honourd guest, 845 Till Douglas should a bark prepare To wait her back to Whitby fair. Glad was the Abbess, you may guess, And thankd the Scottish Prioress And tedious were to tell, I ween, 850 The courteous speech that passd between. Oerjoyd the nuns their palfreys leave But when fair Clara did intend, Like them, from horseback to descend, Fitz-Eustace said,-I grieve, 855 Fair lady, grieve een from my heart, Such gentle company to part- Think not discourtesy, But lords commands must be obeyd And Marmion and the Douglas said, 860 That you must wend with me. Lord Marmion hath a letter broad, Which to the Scottish Earl he showd, Commanding, that, beneath his care, Without delay, you shall repair 865 To your good kinsman, Lord Fitz-Clare. XXX. The startled Abbess loud exclaimd But she, at whom the blow was aimd, Grew pale as death, and cold as lead,- She deemd she heard her death-doom read. 870 Cheer thee, my child! the Abbess said, They dare not tear thee from my hand, To ride alone with armed band.- Nay, holy mother, nay, Fitz-Eustace said, the lovely Clare 875 Will be in Lady Angus care, In Scotland while we stay And, when we move, an easy ride Will bring us to the English side, Female attendance to provide 880 Befitting Glosters heir Nor thinks, nor dreams, my noble lord, By slightest look, or act, or word, To harass Lady Clare. Her faithful guardian he will be, 885 Nor sue for slightest courtesy That een to stranger falls, Till he shall place her, safe and free, Within her kinsmans halls. He spoke, and blushd with earnest grace 890 His faith was painted on his face, And Clares worst fear relieved. The Lady Abbess loud exclaimd On Henry, and the Douglas blamed, Entreated, threatend, grieved 895 To martyr, saint, and prophet prayd, Against Lord Marmion inveighd, And calld the Prioress to aid, To curse with candle, bell, and book. Her head the grave Cistertian shook 900 The Douglas, and the King, she said, In their commands will be obeyd Grieve not, nor dream that harm can fall The maiden in Tantallon hall. XXXI. The Abbess, seeing strife was vain, 905 Assumed her wonted state again, For much of state she had,- Composed her veil, and raised her head, And-Bid, in solemn voice she said, Thy master, bold and bad, 910 The records of his house turn oer, And, when he shall there written see, That one of his own ancestry Drove the monks forth of Coventry, Bid him his fate explore! 915 Prancing in pride of earthly trust, His charger hurld him to the dust, And, by a base plebeian thrust, He died his band before. God judge twixt Marmion and me 920 He is a Chief of high degree, And I a poor recluse Ye</t>
+          <t>Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Faire péter le kepon, paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon, paye ton punk Fais péter l'punk Gérard Baste, la Nina Hagen française Je veux réveiller le punk qui est en moi Faire péter le junkie Ce soir jen ai marre dêtre funky Jveux disjoncter à lacide Gerber juste avant le concert Monter sur scène tout livide Avec un banjo Même si jtroque mes Rangos Pour des Mephistos Jkifferai toujours une guitare disto Slam, jette-toi dans les flammes Jresterai Rock n Roll dans lâme jusquà ce que jclamse Jai brûlé mes verrues Mais jamais jbrûlerai mes vieux albums des Bérus Fils jen suis trop féru, plus que d'Jean Ferrat Je préfère le rock ferreux de Pantera Adhère à la philo-sophie De livrogne notoire Qui souvent utilisa le trottoir comme dortoir Mon ossature sature Toutes ces bitures Laissent des points de suture Si jcontinue ce sera No Future Gérard Baste arrête de tfonçder Disent les mecs alors que jsuis en train dvider Mon bide dans lbidet Ils comprennent rien à lanarchie Mec, tu veux un groupe rebelle, moi jle suis archi En direct et pas en duplex Nique tes complexes Le son claque dans tes dents Serrées comme les rangs dune triplex Jmen fous Jsaute comme Donkey Kong Je ne vivrai jamais comme quiconque Car jai réveillé le punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk Je fais la grasse matinée Reste dans mes odeurs Jempeste mauvaises OD De la veille quelle horreur Le punk se réveille Eclate son réveil Sur le téléphone qui sonne Jmassomme Réveille le punk qui sommeille Jbondis de mon sommier Me rince le gosier Môme la bière que jachetais Ne servait quà me coiffer Crise dadolescence, punk naissant Semblant dfamille délaissant Je suis bête et méchant En rade à Marmottan Barbotant dans mon sang Après un pogo Je suis le vilain sauvage pas beau Pire quun lobo Vlà mon logo Fallait pas mlaisser dans llabo dchimie Jai tout bégo Quoi dneuf doc gros coup dDoc coquée Dans mon hip hop troqué contre du rock Sors ton perfecto défroqué Tu seras Ok Pour ne pas terminer Comme la femme des Sex Pistols Dans lfrigo toute découpée Couplet à ma bière Comme si cétait mon frère Jsuis fier y a quelle qui me nourrisse Jtépingle à nourrisse Jai bu comme Ludwig Quatre-Vingt 8,6 Double zéro de Conduite Six Suicidal Tendances Mon single de cinglé, le tube de léther Plus anti-social que Trust Je pue comme le Munster Lépave lance le pavé Dans la manifestation Prônant lauto-destruction Jai perdu ma génération Des Who jusquau Wu Tang Je vais te faire fuir Je représente ceux qui utilisent leur cervelle à la détruire Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Réveille le punk</t>
+          <t>Trop gros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Faire péter le kepon, paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Réveiller le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon, paye ton punk Fais péter l'punk Gérard Baste, la Nina Hagen française Je veux réveiller le punk qui est en moi Faire péter le junkie Ce soir jen ai marre dêtre funky Jveux disjoncter à lacide Gerber juste avant le concert Monter sur scène tout livide Avec un banjo Même si jtroque mes Rangos Pour des Mephistos Jkifferai toujours une guitare disto Slam, jette-toi dans les flammes Jresterai Rock n Roll dans lâme jusquà ce que jclamse Jai brûlé mes verrues Mais jamais jbrûlerai mes vieux albums des Bérus Fils jen suis trop féru, plus que d'Jean Ferrat Je préfère le rock ferreux de Pantera Adhère à la philo-sophie De livrogne notoire Qui souvent utilisa le trottoir comme dortoir Mon ossature sature Toutes ces bitures Laissent des points de suture Si jcontinue ce sera No Future Gérard Baste arrête de tfonçder Disent les mecs alors que jsuis en train dvider Mon bide dans lbidet Ils comprennent rien à lanarchie Mec, tu veux un groupe rebelle, moi jle suis archi En direct et pas en duplex Nique tes complexes Le son claque dans tes dents Serrées comme les rangs dune triplex Jmen fous Jsaute comme Donkey Kong Je ne vivrai jamais comme quiconque Car jai réveillé le punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk Je fais la grasse matinée Reste dans mes odeurs Jempeste mauvaises OD De la veille quelle horreur Le punk se réveille Eclate son réveil Sur le téléphone qui sonne Jmassomme Réveille le punk qui sommeille Jbondis de mon sommier Me rince le gosier Môme la bière que jachetais Ne servait quà me coiffer Crise dadolescence, punk naissant Semblant dfamille délaissant Je suis bête et méchant En rade à Marmottan Barbotant dans mon sang Après un pogo Je suis le vilain sauvage pas beau Pire quun lobo Vlà mon logo Fallait pas mlaisser dans llabo dchimie Jai tout bégo Quoi dneuf doc gros coup dDoc coquée Dans mon hip hop troqué contre du rock Sors ton perfecto défroqué Tu seras Ok Pour ne pas terminer Comme la femme des Sex Pistols Dans lfrigo toute découpée Couplet à ma bière Comme si cétait mon frère Jsuis fier y a quelle qui me nourrisse Jtépingle à nourrisse Jai bu comme Ludwig Quatre-Vingt 8,6 Double zéro de Conduite Six Suicidal Tendances Mon single de cinglé, le tube de léther Plus anti-social que Trust Je pue comme le Munster Lépave lance le pavé Dans la manifestation Prônant lauto-destruction Jai perdu ma génération Des Who jusquau Wu Tang Je vais te faire fuir Je représente ceux qui utilisent leur cervelle à la détruire Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk, punk Je veux réveiller le punk qui est en moi Réveiller le kepon paye ton punk Fais péter l'punk Je veux réveiller le punk qui est en moi Faire péter le stupid, stupid, punk punk Je veux réveiller le punk qui est en moi Faire péter le kepon paye ton punk Fais péter l'punk</t>
+          <t>Hey yo j'suis trop chaud Quand j'débarque allume le ventilo Gérard Baste, 1m73, 110 kilos J'ai un très gros stylo Une sténodactylo Laisse moi 5 minutes pour défoncer ton Dunlopillo Ma spécialité c'est les petites sauteries J'dévalise le rayon mexicain du monoprix J'suis pas venu pour animer l'atelier poterie Mais pour rocker la scène avec mes gars qu'en ont trop pris En train d'me pogner devant un vieux clip à Lorie J'suis pas pervers, c'est juste pour brûler les calories Et si tu m'suis, c'est que parfois tu cries Mon héros ! J'suis pas gros, j'ai juste des ancêtres maoris J'ai gobé l'x et depuis j'ai les os solides Pour mieux retomber sur mes pattes et conduire les gros bolides Super-Baste en slibard! Au dessus d'Métropolis Tu veux atteindre mon standard? Va falloir te mettre aux saucisses They told me... I was great Yippee ya yeah Yippee ya ya yo Dis moi qui est le plus beau? Qui est le plus gros? Yippee ya yo Yippee ya ya yeah J'suis le genre de modèle qu'ils feraient bien de respecter Yippee ya yeah Yippee ya ya yo C'est pour tous les gars comme moi qu'en prennent toujours trop Yippee ya yo Yippee ya ya yeah Et si tu veux du fat on va t'en faire bouffer J'veux être plus dur que Seth Gueko Plus cool qu'Orelsan Plus sexy qu'Nekfeu Plus compréhensible que Vald Mieux écrit que Lino Plus intello que Fuzati Mais j'suis rouge comme Redman Et presque aussi gros que B.I.G Appelle moi Kid Cubi, the real slip shady, Puffido du diddy, Boula-Wan Kenobi Appelle moi Bide Doherty ou Joe Bedaine, Fatboy slip, Ambré 3000 ou Sacha Distelle Ouais j'suis grassouillet Pour l'apéro j'ai fini trois poulets Pour le dessert j'ai fait léger J'ai pris un cassoulet Mon anatomie c'est devenu une vraie charcuterie C'est plus un foie que j'ai, c'est une une aubergine farcie J'aurais bien dû me douter qu'il m'arriverait des tuiles Vu que ce qui coule dans mes veines C'est de l'alcool et de l'huile Je rentre plus dans mes polos Je fais le poids d'un épaulard T'as gagné le gros lot T'es tombée sur un gros lard They told me... I was great Yippee ya yeah Yippee ya ya yo Dis moi qui est le plus beau? Qui est le plus gros? Yippee ya yo Yippee ya ya yeah J'suis le genre de modèle qu'ils feraient bien de respecter Yippee ya yeah Yippee ya ya yo C'est pour tous les gars comme moi qu'en prennent toujours trop Yippee ya yo Yippee ya ya yeah Et si tu veux du fat on va t'en faire bouffer And all I wanna do Is boogaloo Trouve moi sur ton canapé en train De mâchouiller un vieux chewing-gum Que du vrai, j'ai jamais triché C'est ma vie, c'est pas un sitcom T'as intérêt à bien bosser Si tu veux égaler ce prototype d'homme Que t'aies les fesses en pastèques, que tu sois gras du steak Ou que t'aies les seins en toutes petites pommes</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trop gros</t>
+          <t>10 Caresse auditive “all stars remix”</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hey yo j'suis trop chaud Quand j'débarque allume le ventilo Gérard Baste, 1m73, 110 kilos J'ai un très gros stylo Une sténodactylo Laisse moi 5 minutes pour défoncer ton Dunlopillo Ma spécialité c'est les petites sauteries J'dévalise le rayon mexicain du monoprix J'suis pas venu pour animer l'atelier poterie Mais pour rocker la scène avec mes gars qu'en ont trop pris En train d'me pogner devant un vieux clip à Lorie J'suis pas pervers, c'est juste pour brûler les calories Et si tu m'suis, c'est que parfois tu cries Mon héros ! J'suis pas gros, j'ai juste des ancêtres maoris J'ai gobé l'x et depuis j'ai les os solides Pour mieux retomber sur mes pattes et conduire les gros bolides Super-Baste en slibard! Au dessus d'Métropolis Tu veux atteindre mon standard? Va falloir te mettre aux saucisses They told me... I was great Yippee ya yeah Yippee ya ya yo Dis moi qui est le plus beau? Qui est le plus gros? Yippee ya yo Yippee ya ya yeah J'suis le genre de modèle qu'ils feraient bien de respecter Yippee ya yeah Yippee ya ya yo C'est pour tous les gars comme moi qu'en prennent toujours trop Yippee ya yo Yippee ya ya yeah Et si tu veux du fat on va t'en faire bouffer J'veux être plus dur que Seth Gueko Plus cool qu'Orelsan Plus sexy qu'Nekfeu Plus compréhensible que Vald Mieux écrit que Lino Plus intello que Fuzati Mais j'suis rouge comme Redman Et presque aussi gros que B.I.G Appelle moi Kid Cubi, the real slip shady, Puffido du diddy, Boula-Wan Kenobi Appelle moi Bide Doherty ou Joe Bedaine, Fatboy slip, Ambré 3000 ou Sacha Distelle Ouais j'suis grassouillet Pour l'apéro j'ai fini trois poulets Pour le dessert j'ai fait léger J'ai pris un cassoulet Mon anatomie c'est devenu une vraie charcuterie C'est plus un foie que j'ai, c'est une une aubergine farcie J'aurais bien dû me douter qu'il m'arriverait des tuiles Vu que ce qui coule dans mes veines C'est de l'alcool et de l'huile Je rentre plus dans mes polos Je fais le poids d'un épaulard T'as gagné le gros lot T'es tombée sur un gros lard They told me... I was great Yippee ya yeah Yippee ya ya yo Dis moi qui est le plus beau? Qui est le plus gros? Yippee ya yo Yippee ya ya yeah J'suis le genre de modèle qu'ils feraient bien de respecter Yippee ya yeah Yippee ya ya yo C'est pour tous les gars comme moi qu'en prennent toujours trop Yippee ya yo Yippee ya ya yeah Et si tu veux du fat on va t'en faire bouffer And all I wanna do Is boogaloo Trouve moi sur ton canapé en train De mâchouiller un vieux chewing-gum Que du vrai, j'ai jamais triché C'est ma vie, c'est pas un sitcom T'as intérêt à bien bosser Si tu veux égaler ce prototype d'homme Que t'aies les fesses en pastèques, que tu sois gras du steak Ou que t'aies les seins en toutes petites pommes</t>
+          <t>ATTENTION ECRITURE NON FINIE !! Audiolingus mais comment traduire ça putain,je crois que je l'ai au bout de la langue !! Yoshi meet soap Worldwide connexion ! Come on ! Original cyanure tu,connais déjà J'entre dans la danse sur la pointe des pieds,tu connais Et je tapprends l'hospitalité ,tu connais Ce n'est pas un SOAP opéra tu connais yosh',tu connais gérard Caresse auditive,pas de paresse auditrice,on dis qu'ya des badass qui embarrasse la scène avec plus de caractères que sur twitter Suite a tu t'échappes en sueur on se dandine a,e,i,o c'est la danse des mots bienvenue dans le monde de mon dino Carresse auditive ugh ! Sois pas émotif ugh ! J'ai juste le niveau au micro,prends un égotrip ugh ! Tout le monde le doigt en l'air ugh ! Toucher rectal ugh ! Le game en pleins fantasme J'lui mets doucement Rime envoûtantes Flow déroutant,dégoutant Plus d'1 KO dans le bagout que rocancourt ah ! Fait du boucan Si t'est trop con,trop sourd Oui le son est lourd,hum.. trop bon,trop court1</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10 Caresse auditive “all stars remix”</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ATTENTION ECRITURE NON FINIE !! Audiolingus mais comment traduire ça putain,je crois que je l'ai au bout de la langue !! Yoshi meet soap Worldwide connexion ! Come on ! Original cyanure tu,connais déjà J'entre dans la danse sur la pointe des pieds,tu connais Et je tapprends l'hospitalité ,tu connais Ce n'est pas un SOAP opéra tu connais yosh',tu connais gérard Caresse auditive,pas de paresse auditrice,on dis qu'ya des badass qui embarrasse la scène avec plus de caractères que sur twitter Suite a tu t'échappes en sueur on se dandine a,e,i,o c'est la danse des mots bienvenue dans le monde de mon dino Carresse auditive ugh ! Sois pas émotif ugh ! J'ai juste le niveau au micro,prends un égotrip ugh ! Tout le monde le doigt en l'air ugh ! Toucher rectal ugh ! Le game en pleins fantasme J'lui mets doucement Rime envoûtantes Flow déroutant,dégoutant Plus d'1 KO dans le bagout que rocancourt ah ! Fait du boucan Si t'est trop con,trop sourd Oui le son est lourd,hum.. trop bon,trop court1</t>
-        </is>
-      </c>
+          <t>1, 2, 3, 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -526,10 +522,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Et ben, c'est pas facile tous les jours 'M'ont prit la tête toute la semaine avec leurs cours de merde Profs de merde, bahut d'merde Les parents, ils m'ont saoulé, ils m'ont sur-saoulé J'en ai rien à foutre, t'façon c'week-end c'est décidé, je fume 25 grammes de shit Rien à foutre ! Et les d'voirs, qu'ils aillent se faire enculer Non mais attends, tu crois qu'on va s'laisser faire ? Non mais hey, oh ! LOL Les parents sont partis d'puis à peine 5 minutes Que j'pète déjà un 3 feuilles d'vant un bon film de uc' Et j'épluche le carnet d'adresses pour prévenir les soss' De s'pointés avec des meufs, de la tise et d'la dope Pendant qu'j'éclate le pack, j'fais chauffer l'eau des pâtes Et j'fais péter la chaîne hi-fi avec des disques de rap J'enfile un t-shirt Qhuit et puis j'me lave la bite On sait jamais qu'une meuf soit assez bourrée pour qu'j'la nique Faut qu'j'invite la moitié d'Paris sinon j'me sens seul Dans la vie j'aime lire des mangas et m'déchirer la gueule J'collectionne les Lego Star Wars et les voitures Hot Wheels Et j'ai trop d'casquettes, trop d'shoes, trop d'lunettes, j'ai trop d'style J'ai éclaté mon forfait, ma ??? c'est la zone J'passe pour un con, j'suis l'seul de la bande qui a pas d'IPhone En bref, j'vis la vie d'n'importe quel adolescent Le problème c'est juste qu'j'ai plus d'35 ans Merde ! Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Tu sais qu'j'suis l'même-même petit-petit con c'est grave Les jeunes magacent et les mecs de mon age me gavent Ma meuf m'engueule, c'est encore trop rare que j'me lave Le matin c'est rare que j'me lève, j'ai la tête dans l'cul grave J'ai promis d'arrêter la console et d'plus bouger en boite De m'faire des salades mais j'ouvre des raviolis en boite Tous les matins d'vant larmoire qui déborde, j'bataille Mes jeans sont trop larges, trop serrés mais jamais à ma taille J'me revois encore en 4ème quand j'avais ans-12 Veste en jean, t-shirt Renaud et bandana rouge J'me revois encore quand j'voulais être un zulu et qu'j'traînais dans l'moove Élevé pas les louves aux palissades du Louvre Maintenant j'suis le Ancien Kid on the Block, le trop grand Lil Wayne Le Young Jeezy Old, le Soulja homme, le Hot Boys tiède Consomme-moi vite fait, avant qu'j'sois rassit, rincé J'suis un teenager de 35 ans, et d'mi, passés Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Et ouais au final T'as vu c'est fort la vie d'adulte, c'est compliqué la vie d'artiste Faut bien régler les factures, cours, cours après l'fric Mais j'reste encore bloqué quand j'me pognais d'vant Premiers Baisers Sur les lunettes d'Annette et j'croyais qu'j'allais jamais baiser Puis les boutons sur la gueule, ça finit par partir Les poils ça pousse, les dents ça finit par jaunir On a l'age qu'on a, j'ai l'age que j'ai J'suis toujours à l'aise, Gérard Baste 1973 x2 Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,12 +539,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>28 litres plus tard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Et ben, c'est pas facile tous les jours 'M'ont prit la tête toute la semaine avec leurs cours de merde Profs de merde, bahut d'merde Les parents, ils m'ont saoulé, ils m'ont sur-saoulé J'en ai rien à foutre, t'façon c'week-end c'est décidé, je fume 25 grammes de shit Rien à foutre ! Et les d'voirs, qu'ils aillent se faire enculer Non mais attends, tu crois qu'on va s'laisser faire ? Non mais hey, oh ! LOL Les parents sont partis d'puis à peine 5 minutes Que j'pète déjà un 3 feuilles d'vant un bon film de uc' Et j'épluche le carnet d'adresses pour prévenir les soss' De s'pointés avec des meufs, de la tise et d'la dope Pendant qu'j'éclate le pack, j'fais chauffer l'eau des pâtes Et j'fais péter la chaîne hi-fi avec des disques de rap J'enfile un t-shirt Qhuit et puis j'me lave la bite On sait jamais qu'une meuf soit assez bourrée pour qu'j'la nique Faut qu'j'invite la moitié d'Paris sinon j'me sens seul Dans la vie j'aime lire des mangas et m'déchirer la gueule J'collectionne les Lego Star Wars et les voitures Hot Wheels Et j'ai trop d'casquettes, trop d'shoes, trop d'lunettes, j'ai trop d'style J'ai éclaté mon forfait, ma ??? c'est la zone J'passe pour un con, j'suis l'seul de la bande qui a pas d'IPhone En bref, j'vis la vie d'n'importe quel adolescent Le problème c'est juste qu'j'ai plus d'35 ans Merde ! Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Tu sais qu'j'suis l'même-même petit-petit con c'est grave Les jeunes magacent et les mecs de mon age me gavent Ma meuf m'engueule, c'est encore trop rare que j'me lave Le matin c'est rare que j'me lève, j'ai la tête dans l'cul grave J'ai promis d'arrêter la console et d'plus bouger en boite De m'faire des salades mais j'ouvre des raviolis en boite Tous les matins d'vant larmoire qui déborde, j'bataille Mes jeans sont trop larges, trop serrés mais jamais à ma taille J'me revois encore en 4ème quand j'avais ans-12 Veste en jean, t-shirt Renaud et bandana rouge J'me revois encore quand j'voulais être un zulu et qu'j'traînais dans l'moove Élevé pas les louves aux palissades du Louvre Maintenant j'suis le Ancien Kid on the Block, le trop grand Lil Wayne Le Young Jeezy Old, le Soulja homme, le Hot Boys tiède Consomme-moi vite fait, avant qu'j'sois rassit, rincé J'suis un teenager de 35 ans, et d'mi, passés Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980 Et ouais au final T'as vu c'est fort la vie d'adulte, c'est compliqué la vie d'artiste Faut bien régler les factures, cours, cours après l'fric Mais j'reste encore bloqué quand j'me pognais d'vant Premiers Baisers Sur les lunettes d'Annette et j'croyais qu'j'allais jamais baiser Puis les boutons sur la gueule, ça finit par partir Les poils ça pousse, les dents ça finit par jaunir On a l'age qu'on a, j'ai l'age que j'ai J'suis toujours à l'aise, Gérard Baste 1973 x2 Dans la vie c'est toujours la loose Pour les gars d'1972 J'crois qu'j'vais bientôt sucrer les fraises J'suis né en 1973 T'est trop vieux, c'est fini la fête Pour les mecs de 77 Tu crois vraiment qu'ce sera mieux demain ? Même si t'es d'1980</t>
+          <t>Eh mon pote, eh regarde ce que j'ai pour toi Une petite gorgée de ça et fini le lait écrémé C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard J'ai une halène de mort et des pensées malsaines Et j'sors de ma tanière quand la lune apparaît dans le ciel Une montée de fièvre et j'ai tout le corps qui tremble J'pousse un hurlement horrible, pliant, m'tenant le ventre Les paupières qui se retournes, et les yeux qui se révulsent Les mains qui pendent au bout de mes bras qui se tendent, tout droit devant le buste Les dents qui s'allongent et les poils qui poussent J'marche comme un zombie dégueulasse jusqu'à ce que je fasse les courses Devant le rayon où je vais squatter pendant trois quarts d'heure En train de bander comme un vieux hardeur J'sais, j'finirai par serrer la même vieille piquette Mais, une par une je lirai toutes les étiquettes Si y'a une pauvre meuf qui me dit - Excusez-moi je passe - Non tu passes pas devant moi quand je regarde le pinard connasse ! J'la tire par les cheveux j'lui dévore la gorge Vise le goulot avec les dents et j'vide cul-sec une 'teille de Nuits-Saint-Georges C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard -Eh mon pote, tu peux me mettre une autre bouteille de côté pour plus tard ? - Mon vieux, je ne mettrai rien de côté pour toi - Eh mais je suis pas en train de parler de la gnaule mec, j'te parle pas de la gnaule. La vie ! J'suis en train de parler de la vie - Me fout complètement de ce que tu racontes, tu prends ta gnaule et tu dégages ! - Attends ! Écoute un peu ! J'absorbe plus que la sphaigne En manque j'suis une teigne Et je renais à la vie lorsque les lumières de la ville s'éteignent La bouche ouverte, la gorge sèche et les bras qui grattent J'défonce ton thorax, et j'bouffe ton cur de pie crade C'est le retour de Kid Cubi C'est le bal des promos, et ma victime a une belle robe rubis Tous les vendredis 13 degrés on se réunit Et c'est toute l'armée des morts qui fonce vers l'épicerie de nuit Ça te fera pas mal c'est promis J'l'enfile tout bourré pendant que Jennifer vomit Et l'aut' pédé de Dracula peut venir me sucer C'est lui qui va tomber dans le coma Visage bouffi contre les vampires The descente qui fait peur et je m'entretiens avec un sang pire Priez le Saint Père De ne pas croiser Gérard, en train de boire seul le soir, à poil sous son imper' J'ai le vin d'horreur, un pas de plus vers l'aurore Ramène un sommelier si tu comptes identifier le corps Tu peux venir me planter un pieu dans le cur Personne pourra m'arrêter tant que je serai armé d'un décapsuleur C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard - Prends ta gnaule et dégage ! - Ca y est je crois que ça viens ! Tu commences à saisir ce que je veux dire hein ? Et quand tu sauras la vérité, tu auras tout bon mon pote ! - Bon allez vas-y raconte ! Les yeux exorbités, injectés de sang et le visage blême J'pourrais boire encore plus mais j'ai la flemme Je m'essuie la bouche du revers de la main, pendant que les dernières bouteilles crèvent Et je rejoins mon cercueil pendant que le soleil se lève J'ai vidé les briques, fais les comptes de la Kriek Et ma tension retombe à 86 quand le jour rappliquent J'ai été abdominable, j'ai bu tout le sang de la Terre, et j'ai signé un pack avec le diable Une canette vide c'est ma vision de l'enfer Et je fonce vers le prochain bistrot à tombeau ouvert Et en guise d'épitaphe le jour où je remballe Tu peux inscrire Rest in Pils sur ma bière tombale C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>28 litres plus tard</t>
+          <t>50 Centimes d’euros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Eh mon pote, eh regarde ce que j'ai pour toi Une petite gorgée de ça et fini le lait écrémé C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard J'ai une halène de mort et des pensées malsaines Et j'sors de ma tanière quand la lune apparaît dans le ciel Une montée de fièvre et j'ai tout le corps qui tremble J'pousse un hurlement horrible, pliant, m'tenant le ventre Les paupières qui se retournes, et les yeux qui se révulsent Les mains qui pendent au bout de mes bras qui se tendent, tout droit devant le buste Les dents qui s'allongent et les poils qui poussent J'marche comme un zombie dégueulasse jusqu'à ce que je fasse les courses Devant le rayon où je vais squatter pendant trois quarts d'heure En train de bander comme un vieux hardeur J'sais, j'finirai par serrer la même vieille piquette Mais, une par une je lirai toutes les étiquettes Si y'a une pauvre meuf qui me dit - Excusez-moi je passe - Non tu passes pas devant moi quand je regarde le pinard connasse ! J'la tire par les cheveux j'lui dévore la gorge Vise le goulot avec les dents et j'vide cul-sec une 'teille de Nuits-Saint-Georges C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard -Eh mon pote, tu peux me mettre une autre bouteille de côté pour plus tard ? - Mon vieux, je ne mettrai rien de côté pour toi - Eh mais je suis pas en train de parler de la gnaule mec, j'te parle pas de la gnaule. La vie ! J'suis en train de parler de la vie - Me fout complètement de ce que tu racontes, tu prends ta gnaule et tu dégages ! - Attends ! Écoute un peu ! J'absorbe plus que la sphaigne En manque j'suis une teigne Et je renais à la vie lorsque les lumières de la ville s'éteignent La bouche ouverte, la gorge sèche et les bras qui grattent J'défonce ton thorax, et j'bouffe ton cur de pie crade C'est le retour de Kid Cubi C'est le bal des promos, et ma victime a une belle robe rubis Tous les vendredis 13 degrés on se réunit Et c'est toute l'armée des morts qui fonce vers l'épicerie de nuit Ça te fera pas mal c'est promis J'l'enfile tout bourré pendant que Jennifer vomit Et l'aut' pédé de Dracula peut venir me sucer C'est lui qui va tomber dans le coma Visage bouffi contre les vampires The descente qui fait peur et je m'entretiens avec un sang pire Priez le Saint Père De ne pas croiser Gérard, en train de boire seul le soir, à poil sous son imper' J'ai le vin d'horreur, un pas de plus vers l'aurore Ramène un sommelier si tu comptes identifier le corps Tu peux venir me planter un pieu dans le cur Personne pourra m'arrêter tant que je serai armé d'un décapsuleur C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard - Prends ta gnaule et dégage ! - Ca y est je crois que ça viens ! Tu commences à saisir ce que je veux dire hein ? Et quand tu sauras la vérité, tu auras tout bon mon pote ! - Bon allez vas-y raconte ! Les yeux exorbités, injectés de sang et le visage blême J'pourrais boire encore plus mais j'ai la flemme Je m'essuie la bouche du revers de la main, pendant que les dernières bouteilles crèvent Et je rejoins mon cercueil pendant que le soleil se lève J'ai vidé les briques, fais les comptes de la Kriek Et ma tension retombe à 86 quand le jour rappliquent J'ai été abdominable, j'ai bu tout le sang de la Terre, et j'ai signé un pack avec le diable Une canette vide c'est ma vision de l'enfer Et je fonce vers le prochain bistrot à tombeau ouvert Et en guise d'épitaphe le jour où je remballe Tu peux inscrire Rest in Pils sur ma bière tombale C'est toujours la même histoire Le même cinéma qui recommence tous les soirs Une silhouette qui émerge du noir Qui te saute au cou en puant de la gueule et en hurlant A BOIRE ! Dans les rues désertes c'est le cauchemar Les gens crient et s'enfuient quand arrive mon armée de crevards Et si tu me trouves déjà bizarre allez On en reparlera quand tu me verras à 28 litres plus tard</t>
+          <t>Non mais c'est qui celle là ? Mais elle sert à quoi ? En plus tsais qu'j'suis un mauvais coup là ? Tu nme fait rien donc ne me touche pas Tu n'sert à rien et je n'me douche pas T'as cru qu't'allais baiser l'Rock'nroll ? Jme rappelle plus si tu t'appelles Germaine, Raymonde ou Carole Je nm'ouvre pas à toi Pire qu'une huître qui parle en patois Casse-toi et dis-toi que je n'baise qua cappella Fous-toi à poil, si tu veux j's'rais plus sexy qu'un maroilles Aller, viens baby maint'nant, kiffes grave sur ma ??? L'ergonomie d'flows astronomiques N'a rien à voir avec l'astrologie 2 galaxies se chevauchent, yeux dans les yeux, on baise Sur la plage, sur le sable, dos sur le sol Compte les étoiles, j'éjacule un liquide blanchâtre Que les MCs avalent gentiment, sans rien dire je me cloître Sans vivre en autarcie, ne squatte plus les macs Hystérique, Dominique Excuse, mais j'suis pas célibataire Si mes concerts t'ont réveillé les hormones Tu peux te toucher d'vant mon poster Cette photo d'il y a 56 ans quand j'avais encore la forme Mais j'peux plus t'nir une bombe, j'peux plus faire une pompe Creusez-moi une tombe, frappez-moi avec une tong Sortez l'double dong Fais péter l'punk, steup mais soit pas quelconque Observe ton urètre et fous-y une sonde Mate le Sénat à la télé sur FR3 et fous-y une bombe Nikus, Tido, Xanax, Baste et Cuizi une grande clique de malades Oh oui une grande clique de malades qui s'branlent Le style s'fait sucer comme Divine suce Hugh Grant Quand tu nous écoute tu t'dis C'est du rap ou du que-ro ? T'as la partouze de musiques pour 50 centimes d'euros TTC, Triptik, Svinkels, Qhuit pour la suite Si tu m'trouve trop cru, bouffe-la cuite fuiiti-fuiiit-fuiittt J'n'ai pas d'amour à donner pour les filles sales Celles qui passent leur vie au centre de dépistage Va r'vomir un coup et r'pars sans dédicace Cuizinier le spécimen prototype, sodomite T'autorise à vaporiser son membre salis N'oublie pas les sonorités porno style corrosifs Ton anus a prit un coup d'soleil J'adore les groupies qui se mettent accroupie Se croient indétournables et te disent Je ne suis pas soumise On s'amuse envers la pure ??? Okay! Go, go, go, courte-botte Go, go, courte-botte Go, go, courte-botte Tu t'déhanche sur la piste après mon concert J'suis dans des r'gards ambiancés, tu sais c'qui t'reste à faire So, what's next ? Time to have sex ! Mais jamais tu ne m'excite Tu dis qu'tu veux qu'j't'enchaîne, qu'j'te traite comme une chienne Female puppy, you should be ashamed of yourself ! Aussi, vois souvent ??? avec les boites de nuit comme raison d'vivre You better love me you better love me X2 Tu n'me fait rien donc ne me touche pas Tu n'sert à rien et je n'me douche pas T'as cru qu't'allais baiser l'Rock'n'roll ? J'me rappelle plus si tu t'appelles Germaine, Raymonde ou Carole</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>50 Centimes d’euros</t>
+          <t>#58 “Connerie Virus” (Le rap s’adresse à Macron)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Non mais c'est qui celle là ? Mais elle sert à quoi ? En plus tsais qu'j'suis un mauvais coup là ? Tu nme fait rien donc ne me touche pas Tu n'sert à rien et je n'me douche pas T'as cru qu't'allais baiser l'Rock'nroll ? Jme rappelle plus si tu t'appelles Germaine, Raymonde ou Carole Je nm'ouvre pas à toi Pire qu'une huître qui parle en patois Casse-toi et dis-toi que je n'baise qua cappella Fous-toi à poil, si tu veux j's'rais plus sexy qu'un maroilles Aller, viens baby maint'nant, kiffes grave sur ma ??? L'ergonomie d'flows astronomiques N'a rien à voir avec l'astrologie 2 galaxies se chevauchent, yeux dans les yeux, on baise Sur la plage, sur le sable, dos sur le sol Compte les étoiles, j'éjacule un liquide blanchâtre Que les MCs avalent gentiment, sans rien dire je me cloître Sans vivre en autarcie, ne squatte plus les macs Hystérique, Dominique Excuse, mais j'suis pas célibataire Si mes concerts t'ont réveillé les hormones Tu peux te toucher d'vant mon poster Cette photo d'il y a 56 ans quand j'avais encore la forme Mais j'peux plus t'nir une bombe, j'peux plus faire une pompe Creusez-moi une tombe, frappez-moi avec une tong Sortez l'double dong Fais péter l'punk, steup mais soit pas quelconque Observe ton urètre et fous-y une sonde Mate le Sénat à la télé sur FR3 et fous-y une bombe Nikus, Tido, Xanax, Baste et Cuizi une grande clique de malades Oh oui une grande clique de malades qui s'branlent Le style s'fait sucer comme Divine suce Hugh Grant Quand tu nous écoute tu t'dis C'est du rap ou du que-ro ? T'as la partouze de musiques pour 50 centimes d'euros TTC, Triptik, Svinkels, Qhuit pour la suite Si tu m'trouve trop cru, bouffe-la cuite fuiiti-fuiiit-fuiittt J'n'ai pas d'amour à donner pour les filles sales Celles qui passent leur vie au centre de dépistage Va r'vomir un coup et r'pars sans dédicace Cuizinier le spécimen prototype, sodomite T'autorise à vaporiser son membre salis N'oublie pas les sonorités porno style corrosifs Ton anus a prit un coup d'soleil J'adore les groupies qui se mettent accroupie Se croient indétournables et te disent Je ne suis pas soumise On s'amuse envers la pure ??? Okay! Go, go, go, courte-botte Go, go, courte-botte Go, go, courte-botte Tu t'déhanche sur la piste après mon concert J'suis dans des r'gards ambiancés, tu sais c'qui t'reste à faire So, what's next ? Time to have sex ! Mais jamais tu ne m'excite Tu dis qu'tu veux qu'j't'enchaîne, qu'j'te traite comme une chienne Female puppy, you should be ashamed of yourself ! Aussi, vois souvent ??? avec les boites de nuit comme raison d'vivre You better love me you better love me X2 Tu n'me fait rien donc ne me touche pas Tu n'sert à rien et je n'me douche pas T'as cru qu't'allais baiser l'Rock'n'roll ? J'me rappelle plus si tu t'appelles Germaine, Raymonde ou Carole</t>
+          <t>Le défi est commun et le risque est gros On dé-confine les zones, c'est vrai qu'y a beaucoup d'idées fausses Si le malheur des uns fait le profit des autres Le comble s'rait de faire des masques avec des gilets jaunes Avec le corona', l'écart est net, tu respectes les mètres Mais pas ceux qui t'enseignaient comment nager dans le monde des lettres En banlieue, ça pète parce que ça va jamais jusqu'au parquet Pour menacer l'État, tout l'monde appelle en masqué Cette fois, on l'a pris la main dans le sac Pas assez de lits, pas assez de masques Confinés au max comme si c'était l'Alaska Mais relax, ouais, Macron, c'est le best Gérer la crise, c'est pas son fort, et v'là qu'arrive un autre drame Triste bilan des gens qui crèvent, des gilets jaunes, des Notre-Dame Des masques en plus pour le personnel médical mal équipé Emmanuel comme dans un film, sauf que c'est moi qui s'fait leaker Moi, j'aimerais pas être à sa place, non, mais, lui, il kiffe Il va rentrer dans l'Histoire, comme De Gaulle contre les Allemands Mais, bon, là, c'est une guerre contre un virus, t'sais Encore une astuce de Cortex et Minus J'suis en boubou à la mais', gratte mes seize en chuchotant Ambiance messe funéraire pour société moderne On s'adapte, se débat, se multiplie comme des blattes La situation les dépasse, rien n'arrête l'inspi' qui s'déplace c'est Kita Wesh, macro économe, sois digne, sois un homme Corona', corrida, j'suis taureau vif à la Viktorovitch Entre nous, tu t'es pas mis dans d'minis draps Dis au virus de traverser la rue pour s'trouver un vail-tra Eh, l'Président, t'es une girouette, on est perdus Donc on décide où être dedans, tous les résidents Font des pirouettes dehors, on marche que sur un kilomètre On est des il ou elle masqués, des silhouettes Le Président dit qu'c'est d'ta faute Tu n'sais pas t'confiner, tu n'fais que t'faufiler Mais c'est celui qu'a bradé l'matos qui est Donc ce s'ra sans filet, harnais et baudrier Verbiage hyper lâche Il aime faire la biatch pour l'image Le pays a pas l'outillage pour visages Le cash est dans les mirages, faut qu'tu l'saches J'vois trop d'étonnements genre L'État nous ment Des mensonges d'État, boy, j'en compte une tonne au moins Bref, rien d'neuf sous l'soleil, si c'n'est qu'la France reste c'qu'elle est Mais pas d'excès d'zèle, j'ai la teinte qu'ils aiment souiller Ça met du gaz dans les lacrymo', du sang sur ceux qui crient et Du Tas' et des G.I. Joe sur les blouses et sur les gilets De l'eau dans ton vin quand t'as eu besoin d'eux Pour c'qui est de t'en laver les mains, Macron, tu joues l'jeu Cache pas la peste dans nos deux maisons, morte saison Les Hommes s'entassent, pas de masque dans nos cargaisons Crémaillère ? Non, crématoire est la pendaison Répétition de l'Histoire, quand les bidons veulent le guidon C'putain d'virus est partout, j'te jure, un vrai truc de ouf J'suis passé d'Dr. Dre au Docteur Raoult Manu, règle ça, histoire qu'j'aille chercher ma paye Fini d'jouer, sérieux, j'en ai marre de perdre à la Play Je n'sais pas vous mais moi Le corona' ne me dérange pas Je n'sais pas vous mais moi Le corona' ne me dérange pas tant qu'ça Un discours équivaut à un cataplasme sur une jambe de bois Face aux mesures, le peuple n'a qu'un choix, c'est de porter sa croix On lève le voile sur l'imposture et la mascarade Comment faire passer la pilule avec des masques en rade ? Ça pue la défaite Mes doigts sentent la schnek, yeah J'suis Rocky, la nuit, je tape Je tape dans le steak J'sors mon bâton doré... Manu, tu nous dis qu'il faut pas qu'on porte de masque et, maintenant, si Tu nous dis qu'il faut pas qu'on sorte du taf, on a franchi Le cap pendant que les flics nous bloquent la chloroquine Tu stockes nos vies, tu les troques le choc, blaw Folie, gestion d'crise digne d'une série comique Et retour des théories conspi' qu'j'vomis, homie Soi-disant, personne n'avait prédit l'COVID Ils savent depuis janvier mais pensent plus à la money qu'aux vies Ça gère d'l'humain comme ça gère une prison On va sortir, ça va gueuler, dites adieu au silence Hun, mon humeur oscille entre ennui et rage Pas d'argent pour des masques mais des drones en patrouille ça en dit long Apparemment, les masques arriveront après les vaccinations ? J'vais reprendre mes études d'ingénieur en procrastination J'peux pas r'lancer l'économie, j'dois profiter d'l'ergonomie D'mon canapé, faire ma lettre de démotivation Du mal à s'décider l'avenir l'améliorer, c'est dead On sait c'qu'on fait mais joue avec le feu comme deux êtres avec le sida C'est clair, y a no future et pas d'place pour l'corona' Quand j'sors d'chez moi, ça pue la merde, j's'rais mieux sans odorat Incompétence à la présidence, se poursuit la série Quand on m'a dit Macron sait la gérer, j't'avoue qu'là j'ai ri Acérés sont mes propos d'vant leurs tristes balivernes J'lâche les rimes en attendant la prochaine crise sanitaire Pour nos ministres, on reste des sales cabots, des rats d'labo' Vu qu'ces imbéciles préfèrent investir dans les chars d'assaut Nous faire la philo' d'Darwin, nous passer l'arme à gauche Plutôt qu'un lasso, tu vois l'tableau ? Non, ça bouge pas un kilomètre, c'est la limite Passe des nuits blanches comme la be-bar d'Édouard Philippe J'regarde Manu qui r'garde l'OMS parler dans l'vide SO les caissières, les éboueurs, les gars qui vendent la weed Doucement, on nous ment souvent Surtout quand on entend qu'en guerre est ma douce France Où s'planquent les masques pendant qu'la vérité tousse, hante ? De décembre à mars frontières ouvertes depuis tout c'temps ? Remplace les gens qui font la queue au McDo' Par des médecins pour les hôpitaux du Grand-Est Hun, regard che-lou de mon voisin, est-ce un collabo' ? Non, juste un mec bien dans la pure tradition française Un pays à l'arrêt, un gouvernement à la rue En guerre contre le corono', on ne l'aura pas à mains nues Ça veut pas dire qu'baisser les bras doit être un geste barrière Ils trouveront d'quoi sauver les banques, pas les CHR Salut voisin, on s'retrouve pour applaudir et se sentir moins seuls Aide-soignants, caissiers ou éboueurs que l'on regarde d'un nouvel il Ce soir discours du Président, j'prétends pas être devin Mais, si tu veux entendre des applaudissements maintenant, faudra attendre demain C'est dur d'envisager autre chose qu'une tragique issue Du matin au soir, j'suis en slip, j'ai pas un look qui tue Les politiques sont dans l'vague avec le boule qui sue Nous vend d'l'espoir avec deux élastiques, un bout d'tissu On sait qui est nécessaire et quels sont les meilleurs boulots Une pensée à celles qui sont enfermées avec leur bourreau Le nez dehors, la bouche sous l'eau Même ceux qui ont fait des réserves sont au bout du rouleau Sortir le onze mai ? Vas-y, parle pas d'malheur Pour moi, tout va bien, j'ai pas besoin d'coiffeur Ré ouvrir les écoles ? En voilà, une drôle d'idée Interdisez les concerts Facebook de confinés 2020, c'est un blague mais, l'COVID, c'est pas marrant J'ai pas mon attestation donc j'f'rai un mot des parents Dis-moi au moins si, en été, on quittera le confinement J'vais pas taffer mes abdo' inutilement Ouais, tu vas servir la grosse douille, l'année blanche Ou l'année noire, surfe une marée noire de grosses couilles Slip sur la tête non, j'sais pas l'mettre J'applaudis leur incompétence, tout nu à la f'nêtre, bravo Applaudissez, bande de La route est longue comme celle d'Homère et son Odyssée Pff, ris la nuit comme se masturber Jouir sa vie sur des juments comme un palefrenier Seul dans mon appart', RPZ tous les autistes de France J'peux être au sein d'un monde COVID de sens Beurk, j'me dois d'avaler la pilule Le canapé m'attribue pour pas attraper le virus J'garde mes six feet de distance, revis chaque jour la veille Maintenant, ils m'font marrer, vos putains d'tatou' Cape diem Hun, un conseil faites en sorte qu'il y ait du Gin quand j'ressors Gardez Sibeth mais rendez-nous Christophe Ils élisent des clowns chouchoutés à l'Élysée Ils s'font la bise, senlacent, nous font des sermons Mais qui nous dirige vraiment, hein ? Macron, apparemment Ça fait un bail qu'tu nous mens, t'auras des comptes à nous rendre C'est plutôt de notre gestion interne dont on doit se préoccuper Au lieu de chercher à savoir si on s'est fait duper À mon échelle, j'fais ma part avec amour En envoyant des impro' bienveillantes sur ma page chaque jour On manque de masques, akhi, ils tombent, révélant tous nos visages Confrontés qu'au vide intime, laissera des traces dans l'héritage Penser à se situer à l'épicentre de la crise J'ai pas les mots pour vous transmettre à quel point j'vous fais la bise1</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#58 “Connerie Virus” (Le rap s’adresse à Macron)</t>
+          <t>À coups de santiag</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Le défi est commun et le risque est gros On dé-confine les zones, c'est vrai qu'y a beaucoup d'idées fausses Si le malheur des uns fait le profit des autres Le comble s'rait de faire des masques avec des gilets jaunes Avec le corona', l'écart est net, tu respectes les mètres Mais pas ceux qui t'enseignaient comment nager dans le monde des lettres En banlieue, ça pète parce que ça va jamais jusqu'au parquet Pour menacer l'État, tout l'monde appelle en masqué Cette fois, on l'a pris la main dans le sac Pas assez de lits, pas assez de masques Confinés au max comme si c'était l'Alaska Mais relax, ouais, Macron, c'est le best Gérer la crise, c'est pas son fort, et v'là qu'arrive un autre drame Triste bilan des gens qui crèvent, des gilets jaunes, des Notre-Dame Des masques en plus pour le personnel médical mal équipé Emmanuel comme dans un film, sauf que c'est moi qui s'fait leaker Moi, j'aimerais pas être à sa place, non, mais, lui, il kiffe Il va rentrer dans l'Histoire, comme De Gaulle contre les Allemands Mais, bon, là, c'est une guerre contre un virus, t'sais Encore une astuce de Cortex et Minus J'suis en boubou à la mais', gratte mes seize en chuchotant Ambiance messe funéraire pour société moderne On s'adapte, se débat, se multiplie comme des blattes La situation les dépasse, rien n'arrête l'inspi' qui s'déplace c'est Kita Wesh, macro économe, sois digne, sois un homme Corona', corrida, j'suis taureau vif à la Viktorovitch Entre nous, tu t'es pas mis dans d'minis draps Dis au virus de traverser la rue pour s'trouver un vail-tra Eh, l'Président, t'es une girouette, on est perdus Donc on décide où être dedans, tous les résidents Font des pirouettes dehors, on marche que sur un kilomètre On est des il ou elle masqués, des silhouettes Le Président dit qu'c'est d'ta faute Tu n'sais pas t'confiner, tu n'fais que t'faufiler Mais c'est celui qu'a bradé l'matos qui est Donc ce s'ra sans filet, harnais et baudrier Verbiage hyper lâche Il aime faire la biatch pour l'image Le pays a pas l'outillage pour visages Le cash est dans les mirages, faut qu'tu l'saches J'vois trop d'étonnements genre L'État nous ment Des mensonges d'État, boy, j'en compte une tonne au moins Bref, rien d'neuf sous l'soleil, si c'n'est qu'la France reste c'qu'elle est Mais pas d'excès d'zèle, j'ai la teinte qu'ils aiment souiller Ça met du gaz dans les lacrymo', du sang sur ceux qui crient et Du Tas' et des G.I. Joe sur les blouses et sur les gilets De l'eau dans ton vin quand t'as eu besoin d'eux Pour c'qui est de t'en laver les mains, Macron, tu joues l'jeu Cache pas la peste dans nos deux maisons, morte saison Les Hommes s'entassent, pas de masque dans nos cargaisons Crémaillère ? Non, crématoire est la pendaison Répétition de l'Histoire, quand les bidons veulent le guidon C'putain d'virus est partout, j'te jure, un vrai truc de ouf J'suis passé d'Dr. Dre au Docteur Raoult Manu, règle ça, histoire qu'j'aille chercher ma paye Fini d'jouer, sérieux, j'en ai marre de perdre à la Play Je n'sais pas vous mais moi Le corona' ne me dérange pas Je n'sais pas vous mais moi Le corona' ne me dérange pas tant qu'ça Un discours équivaut à un cataplasme sur une jambe de bois Face aux mesures, le peuple n'a qu'un choix, c'est de porter sa croix On lève le voile sur l'imposture et la mascarade Comment faire passer la pilule avec des masques en rade ? Ça pue la défaite Mes doigts sentent la schnek, yeah J'suis Rocky, la nuit, je tape Je tape dans le steak J'sors mon bâton doré... Manu, tu nous dis qu'il faut pas qu'on porte de masque et, maintenant, si Tu nous dis qu'il faut pas qu'on sorte du taf, on a franchi Le cap pendant que les flics nous bloquent la chloroquine Tu stockes nos vies, tu les troques le choc, blaw Folie, gestion d'crise digne d'une série comique Et retour des théories conspi' qu'j'vomis, homie Soi-disant, personne n'avait prédit l'COVID Ils savent depuis janvier mais pensent plus à la money qu'aux vies Ça gère d'l'humain comme ça gère une prison On va sortir, ça va gueuler, dites adieu au silence Hun, mon humeur oscille entre ennui et rage Pas d'argent pour des masques mais des drones en patrouille ça en dit long Apparemment, les masques arriveront après les vaccinations ? J'vais reprendre mes études d'ingénieur en procrastination J'peux pas r'lancer l'économie, j'dois profiter d'l'ergonomie D'mon canapé, faire ma lettre de démotivation Du mal à s'décider l'avenir l'améliorer, c'est dead On sait c'qu'on fait mais joue avec le feu comme deux êtres avec le sida C'est clair, y a no future et pas d'place pour l'corona' Quand j'sors d'chez moi, ça pue la merde, j's'rais mieux sans odorat Incompétence à la présidence, se poursuit la série Quand on m'a dit Macron sait la gérer, j't'avoue qu'là j'ai ri Acérés sont mes propos d'vant leurs tristes balivernes J'lâche les rimes en attendant la prochaine crise sanitaire Pour nos ministres, on reste des sales cabots, des rats d'labo' Vu qu'ces imbéciles préfèrent investir dans les chars d'assaut Nous faire la philo' d'Darwin, nous passer l'arme à gauche Plutôt qu'un lasso, tu vois l'tableau ? Non, ça bouge pas un kilomètre, c'est la limite Passe des nuits blanches comme la be-bar d'Édouard Philippe J'regarde Manu qui r'garde l'OMS parler dans l'vide SO les caissières, les éboueurs, les gars qui vendent la weed Doucement, on nous ment souvent Surtout quand on entend qu'en guerre est ma douce France Où s'planquent les masques pendant qu'la vérité tousse, hante ? De décembre à mars frontières ouvertes depuis tout c'temps ? Remplace les gens qui font la queue au McDo' Par des médecins pour les hôpitaux du Grand-Est Hun, regard che-lou de mon voisin, est-ce un collabo' ? Non, juste un mec bien dans la pure tradition française Un pays à l'arrêt, un gouvernement à la rue En guerre contre le corono', on ne l'aura pas à mains nues Ça veut pas dire qu'baisser les bras doit être un geste barrière Ils trouveront d'quoi sauver les banques, pas les CHR Salut voisin, on s'retrouve pour applaudir et se sentir moins seuls Aide-soignants, caissiers ou éboueurs que l'on regarde d'un nouvel il Ce soir discours du Président, j'prétends pas être devin Mais, si tu veux entendre des applaudissements maintenant, faudra attendre demain C'est dur d'envisager autre chose qu'une tragique issue Du matin au soir, j'suis en slip, j'ai pas un look qui tue Les politiques sont dans l'vague avec le boule qui sue Nous vend d'l'espoir avec deux élastiques, un bout d'tissu On sait qui est nécessaire et quels sont les meilleurs boulots Une pensée à celles qui sont enfermées avec leur bourreau Le nez dehors, la bouche sous l'eau Même ceux qui ont fait des réserves sont au bout du rouleau Sortir le onze mai ? Vas-y, parle pas d'malheur Pour moi, tout va bien, j'ai pas besoin d'coiffeur Ré ouvrir les écoles ? En voilà, une drôle d'idée Interdisez les concerts Facebook de confinés 2020, c'est un blague mais, l'COVID, c'est pas marrant J'ai pas mon attestation donc j'f'rai un mot des parents Dis-moi au moins si, en été, on quittera le confinement J'vais pas taffer mes abdo' inutilement Ouais, tu vas servir la grosse douille, l'année blanche Ou l'année noire, surfe une marée noire de grosses couilles Slip sur la tête non, j'sais pas l'mettre J'applaudis leur incompétence, tout nu à la f'nêtre, bravo Applaudissez, bande de La route est longue comme celle d'Homère et son Odyssée Pff, ris la nuit comme se masturber Jouir sa vie sur des juments comme un palefrenier Seul dans mon appart', RPZ tous les autistes de France J'peux être au sein d'un monde COVID de sens Beurk, j'me dois d'avaler la pilule Le canapé m'attribue pour pas attraper le virus J'garde mes six feet de distance, revis chaque jour la veille Maintenant, ils m'font marrer, vos putains d'tatou' Cape diem Hun, un conseil faites en sorte qu'il y ait du Gin quand j'ressors Gardez Sibeth mais rendez-nous Christophe Ils élisent des clowns chouchoutés à l'Élysée Ils s'font la bise, senlacent, nous font des sermons Mais qui nous dirige vraiment, hein ? Macron, apparemment Ça fait un bail qu'tu nous mens, t'auras des comptes à nous rendre C'est plutôt de notre gestion interne dont on doit se préoccuper Au lieu de chercher à savoir si on s'est fait duper À mon échelle, j'fais ma part avec amour En envoyant des impro' bienveillantes sur ma page chaque jour On manque de masques, akhi, ils tombent, révélant tous nos visages Confrontés qu'au vide intime, laissera des traces dans l'héritage Penser à se situer à l'épicentre de la crise J'ai pas les mots pour vous transmettre à quel point j'vous fais la bise1</t>
+          <t>Yoshi, fais tourner un peu l'Rhum au miel là Yoshi sort de luf et Gérard sort de teuf Cur de pirate, une tête de beauf sur un corps de buf Toujours suivi par les kids et une cohorte de meufs Qui veulent que j'fasse le Chippendales en uniforme de keuf Comment tu crois pouvoir t'en tirer avec le moustachu sur le dos ? J'vais t'envoyer chez l'kiné, v'là l'gras du bide et l'dino ! Fais tourner la chopine, que j'me bourre la gueule Appelle les potes et les copines, qu'on s'retrouve pas seuls Et j'retourne à proximité d'un bon gisement d'rafraîchissement Pendant qu'les chiffes molles gisent mortes, j'tise jusqu'à épuisement J'fais preuve de mauvais esprit permanent J'bute la p'tite souris, j'garde la pièce et j'récupère la dent J'essaye d'être élégant, d'rester poli et d'poser relax Mais j'suis comme Cendrillon, passé minuit, j'deviens dégueulasse Hé Yoshi, ils savent pas Faut qu'on leur explique qu'nos textes piquent Qu'on balance la sauce blanche mais pas dans l'grec-frite Mec, j'ai un flow à couper l'souffle, sors la ventoline Meuf, viens nous sauter sur le zboub, fais du trempoline J'balaye les bonnes manières du revers d'la main J'ai plein d'trucs à faire aujourd'hui Mais j'prends mon courage à deux mains Alors ramène le gigot, l'aligot et j'crie à l'assaut Transforme l'eau en vin et j'pars en thalasso Pas l'p'tit d'job d'homo, quand l'beat croque, poto Qu'le hit cogne, coco, c'est le Hip-Hop Momo Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! J'pousse la porte du saloon avec Gérard Baste Tout le monde s'arrête de parler et se dit C'est la classe Devant ces deux moustachus bedonnants, les femmes bavent mais c'est pas grave Moi j'aime que les naines, les moches et les sales travs Baste et Yoshi, c'est le 8 et le 6 Désolé, fils mais ça va de paire comme Wesson et Smith Moi, j'aime trop les vices Le freestyle c'est ma vie Des fois j'fais même d'l'impro devant des p 'tits gars ébahis J'ai trop d'weed inhalée, rhum, biscuit salé J'veux être riche grâce à mon nom, comme Ziggy Marley Quand toi tu prends des kilos, nous, on prend des tonnes Et quand on fait tomber la chemise Les femmes elles, elles tombent dans les pommes Forte pilosité sur corps athlétique Je saute à 3 mètres 05 si y'a un paquet d'chips J'pe-ra sous Jack Da', Jack Herer ou Black Domina À coups de Lay's, j'entretiens ma ceinture abdominale Ha! T'sais qu'on aime ça, l'apéritif J'reponds plus d'moi, après dix spliffs Mais je n'fais pas, d'obsession dessus La seule idée que j'ai en tête est de monter l'ton Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! Sisi ! Zoulou, sors ton zizi J'ai envie d'faire pipi D'aller dans la street et... Bébé ! Fais nous voir tes nénés J'ai envie d'les téter De t'mater les fesses et d'les péter J'aime qu'on m'obéisse, me force pas à m'répéter Baste et Yoshi, explosent le taux d'gamma-GT Regarde dans nos têtes, vois les p'tit bêtes bizarres grouiller Irréprochable, pourquoi j'laisserai les shtars m'fouiller ? J'compte plus les microphones qu'on a écrabouillé Mon Rap est sale et personne viendra l'débarbouiller J'suis un claqueur de fraîche lâche, videur de friche Défonceur de beat comme si j'étais né à Queensbridge Et même les condés font des backspins, breakent sur le son des Rap Kings Devine qui a chopé la Gatling ? Donc ça tire, dans l'tas, ça t'y, changes pas J'aspire, ça s'vide et j'm'active que quand j'bois Et quand j'bois j'suis bête Cette connasse d'instru mérite une baffe, laisse-moi lui mettre Hey, yo ! Plus mes verres descendent et plus la pression monte Présente-moi une copine, que j'lui règle son compte Grosse bifle et oinj' de beuh, ou bien d'teu-teu Tache blanche sur la joue, grain d'be-teu J'suis une pince, je veux, chaque fois boire tis-gra J'vide le bar à ton mariage ou à ta Bar Mitzvah Envoie-nous du pinard ou on ne partira pas Avant d'avoir rendu gloire à Almighty Jah Jah Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh!</t>
         </is>
       </c>
     </row>
@@ -607,12 +607,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>À coups de santiag</t>
+          <t>Ajoute</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yoshi, fais tourner un peu l'Rhum au miel là Yoshi sort de luf et Gérard sort de teuf Cur de pirate, une tête de beauf sur un corps de buf Toujours suivi par les kids et une cohorte de meufs Qui veulent que j'fasse le Chippendales en uniforme de keuf Comment tu crois pouvoir t'en tirer avec le moustachu sur le dos ? J'vais t'envoyer chez l'kiné, v'là l'gras du bide et l'dino ! Fais tourner la chopine, que j'me bourre la gueule Appelle les potes et les copines, qu'on s'retrouve pas seuls Et j'retourne à proximité d'un bon gisement d'rafraîchissement Pendant qu'les chiffes molles gisent mortes, j'tise jusqu'à épuisement J'fais preuve de mauvais esprit permanent J'bute la p'tite souris, j'garde la pièce et j'récupère la dent J'essaye d'être élégant, d'rester poli et d'poser relax Mais j'suis comme Cendrillon, passé minuit, j'deviens dégueulasse Hé Yoshi, ils savent pas Faut qu'on leur explique qu'nos textes piquent Qu'on balance la sauce blanche mais pas dans l'grec-frite Mec, j'ai un flow à couper l'souffle, sors la ventoline Meuf, viens nous sauter sur le zboub, fais du trempoline J'balaye les bonnes manières du revers d'la main J'ai plein d'trucs à faire aujourd'hui Mais j'prends mon courage à deux mains Alors ramène le gigot, l'aligot et j'crie à l'assaut Transforme l'eau en vin et j'pars en thalasso Pas l'p'tit d'job d'homo, quand l'beat croque, poto Qu'le hit cogne, coco, c'est le Hip-Hop Momo Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! J'pousse la porte du saloon avec Gérard Baste Tout le monde s'arrête de parler et se dit C'est la classe Devant ces deux moustachus bedonnants, les femmes bavent mais c'est pas grave Moi j'aime que les naines, les moches et les sales travs Baste et Yoshi, c'est le 8 et le 6 Désolé, fils mais ça va de paire comme Wesson et Smith Moi, j'aime trop les vices Le freestyle c'est ma vie Des fois j'fais même d'l'impro devant des p 'tits gars ébahis J'ai trop d'weed inhalée, rhum, biscuit salé J'veux être riche grâce à mon nom, comme Ziggy Marley Quand toi tu prends des kilos, nous, on prend des tonnes Et quand on fait tomber la chemise Les femmes elles, elles tombent dans les pommes Forte pilosité sur corps athlétique Je saute à 3 mètres 05 si y'a un paquet d'chips J'pe-ra sous Jack Da', Jack Herer ou Black Domina À coups de Lay's, j'entretiens ma ceinture abdominale Ha! T'sais qu'on aime ça, l'apéritif J'reponds plus d'moi, après dix spliffs Mais je n'fais pas, d'obsession dessus La seule idée que j'ai en tête est de monter l'ton Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh! Sisi ! Zoulou, sors ton zizi J'ai envie d'faire pipi D'aller dans la street et... Bébé ! Fais nous voir tes nénés J'ai envie d'les téter De t'mater les fesses et d'les péter J'aime qu'on m'obéisse, me force pas à m'répéter Baste et Yoshi, explosent le taux d'gamma-GT Regarde dans nos têtes, vois les p'tit bêtes bizarres grouiller Irréprochable, pourquoi j'laisserai les shtars m'fouiller ? J'compte plus les microphones qu'on a écrabouillé Mon Rap est sale et personne viendra l'débarbouiller J'suis un claqueur de fraîche lâche, videur de friche Défonceur de beat comme si j'étais né à Queensbridge Et même les condés font des backspins, breakent sur le son des Rap Kings Devine qui a chopé la Gatling ? Donc ça tire, dans l'tas, ça t'y, changes pas J'aspire, ça s'vide et j'm'active que quand j'bois Et quand j'bois j'suis bête Cette connasse d'instru mérite une baffe, laisse-moi lui mettre Hey, yo ! Plus mes verres descendent et plus la pression monte Présente-moi une copine, que j'lui règle son compte Grosse bifle et oinj' de beuh, ou bien d'teu-teu Tache blanche sur la joue, grain d'be-teu J'suis une pince, je veux, chaque fois boire tis-gra J'vide le bar à ton mariage ou à ta Bar Mitzvah Envoie-nous du pinard ou on ne partira pas Avant d'avoir rendu gloire à Almighty Jah Jah Voilà les grosses pointures On botte des culs ! Avec une bonne vieille méthode On botte des culs ! Toujours à coups de santiags On botte des culs ! On s'promène, tranquilles Ouais, on botte des culs ! On fait quoi ? On botte les bonda Ha! Botte les bonda Ha! Botte les bonda Ooh! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ha! Claque ton bonda Ooh!</t>
+          <t>Ouh oui ! Welcome ladies and gentleman To the Xanax show called Extravaganza Especially sponsorised by Qhuit, ouh oui ! J'bois mon cappuccino en m'faisant masser l'épaule ??? baby, roules un gros que j'me pause Ajoute ! Un p'tit peu pour que j'??? Toi et moi on sait qu'il faut qu'on fly C'est la révolution lexicale Et j'ajoute un p'tit peu d'suave dans mon style Oh oh oh Sock it to me, sock it to me, sock it to me Guettes comment, comment mon crew s'met à groover Tout à coup les enceintes s'mettent à bouncer Y'a pleins d'types différents aux styles corsés Et pourtant, surprenant, c'est du français Ajoute un petit peu plus sur la table Ajoute des médiums, des trembles et du grave Shake ton popotin, poses-le sur la table C'est d'la bounce bébé, c'est d'la bombe bébé All y'all niggas can suck my dick Impossible que j'joue pour toi sauf pour du fric Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Cuizinier est large comme un Mammouth Supermarché du style Ça fait bien longtemps que les trous ne se bouchent plus avec des rustines À l'aide c'est l'usine, travaille à la chaîne Ajoute ! Supermarché utile Il a toujours avec lui sa valise d'merchandising L'air fantastique donc j'gère D'innombrables mères en mal fines sans vaseline J'ajoute, m'accoude au bar Joue des coudes et réclame Ajoute, pas d'coup de barre, 23 coupes et repars Le Svink c'est chic, TTC in Triptik has been ? Ils flippent, ces types sont tous des pimp De réels macs quand on tise Souvent pâle quand on pisse Pone, on ne tague pas sur les cuisses de tass quand on pine Rarement en manque de marchandise 8-6, 8-8, 10-10, 11-6 Oublie-moi avec ce 51 Sers-moi un 102, un 204 Jamais deux sans trois histoire qu'on finisse à quatre pattes, carpettes Ajoute, agite, ton corps éjecte ton cerveau que l'Ricard pète Ton foie qu'on écartèle C'est souvent qu'on fini par terre Qu'on bave et qu'on gerbe comme la lave sortant d'un cratère Plus de, plus de fonce-dé Alors bois un ouc', mattes le douze que j'ai pécho 't'à l'heure Ah, j'suis trop un ouf Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Teki Latex, Kronenbourg et moquette sale Serviettes hygiéniques, jus de chaussettes crades Calembours et mauvaises blagues Un célèbre hystérique toujours à la bourre et d'mauvaise foi Même si j'ai toujours raison Bébé t'es bonne mais ta copine non Et malheureusement j'n'ai pas d'bisou pour les thons Même si la chasse aux chattes chez moi est toujours d'saison Du pain, du vin Du joint, c'est l'fin du fin C'est pas du foin On voit plus loin J'ai d'jà plus faim On boit au moins le poids du moins lourd pack aux mains Masturbateur de filles clitoridiennes Perforeur vaginal, performer Ça rogne sec, ça cut grave, ça rappe fat Ne bouge pas mais voyage Anomalie, est-ce Berman avec la barmaid ? Triple dose de cool-al, on s'rencarde Pimpage de meufs bonnes Vidange de couilles pleines Puis clivage, ça s'dévergonde Ma tête tourne, j'bégère Elle glisse sur ma galette à grumeaux Avant d'atterrir au plumard, vénère Qui qu'a bu son mètre de Pastis ? Et qu'à r'peint l'AX en jaune pisse ? Ajoute ! J'suis sûr qu'c'est un coup du Qhuit Ils arriveraient même à bourrer un islamiste Ajoute ! Un couplet one shot à Brest C'est l'chemin l'plus court pour les States Ajoute le tord-boyaux s'il reste le noyau dur On est beaux là comme le virus Ajoute la goutte c'est pour Nikus Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute !</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ajoute</t>
+          <t>Alcohol</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ouh oui ! Welcome ladies and gentleman To the Xanax show called Extravaganza Especially sponsorised by Qhuit, ouh oui ! J'bois mon cappuccino en m'faisant masser l'épaule ??? baby, roules un gros que j'me pause Ajoute ! Un p'tit peu pour que j'??? Toi et moi on sait qu'il faut qu'on fly C'est la révolution lexicale Et j'ajoute un p'tit peu d'suave dans mon style Oh oh oh Sock it to me, sock it to me, sock it to me Guettes comment, comment mon crew s'met à groover Tout à coup les enceintes s'mettent à bouncer Y'a pleins d'types différents aux styles corsés Et pourtant, surprenant, c'est du français Ajoute un petit peu plus sur la table Ajoute des médiums, des trembles et du grave Shake ton popotin, poses-le sur la table C'est d'la bounce bébé, c'est d'la bombe bébé All y'all niggas can suck my dick Impossible que j'joue pour toi sauf pour du fric Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Cuizinier est large comme un Mammouth Supermarché du style Ça fait bien longtemps que les trous ne se bouchent plus avec des rustines À l'aide c'est l'usine, travaille à la chaîne Ajoute ! Supermarché utile Il a toujours avec lui sa valise d'merchandising L'air fantastique donc j'gère D'innombrables mères en mal fines sans vaseline J'ajoute, m'accoude au bar Joue des coudes et réclame Ajoute, pas d'coup de barre, 23 coupes et repars Le Svink c'est chic, TTC in Triptik has been ? Ils flippent, ces types sont tous des pimp De réels macs quand on tise Souvent pâle quand on pisse Pone, on ne tague pas sur les cuisses de tass quand on pine Rarement en manque de marchandise 8-6, 8-8, 10-10, 11-6 Oublie-moi avec ce 51 Sers-moi un 102, un 204 Jamais deux sans trois histoire qu'on finisse à quatre pattes, carpettes Ajoute, agite, ton corps éjecte ton cerveau que l'Ricard pète Ton foie qu'on écartèle C'est souvent qu'on fini par terre Qu'on bave et qu'on gerbe comme la lave sortant d'un cratère Plus de, plus de fonce-dé Alors bois un ouc', mattes le douze que j'ai pécho 't'à l'heure Ah, j'suis trop un ouf Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute ! Teki Latex, Kronenbourg et moquette sale Serviettes hygiéniques, jus de chaussettes crades Calembours et mauvaises blagues Un célèbre hystérique toujours à la bourre et d'mauvaise foi Même si j'ai toujours raison Bébé t'es bonne mais ta copine non Et malheureusement j'n'ai pas d'bisou pour les thons Même si la chasse aux chattes chez moi est toujours d'saison Du pain, du vin Du joint, c'est l'fin du fin C'est pas du foin On voit plus loin J'ai d'jà plus faim On boit au moins le poids du moins lourd pack aux mains Masturbateur de filles clitoridiennes Perforeur vaginal, performer Ça rogne sec, ça cut grave, ça rappe fat Ne bouge pas mais voyage Anomalie, est-ce Berman avec la barmaid ? Triple dose de cool-al, on s'rencarde Pimpage de meufs bonnes Vidange de couilles pleines Puis clivage, ça s'dévergonde Ma tête tourne, j'bégère Elle glisse sur ma galette à grumeaux Avant d'atterrir au plumard, vénère Qui qu'a bu son mètre de Pastis ? Et qu'à r'peint l'AX en jaune pisse ? Ajoute ! J'suis sûr qu'c'est un coup du Qhuit Ils arriveraient même à bourrer un islamiste Ajoute ! Un couplet one shot à Brest C'est l'chemin l'plus court pour les States Ajoute le tord-boyaux s'il reste le noyau dur On est beaux là comme le virus Ajoute la goutte c'est pour Nikus Ajoute ! Me dis pas qu'c'est tout c'que t'as Ajoute ! Ils nous en faut plus que ça Donc prends ton anorak, ta doudoune, tes tongs On s'en va en Bretagne avec Qhuit pour explorer la foufoune des blondes Ajoute ! Me dis pas qu'ça va trop vite Ajoute ! On veux tout, tout l'temps et tout d'suite Rajoute un acide dans l'gin tonic Et gueule Mo-money-money, mo-money-money Ajoute !</t>
+          <t>Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody cant deny Alcohol I'm wake up in the morning ??? I'm the pigman of the Svinkels Cause everything is good in a pig And everyday ??? ??? Waking, drinking, get in, fucking, studying, drinking, fucking, sipping Yo c'est le Svink, Svink Lève ton drink Et crie tchin-tchin Décapsuleur foutu autour du cou en guise de bling bling Oublie l'trekking, le jogging, l'rafting et l'bodybuilding Ici c'est cocooning voir larving, on va caressling J'men fiche si ton cidre a un peu l'goût drance On dvient des outrances foutant la race à outrance Rev'la le hip hop couillu et jte raconte pas la poutrance Et on va chercher des glutes chez l'autre vieille pute à votre ??? Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol Alcoholic, drinking problems, bad habits Theres vomit on my sweater already like bunny rabbit So let me grab it, it come on nuts plus Addicted to the smell of my penis Like Beavis et Butt-Head I'm done with that Uh huh huh We don't wait ??? throw up on the carpet ??? like Robert, give me a segment World, this is my sperm, make sure ears pregnant Wow what that's frenzy, it's the little frenchie on a spaceship Here on a mission for friendship The A, the L, the C, the O, the H, the O, the L forever It's my everyday night fever Light my body and my soul Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alcohol</t>
+          <t>Alcotest</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody cant deny Alcohol I'm wake up in the morning ??? I'm the pigman of the Svinkels Cause everything is good in a pig And everyday ??? ??? Waking, drinking, get in, fucking, studying, drinking, fucking, sipping Yo c'est le Svink, Svink Lève ton drink Et crie tchin-tchin Décapsuleur foutu autour du cou en guise de bling bling Oublie l'trekking, le jogging, l'rafting et l'bodybuilding Ici c'est cocooning voir larving, on va caressling J'men fiche si ton cidre a un peu l'goût drance On dvient des outrances foutant la race à outrance Rev'la le hip hop couillu et jte raconte pas la poutrance Et on va chercher des glutes chez l'autre vieille pute à votre ??? Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol Alcoholic, drinking problems, bad habits Theres vomit on my sweater already like bunny rabbit So let me grab it, it come on nuts plus Addicted to the smell of my penis Like Beavis et Butt-Head I'm done with that Uh huh huh We don't wait ??? throw up on the carpet ??? like Robert, give me a segment World, this is my sperm, make sure ears pregnant Wow what that's frenzy, it's the little frenchie on a spaceship Here on a mission for friendship The A, the L, the C, the O, the H, the O, the L forever It's my everyday night fever Light my body and my soul Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol Light my body and my soul Make me feel I'd lose control Make me feel like high And nobody can't deny Alcohol</t>
+          <t>Sous 8-6, v'là les soixante-huitards d'service Énième chapitre j'apporte mon pavé à l'édifice Mon métier mal parlé sur les condés Condoléances, le tiers-état balance son cahier d'doléances Pour le gendarme à Saint-Tropez, j'viens dropper flow rageur Quand tu vois qu'l'été y sont maîtres-nageurs J'préfère encore m'noyer que d'me faire réveiller Au bouche-à-bouche, par un CRS en congés payés Rencontre à la manif' étudiante dans la capitale Un bon catch amical avec gaz lacrymal Y'a jamais assez d'sacs de sable CEA CRS cassés au lancé d'dalle, mange ton casse-dalle Pécore, picole comme une serpillière Serpico t'sert un picon bière, ça date pas d'hier J'bave, même si j'sais qu'y doivent assurer, j'fais l'zouave Les keufs ont des consignes, normal avec tout c'qu'ils boivent Moustache tachée pas la mousse, s'émousser trop tard Serrer sur la route alors qu'eux même marche au radar Faire passer un ??? sous mes ch'nilles, j'en ai rêvé J'froisse les keufs comme mes pv Zéro gramme quatre Ça y est, t'es dans l'rouge Zéro sept, alcootest, ton permis qui bouge Un gramme cinq dans l'sang Ça fait deux 8-6, quatre grammes Dis-moi, tu s'rais pas d'la police ? J'ai la fâcheuse tendance du flic à boire plus qu'un demi, donc Des ??? en sang autant que des Police Academy Ho la, qui va là, inspecteur gadget Gadget-o-plaques, gadget-o-m'nottes, gadget-o-gâchette Viens faire un tour dans l'estafette, ça va être ta fête Avec eux, t'attrapes vite la grosse tête Ces débris ont moins d'études que d'ébriétudes Ouais l'seul bouquin, dans un comico, c'est l'bottin Y'a qu'dans l'vice qu'ils récidivent J'trouve plus d'agents actifs dans ma lessive Certaines brigades sont stupéfiantes d'incompétence Faut-il une balance pour ??? Les marginaux d'France notent qu'un rebeu sous barrette est moins mal barré qu'un képi sous piquette V'là pourquoi j'les chambres C'que j'déteste dans l'corps policier, c'sont ses membres Pas si virils, S.O.S civils en périls Policiers en dérive, le métier rend fébrile Tu tires une tête de bulldog où est l'amorce de dialogue ? Mon pit' va parler, sa seule parole c'est de ouaf, ouaf J'les trouve un peu dérangés pour des représentants d'l'ordre, alors j'viens ranger Chez les gradés, l'ambiance s'est dégradée J'ai vu des racailles mieux faire leur métier, que certains policiers D'ailleurs de quel côté y'a-t-il le plus de suicidés ? Toujours en quête denquêtes à élucidées J'me mettrais plutôt du côté des opprimés J'vais pas chialer sur quelques os brisés Ou sur une vie d'merde que l'on a soit même écourtée J'vais te carte-grisé, c'est clair t'es ma risée Le flic, c'est pendant sa carrière qu'il se pourris La racaille, ce n'est que le fric, ça le nourrit Tu paieras la facture de la fracture D'un côté des raclures, de l'autre des inspecteurs la bavure x2 Zéro gramme quatre Ça y est, t'es dans l'rouge Zéro sept, alcootest, ton permis qui bouge Un gramme cinq dans l'sang Ça fait deux 8-6, quatre grammes Dis-moi, tu s'rais pas d'la police ? J'ai à mon égérie, la guerre d'Algérie J'vais citer, c'est acquis, que le maquis sera reprit par plus d'un harkis Nous remettrons nos vestes kakis Et pour nous macquer, ils vous faudrait plus d'un Starsky Je ferais une razzia sur toute cette mafia Mais la 'caille c'est d'la caillasse, il lance des pierres comme à Gaza Comble de mon antisémitisme, j'ai le rôle du juif Je ne porte pas l'étoile jaune mais juste celle du shérif J'peux plus m'tartiner cette motte de beurre qui s'étale Pour la sécurité nationale, bande d'asociales, j'vote front national Enfermez-moi tous ces trous d'uc dans des tours infernales Normal qu'après on foute le feu au centre commercial Halte étranger ! Et tous ceux que la ??? Tous ces ??? remplissant l'stupéfiant, j'veux plus C'est la peste, la chute, ça chahute mais ça ??? Je lutte, j'fais dans mon fute, un étranger j'butte Blouson en faux cuir, fausse tête, faux jeans, fausses running Chez lui la seule chose qu'est vraie, c'est son racisme J'suis pas d'ac'! Ça m'donne des frayeurs car Kojak Voit partout des voleurs de couleur comme Kodak C'est cliché comme j'suis affiché, m'demande mes papiers Les shmits te cuisine, t'fige puis t'fiche dans un clapier Mettez-les dans des cages, tirez-les comme des lapins T'façon la 'caille kiffe la carotte du soir au matin Faut les enfermer dans des cités, les traiter d'assistés Puis vous fermez les yeux et pratiquez la cécité Prestige de l'uniformité Inspecteur Navarro préférerait voir étendu sur le carreau qu'derrière les barreaux Les chargeurs j'vide vite Les flics remplissent les prisons Nous rions car la police nous méprisons J't'invite là où les gendarmes se sentent désarmés Bienvenue dans lbéton armé</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alcotest</t>
+          <t>Alcotest [2005]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sous 8-6, v'là les soixante-huitards d'service Énième chapitre j'apporte mon pavé à l'édifice Mon métier mal parlé sur les condés Condoléances, le tiers-état balance son cahier d'doléances Pour le gendarme à Saint-Tropez, j'viens dropper flow rageur Quand tu vois qu'l'été y sont maîtres-nageurs J'préfère encore m'noyer que d'me faire réveiller Au bouche-à-bouche, par un CRS en congés payés Rencontre à la manif' étudiante dans la capitale Un bon catch amical avec gaz lacrymal Y'a jamais assez d'sacs de sable CEA CRS cassés au lancé d'dalle, mange ton casse-dalle Pécore, picole comme une serpillière Serpico t'sert un picon bière, ça date pas d'hier J'bave, même si j'sais qu'y doivent assurer, j'fais l'zouave Les keufs ont des consignes, normal avec tout c'qu'ils boivent Moustache tachée pas la mousse, s'émousser trop tard Serrer sur la route alors qu'eux même marche au radar Faire passer un ??? sous mes ch'nilles, j'en ai rêvé J'froisse les keufs comme mes pv Zéro gramme quatre Ça y est, t'es dans l'rouge Zéro sept, alcootest, ton permis qui bouge Un gramme cinq dans l'sang Ça fait deux 8-6, quatre grammes Dis-moi, tu s'rais pas d'la police ? J'ai la fâcheuse tendance du flic à boire plus qu'un demi, donc Des ??? en sang autant que des Police Academy Ho la, qui va là, inspecteur gadget Gadget-o-plaques, gadget-o-m'nottes, gadget-o-gâchette Viens faire un tour dans l'estafette, ça va être ta fête Avec eux, t'attrapes vite la grosse tête Ces débris ont moins d'études que d'ébriétudes Ouais l'seul bouquin, dans un comico, c'est l'bottin Y'a qu'dans l'vice qu'ils récidivent J'trouve plus d'agents actifs dans ma lessive Certaines brigades sont stupéfiantes d'incompétence Faut-il une balance pour ??? Les marginaux d'France notent qu'un rebeu sous barrette est moins mal barré qu'un képi sous piquette V'là pourquoi j'les chambres C'que j'déteste dans l'corps policier, c'sont ses membres Pas si virils, S.O.S civils en périls Policiers en dérive, le métier rend fébrile Tu tires une tête de bulldog où est l'amorce de dialogue ? Mon pit' va parler, sa seule parole c'est de ouaf, ouaf J'les trouve un peu dérangés pour des représentants d'l'ordre, alors j'viens ranger Chez les gradés, l'ambiance s'est dégradée J'ai vu des racailles mieux faire leur métier, que certains policiers D'ailleurs de quel côté y'a-t-il le plus de suicidés ? Toujours en quête denquêtes à élucidées J'me mettrais plutôt du côté des opprimés J'vais pas chialer sur quelques os brisés Ou sur une vie d'merde que l'on a soit même écourtée J'vais te carte-grisé, c'est clair t'es ma risée Le flic, c'est pendant sa carrière qu'il se pourris La racaille, ce n'est que le fric, ça le nourrit Tu paieras la facture de la fracture D'un côté des raclures, de l'autre des inspecteurs la bavure x2 Zéro gramme quatre Ça y est, t'es dans l'rouge Zéro sept, alcootest, ton permis qui bouge Un gramme cinq dans l'sang Ça fait deux 8-6, quatre grammes Dis-moi, tu s'rais pas d'la police ? J'ai à mon égérie, la guerre d'Algérie J'vais citer, c'est acquis, que le maquis sera reprit par plus d'un harkis Nous remettrons nos vestes kakis Et pour nous macquer, ils vous faudrait plus d'un Starsky Je ferais une razzia sur toute cette mafia Mais la 'caille c'est d'la caillasse, il lance des pierres comme à Gaza Comble de mon antisémitisme, j'ai le rôle du juif Je ne porte pas l'étoile jaune mais juste celle du shérif J'peux plus m'tartiner cette motte de beurre qui s'étale Pour la sécurité nationale, bande d'asociales, j'vote front national Enfermez-moi tous ces trous d'uc dans des tours infernales Normal qu'après on foute le feu au centre commercial Halte étranger ! Et tous ceux que la ??? Tous ces ??? remplissant l'stupéfiant, j'veux plus C'est la peste, la chute, ça chahute mais ça ??? Je lutte, j'fais dans mon fute, un étranger j'butte Blouson en faux cuir, fausse tête, faux jeans, fausses running Chez lui la seule chose qu'est vraie, c'est son racisme J'suis pas d'ac'! Ça m'donne des frayeurs car Kojak Voit partout des voleurs de couleur comme Kodak C'est cliché comme j'suis affiché, m'demande mes papiers Les shmits te cuisine, t'fige puis t'fiche dans un clapier Mettez-les dans des cages, tirez-les comme des lapins T'façon la 'caille kiffe la carotte du soir au matin Faut les enfermer dans des cités, les traiter d'assistés Puis vous fermez les yeux et pratiquez la cécité Prestige de l'uniformité Inspecteur Navarro préférerait voir étendu sur le carreau qu'derrière les barreaux Les chargeurs j'vide vite Les flics remplissent les prisons Nous rions car la police nous méprisons J't'invite là où les gendarmes se sentent désarmés Bienvenue dans lbéton armé</t>
+          <t>Du mal à trouver l'sommeil, j'veille tard dans la nuit Puis, j'te surprends comme une tarte dans la nuque Nouveau maillot sort de la machine Je n'conçois ni la défaite, ni le match nul Tu m'veux pas du bien, j'imagine Sache que ni magie noire ni sorcellerie ne marche sur moi bitch J'y vais à fond, tu m'parles de modération, eh C'est pas l'moment, j'dois faire monter la ssion-pre Ouais, j'dois les baiser fort, fort Braquer l'industrie, péter la combi' du coffre-fort ouais Jaloux, haineux fuck, fuck Ces fils de... veulent que mon album flop J'vais pas m'arrêter tous les cents mètres La route est longue comme une peine sans mandat, sans lettre Ces putains d'colons auront beaucoup d'mal à s'en r'mettre Nouvel indépendant, négro brille sans chaîne et sans maître Des bouches à nourrir pas l'choix, j'dois tout plier Le building est en chantier, j'arrive outillé On m'a dit Tu cherches le succès, continue, t'y es Quand t'entends les inconnus te dire Tu m'as oublié Pour l'instant, tudo bem prestation j'en rate pas une Toujours pas sous cocaïne ou protection d'un caïd Le son tourne dans les Cayenne et dans les Clio Dans le binks, dans les paillettes, chez les dealers et les clients Pas b'soin d'lire le dépliant, t'inquiète pas, tout est clair Je suis l'nouveau proprio, j'ai déjà l'double des clefs Le respect, ça se force, puis, un jour, ça se perd Tu t'fais bouger par un p'tit, toi, t'as l'âge de son père C'est comme ça, l'game est sans cur, c'est toujours l'même procédé Un peu d'light et les suckers t'foncent dessus comme des possédés J'm'y suis fait, c'est l'humain, j'pense pas qu'il changera d'si tôt Non, il passe les premiers mois d'sa vie à téter, donc rien d'étonnant Impossible d'être numéro un sans écraser les autres, on N'a toujours pas croisé d'roi qu'acceptait d'partager son trône Ne joue pas l'justicier, l'dernier est mort juste ici Personne le pleure, il est sous terre, couvert d'engrais et d'pesticides Retrouve-moi tard dans la night, j'travaille sur les derniers réglages Quand l'building s'ra fini, j'm'installerai au dernier étage J'ai r'péré des envieux comploter sur oi-m à trois heures J'les ai vus venir de loin, comme des keufs déguisés en casseurs Les idées sont noires, j'ai fait sauter tout l'éclairage Si tu m'cherches, j'te conseille d'envoyer des drones en repérage J'ai cramé des envieux comploter sur oi-m à trois heures Y'en a qui jettent l'il mais, là, c'est plus des yeux, c'est des tasers Apparemment, tu t'es trompé, fiston, on joue pas dans la même compétition Tu m'connais pas très bien, c'est normal, pendant trois ans, j'étais complètement coupé du son J'viens parler musique, tu m'parles de nichons, m'invite plus jamais dans ton émission Quarante-cinq balais, t'appelles des gamines, tu leur expliques comment provoquer l'érection Du mal avec les médias, j'ai mes raisons Maintenant, j'm'adresse qu'à mon public sur mes réseaux J'arrive avec des nouvelles combinaisons, hey J'me suis toujours différencié des autres, hey J'arrête de raconter ma vie d'vant des caméras, maintenant, j'utilise mes sons pour communiquer Ardisson n'a qu'à niquer sa grand-mère, j'irai jamais lui donner d'quoi polémiquer 2.18, ça fuse à cent à l'heure, trop d'infos, j'risque pas d'être à court d'inspiration On vit dans nos écrans, même nos regards sont pixelisés, y'a même plus dinteraction J'suis plutôt discret, mais j'ai des amis listés qui mènent des vies risquées Certains d'entre eux ont perdu la boule au trou, va savoir c'que ces bâtards leur administraient Ne me fais pas d'accolade, ne force pas la collab' À chaque sortie d'bum-al, c'est l'retour des passeurs d'pommade Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force C'est tous des acteurs, j'hallucine Bientôt, ils vendront leur bum-al sur AlloCiné Si t'as toujours pas compris la supercherie, boy, t'es pas lucide Demande à Abou Tall, les chiffres mentent aussi quand on parle du stream Wesh les mecs, on fait comment ? Arrêtez d'jurer sur le Coran Vous êtes fans, mais vous attendez la lumière pour revenir en courant J'fais du sale sur commande, j'attends pas qu'tu commentes J'attends pas qu'le courant passe entre nous, casse-toi, r'tourne en classe Les tendances passent, ces clowns Vont tous se remettre à faire du pe-ra, putain, ça me casse les couilles Surtout si la moitié d'entre eux vont nous parler de pétasses et d'guns Va falloir que j'remette de l'ordre, il va falloir que je casse des gueules que je casse des gueules Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Ay, Gucci, Gucci, Louis, ça tire, rien qu'tu douilles Michto toute éblouie veut qu'tu payes son loyer Silencieux sur la tempe, j'les réveille en pleine nuit Si j'voulais faire du bruit, j'aurais débarqué sur un tank, hey Pour le plaisir et la paye, j's'rai plus jamais sur la paille Quand l'album est prêt, j'sors le bail, puis jemmène la mif' en vacances à la playa, hey Papa à la playa boit jus d'papaye à la paille, boy Toi, j'sais pas où t'es mais t'es ailleurs, tu t'branles sur l'dernier épisode d'Empire J'prends tous les risques sur l'terrain, passeur décisif et buteur Paye-moi en cash ou on va pas s'entendre, j't'attends au distributeur T'en fais trop, t'es dans l'exa', oh j'suis sur scène dans tout l'hexagone T'as l'seum, tu veux qu'on règle ça dehors t'as des couilles que quand t'empestes l'alcool Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Des fois, j'aime pas les gens, y'a rien d'personnel, c'est pas méchant Tu m'diras, les gens s'en foutent tant qu'tu leur proposes pas quelque chose d'alléchant N'écarte pas les jambes par peur de paraître chiant, j'ai raréfié les apparitions Dans les médias, mais tu peux toujours me croiser avec IDR dans Paris-Centre Tout niquer, ça paraît simple mais c'est pas toujours le cas Ton buzz d'un jour, il a foutu le camp, en vitesse de croisière, j'ai tenu le cap J'me mets en mode silence radio quand j'travaille, j'suis focus, je n'fais que du quali' Dis-toi qu'c'est le calme avant la tempête locale, hey, hey, hey Je n'juge pas à l'apparence et j'insulte pas les parents Mais sache que, pour toucher ta moitié, grand te-traî peut simuler l'amitié Bang bang bang, ils font les malins, ils font des plans, ça va pas loin J'regarde ma s'melle quand j'en écrase un, puis j'nettoie la scène de crime au Sopalin, hey Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire J'pense à faire dans l'textile, broder mon nom sur ma veste Dans l'même temps, j'apprends qu'une fan s'est tatouée mon nom sur la fesse J'suis du-per, c'est pas pour ça qu'j'ai signé Moi, j'suis v'nu bâtir un empire, les plans sont d'jà dessinés J'veux pas la moitié, non, j'veux ma part en entier J'suis pas v'nu parlementer pour tout t'dire, j'suis un peu remonté Attention quand j'suis lancé, boy, j'peux pas ralentir J'ai dit qu'j'arrivais, mes fans m'attendent, j'peux pas leur mentir T'es tombé pour train d'vie, normal qu'en cellule tu dérailles, ouais Sur la neige que tu vendais, t'as fini par déraper T'es dans l'droit, le juge épluche le dossier en détail Le fils de... veut qu'tu crèves en cage comme du bétail J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine Nos rêves d'enfant nous bousillent J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine Nos rêves d'enfant nous bousillent Têtu comme les p'tits d'la tess' j'suis pressé, boy, vide la caisse J'ai b'soin d'graille, j'ai b'soin d'graille, mon haleine sent dans toute la pièce Toute la pièce, comme si j'avais bu d'la Despé' j'ai beau chercher, j'trouve pas l'respect Ce con me fuit comme la peste, j'ai pas b'soin d'pute de Budapest Dans un jet, j'veux juste ma pièce, s'il faut rapper pour ça, balance-moi l'instru', j'la blesse Monnaie, monétiser, prendre des sommes à tomber sur la tête, fais pas l'con si j'te propose de v'nir poser sur la 'tape Monnaie, monnaie, j'repense à l'époque où j'bossais au supermarket Le soir, j'recomptais la caisse, mon putain d'boss me guettait Vers la fin du mois, j'disais au daron d'pas s'inquiéter Comprends qu'j'puisse pas mettre un salaire dans une paire de baskets J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine, billets d'banque Nos rêves d'enfant nous bousillent allez, allez, allez, allez J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine Nos rêves d'enfant nous bousillent Si, devant l'addition, t'es en mode chacun son chacun T'improvise pas lover, les prix des sacs sont choquants Sorry mais elle mouillera pas si l'compte en banque est sec En attendant d'faire des lourds, il faut qu'tu pointes à sept heures Ouais, l'monde est moche, boy, si tu veux manger, boy Sans faire la manche, boy, ou sortir le machin, boy Il faut qu'tu bosses, que tu transpires pour un boss qui t'paye au lance-pierres Ouais, qu'tu bosses, boy, faut qu'tu pointes à sept heures sept heures pile J'me présente Karim Fall, franco-sénégalais Si t'aimes c'que j'fais, m'suce pas, wesh, essaie d'm'égaler J'comprends pas l'discours des perdants, c'est des galères Le but des compét', c'est pas d'y participer, c'est d'les gagner Combien d'vues ? Combien d'streams ? Combien d'CD, c'tte année ? Combien d'pipes sous la table ou dans les escaliers dans les escaliersSignatures d'apprentis yous-voy fans des Savastano J'vais pas m'inventer toute une ie-v pour cer-per, j'suis d'jà installé Hey, hey Seven-five-zéro-one-eight one, eight Seven-five-zero-zero-nine zero, nine Renoi, y'avait beaucoup moins d'haters moins d'haters Quand on avait zéro, zéro maille, zéro maille hey Je sais toujours qui sont mes gars sûrs mes gars sûrs On s'est fait dans le sang et la sueur et la sueur Si l'un d'entre nous merde, tout l'monde assume On est, on est plus forts assemblés comme Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega J'suis un kickeur sale mais, devant les bleus, j'suis un silencieux Ferme un peu ta gueule car t'étais pas là pour me financer J'viens de L'École des Points Vitaux, quand il fallait kicker, personne m'invitait Tu veux que j'te dise la vérité ? On s'quittera pas sur un score de parité O.G kush est cachée dans la couche, cut, le te-shi dans la kitchen quiche Et bien calée dans la poche gauche, t'es qu'un putain de geush, tu payes et tu te casses, gars À bord de la caisse, elle a baissé l'siège et puis basta, oh merde M-E-G-A-S-K-I, j'ai pas besoin d'teille de 'sky J'arrive, cartouches dans la valise, vu que le savoir est une arme Mega, Fall, super sale Nueve-quatro, seven-five Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega Changement d'tactique quand les plans sont contrecarrés J'me bats comme si c'tait l'monde entier contre Karim C'putain d'game est vicieux, prends l'temps d'te préparer Le mur est encore plus douloureux quand y a personne pour t'réparer hey, hey Pas question d'se déchirer pour un testament Tout l'monde sait qu'la mif' c'est plus sacré qu'tout ça, nan ? Jeunes Parisiens pas toujours très beaux mais charmants Jeunes Parisiens, on a poussé entre les touristes et les pots d'échappement, hey hey Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega L'ancien m'a dit c'est qu'une question de temps Dans la vie faut pas être endetté Dans ma ville t'as écris sur un deux temps, obligé d'écrire que Le ventre vide, qui venait m'aider en ville si en uniforme ils sont embettant Dans mon coeur est floqué nueve-quatro Tu fais l'dur, tu rappes même pas dans les temps Pas encore pété, dans ta bouche y a d'jà ma 'te 'te Tu dis mon blase, t'as la pateuse Bientôt j'serai partout et j'vais ramener tous mes rates-pi Vos carrières ont un plan partouze Moi j'espère que y a pas d'appart et de perquise' Plan à part, j'vois que des gros culs, j'vais pas t'faire de croquis Ma mère disait qu'j'suis trop têtu mais jamais eu de racli parce que j'suis trop têtu J'ai la tête dur, j'te mets quelques claques si tu t'es perdus Elle a criée eperdument que c'était gros, que c'était hyper dur Ca bougera pas cet été, ça veut faire des tales, ça finis sur l'té-cô Dans l'métro odeur de pétou Y a ces batards d'la RATP sur l'té-cô T'as essayé d'm'atteindre, t'es mal tombé Je vais tous vous éteindre, je vais vous étonner Tu fais l'mec qui vis bien, arrête de mythonner Tu vas chanter comme Keblack tellement t'as déconné Rien n'sert de mythonner, vrais on connais Vrais on connais ce qui sonne Et faut pas nous sortir tes propos siliconés Tu vas t'faire cogner Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Dans le mille, j'préfère viser dans le mille Quand tu t'rates, ça s'frotte les mains dans le milieu Chacun voit midi à sa porte devant la mienne, il est minuit J'essaye de pas faire comme les autres, quitte à c'qu'ils disent Il s'prend pour qui, lui ? C'foutu game ramassis d'égos d'artistes en manque de light J'arrive bre-som comme le monde d'la night Insulte-moi si tu m'vois faire la diva J'préfère la franchise d'un frérot que d'payer pour m'allonger sur un divan Putain d'ble-Dia m'a dit Va, va jusqu'au bout, c'est pour oi-m Autant lui donner mon cul pour qu'il y fourre tout son oigt-d, fuck Y'a d'la ce-pla pour tout l'monde, renoi, pourquoi tu veux m'empêcher d'ter-mon ? Wesh, wesh, t'es bizarre, toi, tu s'rais pas du genre à donner des noms ? Tu sors un nouveau projet, tu veux qu'j'te tienne la main comme si t'étais ma nana J'suis pas ton mana', petite mierda, est-ce que t'as écouté Trois d'la mañana ? La ce-for, c'est dans les deux sens arrête de dire le sang si c'est pas le sang J'ai toujours pas ret'nu la leçon dans les virages, j'suis toujours à deux cent Boy, lunettes noires sur la gueule, c'est pour l'anonymat J'suis d'vant toi, t'y vois que dalle, fais-toi plaisir, parodie-moi Dans un sous-sol pendant dix mois, j'ai postillonné sur le micro L'objectif, c'est tout baiser si tu le peux, ralentis-moi, sinon, tue-moi Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone J'suis attendu comme ce foutu jour de paye Attendu comme mon prochain retour au pays Tant qu'je prends des euros, tudo bem Prends mon son dans la tête comme un coup d'bouteille Nouveau deal, mamacita, j't'emmène dîner J't'emmène danser la samba comme Ronaldinho Déterminé pour être sûr de pas m'faire piner J'ai enfilé un calbar en verre pilé La hess m'attendait en peignoir, pétales de rose du lit jusqu'à la baignoire Les caméras d'l'hôtel m'ont vues prendre la fuite dans un cabriolet noir Long et bre-som comme le couloir de la mort, la cabine est mon défouloir Touche pas l'micro, tu fais n'imp', tu rappes comme un asthmatique dans un fumoir C'est le foutoir, j'comprends R, j'prends la prod, j'la monte en l'air 2009, écrasement d'tête dix ans plus tard, on donne l'heure J'ai jamais vendu d'gue-dro dans le bât', la moitié d'ma ie-v à manger des pâtes La moitié d'ma ie-v à manger des portes, à cette époque, heureusement, j'ai des potes Heureusement, j'ai des potes, c'est comment ? Ils veulent tous faire comme moi Ça m'fatigue, j'sors l'album puis j'disparais quelques mois J'vais mettre le cap sur une île, quitter Snap', changer d'num' P't-être écrire un bouquin du genre Comment rapper pour les Nuls ? Ou Comment rapper pour les nudes ?, petit dique-sa, ça te parle, hein ? J'vais pas m'mettre à faire du X pour vendre des disques, gros, j'ai des parents Tu t'inventes une vie en racontant des histoires que t'as entendues au bar, hein? On connait tous un ou deux grands voyous mais ça suffit pas pour faire le Parrain Posé dans le fer Millions d'dollars, je veux faire Le Diable veut qu'on parle affaires Veut que j'le suive en Enfer 2-18 j'comprends toujours pas les rappeurs qui prétendent posséder des armes à feu Quand les tits-pe qui t'écoutent iront jusqu'au bout, faudra pas leur dire C'est pas ma faute Des mensonges maquillés au contouring, des vérités volontairement camouflées Multi-visage, multi-discours, j'aurai du mal à t'croire quand tu m'appelleras mon frère Y'en a qui disent que t'as raté ta vie si t'as pas d'Rolex avant la quarantaine Merde, il va falloir que j'dise à mon père Papa, t'es qu'un loser entre parenthèses J'ai vu des gens embellis par la thune et puis enlaidis par l'avarice J'ai vu la résine de cannabis détruire les meilleurs, la paresse les paralyse J'aime regarder l'Homme et l'analyser, j'aime me tromper quand j'ai des préjugés J'aime voyager léger, dites au douanier qu'il trouvera pas d'explosifs dans ma valise Quand la douleur est réelle, dites aux médias qu'c'est pas la peine de la scénariser L'instrumentaliser, c'est enfermer les appels à l'aide dans une pièce insonorisée Arrêtez d'créer des polémiques en sortant les propos d'leur contexte Est-ce que si j'vous dis qu'vous m'avez saoulé, vous allez m'faire souffler dans un alcootest ? J'ai d'plus en plus de mal à faire confiance aux humains, c'est rare que j'adhère à des causes J'écoute les politiques et bizarrement j'ai l'impression d'avoir affaire à des gosses Skrr, ay L'oseille et la santé, oseille et la santé, hey, hey Hey, hey, hey On veut s'gonfler le ventre ventre, faire exploser les ventes ventes T'inquiète pas, ça va rentrer rentrer, l'oseille et la santé sku H24 sur le chantier chantier, me dérange pas, j'suis concentré sku T'inquiète pas, ça va rentrer hey, l'oseille et la santé sku J'ai quitté l'école avant l'âge ay, j'suis toujours pas un crack en maths Mais prends pas ça pour un avantage, l'avocat vérifie les pourcentages chu On veut l'oseille et la santé santé dans l'immédiat, pas dans cent ans cent ans Ouais, l'oseille et la santé, tracer le sentier pour les descendants hey, hey, hey, hey Pour l'instant, lciel est oragé, au charbon comme un enragé J'me saigne jusqu'à l'hémorragie remercie Dieu si je meurs âgé J'aime pas demander, j'aime pas le mot magique, j'aime pas perdre, j'aime pas le mot dommage J'ai briefé mon entourage l'objectif, c'est de tout rach'ter hey, hey, hey, hey Qui n'a pas faim ? Qui n'a pas soif ? Tout l'monde veut sa part du gâteau, ouais, ça va d'soi Ça s'laisse pousser des ailes à la Black Swan, quitte à finir transformé en passoire par l'SWAT Dites à l'hosto' que j'leur envoie des patients, j'aurais jamais dû kicker devant les passants J'ai cherché des rivaux, y en a pas cent j'remercie mon équipe, j'avancerais pas sans sku On veut s'gonfler le ventre ouh, faire exploser les ventes ventes T'inquiète pas, ça va rentrer sku, l'oseille et la santé wouh H24 sur le chantier chantier, me dérange pas, j'suis concentré oui T'inquiète pas, ça va rentrer rentrer, l'oseille et la santé On m'a dit Fall, t'es sous-côté, t'es pas comme les autres, toi, tu fais la dif' La plupart d'entre eux sont sous codé', comme si leur 'sique était codée J'comprends que dalle, les 'ffres-chi' sont dopés continue, tu nous fais kiffer, la mif Tant que j'peux mettre des sous d'côté, tant qu'mes morceaux s'laissent écouter Tu t'fais du souci pour les années à venir, mais t'es même pas sûr d'être encore en vie soir-ce Si personne peut dire la vérité autour de la table, tu ferais mieux d't'y asseoir seul T'as pas bien choisi la mère de tes enfants, t'étonne pas si tes filles sont des garces Craque pas, plaque pas tout sur un coup d'tête, il t'restera que dalle, à part l'seum Mon cerveau chauffe j'ai b'soin d'le climatiser, j'laisserai aucun gourou l'privatiser Il t'reste toute une bouteille de rhum à tiser moi, j'ai besoin des conseils d'un homme avisé Insulter des mères, j'pourrais l'faire aussi, c'est pas ça qui t'rendra plus féroce J'te vois comme un attaquant qui plonge parce qu'il est pas capable de faire la différence Le négro sait qu'j'prépare l'artillerie, il préfère s'faire hara-kiri Contre-pied, j'la mets à ras-d'terre simple, efficace est mon caractère J'suis pas toujours très poétique droit au but, pas d'politique J'suis pas prêt à tout, question d'éthique, mais faut qu'le truc reste prolifique Tous ces gens qui s'improvisent meilleur ami font comme s'ils t'connaissaient depuis toujours, ils sont là pour la fame, pour la gloire... Tout ça pour la fame, tout ça pour la fame J'les connais pas, moi, ces gens-là, ils sont là pour la fame Ils sont là pour les femmes, l'argent et le pouvoir Ils jurent fidélité à tout jamais j'aimerais tout perdre juste pour voir Laisse ça, ils en valent pas la peine aucun des frères qui compte pour moi n'manque à l'appel Aucun d'mes ennemis n'mérite que j'lui creuse une tombe, j'te jure, ils en valent même pas la pelle Putain, ils m'foutront pas la paix, ces vampires m'foutront pas la paix Pop-corn, j'regarderai leur masque tomber, postiché dans mon canapé Le public attend mon retour avec impatience, ouais, négro, j'suis comme un prêt Qu'ils s'inquiètent pas, si j'ai fait 3 du mat, c'est pas pour revenir avec du com' après Tout ça pour la fame, tout ça pour la fame, yeah, yeah Chacun son destin, n'envie pas le mien négro, ça, c'est la flemme, hé C'est l'travail qui paie, demande à mon staff, pendant qu'tu dors devant Netflix J'm'arrête pas, j'veux faire en une journée d'taf le double de ton salaire net fixe Fuck, fuck tes grands speech, pour qui tu t'prends, bitch ? Tu serais sûrement que dalle sans triche, rien à foutre pourvu qu'tu t'sentes riche Rien à foutre pourvu qu'tu t'sentes riche, pourvu qu'tu serres ces p'tites pouffes excentriques Impossible de les attirer sans fric, comme impossible de les niquer sans trique Tout ça pour la fame, tout ça pour la fame Les hommes de parole, on les respecte les suceurs, on les ferme Sur ça, on est ferme sur ça, on ne bouge pas Leur excuse ne nous touche pas, ils font ça pour la fame Tout pour briller, tout pour briller les valeurs, les principes il faut tout oublier N'aie pas peur de t'mettre à genoux pour supplier, tu t'serviras d'ta réput' comme bouclier Poste sur les réseaux sociaux des photos d'tes fesses ou d'tes nichons dans un t-shirt mouillé Même si, au fond, tu t'sens un peu humiliée dans quelques likes, tu demanderas des milliers T'as même plus besoin d'talent pour tout plier, suffit d'être une salope et d'le publier Petite écervelée sachant à peine compter peut maintenant investir dans l'immobilier Cheveux dans l'vent dans la 'rrari, le nez complètement refait dans la farine Attention, ça sort les griffes, va rendre visite aux Anges à Los Angeles si t'as jamais fait d'safari Tout ça pour la fame, tout ça pour la fame J'les connais pas, moi, ces gens-là, ils sont là pour la fame</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alcotest [2005]</t>
+          <t>Alka setzer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Du mal à trouver l'sommeil, j'veille tard dans la nuit Puis, j'te surprends comme une tarte dans la nuque Nouveau maillot sort de la machine Je n'conçois ni la défaite, ni le match nul Tu m'veux pas du bien, j'imagine Sache que ni magie noire ni sorcellerie ne marche sur moi bitch J'y vais à fond, tu m'parles de modération, eh C'est pas l'moment, j'dois faire monter la ssion-pre Ouais, j'dois les baiser fort, fort Braquer l'industrie, péter la combi' du coffre-fort ouais Jaloux, haineux fuck, fuck Ces fils de... veulent que mon album flop J'vais pas m'arrêter tous les cents mètres La route est longue comme une peine sans mandat, sans lettre Ces putains d'colons auront beaucoup d'mal à s'en r'mettre Nouvel indépendant, négro brille sans chaîne et sans maître Des bouches à nourrir pas l'choix, j'dois tout plier Le building est en chantier, j'arrive outillé On m'a dit Tu cherches le succès, continue, t'y es Quand t'entends les inconnus te dire Tu m'as oublié Pour l'instant, tudo bem prestation j'en rate pas une Toujours pas sous cocaïne ou protection d'un caïd Le son tourne dans les Cayenne et dans les Clio Dans le binks, dans les paillettes, chez les dealers et les clients Pas b'soin d'lire le dépliant, t'inquiète pas, tout est clair Je suis l'nouveau proprio, j'ai déjà l'double des clefs Le respect, ça se force, puis, un jour, ça se perd Tu t'fais bouger par un p'tit, toi, t'as l'âge de son père C'est comme ça, l'game est sans cur, c'est toujours l'même procédé Un peu d'light et les suckers t'foncent dessus comme des possédés J'm'y suis fait, c'est l'humain, j'pense pas qu'il changera d'si tôt Non, il passe les premiers mois d'sa vie à téter, donc rien d'étonnant Impossible d'être numéro un sans écraser les autres, on N'a toujours pas croisé d'roi qu'acceptait d'partager son trône Ne joue pas l'justicier, l'dernier est mort juste ici Personne le pleure, il est sous terre, couvert d'engrais et d'pesticides Retrouve-moi tard dans la night, j'travaille sur les derniers réglages Quand l'building s'ra fini, j'm'installerai au dernier étage J'ai r'péré des envieux comploter sur oi-m à trois heures J'les ai vus venir de loin, comme des keufs déguisés en casseurs Les idées sont noires, j'ai fait sauter tout l'éclairage Si tu m'cherches, j'te conseille d'envoyer des drones en repérage J'ai cramé des envieux comploter sur oi-m à trois heures Y'en a qui jettent l'il mais, là, c'est plus des yeux, c'est des tasers Apparemment, tu t'es trompé, fiston, on joue pas dans la même compétition Tu m'connais pas très bien, c'est normal, pendant trois ans, j'étais complètement coupé du son J'viens parler musique, tu m'parles de nichons, m'invite plus jamais dans ton émission Quarante-cinq balais, t'appelles des gamines, tu leur expliques comment provoquer l'érection Du mal avec les médias, j'ai mes raisons Maintenant, j'm'adresse qu'à mon public sur mes réseaux J'arrive avec des nouvelles combinaisons, hey J'me suis toujours différencié des autres, hey J'arrête de raconter ma vie d'vant des caméras, maintenant, j'utilise mes sons pour communiquer Ardisson n'a qu'à niquer sa grand-mère, j'irai jamais lui donner d'quoi polémiquer 2.18, ça fuse à cent à l'heure, trop d'infos, j'risque pas d'être à court d'inspiration On vit dans nos écrans, même nos regards sont pixelisés, y'a même plus dinteraction J'suis plutôt discret, mais j'ai des amis listés qui mènent des vies risquées Certains d'entre eux ont perdu la boule au trou, va savoir c'que ces bâtards leur administraient Ne me fais pas d'accolade, ne force pas la collab' À chaque sortie d'bum-al, c'est l'retour des passeurs d'pommade Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force C'est tous des acteurs, j'hallucine Bientôt, ils vendront leur bum-al sur AlloCiné Si t'as toujours pas compris la supercherie, boy, t'es pas lucide Demande à Abou Tall, les chiffres mentent aussi quand on parle du stream Wesh les mecs, on fait comment ? Arrêtez d'jurer sur le Coran Vous êtes fans, mais vous attendez la lumière pour revenir en courant J'fais du sale sur commande, j'attends pas qu'tu commentes J'attends pas qu'le courant passe entre nous, casse-toi, r'tourne en classe Les tendances passent, ces clowns Vont tous se remettre à faire du pe-ra, putain, ça me casse les couilles Surtout si la moitié d'entre eux vont nous parler de pétasses et d'guns Va falloir que j'remette de l'ordre, il va falloir que je casse des gueules que je casse des gueules Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Long et sombre comme le couloir de la mort J'faisais l'platine, t'avais encore de la morve Tous ces chiens veulent me voir au bout d'une corde J'risque pas de leur demander la force Ay, Gucci, Gucci, Louis, ça tire, rien qu'tu douilles Michto toute éblouie veut qu'tu payes son loyer Silencieux sur la tempe, j'les réveille en pleine nuit Si j'voulais faire du bruit, j'aurais débarqué sur un tank, hey Pour le plaisir et la paye, j's'rai plus jamais sur la paille Quand l'album est prêt, j'sors le bail, puis jemmène la mif' en vacances à la playa, hey Papa à la playa boit jus d'papaye à la paille, boy Toi, j'sais pas où t'es mais t'es ailleurs, tu t'branles sur l'dernier épisode d'Empire J'prends tous les risques sur l'terrain, passeur décisif et buteur Paye-moi en cash ou on va pas s'entendre, j't'attends au distributeur T'en fais trop, t'es dans l'exa', oh j'suis sur scène dans tout l'hexagone T'as l'seum, tu veux qu'on règle ça dehors t'as des couilles que quand t'empestes l'alcool Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Des fois, j'aime pas les gens, y'a rien d'personnel, c'est pas méchant Tu m'diras, les gens s'en foutent tant qu'tu leur proposes pas quelque chose d'alléchant N'écarte pas les jambes par peur de paraître chiant, j'ai raréfié les apparitions Dans les médias, mais tu peux toujours me croiser avec IDR dans Paris-Centre Tout niquer, ça paraît simple mais c'est pas toujours le cas Ton buzz d'un jour, il a foutu le camp, en vitesse de croisière, j'ai tenu le cap J'me mets en mode silence radio quand j'travaille, j'suis focus, je n'fais que du quali' Dis-toi qu'c'est le calme avant la tempête locale, hey, hey, hey Je n'juge pas à l'apparence et j'insulte pas les parents Mais sache que, pour toucher ta moitié, grand te-traî peut simuler l'amitié Bang bang bang, ils font les malins, ils font des plans, ça va pas loin J'regarde ma s'melle quand j'en écrase un, puis j'nettoie la scène de crime au Sopalin, hey Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire Dites à la presse, y'a R, j'arrive en paix, j'le jure Au charbon vingt-quatre heures, pas mourir locataire J'investis dans la pierre avant de prendre le mur Ça, c'est mes affaires, aucun commentaire à faire J'pense à faire dans l'textile, broder mon nom sur ma veste Dans l'même temps, j'apprends qu'une fan s'est tatouée mon nom sur la fesse J'suis du-per, c'est pas pour ça qu'j'ai signé Moi, j'suis v'nu bâtir un empire, les plans sont d'jà dessinés J'veux pas la moitié, non, j'veux ma part en entier J'suis pas v'nu parlementer pour tout t'dire, j'suis un peu remonté Attention quand j'suis lancé, boy, j'peux pas ralentir J'ai dit qu'j'arrivais, mes fans m'attendent, j'peux pas leur mentir T'es tombé pour train d'vie, normal qu'en cellule tu dérailles, ouais Sur la neige que tu vendais, t'as fini par déraper T'es dans l'droit, le juge épluche le dossier en détail Le fils de... veut qu'tu crèves en cage comme du bétail J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine Nos rêves d'enfant nous bousillent J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine Nos rêves d'enfant nous bousillent Têtu comme les p'tits d'la tess' j'suis pressé, boy, vide la caisse J'ai b'soin d'graille, j'ai b'soin d'graille, mon haleine sent dans toute la pièce Toute la pièce, comme si j'avais bu d'la Despé' j'ai beau chercher, j'trouve pas l'respect Ce con me fuit comme la peste, j'ai pas b'soin d'pute de Budapest Dans un jet, j'veux juste ma pièce, s'il faut rapper pour ça, balance-moi l'instru', j'la blesse Monnaie, monétiser, prendre des sommes à tomber sur la tête, fais pas l'con si j'te propose de v'nir poser sur la 'tape Monnaie, monnaie, j'repense à l'époque où j'bossais au supermarket Le soir, j'recomptais la caisse, mon putain d'boss me guettait Vers la fin du mois, j'disais au daron d'pas s'inquiéter Comprends qu'j'puisse pas mettre un salaire dans une paire de baskets J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine, billets d'banque Nos rêves d'enfant nous bousillent allez, allez, allez, allez J'connais pas l'avenir, j'veux tout tout d'suite J'cavale après l'temps, course-poursuite Liasses de billets d'banque, limousine limousine Nos rêves d'enfant nous bousillent Si, devant l'addition, t'es en mode chacun son chacun T'improvise pas lover, les prix des sacs sont choquants Sorry mais elle mouillera pas si l'compte en banque est sec En attendant d'faire des lourds, il faut qu'tu pointes à sept heures Ouais, l'monde est moche, boy, si tu veux manger, boy Sans faire la manche, boy, ou sortir le machin, boy Il faut qu'tu bosses, que tu transpires pour un boss qui t'paye au lance-pierres Ouais, qu'tu bosses, boy, faut qu'tu pointes à sept heures sept heures pile J'me présente Karim Fall, franco-sénégalais Si t'aimes c'que j'fais, m'suce pas, wesh, essaie d'm'égaler J'comprends pas l'discours des perdants, c'est des galères Le but des compét', c'est pas d'y participer, c'est d'les gagner Combien d'vues ? Combien d'streams ? Combien d'CD, c'tte année ? Combien d'pipes sous la table ou dans les escaliers dans les escaliersSignatures d'apprentis yous-voy fans des Savastano J'vais pas m'inventer toute une ie-v pour cer-per, j'suis d'jà installé Hey, hey Seven-five-zéro-one-eight one, eight Seven-five-zero-zero-nine zero, nine Renoi, y'avait beaucoup moins d'haters moins d'haters Quand on avait zéro, zéro maille, zéro maille hey Je sais toujours qui sont mes gars sûrs mes gars sûrs On s'est fait dans le sang et la sueur et la sueur Si l'un d'entre nous merde, tout l'monde assume On est, on est plus forts assemblés comme Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega J'suis un kickeur sale mais, devant les bleus, j'suis un silencieux Ferme un peu ta gueule car t'étais pas là pour me financer J'viens de L'École des Points Vitaux, quand il fallait kicker, personne m'invitait Tu veux que j'te dise la vérité ? On s'quittera pas sur un score de parité O.G kush est cachée dans la couche, cut, le te-shi dans la kitchen quiche Et bien calée dans la poche gauche, t'es qu'un putain de geush, tu payes et tu te casses, gars À bord de la caisse, elle a baissé l'siège et puis basta, oh merde M-E-G-A-S-K-I, j'ai pas besoin d'teille de 'sky J'arrive, cartouches dans la valise, vu que le savoir est une arme Mega, Fall, super sale Nueve-quatro, seven-five Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega Changement d'tactique quand les plans sont contrecarrés J'me bats comme si c'tait l'monde entier contre Karim C'putain d'game est vicieux, prends l'temps d'te préparer Le mur est encore plus douloureux quand y a personne pour t'réparer hey, hey Pas question d'se déchirer pour un testament Tout l'monde sait qu'la mif' c'est plus sacré qu'tout ça, nan ? Jeunes Parisiens pas toujours très beaux mais charmants Jeunes Parisiens, on a poussé entre les touristes et les pots d'échappement, hey hey Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Megazord Mega, Mega, Mega L'ancien m'a dit c'est qu'une question de temps Dans la vie faut pas être endetté Dans ma ville t'as écris sur un deux temps, obligé d'écrire que Le ventre vide, qui venait m'aider en ville si en uniforme ils sont embettant Dans mon coeur est floqué nueve-quatro Tu fais l'dur, tu rappes même pas dans les temps Pas encore pété, dans ta bouche y a d'jà ma 'te 'te Tu dis mon blase, t'as la pateuse Bientôt j'serai partout et j'vais ramener tous mes rates-pi Vos carrières ont un plan partouze Moi j'espère que y a pas d'appart et de perquise' Plan à part, j'vois que des gros culs, j'vais pas t'faire de croquis Ma mère disait qu'j'suis trop têtu mais jamais eu de racli parce que j'suis trop têtu J'ai la tête dur, j'te mets quelques claques si tu t'es perdus Elle a criée eperdument que c'était gros, que c'était hyper dur Ca bougera pas cet été, ça veut faire des tales, ça finis sur l'té-cô Dans l'métro odeur de pétou Y a ces batards d'la RATP sur l'té-cô T'as essayé d'm'atteindre, t'es mal tombé Je vais tous vous éteindre, je vais vous étonner Tu fais l'mec qui vis bien, arrête de mythonner Tu vas chanter comme Keblack tellement t'as déconné Rien n'sert de mythonner, vrais on connais Vrais on connais ce qui sonne Et faut pas nous sortir tes propos siliconés Tu vas t'faire cogner Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Dans le mille, j'préfère viser dans le mille Quand tu t'rates, ça s'frotte les mains dans le milieu Chacun voit midi à sa porte devant la mienne, il est minuit J'essaye de pas faire comme les autres, quitte à c'qu'ils disent Il s'prend pour qui, lui ? C'foutu game ramassis d'égos d'artistes en manque de light J'arrive bre-som comme le monde d'la night Insulte-moi si tu m'vois faire la diva J'préfère la franchise d'un frérot que d'payer pour m'allonger sur un divan Putain d'ble-Dia m'a dit Va, va jusqu'au bout, c'est pour oi-m Autant lui donner mon cul pour qu'il y fourre tout son oigt-d, fuck Y'a d'la ce-pla pour tout l'monde, renoi, pourquoi tu veux m'empêcher d'ter-mon ? Wesh, wesh, t'es bizarre, toi, tu s'rais pas du genre à donner des noms ? Tu sors un nouveau projet, tu veux qu'j'te tienne la main comme si t'étais ma nana J'suis pas ton mana', petite mierda, est-ce que t'as écouté Trois d'la mañana ? La ce-for, c'est dans les deux sens arrête de dire le sang si c'est pas le sang J'ai toujours pas ret'nu la leçon dans les virages, j'suis toujours à deux cent Boy, lunettes noires sur la gueule, c'est pour l'anonymat J'suis d'vant toi, t'y vois que dalle, fais-toi plaisir, parodie-moi Dans un sous-sol pendant dix mois, j'ai postillonné sur le micro L'objectif, c'est tout baiser si tu le peux, ralentis-moi, sinon, tue-moi Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone Remise en forme, remise en forme J'suis dans l'tur-f', next album est d'jà dans mon phone J'suis attendu comme ce foutu jour de paye Attendu comme mon prochain retour au pays Tant qu'je prends des euros, tudo bem Prends mon son dans la tête comme un coup d'bouteille Nouveau deal, mamacita, j't'emmène dîner J't'emmène danser la samba comme Ronaldinho Déterminé pour être sûr de pas m'faire piner J'ai enfilé un calbar en verre pilé La hess m'attendait en peignoir, pétales de rose du lit jusqu'à la baignoire Les caméras d'l'hôtel m'ont vues prendre la fuite dans un cabriolet noir Long et bre-som comme le couloir de la mort, la cabine est mon défouloir Touche pas l'micro, tu fais n'imp', tu rappes comme un asthmatique dans un fumoir C'est le foutoir, j'comprends R, j'prends la prod, j'la monte en l'air 2009, écrasement d'tête dix ans plus tard, on donne l'heure J'ai jamais vendu d'gue-dro dans le bât', la moitié d'ma ie-v à manger des pâtes La moitié d'ma ie-v à manger des portes, à cette époque, heureusement, j'ai des potes Heureusement, j'ai des potes, c'est comment ? Ils veulent tous faire comme moi Ça m'fatigue, j'sors l'album puis j'disparais quelques mois J'vais mettre le cap sur une île, quitter Snap', changer d'num' P't-être écrire un bouquin du genre Comment rapper pour les Nuls ? Ou Comment rapper pour les nudes ?, petit dique-sa, ça te parle, hein ? J'vais pas m'mettre à faire du X pour vendre des disques, gros, j'ai des parents Tu t'inventes une vie en racontant des histoires que t'as entendues au bar, hein? On connait tous un ou deux grands voyous mais ça suffit pas pour faire le Parrain Posé dans le fer Millions d'dollars, je veux faire Le Diable veut qu'on parle affaires Veut que j'le suive en Enfer 2-18 j'comprends toujours pas les rappeurs qui prétendent posséder des armes à feu Quand les tits-pe qui t'écoutent iront jusqu'au bout, faudra pas leur dire C'est pas ma faute Des mensonges maquillés au contouring, des vérités volontairement camouflées Multi-visage, multi-discours, j'aurai du mal à t'croire quand tu m'appelleras mon frère Y'en a qui disent que t'as raté ta vie si t'as pas d'Rolex avant la quarantaine Merde, il va falloir que j'dise à mon père Papa, t'es qu'un loser entre parenthèses J'ai vu des gens embellis par la thune et puis enlaidis par l'avarice J'ai vu la résine de cannabis détruire les meilleurs, la paresse les paralyse J'aime regarder l'Homme et l'analyser, j'aime me tromper quand j'ai des préjugés J'aime voyager léger, dites au douanier qu'il trouvera pas d'explosifs dans ma valise Quand la douleur est réelle, dites aux médias qu'c'est pas la peine de la scénariser L'instrumentaliser, c'est enfermer les appels à l'aide dans une pièce insonorisée Arrêtez d'créer des polémiques en sortant les propos d'leur contexte Est-ce que si j'vous dis qu'vous m'avez saoulé, vous allez m'faire souffler dans un alcootest ? J'ai d'plus en plus de mal à faire confiance aux humains, c'est rare que j'adhère à des causes J'écoute les politiques et bizarrement j'ai l'impression d'avoir affaire à des gosses Skrr, ay L'oseille et la santé, oseille et la santé, hey, hey Hey, hey, hey On veut s'gonfler le ventre ventre, faire exploser les ventes ventes T'inquiète pas, ça va rentrer rentrer, l'oseille et la santé sku H24 sur le chantier chantier, me dérange pas, j'suis concentré sku T'inquiète pas, ça va rentrer hey, l'oseille et la santé sku J'ai quitté l'école avant l'âge ay, j'suis toujours pas un crack en maths Mais prends pas ça pour un avantage, l'avocat vérifie les pourcentages chu On veut l'oseille et la santé santé dans l'immédiat, pas dans cent ans cent ans Ouais, l'oseille et la santé, tracer le sentier pour les descendants hey, hey, hey, hey Pour l'instant, lciel est oragé, au charbon comme un enragé J'me saigne jusqu'à l'hémorragie remercie Dieu si je meurs âgé J'aime pas demander, j'aime pas le mot magique, j'aime pas perdre, j'aime pas le mot dommage J'ai briefé mon entourage l'objectif, c'est de tout rach'ter hey, hey, hey, hey Qui n'a pas faim ? Qui n'a pas soif ? Tout l'monde veut sa part du gâteau, ouais, ça va d'soi Ça s'laisse pousser des ailes à la Black Swan, quitte à finir transformé en passoire par l'SWAT Dites à l'hosto' que j'leur envoie des patients, j'aurais jamais dû kicker devant les passants J'ai cherché des rivaux, y en a pas cent j'remercie mon équipe, j'avancerais pas sans sku On veut s'gonfler le ventre ouh, faire exploser les ventes ventes T'inquiète pas, ça va rentrer sku, l'oseille et la santé wouh H24 sur le chantier chantier, me dérange pas, j'suis concentré oui T'inquiète pas, ça va rentrer rentrer, l'oseille et la santé On m'a dit Fall, t'es sous-côté, t'es pas comme les autres, toi, tu fais la dif' La plupart d'entre eux sont sous codé', comme si leur 'sique était codée J'comprends que dalle, les 'ffres-chi' sont dopés continue, tu nous fais kiffer, la mif Tant que j'peux mettre des sous d'côté, tant qu'mes morceaux s'laissent écouter Tu t'fais du souci pour les années à venir, mais t'es même pas sûr d'être encore en vie soir-ce Si personne peut dire la vérité autour de la table, tu ferais mieux d't'y asseoir seul T'as pas bien choisi la mère de tes enfants, t'étonne pas si tes filles sont des garces Craque pas, plaque pas tout sur un coup d'tête, il t'restera que dalle, à part l'seum Mon cerveau chauffe j'ai b'soin d'le climatiser, j'laisserai aucun gourou l'privatiser Il t'reste toute une bouteille de rhum à tiser moi, j'ai besoin des conseils d'un homme avisé Insulter des mères, j'pourrais l'faire aussi, c'est pas ça qui t'rendra plus féroce J'te vois comme un attaquant qui plonge parce qu'il est pas capable de faire la différence Le négro sait qu'j'prépare l'artillerie, il préfère s'faire hara-kiri Contre-pied, j'la mets à ras-d'terre simple, efficace est mon caractère J'suis pas toujours très poétique droit au but, pas d'politique J'suis pas prêt à tout, question d'éthique, mais faut qu'le truc reste prolifique Tous ces gens qui s'improvisent meilleur ami font comme s'ils t'connaissaient depuis toujours, ils sont là pour la fame, pour la gloire... Tout ça pour la fame, tout ça pour la fame J'les connais pas, moi, ces gens-là, ils sont là pour la fame Ils sont là pour les femmes, l'argent et le pouvoir Ils jurent fidélité à tout jamais j'aimerais tout perdre juste pour voir Laisse ça, ils en valent pas la peine aucun des frères qui compte pour moi n'manque à l'appel Aucun d'mes ennemis n'mérite que j'lui creuse une tombe, j'te jure, ils en valent même pas la pelle Putain, ils m'foutront pas la paix, ces vampires m'foutront pas la paix Pop-corn, j'regarderai leur masque tomber, postiché dans mon canapé Le public attend mon retour avec impatience, ouais, négro, j'suis comme un prêt Qu'ils s'inquiètent pas, si j'ai fait 3 du mat, c'est pas pour revenir avec du com' après Tout ça pour la fame, tout ça pour la fame, yeah, yeah Chacun son destin, n'envie pas le mien négro, ça, c'est la flemme, hé C'est l'travail qui paie, demande à mon staff, pendant qu'tu dors devant Netflix J'm'arrête pas, j'veux faire en une journée d'taf le double de ton salaire net fixe Fuck, fuck tes grands speech, pour qui tu t'prends, bitch ? Tu serais sûrement que dalle sans triche, rien à foutre pourvu qu'tu t'sentes riche Rien à foutre pourvu qu'tu t'sentes riche, pourvu qu'tu serres ces p'tites pouffes excentriques Impossible de les attirer sans fric, comme impossible de les niquer sans trique Tout ça pour la fame, tout ça pour la fame Les hommes de parole, on les respecte les suceurs, on les ferme Sur ça, on est ferme sur ça, on ne bouge pas Leur excuse ne nous touche pas, ils font ça pour la fame Tout pour briller, tout pour briller les valeurs, les principes il faut tout oublier N'aie pas peur de t'mettre à genoux pour supplier, tu t'serviras d'ta réput' comme bouclier Poste sur les réseaux sociaux des photos d'tes fesses ou d'tes nichons dans un t-shirt mouillé Même si, au fond, tu t'sens un peu humiliée dans quelques likes, tu demanderas des milliers T'as même plus besoin d'talent pour tout plier, suffit d'être une salope et d'le publier Petite écervelée sachant à peine compter peut maintenant investir dans l'immobilier Cheveux dans l'vent dans la 'rrari, le nez complètement refait dans la farine Attention, ça sort les griffes, va rendre visite aux Anges à Los Angeles si t'as jamais fait d'safari Tout ça pour la fame, tout ça pour la fame J'les connais pas, moi, ces gens-là, ils sont là pour la fame</t>
+          <t>Svinkels Lobotomitive 93-100 Putain, j'ai la tête dans l'cul Gérard Baste, Nikus Pokus, Mr Xavier et Frédérique Lansac C'est MC soûlard alias Clodo MC x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire J'suis grave dans l'pâté, la tête dans un étau Des quintaux d'neurones niqués Vite amenez-moi chez l'véto pour m'piquer J'suis zombie, j'me rappelle plus du début d'la soirée Attends, j'veux dire d'la fin enfin t'façon j'me rappelle plus d'rien Vu que, j'suis pas dans mon lit C'est qu'j ai du perdre mes clefs, mon fric, mes papiers, bref, tout c'qui peut s'perdre, j'ai la gerbe Hey Nikus réveilles-toi, j'ai plus d'estomac Mais qu'est ce qui a pu s'passer d'puis qu'on est tombé dans l'coma Ma deuxième boisson, c'est l'Efferalgan Contre les lendemains d'alcool et leurs effets rageants J'ai une casquette et plus d'plomb dans l'crane Une migraine comprimée à supprimer au Doliprane J'ai des r'montées d'bulles, un lendemain d'bal ou j'crache ma bile J'roule ma bille, sur un mauvais versant Une ivresse effervescente, indécente Ma descente, m'emmènera aux enfers Aux catacombes à Denfert Ah ouais ça commence à m'rev'nir, on était accoudés au bar Déboires dans l'bobard, j'faisais croire que j'portais un slip léopard Et ça s'barre en vrille, y'avait trop d'filles horrifiées, d'pouffes pouffants Dans l'Svinkisme jusqu'à l'étouffement On a fait les fonds d'bouteilles En criant Youpi, c'est noël! Juste avant d'se laver les dents avec la vieille brosse à vaisselle Puis l'image d'un pote qui pleure Et celle du pote du pote qui fait la tête J'pige plus rien quand j'ai fais la fête Rappelles-toi Gégé, la soirée c était rue d'la Roquette Toi t'as terminé tout allongé sur la moquette On t'a ramassé pour aller sur les quais Toi t'as fini dans la Seine, raide comme une queue d'pelle tu t'rappelles ? J'bois comme un trou Ma mémoire brisée au Marie Brizard Tu t'es vu quand t'abuses ? Non j'me suis pas vu, j'me rappelle plus J ai alcootisé tous mes écus pour la sécu J'ai voulu, donner mon foie à la médecine mais ils en ont pas voulu x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire Grillage la lourde du rade On ferme tôt c'soir Pis j'veux pas d'voyous dans mon bar, dégage connard Normal qu'ils puissent pas m'saquer Passent cinq à sec Quand Xanax-san sert le saké Putain, si c'est pas malheureux d'voir toute cette génération perdue dans l'alcool Les patrons d'marques de bière s'remplissent les poches et t'rendent bête En enfermant l'diable dans des putains d'canettes Vas-y bois! comme ça tsoublieras ta misère Vas-y bois! et files-en une à ton compère Zombies, tous dans l'vice Et à la main, faut croire qu'ça l'fait bien d's'afficher 8-6 à la main J'suis pas ??? Maintenant c'est ton cerveau qu't'as perdu Et pourtant c'est juste pour l'style qu't'as bu, trou du cul Tu croyais jouer Mais ça y'en a drogue dure, p'tit Et maintenant t'es d'vant l'fait accompli Avec mon pote, j ai tisé comme ils tisent Et comme E.T, j'pouvais plus r'tourner à la maison J avais perdu la raison J'me noie dans c'que j'vois, j'peux plus m'payer mon loyer Les bars, j'les fréquentent plus tard qu'le Frequenstar d'Laurent Boyer Mon QI un lendemain d'cuite J'court-circuite des fuites de cerveaux J'aurais du tomber dedans dès le berceau, Yakalelo Mais y'a pas que d'l'eau que j'vis L'alcool mon hobby avec des souvenirs de vomi Quand j'pense qu'on m'fait plus confiance Qu'j'fais honte à ma fiancée Tout renverser, tout casser, tout tacher sans balancer C'est devenu essentiel comme RTL D'm'envoyer au delà du réel Faut qu'j'défonce une 7.5cl J'ai 25 ans, des absences, j'tremble Il m'semble que l'Alka sezter guérit pas d'Parkinson ni d'Alzheimer D'un il vitreux j'mate mon r'flet dans la vitre C'lui d'un type qui boit des litres et qui fait l'pitre c'est ça le titre x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire</t>
         </is>
       </c>
     </row>
@@ -692,12 +692,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alka setzer</t>
+          <t>Amour et encre</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Svinkels Lobotomitive 93-100 Putain, j'ai la tête dans l'cul Gérard Baste, Nikus Pokus, Mr Xavier et Frédérique Lansac C'est MC soûlard alias Clodo MC x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire J'suis grave dans l'pâté, la tête dans un étau Des quintaux d'neurones niqués Vite amenez-moi chez l'véto pour m'piquer J'suis zombie, j'me rappelle plus du début d'la soirée Attends, j'veux dire d'la fin enfin t'façon j'me rappelle plus d'rien Vu que, j'suis pas dans mon lit C'est qu'j ai du perdre mes clefs, mon fric, mes papiers, bref, tout c'qui peut s'perdre, j'ai la gerbe Hey Nikus réveilles-toi, j'ai plus d'estomac Mais qu'est ce qui a pu s'passer d'puis qu'on est tombé dans l'coma Ma deuxième boisson, c'est l'Efferalgan Contre les lendemains d'alcool et leurs effets rageants J'ai une casquette et plus d'plomb dans l'crane Une migraine comprimée à supprimer au Doliprane J'ai des r'montées d'bulles, un lendemain d'bal ou j'crache ma bile J'roule ma bille, sur un mauvais versant Une ivresse effervescente, indécente Ma descente, m'emmènera aux enfers Aux catacombes à Denfert Ah ouais ça commence à m'rev'nir, on était accoudés au bar Déboires dans l'bobard, j'faisais croire que j'portais un slip léopard Et ça s'barre en vrille, y'avait trop d'filles horrifiées, d'pouffes pouffants Dans l'Svinkisme jusqu'à l'étouffement On a fait les fonds d'bouteilles En criant Youpi, c'est noël! Juste avant d'se laver les dents avec la vieille brosse à vaisselle Puis l'image d'un pote qui pleure Et celle du pote du pote qui fait la tête J'pige plus rien quand j'ai fais la fête Rappelles-toi Gégé, la soirée c était rue d'la Roquette Toi t'as terminé tout allongé sur la moquette On t'a ramassé pour aller sur les quais Toi t'as fini dans la Seine, raide comme une queue d'pelle tu t'rappelles ? J'bois comme un trou Ma mémoire brisée au Marie Brizard Tu t'es vu quand t'abuses ? Non j'me suis pas vu, j'me rappelle plus J ai alcootisé tous mes écus pour la sécu J'ai voulu, donner mon foie à la médecine mais ils en ont pas voulu x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire Grillage la lourde du rade On ferme tôt c'soir Pis j'veux pas d'voyous dans mon bar, dégage connard Normal qu'ils puissent pas m'saquer Passent cinq à sec Quand Xanax-san sert le saké Putain, si c'est pas malheureux d'voir toute cette génération perdue dans l'alcool Les patrons d'marques de bière s'remplissent les poches et t'rendent bête En enfermant l'diable dans des putains d'canettes Vas-y bois! comme ça tsoublieras ta misère Vas-y bois! et files-en une à ton compère Zombies, tous dans l'vice Et à la main, faut croire qu'ça l'fait bien d's'afficher 8-6 à la main J'suis pas ??? Maintenant c'est ton cerveau qu't'as perdu Et pourtant c'est juste pour l'style qu't'as bu, trou du cul Tu croyais jouer Mais ça y'en a drogue dure, p'tit Et maintenant t'es d'vant l'fait accompli Avec mon pote, j ai tisé comme ils tisent Et comme E.T, j'pouvais plus r'tourner à la maison J avais perdu la raison J'me noie dans c'que j'vois, j'peux plus m'payer mon loyer Les bars, j'les fréquentent plus tard qu'le Frequenstar d'Laurent Boyer Mon QI un lendemain d'cuite J'court-circuite des fuites de cerveaux J'aurais du tomber dedans dès le berceau, Yakalelo Mais y'a pas que d'l'eau que j'vis L'alcool mon hobby avec des souvenirs de vomi Quand j'pense qu'on m'fait plus confiance Qu'j'fais honte à ma fiancée Tout renverser, tout casser, tout tacher sans balancer C'est devenu essentiel comme RTL D'm'envoyer au delà du réel Faut qu'j'défonce une 7.5cl J'ai 25 ans, des absences, j'tremble Il m'semble que l'Alka sezter guérit pas d'Parkinson ni d'Alzheimer D'un il vitreux j'mate mon r'flet dans la vitre C'lui d'un type qui boit des litres et qui fait l'pitre c'est ça le titre x2 Alka Seltzer Je m'réveille, c'est la guerre Mais qu'est ce qu'y a par terre ? Pleins d'cadavres et d'fonds d'verres Vite, j'me fais un café et j'mets un aspro dans ma bière J'en ai marre d'oublier c'que j'ai fait et c'que j'ai à faire</t>
+          <t>Scratchs Dans les tunnels Scratchs On f'ra brûler, brûler la ville Yeah ! 2,3 souvenirs C'est pour les copains qui ont fait l'mur et qui ont tapé l'train Dans les tunnels Qui ont au fond d'la poche un ze-quin L.A.S 01 glisse mieux qu'la surface blanche d'une camionnette Dehors pour bomber comme au Vietnam sous l'même nom Baste One Le sale type au flow-master, salaud, bidons d'1 litre J'les embarque vite et puis je fonce vers la sortie J'ai pas appris sur le net mais dans les ronces et les orties À fumer dans les p'tites rues qu'les tags recouvrent Élevé par les louves aux Palissades du Louvre Quand j'crache pas mes phases malhonnêtes, j'lâche un blaze trop net Mec, y'a rien qui glisse mieux qu'la surface blanche d'une camionnette Chacun son ch'min et quand t'es lancé sur l'mauvais rail Demande à Earl ça peut t'miner l'moral On part en balade, Joujou soulève la trappe à ??? V'là les barbares foncedés à l'odeur de la Sparvar Aller jusqu'au bout d'la ligne et puis sauter J'écris mon futur comme mon passé, à la pointe biseautée Et si tu t'demandes pourquoi et qui j'suis pour t'parler d'tag T'inquiètes les anciens et les vrais savent Baste On en a passé des nuits sur les avenues dans les ruelles Le bruit des cailloux, des ventilos dans les tunnels C'est pour les gars qui correspondent jamais au panel Pour ceux qui squattent toujours en d'ssous des fenêtres comme un ??? On crache nos peurs et nos haines dans le chrome et le noir mat Me parle pas de stand-up quand j'te parle de One Man On peut tout donner et on viendra pour tout prendre Et on f'ra brûler la ville noyée sous l'amour et l'encre Scratchs Dans les tunnels Scratchs Dans les tunnels Scratchs Dans les tunnels Scratchs Et on f'ra brûler la ville, brûler la ville Descente interdite, fuck RATP Pardon à la comathèque, ils vont auront fait frotter Et les condés au p'tit matin, marchaient au bluff Postés sur les quais pendant qu'les train partaient au ??? Chacun son histoire, chacun ses héros d'guerre Défoncer les devantures, des flops sur les rideaux d'fer Taguer bourré, persuadés d'être invisibles On peut grimper, on peut tomber, on s'ra toujours invincibles Si on a voulu t'faire parler et qu't'as pas fait sur toi Si t'as été chercher des bombes dans l'pavillon à Aulnay-sous-Bois Si t'as connu les galères, les coulures, les couleurs qui r'passent pas Si t'as pris des poses devant ta brûlure du genre Il s'passe quoi? Et toujours fier quand les potos canardent Toutes ces heures à mater chaque photo dans ??? J'en place une pour les peigne-cul d'Austerlitz et d'Gare du Nord Ils vont ont menottés, vous repartirez plus forts</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amour et encre</t>
+          <t>Association de gens normals</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Scratchs Dans les tunnels Scratchs On f'ra brûler, brûler la ville Yeah ! 2,3 souvenirs C'est pour les copains qui ont fait l'mur et qui ont tapé l'train Dans les tunnels Qui ont au fond d'la poche un ze-quin L.A.S 01 glisse mieux qu'la surface blanche d'une camionnette Dehors pour bomber comme au Vietnam sous l'même nom Baste One Le sale type au flow-master, salaud, bidons d'1 litre J'les embarque vite et puis je fonce vers la sortie J'ai pas appris sur le net mais dans les ronces et les orties À fumer dans les p'tites rues qu'les tags recouvrent Élevé par les louves aux Palissades du Louvre Quand j'crache pas mes phases malhonnêtes, j'lâche un blaze trop net Mec, y'a rien qui glisse mieux qu'la surface blanche d'une camionnette Chacun son ch'min et quand t'es lancé sur l'mauvais rail Demande à Earl ça peut t'miner l'moral On part en balade, Joujou soulève la trappe à ??? V'là les barbares foncedés à l'odeur de la Sparvar Aller jusqu'au bout d'la ligne et puis sauter J'écris mon futur comme mon passé, à la pointe biseautée Et si tu t'demandes pourquoi et qui j'suis pour t'parler d'tag T'inquiètes les anciens et les vrais savent Baste On en a passé des nuits sur les avenues dans les ruelles Le bruit des cailloux, des ventilos dans les tunnels C'est pour les gars qui correspondent jamais au panel Pour ceux qui squattent toujours en d'ssous des fenêtres comme un ??? On crache nos peurs et nos haines dans le chrome et le noir mat Me parle pas de stand-up quand j'te parle de One Man On peut tout donner et on viendra pour tout prendre Et on f'ra brûler la ville noyée sous l'amour et l'encre Scratchs Dans les tunnels Scratchs Dans les tunnels Scratchs Dans les tunnels Scratchs Et on f'ra brûler la ville, brûler la ville Descente interdite, fuck RATP Pardon à la comathèque, ils vont auront fait frotter Et les condés au p'tit matin, marchaient au bluff Postés sur les quais pendant qu'les train partaient au ??? Chacun son histoire, chacun ses héros d'guerre Défoncer les devantures, des flops sur les rideaux d'fer Taguer bourré, persuadés d'être invisibles On peut grimper, on peut tomber, on s'ra toujours invincibles Si on a voulu t'faire parler et qu't'as pas fait sur toi Si t'as été chercher des bombes dans l'pavillon à Aulnay-sous-Bois Si t'as connu les galères, les coulures, les couleurs qui r'passent pas Si t'as pris des poses devant ta brûlure du genre Il s'passe quoi? Et toujours fier quand les potos canardent Toutes ces heures à mater chaque photo dans ??? J'en place une pour les peigne-cul d'Austerlitz et d'Gare du Nord Ils vont ont menottés, vous repartirez plus forts</t>
+          <t>x2 Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normals Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma J'te jure qu'j'suis un mec normal Le problème c'est quand j'picole J'deviens comme O.J Simpson C'est la fête avec les Svinkels Le grand partage de l'alcool Y'en a un qui t'a piqué ton verre Mais tu sais pas l'quel Normal si après j'm'en sors mal J'me sens informe tellement j'dors mal Et qu'dans ma piaule ça sent fort l'mâle Hier, soirée banale avec TTC on buvait d'la bière Ben j'vous jure qu'j'suis normal Et j'ai rien fait monsieur l'commissaire Un mec normal, une espèce rare à garder dans du formol Qui va jamais à la pharma Qui a fait normale Sup' et Harvard Un rappeur normal Un noir plein d'putes qui rafle tout au Grammy's Award Un mec normal qui a peur d'un pit Et surtout qui aime pas l'rap Un mec qui économise comme un maudit Pour mourir dans un virage en Audi Un quadra sous déprime chez son psy Qui s'fait tout p'tit Qui a pas fait pipi au lit tard Se couche tôt Regarde pas d'film porno Et surtout fraude pas dans l'métro Un mec qui sort de table sans faire un rot Compte déjà en euros S'grille aucun neurone Pas un mec qui scratche comme Pone Ou un mec qui clash comme Xanax Qu'a pris de la dope à max Et surtout qui s'en tape de faire du rap sur des mixtapes Le soleil brille dans le ciel Il est déjà midi, je me réveille Et dans la rue tous les passants me sourient Instantanément j'oublie tous mes soucis Je suis normal, depuis qu'ils m'ont fait sortir de l'hôpital Les gens qui passent ne comprenaient pas mes envies sales Je me suis senti mal, ils ont froissé mes sentiments Je me suis enfermé dans une salle en disant Je suis brisé, je vous en supplie laissez-moi respirer ! TTC le groupe dans l'rap qui s'éclate C'est un coup d'feu au milieu d'une salle de concert Ça fait fuir tout l'monde Sauf que toutes les rates écartent, place au spectacle Tumbler, gin, sampler, tine-pla Fine lame, shit gras dans beurre tis-gra De l'amusement abrutissant, voilà c'que c'est Laissez place au style Cuiz le mec dans la discothèque Qui rock la place et file dans ses baskets Chercher la compèt Sans être hautain, honnête, respectueux Même vis a vis des produits défectueux Même vis a vis des produits défectueux Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normal Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma Ma vie c'est la vie d'bureau mais quand même c'est bave Rendez vous important chez l're-beu Déj'ner d'affaire au Kebab Journée normale, Renault espace, tape 8 heures d'route Pour allez jouer dans l'trou du cul du monde D'vant 3 ploucs, et 2 vieilles normales Obsédé sexuel comme tout l'monde Bon p't'être un peu davantage Si t'as l'matos pour un plan bondage Mais pour l'heure c'est Quality Streetz On va t'finir au finger Laisse-moi mettre 2 doigts coupe faim dans ta boite à bonheur Certains répètent que notre hip-hop est conceptuel Nos flow expérimentaux et nos sons extrêmes On s'en fout, on fait c'qu'on aime Ce sont les autres qui sont fous Je suis lucide, levons les mains en l'air et soyons stupides Si l'on nous supprime nos bouteilles, nos appareils dentaires, nos bougies à la cire d'abeille, nos caractères, nos artères Nous reste plus qu'à faire du rap de gangster Je suis caustique, vive les alcooliques, et mort au rap comique Il flotte une ambiance bizarroïde Une seringue lyricale dans la veine Tu t'vomis dessus Et ta glande thyroïdale s'agite Un coup sec sur la carotide Et tu crèves tout d'suite, t'es die On s'branlerait sur nos têtes Afin qu'ça nous réanime et qu'on gesticule Descriptif, toujours dans le timing La qualité d'la rue dans tes oreilles J'ai commencé à rapper dans les squares du 19ème Sans spliffs ou col-alh Des grands ??? trouvent ça normal Dans du ring fight, sur les rapodromes Cartonne un mal de crane carabiné T'auras à la fin d'cette phrase Reçois la comme un coup d'fouet dans tes seufs T'es sur la bonne route pour l'extase Ou tu préfères être sodom' par un buffle impénétrable x2 Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normal Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Association de gens normals</t>
+          <t>Auréoles</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>x2 Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normals Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma J'te jure qu'j'suis un mec normal Le problème c'est quand j'picole J'deviens comme O.J Simpson C'est la fête avec les Svinkels Le grand partage de l'alcool Y'en a un qui t'a piqué ton verre Mais tu sais pas l'quel Normal si après j'm'en sors mal J'me sens informe tellement j'dors mal Et qu'dans ma piaule ça sent fort l'mâle Hier, soirée banale avec TTC on buvait d'la bière Ben j'vous jure qu'j'suis normal Et j'ai rien fait monsieur l'commissaire Un mec normal, une espèce rare à garder dans du formol Qui va jamais à la pharma Qui a fait normale Sup' et Harvard Un rappeur normal Un noir plein d'putes qui rafle tout au Grammy's Award Un mec normal qui a peur d'un pit Et surtout qui aime pas l'rap Un mec qui économise comme un maudit Pour mourir dans un virage en Audi Un quadra sous déprime chez son psy Qui s'fait tout p'tit Qui a pas fait pipi au lit tard Se couche tôt Regarde pas d'film porno Et surtout fraude pas dans l'métro Un mec qui sort de table sans faire un rot Compte déjà en euros S'grille aucun neurone Pas un mec qui scratche comme Pone Ou un mec qui clash comme Xanax Qu'a pris de la dope à max Et surtout qui s'en tape de faire du rap sur des mixtapes Le soleil brille dans le ciel Il est déjà midi, je me réveille Et dans la rue tous les passants me sourient Instantanément j'oublie tous mes soucis Je suis normal, depuis qu'ils m'ont fait sortir de l'hôpital Les gens qui passent ne comprenaient pas mes envies sales Je me suis senti mal, ils ont froissé mes sentiments Je me suis enfermé dans une salle en disant Je suis brisé, je vous en supplie laissez-moi respirer ! TTC le groupe dans l'rap qui s'éclate C'est un coup d'feu au milieu d'une salle de concert Ça fait fuir tout l'monde Sauf que toutes les rates écartent, place au spectacle Tumbler, gin, sampler, tine-pla Fine lame, shit gras dans beurre tis-gra De l'amusement abrutissant, voilà c'que c'est Laissez place au style Cuiz le mec dans la discothèque Qui rock la place et file dans ses baskets Chercher la compèt Sans être hautain, honnête, respectueux Même vis a vis des produits défectueux Même vis a vis des produits défectueux Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normal Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma Ma vie c'est la vie d'bureau mais quand même c'est bave Rendez vous important chez l're-beu Déj'ner d'affaire au Kebab Journée normale, Renault espace, tape 8 heures d'route Pour allez jouer dans l'trou du cul du monde D'vant 3 ploucs, et 2 vieilles normales Obsédé sexuel comme tout l'monde Bon p't'être un peu davantage Si t'as l'matos pour un plan bondage Mais pour l'heure c'est Quality Streetz On va t'finir au finger Laisse-moi mettre 2 doigts coupe faim dans ta boite à bonheur Certains répètent que notre hip-hop est conceptuel Nos flow expérimentaux et nos sons extrêmes On s'en fout, on fait c'qu'on aime Ce sont les autres qui sont fous Je suis lucide, levons les mains en l'air et soyons stupides Si l'on nous supprime nos bouteilles, nos appareils dentaires, nos bougies à la cire d'abeille, nos caractères, nos artères Nous reste plus qu'à faire du rap de gangster Je suis caustique, vive les alcooliques, et mort au rap comique Il flotte une ambiance bizarroïde Une seringue lyricale dans la veine Tu t'vomis dessus Et ta glande thyroïdale s'agite Un coup sec sur la carotide Et tu crèves tout d'suite, t'es die On s'branlerait sur nos têtes Afin qu'ça nous réanime et qu'on gesticule Descriptif, toujours dans le timing La qualité d'la rue dans tes oreilles J'ai commencé à rapper dans les squares du 19ème Sans spliffs ou col-alh Des grands ??? trouvent ça normal Dans du ring fight, sur les rapodromes Cartonne un mal de crane carabiné T'auras à la fin d'cette phrase Reçois la comme un coup d'fouet dans tes seufs T'es sur la bonne route pour l'extase Ou tu préfères être sodom' par un buffle impénétrable x2 Association d'gens normaux On est des types supers sympas Ambiance ultra amicale Association d'gens normal Location d'une vidéo style Lucile avale bedos liquides Jusqu'au p'tit tin-ma</t>
+          <t>On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche Sea, sex and sun Il faut qu'ça fouette, que ce soit wet Qu'tu mouilles ton sweat Qhuit Jusque dans l'18 Hennessy Sprite pas d'Liptonic Laisse glisser le Dom Pérignon Vu que je ne bois la Veuve Clicquot qu'à même le clit' Eau gazeuse en prime et j'ai du bon son pour qui déprime Bounce à gauche ou bounce à droite Mais n'renverse pas ce verre de Jack Sur mes pompes, non la honte Ces choses m'ont coûtées très très cher, elles démontent Et j'me barre en silence, en ruminant des médisances Mais quand même, pour le chic, regarde-moi partir de la teuf avec 2 bitches Atchoum! Ça y est Gérard Baste est malade Pluie d'lyrics, fous ton ciré jaune, tes pompes d'escalade Parce qu'on sort d'notre coquille que quand tout est humide Quelques gouttes de sueur, un sourire, la scène s'illumine Y'a qu'à la critique qu'on est imperméable Imprégnation des fibres, introduction du chibre dans l'trou d'uc C'est la Qhuit dream team, v'la l'crew dur Un croc dur mais y'a que dalle qui sort d'l'aqueduc Auriez-vous une petite pièce ? Mais pas pour rester dignes On mélange la bière et l'sex, esthétique, esthétique Numéro 1 sur l'podium, électriques Et mouillés d'bas en haut si tu m'touches tu meurs comme Cloclo sous la douche Ecoute ce track comme un grand coup d'trique Des claques et tu cliques, Qhuit, Svinkels, Triptik Psykopat pour les scores Donc concrètement écarte juste les gosses, ramène tes soss, ta gueule puis ta rate Et alors j't'arrête ? Pas d'carotte t'inquiète ! Pirates et starlettes, subissent une syncope sans alerte Pas d'histoire, faut qu'ça pète, qu'ça braille, qu'ça jump sans tièp Faut qu'ça sue, faut qu'ça puire, faut qu'ça l'fasse direct Fixe la barre très haute pour ceux qui s'baissent trop vite Faut qu'les gars grelottent quand le sweat ??? Par centaines, par milliers, les oreilles crépitent Triptik, Psykopat, TTC, Svinkels et Qhuit On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche Bounce, come on Bounce, come on Si t'es down avec le Qhuit, bouge tes membres Qu'on soit pas les seuls à sués tellement la salle est condensée Et qu'tu finisse la culotte mouillée tellement y'a d'meufs sales qu'ont dansées Mouille le, mouille le maillot Dans ton tricot, dans ma mayo La plus belle des cartes de France Des grosses garces, des saunas, dites-moi ma renoi Enlace-moi dans tes bras, là c'est moi qui me noie Moi tout illé-mou, recouvert de big bisous Alors on mouille le maillot Rouge comme caillot Hard comme noyau, on s'la pète comme fayot Dab' n'a pas d'zeb, passe ta 4 bières Dab' n'a pas d'tête, Xan' à 4 16 Baste est HF, lâche ta cassette, lèche ton assiette Gâche pas la fête non, laisse t'es rassis, mâche ton acide Crache pas ta bile, tâche pas ma zique Fume comme ???,bêtes comme Aziz, bons pour l'asile, moites comme l'Asie Mains moites sur stylo bille Aisselles aux déo bille Postillonne, anti pop sur s't'instru d'DSL Mouiller l'slop, dans l'maillot, fais pas ta fiotte J'ai rêver d'rain man et j'me réveille dans mon lit en flotte Passe-moi du textile, changement d'sweat quickly Le Svink' en équipe pour une putain d'lessive Brumise-moi l'QI, j'bouge mon cul tout d'suite Ouais j'ai l'front qui fuite et les manches qui s'imbibent Éléments suintants, d'l'été jusqu'au printemps Être présent t'as pas l'temps Mc au souffle d'air sec fout l'camp C'est l'dégât des eaux, inonde la chair et les os Mes tissus poreux et ceux plus coûteux Des t-shirts, j'en paie peu, Nikus est Emmaüs J'en mouille tellement sur scène, qu'il m'en faut toujours plus Et même dans la cabine, ma sueur salée les abîment Il m'faut d'la qualité, je n'porte que du Qhuit On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche</t>
         </is>
       </c>
     </row>
@@ -743,12 +743,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Auréoles</t>
+          <t>Auvergne Anthem</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche Sea, sex and sun Il faut qu'ça fouette, que ce soit wet Qu'tu mouilles ton sweat Qhuit Jusque dans l'18 Hennessy Sprite pas d'Liptonic Laisse glisser le Dom Pérignon Vu que je ne bois la Veuve Clicquot qu'à même le clit' Eau gazeuse en prime et j'ai du bon son pour qui déprime Bounce à gauche ou bounce à droite Mais n'renverse pas ce verre de Jack Sur mes pompes, non la honte Ces choses m'ont coûtées très très cher, elles démontent Et j'me barre en silence, en ruminant des médisances Mais quand même, pour le chic, regarde-moi partir de la teuf avec 2 bitches Atchoum! Ça y est Gérard Baste est malade Pluie d'lyrics, fous ton ciré jaune, tes pompes d'escalade Parce qu'on sort d'notre coquille que quand tout est humide Quelques gouttes de sueur, un sourire, la scène s'illumine Y'a qu'à la critique qu'on est imperméable Imprégnation des fibres, introduction du chibre dans l'trou d'uc C'est la Qhuit dream team, v'la l'crew dur Un croc dur mais y'a que dalle qui sort d'l'aqueduc Auriez-vous une petite pièce ? Mais pas pour rester dignes On mélange la bière et l'sex, esthétique, esthétique Numéro 1 sur l'podium, électriques Et mouillés d'bas en haut si tu m'touches tu meurs comme Cloclo sous la douche Ecoute ce track comme un grand coup d'trique Des claques et tu cliques, Qhuit, Svinkels, Triptik Psykopat pour les scores Donc concrètement écarte juste les gosses, ramène tes soss, ta gueule puis ta rate Et alors j't'arrête ? Pas d'carotte t'inquiète ! Pirates et starlettes, subissent une syncope sans alerte Pas d'histoire, faut qu'ça pète, qu'ça braille, qu'ça jump sans tièp Faut qu'ça sue, faut qu'ça puire, faut qu'ça l'fasse direct Fixe la barre très haute pour ceux qui s'baissent trop vite Faut qu'les gars grelottent quand le sweat ??? Par centaines, par milliers, les oreilles crépitent Triptik, Psykopat, TTC, Svinkels et Qhuit On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche Bounce, come on Bounce, come on Si t'es down avec le Qhuit, bouge tes membres Qu'on soit pas les seuls à sués tellement la salle est condensée Et qu'tu finisse la culotte mouillée tellement y'a d'meufs sales qu'ont dansées Mouille le, mouille le maillot Dans ton tricot, dans ma mayo La plus belle des cartes de France Des grosses garces, des saunas, dites-moi ma renoi Enlace-moi dans tes bras, là c'est moi qui me noie Moi tout illé-mou, recouvert de big bisous Alors on mouille le maillot Rouge comme caillot Hard comme noyau, on s'la pète comme fayot Dab' n'a pas d'zeb, passe ta 4 bières Dab' n'a pas d'tête, Xan' à 4 16 Baste est HF, lâche ta cassette, lèche ton assiette Gâche pas la fête non, laisse t'es rassis, mâche ton acide Crache pas ta bile, tâche pas ma zique Fume comme ???,bêtes comme Aziz, bons pour l'asile, moites comme l'Asie Mains moites sur stylo bille Aisselles aux déo bille Postillonne, anti pop sur s't'instru d'DSL Mouiller l'slop, dans l'maillot, fais pas ta fiotte J'ai rêver d'rain man et j'me réveille dans mon lit en flotte Passe-moi du textile, changement d'sweat quickly Le Svink' en équipe pour une putain d'lessive Brumise-moi l'QI, j'bouge mon cul tout d'suite Ouais j'ai l'front qui fuite et les manches qui s'imbibent Éléments suintants, d'l'été jusqu'au printemps Être présent t'as pas l'temps Mc au souffle d'air sec fout l'camp C'est l'dégât des eaux, inonde la chair et les os Mes tissus poreux et ceux plus coûteux Des t-shirts, j'en paie peu, Nikus est Emmaüs J'en mouille tellement sur scène, qu'il m'en faut toujours plus Et même dans la cabine, ma sueur salée les abîment Il m'faut d'la qualité, je n'porte que du Qhuit On est trop sur scène, on est gros et sexy Quand on sort nos textes, on essore nos textiles Buée sur les vitres et enceintes qui vibrent Imprégnation des fibres, imbibation du chibre Coup dil sur les chiffres, ça y'est c'est r'tipar En pleine activation des glandes sudoripares C'est comme de ris-Pa, quand c'est ici qu'on crèche Mattes la lingerie qu'on trempe, y'a qu'les MCs qu'on sèche</t>
+          <t>Dr Vince J'ai 50 sacs dans la poche Hey, vas chercher 1 ou 2 packs Hey, j'ai la gorge sèche x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne C'est pour tous les massifs dans l'massif central Qui squattent dans l'Allier, le Puy de Dôme jusqu'au Cantal Le volcan s'réveille, oui oublie l'eau minérale Toi t'as l'air de rien, ils ont l'air de la montagne Lève ta main en l'air pour le Saint putain d'Nectaire Le Bleu d'Auvergne et la Fourme d'Ambert Ici on r'présente de Montluçon à Aurillac On envoie la viande de Salers sous l'buf de l'Aubrac Bombe le thorax, on est des terroristes Hourra, hourra pour les fils de Vercingétorix On débarque gare de Clermont, attention gare au gorilles Ici c'est pas la sauce samouraï c'est sauce au ??? Elle est à toi cette chanson, toi l'Auvergnat qui s'en fout d'Vulcania, qui préfère ??? Né dans la truffade, embourbé dans la potée T'as tripoté l' bibendum, vas pas t'dégonflé x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne ??? Un mi-homme mi saucisson débité au Laguiole Pression comme c'qui sort de ma bombe ??? ce qui fait qu'quand j'pète j'fais dans mon calbute des trous d'boulette ??? Original sound ??? ??? ??? x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Auvergne Anthem</t>
+          <t>Avec Des Glaçons</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dr Vince J'ai 50 sacs dans la poche Hey, vas chercher 1 ou 2 packs Hey, j'ai la gorge sèche x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne C'est pour tous les massifs dans l'massif central Qui squattent dans l'Allier, le Puy de Dôme jusqu'au Cantal Le volcan s'réveille, oui oublie l'eau minérale Toi t'as l'air de rien, ils ont l'air de la montagne Lève ta main en l'air pour le Saint putain d'Nectaire Le Bleu d'Auvergne et la Fourme d'Ambert Ici on r'présente de Montluçon à Aurillac On envoie la viande de Salers sous l'buf de l'Aubrac Bombe le thorax, on est des terroristes Hourra, hourra pour les fils de Vercingétorix On débarque gare de Clermont, attention gare au gorilles Ici c'est pas la sauce samouraï c'est sauce au ??? Elle est à toi cette chanson, toi l'Auvergnat qui s'en fout d'Vulcania, qui préfère ??? Né dans la truffade, embourbé dans la potée T'as tripoté l' bibendum, vas pas t'dégonflé x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne ??? Un mi-homme mi saucisson débité au Laguiole Pression comme c'qui sort de ma bombe ??? ce qui fait qu'quand j'pète j'fais dans mon calbute des trous d'boulette ??? Original sound ??? ??? ??? x2 Danse la bourrée Danse la bourrée Si t'es complèt'ment bourré danse la bourrée Et gueule au d'ssus des montagnes d'Auvergne Gueule au d'ssus des montagnes d'Auvergne</t>
+          <t>Ah Ah Ah Ah Ah ugly, ugly, ugly On fait ça dune drôle de manière Ah Ah Ah Ah Ah So ugly, so ugly Je nvoulais pas venir chez Jérôme Qhuit Ne mobligez pas à dev'nir violent Non je nveux pas de bière Et encore moins un sky Avec des glaçons ou autre additifs Il faut que je réfléchisse Les yeux plongés dans cette flaque de pisse Où ma face se réfléchit Non jveux pas y aller Non jveux pas y aller Non, décidément, je nveux pas y aller On mappâte avec des sacs de grass à cque jvois Au niveau fonce-dé te fie pas à c'que j'bois Je refuse lalcool, cest minable Jsuis content d'grinder dla verte avec ma limonade On fait ça dune drôle de manière Celle qui fait saigner dlarcade sourcilière Jsuis pas v'nu vous apporter des bonbons Moi ça serait plutôt la poche sur les yeux Avec des Glaçons x2 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Jen étais sûr que tu mettrais de la flotte dans la liqueur Jen étais sûr que tu nétais quune fiotte Putain tu mécure Tu sais la glace cest pour les gonzesses et la vodka-pomme Jlaime sec mon sky, jsuis plutôt vodka-rhum Ni diluant, ni glaçons, ni sirop, juste larôme Plus vite ça monte à la tête Plus vite chauffent les neurones Au goulot mon pote Sans filet, sans capote En rasades, en shots, cul-secs, en demis, en choppes Non-stop, plein dclopes et pas une goutte de flotte Dans l'rade tous les glaçons ont un goût d'chiotte Dry et pur, seulement l'alcool j'épure Gamin jétais du genre à sniffer la colle, jtassure Givré cest triché On the rock cest cliché Tu nsuces pas que des glaçons, putain cest pêché Faut plus dun verre pour mébrécher, mamocher Cest pas de leau gelée qui va mempêcher de massécher Avec des glaçons Cest ltop, on the rock Quand jrock la place, un glacier dans lfroc Jai des TOC quand jme sers des bocs à bloc Face à face avec mes verres Ressers-moi un effet d'serres Ya plus d'saison Cest la honte des glaciers Lâge de glace surgelé Surgelé, jsuis congelé Jsuis ccon dRhum-G en congé permanent À force de vouloir per-ra, mes glaçons fondent tout le temps x2 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Pas qulété, toute lannée Cest Holiday on Ice Des gros godets Day or night Dead or alive Trois icebergs dans ma tasse Ou bien retourne chez Picard Jveux du gros cube de Ricard Et dès qujme radine ça fasse bling Vire-moi c'truc tiède Coupe moi ce frelat' de chez ED Ce week-end au sec 15 ans qu'j'connais pas la diète Pas d'vin chaud ou d'saké J'veux du fresh, bien frappé Comme un beat de Drixxxé Qu'les MCs s'sentent congelés Hésite pas, inonde ça Qu'Archimède fasse sa loi La barmaid essuiera La poitrine pleine de çons-gla Vas-y verse la banquise dans l'gin fizz Pour qu'ça ramollisse mon mister freeze Oublie la beat-box Ici y'a l'max de human vide-bocs Qu'on d'jà mit l'box' J'vois double y'a Igor et Zubrowska Bogdanov P'tits yeuz et tronche bouffie comme Anne Roumanoff Il fait chaud ici Vite il mfaut l'truc qui rafraîchit Avant l'acte irréfléchi Matte la vitesse à laquelle le contenu des verres rétrécit L'contour des objets n'est plus très précis J'm'en envoie une derrière la glotte Quand on m'reproche d'la couper avec d'la flotte Et j'passe pour une fiotte Et j'perds en potentiel classe Mais c'est avec glace Alors on vide chaque verre comme le dernier palapapa Et vous feriez pareil si seulement vous saviez que ça va fermer L'équipage est soudain pris d'panique J'ai percuté l'iceberg et j'coule comme le Titanic Naufrage, dégivrage et l'voyage s'arrêta net Sur une tempête dans ce verre d'eau, réchauffement d'la canette x4 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons</t>
         </is>
       </c>
     </row>
@@ -777,12 +777,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Avec Des Glaçons</t>
+          <t>Badaboum !</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ah Ah Ah Ah Ah ugly, ugly, ugly On fait ça dune drôle de manière Ah Ah Ah Ah Ah So ugly, so ugly Je nvoulais pas venir chez Jérôme Qhuit Ne mobligez pas à dev'nir violent Non je nveux pas de bière Et encore moins un sky Avec des glaçons ou autre additifs Il faut que je réfléchisse Les yeux plongés dans cette flaque de pisse Où ma face se réfléchit Non jveux pas y aller Non jveux pas y aller Non, décidément, je nveux pas y aller On mappâte avec des sacs de grass à cque jvois Au niveau fonce-dé te fie pas à c'que j'bois Je refuse lalcool, cest minable Jsuis content d'grinder dla verte avec ma limonade On fait ça dune drôle de manière Celle qui fait saigner dlarcade sourcilière Jsuis pas v'nu vous apporter des bonbons Moi ça serait plutôt la poche sur les yeux Avec des Glaçons x2 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Jen étais sûr que tu mettrais de la flotte dans la liqueur Jen étais sûr que tu nétais quune fiotte Putain tu mécure Tu sais la glace cest pour les gonzesses et la vodka-pomme Jlaime sec mon sky, jsuis plutôt vodka-rhum Ni diluant, ni glaçons, ni sirop, juste larôme Plus vite ça monte à la tête Plus vite chauffent les neurones Au goulot mon pote Sans filet, sans capote En rasades, en shots, cul-secs, en demis, en choppes Non-stop, plein dclopes et pas une goutte de flotte Dans l'rade tous les glaçons ont un goût d'chiotte Dry et pur, seulement l'alcool j'épure Gamin jétais du genre à sniffer la colle, jtassure Givré cest triché On the rock cest cliché Tu nsuces pas que des glaçons, putain cest pêché Faut plus dun verre pour mébrécher, mamocher Cest pas de leau gelée qui va mempêcher de massécher Avec des glaçons Cest ltop, on the rock Quand jrock la place, un glacier dans lfroc Jai des TOC quand jme sers des bocs à bloc Face à face avec mes verres Ressers-moi un effet d'serres Ya plus d'saison Cest la honte des glaciers Lâge de glace surgelé Surgelé, jsuis congelé Jsuis ccon dRhum-G en congé permanent À force de vouloir per-ra, mes glaçons fondent tout le temps x2 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Pas qulété, toute lannée Cest Holiday on Ice Des gros godets Day or night Dead or alive Trois icebergs dans ma tasse Ou bien retourne chez Picard Jveux du gros cube de Ricard Et dès qujme radine ça fasse bling Vire-moi c'truc tiède Coupe moi ce frelat' de chez ED Ce week-end au sec 15 ans qu'j'connais pas la diète Pas d'vin chaud ou d'saké J'veux du fresh, bien frappé Comme un beat de Drixxxé Qu'les MCs s'sentent congelés Hésite pas, inonde ça Qu'Archimède fasse sa loi La barmaid essuiera La poitrine pleine de çons-gla Vas-y verse la banquise dans l'gin fizz Pour qu'ça ramollisse mon mister freeze Oublie la beat-box Ici y'a l'max de human vide-bocs Qu'on d'jà mit l'box' J'vois double y'a Igor et Zubrowska Bogdanov P'tits yeuz et tronche bouffie comme Anne Roumanoff Il fait chaud ici Vite il mfaut l'truc qui rafraîchit Avant l'acte irréfléchi Matte la vitesse à laquelle le contenu des verres rétrécit L'contour des objets n'est plus très précis J'm'en envoie une derrière la glotte Quand on m'reproche d'la couper avec d'la flotte Et j'passe pour une fiotte Et j'perds en potentiel classe Mais c'est avec glace Alors on vide chaque verre comme le dernier palapapa Et vous feriez pareil si seulement vous saviez que ça va fermer L'équipage est soudain pris d'panique J'ai percuté l'iceberg et j'coule comme le Titanic Naufrage, dégivrage et l'voyage s'arrêta net Sur une tempête dans ce verre d'eau, réchauffement d'la canette x4 Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons Avec des glaçons, avec des glaçons</t>
+          <t>Welsh Recordz Gérard Baste Vas-y rajoutes un peu d'bière dans la casserole C'est pas assez fondu Yeah, faut qu'on fasse fondre cette merde Faut qu'on fasse foudre cette merde On est chauds comme une baraque à frites On jette de l'huile sur l'feu, prépare le son et les explosifs J'les entends qui trépignent, y'a la foule qui gronde Le vinyle qui crépite et l'Cheddar qui est en train d'fondre Considère-moi comme une bombe On a d'quoi allumer la mèche Marrant comme un gars qui tombe Boom ! Les morts se retournent dans leur tombe et j'te r'tourne avec J't'entrouvre la lèvre, j'ai encore fini toute la Leffe J'roule comme une boule de bowling au milieu des quilles Et j'kiffe la moule de ??? au milieu des filles J'ai toujours le bon slogan pour faire bouncer ton Sloggi J'ramène un droggy-bag si t'es d'jà pas assez groggy Parti en goguettes, j'taille ma route à la machette En tournée Intervilles, j'fini par bouffer la vachette Yo c'est le Welsh et tu sais qu'c'est du costaud J'ai un flow d'malade, j'viens foutre le feu à l'hosto x2 J'éclate la scène comme une bombe Badaboum ! Et à chaque fois qu'le beat tombe Badaboum ! Et dès que j'l'ouvre, c'est l'tonnerre qui gronde Boom ! Badaboum ! Boom ! Badaboom ! Alors ça vient c'putain d'Welsh ou quoi ? T'attends que j'chie du Cheddar pour m'le faire ? Ok ! Yeah ! Han ! Han ! On pousse les meufs dans le living room Y'a du LSD dans l'punch, numéro 1 d'l'organisation d'boum Baste et The Saoul Brotherz, v'là les mecs trop cools Bouge ton gros boule, écoutes c'qui sort du pro-tools Comme House of Pain à la Française, Jump Around Badaboum ! K.O. avant la fin du premier round Même avant qu'le premier gong sonne J't'encule pas, j'te ponctionne J'te glisse juste un doigt, c'est pour vérifier qu'tout fonctionne Tout dépend d'la façon d'voir les choses Moitié-vide, moitié-plein mais faut voir les doses Et si on fait l'compte, là j'suis à plus d'20 bières J'ai la tête dans les nuages et j'paie un demi à Saint Pierre Tu peux pas test, on est talentueux et jolis garçons Si tu l'ouvre, on t'pousse dans l'escalier en colimaçon Inhale ta beuze, on sait c'que les gars veulent Et passe-moi la gueuse, vite avant qu'on t'casse ta gueule x2 J'éclate la scène comme une bombe Badaboum ! Et à chaque fois qu'le beat tombe Badaboum ! Et dès que j'l'ouvre, c'est l'tonnerre qui gronde Boom ! Badaboum ! Boom ! Badaboom ! x2 Vide tes fûts dans l'pub On a l'son et l'ambiance est explosive Sur la piste du club En caleçon, on sort nos bâtons d'dynamite On pousse les meubles dans le living room Numéro 1 d'l'organisation d'boum Reprends-en une vite avant qu'tu dessoûles Et bouge ton gros boule quand t'entends boum ! Badaboum !</t>
         </is>
       </c>
     </row>
@@ -794,12 +794,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Badaboum !</t>
+          <t>Baste &amp; le Doc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Welsh Recordz Gérard Baste Vas-y rajoutes un peu d'bière dans la casserole C'est pas assez fondu Yeah, faut qu'on fasse fondre cette merde Faut qu'on fasse foudre cette merde On est chauds comme une baraque à frites On jette de l'huile sur l'feu, prépare le son et les explosifs J'les entends qui trépignent, y'a la foule qui gronde Le vinyle qui crépite et l'Cheddar qui est en train d'fondre Considère-moi comme une bombe On a d'quoi allumer la mèche Marrant comme un gars qui tombe Boom ! Les morts se retournent dans leur tombe et j'te r'tourne avec J't'entrouvre la lèvre, j'ai encore fini toute la Leffe J'roule comme une boule de bowling au milieu des quilles Et j'kiffe la moule de ??? au milieu des filles J'ai toujours le bon slogan pour faire bouncer ton Sloggi J'ramène un droggy-bag si t'es d'jà pas assez groggy Parti en goguettes, j'taille ma route à la machette En tournée Intervilles, j'fini par bouffer la vachette Yo c'est le Welsh et tu sais qu'c'est du costaud J'ai un flow d'malade, j'viens foutre le feu à l'hosto x2 J'éclate la scène comme une bombe Badaboum ! Et à chaque fois qu'le beat tombe Badaboum ! Et dès que j'l'ouvre, c'est l'tonnerre qui gronde Boom ! Badaboum ! Boom ! Badaboom ! Alors ça vient c'putain d'Welsh ou quoi ? T'attends que j'chie du Cheddar pour m'le faire ? Ok ! Yeah ! Han ! Han ! On pousse les meufs dans le living room Y'a du LSD dans l'punch, numéro 1 d'l'organisation d'boum Baste et The Saoul Brotherz, v'là les mecs trop cools Bouge ton gros boule, écoutes c'qui sort du pro-tools Comme House of Pain à la Française, Jump Around Badaboum ! K.O. avant la fin du premier round Même avant qu'le premier gong sonne J't'encule pas, j'te ponctionne J'te glisse juste un doigt, c'est pour vérifier qu'tout fonctionne Tout dépend d'la façon d'voir les choses Moitié-vide, moitié-plein mais faut voir les doses Et si on fait l'compte, là j'suis à plus d'20 bières J'ai la tête dans les nuages et j'paie un demi à Saint Pierre Tu peux pas test, on est talentueux et jolis garçons Si tu l'ouvre, on t'pousse dans l'escalier en colimaçon Inhale ta beuze, on sait c'que les gars veulent Et passe-moi la gueuse, vite avant qu'on t'casse ta gueule x2 J'éclate la scène comme une bombe Badaboum ! Et à chaque fois qu'le beat tombe Badaboum ! Et dès que j'l'ouvre, c'est l'tonnerre qui gronde Boom ! Badaboum ! Boom ! Badaboom ! x2 Vide tes fûts dans l'pub On a l'son et l'ambiance est explosive Sur la piste du club En caleçon, on sort nos bâtons d'dynamite On pousse les meubles dans le living room Numéro 1 d'l'organisation d'boum Reprends-en une vite avant qu'tu dessoûles Et bouge ton gros boule quand t'entends boum ! Badaboum !</t>
+          <t>Dr. Vince Gérard Baste Save Yourself À c'niveau là y'a même plus d'numéro On est là, on est beaux, on est gros Hey, hey x2 Toc, toc, qui tapes à la porte ? Surprise, surprise, c'est Gérard Baste le Doc yeah V'là le tandem de choc Y'a du gros rouge dans les verres et du gros son dans le poste Paris, Clermont représente pour le Dirty Centre Casquettes démentes, tatouages Rude Boy sur le ventre Passe au cabinet si une consultation te tente On organise une partouze géante dans la salle d'attente On casse des briques comme au bagne On assure à la montagne, à la campagne et dans ta compagne On vient lâcher l'mix redoutable Tu veux entendre du rap, du reggae et du rockab' Alors, êtes-vous prêts à faire la fête avec nous ? J'veux t'entendre gueuler si tu kiffes avec nous On a l'son qui tabasse, la zeb qui fracasse, le style et la classe C'est Dr. Vince Baste Mains sur le demi, doigts dans la fente Entouré des amis sur la mauvaise pente Trop nuls en ski mais une putain d'descente La la la la la la la la</t>
         </is>
       </c>
     </row>
@@ -811,14 +811,10 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Baste &amp; le Doc</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Dr. Vince Gérard Baste Save Yourself À c'niveau là y'a même plus d'numéro On est là, on est beaux, on est gros Hey, hey x2 Toc, toc, qui tapes à la porte ? Surprise, surprise, c'est Gérard Baste le Doc yeah V'là le tandem de choc Y'a du gros rouge dans les verres et du gros son dans le poste Paris, Clermont représente pour le Dirty Centre Casquettes démentes, tatouages Rude Boy sur le ventre Passe au cabinet si une consultation te tente On organise une partouze géante dans la salle d'attente On casse des briques comme au bagne On assure à la montagne, à la campagne et dans ta compagne On vient lâcher l'mix redoutable Tu veux entendre du rap, du reggae et du rockab' Alors, êtes-vous prêts à faire la fête avec nous ? J'veux t'entendre gueuler si tu kiffes avec nous On a l'son qui tabasse, la zeb qui fracasse, le style et la classe C'est Dr. Vince Baste Mains sur le demi, doigts dans la fente Entouré des amis sur la mauvaise pente Trop nuls en ski mais une putain d'descente La la la la la la la la</t>
-        </is>
-      </c>
+          <t>Beat saboté</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -828,10 +824,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Beat saboté</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Bibine Forever</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Oh Qhuit, j'aime ton bière Ton bière est si gros Oh Bibine Forever, and ever, and ever Bibine Forever Bibine Forever Bibine Forever Bibine Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Oh Qhuit, ton bière est si gros Je l'aime, pour toujours mon amour Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever Mot compte triple J'aime ton bière Bibine Forever Gémissements J'peux pas m'ret'nir J'ai b'soin d't'ouvrir Moi boire toi, primitif</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bibine Forever</t>
+          <t>Big Red</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oh Qhuit, j'aime ton bière Ton bière est si gros Oh Bibine Forever, and ever, and ever Bibine Forever Bibine Forever Bibine Forever Bibine Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Bibine.. Forever Oh Qhuit, ton bière est si gros Je l'aime, pour toujours mon amour Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever B.I.B.I.N.E.F.O.R.E.V.E.R Bibine Forever Bibine Forever Bibine Forever Mot compte triple J'aime ton bière Bibine Forever Gémissements J'peux pas m'ret'nir J'ai b'soin d't'ouvrir Moi boire toi, primitif</t>
+          <t>Cliquez sur la lettre de votre choix pour accéder directement au raccourciABCDEFGHIJKLMNOPQRSTUVWXYZ100Blaze 113 13 Block 1995 1PLIKÉ140 20syl 25G 2CheeseMilkShake 2Fingz 2Spee Gonzales 2zer 3010 3e il 47ter 4Keus 5 Majeur 667 6rano 75ème Session 7 Jaws 8rukiAA2H Abd Al Malik Abdallah Abou Debeing Abou Tall Abuz Adams Ademo Adès Admiral T Aelpéacha Aero Afro S Aketo Akhenaton Al Peco Alaclair Ensemble Aladin 135 Alkpote Ali Alibi Montana Alivor Alonzo ALP Alpha Wann Alpha 5.20 Amine Anton Serra Araujo Arcane Areno Jaz Arma Jackson Ärsenik Ashe 22 Ash Kidd Assaf Assassin Assy Ateyaba ATL4S ATK AxiomBBadjer Bakar Bambi Cruz Barack Adama Bavoog Avers Bazoo Bedjik Beeby Bekar Benab Ben-J Benjamin Epps BEN plg Beny Beozedzed Béton Armé Biffty Bigflo Oli Big Budha Cheez Big Red Billy Joe Black Kent Black M Black Marché Blacko Blaiz Blaz Pit Blondin B-NØM Booba Boostee Bohemian Club Bolémvn Bon Gamin Bosh Boss One Bouga Box Frappe Game Bram's Brasco Brav' Bresom Gang Brulux Brvmsoo BTPKR Busta Flex Butter BulletsCCaballero Cahiips Calbo La Canaille Canardo Captaine Roshi Casey Casseurs Flowters Cassidy Céo CFR CG6 Chanceko Chanje Chapsy Charly Greane Chatnoir Chiens de paille Chilla Chillo Chily Chinwvr Coelho Columbine Congo Bill Cool Connexion C.O.R Coyote Jo Bastard Crown C-sen Cyanure CYPH3RDD6 D. Abuz System D.Ace Daddy Lord C Dadju Dadoo Damso Dandyguel Dante Sito Dany Dan David Okit Davodka Darryl Zeuja DA Uzi Dawa O'Mic Dead Obies Deadi Dee Nasty Deen Burbigo Def Bond Demi Portion Démocrates D Demon One Denza Denzo Derka Despo Rutti DFHDGB Di-Meh Diam's Diddi Trix Dika DIL Dinero Dinos Dinor rdt Diomay Disiz La Peste Djadja Dinaz Djalito Djamal Django Djamatik Djé DJ Weedim Doc Gynéco Doc OVG Doc TMC Don Choa Donkishot Doomams Dooz Kawa Dosseh Dostan Malicia Mc Double Zulu Doudou Masta Doums Doxx Dr Beriz Driver Dry DTFEEast Eddie Hyde Eden Dillinger Eden Eyez Eden Seven Eff Gee Eikiro Ejm Ekoué Elams Elyo El Matador Empty7 Enfantdepauvres Escobar Macson Espiiem Esteban Exodarap Expression Direkt Explicit SamouraïFF430 FA2L Fababy Fabe Faf Larage Faktiss Falcko Farhaon Farlot Faster Jay Faya D Féfé Félix J Fhe-Mann Fiasko Proximo Fibo Fisto Fixpen Sill Fixpen Singe Flev' Flynt Foda C Fonky Family Fonky Flav' FouKi Foulques Nera Framal Franglish Fred Watt Fredy K Fréko Ding Freeman Freeze Corleone Freko Ding Frenetik Furax Barbarossa Futuristiq FuzatiGGaël Faye Gambi Gazouza Setif Ghetto Fabulous Gang Geeeko Georgio Gerard Baste G. Kill GLK Gradur Grand Corps Malade Green Montana Grems Gringe Grödash Gros Mo Guizmo Guy2BezbarHHamed Daye H Magnum Hash24 Hayce Lemsi Hamé Hamza Haristone Hatik Heskis High Five Crew Hitakora Hologram Lo' Hooss Hornet la Frappe Horseck Hors II Portée Hotel Paradisio Hippocampe Fou Hugo Boss Hugo Délire Hugo TSR Hunter HyacintheIIAM Ian Vandooren Ichon ICO Ideal Jim IGee Ikar Ikbal Imhotep Infinit' Insolent Inspire Intouchable Iron Sy Irvin Isha ISK Issaba Issaka Ixzo IZMJJaeyez James Deano James Delleck Jarod Jar Pacino Jason Voriz Jazzy Bazz JeanJass Jeff Le Nerf Jehkyl Jessy Money Jethro Bare Jewel Usain JMK Jnoun Joe Lucazz Joey Larsé JoeyStarr Jok'Air Jo le Pheno Jorrdee Josman Joysad JR O'Chrome Juicy P JuL Junior BvndoKK-LY K-mel K-Rhyme Le Roi Kaaris Kacem Wapalek Kaddour Hadadi Kaki Santana Kalash Kalash Criminel Kalash L'Afro Kalif Hardcore Kamelanc' Kamel Le Nouvo Kamini Kamnouze Kanoé Karlito Kaza Kekra Kema Kemmler Kennedy Keny Arkana Kenyon Kenzy Keroué Kery James Ketokrim Key Largo Kheops Kikesa KingPark Kix Kaki Klub Des Loosers Koba LaD Kobo Kodes Kofs Kohndo Koma Kool Shen Kossi Krampf Krisy KSA KT Gorique KuRt 2020 KymaLLacraps Lacrim La Fouine Lala ce L'Algérino La Mannschaft L'Animal Landy Lanimal L'Animalerie La Race Canine Larry Lartiste La Rumeur Lary Kidd La Smala Lasco Latroce Mex La Meute L'Entourage Laylow Laylow x SirKlo Le A Leck Le D Ledé Markson LeeroY Kesiah Le Club Lefa Le Gouffre Le Juiice Lemdi Leone Leonis Lesram Lestin Le Rat Luciano Les 10' Les Alchimistes Les Frères Scotch Les Rieurs Les Sages Poètes de la Rue Les Tontons Flingueurs Leto Ligue des Ombres Liim's Lil Ryder Lim Limsa Lino L'Institut Lionel D L.I.O. Pétrodollars Lomepal Lonepsi Lord Esperanza Lord Gasmique Lord Kossity L'Ordre Du Périph Lorenzo Loud Loud Lary Ajust Loxley Lpee LT RT Klan Lu'cid Lucien Révolucien Lucio Bukowski Luidji Lujipeka Lunatic Luni Luni Sacks Luv Resval LuXe L'uZine Lycos Lyms LyndaMM le Maudit Mac Kregor Mac Tyer Maes Mafia K'1 Fry Mairo Maître Gims Maj Trafyk Mak G Makala Mala Manu Key Marin Monster Marty de Lutece Maska Max D. Carter Max Paro MC Janik MC Jean Gab'1 MC Solaar Médine Megaski Melopheelo Mekra Ménélik Menzo Meryl Metek Riski MHD Miaouss Mic Fury Michel Midox Ministère A.M.E.R Mino Missié GG Mista Flo Mister C Mister V Mister You Mové Sort Mo'vez Lang MOH Moha La Squale Moi Même Flow Moka Boka Mokobé Morsay Mothas la Mascarade Moubarak MRC Mysa Mystik MZNNadjee Nahir Nakk Narcisse Nawfal Naza Neg Lyrical Neka Nekfeu Nelick Nemir Neo Néochrome Néoklash Népal Neron Nessbeal Nestaman Nikkfurie Nikus Pokus Ninho Nino B Niska Niro NOR Norsacce Berlusconi N.O.S Nosfer Nubi Sale Nusky Nyda NysayOOboy O'Trak Odeuxzero Odezenne OGB Oggy Nilz OldPee Oligarshiiit Ol' Kainry Onze OPG OrelSan Ormaz Orus Osirus Jack Oxmo Puccino OZPPakigo Panama Bende Passi P-dro Petit Voyou Phénomène Bizness Piloophaz Pit Baccardi PLK PNL Pompes Funègres Popey Primero Prince Waly Profecy Psy4 de la Rime PSO Thug PulkraQQrono Q.E FavelasRRaphaël Reckone Red Cross R.E.D.K Rémy Rim'K Rizla RK R'Mak Robdbloc Rocca Rocé Rochdi Rockin' Squat Rohff Roméo Elvis Rounhaa Royce Rowjay RVNHD RvzmoSS-Cap Sadek SAF Saïan Supa Crew Sajfleo Saké Sako Salakid Salek Salif Samat Samm Sanka Sat l'Artificier Saty Savage Toddy Say Says'z Sch S-Crew Scylla SDM sean Sëar Lui-Même SEB Sefyu Selim du 9.4 Senamo Senyss Serane Sese Kepler SetMatch Seth Gueko Sexion d'Assaut Seyté Shay Sheek Sheldon Shone Holocost Shotas Shro Shurik'N Sianna Siboy Sidi Sid Sifax Sinik Silky Shaï Sirap Sir'Klo Sir Samuel Six Slim C Slimka Sly the Mic Buddah Smartzee Smeels Smily Sneazzy Sniper So Clock Sofiane Solo Soolking Soon E MC Sopico Soprano Soso Maness Soul G Specta Spider ZED S.Pri Noir Squidji Stavo Stick Still Fresh Stof Terrier Stomy Bugsy Stupeflip Suikon Blaz AD Sultan SuperWak Clique Suprême NTM Swagg Man Swenz Swift Guad Swing SyenTTake A Mic Taipan Taï Z Tandem Tawsen Tayc Tedax Max Teddy Corona Teki Latex Tengo John thaHomey The Shin Sekaï Tiakola Tiers monde Tiitof Timal T.I.S Tito Prince TK TLF TLZ Clan Tortoz Tsew The Kid TSR Crew Tuerie Tunisiano TyranikUUltimate Bitches USKYVVald Val Mobb Varnish la Piscine Veerus Vesti Veust Lyricist Vicelow Vicenzo Vidji Vin's Vîrus Volts Face VSOWWacko Waltmann Waman Wit. Worms-TXXGangs X-Men XIII Sarkastick XVBARBARYYannick Yaro YL Younès Youri Youssef Swatt's Youssoupha Youv Dee Ysha YUZMVZZamdane Zed Zed Yun Pavarotti Zesau Zeu Zek Zeguerre Ziak Zidi Zikxo Zinée ZKR Zola Zoonard Zoxea Zuukou MayzieABCDEFGHIJKLMNOPQRSTUVWXYZCliquez sur la lettre de votre choix pour accéder directement au raccourci41</t>
         </is>
       </c>
     </row>
@@ -858,12 +858,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Big Red</t>
+          <t>Bis Bis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cliquez sur la lettre de votre choix pour accéder directement au raccourciABCDEFGHIJKLMNOPQRSTUVWXYZ100Blaze 113 13 Block 1995 1PLIKÉ140 20syl 25G 2CheeseMilkShake 2Fingz 2Spee Gonzales 2zer 3010 3e il 47ter 4Keus 5 Majeur 667 6rano 75ème Session 7 Jaws 8rukiAA2H Abd Al Malik Abdallah Abou Debeing Abou Tall Abuz Adams Ademo Adès Admiral T Aelpéacha Aero Afro S Aketo Akhenaton Al Peco Alaclair Ensemble Aladin 135 Alkpote Ali Alibi Montana Alivor Alonzo ALP Alpha Wann Alpha 5.20 Amine Anton Serra Araujo Arcane Areno Jaz Arma Jackson Ärsenik Ashe 22 Ash Kidd Assaf Assassin Assy Ateyaba ATL4S ATK AxiomBBadjer Bakar Bambi Cruz Barack Adama Bavoog Avers Bazoo Bedjik Beeby Bekar Benab Ben-J Benjamin Epps BEN plg Beny Beozedzed Béton Armé Biffty Bigflo Oli Big Budha Cheez Big Red Billy Joe Black Kent Black M Black Marché Blacko Blaiz Blaz Pit Blondin B-NØM Booba Boostee Bohemian Club Bolémvn Bon Gamin Bosh Boss One Bouga Box Frappe Game Bram's Brasco Brav' Bresom Gang Brulux Brvmsoo BTPKR Busta Flex Butter BulletsCCaballero Cahiips Calbo La Canaille Canardo Captaine Roshi Casey Casseurs Flowters Cassidy Céo CFR CG6 Chanceko Chanje Chapsy Charly Greane Chatnoir Chiens de paille Chilla Chillo Chily Chinwvr Coelho Columbine Congo Bill Cool Connexion C.O.R Coyote Jo Bastard Crown C-sen Cyanure CYPH3RDD6 D. Abuz System D.Ace Daddy Lord C Dadju Dadoo Damso Dandyguel Dante Sito Dany Dan David Okit Davodka Darryl Zeuja DA Uzi Dawa O'Mic Dead Obies Deadi Dee Nasty Deen Burbigo Def Bond Demi Portion Démocrates D Demon One Denza Denzo Derka Despo Rutti DFHDGB Di-Meh Diam's Diddi Trix Dika DIL Dinero Dinos Dinor rdt Diomay Disiz La Peste Djadja Dinaz Djalito Djamal Django Djamatik Djé DJ Weedim Doc Gynéco Doc OVG Doc TMC Don Choa Donkishot Doomams Dooz Kawa Dosseh Dostan Malicia Mc Double Zulu Doudou Masta Doums Doxx Dr Beriz Driver Dry DTFEEast Eddie Hyde Eden Dillinger Eden Eyez Eden Seven Eff Gee Eikiro Ejm Ekoué Elams Elyo El Matador Empty7 Enfantdepauvres Escobar Macson Espiiem Esteban Exodarap Expression Direkt Explicit SamouraïFF430 FA2L Fababy Fabe Faf Larage Faktiss Falcko Farhaon Farlot Faster Jay Faya D Féfé Félix J Fhe-Mann Fiasko Proximo Fibo Fisto Fixpen Sill Fixpen Singe Flev' Flynt Foda C Fonky Family Fonky Flav' FouKi Foulques Nera Framal Franglish Fred Watt Fredy K Fréko Ding Freeman Freeze Corleone Freko Ding Frenetik Furax Barbarossa Futuristiq FuzatiGGaël Faye Gambi Gazouza Setif Ghetto Fabulous Gang Geeeko Georgio Gerard Baste G. Kill GLK Gradur Grand Corps Malade Green Montana Grems Gringe Grödash Gros Mo Guizmo Guy2BezbarHHamed Daye H Magnum Hash24 Hayce Lemsi Hamé Hamza Haristone Hatik Heskis High Five Crew Hitakora Hologram Lo' Hooss Hornet la Frappe Horseck Hors II Portée Hotel Paradisio Hippocampe Fou Hugo Boss Hugo Délire Hugo TSR Hunter HyacintheIIAM Ian Vandooren Ichon ICO Ideal Jim IGee Ikar Ikbal Imhotep Infinit' Insolent Inspire Intouchable Iron Sy Irvin Isha ISK Issaba Issaka Ixzo IZMJJaeyez James Deano James Delleck Jarod Jar Pacino Jason Voriz Jazzy Bazz JeanJass Jeff Le Nerf Jehkyl Jessy Money Jethro Bare Jewel Usain JMK Jnoun Joe Lucazz Joey Larsé JoeyStarr Jok'Air Jo le Pheno Jorrdee Josman Joysad JR O'Chrome Juicy P JuL Junior BvndoKK-LY K-mel K-Rhyme Le Roi Kaaris Kacem Wapalek Kaddour Hadadi Kaki Santana Kalash Kalash Criminel Kalash L'Afro Kalif Hardcore Kamelanc' Kamel Le Nouvo Kamini Kamnouze Kanoé Karlito Kaza Kekra Kema Kemmler Kennedy Keny Arkana Kenyon Kenzy Keroué Kery James Ketokrim Key Largo Kheops Kikesa KingPark Kix Kaki Klub Des Loosers Koba LaD Kobo Kodes Kofs Kohndo Koma Kool Shen Kossi Krampf Krisy KSA KT Gorique KuRt 2020 KymaLLacraps Lacrim La Fouine Lala ce L'Algérino La Mannschaft L'Animal Landy Lanimal L'Animalerie La Race Canine Larry Lartiste La Rumeur Lary Kidd La Smala Lasco Latroce Mex La Meute L'Entourage Laylow Laylow x SirKlo Le A Leck Le D Ledé Markson LeeroY Kesiah Le Club Lefa Le Gouffre Le Juiice Lemdi Leone Leonis Lesram Lestin Le Rat Luciano Les 10' Les Alchimistes Les Frères Scotch Les Rieurs Les Sages Poètes de la Rue Les Tontons Flingueurs Leto Ligue des Ombres Liim's Lil Ryder Lim Limsa Lino L'Institut Lionel D L.I.O. Pétrodollars Lomepal Lonepsi Lord Esperanza Lord Gasmique Lord Kossity L'Ordre Du Périph Lorenzo Loud Loud Lary Ajust Loxley Lpee LT RT Klan Lu'cid Lucien Révolucien Lucio Bukowski Luidji Lujipeka Lunatic Luni Luni Sacks Luv Resval LuXe L'uZine Lycos Lyms LyndaMM le Maudit Mac Kregor Mac Tyer Maes Mafia K'1 Fry Mairo Maître Gims Maj Trafyk Mak G Makala Mala Manu Key Marin Monster Marty de Lutece Maska Max D. Carter Max Paro MC Janik MC Jean Gab'1 MC Solaar Médine Megaski Melopheelo Mekra Ménélik Menzo Meryl Metek Riski MHD Miaouss Mic Fury Michel Midox Ministère A.M.E.R Mino Missié GG Mista Flo Mister C Mister V Mister You Mové Sort Mo'vez Lang MOH Moha La Squale Moi Même Flow Moka Boka Mokobé Morsay Mothas la Mascarade Moubarak MRC Mysa Mystik MZNNadjee Nahir Nakk Narcisse Nawfal Naza Neg Lyrical Neka Nekfeu Nelick Nemir Neo Néochrome Néoklash Népal Neron Nessbeal Nestaman Nikkfurie Nikus Pokus Ninho Nino B Niska Niro NOR Norsacce Berlusconi N.O.S Nosfer Nubi Sale Nusky Nyda NysayOOboy O'Trak Odeuxzero Odezenne OGB Oggy Nilz OldPee Oligarshiiit Ol' Kainry Onze OPG OrelSan Ormaz Orus Osirus Jack Oxmo Puccino OZPPakigo Panama Bende Passi P-dro Petit Voyou Phénomène Bizness Piloophaz Pit Baccardi PLK PNL Pompes Funègres Popey Primero Prince Waly Profecy Psy4 de la Rime PSO Thug PulkraQQrono Q.E FavelasRRaphaël Reckone Red Cross R.E.D.K Rémy Rim'K Rizla RK R'Mak Robdbloc Rocca Rocé Rochdi Rockin' Squat Rohff Roméo Elvis Rounhaa Royce Rowjay RVNHD RvzmoSS-Cap Sadek SAF Saïan Supa Crew Sajfleo Saké Sako Salakid Salek Salif Samat Samm Sanka Sat l'Artificier Saty Savage Toddy Say Says'z Sch S-Crew Scylla SDM sean Sëar Lui-Même SEB Sefyu Selim du 9.4 Senamo Senyss Serane Sese Kepler SetMatch Seth Gueko Sexion d'Assaut Seyté Shay Sheek Sheldon Shone Holocost Shotas Shro Shurik'N Sianna Siboy Sidi Sid Sifax Sinik Silky Shaï Sirap Sir'Klo Sir Samuel Six Slim C Slimka Sly the Mic Buddah Smartzee Smeels Smily Sneazzy Sniper So Clock Sofiane Solo Soolking Soon E MC Sopico Soprano Soso Maness Soul G Specta Spider ZED S.Pri Noir Squidji Stavo Stick Still Fresh Stof Terrier Stomy Bugsy Stupeflip Suikon Blaz AD Sultan SuperWak Clique Suprême NTM Swagg Man Swenz Swift Guad Swing SyenTTake A Mic Taipan Taï Z Tandem Tawsen Tayc Tedax Max Teddy Corona Teki Latex Tengo John thaHomey The Shin Sekaï Tiakola Tiers monde Tiitof Timal T.I.S Tito Prince TK TLF TLZ Clan Tortoz Tsew The Kid TSR Crew Tuerie Tunisiano TyranikUUltimate Bitches USKYVVald Val Mobb Varnish la Piscine Veerus Vesti Veust Lyricist Vicelow Vicenzo Vidji Vin's Vîrus Volts Face VSOWWacko Waltmann Waman Wit. Worms-TXXGangs X-Men XIII Sarkastick XVBARBARYYannick Yaro YL Younès Youri Youssef Swatt's Youssoupha Youv Dee Ysha YUZMVZZamdane Zed Zed Yun Pavarotti Zesau Zeu Zek Zeguerre Ziak Zidi Zikxo Zinée ZKR Zola Zoonard Zoxea Zuukou MayzieABCDEFGHIJKLMNOPQRSTUVWXYZCliquez sur la lettre de votre choix pour accéder directement au raccourci41</t>
+          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bis Bis</t>
+          <t>Bistrot Boys</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J'ai tellement la pêche quand y'a plus de 'Ce-pla' dans mes poches, oh oui, le boze M'explose la tête, remballez vos cochonneries J'suis grand, t'es petit comme le boson d'Higgs J'ai la patte qui colle à cause de Mya Nichole On ne rigole pas avec mes idoles, hey Je me branle, je me branle, j'fais du bif', c'est nickel Je te mens, je te nique, tu te manges le vide Le nez vers les étoiles avant de finir enseveli Bitch, te perds pas dans le 'ce-vi' Moi, j'suis pour de vrai Je peux tout le faire, je peux nous refaire Tu pé-pom le zgeg, j'fais des commentaires Donc tu t'améliores, je vais ramener l'or Criez Mazel Tov lorsque Vald est sobre Mazel Tov ! J'ai l'regard dans l'vide comme Joe Budden Comme je m'enrichis, je prends d'la bedaine Dose de méga shit pour qu'je la reperde À ma droite, le verbe donc, à ma gauche, le teh car Tels sont mes repères et la planète accouche De cartels de merde, ouais, mais j'm'en fous J'veux juste de quoi perdre la boule dans une sacoche du bled J'retire des balais dans l'cul T'as vu mon faciès prendre du buzz Maintenant, t'arrives super à l'aise en stud' Moi, ça m'fait plaisir Seulement, j'suis presque parfait, toi, t'es sacrément nul Ta clique de sacripants pue Qu'est-ce que t'as fait, à part aller dans l'mur ? Le pare-brise en puzzle le massacre est précis J'ai de l'amour et du marron, j'suis Incompris comme Eddy Malou, bitch Un bon prix, puis j'te démarre en I J'ouvre les portes pour la galanterie La vie, c'est dur, c'est pas demie-molle Oreilles sifflantes lorsque je m'isole Étoiles filantes lorsque je rigole Aucun sentiment pour âme frivole Non, non, non Si j'ai pas les armes, je vais manigancer Vu qu't'es quasi pute et puis quasi hombre C'est l'heure de ta chute sur ma Casio Putain, j'fais du blé, puis ça m'fait du bien Putain fait du pied, putain veut du V V, V, putain dans lumière, putain dans le noir Putain pète un plomb, putain dans Uber, putain, au revoir J'ai la vie de rêve je me lève et je ne fais qu'parler J'ai assez taffé pour ne plus savoir que c'est qu'taffer Gros teh avec Nescafé J'té-ma ce que c'est qu'bas-fonds Drôle de bassesses pour frôler des bassins Drôle de charrette, c'est pas pour les tapins Je porte mon malaise et ma monnaie m'allège Est-ce que tu baises après Tournez manège ! ? Le tout, c'est d'l'admettre, je pourrais t'la mettre Mais y'a un truc qui m'retient, pute, fils de chien D'où tu t'permets ? Tu ne piges donc rien ? Sans loyauté, y'aura pas d'royauté J'ai mal aux pieds, pétasse, viens m'aborder Regarde-moi barboter, je suis dans l'aquarium J'te parle comme ton 're-pè', je suis dans ta daronne Déjà repus avant même le repas J'rappe la 're-pu' que bi'-bi' la 'c-Fna' Je vis comme un mort Et l'haleine de mort suit mon kefta J'sais pas qu'est-ce t'as, t'es là, fais la feignasse Devant l'chemin des dames, maintenant qu't'es là, fais la fella' J'mange des falafel Devant des caméras Je 'pper-ra' des phases qui n'ont rien à voir entre elles Je 'ter-doig' des 'tasses qui n'ont rien à voir entre elles Je bédave et passe des journées qui n'ont rien à voir entre elles En fait, je m'emmerde, je crois qu'c'est ça, l'enfer J'vois des sacs Lancel Un jour, je sais qu'ça sera les Pampers pour le bambin Là, je gambade façon Bambi entre les pantins J'ai fait tant d'rêves où j'en plante un Je suis dans l'vert, jamais j'emprunte Venu sur terre, j'laisse mon empreinte Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Han Comment faire du rap sans être dissident ? Si c'est pour l'dividende, j'espère qu'tu niques ta mère dans ta diligence Pas d'galéjades Baisse les deux yeux d'vant l'jedi J'suis dans l'game en slibard comme Gérard Baste Putain d'merde, putain XEU le 2 Putain d'merde, j'crois qu'y'a XEU le 2 Putain, putain d'merde, j'crois qu'y'a XEU le 2 Bébé m'en veux pas, j'ai autre chose à foutre que t'envoyer SMS Y'a plein d'trucs dans ton cul qui n'devrait pas y être comme matraque de CRS L'homme est mauvais s'il pouvait s'immoler, maigre vertue pour liasse pas très épaisse C'est la kermesse on a réduit à une boucle de ceinture la sagesse d'Hermès Série de massages fermé, série de patates à la pégase dans le nez J'recherche le Nirvana, j'vais m'absenter, j'me défonce, j'perds mon temps et ma santé Sur la table de Ouija ça fait V.A.L.D, mes démons m'aident à chanter Salope patentée me dit viens !, j'm'ennuie d'jà et j'suis même pas rentré Comment j'peux t'faire confiance tu d'vantes de surveiller l'ennemi devant ton propre miroir Tous ces fils de putes j'les oublie pas J'ai mis leur patronyme dans mon grimoire NQNT l'acronyme, baise l'industrie la coquine Tu le vois à nos mines, comme moi nos besoins s'appauvrissent, si nos coeurs s'atrophient J'me mets la tête à l'envers dès qu'je peux, j'le fais même sur la pochette Tu veux quoi wesh ? Mon buzz ou mon blé, une photo ? Fais pas genre tu tapes juste la causette J'ai vu tous les Lie To Me, t'essaie de m'la faire à l'envers, j'ai repéré ta fossette Taga dans la chaussette, j'dois m'occuper des miens poudre de lait à ras d'la dosette Aujourd'hui, j'me suis levé j'ai décidé d'les ken à la 90ème Tu m'parles tu vois bien qu'j'suis ailleurs, à l'affut des parchemins qui viennent Ton chemin est tracé, les dieux et les esclavagistes te l'ont déjà balisé Arrête tes conneries, éteins ta télé, tu vas finir par croire leurs balivernes J'pense beaucoup à moi, un peu moins aux sans-abris qui n'passeront pas l'hiver On s'habitue à tout, tout le monde me suce, personne ne m'aime et je commence à m'y faire T'es choqué du test salivaire, j'suis l'plus joyeux d'tous les mammifères hey Petit sourire en coin sur la civière La mort pour seul Happy End XEU le 2, XEU le 2 Ah gaddem, putain, c'est d'la bombe J'crois qu'y'a XEU le 2, XEU le 2 C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 Eskedit C'est d'la bombé bébé, j'crois qu'y'a XEU le 2 XEU le 2 Beaucoup d'fusils dans rotule Un jour peace, un jour nan ça module Je m'envole au-dessus d'la cohue Avant de finir au cimetière d'la commune Ferme ta grande gueule, ça pollue T'as les couilles, on dirait des ovules NQNTMQMQMB, hey, Mo-mo-motus J'suis l'problème et la soluce J'ai le totem et l'il d'Horus J'ai toujours dans la poche un bonus J'effrite en position du lotus 9-3 y'a pas d'tirs au buts Tu cherchais l'amour mais t'es parti aux putes J'dis n'importe quoi, c'est connu J'fais n'importe quoi mais j'en oublie aucune Wesh y'a XEU le 2, XEU le 2 Putain d'putain, j'crois qu'y'a XEU le 2 C'est d'la bombé bébé, vraiment j'crois qu'y'a XEU le 2 XEU le 2, XEU le 2 Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Fils de pute prolifère Ferme pas les paupières, nan Laisse pas la folie faire Pour m'endormir, il m'faut bien plus qu'un bout de somniphère J'écoute ton flow pourri trouver chez un apothicaire Appelez le commissaire, j'suis dans les chaumières Sullyvan croque-mitaine Comme Léon j'suis dans l'nettoyage Un genre de pro d'l'hygiène J'me balade en slip, défoncé à mort comme un aborigène Là j'bédave la bolivienne J'suis sur une autrichienne Ou bien une mauricienne Pourquoi pas mongolienne ? J'arrive à d'autres t-rex Avec ma coquine d'ex On efface tout quand je crache J'ai trempé ma bite dans un pot d'Tipp-Ex Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Rockstar dans rocking chair Au-d'ssus des conifères Loin des ragots d'vipères Y'a jamais trop d'misère Rock ça dans rocking chair Mug Hennessy, je suis postiché, hey, hey, hey Dans un 'bnb proche de Pornichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Ceux qu'ont pas suivi sur un godmichet, hey, hey, hey Rockstar dans rocking chair Ferme ta gueule pauvre chienne Esclave, j'ai déjà le statut Pas besoin de jolies chaines Je veux de l'oxygène, contrecarrer l'sortilège Contre son shorty beige, je contrôle son logiciel Nez levé au ciel, j'ai jamais vu la vie aussi belle Étoile dans les yeux mais c'est pas les mêmes qu'à l'hôtel Sofitel Caviar dans mes coquillettes, j'rappe pas pour des clopinettes Fais pas ta mauviette, t'effrites tout l'olive À mon sujet, tu t'fais des films, à une étoile sur AlloCiné J'suis dans ma rocking chair, arrête d'halluciner Ton futur à modifier, pas d'sutures à glorifier Chaque seconde, j'suis notifié, j'suis fonc-dé, j'suis momifié2</t>
+          <t>x2 Bistrot Boys, grosses fêtes Overdoses de houblon Bistrot Boys, grosses lettres Sur le dos du blouson Svinkels, depuis l'début on a fait 200 titres Le problème, par semaine, on boit genre 200 litres En concert, ce week-end, on va tiser gratis Les Tees viennent de chez Qhuit le pif de chez l'caviste! Tourne autour de ta table comme un grand requin blanc Pour te taper ta poire, ta bouteille de vin blanc Si t'es pas v'nu faire la foire bébé, Baste fout l'camp Comme une vieille à la canicule, faut qu'on boive tout l'temps Temps! Temps! On est très tenaces, pour ton bar on représente une vraie menace Aller, trace sur la croisette, on part en croisière Et comme le cerbère, je voudrais juste trois têtes pour boire trois bières No Sleep Till! Moi j'ai de gros slips stylés La conso de Xanax! Laisse même le grossiste flipper On veux toujours les plus grandes doses nous sert pas la p'tite! Ce soir on part dans l'cosmos intergalactique x2 Bistrot Boys ! Les tiseurs des litres ! Ouais des Bistrot Boys ! Les tireurs d'élite ! Mets la p'tite sur et hop, v'là les Bistrot Boys ! Devant nous la flotte s'écarte comme devant Moïse Maman sert-moi l'meilleur maintenant, pas l'tout venant non! J'sens qu'j'vais finir dans une poubelle, j'en ai rien à foutre du prix d'la bouteille oui! Sers ! Sers! Sers! Sers! Sers-moi encore, sers Sers ! Bistrot Boys for life ! Patron, t'as plus qu'ce whisky mets l'dernier doigt On est trop beastie quand tout le bistrot s'boit Il est temps d'bouger, de troquer, y'a jamais assez d'bistrotiers STP, trois perroquets, combien d'fois vais-je le répéter ? On revient rocker ! Jamais on hoquette Des rues du Faubourg jusqu'à la Roquette Marque les esprits à coups d'tessons, sur le jukebox y'a plus qu'nos sons Les toxs font la queue aux chiottes, sur le comptoirs cent mètres de shots And you don't stop! Premier sur les quilles J'suis qu'un débile de boisson, License IV To Ill Trois MC's messies, le trio triso C'est pas Les Garçons Bouchers, juste les garçons bestiaux Picole! Bestioles ! Ethylo! Animals ! Sers-moi un demi mais J'veux pas d'demi molle On est des piliers par millions, sortez les milliers de litrons pour passer les fûts au siphon Svinkels c'est un typhon ! On a déjà fait l'tour d'un tas d'bistrots On paye nos tournées et on donne des cours magistraux Nos performances sont électriques comme celle de Cloclo Nos vieilles ambiances pathétiques, comme celles de clodos Bien bourré, j'parle dans ma barbe comme Rick Rubin J'les laisse dans l'rétro, ces bâtards de flics ruminent J'suis en train d'perdre la tête, j'ai mis d'la tise dedans Faut qu'on arrête, j'ai pas stop d'puis qu'on a 19 ans x2 Bistrot Boys ! Les tiseurs des litres ! Ouais des Bistrot Boys ! Les tireurs d'élite ! Mets la p'tite sur et hop, v'là les Bistrot Boys ! Devant nous la flotte s'écarte comme devant Moïse</t>
         </is>
       </c>
     </row>
@@ -892,12 +892,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bistrot Boys</t>
+          <t>Bois mes paroles</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>x2 Bistrot Boys, grosses fêtes Overdoses de houblon Bistrot Boys, grosses lettres Sur le dos du blouson Svinkels, depuis l'début on a fait 200 titres Le problème, par semaine, on boit genre 200 litres En concert, ce week-end, on va tiser gratis Les Tees viennent de chez Qhuit le pif de chez l'caviste! Tourne autour de ta table comme un grand requin blanc Pour te taper ta poire, ta bouteille de vin blanc Si t'es pas v'nu faire la foire bébé, Baste fout l'camp Comme une vieille à la canicule, faut qu'on boive tout l'temps Temps! Temps! On est très tenaces, pour ton bar on représente une vraie menace Aller, trace sur la croisette, on part en croisière Et comme le cerbère, je voudrais juste trois têtes pour boire trois bières No Sleep Till! Moi j'ai de gros slips stylés La conso de Xanax! Laisse même le grossiste flipper On veux toujours les plus grandes doses nous sert pas la p'tite! Ce soir on part dans l'cosmos intergalactique x2 Bistrot Boys ! Les tiseurs des litres ! Ouais des Bistrot Boys ! Les tireurs d'élite ! Mets la p'tite sur et hop, v'là les Bistrot Boys ! Devant nous la flotte s'écarte comme devant Moïse Maman sert-moi l'meilleur maintenant, pas l'tout venant non! J'sens qu'j'vais finir dans une poubelle, j'en ai rien à foutre du prix d'la bouteille oui! Sers ! Sers! Sers! Sers! Sers-moi encore, sers Sers ! Bistrot Boys for life ! Patron, t'as plus qu'ce whisky mets l'dernier doigt On est trop beastie quand tout le bistrot s'boit Il est temps d'bouger, de troquer, y'a jamais assez d'bistrotiers STP, trois perroquets, combien d'fois vais-je le répéter ? On revient rocker ! Jamais on hoquette Des rues du Faubourg jusqu'à la Roquette Marque les esprits à coups d'tessons, sur le jukebox y'a plus qu'nos sons Les toxs font la queue aux chiottes, sur le comptoirs cent mètres de shots And you don't stop! Premier sur les quilles J'suis qu'un débile de boisson, License IV To Ill Trois MC's messies, le trio triso C'est pas Les Garçons Bouchers, juste les garçons bestiaux Picole! Bestioles ! Ethylo! Animals ! Sers-moi un demi mais J'veux pas d'demi molle On est des piliers par millions, sortez les milliers de litrons pour passer les fûts au siphon Svinkels c'est un typhon ! On a déjà fait l'tour d'un tas d'bistrots On paye nos tournées et on donne des cours magistraux Nos performances sont électriques comme celle de Cloclo Nos vieilles ambiances pathétiques, comme celles de clodos Bien bourré, j'parle dans ma barbe comme Rick Rubin J'les laisse dans l'rétro, ces bâtards de flics ruminent J'suis en train d'perdre la tête, j'ai mis d'la tise dedans Faut qu'on arrête, j'ai pas stop d'puis qu'on a 19 ans x2 Bistrot Boys ! Les tiseurs des litres ! Ouais des Bistrot Boys ! Les tireurs d'élite ! Mets la p'tite sur et hop, v'là les Bistrot Boys ! Devant nous la flotte s'écarte comme devant Moïse</t>
+          <t>On m'dit souvent que dans mes textes je n'parle que d'sexe et de foncedé Mais loin d'être véx', je suis flatté car en effet C'est le journal du hard, l'inspiration numéro uno Et Raven la muse de Jojo, God Damn J'aime le porno accompagné d'un bédo, bien chargé en Aca-pulco Mon immeuble fait des pétitions Sous prétexte que j'enfume la maison, et que ça sent pas bon Mais bon, faut pas m'prendre pour un con, j'fume que d'la qualité Peux-tu me dire comment ça peut puer Alors que l'odeur, sortie tout droit du bled Réveillerait un mort, pour lui faire danser l'smurf en indoor à Bercy J'aime la sensi, oui merci, petit soit gentil de faire passer le spliff par ici Réhabiliter les doobies prohibés comme Bob c'est mon job Je gave les zouaves et zig-zag sur la zique et ris là Crois-tu qu'l'eau s'est bénite dans la pipe par la grâce du Pape Le Kink-Kong du bong bondit sur un beat de conga, bois donc ton Banga Je tourne au jaja, à la ganja, vive la java, fais la fiesta, pas la siesta ! pas la siesta ! Si le tabac t'abat n'appelle pas Tabatha Basta ! Baste hausse les basses Mets tes ADIDAS, et bascule avec moi J'ai l'calumet qui va t'calmer une seconde J'vais t'secouer au Shoobang Tire une taffe et ta tête fait z'booong Tu fais la teufê sous skunk bong Bambino ! Scotche tes babines au bambou Remplis tes bajoues mais s'te plaît bave pas partout Car le Svinkels pratique le Skonk Fonk chouchou façon Hong Kong fufu ! x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas dur d'la feuille quand le Svink se met en pétard Kiffe mon Skonk Fonk J'stoppe la pagaille Quand j'débarque sur mon chariot chargé dpaille Les payes braillent j'veux un joint!, roules-en-un Le Svink grille le business du coupeur, prend peur dvant ma qualité Même sur sa fille, mon pot smoking fait de l'effet Black Domina, met la pression M'donne l'impression d'être dans une sale situation Situons l'action Cave claustro, trop d'vapeur, trop d'bad boy, trop karglo Mon joint de skonk Qui fond dans la bouche Et me douche les dents du fond alors que baignent quelques touches de Funk qui se confondent Me fendent, j'en louche et bigle sur le bong Sur les ondes, le Svinkels En son nombre, bien à l'ombre Pas nombril du monde, gronde groove et prône l'underground Je concocte un cône de skonk, fonds fonchi Bouffon, monkey, j'suis fonkey L'Orange Bud et ma Budweiser, tu te bad Weasel Flic ! Tu me confisques ma skonk pour prévenir à ce qu'on n'se fixe Mais le Svinkels fonde le Skonk Bang Contre les condés qui confondent Draguer dur la drogue douce Et adhérer dare-dare à la drogue dure Tu piétines ma verdure, faudrait pas qu'ça perdure Huuum! Cette pipe va droite au but Plus brutal que les caresses buccales d'une pute, du quartier rouge Cherche pas la Jack Herer quand je m'porte acquéreur D'cette végétale terreur Comme Rika Zaraï sous un rail de déchets toxiques J'allie l'naturel au chimique J'dépasse les doses homéopathiques qu'on m'avait prescrites J'ai pas d'limite à la santé par les plantes aromatiques Vive la médecine douce Donc je remercie les chercheurs Qui ont mis en valeur la beu-her dans leur labeur J'salive devant une bonne Sativa ou Indica! Et j'indique à mes potes Cannabis Repetita Joins-toi à nous quand le Svin-kels se met.. en pétard Joins-toi à nous quand le Svin-kels se met.. en pétard Sorti toujours chargé, dangereux et prêt à tuer Le gun est un shilom et la fumée sort du barillet J'vais capter mon barrio, la puros me cogne le cerveau Sous télé qué-blo, m'donne des visions Impossible de suivre le fil rouge de l'émission Une émission d'bon son, chargé ambiance keu-skon J'la kiffe comme une sucrerie J'en connais plus d'un qu'envie mon style de vie Fumer des bongs, boire des bocks, font des lyrics et des locks Ton époque délire, les délits font des loques Choque les bollocks collés en bloc de douze T'as l'blues en loosedé j'prône l'Europe des 12 grammes Ramène du flouze, brave la douane Mets-leur des doigts, aller-r'tour Paname-Amsterdam Amsterdam, pique-toi, écoule des grammes Et bourres et bourres-en tes tam-tam J'veux de la bombe Pour moi c'est chronique, de la grosse bombe atomique De skonk qui m'nique comme c'fist fonk fils J'veux qu'elle poisse comme du réglisse, qu'elle suinte Dans ma fente à stick pleine de feintes Lève ta pinte en l'honneur de cette plante venue d'ailleurs Que j'kiffe avec un bon vieil Earth, Wind Fire, la meilleure Ouais tu peux tèje tous tes vieux clopes ringards Maintenant qu'l'herbe pousse dans les placards x2 Joins-toi à nous quand le Svinkels se met en pétard Pour le Skonk Fonk des fêtards Sois pas du